--- a/output/Lagserien 2023 1-2. div.xlsx
+++ b/output/Lagserien 2023 1-2. div.xlsx
@@ -796,11 +796,11 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>(30/20)</t>
+          <t>(30/19)</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>22049</v>
+        <v>22081</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -964,11 +964,11 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>(26/14)</t>
+          <t>(27/13)</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>15083</v>
+        <v>15586</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -9674,18 +9674,18 @@
         <v>1958</v>
       </c>
       <c r="O198" s="15" t="n">
-        <v>10.85</v>
+        <v>11.11</v>
       </c>
       <c r="P198" s="7" t="n">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="Q198" s="7" t="inlineStr">
         <is>
-          <t>Reykjavik/ISL</t>
+          <t>Geithus</t>
         </is>
       </c>
       <c r="R198" s="16" t="n">
-        <v>24.02</v>
+        <v>25.06</v>
       </c>
       <c r="T198" s="5" t="n"/>
     </row>
@@ -9783,25 +9783,25 @@
       </c>
       <c r="M200" s="7" t="inlineStr">
         <is>
-          <t>Iver Løvgaard Faksvåg</t>
+          <t>Stein Tore Klungland</t>
         </is>
       </c>
       <c r="N200" s="7" t="n">
-        <v>2009</v>
+        <v>1958</v>
       </c>
       <c r="O200" s="15" t="n">
-        <v>4.97</v>
+        <v>4.98</v>
       </c>
       <c r="P200" s="7" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q200" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Geithus</t>
         </is>
       </c>
       <c r="R200" s="16" t="n">
-        <v>3.06</v>
+        <v>23.06</v>
       </c>
       <c r="T200" s="5" t="n"/>
     </row>
@@ -9855,7 +9855,7 @@
         </is>
       </c>
       <c r="P202" s="20" t="n">
-        <v>11327</v>
+        <v>11359</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
@@ -9895,7 +9895,7 @@
         </is>
       </c>
       <c r="P204" s="20" t="n">
-        <v>22049</v>
+        <v>22081</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -9919,7 +9919,7 @@
         </is>
       </c>
       <c r="M206" s="20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
@@ -15098,7 +15098,7 @@
       <c r="J331" s="5" t="n"/>
       <c r="L331" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M331" s="7" t="inlineStr">
@@ -15110,18 +15110,18 @@
         <v>1991</v>
       </c>
       <c r="O331" s="15" t="n">
-        <v>44.64</v>
+        <v>9.33</v>
       </c>
       <c r="P331" s="7" t="n">
-        <v>553</v>
+        <v>399</v>
       </c>
       <c r="Q331" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R331" s="16" t="n">
-        <v>4.06</v>
+        <v>28.06</v>
       </c>
       <c r="T331" s="5" t="n"/>
     </row>
@@ -15154,13 +15154,33 @@
         <v>21.01</v>
       </c>
       <c r="J332" s="5" t="n"/>
-      <c r="L332" s="14" t="n"/>
-      <c r="M332" s="7" t="n"/>
-      <c r="N332" s="7" t="n"/>
-      <c r="O332" s="7" t="n"/>
-      <c r="P332" s="7" t="n"/>
-      <c r="Q332" s="7" t="n"/>
-      <c r="R332" s="21" t="n"/>
+      <c r="L332" s="14" t="inlineStr">
+        <is>
+          <t>Spyd</t>
+        </is>
+      </c>
+      <c r="M332" s="7" t="inlineStr">
+        <is>
+          <t>Kjetil Stokke</t>
+        </is>
+      </c>
+      <c r="N332" s="7" t="n">
+        <v>1991</v>
+      </c>
+      <c r="O332" s="15" t="n">
+        <v>47.59</v>
+      </c>
+      <c r="P332" s="7" t="n">
+        <v>594</v>
+      </c>
+      <c r="Q332" s="7" t="inlineStr">
+        <is>
+          <t>Osterøy</t>
+        </is>
+      </c>
+      <c r="R332" s="16" t="n">
+        <v>28.06</v>
+      </c>
       <c r="T332" s="5" t="n"/>
     </row>
     <row r="333" ht="13" customHeight="1">
@@ -15279,7 +15299,7 @@
         </is>
       </c>
       <c r="M337" s="20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O337" s="19" t="inlineStr">
         <is>
@@ -15287,7 +15307,7 @@
         </is>
       </c>
       <c r="P337" s="20" t="n">
-        <v>7222</v>
+        <v>7662</v>
       </c>
       <c r="T337" s="5" t="n"/>
     </row>
@@ -16070,22 +16090,22 @@
       <c r="J354" s="5" t="n"/>
       <c r="L354" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M354" s="7" t="inlineStr">
         <is>
-          <t>Sander Solberg Hopsdal</t>
+          <t>Magnus Reigstad</t>
         </is>
       </c>
       <c r="N354" s="7" t="n">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="O354" s="15" t="n">
-        <v>1.27</v>
+        <v>34.73</v>
       </c>
       <c r="P354" s="7" t="n">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="Q354" s="7" t="inlineStr">
         <is>
@@ -16093,7 +16113,7 @@
         </is>
       </c>
       <c r="R354" s="16" t="n">
-        <v>6.03</v>
+        <v>28.06</v>
       </c>
       <c r="T354" s="5" t="n"/>
     </row>
@@ -16113,17 +16133,17 @@
       </c>
       <c r="M355" s="7" t="inlineStr">
         <is>
-          <t>Eric Myking</t>
+          <t>Sander Solberg Hopsdal</t>
         </is>
       </c>
       <c r="N355" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="O355" s="15" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P355" s="7" t="n">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="Q355" s="7" t="inlineStr">
         <is>
@@ -16131,7 +16151,7 @@
         </is>
       </c>
       <c r="R355" s="16" t="n">
-        <v>16.01</v>
+        <v>6.03</v>
       </c>
       <c r="T355" s="5" t="n"/>
     </row>
@@ -16146,22 +16166,22 @@
       <c r="J356" s="5" t="n"/>
       <c r="L356" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M356" s="7" t="inlineStr">
         <is>
-          <t>Benjamin Strand Blichfeldt</t>
+          <t>Eric Myking</t>
         </is>
       </c>
       <c r="N356" s="7" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="O356" s="15" t="n">
-        <v>8.529999999999999</v>
+        <v>1.26</v>
       </c>
       <c r="P356" s="7" t="n">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="Q356" s="7" t="inlineStr">
         <is>
@@ -16169,7 +16189,7 @@
         </is>
       </c>
       <c r="R356" s="16" t="n">
-        <v>10.05</v>
+        <v>16.01</v>
       </c>
       <c r="T356" s="5" t="n"/>
     </row>
@@ -16223,7 +16243,7 @@
         </is>
       </c>
       <c r="P358" s="20" t="n">
-        <v>7861</v>
+        <v>7924</v>
       </c>
       <c r="T358" s="5" t="n"/>
     </row>
@@ -16255,7 +16275,7 @@
         </is>
       </c>
       <c r="M360" s="20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O360" s="19" t="inlineStr">
         <is>
@@ -16263,7 +16283,7 @@
         </is>
       </c>
       <c r="P360" s="20" t="n">
-        <v>15083</v>
+        <v>15586</v>
       </c>
       <c r="T360" s="5" t="n"/>
     </row>
@@ -16287,7 +16307,7 @@
         </is>
       </c>
       <c r="M362" s="20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T362" s="5" t="n"/>
     </row>
@@ -16651,11 +16671,11 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>(25/9)</t>
+          <t>(25/10)</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>14859</v>
+        <v>14961</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -16739,7 +16759,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>12891</v>
+        <v>12899</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -24957,30 +24977,32 @@
       <c r="J203" s="5" t="n"/>
       <c r="L203" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M203" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Gudheim Haraldstad</t>
+          <t>Torstein Svendsen</t>
         </is>
       </c>
       <c r="N203" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O203" s="15" t="n">
-        <v>1.72</v>
+        <v>1966</v>
+      </c>
+      <c r="O203" s="17" t="inlineStr">
+        <is>
+          <t>17,07,30</t>
+        </is>
       </c>
       <c r="P203" s="7" t="n">
-        <v>579</v>
+        <v>522</v>
       </c>
       <c r="Q203" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Geithus</t>
         </is>
       </c>
       <c r="R203" s="16" t="n">
-        <v>12.05</v>
+        <v>23.06</v>
       </c>
       <c r="T203" s="5" t="n"/>
     </row>
@@ -25017,30 +25039,32 @@
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M204" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Gudheim Haraldstad</t>
+          <t>Torstein Svendsen</t>
         </is>
       </c>
       <c r="N204" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O204" s="15" t="n">
-        <v>5.65</v>
+        <v>1966</v>
+      </c>
+      <c r="O204" s="17" t="inlineStr">
+        <is>
+          <t>36,43,03</t>
+        </is>
       </c>
       <c r="P204" s="7" t="n">
-        <v>526</v>
+        <v>496</v>
       </c>
       <c r="Q204" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Geithus</t>
         </is>
       </c>
       <c r="R204" s="16" t="n">
-        <v>20.05</v>
+        <v>25.06</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -25075,30 +25099,30 @@
       <c r="J205" s="5" t="n"/>
       <c r="L205" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M205" s="7" t="inlineStr">
         <is>
-          <t>Oskar Stattin</t>
+          <t>Fredrik Gudheim Haraldstad</t>
         </is>
       </c>
       <c r="N205" s="7" t="n">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="O205" s="15" t="n">
-        <v>11.78</v>
+        <v>1.72</v>
       </c>
       <c r="P205" s="7" t="n">
-        <v>535</v>
+        <v>579</v>
       </c>
       <c r="Q205" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R205" s="16" t="n">
-        <v>12.02</v>
+        <v>12.05</v>
       </c>
       <c r="T205" s="5" t="n"/>
     </row>
@@ -25133,7 +25157,7 @@
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M206" s="7" t="inlineStr">
@@ -25145,18 +25169,18 @@
         <v>2006</v>
       </c>
       <c r="O206" s="15" t="n">
-        <v>2.76</v>
+        <v>11.78</v>
       </c>
       <c r="P206" s="7" t="n">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="Q206" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R206" s="16" t="n">
-        <v>19.04</v>
+        <v>12.02</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
@@ -25191,30 +25215,30 @@
       <c r="J207" s="5" t="n"/>
       <c r="L207" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M207" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Gudheim Haraldstad</t>
+          <t>Oskar Stattin</t>
         </is>
       </c>
       <c r="N207" s="7" t="n">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="O207" s="15" t="n">
-        <v>10.52</v>
+        <v>2.76</v>
       </c>
       <c r="P207" s="7" t="n">
-        <v>488</v>
+        <v>538</v>
       </c>
       <c r="Q207" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R207" s="16" t="n">
-        <v>24.06</v>
+        <v>19.04</v>
       </c>
       <c r="T207" s="5" t="n"/>
     </row>
@@ -25384,7 +25408,7 @@
         </is>
       </c>
       <c r="P211" s="20" t="n">
-        <v>7986</v>
+        <v>7990</v>
       </c>
       <c r="T211" s="5" t="n"/>
     </row>
@@ -25992,25 +26016,25 @@
       </c>
       <c r="M224" s="7" t="inlineStr">
         <is>
-          <t>Simon Kaarbø</t>
+          <t>Fredrik Gudheim Haraldstad</t>
         </is>
       </c>
       <c r="N224" s="7" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="O224" s="15" t="n">
-        <v>5.45</v>
+        <v>5.65</v>
       </c>
       <c r="P224" s="7" t="n">
-        <v>479</v>
+        <v>526</v>
       </c>
       <c r="Q224" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R224" s="16" t="n">
-        <v>24.06</v>
+        <v>20.05</v>
       </c>
       <c r="T224" s="5" t="n"/>
     </row>
@@ -26045,30 +26069,30 @@
       <c r="J225" s="5" t="n"/>
       <c r="L225" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M225" s="7" t="inlineStr">
         <is>
-          <t>Leif-Andreas Borgersen</t>
+          <t>Fredrik Gudheim Haraldstad</t>
         </is>
       </c>
       <c r="N225" s="7" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="O225" s="15" t="n">
-        <v>11.18</v>
+        <v>10.52</v>
       </c>
       <c r="P225" s="7" t="n">
-        <v>467</v>
+        <v>488</v>
       </c>
       <c r="Q225" s="7" t="inlineStr">
         <is>
-          <t>Narvik</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R225" s="16" t="n">
-        <v>9.06</v>
+        <v>24.06</v>
       </c>
       <c r="T225" s="5" t="n"/>
     </row>
@@ -26103,30 +26127,30 @@
       <c r="J226" s="5" t="n"/>
       <c r="L226" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M226" s="7" t="inlineStr">
         <is>
-          <t>Mathias Johansen</t>
+          <t>Simon Kaarbø</t>
         </is>
       </c>
       <c r="N226" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="O226" s="15" t="n">
-        <v>1.6</v>
+        <v>5.45</v>
       </c>
       <c r="P226" s="7" t="n">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="Q226" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="R226" s="16" t="n">
-        <v>12.02</v>
+        <v>24.06</v>
       </c>
       <c r="T226" s="5" t="n"/>
     </row>
@@ -26161,30 +26185,30 @@
       <c r="J227" s="5" t="n"/>
       <c r="L227" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M227" s="7" t="inlineStr">
         <is>
-          <t>Mathias Johansen</t>
+          <t>Leif-Andreas Borgersen</t>
         </is>
       </c>
       <c r="N227" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="O227" s="15" t="n">
-        <v>5.35</v>
+        <v>11.18</v>
       </c>
       <c r="P227" s="7" t="n">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="Q227" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Narvik</t>
         </is>
       </c>
       <c r="R227" s="16" t="n">
-        <v>11.02</v>
+        <v>9.06</v>
       </c>
       <c r="T227" s="5" t="n"/>
     </row>
@@ -26238,7 +26262,7 @@
         </is>
       </c>
       <c r="P229" s="20" t="n">
-        <v>6873</v>
+        <v>6971</v>
       </c>
       <c r="T229" s="5" t="n"/>
     </row>
@@ -26278,7 +26302,7 @@
         </is>
       </c>
       <c r="P231" s="20" t="n">
-        <v>14859</v>
+        <v>14961</v>
       </c>
       <c r="T231" s="5" t="n"/>
     </row>
@@ -26302,7 +26326,7 @@
         </is>
       </c>
       <c r="M233" s="20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T233" s="5" t="n"/>
     </row>
@@ -28815,18 +28839,18 @@
         <v>1960</v>
       </c>
       <c r="E297" s="15" t="n">
-        <v>4.55</v>
+        <v>4.58</v>
       </c>
       <c r="F297" s="7" t="n">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="G297" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Geithus</t>
         </is>
       </c>
       <c r="H297" s="16" t="n">
-        <v>28.01</v>
+        <v>23.06</v>
       </c>
       <c r="J297" s="5" t="n"/>
       <c r="L297" s="14" t="inlineStr">
@@ -29041,7 +29065,7 @@
         </is>
       </c>
       <c r="F305" s="20" t="n">
-        <v>5849</v>
+        <v>5857</v>
       </c>
       <c r="J305" s="5" t="n"/>
       <c r="L305" s="19" t="inlineStr">
@@ -29783,7 +29807,7 @@
         </is>
       </c>
       <c r="F325" s="20" t="n">
-        <v>12891</v>
+        <v>12899</v>
       </c>
       <c r="J325" s="5" t="n"/>
       <c r="L325" s="19" t="inlineStr">
@@ -30188,11 +30212,11 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>(30/16)</t>
+          <t>(30/17)</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>20814</v>
+        <v>20862</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -30304,7 +30328,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>16149</v>
+        <v>16154</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -39904,32 +39928,32 @@
       <c r="J224" s="5" t="n"/>
       <c r="L224" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M224" s="7" t="inlineStr">
         <is>
-          <t>Summer Thalya Steinsrud</t>
+          <t>Linn-Kristin Vibekken</t>
         </is>
       </c>
       <c r="N224" s="7" t="n">
-        <v>2001</v>
+        <v>1981</v>
       </c>
       <c r="O224" s="17" t="inlineStr">
         <is>
-          <t>1,07,43</t>
+          <t>20,23,25</t>
         </is>
       </c>
       <c r="P224" s="7" t="n">
-        <v>641</v>
+        <v>504</v>
       </c>
       <c r="Q224" s="7" t="inlineStr">
         <is>
-          <t>Corvallis/OR/USA</t>
+          <t>Geithus</t>
         </is>
       </c>
       <c r="R224" s="16" t="n">
-        <v>28.04</v>
+        <v>25.06</v>
       </c>
       <c r="T224" s="5" t="n"/>
     </row>
@@ -39964,30 +39988,32 @@
       <c r="J225" s="5" t="n"/>
       <c r="L225" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M225" s="7" t="inlineStr">
         <is>
-          <t>Hanna Rimstad</t>
+          <t>Summer Thalya Steinsrud</t>
         </is>
       </c>
       <c r="N225" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="O225" s="15" t="n">
-        <v>1.65</v>
+        <v>2001</v>
+      </c>
+      <c r="O225" s="17" t="inlineStr">
+        <is>
+          <t>1,07,43</t>
+        </is>
       </c>
       <c r="P225" s="7" t="n">
-        <v>732</v>
+        <v>641</v>
       </c>
       <c r="Q225" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Corvallis/OR/USA</t>
         </is>
       </c>
       <c r="R225" s="16" t="n">
-        <v>25.06</v>
+        <v>28.04</v>
       </c>
       <c r="T225" s="5" t="n"/>
     </row>
@@ -40022,30 +40048,30 @@
       <c r="J226" s="5" t="n"/>
       <c r="L226" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M226" s="7" t="inlineStr">
         <is>
-          <t>Birgitte Kjuus</t>
+          <t>Hanna Rimstad</t>
         </is>
       </c>
       <c r="N226" s="7" t="n">
-        <v>1999</v>
+        <v>2010</v>
       </c>
       <c r="O226" s="15" t="n">
-        <v>3.75</v>
+        <v>1.65</v>
       </c>
       <c r="P226" s="7" t="n">
-        <v>840</v>
+        <v>732</v>
       </c>
       <c r="Q226" s="7" t="inlineStr">
         <is>
-          <t>Ski</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R226" s="16" t="n">
-        <v>9.06</v>
+        <v>25.06</v>
       </c>
       <c r="T226" s="5" t="n"/>
     </row>
@@ -40080,30 +40106,30 @@
       <c r="J227" s="5" t="n"/>
       <c r="L227" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M227" s="7" t="inlineStr">
         <is>
-          <t>Frida Rimstad</t>
+          <t>Birgitte Kjuus</t>
         </is>
       </c>
       <c r="N227" s="7" t="n">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="O227" s="15" t="n">
-        <v>5.44</v>
+        <v>3.75</v>
       </c>
       <c r="P227" s="7" t="n">
-        <v>715</v>
+        <v>840</v>
       </c>
       <c r="Q227" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Ski</t>
         </is>
       </c>
       <c r="R227" s="16" t="n">
-        <v>4.06</v>
+        <v>9.06</v>
       </c>
       <c r="T227" s="5" t="n"/>
     </row>
@@ -40138,7 +40164,7 @@
       <c r="J228" s="5" t="n"/>
       <c r="L228" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M228" s="7" t="inlineStr">
@@ -40150,18 +40176,18 @@
         <v>2007</v>
       </c>
       <c r="O228" s="15" t="n">
-        <v>11.29</v>
+        <v>5.44</v>
       </c>
       <c r="P228" s="7" t="n">
-        <v>691</v>
+        <v>715</v>
       </c>
       <c r="Q228" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R228" s="16" t="n">
-        <v>2.07</v>
+        <v>4.06</v>
       </c>
       <c r="T228" s="5" t="n"/>
     </row>
@@ -40196,30 +40222,30 @@
       <c r="J229" s="5" t="n"/>
       <c r="L229" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M229" s="7" t="inlineStr">
         <is>
-          <t>Inger Lise Sundheim</t>
+          <t>Frida Rimstad</t>
         </is>
       </c>
       <c r="N229" s="7" t="n">
-        <v>1955</v>
+        <v>2007</v>
       </c>
       <c r="O229" s="15" t="n">
-        <v>2.3</v>
+        <v>11.29</v>
       </c>
       <c r="P229" s="7" t="n">
-        <v>496</v>
+        <v>691</v>
       </c>
       <c r="Q229" s="7" t="inlineStr">
         <is>
-          <t>Hvam</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R229" s="16" t="n">
-        <v>11.03</v>
+        <v>2.07</v>
       </c>
       <c r="T229" s="5" t="n"/>
     </row>
@@ -40389,7 +40415,7 @@
         </is>
       </c>
       <c r="P233" s="20" t="n">
-        <v>10957</v>
+        <v>10965</v>
       </c>
       <c r="T233" s="5" t="n"/>
     </row>
@@ -41256,30 +41282,30 @@
       <c r="J252" s="5" t="n"/>
       <c r="L252" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M252" s="7" t="inlineStr">
         <is>
-          <t>Hermine Marie Opsahl Torgersen</t>
+          <t>Inger Lise Sundheim</t>
         </is>
       </c>
       <c r="N252" s="7" t="n">
-        <v>2010</v>
+        <v>1955</v>
       </c>
       <c r="O252" s="15" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="P252" s="7" t="n">
-        <v>456</v>
+        <v>496</v>
       </c>
       <c r="Q252" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="R252" s="16" t="n">
-        <v>23.06</v>
+        <v>11.03</v>
       </c>
       <c r="T252" s="5" t="n"/>
     </row>
@@ -41333,7 +41359,7 @@
         </is>
       </c>
       <c r="P254" s="20" t="n">
-        <v>9857</v>
+        <v>9897</v>
       </c>
       <c r="T254" s="5" t="n"/>
     </row>
@@ -41373,7 +41399,7 @@
         </is>
       </c>
       <c r="P256" s="20" t="n">
-        <v>20814</v>
+        <v>20862</v>
       </c>
       <c r="T256" s="5" t="n"/>
     </row>
@@ -41397,7 +41423,7 @@
         </is>
       </c>
       <c r="M258" s="20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T258" s="5" t="n"/>
     </row>
@@ -45448,7 +45474,7 @@
       <c r="J353" s="5" t="n"/>
       <c r="L353" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M353" s="7" t="inlineStr">
@@ -45459,21 +45485,19 @@
       <c r="N353" s="7" t="n">
         <v>2011</v>
       </c>
-      <c r="O353" s="17" t="inlineStr">
-        <is>
-          <t>2,41,56</t>
-        </is>
+      <c r="O353" s="15" t="n">
+        <v>9.08</v>
       </c>
       <c r="P353" s="7" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="Q353" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Lyngdal</t>
         </is>
       </c>
       <c r="R353" s="16" t="n">
-        <v>3.06</v>
+        <v>4.07</v>
       </c>
       <c r="T353" s="5" t="n"/>
     </row>
@@ -45508,7 +45532,7 @@
       <c r="J354" s="5" t="n"/>
       <c r="L354" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M354" s="7" t="inlineStr">
@@ -45519,19 +45543,21 @@
       <c r="N354" s="7" t="n">
         <v>2011</v>
       </c>
-      <c r="O354" s="15" t="n">
-        <v>9.1</v>
+      <c r="O354" s="17" t="inlineStr">
+        <is>
+          <t>2,41,56</t>
+        </is>
       </c>
       <c r="P354" s="7" t="n">
         <v>450</v>
       </c>
       <c r="Q354" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R354" s="16" t="n">
-        <v>17.06</v>
+        <v>3.06</v>
       </c>
       <c r="T354" s="5" t="n"/>
     </row>
@@ -45701,7 +45727,7 @@
         </is>
       </c>
       <c r="P358" s="20" t="n">
-        <v>7427</v>
+        <v>7432</v>
       </c>
       <c r="T358" s="5" t="n"/>
     </row>
@@ -45741,7 +45767,7 @@
         </is>
       </c>
       <c r="P360" s="20" t="n">
-        <v>16149</v>
+        <v>16154</v>
       </c>
       <c r="T360" s="5" t="n"/>
     </row>
@@ -45900,25 +45926,25 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Kristiansands IF Friidrett</t>
+          <t>Fana IL</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>(25/12)</t>
+          <t>(25/14)</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>16088</v>
+        <v>16093</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>(5)</t>
+          <t>(14/1d)</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -45928,25 +45954,25 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Fana IL</t>
+          <t>Kristiansands IF Friidrett</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>(25/14)</t>
+          <t>(25/12)</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>16079</v>
+        <v>16088</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>(14/1d)</t>
+          <t>(5)</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Agder</t>
         </is>
       </c>
     </row>
@@ -46021,7 +46047,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>14309</v>
+        <v>14493</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -46334,7 +46360,7 @@
       </c>
       <c r="M2" s="7" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="P2" s="8" t="n">
@@ -46361,7 +46387,7 @@
       </c>
       <c r="M3" s="7" t="inlineStr">
         <is>
-          <t>Kristiansands IF Friidrett</t>
+          <t>Fana IL</t>
         </is>
       </c>
       <c r="T3" s="5" t="n"/>
@@ -46518,25 +46544,25 @@
       </c>
       <c r="M9" s="7" t="inlineStr">
         <is>
-          <t>Tora Ugland Damsgaard</t>
+          <t>Noélie Bjerke Laborie</t>
         </is>
       </c>
       <c r="N9" s="7" t="n">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="O9" s="15" t="n">
-        <v>8.19</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="P9" s="7" t="n">
-        <v>678</v>
+        <v>521</v>
       </c>
       <c r="Q9" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R9" s="16" t="n">
-        <v>11.02</v>
+        <v>3.06</v>
       </c>
       <c r="T9" s="5" t="n"/>
     </row>
@@ -46576,25 +46602,25 @@
       </c>
       <c r="M10" s="7" t="inlineStr">
         <is>
-          <t>Eline Heia</t>
+          <t>Noélie Bjerke Laborie</t>
         </is>
       </c>
       <c r="N10" s="7" t="n">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="O10" s="15" t="n">
-        <v>12.81</v>
+        <v>14.03</v>
       </c>
       <c r="P10" s="7" t="n">
-        <v>703</v>
+        <v>506</v>
       </c>
       <c r="Q10" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R10" s="16" t="n">
-        <v>28.06</v>
+        <v>4.06</v>
       </c>
       <c r="T10" s="5" t="n"/>
     </row>
@@ -46634,25 +46660,25 @@
       </c>
       <c r="M11" s="7" t="inlineStr">
         <is>
-          <t>Eline Heia</t>
+          <t>Noélie Bjerke Laborie</t>
         </is>
       </c>
       <c r="N11" s="7" t="n">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="O11" s="15" t="n">
-        <v>26.67</v>
+        <v>28.78</v>
       </c>
       <c r="P11" s="7" t="n">
-        <v>674</v>
+        <v>527</v>
       </c>
       <c r="Q11" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R11" s="16" t="n">
-        <v>16.06</v>
+        <v>2.06</v>
       </c>
       <c r="T11" s="5" t="n"/>
     </row>
@@ -46689,32 +46715,32 @@
       <c r="J12" s="5" t="n"/>
       <c r="L12" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M12" s="7" t="inlineStr">
         <is>
-          <t>Emma Frigstad-Thorkildsen</t>
+          <t>Mathea Galleberg</t>
         </is>
       </c>
       <c r="N12" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O12" s="17" t="inlineStr">
         <is>
-          <t>1,02,03</t>
+          <t>11,05,27</t>
         </is>
       </c>
       <c r="P12" s="7" t="n">
-        <v>617</v>
+        <v>579</v>
       </c>
       <c r="Q12" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R12" s="16" t="n">
-        <v>18.06</v>
+        <v>14.05</v>
       </c>
       <c r="T12" s="5" t="n"/>
     </row>
@@ -46751,32 +46777,32 @@
       <c r="J13" s="5" t="n"/>
       <c r="L13" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M13" s="7" t="inlineStr">
         <is>
-          <t>Linn Andrea Lindevik</t>
+          <t>Eli Anne Dvergsdal</t>
         </is>
       </c>
       <c r="N13" s="7" t="n">
-        <v>2004</v>
+        <v>1991</v>
       </c>
       <c r="O13" s="17" t="inlineStr">
         <is>
-          <t>2,25,74</t>
+          <t>16,50,90</t>
         </is>
       </c>
       <c r="P13" s="7" t="n">
-        <v>602</v>
+        <v>798</v>
       </c>
       <c r="Q13" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R13" s="16" t="n">
-        <v>18.03</v>
+        <v>28.06</v>
       </c>
       <c r="T13" s="5" t="n"/>
     </row>
@@ -46813,32 +46839,30 @@
       <c r="J14" s="5" t="n"/>
       <c r="L14" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M14" s="7" t="inlineStr">
         <is>
-          <t>Siren Amelia Seiler</t>
+          <t>Anna Qvale Sundstrøm</t>
         </is>
       </c>
       <c r="N14" s="7" t="n">
-        <v>1998</v>
-      </c>
-      <c r="O14" s="17" t="inlineStr">
-        <is>
-          <t>4,50,27</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="O14" s="15" t="n">
+        <v>1.45</v>
       </c>
       <c r="P14" s="7" t="n">
-        <v>664</v>
+        <v>565</v>
       </c>
       <c r="Q14" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R14" s="16" t="n">
-        <v>8.06</v>
+        <v>12.01</v>
       </c>
       <c r="T14" s="5" t="n"/>
     </row>
@@ -46873,32 +46897,30 @@
       <c r="J15" s="5" t="n"/>
       <c r="L15" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M15" s="7" t="inlineStr">
         <is>
-          <t>Tina Helen Bergem</t>
+          <t>Kitty Augusta Friele Faye</t>
         </is>
       </c>
       <c r="N15" s="7" t="n">
-        <v>1994</v>
-      </c>
-      <c r="O15" s="17" t="inlineStr">
-        <is>
-          <t>1,08,83</t>
-        </is>
+        <v>2002</v>
+      </c>
+      <c r="O15" s="15" t="n">
+        <v>4.36</v>
       </c>
       <c r="P15" s="7" t="n">
-        <v>611</v>
+        <v>985</v>
       </c>
       <c r="Q15" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Karlstad/SWE</t>
         </is>
       </c>
       <c r="R15" s="16" t="n">
-        <v>16.06</v>
+        <v>4.07</v>
       </c>
       <c r="T15" s="5" t="n"/>
     </row>
@@ -46933,30 +46955,30 @@
       <c r="J16" s="5" t="n"/>
       <c r="L16" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M16" s="7" t="inlineStr">
         <is>
-          <t>Julie Lunde</t>
+          <t>Frida Sætrum</t>
         </is>
       </c>
       <c r="N16" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="O16" s="15" t="n">
-        <v>1.44</v>
+        <v>5.09</v>
       </c>
       <c r="P16" s="7" t="n">
-        <v>556</v>
+        <v>638</v>
       </c>
       <c r="Q16" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R16" s="16" t="n">
-        <v>3.06</v>
+        <v>11.02</v>
       </c>
       <c r="T16" s="5" t="n"/>
     </row>
@@ -46991,30 +47013,30 @@
       <c r="J17" s="5" t="n"/>
       <c r="L17" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M17" s="7" t="inlineStr">
         <is>
-          <t>Marie Mollestad</t>
+          <t>Frida Sætrum</t>
         </is>
       </c>
       <c r="N17" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O17" s="15" t="n">
-        <v>5.22</v>
+        <v>11.24</v>
       </c>
       <c r="P17" s="7" t="n">
-        <v>666</v>
+        <v>686</v>
       </c>
       <c r="Q17" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R17" s="16" t="n">
-        <v>16.06</v>
+        <v>3.03</v>
       </c>
       <c r="T17" s="5" t="n"/>
     </row>
@@ -47049,22 +47071,22 @@
       <c r="J18" s="5" t="n"/>
       <c r="L18" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M18" s="7" t="inlineStr">
         <is>
-          <t>Tora Ugland Damsgaard</t>
+          <t>Kitty Augusta Friele Faye</t>
         </is>
       </c>
       <c r="N18" s="7" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="O18" s="15" t="n">
-        <v>9.9</v>
+        <v>2.54</v>
       </c>
       <c r="P18" s="7" t="n">
-        <v>548</v>
+        <v>655</v>
       </c>
       <c r="Q18" s="7" t="inlineStr">
         <is>
@@ -47072,7 +47094,7 @@
         </is>
       </c>
       <c r="R18" s="16" t="n">
-        <v>12.02</v>
+        <v>19.02</v>
       </c>
       <c r="T18" s="5" t="n"/>
     </row>
@@ -47107,30 +47129,30 @@
       <c r="J19" s="5" t="n"/>
       <c r="L19" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M19" s="7" t="inlineStr">
         <is>
-          <t>Marie Mollestad</t>
+          <t>Frida Rose Dixon</t>
         </is>
       </c>
       <c r="N19" s="7" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="O19" s="15" t="n">
-        <v>1.36</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="P19" s="7" t="n">
-        <v>722</v>
+        <v>575</v>
       </c>
       <c r="Q19" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R19" s="16" t="n">
-        <v>18.02</v>
+        <v>23.02</v>
       </c>
       <c r="T19" s="5" t="n"/>
     </row>
@@ -47165,30 +47187,30 @@
       <c r="J20" s="5" t="n"/>
       <c r="L20" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M20" s="7" t="inlineStr">
         <is>
-          <t>Marie Mollestad</t>
+          <t>Solveig Fredriksen</t>
         </is>
       </c>
       <c r="N20" s="7" t="n">
-        <v>2007</v>
+        <v>1992</v>
       </c>
       <c r="O20" s="15" t="n">
-        <v>2.47</v>
+        <v>49.72</v>
       </c>
       <c r="P20" s="7" t="n">
-        <v>612</v>
+        <v>858</v>
       </c>
       <c r="Q20" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R20" s="16" t="n">
-        <v>19.02</v>
+        <v>2.06</v>
       </c>
       <c r="T20" s="5" t="n"/>
     </row>
@@ -47223,30 +47245,30 @@
       <c r="J21" s="5" t="n"/>
       <c r="L21" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="M21" s="7" t="inlineStr">
         <is>
-          <t>Stella Weinberg</t>
+          <t>Solveig Fredriksen</t>
         </is>
       </c>
       <c r="N21" s="7" t="n">
-        <v>1998</v>
+        <v>1992</v>
       </c>
       <c r="O21" s="15" t="n">
-        <v>52.45</v>
+        <v>55.91</v>
       </c>
       <c r="P21" s="7" t="n">
-        <v>893</v>
+        <v>878</v>
       </c>
       <c r="Q21" s="7" t="inlineStr">
         <is>
-          <t>Austin/TX/USA</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R21" s="16" t="n">
-        <v>8.06</v>
+        <v>23.06</v>
       </c>
       <c r="T21" s="5" t="n"/>
     </row>
@@ -47300,7 +47322,7 @@
         </is>
       </c>
       <c r="P23" s="20" t="n">
-        <v>8546</v>
+        <v>8771</v>
       </c>
       <c r="T23" s="5" t="n"/>
     </row>
@@ -47433,30 +47455,30 @@
       <c r="J28" s="5" t="n"/>
       <c r="L28" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M28" s="7" t="inlineStr">
         <is>
-          <t>Emma Frigstad-Thorkildsen</t>
+          <t>Mathilde Handeland</t>
         </is>
       </c>
       <c r="N28" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="O28" s="15" t="n">
-        <v>26.77</v>
+        <v>3.6</v>
       </c>
       <c r="P28" s="7" t="n">
-        <v>667</v>
+        <v>806</v>
       </c>
       <c r="Q28" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="R28" s="16" t="n">
-        <v>14.05</v>
+        <v>10.06</v>
       </c>
       <c r="T28" s="5" t="n"/>
     </row>
@@ -47493,30 +47515,30 @@
       <c r="J29" s="5" t="n"/>
       <c r="L29" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M29" s="7" t="inlineStr">
         <is>
-          <t>Camilla Kristiane Mendes Uldal</t>
+          <t>Jennie Bos</t>
         </is>
       </c>
       <c r="N29" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O29" s="15" t="n">
-        <v>26.86</v>
+        <v>3.4</v>
       </c>
       <c r="P29" s="7" t="n">
-        <v>660</v>
+        <v>761</v>
       </c>
       <c r="Q29" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R29" s="16" t="n">
-        <v>16.06</v>
+        <v>3.06</v>
       </c>
       <c r="T29" s="5" t="n"/>
     </row>
@@ -47551,30 +47573,30 @@
       <c r="J30" s="5" t="n"/>
       <c r="L30" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M30" s="7" t="inlineStr">
         <is>
-          <t>Lana Weinberg</t>
+          <t>Tiril Malm Sunde</t>
         </is>
       </c>
       <c r="N30" s="7" t="n">
-        <v>2005</v>
+        <v>1997</v>
       </c>
       <c r="O30" s="15" t="n">
-        <v>36.99</v>
+        <v>3.35</v>
       </c>
       <c r="P30" s="7" t="n">
-        <v>655</v>
+        <v>750</v>
       </c>
       <c r="Q30" s="7" t="inlineStr">
         <is>
-          <t>Halle/GER</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R30" s="16" t="n">
-        <v>20.05</v>
+        <v>11.02</v>
       </c>
       <c r="T30" s="5" t="n"/>
     </row>
@@ -47609,30 +47631,30 @@
       <c r="J31" s="5" t="n"/>
       <c r="L31" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M31" s="7" t="inlineStr">
         <is>
-          <t>Emma Frigstad-Thorkildsen</t>
+          <t>Mathilde Handeland</t>
         </is>
       </c>
       <c r="N31" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="O31" s="15" t="n">
-        <v>13.17</v>
+        <v>11.08</v>
       </c>
       <c r="P31" s="7" t="n">
-        <v>642</v>
+        <v>669</v>
       </c>
       <c r="Q31" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R31" s="16" t="n">
-        <v>14.05</v>
+        <v>3.03</v>
       </c>
       <c r="T31" s="5" t="n"/>
     </row>
@@ -47667,30 +47689,30 @@
       <c r="J32" s="5" t="n"/>
       <c r="L32" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M32" s="7" t="inlineStr">
         <is>
-          <t>Camilla Kristiane Mendes Uldal</t>
+          <t>Thea Emilie Turøy</t>
         </is>
       </c>
       <c r="N32" s="7" t="n">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="O32" s="15" t="n">
-        <v>13.2</v>
+        <v>1.45</v>
       </c>
       <c r="P32" s="7" t="n">
-        <v>637</v>
+        <v>565</v>
       </c>
       <c r="Q32" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R32" s="16" t="n">
-        <v>14.05</v>
+        <v>13.05</v>
       </c>
       <c r="T32" s="5" t="n"/>
     </row>
@@ -47725,30 +47747,30 @@
       <c r="J33" s="5" t="n"/>
       <c r="L33" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M33" s="7" t="inlineStr">
         <is>
-          <t>Tora Ugland Damsgaard</t>
+          <t>Sofie Helén Løvendahl Strøm</t>
         </is>
       </c>
       <c r="N33" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="O33" s="15" t="n">
-        <v>5.04</v>
+        <v>10</v>
       </c>
       <c r="P33" s="7" t="n">
-        <v>627</v>
+        <v>558</v>
       </c>
       <c r="Q33" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R33" s="16" t="n">
-        <v>22.01</v>
+        <v>2.06</v>
       </c>
       <c r="T33" s="5" t="n"/>
     </row>
@@ -47783,30 +47805,30 @@
       <c r="J34" s="5" t="n"/>
       <c r="L34" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M34" s="7" t="inlineStr">
         <is>
-          <t>Marie Mollestad</t>
+          <t>Anna Qvale Sundstrøm</t>
         </is>
       </c>
       <c r="N34" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O34" s="15" t="n">
-        <v>27.36</v>
+        <v>2.45</v>
       </c>
       <c r="P34" s="7" t="n">
-        <v>624</v>
+        <v>547</v>
       </c>
       <c r="Q34" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R34" s="16" t="n">
-        <v>17.06</v>
+        <v>11.02</v>
       </c>
       <c r="T34" s="5" t="n"/>
     </row>
@@ -47843,30 +47865,30 @@
       <c r="J35" s="5" t="n"/>
       <c r="L35" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M35" s="7" t="inlineStr">
         <is>
-          <t>Eline Heia</t>
+          <t>Anna Qvale Sundstrøm</t>
         </is>
       </c>
       <c r="N35" s="7" t="n">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="O35" s="15" t="n">
-        <v>8.42</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="P35" s="7" t="n">
-        <v>614</v>
+        <v>547</v>
       </c>
       <c r="Q35" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R35" s="16" t="n">
-        <v>28.01</v>
+        <v>14.05</v>
       </c>
       <c r="T35" s="5" t="n"/>
     </row>
@@ -47901,30 +47923,30 @@
       <c r="J36" s="5" t="n"/>
       <c r="L36" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M36" s="7" t="inlineStr">
         <is>
-          <t>Tora Ugland Damsgaard</t>
+          <t>Jennie Bos</t>
         </is>
       </c>
       <c r="N36" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="O36" s="15" t="n">
-        <v>1.25</v>
+        <v>9.84</v>
       </c>
       <c r="P36" s="7" t="n">
-        <v>609</v>
+        <v>542</v>
       </c>
       <c r="Q36" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R36" s="16" t="n">
-        <v>18.02</v>
+        <v>12.02</v>
       </c>
       <c r="T36" s="5" t="n"/>
     </row>
@@ -47959,30 +47981,30 @@
       <c r="J37" s="5" t="n"/>
       <c r="L37" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M37" s="7" t="inlineStr">
         <is>
-          <t>Camilla Kristiane Mendes Uldal</t>
+          <t>Embla Adele Østreim Øina</t>
         </is>
       </c>
       <c r="N37" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="O37" s="15" t="n">
-        <v>4.93</v>
+        <v>2.42</v>
       </c>
       <c r="P37" s="7" t="n">
-        <v>603</v>
+        <v>540</v>
       </c>
       <c r="Q37" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R37" s="16" t="n">
-        <v>18.06</v>
+        <v>23.02</v>
       </c>
       <c r="T37" s="5" t="n"/>
     </row>
@@ -48022,25 +48044,25 @@
       </c>
       <c r="M38" s="7" t="inlineStr">
         <is>
-          <t>Emma Frigstad-Thorkildsen</t>
+          <t>Thea Emilie Turøy</t>
         </is>
       </c>
       <c r="N38" s="7" t="n">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="O38" s="15" t="n">
-        <v>8.460000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="P38" s="7" t="n">
-        <v>603</v>
+        <v>519</v>
       </c>
       <c r="Q38" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R38" s="16" t="n">
-        <v>28.01</v>
+        <v>3.06</v>
       </c>
       <c r="T38" s="5" t="n"/>
     </row>
@@ -48075,32 +48097,30 @@
       <c r="J39" s="5" t="n"/>
       <c r="L39" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M39" s="7" t="inlineStr">
         <is>
-          <t>Amalie Heisel Westgaard</t>
+          <t>Sofie Helén Løvendahl Strøm</t>
         </is>
       </c>
       <c r="N39" s="7" t="n">
         <v>2007</v>
       </c>
-      <c r="O39" s="17" t="inlineStr">
-        <is>
-          <t>2,25,80</t>
-        </is>
+      <c r="O39" s="15" t="n">
+        <v>1.4</v>
       </c>
       <c r="P39" s="7" t="n">
-        <v>601</v>
+        <v>518</v>
       </c>
       <c r="Q39" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R39" s="16" t="n">
-        <v>18.03</v>
+        <v>12.01</v>
       </c>
       <c r="T39" s="5" t="n"/>
     </row>
@@ -48154,7 +48174,7 @@
         </is>
       </c>
       <c r="P41" s="20" t="n">
-        <v>7542</v>
+        <v>7322</v>
       </c>
       <c r="T41" s="5" t="n"/>
     </row>
@@ -48194,7 +48214,7 @@
         </is>
       </c>
       <c r="P43" s="20" t="n">
-        <v>16088</v>
+        <v>16093</v>
       </c>
       <c r="T43" s="5" t="n"/>
     </row>
@@ -48218,7 +48238,7 @@
         </is>
       </c>
       <c r="M45" s="20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T45" s="5" t="n"/>
     </row>
@@ -48260,7 +48280,7 @@
       </c>
       <c r="C49" s="7" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Agder</t>
         </is>
       </c>
       <c r="F49" s="8" t="n">
@@ -48290,7 +48310,7 @@
       </c>
       <c r="C50" s="7" t="inlineStr">
         <is>
-          <t>Fana IL</t>
+          <t>Kristiansands IF Friidrett</t>
         </is>
       </c>
       <c r="J50" s="5" t="n"/>
@@ -48430,25 +48450,25 @@
       </c>
       <c r="C56" s="7" t="inlineStr">
         <is>
-          <t>Noélie Bjerke Laborie</t>
+          <t>Tora Ugland Damsgaard</t>
         </is>
       </c>
       <c r="D56" s="7" t="n">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="E56" s="15" t="n">
-        <v>8.789999999999999</v>
+        <v>8.19</v>
       </c>
       <c r="F56" s="7" t="n">
-        <v>521</v>
+        <v>678</v>
       </c>
       <c r="G56" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H56" s="16" t="n">
-        <v>3.06</v>
+        <v>11.02</v>
       </c>
       <c r="J56" s="5" t="n"/>
       <c r="L56" s="14" t="inlineStr">
@@ -48488,25 +48508,25 @@
       </c>
       <c r="C57" s="7" t="inlineStr">
         <is>
-          <t>Noélie Bjerke Laborie</t>
+          <t>Eline Heia</t>
         </is>
       </c>
       <c r="D57" s="7" t="n">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="E57" s="15" t="n">
-        <v>14.03</v>
+        <v>12.81</v>
       </c>
       <c r="F57" s="7" t="n">
-        <v>506</v>
+        <v>703</v>
       </c>
       <c r="G57" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H57" s="16" t="n">
-        <v>4.06</v>
+        <v>28.06</v>
       </c>
       <c r="J57" s="5" t="n"/>
       <c r="L57" s="14" t="inlineStr">
@@ -48546,25 +48566,25 @@
       </c>
       <c r="C58" s="7" t="inlineStr">
         <is>
-          <t>Noélie Bjerke Laborie</t>
+          <t>Eline Heia</t>
         </is>
       </c>
       <c r="D58" s="7" t="n">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="E58" s="15" t="n">
-        <v>28.78</v>
+        <v>26.67</v>
       </c>
       <c r="F58" s="7" t="n">
-        <v>527</v>
+        <v>674</v>
       </c>
       <c r="G58" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H58" s="16" t="n">
-        <v>2.06</v>
+        <v>16.06</v>
       </c>
       <c r="J58" s="5" t="n"/>
       <c r="L58" s="14" t="inlineStr">
@@ -48599,32 +48619,32 @@
     <row r="59" ht="13" customHeight="1">
       <c r="B59" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C59" s="7" t="inlineStr">
         <is>
-          <t>Mathea Galleberg</t>
+          <t>Emma Frigstad-Thorkildsen</t>
         </is>
       </c>
       <c r="D59" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E59" s="17" t="inlineStr">
         <is>
-          <t>11,05,27</t>
+          <t>1,02,03</t>
         </is>
       </c>
       <c r="F59" s="7" t="n">
-        <v>579</v>
+        <v>617</v>
       </c>
       <c r="G59" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H59" s="16" t="n">
-        <v>14.05</v>
+        <v>18.06</v>
       </c>
       <c r="J59" s="5" t="n"/>
       <c r="L59" s="14" t="inlineStr">
@@ -48661,32 +48681,32 @@
     <row r="60" ht="13" customHeight="1">
       <c r="B60" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C60" s="7" t="inlineStr">
         <is>
-          <t>Eli Anne Dvergsdal</t>
+          <t>Linn Andrea Lindevik</t>
         </is>
       </c>
       <c r="D60" s="7" t="n">
-        <v>1991</v>
+        <v>2004</v>
       </c>
       <c r="E60" s="17" t="inlineStr">
         <is>
-          <t>16,50,90</t>
+          <t>2,25,74</t>
         </is>
       </c>
       <c r="F60" s="7" t="n">
-        <v>798</v>
+        <v>602</v>
       </c>
       <c r="G60" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H60" s="16" t="n">
-        <v>28.06</v>
+        <v>18.03</v>
       </c>
       <c r="J60" s="5" t="n"/>
       <c r="L60" s="14" t="inlineStr">
@@ -48723,30 +48743,32 @@
     <row r="61" ht="13" customHeight="1">
       <c r="B61" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C61" s="7" t="inlineStr">
         <is>
-          <t>Anna Qvale Sundstrøm</t>
+          <t>Siren Amelia Seiler</t>
         </is>
       </c>
       <c r="D61" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E61" s="15" t="n">
-        <v>1.45</v>
+        <v>1998</v>
+      </c>
+      <c r="E61" s="17" t="inlineStr">
+        <is>
+          <t>4,50,27</t>
+        </is>
       </c>
       <c r="F61" s="7" t="n">
-        <v>565</v>
+        <v>664</v>
       </c>
       <c r="G61" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H61" s="16" t="n">
-        <v>12.01</v>
+        <v>8.06</v>
       </c>
       <c r="J61" s="5" t="n"/>
       <c r="L61" s="14" t="inlineStr">
@@ -48783,22 +48805,24 @@
     <row r="62" ht="13" customHeight="1">
       <c r="B62" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="C62" s="7" t="inlineStr">
         <is>
-          <t>Kitty Augusta Friele Faye</t>
+          <t>Tina Helen Bergem</t>
         </is>
       </c>
       <c r="D62" s="7" t="n">
-        <v>2002</v>
-      </c>
-      <c r="E62" s="15" t="n">
-        <v>4.3</v>
+        <v>1994</v>
+      </c>
+      <c r="E62" s="17" t="inlineStr">
+        <is>
+          <t>1,08,83</t>
+        </is>
       </c>
       <c r="F62" s="7" t="n">
-        <v>971</v>
+        <v>611</v>
       </c>
       <c r="G62" s="7" t="inlineStr">
         <is>
@@ -48806,7 +48830,7 @@
         </is>
       </c>
       <c r="H62" s="16" t="n">
-        <v>18.02</v>
+        <v>16.06</v>
       </c>
       <c r="J62" s="5" t="n"/>
       <c r="L62" s="14" t="inlineStr">
@@ -48841,30 +48865,30 @@
     <row r="63" ht="13" customHeight="1">
       <c r="B63" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C63" s="7" t="inlineStr">
         <is>
-          <t>Frida Sætrum</t>
+          <t>Julie Lunde</t>
         </is>
       </c>
       <c r="D63" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E63" s="15" t="n">
-        <v>5.09</v>
+        <v>1.44</v>
       </c>
       <c r="F63" s="7" t="n">
-        <v>638</v>
+        <v>556</v>
       </c>
       <c r="G63" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H63" s="16" t="n">
-        <v>11.02</v>
+        <v>3.06</v>
       </c>
       <c r="J63" s="5" t="n"/>
       <c r="L63" s="14" t="inlineStr">
@@ -48899,30 +48923,30 @@
     <row r="64" ht="13" customHeight="1">
       <c r="B64" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C64" s="7" t="inlineStr">
         <is>
-          <t>Frida Sætrum</t>
+          <t>Marie Mollestad</t>
         </is>
       </c>
       <c r="D64" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E64" s="15" t="n">
-        <v>11.24</v>
+        <v>5.22</v>
       </c>
       <c r="F64" s="7" t="n">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="G64" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H64" s="16" t="n">
-        <v>3.03</v>
+        <v>16.06</v>
       </c>
       <c r="J64" s="5" t="n"/>
       <c r="L64" s="14" t="inlineStr">
@@ -48957,22 +48981,22 @@
     <row r="65" ht="13" customHeight="1">
       <c r="B65" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C65" s="7" t="inlineStr">
         <is>
-          <t>Kitty Augusta Friele Faye</t>
+          <t>Tora Ugland Damsgaard</t>
         </is>
       </c>
       <c r="D65" s="7" t="n">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="E65" s="15" t="n">
-        <v>2.54</v>
+        <v>9.9</v>
       </c>
       <c r="F65" s="7" t="n">
-        <v>655</v>
+        <v>548</v>
       </c>
       <c r="G65" s="7" t="inlineStr">
         <is>
@@ -48980,7 +49004,7 @@
         </is>
       </c>
       <c r="H65" s="16" t="n">
-        <v>19.02</v>
+        <v>12.02</v>
       </c>
       <c r="J65" s="5" t="n"/>
       <c r="L65" s="14" t="inlineStr">
@@ -49015,30 +49039,30 @@
     <row r="66" ht="13" customHeight="1">
       <c r="B66" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C66" s="7" t="inlineStr">
         <is>
-          <t>Frida Rose Dixon</t>
+          <t>Marie Mollestad</t>
         </is>
       </c>
       <c r="D66" s="7" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E66" s="15" t="n">
-        <v>9.779999999999999</v>
+        <v>1.36</v>
       </c>
       <c r="F66" s="7" t="n">
-        <v>575</v>
+        <v>722</v>
       </c>
       <c r="G66" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H66" s="16" t="n">
-        <v>23.02</v>
+        <v>18.02</v>
       </c>
       <c r="J66" s="5" t="n"/>
       <c r="L66" s="14" t="inlineStr">
@@ -49073,30 +49097,30 @@
     <row r="67" ht="13" customHeight="1">
       <c r="B67" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C67" s="7" t="inlineStr">
         <is>
-          <t>Solveig Fredriksen</t>
+          <t>Marie Mollestad</t>
         </is>
       </c>
       <c r="D67" s="7" t="n">
-        <v>1992</v>
+        <v>2007</v>
       </c>
       <c r="E67" s="15" t="n">
-        <v>49.72</v>
+        <v>2.47</v>
       </c>
       <c r="F67" s="7" t="n">
-        <v>858</v>
+        <v>612</v>
       </c>
       <c r="G67" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H67" s="16" t="n">
-        <v>2.06</v>
+        <v>19.02</v>
       </c>
       <c r="J67" s="5" t="n"/>
       <c r="L67" s="14" t="inlineStr">
@@ -49131,30 +49155,30 @@
     <row r="68" ht="13" customHeight="1">
       <c r="B68" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C68" s="7" t="inlineStr">
         <is>
-          <t>Solveig Fredriksen</t>
+          <t>Stella Weinberg</t>
         </is>
       </c>
       <c r="D68" s="7" t="n">
-        <v>1992</v>
+        <v>1998</v>
       </c>
       <c r="E68" s="15" t="n">
-        <v>55.91</v>
+        <v>52.45</v>
       </c>
       <c r="F68" s="7" t="n">
-        <v>878</v>
+        <v>893</v>
       </c>
       <c r="G68" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Austin/TX/USA</t>
         </is>
       </c>
       <c r="H68" s="16" t="n">
-        <v>23.06</v>
+        <v>8.06</v>
       </c>
       <c r="J68" s="5" t="n"/>
       <c r="L68" s="14" t="inlineStr">
@@ -49219,7 +49243,7 @@
         </is>
       </c>
       <c r="F70" s="20" t="n">
-        <v>8757</v>
+        <v>8546</v>
       </c>
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="19" t="inlineStr">
@@ -49339,30 +49363,30 @@
     <row r="75" ht="13" customHeight="1">
       <c r="B75" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C75" s="7" t="inlineStr">
         <is>
-          <t>Mathilde Handeland</t>
+          <t>Emma Frigstad-Thorkildsen</t>
         </is>
       </c>
       <c r="D75" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E75" s="15" t="n">
-        <v>3.6</v>
+        <v>26.77</v>
       </c>
       <c r="F75" s="7" t="n">
-        <v>806</v>
+        <v>667</v>
       </c>
       <c r="G75" s="7" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H75" s="16" t="n">
-        <v>10.06</v>
+        <v>14.05</v>
       </c>
       <c r="J75" s="5" t="n"/>
       <c r="L75" s="14" t="inlineStr">
@@ -49397,30 +49421,30 @@
     <row r="76" ht="13" customHeight="1">
       <c r="B76" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C76" s="7" t="inlineStr">
         <is>
-          <t>Jennie Bos</t>
+          <t>Camilla Kristiane Mendes Uldal</t>
         </is>
       </c>
       <c r="D76" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E76" s="15" t="n">
-        <v>3.4</v>
+        <v>26.86</v>
       </c>
       <c r="F76" s="7" t="n">
-        <v>761</v>
+        <v>660</v>
       </c>
       <c r="G76" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H76" s="16" t="n">
-        <v>3.06</v>
+        <v>16.06</v>
       </c>
       <c r="J76" s="5" t="n"/>
       <c r="L76" s="14" t="inlineStr">
@@ -49455,30 +49479,30 @@
     <row r="77" ht="13" customHeight="1">
       <c r="B77" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C77" s="7" t="inlineStr">
         <is>
-          <t>Tiril Malm Sunde</t>
+          <t>Lana Weinberg</t>
         </is>
       </c>
       <c r="D77" s="7" t="n">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="E77" s="15" t="n">
-        <v>3.35</v>
+        <v>36.99</v>
       </c>
       <c r="F77" s="7" t="n">
-        <v>750</v>
+        <v>655</v>
       </c>
       <c r="G77" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Halle/GER</t>
         </is>
       </c>
       <c r="H77" s="16" t="n">
-        <v>11.02</v>
+        <v>20.05</v>
       </c>
       <c r="J77" s="5" t="n"/>
       <c r="L77" s="14" t="inlineStr">
@@ -49513,30 +49537,30 @@
     <row r="78" ht="13" customHeight="1">
       <c r="B78" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C78" s="7" t="inlineStr">
         <is>
-          <t>Mathilde Handeland</t>
+          <t>Emma Frigstad-Thorkildsen</t>
         </is>
       </c>
       <c r="D78" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E78" s="15" t="n">
-        <v>11.08</v>
+        <v>13.17</v>
       </c>
       <c r="F78" s="7" t="n">
-        <v>669</v>
+        <v>642</v>
       </c>
       <c r="G78" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H78" s="16" t="n">
-        <v>3.03</v>
+        <v>14.05</v>
       </c>
       <c r="J78" s="5" t="n"/>
       <c r="L78" s="14" t="inlineStr">
@@ -49571,30 +49595,30 @@
     <row r="79" ht="13" customHeight="1">
       <c r="B79" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C79" s="7" t="inlineStr">
         <is>
-          <t>Thea Emilie Turøy</t>
+          <t>Camilla Kristiane Mendes Uldal</t>
         </is>
       </c>
       <c r="D79" s="7" t="n">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="E79" s="15" t="n">
-        <v>1.45</v>
+        <v>13.2</v>
       </c>
       <c r="F79" s="7" t="n">
-        <v>565</v>
+        <v>637</v>
       </c>
       <c r="G79" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H79" s="16" t="n">
-        <v>13.05</v>
+        <v>14.05</v>
       </c>
       <c r="J79" s="5" t="n"/>
       <c r="L79" s="14" t="inlineStr">
@@ -49629,30 +49653,30 @@
     <row r="80" ht="13" customHeight="1">
       <c r="B80" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C80" s="7" t="inlineStr">
         <is>
-          <t>Sofie Helén Løvendahl Strøm</t>
+          <t>Tora Ugland Damsgaard</t>
         </is>
       </c>
       <c r="D80" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E80" s="15" t="n">
-        <v>10</v>
+        <v>5.04</v>
       </c>
       <c r="F80" s="7" t="n">
-        <v>558</v>
+        <v>627</v>
       </c>
       <c r="G80" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H80" s="16" t="n">
-        <v>2.06</v>
+        <v>22.01</v>
       </c>
       <c r="J80" s="5" t="n"/>
       <c r="L80" s="14" t="inlineStr">
@@ -49687,30 +49711,30 @@
     <row r="81" ht="13" customHeight="1">
       <c r="B81" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C81" s="7" t="inlineStr">
         <is>
-          <t>Anna Qvale Sundstrøm</t>
+          <t>Marie Mollestad</t>
         </is>
       </c>
       <c r="D81" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E81" s="15" t="n">
-        <v>2.45</v>
+        <v>27.36</v>
       </c>
       <c r="F81" s="7" t="n">
-        <v>547</v>
+        <v>624</v>
       </c>
       <c r="G81" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H81" s="16" t="n">
-        <v>11.02</v>
+        <v>17.06</v>
       </c>
       <c r="J81" s="5" t="n"/>
       <c r="L81" s="14" t="inlineStr">
@@ -49745,30 +49769,30 @@
     <row r="82" ht="13" customHeight="1">
       <c r="B82" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C82" s="7" t="inlineStr">
         <is>
-          <t>Anna Qvale Sundstrøm</t>
+          <t>Eline Heia</t>
         </is>
       </c>
       <c r="D82" s="7" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="E82" s="15" t="n">
-        <v>9.890000000000001</v>
+        <v>8.42</v>
       </c>
       <c r="F82" s="7" t="n">
-        <v>547</v>
+        <v>614</v>
       </c>
       <c r="G82" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H82" s="16" t="n">
-        <v>14.05</v>
+        <v>28.01</v>
       </c>
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="14" t="inlineStr">
@@ -49803,30 +49827,30 @@
     <row r="83" ht="13" customHeight="1">
       <c r="B83" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C83" s="7" t="inlineStr">
         <is>
-          <t>Jennie Bos</t>
+          <t>Tora Ugland Damsgaard</t>
         </is>
       </c>
       <c r="D83" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E83" s="15" t="n">
-        <v>9.84</v>
+        <v>1.25</v>
       </c>
       <c r="F83" s="7" t="n">
-        <v>542</v>
+        <v>609</v>
       </c>
       <c r="G83" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H83" s="16" t="n">
-        <v>12.02</v>
+        <v>18.02</v>
       </c>
       <c r="J83" s="5" t="n"/>
       <c r="L83" s="14" t="inlineStr">
@@ -49861,30 +49885,30 @@
     <row r="84" ht="13" customHeight="1">
       <c r="B84" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C84" s="7" t="inlineStr">
         <is>
-          <t>Embla Adele Østreim Øina</t>
+          <t>Camilla Kristiane Mendes Uldal</t>
         </is>
       </c>
       <c r="D84" s="7" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="E84" s="15" t="n">
-        <v>2.42</v>
+        <v>4.93</v>
       </c>
       <c r="F84" s="7" t="n">
-        <v>540</v>
+        <v>603</v>
       </c>
       <c r="G84" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H84" s="16" t="n">
-        <v>23.02</v>
+        <v>18.06</v>
       </c>
       <c r="J84" s="5" t="n"/>
       <c r="L84" s="14" t="inlineStr">
@@ -49924,25 +49948,25 @@
       </c>
       <c r="C85" s="7" t="inlineStr">
         <is>
-          <t>Thea Emilie Turøy</t>
+          <t>Emma Frigstad-Thorkildsen</t>
         </is>
       </c>
       <c r="D85" s="7" t="n">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="E85" s="15" t="n">
-        <v>8.800000000000001</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="F85" s="7" t="n">
-        <v>519</v>
+        <v>603</v>
       </c>
       <c r="G85" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H85" s="16" t="n">
-        <v>3.06</v>
+        <v>28.01</v>
       </c>
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
@@ -49977,30 +50001,32 @@
     <row r="86" ht="13" customHeight="1">
       <c r="B86" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C86" s="7" t="inlineStr">
         <is>
-          <t>Sofie Helén Løvendahl Strøm</t>
+          <t>Amalie Heisel Westgaard</t>
         </is>
       </c>
       <c r="D86" s="7" t="n">
         <v>2007</v>
       </c>
-      <c r="E86" s="15" t="n">
-        <v>1.4</v>
+      <c r="E86" s="17" t="inlineStr">
+        <is>
+          <t>2,25,80</t>
+        </is>
       </c>
       <c r="F86" s="7" t="n">
-        <v>518</v>
+        <v>601</v>
       </c>
       <c r="G86" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H86" s="16" t="n">
-        <v>12.01</v>
+        <v>18.03</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="14" t="inlineStr">
@@ -50065,7 +50091,7 @@
         </is>
       </c>
       <c r="F88" s="20" t="n">
-        <v>7322</v>
+        <v>7542</v>
       </c>
       <c r="J88" s="5" t="n"/>
       <c r="L88" s="19" t="inlineStr">
@@ -50105,7 +50131,7 @@
         </is>
       </c>
       <c r="F90" s="20" t="n">
-        <v>16079</v>
+        <v>16088</v>
       </c>
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="19" t="inlineStr">
@@ -50137,7 +50163,7 @@
         </is>
       </c>
       <c r="C92" s="20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J92" s="5" t="n"/>
       <c r="L92" s="19" t="inlineStr">
@@ -50919,30 +50945,30 @@
       <c r="J112" s="5" t="n"/>
       <c r="L112" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M112" s="7" t="inlineStr">
         <is>
-          <t>Helene Breda Dagestad</t>
+          <t>Maylem Lauvstad</t>
         </is>
       </c>
       <c r="N112" s="7" t="n">
-        <v>2008</v>
+        <v>1973</v>
       </c>
       <c r="O112" s="15" t="n">
-        <v>1.1</v>
+        <v>2.22</v>
       </c>
       <c r="P112" s="7" t="n">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="Q112" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Askim</t>
         </is>
       </c>
       <c r="R112" s="16" t="n">
-        <v>30.01</v>
+        <v>7.01</v>
       </c>
       <c r="T112" s="5" t="n"/>
     </row>
@@ -50977,30 +51003,30 @@
       <c r="J113" s="5" t="n"/>
       <c r="L113" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M113" s="7" t="inlineStr">
         <is>
-          <t>Maylem Lauvstad</t>
+          <t>Ida Yessica Nesse</t>
         </is>
       </c>
       <c r="N113" s="7" t="n">
-        <v>1973</v>
+        <v>1992</v>
       </c>
       <c r="O113" s="15" t="n">
-        <v>2.22</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="P113" s="7" t="n">
-        <v>435</v>
+        <v>571</v>
       </c>
       <c r="Q113" s="7" t="inlineStr">
         <is>
-          <t>Askim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R113" s="16" t="n">
-        <v>7.01</v>
+        <v>16.03</v>
       </c>
       <c r="T113" s="5" t="n"/>
     </row>
@@ -51035,22 +51061,22 @@
       <c r="J114" s="5" t="n"/>
       <c r="L114" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M114" s="7" t="inlineStr">
         <is>
-          <t>Ida Yessica Nesse</t>
+          <t>Ida Petersen Amble</t>
         </is>
       </c>
       <c r="N114" s="7" t="n">
-        <v>1992</v>
+        <v>2006</v>
       </c>
       <c r="O114" s="15" t="n">
-        <v>9.720000000000001</v>
+        <v>28.41</v>
       </c>
       <c r="P114" s="7" t="n">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="Q114" s="7" t="inlineStr">
         <is>
@@ -51058,7 +51084,7 @@
         </is>
       </c>
       <c r="R114" s="16" t="n">
-        <v>16.03</v>
+        <v>18.06</v>
       </c>
       <c r="T114" s="5" t="n"/>
     </row>
@@ -51093,30 +51119,30 @@
       <c r="J115" s="5" t="n"/>
       <c r="L115" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M115" s="7" t="inlineStr">
         <is>
-          <t>Ida Petersen Amble</t>
+          <t>Lene Berger</t>
         </is>
       </c>
       <c r="N115" s="7" t="n">
-        <v>2006</v>
+        <v>1981</v>
       </c>
       <c r="O115" s="15" t="n">
-        <v>28.41</v>
+        <v>30.01</v>
       </c>
       <c r="P115" s="7" t="n">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="Q115" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Geithus</t>
         </is>
       </c>
       <c r="R115" s="16" t="n">
-        <v>18.06</v>
+        <v>24.06</v>
       </c>
       <c r="T115" s="5" t="n"/>
     </row>
@@ -51170,7 +51196,7 @@
         </is>
       </c>
       <c r="P117" s="20" t="n">
-        <v>7568</v>
+        <v>7688</v>
       </c>
       <c r="T117" s="5" t="n"/>
     </row>
@@ -51899,30 +51925,30 @@
       <c r="J132" s="5" t="n"/>
       <c r="L132" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M132" s="7" t="inlineStr">
         <is>
-          <t>Mia Laache-Nygaard</t>
+          <t>Lene Berger</t>
         </is>
       </c>
       <c r="N132" s="7" t="n">
-        <v>2008</v>
+        <v>1981</v>
       </c>
       <c r="O132" s="15" t="n">
-        <v>1.35</v>
+        <v>4.6</v>
       </c>
       <c r="P132" s="7" t="n">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="Q132" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Geithus</t>
         </is>
       </c>
       <c r="R132" s="16" t="n">
-        <v>30.01</v>
+        <v>24.06</v>
       </c>
       <c r="T132" s="5" t="n"/>
     </row>
@@ -51957,30 +51983,30 @@
       <c r="J133" s="5" t="n"/>
       <c r="L133" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M133" s="7" t="inlineStr">
         <is>
-          <t>Mia Mathilda Andersen</t>
+          <t>Mia Laache-Nygaard</t>
         </is>
       </c>
       <c r="N133" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="O133" s="15" t="n">
-        <v>4.32</v>
+        <v>1.35</v>
       </c>
       <c r="P133" s="7" t="n">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="Q133" s="7" t="inlineStr">
         <is>
-          <t>Hvam</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R133" s="16" t="n">
-        <v>5.02</v>
+        <v>30.01</v>
       </c>
       <c r="T133" s="5" t="n"/>
     </row>
@@ -52034,7 +52060,7 @@
         </is>
       </c>
       <c r="P135" s="20" t="n">
-        <v>6741</v>
+        <v>6805</v>
       </c>
       <c r="T135" s="5" t="n"/>
     </row>
@@ -52074,7 +52100,7 @@
         </is>
       </c>
       <c r="P137" s="20" t="n">
-        <v>14309</v>
+        <v>14493</v>
       </c>
       <c r="T137" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2023 1-2. div.xlsx
+++ b/output/Lagserien 2023 1-2. div.xlsx
@@ -964,11 +964,11 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>(23/13)</t>
+          <t>(24/13)</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>15650</v>
+        <v>15942</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -15296,13 +15296,33 @@
         <v>28.06</v>
       </c>
       <c r="J334" s="5" t="n"/>
-      <c r="L334" s="14" t="n"/>
-      <c r="M334" s="7" t="n"/>
-      <c r="N334" s="7" t="n"/>
-      <c r="O334" s="7" t="n"/>
-      <c r="P334" s="7" t="n"/>
-      <c r="Q334" s="7" t="n"/>
-      <c r="R334" s="21" t="n"/>
+      <c r="L334" s="14" t="inlineStr">
+        <is>
+          <t>Kule</t>
+        </is>
+      </c>
+      <c r="M334" s="7" t="inlineStr">
+        <is>
+          <t>Obaidullah Obaidi</t>
+        </is>
+      </c>
+      <c r="N334" s="7" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O334" s="15" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="P334" s="7" t="n">
+        <v>290</v>
+      </c>
+      <c r="Q334" s="7" t="inlineStr">
+        <is>
+          <t>Stjørdal</t>
+        </is>
+      </c>
+      <c r="R334" s="16" t="n">
+        <v>2.07</v>
+      </c>
       <c r="T334" s="5" t="n"/>
     </row>
     <row r="335" ht="13" customHeight="1">
@@ -15365,7 +15385,7 @@
         </is>
       </c>
       <c r="M337" s="20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O337" s="19" t="inlineStr">
         <is>
@@ -15373,7 +15393,7 @@
         </is>
       </c>
       <c r="P337" s="20" t="n">
-        <v>9195</v>
+        <v>9485</v>
       </c>
       <c r="T337" s="5" t="n"/>
     </row>
@@ -16042,30 +16062,30 @@
       <c r="J351" s="5" t="n"/>
       <c r="L351" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M351" s="7" t="inlineStr">
         <is>
-          <t>Sivert Lyngstad</t>
+          <t>Obaidullah Obaidi</t>
         </is>
       </c>
       <c r="N351" s="7" t="n">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="O351" s="15" t="n">
-        <v>25.51</v>
+        <v>12.48</v>
       </c>
       <c r="P351" s="7" t="n">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="Q351" s="7" t="inlineStr">
         <is>
-          <t>Esbjerg/DEN</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R351" s="16" t="n">
-        <v>17.06</v>
+        <v>2.07</v>
       </c>
       <c r="T351" s="5" t="n"/>
     </row>
@@ -16313,7 +16333,7 @@
         </is>
       </c>
       <c r="P358" s="20" t="n">
-        <v>6455</v>
+        <v>6457</v>
       </c>
       <c r="T358" s="5" t="n"/>
     </row>
@@ -16345,7 +16365,7 @@
         </is>
       </c>
       <c r="M360" s="20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O360" s="19" t="inlineStr">
         <is>
@@ -16353,7 +16373,7 @@
         </is>
       </c>
       <c r="P360" s="20" t="n">
-        <v>15650</v>
+        <v>15942</v>
       </c>
       <c r="T360" s="5" t="n"/>
     </row>
@@ -16577,7 +16597,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>16643</v>
+        <v>16654</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -19572,19 +19592,19 @@
       </c>
       <c r="O64" s="17" t="inlineStr">
         <is>
-          <t>8,34,10</t>
+          <t>8,31,51</t>
         </is>
       </c>
       <c r="P64" s="7" t="n">
-        <v>970</v>
+        <v>981</v>
       </c>
       <c r="Q64" s="7" t="inlineStr">
         <is>
-          <t>Chorzów/POL</t>
+          <t>Liege/BEL</t>
         </is>
       </c>
       <c r="R64" s="16" t="n">
-        <v>23.06</v>
+        <v>12.07</v>
       </c>
       <c r="T64" s="5" t="n"/>
     </row>
@@ -19870,7 +19890,7 @@
         </is>
       </c>
       <c r="P70" s="20" t="n">
-        <v>9139</v>
+        <v>9150</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
@@ -20770,7 +20790,7 @@
         </is>
       </c>
       <c r="P90" s="20" t="n">
-        <v>16643</v>
+        <v>16654</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
@@ -30130,11 +30150,11 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>(30/12)</t>
+          <t>(30/11)</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>23018</v>
+        <v>23024</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -33630,22 +33650,22 @@
       <c r="J73" s="5" t="n"/>
       <c r="L73" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M73" s="7" t="inlineStr">
         <is>
-          <t>Hedvig Bossum Brimsholm</t>
+          <t>Jamila Isman</t>
         </is>
       </c>
       <c r="N73" s="7" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="O73" s="15" t="n">
-        <v>8.890000000000001</v>
+        <v>1.41</v>
       </c>
       <c r="P73" s="7" t="n">
-        <v>437</v>
+        <v>776</v>
       </c>
       <c r="Q73" s="7" t="inlineStr">
         <is>
@@ -33653,7 +33673,7 @@
         </is>
       </c>
       <c r="R73" s="16" t="n">
-        <v>12.02</v>
+        <v>18.02</v>
       </c>
       <c r="T73" s="5" t="n"/>
     </row>
@@ -33688,30 +33708,30 @@
       <c r="J74" s="5" t="n"/>
       <c r="L74" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M74" s="7" t="inlineStr">
         <is>
-          <t>Jamila Isman</t>
+          <t>Mille Matilde Røsæg</t>
         </is>
       </c>
       <c r="N74" s="7" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="O74" s="15" t="n">
-        <v>1.41</v>
+        <v>2.81</v>
       </c>
       <c r="P74" s="7" t="n">
-        <v>776</v>
+        <v>826</v>
       </c>
       <c r="Q74" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="R74" s="16" t="n">
-        <v>18.02</v>
+        <v>5.02</v>
       </c>
       <c r="T74" s="5" t="n"/>
     </row>
@@ -33746,30 +33766,30 @@
       <c r="J75" s="5" t="n"/>
       <c r="L75" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M75" s="7" t="inlineStr">
         <is>
-          <t>Mille Matilde Røsæg</t>
+          <t>Jamila Isman</t>
         </is>
       </c>
       <c r="N75" s="7" t="n">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="O75" s="15" t="n">
-        <v>2.81</v>
+        <v>11.02</v>
       </c>
       <c r="P75" s="7" t="n">
-        <v>826</v>
+        <v>659</v>
       </c>
       <c r="Q75" s="7" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Thalwil/SUI</t>
         </is>
       </c>
       <c r="R75" s="16" t="n">
-        <v>5.02</v>
+        <v>1.07</v>
       </c>
       <c r="T75" s="5" t="n"/>
     </row>
@@ -33823,7 +33843,7 @@
         </is>
       </c>
       <c r="P77" s="20" t="n">
-        <v>11681</v>
+        <v>11903</v>
       </c>
       <c r="T77" s="5" t="n"/>
     </row>
@@ -34302,30 +34322,30 @@
       <c r="J88" s="5" t="n"/>
       <c r="L88" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M88" s="7" t="inlineStr">
         <is>
-          <t>Jamila Isman</t>
+          <t>Nora Kollerød Wold</t>
         </is>
       </c>
       <c r="N88" s="7" t="n">
-        <v>2005</v>
+        <v>1997</v>
       </c>
       <c r="O88" s="15" t="n">
-        <v>5.66</v>
+        <v>7.94</v>
       </c>
       <c r="P88" s="7" t="n">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="Q88" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="R88" s="16" t="n">
-        <v>5.03</v>
+        <v>5.02</v>
       </c>
       <c r="T88" s="5" t="n"/>
     </row>
@@ -34362,30 +34382,30 @@
       <c r="J89" s="5" t="n"/>
       <c r="L89" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M89" s="7" t="inlineStr">
         <is>
-          <t>Nora Kollerød Wold</t>
+          <t>Ida Andrea Breigan</t>
         </is>
       </c>
       <c r="N89" s="7" t="n">
-        <v>1997</v>
+        <v>2004</v>
       </c>
       <c r="O89" s="15" t="n">
-        <v>7.94</v>
+        <v>2.7</v>
       </c>
       <c r="P89" s="7" t="n">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="Q89" s="7" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R89" s="16" t="n">
-        <v>5.02</v>
+        <v>19.02</v>
       </c>
       <c r="T89" s="5" t="n"/>
     </row>
@@ -34420,30 +34440,30 @@
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M90" s="7" t="inlineStr">
         <is>
-          <t>Ida Andrea Breigan</t>
+          <t>Freia Haraldsen Skaset</t>
         </is>
       </c>
       <c r="N90" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="O90" s="15" t="n">
-        <v>2.7</v>
+        <v>12.58</v>
       </c>
       <c r="P90" s="7" t="n">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="Q90" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R90" s="16" t="n">
-        <v>19.02</v>
+        <v>3.06</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
@@ -34478,7 +34498,7 @@
       <c r="J91" s="5" t="n"/>
       <c r="L91" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M91" s="7" t="inlineStr">
@@ -34490,18 +34510,18 @@
         <v>2007</v>
       </c>
       <c r="O91" s="15" t="n">
-        <v>12.58</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="P91" s="7" t="n">
-        <v>745</v>
+        <v>722</v>
       </c>
       <c r="Q91" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R91" s="16" t="n">
-        <v>3.06</v>
+        <v>14.01</v>
       </c>
       <c r="T91" s="5" t="n"/>
     </row>
@@ -34536,30 +34556,30 @@
       <c r="J92" s="5" t="n"/>
       <c r="L92" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M92" s="7" t="inlineStr">
         <is>
-          <t>Freia Haraldsen Skaset</t>
+          <t>Mille Matilde Røsæg</t>
         </is>
       </c>
       <c r="N92" s="7" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="O92" s="15" t="n">
-        <v>8.039999999999999</v>
+        <v>12.74</v>
       </c>
       <c r="P92" s="7" t="n">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="Q92" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R92" s="16" t="n">
-        <v>14.01</v>
+        <v>6.07</v>
       </c>
       <c r="T92" s="5" t="n"/>
     </row>
@@ -34594,30 +34614,30 @@
       <c r="J93" s="5" t="n"/>
       <c r="L93" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M93" s="7" t="inlineStr">
         <is>
-          <t>Mille Matilde Røsæg</t>
+          <t>Emma Skibstad Bekkevik</t>
         </is>
       </c>
       <c r="N93" s="7" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="O93" s="15" t="n">
-        <v>12.74</v>
+        <v>58.9</v>
       </c>
       <c r="P93" s="7" t="n">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="Q93" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R93" s="16" t="n">
-        <v>6.07</v>
+        <v>18.02</v>
       </c>
       <c r="T93" s="5" t="n"/>
     </row>
@@ -34652,22 +34672,22 @@
       <c r="J94" s="5" t="n"/>
       <c r="L94" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M94" s="7" t="inlineStr">
         <is>
-          <t>Emma Skibstad Bekkevik</t>
+          <t>Ingrid Westberg</t>
         </is>
       </c>
       <c r="N94" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="O94" s="15" t="n">
-        <v>58.9</v>
+        <v>1.33</v>
       </c>
       <c r="P94" s="7" t="n">
-        <v>715</v>
+        <v>692</v>
       </c>
       <c r="Q94" s="7" t="inlineStr">
         <is>
@@ -34710,30 +34730,30 @@
       <c r="J95" s="5" t="n"/>
       <c r="L95" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M95" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Westberg</t>
+          <t>Nora Kollerød Wold</t>
         </is>
       </c>
       <c r="N95" s="7" t="n">
-        <v>2006</v>
+        <v>1997</v>
       </c>
       <c r="O95" s="15" t="n">
-        <v>1.33</v>
+        <v>2.38</v>
       </c>
       <c r="P95" s="7" t="n">
-        <v>692</v>
+        <v>553</v>
       </c>
       <c r="Q95" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="R95" s="16" t="n">
-        <v>18.02</v>
+        <v>5.02</v>
       </c>
       <c r="T95" s="5" t="n"/>
     </row>
@@ -34768,30 +34788,30 @@
       <c r="J96" s="5" t="n"/>
       <c r="L96" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M96" s="7" t="inlineStr">
         <is>
-          <t>Nora Kollerød Wold</t>
+          <t>Freia Haraldsen Skaset</t>
         </is>
       </c>
       <c r="N96" s="7" t="n">
-        <v>1997</v>
+        <v>2007</v>
       </c>
       <c r="O96" s="15" t="n">
-        <v>2.38</v>
+        <v>4.68</v>
       </c>
       <c r="P96" s="7" t="n">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="Q96" s="7" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R96" s="16" t="n">
-        <v>5.02</v>
+        <v>24.06</v>
       </c>
       <c r="T96" s="5" t="n"/>
     </row>
@@ -34845,7 +34865,7 @@
         </is>
       </c>
       <c r="P98" s="20" t="n">
-        <v>11337</v>
+        <v>11121</v>
       </c>
       <c r="T98" s="5" t="n"/>
     </row>
@@ -34885,7 +34905,7 @@
         </is>
       </c>
       <c r="P100" s="20" t="n">
-        <v>23018</v>
+        <v>23024</v>
       </c>
       <c r="T100" s="5" t="n"/>
     </row>
@@ -34909,7 +34929,7 @@
         </is>
       </c>
       <c r="M102" s="20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T102" s="5" t="n"/>
     </row>
@@ -46285,11 +46305,11 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>(16/8)</t>
+          <t>(17/8)</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>9088</v>
+        <v>9730</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -58545,13 +58565,33 @@
       <c r="T298" s="5" t="n"/>
     </row>
     <row r="299" ht="13" customHeight="1">
-      <c r="B299" s="14" t="n"/>
-      <c r="C299" s="7" t="n"/>
-      <c r="D299" s="7" t="n"/>
-      <c r="E299" s="7" t="n"/>
-      <c r="F299" s="7" t="n"/>
-      <c r="G299" s="7" t="n"/>
-      <c r="H299" s="21" t="n"/>
+      <c r="B299" s="14" t="inlineStr">
+        <is>
+          <t>Kule</t>
+        </is>
+      </c>
+      <c r="C299" s="7" t="inlineStr">
+        <is>
+          <t>Emily Nyborg</t>
+        </is>
+      </c>
+      <c r="D299" s="7" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E299" s="15" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="F299" s="7" t="n">
+        <v>376</v>
+      </c>
+      <c r="G299" s="7" t="inlineStr">
+        <is>
+          <t>Stjørdal</t>
+        </is>
+      </c>
+      <c r="H299" s="16" t="n">
+        <v>2.07</v>
+      </c>
       <c r="J299" s="5" t="n"/>
       <c r="L299" s="14" t="inlineStr">
         <is>
@@ -58699,7 +58739,7 @@
         </is>
       </c>
       <c r="C305" s="20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E305" s="19" t="inlineStr">
         <is>
@@ -58707,7 +58747,7 @@
         </is>
       </c>
       <c r="F305" s="20" t="n">
-        <v>5045</v>
+        <v>5421</v>
       </c>
       <c r="J305" s="5" t="n"/>
       <c r="L305" s="19" t="inlineStr">
@@ -59005,30 +59045,30 @@
     <row r="313" ht="13" customHeight="1">
       <c r="B313" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C313" s="7" t="inlineStr">
         <is>
-          <t>Ruby Berg-Vindsetmo</t>
+          <t>Emily Nyborg</t>
         </is>
       </c>
       <c r="D313" s="7" t="n">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="E313" s="15" t="n">
-        <v>9.07</v>
+        <v>13.33</v>
       </c>
       <c r="F313" s="7" t="n">
-        <v>457</v>
+        <v>615</v>
       </c>
       <c r="G313" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H313" s="16" t="n">
-        <v>21.01</v>
+        <v>2.07</v>
       </c>
       <c r="J313" s="5" t="n"/>
       <c r="L313" s="14" t="inlineStr">
@@ -59063,7 +59103,7 @@
     <row r="314" ht="13" customHeight="1">
       <c r="B314" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C314" s="7" t="inlineStr">
@@ -59075,10 +59115,10 @@
         <v>2008</v>
       </c>
       <c r="E314" s="15" t="n">
-        <v>29.98</v>
+        <v>9.07</v>
       </c>
       <c r="F314" s="7" t="n">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="G314" s="7" t="inlineStr">
         <is>
@@ -59086,7 +59126,7 @@
         </is>
       </c>
       <c r="H314" s="16" t="n">
-        <v>22.01</v>
+        <v>21.01</v>
       </c>
       <c r="J314" s="5" t="n"/>
       <c r="L314" s="14" t="inlineStr">
@@ -59121,22 +59161,22 @@
     <row r="315" ht="13" customHeight="1">
       <c r="B315" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C315" s="7" t="inlineStr">
         <is>
-          <t>Karelie Myrseth Vikshåland</t>
+          <t>Ruby Berg-Vindsetmo</t>
         </is>
       </c>
       <c r="D315" s="7" t="n">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="E315" s="15" t="n">
-        <v>9.279999999999999</v>
+        <v>29.98</v>
       </c>
       <c r="F315" s="7" t="n">
-        <v>412</v>
+        <v>452</v>
       </c>
       <c r="G315" s="7" t="inlineStr">
         <is>
@@ -59144,7 +59184,7 @@
         </is>
       </c>
       <c r="H315" s="16" t="n">
-        <v>18.03</v>
+        <v>22.01</v>
       </c>
       <c r="J315" s="5" t="n"/>
       <c r="L315" s="14" t="n"/>
@@ -59164,17 +59204,17 @@
       </c>
       <c r="C316" s="7" t="inlineStr">
         <is>
-          <t>Tonje Gynnild Nordvik</t>
+          <t>Karelie Myrseth Vikshåland</t>
         </is>
       </c>
       <c r="D316" s="7" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E316" s="15" t="n">
-        <v>9.48</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="F316" s="7" t="n">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="G316" s="7" t="inlineStr">
         <is>
@@ -59182,7 +59222,7 @@
         </is>
       </c>
       <c r="H316" s="16" t="n">
-        <v>21.01</v>
+        <v>18.03</v>
       </c>
       <c r="J316" s="5" t="n"/>
       <c r="L316" s="14" t="n"/>
@@ -59197,7 +59237,7 @@
     <row r="317" ht="13" customHeight="1">
       <c r="B317" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C317" s="7" t="inlineStr">
@@ -59209,10 +59249,10 @@
         <v>2010</v>
       </c>
       <c r="E317" s="15" t="n">
-        <v>31.83</v>
+        <v>9.48</v>
       </c>
       <c r="F317" s="7" t="n">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="G317" s="7" t="inlineStr">
         <is>
@@ -59220,7 +59260,7 @@
         </is>
       </c>
       <c r="H317" s="16" t="n">
-        <v>22.01</v>
+        <v>21.01</v>
       </c>
       <c r="J317" s="5" t="n"/>
       <c r="L317" s="14" t="n"/>
@@ -59337,7 +59377,7 @@
         </is>
       </c>
       <c r="F323" s="20" t="n">
-        <v>4043</v>
+        <v>4309</v>
       </c>
       <c r="J323" s="5" t="n"/>
       <c r="L323" s="19" t="inlineStr">
@@ -59369,7 +59409,7 @@
         </is>
       </c>
       <c r="C325" s="20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E325" s="19" t="inlineStr">
         <is>
@@ -59377,7 +59417,7 @@
         </is>
       </c>
       <c r="F325" s="20" t="n">
-        <v>9088</v>
+        <v>9730</v>
       </c>
       <c r="J325" s="5" t="n"/>
       <c r="L325" s="19" t="inlineStr">

--- a/output/Lagserien 2023 1-2. div.xlsx
+++ b/output/Lagserien 2023 1-2. div.xlsx
@@ -600,11 +600,11 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>(30/13)</t>
+          <t>(30/14)</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>27729</v>
+        <v>27842</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -628,11 +628,11 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>(30/16)</t>
+          <t>(30/15)</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>25378</v>
+        <v>25652</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>22650</v>
+        <v>22661</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>19197</v>
+        <v>19231</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -1545,19 +1545,19 @@
       </c>
       <c r="O14" s="17" t="inlineStr">
         <is>
-          <t>3,27,95</t>
+          <t>3,27,14</t>
         </is>
       </c>
       <c r="P14" s="7" t="n">
-        <v>1170</v>
+        <v>1184</v>
       </c>
       <c r="Q14" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Chorzów/POL</t>
         </is>
       </c>
       <c r="R14" s="16" t="n">
-        <v>15.06</v>
+        <v>16.07</v>
       </c>
       <c r="T14" s="5" t="n"/>
     </row>
@@ -1626,30 +1626,32 @@
     <row r="16" ht="13" customHeight="1">
       <c r="B16" s="14" t="inlineStr">
         <is>
-          <t>110m hekk</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C16" s="7" t="inlineStr">
         <is>
-          <t>Sander Aae Skotheim</t>
+          <t>Snorre Holtan Løken</t>
         </is>
       </c>
       <c r="D16" s="7" t="n">
-        <v>2002</v>
-      </c>
-      <c r="E16" s="15" t="n">
-        <v>13.97</v>
+        <v>1994</v>
+      </c>
+      <c r="E16" s="17" t="inlineStr">
+        <is>
+          <t>14,39,20</t>
+        </is>
       </c>
       <c r="F16" s="7" t="n">
-        <v>972</v>
+        <v>820</v>
       </c>
       <c r="G16" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H16" s="16" t="n">
-        <v>6.07</v>
+        <v>28.06</v>
       </c>
       <c r="J16" s="5" t="n"/>
       <c r="L16" s="14" t="inlineStr">
@@ -1659,34 +1661,34 @@
       </c>
       <c r="M16" s="7" t="inlineStr">
         <is>
-          <t>Henrik Børkja Ingebrigtsen</t>
+          <t>Narve Gilje Nordås</t>
         </is>
       </c>
       <c r="N16" s="7" t="n">
-        <v>1991</v>
+        <v>1998</v>
       </c>
       <c r="O16" s="17" t="inlineStr">
         <is>
-          <t>13,13,99</t>
+          <t>13,05,38</t>
         </is>
       </c>
       <c r="P16" s="7" t="n">
-        <v>1064</v>
+        <v>1096</v>
       </c>
       <c r="Q16" s="7" t="inlineStr">
         <is>
-          <t>Oordegem/BEL</t>
+          <t>Heusden-Zolder/BEL</t>
         </is>
       </c>
       <c r="R16" s="16" t="n">
-        <v>27.05</v>
+        <v>15.07</v>
       </c>
       <c r="T16" s="5" t="n"/>
     </row>
     <row r="17" ht="13" customHeight="1">
       <c r="B17" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>110m hekk</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr">
@@ -1698,18 +1700,18 @@
         <v>2002</v>
       </c>
       <c r="E17" s="15" t="n">
-        <v>2.2</v>
+        <v>13.97</v>
       </c>
       <c r="F17" s="7" t="n">
-        <v>985</v>
+        <v>972</v>
       </c>
       <c r="G17" s="7" t="inlineStr">
         <is>
-          <t>Karlstad/SWE</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H17" s="16" t="n">
-        <v>12.02</v>
+        <v>6.07</v>
       </c>
       <c r="J17" s="5" t="n"/>
       <c r="L17" s="14" t="inlineStr">
@@ -1746,7 +1748,7 @@
     <row r="18" ht="13" customHeight="1">
       <c r="B18" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C18" s="7" t="inlineStr">
@@ -1758,18 +1760,18 @@
         <v>2002</v>
       </c>
       <c r="E18" s="15" t="n">
-        <v>5.35</v>
+        <v>2.2</v>
       </c>
       <c r="F18" s="7" t="n">
-        <v>980</v>
+        <v>985</v>
       </c>
       <c r="G18" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Karlstad/SWE</t>
         </is>
       </c>
       <c r="H18" s="16" t="n">
-        <v>28.06</v>
+        <v>12.02</v>
       </c>
       <c r="J18" s="5" t="n"/>
       <c r="L18" s="14" t="inlineStr">
@@ -1804,7 +1806,7 @@
     <row r="19" ht="13" customHeight="1">
       <c r="B19" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C19" s="7" t="inlineStr">
@@ -1816,7 +1818,7 @@
         <v>2002</v>
       </c>
       <c r="E19" s="15" t="n">
-        <v>7.74</v>
+        <v>5.35</v>
       </c>
       <c r="F19" s="7" t="n">
         <v>980</v>
@@ -1827,7 +1829,7 @@
         </is>
       </c>
       <c r="H19" s="16" t="n">
-        <v>15.06</v>
+        <v>28.06</v>
       </c>
       <c r="J19" s="5" t="n"/>
       <c r="L19" s="14" t="inlineStr">
@@ -1862,7 +1864,7 @@
     <row r="20" ht="13" customHeight="1">
       <c r="B20" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C20" s="7" t="inlineStr">
@@ -1874,18 +1876,18 @@
         <v>2002</v>
       </c>
       <c r="E20" s="15" t="n">
-        <v>16</v>
+        <v>7.74</v>
       </c>
       <c r="F20" s="7" t="n">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="G20" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H20" s="16" t="n">
-        <v>18.02</v>
+        <v>15.06</v>
       </c>
       <c r="J20" s="5" t="n"/>
       <c r="L20" s="14" t="inlineStr">
@@ -1920,30 +1922,30 @@
     <row r="21" ht="13" customHeight="1">
       <c r="B21" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C21" s="7" t="inlineStr">
         <is>
-          <t>Erik Johannes Rosvold</t>
+          <t>Sander Aae Skotheim</t>
         </is>
       </c>
       <c r="D21" s="7" t="n">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="E21" s="15" t="n">
-        <v>53.65</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="n">
-        <v>916</v>
+        <v>977</v>
       </c>
       <c r="G21" s="7" t="inlineStr">
         <is>
-          <t>Spikkestad</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H21" s="16" t="n">
-        <v>11.06</v>
+        <v>18.02</v>
       </c>
       <c r="J21" s="5" t="n"/>
       <c r="L21" s="14" t="inlineStr">
@@ -1978,30 +1980,30 @@
     <row r="22" ht="13" customHeight="1">
       <c r="B22" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C22" s="7" t="inlineStr">
         <is>
-          <t>Eivind Prestegård Henriksen</t>
+          <t>Erik Johannes Rosvold</t>
         </is>
       </c>
       <c r="D22" s="7" t="n">
-        <v>1990</v>
+        <v>1998</v>
       </c>
       <c r="E22" s="15" t="n">
-        <v>76.52</v>
+        <v>53.65</v>
       </c>
       <c r="F22" s="7" t="n">
-        <v>1076</v>
+        <v>916</v>
       </c>
       <c r="G22" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Spikkestad</t>
         </is>
       </c>
       <c r="H22" s="16" t="n">
-        <v>15.06</v>
+        <v>11.06</v>
       </c>
       <c r="J22" s="5" t="n"/>
       <c r="L22" s="14" t="inlineStr">
@@ -2036,30 +2038,30 @@
     <row r="23" ht="13" customHeight="1">
       <c r="B23" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="C23" s="7" t="inlineStr">
         <is>
-          <t>Markus Rooth</t>
+          <t>Eivind Prestegård Henriksen</t>
         </is>
       </c>
       <c r="D23" s="7" t="n">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="E23" s="15" t="n">
-        <v>66.12</v>
+        <v>76.75</v>
       </c>
       <c r="F23" s="7" t="n">
-        <v>844</v>
+        <v>1079</v>
       </c>
       <c r="G23" s="7" t="inlineStr">
         <is>
-          <t>Albufeira/POR</t>
+          <t>Chorzów/POL</t>
         </is>
       </c>
       <c r="H23" s="16" t="n">
-        <v>14.05</v>
+        <v>16.07</v>
       </c>
       <c r="J23" s="5" t="n"/>
       <c r="L23" s="14" t="inlineStr">
@@ -2124,7 +2126,7 @@
         </is>
       </c>
       <c r="F25" s="20" t="n">
-        <v>14517</v>
+        <v>14496</v>
       </c>
       <c r="J25" s="5" t="n"/>
       <c r="L25" s="19" t="inlineStr">
@@ -2141,7 +2143,7 @@
         </is>
       </c>
       <c r="P25" s="20" t="n">
-        <v>12626</v>
+        <v>12672</v>
       </c>
       <c r="T25" s="5" t="n"/>
     </row>
@@ -2332,32 +2334,32 @@
       <c r="J31" s="5" t="n"/>
       <c r="L31" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M31" s="7" t="inlineStr">
         <is>
-          <t>Narve Gilje Nordås</t>
+          <t>Henrik Børkja Ingebrigtsen</t>
         </is>
       </c>
       <c r="N31" s="7" t="n">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="O31" s="17" t="inlineStr">
         <is>
-          <t>7,43,94</t>
+          <t>13,13,99</t>
         </is>
       </c>
       <c r="P31" s="7" t="n">
-        <v>1039</v>
+        <v>1064</v>
       </c>
       <c r="Q31" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oordegem/BEL</t>
         </is>
       </c>
       <c r="R31" s="16" t="n">
-        <v>3.06</v>
+        <v>27.05</v>
       </c>
       <c r="T31" s="5" t="n"/>
     </row>
@@ -2369,25 +2371,25 @@
       </c>
       <c r="C32" s="7" t="inlineStr">
         <is>
-          <t>Abraham Sandvin Vogelsang</t>
+          <t>Markus Rooth</t>
         </is>
       </c>
       <c r="D32" s="7" t="n">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="E32" s="15" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="F32" s="7" t="n">
-        <v>908</v>
+        <v>928</v>
       </c>
       <c r="G32" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Espoo/FIN</t>
         </is>
       </c>
       <c r="H32" s="16" t="n">
-        <v>21.05</v>
+        <v>16.07</v>
       </c>
       <c r="J32" s="5" t="n"/>
       <c r="L32" s="14" t="inlineStr">
@@ -2397,34 +2399,34 @@
       </c>
       <c r="M32" s="7" t="inlineStr">
         <is>
-          <t>Henrik Børkja Ingebrigtsen</t>
+          <t>Narve Gilje Nordås</t>
         </is>
       </c>
       <c r="N32" s="7" t="n">
-        <v>1991</v>
+        <v>1998</v>
       </c>
       <c r="O32" s="17" t="inlineStr">
         <is>
-          <t>7,51,09</t>
+          <t>7,43,94</t>
         </is>
       </c>
       <c r="P32" s="7" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="Q32" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R32" s="16" t="n">
-        <v>21.05</v>
+        <v>3.06</v>
       </c>
       <c r="T32" s="5" t="n"/>
     </row>
     <row r="33" ht="13" customHeight="1">
       <c r="B33" s="14" t="inlineStr">
         <is>
-          <t>110m hekk</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C33" s="7" t="inlineStr">
@@ -2436,10 +2438,10 @@
         <v>2003</v>
       </c>
       <c r="E33" s="15" t="n">
-        <v>14.4</v>
+        <v>5</v>
       </c>
       <c r="F33" s="7" t="n">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="G33" s="7" t="inlineStr">
         <is>
@@ -2452,125 +2454,127 @@
       <c r="J33" s="5" t="n"/>
       <c r="L33" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M33" s="7" t="inlineStr">
         <is>
-          <t>Filip Ingebrigtsen</t>
+          <t>Henrik Børkja Ingebrigtsen</t>
         </is>
       </c>
       <c r="N33" s="7" t="n">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="O33" s="17" t="inlineStr">
         <is>
-          <t>3,39,28</t>
+          <t>7,51,09</t>
         </is>
       </c>
       <c r="P33" s="7" t="n">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="Q33" s="7" t="inlineStr">
         <is>
-          <t>Rabat/MAR</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="R33" s="16" t="n">
-        <v>28.05</v>
+        <v>21.05</v>
       </c>
       <c r="T33" s="5" t="n"/>
     </row>
     <row r="34" ht="13" customHeight="1">
       <c r="B34" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>110m hekk</t>
         </is>
       </c>
       <c r="C34" s="7" t="inlineStr">
         <is>
-          <t>Even Pettersen</t>
+          <t>Abraham Sandvin Vogelsang</t>
         </is>
       </c>
       <c r="D34" s="7" t="n">
-        <v>1993</v>
+        <v>2003</v>
       </c>
       <c r="E34" s="15" t="n">
-        <v>10.79</v>
+        <v>14.4</v>
       </c>
       <c r="F34" s="7" t="n">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="G34" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="H34" s="16" t="n">
-        <v>28.06</v>
+        <v>21.05</v>
       </c>
       <c r="J34" s="5" t="n"/>
       <c r="L34" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M34" s="7" t="inlineStr">
         <is>
-          <t>Alexander Skrede</t>
+          <t>Filip Ingebrigtsen</t>
         </is>
       </c>
       <c r="N34" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O34" s="15" t="n">
-        <v>10.76</v>
+        <v>1993</v>
+      </c>
+      <c r="O34" s="17" t="inlineStr">
+        <is>
+          <t>3,39,28</t>
+        </is>
       </c>
       <c r="P34" s="7" t="n">
-        <v>904</v>
+        <v>995</v>
       </c>
       <c r="Q34" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Rabat/MAR</t>
         </is>
       </c>
       <c r="R34" s="16" t="n">
-        <v>18.06</v>
+        <v>28.05</v>
       </c>
       <c r="T34" s="5" t="n"/>
     </row>
     <row r="35" ht="13" customHeight="1">
       <c r="B35" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C35" s="7" t="inlineStr">
         <is>
-          <t>Markus Rooth</t>
+          <t>Even Pettersen</t>
         </is>
       </c>
       <c r="D35" s="7" t="n">
-        <v>2001</v>
+        <v>1993</v>
       </c>
       <c r="E35" s="15" t="n">
-        <v>7.3</v>
+        <v>10.79</v>
       </c>
       <c r="F35" s="7" t="n">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="G35" s="7" t="inlineStr">
         <is>
-          <t>Desenzano Del Garda/ITA</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H35" s="16" t="n">
-        <v>29.04</v>
+        <v>28.06</v>
       </c>
       <c r="J35" s="5" t="n"/>
       <c r="L35" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M35" s="7" t="inlineStr">
@@ -2582,10 +2586,10 @@
         <v>2005</v>
       </c>
       <c r="O35" s="15" t="n">
-        <v>21.8</v>
+        <v>10.76</v>
       </c>
       <c r="P35" s="7" t="n">
-        <v>884</v>
+        <v>904</v>
       </c>
       <c r="Q35" s="7" t="inlineStr">
         <is>
@@ -2593,14 +2597,14 @@
         </is>
       </c>
       <c r="R35" s="16" t="n">
-        <v>18.02</v>
+        <v>18.06</v>
       </c>
       <c r="T35" s="5" t="n"/>
     </row>
     <row r="36" ht="13" customHeight="1">
       <c r="B36" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C36" s="7" t="inlineStr">
@@ -2612,46 +2616,46 @@
         <v>2001</v>
       </c>
       <c r="E36" s="15" t="n">
-        <v>51.6</v>
+        <v>10.81</v>
       </c>
       <c r="F36" s="7" t="n">
-        <v>883</v>
+        <v>891</v>
       </c>
       <c r="G36" s="7" t="inlineStr">
         <is>
-          <t>Spikkestad</t>
+          <t>Espoo/FIN</t>
         </is>
       </c>
       <c r="H36" s="16" t="n">
-        <v>11.06</v>
+        <v>15.07</v>
       </c>
       <c r="J36" s="5" t="n"/>
       <c r="L36" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M36" s="7" t="inlineStr">
         <is>
-          <t>Soban Mortaza Inayat</t>
+          <t>Alexander Skrede</t>
         </is>
       </c>
       <c r="N36" s="7" t="n">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="O36" s="15" t="n">
-        <v>10.93</v>
+        <v>21.8</v>
       </c>
       <c r="P36" s="7" t="n">
-        <v>860</v>
+        <v>884</v>
       </c>
       <c r="Q36" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R36" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>18.02</v>
       </c>
       <c r="T36" s="5" t="n"/>
     </row>
@@ -2663,105 +2667,105 @@
       </c>
       <c r="C37" s="7" t="inlineStr">
         <is>
-          <t>Abraham Sandvin Vogelsang</t>
+          <t>Markus Rooth</t>
         </is>
       </c>
       <c r="D37" s="7" t="n">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="E37" s="15" t="n">
-        <v>7.24</v>
+        <v>7.3</v>
       </c>
       <c r="F37" s="7" t="n">
-        <v>878</v>
+        <v>890</v>
       </c>
       <c r="G37" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Desenzano Del Garda/ITA</t>
         </is>
       </c>
       <c r="H37" s="16" t="n">
-        <v>20.05</v>
+        <v>29.04</v>
       </c>
       <c r="J37" s="5" t="n"/>
       <c r="L37" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M37" s="7" t="inlineStr">
         <is>
-          <t>Benjamin Storm Rettore</t>
+          <t>Soban Mortaza Inayat</t>
         </is>
       </c>
       <c r="N37" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O37" s="17" t="inlineStr">
-        <is>
-          <t>8,19,78</t>
-        </is>
+        <v>1997</v>
+      </c>
+      <c r="O37" s="15" t="n">
+        <v>10.93</v>
       </c>
       <c r="P37" s="7" t="n">
         <v>860</v>
       </c>
       <c r="Q37" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R37" s="16" t="n">
-        <v>16.06</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="T37" s="5" t="n"/>
     </row>
     <row r="38" ht="13" customHeight="1">
       <c r="B38" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C38" s="7" t="inlineStr">
         <is>
-          <t>Sander Steen Myrvang</t>
+          <t>Markus Rooth</t>
         </is>
       </c>
       <c r="D38" s="7" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E38" s="15" t="n">
-        <v>6.98</v>
+        <v>51.6</v>
       </c>
       <c r="F38" s="7" t="n">
-        <v>872</v>
+        <v>883</v>
       </c>
       <c r="G38" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Spikkestad</t>
         </is>
       </c>
       <c r="H38" s="16" t="n">
-        <v>11.02</v>
+        <v>11.06</v>
       </c>
       <c r="J38" s="5" t="n"/>
       <c r="L38" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M38" s="7" t="inlineStr">
         <is>
-          <t>Jonas Berggård Skåden</t>
+          <t>Benjamin Storm Rettore</t>
         </is>
       </c>
       <c r="N38" s="7" t="n">
-        <v>2002</v>
-      </c>
-      <c r="O38" s="15" t="n">
-        <v>7.02</v>
+        <v>2003</v>
+      </c>
+      <c r="O38" s="17" t="inlineStr">
+        <is>
+          <t>8,19,78</t>
+        </is>
       </c>
       <c r="P38" s="7" t="n">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="Q38" s="7" t="inlineStr">
         <is>
@@ -2769,65 +2773,65 @@
         </is>
       </c>
       <c r="R38" s="16" t="n">
-        <v>21.01</v>
+        <v>16.06</v>
       </c>
       <c r="T38" s="5" t="n"/>
     </row>
     <row r="39" ht="13" customHeight="1">
       <c r="B39" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C39" s="7" t="inlineStr">
         <is>
-          <t>Marius Bull Hjeltnes</t>
+          <t>Abraham Sandvin Vogelsang</t>
         </is>
       </c>
       <c r="D39" s="7" t="n">
-        <v>1996</v>
+        <v>2003</v>
       </c>
       <c r="E39" s="15" t="n">
-        <v>21.94</v>
+        <v>7.24</v>
       </c>
       <c r="F39" s="7" t="n">
-        <v>868</v>
+        <v>878</v>
       </c>
       <c r="G39" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="H39" s="16" t="n">
-        <v>21.01</v>
+        <v>20.05</v>
       </c>
       <c r="J39" s="5" t="n"/>
       <c r="L39" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M39" s="7" t="inlineStr">
         <is>
-          <t>Eskild Gjesdal Hillesund</t>
+          <t>Jonas Berggård Skåden</t>
         </is>
       </c>
       <c r="N39" s="7" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="O39" s="15" t="n">
-        <v>22.21</v>
+        <v>7.02</v>
       </c>
       <c r="P39" s="7" t="n">
-        <v>836</v>
+        <v>854</v>
       </c>
       <c r="Q39" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R39" s="16" t="n">
-        <v>7.07</v>
+        <v>21.01</v>
       </c>
       <c r="T39" s="5" t="n"/>
     </row>
@@ -2839,17 +2843,17 @@
       </c>
       <c r="C40" s="7" t="inlineStr">
         <is>
-          <t>Nickolai Jallow</t>
+          <t>Sander Steen Myrvang</t>
         </is>
       </c>
       <c r="D40" s="7" t="n">
-        <v>1991</v>
+        <v>2000</v>
       </c>
       <c r="E40" s="15" t="n">
-        <v>7.02</v>
+        <v>6.98</v>
       </c>
       <c r="F40" s="7" t="n">
-        <v>854</v>
+        <v>872</v>
       </c>
       <c r="G40" s="7" t="inlineStr">
         <is>
@@ -2857,7 +2861,7 @@
         </is>
       </c>
       <c r="H40" s="16" t="n">
-        <v>21.01</v>
+        <v>11.02</v>
       </c>
       <c r="J40" s="5" t="n"/>
       <c r="L40" s="14" t="inlineStr">
@@ -2892,30 +2896,30 @@
     <row r="41" ht="13" customHeight="1">
       <c r="B41" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C41" s="7" t="inlineStr">
         <is>
-          <t>Yoann Rouzieres</t>
+          <t>Marius Bull Hjeltnes</t>
         </is>
       </c>
       <c r="D41" s="7" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E41" s="15" t="n">
-        <v>4.7</v>
+        <v>21.94</v>
       </c>
       <c r="F41" s="7" t="n">
-        <v>851</v>
+        <v>868</v>
       </c>
       <c r="G41" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H41" s="16" t="n">
-        <v>3.06</v>
+        <v>21.01</v>
       </c>
       <c r="J41" s="5" t="n"/>
       <c r="L41" s="14" t="inlineStr">
@@ -2955,17 +2959,17 @@
       </c>
       <c r="C42" s="7" t="inlineStr">
         <is>
-          <t>Kenny Emi Tijani-Ajayi</t>
+          <t>Nickolai Jallow</t>
         </is>
       </c>
       <c r="D42" s="7" t="n">
-        <v>2003</v>
+        <v>1991</v>
       </c>
       <c r="E42" s="15" t="n">
-        <v>7.03</v>
+        <v>7.02</v>
       </c>
       <c r="F42" s="7" t="n">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="G42" s="7" t="inlineStr">
         <is>
@@ -3008,30 +3012,30 @@
     <row r="43" ht="13" customHeight="1">
       <c r="B43" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C43" s="7" t="inlineStr">
         <is>
-          <t>Nickolai Jallow</t>
+          <t>Yoann Rouzieres</t>
         </is>
       </c>
       <c r="D43" s="7" t="n">
-        <v>1991</v>
+        <v>1997</v>
       </c>
       <c r="E43" s="15" t="n">
-        <v>10.99</v>
+        <v>4.7</v>
       </c>
       <c r="F43" s="7" t="n">
-        <v>844</v>
+        <v>851</v>
       </c>
       <c r="G43" s="7" t="inlineStr">
         <is>
-          <t>Asker</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H43" s="16" t="n">
-        <v>9.06</v>
+        <v>3.06</v>
       </c>
       <c r="J43" s="5" t="n"/>
       <c r="L43" s="14" t="inlineStr">
@@ -3071,17 +3075,17 @@
       </c>
       <c r="C44" s="7" t="inlineStr">
         <is>
-          <t>Even Pettersen</t>
+          <t>Kenny Emi Tijani-Ajayi</t>
         </is>
       </c>
       <c r="D44" s="7" t="n">
-        <v>1993</v>
+        <v>2003</v>
       </c>
       <c r="E44" s="15" t="n">
-        <v>7.05</v>
+        <v>7.03</v>
       </c>
       <c r="F44" s="7" t="n">
-        <v>841</v>
+        <v>850</v>
       </c>
       <c r="G44" s="7" t="inlineStr">
         <is>
@@ -3089,7 +3093,7 @@
         </is>
       </c>
       <c r="H44" s="16" t="n">
-        <v>11.02</v>
+        <v>21.01</v>
       </c>
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="14" t="inlineStr">
@@ -3154,7 +3158,7 @@
         </is>
       </c>
       <c r="F46" s="20" t="n">
-        <v>13212</v>
+        <v>13346</v>
       </c>
       <c r="J46" s="5" t="n"/>
       <c r="L46" s="19" t="inlineStr">
@@ -3171,7 +3175,7 @@
         </is>
       </c>
       <c r="P46" s="20" t="n">
-        <v>12752</v>
+        <v>12980</v>
       </c>
       <c r="T46" s="5" t="n"/>
     </row>
@@ -3194,7 +3198,7 @@
         </is>
       </c>
       <c r="F48" s="20" t="n">
-        <v>27729</v>
+        <v>27842</v>
       </c>
       <c r="J48" s="5" t="n"/>
       <c r="L48" s="19" t="inlineStr">
@@ -3211,7 +3215,7 @@
         </is>
       </c>
       <c r="P48" s="20" t="n">
-        <v>25378</v>
+        <v>25652</v>
       </c>
       <c r="T48" s="5" t="n"/>
     </row>
@@ -3226,7 +3230,7 @@
         </is>
       </c>
       <c r="C50" s="20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J50" s="5" t="n"/>
       <c r="L50" s="19" t="inlineStr">
@@ -3235,7 +3239,7 @@
         </is>
       </c>
       <c r="M50" s="20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T50" s="5" t="n"/>
     </row>
@@ -8281,19 +8285,19 @@
       </c>
       <c r="O171" s="17" t="inlineStr">
         <is>
-          <t>13,18,59</t>
+          <t>13,15,41</t>
         </is>
       </c>
       <c r="P171" s="7" t="n">
-        <v>1048</v>
+        <v>1059</v>
       </c>
       <c r="Q171" s="7" t="inlineStr">
         <is>
-          <t>Stockholm/SWE</t>
+          <t>Heusden-Zolder/BEL</t>
         </is>
       </c>
       <c r="R171" s="16" t="n">
-        <v>18.05</v>
+        <v>15.07</v>
       </c>
       <c r="T171" s="5" t="n"/>
     </row>
@@ -8815,7 +8819,7 @@
         </is>
       </c>
       <c r="P181" s="20" t="n">
-        <v>11254</v>
+        <v>11265</v>
       </c>
       <c r="T181" s="5" t="n"/>
     </row>
@@ -9895,7 +9899,7 @@
         </is>
       </c>
       <c r="P204" s="20" t="n">
-        <v>22650</v>
+        <v>22661</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -12924,18 +12928,18 @@
         <v>2001</v>
       </c>
       <c r="O278" s="15" t="n">
-        <v>7.78</v>
+        <v>7.96</v>
       </c>
       <c r="P278" s="7" t="n">
-        <v>988</v>
+        <v>1022</v>
       </c>
       <c r="Q278" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Espoo/FIN</t>
         </is>
       </c>
       <c r="R278" s="16" t="n">
-        <v>13.05</v>
+        <v>14.07</v>
       </c>
       <c r="T278" s="5" t="n"/>
     </row>
@@ -13199,7 +13203,7 @@
         </is>
       </c>
       <c r="P285" s="20" t="n">
-        <v>8469</v>
+        <v>8503</v>
       </c>
       <c r="T285" s="5" t="n"/>
     </row>
@@ -14267,7 +14271,7 @@
         </is>
       </c>
       <c r="P308" s="20" t="n">
-        <v>19197</v>
+        <v>19231</v>
       </c>
       <c r="T308" s="5" t="n"/>
     </row>
@@ -16509,11 +16513,11 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>(25/14)</t>
+          <t>(25/13)</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>18173</v>
+        <v>18073</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -16560,25 +16564,25 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IL Sandvin</t>
+          <t>Stord IL</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>(25/9)</t>
+          <t>(25/12)</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>16721</v>
+        <v>16743</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>(8)</t>
+          <t>(12/1d)</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -16588,25 +16592,25 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Stord IL</t>
+          <t>IL Sandvin</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>(25/11)</t>
+          <t>(25/9)</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>16654</v>
+        <v>16721</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>(12/1d)</t>
+          <t>(8)</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Buskerud</t>
         </is>
       </c>
     </row>
@@ -16672,25 +16676,25 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Fyllingen IL</t>
+          <t>IF Sturla</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>(23/11)</t>
+          <t>(25/11)</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>15322</v>
+        <v>15361</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>(4/3d)</t>
+          <t>(9)</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Buskerud</t>
         </is>
       </c>
     </row>
@@ -16700,25 +16704,25 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Sørild FIK</t>
+          <t>Fyllingen IL</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>(25/12)</t>
+          <t>(23/11)</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>15273</v>
+        <v>15322</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>(3/3d)</t>
+          <t>(4/3d)</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -16728,25 +16732,25 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IF Sturla</t>
+          <t>Sørild FIK</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>(25/11)</t>
+          <t>(25/12)</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>15206</v>
+        <v>15273</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>(9)</t>
+          <t>(3/3d)</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Agder</t>
         </is>
       </c>
     </row>
@@ -16761,11 +16765,11 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>(25/10)</t>
+          <t>(25/11)</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>14961</v>
+        <v>15059</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -17480,27 +17484,27 @@
       </c>
       <c r="C15" s="7" t="inlineStr">
         <is>
-          <t>Snorre Holtan Løken</t>
+          <t>Iver Matias Linge Glomnes</t>
         </is>
       </c>
       <c r="D15" s="7" t="n">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="E15" s="17" t="inlineStr">
         <is>
-          <t>14,39,20</t>
+          <t>14,45,14</t>
         </is>
       </c>
       <c r="F15" s="7" t="n">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="G15" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H15" s="16" t="n">
-        <v>28.06</v>
+        <v>20.05</v>
       </c>
       <c r="J15" s="5" t="n"/>
       <c r="L15" s="14" t="inlineStr">
@@ -17923,7 +17927,7 @@
         </is>
       </c>
       <c r="F23" s="20" t="n">
-        <v>9936</v>
+        <v>9922</v>
       </c>
       <c r="J23" s="5" t="n"/>
       <c r="L23" s="19" t="inlineStr">
@@ -18048,27 +18052,27 @@
       </c>
       <c r="C28" s="7" t="inlineStr">
         <is>
-          <t>Iver Matias Linge Glomnes</t>
+          <t>Mikkel Blikstad Thomassen</t>
         </is>
       </c>
       <c r="D28" s="7" t="n">
-        <v>1996</v>
+        <v>2003</v>
       </c>
       <c r="E28" s="17" t="inlineStr">
         <is>
-          <t>14,45,14</t>
+          <t>14,45,57</t>
         </is>
       </c>
       <c r="F28" s="7" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G28" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H28" s="16" t="n">
-        <v>20.05</v>
+        <v>28.06</v>
       </c>
       <c r="J28" s="5" t="n"/>
       <c r="L28" s="14" t="inlineStr">
@@ -18103,32 +18107,32 @@
     <row r="29" ht="13" customHeight="1">
       <c r="B29" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C29" s="7" t="inlineStr">
         <is>
-          <t>Mikkel Blikstad Thomassen</t>
+          <t>Mikkel Bakken</t>
         </is>
       </c>
       <c r="D29" s="7" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="E29" s="17" t="inlineStr">
         <is>
-          <t>14,45,57</t>
+          <t>8,36,18</t>
         </is>
       </c>
       <c r="F29" s="7" t="n">
-        <v>805</v>
+        <v>786</v>
       </c>
       <c r="G29" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H29" s="16" t="n">
-        <v>28.06</v>
+        <v>19.02</v>
       </c>
       <c r="J29" s="5" t="n"/>
       <c r="L29" s="14" t="inlineStr">
@@ -18168,27 +18172,27 @@
       </c>
       <c r="C30" s="7" t="inlineStr">
         <is>
-          <t>Mikkel Bakken</t>
+          <t>Iver Matias Linge Glomnes</t>
         </is>
       </c>
       <c r="D30" s="7" t="n">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="E30" s="17" t="inlineStr">
         <is>
-          <t>8,36,18</t>
+          <t>8,37,09</t>
         </is>
       </c>
       <c r="F30" s="7" t="n">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="G30" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H30" s="16" t="n">
-        <v>19.02</v>
+        <v>3.06</v>
       </c>
       <c r="J30" s="5" t="n"/>
       <c r="L30" s="14" t="inlineStr">
@@ -18223,32 +18227,32 @@
     <row r="31" ht="13" customHeight="1">
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C31" s="7" t="inlineStr">
         <is>
-          <t>Iver Matias Linge Glomnes</t>
+          <t>Mikkel Bakken</t>
         </is>
       </c>
       <c r="D31" s="7" t="n">
-        <v>1996</v>
+        <v>2005</v>
       </c>
       <c r="E31" s="17" t="inlineStr">
         <is>
-          <t>8,37,09</t>
+          <t>4,00,15</t>
         </is>
       </c>
       <c r="F31" s="7" t="n">
-        <v>782</v>
+        <v>759</v>
       </c>
       <c r="G31" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="H31" s="16" t="n">
-        <v>3.06</v>
+        <v>4.02</v>
       </c>
       <c r="J31" s="5" t="n"/>
       <c r="L31" s="14" t="inlineStr">
@@ -18283,32 +18287,32 @@
     <row r="32" ht="13" customHeight="1">
       <c r="B32" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C32" s="7" t="inlineStr">
         <is>
-          <t>Mikkel Bakken</t>
+          <t>Mikkel Blikstad Thomassen</t>
         </is>
       </c>
       <c r="D32" s="7" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="E32" s="17" t="inlineStr">
         <is>
-          <t>4,00,15</t>
+          <t>1,57,82</t>
         </is>
       </c>
       <c r="F32" s="7" t="n">
-        <v>759</v>
+        <v>731</v>
       </c>
       <c r="G32" s="7" t="inlineStr">
         <is>
-          <t>Hvam</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H32" s="16" t="n">
-        <v>4.02</v>
+        <v>4.06</v>
       </c>
       <c r="J32" s="5" t="n"/>
       <c r="L32" s="14" t="inlineStr">
@@ -18343,24 +18347,24 @@
     <row r="33" ht="13" customHeight="1">
       <c r="B33" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C33" s="7" t="inlineStr">
         <is>
-          <t>Mikkel Blikstad Thomassen</t>
+          <t>Henrik Velle</t>
         </is>
       </c>
       <c r="D33" s="7" t="n">
-        <v>2003</v>
+        <v>1991</v>
       </c>
       <c r="E33" s="17" t="inlineStr">
         <is>
-          <t>1,57,82</t>
+          <t>15,19,74</t>
         </is>
       </c>
       <c r="F33" s="7" t="n">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G33" s="7" t="inlineStr">
         <is>
@@ -18368,7 +18372,7 @@
         </is>
       </c>
       <c r="H33" s="16" t="n">
-        <v>4.06</v>
+        <v>28.06</v>
       </c>
       <c r="J33" s="5" t="n"/>
       <c r="L33" s="14" t="inlineStr">
@@ -18403,32 +18407,32 @@
     <row r="34" ht="13" customHeight="1">
       <c r="B34" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C34" s="7" t="inlineStr">
         <is>
-          <t>Henrik Velle</t>
+          <t>Abdullahi Hassan Ali</t>
         </is>
       </c>
       <c r="D34" s="7" t="n">
-        <v>1991</v>
+        <v>1994</v>
       </c>
       <c r="E34" s="17" t="inlineStr">
         <is>
-          <t>15,19,74</t>
+          <t>8,50,58</t>
         </is>
       </c>
       <c r="F34" s="7" t="n">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="G34" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H34" s="16" t="n">
-        <v>28.06</v>
+        <v>19.02</v>
       </c>
       <c r="J34" s="5" t="n"/>
       <c r="L34" s="14" t="inlineStr">
@@ -18468,7 +18472,7 @@
       </c>
       <c r="C35" s="7" t="inlineStr">
         <is>
-          <t>Abdullahi Hassan Ali</t>
+          <t>Jonas Riseth</t>
         </is>
       </c>
       <c r="D35" s="7" t="n">
@@ -18476,11 +18480,11 @@
       </c>
       <c r="E35" s="17" t="inlineStr">
         <is>
-          <t>8,50,58</t>
+          <t>8,51,94</t>
         </is>
       </c>
       <c r="F35" s="7" t="n">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="G35" s="7" t="inlineStr">
         <is>
@@ -18785,7 +18789,7 @@
         </is>
       </c>
       <c r="F41" s="20" t="n">
-        <v>8237</v>
+        <v>8151</v>
       </c>
       <c r="J41" s="5" t="n"/>
       <c r="L41" s="19" t="inlineStr">
@@ -18825,7 +18829,7 @@
         </is>
       </c>
       <c r="F43" s="20" t="n">
-        <v>18173</v>
+        <v>18073</v>
       </c>
       <c r="J43" s="5" t="n"/>
       <c r="L43" s="19" t="inlineStr">
@@ -18857,7 +18861,7 @@
         </is>
       </c>
       <c r="C45" s="20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J45" s="5" t="n"/>
       <c r="L45" s="19" t="inlineStr">
@@ -18908,7 +18912,7 @@
       </c>
       <c r="C49" s="7" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="F49" s="8" t="n">
@@ -18922,7 +18926,7 @@
       </c>
       <c r="M49" s="7" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Buskerud</t>
         </is>
       </c>
       <c r="P49" s="8" t="n">
@@ -18938,7 +18942,7 @@
       </c>
       <c r="C50" s="7" t="inlineStr">
         <is>
-          <t>IL Sandvin</t>
+          <t>Stord IL</t>
         </is>
       </c>
       <c r="J50" s="5" t="n"/>
@@ -18949,7 +18953,7 @@
       </c>
       <c r="M50" s="7" t="inlineStr">
         <is>
-          <t>Stord IL</t>
+          <t>IL Sandvin</t>
         </is>
       </c>
       <c r="T50" s="5" t="n"/>
@@ -19078,25 +19082,25 @@
       </c>
       <c r="C56" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Steffen Tjensvoll Hollund</t>
         </is>
       </c>
       <c r="D56" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E56" s="15" t="n">
-        <v>6.96</v>
+        <v>7.61</v>
       </c>
       <c r="F56" s="7" t="n">
-        <v>882</v>
+        <v>621</v>
       </c>
       <c r="G56" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H56" s="16" t="n">
-        <v>18.02</v>
+        <v>18.01</v>
       </c>
       <c r="J56" s="5" t="n"/>
       <c r="L56" s="14" t="inlineStr">
@@ -19106,25 +19110,25 @@
       </c>
       <c r="M56" s="7" t="inlineStr">
         <is>
-          <t>Steffen Tjensvoll Hollund</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="N56" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="O56" s="15" t="n">
-        <v>7.61</v>
+        <v>6.96</v>
       </c>
       <c r="P56" s="7" t="n">
-        <v>621</v>
+        <v>882</v>
       </c>
       <c r="Q56" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R56" s="16" t="n">
-        <v>18.01</v>
+        <v>18.02</v>
       </c>
       <c r="T56" s="5" t="n"/>
     </row>
@@ -19136,25 +19140,25 @@
       </c>
       <c r="C57" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Steffen Tjensvoll Hollund</t>
         </is>
       </c>
       <c r="D57" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E57" s="15" t="n">
-        <v>10.9</v>
+        <v>11.92</v>
       </c>
       <c r="F57" s="7" t="n">
-        <v>867</v>
+        <v>627</v>
       </c>
       <c r="G57" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H57" s="16" t="n">
-        <v>13.05</v>
+        <v>18.06</v>
       </c>
       <c r="J57" s="5" t="n"/>
       <c r="L57" s="14" t="inlineStr">
@@ -19164,25 +19168,25 @@
       </c>
       <c r="M57" s="7" t="inlineStr">
         <is>
-          <t>Steffen Tjensvoll Hollund</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="N57" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="O57" s="15" t="n">
-        <v>11.92</v>
+        <v>10.9</v>
       </c>
       <c r="P57" s="7" t="n">
-        <v>627</v>
+        <v>867</v>
       </c>
       <c r="Q57" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R57" s="16" t="n">
-        <v>18.06</v>
+        <v>13.05</v>
       </c>
       <c r="T57" s="5" t="n"/>
     </row>
@@ -19194,25 +19198,25 @@
       </c>
       <c r="C58" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Steffen Tjensvoll Hollund</t>
         </is>
       </c>
       <c r="D58" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E58" s="15" t="n">
-        <v>22.05</v>
+        <v>24.29</v>
       </c>
       <c r="F58" s="7" t="n">
-        <v>855</v>
+        <v>620</v>
       </c>
       <c r="G58" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H58" s="16" t="n">
-        <v>2.07</v>
+        <v>16.06</v>
       </c>
       <c r="J58" s="5" t="n"/>
       <c r="L58" s="14" t="inlineStr">
@@ -19222,97 +19226,97 @@
       </c>
       <c r="M58" s="7" t="inlineStr">
         <is>
-          <t>Steffen Tjensvoll Hollund</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="N58" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="O58" s="15" t="n">
-        <v>24.29</v>
+        <v>22.05</v>
       </c>
       <c r="P58" s="7" t="n">
-        <v>620</v>
+        <v>855</v>
       </c>
       <c r="Q58" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R58" s="16" t="n">
-        <v>16.06</v>
+        <v>2.07</v>
       </c>
       <c r="T58" s="5" t="n"/>
     </row>
     <row r="59" ht="13" customHeight="1">
       <c r="B59" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C59" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Johannes Sandvik Bø</t>
         </is>
       </c>
       <c r="D59" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E59" s="15" t="n">
-        <v>51.39</v>
+        <v>2006</v>
+      </c>
+      <c r="E59" s="17" t="inlineStr">
+        <is>
+          <t>1,55,07</t>
+        </is>
       </c>
       <c r="F59" s="7" t="n">
-        <v>716</v>
+        <v>791</v>
       </c>
       <c r="G59" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H59" s="16" t="n">
-        <v>20.05</v>
+        <v>6.07</v>
       </c>
       <c r="J59" s="5" t="n"/>
       <c r="L59" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M59" s="7" t="inlineStr">
         <is>
-          <t>Johannes Sandvik Bø</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="N59" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O59" s="17" t="inlineStr">
-        <is>
-          <t>1,55,07</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="O59" s="15" t="n">
+        <v>51.39</v>
       </c>
       <c r="P59" s="7" t="n">
-        <v>791</v>
+        <v>716</v>
       </c>
       <c r="Q59" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R59" s="16" t="n">
-        <v>6.07</v>
+        <v>20.05</v>
       </c>
       <c r="T59" s="5" t="n"/>
     </row>
     <row r="60" ht="13" customHeight="1">
       <c r="B60" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C60" s="7" t="inlineStr">
         <is>
-          <t>Tobias Kalmo Thorbjørnsen</t>
+          <t>Johannes Sandvik Bø</t>
         </is>
       </c>
       <c r="D60" s="7" t="n">
@@ -19320,29 +19324,29 @@
       </c>
       <c r="E60" s="17" t="inlineStr">
         <is>
-          <t>2,24,89</t>
+          <t>3,58,57</t>
         </is>
       </c>
       <c r="F60" s="7" t="n">
-        <v>347</v>
+        <v>775</v>
       </c>
       <c r="G60" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H60" s="16" t="n">
-        <v>29.01</v>
+        <v>8.06</v>
       </c>
       <c r="J60" s="5" t="n"/>
       <c r="L60" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M60" s="7" t="inlineStr">
         <is>
-          <t>Johannes Sandvik Bø</t>
+          <t>Tobias Kalmo Thorbjørnsen</t>
         </is>
       </c>
       <c r="N60" s="7" t="n">
@@ -19350,493 +19354,493 @@
       </c>
       <c r="O60" s="17" t="inlineStr">
         <is>
-          <t>3,58,57</t>
+          <t>2,24,89</t>
         </is>
       </c>
       <c r="P60" s="7" t="n">
-        <v>775</v>
+        <v>347</v>
       </c>
       <c r="Q60" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R60" s="16" t="n">
-        <v>8.06</v>
+        <v>29.01</v>
       </c>
       <c r="T60" s="5" t="n"/>
     </row>
     <row r="61" ht="13" customHeight="1">
       <c r="B61" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C61" s="7" t="inlineStr">
         <is>
-          <t>Hans Øyvind Sundve</t>
+          <t>Erlend Kringeland</t>
         </is>
       </c>
       <c r="D61" s="7" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="E61" s="17" t="inlineStr">
         <is>
-          <t>4,50,73</t>
+          <t>8,30,48</t>
         </is>
       </c>
       <c r="F61" s="7" t="n">
-        <v>401</v>
+        <v>811</v>
       </c>
       <c r="G61" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H61" s="16" t="n">
-        <v>6.05</v>
+        <v>4.05</v>
       </c>
       <c r="J61" s="5" t="n"/>
       <c r="L61" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M61" s="7" t="inlineStr">
         <is>
-          <t>Erlend Kringeland</t>
+          <t>Hans Øyvind Sundve</t>
         </is>
       </c>
       <c r="N61" s="7" t="n">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="O61" s="17" t="inlineStr">
         <is>
-          <t>8,30,48</t>
+          <t>4,50,73</t>
         </is>
       </c>
       <c r="P61" s="7" t="n">
-        <v>811</v>
+        <v>401</v>
       </c>
       <c r="Q61" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="R61" s="16" t="n">
-        <v>4.05</v>
+        <v>6.05</v>
       </c>
       <c r="T61" s="5" t="n"/>
     </row>
     <row r="62" ht="13" customHeight="1">
       <c r="B62" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C62" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Lars Lunde</t>
         </is>
       </c>
       <c r="D62" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E62" s="15" t="n">
-        <v>1.84</v>
+        <v>1997</v>
+      </c>
+      <c r="E62" s="17" t="inlineStr">
+        <is>
+          <t>14,49,71</t>
+        </is>
       </c>
       <c r="F62" s="7" t="n">
-        <v>687</v>
+        <v>795</v>
       </c>
       <c r="G62" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H62" s="16" t="n">
-        <v>20.05</v>
+        <v>6.07</v>
       </c>
       <c r="J62" s="5" t="n"/>
       <c r="L62" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M62" s="7" t="inlineStr">
         <is>
-          <t>Lars Lunde</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="N62" s="7" t="n">
-        <v>1997</v>
-      </c>
-      <c r="O62" s="17" t="inlineStr">
-        <is>
-          <t>14,49,71</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="O62" s="15" t="n">
+        <v>1.84</v>
       </c>
       <c r="P62" s="7" t="n">
-        <v>795</v>
+        <v>687</v>
       </c>
       <c r="Q62" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R62" s="16" t="n">
-        <v>6.07</v>
+        <v>20.05</v>
       </c>
       <c r="T62" s="5" t="n"/>
     </row>
     <row r="63" ht="13" customHeight="1">
       <c r="B63" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="C63" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Martin Schei</t>
         </is>
       </c>
       <c r="D63" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E63" s="15" t="n">
-        <v>4.5</v>
+        <v>2000</v>
+      </c>
+      <c r="E63" s="17" t="inlineStr">
+        <is>
+          <t>31,34,17</t>
+        </is>
       </c>
       <c r="F63" s="7" t="n">
-        <v>814</v>
+        <v>764</v>
       </c>
       <c r="G63" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H63" s="16" t="n">
-        <v>21.05</v>
+        <v>3.06</v>
       </c>
       <c r="J63" s="5" t="n"/>
       <c r="L63" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M63" s="7" t="inlineStr">
         <is>
-          <t>Martin Schei</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="N63" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O63" s="17" t="inlineStr">
-        <is>
-          <t>31,34,17</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="O63" s="15" t="n">
+        <v>4.5</v>
       </c>
       <c r="P63" s="7" t="n">
-        <v>764</v>
+        <v>814</v>
       </c>
       <c r="Q63" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R63" s="16" t="n">
-        <v>3.06</v>
+        <v>21.05</v>
       </c>
       <c r="T63" s="5" t="n"/>
     </row>
     <row r="64" ht="13" customHeight="1">
       <c r="B64" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>3000m hinder</t>
         </is>
       </c>
       <c r="C64" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Tom Erling Kårbø</t>
         </is>
       </c>
       <c r="D64" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E64" s="15" t="n">
-        <v>6.28</v>
+        <v>1989</v>
+      </c>
+      <c r="E64" s="17" t="inlineStr">
+        <is>
+          <t>8,31,51</t>
+        </is>
       </c>
       <c r="F64" s="7" t="n">
-        <v>669</v>
+        <v>981</v>
       </c>
       <c r="G64" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Liege/BEL</t>
         </is>
       </c>
       <c r="H64" s="16" t="n">
-        <v>20.05</v>
+        <v>12.07</v>
       </c>
       <c r="J64" s="5" t="n"/>
       <c r="L64" s="14" t="inlineStr">
         <is>
-          <t>3000m hinder</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M64" s="7" t="inlineStr">
         <is>
-          <t>Tom Erling Kårbø</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="N64" s="7" t="n">
-        <v>1989</v>
-      </c>
-      <c r="O64" s="17" t="inlineStr">
-        <is>
-          <t>8,31,51</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="O64" s="15" t="n">
+        <v>6.28</v>
       </c>
       <c r="P64" s="7" t="n">
-        <v>981</v>
+        <v>669</v>
       </c>
       <c r="Q64" s="7" t="inlineStr">
         <is>
-          <t>Liege/BEL</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R64" s="16" t="n">
-        <v>12.07</v>
+        <v>20.05</v>
       </c>
       <c r="T64" s="5" t="n"/>
     </row>
     <row r="65" ht="13" customHeight="1">
       <c r="B65" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C65" s="7" t="inlineStr">
         <is>
-          <t>Lucas Bricot</t>
+          <t>Oscar Sørvik Ånderå</t>
         </is>
       </c>
       <c r="D65" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E65" s="15" t="n">
-        <v>11.86</v>
+        <v>1.75</v>
       </c>
       <c r="F65" s="7" t="n">
-        <v>544</v>
+        <v>607</v>
       </c>
       <c r="G65" s="7" t="inlineStr">
         <is>
-          <t>Sande</t>
+          <t>Leirvik</t>
         </is>
       </c>
       <c r="H65" s="16" t="n">
-        <v>12.06</v>
+        <v>4.02</v>
       </c>
       <c r="J65" s="5" t="n"/>
       <c r="L65" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M65" s="7" t="inlineStr">
         <is>
-          <t>Oscar Sørvik Ånderå</t>
+          <t>Lucas Bricot</t>
         </is>
       </c>
       <c r="N65" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O65" s="15" t="n">
-        <v>1.75</v>
+        <v>11.86</v>
       </c>
       <c r="P65" s="7" t="n">
-        <v>607</v>
+        <v>544</v>
       </c>
       <c r="Q65" s="7" t="inlineStr">
         <is>
-          <t>Leirvik</t>
+          <t>Sande</t>
         </is>
       </c>
       <c r="R65" s="16" t="n">
-        <v>4.02</v>
+        <v>12.06</v>
       </c>
       <c r="T65" s="5" t="n"/>
     </row>
     <row r="66" ht="13" customHeight="1">
       <c r="B66" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C66" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Oddvar Hårde</t>
         </is>
       </c>
       <c r="D66" s="7" t="n">
-        <v>2004</v>
+        <v>1969</v>
       </c>
       <c r="E66" s="15" t="n">
-        <v>1.35</v>
+        <v>3.35</v>
       </c>
       <c r="F66" s="7" t="n">
-        <v>503</v>
+        <v>581</v>
       </c>
       <c r="G66" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H66" s="16" t="n">
-        <v>13.04</v>
+        <v>11.02</v>
       </c>
       <c r="J66" s="5" t="n"/>
       <c r="L66" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M66" s="7" t="inlineStr">
         <is>
-          <t>Oddvar Hårde</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="N66" s="7" t="n">
-        <v>1969</v>
+        <v>2004</v>
       </c>
       <c r="O66" s="15" t="n">
-        <v>3.35</v>
+        <v>1.35</v>
       </c>
       <c r="P66" s="7" t="n">
-        <v>581</v>
+        <v>503</v>
       </c>
       <c r="Q66" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="R66" s="16" t="n">
-        <v>11.02</v>
+        <v>13.04</v>
       </c>
       <c r="T66" s="5" t="n"/>
     </row>
     <row r="67" ht="13" customHeight="1">
       <c r="B67" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C67" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Oscar Sørvik Ånderå</t>
         </is>
       </c>
       <c r="D67" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E67" s="15" t="n">
-        <v>2.96</v>
+        <v>1.41</v>
       </c>
       <c r="F67" s="7" t="n">
-        <v>650</v>
+        <v>572</v>
       </c>
       <c r="G67" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Bømlo</t>
         </is>
       </c>
       <c r="H67" s="16" t="n">
-        <v>19.02</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J67" s="5" t="n"/>
       <c r="L67" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M67" s="7" t="inlineStr">
         <is>
-          <t>Oscar Sørvik Ånderå</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="N67" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O67" s="15" t="n">
-        <v>1.41</v>
+        <v>2.96</v>
       </c>
       <c r="P67" s="7" t="n">
-        <v>572</v>
+        <v>650</v>
       </c>
       <c r="Q67" s="7" t="inlineStr">
         <is>
-          <t>Bømlo</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R67" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>19.02</v>
       </c>
       <c r="T67" s="5" t="n"/>
     </row>
     <row r="68" ht="13" customHeight="1">
       <c r="B68" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C68" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Julian Skimmeland Aasheim</t>
         </is>
       </c>
       <c r="D68" s="7" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="E68" s="15" t="n">
-        <v>49.53</v>
+        <v>2.88</v>
       </c>
       <c r="F68" s="7" t="n">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="G68" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Leirvik</t>
         </is>
       </c>
       <c r="H68" s="16" t="n">
-        <v>13.05</v>
+        <v>23.01</v>
       </c>
       <c r="J68" s="5" t="n"/>
       <c r="L68" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M68" s="7" t="inlineStr">
         <is>
-          <t>Julian Skimmeland Aasheim</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="N68" s="7" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="O68" s="15" t="n">
-        <v>2.88</v>
+        <v>49.53</v>
       </c>
       <c r="P68" s="7" t="n">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="Q68" s="7" t="inlineStr">
         <is>
-          <t>Leirvik</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R68" s="16" t="n">
-        <v>23.01</v>
+        <v>13.05</v>
       </c>
       <c r="T68" s="5" t="n"/>
     </row>
@@ -19873,7 +19877,7 @@
         </is>
       </c>
       <c r="F70" s="20" t="n">
-        <v>8555</v>
+        <v>9150</v>
       </c>
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="19" t="inlineStr">
@@ -19890,7 +19894,7 @@
         </is>
       </c>
       <c r="P70" s="20" t="n">
-        <v>9150</v>
+        <v>8555</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
@@ -19993,478 +19997,480 @@
     <row r="75" ht="13" customHeight="1">
       <c r="B75" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C75" s="7" t="inlineStr">
         <is>
-          <t>Alexander Tomala</t>
+          <t>Johannes Sandvik Bø</t>
         </is>
       </c>
       <c r="D75" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E75" s="15" t="n">
-        <v>22.84</v>
+        <v>2006</v>
+      </c>
+      <c r="E75" s="17" t="inlineStr">
+        <is>
+          <t>8,42,57</t>
+        </is>
       </c>
       <c r="F75" s="7" t="n">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="G75" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H75" s="16" t="n">
-        <v>2.07</v>
+        <v>16.06</v>
       </c>
       <c r="J75" s="5" t="n"/>
       <c r="L75" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M75" s="7" t="inlineStr">
         <is>
-          <t>Johannes Sandvik Bø</t>
+          <t>Alexander Tomala</t>
         </is>
       </c>
       <c r="N75" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O75" s="17" t="inlineStr">
-        <is>
-          <t>8,42,57</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="O75" s="15" t="n">
+        <v>22.84</v>
       </c>
       <c r="P75" s="7" t="n">
-        <v>758</v>
+        <v>766</v>
       </c>
       <c r="Q75" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R75" s="16" t="n">
-        <v>16.06</v>
+        <v>2.07</v>
       </c>
       <c r="T75" s="5" t="n"/>
     </row>
     <row r="76" ht="13" customHeight="1">
       <c r="B76" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C76" s="7" t="inlineStr">
         <is>
-          <t>Siver Olavsbråten Ebbestad</t>
+          <t>Johannes Sandvik Bø</t>
         </is>
       </c>
       <c r="D76" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E76" s="15" t="n">
-        <v>4.2</v>
+        <v>2006</v>
+      </c>
+      <c r="E76" s="17" t="inlineStr">
+        <is>
+          <t>15,14,7</t>
+        </is>
       </c>
       <c r="F76" s="7" t="n">
-        <v>759</v>
+        <v>739</v>
       </c>
       <c r="G76" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Austevoll</t>
         </is>
       </c>
       <c r="H76" s="16" t="n">
-        <v>17.06</v>
+        <v>7.05</v>
       </c>
       <c r="J76" s="5" t="n"/>
       <c r="L76" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M76" s="7" t="inlineStr">
         <is>
-          <t>Johannes Sandvik Bø</t>
+          <t>Siver Olavsbråten Ebbestad</t>
         </is>
       </c>
       <c r="N76" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O76" s="17" t="inlineStr">
-        <is>
-          <t>15,14,7</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="O76" s="15" t="n">
+        <v>4.2</v>
       </c>
       <c r="P76" s="7" t="n">
-        <v>739</v>
+        <v>759</v>
       </c>
       <c r="Q76" s="7" t="inlineStr">
         <is>
-          <t>Austevoll</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R76" s="16" t="n">
-        <v>7.05</v>
+        <v>17.06</v>
       </c>
       <c r="T76" s="5" t="n"/>
     </row>
     <row r="77" ht="13" customHeight="1">
       <c r="B77" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C77" s="7" t="inlineStr">
         <is>
-          <t>Oliver Tomala</t>
+          <t>Martin Schei</t>
         </is>
       </c>
       <c r="D77" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E77" s="15" t="n">
-        <v>22.99</v>
+        <v>2000</v>
+      </c>
+      <c r="E77" s="17" t="inlineStr">
+        <is>
+          <t>15,22,36</t>
+        </is>
       </c>
       <c r="F77" s="7" t="n">
-        <v>750</v>
+        <v>723</v>
       </c>
       <c r="G77" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H77" s="16" t="n">
-        <v>23.06</v>
+        <v>6.07</v>
       </c>
       <c r="J77" s="5" t="n"/>
       <c r="L77" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M77" s="7" t="inlineStr">
         <is>
-          <t>Martin Schei</t>
+          <t>Oliver Tomala</t>
         </is>
       </c>
       <c r="N77" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O77" s="17" t="inlineStr">
-        <is>
-          <t>15,22,36</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O77" s="15" t="n">
+        <v>22.99</v>
       </c>
       <c r="P77" s="7" t="n">
-        <v>723</v>
+        <v>750</v>
       </c>
       <c r="Q77" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R77" s="16" t="n">
-        <v>6.07</v>
+        <v>23.06</v>
       </c>
       <c r="T77" s="5" t="n"/>
     </row>
     <row r="78" ht="13" customHeight="1">
       <c r="B78" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C78" s="7" t="inlineStr">
         <is>
-          <t>Alexander Tomala</t>
+          <t>Erlend Kringeland</t>
         </is>
       </c>
       <c r="D78" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E78" s="15" t="n">
-        <v>11.38</v>
+        <v>2003</v>
+      </c>
+      <c r="E78" s="17" t="inlineStr">
+        <is>
+          <t>1,58,94</t>
+        </is>
       </c>
       <c r="F78" s="7" t="n">
-        <v>748</v>
+        <v>708</v>
       </c>
       <c r="G78" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H78" s="16" t="n">
-        <v>25.06</v>
+        <v>17.06</v>
       </c>
       <c r="J78" s="5" t="n"/>
       <c r="L78" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M78" s="7" t="inlineStr">
         <is>
-          <t>Erlend Kringeland</t>
+          <t>Alexander Tomala</t>
         </is>
       </c>
       <c r="N78" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O78" s="17" t="inlineStr">
-        <is>
-          <t>1,58,94</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="O78" s="15" t="n">
+        <v>11.38</v>
       </c>
       <c r="P78" s="7" t="n">
-        <v>708</v>
+        <v>748</v>
       </c>
       <c r="Q78" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R78" s="16" t="n">
-        <v>17.06</v>
+        <v>25.06</v>
       </c>
       <c r="T78" s="5" t="n"/>
     </row>
     <row r="79" ht="13" customHeight="1">
       <c r="B79" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C79" s="7" t="inlineStr">
         <is>
-          <t>Oliver Tomala</t>
+          <t>Martin Schei</t>
         </is>
       </c>
       <c r="D79" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E79" s="15" t="n">
-        <v>11.4</v>
+        <v>2000</v>
+      </c>
+      <c r="E79" s="17" t="inlineStr">
+        <is>
+          <t>8,54,83</t>
+        </is>
       </c>
       <c r="F79" s="7" t="n">
-        <v>743</v>
+        <v>708</v>
       </c>
       <c r="G79" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H79" s="16" t="n">
-        <v>25.06</v>
+        <v>16.05</v>
       </c>
       <c r="J79" s="5" t="n"/>
       <c r="L79" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M79" s="7" t="inlineStr">
         <is>
-          <t>Martin Schei</t>
+          <t>Oliver Tomala</t>
         </is>
       </c>
       <c r="N79" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O79" s="17" t="inlineStr">
-        <is>
-          <t>8,54,83</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O79" s="15" t="n">
+        <v>11.4</v>
       </c>
       <c r="P79" s="7" t="n">
-        <v>708</v>
+        <v>743</v>
       </c>
       <c r="Q79" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R79" s="16" t="n">
-        <v>16.05</v>
+        <v>25.06</v>
       </c>
       <c r="T79" s="5" t="n"/>
     </row>
     <row r="80" ht="13" customHeight="1">
       <c r="B80" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C80" s="7" t="inlineStr">
         <is>
-          <t>Alexander Tomala</t>
+          <t>Jacob Hystad</t>
         </is>
       </c>
       <c r="D80" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E80" s="15" t="n">
-        <v>7.34</v>
+        <v>1990</v>
+      </c>
+      <c r="E80" s="17" t="inlineStr">
+        <is>
+          <t>15,45,76</t>
+        </is>
       </c>
       <c r="F80" s="7" t="n">
-        <v>721</v>
+        <v>674</v>
       </c>
       <c r="G80" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H80" s="16" t="n">
-        <v>4.03</v>
+        <v>28.06</v>
       </c>
       <c r="J80" s="5" t="n"/>
       <c r="L80" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M80" s="7" t="inlineStr">
         <is>
-          <t>Jacob Hystad</t>
+          <t>Alexander Tomala</t>
         </is>
       </c>
       <c r="N80" s="7" t="n">
-        <v>1990</v>
-      </c>
-      <c r="O80" s="17" t="inlineStr">
-        <is>
-          <t>15,45,76</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="O80" s="15" t="n">
+        <v>7.34</v>
       </c>
       <c r="P80" s="7" t="n">
-        <v>674</v>
+        <v>721</v>
       </c>
       <c r="Q80" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R80" s="16" t="n">
-        <v>28.06</v>
+        <v>4.03</v>
       </c>
       <c r="T80" s="5" t="n"/>
     </row>
     <row r="81" ht="13" customHeight="1">
       <c r="B81" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C81" s="7" t="inlineStr">
         <is>
-          <t>Oliver Tomala</t>
+          <t>Vegard Havn</t>
         </is>
       </c>
       <c r="D81" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E81" s="15" t="n">
-        <v>7.42</v>
+        <v>1997</v>
+      </c>
+      <c r="E81" s="17" t="inlineStr">
+        <is>
+          <t>9,11,06</t>
+        </is>
       </c>
       <c r="F81" s="7" t="n">
-        <v>690</v>
+        <v>647</v>
       </c>
       <c r="G81" s="7" t="inlineStr">
         <is>
-          <t>Asker</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="H81" s="16" t="n">
-        <v>11.06</v>
+        <v>17.06</v>
       </c>
       <c r="J81" s="5" t="n"/>
       <c r="L81" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M81" s="7" t="inlineStr">
         <is>
-          <t>Martin Schei</t>
+          <t>Oliver Tomala</t>
         </is>
       </c>
       <c r="N81" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O81" s="17" t="inlineStr">
-        <is>
-          <t>2,07,36</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O81" s="15" t="n">
+        <v>7.42</v>
       </c>
       <c r="P81" s="7" t="n">
-        <v>562</v>
+        <v>690</v>
       </c>
       <c r="Q81" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Asker</t>
         </is>
       </c>
       <c r="R81" s="16" t="n">
-        <v>14.02</v>
+        <v>11.06</v>
       </c>
       <c r="T81" s="5" t="n"/>
     </row>
     <row r="82" ht="13" customHeight="1">
       <c r="B82" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C82" s="7" t="inlineStr">
         <is>
-          <t>Marcus Valentin Giörtz Mondoka</t>
+          <t>Martin Schei</t>
         </is>
       </c>
       <c r="D82" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E82" s="15" t="n">
-        <v>1.78</v>
+        <v>2000</v>
+      </c>
+      <c r="E82" s="17" t="inlineStr">
+        <is>
+          <t>2,07,36</t>
+        </is>
       </c>
       <c r="F82" s="7" t="n">
-        <v>634</v>
+        <v>562</v>
       </c>
       <c r="G82" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H82" s="16" t="n">
-        <v>5.03</v>
+        <v>14.02</v>
       </c>
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M82" s="7" t="inlineStr">
         <is>
-          <t>Oscar Sørvik Ånderå</t>
+          <t>Marcus Valentin Giörtz Mondoka</t>
         </is>
       </c>
       <c r="N82" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O82" s="15" t="n">
-        <v>7.8</v>
+        <v>1.78</v>
       </c>
       <c r="P82" s="7" t="n">
-        <v>558</v>
+        <v>634</v>
       </c>
       <c r="Q82" s="7" t="inlineStr">
         <is>
-          <t>Leirvik</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R82" s="16" t="n">
-        <v>4.02</v>
+        <v>5.03</v>
       </c>
       <c r="T82" s="5" t="n"/>
     </row>
@@ -20476,17 +20482,17 @@
       </c>
       <c r="C83" s="7" t="inlineStr">
         <is>
-          <t>Marcus Valentin Giörtz Mondoka</t>
+          <t>Steffen Tjensvoll Hollund</t>
         </is>
       </c>
       <c r="D83" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E83" s="15" t="n">
-        <v>6.02</v>
+        <v>5.68</v>
       </c>
       <c r="F83" s="7" t="n">
-        <v>611</v>
+        <v>533</v>
       </c>
       <c r="G83" s="7" t="inlineStr">
         <is>
@@ -20494,7 +20500,7 @@
         </is>
       </c>
       <c r="H83" s="16" t="n">
-        <v>16.06</v>
+        <v>18.06</v>
       </c>
       <c r="J83" s="5" t="n"/>
       <c r="L83" s="14" t="inlineStr">
@@ -20504,17 +20510,17 @@
       </c>
       <c r="M83" s="7" t="inlineStr">
         <is>
-          <t>Steffen Tjensvoll Hollund</t>
+          <t>Marcus Valentin Giörtz Mondoka</t>
         </is>
       </c>
       <c r="N83" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O83" s="15" t="n">
-        <v>5.68</v>
+        <v>6.02</v>
       </c>
       <c r="P83" s="7" t="n">
-        <v>533</v>
+        <v>611</v>
       </c>
       <c r="Q83" s="7" t="inlineStr">
         <is>
@@ -20522,181 +20528,181 @@
         </is>
       </c>
       <c r="R83" s="16" t="n">
-        <v>18.06</v>
+        <v>16.06</v>
       </c>
       <c r="T83" s="5" t="n"/>
     </row>
     <row r="84" ht="13" customHeight="1">
       <c r="B84" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C84" s="7" t="inlineStr">
         <is>
-          <t>Marcus Valentin Giörtz Mondoka</t>
+          <t>Per Gregersen</t>
         </is>
       </c>
       <c r="D84" s="7" t="n">
-        <v>2007</v>
+        <v>1970</v>
       </c>
       <c r="E84" s="15" t="n">
-        <v>24.59</v>
+        <v>3.1</v>
       </c>
       <c r="F84" s="7" t="n">
-        <v>592</v>
+        <v>523</v>
       </c>
       <c r="G84" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Reykjavik/ISL</t>
         </is>
       </c>
       <c r="H84" s="16" t="n">
-        <v>17.06</v>
+        <v>25.02</v>
       </c>
       <c r="J84" s="5" t="n"/>
       <c r="L84" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M84" s="7" t="inlineStr">
         <is>
-          <t>Per Gregersen</t>
+          <t>Marcus Valentin Giörtz Mondoka</t>
         </is>
       </c>
       <c r="N84" s="7" t="n">
-        <v>1970</v>
+        <v>2007</v>
       </c>
       <c r="O84" s="15" t="n">
-        <v>3.1</v>
+        <v>24.59</v>
       </c>
       <c r="P84" s="7" t="n">
-        <v>523</v>
+        <v>592</v>
       </c>
       <c r="Q84" s="7" t="inlineStr">
         <is>
-          <t>Reykjavik/ISL</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R84" s="16" t="n">
-        <v>25.02</v>
+        <v>17.06</v>
       </c>
       <c r="T84" s="5" t="n"/>
     </row>
     <row r="85" ht="13" customHeight="1">
       <c r="B85" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C85" s="7" t="inlineStr">
         <is>
-          <t>Tobias Kalmo Thorbjørnsen</t>
+          <t>Steffen Tjensvoll Hollund</t>
         </is>
       </c>
       <c r="D85" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="E85" s="15" t="n">
-        <v>3.37</v>
+        <v>2.72</v>
       </c>
       <c r="F85" s="7" t="n">
-        <v>586</v>
+        <v>515</v>
       </c>
       <c r="G85" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Bømlo</t>
         </is>
       </c>
       <c r="H85" s="16" t="n">
-        <v>11.02</v>
+        <v>9.02</v>
       </c>
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M85" s="7" t="inlineStr">
         <is>
-          <t>Steffen Tjensvoll Hollund</t>
+          <t>Tobias Kalmo Thorbjørnsen</t>
         </is>
       </c>
       <c r="N85" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="O85" s="15" t="n">
-        <v>2.72</v>
+        <v>3.37</v>
       </c>
       <c r="P85" s="7" t="n">
-        <v>515</v>
+        <v>586</v>
       </c>
       <c r="Q85" s="7" t="inlineStr">
         <is>
-          <t>Bømlo</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R85" s="16" t="n">
-        <v>9.02</v>
+        <v>11.02</v>
       </c>
       <c r="T85" s="5" t="n"/>
     </row>
     <row r="86" ht="13" customHeight="1">
       <c r="B86" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C86" s="7" t="inlineStr">
         <is>
-          <t>Lucas Bricot</t>
+          <t>Oscar Sørvik Ånderå</t>
         </is>
       </c>
       <c r="D86" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E86" s="15" t="n">
-        <v>12.22</v>
+        <v>2.7</v>
       </c>
       <c r="F86" s="7" t="n">
-        <v>566</v>
+        <v>503</v>
       </c>
       <c r="G86" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Bømlo</t>
         </is>
       </c>
       <c r="H86" s="16" t="n">
-        <v>13.05</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M86" s="7" t="inlineStr">
         <is>
-          <t>Oscar Sørvik Ånderå</t>
+          <t>Lucas Bricot</t>
         </is>
       </c>
       <c r="N86" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O86" s="15" t="n">
-        <v>2.7</v>
+        <v>12.22</v>
       </c>
       <c r="P86" s="7" t="n">
-        <v>503</v>
+        <v>566</v>
       </c>
       <c r="Q86" s="7" t="inlineStr">
         <is>
-          <t>Bømlo</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R86" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>13.05</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -20733,7 +20739,7 @@
         </is>
       </c>
       <c r="F88" s="20" t="n">
-        <v>8166</v>
+        <v>7593</v>
       </c>
       <c r="J88" s="5" t="n"/>
       <c r="L88" s="19" t="inlineStr">
@@ -20750,7 +20756,7 @@
         </is>
       </c>
       <c r="P88" s="20" t="n">
-        <v>7504</v>
+        <v>8166</v>
       </c>
       <c r="T88" s="5" t="n"/>
     </row>
@@ -20773,7 +20779,7 @@
         </is>
       </c>
       <c r="F90" s="20" t="n">
-        <v>16721</v>
+        <v>16743</v>
       </c>
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="19" t="inlineStr">
@@ -20790,7 +20796,7 @@
         </is>
       </c>
       <c r="P90" s="20" t="n">
-        <v>16654</v>
+        <v>16721</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
@@ -20805,7 +20811,7 @@
         </is>
       </c>
       <c r="C92" s="20" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J92" s="5" t="n"/>
       <c r="L92" s="19" t="inlineStr">
@@ -20814,7 +20820,7 @@
         </is>
       </c>
       <c r="M92" s="20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T92" s="5" t="n"/>
     </row>
@@ -22642,7 +22648,7 @@
       </c>
       <c r="C143" s="7" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Buskerud</t>
         </is>
       </c>
       <c r="F143" s="8" t="n">
@@ -22656,7 +22662,7 @@
       </c>
       <c r="M143" s="7" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="P143" s="8" t="n">
@@ -22672,7 +22678,7 @@
       </c>
       <c r="C144" s="7" t="inlineStr">
         <is>
-          <t>Fyllingen IL</t>
+          <t>IF Sturla</t>
         </is>
       </c>
       <c r="J144" s="5" t="n"/>
@@ -22683,7 +22689,7 @@
       </c>
       <c r="M144" s="7" t="inlineStr">
         <is>
-          <t>Sørild FIK</t>
+          <t>Fyllingen IL</t>
         </is>
       </c>
       <c r="T144" s="5" t="n"/>
@@ -22812,25 +22818,25 @@
       </c>
       <c r="C150" s="7" t="inlineStr">
         <is>
-          <t>Emil Gundersen</t>
+          <t>Mikael Girma Worku</t>
         </is>
       </c>
       <c r="D150" s="7" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E150" s="15" t="n">
-        <v>7.04</v>
+        <v>7.99</v>
       </c>
       <c r="F150" s="7" t="n">
-        <v>845</v>
+        <v>498</v>
       </c>
       <c r="G150" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="H150" s="16" t="n">
-        <v>11.02</v>
+        <v>11.03</v>
       </c>
       <c r="J150" s="5" t="n"/>
       <c r="L150" s="14" t="inlineStr">
@@ -22840,25 +22846,25 @@
       </c>
       <c r="M150" s="7" t="inlineStr">
         <is>
-          <t>Even Meinseth</t>
+          <t>Emil Gundersen</t>
         </is>
       </c>
       <c r="N150" s="7" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="O150" s="15" t="n">
-        <v>6.69</v>
+        <v>7.04</v>
       </c>
       <c r="P150" s="7" t="n">
-        <v>1015</v>
+        <v>845</v>
       </c>
       <c r="Q150" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R150" s="16" t="n">
-        <v>2.02</v>
+        <v>11.02</v>
       </c>
       <c r="T150" s="5" t="n"/>
     </row>
@@ -22870,25 +22876,25 @@
       </c>
       <c r="C151" s="7" t="inlineStr">
         <is>
-          <t>Emil Gundersen</t>
+          <t>Nicolai Christianssønn Risø</t>
         </is>
       </c>
       <c r="D151" s="7" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E151" s="15" t="n">
-        <v>10.84</v>
+        <v>11.66</v>
       </c>
       <c r="F151" s="7" t="n">
-        <v>883</v>
+        <v>684</v>
       </c>
       <c r="G151" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H151" s="16" t="n">
-        <v>25.06</v>
+        <v>3.06</v>
       </c>
       <c r="J151" s="5" t="n"/>
       <c r="L151" s="14" t="inlineStr">
@@ -22898,17 +22904,17 @@
       </c>
       <c r="M151" s="7" t="inlineStr">
         <is>
-          <t>Elias Solheim Sollid</t>
+          <t>Emil Gundersen</t>
         </is>
       </c>
       <c r="N151" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O151" s="15" t="n">
-        <v>10.98</v>
+        <v>10.84</v>
       </c>
       <c r="P151" s="7" t="n">
-        <v>846</v>
+        <v>883</v>
       </c>
       <c r="Q151" s="7" t="inlineStr">
         <is>
@@ -22928,25 +22934,25 @@
       </c>
       <c r="C152" s="7" t="inlineStr">
         <is>
-          <t>Emil Gundersen</t>
+          <t>Nicolai Christianssønn Risø</t>
         </is>
       </c>
       <c r="D152" s="7" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E152" s="15" t="n">
-        <v>21.96</v>
+        <v>23.64</v>
       </c>
       <c r="F152" s="7" t="n">
-        <v>865</v>
+        <v>683</v>
       </c>
       <c r="G152" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H152" s="16" t="n">
-        <v>2.07</v>
+        <v>23.06</v>
       </c>
       <c r="J152" s="5" t="n"/>
       <c r="L152" s="14" t="inlineStr">
@@ -22956,25 +22962,25 @@
       </c>
       <c r="M152" s="7" t="inlineStr">
         <is>
-          <t>Even Meinseth</t>
+          <t>Emil Gundersen</t>
         </is>
       </c>
       <c r="N152" s="7" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="O152" s="15" t="n">
-        <v>21.19</v>
+        <v>21.96</v>
       </c>
       <c r="P152" s="7" t="n">
-        <v>960</v>
+        <v>865</v>
       </c>
       <c r="Q152" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R152" s="16" t="n">
-        <v>15.06</v>
+        <v>2.07</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
@@ -22986,25 +22992,25 @@
       </c>
       <c r="C153" s="7" t="inlineStr">
         <is>
-          <t>Øyvind Magnus Morstøl</t>
+          <t>Nicolai Christianssønn Risø</t>
         </is>
       </c>
       <c r="D153" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E153" s="15" t="n">
-        <v>53.59</v>
+        <v>53.46</v>
       </c>
       <c r="F153" s="7" t="n">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="G153" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H153" s="16" t="n">
-        <v>18.06</v>
+        <v>24.06</v>
       </c>
       <c r="J153" s="5" t="n"/>
       <c r="L153" s="14" t="inlineStr">
@@ -23014,17 +23020,17 @@
       </c>
       <c r="M153" s="7" t="inlineStr">
         <is>
-          <t>Andreas Solheim Sollid</t>
+          <t>Øyvind Magnus Morstøl</t>
         </is>
       </c>
       <c r="N153" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="O153" s="15" t="n">
-        <v>48.89</v>
+        <v>53.59</v>
       </c>
       <c r="P153" s="7" t="n">
-        <v>842</v>
+        <v>620</v>
       </c>
       <c r="Q153" s="7" t="inlineStr">
         <is>
@@ -23044,27 +23050,27 @@
       </c>
       <c r="C154" s="7" t="inlineStr">
         <is>
-          <t>Øyvind Magnus Morstøl</t>
+          <t>Haakon Heltzer Sørstad</t>
         </is>
       </c>
       <c r="D154" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E154" s="17" t="inlineStr">
         <is>
-          <t>2,00,34</t>
+          <t>2,02,85</t>
         </is>
       </c>
       <c r="F154" s="7" t="n">
-        <v>681</v>
+        <v>634</v>
       </c>
       <c r="G154" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H154" s="16" t="n">
-        <v>17.06</v>
+        <v>25.06</v>
       </c>
       <c r="J154" s="5" t="n"/>
       <c r="L154" s="14" t="inlineStr">
@@ -23074,27 +23080,27 @@
       </c>
       <c r="M154" s="7" t="inlineStr">
         <is>
-          <t>Stian Flo</t>
+          <t>Øyvind Magnus Morstøl</t>
         </is>
       </c>
       <c r="N154" s="7" t="n">
-        <v>1985</v>
+        <v>2007</v>
       </c>
       <c r="O154" s="17" t="inlineStr">
         <is>
-          <t>1,59,87</t>
+          <t>2,00,34</t>
         </is>
       </c>
       <c r="P154" s="7" t="n">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="Q154" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R154" s="16" t="n">
-        <v>14.05</v>
+        <v>17.06</v>
       </c>
       <c r="T154" s="5" t="n"/>
     </row>
@@ -23106,7 +23112,7 @@
       </c>
       <c r="C155" s="7" t="inlineStr">
         <is>
-          <t>Endre Hartvedt Haugen</t>
+          <t>Haakon Heltzer Sørstad</t>
         </is>
       </c>
       <c r="D155" s="7" t="n">
@@ -23114,19 +23120,19 @@
       </c>
       <c r="E155" s="17" t="inlineStr">
         <is>
-          <t>4,10,05</t>
+          <t>4,17,16</t>
         </is>
       </c>
       <c r="F155" s="7" t="n">
-        <v>671</v>
+        <v>615</v>
       </c>
       <c r="G155" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H155" s="16" t="n">
-        <v>11.02</v>
+        <v>8.06</v>
       </c>
       <c r="J155" s="5" t="n"/>
       <c r="L155" s="14" t="inlineStr">
@@ -23136,27 +23142,27 @@
       </c>
       <c r="M155" s="7" t="inlineStr">
         <is>
-          <t>Tobias Fretheim</t>
+          <t>Endre Hartvedt Haugen</t>
         </is>
       </c>
       <c r="N155" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="O155" s="17" t="inlineStr">
         <is>
-          <t>4,24,24</t>
+          <t>4,10,05</t>
         </is>
       </c>
       <c r="P155" s="7" t="n">
-        <v>564</v>
+        <v>671</v>
       </c>
       <c r="Q155" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R155" s="16" t="n">
-        <v>5.03</v>
+        <v>11.02</v>
       </c>
       <c r="T155" s="5" t="n"/>
     </row>
@@ -23168,27 +23174,27 @@
       </c>
       <c r="C156" s="7" t="inlineStr">
         <is>
-          <t>Sebastian Skoge-Nilsen</t>
+          <t>Haakon Heltzer Sørstad</t>
         </is>
       </c>
       <c r="D156" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="E156" s="17" t="inlineStr">
         <is>
-          <t>9,30,72</t>
+          <t>9,12,80</t>
         </is>
       </c>
       <c r="F156" s="7" t="n">
-        <v>580</v>
+        <v>641</v>
       </c>
       <c r="G156" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H156" s="16" t="n">
-        <v>16.06</v>
+        <v>24.06</v>
       </c>
       <c r="J156" s="5" t="n"/>
       <c r="L156" s="14" t="inlineStr">
@@ -23198,57 +23204,59 @@
       </c>
       <c r="M156" s="7" t="inlineStr">
         <is>
-          <t>Tobias Fretheim</t>
+          <t>Sebastian Skoge-Nilsen</t>
         </is>
       </c>
       <c r="N156" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O156" s="17" t="inlineStr">
         <is>
-          <t>9,33,51</t>
+          <t>9,30,72</t>
         </is>
       </c>
       <c r="P156" s="7" t="n">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q156" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R156" s="16" t="n">
-        <v>3.06</v>
+        <v>16.06</v>
       </c>
       <c r="T156" s="5" t="n"/>
     </row>
     <row r="157" ht="13" customHeight="1">
       <c r="B157" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C157" s="7" t="inlineStr">
         <is>
-          <t>David-George Stan</t>
+          <t>Haakon Heltzer Sørstad</t>
         </is>
       </c>
       <c r="D157" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E157" s="15" t="n">
-        <v>1.32</v>
+        <v>2008</v>
+      </c>
+      <c r="E157" s="17" t="inlineStr">
+        <is>
+          <t>15,59,62</t>
+        </is>
       </c>
       <c r="F157" s="7" t="n">
-        <v>125</v>
+        <v>646</v>
       </c>
       <c r="G157" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H157" s="16" t="n">
-        <v>13.05</v>
+        <v>16.07</v>
       </c>
       <c r="J157" s="5" t="n"/>
       <c r="L157" s="14" t="inlineStr">
@@ -23258,55 +23266,55 @@
       </c>
       <c r="M157" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Askeland</t>
+          <t>David-George Stan</t>
         </is>
       </c>
       <c r="N157" s="7" t="n">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="O157" s="15" t="n">
-        <v>1.85</v>
+        <v>1.32</v>
       </c>
       <c r="P157" s="7" t="n">
-        <v>696</v>
+        <v>125</v>
       </c>
       <c r="Q157" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R157" s="16" t="n">
-        <v>5.02</v>
+        <v>13.05</v>
       </c>
       <c r="T157" s="5" t="n"/>
     </row>
     <row r="158" ht="13" customHeight="1">
       <c r="B158" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C158" s="7" t="inlineStr">
         <is>
-          <t>Linus August Rygh</t>
+          <t>Vemund Heltzer Sørstad</t>
         </is>
       </c>
       <c r="D158" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E158" s="15" t="n">
-        <v>6.59</v>
+        <v>1.81</v>
       </c>
       <c r="F158" s="7" t="n">
-        <v>738</v>
+        <v>661</v>
       </c>
       <c r="G158" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Lillestrøm</t>
         </is>
       </c>
       <c r="H158" s="16" t="n">
-        <v>1.07</v>
+        <v>13.05</v>
       </c>
       <c r="J158" s="5" t="n"/>
       <c r="L158" s="14" t="inlineStr">
@@ -23316,55 +23324,55 @@
       </c>
       <c r="M158" s="7" t="inlineStr">
         <is>
-          <t>Benjamin Fosseli Bye</t>
+          <t>Linus August Rygh</t>
         </is>
       </c>
       <c r="N158" s="7" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="O158" s="15" t="n">
-        <v>4.71</v>
+        <v>6.59</v>
       </c>
       <c r="P158" s="7" t="n">
-        <v>300</v>
+        <v>738</v>
       </c>
       <c r="Q158" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R158" s="16" t="n">
-        <v>18.03</v>
+        <v>1.07</v>
       </c>
       <c r="T158" s="5" t="n"/>
     </row>
     <row r="159" ht="13" customHeight="1">
       <c r="B159" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C159" s="7" t="inlineStr">
         <is>
-          <t>Linus August Rygh</t>
+          <t>Sander Oppen</t>
         </is>
       </c>
       <c r="D159" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E159" s="15" t="n">
-        <v>13.48</v>
+        <v>4.7</v>
       </c>
       <c r="F159" s="7" t="n">
-        <v>721</v>
+        <v>851</v>
       </c>
       <c r="G159" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H159" s="16" t="n">
-        <v>21.01</v>
+        <v>11.06</v>
       </c>
       <c r="J159" s="5" t="n"/>
       <c r="L159" s="14" t="inlineStr">
@@ -23374,75 +23382,75 @@
       </c>
       <c r="M159" s="7" t="inlineStr">
         <is>
-          <t>William Schlanbusch</t>
+          <t>Linus August Rygh</t>
         </is>
       </c>
       <c r="N159" s="7" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="O159" s="15" t="n">
-        <v>7.66</v>
+        <v>13.48</v>
       </c>
       <c r="P159" s="7" t="n">
-        <v>40</v>
+        <v>721</v>
       </c>
       <c r="Q159" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R159" s="16" t="n">
-        <v>3.06</v>
+        <v>21.01</v>
       </c>
       <c r="T159" s="5" t="n"/>
     </row>
     <row r="160" ht="13" customHeight="1">
       <c r="B160" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C160" s="7" t="inlineStr">
         <is>
-          <t>Emil Gundersen</t>
+          <t>Nicolai Christianssønn Risø</t>
         </is>
       </c>
       <c r="D160" s="7" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E160" s="15" t="n">
-        <v>2.97</v>
+        <v>1.45</v>
       </c>
       <c r="F160" s="7" t="n">
-        <v>655</v>
+        <v>616</v>
       </c>
       <c r="G160" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="H160" s="16" t="n">
-        <v>19.02</v>
+        <v>13.04</v>
       </c>
       <c r="J160" s="5" t="n"/>
       <c r="L160" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M160" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Askeland</t>
+          <t>Emil Gundersen</t>
         </is>
       </c>
       <c r="N160" s="7" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="O160" s="15" t="n">
-        <v>1.66</v>
+        <v>2.97</v>
       </c>
       <c r="P160" s="7" t="n">
-        <v>847</v>
+        <v>655</v>
       </c>
       <c r="Q160" s="7" t="inlineStr">
         <is>
@@ -23450,84 +23458,84 @@
         </is>
       </c>
       <c r="R160" s="16" t="n">
-        <v>18.02</v>
+        <v>19.02</v>
       </c>
       <c r="T160" s="5" t="n"/>
     </row>
     <row r="161" ht="13" customHeight="1">
-      <c r="B161" s="14" t="n"/>
-      <c r="C161" s="7" t="n"/>
-      <c r="D161" s="7" t="n"/>
-      <c r="E161" s="7" t="n"/>
-      <c r="F161" s="7" t="n"/>
-      <c r="G161" s="7" t="n"/>
-      <c r="H161" s="21" t="n"/>
+      <c r="B161" s="14" t="inlineStr">
+        <is>
+          <t>Lengde u.t</t>
+        </is>
+      </c>
+      <c r="C161" s="7" t="inlineStr">
+        <is>
+          <t>Frode Holt</t>
+        </is>
+      </c>
+      <c r="D161" s="7" t="n">
+        <v>1964</v>
+      </c>
+      <c r="E161" s="15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F161" s="7" t="n">
+        <v>503</v>
+      </c>
+      <c r="G161" s="7" t="inlineStr">
+        <is>
+          <t>Drammen</t>
+        </is>
+      </c>
+      <c r="H161" s="16" t="n">
+        <v>13.04</v>
+      </c>
       <c r="J161" s="5" t="n"/>
-      <c r="L161" s="14" t="inlineStr">
-        <is>
-          <t>Lengde u.t</t>
-        </is>
-      </c>
-      <c r="M161" s="7" t="inlineStr">
-        <is>
-          <t>Jonathan Askeland</t>
-        </is>
-      </c>
-      <c r="N161" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O161" s="15" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="P161" s="7" t="n">
-        <v>627</v>
-      </c>
-      <c r="Q161" s="7" t="inlineStr">
-        <is>
-          <t>Bærum</t>
-        </is>
-      </c>
-      <c r="R161" s="16" t="n">
-        <v>19.02</v>
-      </c>
+      <c r="L161" s="14" t="n"/>
+      <c r="M161" s="7" t="n"/>
+      <c r="N161" s="7" t="n"/>
+      <c r="O161" s="7" t="n"/>
+      <c r="P161" s="7" t="n"/>
+      <c r="Q161" s="7" t="n"/>
+      <c r="R161" s="21" t="n"/>
       <c r="T161" s="5" t="n"/>
     </row>
     <row r="162" ht="13" customHeight="1">
-      <c r="B162" s="14" t="n"/>
-      <c r="C162" s="7" t="n"/>
-      <c r="D162" s="7" t="n"/>
-      <c r="E162" s="7" t="n"/>
-      <c r="F162" s="7" t="n"/>
-      <c r="G162" s="7" t="n"/>
-      <c r="H162" s="21" t="n"/>
+      <c r="B162" s="14" t="inlineStr">
+        <is>
+          <t>Diskos</t>
+        </is>
+      </c>
+      <c r="C162" s="7" t="inlineStr">
+        <is>
+          <t>Ola Stunes Isene</t>
+        </is>
+      </c>
+      <c r="D162" s="7" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E162" s="15" t="n">
+        <v>60.21</v>
+      </c>
+      <c r="F162" s="7" t="n">
+        <v>1013</v>
+      </c>
+      <c r="G162" s="7" t="inlineStr">
+        <is>
+          <t>Røyken</t>
+        </is>
+      </c>
+      <c r="H162" s="16" t="n">
+        <v>22.05</v>
+      </c>
       <c r="J162" s="5" t="n"/>
-      <c r="L162" s="14" t="inlineStr">
-        <is>
-          <t>Kule</t>
-        </is>
-      </c>
-      <c r="M162" s="7" t="inlineStr">
-        <is>
-          <t>Jonathan Askeland</t>
-        </is>
-      </c>
-      <c r="N162" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O162" s="15" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="P162" s="7" t="n">
-        <v>426</v>
-      </c>
-      <c r="Q162" s="7" t="inlineStr">
-        <is>
-          <t>Sandnes</t>
-        </is>
-      </c>
-      <c r="R162" s="16" t="n">
-        <v>4.02</v>
-      </c>
+      <c r="L162" s="14" t="n"/>
+      <c r="M162" s="7" t="n"/>
+      <c r="N162" s="7" t="n"/>
+      <c r="O162" s="7" t="n"/>
+      <c r="P162" s="7" t="n"/>
+      <c r="Q162" s="7" t="n"/>
+      <c r="R162" s="21" t="n"/>
       <c r="T162" s="5" t="n"/>
     </row>
     <row r="163" ht="13" customHeight="1">
@@ -23555,7 +23563,7 @@
         </is>
       </c>
       <c r="C164" s="20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E164" s="19" t="inlineStr">
         <is>
@@ -23563,7 +23571,7 @@
         </is>
       </c>
       <c r="F164" s="20" t="n">
-        <v>7384</v>
+        <v>8670</v>
       </c>
       <c r="J164" s="5" t="n"/>
       <c r="L164" s="19" t="inlineStr">
@@ -23572,7 +23580,7 @@
         </is>
       </c>
       <c r="M164" s="20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O164" s="19" t="inlineStr">
         <is>
@@ -23580,7 +23588,7 @@
         </is>
       </c>
       <c r="P164" s="20" t="n">
-        <v>8424</v>
+        <v>7384</v>
       </c>
       <c r="T164" s="5" t="n"/>
     </row>
@@ -23683,30 +23691,30 @@
     <row r="169" ht="13" customHeight="1">
       <c r="B169" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C169" s="7" t="inlineStr">
         <is>
-          <t>Remark Rrozhani</t>
+          <t>Herman Jørgensen Huus</t>
         </is>
       </c>
       <c r="D169" s="7" t="n">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="E169" s="15" t="n">
-        <v>22.39</v>
+        <v>11.81</v>
       </c>
       <c r="F169" s="7" t="n">
-        <v>816</v>
+        <v>651</v>
       </c>
       <c r="G169" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H169" s="16" t="n">
-        <v>12.02</v>
+        <v>14.05</v>
       </c>
       <c r="J169" s="5" t="n"/>
       <c r="L169" s="14" t="inlineStr">
@@ -23716,17 +23724,17 @@
       </c>
       <c r="M169" s="7" t="inlineStr">
         <is>
-          <t>Elias Solheim Sollid</t>
+          <t>Remark Rrozhani</t>
         </is>
       </c>
       <c r="N169" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O169" s="15" t="n">
-        <v>21.91</v>
+        <v>22.39</v>
       </c>
       <c r="P169" s="7" t="n">
-        <v>871</v>
+        <v>816</v>
       </c>
       <c r="Q169" s="7" t="inlineStr">
         <is>
@@ -23734,211 +23742,215 @@
         </is>
       </c>
       <c r="R169" s="16" t="n">
-        <v>17.06</v>
+        <v>12.02</v>
       </c>
       <c r="T169" s="5" t="n"/>
     </row>
     <row r="170" ht="13" customHeight="1">
       <c r="B170" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C170" s="7" t="inlineStr">
         <is>
-          <t>Remark Rrozhani</t>
+          <t>Haakon Heltzer Sørstad</t>
         </is>
       </c>
       <c r="D170" s="7" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E170" s="15" t="n">
-        <v>11.18</v>
+        <v>1.76</v>
       </c>
       <c r="F170" s="7" t="n">
-        <v>796</v>
+        <v>616</v>
       </c>
       <c r="G170" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H170" s="16" t="n">
-        <v>4.06</v>
+        <v>18.03</v>
       </c>
       <c r="J170" s="5" t="n"/>
       <c r="L170" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M170" s="7" t="inlineStr">
         <is>
-          <t>Andreas Solheim Sollid</t>
+          <t>Remark Rrozhani</t>
         </is>
       </c>
       <c r="N170" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="O170" s="15" t="n">
-        <v>22.07</v>
+        <v>11.18</v>
       </c>
       <c r="P170" s="7" t="n">
-        <v>852</v>
+        <v>796</v>
       </c>
       <c r="Q170" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R170" s="16" t="n">
-        <v>16.06</v>
+        <v>4.06</v>
       </c>
       <c r="T170" s="5" t="n"/>
     </row>
     <row r="171" ht="13" customHeight="1">
       <c r="B171" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C171" s="7" t="inlineStr">
         <is>
-          <t>Remark Rrozhani</t>
+          <t>Vemund Heltzer Sørstad</t>
         </is>
       </c>
       <c r="D171" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E171" s="15" t="n">
-        <v>7.19</v>
+        <v>12.07</v>
       </c>
       <c r="F171" s="7" t="n">
-        <v>781</v>
+        <v>596</v>
       </c>
       <c r="G171" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillestrøm</t>
         </is>
       </c>
       <c r="H171" s="16" t="n">
-        <v>11.02</v>
+        <v>13.05</v>
       </c>
       <c r="J171" s="5" t="n"/>
       <c r="L171" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M171" s="7" t="inlineStr">
         <is>
-          <t>Andreas Solheim Sollid</t>
+          <t>Remark Rrozhani</t>
         </is>
       </c>
       <c r="N171" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="O171" s="15" t="n">
-        <v>11.06</v>
+        <v>7.19</v>
       </c>
       <c r="P171" s="7" t="n">
-        <v>826</v>
+        <v>781</v>
       </c>
       <c r="Q171" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R171" s="16" t="n">
-        <v>3.06</v>
+        <v>11.02</v>
       </c>
       <c r="T171" s="5" t="n"/>
     </row>
     <row r="172" ht="13" customHeight="1">
       <c r="B172" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C172" s="7" t="inlineStr">
         <is>
-          <t>Linus August Rygh</t>
+          <t>Jonathan Alsaker-Arentz</t>
         </is>
       </c>
       <c r="D172" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E172" s="15" t="n">
-        <v>23.39</v>
+        <v>2004</v>
+      </c>
+      <c r="E172" s="17" t="inlineStr">
+        <is>
+          <t>9,28,97</t>
+        </is>
       </c>
       <c r="F172" s="7" t="n">
-        <v>708</v>
+        <v>585</v>
       </c>
       <c r="G172" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H172" s="16" t="n">
-        <v>28.01</v>
+        <v>3.06</v>
       </c>
       <c r="J172" s="5" t="n"/>
       <c r="L172" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M172" s="7" t="inlineStr">
         <is>
-          <t>Elias Solheim Sollid</t>
+          <t>Linus August Rygh</t>
         </is>
       </c>
       <c r="N172" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O172" s="15" t="n">
-        <v>7.14</v>
+        <v>23.39</v>
       </c>
       <c r="P172" s="7" t="n">
-        <v>802</v>
+        <v>708</v>
       </c>
       <c r="Q172" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R172" s="16" t="n">
-        <v>11.02</v>
+        <v>28.01</v>
       </c>
       <c r="T172" s="5" t="n"/>
     </row>
     <row r="173" ht="13" customHeight="1">
       <c r="B173" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C173" s="7" t="inlineStr">
         <is>
-          <t>Linus August Rygh</t>
+          <t>Jonathan Alsaker-Arentz</t>
         </is>
       </c>
       <c r="D173" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E173" s="15" t="n">
-        <v>7.38</v>
+        <v>2004</v>
+      </c>
+      <c r="E173" s="17" t="inlineStr">
+        <is>
+          <t>2,06,56</t>
+        </is>
       </c>
       <c r="F173" s="7" t="n">
-        <v>705</v>
+        <v>574</v>
       </c>
       <c r="G173" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H173" s="16" t="n">
-        <v>11.02</v>
+        <v>4.06</v>
       </c>
       <c r="J173" s="5" t="n"/>
       <c r="L173" s="14" t="inlineStr">
@@ -23948,17 +23960,17 @@
       </c>
       <c r="M173" s="7" t="inlineStr">
         <is>
-          <t>Andreas Solheim Sollid</t>
+          <t>Linus August Rygh</t>
         </is>
       </c>
       <c r="N173" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="O173" s="15" t="n">
-        <v>7.22</v>
+        <v>7.38</v>
       </c>
       <c r="P173" s="7" t="n">
-        <v>769</v>
+        <v>705</v>
       </c>
       <c r="Q173" s="7" t="inlineStr">
         <is>
@@ -23978,25 +23990,25 @@
       </c>
       <c r="C174" s="7" t="inlineStr">
         <is>
-          <t>Linus August Rygh</t>
+          <t>Mikael Girma Worku</t>
         </is>
       </c>
       <c r="D174" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E174" s="15" t="n">
-        <v>11.65</v>
+        <v>12.26</v>
       </c>
       <c r="F174" s="7" t="n">
-        <v>686</v>
+        <v>558</v>
       </c>
       <c r="G174" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H174" s="16" t="n">
-        <v>4.06</v>
+        <v>25.06</v>
       </c>
       <c r="J174" s="5" t="n"/>
       <c r="L174" s="14" t="inlineStr">
@@ -24006,345 +24018,347 @@
       </c>
       <c r="M174" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Askeland</t>
+          <t>Linus August Rygh</t>
         </is>
       </c>
       <c r="N174" s="7" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="O174" s="15" t="n">
-        <v>11.43</v>
+        <v>11.65</v>
       </c>
       <c r="P174" s="7" t="n">
-        <v>736</v>
+        <v>686</v>
       </c>
       <c r="Q174" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R174" s="16" t="n">
-        <v>14.05</v>
+        <v>4.06</v>
       </c>
       <c r="T174" s="5" t="n"/>
     </row>
     <row r="175" ht="13" customHeight="1">
       <c r="B175" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C175" s="7" t="inlineStr">
         <is>
-          <t>Lars Magnus Birketveit</t>
+          <t>Jonas Hole Sletten</t>
         </is>
       </c>
       <c r="D175" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E175" s="15" t="n">
-        <v>23.66</v>
+        <v>2007</v>
+      </c>
+      <c r="E175" s="17" t="inlineStr">
+        <is>
+          <t>2,08,24</t>
+        </is>
       </c>
       <c r="F175" s="7" t="n">
-        <v>681</v>
+        <v>548</v>
       </c>
       <c r="G175" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H175" s="16" t="n">
-        <v>2.07</v>
+        <v>17.06</v>
       </c>
       <c r="J175" s="5" t="n"/>
       <c r="L175" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M175" s="7" t="inlineStr">
         <is>
-          <t>Marc  Christian Legayada Berntsen</t>
+          <t>Lars Magnus Birketveit</t>
         </is>
       </c>
       <c r="N175" s="7" t="n">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="O175" s="15" t="n">
-        <v>7.44</v>
+        <v>23.66</v>
       </c>
       <c r="P175" s="7" t="n">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q175" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R175" s="16" t="n">
-        <v>22.01</v>
+        <v>2.07</v>
       </c>
       <c r="T175" s="5" t="n"/>
     </row>
     <row r="176" ht="13" customHeight="1">
       <c r="B176" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C176" s="7" t="inlineStr">
         <is>
-          <t>Lars Magnus Birketveit</t>
+          <t>Benjamin Shabani</t>
         </is>
       </c>
       <c r="D176" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E176" s="15" t="n">
-        <v>11.76</v>
+        <v>25.14</v>
       </c>
       <c r="F176" s="7" t="n">
-        <v>662</v>
+        <v>544</v>
       </c>
       <c r="G176" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H176" s="16" t="n">
-        <v>25.06</v>
+        <v>16.06</v>
       </c>
       <c r="J176" s="5" t="n"/>
       <c r="L176" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M176" s="7" t="inlineStr">
         <is>
-          <t>Marc  Christian Legayada Berntsen</t>
+          <t>Lars Magnus Birketveit</t>
         </is>
       </c>
       <c r="N176" s="7" t="n">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="O176" s="15" t="n">
-        <v>23.72</v>
+        <v>11.76</v>
       </c>
       <c r="P176" s="7" t="n">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="Q176" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R176" s="16" t="n">
-        <v>22.01</v>
+        <v>25.06</v>
       </c>
       <c r="T176" s="5" t="n"/>
     </row>
     <row r="177" ht="13" customHeight="1">
       <c r="B177" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C177" s="7" t="inlineStr">
         <is>
-          <t>Emil Gundersen</t>
+          <t>Nicolai Christianssønn Risø</t>
         </is>
       </c>
       <c r="D177" s="7" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E177" s="15" t="n">
-        <v>6.17</v>
+        <v>1.68</v>
       </c>
       <c r="F177" s="7" t="n">
-        <v>645</v>
+        <v>541</v>
       </c>
       <c r="G177" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="H177" s="16" t="n">
-        <v>23.02</v>
+        <v>20.05</v>
       </c>
       <c r="J177" s="5" t="n"/>
       <c r="L177" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M177" s="7" t="inlineStr">
         <is>
-          <t>Benjamin Fosseli Bye</t>
+          <t>Emil Gundersen</t>
         </is>
       </c>
       <c r="N177" s="7" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="O177" s="15" t="n">
-        <v>1.4</v>
+        <v>6.17</v>
       </c>
       <c r="P177" s="7" t="n">
-        <v>233</v>
+        <v>645</v>
       </c>
       <c r="Q177" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R177" s="16" t="n">
-        <v>18.03</v>
+        <v>23.02</v>
       </c>
       <c r="T177" s="5" t="n"/>
     </row>
     <row r="178" ht="13" customHeight="1">
       <c r="B178" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C178" s="7" t="inlineStr">
         <is>
-          <t>Oliver Taule Lindgren</t>
+          <t>Vemund Heltzer Sørstad</t>
         </is>
       </c>
       <c r="D178" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E178" s="15" t="n">
-        <v>5.67</v>
+        <v>25.33</v>
       </c>
       <c r="F178" s="7" t="n">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G178" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H178" s="16" t="n">
-        <v>4.03</v>
+        <v>12.02</v>
       </c>
       <c r="J178" s="5" t="n"/>
       <c r="L178" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M178" s="7" t="inlineStr">
         <is>
-          <t>Brage Henriksen</t>
+          <t>Oliver Taule Lindgren</t>
         </is>
       </c>
       <c r="N178" s="7" t="n">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="O178" s="15" t="n">
-        <v>1.35</v>
+        <v>5.67</v>
       </c>
       <c r="P178" s="7" t="n">
-        <v>167</v>
+        <v>530</v>
       </c>
       <c r="Q178" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R178" s="16" t="n">
-        <v>14.05</v>
+        <v>4.03</v>
       </c>
       <c r="T178" s="5" t="n"/>
     </row>
     <row r="179" ht="13" customHeight="1">
       <c r="B179" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C179" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Boge Stenerud</t>
+          <t>Vemund Heltzer Sørstad</t>
         </is>
       </c>
       <c r="D179" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E179" s="15" t="n">
-        <v>11.5</v>
+        <v>39.84</v>
       </c>
       <c r="F179" s="7" t="n">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="G179" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="H179" s="16" t="n">
-        <v>17.06</v>
+        <v>6.05</v>
       </c>
       <c r="J179" s="5" t="n"/>
       <c r="L179" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M179" s="7" t="inlineStr">
         <is>
-          <t>Jonas Røed Haaland</t>
+          <t>Kristoffer Boge Stenerud</t>
         </is>
       </c>
       <c r="N179" s="7" t="n">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="O179" s="15" t="n">
-        <v>1.32</v>
+        <v>11.5</v>
       </c>
       <c r="P179" s="7" t="n">
-        <v>125</v>
+        <v>504</v>
       </c>
       <c r="Q179" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R179" s="16" t="n">
-        <v>22.01</v>
+        <v>17.06</v>
       </c>
       <c r="T179" s="5" t="n"/>
     </row>
     <row r="180" ht="13" customHeight="1">
       <c r="B180" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C180" s="7" t="inlineStr">
         <is>
-          <t>Jonas Langeland Andersen</t>
+          <t>Frode Holt</t>
         </is>
       </c>
       <c r="D180" s="7" t="n">
-        <v>2008</v>
+        <v>1964</v>
       </c>
       <c r="E180" s="15" t="n">
-        <v>5.22</v>
+        <v>1.32</v>
       </c>
       <c r="F180" s="7" t="n">
-        <v>424</v>
+        <v>466</v>
       </c>
       <c r="G180" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="H180" s="16" t="n">
-        <v>23.02</v>
+        <v>28.01</v>
       </c>
       <c r="J180" s="5" t="n"/>
       <c r="L180" s="14" t="inlineStr">
@@ -24354,25 +24368,25 @@
       </c>
       <c r="M180" s="7" t="inlineStr">
         <is>
-          <t>David Askeland</t>
+          <t>Jonas Langeland Andersen</t>
         </is>
       </c>
       <c r="N180" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O180" s="15" t="n">
-        <v>3.97</v>
+        <v>5.22</v>
       </c>
       <c r="P180" s="7" t="n">
-        <v>111</v>
+        <v>424</v>
       </c>
       <c r="Q180" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R180" s="16" t="n">
-        <v>14.05</v>
+        <v>23.02</v>
       </c>
       <c r="T180" s="5" t="n"/>
     </row>
@@ -24409,7 +24423,7 @@
         </is>
       </c>
       <c r="F182" s="20" t="n">
-        <v>7938</v>
+        <v>6691</v>
       </c>
       <c r="J182" s="5" t="n"/>
       <c r="L182" s="19" t="inlineStr">
@@ -24426,7 +24440,7 @@
         </is>
       </c>
       <c r="P182" s="20" t="n">
-        <v>6849</v>
+        <v>7938</v>
       </c>
       <c r="T182" s="5" t="n"/>
     </row>
@@ -24441,7 +24455,7 @@
         </is>
       </c>
       <c r="C184" s="20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E184" s="19" t="inlineStr">
         <is>
@@ -24449,7 +24463,7 @@
         </is>
       </c>
       <c r="F184" s="20" t="n">
-        <v>15322</v>
+        <v>15361</v>
       </c>
       <c r="J184" s="5" t="n"/>
       <c r="L184" s="19" t="inlineStr">
@@ -24458,7 +24472,7 @@
         </is>
       </c>
       <c r="M184" s="20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O184" s="19" t="inlineStr">
         <is>
@@ -24466,7 +24480,7 @@
         </is>
       </c>
       <c r="P184" s="20" t="n">
-        <v>15273</v>
+        <v>15322</v>
       </c>
       <c r="T184" s="5" t="n"/>
     </row>
@@ -24490,7 +24504,7 @@
         </is>
       </c>
       <c r="M186" s="20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T186" s="5" t="n"/>
     </row>
@@ -24532,7 +24546,7 @@
       </c>
       <c r="C190" s="7" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Agder</t>
         </is>
       </c>
       <c r="F190" s="8" t="n">
@@ -24562,7 +24576,7 @@
       </c>
       <c r="C191" s="7" t="inlineStr">
         <is>
-          <t>IF Sturla</t>
+          <t>Sørild FIK</t>
         </is>
       </c>
       <c r="J191" s="5" t="n"/>
@@ -24702,25 +24716,25 @@
       </c>
       <c r="C197" s="7" t="inlineStr">
         <is>
-          <t>Nicolai Christianssønn Risø</t>
+          <t>Even Meinseth</t>
         </is>
       </c>
       <c r="D197" s="7" t="n">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="E197" s="15" t="n">
-        <v>7.67</v>
+        <v>6.69</v>
       </c>
       <c r="F197" s="7" t="n">
-        <v>600</v>
+        <v>1015</v>
       </c>
       <c r="G197" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H197" s="16" t="n">
-        <v>28.01</v>
+        <v>2.02</v>
       </c>
       <c r="J197" s="5" t="n"/>
       <c r="L197" s="14" t="inlineStr">
@@ -24760,25 +24774,25 @@
       </c>
       <c r="C198" s="7" t="inlineStr">
         <is>
-          <t>Nicolai Christianssønn Risø</t>
+          <t>Elias Solheim Sollid</t>
         </is>
       </c>
       <c r="D198" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E198" s="15" t="n">
-        <v>11.66</v>
+        <v>10.98</v>
       </c>
       <c r="F198" s="7" t="n">
-        <v>684</v>
+        <v>846</v>
       </c>
       <c r="G198" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H198" s="16" t="n">
-        <v>3.06</v>
+        <v>25.06</v>
       </c>
       <c r="J198" s="5" t="n"/>
       <c r="L198" s="14" t="inlineStr">
@@ -24818,25 +24832,25 @@
       </c>
       <c r="C199" s="7" t="inlineStr">
         <is>
-          <t>Nicolai Christianssønn Risø</t>
+          <t>Even Meinseth</t>
         </is>
       </c>
       <c r="D199" s="7" t="n">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="E199" s="15" t="n">
-        <v>23.64</v>
+        <v>21.19</v>
       </c>
       <c r="F199" s="7" t="n">
-        <v>683</v>
+        <v>960</v>
       </c>
       <c r="G199" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H199" s="16" t="n">
-        <v>23.06</v>
+        <v>15.06</v>
       </c>
       <c r="J199" s="5" t="n"/>
       <c r="L199" s="14" t="inlineStr">
@@ -24876,25 +24890,25 @@
       </c>
       <c r="C200" s="7" t="inlineStr">
         <is>
-          <t>Nicolai Christianssønn Risø</t>
+          <t>Andreas Solheim Sollid</t>
         </is>
       </c>
       <c r="D200" s="7" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="E200" s="15" t="n">
-        <v>53.46</v>
+        <v>48.89</v>
       </c>
       <c r="F200" s="7" t="n">
-        <v>625</v>
+        <v>842</v>
       </c>
       <c r="G200" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H200" s="16" t="n">
-        <v>24.06</v>
+        <v>18.06</v>
       </c>
       <c r="J200" s="5" t="n"/>
       <c r="L200" s="14" t="inlineStr">
@@ -24934,27 +24948,27 @@
       </c>
       <c r="C201" s="7" t="inlineStr">
         <is>
-          <t>Haakon Heltzer Sørstad</t>
+          <t>Stian Flo</t>
         </is>
       </c>
       <c r="D201" s="7" t="n">
-        <v>2008</v>
+        <v>1985</v>
       </c>
       <c r="E201" s="17" t="inlineStr">
         <is>
-          <t>2,02,85</t>
+          <t>1,59,87</t>
         </is>
       </c>
       <c r="F201" s="7" t="n">
-        <v>634</v>
+        <v>690</v>
       </c>
       <c r="G201" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H201" s="16" t="n">
-        <v>25.06</v>
+        <v>14.05</v>
       </c>
       <c r="J201" s="5" t="n"/>
       <c r="L201" s="14" t="inlineStr">
@@ -24996,27 +25010,27 @@
       </c>
       <c r="C202" s="7" t="inlineStr">
         <is>
-          <t>Haakon Heltzer Sørstad</t>
+          <t>Tobias Fretheim</t>
         </is>
       </c>
       <c r="D202" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="E202" s="17" t="inlineStr">
         <is>
-          <t>4,17,16</t>
+          <t>4,24,24</t>
         </is>
       </c>
       <c r="F202" s="7" t="n">
-        <v>615</v>
+        <v>564</v>
       </c>
       <c r="G202" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H202" s="16" t="n">
-        <v>8.06</v>
+        <v>5.03</v>
       </c>
       <c r="J202" s="5" t="n"/>
       <c r="L202" s="14" t="inlineStr">
@@ -25026,27 +25040,27 @@
       </c>
       <c r="M202" s="7" t="inlineStr">
         <is>
-          <t>Per-Christian Myrnes Pedersen</t>
+          <t>Kim-Roger Trøite</t>
         </is>
       </c>
       <c r="N202" s="7" t="n">
-        <v>1986</v>
+        <v>1996</v>
       </c>
       <c r="O202" s="17" t="inlineStr">
         <is>
-          <t>9,10,36</t>
+          <t>9,04,43</t>
         </is>
       </c>
       <c r="P202" s="7" t="n">
-        <v>649</v>
+        <v>672</v>
       </c>
       <c r="Q202" s="7" t="inlineStr">
         <is>
-          <t>Narvik</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="R202" s="16" t="n">
-        <v>10.06</v>
+        <v>12.07</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
@@ -25058,27 +25072,27 @@
       </c>
       <c r="C203" s="7" t="inlineStr">
         <is>
-          <t>Haakon Heltzer Sørstad</t>
+          <t>Tobias Fretheim</t>
         </is>
       </c>
       <c r="D203" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="E203" s="17" t="inlineStr">
         <is>
-          <t>9,12,80</t>
+          <t>9,33,51</t>
         </is>
       </c>
       <c r="F203" s="7" t="n">
-        <v>641</v>
+        <v>571</v>
       </c>
       <c r="G203" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H203" s="16" t="n">
-        <v>24.06</v>
+        <v>3.06</v>
       </c>
       <c r="J203" s="5" t="n"/>
       <c r="L203" s="14" t="inlineStr">
@@ -25115,32 +25129,30 @@
     <row r="204" ht="13" customHeight="1">
       <c r="B204" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C204" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Alsaker-Arentz</t>
+          <t>Jonathan Askeland</t>
         </is>
       </c>
       <c r="D204" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E204" s="17" t="inlineStr">
-        <is>
-          <t>17,26,19</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="E204" s="15" t="n">
+        <v>1.85</v>
       </c>
       <c r="F204" s="7" t="n">
-        <v>490</v>
+        <v>696</v>
       </c>
       <c r="G204" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H204" s="16" t="n">
-        <v>20.05</v>
+        <v>5.02</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="14" t="inlineStr">
@@ -25177,30 +25189,30 @@
     <row r="205" ht="13" customHeight="1">
       <c r="B205" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C205" s="7" t="inlineStr">
         <is>
-          <t>Vemund Heltzer Sørstad</t>
+          <t>Benjamin Fosseli Bye</t>
         </is>
       </c>
       <c r="D205" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="E205" s="15" t="n">
-        <v>1.81</v>
+        <v>4.71</v>
       </c>
       <c r="F205" s="7" t="n">
-        <v>661</v>
+        <v>300</v>
       </c>
       <c r="G205" s="7" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H205" s="16" t="n">
-        <v>13.05</v>
+        <v>18.03</v>
       </c>
       <c r="J205" s="5" t="n"/>
       <c r="L205" s="14" t="inlineStr">
@@ -25235,30 +25247,30 @@
     <row r="206" ht="13" customHeight="1">
       <c r="B206" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C206" s="7" t="inlineStr">
         <is>
-          <t>Sander Oppen</t>
+          <t>William Schlanbusch</t>
         </is>
       </c>
       <c r="D206" s="7" t="n">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="E206" s="15" t="n">
-        <v>4.7</v>
+        <v>7.66</v>
       </c>
       <c r="F206" s="7" t="n">
-        <v>851</v>
+        <v>40</v>
       </c>
       <c r="G206" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H206" s="16" t="n">
-        <v>11.06</v>
+        <v>3.06</v>
       </c>
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="14" t="inlineStr">
@@ -25298,25 +25310,25 @@
       </c>
       <c r="C207" s="7" t="inlineStr">
         <is>
-          <t>Nicolai Christianssønn Risø</t>
+          <t>Jonathan Askeland</t>
         </is>
       </c>
       <c r="D207" s="7" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="E207" s="15" t="n">
-        <v>1.45</v>
+        <v>1.66</v>
       </c>
       <c r="F207" s="7" t="n">
-        <v>616</v>
+        <v>847</v>
       </c>
       <c r="G207" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H207" s="16" t="n">
-        <v>13.04</v>
+        <v>18.02</v>
       </c>
       <c r="J207" s="5" t="n"/>
       <c r="L207" s="14" t="inlineStr">
@@ -25356,25 +25368,25 @@
       </c>
       <c r="C208" s="7" t="inlineStr">
         <is>
-          <t>Frode Holt</t>
+          <t>Jonathan Askeland</t>
         </is>
       </c>
       <c r="D208" s="7" t="n">
-        <v>1964</v>
+        <v>2003</v>
       </c>
       <c r="E208" s="15" t="n">
-        <v>2.7</v>
+        <v>2.92</v>
       </c>
       <c r="F208" s="7" t="n">
-        <v>503</v>
+        <v>627</v>
       </c>
       <c r="G208" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H208" s="16" t="n">
-        <v>13.04</v>
+        <v>19.02</v>
       </c>
       <c r="J208" s="5" t="n"/>
       <c r="L208" s="14" t="inlineStr">
@@ -25409,30 +25421,30 @@
     <row r="209" ht="13" customHeight="1">
       <c r="B209" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C209" s="7" t="inlineStr">
         <is>
-          <t>Ola Stunes Isene</t>
+          <t>Jonathan Askeland</t>
         </is>
       </c>
       <c r="D209" s="7" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="E209" s="15" t="n">
-        <v>60.21</v>
+        <v>9.69</v>
       </c>
       <c r="F209" s="7" t="n">
-        <v>1013</v>
+        <v>426</v>
       </c>
       <c r="G209" s="7" t="inlineStr">
         <is>
-          <t>Røyken</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H209" s="16" t="n">
-        <v>22.05</v>
+        <v>4.02</v>
       </c>
       <c r="J209" s="5" t="n"/>
       <c r="L209" s="14" t="inlineStr">
@@ -25497,7 +25509,7 @@
         </is>
       </c>
       <c r="F211" s="20" t="n">
-        <v>8616</v>
+        <v>8424</v>
       </c>
       <c r="J211" s="5" t="n"/>
       <c r="L211" s="19" t="inlineStr">
@@ -25514,7 +25526,7 @@
         </is>
       </c>
       <c r="P211" s="20" t="n">
-        <v>7990</v>
+        <v>8013</v>
       </c>
       <c r="T211" s="5" t="n"/>
     </row>
@@ -25617,30 +25629,30 @@
     <row r="216" ht="13" customHeight="1">
       <c r="B216" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C216" s="7" t="inlineStr">
         <is>
-          <t>Herman Jørgensen Huus</t>
+          <t>Elias Solheim Sollid</t>
         </is>
       </c>
       <c r="D216" s="7" t="n">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="E216" s="15" t="n">
-        <v>11.81</v>
+        <v>21.91</v>
       </c>
       <c r="F216" s="7" t="n">
-        <v>651</v>
+        <v>871</v>
       </c>
       <c r="G216" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H216" s="16" t="n">
-        <v>14.05</v>
+        <v>17.06</v>
       </c>
       <c r="J216" s="5" t="n"/>
       <c r="L216" s="14" t="inlineStr">
@@ -25675,30 +25687,30 @@
     <row r="217" ht="13" customHeight="1">
       <c r="B217" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C217" s="7" t="inlineStr">
         <is>
-          <t>Haakon Heltzer Sørstad</t>
+          <t>Andreas Solheim Sollid</t>
         </is>
       </c>
       <c r="D217" s="7" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="E217" s="15" t="n">
-        <v>1.76</v>
+        <v>22.07</v>
       </c>
       <c r="F217" s="7" t="n">
-        <v>616</v>
+        <v>852</v>
       </c>
       <c r="G217" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H217" s="16" t="n">
-        <v>18.03</v>
+        <v>16.06</v>
       </c>
       <c r="J217" s="5" t="n"/>
       <c r="L217" s="14" t="inlineStr">
@@ -25738,25 +25750,25 @@
       </c>
       <c r="C218" s="7" t="inlineStr">
         <is>
-          <t>Vemund Heltzer Sørstad</t>
+          <t>Andreas Solheim Sollid</t>
         </is>
       </c>
       <c r="D218" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="E218" s="15" t="n">
-        <v>12.07</v>
+        <v>11.06</v>
       </c>
       <c r="F218" s="7" t="n">
-        <v>596</v>
+        <v>826</v>
       </c>
       <c r="G218" s="7" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H218" s="16" t="n">
-        <v>13.05</v>
+        <v>3.06</v>
       </c>
       <c r="J218" s="5" t="n"/>
       <c r="L218" s="14" t="inlineStr">
@@ -25791,32 +25803,30 @@
     <row r="219" ht="13" customHeight="1">
       <c r="B219" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C219" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Alsaker-Arentz</t>
+          <t>Elias Solheim Sollid</t>
         </is>
       </c>
       <c r="D219" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E219" s="17" t="inlineStr">
-        <is>
-          <t>9,28,97</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E219" s="15" t="n">
+        <v>7.14</v>
       </c>
       <c r="F219" s="7" t="n">
-        <v>585</v>
+        <v>802</v>
       </c>
       <c r="G219" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H219" s="16" t="n">
-        <v>3.06</v>
+        <v>11.02</v>
       </c>
       <c r="J219" s="5" t="n"/>
       <c r="L219" s="14" t="inlineStr">
@@ -25851,52 +25861,52 @@
     <row r="220" ht="13" customHeight="1">
       <c r="B220" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C220" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Alsaker-Arentz</t>
+          <t>Andreas Solheim Sollid</t>
         </is>
       </c>
       <c r="D220" s="7" t="n">
         <v>2004</v>
       </c>
-      <c r="E220" s="17" t="inlineStr">
-        <is>
-          <t>2,06,56</t>
-        </is>
+      <c r="E220" s="15" t="n">
+        <v>7.22</v>
       </c>
       <c r="F220" s="7" t="n">
-        <v>574</v>
+        <v>769</v>
       </c>
       <c r="G220" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H220" s="16" t="n">
-        <v>4.06</v>
+        <v>11.02</v>
       </c>
       <c r="J220" s="5" t="n"/>
       <c r="L220" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M220" s="7" t="inlineStr">
         <is>
-          <t>Birk Arvola</t>
+          <t>Per-Christian Myrnes Pedersen</t>
         </is>
       </c>
       <c r="N220" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O220" s="15" t="n">
-        <v>53.48</v>
+        <v>1986</v>
+      </c>
+      <c r="O220" s="17" t="inlineStr">
+        <is>
+          <t>9,10,36</t>
+        </is>
       </c>
       <c r="P220" s="7" t="n">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="Q220" s="7" t="inlineStr">
         <is>
@@ -25916,115 +25926,111 @@
       </c>
       <c r="C221" s="7" t="inlineStr">
         <is>
-          <t>Mikael Girma Worku</t>
+          <t>Jonathan Askeland</t>
         </is>
       </c>
       <c r="D221" s="7" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="E221" s="15" t="n">
-        <v>12.26</v>
+        <v>11.43</v>
       </c>
       <c r="F221" s="7" t="n">
-        <v>558</v>
+        <v>736</v>
       </c>
       <c r="G221" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H221" s="16" t="n">
-        <v>25.06</v>
+        <v>14.05</v>
       </c>
       <c r="J221" s="5" t="n"/>
       <c r="L221" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M221" s="7" t="inlineStr">
         <is>
-          <t>Mathias Johansen</t>
+          <t>Birk Arvola</t>
         </is>
       </c>
       <c r="N221" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="O221" s="15" t="n">
-        <v>24.37</v>
+        <v>53.48</v>
       </c>
       <c r="P221" s="7" t="n">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="Q221" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Narvik</t>
         </is>
       </c>
       <c r="R221" s="16" t="n">
-        <v>4.03</v>
+        <v>10.06</v>
       </c>
       <c r="T221" s="5" t="n"/>
     </row>
     <row r="222" ht="13" customHeight="1">
       <c r="B222" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C222" s="7" t="inlineStr">
         <is>
-          <t>Jonas Hole Sletten</t>
+          <t>Marc  Christian Legayada Berntsen</t>
         </is>
       </c>
       <c r="D222" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E222" s="17" t="inlineStr">
-        <is>
-          <t>2,08,24</t>
-        </is>
+        <v>1999</v>
+      </c>
+      <c r="E222" s="15" t="n">
+        <v>7.44</v>
       </c>
       <c r="F222" s="7" t="n">
-        <v>548</v>
+        <v>682</v>
       </c>
       <c r="G222" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H222" s="16" t="n">
-        <v>17.06</v>
+        <v>22.01</v>
       </c>
       <c r="J222" s="5" t="n"/>
       <c r="L222" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M222" s="7" t="inlineStr">
         <is>
-          <t>Erik Fossen Nilsen</t>
+          <t>Mathias Johansen</t>
         </is>
       </c>
       <c r="N222" s="7" t="n">
-        <v>1987</v>
-      </c>
-      <c r="O222" s="17" t="inlineStr">
-        <is>
-          <t>9,32,17</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="O222" s="15" t="n">
+        <v>24.37</v>
       </c>
       <c r="P222" s="7" t="n">
-        <v>575</v>
+        <v>612</v>
       </c>
       <c r="Q222" s="7" t="inlineStr">
         <is>
-          <t>Narvik</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R222" s="16" t="n">
-        <v>10.06</v>
+        <v>4.03</v>
       </c>
       <c r="T222" s="5" t="n"/>
     </row>
@@ -26036,83 +26042,85 @@
       </c>
       <c r="C223" s="7" t="inlineStr">
         <is>
-          <t>Benjamin Shabani</t>
+          <t>Marc  Christian Legayada Berntsen</t>
         </is>
       </c>
       <c r="D223" s="7" t="n">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="E223" s="15" t="n">
-        <v>25.14</v>
+        <v>23.72</v>
       </c>
       <c r="F223" s="7" t="n">
-        <v>544</v>
+        <v>675</v>
       </c>
       <c r="G223" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H223" s="16" t="n">
-        <v>16.06</v>
+        <v>22.01</v>
       </c>
       <c r="J223" s="5" t="n"/>
       <c r="L223" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M223" s="7" t="inlineStr">
         <is>
-          <t>Simon Kaarbø</t>
+          <t>Erik Fossen Nilsen</t>
         </is>
       </c>
       <c r="N223" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O223" s="15" t="n">
-        <v>12.18</v>
+        <v>1987</v>
+      </c>
+      <c r="O223" s="17" t="inlineStr">
+        <is>
+          <t>9,32,17</t>
+        </is>
       </c>
       <c r="P223" s="7" t="n">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Q223" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Narvik</t>
         </is>
       </c>
       <c r="R223" s="16" t="n">
-        <v>23.05</v>
+        <v>10.06</v>
       </c>
       <c r="T223" s="5" t="n"/>
     </row>
     <row r="224" ht="13" customHeight="1">
       <c r="B224" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C224" s="7" t="inlineStr">
         <is>
-          <t>Vemund Heltzer Sørstad</t>
+          <t>Benjamin Fosseli Bye</t>
         </is>
       </c>
       <c r="D224" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="E224" s="15" t="n">
-        <v>25.33</v>
+        <v>1.4</v>
       </c>
       <c r="F224" s="7" t="n">
-        <v>528</v>
+        <v>233</v>
       </c>
       <c r="G224" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H224" s="16" t="n">
-        <v>12.02</v>
+        <v>18.03</v>
       </c>
       <c r="J224" s="5" t="n"/>
       <c r="L224" s="14" t="inlineStr">
@@ -26147,30 +26155,30 @@
     <row r="225" ht="13" customHeight="1">
       <c r="B225" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C225" s="7" t="inlineStr">
         <is>
-          <t>Vemund Heltzer Sørstad</t>
+          <t>Brage Henriksen</t>
         </is>
       </c>
       <c r="D225" s="7" t="n">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="E225" s="15" t="n">
-        <v>39.84</v>
+        <v>1.35</v>
       </c>
       <c r="F225" s="7" t="n">
-        <v>484</v>
+        <v>167</v>
       </c>
       <c r="G225" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H225" s="16" t="n">
-        <v>6.05</v>
+        <v>14.05</v>
       </c>
       <c r="J225" s="5" t="n"/>
       <c r="L225" s="14" t="inlineStr">
@@ -26205,30 +26213,30 @@
     <row r="226" ht="13" customHeight="1">
       <c r="B226" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C226" s="7" t="inlineStr">
         <is>
-          <t>Frode Holt</t>
+          <t>Jonas Røed Haaland</t>
         </is>
       </c>
       <c r="D226" s="7" t="n">
-        <v>1964</v>
+        <v>2011</v>
       </c>
       <c r="E226" s="15" t="n">
         <v>1.32</v>
       </c>
       <c r="F226" s="7" t="n">
-        <v>466</v>
+        <v>125</v>
       </c>
       <c r="G226" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H226" s="16" t="n">
-        <v>28.01</v>
+        <v>22.01</v>
       </c>
       <c r="J226" s="5" t="n"/>
       <c r="L226" s="14" t="inlineStr">
@@ -26263,30 +26271,30 @@
     <row r="227" ht="13" customHeight="1">
       <c r="B227" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C227" s="7" t="inlineStr">
         <is>
-          <t>Haakon Heltzer Sørstad</t>
+          <t>David Askeland</t>
         </is>
       </c>
       <c r="D227" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E227" s="15" t="n">
-        <v>1.3</v>
+        <v>3.97</v>
       </c>
       <c r="F227" s="7" t="n">
-        <v>440</v>
+        <v>111</v>
       </c>
       <c r="G227" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H227" s="16" t="n">
-        <v>13.04</v>
+        <v>14.05</v>
       </c>
       <c r="J227" s="5" t="n"/>
       <c r="L227" s="14" t="inlineStr">
@@ -26351,7 +26359,7 @@
         </is>
       </c>
       <c r="F229" s="20" t="n">
-        <v>6590</v>
+        <v>6849</v>
       </c>
       <c r="J229" s="5" t="n"/>
       <c r="L229" s="19" t="inlineStr">
@@ -26368,7 +26376,7 @@
         </is>
       </c>
       <c r="P229" s="20" t="n">
-        <v>6971</v>
+        <v>7046</v>
       </c>
       <c r="T229" s="5" t="n"/>
     </row>
@@ -26391,7 +26399,7 @@
         </is>
       </c>
       <c r="F231" s="20" t="n">
-        <v>15206</v>
+        <v>15273</v>
       </c>
       <c r="J231" s="5" t="n"/>
       <c r="L231" s="19" t="inlineStr">
@@ -26408,7 +26416,7 @@
         </is>
       </c>
       <c r="P231" s="20" t="n">
-        <v>14961</v>
+        <v>15059</v>
       </c>
       <c r="T231" s="5" t="n"/>
     </row>
@@ -26423,7 +26431,7 @@
         </is>
       </c>
       <c r="C233" s="20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J233" s="5" t="n"/>
       <c r="L233" s="19" t="inlineStr">
@@ -26432,7 +26440,7 @@
         </is>
       </c>
       <c r="M233" s="20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T233" s="5" t="n"/>
     </row>
@@ -30070,7 +30078,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>26148</v>
+        <v>26154</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -30238,7 +30246,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>21449</v>
+        <v>21486</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
@@ -30350,7 +30358,7 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>20791</v>
+        <v>20814</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
@@ -30860,18 +30868,18 @@
         <v>2002</v>
       </c>
       <c r="E12" s="15" t="n">
-        <v>53.09</v>
+        <v>52.95</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="G12" s="7" t="inlineStr">
         <is>
-          <t>København/DEN</t>
+          <t>Espoo/FIN</t>
         </is>
       </c>
       <c r="H12" s="16" t="n">
-        <v>27.05</v>
+        <v>14.07</v>
       </c>
       <c r="J12" s="5" t="n"/>
       <c r="L12" s="14" t="inlineStr">
@@ -31590,7 +31598,7 @@
         </is>
       </c>
       <c r="F25" s="20" t="n">
-        <v>13445</v>
+        <v>13451</v>
       </c>
       <c r="J25" s="5" t="n"/>
       <c r="L25" s="19" t="inlineStr">
@@ -32666,7 +32674,7 @@
         </is>
       </c>
       <c r="F48" s="20" t="n">
-        <v>26148</v>
+        <v>26154</v>
       </c>
       <c r="J48" s="5" t="n"/>
       <c r="L48" s="19" t="inlineStr">
@@ -37671,19 +37679,19 @@
       </c>
       <c r="E170" s="17" t="inlineStr">
         <is>
-          <t>4,12,30</t>
+          <t>4,08,29</t>
         </is>
       </c>
       <c r="F170" s="7" t="n">
-        <v>929</v>
+        <v>966</v>
       </c>
       <c r="G170" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Heusden-Zolder/BEL</t>
         </is>
       </c>
       <c r="H170" s="16" t="n">
-        <v>8.07</v>
+        <v>15.07</v>
       </c>
       <c r="J170" s="5" t="n"/>
       <c r="L170" s="14" t="inlineStr">
@@ -38282,7 +38290,7 @@
         </is>
       </c>
       <c r="F181" s="20" t="n">
-        <v>11468</v>
+        <v>11505</v>
       </c>
       <c r="J181" s="5" t="n"/>
       <c r="L181" s="19" t="inlineStr">
@@ -39356,7 +39364,7 @@
         </is>
       </c>
       <c r="F204" s="20" t="n">
-        <v>21449</v>
+        <v>21486</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="19" t="inlineStr">
@@ -42209,19 +42217,19 @@
       </c>
       <c r="E275" s="17" t="inlineStr">
         <is>
-          <t>10,23,53</t>
+          <t>10,18,98</t>
         </is>
       </c>
       <c r="F275" s="7" t="n">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="G275" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Espoo/FIN</t>
         </is>
       </c>
       <c r="H275" s="16" t="n">
-        <v>20.05</v>
+        <v>13.07</v>
       </c>
       <c r="J275" s="5" t="n"/>
       <c r="L275" s="14" t="inlineStr">
@@ -42328,18 +42336,18 @@
         <v>1986</v>
       </c>
       <c r="E277" s="15" t="n">
-        <v>57.62</v>
+        <v>57.32</v>
       </c>
       <c r="F277" s="7" t="n">
-        <v>922</v>
+        <v>932</v>
       </c>
       <c r="G277" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Heusden-Zolder/BEL</t>
         </is>
       </c>
       <c r="H277" s="16" t="n">
-        <v>6.07</v>
+        <v>15.07</v>
       </c>
       <c r="J277" s="5" t="n"/>
       <c r="L277" s="14" t="inlineStr">
@@ -42732,7 +42740,7 @@
         </is>
       </c>
       <c r="F285" s="20" t="n">
-        <v>10340</v>
+        <v>10362</v>
       </c>
       <c r="J285" s="5" t="n"/>
       <c r="L285" s="19" t="inlineStr">
@@ -42980,18 +42988,18 @@
         <v>2003</v>
       </c>
       <c r="E292" s="15" t="n">
-        <v>59</v>
+        <v>58.98</v>
       </c>
       <c r="F292" s="7" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="G292" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Espoo/FIN</t>
         </is>
       </c>
       <c r="H292" s="16" t="n">
-        <v>16.06</v>
+        <v>14.07</v>
       </c>
       <c r="J292" s="5" t="n"/>
       <c r="L292" s="14" t="inlineStr">
@@ -43668,7 +43676,7 @@
         </is>
       </c>
       <c r="F306" s="20" t="n">
-        <v>10451</v>
+        <v>10452</v>
       </c>
       <c r="J306" s="5" t="n"/>
       <c r="L306" s="19" t="inlineStr">
@@ -43708,7 +43716,7 @@
         </is>
       </c>
       <c r="F308" s="20" t="n">
-        <v>20791</v>
+        <v>20814</v>
       </c>
       <c r="J308" s="5" t="n"/>
       <c r="L308" s="19" t="inlineStr">
@@ -46001,7 +46009,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>16399</v>
+        <v>16576</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
@@ -46085,7 +46093,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>14835</v>
+        <v>14842</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -46977,18 +46985,18 @@
         <v>2002</v>
       </c>
       <c r="O15" s="15" t="n">
-        <v>4.36</v>
+        <v>4.4</v>
       </c>
       <c r="P15" s="7" t="n">
-        <v>985</v>
+        <v>995</v>
       </c>
       <c r="Q15" s="7" t="inlineStr">
         <is>
-          <t>Karlstad/SWE</t>
+          <t>Espoo/FIN</t>
         </is>
       </c>
       <c r="R15" s="16" t="n">
-        <v>4.07</v>
+        <v>15.07</v>
       </c>
       <c r="T15" s="5" t="n"/>
     </row>
@@ -47390,7 +47398,7 @@
         </is>
       </c>
       <c r="P23" s="20" t="n">
-        <v>9077</v>
+        <v>9087</v>
       </c>
       <c r="T23" s="5" t="n"/>
     </row>
@@ -47755,30 +47763,30 @@
       <c r="J32" s="5" t="n"/>
       <c r="L32" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M32" s="7" t="inlineStr">
         <is>
-          <t>Thea Emilie Turøy</t>
+          <t>Embla Adele Østreim Øina</t>
         </is>
       </c>
       <c r="N32" s="7" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="O32" s="15" t="n">
-        <v>1.45</v>
+        <v>4.89</v>
       </c>
       <c r="P32" s="7" t="n">
-        <v>565</v>
+        <v>594</v>
       </c>
       <c r="Q32" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="R32" s="16" t="n">
-        <v>13.05</v>
+        <v>17.06</v>
       </c>
       <c r="T32" s="5" t="n"/>
     </row>
@@ -47818,25 +47826,25 @@
       </c>
       <c r="M33" s="7" t="inlineStr">
         <is>
-          <t>Sofie Helén Løvendahl Strøm</t>
+          <t>Embla Adele Østreim Øina</t>
         </is>
       </c>
       <c r="N33" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="O33" s="15" t="n">
-        <v>10</v>
+        <v>10.26</v>
       </c>
       <c r="P33" s="7" t="n">
-        <v>558</v>
+        <v>585</v>
       </c>
       <c r="Q33" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="R33" s="16" t="n">
-        <v>2.06</v>
+        <v>17.06</v>
       </c>
       <c r="T33" s="5" t="n"/>
     </row>
@@ -47871,30 +47879,30 @@
       <c r="J34" s="5" t="n"/>
       <c r="L34" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M34" s="7" t="inlineStr">
         <is>
-          <t>Anna Qvale Sundstrøm</t>
+          <t>Thea Emilie Turøy</t>
         </is>
       </c>
       <c r="N34" s="7" t="n">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="O34" s="15" t="n">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="P34" s="7" t="n">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="Q34" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R34" s="16" t="n">
-        <v>11.02</v>
+        <v>13.05</v>
       </c>
       <c r="T34" s="5" t="n"/>
     </row>
@@ -47929,30 +47937,30 @@
       <c r="J35" s="5" t="n"/>
       <c r="L35" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M35" s="7" t="inlineStr">
         <is>
-          <t>Anna Qvale Sundstrøm</t>
+          <t>Embla Adele Østreim Øina</t>
         </is>
       </c>
       <c r="N35" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="O35" s="15" t="n">
-        <v>9.890000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="P35" s="7" t="n">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="Q35" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="R35" s="16" t="n">
-        <v>14.05</v>
+        <v>17.06</v>
       </c>
       <c r="T35" s="5" t="n"/>
     </row>
@@ -47992,25 +48000,25 @@
       </c>
       <c r="M36" s="7" t="inlineStr">
         <is>
-          <t>Jennie Bos</t>
+          <t>Sofie Helén Løvendahl Strøm</t>
         </is>
       </c>
       <c r="N36" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O36" s="15" t="n">
-        <v>9.84</v>
+        <v>10</v>
       </c>
       <c r="P36" s="7" t="n">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="Q36" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R36" s="16" t="n">
-        <v>12.02</v>
+        <v>2.06</v>
       </c>
       <c r="T36" s="5" t="n"/>
     </row>
@@ -48050,17 +48058,17 @@
       </c>
       <c r="M37" s="7" t="inlineStr">
         <is>
-          <t>Embla Adele Østreim Øina</t>
+          <t>Anna Qvale Sundstrøm</t>
         </is>
       </c>
       <c r="N37" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="O37" s="15" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="P37" s="7" t="n">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="Q37" s="7" t="inlineStr">
         <is>
@@ -48068,7 +48076,7 @@
         </is>
       </c>
       <c r="R37" s="16" t="n">
-        <v>23.02</v>
+        <v>11.02</v>
       </c>
       <c r="T37" s="5" t="n"/>
     </row>
@@ -48103,22 +48111,22 @@
       <c r="J38" s="5" t="n"/>
       <c r="L38" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M38" s="7" t="inlineStr">
         <is>
-          <t>Thea Emilie Turøy</t>
+          <t>Anna Qvale Sundstrøm</t>
         </is>
       </c>
       <c r="N38" s="7" t="n">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="O38" s="15" t="n">
-        <v>8.800000000000001</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="P38" s="7" t="n">
-        <v>519</v>
+        <v>547</v>
       </c>
       <c r="Q38" s="7" t="inlineStr">
         <is>
@@ -48126,7 +48134,7 @@
         </is>
       </c>
       <c r="R38" s="16" t="n">
-        <v>3.06</v>
+        <v>14.05</v>
       </c>
       <c r="T38" s="5" t="n"/>
     </row>
@@ -48161,22 +48169,22 @@
       <c r="J39" s="5" t="n"/>
       <c r="L39" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M39" s="7" t="inlineStr">
         <is>
-          <t>Sofie Helén Løvendahl Strøm</t>
+          <t>Jennie Bos</t>
         </is>
       </c>
       <c r="N39" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O39" s="15" t="n">
-        <v>1.4</v>
+        <v>9.84</v>
       </c>
       <c r="P39" s="7" t="n">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="Q39" s="7" t="inlineStr">
         <is>
@@ -48184,7 +48192,7 @@
         </is>
       </c>
       <c r="R39" s="16" t="n">
-        <v>12.01</v>
+        <v>12.02</v>
       </c>
       <c r="T39" s="5" t="n"/>
     </row>
@@ -48238,7 +48246,7 @@
         </is>
       </c>
       <c r="P41" s="20" t="n">
-        <v>7322</v>
+        <v>7489</v>
       </c>
       <c r="T41" s="5" t="n"/>
     </row>
@@ -48278,7 +48286,7 @@
         </is>
       </c>
       <c r="P43" s="20" t="n">
-        <v>16399</v>
+        <v>16576</v>
       </c>
       <c r="T43" s="5" t="n"/>
     </row>
@@ -50875,18 +50883,18 @@
         <v>2003</v>
       </c>
       <c r="E110" s="15" t="n">
-        <v>5.22</v>
+        <v>5.25</v>
       </c>
       <c r="F110" s="7" t="n">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="G110" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H110" s="16" t="n">
-        <v>6.07</v>
+        <v>14.07</v>
       </c>
       <c r="J110" s="5" t="n"/>
       <c r="L110" s="14" t="inlineStr">
@@ -51243,7 +51251,7 @@
         </is>
       </c>
       <c r="F117" s="20" t="n">
-        <v>7904</v>
+        <v>7911</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="19" t="inlineStr">
@@ -52149,7 +52157,7 @@
         </is>
       </c>
       <c r="F137" s="20" t="n">
-        <v>14835</v>
+        <v>14842</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="19" t="inlineStr">

--- a/output/Lagserien 2023 1-2. div.xlsx
+++ b/output/Lagserien 2023 1-2. div.xlsx
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>24010</v>
+        <v>24015</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -852,11 +852,11 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>(30/12)</t>
+          <t>(30/13)</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>21109</v>
+        <v>21215</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -936,11 +936,11 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>(29/12)</t>
+          <t>(29/11)</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>17704</v>
+        <v>18044</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -5026,18 +5026,18 @@
         <v>1999</v>
       </c>
       <c r="O91" s="15" t="n">
-        <v>50.71</v>
+        <v>50.61</v>
       </c>
       <c r="P91" s="7" t="n">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="Q91" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Paris/FRA</t>
         </is>
       </c>
       <c r="R91" s="16" t="n">
-        <v>21.05</v>
+        <v>15.07</v>
       </c>
       <c r="T91" s="5" t="n"/>
     </row>
@@ -5381,7 +5381,7 @@
         </is>
       </c>
       <c r="P98" s="20" t="n">
-        <v>11656</v>
+        <v>11661</v>
       </c>
       <c r="T98" s="5" t="n"/>
     </row>
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="P100" s="20" t="n">
-        <v>24010</v>
+        <v>24015</v>
       </c>
       <c r="T100" s="5" t="n"/>
     </row>
@@ -11891,25 +11891,25 @@
       </c>
       <c r="M250" s="7" t="inlineStr">
         <is>
-          <t>Aksel Wormdahl</t>
+          <t>Sverre Ranes Olstad</t>
         </is>
       </c>
       <c r="N250" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="O250" s="15" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="P250" s="7" t="n">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="Q250" s="7" t="inlineStr">
         <is>
-          <t>Ranheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R250" s="16" t="n">
-        <v>29.01</v>
+        <v>8.06</v>
       </c>
       <c r="T250" s="5" t="n"/>
     </row>
@@ -11949,17 +11949,17 @@
       </c>
       <c r="M251" s="7" t="inlineStr">
         <is>
-          <t>Emil Vestre</t>
+          <t>Aksel Wormdahl</t>
         </is>
       </c>
       <c r="N251" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O251" s="15" t="n">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="P251" s="7" t="n">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="Q251" s="7" t="inlineStr">
         <is>
@@ -12007,17 +12007,17 @@
       </c>
       <c r="M252" s="7" t="inlineStr">
         <is>
-          <t>Tomas Digernes Heltne</t>
+          <t>Emil Vestre</t>
         </is>
       </c>
       <c r="N252" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="O252" s="15" t="n">
-        <v>2.64</v>
+        <v>2.79</v>
       </c>
       <c r="P252" s="7" t="n">
-        <v>466</v>
+        <v>555</v>
       </c>
       <c r="Q252" s="7" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         </is>
       </c>
       <c r="P254" s="20" t="n">
-        <v>9965</v>
+        <v>10071</v>
       </c>
       <c r="T254" s="5" t="n"/>
     </row>
@@ -12119,7 +12119,7 @@
         </is>
       </c>
       <c r="P256" s="20" t="n">
-        <v>21109</v>
+        <v>21215</v>
       </c>
       <c r="T256" s="5" t="n"/>
     </row>
@@ -12143,7 +12143,7 @@
         </is>
       </c>
       <c r="M258" s="20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T258" s="5" t="n"/>
     </row>
@@ -14565,25 +14565,25 @@
       </c>
       <c r="C322" s="7" t="inlineStr">
         <is>
-          <t>Sondre Høylo Trefall</t>
+          <t>Eirik Reigstad</t>
         </is>
       </c>
       <c r="D322" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E322" s="15" t="n">
-        <v>13.27</v>
+        <v>11.95</v>
       </c>
       <c r="F322" s="7" t="n">
-        <v>375</v>
+        <v>621</v>
       </c>
       <c r="G322" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H322" s="16" t="n">
-        <v>4.06</v>
+        <v>5.07</v>
       </c>
       <c r="J322" s="5" t="n"/>
       <c r="L322" s="14" t="inlineStr">
@@ -15380,7 +15380,7 @@
         </is>
       </c>
       <c r="F337" s="20" t="n">
-        <v>9369</v>
+        <v>9615</v>
       </c>
       <c r="J337" s="5" t="n"/>
       <c r="L337" s="19" t="inlineStr">
@@ -15796,7 +15796,7 @@
     <row r="347" ht="13" customHeight="1">
       <c r="B347" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C347" s="7" t="inlineStr">
@@ -15808,18 +15808,18 @@
         <v>2007</v>
       </c>
       <c r="E347" s="15" t="n">
-        <v>24.86</v>
+        <v>7.67</v>
       </c>
       <c r="F347" s="7" t="n">
-        <v>568</v>
+        <v>600</v>
       </c>
       <c r="G347" s="7" t="inlineStr">
         <is>
-          <t>Rosendal</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H347" s="16" t="n">
-        <v>28.05</v>
+        <v>5.07</v>
       </c>
       <c r="J347" s="5" t="n"/>
       <c r="L347" s="14" t="inlineStr">
@@ -15856,7 +15856,7 @@
     <row r="348" ht="13" customHeight="1">
       <c r="B348" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C348" s="7" t="inlineStr">
@@ -15868,18 +15868,18 @@
         <v>2007</v>
       </c>
       <c r="E348" s="15" t="n">
-        <v>7.82</v>
+        <v>24.86</v>
       </c>
       <c r="F348" s="7" t="n">
-        <v>551</v>
+        <v>568</v>
       </c>
       <c r="G348" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Rosendal</t>
         </is>
       </c>
       <c r="H348" s="16" t="n">
-        <v>11.02</v>
+        <v>28.05</v>
       </c>
       <c r="J348" s="5" t="n"/>
       <c r="L348" s="14" t="inlineStr">
@@ -15916,7 +15916,7 @@
     <row r="349" ht="13" customHeight="1">
       <c r="B349" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C349" s="7" t="inlineStr">
@@ -15929,11 +15929,11 @@
       </c>
       <c r="E349" s="17" t="inlineStr">
         <is>
-          <t>9,46,87</t>
+          <t>16,52,24</t>
         </is>
       </c>
       <c r="F349" s="7" t="n">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="G349" s="7" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         </is>
       </c>
       <c r="H349" s="16" t="n">
-        <v>26.06</v>
+        <v>5.07</v>
       </c>
       <c r="J349" s="5" t="n"/>
       <c r="L349" s="14" t="inlineStr">
@@ -15978,30 +15978,32 @@
     <row r="350" ht="13" customHeight="1">
       <c r="B350" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C350" s="7" t="inlineStr">
         <is>
-          <t>Magnus Reigstad</t>
+          <t>Daniel Bruvik</t>
         </is>
       </c>
       <c r="D350" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E350" s="15" t="n">
-        <v>1.36</v>
+        <v>1996</v>
+      </c>
+      <c r="E350" s="17" t="inlineStr">
+        <is>
+          <t>9,46,87</t>
+        </is>
       </c>
       <c r="F350" s="7" t="n">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="G350" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H350" s="16" t="n">
-        <v>16.01</v>
+        <v>26.06</v>
       </c>
       <c r="J350" s="5" t="n"/>
       <c r="L350" s="14" t="inlineStr">
@@ -16043,25 +16045,25 @@
       </c>
       <c r="C351" s="7" t="inlineStr">
         <is>
-          <t>Eirik Reigstad</t>
+          <t>Magnus Reigstad</t>
         </is>
       </c>
       <c r="D351" s="7" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="E351" s="15" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="F351" s="7" t="n">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="G351" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="H351" s="16" t="n">
-        <v>10.02</v>
+        <v>16.01</v>
       </c>
       <c r="J351" s="5" t="n"/>
       <c r="L351" s="14" t="inlineStr">
@@ -16320,7 +16322,7 @@
         </is>
       </c>
       <c r="F358" s="20" t="n">
-        <v>8335</v>
+        <v>8429</v>
       </c>
       <c r="J358" s="5" t="n"/>
       <c r="L358" s="19" t="inlineStr">
@@ -16360,7 +16362,7 @@
         </is>
       </c>
       <c r="F360" s="20" t="n">
-        <v>17704</v>
+        <v>18044</v>
       </c>
       <c r="J360" s="5" t="n"/>
       <c r="L360" s="19" t="inlineStr">
@@ -16392,7 +16394,7 @@
         </is>
       </c>
       <c r="C362" s="20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J362" s="5" t="n"/>
       <c r="L362" s="19" t="inlineStr">
@@ -16433,20 +16435,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="P262:Q263"/>
-    <mergeCell ref="F210:G211"/>
     <mergeCell ref="F2:G3"/>
+    <mergeCell ref="P2:Q3"/>
     <mergeCell ref="F54:G55"/>
-    <mergeCell ref="P314:Q315"/>
-    <mergeCell ref="F314:G315"/>
     <mergeCell ref="P54:Q55"/>
-    <mergeCell ref="P2:Q3"/>
     <mergeCell ref="F106:G107"/>
+    <mergeCell ref="P106:Q107"/>
     <mergeCell ref="F158:G159"/>
     <mergeCell ref="P158:Q159"/>
+    <mergeCell ref="F210:G211"/>
     <mergeCell ref="P210:Q211"/>
-    <mergeCell ref="P106:Q107"/>
     <mergeCell ref="F262:G263"/>
+    <mergeCell ref="P262:Q263"/>
+    <mergeCell ref="F314:G315"/>
+    <mergeCell ref="P314:Q315"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16541,11 +16543,11 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>(25/12)</t>
+          <t>(25/11)</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>16750</v>
+        <v>16769</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
@@ -16769,7 +16771,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>15059</v>
+        <v>15099</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -18449,18 +18451,18 @@
         <v>2009</v>
       </c>
       <c r="O34" s="15" t="n">
-        <v>7.9</v>
+        <v>7.84</v>
       </c>
       <c r="P34" s="7" t="n">
-        <v>526</v>
+        <v>545</v>
       </c>
       <c r="Q34" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Søgne</t>
         </is>
       </c>
       <c r="R34" s="16" t="n">
-        <v>17.06</v>
+        <v>23.05</v>
       </c>
       <c r="T34" s="5" t="n"/>
     </row>
@@ -18502,7 +18504,7 @@
       </c>
       <c r="M35" s="7" t="inlineStr">
         <is>
-          <t>Olai Stav Grosvold</t>
+          <t>Olai Stav Graasvoll</t>
         </is>
       </c>
       <c r="N35" s="7" t="n">
@@ -18806,7 +18808,7 @@
         </is>
       </c>
       <c r="P41" s="20" t="n">
-        <v>7151</v>
+        <v>7170</v>
       </c>
       <c r="T41" s="5" t="n"/>
     </row>
@@ -18846,7 +18848,7 @@
         </is>
       </c>
       <c r="P43" s="20" t="n">
-        <v>16750</v>
+        <v>16769</v>
       </c>
       <c r="T43" s="5" t="n"/>
     </row>
@@ -18870,7 +18872,7 @@
         </is>
       </c>
       <c r="M45" s="20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T45" s="5" t="n"/>
     </row>
@@ -24751,18 +24753,18 @@
         <v>2005</v>
       </c>
       <c r="O197" s="15" t="n">
-        <v>7.77</v>
+        <v>7.65</v>
       </c>
       <c r="P197" s="7" t="n">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="Q197" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Sortland</t>
         </is>
       </c>
       <c r="R197" s="16" t="n">
-        <v>4.03</v>
+        <v>18.02</v>
       </c>
       <c r="T197" s="5" t="n"/>
     </row>
@@ -25526,7 +25528,7 @@
         </is>
       </c>
       <c r="P211" s="20" t="n">
-        <v>8013</v>
+        <v>8053</v>
       </c>
       <c r="T211" s="5" t="n"/>
     </row>
@@ -26416,7 +26418,7 @@
         </is>
       </c>
       <c r="P231" s="20" t="n">
-        <v>15059</v>
+        <v>15099</v>
       </c>
       <c r="T231" s="5" t="n"/>
     </row>
@@ -29994,20 +29996,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F284:G285"/>
-    <mergeCell ref="P96:Q97"/>
-    <mergeCell ref="P143:Q144"/>
-    <mergeCell ref="P284:Q285"/>
-    <mergeCell ref="F143:G144"/>
     <mergeCell ref="F2:G3"/>
-    <mergeCell ref="P190:Q191"/>
     <mergeCell ref="P2:Q3"/>
     <mergeCell ref="F49:G50"/>
+    <mergeCell ref="P49:Q50"/>
+    <mergeCell ref="F96:G97"/>
+    <mergeCell ref="P96:Q97"/>
+    <mergeCell ref="F143:G144"/>
+    <mergeCell ref="P143:Q144"/>
     <mergeCell ref="F190:G191"/>
+    <mergeCell ref="P190:Q191"/>
     <mergeCell ref="F237:G238"/>
-    <mergeCell ref="P49:Q50"/>
     <mergeCell ref="P237:Q238"/>
-    <mergeCell ref="F96:G97"/>
+    <mergeCell ref="F284:G285"/>
+    <mergeCell ref="P284:Q285"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30162,7 +30164,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>23024</v>
+        <v>23032</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -30190,7 +30192,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>22883</v>
+        <v>22884</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -33071,25 +33073,25 @@
       </c>
       <c r="M63" s="7" t="inlineStr">
         <is>
-          <t>Ida Andrea Breigan</t>
+          <t>Marlen Aakre</t>
         </is>
       </c>
       <c r="N63" s="7" t="n">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="O63" s="15" t="n">
-        <v>24.73</v>
+        <v>24.65</v>
       </c>
       <c r="P63" s="7" t="n">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="Q63" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R63" s="16" t="n">
-        <v>16.06</v>
+        <v>16.07</v>
       </c>
       <c r="T63" s="5" t="n"/>
     </row>
@@ -33851,7 +33853,7 @@
         </is>
       </c>
       <c r="P77" s="20" t="n">
-        <v>11903</v>
+        <v>11910</v>
       </c>
       <c r="T77" s="5" t="n"/>
     </row>
@@ -34103,25 +34105,25 @@
       </c>
       <c r="M84" s="7" t="inlineStr">
         <is>
-          <t>Marlen Aakre</t>
+          <t>Ida Andrea Breigan</t>
         </is>
       </c>
       <c r="N84" s="7" t="n">
-        <v>1993</v>
+        <v>2004</v>
       </c>
       <c r="O84" s="15" t="n">
-        <v>24.74</v>
+        <v>24.73</v>
       </c>
       <c r="P84" s="7" t="n">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="Q84" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R84" s="16" t="n">
-        <v>4.06</v>
+        <v>16.06</v>
       </c>
       <c r="T84" s="5" t="n"/>
     </row>
@@ -34873,7 +34875,7 @@
         </is>
       </c>
       <c r="P98" s="20" t="n">
-        <v>11121</v>
+        <v>11122</v>
       </c>
       <c r="T98" s="5" t="n"/>
     </row>
@@ -34913,7 +34915,7 @@
         </is>
       </c>
       <c r="P100" s="20" t="n">
-        <v>23024</v>
+        <v>23032</v>
       </c>
       <c r="T100" s="5" t="n"/>
     </row>
@@ -35982,18 +35984,18 @@
         <v>2005</v>
       </c>
       <c r="E127" s="15" t="n">
-        <v>47.4</v>
+        <v>47.48</v>
       </c>
       <c r="F127" s="7" t="n">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="G127" s="7" t="inlineStr">
         <is>
-          <t>Mannheim/GER</t>
+          <t>Bottnaryd/SWE</t>
         </is>
       </c>
       <c r="H127" s="16" t="n">
-        <v>24.06</v>
+        <v>16.07</v>
       </c>
       <c r="J127" s="5" t="n"/>
       <c r="L127" s="14" t="inlineStr">
@@ -36058,7 +36060,7 @@
         </is>
       </c>
       <c r="F129" s="20" t="n">
-        <v>11867</v>
+        <v>11868</v>
       </c>
       <c r="J129" s="5" t="n"/>
       <c r="L129" s="19" t="inlineStr">
@@ -37124,7 +37126,7 @@
         </is>
       </c>
       <c r="F152" s="20" t="n">
-        <v>22883</v>
+        <v>22884</v>
       </c>
       <c r="J152" s="5" t="n"/>
       <c r="L152" s="19" t="inlineStr">
@@ -45897,20 +45899,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="P262:Q263"/>
-    <mergeCell ref="F210:G211"/>
     <mergeCell ref="F2:G3"/>
+    <mergeCell ref="P2:Q3"/>
     <mergeCell ref="F54:G55"/>
-    <mergeCell ref="P314:Q315"/>
-    <mergeCell ref="F314:G315"/>
     <mergeCell ref="P54:Q55"/>
-    <mergeCell ref="P2:Q3"/>
     <mergeCell ref="F106:G107"/>
+    <mergeCell ref="P106:Q107"/>
     <mergeCell ref="F158:G159"/>
     <mergeCell ref="P158:Q159"/>
+    <mergeCell ref="F210:G211"/>
     <mergeCell ref="P210:Q211"/>
-    <mergeCell ref="P106:Q107"/>
     <mergeCell ref="F262:G263"/>
+    <mergeCell ref="P262:Q263"/>
+    <mergeCell ref="F314:G315"/>
+    <mergeCell ref="P314:Q315"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -46341,11 +46343,11 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>(15/7)</t>
+          <t>(14/6)</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>8259</v>
+        <v>7890</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -59137,33 +59139,13 @@
         <v>21.01</v>
       </c>
       <c r="J314" s="5" t="n"/>
-      <c r="L314" s="14" t="inlineStr">
-        <is>
-          <t>60m</t>
-        </is>
-      </c>
-      <c r="M314" s="7" t="inlineStr">
-        <is>
-          <t>Maria Betten Lade</t>
-        </is>
-      </c>
-      <c r="N314" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O314" s="15" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="P314" s="7" t="n">
-        <v>369</v>
-      </c>
-      <c r="Q314" s="7" t="inlineStr">
-        <is>
-          <t>Stjørdal</t>
-        </is>
-      </c>
-      <c r="R314" s="16" t="n">
-        <v>21.06</v>
-      </c>
+      <c r="L314" s="14" t="n"/>
+      <c r="M314" s="7" t="n"/>
+      <c r="N314" s="7" t="n"/>
+      <c r="O314" s="7" t="n"/>
+      <c r="P314" s="7" t="n"/>
+      <c r="Q314" s="7" t="n"/>
+      <c r="R314" s="21" t="n"/>
       <c r="T314" s="5" t="n"/>
     </row>
     <row r="315" ht="13" customHeight="1">
@@ -59394,7 +59376,7 @@
         </is>
       </c>
       <c r="M323" s="20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O323" s="19" t="inlineStr">
         <is>
@@ -59402,7 +59384,7 @@
         </is>
       </c>
       <c r="P323" s="20" t="n">
-        <v>2773</v>
+        <v>2404</v>
       </c>
       <c r="T323" s="5" t="n"/>
     </row>
@@ -59434,7 +59416,7 @@
         </is>
       </c>
       <c r="M325" s="20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O325" s="19" t="inlineStr">
         <is>
@@ -59442,7 +59424,7 @@
         </is>
       </c>
       <c r="P325" s="20" t="n">
-        <v>8259</v>
+        <v>7890</v>
       </c>
       <c r="T325" s="5" t="n"/>
     </row>
@@ -59466,7 +59448,7 @@
         </is>
       </c>
       <c r="M327" s="20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T327" s="5" t="n"/>
     </row>
@@ -59498,20 +59480,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F284:G285"/>
-    <mergeCell ref="P96:Q97"/>
-    <mergeCell ref="P143:Q144"/>
-    <mergeCell ref="P284:Q285"/>
-    <mergeCell ref="F143:G144"/>
     <mergeCell ref="F2:G3"/>
-    <mergeCell ref="P190:Q191"/>
     <mergeCell ref="P2:Q3"/>
     <mergeCell ref="F49:G50"/>
+    <mergeCell ref="P49:Q50"/>
+    <mergeCell ref="F96:G97"/>
+    <mergeCell ref="P96:Q97"/>
+    <mergeCell ref="F143:G144"/>
+    <mergeCell ref="P143:Q144"/>
     <mergeCell ref="F190:G191"/>
+    <mergeCell ref="P190:Q191"/>
     <mergeCell ref="F237:G238"/>
-    <mergeCell ref="P49:Q50"/>
     <mergeCell ref="P237:Q238"/>
-    <mergeCell ref="F96:G97"/>
+    <mergeCell ref="F284:G285"/>
+    <mergeCell ref="P284:Q285"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/Lagserien 2023 1-2. div.xlsx
+++ b/output/Lagserien 2023 1-2. div.xlsx
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>25652</v>
+        <v>25702</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>24015</v>
+        <v>24026</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -2399,27 +2399,27 @@
       </c>
       <c r="M32" s="7" t="inlineStr">
         <is>
-          <t>Narve Gilje Nordås</t>
+          <t>Henrik Børkja Ingebrigtsen</t>
         </is>
       </c>
       <c r="N32" s="7" t="n">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="O32" s="17" t="inlineStr">
         <is>
-          <t>7,43,94</t>
+          <t>7,42,57</t>
         </is>
       </c>
       <c r="P32" s="7" t="n">
-        <v>1039</v>
+        <v>1047</v>
       </c>
       <c r="Q32" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Luzern/SUI</t>
         </is>
       </c>
       <c r="R32" s="16" t="n">
-        <v>3.06</v>
+        <v>20.07</v>
       </c>
       <c r="T32" s="5" t="n"/>
     </row>
@@ -2459,27 +2459,27 @@
       </c>
       <c r="M33" s="7" t="inlineStr">
         <is>
-          <t>Henrik Børkja Ingebrigtsen</t>
+          <t>Narve Gilje Nordås</t>
         </is>
       </c>
       <c r="N33" s="7" t="n">
-        <v>1991</v>
+        <v>1998</v>
       </c>
       <c r="O33" s="17" t="inlineStr">
         <is>
-          <t>7,51,09</t>
+          <t>7,43,94</t>
         </is>
       </c>
       <c r="P33" s="7" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="Q33" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R33" s="16" t="n">
-        <v>21.05</v>
+        <v>3.06</v>
       </c>
       <c r="T33" s="5" t="n"/>
     </row>
@@ -2527,19 +2527,19 @@
       </c>
       <c r="O34" s="17" t="inlineStr">
         <is>
-          <t>3,39,28</t>
+          <t>3,39,18</t>
         </is>
       </c>
       <c r="P34" s="7" t="n">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="Q34" s="7" t="inlineStr">
         <is>
-          <t>Rabat/MAR</t>
+          <t>Luzern/SUI</t>
         </is>
       </c>
       <c r="R34" s="16" t="n">
-        <v>28.05</v>
+        <v>20.07</v>
       </c>
       <c r="T34" s="5" t="n"/>
     </row>
@@ -3175,7 +3175,7 @@
         </is>
       </c>
       <c r="P46" s="20" t="n">
-        <v>12980</v>
+        <v>13030</v>
       </c>
       <c r="T46" s="5" t="n"/>
     </row>
@@ -3215,7 +3215,7 @@
         </is>
       </c>
       <c r="P48" s="20" t="n">
-        <v>25652</v>
+        <v>25702</v>
       </c>
       <c r="T48" s="5" t="n"/>
     </row>
@@ -4142,18 +4142,18 @@
         <v>1998</v>
       </c>
       <c r="O72" s="15" t="n">
-        <v>20.88</v>
+        <v>21.12</v>
       </c>
       <c r="P72" s="7" t="n">
-        <v>1105</v>
+        <v>1116</v>
       </c>
       <c r="Q72" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Banská Bystrica/SVK</t>
         </is>
       </c>
       <c r="R72" s="16" t="n">
-        <v>2.02</v>
+        <v>20.07</v>
       </c>
       <c r="T72" s="5" t="n"/>
     </row>
@@ -4361,7 +4361,7 @@
         </is>
       </c>
       <c r="P77" s="20" t="n">
-        <v>12354</v>
+        <v>12365</v>
       </c>
       <c r="T77" s="5" t="n"/>
     </row>
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="P100" s="20" t="n">
-        <v>24015</v>
+        <v>24026</v>
       </c>
       <c r="T100" s="5" t="n"/>
     </row>
@@ -16435,20 +16435,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="P262:Q263"/>
+    <mergeCell ref="F210:G211"/>
     <mergeCell ref="F2:G3"/>
+    <mergeCell ref="F54:G55"/>
+    <mergeCell ref="P314:Q315"/>
+    <mergeCell ref="F314:G315"/>
+    <mergeCell ref="P54:Q55"/>
     <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="F54:G55"/>
-    <mergeCell ref="P54:Q55"/>
     <mergeCell ref="F106:G107"/>
-    <mergeCell ref="P106:Q107"/>
     <mergeCell ref="F158:G159"/>
     <mergeCell ref="P158:Q159"/>
-    <mergeCell ref="F210:G211"/>
     <mergeCell ref="P210:Q211"/>
+    <mergeCell ref="P106:Q107"/>
     <mergeCell ref="F262:G263"/>
-    <mergeCell ref="P262:Q263"/>
-    <mergeCell ref="F314:G315"/>
-    <mergeCell ref="P314:Q315"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16547,7 +16547,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>16769</v>
+        <v>16783</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>15856</v>
+        <v>15908</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -17462,19 +17462,19 @@
       </c>
       <c r="O14" s="17" t="inlineStr">
         <is>
-          <t>3,41,51</t>
+          <t>3,40,46</t>
         </is>
       </c>
       <c r="P14" s="7" t="n">
-        <v>966</v>
+        <v>980</v>
       </c>
       <c r="Q14" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Lappeenranta/FIN</t>
         </is>
       </c>
       <c r="R14" s="16" t="n">
-        <v>8.07</v>
+        <v>19.07</v>
       </c>
       <c r="T14" s="5" t="n"/>
     </row>
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="P23" s="20" t="n">
-        <v>9599</v>
+        <v>9613</v>
       </c>
       <c r="T23" s="5" t="n"/>
     </row>
@@ -18848,7 +18848,7 @@
         </is>
       </c>
       <c r="P43" s="20" t="n">
-        <v>16769</v>
+        <v>16783</v>
       </c>
       <c r="T43" s="5" t="n"/>
     </row>
@@ -21336,19 +21336,19 @@
       </c>
       <c r="E108" s="17" t="inlineStr">
         <is>
-          <t>3,54,27</t>
+          <t>3,49,46</t>
         </is>
       </c>
       <c r="F108" s="7" t="n">
-        <v>818</v>
+        <v>870</v>
       </c>
       <c r="G108" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Luzern/SUI</t>
         </is>
       </c>
       <c r="H108" s="16" t="n">
-        <v>21.05</v>
+        <v>20.07</v>
       </c>
       <c r="J108" s="5" t="n"/>
       <c r="L108" s="14" t="inlineStr">
@@ -21749,7 +21749,7 @@
         </is>
       </c>
       <c r="F117" s="20" t="n">
-        <v>8171</v>
+        <v>8223</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="19" t="inlineStr">
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="F137" s="20" t="n">
-        <v>15856</v>
+        <v>15908</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="19" t="inlineStr">
@@ -29996,20 +29996,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F284:G285"/>
+    <mergeCell ref="P96:Q97"/>
+    <mergeCell ref="P143:Q144"/>
+    <mergeCell ref="P284:Q285"/>
+    <mergeCell ref="F143:G144"/>
     <mergeCell ref="F2:G3"/>
+    <mergeCell ref="P190:Q191"/>
     <mergeCell ref="P2:Q3"/>
     <mergeCell ref="F49:G50"/>
+    <mergeCell ref="F190:G191"/>
+    <mergeCell ref="F237:G238"/>
     <mergeCell ref="P49:Q50"/>
+    <mergeCell ref="P237:Q238"/>
     <mergeCell ref="F96:G97"/>
-    <mergeCell ref="P96:Q97"/>
-    <mergeCell ref="F143:G144"/>
-    <mergeCell ref="P143:Q144"/>
-    <mergeCell ref="F190:G191"/>
-    <mergeCell ref="P190:Q191"/>
-    <mergeCell ref="F237:G238"/>
-    <mergeCell ref="P237:Q238"/>
-    <mergeCell ref="F284:G285"/>
-    <mergeCell ref="P284:Q285"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30080,7 +30080,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>26154</v>
+        <v>26179</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>21866</v>
+        <v>21875</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -30931,19 +30931,19 @@
       </c>
       <c r="E13" s="17" t="inlineStr">
         <is>
-          <t>2,02,63</t>
+          <t>2,01,43</t>
         </is>
       </c>
       <c r="F13" s="7" t="n">
-        <v>930</v>
+        <v>955</v>
       </c>
       <c r="G13" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Banská Bystrica/SVK</t>
         </is>
       </c>
       <c r="H13" s="16" t="n">
-        <v>28.06</v>
+        <v>20.07</v>
       </c>
       <c r="J13" s="5" t="n"/>
       <c r="L13" s="14" t="inlineStr">
@@ -31600,7 +31600,7 @@
         </is>
       </c>
       <c r="F25" s="20" t="n">
-        <v>13451</v>
+        <v>13476</v>
       </c>
       <c r="J25" s="5" t="n"/>
       <c r="L25" s="19" t="inlineStr">
@@ -32676,7 +32676,7 @@
         </is>
       </c>
       <c r="F48" s="20" t="n">
-        <v>26154</v>
+        <v>26179</v>
       </c>
       <c r="J48" s="5" t="n"/>
       <c r="L48" s="19" t="inlineStr">
@@ -35780,18 +35780,18 @@
         <v>1996</v>
       </c>
       <c r="O123" s="15" t="n">
-        <v>4.51</v>
+        <v>4.55</v>
       </c>
       <c r="P123" s="7" t="n">
-        <v>1021</v>
+        <v>1030</v>
       </c>
       <c r="Q123" s="7" t="inlineStr">
         <is>
-          <t>Firenze/ITA</t>
+          <t>Luzern/SUI</t>
         </is>
       </c>
       <c r="R123" s="16" t="n">
-        <v>2.06</v>
+        <v>20.07</v>
       </c>
       <c r="T123" s="5" t="n"/>
     </row>
@@ -36077,7 +36077,7 @@
         </is>
       </c>
       <c r="P129" s="20" t="n">
-        <v>12115</v>
+        <v>12124</v>
       </c>
       <c r="T129" s="5" t="n"/>
     </row>
@@ -37143,7 +37143,7 @@
         </is>
       </c>
       <c r="P152" s="20" t="n">
-        <v>21866</v>
+        <v>21875</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
@@ -45899,20 +45899,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="P262:Q263"/>
+    <mergeCell ref="F210:G211"/>
     <mergeCell ref="F2:G3"/>
+    <mergeCell ref="F54:G55"/>
+    <mergeCell ref="P314:Q315"/>
+    <mergeCell ref="F314:G315"/>
+    <mergeCell ref="P54:Q55"/>
     <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="F54:G55"/>
-    <mergeCell ref="P54:Q55"/>
     <mergeCell ref="F106:G107"/>
-    <mergeCell ref="P106:Q107"/>
     <mergeCell ref="F158:G159"/>
     <mergeCell ref="P158:Q159"/>
-    <mergeCell ref="F210:G211"/>
     <mergeCell ref="P210:Q211"/>
+    <mergeCell ref="P106:Q107"/>
     <mergeCell ref="F262:G263"/>
-    <mergeCell ref="P262:Q263"/>
-    <mergeCell ref="F314:G315"/>
-    <mergeCell ref="P314:Q315"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -59480,20 +59480,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F284:G285"/>
+    <mergeCell ref="P96:Q97"/>
+    <mergeCell ref="P143:Q144"/>
+    <mergeCell ref="P284:Q285"/>
+    <mergeCell ref="F143:G144"/>
     <mergeCell ref="F2:G3"/>
+    <mergeCell ref="P190:Q191"/>
     <mergeCell ref="P2:Q3"/>
     <mergeCell ref="F49:G50"/>
+    <mergeCell ref="F190:G191"/>
+    <mergeCell ref="F237:G238"/>
     <mergeCell ref="P49:Q50"/>
+    <mergeCell ref="P237:Q238"/>
     <mergeCell ref="F96:G97"/>
-    <mergeCell ref="P96:Q97"/>
-    <mergeCell ref="F143:G144"/>
-    <mergeCell ref="P143:Q144"/>
-    <mergeCell ref="F190:G191"/>
-    <mergeCell ref="P190:Q191"/>
-    <mergeCell ref="F237:G238"/>
-    <mergeCell ref="P237:Q238"/>
-    <mergeCell ref="F284:G285"/>
-    <mergeCell ref="P284:Q285"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/Lagserien 2023 1-2. div.xlsx
+++ b/output/Lagserien 2023 1-2. div.xlsx
@@ -796,11 +796,11 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>(30/17)</t>
+          <t>(30/18)</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>22661</v>
+        <v>22951</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>19231</v>
+        <v>19242</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -8522,18 +8522,18 @@
         <v>2005</v>
       </c>
       <c r="O175" s="15" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="P175" s="7" t="n">
-        <v>747</v>
+        <v>796</v>
       </c>
       <c r="Q175" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Arvika/SWE</t>
         </is>
       </c>
       <c r="R175" s="16" t="n">
-        <v>6.07</v>
+        <v>23.07</v>
       </c>
       <c r="T175" s="5" t="n"/>
     </row>
@@ -8819,7 +8819,7 @@
         </is>
       </c>
       <c r="P181" s="20" t="n">
-        <v>11265</v>
+        <v>11314</v>
       </c>
       <c r="T181" s="5" t="n"/>
     </row>
@@ -9613,25 +9613,25 @@
       </c>
       <c r="M197" s="7" t="inlineStr">
         <is>
-          <t>Alan Ringo</t>
+          <t>Nicholas Reklev</t>
         </is>
       </c>
       <c r="N197" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O197" s="15" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="P197" s="7" t="n">
-        <v>461</v>
+        <v>607</v>
       </c>
       <c r="Q197" s="7" t="inlineStr">
         <is>
-          <t>Hvam</t>
+          <t>Arvika/SWE</t>
         </is>
       </c>
       <c r="R197" s="16" t="n">
-        <v>4.02</v>
+        <v>23.07</v>
       </c>
       <c r="T197" s="5" t="n"/>
     </row>
@@ -9666,30 +9666,30 @@
       <c r="J198" s="5" t="n"/>
       <c r="L198" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M198" s="7" t="inlineStr">
         <is>
-          <t>Stein Tore Klungland</t>
+          <t>Alan Ringo</t>
         </is>
       </c>
       <c r="N198" s="7" t="n">
-        <v>1958</v>
+        <v>2007</v>
       </c>
       <c r="O198" s="15" t="n">
-        <v>11.11</v>
+        <v>1.6</v>
       </c>
       <c r="P198" s="7" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q198" s="7" t="inlineStr">
         <is>
-          <t>Geithus</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="R198" s="16" t="n">
-        <v>25.06</v>
+        <v>4.02</v>
       </c>
       <c r="T198" s="5" t="n"/>
     </row>
@@ -9724,30 +9724,30 @@
       <c r="J199" s="5" t="n"/>
       <c r="L199" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M199" s="7" t="inlineStr">
         <is>
-          <t>Terje Aastorp</t>
+          <t>Stein Tore Klungland</t>
         </is>
       </c>
       <c r="N199" s="7" t="n">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="O199" s="15" t="n">
-        <v>25.87</v>
+        <v>11.11</v>
       </c>
       <c r="P199" s="7" t="n">
-        <v>375</v>
+        <v>460</v>
       </c>
       <c r="Q199" s="7" t="inlineStr">
         <is>
-          <t>Torsby/SWE</t>
+          <t>Geithus</t>
         </is>
       </c>
       <c r="R199" s="16" t="n">
-        <v>20.05</v>
+        <v>25.06</v>
       </c>
       <c r="T199" s="5" t="n"/>
     </row>
@@ -9782,30 +9782,30 @@
       <c r="J200" s="5" t="n"/>
       <c r="L200" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M200" s="7" t="inlineStr">
         <is>
-          <t>Stein Tore Klungland</t>
+          <t>Terje Aastorp</t>
         </is>
       </c>
       <c r="N200" s="7" t="n">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="O200" s="15" t="n">
-        <v>4.98</v>
+        <v>25.87</v>
       </c>
       <c r="P200" s="7" t="n">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="Q200" s="7" t="inlineStr">
         <is>
-          <t>Geithus</t>
+          <t>Torsby/SWE</t>
         </is>
       </c>
       <c r="R200" s="16" t="n">
-        <v>23.06</v>
+        <v>20.05</v>
       </c>
       <c r="T200" s="5" t="n"/>
     </row>
@@ -9859,7 +9859,7 @@
         </is>
       </c>
       <c r="P202" s="20" t="n">
-        <v>11396</v>
+        <v>11637</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
@@ -9899,7 +9899,7 @@
         </is>
       </c>
       <c r="P204" s="20" t="n">
-        <v>22661</v>
+        <v>22951</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -9923,7 +9923,7 @@
         </is>
       </c>
       <c r="M206" s="20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
@@ -13348,18 +13348,18 @@
         <v>2005</v>
       </c>
       <c r="O290" s="15" t="n">
-        <v>7.11</v>
+        <v>7.16</v>
       </c>
       <c r="P290" s="7" t="n">
-        <v>850</v>
+        <v>861</v>
       </c>
       <c r="Q290" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R290" s="16" t="n">
-        <v>17.06</v>
+        <v>23.07</v>
       </c>
       <c r="T290" s="5" t="n"/>
     </row>
@@ -14231,7 +14231,7 @@
         </is>
       </c>
       <c r="P306" s="20" t="n">
-        <v>10728</v>
+        <v>10739</v>
       </c>
       <c r="T306" s="5" t="n"/>
     </row>
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="P308" s="20" t="n">
-        <v>19231</v>
+        <v>19242</v>
       </c>
       <c r="T308" s="5" t="n"/>
     </row>
@@ -16687,7 +16687,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>15361</v>
+        <v>15380</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>15099</v>
+        <v>15161</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -23363,18 +23363,18 @@
         <v>2004</v>
       </c>
       <c r="E159" s="15" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="F159" s="7" t="n">
-        <v>851</v>
+        <v>870</v>
       </c>
       <c r="G159" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H159" s="16" t="n">
-        <v>11.06</v>
+        <v>23.07</v>
       </c>
       <c r="J159" s="5" t="n"/>
       <c r="L159" s="14" t="inlineStr">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="F164" s="20" t="n">
-        <v>8670</v>
+        <v>8689</v>
       </c>
       <c r="J164" s="5" t="n"/>
       <c r="L164" s="19" t="inlineStr">
@@ -24465,7 +24465,7 @@
         </is>
       </c>
       <c r="F184" s="20" t="n">
-        <v>15361</v>
+        <v>15380</v>
       </c>
       <c r="J184" s="5" t="n"/>
       <c r="L184" s="19" t="inlineStr">
@@ -25231,18 +25231,18 @@
         <v>2000</v>
       </c>
       <c r="O205" s="15" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P205" s="7" t="n">
-        <v>579</v>
+        <v>607</v>
       </c>
       <c r="Q205" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Arvika/SWE</t>
         </is>
       </c>
       <c r="R205" s="16" t="n">
-        <v>12.05</v>
+        <v>23.07</v>
       </c>
       <c r="T205" s="5" t="n"/>
     </row>
@@ -25405,18 +25405,18 @@
         <v>2000</v>
       </c>
       <c r="O208" s="15" t="n">
-        <v>34.81</v>
+        <v>36.29</v>
       </c>
       <c r="P208" s="7" t="n">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="Q208" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Arvika/SWE</t>
         </is>
       </c>
       <c r="R208" s="16" t="n">
-        <v>18.06</v>
+        <v>22.07</v>
       </c>
       <c r="T208" s="5" t="n"/>
     </row>
@@ -25528,7 +25528,7 @@
         </is>
       </c>
       <c r="P211" s="20" t="n">
-        <v>8053</v>
+        <v>8111</v>
       </c>
       <c r="T211" s="5" t="n"/>
     </row>
@@ -26139,18 +26139,18 @@
         <v>2000</v>
       </c>
       <c r="O224" s="15" t="n">
-        <v>5.65</v>
+        <v>5.67</v>
       </c>
       <c r="P224" s="7" t="n">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="Q224" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Arvika/SWE</t>
         </is>
       </c>
       <c r="R224" s="16" t="n">
-        <v>20.05</v>
+        <v>22.07</v>
       </c>
       <c r="T224" s="5" t="n"/>
     </row>
@@ -26378,7 +26378,7 @@
         </is>
       </c>
       <c r="P229" s="20" t="n">
-        <v>7046</v>
+        <v>7050</v>
       </c>
       <c r="T229" s="5" t="n"/>
     </row>
@@ -26418,7 +26418,7 @@
         </is>
       </c>
       <c r="P231" s="20" t="n">
-        <v>15099</v>
+        <v>15161</v>
       </c>
       <c r="T231" s="5" t="n"/>
     </row>
@@ -30080,7 +30080,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>26179</v>
+        <v>26426</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -30136,7 +30136,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>23259</v>
+        <v>23278</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
@@ -30164,7 +30164,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>23032</v>
+        <v>23035</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -30192,7 +30192,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>22884</v>
+        <v>22905</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -30248,7 +30248,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>21486</v>
+        <v>21514</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
@@ -30388,7 +30388,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>20394</v>
+        <v>20426</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -31107,27 +31107,27 @@
       </c>
       <c r="C16" s="7" t="inlineStr">
         <is>
-          <t>Sigrid Jervell Våg</t>
+          <t>Karoline Bjerkeli Grøvdal</t>
         </is>
       </c>
       <c r="D16" s="7" t="n">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="E16" s="17" t="inlineStr">
         <is>
-          <t>16,09,61</t>
+          <t>14,45,24</t>
         </is>
       </c>
       <c r="F16" s="7" t="n">
-        <v>873</v>
+        <v>1067</v>
       </c>
       <c r="G16" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>London/GBR</t>
         </is>
       </c>
       <c r="H16" s="16" t="n">
-        <v>28.06</v>
+        <v>23.07</v>
       </c>
       <c r="J16" s="5" t="n"/>
       <c r="L16" s="14" t="inlineStr">
@@ -31292,18 +31292,18 @@
         <v>2005</v>
       </c>
       <c r="E19" s="15" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="F19" s="7" t="n">
-        <v>773</v>
+        <v>782</v>
       </c>
       <c r="G19" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H19" s="16" t="n">
-        <v>6.07</v>
+        <v>23.07</v>
       </c>
       <c r="J19" s="5" t="n"/>
       <c r="L19" s="14" t="inlineStr">
@@ -31600,7 +31600,7 @@
         </is>
       </c>
       <c r="F25" s="20" t="n">
-        <v>13476</v>
+        <v>13679</v>
       </c>
       <c r="J25" s="5" t="n"/>
       <c r="L25" s="19" t="inlineStr">
@@ -32022,30 +32022,32 @@
     <row r="35" ht="13" customHeight="1">
       <c r="B35" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C35" s="7" t="inlineStr">
         <is>
-          <t>Kaitesi Ertzgaard</t>
+          <t>Sigrid Jervell Våg</t>
         </is>
       </c>
       <c r="D35" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E35" s="15" t="n">
-        <v>54.58</v>
+        <v>1992</v>
+      </c>
+      <c r="E35" s="17" t="inlineStr">
+        <is>
+          <t>16,09,61</t>
+        </is>
       </c>
       <c r="F35" s="7" t="n">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="G35" s="7" t="inlineStr">
         <is>
-          <t>Jyväskylä/FIN</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H35" s="16" t="n">
-        <v>7.06</v>
+        <v>28.06</v>
       </c>
       <c r="J35" s="5" t="n"/>
       <c r="L35" s="14" t="inlineStr">
@@ -32080,30 +32082,30 @@
     <row r="36" ht="13" customHeight="1">
       <c r="B36" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C36" s="7" t="inlineStr">
         <is>
-          <t>Astri Ayo Lakeri Ertzgaard</t>
+          <t>Kaitesi Ertzgaard</t>
         </is>
       </c>
       <c r="D36" s="7" t="n">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="E36" s="15" t="n">
-        <v>24.27</v>
+        <v>54.58</v>
       </c>
       <c r="F36" s="7" t="n">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="G36" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jyväskylä/FIN</t>
         </is>
       </c>
       <c r="H36" s="16" t="n">
-        <v>15.06</v>
+        <v>7.06</v>
       </c>
       <c r="J36" s="5" t="n"/>
       <c r="L36" s="14" t="inlineStr">
@@ -32143,17 +32145,17 @@
       </c>
       <c r="C37" s="7" t="inlineStr">
         <is>
-          <t>Vilde Humstad Aasmo</t>
+          <t>Astri Ayo Lakeri Ertzgaard</t>
         </is>
       </c>
       <c r="D37" s="7" t="n">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="E37" s="15" t="n">
-        <v>24.33</v>
+        <v>24.27</v>
       </c>
       <c r="F37" s="7" t="n">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="G37" s="7" t="inlineStr">
         <is>
@@ -32161,7 +32163,7 @@
         </is>
       </c>
       <c r="H37" s="16" t="n">
-        <v>28.06</v>
+        <v>15.06</v>
       </c>
       <c r="J37" s="5" t="n"/>
       <c r="L37" s="14" t="inlineStr">
@@ -32196,30 +32198,30 @@
     <row r="38" ht="13" customHeight="1">
       <c r="B38" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C38" s="7" t="inlineStr">
         <is>
-          <t>Hedda Kronstrand Kvalvåg</t>
+          <t>Vilde Humstad Aasmo</t>
         </is>
       </c>
       <c r="D38" s="7" t="n">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="E38" s="15" t="n">
-        <v>12.66</v>
+        <v>24.33</v>
       </c>
       <c r="F38" s="7" t="n">
-        <v>837</v>
+        <v>865</v>
       </c>
       <c r="G38" s="7" t="inlineStr">
         <is>
-          <t>Birmingham/AL/USA</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H38" s="16" t="n">
-        <v>25.02</v>
+        <v>28.06</v>
       </c>
       <c r="J38" s="5" t="n"/>
       <c r="L38" s="14" t="inlineStr">
@@ -32254,32 +32256,30 @@
     <row r="39" ht="13" customHeight="1">
       <c r="B39" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C39" s="7" t="inlineStr">
         <is>
-          <t>Solveig Hernandez Vråle</t>
+          <t>Hedda Kronstrand Kvalvåg</t>
         </is>
       </c>
       <c r="D39" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E39" s="17" t="inlineStr">
-        <is>
-          <t>2,07,88</t>
-        </is>
+        <v>2002</v>
+      </c>
+      <c r="E39" s="15" t="n">
+        <v>12.66</v>
       </c>
       <c r="F39" s="7" t="n">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="G39" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Birmingham/AL/USA</t>
         </is>
       </c>
       <c r="H39" s="16" t="n">
-        <v>7.07</v>
+        <v>25.02</v>
       </c>
       <c r="J39" s="5" t="n"/>
       <c r="L39" s="14" t="inlineStr">
@@ -32314,30 +32314,32 @@
     <row r="40" ht="13" customHeight="1">
       <c r="B40" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C40" s="7" t="inlineStr">
         <is>
-          <t>Laura Tietje Johanna Van Der Veen</t>
+          <t>Solveig Hernandez Vråle</t>
         </is>
       </c>
       <c r="D40" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E40" s="15" t="n">
-        <v>12.13</v>
+        <v>1999</v>
+      </c>
+      <c r="E40" s="17" t="inlineStr">
+        <is>
+          <t>2,07,88</t>
+        </is>
       </c>
       <c r="F40" s="7" t="n">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="G40" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H40" s="16" t="n">
-        <v>15.06</v>
+        <v>7.07</v>
       </c>
       <c r="J40" s="5" t="n"/>
       <c r="L40" s="14" t="inlineStr">
@@ -32636,7 +32638,7 @@
         </is>
       </c>
       <c r="F46" s="20" t="n">
-        <v>12703</v>
+        <v>12747</v>
       </c>
       <c r="J46" s="5" t="n"/>
       <c r="L46" s="19" t="inlineStr">
@@ -32676,7 +32678,7 @@
         </is>
       </c>
       <c r="F48" s="20" t="n">
-        <v>26179</v>
+        <v>26426</v>
       </c>
       <c r="J48" s="5" t="n"/>
       <c r="L48" s="19" t="inlineStr">
@@ -33614,18 +33616,18 @@
         <v>2004</v>
       </c>
       <c r="O72" s="15" t="n">
-        <v>6.29</v>
+        <v>6.3</v>
       </c>
       <c r="P72" s="7" t="n">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="Q72" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R72" s="16" t="n">
-        <v>19.02</v>
+        <v>23.07</v>
       </c>
       <c r="T72" s="5" t="n"/>
     </row>
@@ -33853,7 +33855,7 @@
         </is>
       </c>
       <c r="P77" s="20" t="n">
-        <v>11910</v>
+        <v>11913</v>
       </c>
       <c r="T77" s="5" t="n"/>
     </row>
@@ -34717,11 +34719,11 @@
       </c>
       <c r="C95" s="7" t="inlineStr">
         <is>
-          <t>Lina Svarlien</t>
+          <t>Kristine Moland Leiknes</t>
         </is>
       </c>
       <c r="D95" s="7" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="E95" s="15" t="n">
         <v>5.35</v>
@@ -34731,11 +34733,11 @@
       </c>
       <c r="G95" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Arvika/SWE</t>
         </is>
       </c>
       <c r="H95" s="16" t="n">
-        <v>4.06</v>
+        <v>22.07</v>
       </c>
       <c r="J95" s="5" t="n"/>
       <c r="L95" s="14" t="inlineStr">
@@ -34775,25 +34777,25 @@
       </c>
       <c r="C96" s="7" t="inlineStr">
         <is>
-          <t>Sophia Borgen</t>
+          <t>Lina Svarlien</t>
         </is>
       </c>
       <c r="D96" s="7" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E96" s="15" t="n">
-        <v>5.26</v>
+        <v>5.35</v>
       </c>
       <c r="F96" s="7" t="n">
-        <v>675</v>
+        <v>694</v>
       </c>
       <c r="G96" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H96" s="16" t="n">
-        <v>17.06</v>
+        <v>4.06</v>
       </c>
       <c r="J96" s="5" t="n"/>
       <c r="L96" s="14" t="inlineStr">
@@ -34858,7 +34860,7 @@
         </is>
       </c>
       <c r="F98" s="20" t="n">
-        <v>11310</v>
+        <v>11329</v>
       </c>
       <c r="J98" s="5" t="n"/>
       <c r="L98" s="19" t="inlineStr">
@@ -34898,7 +34900,7 @@
         </is>
       </c>
       <c r="F100" s="20" t="n">
-        <v>23259</v>
+        <v>23278</v>
       </c>
       <c r="J100" s="5" t="n"/>
       <c r="L100" s="19" t="inlineStr">
@@ -34915,7 +34917,7 @@
         </is>
       </c>
       <c r="P100" s="20" t="n">
-        <v>23032</v>
+        <v>23035</v>
       </c>
       <c r="T100" s="5" t="n"/>
     </row>
@@ -35274,18 +35276,18 @@
         <v>2005</v>
       </c>
       <c r="E115" s="15" t="n">
-        <v>24.63</v>
+        <v>24.39</v>
       </c>
       <c r="F115" s="7" t="n">
-        <v>838</v>
+        <v>859</v>
       </c>
       <c r="G115" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H115" s="16" t="n">
-        <v>29.05</v>
+        <v>23.07</v>
       </c>
       <c r="J115" s="5" t="n"/>
       <c r="L115" s="14" t="inlineStr">
@@ -36060,7 +36062,7 @@
         </is>
       </c>
       <c r="F129" s="20" t="n">
-        <v>11868</v>
+        <v>11889</v>
       </c>
       <c r="J129" s="5" t="n"/>
       <c r="L129" s="19" t="inlineStr">
@@ -37126,7 +37128,7 @@
         </is>
       </c>
       <c r="F152" s="20" t="n">
-        <v>22884</v>
+        <v>22905</v>
       </c>
       <c r="J152" s="5" t="n"/>
       <c r="L152" s="19" t="inlineStr">
@@ -37926,18 +37928,18 @@
         <v>2010</v>
       </c>
       <c r="E174" s="15" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="F174" s="7" t="n">
-        <v>732</v>
+        <v>756</v>
       </c>
       <c r="G174" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Arvika/SWE</t>
         </is>
       </c>
       <c r="H174" s="16" t="n">
-        <v>25.06</v>
+        <v>23.07</v>
       </c>
       <c r="J174" s="5" t="n"/>
       <c r="L174" s="14" t="inlineStr">
@@ -38158,18 +38160,18 @@
         <v>2004</v>
       </c>
       <c r="E178" s="15" t="n">
-        <v>13.37</v>
+        <v>13.46</v>
       </c>
       <c r="F178" s="7" t="n">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="G178" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H178" s="16" t="n">
-        <v>7.07</v>
+        <v>23.07</v>
       </c>
       <c r="J178" s="5" t="n"/>
       <c r="L178" s="14" t="inlineStr">
@@ -38292,7 +38294,7 @@
         </is>
       </c>
       <c r="F181" s="20" t="n">
-        <v>11505</v>
+        <v>11533</v>
       </c>
       <c r="J181" s="5" t="n"/>
       <c r="L181" s="19" t="inlineStr">
@@ -38905,11 +38907,11 @@
       </c>
       <c r="G194" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Arvika/SWE</t>
         </is>
       </c>
       <c r="H194" s="16" t="n">
-        <v>2.07</v>
+        <v>22.07</v>
       </c>
       <c r="J194" s="5" t="n"/>
       <c r="L194" s="14" t="inlineStr">
@@ -39366,7 +39368,7 @@
         </is>
       </c>
       <c r="F204" s="20" t="n">
-        <v>21486</v>
+        <v>21514</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="19" t="inlineStr">
@@ -42540,18 +42542,18 @@
         <v>2005</v>
       </c>
       <c r="O280" s="15" t="n">
-        <v>3.51</v>
+        <v>3.65</v>
       </c>
       <c r="P280" s="7" t="n">
-        <v>786</v>
+        <v>818</v>
       </c>
       <c r="Q280" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R280" s="16" t="n">
-        <v>7.07</v>
+        <v>22.07</v>
       </c>
       <c r="T280" s="5" t="n"/>
     </row>
@@ -42759,7 +42761,7 @@
         </is>
       </c>
       <c r="P285" s="20" t="n">
-        <v>11816</v>
+        <v>11848</v>
       </c>
       <c r="T285" s="5" t="n"/>
     </row>
@@ -43735,7 +43737,7 @@
         </is>
       </c>
       <c r="P308" s="20" t="n">
-        <v>20394</v>
+        <v>20426</v>
       </c>
       <c r="T308" s="5" t="n"/>
     </row>
@@ -45983,7 +45985,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>17574</v>
+        <v>18075</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -46058,25 +46060,25 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Tønsberg Friidrettsklubb</t>
+          <t>IL Tyrving 2. lag</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>(25/11)</t>
+          <t>(25/14)</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>14974</v>
+        <v>15262</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>(12/1d)</t>
+          <t>(6)</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>Vestfold</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -46086,25 +46088,25 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IL Tyrving 2. lag</t>
+          <t>Tønsberg Friidrettsklubb</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>(25/15)</t>
+          <t>(25/11)</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>14842</v>
+        <v>14974</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>(6)</t>
+          <t>(12/1d)</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Vestfold</t>
         </is>
       </c>
     </row>
@@ -46226,25 +46228,25 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Nittedal IL</t>
+          <t>Bergens Turnforening</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>(25/12)</t>
+          <t>(25/8)</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>12599</v>
+        <v>13249</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>(13/1d)</t>
+          <t>(10)</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -46254,25 +46256,25 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Bergens Turnforening</t>
+          <t>Nittedal IL</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>(23/8)</t>
+          <t>(25/12)</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>11991</v>
+        <v>12599</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>(10)</t>
+          <t>(13/1d)</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -46650,25 +46652,25 @@
       </c>
       <c r="C10" s="7" t="inlineStr">
         <is>
-          <t>Isabella Alida Indrebø</t>
+          <t>Laura Tietje Johanna Van Der Veen</t>
         </is>
       </c>
       <c r="D10" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>12.52</v>
+        <v>12.13</v>
       </c>
       <c r="F10" s="7" t="n">
-        <v>755</v>
+        <v>829</v>
       </c>
       <c r="G10" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H10" s="16" t="n">
-        <v>25.06</v>
+        <v>15.06</v>
       </c>
       <c r="J10" s="5" t="n"/>
       <c r="L10" s="14" t="inlineStr">
@@ -46708,25 +46710,25 @@
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>Leah Marie Henriksen Indrebø</t>
+          <t>Laura Tietje Johanna Van Der Veen</t>
         </is>
       </c>
       <c r="D11" s="7" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E11" s="15" t="n">
-        <v>25.82</v>
+        <v>24.85</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>740</v>
+        <v>820</v>
       </c>
       <c r="G11" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H11" s="16" t="n">
-        <v>5.03</v>
+        <v>4.06</v>
       </c>
       <c r="J11" s="5" t="n"/>
       <c r="L11" s="14" t="inlineStr">
@@ -46768,27 +46770,25 @@
       </c>
       <c r="C12" s="7" t="inlineStr">
         <is>
-          <t>Kristine Berger Akervold</t>
+          <t>Laura Tietje Johanna Van Der Veen</t>
         </is>
       </c>
       <c r="D12" s="7" t="n">
-        <v>1998</v>
-      </c>
-      <c r="E12" s="17" t="inlineStr">
-        <is>
-          <t>1,00,00</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="E12" s="15" t="n">
+        <v>55.7</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>679</v>
+        <v>829</v>
       </c>
       <c r="G12" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H12" s="16" t="n">
-        <v>28.06</v>
+        <v>7.07</v>
       </c>
       <c r="J12" s="5" t="n"/>
       <c r="L12" s="14" t="inlineStr">
@@ -47383,7 +47383,7 @@
         </is>
       </c>
       <c r="F23" s="20" t="n">
-        <v>9512</v>
+        <v>9816</v>
       </c>
       <c r="J23" s="5" t="n"/>
       <c r="L23" s="19" t="inlineStr">
@@ -47561,32 +47561,30 @@
     <row r="29" ht="13" customHeight="1">
       <c r="B29" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C29" s="7" t="inlineStr">
         <is>
-          <t>Charlotte Weirum Olszak</t>
+          <t>Isabella Alida Indrebø</t>
         </is>
       </c>
       <c r="D29" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="E29" s="17" t="inlineStr">
-        <is>
-          <t>2,13,48</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="E29" s="15" t="n">
+        <v>12.52</v>
       </c>
       <c r="F29" s="7" t="n">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="G29" s="7" t="inlineStr">
         <is>
-          <t>Versailles/FRA</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H29" s="16" t="n">
-        <v>21.05</v>
+        <v>25.06</v>
       </c>
       <c r="J29" s="5" t="n"/>
       <c r="L29" s="14" t="inlineStr">
@@ -47621,30 +47619,32 @@
     <row r="30" ht="13" customHeight="1">
       <c r="B30" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C30" s="7" t="inlineStr">
         <is>
-          <t>Oda Lier</t>
+          <t>Charlotte Weirum Olszak</t>
         </is>
       </c>
       <c r="D30" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E30" s="15" t="n">
-        <v>12.68</v>
+        <v>1996</v>
+      </c>
+      <c r="E30" s="17" t="inlineStr">
+        <is>
+          <t>2,13,48</t>
+        </is>
       </c>
       <c r="F30" s="7" t="n">
-        <v>727</v>
+        <v>751</v>
       </c>
       <c r="G30" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Versailles/FRA</t>
         </is>
       </c>
       <c r="H30" s="16" t="n">
-        <v>3.06</v>
+        <v>21.05</v>
       </c>
       <c r="J30" s="5" t="n"/>
       <c r="L30" s="14" t="inlineStr">
@@ -47679,22 +47679,22 @@
     <row r="31" ht="13" customHeight="1">
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C31" s="7" t="inlineStr">
         <is>
-          <t>Oda Lier</t>
+          <t>Leah Marie Henriksen Indrebø</t>
         </is>
       </c>
       <c r="D31" s="7" t="n">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="E31" s="15" t="n">
-        <v>8.140000000000001</v>
+        <v>25.82</v>
       </c>
       <c r="F31" s="7" t="n">
-        <v>692</v>
+        <v>740</v>
       </c>
       <c r="G31" s="7" t="inlineStr">
         <is>
@@ -47702,7 +47702,7 @@
         </is>
       </c>
       <c r="H31" s="16" t="n">
-        <v>3.03</v>
+        <v>5.03</v>
       </c>
       <c r="J31" s="5" t="n"/>
       <c r="L31" s="14" t="inlineStr">
@@ -47737,30 +47737,30 @@
     <row r="32" ht="13" customHeight="1">
       <c r="B32" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C32" s="7" t="inlineStr">
         <is>
-          <t>Mina Mikkelsen Sørensen</t>
+          <t>Oda Lier</t>
         </is>
       </c>
       <c r="D32" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E32" s="15" t="n">
-        <v>8.24</v>
+        <v>12.68</v>
       </c>
       <c r="F32" s="7" t="n">
-        <v>663</v>
+        <v>727</v>
       </c>
       <c r="G32" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H32" s="16" t="n">
-        <v>18.02</v>
+        <v>3.06</v>
       </c>
       <c r="J32" s="5" t="n"/>
       <c r="L32" s="14" t="inlineStr">
@@ -47795,30 +47795,30 @@
     <row r="33" ht="13" customHeight="1">
       <c r="B33" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C33" s="7" t="inlineStr">
         <is>
-          <t>Kajsa Rooth</t>
+          <t>Oda Lier</t>
         </is>
       </c>
       <c r="D33" s="7" t="n">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="E33" s="15" t="n">
-        <v>26.82</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="F33" s="7" t="n">
-        <v>663</v>
+        <v>692</v>
       </c>
       <c r="G33" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H33" s="16" t="n">
-        <v>4.06</v>
+        <v>3.03</v>
       </c>
       <c r="J33" s="5" t="n"/>
       <c r="L33" s="14" t="inlineStr">
@@ -47853,22 +47853,24 @@
     <row r="34" ht="13" customHeight="1">
       <c r="B34" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C34" s="7" t="inlineStr">
         <is>
-          <t>Mina Mikkelsen Sørensen</t>
+          <t>Kristine Berger Akervold</t>
         </is>
       </c>
       <c r="D34" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E34" s="15" t="n">
-        <v>13.06</v>
+        <v>1998</v>
+      </c>
+      <c r="E34" s="17" t="inlineStr">
+        <is>
+          <t>1,00,00</t>
+        </is>
       </c>
       <c r="F34" s="7" t="n">
-        <v>660</v>
+        <v>679</v>
       </c>
       <c r="G34" s="7" t="inlineStr">
         <is>
@@ -47916,25 +47918,25 @@
       </c>
       <c r="C35" s="7" t="inlineStr">
         <is>
-          <t>Oda Lier</t>
+          <t>Kajsa Rooth</t>
         </is>
       </c>
       <c r="D35" s="7" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="E35" s="15" t="n">
-        <v>26.94</v>
+        <v>26.82</v>
       </c>
       <c r="F35" s="7" t="n">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="G35" s="7" t="inlineStr">
         <is>
-          <t>Asker</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H35" s="16" t="n">
-        <v>10.06</v>
+        <v>4.06</v>
       </c>
       <c r="J35" s="5" t="n"/>
       <c r="L35" s="14" t="inlineStr">
@@ -48231,7 +48233,7 @@
         </is>
       </c>
       <c r="F41" s="20" t="n">
-        <v>8062</v>
+        <v>8259</v>
       </c>
       <c r="J41" s="5" t="n"/>
       <c r="L41" s="19" t="inlineStr">
@@ -48271,7 +48273,7 @@
         </is>
       </c>
       <c r="F43" s="20" t="n">
-        <v>17574</v>
+        <v>18075</v>
       </c>
       <c r="J43" s="5" t="n"/>
       <c r="L43" s="19" t="inlineStr">
@@ -48368,7 +48370,7 @@
       </c>
       <c r="M49" s="7" t="inlineStr">
         <is>
-          <t>Vestfold</t>
+          <t>Akershus</t>
         </is>
       </c>
       <c r="P49" s="8" t="n">
@@ -48395,7 +48397,7 @@
       </c>
       <c r="M50" s="7" t="inlineStr">
         <is>
-          <t>Tønsberg Friidrettsklubb</t>
+          <t>IL Tyrving 2. lag</t>
         </is>
       </c>
       <c r="T50" s="5" t="n"/>
@@ -48552,25 +48554,25 @@
       </c>
       <c r="M56" s="7" t="inlineStr">
         <is>
-          <t>Kerine Sherice Stephenson</t>
+          <t>Eline Folvik</t>
         </is>
       </c>
       <c r="N56" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="O56" s="15" t="n">
-        <v>7.76</v>
+        <v>8.32</v>
       </c>
       <c r="P56" s="7" t="n">
-        <v>811</v>
+        <v>641</v>
       </c>
       <c r="Q56" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R56" s="16" t="n">
-        <v>18.03</v>
+        <v>4.03</v>
       </c>
       <c r="T56" s="5" t="n"/>
     </row>
@@ -48610,25 +48612,25 @@
       </c>
       <c r="M57" s="7" t="inlineStr">
         <is>
-          <t>Kerine Sherice Stephenson</t>
+          <t>Eline Folvik</t>
         </is>
       </c>
       <c r="N57" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="O57" s="15" t="n">
-        <v>12.38</v>
+        <v>13.17</v>
       </c>
       <c r="P57" s="7" t="n">
-        <v>781</v>
+        <v>642</v>
       </c>
       <c r="Q57" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R57" s="16" t="n">
-        <v>13.05</v>
+        <v>1.07</v>
       </c>
       <c r="T57" s="5" t="n"/>
     </row>
@@ -48668,25 +48670,25 @@
       </c>
       <c r="M58" s="7" t="inlineStr">
         <is>
-          <t>Claudia Maria Hastie Foss</t>
+          <t>Eline Folvik</t>
         </is>
       </c>
       <c r="N58" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O58" s="15" t="n">
-        <v>26.06</v>
+        <v>26.96</v>
       </c>
       <c r="P58" s="7" t="n">
-        <v>721</v>
+        <v>653</v>
       </c>
       <c r="Q58" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R58" s="16" t="n">
-        <v>12.02</v>
+        <v>2.07</v>
       </c>
       <c r="T58" s="5" t="n"/>
     </row>
@@ -48728,27 +48730,27 @@
       </c>
       <c r="M59" s="7" t="inlineStr">
         <is>
-          <t>Mathea Wego Karlsen</t>
+          <t>Eline Folvik</t>
         </is>
       </c>
       <c r="N59" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O59" s="17" t="inlineStr">
         <is>
-          <t>1,01,50</t>
+          <t>1,02,49</t>
         </is>
       </c>
       <c r="P59" s="7" t="n">
-        <v>632</v>
+        <v>603</v>
       </c>
       <c r="Q59" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R59" s="16" t="n">
-        <v>18.06</v>
+        <v>3.06</v>
       </c>
       <c r="T59" s="5" t="n"/>
     </row>
@@ -48790,7 +48792,7 @@
       </c>
       <c r="M60" s="7" t="inlineStr">
         <is>
-          <t>Malin Gallis</t>
+          <t>Linnea Hove Låhne</t>
         </is>
       </c>
       <c r="N60" s="7" t="n">
@@ -48798,19 +48800,19 @@
       </c>
       <c r="O60" s="17" t="inlineStr">
         <is>
-          <t>2,31,51</t>
+          <t>2,16,93</t>
         </is>
       </c>
       <c r="P60" s="7" t="n">
-        <v>543</v>
+        <v>705</v>
       </c>
       <c r="Q60" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R60" s="16" t="n">
-        <v>30.06</v>
+        <v>4.03</v>
       </c>
       <c r="T60" s="5" t="n"/>
     </row>
@@ -48852,7 +48854,7 @@
       </c>
       <c r="M61" s="7" t="inlineStr">
         <is>
-          <t>Malin Gallis</t>
+          <t>Linnea Hove Låhne</t>
         </is>
       </c>
       <c r="N61" s="7" t="n">
@@ -48860,19 +48862,19 @@
       </c>
       <c r="O61" s="17" t="inlineStr">
         <is>
-          <t>5,34,20</t>
+          <t>4,43,23</t>
         </is>
       </c>
       <c r="P61" s="7" t="n">
-        <v>450</v>
+        <v>705</v>
       </c>
       <c r="Q61" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="R61" s="16" t="n">
-        <v>1.07</v>
+        <v>4.02</v>
       </c>
       <c r="T61" s="5" t="n"/>
     </row>
@@ -48909,30 +48911,30 @@
       <c r="J62" s="5" t="n"/>
       <c r="L62" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="M62" s="7" t="inlineStr">
         <is>
-          <t>Henriette Kjærås</t>
+          <t>Sophia Borgen</t>
         </is>
       </c>
       <c r="N62" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O62" s="15" t="n">
-        <v>1.31</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="P62" s="7" t="n">
-        <v>428</v>
+        <v>651</v>
       </c>
       <c r="Q62" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R62" s="16" t="n">
-        <v>18.03</v>
+        <v>3.03</v>
       </c>
       <c r="T62" s="5" t="n"/>
     </row>
@@ -48967,30 +48969,30 @@
       <c r="J63" s="5" t="n"/>
       <c r="L63" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="M63" s="7" t="inlineStr">
         <is>
-          <t>Siri Torgersen Bigseth</t>
+          <t>Sophia Borgen</t>
         </is>
       </c>
       <c r="N63" s="7" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="O63" s="15" t="n">
-        <v>2</v>
+        <v>15.88</v>
       </c>
       <c r="P63" s="7" t="n">
-        <v>427</v>
+        <v>686</v>
       </c>
       <c r="Q63" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R63" s="16" t="n">
-        <v>14.01</v>
+        <v>4.06</v>
       </c>
       <c r="T63" s="5" t="n"/>
     </row>
@@ -49025,30 +49027,30 @@
       <c r="J64" s="5" t="n"/>
       <c r="L64" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M64" s="7" t="inlineStr">
         <is>
-          <t>Henriette Kjærås</t>
+          <t>Hanna Fiva Øiestad</t>
         </is>
       </c>
       <c r="N64" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O64" s="15" t="n">
-        <v>4.54</v>
+        <v>1.5</v>
       </c>
       <c r="P64" s="7" t="n">
-        <v>517</v>
+        <v>609</v>
       </c>
       <c r="Q64" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R64" s="16" t="n">
-        <v>18.03</v>
+        <v>18.06</v>
       </c>
       <c r="T64" s="5" t="n"/>
     </row>
@@ -49083,30 +49085,30 @@
       <c r="J65" s="5" t="n"/>
       <c r="L65" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M65" s="7" t="inlineStr">
         <is>
-          <t>Anniken Rosvoll</t>
+          <t>Sophia Borgen</t>
         </is>
       </c>
       <c r="N65" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O65" s="15" t="n">
-        <v>9.74</v>
+        <v>5.26</v>
       </c>
       <c r="P65" s="7" t="n">
-        <v>531</v>
+        <v>675</v>
       </c>
       <c r="Q65" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R65" s="16" t="n">
-        <v>3.06</v>
+        <v>17.06</v>
       </c>
       <c r="T65" s="5" t="n"/>
     </row>
@@ -49141,30 +49143,30 @@
       <c r="J66" s="5" t="n"/>
       <c r="L66" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M66" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Louise Selseth</t>
+          <t>Henriette Collett-Østensen</t>
         </is>
       </c>
       <c r="N66" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O66" s="15" t="n">
-        <v>2.25</v>
+        <v>10.13</v>
       </c>
       <c r="P66" s="7" t="n">
-        <v>459</v>
+        <v>572</v>
       </c>
       <c r="Q66" s="7" t="inlineStr">
         <is>
-          <t>Tønsberg</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R66" s="16" t="n">
-        <v>22.03</v>
+        <v>3.03</v>
       </c>
       <c r="T66" s="5" t="n"/>
     </row>
@@ -49199,30 +49201,30 @@
       <c r="J67" s="5" t="n"/>
       <c r="L67" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M67" s="7" t="inlineStr">
         <is>
-          <t>Mari Hytten Skyvang</t>
+          <t>Ida Yessica Nesse</t>
         </is>
       </c>
       <c r="N67" s="7" t="n">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="O67" s="15" t="n">
-        <v>47.27</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="P67" s="7" t="n">
-        <v>776</v>
+        <v>571</v>
       </c>
       <c r="Q67" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R67" s="16" t="n">
-        <v>12.05</v>
+        <v>16.03</v>
       </c>
       <c r="T67" s="5" t="n"/>
     </row>
@@ -49257,30 +49259,30 @@
       <c r="J68" s="5" t="n"/>
       <c r="L68" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M68" s="7" t="inlineStr">
         <is>
-          <t>Linnea Greiff</t>
+          <t>Ida Petersen Amble</t>
         </is>
       </c>
       <c r="N68" s="7" t="n">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="O68" s="15" t="n">
-        <v>44.2</v>
+        <v>28.41</v>
       </c>
       <c r="P68" s="7" t="n">
-        <v>766</v>
+        <v>555</v>
       </c>
       <c r="Q68" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R68" s="16" t="n">
-        <v>13.05</v>
+        <v>18.06</v>
       </c>
       <c r="T68" s="5" t="n"/>
     </row>
@@ -49334,7 +49336,7 @@
         </is>
       </c>
       <c r="P70" s="20" t="n">
-        <v>7842</v>
+        <v>8268</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
@@ -49470,17 +49472,17 @@
       </c>
       <c r="M75" s="7" t="inlineStr">
         <is>
-          <t>Claudia Maria Hastie Foss</t>
+          <t>Alma Iben Graver Kolseth</t>
         </is>
       </c>
       <c r="N75" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="O75" s="15" t="n">
-        <v>7.82</v>
+        <v>8.4</v>
       </c>
       <c r="P75" s="7" t="n">
-        <v>791</v>
+        <v>619</v>
       </c>
       <c r="Q75" s="7" t="inlineStr">
         <is>
@@ -49488,7 +49490,7 @@
         </is>
       </c>
       <c r="R75" s="16" t="n">
-        <v>11.02</v>
+        <v>18.02</v>
       </c>
       <c r="T75" s="5" t="n"/>
     </row>
@@ -49523,30 +49525,32 @@
       <c r="J76" s="5" t="n"/>
       <c r="L76" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M76" s="7" t="inlineStr">
         <is>
-          <t>Claudia Maria Hastie Foss</t>
+          <t>Mia Mathilda Andersen</t>
         </is>
       </c>
       <c r="N76" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O76" s="15" t="n">
-        <v>12.69</v>
+        <v>2009</v>
+      </c>
+      <c r="O76" s="17" t="inlineStr">
+        <is>
+          <t>2,24,28</t>
+        </is>
       </c>
       <c r="P76" s="7" t="n">
-        <v>725</v>
+        <v>618</v>
       </c>
       <c r="Q76" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R76" s="16" t="n">
-        <v>13.05</v>
+        <v>14.05</v>
       </c>
       <c r="T76" s="5" t="n"/>
     </row>
@@ -49581,22 +49585,22 @@
       <c r="J77" s="5" t="n"/>
       <c r="L77" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M77" s="7" t="inlineStr">
         <is>
-          <t>Kerine Sherice Stephenson</t>
+          <t>Sophia Borgen</t>
         </is>
       </c>
       <c r="N77" s="7" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="O77" s="15" t="n">
-        <v>26.3</v>
+        <v>8.43</v>
       </c>
       <c r="P77" s="7" t="n">
-        <v>702</v>
+        <v>611</v>
       </c>
       <c r="Q77" s="7" t="inlineStr">
         <is>
@@ -49604,7 +49608,7 @@
         </is>
       </c>
       <c r="R77" s="16" t="n">
-        <v>17.06</v>
+        <v>11.02</v>
       </c>
       <c r="T77" s="5" t="n"/>
     </row>
@@ -49639,30 +49643,32 @@
       <c r="J78" s="5" t="n"/>
       <c r="L78" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M78" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Louise Selseth</t>
+          <t>Celine Krüger Henningsen</t>
         </is>
       </c>
       <c r="N78" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O78" s="15" t="n">
-        <v>13.17</v>
+        <v>2009</v>
+      </c>
+      <c r="O78" s="17" t="inlineStr">
+        <is>
+          <t>5,00,55</t>
+        </is>
       </c>
       <c r="P78" s="7" t="n">
-        <v>642</v>
+        <v>609</v>
       </c>
       <c r="Q78" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R78" s="16" t="n">
-        <v>1.07</v>
+        <v>18.06</v>
       </c>
       <c r="T78" s="5" t="n"/>
     </row>
@@ -49697,30 +49703,32 @@
       <c r="J79" s="5" t="n"/>
       <c r="L79" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M79" s="7" t="inlineStr">
         <is>
-          <t>Mathea Wego Karlsen</t>
+          <t>Mia Mathilda Andersen</t>
         </is>
       </c>
       <c r="N79" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O79" s="15" t="n">
-        <v>13.25</v>
+        <v>2009</v>
+      </c>
+      <c r="O79" s="17" t="inlineStr">
+        <is>
+          <t>5,02,32</t>
+        </is>
       </c>
       <c r="P79" s="7" t="n">
-        <v>629</v>
+        <v>599</v>
       </c>
       <c r="Q79" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R79" s="16" t="n">
-        <v>13.05</v>
+        <v>18.06</v>
       </c>
       <c r="T79" s="5" t="n"/>
     </row>
@@ -49760,17 +49768,17 @@
       </c>
       <c r="M80" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Louise Selseth</t>
+          <t>Alma Iben Graver Kolseth</t>
         </is>
       </c>
       <c r="N80" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O80" s="15" t="n">
-        <v>27.35</v>
+        <v>27.87</v>
       </c>
       <c r="P80" s="7" t="n">
-        <v>624</v>
+        <v>588</v>
       </c>
       <c r="Q80" s="7" t="inlineStr">
         <is>
@@ -49778,7 +49786,7 @@
         </is>
       </c>
       <c r="R80" s="16" t="n">
-        <v>17.06</v>
+        <v>12.02</v>
       </c>
       <c r="T80" s="5" t="n"/>
     </row>
@@ -49813,22 +49821,24 @@
       <c r="J81" s="5" t="n"/>
       <c r="L81" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M81" s="7" t="inlineStr">
         <is>
-          <t>Henriette Kjærås</t>
+          <t>Maria Elisabet M. Damhaug</t>
         </is>
       </c>
       <c r="N81" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O81" s="15" t="n">
-        <v>27.4</v>
+        <v>2008</v>
+      </c>
+      <c r="O81" s="17" t="inlineStr">
+        <is>
+          <t>1,03,08</t>
+        </is>
       </c>
       <c r="P81" s="7" t="n">
-        <v>621</v>
+        <v>587</v>
       </c>
       <c r="Q81" s="7" t="inlineStr">
         <is>
@@ -49836,7 +49846,7 @@
         </is>
       </c>
       <c r="R81" s="16" t="n">
-        <v>17.06</v>
+        <v>18.06</v>
       </c>
       <c r="T81" s="5" t="n"/>
     </row>
@@ -49871,30 +49881,32 @@
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M82" s="7" t="inlineStr">
         <is>
-          <t>Mathea Wego Karlsen</t>
+          <t>Maylem Lauvstad</t>
         </is>
       </c>
       <c r="N82" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O82" s="15" t="n">
-        <v>8.41</v>
+        <v>1973</v>
+      </c>
+      <c r="O82" s="17" t="inlineStr">
+        <is>
+          <t>1,03,28</t>
+        </is>
       </c>
       <c r="P82" s="7" t="n">
-        <v>617</v>
+        <v>582</v>
       </c>
       <c r="Q82" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Torun/POL</t>
         </is>
       </c>
       <c r="R82" s="16" t="n">
-        <v>11.02</v>
+        <v>28.03</v>
       </c>
       <c r="T82" s="5" t="n"/>
     </row>
@@ -49929,30 +49941,30 @@
       <c r="J83" s="5" t="n"/>
       <c r="L83" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M83" s="7" t="inlineStr">
         <is>
-          <t>Henriette Kjærås</t>
+          <t>Eline Folvik</t>
         </is>
       </c>
       <c r="N83" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O83" s="15" t="n">
-        <v>9.380000000000001</v>
+        <v>4.75</v>
       </c>
       <c r="P83" s="7" t="n">
-        <v>492</v>
+        <v>564</v>
       </c>
       <c r="Q83" s="7" t="inlineStr">
         <is>
-          <t>Porsgrunn</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R83" s="16" t="n">
-        <v>10.06</v>
+        <v>11.02</v>
       </c>
       <c r="T83" s="5" t="n"/>
     </row>
@@ -49987,30 +49999,30 @@
       <c r="J84" s="5" t="n"/>
       <c r="L84" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M84" s="7" t="inlineStr">
         <is>
-          <t>Anniken Rosvoll</t>
+          <t>Lene Berger</t>
         </is>
       </c>
       <c r="N84" s="7" t="n">
-        <v>2007</v>
+        <v>1981</v>
       </c>
       <c r="O84" s="15" t="n">
-        <v>4.36</v>
+        <v>30.01</v>
       </c>
       <c r="P84" s="7" t="n">
-        <v>475</v>
+        <v>547</v>
       </c>
       <c r="Q84" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Geithus</t>
         </is>
       </c>
       <c r="R84" s="16" t="n">
-        <v>13.05</v>
+        <v>24.06</v>
       </c>
       <c r="T84" s="5" t="n"/>
     </row>
@@ -50047,30 +50059,30 @@
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M85" s="7" t="inlineStr">
         <is>
-          <t>Marit Huflåtten</t>
+          <t>Anna Driesprong Langerød</t>
         </is>
       </c>
       <c r="N85" s="7" t="n">
-        <v>1953</v>
+        <v>2009</v>
       </c>
       <c r="O85" s="15" t="n">
-        <v>21.35</v>
+        <v>9.81</v>
       </c>
       <c r="P85" s="7" t="n">
-        <v>418</v>
+        <v>538</v>
       </c>
       <c r="Q85" s="7" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R85" s="16" t="n">
-        <v>12.05</v>
+        <v>18.06</v>
       </c>
       <c r="T85" s="5" t="n"/>
     </row>
@@ -50105,30 +50117,30 @@
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M86" s="7" t="inlineStr">
         <is>
-          <t>Siri Torgersen Bigseth</t>
+          <t>Sophia Borgen</t>
         </is>
       </c>
       <c r="N86" s="7" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="O86" s="15" t="n">
-        <v>1.28</v>
+        <v>2.35</v>
       </c>
       <c r="P86" s="7" t="n">
-        <v>396</v>
+        <v>532</v>
       </c>
       <c r="Q86" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R86" s="16" t="n">
-        <v>1.06</v>
+        <v>23.03</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -50182,7 +50194,7 @@
         </is>
       </c>
       <c r="P88" s="20" t="n">
-        <v>7132</v>
+        <v>6994</v>
       </c>
       <c r="T88" s="5" t="n"/>
     </row>
@@ -50222,7 +50234,7 @@
         </is>
       </c>
       <c r="P90" s="20" t="n">
-        <v>14974</v>
+        <v>15262</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
@@ -50246,7 +50258,7 @@
         </is>
       </c>
       <c r="M92" s="20" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="T92" s="5" t="n"/>
     </row>
@@ -50288,7 +50300,7 @@
       </c>
       <c r="C96" s="7" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Vestfold</t>
         </is>
       </c>
       <c r="F96" s="8" t="n">
@@ -50318,7 +50330,7 @@
       </c>
       <c r="C97" s="7" t="inlineStr">
         <is>
-          <t>IL Tyrving 2. lag</t>
+          <t>Tønsberg Friidrettsklubb</t>
         </is>
       </c>
       <c r="J97" s="5" t="n"/>
@@ -50458,25 +50470,25 @@
       </c>
       <c r="C103" s="7" t="inlineStr">
         <is>
-          <t>Eline Folvik</t>
+          <t>Kerine Sherice Stephenson</t>
         </is>
       </c>
       <c r="D103" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="E103" s="15" t="n">
-        <v>8.32</v>
+        <v>7.76</v>
       </c>
       <c r="F103" s="7" t="n">
-        <v>641</v>
+        <v>811</v>
       </c>
       <c r="G103" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H103" s="16" t="n">
-        <v>4.03</v>
+        <v>18.03</v>
       </c>
       <c r="J103" s="5" t="n"/>
       <c r="L103" s="14" t="inlineStr">
@@ -50516,25 +50528,25 @@
       </c>
       <c r="C104" s="7" t="inlineStr">
         <is>
-          <t>Eline Folvik</t>
+          <t>Kerine Sherice Stephenson</t>
         </is>
       </c>
       <c r="D104" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="E104" s="15" t="n">
-        <v>13.17</v>
+        <v>12.38</v>
       </c>
       <c r="F104" s="7" t="n">
-        <v>642</v>
+        <v>781</v>
       </c>
       <c r="G104" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H104" s="16" t="n">
-        <v>1.07</v>
+        <v>13.05</v>
       </c>
       <c r="J104" s="5" t="n"/>
       <c r="L104" s="14" t="inlineStr">
@@ -50574,25 +50586,25 @@
       </c>
       <c r="C105" s="7" t="inlineStr">
         <is>
-          <t>Eline Folvik</t>
+          <t>Claudia Maria Hastie Foss</t>
         </is>
       </c>
       <c r="D105" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E105" s="15" t="n">
-        <v>26.96</v>
+        <v>26.06</v>
       </c>
       <c r="F105" s="7" t="n">
-        <v>653</v>
+        <v>721</v>
       </c>
       <c r="G105" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H105" s="16" t="n">
-        <v>2.07</v>
+        <v>12.02</v>
       </c>
       <c r="J105" s="5" t="n"/>
       <c r="L105" s="14" t="inlineStr">
@@ -50632,27 +50644,27 @@
       </c>
       <c r="C106" s="7" t="inlineStr">
         <is>
-          <t>Eline Folvik</t>
+          <t>Mathea Wego Karlsen</t>
         </is>
       </c>
       <c r="D106" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E106" s="17" t="inlineStr">
         <is>
-          <t>1,02,49</t>
+          <t>1,01,50</t>
         </is>
       </c>
       <c r="F106" s="7" t="n">
-        <v>603</v>
+        <v>632</v>
       </c>
       <c r="G106" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H106" s="16" t="n">
-        <v>3.06</v>
+        <v>18.06</v>
       </c>
       <c r="J106" s="5" t="n"/>
       <c r="L106" s="14" t="inlineStr">
@@ -50694,7 +50706,7 @@
       </c>
       <c r="C107" s="7" t="inlineStr">
         <is>
-          <t>Linnea Hove Låhne</t>
+          <t>Malin Gallis</t>
         </is>
       </c>
       <c r="D107" s="7" t="n">
@@ -50702,19 +50714,19 @@
       </c>
       <c r="E107" s="17" t="inlineStr">
         <is>
-          <t>2,16,93</t>
+          <t>2,31,51</t>
         </is>
       </c>
       <c r="F107" s="7" t="n">
-        <v>705</v>
+        <v>543</v>
       </c>
       <c r="G107" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H107" s="16" t="n">
-        <v>4.03</v>
+        <v>30.06</v>
       </c>
       <c r="J107" s="5" t="n"/>
       <c r="L107" s="14" t="inlineStr">
@@ -50756,7 +50768,7 @@
       </c>
       <c r="C108" s="7" t="inlineStr">
         <is>
-          <t>Linnea Hove Låhne</t>
+          <t>Malin Gallis</t>
         </is>
       </c>
       <c r="D108" s="7" t="n">
@@ -50764,19 +50776,19 @@
       </c>
       <c r="E108" s="17" t="inlineStr">
         <is>
-          <t>4,43,23</t>
+          <t>5,34,20</t>
         </is>
       </c>
       <c r="F108" s="7" t="n">
-        <v>705</v>
+        <v>450</v>
       </c>
       <c r="G108" s="7" t="inlineStr">
         <is>
-          <t>Hvam</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H108" s="16" t="n">
-        <v>4.02</v>
+        <v>1.07</v>
       </c>
       <c r="J108" s="5" t="n"/>
       <c r="L108" s="14" t="inlineStr">
@@ -50818,25 +50830,25 @@
       </c>
       <c r="C109" s="7" t="inlineStr">
         <is>
-          <t>Hanna Fiva Øiestad</t>
+          <t>Henriette Kjærås</t>
         </is>
       </c>
       <c r="D109" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E109" s="15" t="n">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="F109" s="7" t="n">
-        <v>609</v>
+        <v>428</v>
       </c>
       <c r="G109" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H109" s="16" t="n">
-        <v>18.06</v>
+        <v>18.03</v>
       </c>
       <c r="J109" s="5" t="n"/>
       <c r="L109" s="14" t="inlineStr">
@@ -50873,30 +50885,30 @@
     <row r="110" ht="13" customHeight="1">
       <c r="B110" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C110" s="7" t="inlineStr">
         <is>
-          <t>Kristine Moland Leiknes</t>
+          <t>Siri Torgersen Bigseth</t>
         </is>
       </c>
       <c r="D110" s="7" t="n">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="E110" s="15" t="n">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="F110" s="7" t="n">
-        <v>673</v>
+        <v>427</v>
       </c>
       <c r="G110" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H110" s="16" t="n">
-        <v>14.07</v>
+        <v>14.01</v>
       </c>
       <c r="J110" s="5" t="n"/>
       <c r="L110" s="14" t="inlineStr">
@@ -50933,30 +50945,30 @@
     <row r="111" ht="13" customHeight="1">
       <c r="B111" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C111" s="7" t="inlineStr">
         <is>
-          <t>Henriette Collett-Østensen</t>
+          <t>Henriette Kjærås</t>
         </is>
       </c>
       <c r="D111" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E111" s="15" t="n">
-        <v>10.13</v>
+        <v>4.54</v>
       </c>
       <c r="F111" s="7" t="n">
-        <v>572</v>
+        <v>517</v>
       </c>
       <c r="G111" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H111" s="16" t="n">
-        <v>3.03</v>
+        <v>18.03</v>
       </c>
       <c r="J111" s="5" t="n"/>
       <c r="L111" s="14" t="inlineStr">
@@ -50991,30 +51003,30 @@
     <row r="112" ht="13" customHeight="1">
       <c r="B112" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C112" s="7" t="inlineStr">
         <is>
-          <t>Maylem Lauvstad</t>
+          <t>Anniken Rosvoll</t>
         </is>
       </c>
       <c r="D112" s="7" t="n">
-        <v>1973</v>
+        <v>2007</v>
       </c>
       <c r="E112" s="15" t="n">
-        <v>2.22</v>
+        <v>9.74</v>
       </c>
       <c r="F112" s="7" t="n">
-        <v>435</v>
+        <v>531</v>
       </c>
       <c r="G112" s="7" t="inlineStr">
         <is>
-          <t>Askim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H112" s="16" t="n">
-        <v>7.01</v>
+        <v>3.06</v>
       </c>
       <c r="J112" s="5" t="n"/>
       <c r="L112" s="14" t="inlineStr">
@@ -51049,30 +51061,30 @@
     <row r="113" ht="13" customHeight="1">
       <c r="B113" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C113" s="7" t="inlineStr">
         <is>
-          <t>Ida Yessica Nesse</t>
+          <t>Ingrid Louise Selseth</t>
         </is>
       </c>
       <c r="D113" s="7" t="n">
-        <v>1992</v>
+        <v>2007</v>
       </c>
       <c r="E113" s="15" t="n">
-        <v>9.720000000000001</v>
+        <v>2.25</v>
       </c>
       <c r="F113" s="7" t="n">
-        <v>571</v>
+        <v>459</v>
       </c>
       <c r="G113" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Tønsberg</t>
         </is>
       </c>
       <c r="H113" s="16" t="n">
-        <v>16.03</v>
+        <v>22.03</v>
       </c>
       <c r="J113" s="5" t="n"/>
       <c r="L113" s="14" t="inlineStr">
@@ -51107,30 +51119,30 @@
     <row r="114" ht="13" customHeight="1">
       <c r="B114" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="C114" s="7" t="inlineStr">
         <is>
-          <t>Ida Petersen Amble</t>
+          <t>Mari Hytten Skyvang</t>
         </is>
       </c>
       <c r="D114" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="E114" s="15" t="n">
-        <v>28.41</v>
+        <v>47.27</v>
       </c>
       <c r="F114" s="7" t="n">
-        <v>555</v>
+        <v>776</v>
       </c>
       <c r="G114" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H114" s="16" t="n">
-        <v>18.06</v>
+        <v>12.05</v>
       </c>
       <c r="J114" s="5" t="n"/>
       <c r="L114" s="14" t="inlineStr">
@@ -51170,25 +51182,25 @@
       </c>
       <c r="C115" s="7" t="inlineStr">
         <is>
-          <t>Lene Berger</t>
+          <t>Linnea Greiff</t>
         </is>
       </c>
       <c r="D115" s="7" t="n">
-        <v>1981</v>
+        <v>1998</v>
       </c>
       <c r="E115" s="15" t="n">
-        <v>30.01</v>
+        <v>44.2</v>
       </c>
       <c r="F115" s="7" t="n">
-        <v>547</v>
+        <v>766</v>
       </c>
       <c r="G115" s="7" t="inlineStr">
         <is>
-          <t>Geithus</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H115" s="16" t="n">
-        <v>24.06</v>
+        <v>13.05</v>
       </c>
       <c r="J115" s="5" t="n"/>
       <c r="L115" s="14" t="inlineStr">
@@ -51253,7 +51265,7 @@
         </is>
       </c>
       <c r="F117" s="20" t="n">
-        <v>7911</v>
+        <v>7842</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="19" t="inlineStr">
@@ -51378,17 +51390,17 @@
       </c>
       <c r="C122" s="7" t="inlineStr">
         <is>
-          <t>Alma Iben Graver Kolseth</t>
+          <t>Claudia Maria Hastie Foss</t>
         </is>
       </c>
       <c r="D122" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="E122" s="15" t="n">
-        <v>8.4</v>
+        <v>7.82</v>
       </c>
       <c r="F122" s="7" t="n">
-        <v>619</v>
+        <v>791</v>
       </c>
       <c r="G122" s="7" t="inlineStr">
         <is>
@@ -51396,7 +51408,7 @@
         </is>
       </c>
       <c r="H122" s="16" t="n">
-        <v>18.02</v>
+        <v>11.02</v>
       </c>
       <c r="J122" s="5" t="n"/>
       <c r="L122" s="14" t="inlineStr">
@@ -51433,32 +51445,30 @@
     <row r="123" ht="13" customHeight="1">
       <c r="B123" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C123" s="7" t="inlineStr">
         <is>
-          <t>Mia Mathilda Andersen</t>
+          <t>Claudia Maria Hastie Foss</t>
         </is>
       </c>
       <c r="D123" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E123" s="17" t="inlineStr">
-        <is>
-          <t>2,24,28</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E123" s="15" t="n">
+        <v>12.69</v>
       </c>
       <c r="F123" s="7" t="n">
-        <v>618</v>
+        <v>725</v>
       </c>
       <c r="G123" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H123" s="16" t="n">
-        <v>14.05</v>
+        <v>13.05</v>
       </c>
       <c r="J123" s="5" t="n"/>
       <c r="L123" s="14" t="inlineStr">
@@ -51495,24 +51505,22 @@
     <row r="124" ht="13" customHeight="1">
       <c r="B124" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C124" s="7" t="inlineStr">
         <is>
-          <t>Celine Krüger Henningsen</t>
+          <t>Kerine Sherice Stephenson</t>
         </is>
       </c>
       <c r="D124" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E124" s="17" t="inlineStr">
-        <is>
-          <t>5,00,55</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="E124" s="15" t="n">
+        <v>26.3</v>
       </c>
       <c r="F124" s="7" t="n">
-        <v>609</v>
+        <v>702</v>
       </c>
       <c r="G124" s="7" t="inlineStr">
         <is>
@@ -51520,7 +51528,7 @@
         </is>
       </c>
       <c r="H124" s="16" t="n">
-        <v>18.06</v>
+        <v>17.06</v>
       </c>
       <c r="J124" s="5" t="n"/>
       <c r="L124" s="14" t="inlineStr">
@@ -51557,32 +51565,30 @@
     <row r="125" ht="13" customHeight="1">
       <c r="B125" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C125" s="7" t="inlineStr">
         <is>
-          <t>Mia Mathilda Andersen</t>
+          <t>Ingrid Louise Selseth</t>
         </is>
       </c>
       <c r="D125" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E125" s="17" t="inlineStr">
-        <is>
-          <t>5,02,32</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E125" s="15" t="n">
+        <v>13.17</v>
       </c>
       <c r="F125" s="7" t="n">
-        <v>599</v>
+        <v>642</v>
       </c>
       <c r="G125" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H125" s="16" t="n">
-        <v>18.06</v>
+        <v>1.07</v>
       </c>
       <c r="J125" s="5" t="n"/>
       <c r="L125" s="14" t="inlineStr">
@@ -51619,30 +51625,30 @@
     <row r="126" ht="13" customHeight="1">
       <c r="B126" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C126" s="7" t="inlineStr">
         <is>
-          <t>Alma Iben Graver Kolseth</t>
+          <t>Mathea Wego Karlsen</t>
         </is>
       </c>
       <c r="D126" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="E126" s="15" t="n">
-        <v>27.87</v>
+        <v>13.25</v>
       </c>
       <c r="F126" s="7" t="n">
-        <v>588</v>
+        <v>629</v>
       </c>
       <c r="G126" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H126" s="16" t="n">
-        <v>12.02</v>
+        <v>13.05</v>
       </c>
       <c r="J126" s="5" t="n"/>
       <c r="L126" s="14" t="inlineStr">
@@ -51679,24 +51685,22 @@
     <row r="127" ht="13" customHeight="1">
       <c r="B127" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C127" s="7" t="inlineStr">
         <is>
-          <t>Maria Elisabet M. Damhaug</t>
+          <t>Ingrid Louise Selseth</t>
         </is>
       </c>
       <c r="D127" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E127" s="17" t="inlineStr">
-        <is>
-          <t>1,03,08</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E127" s="15" t="n">
+        <v>27.35</v>
       </c>
       <c r="F127" s="7" t="n">
-        <v>587</v>
+        <v>624</v>
       </c>
       <c r="G127" s="7" t="inlineStr">
         <is>
@@ -51704,7 +51708,7 @@
         </is>
       </c>
       <c r="H127" s="16" t="n">
-        <v>18.06</v>
+        <v>17.06</v>
       </c>
       <c r="J127" s="5" t="n"/>
       <c r="L127" s="14" t="inlineStr">
@@ -51739,32 +51743,30 @@
     <row r="128" ht="13" customHeight="1">
       <c r="B128" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C128" s="7" t="inlineStr">
         <is>
-          <t>Maylem Lauvstad</t>
+          <t>Henriette Kjærås</t>
         </is>
       </c>
       <c r="D128" s="7" t="n">
-        <v>1973</v>
-      </c>
-      <c r="E128" s="17" t="inlineStr">
-        <is>
-          <t>1,03,28</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E128" s="15" t="n">
+        <v>27.4</v>
       </c>
       <c r="F128" s="7" t="n">
-        <v>582</v>
+        <v>621</v>
       </c>
       <c r="G128" s="7" t="inlineStr">
         <is>
-          <t>Torun/POL</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H128" s="16" t="n">
-        <v>28.03</v>
+        <v>17.06</v>
       </c>
       <c r="J128" s="5" t="n"/>
       <c r="L128" s="14" t="inlineStr">
@@ -51804,17 +51806,17 @@
       </c>
       <c r="C129" s="7" t="inlineStr">
         <is>
-          <t>Kristina Vatnar Lie</t>
+          <t>Mathea Wego Karlsen</t>
         </is>
       </c>
       <c r="D129" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E129" s="15" t="n">
-        <v>8.550000000000001</v>
+        <v>8.41</v>
       </c>
       <c r="F129" s="7" t="n">
-        <v>580</v>
+        <v>617</v>
       </c>
       <c r="G129" s="7" t="inlineStr">
         <is>
@@ -51822,7 +51824,7 @@
         </is>
       </c>
       <c r="H129" s="16" t="n">
-        <v>13.01</v>
+        <v>11.02</v>
       </c>
       <c r="J129" s="5" t="n"/>
       <c r="L129" s="14" t="inlineStr">
@@ -51857,30 +51859,30 @@
     <row r="130" ht="13" customHeight="1">
       <c r="B130" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C130" s="7" t="inlineStr">
         <is>
-          <t>Eline Folvik</t>
+          <t>Henriette Kjærås</t>
         </is>
       </c>
       <c r="D130" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E130" s="15" t="n">
-        <v>4.75</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="F130" s="7" t="n">
-        <v>564</v>
+        <v>492</v>
       </c>
       <c r="G130" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Porsgrunn</t>
         </is>
       </c>
       <c r="H130" s="16" t="n">
-        <v>11.02</v>
+        <v>10.06</v>
       </c>
       <c r="J130" s="5" t="n"/>
       <c r="L130" s="14" t="inlineStr">
@@ -51915,30 +51917,30 @@
     <row r="131" ht="13" customHeight="1">
       <c r="B131" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C131" s="7" t="inlineStr">
         <is>
-          <t>Anna Driesprong Langerød</t>
+          <t>Anniken Rosvoll</t>
         </is>
       </c>
       <c r="D131" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E131" s="15" t="n">
-        <v>9.81</v>
+        <v>4.36</v>
       </c>
       <c r="F131" s="7" t="n">
-        <v>538</v>
+        <v>475</v>
       </c>
       <c r="G131" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H131" s="16" t="n">
-        <v>18.06</v>
+        <v>13.05</v>
       </c>
       <c r="J131" s="5" t="n"/>
       <c r="L131" s="14" t="inlineStr">
@@ -51973,30 +51975,30 @@
     <row r="132" ht="13" customHeight="1">
       <c r="B132" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C132" s="7" t="inlineStr">
         <is>
-          <t>Lene Berger</t>
+          <t>Marit Huflåtten</t>
         </is>
       </c>
       <c r="D132" s="7" t="n">
-        <v>1981</v>
+        <v>1953</v>
       </c>
       <c r="E132" s="15" t="n">
-        <v>4.6</v>
+        <v>21.35</v>
       </c>
       <c r="F132" s="7" t="n">
-        <v>530</v>
+        <v>418</v>
       </c>
       <c r="G132" s="7" t="inlineStr">
         <is>
-          <t>Geithus</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="H132" s="16" t="n">
-        <v>24.06</v>
+        <v>12.05</v>
       </c>
       <c r="J132" s="5" t="n"/>
       <c r="L132" s="14" t="inlineStr">
@@ -52031,30 +52033,30 @@
     <row r="133" ht="13" customHeight="1">
       <c r="B133" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C133" s="7" t="inlineStr">
         <is>
-          <t>Ida Yessica Nesse</t>
+          <t>Siri Torgersen Bigseth</t>
         </is>
       </c>
       <c r="D133" s="7" t="n">
-        <v>1992</v>
+        <v>2009</v>
       </c>
       <c r="E133" s="15" t="n">
-        <v>26.22</v>
+        <v>1.28</v>
       </c>
       <c r="F133" s="7" t="n">
-        <v>517</v>
+        <v>396</v>
       </c>
       <c r="G133" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H133" s="16" t="n">
-        <v>8.07</v>
+        <v>1.06</v>
       </c>
       <c r="J133" s="5" t="n"/>
       <c r="L133" s="14" t="inlineStr">
@@ -52119,7 +52121,7 @@
         </is>
       </c>
       <c r="F135" s="20" t="n">
-        <v>6931</v>
+        <v>7132</v>
       </c>
       <c r="J135" s="5" t="n"/>
       <c r="L135" s="19" t="inlineStr">
@@ -52159,7 +52161,7 @@
         </is>
       </c>
       <c r="F137" s="20" t="n">
-        <v>14842</v>
+        <v>14974</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="19" t="inlineStr">
@@ -52191,7 +52193,7 @@
         </is>
       </c>
       <c r="C139" s="20" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J139" s="5" t="n"/>
       <c r="L139" s="19" t="inlineStr">
@@ -54186,7 +54188,7 @@
       </c>
       <c r="M190" s="7" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="P190" s="8" t="n">
@@ -54213,7 +54215,7 @@
       </c>
       <c r="M191" s="7" t="inlineStr">
         <is>
-          <t>Nittedal IL</t>
+          <t>Bergens Turnforening</t>
         </is>
       </c>
       <c r="T191" s="5" t="n"/>
@@ -54370,25 +54372,25 @@
       </c>
       <c r="M197" s="7" t="inlineStr">
         <is>
-          <t>Sofie Bjerva Johnskareng</t>
+          <t>Emma Louise Rolstad</t>
         </is>
       </c>
       <c r="N197" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="O197" s="15" t="n">
-        <v>8.48</v>
+        <v>8.26</v>
       </c>
       <c r="P197" s="7" t="n">
-        <v>598</v>
+        <v>658</v>
       </c>
       <c r="Q197" s="7" t="inlineStr">
         <is>
-          <t>Hvam</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R197" s="16" t="n">
-        <v>4.02</v>
+        <v>20.05</v>
       </c>
       <c r="T197" s="5" t="n"/>
     </row>
@@ -54428,25 +54430,25 @@
       </c>
       <c r="M198" s="7" t="inlineStr">
         <is>
-          <t>Alma Owrehagen</t>
+          <t>Lisa Askeland</t>
         </is>
       </c>
       <c r="N198" s="7" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="O198" s="15" t="n">
-        <v>14.37</v>
+        <v>14.33</v>
       </c>
       <c r="P198" s="7" t="n">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="Q198" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R198" s="16" t="n">
-        <v>1.07</v>
+        <v>4.06</v>
       </c>
       <c r="T198" s="5" t="n"/>
     </row>
@@ -54486,25 +54488,25 @@
       </c>
       <c r="M199" s="7" t="inlineStr">
         <is>
-          <t>Sofie Bjerva Johnskareng</t>
+          <t>Lisa Askeland</t>
         </is>
       </c>
       <c r="N199" s="7" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="O199" s="15" t="n">
-        <v>28.1</v>
+        <v>31.32</v>
       </c>
       <c r="P199" s="7" t="n">
-        <v>572</v>
+        <v>376</v>
       </c>
       <c r="Q199" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R199" s="16" t="n">
-        <v>12.02</v>
+        <v>11.02</v>
       </c>
       <c r="T199" s="5" t="n"/>
     </row>
@@ -54546,27 +54548,27 @@
       </c>
       <c r="M200" s="7" t="inlineStr">
         <is>
-          <t>Vilde Måseide</t>
+          <t>Amalie Husebø</t>
         </is>
       </c>
       <c r="N200" s="7" t="n">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="O200" s="17" t="inlineStr">
         <is>
-          <t>1,18,88</t>
+          <t>1,21,38</t>
         </is>
       </c>
       <c r="P200" s="7" t="n">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="Q200" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="R200" s="16" t="n">
-        <v>22.04</v>
+        <v>13.06</v>
       </c>
       <c r="T200" s="5" t="n"/>
     </row>
@@ -54603,32 +54605,30 @@
       <c r="J201" s="5" t="n"/>
       <c r="L201" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M201" s="7" t="inlineStr">
         <is>
-          <t>Eline Skaar</t>
+          <t>Helle Møller-Sivertsen</t>
         </is>
       </c>
       <c r="N201" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O201" s="17" t="inlineStr">
-        <is>
-          <t>2,21,43</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="O201" s="15" t="n">
+        <v>1.44</v>
       </c>
       <c r="P201" s="7" t="n">
-        <v>650</v>
+        <v>556</v>
       </c>
       <c r="Q201" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R201" s="16" t="n">
-        <v>25.05</v>
+        <v>4.02</v>
       </c>
       <c r="T201" s="5" t="n"/>
     </row>
@@ -54648,7 +54648,7 @@
       </c>
       <c r="E202" s="17" t="inlineStr">
         <is>
-          <t>4,46,03</t>
+          <t>4,45,89</t>
         </is>
       </c>
       <c r="F202" s="7" t="n">
@@ -54656,41 +54656,39 @@
       </c>
       <c r="G202" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Björlanda/SWE</t>
         </is>
       </c>
       <c r="H202" s="16" t="n">
-        <v>18.06</v>
+        <v>22.07</v>
       </c>
       <c r="J202" s="5" t="n"/>
       <c r="L202" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M202" s="7" t="inlineStr">
         <is>
-          <t>Eline Skaar</t>
+          <t>Embla Njerve</t>
         </is>
       </c>
       <c r="N202" s="7" t="n">
         <v>2007</v>
       </c>
-      <c r="O202" s="17" t="inlineStr">
-        <is>
-          <t>4,57,14</t>
-        </is>
+      <c r="O202" s="15" t="n">
+        <v>3.9</v>
       </c>
       <c r="P202" s="7" t="n">
-        <v>627</v>
+        <v>876</v>
       </c>
       <c r="Q202" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R202" s="16" t="n">
-        <v>8.06</v>
+        <v>5.03</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
@@ -54727,32 +54725,30 @@
       <c r="J203" s="5" t="n"/>
       <c r="L203" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M203" s="7" t="inlineStr">
         <is>
-          <t>Eline Skaar</t>
+          <t>Embla Njerve</t>
         </is>
       </c>
       <c r="N203" s="7" t="n">
         <v>2007</v>
       </c>
-      <c r="O203" s="17" t="inlineStr">
-        <is>
-          <t>10,36,21</t>
-        </is>
+      <c r="O203" s="15" t="n">
+        <v>4.8</v>
       </c>
       <c r="P203" s="7" t="n">
-        <v>647</v>
+        <v>575</v>
       </c>
       <c r="Q203" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R203" s="16" t="n">
-        <v>22.05</v>
+        <v>22.01</v>
       </c>
       <c r="T203" s="5" t="n"/>
     </row>
@@ -54787,30 +54783,30 @@
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M204" s="7" t="inlineStr">
         <is>
-          <t>Dahlia Miriam Øksne</t>
+          <t>Emma Louise Rolstad</t>
         </is>
       </c>
       <c r="N204" s="7" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="O204" s="15" t="n">
-        <v>1.43</v>
+        <v>10.82</v>
       </c>
       <c r="P204" s="7" t="n">
-        <v>547</v>
+        <v>643</v>
       </c>
       <c r="Q204" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R204" s="16" t="n">
-        <v>3.06</v>
+        <v>21.01</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -54845,30 +54841,30 @@
       <c r="J205" s="5" t="n"/>
       <c r="L205" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M205" s="7" t="inlineStr">
         <is>
-          <t>Sofie Bjerva Johnskareng</t>
+          <t>Emma Louise Rolstad</t>
         </is>
       </c>
       <c r="N205" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="O205" s="15" t="n">
-        <v>4.28</v>
+        <v>1.24</v>
       </c>
       <c r="P205" s="7" t="n">
-        <v>456</v>
+        <v>598</v>
       </c>
       <c r="Q205" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R205" s="16" t="n">
-        <v>22.04</v>
+        <v>10.02</v>
       </c>
       <c r="T205" s="5" t="n"/>
     </row>
@@ -54903,30 +54899,30 @@
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M206" s="7" t="inlineStr">
         <is>
-          <t>Tuva Helene Rugsveen</t>
+          <t>Emma Louise Rolstad</t>
         </is>
       </c>
       <c r="N206" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="O206" s="15" t="n">
-        <v>8.869999999999999</v>
+        <v>2.39</v>
       </c>
       <c r="P206" s="7" t="n">
-        <v>435</v>
+        <v>560</v>
       </c>
       <c r="Q206" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R206" s="16" t="n">
-        <v>12.02</v>
+        <v>10.02</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
@@ -54961,30 +54957,30 @@
       <c r="J207" s="5" t="n"/>
       <c r="L207" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M207" s="7" t="inlineStr">
         <is>
-          <t>Tuva Helene Rugsveen</t>
+          <t>Oda Myklebust</t>
         </is>
       </c>
       <c r="N207" s="7" t="n">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="O207" s="15" t="n">
-        <v>2.19</v>
+        <v>9.74</v>
       </c>
       <c r="P207" s="7" t="n">
-        <v>411</v>
+        <v>572</v>
       </c>
       <c r="Q207" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R207" s="16" t="n">
-        <v>2.03</v>
+        <v>22.07</v>
       </c>
       <c r="T207" s="5" t="n"/>
     </row>
@@ -55024,25 +55020,25 @@
       </c>
       <c r="M208" s="7" t="inlineStr">
         <is>
-          <t>Meike Hesselink</t>
+          <t>Oda Myklebust</t>
         </is>
       </c>
       <c r="N208" s="7" t="n">
-        <v>1977</v>
+        <v>2001</v>
       </c>
       <c r="O208" s="15" t="n">
-        <v>24.08</v>
+        <v>36.89</v>
       </c>
       <c r="P208" s="7" t="n">
-        <v>476</v>
+        <v>682</v>
       </c>
       <c r="Q208" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R208" s="16" t="n">
-        <v>2.05</v>
+        <v>22.07</v>
       </c>
       <c r="T208" s="5" t="n"/>
     </row>
@@ -55062,25 +55058,25 @@
       </c>
       <c r="M209" s="7" t="inlineStr">
         <is>
-          <t>Tiril Lappegård</t>
+          <t>Oda Myklebust</t>
         </is>
       </c>
       <c r="N209" s="7" t="n">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="O209" s="15" t="n">
-        <v>50.84</v>
+        <v>52.55</v>
       </c>
       <c r="P209" s="7" t="n">
-        <v>819</v>
+        <v>839</v>
       </c>
       <c r="Q209" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R209" s="16" t="n">
-        <v>1.07</v>
+        <v>22.07</v>
       </c>
       <c r="T209" s="5" t="n"/>
     </row>
@@ -55134,7 +55130,7 @@
         </is>
       </c>
       <c r="P211" s="20" t="n">
-        <v>6961</v>
+        <v>7625</v>
       </c>
       <c r="T211" s="5" t="n"/>
     </row>
@@ -55265,32 +55261,30 @@
       <c r="J216" s="5" t="n"/>
       <c r="L216" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M216" s="7" t="inlineStr">
         <is>
-          <t>Erle Haukåen Stødle</t>
+          <t>Emma Louise Rolstad</t>
         </is>
       </c>
       <c r="N216" s="7" t="n">
         <v>2009</v>
       </c>
-      <c r="O216" s="17" t="inlineStr">
-        <is>
-          <t>5,14,94</t>
-        </is>
+      <c r="O216" s="15" t="n">
+        <v>3.13</v>
       </c>
       <c r="P216" s="7" t="n">
-        <v>537</v>
+        <v>702</v>
       </c>
       <c r="Q216" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R216" s="16" t="n">
-        <v>18.06</v>
+        <v>21.01</v>
       </c>
       <c r="T216" s="5" t="n"/>
     </row>
@@ -55325,32 +55319,30 @@
       <c r="J217" s="5" t="n"/>
       <c r="L217" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M217" s="7" t="inlineStr">
         <is>
-          <t>Erle Haukåen Stødle</t>
+          <t>Helle Møller-Sivertsen</t>
         </is>
       </c>
       <c r="N217" s="7" t="n">
         <v>2009</v>
       </c>
-      <c r="O217" s="17" t="inlineStr">
-        <is>
-          <t>2,33,45</t>
-        </is>
+      <c r="O217" s="15" t="n">
+        <v>2.6</v>
       </c>
       <c r="P217" s="7" t="n">
-        <v>524</v>
+        <v>583</v>
       </c>
       <c r="Q217" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R217" s="16" t="n">
-        <v>22.06</v>
+        <v>4.02</v>
       </c>
       <c r="T217" s="5" t="n"/>
     </row>
@@ -55385,32 +55377,30 @@
       <c r="J218" s="5" t="n"/>
       <c r="L218" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M218" s="7" t="inlineStr">
         <is>
-          <t>Vilde Martinsen</t>
+          <t>Helle Møller-Sivertsen</t>
         </is>
       </c>
       <c r="N218" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O218" s="17" t="inlineStr">
-        <is>
-          <t>5,18,33</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="O218" s="15" t="n">
+        <v>9.94</v>
       </c>
       <c r="P218" s="7" t="n">
-        <v>521</v>
+        <v>552</v>
       </c>
       <c r="Q218" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R218" s="16" t="n">
-        <v>22.05</v>
+        <v>5.02</v>
       </c>
       <c r="T218" s="5" t="n"/>
     </row>
@@ -55445,30 +55435,30 @@
       <c r="J219" s="5" t="n"/>
       <c r="L219" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M219" s="7" t="inlineStr">
         <is>
-          <t>Alma Owrehagen</t>
+          <t>Embla Njerve</t>
         </is>
       </c>
       <c r="N219" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O219" s="15" t="n">
-        <v>29.15</v>
+        <v>8.69</v>
       </c>
       <c r="P219" s="7" t="n">
-        <v>503</v>
+        <v>545</v>
       </c>
       <c r="Q219" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R219" s="16" t="n">
-        <v>17.06</v>
+        <v>22.01</v>
       </c>
       <c r="T219" s="5" t="n"/>
     </row>
@@ -55503,30 +55493,30 @@
       <c r="J220" s="5" t="n"/>
       <c r="L220" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M220" s="7" t="inlineStr">
         <is>
-          <t>Alma Owrehagen</t>
+          <t>Helle Møller-Sivertsen</t>
         </is>
       </c>
       <c r="N220" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="O220" s="15" t="n">
-        <v>8.94</v>
+        <v>4.57</v>
       </c>
       <c r="P220" s="7" t="n">
-        <v>486</v>
+        <v>524</v>
       </c>
       <c r="Q220" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R220" s="16" t="n">
-        <v>11.03</v>
+        <v>4.02</v>
       </c>
       <c r="T220" s="5" t="n"/>
     </row>
@@ -55561,30 +55551,30 @@
       <c r="J221" s="5" t="n"/>
       <c r="L221" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M221" s="7" t="inlineStr">
         <is>
-          <t>Helene Korsmo Walskrå</t>
+          <t>Amalie Husebø</t>
         </is>
       </c>
       <c r="N221" s="7" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="O221" s="15" t="n">
-        <v>9.01</v>
+        <v>1.38</v>
       </c>
       <c r="P221" s="7" t="n">
-        <v>471</v>
+        <v>500</v>
       </c>
       <c r="Q221" s="7" t="inlineStr">
         <is>
-          <t>Hvam</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R221" s="16" t="n">
-        <v>4.02</v>
+        <v>21.01</v>
       </c>
       <c r="T221" s="5" t="n"/>
     </row>
@@ -55619,30 +55609,30 @@
       <c r="J222" s="5" t="n"/>
       <c r="L222" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M222" s="7" t="inlineStr">
         <is>
-          <t>Anna Kjønø</t>
+          <t>Signe Njerve</t>
         </is>
       </c>
       <c r="N222" s="7" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="O222" s="15" t="n">
-        <v>1.35</v>
+        <v>2.15</v>
       </c>
       <c r="P222" s="7" t="n">
         <v>470</v>
       </c>
       <c r="Q222" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R222" s="16" t="n">
-        <v>12.02</v>
+        <v>24.06</v>
       </c>
       <c r="T222" s="5" t="n"/>
     </row>
@@ -55682,21 +55672,21 @@
       </c>
       <c r="M223" s="7" t="inlineStr">
         <is>
-          <t>Anna Kjønø</t>
+          <t>Lisa Askeland</t>
         </is>
       </c>
       <c r="N223" s="7" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="O223" s="15" t="n">
-        <v>9.08</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="P223" s="7" t="n">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="Q223" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R223" s="16" t="n">
@@ -55735,30 +55725,30 @@
       <c r="J224" s="5" t="n"/>
       <c r="L224" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M224" s="7" t="inlineStr">
         <is>
-          <t>Anna Kjønø</t>
+          <t>Lisa Askeland</t>
         </is>
       </c>
       <c r="N224" s="7" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="O224" s="15" t="n">
-        <v>4.27</v>
+        <v>1.25</v>
       </c>
       <c r="P224" s="7" t="n">
-        <v>454</v>
+        <v>362</v>
       </c>
       <c r="Q224" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R224" s="16" t="n">
-        <v>12.03</v>
+        <v>11.02</v>
       </c>
       <c r="T224" s="5" t="n"/>
     </row>
@@ -55793,30 +55783,30 @@
       <c r="J225" s="5" t="n"/>
       <c r="L225" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M225" s="7" t="inlineStr">
         <is>
-          <t>Helene Korsmo Walskrå</t>
+          <t>Mari Lind Aasen</t>
         </is>
       </c>
       <c r="N225" s="7" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="O225" s="15" t="n">
-        <v>30.12</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="P225" s="7" t="n">
-        <v>444</v>
+        <v>325</v>
       </c>
       <c r="Q225" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R225" s="16" t="n">
-        <v>12.03</v>
+        <v>3.06</v>
       </c>
       <c r="T225" s="5" t="n"/>
     </row>
@@ -55851,30 +55841,30 @@
       <c r="J226" s="5" t="n"/>
       <c r="L226" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M226" s="7" t="inlineStr">
         <is>
-          <t>Tuva Helene Rugsveen</t>
+          <t>Mari Lind Aasen</t>
         </is>
       </c>
       <c r="N226" s="7" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="O226" s="15" t="n">
-        <v>4.04</v>
+        <v>15.45</v>
       </c>
       <c r="P226" s="7" t="n">
-        <v>397</v>
+        <v>315</v>
       </c>
       <c r="Q226" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R226" s="16" t="n">
-        <v>22.04</v>
+        <v>4.06</v>
       </c>
       <c r="T226" s="5" t="n"/>
     </row>
@@ -55909,30 +55899,30 @@
       <c r="J227" s="5" t="n"/>
       <c r="L227" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M227" s="7" t="inlineStr">
         <is>
-          <t>Helene Korsmo Walskrå</t>
+          <t>Amalie Husebø</t>
         </is>
       </c>
       <c r="N227" s="7" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="O227" s="15" t="n">
-        <v>8.369999999999999</v>
+        <v>9.82</v>
       </c>
       <c r="P227" s="7" t="n">
-        <v>376</v>
+        <v>304</v>
       </c>
       <c r="Q227" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R227" s="16" t="n">
-        <v>12.02</v>
+        <v>4.02</v>
       </c>
       <c r="T227" s="5" t="n"/>
     </row>
@@ -55986,7 +55976,7 @@
         </is>
       </c>
       <c r="P229" s="20" t="n">
-        <v>5638</v>
+        <v>5624</v>
       </c>
       <c r="T229" s="5" t="n"/>
     </row>
@@ -56026,7 +56016,7 @@
         </is>
       </c>
       <c r="P231" s="20" t="n">
-        <v>12599</v>
+        <v>13249</v>
       </c>
       <c r="T231" s="5" t="n"/>
     </row>
@@ -56050,7 +56040,7 @@
         </is>
       </c>
       <c r="M233" s="20" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T233" s="5" t="n"/>
     </row>
@@ -56092,7 +56082,7 @@
       </c>
       <c r="C237" s="7" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Akershus</t>
         </is>
       </c>
       <c r="F237" s="8" t="n">
@@ -56122,7 +56112,7 @@
       </c>
       <c r="C238" s="7" t="inlineStr">
         <is>
-          <t>Bergens Turnforening</t>
+          <t>Nittedal IL</t>
         </is>
       </c>
       <c r="J238" s="5" t="n"/>
@@ -56262,25 +56252,25 @@
       </c>
       <c r="C244" s="7" t="inlineStr">
         <is>
-          <t>Emma Louise Rolstad</t>
+          <t>Sofie Bjerva Johnskareng</t>
         </is>
       </c>
       <c r="D244" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="E244" s="15" t="n">
-        <v>8.26</v>
+        <v>8.48</v>
       </c>
       <c r="F244" s="7" t="n">
-        <v>658</v>
+        <v>598</v>
       </c>
       <c r="G244" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="H244" s="16" t="n">
-        <v>20.05</v>
+        <v>4.02</v>
       </c>
       <c r="J244" s="5" t="n"/>
       <c r="L244" s="14" t="inlineStr">
@@ -56320,25 +56310,25 @@
       </c>
       <c r="C245" s="7" t="inlineStr">
         <is>
-          <t>Lisa Askeland</t>
+          <t>Alma Owrehagen</t>
         </is>
       </c>
       <c r="D245" s="7" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="E245" s="15" t="n">
-        <v>14.33</v>
+        <v>14.37</v>
       </c>
       <c r="F245" s="7" t="n">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G245" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H245" s="16" t="n">
-        <v>4.06</v>
+        <v>1.07</v>
       </c>
       <c r="J245" s="5" t="n"/>
       <c r="L245" s="14" t="inlineStr">
@@ -56378,25 +56368,25 @@
       </c>
       <c r="C246" s="7" t="inlineStr">
         <is>
-          <t>Lisa Askeland</t>
+          <t>Sofie Bjerva Johnskareng</t>
         </is>
       </c>
       <c r="D246" s="7" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E246" s="15" t="n">
-        <v>31.32</v>
+        <v>28.1</v>
       </c>
       <c r="F246" s="7" t="n">
-        <v>376</v>
+        <v>572</v>
       </c>
       <c r="G246" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H246" s="16" t="n">
-        <v>11.02</v>
+        <v>12.02</v>
       </c>
       <c r="J246" s="5" t="n"/>
       <c r="L246" s="14" t="inlineStr">
@@ -56436,27 +56426,27 @@
       </c>
       <c r="C247" s="7" t="inlineStr">
         <is>
-          <t>Amalie Husebø</t>
+          <t>Vilde Måseide</t>
         </is>
       </c>
       <c r="D247" s="7" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="E247" s="17" t="inlineStr">
         <is>
-          <t>1,21,38</t>
+          <t>1,18,88</t>
         </is>
       </c>
       <c r="F247" s="7" t="n">
-        <v>228</v>
+        <v>267</v>
       </c>
       <c r="G247" s="7" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H247" s="16" t="n">
-        <v>13.06</v>
+        <v>22.04</v>
       </c>
       <c r="J247" s="5" t="n"/>
       <c r="L247" s="14" t="inlineStr">
@@ -56493,30 +56483,32 @@
     <row r="248" ht="13" customHeight="1">
       <c r="B248" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C248" s="7" t="inlineStr">
         <is>
-          <t>Helle Møller-Sivertsen</t>
+          <t>Eline Skaar</t>
         </is>
       </c>
       <c r="D248" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E248" s="15" t="n">
-        <v>1.44</v>
+        <v>2007</v>
+      </c>
+      <c r="E248" s="17" t="inlineStr">
+        <is>
+          <t>2,21,43</t>
+        </is>
       </c>
       <c r="F248" s="7" t="n">
-        <v>556</v>
+        <v>650</v>
       </c>
       <c r="G248" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H248" s="16" t="n">
-        <v>4.02</v>
+        <v>25.05</v>
       </c>
       <c r="J248" s="5" t="n"/>
       <c r="L248" s="14" t="inlineStr">
@@ -56553,30 +56545,32 @@
     <row r="249" ht="13" customHeight="1">
       <c r="B249" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C249" s="7" t="inlineStr">
         <is>
-          <t>Embla Njerve</t>
+          <t>Eline Skaar</t>
         </is>
       </c>
       <c r="D249" s="7" t="n">
         <v>2007</v>
       </c>
-      <c r="E249" s="15" t="n">
-        <v>3.9</v>
+      <c r="E249" s="17" t="inlineStr">
+        <is>
+          <t>4,57,14</t>
+        </is>
       </c>
       <c r="F249" s="7" t="n">
-        <v>876</v>
+        <v>627</v>
       </c>
       <c r="G249" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H249" s="16" t="n">
-        <v>5.03</v>
+        <v>8.06</v>
       </c>
       <c r="J249" s="5" t="n"/>
       <c r="L249" s="14" t="inlineStr">
@@ -56611,30 +56605,32 @@
     <row r="250" ht="13" customHeight="1">
       <c r="B250" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C250" s="7" t="inlineStr">
         <is>
-          <t>Embla Njerve</t>
+          <t>Eline Skaar</t>
         </is>
       </c>
       <c r="D250" s="7" t="n">
         <v>2007</v>
       </c>
-      <c r="E250" s="15" t="n">
-        <v>4.8</v>
+      <c r="E250" s="17" t="inlineStr">
+        <is>
+          <t>10,36,21</t>
+        </is>
       </c>
       <c r="F250" s="7" t="n">
-        <v>575</v>
+        <v>647</v>
       </c>
       <c r="G250" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H250" s="16" t="n">
-        <v>22.01</v>
+        <v>22.05</v>
       </c>
       <c r="J250" s="5" t="n"/>
       <c r="L250" s="14" t="inlineStr">
@@ -56669,30 +56665,30 @@
     <row r="251" ht="13" customHeight="1">
       <c r="B251" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C251" s="7" t="inlineStr">
         <is>
-          <t>Emma Louise Rolstad</t>
+          <t>Dahlia Miriam Øksne</t>
         </is>
       </c>
       <c r="D251" s="7" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E251" s="15" t="n">
-        <v>10.82</v>
+        <v>1.43</v>
       </c>
       <c r="F251" s="7" t="n">
-        <v>643</v>
+        <v>547</v>
       </c>
       <c r="G251" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H251" s="16" t="n">
-        <v>21.01</v>
+        <v>3.06</v>
       </c>
       <c r="J251" s="5" t="n"/>
       <c r="L251" s="14" t="inlineStr">
@@ -56727,30 +56723,30 @@
     <row r="252" ht="13" customHeight="1">
       <c r="B252" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C252" s="7" t="inlineStr">
         <is>
-          <t>Emma Louise Rolstad</t>
+          <t>Sofie Bjerva Johnskareng</t>
         </is>
       </c>
       <c r="D252" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="E252" s="15" t="n">
-        <v>1.24</v>
+        <v>4.28</v>
       </c>
       <c r="F252" s="7" t="n">
-        <v>598</v>
+        <v>456</v>
       </c>
       <c r="G252" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H252" s="16" t="n">
-        <v>10.02</v>
+        <v>22.04</v>
       </c>
       <c r="J252" s="5" t="n"/>
       <c r="L252" s="14" t="inlineStr">
@@ -56785,30 +56781,30 @@
     <row r="253" ht="13" customHeight="1">
       <c r="B253" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C253" s="7" t="inlineStr">
         <is>
-          <t>Emma Louise Rolstad</t>
+          <t>Tuva Helene Rugsveen</t>
         </is>
       </c>
       <c r="D253" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="E253" s="15" t="n">
-        <v>2.39</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="F253" s="7" t="n">
-        <v>560</v>
+        <v>435</v>
       </c>
       <c r="G253" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H253" s="16" t="n">
-        <v>10.02</v>
+        <v>12.02</v>
       </c>
       <c r="J253" s="5" t="n"/>
       <c r="L253" s="14" t="inlineStr">
@@ -56843,30 +56839,30 @@
     <row r="254" ht="13" customHeight="1">
       <c r="B254" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C254" s="7" t="inlineStr">
         <is>
-          <t>Oda Myklebust</t>
+          <t>Tuva Helene Rugsveen</t>
         </is>
       </c>
       <c r="D254" s="7" t="n">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="E254" s="15" t="n">
-        <v>52.19</v>
+        <v>2.19</v>
       </c>
       <c r="F254" s="7" t="n">
-        <v>835</v>
+        <v>411</v>
       </c>
       <c r="G254" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H254" s="16" t="n">
-        <v>6.07</v>
+        <v>2.03</v>
       </c>
       <c r="J254" s="5" t="n"/>
       <c r="L254" s="14" t="inlineStr">
@@ -56899,13 +56895,33 @@
       <c r="T254" s="5" t="n"/>
     </row>
     <row r="255" ht="13" customHeight="1">
-      <c r="B255" s="14" t="n"/>
-      <c r="C255" s="7" t="n"/>
-      <c r="D255" s="7" t="n"/>
-      <c r="E255" s="7" t="n"/>
-      <c r="F255" s="7" t="n"/>
-      <c r="G255" s="7" t="n"/>
-      <c r="H255" s="21" t="n"/>
+      <c r="B255" s="14" t="inlineStr">
+        <is>
+          <t>Diskos</t>
+        </is>
+      </c>
+      <c r="C255" s="7" t="inlineStr">
+        <is>
+          <t>Meike Hesselink</t>
+        </is>
+      </c>
+      <c r="D255" s="7" t="n">
+        <v>1977</v>
+      </c>
+      <c r="E255" s="15" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="F255" s="7" t="n">
+        <v>476</v>
+      </c>
+      <c r="G255" s="7" t="inlineStr">
+        <is>
+          <t>Nittedal</t>
+        </is>
+      </c>
+      <c r="H255" s="16" t="n">
+        <v>2.05</v>
+      </c>
       <c r="J255" s="5" t="n"/>
       <c r="L255" s="14" t="n"/>
       <c r="M255" s="7" t="n"/>
@@ -56917,13 +56933,33 @@
       <c r="T255" s="5" t="n"/>
     </row>
     <row r="256" ht="13" customHeight="1">
-      <c r="B256" s="14" t="n"/>
-      <c r="C256" s="7" t="n"/>
-      <c r="D256" s="7" t="n"/>
-      <c r="E256" s="7" t="n"/>
-      <c r="F256" s="7" t="n"/>
-      <c r="G256" s="7" t="n"/>
-      <c r="H256" s="21" t="n"/>
+      <c r="B256" s="14" t="inlineStr">
+        <is>
+          <t>Slegge</t>
+        </is>
+      </c>
+      <c r="C256" s="7" t="inlineStr">
+        <is>
+          <t>Tiril Lappegård</t>
+        </is>
+      </c>
+      <c r="D256" s="7" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E256" s="15" t="n">
+        <v>50.84</v>
+      </c>
+      <c r="F256" s="7" t="n">
+        <v>819</v>
+      </c>
+      <c r="G256" s="7" t="inlineStr">
+        <is>
+          <t>Gøteborg/SWE</t>
+        </is>
+      </c>
+      <c r="H256" s="16" t="n">
+        <v>1.07</v>
+      </c>
       <c r="J256" s="5" t="n"/>
       <c r="L256" s="14" t="n"/>
       <c r="M256" s="7" t="n"/>
@@ -56959,7 +56995,7 @@
         </is>
       </c>
       <c r="C258" s="20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E258" s="19" t="inlineStr">
         <is>
@@ -56967,7 +57003,7 @@
         </is>
       </c>
       <c r="F258" s="20" t="n">
-        <v>6367</v>
+        <v>6961</v>
       </c>
       <c r="J258" s="5" t="n"/>
       <c r="L258" s="19" t="inlineStr">
@@ -57087,30 +57123,32 @@
     <row r="263" ht="13" customHeight="1">
       <c r="B263" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C263" s="7" t="inlineStr">
         <is>
-          <t>Emma Louise Rolstad</t>
+          <t>Erle Haukåen Stødle</t>
         </is>
       </c>
       <c r="D263" s="7" t="n">
         <v>2009</v>
       </c>
-      <c r="E263" s="15" t="n">
-        <v>3.13</v>
+      <c r="E263" s="17" t="inlineStr">
+        <is>
+          <t>5,14,94</t>
+        </is>
       </c>
       <c r="F263" s="7" t="n">
-        <v>702</v>
+        <v>537</v>
       </c>
       <c r="G263" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H263" s="16" t="n">
-        <v>21.01</v>
+        <v>18.06</v>
       </c>
       <c r="J263" s="5" t="n"/>
       <c r="L263" s="14" t="inlineStr">
@@ -57145,30 +57183,32 @@
     <row r="264" ht="13" customHeight="1">
       <c r="B264" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C264" s="7" t="inlineStr">
         <is>
-          <t>Helle Møller-Sivertsen</t>
+          <t>Erle Haukåen Stødle</t>
         </is>
       </c>
       <c r="D264" s="7" t="n">
         <v>2009</v>
       </c>
-      <c r="E264" s="15" t="n">
-        <v>2.6</v>
+      <c r="E264" s="17" t="inlineStr">
+        <is>
+          <t>2,33,45</t>
+        </is>
       </c>
       <c r="F264" s="7" t="n">
-        <v>583</v>
+        <v>524</v>
       </c>
       <c r="G264" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H264" s="16" t="n">
-        <v>4.02</v>
+        <v>22.06</v>
       </c>
       <c r="J264" s="5" t="n"/>
       <c r="L264" s="14" t="inlineStr">
@@ -57203,30 +57243,32 @@
     <row r="265" ht="13" customHeight="1">
       <c r="B265" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C265" s="7" t="inlineStr">
         <is>
-          <t>Helle Møller-Sivertsen</t>
+          <t>Vilde Martinsen</t>
         </is>
       </c>
       <c r="D265" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E265" s="15" t="n">
-        <v>9.94</v>
+        <v>2003</v>
+      </c>
+      <c r="E265" s="17" t="inlineStr">
+        <is>
+          <t>5,18,33</t>
+        </is>
       </c>
       <c r="F265" s="7" t="n">
-        <v>552</v>
+        <v>521</v>
       </c>
       <c r="G265" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H265" s="16" t="n">
-        <v>5.02</v>
+        <v>22.05</v>
       </c>
       <c r="J265" s="5" t="n"/>
       <c r="L265" s="14" t="inlineStr">
@@ -57261,30 +57303,30 @@
     <row r="266" ht="13" customHeight="1">
       <c r="B266" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C266" s="7" t="inlineStr">
         <is>
-          <t>Embla Njerve</t>
+          <t>Alma Owrehagen</t>
         </is>
       </c>
       <c r="D266" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E266" s="15" t="n">
-        <v>8.69</v>
+        <v>29.15</v>
       </c>
       <c r="F266" s="7" t="n">
-        <v>545</v>
+        <v>503</v>
       </c>
       <c r="G266" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H266" s="16" t="n">
-        <v>22.01</v>
+        <v>17.06</v>
       </c>
       <c r="J266" s="5" t="n"/>
       <c r="L266" s="14" t="inlineStr">
@@ -57319,30 +57361,30 @@
     <row r="267" ht="13" customHeight="1">
       <c r="B267" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C267" s="7" t="inlineStr">
         <is>
-          <t>Helle Møller-Sivertsen</t>
+          <t>Alma Owrehagen</t>
         </is>
       </c>
       <c r="D267" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E267" s="15" t="n">
-        <v>4.57</v>
+        <v>8.94</v>
       </c>
       <c r="F267" s="7" t="n">
-        <v>524</v>
+        <v>486</v>
       </c>
       <c r="G267" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="H267" s="16" t="n">
-        <v>4.02</v>
+        <v>11.03</v>
       </c>
       <c r="J267" s="5" t="n"/>
       <c r="L267" s="14" t="inlineStr">
@@ -57377,30 +57419,30 @@
     <row r="268" ht="13" customHeight="1">
       <c r="B268" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C268" s="7" t="inlineStr">
         <is>
-          <t>Amalie Husebø</t>
+          <t>Helene Korsmo Walskrå</t>
         </is>
       </c>
       <c r="D268" s="7" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E268" s="15" t="n">
-        <v>1.38</v>
+        <v>9.01</v>
       </c>
       <c r="F268" s="7" t="n">
-        <v>500</v>
+        <v>471</v>
       </c>
       <c r="G268" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="H268" s="16" t="n">
-        <v>21.01</v>
+        <v>4.02</v>
       </c>
       <c r="J268" s="5" t="n"/>
       <c r="L268" s="14" t="inlineStr">
@@ -57437,30 +57479,30 @@
     <row r="269" ht="13" customHeight="1">
       <c r="B269" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C269" s="7" t="inlineStr">
         <is>
-          <t>Signe Njerve</t>
+          <t>Anna Kjønø</t>
         </is>
       </c>
       <c r="D269" s="7" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E269" s="15" t="n">
-        <v>2.15</v>
+        <v>1.35</v>
       </c>
       <c r="F269" s="7" t="n">
         <v>470</v>
       </c>
       <c r="G269" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H269" s="16" t="n">
-        <v>24.06</v>
+        <v>12.02</v>
       </c>
       <c r="J269" s="5" t="n"/>
       <c r="L269" s="14" t="inlineStr">
@@ -57500,21 +57542,21 @@
       </c>
       <c r="C270" s="7" t="inlineStr">
         <is>
-          <t>Lisa Askeland</t>
+          <t>Anna Kjønø</t>
         </is>
       </c>
       <c r="D270" s="7" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E270" s="15" t="n">
-        <v>9.140000000000001</v>
+        <v>9.08</v>
       </c>
       <c r="F270" s="7" t="n">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="G270" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H270" s="16" t="n">
@@ -57553,30 +57595,30 @@
     <row r="271" ht="13" customHeight="1">
       <c r="B271" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C271" s="7" t="inlineStr">
         <is>
-          <t>Lisa Askeland</t>
+          <t>Anna Kjønø</t>
         </is>
       </c>
       <c r="D271" s="7" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E271" s="15" t="n">
-        <v>1.25</v>
+        <v>4.27</v>
       </c>
       <c r="F271" s="7" t="n">
-        <v>362</v>
+        <v>454</v>
       </c>
       <c r="G271" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="H271" s="16" t="n">
-        <v>11.02</v>
+        <v>12.03</v>
       </c>
       <c r="J271" s="5" t="n"/>
       <c r="L271" s="14" t="inlineStr">
@@ -57611,30 +57653,30 @@
     <row r="272" ht="13" customHeight="1">
       <c r="B272" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C272" s="7" t="inlineStr">
         <is>
-          <t>Mari Lind Aasen</t>
+          <t>Helene Korsmo Walskrå</t>
         </is>
       </c>
       <c r="D272" s="7" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E272" s="15" t="n">
-        <v>9.710000000000001</v>
+        <v>30.12</v>
       </c>
       <c r="F272" s="7" t="n">
-        <v>325</v>
+        <v>444</v>
       </c>
       <c r="G272" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="H272" s="16" t="n">
-        <v>3.06</v>
+        <v>12.03</v>
       </c>
       <c r="J272" s="5" t="n"/>
       <c r="L272" s="14" t="inlineStr">
@@ -57671,30 +57713,30 @@
     <row r="273" ht="13" customHeight="1">
       <c r="B273" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C273" s="7" t="inlineStr">
         <is>
-          <t>Mari Lind Aasen</t>
+          <t>Tuva Helene Rugsveen</t>
         </is>
       </c>
       <c r="D273" s="7" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E273" s="15" t="n">
-        <v>15.45</v>
+        <v>4.04</v>
       </c>
       <c r="F273" s="7" t="n">
-        <v>315</v>
+        <v>397</v>
       </c>
       <c r="G273" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H273" s="16" t="n">
-        <v>4.06</v>
+        <v>22.04</v>
       </c>
       <c r="J273" s="5" t="n"/>
       <c r="L273" s="14" t="inlineStr">
@@ -57729,30 +57771,30 @@
     <row r="274" ht="13" customHeight="1">
       <c r="B274" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C274" s="7" t="inlineStr">
         <is>
-          <t>Amalie Husebø</t>
+          <t>Helene Korsmo Walskrå</t>
         </is>
       </c>
       <c r="D274" s="7" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E274" s="15" t="n">
-        <v>9.82</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="F274" s="7" t="n">
-        <v>304</v>
+        <v>376</v>
       </c>
       <c r="G274" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H274" s="16" t="n">
-        <v>4.02</v>
+        <v>12.02</v>
       </c>
       <c r="J274" s="5" t="n"/>
       <c r="L274" s="14" t="inlineStr">
@@ -57817,7 +57859,7 @@
         </is>
       </c>
       <c r="F276" s="20" t="n">
-        <v>5624</v>
+        <v>5638</v>
       </c>
       <c r="J276" s="5" t="n"/>
       <c r="L276" s="19" t="inlineStr">
@@ -57849,7 +57891,7 @@
         </is>
       </c>
       <c r="C278" s="20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E278" s="19" t="inlineStr">
         <is>
@@ -57857,7 +57899,7 @@
         </is>
       </c>
       <c r="F278" s="20" t="n">
-        <v>11991</v>
+        <v>12599</v>
       </c>
       <c r="J278" s="5" t="n"/>
       <c r="L278" s="19" t="inlineStr">
@@ -57889,7 +57931,7 @@
         </is>
       </c>
       <c r="C280" s="20" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J280" s="5" t="n"/>
       <c r="L280" s="19" t="inlineStr">

--- a/output/Lagserien 2023 1-2. div.xlsx
+++ b/output/Lagserien 2023 1-2. div.xlsx
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>20220</v>
+        <v>20396</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
@@ -14015,25 +14015,25 @@
       </c>
       <c r="C302" s="7" t="inlineStr">
         <is>
-          <t>Torjus Østebø</t>
+          <t>Aleksander Aarestrup</t>
         </is>
       </c>
       <c r="D302" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E302" s="15" t="n">
-        <v>4.88</v>
+        <v>5.13</v>
       </c>
       <c r="F302" s="7" t="n">
-        <v>342</v>
+        <v>403</v>
       </c>
       <c r="G302" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="H302" s="16" t="n">
-        <v>14.02</v>
+        <v>26.07</v>
       </c>
       <c r="J302" s="5" t="n"/>
       <c r="L302" s="14" t="inlineStr">
@@ -14073,25 +14073,25 @@
       </c>
       <c r="C303" s="7" t="inlineStr">
         <is>
-          <t>Sebastian Rueda Svendsen</t>
+          <t>Torjus Østebø</t>
         </is>
       </c>
       <c r="D303" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E303" s="15" t="n">
-        <v>4.82</v>
+        <v>4.88</v>
       </c>
       <c r="F303" s="7" t="n">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="G303" s="7" t="inlineStr">
         <is>
-          <t>Ålgård</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H303" s="16" t="n">
-        <v>10.06</v>
+        <v>14.02</v>
       </c>
       <c r="J303" s="5" t="n"/>
       <c r="L303" s="14" t="inlineStr">
@@ -14131,25 +14131,25 @@
       </c>
       <c r="C304" s="7" t="inlineStr">
         <is>
-          <t>Sander Stoltenberg</t>
+          <t>Sebastian Rueda Svendsen</t>
         </is>
       </c>
       <c r="D304" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="E304" s="15" t="n">
-        <v>4.42</v>
+        <v>4.82</v>
       </c>
       <c r="F304" s="7" t="n">
-        <v>227</v>
+        <v>327</v>
       </c>
       <c r="G304" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Ålgård</t>
         </is>
       </c>
       <c r="H304" s="16" t="n">
-        <v>4.02</v>
+        <v>10.06</v>
       </c>
       <c r="J304" s="5" t="n"/>
       <c r="L304" s="14" t="inlineStr">
@@ -14214,7 +14214,7 @@
         </is>
       </c>
       <c r="F306" s="20" t="n">
-        <v>10080</v>
+        <v>10256</v>
       </c>
       <c r="J306" s="5" t="n"/>
       <c r="L306" s="19" t="inlineStr">
@@ -14254,7 +14254,7 @@
         </is>
       </c>
       <c r="F308" s="20" t="n">
-        <v>20220</v>
+        <v>20396</v>
       </c>
       <c r="J308" s="5" t="n"/>
       <c r="L308" s="19" t="inlineStr">
@@ -30332,7 +30332,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>20817</v>
+        <v>20915</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -39951,19 +39951,19 @@
       </c>
       <c r="O222" s="17" t="inlineStr">
         <is>
-          <t>4,19,15</t>
+          <t>4,14,06</t>
         </is>
       </c>
       <c r="P222" s="7" t="n">
-        <v>871</v>
+        <v>913</v>
       </c>
       <c r="Q222" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>London/GBR</t>
         </is>
       </c>
       <c r="R222" s="16" t="n">
-        <v>8.07</v>
+        <v>26.07</v>
       </c>
       <c r="T222" s="5" t="n"/>
     </row>
@@ -40549,7 +40549,7 @@
         </is>
       </c>
       <c r="P233" s="20" t="n">
-        <v>11423</v>
+        <v>11465</v>
       </c>
       <c r="T233" s="5" t="n"/>
     </row>
@@ -40693,19 +40693,19 @@
       </c>
       <c r="O238" s="17" t="inlineStr">
         <is>
-          <t>4,30,89</t>
+          <t>4,23,03</t>
         </is>
       </c>
       <c r="P238" s="7" t="n">
-        <v>784</v>
+        <v>840</v>
       </c>
       <c r="Q238" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>London/GBR</t>
         </is>
       </c>
       <c r="R238" s="16" t="n">
-        <v>26.06</v>
+        <v>26.07</v>
       </c>
       <c r="T238" s="5" t="n"/>
     </row>
@@ -41579,7 +41579,7 @@
         </is>
       </c>
       <c r="P254" s="20" t="n">
-        <v>9394</v>
+        <v>9450</v>
       </c>
       <c r="T254" s="5" t="n"/>
     </row>
@@ -41619,7 +41619,7 @@
         </is>
       </c>
       <c r="P256" s="20" t="n">
-        <v>20817</v>
+        <v>20915</v>
       </c>
       <c r="T256" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2023 1-2. div.xlsx
+++ b/output/Lagserien 2023 1-2. div.xlsx
@@ -656,11 +656,11 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>(30/18)</t>
+          <t>(30/17)</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>24674</v>
+        <v>24719</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>23661</v>
+        <v>23678</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -4288,18 +4288,18 @@
         <v>1999</v>
       </c>
       <c r="E75" s="15" t="n">
-        <v>76.05</v>
+        <v>76.94</v>
       </c>
       <c r="F75" s="7" t="n">
-        <v>988</v>
+        <v>1000</v>
       </c>
       <c r="G75" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leverkusen/GER</t>
         </is>
       </c>
       <c r="H75" s="16" t="n">
-        <v>17.06</v>
+        <v>29.07</v>
       </c>
       <c r="J75" s="5" t="n"/>
       <c r="L75" s="14" t="n"/>
@@ -4344,7 +4344,7 @@
         </is>
       </c>
       <c r="F77" s="20" t="n">
-        <v>12623</v>
+        <v>12635</v>
       </c>
       <c r="J77" s="5" t="n"/>
       <c r="L77" s="19" t="inlineStr">
@@ -4817,25 +4817,25 @@
       </c>
       <c r="C88" s="7" t="inlineStr">
         <is>
-          <t>Christopher Ekene Nordlie</t>
+          <t>Edem Schaanning Agbo</t>
         </is>
       </c>
       <c r="D88" s="7" t="n">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="E88" s="15" t="n">
-        <v>22</v>
+        <v>21.92</v>
       </c>
       <c r="F88" s="7" t="n">
-        <v>860</v>
+        <v>870</v>
       </c>
       <c r="G88" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H88" s="16" t="n">
-        <v>17.06</v>
+        <v>27.07</v>
       </c>
       <c r="J88" s="5" t="n"/>
       <c r="L88" s="14" t="inlineStr">
@@ -4870,30 +4870,30 @@
     <row r="89" ht="13" customHeight="1">
       <c r="B89" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C89" s="7" t="inlineStr">
         <is>
-          <t>Stephan Skogheim Kyeremeh</t>
+          <t>Christopher Ekene Nordlie</t>
         </is>
       </c>
       <c r="D89" s="7" t="n">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="E89" s="15" t="n">
-        <v>10.99</v>
+        <v>22</v>
       </c>
       <c r="F89" s="7" t="n">
-        <v>844</v>
+        <v>860</v>
       </c>
       <c r="G89" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H89" s="16" t="n">
-        <v>3.06</v>
+        <v>17.06</v>
       </c>
       <c r="J89" s="5" t="n"/>
       <c r="L89" s="14" t="inlineStr">
@@ -4928,30 +4928,30 @@
     <row r="90" ht="13" customHeight="1">
       <c r="B90" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C90" s="7" t="inlineStr">
         <is>
-          <t>Bereket Geda Wayu</t>
+          <t>Stephan Skogheim Kyeremeh</t>
         </is>
       </c>
       <c r="D90" s="7" t="n">
         <v>2001</v>
       </c>
       <c r="E90" s="15" t="n">
-        <v>22.16</v>
+        <v>10.99</v>
       </c>
       <c r="F90" s="7" t="n">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="G90" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H90" s="16" t="n">
-        <v>7.06</v>
+        <v>3.06</v>
       </c>
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="14" t="inlineStr">
@@ -4991,25 +4991,25 @@
       </c>
       <c r="C91" s="7" t="inlineStr">
         <is>
-          <t>Theodore Einar Fremstad-Waldron</t>
+          <t>Bereket Geda Wayu</t>
         </is>
       </c>
       <c r="D91" s="7" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="E91" s="15" t="n">
-        <v>22.2</v>
+        <v>22.16</v>
       </c>
       <c r="F91" s="7" t="n">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="G91" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="H91" s="16" t="n">
-        <v>12.02</v>
+        <v>7.06</v>
       </c>
       <c r="J91" s="5" t="n"/>
       <c r="L91" s="14" t="inlineStr">
@@ -5364,7 +5364,7 @@
         </is>
       </c>
       <c r="F98" s="20" t="n">
-        <v>12051</v>
+        <v>12084</v>
       </c>
       <c r="J98" s="5" t="n"/>
       <c r="L98" s="19" t="inlineStr">
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="F100" s="20" t="n">
-        <v>24674</v>
+        <v>24719</v>
       </c>
       <c r="J100" s="5" t="n"/>
       <c r="L100" s="19" t="inlineStr">
@@ -5436,7 +5436,7 @@
         </is>
       </c>
       <c r="C102" s="20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J102" s="5" t="n"/>
       <c r="L102" s="19" t="inlineStr">
@@ -6712,32 +6712,30 @@
       <c r="J134" s="5" t="n"/>
       <c r="L134" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M134" s="7" t="inlineStr">
         <is>
-          <t>Andreas Iden</t>
+          <t>Gjert Høie Sjursen</t>
         </is>
       </c>
       <c r="N134" s="7" t="n">
-        <v>1995</v>
-      </c>
-      <c r="O134" s="17" t="inlineStr">
-        <is>
-          <t>14,30,30</t>
-        </is>
+        <v>2000</v>
+      </c>
+      <c r="O134" s="15" t="n">
+        <v>22</v>
       </c>
       <c r="P134" s="7" t="n">
-        <v>842</v>
+        <v>860</v>
       </c>
       <c r="Q134" s="7" t="inlineStr">
         <is>
-          <t>Sollentuna/SWE</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R134" s="16" t="n">
-        <v>11.06</v>
+        <v>7.07</v>
       </c>
       <c r="T134" s="5" t="n"/>
     </row>
@@ -6772,7 +6770,7 @@
       <c r="J135" s="5" t="n"/>
       <c r="L135" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M135" s="7" t="inlineStr">
@@ -6785,19 +6783,19 @@
       </c>
       <c r="O135" s="17" t="inlineStr">
         <is>
-          <t>30,27,68</t>
+          <t>14,30,30</t>
         </is>
       </c>
       <c r="P135" s="7" t="n">
-        <v>834</v>
+        <v>842</v>
       </c>
       <c r="Q135" s="7" t="inlineStr">
         <is>
-          <t>London/GBR</t>
+          <t>Sollentuna/SWE</t>
         </is>
       </c>
       <c r="R135" s="16" t="n">
-        <v>20.05</v>
+        <v>11.06</v>
       </c>
       <c r="T135" s="5" t="n"/>
     </row>
@@ -6832,30 +6830,32 @@
       <c r="J136" s="5" t="n"/>
       <c r="L136" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M136" s="7" t="inlineStr">
         <is>
-          <t>Ilunga Josue Kongolo</t>
+          <t>Andreas Iden</t>
         </is>
       </c>
       <c r="N136" s="7" t="n">
-        <v>2002</v>
-      </c>
-      <c r="O136" s="15" t="n">
-        <v>7.07</v>
+        <v>1995</v>
+      </c>
+      <c r="O136" s="17" t="inlineStr">
+        <is>
+          <t>30,27,68</t>
+        </is>
       </c>
       <c r="P136" s="7" t="n">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="Q136" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>London/GBR</t>
         </is>
       </c>
       <c r="R136" s="16" t="n">
-        <v>18.02</v>
+        <v>20.05</v>
       </c>
       <c r="T136" s="5" t="n"/>
     </row>
@@ -6890,30 +6890,30 @@
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M137" s="7" t="inlineStr">
         <is>
-          <t>Ole Martin Flatjord</t>
+          <t>Ilunga Josue Kongolo</t>
         </is>
       </c>
       <c r="N137" s="7" t="n">
-        <v>1994</v>
+        <v>2002</v>
       </c>
       <c r="O137" s="15" t="n">
-        <v>49.51</v>
+        <v>7.07</v>
       </c>
       <c r="P137" s="7" t="n">
-        <v>809</v>
+        <v>832</v>
       </c>
       <c r="Q137" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R137" s="16" t="n">
-        <v>28.06</v>
+        <v>18.02</v>
       </c>
       <c r="T137" s="5" t="n"/>
     </row>
@@ -6948,30 +6948,30 @@
       <c r="J138" s="5" t="n"/>
       <c r="L138" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M138" s="7" t="inlineStr">
         <is>
-          <t>Sindre Strønstad-Løseth</t>
+          <t>Ole Martin Flatjord</t>
         </is>
       </c>
       <c r="N138" s="7" t="n">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="O138" s="15" t="n">
-        <v>22.47</v>
+        <v>49.51</v>
       </c>
       <c r="P138" s="7" t="n">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="Q138" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R138" s="16" t="n">
-        <v>16.05</v>
+        <v>28.06</v>
       </c>
       <c r="T138" s="5" t="n"/>
     </row>
@@ -7006,32 +7006,30 @@
       <c r="J139" s="5" t="n"/>
       <c r="L139" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M139" s="7" t="inlineStr">
         <is>
-          <t>Philip Anders Anthelme Massacand</t>
+          <t>Sindre Strønstad-Løseth</t>
         </is>
       </c>
       <c r="N139" s="7" t="n">
-        <v>2002</v>
-      </c>
-      <c r="O139" s="17" t="inlineStr">
-        <is>
-          <t>8,33,37</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="O139" s="15" t="n">
+        <v>22.47</v>
       </c>
       <c r="P139" s="7" t="n">
-        <v>798</v>
+        <v>806</v>
       </c>
       <c r="Q139" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R139" s="16" t="n">
-        <v>19.02</v>
+        <v>16.05</v>
       </c>
       <c r="T139" s="5" t="n"/>
     </row>
@@ -7071,27 +7069,27 @@
       </c>
       <c r="M140" s="7" t="inlineStr">
         <is>
-          <t>Tobias Allers-Hansen</t>
+          <t>Philip Anders Anthelme Massacand</t>
         </is>
       </c>
       <c r="N140" s="7" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="O140" s="17" t="inlineStr">
         <is>
-          <t>8,41,04</t>
+          <t>8,33,37</t>
         </is>
       </c>
       <c r="P140" s="7" t="n">
-        <v>765</v>
+        <v>798</v>
       </c>
       <c r="Q140" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R140" s="16" t="n">
-        <v>16.05</v>
+        <v>19.02</v>
       </c>
       <c r="T140" s="5" t="n"/>
     </row>
@@ -7126,30 +7124,32 @@
       <c r="J141" s="5" t="n"/>
       <c r="L141" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M141" s="7" t="inlineStr">
         <is>
-          <t>Ole Martin Flatjord</t>
+          <t>Tobias Allers-Hansen</t>
         </is>
       </c>
       <c r="N141" s="7" t="n">
-        <v>1994</v>
-      </c>
-      <c r="O141" s="15" t="n">
-        <v>22.93</v>
+        <v>2003</v>
+      </c>
+      <c r="O141" s="17" t="inlineStr">
+        <is>
+          <t>8,41,04</t>
+        </is>
       </c>
       <c r="P141" s="7" t="n">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="Q141" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R141" s="16" t="n">
-        <v>11.06</v>
+        <v>16.05</v>
       </c>
       <c r="T141" s="5" t="n"/>
     </row>
@@ -7184,32 +7184,30 @@
       <c r="J142" s="5" t="n"/>
       <c r="L142" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M142" s="7" t="inlineStr">
         <is>
-          <t>Andreas Fantoft</t>
+          <t>Ole Martin Flatjord</t>
         </is>
       </c>
       <c r="N142" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="O142" s="17" t="inlineStr">
-        <is>
-          <t>8,44,99</t>
-        </is>
+        <v>1994</v>
+      </c>
+      <c r="O142" s="15" t="n">
+        <v>22.93</v>
       </c>
       <c r="P142" s="7" t="n">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="Q142" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R142" s="16" t="n">
-        <v>1.06</v>
+        <v>11.06</v>
       </c>
       <c r="T142" s="5" t="n"/>
     </row>
@@ -7249,27 +7247,27 @@
       </c>
       <c r="M143" s="7" t="inlineStr">
         <is>
-          <t>Aleksander Hauge Øyen</t>
+          <t>Andreas Fantoft</t>
         </is>
       </c>
       <c r="N143" s="7" t="n">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="O143" s="17" t="inlineStr">
         <is>
-          <t>8,45,22</t>
+          <t>8,44,99</t>
         </is>
       </c>
       <c r="P143" s="7" t="n">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="Q143" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R143" s="16" t="n">
-        <v>16.05</v>
+        <v>1.06</v>
       </c>
       <c r="T143" s="5" t="n"/>
     </row>
@@ -7362,30 +7360,30 @@
       <c r="J145" s="5" t="n"/>
       <c r="L145" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M145" s="7" t="inlineStr">
         <is>
-          <t>Gjert Høie Sjursen</t>
+          <t>Oscar Ellingsen</t>
         </is>
       </c>
       <c r="N145" s="7" t="n">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="O145" s="15" t="n">
-        <v>1.84</v>
+        <v>1.5</v>
       </c>
       <c r="P145" s="7" t="n">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="Q145" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R145" s="16" t="n">
-        <v>20.05</v>
+        <v>18.02</v>
       </c>
       <c r="T145" s="5" t="n"/>
     </row>
@@ -7420,30 +7418,30 @@
       <c r="J146" s="5" t="n"/>
       <c r="L146" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M146" s="7" t="inlineStr">
         <is>
-          <t>Oscar Ellingsen</t>
+          <t>Oskar Gjertsen Trumpy</t>
         </is>
       </c>
       <c r="N146" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="O146" s="15" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="P146" s="7" t="n">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="Q146" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Rosendal</t>
         </is>
       </c>
       <c r="R146" s="16" t="n">
-        <v>18.02</v>
+        <v>27.05</v>
       </c>
       <c r="T146" s="5" t="n"/>
     </row>
@@ -7478,30 +7476,30 @@
       <c r="J147" s="5" t="n"/>
       <c r="L147" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M147" s="7" t="inlineStr">
         <is>
-          <t>Oskar Gjertsen Trumpy</t>
+          <t>Thomas Brattaule</t>
         </is>
       </c>
       <c r="N147" s="7" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="O147" s="15" t="n">
-        <v>1.8</v>
+        <v>47.42</v>
       </c>
       <c r="P147" s="7" t="n">
-        <v>652</v>
+        <v>591</v>
       </c>
       <c r="Q147" s="7" t="inlineStr">
         <is>
-          <t>Rosendal</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="R147" s="16" t="n">
-        <v>27.05</v>
+        <v>29.07</v>
       </c>
       <c r="T147" s="5" t="n"/>
     </row>
@@ -7613,7 +7611,7 @@
         </is>
       </c>
       <c r="P150" s="20" t="n">
-        <v>11234</v>
+        <v>11251</v>
       </c>
       <c r="T150" s="5" t="n"/>
     </row>
@@ -7653,7 +7651,7 @@
         </is>
       </c>
       <c r="P152" s="20" t="n">
-        <v>23661</v>
+        <v>23678</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
@@ -16706,20 +16704,20 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Fyllingen IL</t>
+          <t>Ask Friidrett</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>(23/11)</t>
+          <t>(25/14)</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>15322</v>
+        <v>15371</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>(4/3d)</t>
+          <t>(11/1d)</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
@@ -16734,25 +16732,25 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Sørild FIK</t>
+          <t>Fyllingen IL</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>(25/12)</t>
+          <t>(23/11)</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>15273</v>
+        <v>15322</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>(3/3d)</t>
+          <t>(4/3d)</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -16762,25 +16760,25 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>IK Hind</t>
+          <t>Sørild FIK</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>(25/11)</t>
+          <t>(25/12)</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>15161</v>
+        <v>15273</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>(10)</t>
+          <t>(3/3d)</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Agder</t>
         </is>
       </c>
     </row>
@@ -16790,25 +16788,25 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Ask Friidrett</t>
+          <t>IK Hind</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>(25/14)</t>
+          <t>(25/11)</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>14778</v>
+        <v>15161</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>(11/1d)</t>
+          <t>(10)</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Troms</t>
         </is>
       </c>
     </row>
@@ -22691,7 +22689,7 @@
       </c>
       <c r="M144" s="7" t="inlineStr">
         <is>
-          <t>Fyllingen IL</t>
+          <t>Ask Friidrett</t>
         </is>
       </c>
       <c r="T144" s="5" t="n"/>
@@ -22848,17 +22846,17 @@
       </c>
       <c r="M150" s="7" t="inlineStr">
         <is>
-          <t>Emil Gundersen</t>
+          <t>Daniel Alejandro Johnsen</t>
         </is>
       </c>
       <c r="N150" s="7" t="n">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="O150" s="15" t="n">
-        <v>7.04</v>
+        <v>6.89</v>
       </c>
       <c r="P150" s="7" t="n">
-        <v>845</v>
+        <v>915</v>
       </c>
       <c r="Q150" s="7" t="inlineStr">
         <is>
@@ -22866,7 +22864,7 @@
         </is>
       </c>
       <c r="R150" s="16" t="n">
-        <v>11.02</v>
+        <v>21.01</v>
       </c>
       <c r="T150" s="5" t="n"/>
     </row>
@@ -22906,17 +22904,17 @@
       </c>
       <c r="M151" s="7" t="inlineStr">
         <is>
-          <t>Emil Gundersen</t>
+          <t>Daniel Alejandro Johnsen</t>
         </is>
       </c>
       <c r="N151" s="7" t="n">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="O151" s="15" t="n">
-        <v>10.84</v>
+        <v>10.67</v>
       </c>
       <c r="P151" s="7" t="n">
-        <v>883</v>
+        <v>929</v>
       </c>
       <c r="Q151" s="7" t="inlineStr">
         <is>
@@ -22964,25 +22962,25 @@
       </c>
       <c r="M152" s="7" t="inlineStr">
         <is>
-          <t>Emil Gundersen</t>
+          <t>Daniel Alejandro Johnsen</t>
         </is>
       </c>
       <c r="N152" s="7" t="n">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="O152" s="15" t="n">
-        <v>21.96</v>
+        <v>22.21</v>
       </c>
       <c r="P152" s="7" t="n">
-        <v>865</v>
+        <v>836</v>
       </c>
       <c r="Q152" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R152" s="16" t="n">
-        <v>2.07</v>
+        <v>8.07</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
@@ -23022,17 +23020,17 @@
       </c>
       <c r="M153" s="7" t="inlineStr">
         <is>
-          <t>Øyvind Magnus Morstøl</t>
+          <t>Jon-Henning Hilleren</t>
         </is>
       </c>
       <c r="N153" s="7" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="O153" s="15" t="n">
-        <v>53.59</v>
+        <v>51.28</v>
       </c>
       <c r="P153" s="7" t="n">
-        <v>620</v>
+        <v>721</v>
       </c>
       <c r="Q153" s="7" t="inlineStr">
         <is>
@@ -23082,19 +23080,19 @@
       </c>
       <c r="M154" s="7" t="inlineStr">
         <is>
-          <t>Øyvind Magnus Morstøl</t>
+          <t>Jon-Henning Hilleren</t>
         </is>
       </c>
       <c r="N154" s="7" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="O154" s="17" t="inlineStr">
         <is>
-          <t>2,00,34</t>
+          <t>1,58,45</t>
         </is>
       </c>
       <c r="P154" s="7" t="n">
-        <v>681</v>
+        <v>718</v>
       </c>
       <c r="Q154" s="7" t="inlineStr">
         <is>
@@ -23144,27 +23142,27 @@
       </c>
       <c r="M155" s="7" t="inlineStr">
         <is>
-          <t>Endre Hartvedt Haugen</t>
+          <t>Tobias Natland</t>
         </is>
       </c>
       <c r="N155" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="O155" s="17" t="inlineStr">
         <is>
-          <t>4,10,05</t>
+          <t>4,28,05</t>
         </is>
       </c>
       <c r="P155" s="7" t="n">
-        <v>671</v>
+        <v>538</v>
       </c>
       <c r="Q155" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Rosendal</t>
         </is>
       </c>
       <c r="R155" s="16" t="n">
-        <v>11.02</v>
+        <v>28.05</v>
       </c>
       <c r="T155" s="5" t="n"/>
     </row>
@@ -23206,27 +23204,27 @@
       </c>
       <c r="M156" s="7" t="inlineStr">
         <is>
-          <t>Sebastian Skoge-Nilsen</t>
+          <t>Marius Garmann Sørli</t>
         </is>
       </c>
       <c r="N156" s="7" t="n">
-        <v>2006</v>
+        <v>1997</v>
       </c>
       <c r="O156" s="17" t="inlineStr">
         <is>
-          <t>9,30,72</t>
+          <t>8,21,68</t>
         </is>
       </c>
       <c r="P156" s="7" t="n">
-        <v>580</v>
+        <v>851</v>
       </c>
       <c r="Q156" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Førde</t>
         </is>
       </c>
       <c r="R156" s="16" t="n">
-        <v>16.06</v>
+        <v>16.05</v>
       </c>
       <c r="T156" s="5" t="n"/>
     </row>
@@ -23263,30 +23261,30 @@
       <c r="J157" s="5" t="n"/>
       <c r="L157" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M157" s="7" t="inlineStr">
         <is>
-          <t>David-George Stan</t>
+          <t>Henrik Villanger</t>
         </is>
       </c>
       <c r="N157" s="7" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="O157" s="15" t="n">
-        <v>1.32</v>
+        <v>4.75</v>
       </c>
       <c r="P157" s="7" t="n">
-        <v>125</v>
+        <v>310</v>
       </c>
       <c r="Q157" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Rosendal</t>
         </is>
       </c>
       <c r="R157" s="16" t="n">
-        <v>13.05</v>
+        <v>28.05</v>
       </c>
       <c r="T157" s="5" t="n"/>
     </row>
@@ -23321,30 +23319,30 @@
       <c r="J158" s="5" t="n"/>
       <c r="L158" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M158" s="7" t="inlineStr">
         <is>
-          <t>Linus August Rygh</t>
+          <t>Sander Feness Armond</t>
         </is>
       </c>
       <c r="N158" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="O158" s="15" t="n">
-        <v>6.59</v>
+        <v>10.62</v>
       </c>
       <c r="P158" s="7" t="n">
-        <v>738</v>
+        <v>403</v>
       </c>
       <c r="Q158" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="R158" s="16" t="n">
-        <v>1.07</v>
+        <v>7.06</v>
       </c>
       <c r="T158" s="5" t="n"/>
     </row>
@@ -23379,22 +23377,22 @@
       <c r="J159" s="5" t="n"/>
       <c r="L159" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M159" s="7" t="inlineStr">
         <is>
-          <t>Linus August Rygh</t>
+          <t>Haakon Brunborg</t>
         </is>
       </c>
       <c r="N159" s="7" t="n">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="O159" s="15" t="n">
-        <v>13.48</v>
+        <v>1.18</v>
       </c>
       <c r="P159" s="7" t="n">
-        <v>721</v>
+        <v>240</v>
       </c>
       <c r="Q159" s="7" t="inlineStr">
         <is>
@@ -23402,7 +23400,7 @@
         </is>
       </c>
       <c r="R159" s="16" t="n">
-        <v>21.01</v>
+        <v>10.02</v>
       </c>
       <c r="T159" s="5" t="n"/>
     </row>
@@ -23442,25 +23440,25 @@
       </c>
       <c r="M160" s="7" t="inlineStr">
         <is>
-          <t>Emil Gundersen</t>
+          <t>Elias Bergheim</t>
         </is>
       </c>
       <c r="N160" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="O160" s="15" t="n">
-        <v>2.97</v>
+        <v>2.88</v>
       </c>
       <c r="P160" s="7" t="n">
-        <v>655</v>
+        <v>605</v>
       </c>
       <c r="Q160" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="R160" s="16" t="n">
-        <v>19.02</v>
+        <v>31.07</v>
       </c>
       <c r="T160" s="5" t="n"/>
     </row>
@@ -23493,13 +23491,33 @@
         <v>13.04</v>
       </c>
       <c r="J161" s="5" t="n"/>
-      <c r="L161" s="14" t="n"/>
-      <c r="M161" s="7" t="n"/>
-      <c r="N161" s="7" t="n"/>
-      <c r="O161" s="7" t="n"/>
-      <c r="P161" s="7" t="n"/>
-      <c r="Q161" s="7" t="n"/>
-      <c r="R161" s="21" t="n"/>
+      <c r="L161" s="14" t="inlineStr">
+        <is>
+          <t>Kule</t>
+        </is>
+      </c>
+      <c r="M161" s="7" t="inlineStr">
+        <is>
+          <t>Erlend Bergfjord Næss</t>
+        </is>
+      </c>
+      <c r="N161" s="7" t="n">
+        <v>2002</v>
+      </c>
+      <c r="O161" s="15" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="P161" s="7" t="n">
+        <v>667</v>
+      </c>
+      <c r="Q161" s="7" t="inlineStr">
+        <is>
+          <t>Leikvang</t>
+        </is>
+      </c>
+      <c r="R161" s="16" t="n">
+        <v>21.01</v>
+      </c>
       <c r="T161" s="5" t="n"/>
     </row>
     <row r="162" ht="13" customHeight="1">
@@ -23531,13 +23549,33 @@
         <v>22.05</v>
       </c>
       <c r="J162" s="5" t="n"/>
-      <c r="L162" s="14" t="n"/>
-      <c r="M162" s="7" t="n"/>
-      <c r="N162" s="7" t="n"/>
-      <c r="O162" s="7" t="n"/>
-      <c r="P162" s="7" t="n"/>
-      <c r="Q162" s="7" t="n"/>
-      <c r="R162" s="21" t="n"/>
+      <c r="L162" s="14" t="inlineStr">
+        <is>
+          <t>Diskos</t>
+        </is>
+      </c>
+      <c r="M162" s="7" t="inlineStr">
+        <is>
+          <t>Erlend Bergfjord Næss</t>
+        </is>
+      </c>
+      <c r="N162" s="7" t="n">
+        <v>2002</v>
+      </c>
+      <c r="O162" s="15" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="P162" s="7" t="n">
+        <v>859</v>
+      </c>
+      <c r="Q162" s="7" t="inlineStr">
+        <is>
+          <t>Spikkestad</t>
+        </is>
+      </c>
+      <c r="R162" s="16" t="n">
+        <v>11.06</v>
+      </c>
       <c r="T162" s="5" t="n"/>
     </row>
     <row r="163" ht="13" customHeight="1">
@@ -23582,7 +23620,7 @@
         </is>
       </c>
       <c r="M164" s="20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O164" s="19" t="inlineStr">
         <is>
@@ -23590,7 +23628,7 @@
         </is>
       </c>
       <c r="P164" s="20" t="n">
-        <v>7384</v>
+        <v>8592</v>
       </c>
       <c r="T164" s="5" t="n"/>
     </row>
@@ -23721,30 +23759,30 @@
       <c r="J169" s="5" t="n"/>
       <c r="L169" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M169" s="7" t="inlineStr">
         <is>
-          <t>Remark Rrozhani</t>
+          <t>Vegard Fluge</t>
         </is>
       </c>
       <c r="N169" s="7" t="n">
-        <v>2004</v>
+        <v>1995</v>
       </c>
       <c r="O169" s="15" t="n">
-        <v>22.39</v>
+        <v>11.4</v>
       </c>
       <c r="P169" s="7" t="n">
-        <v>816</v>
+        <v>743</v>
       </c>
       <c r="Q169" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R169" s="16" t="n">
-        <v>12.02</v>
+        <v>3.06</v>
       </c>
       <c r="T169" s="5" t="n"/>
     </row>
@@ -23779,30 +23817,32 @@
       <c r="J170" s="5" t="n"/>
       <c r="L170" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M170" s="7" t="inlineStr">
         <is>
-          <t>Remark Rrozhani</t>
+          <t>Sigve Lillebø</t>
         </is>
       </c>
       <c r="N170" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="O170" s="15" t="n">
-        <v>11.18</v>
+        <v>2006</v>
+      </c>
+      <c r="O170" s="17" t="inlineStr">
+        <is>
+          <t>2,00,12</t>
+        </is>
       </c>
       <c r="P170" s="7" t="n">
-        <v>796</v>
+        <v>685</v>
       </c>
       <c r="Q170" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R170" s="16" t="n">
-        <v>4.06</v>
+        <v>17.06</v>
       </c>
       <c r="T170" s="5" t="n"/>
     </row>
@@ -23842,21 +23882,21 @@
       </c>
       <c r="M171" s="7" t="inlineStr">
         <is>
-          <t>Remark Rrozhani</t>
+          <t>Sander Feness Armond</t>
         </is>
       </c>
       <c r="N171" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="O171" s="15" t="n">
-        <v>7.19</v>
+        <v>7.48</v>
       </c>
       <c r="P171" s="7" t="n">
-        <v>781</v>
+        <v>668</v>
       </c>
       <c r="Q171" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R171" s="16" t="n">
@@ -23902,25 +23942,25 @@
       </c>
       <c r="M172" s="7" t="inlineStr">
         <is>
-          <t>Linus August Rygh</t>
+          <t>Sander Feness Armond</t>
         </is>
       </c>
       <c r="N172" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="O172" s="15" t="n">
-        <v>23.39</v>
+        <v>23.93</v>
       </c>
       <c r="P172" s="7" t="n">
-        <v>708</v>
+        <v>654</v>
       </c>
       <c r="Q172" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R172" s="16" t="n">
-        <v>28.01</v>
+        <v>16.05</v>
       </c>
       <c r="T172" s="5" t="n"/>
     </row>
@@ -23957,22 +23997,22 @@
       <c r="J173" s="5" t="n"/>
       <c r="L173" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M173" s="7" t="inlineStr">
         <is>
-          <t>Linus August Rygh</t>
+          <t>Sander Feness Armond</t>
         </is>
       </c>
       <c r="N173" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="O173" s="15" t="n">
-        <v>7.38</v>
+        <v>53.08</v>
       </c>
       <c r="P173" s="7" t="n">
-        <v>705</v>
+        <v>641</v>
       </c>
       <c r="Q173" s="7" t="inlineStr">
         <is>
@@ -23980,7 +24020,7 @@
         </is>
       </c>
       <c r="R173" s="16" t="n">
-        <v>11.02</v>
+        <v>18.06</v>
       </c>
       <c r="T173" s="5" t="n"/>
     </row>
@@ -24015,30 +24055,30 @@
       <c r="J174" s="5" t="n"/>
       <c r="L174" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M174" s="7" t="inlineStr">
         <is>
-          <t>Linus August Rygh</t>
+          <t>Sigve Lillebø</t>
         </is>
       </c>
       <c r="N174" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O174" s="15" t="n">
-        <v>11.65</v>
+        <v>53.35</v>
       </c>
       <c r="P174" s="7" t="n">
-        <v>686</v>
+        <v>630</v>
       </c>
       <c r="Q174" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R174" s="16" t="n">
-        <v>4.06</v>
+        <v>18.06</v>
       </c>
       <c r="T174" s="5" t="n"/>
     </row>
@@ -24080,25 +24120,25 @@
       </c>
       <c r="M175" s="7" t="inlineStr">
         <is>
-          <t>Lars Magnus Birketveit</t>
+          <t>Sigve Lillebø</t>
         </is>
       </c>
       <c r="N175" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="O175" s="15" t="n">
-        <v>23.66</v>
+        <v>24.54</v>
       </c>
       <c r="P175" s="7" t="n">
-        <v>681</v>
+        <v>596</v>
       </c>
       <c r="Q175" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="R175" s="16" t="n">
-        <v>2.07</v>
+        <v>7.06</v>
       </c>
       <c r="T175" s="5" t="n"/>
     </row>
@@ -24133,30 +24173,32 @@
       <c r="J176" s="5" t="n"/>
       <c r="L176" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M176" s="7" t="inlineStr">
         <is>
-          <t>Lars Magnus Birketveit</t>
+          <t>Tobias Natland</t>
         </is>
       </c>
       <c r="N176" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="O176" s="15" t="n">
-        <v>11.76</v>
+        <v>2005</v>
+      </c>
+      <c r="O176" s="17" t="inlineStr">
+        <is>
+          <t>2,06,11</t>
+        </is>
       </c>
       <c r="P176" s="7" t="n">
-        <v>662</v>
+        <v>581</v>
       </c>
       <c r="Q176" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="R176" s="16" t="n">
-        <v>25.06</v>
+        <v>7.06</v>
       </c>
       <c r="T176" s="5" t="n"/>
     </row>
@@ -24191,30 +24233,30 @@
       <c r="J177" s="5" t="n"/>
       <c r="L177" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M177" s="7" t="inlineStr">
         <is>
-          <t>Emil Gundersen</t>
+          <t>Sander Feness Armond</t>
         </is>
       </c>
       <c r="N177" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="O177" s="15" t="n">
-        <v>6.17</v>
+        <v>2.64</v>
       </c>
       <c r="P177" s="7" t="n">
-        <v>645</v>
+        <v>466</v>
       </c>
       <c r="Q177" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Askøy</t>
         </is>
       </c>
       <c r="R177" s="16" t="n">
-        <v>23.02</v>
+        <v>13.02</v>
       </c>
       <c r="T177" s="5" t="n"/>
     </row>
@@ -24249,30 +24291,30 @@
       <c r="J178" s="5" t="n"/>
       <c r="L178" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M178" s="7" t="inlineStr">
         <is>
-          <t>Oliver Taule Lindgren</t>
+          <t>Ole Magnus Villanger</t>
         </is>
       </c>
       <c r="N178" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="O178" s="15" t="n">
-        <v>5.67</v>
+        <v>2.62</v>
       </c>
       <c r="P178" s="7" t="n">
-        <v>530</v>
+        <v>453</v>
       </c>
       <c r="Q178" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="R178" s="16" t="n">
-        <v>4.03</v>
+        <v>31.07</v>
       </c>
       <c r="T178" s="5" t="n"/>
     </row>
@@ -24307,30 +24349,30 @@
       <c r="J179" s="5" t="n"/>
       <c r="L179" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M179" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Boge Stenerud</t>
+          <t>Bjørn Fluge</t>
         </is>
       </c>
       <c r="N179" s="7" t="n">
-        <v>2008</v>
+        <v>1960</v>
       </c>
       <c r="O179" s="15" t="n">
-        <v>11.5</v>
+        <v>2.49</v>
       </c>
       <c r="P179" s="7" t="n">
-        <v>504</v>
+        <v>359</v>
       </c>
       <c r="Q179" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Askøy</t>
         </is>
       </c>
       <c r="R179" s="16" t="n">
-        <v>17.06</v>
+        <v>13.02</v>
       </c>
       <c r="T179" s="5" t="n"/>
     </row>
@@ -24370,17 +24412,17 @@
       </c>
       <c r="M180" s="7" t="inlineStr">
         <is>
-          <t>Jonas Langeland Andersen</t>
+          <t>Øyvind Kolstad Silseth</t>
         </is>
       </c>
       <c r="N180" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="O180" s="15" t="n">
-        <v>5.22</v>
+        <v>4.72</v>
       </c>
       <c r="P180" s="7" t="n">
-        <v>424</v>
+        <v>303</v>
       </c>
       <c r="Q180" s="7" t="inlineStr">
         <is>
@@ -24388,7 +24430,7 @@
         </is>
       </c>
       <c r="R180" s="16" t="n">
-        <v>23.02</v>
+        <v>22.01</v>
       </c>
       <c r="T180" s="5" t="n"/>
     </row>
@@ -24442,7 +24484,7 @@
         </is>
       </c>
       <c r="P182" s="20" t="n">
-        <v>7938</v>
+        <v>6779</v>
       </c>
       <c r="T182" s="5" t="n"/>
     </row>
@@ -24474,7 +24516,7 @@
         </is>
       </c>
       <c r="M184" s="20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O184" s="19" t="inlineStr">
         <is>
@@ -24482,7 +24524,7 @@
         </is>
       </c>
       <c r="P184" s="20" t="n">
-        <v>15322</v>
+        <v>15371</v>
       </c>
       <c r="T184" s="5" t="n"/>
     </row>
@@ -24506,7 +24548,7 @@
         </is>
       </c>
       <c r="M186" s="20" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="T186" s="5" t="n"/>
     </row>
@@ -24548,7 +24590,7 @@
       </c>
       <c r="C190" s="7" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="F190" s="8" t="n">
@@ -24562,7 +24604,7 @@
       </c>
       <c r="M190" s="7" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Agder</t>
         </is>
       </c>
       <c r="P190" s="8" t="n">
@@ -24578,7 +24620,7 @@
       </c>
       <c r="C191" s="7" t="inlineStr">
         <is>
-          <t>Sørild FIK</t>
+          <t>Fyllingen IL</t>
         </is>
       </c>
       <c r="J191" s="5" t="n"/>
@@ -24589,7 +24631,7 @@
       </c>
       <c r="M191" s="7" t="inlineStr">
         <is>
-          <t>IK Hind</t>
+          <t>Sørild FIK</t>
         </is>
       </c>
       <c r="T191" s="5" t="n"/>
@@ -24718,25 +24760,25 @@
       </c>
       <c r="C197" s="7" t="inlineStr">
         <is>
-          <t>Even Meinseth</t>
+          <t>Emil Gundersen</t>
         </is>
       </c>
       <c r="D197" s="7" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="E197" s="15" t="n">
-        <v>6.69</v>
+        <v>7.04</v>
       </c>
       <c r="F197" s="7" t="n">
-        <v>1015</v>
+        <v>845</v>
       </c>
       <c r="G197" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H197" s="16" t="n">
-        <v>2.02</v>
+        <v>11.02</v>
       </c>
       <c r="J197" s="5" t="n"/>
       <c r="L197" s="14" t="inlineStr">
@@ -24746,25 +24788,25 @@
       </c>
       <c r="M197" s="7" t="inlineStr">
         <is>
-          <t>Birk Arvola</t>
+          <t>Even Meinseth</t>
         </is>
       </c>
       <c r="N197" s="7" t="n">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="O197" s="15" t="n">
-        <v>7.65</v>
+        <v>6.69</v>
       </c>
       <c r="P197" s="7" t="n">
-        <v>607</v>
+        <v>1015</v>
       </c>
       <c r="Q197" s="7" t="inlineStr">
         <is>
-          <t>Sortland</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R197" s="16" t="n">
-        <v>18.02</v>
+        <v>2.02</v>
       </c>
       <c r="T197" s="5" t="n"/>
     </row>
@@ -24776,17 +24818,17 @@
       </c>
       <c r="C198" s="7" t="inlineStr">
         <is>
-          <t>Elias Solheim Sollid</t>
+          <t>Emil Gundersen</t>
         </is>
       </c>
       <c r="D198" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="E198" s="15" t="n">
-        <v>10.98</v>
+        <v>10.84</v>
       </c>
       <c r="F198" s="7" t="n">
-        <v>846</v>
+        <v>883</v>
       </c>
       <c r="G198" s="7" t="inlineStr">
         <is>
@@ -24804,25 +24846,25 @@
       </c>
       <c r="M198" s="7" t="inlineStr">
         <is>
-          <t>Birk Arvola</t>
+          <t>Elias Solheim Sollid</t>
         </is>
       </c>
       <c r="N198" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="O198" s="15" t="n">
-        <v>11.76</v>
+        <v>10.98</v>
       </c>
       <c r="P198" s="7" t="n">
-        <v>662</v>
+        <v>846</v>
       </c>
       <c r="Q198" s="7" t="inlineStr">
         <is>
-          <t>Narvik</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R198" s="16" t="n">
-        <v>10.06</v>
+        <v>25.06</v>
       </c>
       <c r="T198" s="5" t="n"/>
     </row>
@@ -24834,25 +24876,25 @@
       </c>
       <c r="C199" s="7" t="inlineStr">
         <is>
-          <t>Even Meinseth</t>
+          <t>Emil Gundersen</t>
         </is>
       </c>
       <c r="D199" s="7" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="E199" s="15" t="n">
-        <v>21.19</v>
+        <v>21.96</v>
       </c>
       <c r="F199" s="7" t="n">
-        <v>960</v>
+        <v>865</v>
       </c>
       <c r="G199" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H199" s="16" t="n">
-        <v>15.06</v>
+        <v>2.07</v>
       </c>
       <c r="J199" s="5" t="n"/>
       <c r="L199" s="14" t="inlineStr">
@@ -24862,25 +24904,25 @@
       </c>
       <c r="M199" s="7" t="inlineStr">
         <is>
-          <t>Tobias Johansen</t>
+          <t>Even Meinseth</t>
         </is>
       </c>
       <c r="N199" s="7" t="n">
-        <v>2003</v>
+        <v>1996</v>
       </c>
       <c r="O199" s="15" t="n">
-        <v>22.65</v>
+        <v>21.19</v>
       </c>
       <c r="P199" s="7" t="n">
-        <v>787</v>
+        <v>960</v>
       </c>
       <c r="Q199" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R199" s="16" t="n">
-        <v>12.02</v>
+        <v>15.06</v>
       </c>
       <c r="T199" s="5" t="n"/>
     </row>
@@ -24892,17 +24934,17 @@
       </c>
       <c r="C200" s="7" t="inlineStr">
         <is>
-          <t>Andreas Solheim Sollid</t>
+          <t>Øyvind Magnus Morstøl</t>
         </is>
       </c>
       <c r="D200" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E200" s="15" t="n">
-        <v>48.89</v>
+        <v>53.59</v>
       </c>
       <c r="F200" s="7" t="n">
-        <v>842</v>
+        <v>620</v>
       </c>
       <c r="G200" s="7" t="inlineStr">
         <is>
@@ -24920,17 +24962,17 @@
       </c>
       <c r="M200" s="7" t="inlineStr">
         <is>
-          <t>Tobias Johansen</t>
+          <t>Andreas Solheim Sollid</t>
         </is>
       </c>
       <c r="N200" s="7" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="O200" s="15" t="n">
-        <v>49.64</v>
+        <v>48.89</v>
       </c>
       <c r="P200" s="7" t="n">
-        <v>802</v>
+        <v>842</v>
       </c>
       <c r="Q200" s="7" t="inlineStr">
         <is>
@@ -24938,7 +24980,7 @@
         </is>
       </c>
       <c r="R200" s="16" t="n">
-        <v>11.02</v>
+        <v>18.06</v>
       </c>
       <c r="T200" s="5" t="n"/>
     </row>
@@ -24950,27 +24992,27 @@
       </c>
       <c r="C201" s="7" t="inlineStr">
         <is>
-          <t>Stian Flo</t>
+          <t>Øyvind Magnus Morstøl</t>
         </is>
       </c>
       <c r="D201" s="7" t="n">
-        <v>1985</v>
+        <v>2007</v>
       </c>
       <c r="E201" s="17" t="inlineStr">
         <is>
-          <t>1,59,87</t>
+          <t>2,00,34</t>
         </is>
       </c>
       <c r="F201" s="7" t="n">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="G201" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H201" s="16" t="n">
-        <v>14.05</v>
+        <v>17.06</v>
       </c>
       <c r="J201" s="5" t="n"/>
       <c r="L201" s="14" t="inlineStr">
@@ -24980,27 +25022,27 @@
       </c>
       <c r="M201" s="7" t="inlineStr">
         <is>
-          <t>Tobias Johansen</t>
+          <t>Stian Flo</t>
         </is>
       </c>
       <c r="N201" s="7" t="n">
-        <v>2003</v>
+        <v>1985</v>
       </c>
       <c r="O201" s="17" t="inlineStr">
         <is>
-          <t>2,04,49</t>
+          <t>1,59,87</t>
         </is>
       </c>
       <c r="P201" s="7" t="n">
-        <v>606</v>
+        <v>690</v>
       </c>
       <c r="Q201" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R201" s="16" t="n">
-        <v>19.02</v>
+        <v>14.05</v>
       </c>
       <c r="T201" s="5" t="n"/>
     </row>
@@ -25012,57 +25054,57 @@
       </c>
       <c r="C202" s="7" t="inlineStr">
         <is>
-          <t>Tobias Fretheim</t>
+          <t>Endre Hartvedt Haugen</t>
         </is>
       </c>
       <c r="D202" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E202" s="17" t="inlineStr">
         <is>
-          <t>4,24,24</t>
+          <t>4,10,05</t>
         </is>
       </c>
       <c r="F202" s="7" t="n">
-        <v>564</v>
+        <v>671</v>
       </c>
       <c r="G202" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H202" s="16" t="n">
-        <v>5.03</v>
+        <v>11.02</v>
       </c>
       <c r="J202" s="5" t="n"/>
       <c r="L202" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M202" s="7" t="inlineStr">
         <is>
-          <t>Kim-Roger Trøite</t>
+          <t>Tobias Fretheim</t>
         </is>
       </c>
       <c r="N202" s="7" t="n">
-        <v>1996</v>
+        <v>2005</v>
       </c>
       <c r="O202" s="17" t="inlineStr">
         <is>
-          <t>9,04,43</t>
+          <t>4,24,24</t>
         </is>
       </c>
       <c r="P202" s="7" t="n">
-        <v>672</v>
+        <v>564</v>
       </c>
       <c r="Q202" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R202" s="16" t="n">
-        <v>12.07</v>
+        <v>5.03</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
@@ -25074,57 +25116,57 @@
       </c>
       <c r="C203" s="7" t="inlineStr">
         <is>
-          <t>Tobias Fretheim</t>
+          <t>Sebastian Skoge-Nilsen</t>
         </is>
       </c>
       <c r="D203" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E203" s="17" t="inlineStr">
         <is>
-          <t>9,33,51</t>
+          <t>9,30,72</t>
         </is>
       </c>
       <c r="F203" s="7" t="n">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="G203" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H203" s="16" t="n">
-        <v>3.06</v>
+        <v>16.06</v>
       </c>
       <c r="J203" s="5" t="n"/>
       <c r="L203" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M203" s="7" t="inlineStr">
         <is>
-          <t>Torstein Svendsen</t>
+          <t>Tobias Fretheim</t>
         </is>
       </c>
       <c r="N203" s="7" t="n">
-        <v>1966</v>
+        <v>2005</v>
       </c>
       <c r="O203" s="17" t="inlineStr">
         <is>
-          <t>17,07,30</t>
+          <t>9,33,51</t>
         </is>
       </c>
       <c r="P203" s="7" t="n">
-        <v>522</v>
+        <v>571</v>
       </c>
       <c r="Q203" s="7" t="inlineStr">
         <is>
-          <t>Geithus</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R203" s="16" t="n">
-        <v>23.06</v>
+        <v>3.06</v>
       </c>
       <c r="T203" s="5" t="n"/>
     </row>
@@ -25136,55 +25178,53 @@
       </c>
       <c r="C204" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Askeland</t>
+          <t>David-George Stan</t>
         </is>
       </c>
       <c r="D204" s="7" t="n">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="E204" s="15" t="n">
-        <v>1.85</v>
+        <v>1.32</v>
       </c>
       <c r="F204" s="7" t="n">
-        <v>696</v>
+        <v>125</v>
       </c>
       <c r="G204" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H204" s="16" t="n">
-        <v>5.02</v>
+        <v>13.05</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M204" s="7" t="inlineStr">
         <is>
-          <t>Torstein Svendsen</t>
+          <t>Jonathan Askeland</t>
         </is>
       </c>
       <c r="N204" s="7" t="n">
-        <v>1966</v>
-      </c>
-      <c r="O204" s="17" t="inlineStr">
-        <is>
-          <t>36,43,03</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="O204" s="15" t="n">
+        <v>1.85</v>
       </c>
       <c r="P204" s="7" t="n">
-        <v>496</v>
+        <v>696</v>
       </c>
       <c r="Q204" s="7" t="inlineStr">
         <is>
-          <t>Geithus</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R204" s="16" t="n">
-        <v>25.06</v>
+        <v>5.02</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -25196,53 +25236,53 @@
       </c>
       <c r="C205" s="7" t="inlineStr">
         <is>
-          <t>Benjamin Fosseli Bye</t>
+          <t>Linus August Rygh</t>
         </is>
       </c>
       <c r="D205" s="7" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="E205" s="15" t="n">
-        <v>4.71</v>
+        <v>6.59</v>
       </c>
       <c r="F205" s="7" t="n">
-        <v>300</v>
+        <v>738</v>
       </c>
       <c r="G205" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H205" s="16" t="n">
-        <v>18.03</v>
+        <v>1.07</v>
       </c>
       <c r="J205" s="5" t="n"/>
       <c r="L205" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M205" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Gudheim Haraldstad</t>
+          <t>Benjamin Fosseli Bye</t>
         </is>
       </c>
       <c r="N205" s="7" t="n">
-        <v>2000</v>
+        <v>2009</v>
       </c>
       <c r="O205" s="15" t="n">
-        <v>1.75</v>
+        <v>4.71</v>
       </c>
       <c r="P205" s="7" t="n">
-        <v>607</v>
+        <v>300</v>
       </c>
       <c r="Q205" s="7" t="inlineStr">
         <is>
-          <t>Arvika/SWE</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R205" s="16" t="n">
-        <v>23.07</v>
+        <v>18.03</v>
       </c>
       <c r="T205" s="5" t="n"/>
     </row>
@@ -25254,25 +25294,25 @@
       </c>
       <c r="C206" s="7" t="inlineStr">
         <is>
-          <t>William Schlanbusch</t>
+          <t>Linus August Rygh</t>
         </is>
       </c>
       <c r="D206" s="7" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="E206" s="15" t="n">
-        <v>7.66</v>
+        <v>13.48</v>
       </c>
       <c r="F206" s="7" t="n">
-        <v>40</v>
+        <v>721</v>
       </c>
       <c r="G206" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H206" s="16" t="n">
-        <v>3.06</v>
+        <v>21.01</v>
       </c>
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="14" t="inlineStr">
@@ -25282,47 +25322,47 @@
       </c>
       <c r="M206" s="7" t="inlineStr">
         <is>
-          <t>Oskar Stattin</t>
+          <t>William Schlanbusch</t>
         </is>
       </c>
       <c r="N206" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="O206" s="15" t="n">
-        <v>11.78</v>
+        <v>7.66</v>
       </c>
       <c r="P206" s="7" t="n">
-        <v>535</v>
+        <v>40</v>
       </c>
       <c r="Q206" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R206" s="16" t="n">
-        <v>12.02</v>
+        <v>3.06</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
     <row r="207" ht="13" customHeight="1">
       <c r="B207" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C207" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Askeland</t>
+          <t>Emil Gundersen</t>
         </is>
       </c>
       <c r="D207" s="7" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E207" s="15" t="n">
-        <v>1.66</v>
+        <v>2.97</v>
       </c>
       <c r="F207" s="7" t="n">
-        <v>847</v>
+        <v>655</v>
       </c>
       <c r="G207" s="7" t="inlineStr">
         <is>
@@ -25330,151 +25370,111 @@
         </is>
       </c>
       <c r="H207" s="16" t="n">
-        <v>18.02</v>
+        <v>19.02</v>
       </c>
       <c r="J207" s="5" t="n"/>
       <c r="L207" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M207" s="7" t="inlineStr">
         <is>
-          <t>Oskar Stattin</t>
+          <t>Jonathan Askeland</t>
         </is>
       </c>
       <c r="N207" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="O207" s="15" t="n">
-        <v>2.76</v>
+        <v>1.66</v>
       </c>
       <c r="P207" s="7" t="n">
-        <v>538</v>
+        <v>847</v>
       </c>
       <c r="Q207" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R207" s="16" t="n">
-        <v>19.04</v>
+        <v>18.02</v>
       </c>
       <c r="T207" s="5" t="n"/>
     </row>
     <row r="208" ht="13" customHeight="1">
-      <c r="B208" s="14" t="inlineStr">
-        <is>
-          <t>Lengde u.t</t>
-        </is>
-      </c>
-      <c r="C208" s="7" t="inlineStr">
-        <is>
-          <t>Jonathan Askeland</t>
-        </is>
-      </c>
-      <c r="D208" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E208" s="15" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="F208" s="7" t="n">
-        <v>627</v>
-      </c>
-      <c r="G208" s="7" t="inlineStr">
-        <is>
-          <t>Bærum</t>
-        </is>
-      </c>
-      <c r="H208" s="16" t="n">
-        <v>19.02</v>
-      </c>
+      <c r="B208" s="14" t="n"/>
+      <c r="C208" s="7" t="n"/>
+      <c r="D208" s="7" t="n"/>
+      <c r="E208" s="7" t="n"/>
+      <c r="F208" s="7" t="n"/>
+      <c r="G208" s="7" t="n"/>
+      <c r="H208" s="21" t="n"/>
       <c r="J208" s="5" t="n"/>
       <c r="L208" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M208" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Gudheim Haraldstad</t>
+          <t>Jonathan Askeland</t>
         </is>
       </c>
       <c r="N208" s="7" t="n">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="O208" s="15" t="n">
-        <v>36.29</v>
+        <v>2.92</v>
       </c>
       <c r="P208" s="7" t="n">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="Q208" s="7" t="inlineStr">
         <is>
-          <t>Arvika/SWE</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R208" s="16" t="n">
-        <v>22.07</v>
+        <v>19.02</v>
       </c>
       <c r="T208" s="5" t="n"/>
     </row>
     <row r="209" ht="13" customHeight="1">
-      <c r="B209" s="14" t="inlineStr">
-        <is>
-          <t>Kule</t>
-        </is>
-      </c>
-      <c r="C209" s="7" t="inlineStr">
-        <is>
-          <t>Jonathan Askeland</t>
-        </is>
-      </c>
-      <c r="D209" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E209" s="15" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="F209" s="7" t="n">
-        <v>426</v>
-      </c>
-      <c r="G209" s="7" t="inlineStr">
-        <is>
-          <t>Sandnes</t>
-        </is>
-      </c>
-      <c r="H209" s="16" t="n">
-        <v>4.02</v>
-      </c>
+      <c r="B209" s="14" t="n"/>
+      <c r="C209" s="7" t="n"/>
+      <c r="D209" s="7" t="n"/>
+      <c r="E209" s="7" t="n"/>
+      <c r="F209" s="7" t="n"/>
+      <c r="G209" s="7" t="n"/>
+      <c r="H209" s="21" t="n"/>
       <c r="J209" s="5" t="n"/>
       <c r="L209" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M209" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Gudheim Haraldstad</t>
+          <t>Jonathan Askeland</t>
         </is>
       </c>
       <c r="N209" s="7" t="n">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="O209" s="15" t="n">
-        <v>52.72</v>
+        <v>9.69</v>
       </c>
       <c r="P209" s="7" t="n">
-        <v>663</v>
+        <v>426</v>
       </c>
       <c r="Q209" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R209" s="16" t="n">
-        <v>3.05</v>
+        <v>4.02</v>
       </c>
       <c r="T209" s="5" t="n"/>
     </row>
@@ -25503,7 +25503,7 @@
         </is>
       </c>
       <c r="C211" s="20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E211" s="19" t="inlineStr">
         <is>
@@ -25511,7 +25511,7 @@
         </is>
       </c>
       <c r="F211" s="20" t="n">
-        <v>8424</v>
+        <v>7384</v>
       </c>
       <c r="J211" s="5" t="n"/>
       <c r="L211" s="19" t="inlineStr">
@@ -25528,7 +25528,7 @@
         </is>
       </c>
       <c r="P211" s="20" t="n">
-        <v>8111</v>
+        <v>8424</v>
       </c>
       <c r="T211" s="5" t="n"/>
     </row>
@@ -25636,17 +25636,17 @@
       </c>
       <c r="C216" s="7" t="inlineStr">
         <is>
-          <t>Elias Solheim Sollid</t>
+          <t>Remark Rrozhani</t>
         </is>
       </c>
       <c r="D216" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="E216" s="15" t="n">
-        <v>21.91</v>
+        <v>22.39</v>
       </c>
       <c r="F216" s="7" t="n">
-        <v>871</v>
+        <v>816</v>
       </c>
       <c r="G216" s="7" t="inlineStr">
         <is>
@@ -25654,7 +25654,7 @@
         </is>
       </c>
       <c r="H216" s="16" t="n">
-        <v>17.06</v>
+        <v>12.02</v>
       </c>
       <c r="J216" s="5" t="n"/>
       <c r="L216" s="14" t="inlineStr">
@@ -25664,55 +25664,55 @@
       </c>
       <c r="M216" s="7" t="inlineStr">
         <is>
-          <t>Birk Arvola</t>
+          <t>Elias Solheim Sollid</t>
         </is>
       </c>
       <c r="N216" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="O216" s="15" t="n">
-        <v>23.88</v>
+        <v>21.91</v>
       </c>
       <c r="P216" s="7" t="n">
-        <v>659</v>
+        <v>871</v>
       </c>
       <c r="Q216" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R216" s="16" t="n">
-        <v>18.06</v>
+        <v>17.06</v>
       </c>
       <c r="T216" s="5" t="n"/>
     </row>
     <row r="217" ht="13" customHeight="1">
       <c r="B217" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C217" s="7" t="inlineStr">
         <is>
-          <t>Andreas Solheim Sollid</t>
+          <t>Remark Rrozhani</t>
         </is>
       </c>
       <c r="D217" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="E217" s="15" t="n">
-        <v>22.07</v>
+        <v>11.18</v>
       </c>
       <c r="F217" s="7" t="n">
-        <v>852</v>
+        <v>796</v>
       </c>
       <c r="G217" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H217" s="16" t="n">
-        <v>16.06</v>
+        <v>4.06</v>
       </c>
       <c r="J217" s="5" t="n"/>
       <c r="L217" s="14" t="inlineStr">
@@ -25722,17 +25722,17 @@
       </c>
       <c r="M217" s="7" t="inlineStr">
         <is>
-          <t>Oskar Stattin</t>
+          <t>Andreas Solheim Sollid</t>
         </is>
       </c>
       <c r="N217" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="O217" s="15" t="n">
-        <v>23.89</v>
+        <v>22.07</v>
       </c>
       <c r="P217" s="7" t="n">
-        <v>658</v>
+        <v>852</v>
       </c>
       <c r="Q217" s="7" t="inlineStr">
         <is>
@@ -25740,123 +25740,123 @@
         </is>
       </c>
       <c r="R217" s="16" t="n">
-        <v>12.02</v>
+        <v>16.06</v>
       </c>
       <c r="T217" s="5" t="n"/>
     </row>
     <row r="218" ht="13" customHeight="1">
       <c r="B218" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C218" s="7" t="inlineStr">
         <is>
-          <t>Andreas Solheim Sollid</t>
+          <t>Remark Rrozhani</t>
         </is>
       </c>
       <c r="D218" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="E218" s="15" t="n">
-        <v>11.06</v>
+        <v>7.19</v>
       </c>
       <c r="F218" s="7" t="n">
-        <v>826</v>
+        <v>781</v>
       </c>
       <c r="G218" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H218" s="16" t="n">
-        <v>3.06</v>
+        <v>11.02</v>
       </c>
       <c r="J218" s="5" t="n"/>
       <c r="L218" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M218" s="7" t="inlineStr">
         <is>
-          <t>Oskar Stattin</t>
+          <t>Andreas Solheim Sollid</t>
         </is>
       </c>
       <c r="N218" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="O218" s="15" t="n">
-        <v>52.77</v>
+        <v>11.06</v>
       </c>
       <c r="P218" s="7" t="n">
-        <v>654</v>
+        <v>826</v>
       </c>
       <c r="Q218" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R218" s="16" t="n">
-        <v>3.03</v>
+        <v>3.06</v>
       </c>
       <c r="T218" s="5" t="n"/>
     </row>
     <row r="219" ht="13" customHeight="1">
       <c r="B219" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C219" s="7" t="inlineStr">
         <is>
-          <t>Elias Solheim Sollid</t>
+          <t>Linus August Rygh</t>
         </is>
       </c>
       <c r="D219" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E219" s="15" t="n">
-        <v>7.14</v>
+        <v>23.39</v>
       </c>
       <c r="F219" s="7" t="n">
-        <v>802</v>
+        <v>708</v>
       </c>
       <c r="G219" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H219" s="16" t="n">
-        <v>11.02</v>
+        <v>28.01</v>
       </c>
       <c r="J219" s="5" t="n"/>
       <c r="L219" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M219" s="7" t="inlineStr">
         <is>
-          <t>Mathias Johansen</t>
+          <t>Elias Solheim Sollid</t>
         </is>
       </c>
       <c r="N219" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="O219" s="15" t="n">
-        <v>52.77</v>
+        <v>7.14</v>
       </c>
       <c r="P219" s="7" t="n">
-        <v>654</v>
+        <v>802</v>
       </c>
       <c r="Q219" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R219" s="16" t="n">
-        <v>24.06</v>
+        <v>11.02</v>
       </c>
       <c r="T219" s="5" t="n"/>
     </row>
@@ -25868,17 +25868,17 @@
       </c>
       <c r="C220" s="7" t="inlineStr">
         <is>
-          <t>Andreas Solheim Sollid</t>
+          <t>Linus August Rygh</t>
         </is>
       </c>
       <c r="D220" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E220" s="15" t="n">
-        <v>7.22</v>
+        <v>7.38</v>
       </c>
       <c r="F220" s="7" t="n">
-        <v>769</v>
+        <v>705</v>
       </c>
       <c r="G220" s="7" t="inlineStr">
         <is>
@@ -25891,32 +25891,30 @@
       <c r="J220" s="5" t="n"/>
       <c r="L220" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M220" s="7" t="inlineStr">
         <is>
-          <t>Per-Christian Myrnes Pedersen</t>
+          <t>Andreas Solheim Sollid</t>
         </is>
       </c>
       <c r="N220" s="7" t="n">
-        <v>1986</v>
-      </c>
-      <c r="O220" s="17" t="inlineStr">
-        <is>
-          <t>9,10,36</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="O220" s="15" t="n">
+        <v>7.22</v>
       </c>
       <c r="P220" s="7" t="n">
-        <v>649</v>
+        <v>769</v>
       </c>
       <c r="Q220" s="7" t="inlineStr">
         <is>
-          <t>Narvik</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R220" s="16" t="n">
-        <v>10.06</v>
+        <v>11.02</v>
       </c>
       <c r="T220" s="5" t="n"/>
     </row>
@@ -25928,345 +25926,343 @@
       </c>
       <c r="C221" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Askeland</t>
+          <t>Linus August Rygh</t>
         </is>
       </c>
       <c r="D221" s="7" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="E221" s="15" t="n">
-        <v>11.43</v>
+        <v>11.65</v>
       </c>
       <c r="F221" s="7" t="n">
-        <v>736</v>
+        <v>686</v>
       </c>
       <c r="G221" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H221" s="16" t="n">
-        <v>14.05</v>
+        <v>4.06</v>
       </c>
       <c r="J221" s="5" t="n"/>
       <c r="L221" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M221" s="7" t="inlineStr">
         <is>
-          <t>Birk Arvola</t>
+          <t>Jonathan Askeland</t>
         </is>
       </c>
       <c r="N221" s="7" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="O221" s="15" t="n">
-        <v>53.48</v>
+        <v>11.43</v>
       </c>
       <c r="P221" s="7" t="n">
-        <v>625</v>
+        <v>736</v>
       </c>
       <c r="Q221" s="7" t="inlineStr">
         <is>
-          <t>Narvik</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R221" s="16" t="n">
-        <v>10.06</v>
+        <v>14.05</v>
       </c>
       <c r="T221" s="5" t="n"/>
     </row>
     <row r="222" ht="13" customHeight="1">
       <c r="B222" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C222" s="7" t="inlineStr">
         <is>
-          <t>Marc  Christian Legayada Berntsen</t>
+          <t>Lars Magnus Birketveit</t>
         </is>
       </c>
       <c r="D222" s="7" t="n">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="E222" s="15" t="n">
-        <v>7.44</v>
+        <v>23.66</v>
       </c>
       <c r="F222" s="7" t="n">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G222" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H222" s="16" t="n">
-        <v>22.01</v>
+        <v>2.07</v>
       </c>
       <c r="J222" s="5" t="n"/>
       <c r="L222" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M222" s="7" t="inlineStr">
         <is>
-          <t>Mathias Johansen</t>
+          <t>Marc  Christian Legayada Berntsen</t>
         </is>
       </c>
       <c r="N222" s="7" t="n">
-        <v>2008</v>
+        <v>1999</v>
       </c>
       <c r="O222" s="15" t="n">
-        <v>24.37</v>
+        <v>7.44</v>
       </c>
       <c r="P222" s="7" t="n">
-        <v>612</v>
+        <v>682</v>
       </c>
       <c r="Q222" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R222" s="16" t="n">
-        <v>4.03</v>
+        <v>22.01</v>
       </c>
       <c r="T222" s="5" t="n"/>
     </row>
     <row r="223" ht="13" customHeight="1">
       <c r="B223" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C223" s="7" t="inlineStr">
         <is>
-          <t>Marc  Christian Legayada Berntsen</t>
+          <t>Lars Magnus Birketveit</t>
         </is>
       </c>
       <c r="D223" s="7" t="n">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="E223" s="15" t="n">
-        <v>23.72</v>
+        <v>11.76</v>
       </c>
       <c r="F223" s="7" t="n">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="G223" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H223" s="16" t="n">
-        <v>22.01</v>
+        <v>25.06</v>
       </c>
       <c r="J223" s="5" t="n"/>
       <c r="L223" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M223" s="7" t="inlineStr">
         <is>
-          <t>Erik Fossen Nilsen</t>
+          <t>Marc  Christian Legayada Berntsen</t>
         </is>
       </c>
       <c r="N223" s="7" t="n">
-        <v>1987</v>
-      </c>
-      <c r="O223" s="17" t="inlineStr">
-        <is>
-          <t>9,32,17</t>
-        </is>
+        <v>1999</v>
+      </c>
+      <c r="O223" s="15" t="n">
+        <v>23.72</v>
       </c>
       <c r="P223" s="7" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q223" s="7" t="inlineStr">
         <is>
-          <t>Narvik</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R223" s="16" t="n">
-        <v>10.06</v>
+        <v>22.01</v>
       </c>
       <c r="T223" s="5" t="n"/>
     </row>
     <row r="224" ht="13" customHeight="1">
       <c r="B224" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C224" s="7" t="inlineStr">
         <is>
-          <t>Benjamin Fosseli Bye</t>
+          <t>Emil Gundersen</t>
         </is>
       </c>
       <c r="D224" s="7" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="E224" s="15" t="n">
-        <v>1.4</v>
+        <v>6.17</v>
       </c>
       <c r="F224" s="7" t="n">
-        <v>233</v>
+        <v>645</v>
       </c>
       <c r="G224" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H224" s="16" t="n">
-        <v>18.03</v>
+        <v>23.02</v>
       </c>
       <c r="J224" s="5" t="n"/>
       <c r="L224" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M224" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Gudheim Haraldstad</t>
+          <t>Benjamin Fosseli Bye</t>
         </is>
       </c>
       <c r="N224" s="7" t="n">
-        <v>2000</v>
+        <v>2009</v>
       </c>
       <c r="O224" s="15" t="n">
-        <v>5.67</v>
+        <v>1.4</v>
       </c>
       <c r="P224" s="7" t="n">
-        <v>530</v>
+        <v>233</v>
       </c>
       <c r="Q224" s="7" t="inlineStr">
         <is>
-          <t>Arvika/SWE</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R224" s="16" t="n">
-        <v>22.07</v>
+        <v>18.03</v>
       </c>
       <c r="T224" s="5" t="n"/>
     </row>
     <row r="225" ht="13" customHeight="1">
       <c r="B225" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C225" s="7" t="inlineStr">
         <is>
-          <t>Brage Henriksen</t>
+          <t>Oliver Taule Lindgren</t>
         </is>
       </c>
       <c r="D225" s="7" t="n">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="E225" s="15" t="n">
-        <v>1.35</v>
+        <v>5.67</v>
       </c>
       <c r="F225" s="7" t="n">
-        <v>167</v>
+        <v>530</v>
       </c>
       <c r="G225" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H225" s="16" t="n">
-        <v>14.05</v>
+        <v>4.03</v>
       </c>
       <c r="J225" s="5" t="n"/>
       <c r="L225" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M225" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Gudheim Haraldstad</t>
+          <t>Brage Henriksen</t>
         </is>
       </c>
       <c r="N225" s="7" t="n">
-        <v>2000</v>
+        <v>2011</v>
       </c>
       <c r="O225" s="15" t="n">
-        <v>10.52</v>
+        <v>1.35</v>
       </c>
       <c r="P225" s="7" t="n">
-        <v>488</v>
+        <v>167</v>
       </c>
       <c r="Q225" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R225" s="16" t="n">
-        <v>24.06</v>
+        <v>14.05</v>
       </c>
       <c r="T225" s="5" t="n"/>
     </row>
     <row r="226" ht="13" customHeight="1">
       <c r="B226" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C226" s="7" t="inlineStr">
         <is>
-          <t>Jonas Røed Haaland</t>
+          <t>Kristoffer Boge Stenerud</t>
         </is>
       </c>
       <c r="D226" s="7" t="n">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="E226" s="15" t="n">
-        <v>1.32</v>
+        <v>11.5</v>
       </c>
       <c r="F226" s="7" t="n">
-        <v>125</v>
+        <v>504</v>
       </c>
       <c r="G226" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H226" s="16" t="n">
-        <v>22.01</v>
+        <v>17.06</v>
       </c>
       <c r="J226" s="5" t="n"/>
       <c r="L226" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M226" s="7" t="inlineStr">
         <is>
-          <t>Simon Kaarbø</t>
+          <t>Jonas Røed Haaland</t>
         </is>
       </c>
       <c r="N226" s="7" t="n">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="O226" s="15" t="n">
-        <v>5.45</v>
+        <v>1.32</v>
       </c>
       <c r="P226" s="7" t="n">
-        <v>479</v>
+        <v>125</v>
       </c>
       <c r="Q226" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R226" s="16" t="n">
-        <v>24.06</v>
+        <v>22.01</v>
       </c>
       <c r="T226" s="5" t="n"/>
     </row>
@@ -26278,53 +26274,53 @@
       </c>
       <c r="C227" s="7" t="inlineStr">
         <is>
-          <t>David Askeland</t>
+          <t>Jonas Langeland Andersen</t>
         </is>
       </c>
       <c r="D227" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E227" s="15" t="n">
-        <v>3.97</v>
+        <v>5.22</v>
       </c>
       <c r="F227" s="7" t="n">
-        <v>111</v>
+        <v>424</v>
       </c>
       <c r="G227" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H227" s="16" t="n">
-        <v>14.05</v>
+        <v>23.02</v>
       </c>
       <c r="J227" s="5" t="n"/>
       <c r="L227" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M227" s="7" t="inlineStr">
         <is>
-          <t>Leif-Andreas Borgersen</t>
+          <t>David Askeland</t>
         </is>
       </c>
       <c r="N227" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="O227" s="15" t="n">
-        <v>11.18</v>
+        <v>3.97</v>
       </c>
       <c r="P227" s="7" t="n">
-        <v>467</v>
+        <v>111</v>
       </c>
       <c r="Q227" s="7" t="inlineStr">
         <is>
-          <t>Narvik</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R227" s="16" t="n">
-        <v>9.06</v>
+        <v>14.05</v>
       </c>
       <c r="T227" s="5" t="n"/>
     </row>
@@ -26361,7 +26357,7 @@
         </is>
       </c>
       <c r="F229" s="20" t="n">
-        <v>6849</v>
+        <v>7938</v>
       </c>
       <c r="J229" s="5" t="n"/>
       <c r="L229" s="19" t="inlineStr">
@@ -26378,7 +26374,7 @@
         </is>
       </c>
       <c r="P229" s="20" t="n">
-        <v>7050</v>
+        <v>6849</v>
       </c>
       <c r="T229" s="5" t="n"/>
     </row>
@@ -26393,7 +26389,7 @@
         </is>
       </c>
       <c r="C231" s="20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E231" s="19" t="inlineStr">
         <is>
@@ -26401,7 +26397,7 @@
         </is>
       </c>
       <c r="F231" s="20" t="n">
-        <v>15273</v>
+        <v>15322</v>
       </c>
       <c r="J231" s="5" t="n"/>
       <c r="L231" s="19" t="inlineStr">
@@ -26418,7 +26414,7 @@
         </is>
       </c>
       <c r="P231" s="20" t="n">
-        <v>15161</v>
+        <v>15273</v>
       </c>
       <c r="T231" s="5" t="n"/>
     </row>
@@ -26433,7 +26429,7 @@
         </is>
       </c>
       <c r="C233" s="20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J233" s="5" t="n"/>
       <c r="L233" s="19" t="inlineStr">
@@ -26442,7 +26438,7 @@
         </is>
       </c>
       <c r="M233" s="20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T233" s="5" t="n"/>
     </row>
@@ -26484,7 +26480,7 @@
       </c>
       <c r="C237" s="7" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Troms</t>
         </is>
       </c>
       <c r="F237" s="8" t="n">
@@ -26514,7 +26510,7 @@
       </c>
       <c r="C238" s="7" t="inlineStr">
         <is>
-          <t>Ask Friidrett</t>
+          <t>IK Hind</t>
         </is>
       </c>
       <c r="J238" s="5" t="n"/>
@@ -26654,25 +26650,25 @@
       </c>
       <c r="C244" s="7" t="inlineStr">
         <is>
-          <t>Daniel Alejandro Johnsen</t>
+          <t>Birk Arvola</t>
         </is>
       </c>
       <c r="D244" s="7" t="n">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="E244" s="15" t="n">
-        <v>6.89</v>
+        <v>7.65</v>
       </c>
       <c r="F244" s="7" t="n">
-        <v>915</v>
+        <v>607</v>
       </c>
       <c r="G244" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sortland</t>
         </is>
       </c>
       <c r="H244" s="16" t="n">
-        <v>21.01</v>
+        <v>18.02</v>
       </c>
       <c r="J244" s="5" t="n"/>
       <c r="L244" s="14" t="inlineStr">
@@ -26712,25 +26708,25 @@
       </c>
       <c r="C245" s="7" t="inlineStr">
         <is>
-          <t>Daniel Alejandro Johnsen</t>
+          <t>Birk Arvola</t>
         </is>
       </c>
       <c r="D245" s="7" t="n">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="E245" s="15" t="n">
-        <v>10.67</v>
+        <v>11.76</v>
       </c>
       <c r="F245" s="7" t="n">
-        <v>929</v>
+        <v>662</v>
       </c>
       <c r="G245" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Narvik</t>
         </is>
       </c>
       <c r="H245" s="16" t="n">
-        <v>25.06</v>
+        <v>10.06</v>
       </c>
       <c r="J245" s="5" t="n"/>
       <c r="L245" s="14" t="inlineStr">
@@ -26770,25 +26766,25 @@
       </c>
       <c r="C246" s="7" t="inlineStr">
         <is>
-          <t>Daniel Alejandro Johnsen</t>
+          <t>Tobias Johansen</t>
         </is>
       </c>
       <c r="D246" s="7" t="n">
-        <v>1998</v>
+        <v>2003</v>
       </c>
       <c r="E246" s="15" t="n">
-        <v>22.21</v>
+        <v>22.65</v>
       </c>
       <c r="F246" s="7" t="n">
-        <v>836</v>
+        <v>787</v>
       </c>
       <c r="G246" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H246" s="16" t="n">
-        <v>8.07</v>
+        <v>12.02</v>
       </c>
       <c r="J246" s="5" t="n"/>
       <c r="L246" s="14" t="inlineStr">
@@ -26828,17 +26824,17 @@
       </c>
       <c r="C247" s="7" t="inlineStr">
         <is>
-          <t>Jon-Henning Hilleren</t>
+          <t>Tobias Johansen</t>
         </is>
       </c>
       <c r="D247" s="7" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E247" s="15" t="n">
-        <v>51.28</v>
+        <v>49.64</v>
       </c>
       <c r="F247" s="7" t="n">
-        <v>721</v>
+        <v>802</v>
       </c>
       <c r="G247" s="7" t="inlineStr">
         <is>
@@ -26846,7 +26842,7 @@
         </is>
       </c>
       <c r="H247" s="16" t="n">
-        <v>18.06</v>
+        <v>11.02</v>
       </c>
       <c r="J247" s="5" t="n"/>
       <c r="L247" s="14" t="inlineStr">
@@ -26886,19 +26882,19 @@
       </c>
       <c r="C248" s="7" t="inlineStr">
         <is>
-          <t>Jon-Henning Hilleren</t>
+          <t>Tobias Johansen</t>
         </is>
       </c>
       <c r="D248" s="7" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E248" s="17" t="inlineStr">
         <is>
-          <t>1,58,45</t>
+          <t>2,04,49</t>
         </is>
       </c>
       <c r="F248" s="7" t="n">
-        <v>718</v>
+        <v>606</v>
       </c>
       <c r="G248" s="7" t="inlineStr">
         <is>
@@ -26906,7 +26902,7 @@
         </is>
       </c>
       <c r="H248" s="16" t="n">
-        <v>17.06</v>
+        <v>19.02</v>
       </c>
       <c r="J248" s="5" t="n"/>
       <c r="L248" s="14" t="inlineStr">
@@ -26943,32 +26939,32 @@
     <row r="249" ht="13" customHeight="1">
       <c r="B249" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C249" s="7" t="inlineStr">
         <is>
-          <t>Tobias Natland</t>
+          <t>Kim-Roger Trøite</t>
         </is>
       </c>
       <c r="D249" s="7" t="n">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="E249" s="17" t="inlineStr">
         <is>
-          <t>4,28,05</t>
+          <t>9,04,43</t>
         </is>
       </c>
       <c r="F249" s="7" t="n">
-        <v>538</v>
+        <v>672</v>
       </c>
       <c r="G249" s="7" t="inlineStr">
         <is>
-          <t>Rosendal</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="H249" s="16" t="n">
-        <v>28.05</v>
+        <v>12.07</v>
       </c>
       <c r="J249" s="5" t="n"/>
       <c r="L249" s="14" t="inlineStr">
@@ -27005,32 +27001,32 @@
     <row r="250" ht="13" customHeight="1">
       <c r="B250" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C250" s="7" t="inlineStr">
         <is>
-          <t>Marius Garmann Sørli</t>
+          <t>Torstein Svendsen</t>
         </is>
       </c>
       <c r="D250" s="7" t="n">
-        <v>1997</v>
+        <v>1966</v>
       </c>
       <c r="E250" s="17" t="inlineStr">
         <is>
-          <t>8,21,68</t>
+          <t>17,07,30</t>
         </is>
       </c>
       <c r="F250" s="7" t="n">
-        <v>851</v>
+        <v>522</v>
       </c>
       <c r="G250" s="7" t="inlineStr">
         <is>
-          <t>Førde</t>
+          <t>Geithus</t>
         </is>
       </c>
       <c r="H250" s="16" t="n">
-        <v>16.05</v>
+        <v>23.06</v>
       </c>
       <c r="J250" s="5" t="n"/>
       <c r="L250" s="14" t="inlineStr">
@@ -27067,30 +27063,32 @@
     <row r="251" ht="13" customHeight="1">
       <c r="B251" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="C251" s="7" t="inlineStr">
         <is>
-          <t>Henrik Villanger</t>
+          <t>Torstein Svendsen</t>
         </is>
       </c>
       <c r="D251" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E251" s="15" t="n">
-        <v>4.75</v>
+        <v>1966</v>
+      </c>
+      <c r="E251" s="17" t="inlineStr">
+        <is>
+          <t>36,43,03</t>
+        </is>
       </c>
       <c r="F251" s="7" t="n">
-        <v>310</v>
+        <v>496</v>
       </c>
       <c r="G251" s="7" t="inlineStr">
         <is>
-          <t>Rosendal</t>
+          <t>Geithus</t>
         </is>
       </c>
       <c r="H251" s="16" t="n">
-        <v>28.05</v>
+        <v>25.06</v>
       </c>
       <c r="J251" s="5" t="n"/>
       <c r="L251" s="14" t="inlineStr">
@@ -27125,30 +27123,30 @@
     <row r="252" ht="13" customHeight="1">
       <c r="B252" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C252" s="7" t="inlineStr">
         <is>
-          <t>Sander Feness Armond</t>
+          <t>Fredrik Gudheim Haraldstad</t>
         </is>
       </c>
       <c r="D252" s="7" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="E252" s="15" t="n">
-        <v>10.62</v>
+        <v>1.75</v>
       </c>
       <c r="F252" s="7" t="n">
-        <v>403</v>
+        <v>607</v>
       </c>
       <c r="G252" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Arvika/SWE</t>
         </is>
       </c>
       <c r="H252" s="16" t="n">
-        <v>7.06</v>
+        <v>23.07</v>
       </c>
       <c r="J252" s="5" t="n"/>
       <c r="L252" s="14" t="inlineStr">
@@ -27183,30 +27181,30 @@
     <row r="253" ht="13" customHeight="1">
       <c r="B253" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C253" s="7" t="inlineStr">
         <is>
-          <t>Sander Feness Armond</t>
+          <t>Oskar Stattin</t>
         </is>
       </c>
       <c r="D253" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E253" s="15" t="n">
-        <v>1.2</v>
+        <v>11.78</v>
       </c>
       <c r="F253" s="7" t="n">
-        <v>278</v>
+        <v>535</v>
       </c>
       <c r="G253" s="7" t="inlineStr">
         <is>
-          <t>Askøy</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H253" s="16" t="n">
-        <v>16.03</v>
+        <v>12.02</v>
       </c>
       <c r="J253" s="5" t="n"/>
       <c r="L253" s="14" t="inlineStr">
@@ -27246,25 +27244,25 @@
       </c>
       <c r="C254" s="7" t="inlineStr">
         <is>
-          <t>Sander Feness Armond</t>
+          <t>Oskar Stattin</t>
         </is>
       </c>
       <c r="D254" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E254" s="15" t="n">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="F254" s="7" t="n">
-        <v>466</v>
+        <v>538</v>
       </c>
       <c r="G254" s="7" t="inlineStr">
         <is>
-          <t>Askøy</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="H254" s="16" t="n">
-        <v>13.02</v>
+        <v>19.04</v>
       </c>
       <c r="J254" s="5" t="n"/>
       <c r="L254" s="14" t="inlineStr">
@@ -27299,30 +27297,30 @@
     <row r="255" ht="13" customHeight="1">
       <c r="B255" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C255" s="7" t="inlineStr">
         <is>
-          <t>Erlend Bergfjord Næss</t>
+          <t>Fredrik Gudheim Haraldstad</t>
         </is>
       </c>
       <c r="D255" s="7" t="n">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="E255" s="15" t="n">
-        <v>13.01</v>
+        <v>36.29</v>
       </c>
       <c r="F255" s="7" t="n">
-        <v>667</v>
+        <v>614</v>
       </c>
       <c r="G255" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Arvika/SWE</t>
         </is>
       </c>
       <c r="H255" s="16" t="n">
-        <v>21.01</v>
+        <v>22.07</v>
       </c>
       <c r="J255" s="5" t="n"/>
       <c r="L255" s="14" t="inlineStr">
@@ -27357,30 +27355,30 @@
     <row r="256" ht="13" customHeight="1">
       <c r="B256" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C256" s="7" t="inlineStr">
         <is>
-          <t>Erlend Bergfjord Næss</t>
+          <t>Fredrik Gudheim Haraldstad</t>
         </is>
       </c>
       <c r="D256" s="7" t="n">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="E256" s="15" t="n">
-        <v>50.1</v>
+        <v>52.72</v>
       </c>
       <c r="F256" s="7" t="n">
-        <v>859</v>
+        <v>663</v>
       </c>
       <c r="G256" s="7" t="inlineStr">
         <is>
-          <t>Spikkestad</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="H256" s="16" t="n">
-        <v>11.06</v>
+        <v>3.05</v>
       </c>
       <c r="J256" s="5" t="n"/>
       <c r="L256" s="14" t="inlineStr">
@@ -27445,7 +27443,7 @@
         </is>
       </c>
       <c r="F258" s="20" t="n">
-        <v>8491</v>
+        <v>8111</v>
       </c>
       <c r="J258" s="5" t="n"/>
       <c r="L258" s="19" t="inlineStr">
@@ -27565,30 +27563,30 @@
     <row r="263" ht="13" customHeight="1">
       <c r="B263" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C263" s="7" t="inlineStr">
         <is>
-          <t>Vegard Fluge</t>
+          <t>Birk Arvola</t>
         </is>
       </c>
       <c r="D263" s="7" t="n">
-        <v>1995</v>
+        <v>2005</v>
       </c>
       <c r="E263" s="15" t="n">
-        <v>11.4</v>
+        <v>23.88</v>
       </c>
       <c r="F263" s="7" t="n">
-        <v>743</v>
+        <v>659</v>
       </c>
       <c r="G263" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="H263" s="16" t="n">
-        <v>3.06</v>
+        <v>18.06</v>
       </c>
       <c r="J263" s="5" t="n"/>
       <c r="L263" s="14" t="inlineStr">
@@ -27623,24 +27621,22 @@
     <row r="264" ht="13" customHeight="1">
       <c r="B264" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C264" s="7" t="inlineStr">
         <is>
-          <t>Sigve Lillebø</t>
+          <t>Oskar Stattin</t>
         </is>
       </c>
       <c r="D264" s="7" t="n">
         <v>2006</v>
       </c>
-      <c r="E264" s="17" t="inlineStr">
-        <is>
-          <t>2,00,12</t>
-        </is>
+      <c r="E264" s="15" t="n">
+        <v>23.89</v>
       </c>
       <c r="F264" s="7" t="n">
-        <v>685</v>
+        <v>658</v>
       </c>
       <c r="G264" s="7" t="inlineStr">
         <is>
@@ -27648,7 +27644,7 @@
         </is>
       </c>
       <c r="H264" s="16" t="n">
-        <v>17.06</v>
+        <v>12.02</v>
       </c>
       <c r="J264" s="5" t="n"/>
       <c r="L264" s="14" t="inlineStr">
@@ -27683,30 +27679,30 @@
     <row r="265" ht="13" customHeight="1">
       <c r="B265" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C265" s="7" t="inlineStr">
         <is>
-          <t>Sander Feness Armond</t>
+          <t>Oskar Stattin</t>
         </is>
       </c>
       <c r="D265" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E265" s="15" t="n">
-        <v>7.48</v>
+        <v>52.77</v>
       </c>
       <c r="F265" s="7" t="n">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="G265" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H265" s="16" t="n">
-        <v>11.02</v>
+        <v>3.03</v>
       </c>
       <c r="J265" s="5" t="n"/>
       <c r="L265" s="14" t="inlineStr">
@@ -27741,30 +27737,30 @@
     <row r="266" ht="13" customHeight="1">
       <c r="B266" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C266" s="7" t="inlineStr">
         <is>
-          <t>Sander Feness Armond</t>
+          <t>Mathias Johansen</t>
         </is>
       </c>
       <c r="D266" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E266" s="15" t="n">
-        <v>23.93</v>
+        <v>52.77</v>
       </c>
       <c r="F266" s="7" t="n">
         <v>654</v>
       </c>
       <c r="G266" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H266" s="16" t="n">
-        <v>16.05</v>
+        <v>24.06</v>
       </c>
       <c r="J266" s="5" t="n"/>
       <c r="L266" s="14" t="inlineStr">
@@ -27799,30 +27795,32 @@
     <row r="267" ht="13" customHeight="1">
       <c r="B267" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C267" s="7" t="inlineStr">
         <is>
-          <t>Sigve Lillebø</t>
+          <t>Per-Christian Myrnes Pedersen</t>
         </is>
       </c>
       <c r="D267" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E267" s="15" t="n">
-        <v>53.35</v>
+        <v>1986</v>
+      </c>
+      <c r="E267" s="17" t="inlineStr">
+        <is>
+          <t>9,10,36</t>
+        </is>
       </c>
       <c r="F267" s="7" t="n">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="G267" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Narvik</t>
         </is>
       </c>
       <c r="H267" s="16" t="n">
-        <v>18.06</v>
+        <v>10.06</v>
       </c>
       <c r="J267" s="5" t="n"/>
       <c r="L267" s="14" t="inlineStr">
@@ -27857,30 +27855,30 @@
     <row r="268" ht="13" customHeight="1">
       <c r="B268" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C268" s="7" t="inlineStr">
         <is>
-          <t>Sigve Lillebø</t>
+          <t>Birk Arvola</t>
         </is>
       </c>
       <c r="D268" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E268" s="15" t="n">
-        <v>24.54</v>
+        <v>53.48</v>
       </c>
       <c r="F268" s="7" t="n">
-        <v>596</v>
+        <v>625</v>
       </c>
       <c r="G268" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Narvik</t>
         </is>
       </c>
       <c r="H268" s="16" t="n">
-        <v>7.06</v>
+        <v>10.06</v>
       </c>
       <c r="J268" s="5" t="n"/>
       <c r="L268" s="14" t="inlineStr">
@@ -27915,32 +27913,30 @@
     <row r="269" ht="13" customHeight="1">
       <c r="B269" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C269" s="7" t="inlineStr">
         <is>
-          <t>Tobias Natland</t>
+          <t>Mathias Johansen</t>
         </is>
       </c>
       <c r="D269" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E269" s="17" t="inlineStr">
-        <is>
-          <t>2,06,11</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="E269" s="15" t="n">
+        <v>24.37</v>
       </c>
       <c r="F269" s="7" t="n">
-        <v>581</v>
+        <v>612</v>
       </c>
       <c r="G269" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H269" s="16" t="n">
-        <v>7.06</v>
+        <v>4.03</v>
       </c>
       <c r="J269" s="5" t="n"/>
       <c r="L269" s="14" t="inlineStr">
@@ -27975,32 +27971,32 @@
     <row r="270" ht="13" customHeight="1">
       <c r="B270" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C270" s="7" t="inlineStr">
         <is>
-          <t>Oskar Natland</t>
+          <t>Erik Fossen Nilsen</t>
         </is>
       </c>
       <c r="D270" s="7" t="n">
-        <v>2005</v>
+        <v>1987</v>
       </c>
       <c r="E270" s="17" t="inlineStr">
         <is>
-          <t>2,06,31</t>
+          <t>9,32,17</t>
         </is>
       </c>
       <c r="F270" s="7" t="n">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G270" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Narvik</t>
         </is>
       </c>
       <c r="H270" s="16" t="n">
-        <v>7.06</v>
+        <v>10.06</v>
       </c>
       <c r="J270" s="5" t="n"/>
       <c r="L270" s="14" t="inlineStr">
@@ -28035,30 +28031,30 @@
     <row r="271" ht="13" customHeight="1">
       <c r="B271" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C271" s="7" t="inlineStr">
         <is>
-          <t>Bjørn Fluge</t>
+          <t>Fredrik Gudheim Haraldstad</t>
         </is>
       </c>
       <c r="D271" s="7" t="n">
-        <v>1960</v>
+        <v>2000</v>
       </c>
       <c r="E271" s="15" t="n">
-        <v>2.49</v>
+        <v>5.67</v>
       </c>
       <c r="F271" s="7" t="n">
-        <v>359</v>
+        <v>530</v>
       </c>
       <c r="G271" s="7" t="inlineStr">
         <is>
-          <t>Askøy</t>
+          <t>Arvika/SWE</t>
         </is>
       </c>
       <c r="H271" s="16" t="n">
-        <v>13.02</v>
+        <v>22.07</v>
       </c>
       <c r="J271" s="5" t="n"/>
       <c r="L271" s="14" t="inlineStr">
@@ -28093,30 +28089,30 @@
     <row r="272" ht="13" customHeight="1">
       <c r="B272" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C272" s="7" t="inlineStr">
         <is>
-          <t>Øyvind Kolstad Silseth</t>
+          <t>Fredrik Gudheim Haraldstad</t>
         </is>
       </c>
       <c r="D272" s="7" t="n">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="E272" s="15" t="n">
-        <v>4.72</v>
+        <v>10.52</v>
       </c>
       <c r="F272" s="7" t="n">
-        <v>303</v>
+        <v>488</v>
       </c>
       <c r="G272" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H272" s="16" t="n">
-        <v>22.01</v>
+        <v>24.06</v>
       </c>
       <c r="J272" s="5" t="n"/>
       <c r="L272" s="14" t="inlineStr">
@@ -28151,30 +28147,30 @@
     <row r="273" ht="13" customHeight="1">
       <c r="B273" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C273" s="7" t="inlineStr">
         <is>
-          <t>Jan Victor Ravnanger</t>
+          <t>Simon Kaarbø</t>
         </is>
       </c>
       <c r="D273" s="7" t="n">
-        <v>1972</v>
+        <v>2008</v>
       </c>
       <c r="E273" s="15" t="n">
-        <v>2.37</v>
+        <v>5.45</v>
       </c>
       <c r="F273" s="7" t="n">
-        <v>250</v>
+        <v>479</v>
       </c>
       <c r="G273" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="H273" s="16" t="n">
-        <v>28.01</v>
+        <v>24.06</v>
       </c>
       <c r="J273" s="5" t="n"/>
       <c r="L273" s="14" t="inlineStr">
@@ -28209,30 +28205,30 @@
     <row r="274" ht="13" customHeight="1">
       <c r="B274" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C274" s="7" t="inlineStr">
         <is>
-          <t>Haakon Brunborg</t>
+          <t>Leif-Andreas Borgersen</t>
         </is>
       </c>
       <c r="D274" s="7" t="n">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="E274" s="15" t="n">
-        <v>1.18</v>
+        <v>11.18</v>
       </c>
       <c r="F274" s="7" t="n">
-        <v>240</v>
+        <v>467</v>
       </c>
       <c r="G274" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Narvik</t>
         </is>
       </c>
       <c r="H274" s="16" t="n">
-        <v>10.02</v>
+        <v>9.06</v>
       </c>
       <c r="J274" s="5" t="n"/>
       <c r="L274" s="14" t="inlineStr">
@@ -28297,7 +28293,7 @@
         </is>
       </c>
       <c r="F276" s="20" t="n">
-        <v>6287</v>
+        <v>7050</v>
       </c>
       <c r="J276" s="5" t="n"/>
       <c r="L276" s="19" t="inlineStr">
@@ -28337,7 +28333,7 @@
         </is>
       </c>
       <c r="F278" s="20" t="n">
-        <v>14778</v>
+        <v>15161</v>
       </c>
       <c r="J278" s="5" t="n"/>
       <c r="L278" s="19" t="inlineStr">
@@ -28369,7 +28365,7 @@
         </is>
       </c>
       <c r="C280" s="20" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J280" s="5" t="n"/>
       <c r="L280" s="19" t="inlineStr">
@@ -30108,7 +30104,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>24857</v>
+        <v>24872</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
@@ -30276,7 +30272,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>21339</v>
+        <v>21342</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -30328,11 +30324,11 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>(30/14)</t>
+          <t>(30/13)</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>20915</v>
+        <v>20964</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -31494,18 +31490,18 @@
         <v>2006</v>
       </c>
       <c r="O22" s="15" t="n">
-        <v>48.05</v>
+        <v>49.16</v>
       </c>
       <c r="P22" s="7" t="n">
-        <v>835</v>
+        <v>850</v>
       </c>
       <c r="Q22" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Maribor/SLO</t>
         </is>
       </c>
       <c r="R22" s="16" t="n">
-        <v>8.07</v>
+        <v>26.07</v>
       </c>
       <c r="T22" s="5" t="n"/>
     </row>
@@ -31617,7 +31613,7 @@
         </is>
       </c>
       <c r="P25" s="20" t="n">
-        <v>13358</v>
+        <v>13373</v>
       </c>
       <c r="T25" s="5" t="n"/>
     </row>
@@ -32695,7 +32691,7 @@
         </is>
       </c>
       <c r="P48" s="20" t="n">
-        <v>24857</v>
+        <v>24872</v>
       </c>
       <c r="T48" s="5" t="n"/>
     </row>
@@ -38456,18 +38452,18 @@
         <v>2007</v>
       </c>
       <c r="O186" s="15" t="n">
-        <v>5.98</v>
+        <v>5.99</v>
       </c>
       <c r="P186" s="7" t="n">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="Q186" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Maribor/SLO</t>
         </is>
       </c>
       <c r="R186" s="16" t="n">
-        <v>10.06</v>
+        <v>24.07</v>
       </c>
       <c r="T186" s="5" t="n"/>
     </row>
@@ -39345,7 +39341,7 @@
         </is>
       </c>
       <c r="P202" s="20" t="n">
-        <v>10361</v>
+        <v>10364</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
@@ -39385,7 +39381,7 @@
         </is>
       </c>
       <c r="P204" s="20" t="n">
-        <v>21339</v>
+        <v>21342</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -40013,19 +40009,19 @@
       </c>
       <c r="O223" s="17" t="inlineStr">
         <is>
-          <t>9,13,76</t>
+          <t>9,08,83</t>
         </is>
       </c>
       <c r="P223" s="7" t="n">
-        <v>888</v>
+        <v>906</v>
       </c>
       <c r="Q223" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Birmingham/GBR</t>
         </is>
       </c>
       <c r="R223" s="16" t="n">
-        <v>20.05</v>
+        <v>29.07</v>
       </c>
       <c r="T223" s="5" t="n"/>
     </row>
@@ -40549,7 +40545,7 @@
         </is>
       </c>
       <c r="P233" s="20" t="n">
-        <v>11465</v>
+        <v>11483</v>
       </c>
       <c r="T233" s="5" t="n"/>
     </row>
@@ -41444,30 +41440,30 @@
       <c r="J251" s="5" t="n"/>
       <c r="L251" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="M251" s="7" t="inlineStr">
         <is>
-          <t>Frida Aase Thulin</t>
+          <t>Maria Døske</t>
         </is>
       </c>
       <c r="N251" s="7" t="n">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="O251" s="15" t="n">
-        <v>1.35</v>
+        <v>26.53</v>
       </c>
       <c r="P251" s="7" t="n">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="Q251" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="R251" s="16" t="n">
-        <v>12.03</v>
+        <v>29.07</v>
       </c>
       <c r="T251" s="5" t="n"/>
     </row>
@@ -41507,17 +41503,17 @@
       </c>
       <c r="M252" s="7" t="inlineStr">
         <is>
-          <t>Amalie Urnes Hahn</t>
+          <t>Frida Aase Thulin</t>
         </is>
       </c>
       <c r="N252" s="7" t="n">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="O252" s="15" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P252" s="7" t="n">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="Q252" s="7" t="inlineStr">
         <is>
@@ -41525,7 +41521,7 @@
         </is>
       </c>
       <c r="R252" s="16" t="n">
-        <v>10.05</v>
+        <v>12.03</v>
       </c>
       <c r="T252" s="5" t="n"/>
     </row>
@@ -41579,7 +41575,7 @@
         </is>
       </c>
       <c r="P254" s="20" t="n">
-        <v>9450</v>
+        <v>9481</v>
       </c>
       <c r="T254" s="5" t="n"/>
     </row>
@@ -41619,7 +41615,7 @@
         </is>
       </c>
       <c r="P256" s="20" t="n">
-        <v>20915</v>
+        <v>20964</v>
       </c>
       <c r="T256" s="5" t="n"/>
     </row>
@@ -41643,7 +41639,7 @@
         </is>
       </c>
       <c r="M258" s="20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T258" s="5" t="n"/>
     </row>
@@ -46293,7 +46289,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>11784</v>
+        <v>11802</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -57389,30 +57385,30 @@
       <c r="J267" s="5" t="n"/>
       <c r="L267" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M267" s="7" t="inlineStr">
         <is>
-          <t>Gabi Matilde Bertheussen</t>
+          <t>Olivia Skovli Hermansen</t>
         </is>
       </c>
       <c r="N267" s="7" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="O267" s="15" t="n">
-        <v>8.85</v>
+        <v>28.98</v>
       </c>
       <c r="P267" s="7" t="n">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="Q267" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R267" s="16" t="n">
-        <v>14.01</v>
+        <v>27.07</v>
       </c>
       <c r="T267" s="5" t="n"/>
     </row>
@@ -57447,32 +57443,30 @@
       <c r="J268" s="5" t="n"/>
       <c r="L268" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M268" s="7" t="inlineStr">
         <is>
-          <t>Camilla Thustrup Holm</t>
+          <t>Gabi Matilde Bertheussen</t>
         </is>
       </c>
       <c r="N268" s="7" t="n">
-        <v>1981</v>
-      </c>
-      <c r="O268" s="17" t="inlineStr">
-        <is>
-          <t>11,38,27</t>
-        </is>
+        <v>2010</v>
+      </c>
+      <c r="O268" s="15" t="n">
+        <v>8.85</v>
       </c>
       <c r="P268" s="7" t="n">
         <v>507</v>
       </c>
       <c r="Q268" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R268" s="16" t="n">
-        <v>19.04</v>
+        <v>14.01</v>
       </c>
       <c r="T268" s="5" t="n"/>
     </row>
@@ -57507,30 +57501,32 @@
       <c r="J269" s="5" t="n"/>
       <c r="L269" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M269" s="7" t="inlineStr">
         <is>
-          <t>Olivia Skovli Hermansen</t>
+          <t>Camilla Thustrup Holm</t>
         </is>
       </c>
       <c r="N269" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O269" s="15" t="n">
-        <v>29.26</v>
+        <v>1981</v>
+      </c>
+      <c r="O269" s="17" t="inlineStr">
+        <is>
+          <t>11,38,27</t>
+        </is>
       </c>
       <c r="P269" s="7" t="n">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="Q269" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R269" s="16" t="n">
-        <v>21.01</v>
+        <v>19.04</v>
       </c>
       <c r="T269" s="5" t="n"/>
     </row>
@@ -57876,7 +57872,7 @@
         </is>
       </c>
       <c r="P276" s="20" t="n">
-        <v>6100</v>
+        <v>6118</v>
       </c>
       <c r="T276" s="5" t="n"/>
     </row>
@@ -57916,7 +57912,7 @@
         </is>
       </c>
       <c r="P278" s="20" t="n">
-        <v>11784</v>
+        <v>11802</v>
       </c>
       <c r="T278" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2023 1-2. div.xlsx
+++ b/output/Lagserien 2023 1-2. div.xlsx
@@ -651,25 +651,25 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IL i BUL</t>
+          <t>Norna-Salhus IL</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>(30/17)</t>
+          <t>(30/18)</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>24719</v>
+        <v>24760</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>(7)</t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -679,25 +679,25 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Norna-Salhus IL</t>
+          <t>IL i BUL</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>(29/17)</t>
+          <t>(30/17)</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>24026</v>
+        <v>24719</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>(3)</t>
+          <t>(7)</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
@@ -908,11 +908,11 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>(27/8)</t>
+          <t>(28/9)</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>19242</v>
+        <v>19906</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="C54" s="7" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="F54" s="8" t="n">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="M54" s="7" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="P54" s="8" t="n">
@@ -3311,7 +3311,7 @@
       </c>
       <c r="C55" s="7" t="inlineStr">
         <is>
-          <t>IL i BUL</t>
+          <t>Norna-Salhus IL</t>
         </is>
       </c>
       <c r="J55" s="5" t="n"/>
@@ -3322,7 +3322,7 @@
       </c>
       <c r="M55" s="7" t="inlineStr">
         <is>
-          <t>Norna-Salhus IL</t>
+          <t>IL i BUL</t>
         </is>
       </c>
       <c r="T55" s="5" t="n"/>
@@ -3451,17 +3451,17 @@
       </c>
       <c r="C61" s="7" t="inlineStr">
         <is>
-          <t>Per Tinius Fremstad-Waldron</t>
+          <t>Salum Ageze Kashafali</t>
         </is>
       </c>
       <c r="D61" s="7" t="n">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="E61" s="15" t="n">
-        <v>6.77</v>
+        <v>6.75</v>
       </c>
       <c r="F61" s="7" t="n">
-        <v>974</v>
+        <v>984</v>
       </c>
       <c r="G61" s="7" t="inlineStr">
         <is>
@@ -3479,17 +3479,17 @@
       </c>
       <c r="M61" s="7" t="inlineStr">
         <is>
-          <t>Salum Ageze Kashafali</t>
+          <t>Per Tinius Fremstad-Waldron</t>
         </is>
       </c>
       <c r="N61" s="7" t="n">
-        <v>1993</v>
+        <v>2000</v>
       </c>
       <c r="O61" s="15" t="n">
-        <v>6.75</v>
+        <v>6.77</v>
       </c>
       <c r="P61" s="7" t="n">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="Q61" s="7" t="inlineStr">
         <is>
@@ -3509,25 +3509,25 @@
       </c>
       <c r="C62" s="7" t="inlineStr">
         <is>
-          <t>Per Tinius Fremstad-Waldron</t>
+          <t>Salum Ageze Kashafali</t>
         </is>
       </c>
       <c r="D62" s="7" t="n">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="E62" s="15" t="n">
-        <v>10.38</v>
+        <v>10.37</v>
       </c>
       <c r="F62" s="7" t="n">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="G62" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H62" s="16" t="n">
-        <v>6.07</v>
+        <v>15.06</v>
       </c>
       <c r="J62" s="5" t="n"/>
       <c r="L62" s="14" t="inlineStr">
@@ -3537,25 +3537,25 @@
       </c>
       <c r="M62" s="7" t="inlineStr">
         <is>
-          <t>Salum Ageze Kashafali</t>
+          <t>Per Tinius Fremstad-Waldron</t>
         </is>
       </c>
       <c r="N62" s="7" t="n">
-        <v>1993</v>
+        <v>2000</v>
       </c>
       <c r="O62" s="15" t="n">
-        <v>10.37</v>
+        <v>10.38</v>
       </c>
       <c r="P62" s="7" t="n">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="Q62" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R62" s="16" t="n">
-        <v>15.06</v>
+        <v>6.07</v>
       </c>
       <c r="T62" s="5" t="n"/>
     </row>
@@ -3567,25 +3567,25 @@
       </c>
       <c r="C63" s="7" t="inlineStr">
         <is>
-          <t>Stephan Skogheim Kyeremeh</t>
+          <t>Salum Ageze Kashafali</t>
         </is>
       </c>
       <c r="D63" s="7" t="n">
-        <v>2001</v>
+        <v>1993</v>
       </c>
       <c r="E63" s="15" t="n">
-        <v>21.74</v>
+        <v>22.08</v>
       </c>
       <c r="F63" s="7" t="n">
-        <v>891</v>
+        <v>851</v>
       </c>
       <c r="G63" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Nottwil/SUI</t>
         </is>
       </c>
       <c r="H63" s="16" t="n">
-        <v>4.06</v>
+        <v>25.05</v>
       </c>
       <c r="J63" s="5" t="n"/>
       <c r="L63" s="14" t="inlineStr">
@@ -3595,25 +3595,25 @@
       </c>
       <c r="M63" s="7" t="inlineStr">
         <is>
-          <t>Salum Ageze Kashafali</t>
+          <t>Stephan Skogheim Kyeremeh</t>
         </is>
       </c>
       <c r="N63" s="7" t="n">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="O63" s="15" t="n">
-        <v>22.08</v>
+        <v>21.74</v>
       </c>
       <c r="P63" s="7" t="n">
-        <v>851</v>
+        <v>891</v>
       </c>
       <c r="Q63" s="7" t="inlineStr">
         <is>
-          <t>Nottwil/SUI</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R63" s="16" t="n">
-        <v>25.05</v>
+        <v>4.06</v>
       </c>
       <c r="T63" s="5" t="n"/>
     </row>
@@ -3625,25 +3625,25 @@
       </c>
       <c r="C64" s="7" t="inlineStr">
         <is>
-          <t>Leon Samuel Douglas Mjaaland</t>
+          <t>Fredrik H. Gullachsen</t>
         </is>
       </c>
       <c r="D64" s="7" t="n">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="E64" s="15" t="n">
-        <v>47.76</v>
+        <v>48.42</v>
       </c>
       <c r="F64" s="7" t="n">
-        <v>905</v>
+        <v>868</v>
       </c>
       <c r="G64" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H64" s="16" t="n">
-        <v>8.07</v>
+        <v>28.06</v>
       </c>
       <c r="J64" s="5" t="n"/>
       <c r="L64" s="14" t="inlineStr">
@@ -3653,25 +3653,25 @@
       </c>
       <c r="M64" s="7" t="inlineStr">
         <is>
-          <t>Fredrik H. Gullachsen</t>
+          <t>Leon Samuel Douglas Mjaaland</t>
         </is>
       </c>
       <c r="N64" s="7" t="n">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="O64" s="15" t="n">
-        <v>48.42</v>
+        <v>47.76</v>
       </c>
       <c r="P64" s="7" t="n">
-        <v>868</v>
+        <v>905</v>
       </c>
       <c r="Q64" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R64" s="16" t="n">
-        <v>28.06</v>
+        <v>8.07</v>
       </c>
       <c r="T64" s="5" t="n"/>
     </row>
@@ -3683,27 +3683,27 @@
       </c>
       <c r="C65" s="7" t="inlineStr">
         <is>
-          <t>Leon Samuel Douglas Mjaaland</t>
+          <t>Eivind Langøy</t>
         </is>
       </c>
       <c r="D65" s="7" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="E65" s="17" t="inlineStr">
         <is>
-          <t>1,53,04</t>
+          <t>1,59,40</t>
         </is>
       </c>
       <c r="F65" s="7" t="n">
-        <v>839</v>
+        <v>699</v>
       </c>
       <c r="G65" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H65" s="16" t="n">
-        <v>20.05</v>
+        <v>26.06</v>
       </c>
       <c r="J65" s="5" t="n"/>
       <c r="L65" s="14" t="inlineStr">
@@ -3713,27 +3713,27 @@
       </c>
       <c r="M65" s="7" t="inlineStr">
         <is>
-          <t>Eivind Langøy</t>
+          <t>Leon Samuel Douglas Mjaaland</t>
         </is>
       </c>
       <c r="N65" s="7" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="O65" s="17" t="inlineStr">
         <is>
-          <t>1,59,40</t>
+          <t>1,53,04</t>
         </is>
       </c>
       <c r="P65" s="7" t="n">
-        <v>699</v>
+        <v>839</v>
       </c>
       <c r="Q65" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="R65" s="16" t="n">
-        <v>26.06</v>
+        <v>20.05</v>
       </c>
       <c r="T65" s="5" t="n"/>
     </row>
@@ -3745,27 +3745,27 @@
       </c>
       <c r="C66" s="7" t="inlineStr">
         <is>
-          <t>Simon Steinshamn</t>
+          <t>Christian Magnus Lothe Hitland</t>
         </is>
       </c>
       <c r="D66" s="7" t="n">
-        <v>1999</v>
+        <v>2008</v>
       </c>
       <c r="E66" s="17" t="inlineStr">
         <is>
-          <t>3,49,96</t>
+          <t>4,21,22</t>
         </is>
       </c>
       <c r="F66" s="7" t="n">
-        <v>865</v>
+        <v>585</v>
       </c>
       <c r="G66" s="7" t="inlineStr">
         <is>
-          <t>Watford/GBR</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H66" s="16" t="n">
-        <v>1.07</v>
+        <v>5.03</v>
       </c>
       <c r="J66" s="5" t="n"/>
       <c r="L66" s="14" t="inlineStr">
@@ -3775,27 +3775,27 @@
       </c>
       <c r="M66" s="7" t="inlineStr">
         <is>
-          <t>Christian Magnus Lothe Hitland</t>
+          <t>Simon Steinshamn</t>
         </is>
       </c>
       <c r="N66" s="7" t="n">
-        <v>2008</v>
+        <v>1999</v>
       </c>
       <c r="O66" s="17" t="inlineStr">
         <is>
-          <t>4,21,22</t>
+          <t>3,49,96</t>
         </is>
       </c>
       <c r="P66" s="7" t="n">
-        <v>585</v>
+        <v>865</v>
       </c>
       <c r="Q66" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Watford/GBR</t>
         </is>
       </c>
       <c r="R66" s="16" t="n">
-        <v>5.03</v>
+        <v>1.07</v>
       </c>
       <c r="T66" s="5" t="n"/>
     </row>
@@ -3807,27 +3807,27 @@
       </c>
       <c r="C67" s="7" t="inlineStr">
         <is>
-          <t>Ibrahim Buras</t>
+          <t>Per Svela</t>
         </is>
       </c>
       <c r="D67" s="7" t="n">
-        <v>2001</v>
+        <v>1992</v>
       </c>
       <c r="E67" s="17" t="inlineStr">
         <is>
-          <t>8,04,40</t>
+          <t>7,51,26</t>
         </is>
       </c>
       <c r="F67" s="7" t="n">
-        <v>933</v>
+        <v>998</v>
       </c>
       <c r="G67" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H67" s="16" t="n">
-        <v>19.02</v>
+        <v>3.06</v>
       </c>
       <c r="J67" s="5" t="n"/>
       <c r="L67" s="14" t="inlineStr">
@@ -3837,27 +3837,27 @@
       </c>
       <c r="M67" s="7" t="inlineStr">
         <is>
-          <t>Per Svela</t>
+          <t>Ibrahim Buras</t>
         </is>
       </c>
       <c r="N67" s="7" t="n">
-        <v>1992</v>
+        <v>2001</v>
       </c>
       <c r="O67" s="17" t="inlineStr">
         <is>
-          <t>7,51,26</t>
+          <t>8,04,40</t>
         </is>
       </c>
       <c r="P67" s="7" t="n">
-        <v>998</v>
+        <v>933</v>
       </c>
       <c r="Q67" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R67" s="16" t="n">
-        <v>3.06</v>
+        <v>19.02</v>
       </c>
       <c r="T67" s="5" t="n"/>
     </row>
@@ -3869,27 +3869,27 @@
       </c>
       <c r="C68" s="7" t="inlineStr">
         <is>
-          <t>Ibrahim Buras</t>
+          <t>Per Svela</t>
         </is>
       </c>
       <c r="D68" s="7" t="n">
-        <v>2001</v>
+        <v>1992</v>
       </c>
       <c r="E68" s="17" t="inlineStr">
         <is>
-          <t>14,12,30</t>
+          <t>13,22,46</t>
         </is>
       </c>
       <c r="F68" s="7" t="n">
-        <v>887</v>
+        <v>1035</v>
       </c>
       <c r="G68" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Oordegem/BEL</t>
         </is>
       </c>
       <c r="H68" s="16" t="n">
-        <v>28.06</v>
+        <v>27.05</v>
       </c>
       <c r="J68" s="5" t="n"/>
       <c r="L68" s="14" t="inlineStr">
@@ -3899,377 +3899,377 @@
       </c>
       <c r="M68" s="7" t="inlineStr">
         <is>
-          <t>Per Svela</t>
+          <t>Ibrahim Buras</t>
         </is>
       </c>
       <c r="N68" s="7" t="n">
-        <v>1992</v>
+        <v>2001</v>
       </c>
       <c r="O68" s="17" t="inlineStr">
         <is>
-          <t>13,22,46</t>
+          <t>14,12,30</t>
         </is>
       </c>
       <c r="P68" s="7" t="n">
-        <v>1035</v>
+        <v>887</v>
       </c>
       <c r="Q68" s="7" t="inlineStr">
         <is>
-          <t>Oordegem/BEL</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R68" s="16" t="n">
-        <v>27.05</v>
+        <v>28.06</v>
       </c>
       <c r="T68" s="5" t="n"/>
     </row>
     <row r="69" ht="13" customHeight="1">
       <c r="B69" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C69" s="7" t="inlineStr">
         <is>
-          <t>Ibrahim Buras</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="D69" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E69" s="17" t="inlineStr">
-        <is>
-          <t>29,10,94</t>
-        </is>
+        <v>1999</v>
+      </c>
+      <c r="E69" s="15" t="n">
+        <v>6.88</v>
       </c>
       <c r="F69" s="7" t="n">
-        <v>925</v>
+        <v>801</v>
       </c>
       <c r="G69" s="7" t="inlineStr">
         <is>
-          <t>Jämsä/FIN</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H69" s="16" t="n">
-        <v>1.07</v>
+        <v>17.06</v>
       </c>
       <c r="J69" s="5" t="n"/>
       <c r="L69" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M69" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Ibrahim Buras</t>
         </is>
       </c>
       <c r="N69" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="O69" s="15" t="n">
-        <v>6.88</v>
+        <v>2001</v>
+      </c>
+      <c r="O69" s="17" t="inlineStr">
+        <is>
+          <t>29,10,94</t>
+        </is>
       </c>
       <c r="P69" s="7" t="n">
-        <v>801</v>
+        <v>925</v>
       </c>
       <c r="Q69" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jämsä/FIN</t>
         </is>
       </c>
       <c r="R69" s="16" t="n">
-        <v>17.06</v>
+        <v>1.07</v>
       </c>
       <c r="T69" s="5" t="n"/>
     </row>
     <row r="70" ht="13" customHeight="1">
       <c r="B70" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C70" s="7" t="inlineStr">
         <is>
-          <t>Jonas Mæland Rosholt</t>
+          <t>Viljar Gjerde</t>
         </is>
       </c>
       <c r="D70" s="7" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="E70" s="15" t="n">
-        <v>57.2</v>
+        <v>15.25</v>
       </c>
       <c r="F70" s="7" t="n">
-        <v>700</v>
+        <v>904</v>
       </c>
       <c r="G70" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H70" s="16" t="n">
-        <v>20.05</v>
+        <v>18.02</v>
       </c>
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M70" s="7" t="inlineStr">
         <is>
-          <t>Viljar Gjerde</t>
+          <t>Jonas Mæland Rosholt</t>
         </is>
       </c>
       <c r="N70" s="7" t="n">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="O70" s="15" t="n">
-        <v>15.25</v>
+        <v>57.2</v>
       </c>
       <c r="P70" s="7" t="n">
-        <v>904</v>
+        <v>700</v>
       </c>
       <c r="Q70" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="R70" s="16" t="n">
-        <v>18.02</v>
+        <v>20.05</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
     <row r="71" ht="13" customHeight="1">
       <c r="B71" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C71" s="7" t="inlineStr">
         <is>
-          <t>Thai Drager</t>
+          <t>Theodor With</t>
         </is>
       </c>
       <c r="D71" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E71" s="15" t="n">
-        <v>6.21</v>
+        <v>2.79</v>
       </c>
       <c r="F71" s="7" t="n">
-        <v>654</v>
+        <v>555</v>
       </c>
       <c r="G71" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H71" s="16" t="n">
-        <v>4.06</v>
+        <v>10.02</v>
       </c>
       <c r="J71" s="5" t="n"/>
       <c r="L71" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M71" s="7" t="inlineStr">
         <is>
-          <t>Theodor With</t>
+          <t>Thai Drager</t>
         </is>
       </c>
       <c r="N71" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="O71" s="15" t="n">
-        <v>2.79</v>
+        <v>6.21</v>
       </c>
       <c r="P71" s="7" t="n">
-        <v>555</v>
+        <v>654</v>
       </c>
       <c r="Q71" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R71" s="16" t="n">
-        <v>10.02</v>
+        <v>4.06</v>
       </c>
       <c r="T71" s="5" t="n"/>
     </row>
     <row r="72" ht="13" customHeight="1">
       <c r="B72" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C72" s="7" t="inlineStr">
         <is>
-          <t>Thomas Viksaas Biermann</t>
+          <t>Marcus Thomsen</t>
         </is>
       </c>
       <c r="D72" s="7" t="n">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="E72" s="15" t="n">
-        <v>13.19</v>
+        <v>21.12</v>
       </c>
       <c r="F72" s="7" t="n">
-        <v>690</v>
+        <v>1116</v>
       </c>
       <c r="G72" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Banská Bystrica/SVK</t>
         </is>
       </c>
       <c r="H72" s="16" t="n">
-        <v>3.03</v>
+        <v>20.07</v>
       </c>
       <c r="J72" s="5" t="n"/>
       <c r="L72" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M72" s="7" t="inlineStr">
         <is>
-          <t>Marcus Thomsen</t>
+          <t>Thomas Viksaas Biermann</t>
         </is>
       </c>
       <c r="N72" s="7" t="n">
-        <v>1998</v>
+        <v>2007</v>
       </c>
       <c r="O72" s="15" t="n">
-        <v>21.12</v>
+        <v>13.19</v>
       </c>
       <c r="P72" s="7" t="n">
-        <v>1116</v>
+        <v>690</v>
       </c>
       <c r="Q72" s="7" t="inlineStr">
         <is>
-          <t>Banská Bystrica/SVK</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R72" s="16" t="n">
-        <v>20.07</v>
+        <v>3.03</v>
       </c>
       <c r="T72" s="5" t="n"/>
     </row>
     <row r="73" ht="13" customHeight="1">
       <c r="B73" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C73" s="7" t="inlineStr">
         <is>
-          <t>Thomas Viksaas Biermann</t>
+          <t>Sven Martin Skagestad</t>
         </is>
       </c>
       <c r="D73" s="7" t="n">
-        <v>2007</v>
+        <v>1995</v>
       </c>
       <c r="E73" s="15" t="n">
-        <v>2.84</v>
+        <v>61.11</v>
       </c>
       <c r="F73" s="7" t="n">
-        <v>583</v>
+        <v>1026</v>
       </c>
       <c r="G73" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>København/DEN</t>
         </is>
       </c>
       <c r="H73" s="16" t="n">
-        <v>19.02</v>
+        <v>28.05</v>
       </c>
       <c r="J73" s="5" t="n"/>
       <c r="L73" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M73" s="7" t="inlineStr">
         <is>
-          <t>Sven Martin Skagestad</t>
+          <t>Thomas Viksaas Biermann</t>
         </is>
       </c>
       <c r="N73" s="7" t="n">
-        <v>1995</v>
+        <v>2007</v>
       </c>
       <c r="O73" s="15" t="n">
-        <v>61.11</v>
+        <v>2.84</v>
       </c>
       <c r="P73" s="7" t="n">
-        <v>1026</v>
+        <v>583</v>
       </c>
       <c r="Q73" s="7" t="inlineStr">
         <is>
-          <t>København/DEN</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R73" s="16" t="n">
-        <v>28.05</v>
+        <v>19.02</v>
       </c>
       <c r="T73" s="5" t="n"/>
     </row>
     <row r="74" ht="13" customHeight="1">
       <c r="B74" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="C74" s="7" t="inlineStr">
         <is>
-          <t>Eirik Halfdansen-Aspen</t>
+          <t>Jon Nerdal</t>
         </is>
       </c>
       <c r="D74" s="7" t="n">
-        <v>2004</v>
+        <v>1996</v>
       </c>
       <c r="E74" s="15" t="n">
-        <v>45.22</v>
+        <v>63.99</v>
       </c>
       <c r="F74" s="7" t="n">
-        <v>777</v>
+        <v>928</v>
       </c>
       <c r="G74" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Baton Rouge/LA/USA</t>
         </is>
       </c>
       <c r="H74" s="16" t="n">
-        <v>28.06</v>
+        <v>29.04</v>
       </c>
       <c r="J74" s="5" t="n"/>
       <c r="L74" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M74" s="7" t="inlineStr">
         <is>
-          <t>Jon Nerdal</t>
+          <t>Eirik Halfdansen-Aspen</t>
         </is>
       </c>
       <c r="N74" s="7" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="O74" s="15" t="n">
-        <v>63.99</v>
+        <v>45.22</v>
       </c>
       <c r="P74" s="7" t="n">
-        <v>928</v>
+        <v>777</v>
       </c>
       <c r="Q74" s="7" t="inlineStr">
         <is>
-          <t>Baton Rouge/LA/USA</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R74" s="16" t="n">
-        <v>29.04</v>
+        <v>28.06</v>
       </c>
       <c r="T74" s="5" t="n"/>
     </row>
@@ -4281,34 +4281,54 @@
       </c>
       <c r="C75" s="7" t="inlineStr">
         <is>
+          <t>Sebastian Rolland</t>
+        </is>
+      </c>
+      <c r="D75" s="7" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E75" s="15" t="n">
+        <v>58.14</v>
+      </c>
+      <c r="F75" s="7" t="n">
+        <v>734</v>
+      </c>
+      <c r="G75" s="7" t="inlineStr">
+        <is>
+          <t>Leikvang</t>
+        </is>
+      </c>
+      <c r="H75" s="16" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J75" s="5" t="n"/>
+      <c r="L75" s="14" t="inlineStr">
+        <is>
+          <t>Spyd</t>
+        </is>
+      </c>
+      <c r="M75" s="7" t="inlineStr">
+        <is>
           <t>Kasper Sagen</t>
         </is>
       </c>
-      <c r="D75" s="7" t="n">
+      <c r="N75" s="7" t="n">
         <v>1999</v>
       </c>
-      <c r="E75" s="15" t="n">
+      <c r="O75" s="15" t="n">
         <v>76.94</v>
       </c>
-      <c r="F75" s="7" t="n">
+      <c r="P75" s="7" t="n">
         <v>1000</v>
       </c>
-      <c r="G75" s="7" t="inlineStr">
+      <c r="Q75" s="7" t="inlineStr">
         <is>
           <t>Leverkusen/GER</t>
         </is>
       </c>
-      <c r="H75" s="16" t="n">
+      <c r="R75" s="16" t="n">
         <v>29.07</v>
       </c>
-      <c r="J75" s="5" t="n"/>
-      <c r="L75" s="14" t="n"/>
-      <c r="M75" s="7" t="n"/>
-      <c r="N75" s="7" t="n"/>
-      <c r="O75" s="7" t="n"/>
-      <c r="P75" s="7" t="n"/>
-      <c r="Q75" s="7" t="n"/>
-      <c r="R75" s="21" t="n"/>
       <c r="T75" s="5" t="n"/>
     </row>
     <row r="76" ht="13" customHeight="1">
@@ -4344,7 +4364,7 @@
         </is>
       </c>
       <c r="F77" s="20" t="n">
-        <v>12635</v>
+        <v>13099</v>
       </c>
       <c r="J77" s="5" t="n"/>
       <c r="L77" s="19" t="inlineStr">
@@ -4353,7 +4373,7 @@
         </is>
       </c>
       <c r="M77" s="20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O77" s="19" t="inlineStr">
         <is>
@@ -4361,7 +4381,7 @@
         </is>
       </c>
       <c r="P77" s="20" t="n">
-        <v>12365</v>
+        <v>12635</v>
       </c>
       <c r="T77" s="5" t="n"/>
     </row>
@@ -4464,80 +4484,80 @@
     <row r="82" ht="13" customHeight="1">
       <c r="B82" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C82" s="7" t="inlineStr">
         <is>
-          <t>Edem Schaanning Agbo</t>
+          <t>Anders Vik</t>
         </is>
       </c>
       <c r="D82" s="7" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E82" s="15" t="n">
-        <v>10.6</v>
+        <v>53.83</v>
       </c>
       <c r="F82" s="7" t="n">
-        <v>948</v>
+        <v>918</v>
       </c>
       <c r="G82" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H82" s="16" t="n">
-        <v>6.07</v>
+        <v>2.06</v>
       </c>
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M82" s="7" t="inlineStr">
         <is>
-          <t>Anders Vik</t>
+          <t>Edem Schaanning Agbo</t>
         </is>
       </c>
       <c r="N82" s="7" t="n">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="O82" s="15" t="n">
-        <v>53.83</v>
+        <v>10.6</v>
       </c>
       <c r="P82" s="7" t="n">
-        <v>918</v>
+        <v>948</v>
       </c>
       <c r="Q82" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R82" s="16" t="n">
-        <v>2.06</v>
+        <v>6.07</v>
       </c>
       <c r="T82" s="5" t="n"/>
     </row>
     <row r="83" ht="13" customHeight="1">
       <c r="B83" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C83" s="7" t="inlineStr">
         <is>
-          <t>Edem Schaanning Agbo</t>
+          <t>Sven Martin Skagestad</t>
         </is>
       </c>
       <c r="D83" s="7" t="n">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="E83" s="15" t="n">
-        <v>6.86</v>
+        <v>16.67</v>
       </c>
       <c r="F83" s="7" t="n">
-        <v>929</v>
+        <v>894</v>
       </c>
       <c r="G83" s="7" t="inlineStr">
         <is>
@@ -4550,22 +4570,22 @@
       <c r="J83" s="5" t="n"/>
       <c r="L83" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M83" s="7" t="inlineStr">
         <is>
-          <t>Sven Martin Skagestad</t>
+          <t>Edem Schaanning Agbo</t>
         </is>
       </c>
       <c r="N83" s="7" t="n">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="O83" s="15" t="n">
-        <v>16.67</v>
+        <v>6.86</v>
       </c>
       <c r="P83" s="7" t="n">
-        <v>894</v>
+        <v>929</v>
       </c>
       <c r="Q83" s="7" t="inlineStr">
         <is>
@@ -4585,17 +4605,17 @@
       </c>
       <c r="C84" s="7" t="inlineStr">
         <is>
-          <t>Sander Werge Nilsen</t>
+          <t>Muhammed Dodou Jatta</t>
         </is>
       </c>
       <c r="D84" s="7" t="n">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="E84" s="15" t="n">
-        <v>10.69</v>
+        <v>10.91</v>
       </c>
       <c r="F84" s="7" t="n">
-        <v>924</v>
+        <v>865</v>
       </c>
       <c r="G84" s="7" t="inlineStr">
         <is>
@@ -4613,17 +4633,17 @@
       </c>
       <c r="M84" s="7" t="inlineStr">
         <is>
-          <t>Muhammed Dodou Jatta</t>
+          <t>Sander Werge Nilsen</t>
         </is>
       </c>
       <c r="N84" s="7" t="n">
-        <v>1998</v>
+        <v>2003</v>
       </c>
       <c r="O84" s="15" t="n">
-        <v>10.91</v>
+        <v>10.69</v>
       </c>
       <c r="P84" s="7" t="n">
-        <v>865</v>
+        <v>924</v>
       </c>
       <c r="Q84" s="7" t="inlineStr">
         <is>
@@ -4643,25 +4663,25 @@
       </c>
       <c r="C85" s="7" t="inlineStr">
         <is>
-          <t>Christopher Ekene Nordlie</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="D85" s="7" t="n">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="E85" s="15" t="n">
-        <v>10.77</v>
+        <v>10.98</v>
       </c>
       <c r="F85" s="7" t="n">
-        <v>902</v>
+        <v>846</v>
       </c>
       <c r="G85" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H85" s="16" t="n">
-        <v>3.06</v>
+        <v>25.06</v>
       </c>
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
@@ -4671,605 +4691,605 @@
       </c>
       <c r="M85" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Christopher Ekene Nordlie</t>
         </is>
       </c>
       <c r="N85" s="7" t="n">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="O85" s="15" t="n">
-        <v>10.98</v>
+        <v>10.77</v>
       </c>
       <c r="P85" s="7" t="n">
-        <v>846</v>
+        <v>902</v>
       </c>
       <c r="Q85" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R85" s="16" t="n">
-        <v>25.06</v>
+        <v>3.06</v>
       </c>
       <c r="T85" s="5" t="n"/>
     </row>
     <row r="86" ht="13" customHeight="1">
       <c r="B86" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C86" s="7" t="inlineStr">
         <is>
-          <t>Stephan Skogheim Kyeremeh</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="D86" s="7" t="n">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="E86" s="15" t="n">
-        <v>48.27</v>
+        <v>7.07</v>
       </c>
       <c r="F86" s="7" t="n">
-        <v>876</v>
+        <v>832</v>
       </c>
       <c r="G86" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H86" s="16" t="n">
-        <v>6.07</v>
+        <v>18.02</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M86" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Stephan Skogheim Kyeremeh</t>
         </is>
       </c>
       <c r="N86" s="7" t="n">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="O86" s="15" t="n">
-        <v>7.07</v>
+        <v>48.27</v>
       </c>
       <c r="P86" s="7" t="n">
-        <v>832</v>
+        <v>876</v>
       </c>
       <c r="Q86" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R86" s="16" t="n">
-        <v>18.02</v>
+        <v>6.07</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
     <row r="87" ht="13" customHeight="1">
       <c r="B87" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C87" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Holen</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="D87" s="7" t="n">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="E87" s="15" t="n">
-        <v>6.98</v>
+        <v>22.3</v>
       </c>
       <c r="F87" s="7" t="n">
-        <v>872</v>
+        <v>826</v>
       </c>
       <c r="G87" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="H87" s="16" t="n">
-        <v>11.02</v>
+        <v>7.06</v>
       </c>
       <c r="J87" s="5" t="n"/>
       <c r="L87" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M87" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Jonathan Holen</t>
         </is>
       </c>
       <c r="N87" s="7" t="n">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="O87" s="15" t="n">
-        <v>22.3</v>
+        <v>6.98</v>
       </c>
       <c r="P87" s="7" t="n">
-        <v>826</v>
+        <v>872</v>
       </c>
       <c r="Q87" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R87" s="16" t="n">
-        <v>7.06</v>
+        <v>11.02</v>
       </c>
       <c r="T87" s="5" t="n"/>
     </row>
     <row r="88" ht="13" customHeight="1">
       <c r="B88" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C88" s="7" t="inlineStr">
         <is>
-          <t>Edem Schaanning Agbo</t>
+          <t>Theodor With</t>
         </is>
       </c>
       <c r="D88" s="7" t="n">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="E88" s="15" t="n">
-        <v>21.92</v>
+        <v>11.2</v>
       </c>
       <c r="F88" s="7" t="n">
-        <v>870</v>
+        <v>791</v>
       </c>
       <c r="G88" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H88" s="16" t="n">
-        <v>27.07</v>
+        <v>13.05</v>
       </c>
       <c r="J88" s="5" t="n"/>
       <c r="L88" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M88" s="7" t="inlineStr">
         <is>
-          <t>Theodor With</t>
+          <t>Edem Schaanning Agbo</t>
         </is>
       </c>
       <c r="N88" s="7" t="n">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="O88" s="15" t="n">
-        <v>11.2</v>
+        <v>21.92</v>
       </c>
       <c r="P88" s="7" t="n">
-        <v>791</v>
+        <v>870</v>
       </c>
       <c r="Q88" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R88" s="16" t="n">
-        <v>13.05</v>
+        <v>27.07</v>
       </c>
       <c r="T88" s="5" t="n"/>
     </row>
     <row r="89" ht="13" customHeight="1">
       <c r="B89" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C89" s="7" t="inlineStr">
         <is>
-          <t>Christopher Ekene Nordlie</t>
+          <t>Theodor With</t>
         </is>
       </c>
       <c r="D89" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E89" s="15" t="n">
-        <v>22</v>
+        <v>7.17</v>
       </c>
       <c r="F89" s="7" t="n">
-        <v>860</v>
+        <v>789</v>
       </c>
       <c r="G89" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H89" s="16" t="n">
-        <v>17.06</v>
+        <v>3.06</v>
       </c>
       <c r="J89" s="5" t="n"/>
       <c r="L89" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M89" s="7" t="inlineStr">
         <is>
-          <t>Theodor With</t>
+          <t>Christopher Ekene Nordlie</t>
         </is>
       </c>
       <c r="N89" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O89" s="15" t="n">
-        <v>7.17</v>
+        <v>22</v>
       </c>
       <c r="P89" s="7" t="n">
-        <v>789</v>
+        <v>860</v>
       </c>
       <c r="Q89" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R89" s="16" t="n">
-        <v>3.06</v>
+        <v>17.06</v>
       </c>
       <c r="T89" s="5" t="n"/>
     </row>
     <row r="90" ht="13" customHeight="1">
       <c r="B90" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C90" s="7" t="inlineStr">
         <is>
-          <t>Stephan Skogheim Kyeremeh</t>
+          <t>Viljar Gjerde</t>
         </is>
       </c>
       <c r="D90" s="7" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E90" s="15" t="n">
-        <v>10.99</v>
+        <v>6.74</v>
       </c>
       <c r="F90" s="7" t="n">
-        <v>844</v>
+        <v>771</v>
       </c>
       <c r="G90" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H90" s="16" t="n">
-        <v>3.06</v>
+        <v>19.02</v>
       </c>
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M90" s="7" t="inlineStr">
         <is>
-          <t>Viljar Gjerde</t>
+          <t>Stephan Skogheim Kyeremeh</t>
         </is>
       </c>
       <c r="N90" s="7" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="O90" s="15" t="n">
-        <v>6.74</v>
+        <v>10.99</v>
       </c>
       <c r="P90" s="7" t="n">
-        <v>771</v>
+        <v>844</v>
       </c>
       <c r="Q90" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R90" s="16" t="n">
-        <v>19.02</v>
+        <v>3.06</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
     <row r="91" ht="13" customHeight="1">
       <c r="B91" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C91" s="7" t="inlineStr">
         <is>
-          <t>Bereket Geda Wayu</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="D91" s="7" t="n">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="E91" s="15" t="n">
-        <v>22.16</v>
+        <v>50.61</v>
       </c>
       <c r="F91" s="7" t="n">
-        <v>842</v>
+        <v>753</v>
       </c>
       <c r="G91" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Paris/FRA</t>
         </is>
       </c>
       <c r="H91" s="16" t="n">
-        <v>7.06</v>
+        <v>15.07</v>
       </c>
       <c r="J91" s="5" t="n"/>
       <c r="L91" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M91" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Bereket Geda Wayu</t>
         </is>
       </c>
       <c r="N91" s="7" t="n">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="O91" s="15" t="n">
-        <v>50.61</v>
+        <v>22.16</v>
       </c>
       <c r="P91" s="7" t="n">
-        <v>753</v>
+        <v>842</v>
       </c>
       <c r="Q91" s="7" t="inlineStr">
         <is>
-          <t>Paris/FRA</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="R91" s="16" t="n">
-        <v>15.07</v>
+        <v>7.06</v>
       </c>
       <c r="T91" s="5" t="n"/>
     </row>
     <row r="92" ht="13" customHeight="1">
       <c r="B92" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C92" s="7" t="inlineStr">
         <is>
-          <t>Ruben Martinsen</t>
+          <t>Theodor With</t>
         </is>
       </c>
       <c r="D92" s="7" t="n">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="E92" s="15" t="n">
-        <v>56.64</v>
+        <v>23.06</v>
       </c>
       <c r="F92" s="7" t="n">
-        <v>715</v>
+        <v>742</v>
       </c>
       <c r="G92" s="7" t="inlineStr">
         <is>
-          <t>Bækkelaget</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H92" s="16" t="n">
-        <v>6.05</v>
+        <v>2.07</v>
       </c>
       <c r="J92" s="5" t="n"/>
       <c r="L92" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M92" s="7" t="inlineStr">
         <is>
-          <t>Theodor With</t>
+          <t>Ruben Martinsen</t>
         </is>
       </c>
       <c r="N92" s="7" t="n">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="O92" s="15" t="n">
-        <v>23.06</v>
+        <v>56.64</v>
       </c>
       <c r="P92" s="7" t="n">
-        <v>742</v>
+        <v>715</v>
       </c>
       <c r="Q92" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bækkelaget</t>
         </is>
       </c>
       <c r="R92" s="16" t="n">
-        <v>2.07</v>
+        <v>6.05</v>
       </c>
       <c r="T92" s="5" t="n"/>
     </row>
     <row r="93" ht="13" customHeight="1">
       <c r="B93" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C93" s="7" t="inlineStr">
         <is>
-          <t>Dag Storm Wergeland</t>
+          <t>Tristan Emil Brekke Nøttveit</t>
         </is>
       </c>
       <c r="D93" s="7" t="n">
-        <v>1989</v>
+        <v>2007</v>
       </c>
       <c r="E93" s="15" t="n">
-        <v>55.27</v>
+        <v>11.44</v>
       </c>
       <c r="F93" s="7" t="n">
-        <v>696</v>
+        <v>734</v>
       </c>
       <c r="G93" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H93" s="16" t="n">
-        <v>17.06</v>
+        <v>13.05</v>
       </c>
       <c r="J93" s="5" t="n"/>
       <c r="L93" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M93" s="7" t="inlineStr">
         <is>
-          <t>Tristan Emil Brekke Nøttveit</t>
+          <t>Dag Storm Wergeland</t>
         </is>
       </c>
       <c r="N93" s="7" t="n">
-        <v>2007</v>
+        <v>1989</v>
       </c>
       <c r="O93" s="15" t="n">
-        <v>11.44</v>
+        <v>55.27</v>
       </c>
       <c r="P93" s="7" t="n">
-        <v>734</v>
+        <v>696</v>
       </c>
       <c r="Q93" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R93" s="16" t="n">
-        <v>13.05</v>
+        <v>17.06</v>
       </c>
       <c r="T93" s="5" t="n"/>
     </row>
     <row r="94" ht="13" customHeight="1">
       <c r="B94" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C94" s="7" t="inlineStr">
         <is>
-          <t>Thomas Viksaas Biermann</t>
+          <t>Jakob H. Holmelid</t>
         </is>
       </c>
       <c r="D94" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E94" s="15" t="n">
-        <v>6.15</v>
+        <v>11.47</v>
       </c>
       <c r="F94" s="7" t="n">
-        <v>640</v>
+        <v>727</v>
       </c>
       <c r="G94" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H94" s="16" t="n">
-        <v>3.06</v>
+        <v>13.05</v>
       </c>
       <c r="J94" s="5" t="n"/>
       <c r="L94" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M94" s="7" t="inlineStr">
         <is>
-          <t>Jakob H. Holmelid</t>
+          <t>Thomas Viksaas Biermann</t>
         </is>
       </c>
       <c r="N94" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O94" s="15" t="n">
-        <v>11.47</v>
+        <v>6.15</v>
       </c>
       <c r="P94" s="7" t="n">
-        <v>727</v>
+        <v>640</v>
       </c>
       <c r="Q94" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R94" s="16" t="n">
-        <v>13.05</v>
+        <v>3.06</v>
       </c>
       <c r="T94" s="5" t="n"/>
     </row>
     <row r="95" ht="13" customHeight="1">
       <c r="B95" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="C95" s="7" t="inlineStr">
         <is>
-          <t>Thai Drager</t>
+          <t>Halvard Melsås</t>
         </is>
       </c>
       <c r="D95" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="E95" s="15" t="n">
-        <v>12.26</v>
+        <v>47.08</v>
       </c>
       <c r="F95" s="7" t="n">
-        <v>589</v>
+        <v>713</v>
       </c>
       <c r="G95" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Knarvik</t>
         </is>
       </c>
       <c r="H95" s="16" t="n">
-        <v>3.03</v>
+        <v>20.06</v>
       </c>
       <c r="J95" s="5" t="n"/>
       <c r="L95" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M95" s="7" t="inlineStr">
         <is>
-          <t>Halvard Melsås</t>
+          <t>Thai Drager</t>
         </is>
       </c>
       <c r="N95" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="O95" s="15" t="n">
-        <v>47.08</v>
+        <v>12.26</v>
       </c>
       <c r="P95" s="7" t="n">
-        <v>713</v>
+        <v>589</v>
       </c>
       <c r="Q95" s="7" t="inlineStr">
         <is>
-          <t>Knarvik</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R95" s="16" t="n">
-        <v>20.06</v>
+        <v>3.03</v>
       </c>
       <c r="T95" s="5" t="n"/>
     </row>
@@ -5281,25 +5301,25 @@
       </c>
       <c r="C96" s="7" t="inlineStr">
         <is>
-          <t>Jonas Mæland Rosholt</t>
+          <t>Jone Alsaker Løken</t>
         </is>
       </c>
       <c r="D96" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E96" s="15" t="n">
-        <v>2.83</v>
+        <v>2.63</v>
       </c>
       <c r="F96" s="7" t="n">
-        <v>577</v>
+        <v>460</v>
       </c>
       <c r="G96" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H96" s="16" t="n">
-        <v>19.02</v>
+        <v>10.02</v>
       </c>
       <c r="J96" s="5" t="n"/>
       <c r="L96" s="14" t="inlineStr">
@@ -5309,25 +5329,25 @@
       </c>
       <c r="M96" s="7" t="inlineStr">
         <is>
-          <t>Jone Alsaker Løken</t>
+          <t>Jonas Mæland Rosholt</t>
         </is>
       </c>
       <c r="N96" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="O96" s="15" t="n">
-        <v>2.63</v>
+        <v>2.83</v>
       </c>
       <c r="P96" s="7" t="n">
-        <v>460</v>
+        <v>577</v>
       </c>
       <c r="Q96" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R96" s="16" t="n">
-        <v>10.02</v>
+        <v>19.02</v>
       </c>
       <c r="T96" s="5" t="n"/>
     </row>
@@ -5364,7 +5384,7 @@
         </is>
       </c>
       <c r="F98" s="20" t="n">
-        <v>12084</v>
+        <v>11661</v>
       </c>
       <c r="J98" s="5" t="n"/>
       <c r="L98" s="19" t="inlineStr">
@@ -5381,7 +5401,7 @@
         </is>
       </c>
       <c r="P98" s="20" t="n">
-        <v>11661</v>
+        <v>12084</v>
       </c>
       <c r="T98" s="5" t="n"/>
     </row>
@@ -5404,7 +5424,7 @@
         </is>
       </c>
       <c r="F100" s="20" t="n">
-        <v>24719</v>
+        <v>24760</v>
       </c>
       <c r="J100" s="5" t="n"/>
       <c r="L100" s="19" t="inlineStr">
@@ -5413,7 +5433,7 @@
         </is>
       </c>
       <c r="M100" s="20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O100" s="19" t="inlineStr">
         <is>
@@ -5421,7 +5441,7 @@
         </is>
       </c>
       <c r="P100" s="20" t="n">
-        <v>24026</v>
+        <v>24719</v>
       </c>
       <c r="T100" s="5" t="n"/>
     </row>
@@ -5436,7 +5456,7 @@
         </is>
       </c>
       <c r="C102" s="20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J102" s="5" t="n"/>
       <c r="L102" s="19" t="inlineStr">
@@ -13086,13 +13106,33 @@
         <v>17.06</v>
       </c>
       <c r="J281" s="5" t="n"/>
-      <c r="L281" s="14" t="n"/>
-      <c r="M281" s="7" t="n"/>
-      <c r="N281" s="7" t="n"/>
-      <c r="O281" s="7" t="n"/>
-      <c r="P281" s="7" t="n"/>
-      <c r="Q281" s="7" t="n"/>
-      <c r="R281" s="21" t="n"/>
+      <c r="L281" s="14" t="inlineStr">
+        <is>
+          <t>Kule</t>
+        </is>
+      </c>
+      <c r="M281" s="7" t="inlineStr">
+        <is>
+          <t>Iver Hytten</t>
+        </is>
+      </c>
+      <c r="N281" s="7" t="n">
+        <v>1966</v>
+      </c>
+      <c r="O281" s="15" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="P281" s="7" t="n">
+        <v>664</v>
+      </c>
+      <c r="Q281" s="7" t="inlineStr">
+        <is>
+          <t>Greveskogen</t>
+        </is>
+      </c>
+      <c r="R281" s="16" t="n">
+        <v>1.08</v>
+      </c>
       <c r="T281" s="5" t="n"/>
     </row>
     <row r="282" ht="13" customHeight="1">
@@ -13193,7 +13233,7 @@
         </is>
       </c>
       <c r="M285" s="20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O285" s="19" t="inlineStr">
         <is>
@@ -13201,7 +13241,7 @@
         </is>
       </c>
       <c r="P285" s="20" t="n">
-        <v>8503</v>
+        <v>9167</v>
       </c>
       <c r="T285" s="5" t="n"/>
     </row>
@@ -14261,7 +14301,7 @@
         </is>
       </c>
       <c r="M308" s="20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O308" s="19" t="inlineStr">
         <is>
@@ -14269,7 +14309,7 @@
         </is>
       </c>
       <c r="P308" s="20" t="n">
-        <v>19242</v>
+        <v>19906</v>
       </c>
       <c r="T308" s="5" t="n"/>
     </row>
@@ -14293,7 +14333,7 @@
         </is>
       </c>
       <c r="M310" s="20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T310" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2023 1-2. div.xlsx
+++ b/output/Lagserien 2023 1-2. div.xlsx
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>27842</v>
+        <v>27866</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>23678</v>
+        <v>23684</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -852,11 +852,11 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>(30/13)</t>
+          <t>(30/12)</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>21215</v>
+        <v>21221</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>18044</v>
+        <v>18199</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -2258,18 +2258,18 @@
         <v>1996</v>
       </c>
       <c r="E30" s="15" t="n">
-        <v>7.57</v>
+        <v>7.69</v>
       </c>
       <c r="F30" s="7" t="n">
-        <v>946</v>
+        <v>970</v>
       </c>
       <c r="G30" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Chengdu/CHN</t>
         </is>
       </c>
       <c r="H30" s="16" t="n">
-        <v>28.06</v>
+        <v>5.08</v>
       </c>
       <c r="J30" s="5" t="n"/>
       <c r="L30" s="14" t="inlineStr">
@@ -3158,7 +3158,7 @@
         </is>
       </c>
       <c r="F46" s="20" t="n">
-        <v>13346</v>
+        <v>13370</v>
       </c>
       <c r="J46" s="5" t="n"/>
       <c r="L46" s="19" t="inlineStr">
@@ -3198,7 +3198,7 @@
         </is>
       </c>
       <c r="F48" s="20" t="n">
-        <v>27842</v>
+        <v>27866</v>
       </c>
       <c r="J48" s="5" t="n"/>
       <c r="L48" s="19" t="inlineStr">
@@ -6420,18 +6420,18 @@
         <v>2000</v>
       </c>
       <c r="O125" s="15" t="n">
-        <v>7.17</v>
+        <v>7.2</v>
       </c>
       <c r="P125" s="7" t="n">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="Q125" s="7" t="inlineStr">
         <is>
-          <t>Borås/SWE</t>
+          <t>Chengdu/CHN</t>
         </is>
       </c>
       <c r="R125" s="16" t="n">
-        <v>10.06</v>
+        <v>2.08</v>
       </c>
       <c r="T125" s="5" t="n"/>
     </row>
@@ -6601,7 +6601,7 @@
         </is>
       </c>
       <c r="P129" s="20" t="n">
-        <v>12427</v>
+        <v>12433</v>
       </c>
       <c r="T129" s="5" t="n"/>
     </row>
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="P152" s="20" t="n">
-        <v>23678</v>
+        <v>23684</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
@@ -11668,30 +11668,30 @@
       <c r="J246" s="5" t="n"/>
       <c r="L246" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M246" s="7" t="inlineStr">
         <is>
-          <t>Sander Frøseth Fenes</t>
+          <t>Arne Røstad</t>
         </is>
       </c>
       <c r="N246" s="7" t="n">
         <v>2002</v>
       </c>
       <c r="O246" s="15" t="n">
-        <v>7.44</v>
+        <v>23.62</v>
       </c>
       <c r="P246" s="7" t="n">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="Q246" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Overhalla</t>
         </is>
       </c>
       <c r="R246" s="16" t="n">
-        <v>11.02</v>
+        <v>5.08</v>
       </c>
       <c r="T246" s="5" t="n"/>
     </row>
@@ -11728,30 +11728,30 @@
       <c r="J247" s="5" t="n"/>
       <c r="L247" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M247" s="7" t="inlineStr">
         <is>
-          <t>Tomas Digernes Heltne</t>
+          <t>Sander Frøseth Fenes</t>
         </is>
       </c>
       <c r="N247" s="7" t="n">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="O247" s="15" t="n">
-        <v>23.68</v>
+        <v>7.44</v>
       </c>
       <c r="P247" s="7" t="n">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q247" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R247" s="16" t="n">
-        <v>23.06</v>
+        <v>11.02</v>
       </c>
       <c r="T247" s="5" t="n"/>
     </row>
@@ -12097,7 +12097,7 @@
         </is>
       </c>
       <c r="P254" s="20" t="n">
-        <v>10071</v>
+        <v>10077</v>
       </c>
       <c r="T254" s="5" t="n"/>
     </row>
@@ -12137,7 +12137,7 @@
         </is>
       </c>
       <c r="P256" s="20" t="n">
-        <v>21215</v>
+        <v>21221</v>
       </c>
       <c r="T256" s="5" t="n"/>
     </row>
@@ -12161,7 +12161,7 @@
         </is>
       </c>
       <c r="M258" s="20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T258" s="5" t="n"/>
     </row>
@@ -15718,30 +15718,30 @@
     <row r="345" ht="13" customHeight="1">
       <c r="B345" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C345" s="7" t="inlineStr">
         <is>
-          <t>Eirik Reigstad</t>
+          <t>Joe Aphisit Tepnuan</t>
         </is>
       </c>
       <c r="D345" s="7" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="E345" s="15" t="n">
-        <v>5.99</v>
+        <v>12.01</v>
       </c>
       <c r="F345" s="7" t="n">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="G345" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="H345" s="16" t="n">
-        <v>16.06</v>
+        <v>5.08</v>
       </c>
       <c r="J345" s="5" t="n"/>
       <c r="L345" s="14" t="inlineStr">
@@ -15776,30 +15776,30 @@
     <row r="346" ht="13" customHeight="1">
       <c r="B346" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C346" s="7" t="inlineStr">
         <is>
-          <t>William-André Alver Sylta</t>
+          <t>Eirik Reigstad</t>
         </is>
       </c>
       <c r="D346" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E346" s="15" t="n">
-        <v>7.67</v>
+        <v>5.99</v>
       </c>
       <c r="F346" s="7" t="n">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="G346" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H346" s="16" t="n">
-        <v>10.05</v>
+        <v>16.06</v>
       </c>
       <c r="J346" s="5" t="n"/>
       <c r="L346" s="14" t="inlineStr">
@@ -15839,11 +15839,11 @@
       </c>
       <c r="C347" s="7" t="inlineStr">
         <is>
-          <t>Eirik Reigstad</t>
+          <t>William-André Alver Sylta</t>
         </is>
       </c>
       <c r="D347" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E347" s="15" t="n">
         <v>7.67</v>
@@ -15853,11 +15853,11 @@
       </c>
       <c r="G347" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="H347" s="16" t="n">
-        <v>5.07</v>
+        <v>10.05</v>
       </c>
       <c r="J347" s="5" t="n"/>
       <c r="L347" s="14" t="inlineStr">
@@ -15894,7 +15894,7 @@
     <row r="348" ht="13" customHeight="1">
       <c r="B348" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C348" s="7" t="inlineStr">
@@ -15906,18 +15906,18 @@
         <v>2007</v>
       </c>
       <c r="E348" s="15" t="n">
-        <v>24.86</v>
+        <v>7.67</v>
       </c>
       <c r="F348" s="7" t="n">
-        <v>568</v>
+        <v>600</v>
       </c>
       <c r="G348" s="7" t="inlineStr">
         <is>
-          <t>Rosendal</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H348" s="16" t="n">
-        <v>28.05</v>
+        <v>5.07</v>
       </c>
       <c r="J348" s="5" t="n"/>
       <c r="L348" s="14" t="inlineStr">
@@ -16136,32 +16136,30 @@
     <row r="352" ht="13" customHeight="1">
       <c r="B352" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C352" s="7" t="inlineStr">
         <is>
-          <t>Torstein Olai Leiren Mastervik</t>
+          <t>Eirik Reigstad</t>
         </is>
       </c>
       <c r="D352" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E352" s="17" t="inlineStr">
-        <is>
-          <t>2,13,17</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E352" s="15" t="n">
+        <v>1.35</v>
       </c>
       <c r="F352" s="7" t="n">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="G352" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H352" s="16" t="n">
-        <v>17.06</v>
+        <v>10.02</v>
       </c>
       <c r="J352" s="5" t="n"/>
       <c r="L352" s="14" t="n"/>
@@ -16176,32 +16174,32 @@
     <row r="353" ht="13" customHeight="1">
       <c r="B353" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C353" s="7" t="inlineStr">
         <is>
-          <t>Torstein Olai Leiren Mastervik</t>
+          <t>Noah Raknes</t>
         </is>
       </c>
       <c r="D353" s="7" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="E353" s="17" t="inlineStr">
         <is>
-          <t>10,04,10</t>
+          <t>2,12,72</t>
         </is>
       </c>
       <c r="F353" s="7" t="n">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="G353" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="H353" s="16" t="n">
-        <v>16.06</v>
+        <v>5.08</v>
       </c>
       <c r="J353" s="5" t="n"/>
       <c r="L353" s="14" t="n"/>
@@ -16216,30 +16214,32 @@
     <row r="354" ht="13" customHeight="1">
       <c r="B354" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C354" s="7" t="inlineStr">
         <is>
-          <t>Magnus Reigstad</t>
+          <t>Torstein Olai Leiren Mastervik</t>
         </is>
       </c>
       <c r="D354" s="7" t="n">
         <v>2003</v>
       </c>
-      <c r="E354" s="15" t="n">
-        <v>2.61</v>
+      <c r="E354" s="17" t="inlineStr">
+        <is>
+          <t>2,13,17</t>
+        </is>
       </c>
       <c r="F354" s="7" t="n">
-        <v>447</v>
+        <v>482</v>
       </c>
       <c r="G354" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H354" s="16" t="n">
-        <v>16.01</v>
+        <v>17.06</v>
       </c>
       <c r="J354" s="5" t="n"/>
       <c r="L354" s="14" t="n"/>
@@ -16254,7 +16254,7 @@
     <row r="355" ht="13" customHeight="1">
       <c r="B355" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C355" s="7" t="inlineStr">
@@ -16266,10 +16266,10 @@
         <v>2003</v>
       </c>
       <c r="E355" s="15" t="n">
-        <v>34.73</v>
+        <v>2.61</v>
       </c>
       <c r="F355" s="7" t="n">
-        <v>407</v>
+        <v>447</v>
       </c>
       <c r="G355" s="7" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         </is>
       </c>
       <c r="H355" s="16" t="n">
-        <v>28.06</v>
+        <v>16.01</v>
       </c>
       <c r="J355" s="5" t="n"/>
       <c r="L355" s="14" t="n"/>
@@ -16292,22 +16292,22 @@
     <row r="356" ht="13" customHeight="1">
       <c r="B356" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C356" s="7" t="inlineStr">
         <is>
-          <t>Sander Solberg Hopsdal</t>
+          <t>Magnus Reigstad</t>
         </is>
       </c>
       <c r="D356" s="7" t="n">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="E356" s="15" t="n">
-        <v>1.27</v>
+        <v>34.73</v>
       </c>
       <c r="F356" s="7" t="n">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="G356" s="7" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         </is>
       </c>
       <c r="H356" s="16" t="n">
-        <v>6.03</v>
+        <v>28.06</v>
       </c>
       <c r="J356" s="5" t="n"/>
       <c r="L356" s="14" t="n"/>
@@ -16360,7 +16360,7 @@
         </is>
       </c>
       <c r="F358" s="20" t="n">
-        <v>8429</v>
+        <v>8584</v>
       </c>
       <c r="J358" s="5" t="n"/>
       <c r="L358" s="19" t="inlineStr">
@@ -16400,7 +16400,7 @@
         </is>
       </c>
       <c r="F360" s="20" t="n">
-        <v>18044</v>
+        <v>18199</v>
       </c>
       <c r="J360" s="5" t="n"/>
       <c r="L360" s="19" t="inlineStr">
@@ -16585,7 +16585,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>16783</v>
+        <v>16796</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>15908</v>
+        <v>16160</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -16716,25 +16716,25 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IF Sturla</t>
+          <t>Sørild FIK</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>(25/11)</t>
+          <t>(25/12)</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>15380</v>
+        <v>15595</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>(9)</t>
+          <t>(3/3d)</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Agder</t>
         </is>
       </c>
     </row>
@@ -16744,25 +16744,25 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Ask Friidrett</t>
+          <t>IF Sturla</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>(25/14)</t>
+          <t>(25/11)</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>15371</v>
+        <v>15380</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>(11/1d)</t>
+          <t>(9)</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Buskerud</t>
         </is>
       </c>
     </row>
@@ -16772,20 +16772,20 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Fyllingen IL</t>
+          <t>Ask Friidrett</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>(23/11)</t>
+          <t>(25/14)</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>15322</v>
+        <v>15371</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>(4/3d)</t>
+          <t>(11/1d)</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
@@ -16800,25 +16800,25 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Sørild FIK</t>
+          <t>Fyllingen IL</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>(25/12)</t>
+          <t>(23/11)</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>15273</v>
+        <v>15322</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>(3/3d)</t>
+          <t>(4/3d)</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>8323</v>
+        <v>8431</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -17438,19 +17438,19 @@
       </c>
       <c r="O13" s="17" t="inlineStr">
         <is>
-          <t>1,50,44</t>
+          <t>1,49,94</t>
         </is>
       </c>
       <c r="P13" s="7" t="n">
-        <v>905</v>
+        <v>918</v>
       </c>
       <c r="Q13" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Chengdu/CHN</t>
         </is>
       </c>
       <c r="R13" s="16" t="n">
-        <v>2.02</v>
+        <v>4.08</v>
       </c>
       <c r="T13" s="5" t="n"/>
     </row>
@@ -17984,7 +17984,7 @@
         </is>
       </c>
       <c r="P23" s="20" t="n">
-        <v>9613</v>
+        <v>9626</v>
       </c>
       <c r="T23" s="5" t="n"/>
     </row>
@@ -18886,7 +18886,7 @@
         </is>
       </c>
       <c r="P43" s="20" t="n">
-        <v>16783</v>
+        <v>16796</v>
       </c>
       <c r="T43" s="5" t="n"/>
     </row>
@@ -21312,19 +21312,19 @@
       </c>
       <c r="E107" s="17" t="inlineStr">
         <is>
-          <t>2,01,00</t>
+          <t>2,00,50</t>
         </is>
       </c>
       <c r="F107" s="7" t="n">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="G107" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Overhalla</t>
         </is>
       </c>
       <c r="H107" s="16" t="n">
-        <v>20.05</v>
+        <v>5.08</v>
       </c>
       <c r="J107" s="5" t="n"/>
       <c r="L107" s="14" t="inlineStr">
@@ -21675,10 +21675,10 @@
         <v>2004</v>
       </c>
       <c r="E113" s="15" t="n">
-        <v>5.82</v>
+        <v>5.84</v>
       </c>
       <c r="F113" s="7" t="n">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="G113" s="7" t="inlineStr">
         <is>
@@ -21686,7 +21686,7 @@
         </is>
       </c>
       <c r="H113" s="16" t="n">
-        <v>19.02</v>
+        <v>6.07</v>
       </c>
       <c r="J113" s="5" t="n"/>
       <c r="L113" s="14" t="n"/>
@@ -21787,7 +21787,7 @@
         </is>
       </c>
       <c r="F117" s="20" t="n">
-        <v>8223</v>
+        <v>8238</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="19" t="inlineStr">
@@ -22383,30 +22383,30 @@
     <row r="130" ht="13" customHeight="1">
       <c r="B130" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C130" s="7" t="inlineStr">
         <is>
-          <t>Eirik Svelland Hustoft</t>
+          <t>Stian André Lie Austrheim</t>
         </is>
       </c>
       <c r="D130" s="7" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="E130" s="15" t="n">
-        <v>5.31</v>
+        <v>1.71</v>
       </c>
       <c r="F130" s="7" t="n">
-        <v>446</v>
+        <v>569</v>
       </c>
       <c r="G130" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H130" s="16" t="n">
-        <v>16.06</v>
+        <v>4.07</v>
       </c>
       <c r="J130" s="5" t="n"/>
       <c r="L130" s="14" t="n"/>
@@ -22426,25 +22426,25 @@
       </c>
       <c r="C131" s="7" t="inlineStr">
         <is>
-          <t>Bjørnar Ramstad Støylen</t>
+          <t>Eirik Svelland Hustoft</t>
         </is>
       </c>
       <c r="D131" s="7" t="n">
-        <v>1993</v>
+        <v>2008</v>
       </c>
       <c r="E131" s="15" t="n">
-        <v>5.22</v>
+        <v>5.31</v>
       </c>
       <c r="F131" s="7" t="n">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="G131" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H131" s="16" t="n">
-        <v>18.01</v>
+        <v>16.06</v>
       </c>
       <c r="J131" s="5" t="n"/>
       <c r="L131" s="14" t="n"/>
@@ -22459,22 +22459,22 @@
     <row r="132" ht="13" customHeight="1">
       <c r="B132" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C132" s="7" t="inlineStr">
         <is>
-          <t>Sander Sjøen Hjelmervik</t>
+          <t>Bjørnar Ramstad Støylen</t>
         </is>
       </c>
       <c r="D132" s="7" t="n">
-        <v>2009</v>
+        <v>1993</v>
       </c>
       <c r="E132" s="15" t="n">
-        <v>1.5</v>
+        <v>5.22</v>
       </c>
       <c r="F132" s="7" t="n">
-        <v>353</v>
+        <v>424</v>
       </c>
       <c r="G132" s="7" t="inlineStr">
         <is>
@@ -22482,7 +22482,7 @@
         </is>
       </c>
       <c r="H132" s="16" t="n">
-        <v>12.03</v>
+        <v>18.01</v>
       </c>
       <c r="J132" s="5" t="n"/>
       <c r="L132" s="14" t="n"/>
@@ -22497,7 +22497,7 @@
     <row r="133" ht="13" customHeight="1">
       <c r="B133" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C133" s="7" t="inlineStr">
@@ -22509,18 +22509,18 @@
         <v>2009</v>
       </c>
       <c r="E133" s="15" t="n">
-        <v>4.84</v>
+        <v>1.5</v>
       </c>
       <c r="F133" s="7" t="n">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="G133" s="7" t="inlineStr">
         <is>
-          <t>Karmøy</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H133" s="16" t="n">
-        <v>6.06</v>
+        <v>12.03</v>
       </c>
       <c r="J133" s="5" t="n"/>
       <c r="L133" s="14" t="n"/>
@@ -22565,7 +22565,7 @@
         </is>
       </c>
       <c r="F135" s="20" t="n">
-        <v>7685</v>
+        <v>7922</v>
       </c>
       <c r="J135" s="5" t="n"/>
       <c r="L135" s="19" t="inlineStr">
@@ -22605,7 +22605,7 @@
         </is>
       </c>
       <c r="F137" s="20" t="n">
-        <v>15908</v>
+        <v>16160</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="19" t="inlineStr">
@@ -22688,7 +22688,7 @@
       </c>
       <c r="C143" s="7" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Agder</t>
         </is>
       </c>
       <c r="F143" s="8" t="n">
@@ -22702,7 +22702,7 @@
       </c>
       <c r="M143" s="7" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Buskerud</t>
         </is>
       </c>
       <c r="P143" s="8" t="n">
@@ -22718,7 +22718,7 @@
       </c>
       <c r="C144" s="7" t="inlineStr">
         <is>
-          <t>IF Sturla</t>
+          <t>Sørild FIK</t>
         </is>
       </c>
       <c r="J144" s="5" t="n"/>
@@ -22729,7 +22729,7 @@
       </c>
       <c r="M144" s="7" t="inlineStr">
         <is>
-          <t>Ask Friidrett</t>
+          <t>IF Sturla</t>
         </is>
       </c>
       <c r="T144" s="5" t="n"/>
@@ -22858,25 +22858,25 @@
       </c>
       <c r="C150" s="7" t="inlineStr">
         <is>
-          <t>Mikael Girma Worku</t>
+          <t>Even Meinseth</t>
         </is>
       </c>
       <c r="D150" s="7" t="n">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="E150" s="15" t="n">
-        <v>7.99</v>
+        <v>6.69</v>
       </c>
       <c r="F150" s="7" t="n">
-        <v>498</v>
+        <v>1015</v>
       </c>
       <c r="G150" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H150" s="16" t="n">
-        <v>11.03</v>
+        <v>2.02</v>
       </c>
       <c r="J150" s="5" t="n"/>
       <c r="L150" s="14" t="inlineStr">
@@ -22886,25 +22886,25 @@
       </c>
       <c r="M150" s="7" t="inlineStr">
         <is>
-          <t>Daniel Alejandro Johnsen</t>
+          <t>Mikael Girma Worku</t>
         </is>
       </c>
       <c r="N150" s="7" t="n">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="O150" s="15" t="n">
-        <v>6.89</v>
+        <v>7.99</v>
       </c>
       <c r="P150" s="7" t="n">
-        <v>915</v>
+        <v>498</v>
       </c>
       <c r="Q150" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="R150" s="16" t="n">
-        <v>21.01</v>
+        <v>11.03</v>
       </c>
       <c r="T150" s="5" t="n"/>
     </row>
@@ -22916,25 +22916,25 @@
       </c>
       <c r="C151" s="7" t="inlineStr">
         <is>
-          <t>Nicolai Christianssønn Risø</t>
+          <t>Even Meinseth</t>
         </is>
       </c>
       <c r="D151" s="7" t="n">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="E151" s="15" t="n">
-        <v>11.66</v>
+        <v>10.43</v>
       </c>
       <c r="F151" s="7" t="n">
-        <v>684</v>
+        <v>997</v>
       </c>
       <c r="G151" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Chengdu/CHN</t>
         </is>
       </c>
       <c r="H151" s="16" t="n">
-        <v>3.06</v>
+        <v>2.08</v>
       </c>
       <c r="J151" s="5" t="n"/>
       <c r="L151" s="14" t="inlineStr">
@@ -22944,25 +22944,25 @@
       </c>
       <c r="M151" s="7" t="inlineStr">
         <is>
-          <t>Daniel Alejandro Johnsen</t>
+          <t>Nicolai Christianssønn Risø</t>
         </is>
       </c>
       <c r="N151" s="7" t="n">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="O151" s="15" t="n">
-        <v>10.67</v>
+        <v>11.66</v>
       </c>
       <c r="P151" s="7" t="n">
-        <v>929</v>
+        <v>684</v>
       </c>
       <c r="Q151" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R151" s="16" t="n">
-        <v>25.06</v>
+        <v>3.06</v>
       </c>
       <c r="T151" s="5" t="n"/>
     </row>
@@ -22974,25 +22974,25 @@
       </c>
       <c r="C152" s="7" t="inlineStr">
         <is>
-          <t>Nicolai Christianssønn Risø</t>
+          <t>Even Meinseth</t>
         </is>
       </c>
       <c r="D152" s="7" t="n">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="E152" s="15" t="n">
-        <v>23.64</v>
+        <v>21.19</v>
       </c>
       <c r="F152" s="7" t="n">
-        <v>683</v>
+        <v>960</v>
       </c>
       <c r="G152" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H152" s="16" t="n">
-        <v>23.06</v>
+        <v>15.06</v>
       </c>
       <c r="J152" s="5" t="n"/>
       <c r="L152" s="14" t="inlineStr">
@@ -23002,25 +23002,25 @@
       </c>
       <c r="M152" s="7" t="inlineStr">
         <is>
-          <t>Daniel Alejandro Johnsen</t>
+          <t>Nicolai Christianssønn Risø</t>
         </is>
       </c>
       <c r="N152" s="7" t="n">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="O152" s="15" t="n">
-        <v>22.21</v>
+        <v>23.64</v>
       </c>
       <c r="P152" s="7" t="n">
-        <v>836</v>
+        <v>683</v>
       </c>
       <c r="Q152" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R152" s="16" t="n">
-        <v>8.07</v>
+        <v>23.06</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
@@ -23032,25 +23032,25 @@
       </c>
       <c r="C153" s="7" t="inlineStr">
         <is>
-          <t>Nicolai Christianssønn Risø</t>
+          <t>Andreas Solheim Sollid</t>
         </is>
       </c>
       <c r="D153" s="7" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="E153" s="15" t="n">
-        <v>53.46</v>
+        <v>48.89</v>
       </c>
       <c r="F153" s="7" t="n">
-        <v>625</v>
+        <v>842</v>
       </c>
       <c r="G153" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H153" s="16" t="n">
-        <v>24.06</v>
+        <v>18.06</v>
       </c>
       <c r="J153" s="5" t="n"/>
       <c r="L153" s="14" t="inlineStr">
@@ -23060,25 +23060,25 @@
       </c>
       <c r="M153" s="7" t="inlineStr">
         <is>
-          <t>Jon-Henning Hilleren</t>
+          <t>Nicolai Christianssønn Risø</t>
         </is>
       </c>
       <c r="N153" s="7" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="O153" s="15" t="n">
-        <v>51.28</v>
+        <v>53.46</v>
       </c>
       <c r="P153" s="7" t="n">
-        <v>721</v>
+        <v>625</v>
       </c>
       <c r="Q153" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R153" s="16" t="n">
-        <v>18.06</v>
+        <v>24.06</v>
       </c>
       <c r="T153" s="5" t="n"/>
     </row>
@@ -23090,27 +23090,27 @@
       </c>
       <c r="C154" s="7" t="inlineStr">
         <is>
-          <t>Haakon Heltzer Sørstad</t>
+          <t>Stian Flo</t>
         </is>
       </c>
       <c r="D154" s="7" t="n">
-        <v>2008</v>
+        <v>1985</v>
       </c>
       <c r="E154" s="17" t="inlineStr">
         <is>
-          <t>2,02,85</t>
+          <t>1,59,87</t>
         </is>
       </c>
       <c r="F154" s="7" t="n">
-        <v>634</v>
+        <v>690</v>
       </c>
       <c r="G154" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H154" s="16" t="n">
-        <v>25.06</v>
+        <v>14.05</v>
       </c>
       <c r="J154" s="5" t="n"/>
       <c r="L154" s="14" t="inlineStr">
@@ -23120,27 +23120,27 @@
       </c>
       <c r="M154" s="7" t="inlineStr">
         <is>
-          <t>Jon-Henning Hilleren</t>
+          <t>Haakon Heltzer Sørstad</t>
         </is>
       </c>
       <c r="N154" s="7" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="O154" s="17" t="inlineStr">
         <is>
-          <t>1,58,45</t>
+          <t>2,02,85</t>
         </is>
       </c>
       <c r="P154" s="7" t="n">
-        <v>718</v>
+        <v>634</v>
       </c>
       <c r="Q154" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R154" s="16" t="n">
-        <v>17.06</v>
+        <v>25.06</v>
       </c>
       <c r="T154" s="5" t="n"/>
     </row>
@@ -23152,27 +23152,27 @@
       </c>
       <c r="C155" s="7" t="inlineStr">
         <is>
-          <t>Haakon Heltzer Sørstad</t>
+          <t>Tobias Fretheim</t>
         </is>
       </c>
       <c r="D155" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="E155" s="17" t="inlineStr">
         <is>
-          <t>4,17,16</t>
+          <t>4,24,24</t>
         </is>
       </c>
       <c r="F155" s="7" t="n">
-        <v>615</v>
+        <v>564</v>
       </c>
       <c r="G155" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H155" s="16" t="n">
-        <v>8.06</v>
+        <v>5.03</v>
       </c>
       <c r="J155" s="5" t="n"/>
       <c r="L155" s="14" t="inlineStr">
@@ -23182,27 +23182,27 @@
       </c>
       <c r="M155" s="7" t="inlineStr">
         <is>
-          <t>Tobias Natland</t>
+          <t>Haakon Heltzer Sørstad</t>
         </is>
       </c>
       <c r="N155" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="O155" s="17" t="inlineStr">
         <is>
-          <t>4,28,05</t>
+          <t>4,17,16</t>
         </is>
       </c>
       <c r="P155" s="7" t="n">
-        <v>538</v>
+        <v>615</v>
       </c>
       <c r="Q155" s="7" t="inlineStr">
         <is>
-          <t>Rosendal</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R155" s="16" t="n">
-        <v>28.05</v>
+        <v>8.06</v>
       </c>
       <c r="T155" s="5" t="n"/>
     </row>
@@ -23214,27 +23214,27 @@
       </c>
       <c r="C156" s="7" t="inlineStr">
         <is>
-          <t>Haakon Heltzer Sørstad</t>
+          <t>Tobias Fretheim</t>
         </is>
       </c>
       <c r="D156" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="E156" s="17" t="inlineStr">
         <is>
-          <t>9,12,80</t>
+          <t>9,33,51</t>
         </is>
       </c>
       <c r="F156" s="7" t="n">
-        <v>641</v>
+        <v>571</v>
       </c>
       <c r="G156" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H156" s="16" t="n">
-        <v>24.06</v>
+        <v>3.06</v>
       </c>
       <c r="J156" s="5" t="n"/>
       <c r="L156" s="14" t="inlineStr">
@@ -23244,203 +23244,203 @@
       </c>
       <c r="M156" s="7" t="inlineStr">
         <is>
-          <t>Marius Garmann Sørli</t>
+          <t>Haakon Heltzer Sørstad</t>
         </is>
       </c>
       <c r="N156" s="7" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="O156" s="17" t="inlineStr">
         <is>
-          <t>8,21,68</t>
+          <t>9,12,80</t>
         </is>
       </c>
       <c r="P156" s="7" t="n">
-        <v>851</v>
+        <v>641</v>
       </c>
       <c r="Q156" s="7" t="inlineStr">
         <is>
-          <t>Førde</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R156" s="16" t="n">
-        <v>16.05</v>
+        <v>24.06</v>
       </c>
       <c r="T156" s="5" t="n"/>
     </row>
     <row r="157" ht="13" customHeight="1">
       <c r="B157" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C157" s="7" t="inlineStr">
         <is>
-          <t>Haakon Heltzer Sørstad</t>
+          <t>Jonathan Askeland</t>
         </is>
       </c>
       <c r="D157" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E157" s="17" t="inlineStr">
-        <is>
-          <t>15,59,62</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="E157" s="15" t="n">
+        <v>1.85</v>
       </c>
       <c r="F157" s="7" t="n">
-        <v>646</v>
+        <v>696</v>
       </c>
       <c r="G157" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H157" s="16" t="n">
-        <v>16.07</v>
+        <v>5.02</v>
       </c>
       <c r="J157" s="5" t="n"/>
       <c r="L157" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M157" s="7" t="inlineStr">
         <is>
-          <t>Henrik Villanger</t>
+          <t>Haakon Heltzer Sørstad</t>
         </is>
       </c>
       <c r="N157" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O157" s="15" t="n">
-        <v>4.75</v>
+        <v>2008</v>
+      </c>
+      <c r="O157" s="17" t="inlineStr">
+        <is>
+          <t>15,59,62</t>
+        </is>
       </c>
       <c r="P157" s="7" t="n">
-        <v>310</v>
+        <v>646</v>
       </c>
       <c r="Q157" s="7" t="inlineStr">
         <is>
-          <t>Rosendal</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R157" s="16" t="n">
-        <v>28.05</v>
+        <v>16.07</v>
       </c>
       <c r="T157" s="5" t="n"/>
     </row>
     <row r="158" ht="13" customHeight="1">
       <c r="B158" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C158" s="7" t="inlineStr">
         <is>
-          <t>Vemund Heltzer Sørstad</t>
+          <t>Benjamin Fosseli Bye</t>
         </is>
       </c>
       <c r="D158" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="E158" s="15" t="n">
-        <v>1.81</v>
+        <v>4.71</v>
       </c>
       <c r="F158" s="7" t="n">
-        <v>661</v>
+        <v>300</v>
       </c>
       <c r="G158" s="7" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H158" s="16" t="n">
-        <v>13.05</v>
+        <v>18.03</v>
       </c>
       <c r="J158" s="5" t="n"/>
       <c r="L158" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M158" s="7" t="inlineStr">
         <is>
-          <t>Sander Feness Armond</t>
+          <t>Vemund Heltzer Sørstad</t>
         </is>
       </c>
       <c r="N158" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O158" s="15" t="n">
-        <v>10.62</v>
+        <v>1.81</v>
       </c>
       <c r="P158" s="7" t="n">
-        <v>403</v>
+        <v>661</v>
       </c>
       <c r="Q158" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Lillestrøm</t>
         </is>
       </c>
       <c r="R158" s="16" t="n">
-        <v>7.06</v>
+        <v>13.05</v>
       </c>
       <c r="T158" s="5" t="n"/>
     </row>
     <row r="159" ht="13" customHeight="1">
       <c r="B159" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C159" s="7" t="inlineStr">
         <is>
-          <t>Sander Oppen</t>
+          <t>William Schlanbusch</t>
         </is>
       </c>
       <c r="D159" s="7" t="n">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="E159" s="15" t="n">
-        <v>4.8</v>
+        <v>7.66</v>
       </c>
       <c r="F159" s="7" t="n">
-        <v>870</v>
+        <v>40</v>
       </c>
       <c r="G159" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H159" s="16" t="n">
-        <v>23.07</v>
+        <v>3.06</v>
       </c>
       <c r="J159" s="5" t="n"/>
       <c r="L159" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M159" s="7" t="inlineStr">
         <is>
-          <t>Haakon Brunborg</t>
+          <t>Sander Oppen</t>
         </is>
       </c>
       <c r="N159" s="7" t="n">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="O159" s="15" t="n">
-        <v>1.18</v>
+        <v>4.8</v>
       </c>
       <c r="P159" s="7" t="n">
-        <v>240</v>
+        <v>870</v>
       </c>
       <c r="Q159" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R159" s="16" t="n">
-        <v>10.02</v>
+        <v>23.07</v>
       </c>
       <c r="T159" s="5" t="n"/>
     </row>
@@ -23452,53 +23452,53 @@
       </c>
       <c r="C160" s="7" t="inlineStr">
         <is>
-          <t>Nicolai Christianssønn Risø</t>
+          <t>Jonathan Askeland</t>
         </is>
       </c>
       <c r="D160" s="7" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="E160" s="15" t="n">
-        <v>1.45</v>
+        <v>1.66</v>
       </c>
       <c r="F160" s="7" t="n">
-        <v>616</v>
+        <v>847</v>
       </c>
       <c r="G160" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H160" s="16" t="n">
-        <v>13.04</v>
+        <v>18.02</v>
       </c>
       <c r="J160" s="5" t="n"/>
       <c r="L160" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M160" s="7" t="inlineStr">
         <is>
-          <t>Elias Bergheim</t>
+          <t>Nicolai Christianssønn Risø</t>
         </is>
       </c>
       <c r="N160" s="7" t="n">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="O160" s="15" t="n">
-        <v>2.88</v>
+        <v>1.45</v>
       </c>
       <c r="P160" s="7" t="n">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="Q160" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="R160" s="16" t="n">
-        <v>31.07</v>
+        <v>13.04</v>
       </c>
       <c r="T160" s="5" t="n"/>
     </row>
@@ -23510,83 +23510,83 @@
       </c>
       <c r="C161" s="7" t="inlineStr">
         <is>
-          <t>Frode Holt</t>
+          <t>Jonathan Askeland</t>
         </is>
       </c>
       <c r="D161" s="7" t="n">
-        <v>1964</v>
+        <v>2003</v>
       </c>
       <c r="E161" s="15" t="n">
-        <v>2.7</v>
+        <v>2.92</v>
       </c>
       <c r="F161" s="7" t="n">
-        <v>503</v>
+        <v>627</v>
       </c>
       <c r="G161" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H161" s="16" t="n">
-        <v>13.04</v>
+        <v>19.02</v>
       </c>
       <c r="J161" s="5" t="n"/>
       <c r="L161" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M161" s="7" t="inlineStr">
         <is>
-          <t>Erlend Bergfjord Næss</t>
+          <t>Frode Holt</t>
         </is>
       </c>
       <c r="N161" s="7" t="n">
-        <v>2002</v>
+        <v>1964</v>
       </c>
       <c r="O161" s="15" t="n">
-        <v>13.01</v>
+        <v>2.7</v>
       </c>
       <c r="P161" s="7" t="n">
-        <v>667</v>
+        <v>503</v>
       </c>
       <c r="Q161" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="R161" s="16" t="n">
-        <v>21.01</v>
+        <v>13.04</v>
       </c>
       <c r="T161" s="5" t="n"/>
     </row>
     <row r="162" ht="13" customHeight="1">
       <c r="B162" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C162" s="7" t="inlineStr">
         <is>
-          <t>Ola Stunes Isene</t>
+          <t>Jonathan Askeland</t>
         </is>
       </c>
       <c r="D162" s="7" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="E162" s="15" t="n">
-        <v>60.21</v>
+        <v>9.69</v>
       </c>
       <c r="F162" s="7" t="n">
-        <v>1013</v>
+        <v>426</v>
       </c>
       <c r="G162" s="7" t="inlineStr">
         <is>
-          <t>Røyken</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H162" s="16" t="n">
-        <v>22.05</v>
+        <v>4.02</v>
       </c>
       <c r="J162" s="5" t="n"/>
       <c r="L162" s="14" t="inlineStr">
@@ -23596,25 +23596,25 @@
       </c>
       <c r="M162" s="7" t="inlineStr">
         <is>
-          <t>Erlend Bergfjord Næss</t>
+          <t>Ola Stunes Isene</t>
         </is>
       </c>
       <c r="N162" s="7" t="n">
-        <v>2002</v>
+        <v>1995</v>
       </c>
       <c r="O162" s="15" t="n">
-        <v>50.1</v>
+        <v>60.21</v>
       </c>
       <c r="P162" s="7" t="n">
-        <v>859</v>
+        <v>1013</v>
       </c>
       <c r="Q162" s="7" t="inlineStr">
         <is>
-          <t>Spikkestad</t>
+          <t>Røyken</t>
         </is>
       </c>
       <c r="R162" s="16" t="n">
-        <v>11.06</v>
+        <v>22.05</v>
       </c>
       <c r="T162" s="5" t="n"/>
     </row>
@@ -23651,7 +23651,7 @@
         </is>
       </c>
       <c r="F164" s="20" t="n">
-        <v>8689</v>
+        <v>8575</v>
       </c>
       <c r="J164" s="5" t="n"/>
       <c r="L164" s="19" t="inlineStr">
@@ -23668,7 +23668,7 @@
         </is>
       </c>
       <c r="P164" s="20" t="n">
-        <v>8592</v>
+        <v>8689</v>
       </c>
       <c r="T164" s="5" t="n"/>
     </row>
@@ -23771,30 +23771,30 @@
     <row r="169" ht="13" customHeight="1">
       <c r="B169" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C169" s="7" t="inlineStr">
         <is>
-          <t>Herman Jørgensen Huus</t>
+          <t>Elias Solheim Sollid</t>
         </is>
       </c>
       <c r="D169" s="7" t="n">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="E169" s="15" t="n">
-        <v>11.81</v>
+        <v>21.91</v>
       </c>
       <c r="F169" s="7" t="n">
-        <v>651</v>
+        <v>871</v>
       </c>
       <c r="G169" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H169" s="16" t="n">
-        <v>14.05</v>
+        <v>17.06</v>
       </c>
       <c r="J169" s="5" t="n"/>
       <c r="L169" s="14" t="inlineStr">
@@ -23804,85 +23804,83 @@
       </c>
       <c r="M169" s="7" t="inlineStr">
         <is>
-          <t>Vegard Fluge</t>
+          <t>Herman Jørgensen Huus</t>
         </is>
       </c>
       <c r="N169" s="7" t="n">
-        <v>1995</v>
+        <v>2001</v>
       </c>
       <c r="O169" s="15" t="n">
-        <v>11.4</v>
+        <v>11.81</v>
       </c>
       <c r="P169" s="7" t="n">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="Q169" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R169" s="16" t="n">
-        <v>3.06</v>
+        <v>14.05</v>
       </c>
       <c r="T169" s="5" t="n"/>
     </row>
     <row r="170" ht="13" customHeight="1">
       <c r="B170" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C170" s="7" t="inlineStr">
         <is>
-          <t>Haakon Heltzer Sørstad</t>
+          <t>Andreas Solheim Sollid</t>
         </is>
       </c>
       <c r="D170" s="7" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="E170" s="15" t="n">
-        <v>1.76</v>
+        <v>22.07</v>
       </c>
       <c r="F170" s="7" t="n">
-        <v>616</v>
+        <v>852</v>
       </c>
       <c r="G170" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H170" s="16" t="n">
-        <v>18.03</v>
+        <v>16.06</v>
       </c>
       <c r="J170" s="5" t="n"/>
       <c r="L170" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M170" s="7" t="inlineStr">
         <is>
-          <t>Sigve Lillebø</t>
+          <t>Haakon Heltzer Sørstad</t>
         </is>
       </c>
       <c r="N170" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O170" s="17" t="inlineStr">
-        <is>
-          <t>2,00,12</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="O170" s="15" t="n">
+        <v>1.76</v>
       </c>
       <c r="P170" s="7" t="n">
-        <v>685</v>
+        <v>616</v>
       </c>
       <c r="Q170" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R170" s="16" t="n">
-        <v>17.06</v>
+        <v>18.03</v>
       </c>
       <c r="T170" s="5" t="n"/>
     </row>
@@ -23894,77 +23892,75 @@
       </c>
       <c r="C171" s="7" t="inlineStr">
         <is>
-          <t>Vemund Heltzer Sørstad</t>
+          <t>Elias Solheim Sollid</t>
         </is>
       </c>
       <c r="D171" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E171" s="15" t="n">
-        <v>12.07</v>
+        <v>10.98</v>
       </c>
       <c r="F171" s="7" t="n">
-        <v>596</v>
+        <v>846</v>
       </c>
       <c r="G171" s="7" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H171" s="16" t="n">
-        <v>13.05</v>
+        <v>25.06</v>
       </c>
       <c r="J171" s="5" t="n"/>
       <c r="L171" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M171" s="7" t="inlineStr">
         <is>
-          <t>Sander Feness Armond</t>
+          <t>Vemund Heltzer Sørstad</t>
         </is>
       </c>
       <c r="N171" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O171" s="15" t="n">
-        <v>7.48</v>
+        <v>12.07</v>
       </c>
       <c r="P171" s="7" t="n">
-        <v>668</v>
+        <v>596</v>
       </c>
       <c r="Q171" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Lillestrøm</t>
         </is>
       </c>
       <c r="R171" s="16" t="n">
-        <v>11.02</v>
+        <v>13.05</v>
       </c>
       <c r="T171" s="5" t="n"/>
     </row>
     <row r="172" ht="13" customHeight="1">
       <c r="B172" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C172" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Alsaker-Arentz</t>
+          <t>Andreas Solheim Sollid</t>
         </is>
       </c>
       <c r="D172" s="7" t="n">
         <v>2004</v>
       </c>
-      <c r="E172" s="17" t="inlineStr">
-        <is>
-          <t>9,28,97</t>
-        </is>
+      <c r="E172" s="15" t="n">
+        <v>11.06</v>
       </c>
       <c r="F172" s="7" t="n">
-        <v>585</v>
+        <v>826</v>
       </c>
       <c r="G172" s="7" t="inlineStr">
         <is>
@@ -23977,268 +23973,268 @@
       <c r="J172" s="5" t="n"/>
       <c r="L172" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M172" s="7" t="inlineStr">
         <is>
-          <t>Sander Feness Armond</t>
+          <t>Jonathan Alsaker-Arentz</t>
         </is>
       </c>
       <c r="N172" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O172" s="15" t="n">
-        <v>23.93</v>
+        <v>2004</v>
+      </c>
+      <c r="O172" s="17" t="inlineStr">
+        <is>
+          <t>9,28,97</t>
+        </is>
       </c>
       <c r="P172" s="7" t="n">
-        <v>654</v>
+        <v>585</v>
       </c>
       <c r="Q172" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R172" s="16" t="n">
-        <v>16.05</v>
+        <v>3.06</v>
       </c>
       <c r="T172" s="5" t="n"/>
     </row>
     <row r="173" ht="13" customHeight="1">
       <c r="B173" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C173" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Alsaker-Arentz</t>
+          <t>Elias Solheim Sollid</t>
         </is>
       </c>
       <c r="D173" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E173" s="17" t="inlineStr">
-        <is>
-          <t>2,06,56</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E173" s="15" t="n">
+        <v>7.14</v>
       </c>
       <c r="F173" s="7" t="n">
-        <v>574</v>
+        <v>802</v>
       </c>
       <c r="G173" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H173" s="16" t="n">
-        <v>4.06</v>
+        <v>11.02</v>
       </c>
       <c r="J173" s="5" t="n"/>
       <c r="L173" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M173" s="7" t="inlineStr">
         <is>
-          <t>Sander Feness Armond</t>
+          <t>Jonathan Alsaker-Arentz</t>
         </is>
       </c>
       <c r="N173" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O173" s="15" t="n">
-        <v>53.08</v>
+        <v>2004</v>
+      </c>
+      <c r="O173" s="17" t="inlineStr">
+        <is>
+          <t>2,06,56</t>
+        </is>
       </c>
       <c r="P173" s="7" t="n">
-        <v>641</v>
+        <v>574</v>
       </c>
       <c r="Q173" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R173" s="16" t="n">
-        <v>18.06</v>
+        <v>4.06</v>
       </c>
       <c r="T173" s="5" t="n"/>
     </row>
     <row r="174" ht="13" customHeight="1">
       <c r="B174" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C174" s="7" t="inlineStr">
         <is>
-          <t>Mikael Girma Worku</t>
+          <t>Andreas Solheim Sollid</t>
         </is>
       </c>
       <c r="D174" s="7" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="E174" s="15" t="n">
-        <v>12.26</v>
+        <v>7.22</v>
       </c>
       <c r="F174" s="7" t="n">
-        <v>558</v>
+        <v>769</v>
       </c>
       <c r="G174" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H174" s="16" t="n">
-        <v>25.06</v>
+        <v>11.02</v>
       </c>
       <c r="J174" s="5" t="n"/>
       <c r="L174" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M174" s="7" t="inlineStr">
         <is>
-          <t>Sigve Lillebø</t>
+          <t>Mikael Girma Worku</t>
         </is>
       </c>
       <c r="N174" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="O174" s="15" t="n">
-        <v>53.35</v>
+        <v>12.26</v>
       </c>
       <c r="P174" s="7" t="n">
-        <v>630</v>
+        <v>558</v>
       </c>
       <c r="Q174" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R174" s="16" t="n">
-        <v>18.06</v>
+        <v>25.06</v>
       </c>
       <c r="T174" s="5" t="n"/>
     </row>
     <row r="175" ht="13" customHeight="1">
       <c r="B175" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C175" s="7" t="inlineStr">
         <is>
-          <t>Jonas Hole Sletten</t>
+          <t>Jonathan Askeland</t>
         </is>
       </c>
       <c r="D175" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E175" s="17" t="inlineStr">
-        <is>
-          <t>2,08,24</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="E175" s="15" t="n">
+        <v>11.43</v>
       </c>
       <c r="F175" s="7" t="n">
-        <v>548</v>
+        <v>736</v>
       </c>
       <c r="G175" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H175" s="16" t="n">
-        <v>17.06</v>
+        <v>14.05</v>
       </c>
       <c r="J175" s="5" t="n"/>
       <c r="L175" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M175" s="7" t="inlineStr">
         <is>
-          <t>Sigve Lillebø</t>
+          <t>Jonas Hole Sletten</t>
         </is>
       </c>
       <c r="N175" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O175" s="15" t="n">
-        <v>24.54</v>
+        <v>2007</v>
+      </c>
+      <c r="O175" s="17" t="inlineStr">
+        <is>
+          <t>2,08,24</t>
+        </is>
       </c>
       <c r="P175" s="7" t="n">
-        <v>596</v>
+        <v>548</v>
       </c>
       <c r="Q175" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R175" s="16" t="n">
-        <v>7.06</v>
+        <v>17.06</v>
       </c>
       <c r="T175" s="5" t="n"/>
     </row>
     <row r="176" ht="13" customHeight="1">
       <c r="B176" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C176" s="7" t="inlineStr">
         <is>
-          <t>Benjamin Shabani</t>
+          <t>Marc  Christian Legayada Berntsen</t>
         </is>
       </c>
       <c r="D176" s="7" t="n">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="E176" s="15" t="n">
-        <v>25.14</v>
+        <v>7.44</v>
       </c>
       <c r="F176" s="7" t="n">
-        <v>544</v>
+        <v>682</v>
       </c>
       <c r="G176" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H176" s="16" t="n">
-        <v>16.06</v>
+        <v>22.01</v>
       </c>
       <c r="J176" s="5" t="n"/>
       <c r="L176" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M176" s="7" t="inlineStr">
         <is>
-          <t>Tobias Natland</t>
+          <t>Benjamin Shabani</t>
         </is>
       </c>
       <c r="N176" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O176" s="17" t="inlineStr">
-        <is>
-          <t>2,06,11</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="O176" s="15" t="n">
+        <v>25.14</v>
       </c>
       <c r="P176" s="7" t="n">
-        <v>581</v>
+        <v>544</v>
       </c>
       <c r="Q176" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R176" s="16" t="n">
-        <v>7.06</v>
+        <v>16.06</v>
       </c>
       <c r="T176" s="5" t="n"/>
     </row>
@@ -24250,227 +24246,227 @@
       </c>
       <c r="C177" s="7" t="inlineStr">
         <is>
-          <t>Nicolai Christianssønn Risø</t>
+          <t>Benjamin Fosseli Bye</t>
         </is>
       </c>
       <c r="D177" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E177" s="15" t="n">
-        <v>1.68</v>
+        <v>1.4</v>
       </c>
       <c r="F177" s="7" t="n">
-        <v>541</v>
+        <v>233</v>
       </c>
       <c r="G177" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H177" s="16" t="n">
-        <v>20.05</v>
+        <v>18.03</v>
       </c>
       <c r="J177" s="5" t="n"/>
       <c r="L177" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M177" s="7" t="inlineStr">
         <is>
-          <t>Sander Feness Armond</t>
+          <t>Nicolai Christianssønn Risø</t>
         </is>
       </c>
       <c r="N177" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="O177" s="15" t="n">
-        <v>2.64</v>
+        <v>1.68</v>
       </c>
       <c r="P177" s="7" t="n">
-        <v>466</v>
+        <v>541</v>
       </c>
       <c r="Q177" s="7" t="inlineStr">
         <is>
-          <t>Askøy</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R177" s="16" t="n">
-        <v>13.02</v>
+        <v>20.05</v>
       </c>
       <c r="T177" s="5" t="n"/>
     </row>
     <row r="178" ht="13" customHeight="1">
       <c r="B178" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C178" s="7" t="inlineStr">
         <is>
-          <t>Vemund Heltzer Sørstad</t>
+          <t>Brage Henriksen</t>
         </is>
       </c>
       <c r="D178" s="7" t="n">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="E178" s="15" t="n">
-        <v>25.33</v>
+        <v>1.35</v>
       </c>
       <c r="F178" s="7" t="n">
-        <v>528</v>
+        <v>167</v>
       </c>
       <c r="G178" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H178" s="16" t="n">
-        <v>12.02</v>
+        <v>14.05</v>
       </c>
       <c r="J178" s="5" t="n"/>
       <c r="L178" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M178" s="7" t="inlineStr">
         <is>
-          <t>Ole Magnus Villanger</t>
+          <t>Vemund Heltzer Sørstad</t>
         </is>
       </c>
       <c r="N178" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O178" s="15" t="n">
-        <v>2.62</v>
+        <v>25.33</v>
       </c>
       <c r="P178" s="7" t="n">
-        <v>453</v>
+        <v>528</v>
       </c>
       <c r="Q178" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R178" s="16" t="n">
-        <v>31.07</v>
+        <v>12.02</v>
       </c>
       <c r="T178" s="5" t="n"/>
     </row>
     <row r="179" ht="13" customHeight="1">
       <c r="B179" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C179" s="7" t="inlineStr">
         <is>
-          <t>Vemund Heltzer Sørstad</t>
+          <t>Jonas Røed Haaland</t>
         </is>
       </c>
       <c r="D179" s="7" t="n">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="E179" s="15" t="n">
-        <v>39.84</v>
+        <v>1.32</v>
       </c>
       <c r="F179" s="7" t="n">
-        <v>484</v>
+        <v>125</v>
       </c>
       <c r="G179" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H179" s="16" t="n">
-        <v>6.05</v>
+        <v>22.01</v>
       </c>
       <c r="J179" s="5" t="n"/>
       <c r="L179" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M179" s="7" t="inlineStr">
         <is>
-          <t>Bjørn Fluge</t>
+          <t>Vemund Heltzer Sørstad</t>
         </is>
       </c>
       <c r="N179" s="7" t="n">
-        <v>1960</v>
+        <v>2006</v>
       </c>
       <c r="O179" s="15" t="n">
-        <v>2.49</v>
+        <v>39.84</v>
       </c>
       <c r="P179" s="7" t="n">
-        <v>359</v>
+        <v>484</v>
       </c>
       <c r="Q179" s="7" t="inlineStr">
         <is>
-          <t>Askøy</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="R179" s="16" t="n">
-        <v>13.02</v>
+        <v>6.05</v>
       </c>
       <c r="T179" s="5" t="n"/>
     </row>
     <row r="180" ht="13" customHeight="1">
       <c r="B180" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C180" s="7" t="inlineStr">
         <is>
-          <t>Frode Holt</t>
+          <t>David Askeland</t>
         </is>
       </c>
       <c r="D180" s="7" t="n">
-        <v>1964</v>
+        <v>2007</v>
       </c>
       <c r="E180" s="15" t="n">
-        <v>1.32</v>
+        <v>3.97</v>
       </c>
       <c r="F180" s="7" t="n">
-        <v>466</v>
+        <v>111</v>
       </c>
       <c r="G180" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H180" s="16" t="n">
-        <v>28.01</v>
+        <v>14.05</v>
       </c>
       <c r="J180" s="5" t="n"/>
       <c r="L180" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M180" s="7" t="inlineStr">
         <is>
-          <t>Øyvind Kolstad Silseth</t>
+          <t>Frode Holt</t>
         </is>
       </c>
       <c r="N180" s="7" t="n">
-        <v>2009</v>
+        <v>1964</v>
       </c>
       <c r="O180" s="15" t="n">
-        <v>4.72</v>
+        <v>1.32</v>
       </c>
       <c r="P180" s="7" t="n">
-        <v>303</v>
+        <v>466</v>
       </c>
       <c r="Q180" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="R180" s="16" t="n">
-        <v>22.01</v>
+        <v>28.01</v>
       </c>
       <c r="T180" s="5" t="n"/>
     </row>
@@ -24507,7 +24503,7 @@
         </is>
       </c>
       <c r="F182" s="20" t="n">
-        <v>6691</v>
+        <v>7020</v>
       </c>
       <c r="J182" s="5" t="n"/>
       <c r="L182" s="19" t="inlineStr">
@@ -24524,7 +24520,7 @@
         </is>
       </c>
       <c r="P182" s="20" t="n">
-        <v>6779</v>
+        <v>6691</v>
       </c>
       <c r="T182" s="5" t="n"/>
     </row>
@@ -24547,7 +24543,7 @@
         </is>
       </c>
       <c r="F184" s="20" t="n">
-        <v>15380</v>
+        <v>15595</v>
       </c>
       <c r="J184" s="5" t="n"/>
       <c r="L184" s="19" t="inlineStr">
@@ -24564,7 +24560,7 @@
         </is>
       </c>
       <c r="P184" s="20" t="n">
-        <v>15371</v>
+        <v>15380</v>
       </c>
       <c r="T184" s="5" t="n"/>
     </row>
@@ -24579,7 +24575,7 @@
         </is>
       </c>
       <c r="C186" s="20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J186" s="5" t="n"/>
       <c r="L186" s="19" t="inlineStr">
@@ -24588,7 +24584,7 @@
         </is>
       </c>
       <c r="M186" s="20" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="T186" s="5" t="n"/>
     </row>
@@ -24644,7 +24640,7 @@
       </c>
       <c r="M190" s="7" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="P190" s="8" t="n">
@@ -24660,7 +24656,7 @@
       </c>
       <c r="C191" s="7" t="inlineStr">
         <is>
-          <t>Fyllingen IL</t>
+          <t>Ask Friidrett</t>
         </is>
       </c>
       <c r="J191" s="5" t="n"/>
@@ -24671,7 +24667,7 @@
       </c>
       <c r="M191" s="7" t="inlineStr">
         <is>
-          <t>Sørild FIK</t>
+          <t>Fyllingen IL</t>
         </is>
       </c>
       <c r="T191" s="5" t="n"/>
@@ -24800,17 +24796,17 @@
       </c>
       <c r="C197" s="7" t="inlineStr">
         <is>
-          <t>Emil Gundersen</t>
+          <t>Daniel Alejandro Johnsen</t>
         </is>
       </c>
       <c r="D197" s="7" t="n">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="E197" s="15" t="n">
-        <v>7.04</v>
+        <v>6.89</v>
       </c>
       <c r="F197" s="7" t="n">
-        <v>845</v>
+        <v>915</v>
       </c>
       <c r="G197" s="7" t="inlineStr">
         <is>
@@ -24818,7 +24814,7 @@
         </is>
       </c>
       <c r="H197" s="16" t="n">
-        <v>11.02</v>
+        <v>21.01</v>
       </c>
       <c r="J197" s="5" t="n"/>
       <c r="L197" s="14" t="inlineStr">
@@ -24828,25 +24824,25 @@
       </c>
       <c r="M197" s="7" t="inlineStr">
         <is>
-          <t>Even Meinseth</t>
+          <t>Emil Gundersen</t>
         </is>
       </c>
       <c r="N197" s="7" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="O197" s="15" t="n">
-        <v>6.69</v>
+        <v>7.04</v>
       </c>
       <c r="P197" s="7" t="n">
-        <v>1015</v>
+        <v>845</v>
       </c>
       <c r="Q197" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R197" s="16" t="n">
-        <v>2.02</v>
+        <v>11.02</v>
       </c>
       <c r="T197" s="5" t="n"/>
     </row>
@@ -24858,17 +24854,17 @@
       </c>
       <c r="C198" s="7" t="inlineStr">
         <is>
-          <t>Emil Gundersen</t>
+          <t>Daniel Alejandro Johnsen</t>
         </is>
       </c>
       <c r="D198" s="7" t="n">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="E198" s="15" t="n">
-        <v>10.84</v>
+        <v>10.67</v>
       </c>
       <c r="F198" s="7" t="n">
-        <v>883</v>
+        <v>929</v>
       </c>
       <c r="G198" s="7" t="inlineStr">
         <is>
@@ -24886,17 +24882,17 @@
       </c>
       <c r="M198" s="7" t="inlineStr">
         <is>
-          <t>Elias Solheim Sollid</t>
+          <t>Emil Gundersen</t>
         </is>
       </c>
       <c r="N198" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O198" s="15" t="n">
-        <v>10.98</v>
+        <v>10.84</v>
       </c>
       <c r="P198" s="7" t="n">
-        <v>846</v>
+        <v>883</v>
       </c>
       <c r="Q198" s="7" t="inlineStr">
         <is>
@@ -24916,25 +24912,25 @@
       </c>
       <c r="C199" s="7" t="inlineStr">
         <is>
-          <t>Emil Gundersen</t>
+          <t>Daniel Alejandro Johnsen</t>
         </is>
       </c>
       <c r="D199" s="7" t="n">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="E199" s="15" t="n">
-        <v>21.96</v>
+        <v>22.21</v>
       </c>
       <c r="F199" s="7" t="n">
-        <v>865</v>
+        <v>836</v>
       </c>
       <c r="G199" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H199" s="16" t="n">
-        <v>2.07</v>
+        <v>8.07</v>
       </c>
       <c r="J199" s="5" t="n"/>
       <c r="L199" s="14" t="inlineStr">
@@ -24944,25 +24940,25 @@
       </c>
       <c r="M199" s="7" t="inlineStr">
         <is>
-          <t>Even Meinseth</t>
+          <t>Emil Gundersen</t>
         </is>
       </c>
       <c r="N199" s="7" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="O199" s="15" t="n">
-        <v>21.19</v>
+        <v>21.96</v>
       </c>
       <c r="P199" s="7" t="n">
-        <v>960</v>
+        <v>865</v>
       </c>
       <c r="Q199" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R199" s="16" t="n">
-        <v>15.06</v>
+        <v>2.07</v>
       </c>
       <c r="T199" s="5" t="n"/>
     </row>
@@ -24974,17 +24970,17 @@
       </c>
       <c r="C200" s="7" t="inlineStr">
         <is>
-          <t>Øyvind Magnus Morstøl</t>
+          <t>Jon-Henning Hilleren</t>
         </is>
       </c>
       <c r="D200" s="7" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="E200" s="15" t="n">
-        <v>53.59</v>
+        <v>51.28</v>
       </c>
       <c r="F200" s="7" t="n">
-        <v>620</v>
+        <v>721</v>
       </c>
       <c r="G200" s="7" t="inlineStr">
         <is>
@@ -25002,17 +24998,17 @@
       </c>
       <c r="M200" s="7" t="inlineStr">
         <is>
-          <t>Andreas Solheim Sollid</t>
+          <t>Øyvind Magnus Morstøl</t>
         </is>
       </c>
       <c r="N200" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="O200" s="15" t="n">
-        <v>48.89</v>
+        <v>53.59</v>
       </c>
       <c r="P200" s="7" t="n">
-        <v>842</v>
+        <v>620</v>
       </c>
       <c r="Q200" s="7" t="inlineStr">
         <is>
@@ -25032,19 +25028,19 @@
       </c>
       <c r="C201" s="7" t="inlineStr">
         <is>
-          <t>Øyvind Magnus Morstøl</t>
+          <t>Jon-Henning Hilleren</t>
         </is>
       </c>
       <c r="D201" s="7" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="E201" s="17" t="inlineStr">
         <is>
-          <t>2,00,34</t>
+          <t>1,58,45</t>
         </is>
       </c>
       <c r="F201" s="7" t="n">
-        <v>681</v>
+        <v>718</v>
       </c>
       <c r="G201" s="7" t="inlineStr">
         <is>
@@ -25062,27 +25058,27 @@
       </c>
       <c r="M201" s="7" t="inlineStr">
         <is>
-          <t>Stian Flo</t>
+          <t>Øyvind Magnus Morstøl</t>
         </is>
       </c>
       <c r="N201" s="7" t="n">
-        <v>1985</v>
+        <v>2007</v>
       </c>
       <c r="O201" s="17" t="inlineStr">
         <is>
-          <t>1,59,87</t>
+          <t>2,00,34</t>
         </is>
       </c>
       <c r="P201" s="7" t="n">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="Q201" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R201" s="16" t="n">
-        <v>14.05</v>
+        <v>17.06</v>
       </c>
       <c r="T201" s="5" t="n"/>
     </row>
@@ -25094,27 +25090,27 @@
       </c>
       <c r="C202" s="7" t="inlineStr">
         <is>
-          <t>Endre Hartvedt Haugen</t>
+          <t>Tobias Natland</t>
         </is>
       </c>
       <c r="D202" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="E202" s="17" t="inlineStr">
         <is>
-          <t>4,10,05</t>
+          <t>4,28,05</t>
         </is>
       </c>
       <c r="F202" s="7" t="n">
-        <v>671</v>
+        <v>538</v>
       </c>
       <c r="G202" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Rosendal</t>
         </is>
       </c>
       <c r="H202" s="16" t="n">
-        <v>11.02</v>
+        <v>28.05</v>
       </c>
       <c r="J202" s="5" t="n"/>
       <c r="L202" s="14" t="inlineStr">
@@ -25124,27 +25120,27 @@
       </c>
       <c r="M202" s="7" t="inlineStr">
         <is>
-          <t>Tobias Fretheim</t>
+          <t>Endre Hartvedt Haugen</t>
         </is>
       </c>
       <c r="N202" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="O202" s="17" t="inlineStr">
         <is>
-          <t>4,24,24</t>
+          <t>4,10,05</t>
         </is>
       </c>
       <c r="P202" s="7" t="n">
-        <v>564</v>
+        <v>671</v>
       </c>
       <c r="Q202" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R202" s="16" t="n">
-        <v>5.03</v>
+        <v>11.02</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
@@ -25156,27 +25152,27 @@
       </c>
       <c r="C203" s="7" t="inlineStr">
         <is>
-          <t>Sebastian Skoge-Nilsen</t>
+          <t>Marius Garmann Sørli</t>
         </is>
       </c>
       <c r="D203" s="7" t="n">
-        <v>2006</v>
+        <v>1997</v>
       </c>
       <c r="E203" s="17" t="inlineStr">
         <is>
-          <t>9,30,72</t>
+          <t>8,21,68</t>
         </is>
       </c>
       <c r="F203" s="7" t="n">
-        <v>580</v>
+        <v>851</v>
       </c>
       <c r="G203" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Førde</t>
         </is>
       </c>
       <c r="H203" s="16" t="n">
-        <v>16.06</v>
+        <v>16.05</v>
       </c>
       <c r="J203" s="5" t="n"/>
       <c r="L203" s="14" t="inlineStr">
@@ -25186,57 +25182,57 @@
       </c>
       <c r="M203" s="7" t="inlineStr">
         <is>
-          <t>Tobias Fretheim</t>
+          <t>Sebastian Skoge-Nilsen</t>
         </is>
       </c>
       <c r="N203" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O203" s="17" t="inlineStr">
         <is>
-          <t>9,33,51</t>
+          <t>9,30,72</t>
         </is>
       </c>
       <c r="P203" s="7" t="n">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q203" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R203" s="16" t="n">
-        <v>3.06</v>
+        <v>16.06</v>
       </c>
       <c r="T203" s="5" t="n"/>
     </row>
     <row r="204" ht="13" customHeight="1">
       <c r="B204" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C204" s="7" t="inlineStr">
         <is>
-          <t>David-George Stan</t>
+          <t>Henrik Villanger</t>
         </is>
       </c>
       <c r="D204" s="7" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E204" s="15" t="n">
-        <v>1.32</v>
+        <v>4.75</v>
       </c>
       <c r="F204" s="7" t="n">
-        <v>125</v>
+        <v>310</v>
       </c>
       <c r="G204" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Rosendal</t>
         </is>
       </c>
       <c r="H204" s="16" t="n">
-        <v>13.05</v>
+        <v>28.05</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="14" t="inlineStr">
@@ -25246,55 +25242,55 @@
       </c>
       <c r="M204" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Askeland</t>
+          <t>David-George Stan</t>
         </is>
       </c>
       <c r="N204" s="7" t="n">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="O204" s="15" t="n">
-        <v>1.85</v>
+        <v>1.32</v>
       </c>
       <c r="P204" s="7" t="n">
-        <v>696</v>
+        <v>125</v>
       </c>
       <c r="Q204" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R204" s="16" t="n">
-        <v>5.02</v>
+        <v>13.05</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
     <row r="205" ht="13" customHeight="1">
       <c r="B205" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C205" s="7" t="inlineStr">
         <is>
-          <t>Linus August Rygh</t>
+          <t>Sander Feness Armond</t>
         </is>
       </c>
       <c r="D205" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="E205" s="15" t="n">
-        <v>6.59</v>
+        <v>10.62</v>
       </c>
       <c r="F205" s="7" t="n">
-        <v>738</v>
+        <v>403</v>
       </c>
       <c r="G205" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="H205" s="16" t="n">
-        <v>1.07</v>
+        <v>7.06</v>
       </c>
       <c r="J205" s="5" t="n"/>
       <c r="L205" s="14" t="inlineStr">
@@ -25304,47 +25300,47 @@
       </c>
       <c r="M205" s="7" t="inlineStr">
         <is>
-          <t>Benjamin Fosseli Bye</t>
+          <t>Linus August Rygh</t>
         </is>
       </c>
       <c r="N205" s="7" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="O205" s="15" t="n">
-        <v>4.71</v>
+        <v>6.59</v>
       </c>
       <c r="P205" s="7" t="n">
-        <v>300</v>
+        <v>738</v>
       </c>
       <c r="Q205" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R205" s="16" t="n">
-        <v>18.03</v>
+        <v>1.07</v>
       </c>
       <c r="T205" s="5" t="n"/>
     </row>
     <row r="206" ht="13" customHeight="1">
       <c r="B206" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C206" s="7" t="inlineStr">
         <is>
-          <t>Linus August Rygh</t>
+          <t>Haakon Brunborg</t>
         </is>
       </c>
       <c r="D206" s="7" t="n">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="E206" s="15" t="n">
-        <v>13.48</v>
+        <v>1.18</v>
       </c>
       <c r="F206" s="7" t="n">
-        <v>721</v>
+        <v>240</v>
       </c>
       <c r="G206" s="7" t="inlineStr">
         <is>
@@ -25352,7 +25348,7 @@
         </is>
       </c>
       <c r="H206" s="16" t="n">
-        <v>21.01</v>
+        <v>10.02</v>
       </c>
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="14" t="inlineStr">
@@ -25362,25 +25358,25 @@
       </c>
       <c r="M206" s="7" t="inlineStr">
         <is>
-          <t>William Schlanbusch</t>
+          <t>Linus August Rygh</t>
         </is>
       </c>
       <c r="N206" s="7" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="O206" s="15" t="n">
-        <v>7.66</v>
+        <v>13.48</v>
       </c>
       <c r="P206" s="7" t="n">
-        <v>40</v>
+        <v>721</v>
       </c>
       <c r="Q206" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R206" s="16" t="n">
-        <v>3.06</v>
+        <v>21.01</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
@@ -25392,45 +25388,45 @@
       </c>
       <c r="C207" s="7" t="inlineStr">
         <is>
-          <t>Emil Gundersen</t>
+          <t>Elias Bergheim</t>
         </is>
       </c>
       <c r="D207" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E207" s="15" t="n">
-        <v>2.97</v>
+        <v>2.88</v>
       </c>
       <c r="F207" s="7" t="n">
-        <v>655</v>
+        <v>605</v>
       </c>
       <c r="G207" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="H207" s="16" t="n">
-        <v>19.02</v>
+        <v>31.07</v>
       </c>
       <c r="J207" s="5" t="n"/>
       <c r="L207" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M207" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Askeland</t>
+          <t>Emil Gundersen</t>
         </is>
       </c>
       <c r="N207" s="7" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="O207" s="15" t="n">
-        <v>1.66</v>
+        <v>2.97</v>
       </c>
       <c r="P207" s="7" t="n">
-        <v>847</v>
+        <v>655</v>
       </c>
       <c r="Q207" s="7" t="inlineStr">
         <is>
@@ -25438,84 +25434,84 @@
         </is>
       </c>
       <c r="R207" s="16" t="n">
-        <v>18.02</v>
+        <v>19.02</v>
       </c>
       <c r="T207" s="5" t="n"/>
     </row>
     <row r="208" ht="13" customHeight="1">
-      <c r="B208" s="14" t="n"/>
-      <c r="C208" s="7" t="n"/>
-      <c r="D208" s="7" t="n"/>
-      <c r="E208" s="7" t="n"/>
-      <c r="F208" s="7" t="n"/>
-      <c r="G208" s="7" t="n"/>
-      <c r="H208" s="21" t="n"/>
+      <c r="B208" s="14" t="inlineStr">
+        <is>
+          <t>Kule</t>
+        </is>
+      </c>
+      <c r="C208" s="7" t="inlineStr">
+        <is>
+          <t>Erlend Bergfjord Næss</t>
+        </is>
+      </c>
+      <c r="D208" s="7" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E208" s="15" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="F208" s="7" t="n">
+        <v>667</v>
+      </c>
+      <c r="G208" s="7" t="inlineStr">
+        <is>
+          <t>Leikvang</t>
+        </is>
+      </c>
+      <c r="H208" s="16" t="n">
+        <v>21.01</v>
+      </c>
       <c r="J208" s="5" t="n"/>
-      <c r="L208" s="14" t="inlineStr">
-        <is>
-          <t>Lengde u.t</t>
-        </is>
-      </c>
-      <c r="M208" s="7" t="inlineStr">
-        <is>
-          <t>Jonathan Askeland</t>
-        </is>
-      </c>
-      <c r="N208" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O208" s="15" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="P208" s="7" t="n">
-        <v>627</v>
-      </c>
-      <c r="Q208" s="7" t="inlineStr">
-        <is>
-          <t>Bærum</t>
-        </is>
-      </c>
-      <c r="R208" s="16" t="n">
-        <v>19.02</v>
-      </c>
+      <c r="L208" s="14" t="n"/>
+      <c r="M208" s="7" t="n"/>
+      <c r="N208" s="7" t="n"/>
+      <c r="O208" s="7" t="n"/>
+      <c r="P208" s="7" t="n"/>
+      <c r="Q208" s="7" t="n"/>
+      <c r="R208" s="21" t="n"/>
       <c r="T208" s="5" t="n"/>
     </row>
     <row r="209" ht="13" customHeight="1">
-      <c r="B209" s="14" t="n"/>
-      <c r="C209" s="7" t="n"/>
-      <c r="D209" s="7" t="n"/>
-      <c r="E209" s="7" t="n"/>
-      <c r="F209" s="7" t="n"/>
-      <c r="G209" s="7" t="n"/>
-      <c r="H209" s="21" t="n"/>
+      <c r="B209" s="14" t="inlineStr">
+        <is>
+          <t>Diskos</t>
+        </is>
+      </c>
+      <c r="C209" s="7" t="inlineStr">
+        <is>
+          <t>Erlend Bergfjord Næss</t>
+        </is>
+      </c>
+      <c r="D209" s="7" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E209" s="15" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="F209" s="7" t="n">
+        <v>859</v>
+      </c>
+      <c r="G209" s="7" t="inlineStr">
+        <is>
+          <t>Spikkestad</t>
+        </is>
+      </c>
+      <c r="H209" s="16" t="n">
+        <v>11.06</v>
+      </c>
       <c r="J209" s="5" t="n"/>
-      <c r="L209" s="14" t="inlineStr">
-        <is>
-          <t>Kule</t>
-        </is>
-      </c>
-      <c r="M209" s="7" t="inlineStr">
-        <is>
-          <t>Jonathan Askeland</t>
-        </is>
-      </c>
-      <c r="N209" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O209" s="15" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="P209" s="7" t="n">
-        <v>426</v>
-      </c>
-      <c r="Q209" s="7" t="inlineStr">
-        <is>
-          <t>Sandnes</t>
-        </is>
-      </c>
-      <c r="R209" s="16" t="n">
-        <v>4.02</v>
-      </c>
+      <c r="L209" s="14" t="n"/>
+      <c r="M209" s="7" t="n"/>
+      <c r="N209" s="7" t="n"/>
+      <c r="O209" s="7" t="n"/>
+      <c r="P209" s="7" t="n"/>
+      <c r="Q209" s="7" t="n"/>
+      <c r="R209" s="21" t="n"/>
       <c r="T209" s="5" t="n"/>
     </row>
     <row r="210" ht="13" customHeight="1">
@@ -25543,7 +25539,7 @@
         </is>
       </c>
       <c r="C211" s="20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E211" s="19" t="inlineStr">
         <is>
@@ -25551,7 +25547,7 @@
         </is>
       </c>
       <c r="F211" s="20" t="n">
-        <v>7384</v>
+        <v>8592</v>
       </c>
       <c r="J211" s="5" t="n"/>
       <c r="L211" s="19" t="inlineStr">
@@ -25560,7 +25556,7 @@
         </is>
       </c>
       <c r="M211" s="20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O211" s="19" t="inlineStr">
         <is>
@@ -25568,7 +25564,7 @@
         </is>
       </c>
       <c r="P211" s="20" t="n">
-        <v>8424</v>
+        <v>7384</v>
       </c>
       <c r="T211" s="5" t="n"/>
     </row>
@@ -25671,30 +25667,30 @@
     <row r="216" ht="13" customHeight="1">
       <c r="B216" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C216" s="7" t="inlineStr">
         <is>
-          <t>Remark Rrozhani</t>
+          <t>Vegard Fluge</t>
         </is>
       </c>
       <c r="D216" s="7" t="n">
-        <v>2004</v>
+        <v>1995</v>
       </c>
       <c r="E216" s="15" t="n">
-        <v>22.39</v>
+        <v>11.4</v>
       </c>
       <c r="F216" s="7" t="n">
-        <v>816</v>
+        <v>743</v>
       </c>
       <c r="G216" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H216" s="16" t="n">
-        <v>12.02</v>
+        <v>3.06</v>
       </c>
       <c r="J216" s="5" t="n"/>
       <c r="L216" s="14" t="inlineStr">
@@ -25704,17 +25700,17 @@
       </c>
       <c r="M216" s="7" t="inlineStr">
         <is>
-          <t>Elias Solheim Sollid</t>
+          <t>Remark Rrozhani</t>
         </is>
       </c>
       <c r="N216" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O216" s="15" t="n">
-        <v>21.91</v>
+        <v>22.39</v>
       </c>
       <c r="P216" s="7" t="n">
-        <v>871</v>
+        <v>816</v>
       </c>
       <c r="Q216" s="7" t="inlineStr">
         <is>
@@ -25722,65 +25718,67 @@
         </is>
       </c>
       <c r="R216" s="16" t="n">
-        <v>17.06</v>
+        <v>12.02</v>
       </c>
       <c r="T216" s="5" t="n"/>
     </row>
     <row r="217" ht="13" customHeight="1">
       <c r="B217" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C217" s="7" t="inlineStr">
         <is>
-          <t>Remark Rrozhani</t>
+          <t>Sigve Lillebø</t>
         </is>
       </c>
       <c r="D217" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E217" s="15" t="n">
-        <v>11.18</v>
+        <v>2006</v>
+      </c>
+      <c r="E217" s="17" t="inlineStr">
+        <is>
+          <t>2,00,12</t>
+        </is>
       </c>
       <c r="F217" s="7" t="n">
-        <v>796</v>
+        <v>685</v>
       </c>
       <c r="G217" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H217" s="16" t="n">
-        <v>4.06</v>
+        <v>17.06</v>
       </c>
       <c r="J217" s="5" t="n"/>
       <c r="L217" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M217" s="7" t="inlineStr">
         <is>
-          <t>Andreas Solheim Sollid</t>
+          <t>Remark Rrozhani</t>
         </is>
       </c>
       <c r="N217" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="O217" s="15" t="n">
-        <v>22.07</v>
+        <v>11.18</v>
       </c>
       <c r="P217" s="7" t="n">
-        <v>852</v>
+        <v>796</v>
       </c>
       <c r="Q217" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R217" s="16" t="n">
-        <v>16.06</v>
+        <v>4.06</v>
       </c>
       <c r="T217" s="5" t="n"/>
     </row>
@@ -25792,21 +25790,21 @@
       </c>
       <c r="C218" s="7" t="inlineStr">
         <is>
-          <t>Remark Rrozhani</t>
+          <t>Sander Feness Armond</t>
         </is>
       </c>
       <c r="D218" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E218" s="15" t="n">
-        <v>7.19</v>
+        <v>7.48</v>
       </c>
       <c r="F218" s="7" t="n">
-        <v>781</v>
+        <v>668</v>
       </c>
       <c r="G218" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H218" s="16" t="n">
@@ -25815,30 +25813,30 @@
       <c r="J218" s="5" t="n"/>
       <c r="L218" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M218" s="7" t="inlineStr">
         <is>
-          <t>Andreas Solheim Sollid</t>
+          <t>Remark Rrozhani</t>
         </is>
       </c>
       <c r="N218" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="O218" s="15" t="n">
-        <v>11.06</v>
+        <v>7.19</v>
       </c>
       <c r="P218" s="7" t="n">
-        <v>826</v>
+        <v>781</v>
       </c>
       <c r="Q218" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R218" s="16" t="n">
-        <v>3.06</v>
+        <v>11.02</v>
       </c>
       <c r="T218" s="5" t="n"/>
     </row>
@@ -25850,75 +25848,75 @@
       </c>
       <c r="C219" s="7" t="inlineStr">
         <is>
-          <t>Linus August Rygh</t>
+          <t>Sander Feness Armond</t>
         </is>
       </c>
       <c r="D219" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="E219" s="15" t="n">
-        <v>23.39</v>
+        <v>23.93</v>
       </c>
       <c r="F219" s="7" t="n">
-        <v>708</v>
+        <v>654</v>
       </c>
       <c r="G219" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H219" s="16" t="n">
-        <v>28.01</v>
+        <v>16.05</v>
       </c>
       <c r="J219" s="5" t="n"/>
       <c r="L219" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M219" s="7" t="inlineStr">
         <is>
-          <t>Elias Solheim Sollid</t>
+          <t>Linus August Rygh</t>
         </is>
       </c>
       <c r="N219" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O219" s="15" t="n">
-        <v>7.14</v>
+        <v>23.39</v>
       </c>
       <c r="P219" s="7" t="n">
-        <v>802</v>
+        <v>708</v>
       </c>
       <c r="Q219" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R219" s="16" t="n">
-        <v>11.02</v>
+        <v>28.01</v>
       </c>
       <c r="T219" s="5" t="n"/>
     </row>
     <row r="220" ht="13" customHeight="1">
       <c r="B220" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C220" s="7" t="inlineStr">
         <is>
-          <t>Linus August Rygh</t>
+          <t>Sander Feness Armond</t>
         </is>
       </c>
       <c r="D220" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="E220" s="15" t="n">
-        <v>7.38</v>
+        <v>53.08</v>
       </c>
       <c r="F220" s="7" t="n">
-        <v>705</v>
+        <v>641</v>
       </c>
       <c r="G220" s="7" t="inlineStr">
         <is>
@@ -25926,7 +25924,7 @@
         </is>
       </c>
       <c r="H220" s="16" t="n">
-        <v>11.02</v>
+        <v>18.06</v>
       </c>
       <c r="J220" s="5" t="n"/>
       <c r="L220" s="14" t="inlineStr">
@@ -25936,17 +25934,17 @@
       </c>
       <c r="M220" s="7" t="inlineStr">
         <is>
-          <t>Andreas Solheim Sollid</t>
+          <t>Linus August Rygh</t>
         </is>
       </c>
       <c r="N220" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="O220" s="15" t="n">
-        <v>7.22</v>
+        <v>7.38</v>
       </c>
       <c r="P220" s="7" t="n">
-        <v>769</v>
+        <v>705</v>
       </c>
       <c r="Q220" s="7" t="inlineStr">
         <is>
@@ -25961,30 +25959,30 @@
     <row r="221" ht="13" customHeight="1">
       <c r="B221" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C221" s="7" t="inlineStr">
         <is>
-          <t>Linus August Rygh</t>
+          <t>Sigve Lillebø</t>
         </is>
       </c>
       <c r="D221" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E221" s="15" t="n">
-        <v>11.65</v>
+        <v>53.35</v>
       </c>
       <c r="F221" s="7" t="n">
-        <v>686</v>
+        <v>630</v>
       </c>
       <c r="G221" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H221" s="16" t="n">
-        <v>4.06</v>
+        <v>18.06</v>
       </c>
       <c r="J221" s="5" t="n"/>
       <c r="L221" s="14" t="inlineStr">
@@ -25994,25 +25992,25 @@
       </c>
       <c r="M221" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Askeland</t>
+          <t>Linus August Rygh</t>
         </is>
       </c>
       <c r="N221" s="7" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="O221" s="15" t="n">
-        <v>11.43</v>
+        <v>11.65</v>
       </c>
       <c r="P221" s="7" t="n">
-        <v>736</v>
+        <v>686</v>
       </c>
       <c r="Q221" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R221" s="16" t="n">
-        <v>14.05</v>
+        <v>4.06</v>
       </c>
       <c r="T221" s="5" t="n"/>
     </row>
@@ -26024,285 +26022,287 @@
       </c>
       <c r="C222" s="7" t="inlineStr">
         <is>
-          <t>Lars Magnus Birketveit</t>
+          <t>Sigve Lillebø</t>
         </is>
       </c>
       <c r="D222" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E222" s="15" t="n">
-        <v>23.66</v>
+        <v>24.54</v>
       </c>
       <c r="F222" s="7" t="n">
-        <v>681</v>
+        <v>596</v>
       </c>
       <c r="G222" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="H222" s="16" t="n">
-        <v>2.07</v>
+        <v>7.06</v>
       </c>
       <c r="J222" s="5" t="n"/>
       <c r="L222" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M222" s="7" t="inlineStr">
         <is>
-          <t>Marc  Christian Legayada Berntsen</t>
+          <t>Lars Magnus Birketveit</t>
         </is>
       </c>
       <c r="N222" s="7" t="n">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="O222" s="15" t="n">
-        <v>7.44</v>
+        <v>23.66</v>
       </c>
       <c r="P222" s="7" t="n">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q222" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R222" s="16" t="n">
-        <v>22.01</v>
+        <v>2.07</v>
       </c>
       <c r="T222" s="5" t="n"/>
     </row>
     <row r="223" ht="13" customHeight="1">
       <c r="B223" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C223" s="7" t="inlineStr">
         <is>
-          <t>Lars Magnus Birketveit</t>
+          <t>Tobias Natland</t>
         </is>
       </c>
       <c r="D223" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E223" s="15" t="n">
-        <v>11.76</v>
+        <v>2005</v>
+      </c>
+      <c r="E223" s="17" t="inlineStr">
+        <is>
+          <t>2,06,11</t>
+        </is>
       </c>
       <c r="F223" s="7" t="n">
-        <v>662</v>
+        <v>581</v>
       </c>
       <c r="G223" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="H223" s="16" t="n">
-        <v>25.06</v>
+        <v>7.06</v>
       </c>
       <c r="J223" s="5" t="n"/>
       <c r="L223" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M223" s="7" t="inlineStr">
         <is>
-          <t>Marc  Christian Legayada Berntsen</t>
+          <t>Lars Magnus Birketveit</t>
         </is>
       </c>
       <c r="N223" s="7" t="n">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="O223" s="15" t="n">
-        <v>23.72</v>
+        <v>11.76</v>
       </c>
       <c r="P223" s="7" t="n">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="Q223" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R223" s="16" t="n">
-        <v>22.01</v>
+        <v>25.06</v>
       </c>
       <c r="T223" s="5" t="n"/>
     </row>
     <row r="224" ht="13" customHeight="1">
       <c r="B224" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C224" s="7" t="inlineStr">
         <is>
-          <t>Emil Gundersen</t>
+          <t>Sander Feness Armond</t>
         </is>
       </c>
       <c r="D224" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E224" s="15" t="n">
-        <v>6.17</v>
+        <v>2.64</v>
       </c>
       <c r="F224" s="7" t="n">
-        <v>645</v>
+        <v>466</v>
       </c>
       <c r="G224" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Askøy</t>
         </is>
       </c>
       <c r="H224" s="16" t="n">
-        <v>23.02</v>
+        <v>13.02</v>
       </c>
       <c r="J224" s="5" t="n"/>
       <c r="L224" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M224" s="7" t="inlineStr">
         <is>
-          <t>Benjamin Fosseli Bye</t>
+          <t>Emil Gundersen</t>
         </is>
       </c>
       <c r="N224" s="7" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="O224" s="15" t="n">
-        <v>1.4</v>
+        <v>6.17</v>
       </c>
       <c r="P224" s="7" t="n">
-        <v>233</v>
+        <v>645</v>
       </c>
       <c r="Q224" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R224" s="16" t="n">
-        <v>18.03</v>
+        <v>23.02</v>
       </c>
       <c r="T224" s="5" t="n"/>
     </row>
     <row r="225" ht="13" customHeight="1">
       <c r="B225" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C225" s="7" t="inlineStr">
         <is>
-          <t>Oliver Taule Lindgren</t>
+          <t>Ole Magnus Villanger</t>
         </is>
       </c>
       <c r="D225" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E225" s="15" t="n">
-        <v>5.67</v>
+        <v>2.62</v>
       </c>
       <c r="F225" s="7" t="n">
-        <v>530</v>
+        <v>453</v>
       </c>
       <c r="G225" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="H225" s="16" t="n">
-        <v>4.03</v>
+        <v>31.07</v>
       </c>
       <c r="J225" s="5" t="n"/>
       <c r="L225" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M225" s="7" t="inlineStr">
         <is>
-          <t>Brage Henriksen</t>
+          <t>Oliver Taule Lindgren</t>
         </is>
       </c>
       <c r="N225" s="7" t="n">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="O225" s="15" t="n">
-        <v>1.35</v>
+        <v>5.67</v>
       </c>
       <c r="P225" s="7" t="n">
-        <v>167</v>
+        <v>530</v>
       </c>
       <c r="Q225" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R225" s="16" t="n">
-        <v>14.05</v>
+        <v>4.03</v>
       </c>
       <c r="T225" s="5" t="n"/>
     </row>
     <row r="226" ht="13" customHeight="1">
       <c r="B226" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C226" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Boge Stenerud</t>
+          <t>Bjørn Fluge</t>
         </is>
       </c>
       <c r="D226" s="7" t="n">
-        <v>2008</v>
+        <v>1960</v>
       </c>
       <c r="E226" s="15" t="n">
-        <v>11.5</v>
+        <v>2.49</v>
       </c>
       <c r="F226" s="7" t="n">
-        <v>504</v>
+        <v>359</v>
       </c>
       <c r="G226" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Askøy</t>
         </is>
       </c>
       <c r="H226" s="16" t="n">
-        <v>17.06</v>
+        <v>13.02</v>
       </c>
       <c r="J226" s="5" t="n"/>
       <c r="L226" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M226" s="7" t="inlineStr">
         <is>
-          <t>Jonas Røed Haaland</t>
+          <t>Kristoffer Boge Stenerud</t>
         </is>
       </c>
       <c r="N226" s="7" t="n">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="O226" s="15" t="n">
-        <v>1.32</v>
+        <v>11.5</v>
       </c>
       <c r="P226" s="7" t="n">
-        <v>125</v>
+        <v>504</v>
       </c>
       <c r="Q226" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R226" s="16" t="n">
-        <v>22.01</v>
+        <v>17.06</v>
       </c>
       <c r="T226" s="5" t="n"/>
     </row>
@@ -26314,17 +26314,17 @@
       </c>
       <c r="C227" s="7" t="inlineStr">
         <is>
-          <t>Jonas Langeland Andersen</t>
+          <t>Øyvind Kolstad Silseth</t>
         </is>
       </c>
       <c r="D227" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E227" s="15" t="n">
-        <v>5.22</v>
+        <v>4.72</v>
       </c>
       <c r="F227" s="7" t="n">
-        <v>424</v>
+        <v>303</v>
       </c>
       <c r="G227" s="7" t="inlineStr">
         <is>
@@ -26332,7 +26332,7 @@
         </is>
       </c>
       <c r="H227" s="16" t="n">
-        <v>23.02</v>
+        <v>22.01</v>
       </c>
       <c r="J227" s="5" t="n"/>
       <c r="L227" s="14" t="inlineStr">
@@ -26342,25 +26342,25 @@
       </c>
       <c r="M227" s="7" t="inlineStr">
         <is>
-          <t>David Askeland</t>
+          <t>Jonas Langeland Andersen</t>
         </is>
       </c>
       <c r="N227" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O227" s="15" t="n">
-        <v>3.97</v>
+        <v>5.22</v>
       </c>
       <c r="P227" s="7" t="n">
-        <v>111</v>
+        <v>424</v>
       </c>
       <c r="Q227" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R227" s="16" t="n">
-        <v>14.05</v>
+        <v>23.02</v>
       </c>
       <c r="T227" s="5" t="n"/>
     </row>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="F229" s="20" t="n">
-        <v>7938</v>
+        <v>6779</v>
       </c>
       <c r="J229" s="5" t="n"/>
       <c r="L229" s="19" t="inlineStr">
@@ -26414,7 +26414,7 @@
         </is>
       </c>
       <c r="P229" s="20" t="n">
-        <v>6849</v>
+        <v>7938</v>
       </c>
       <c r="T229" s="5" t="n"/>
     </row>
@@ -26429,7 +26429,7 @@
         </is>
       </c>
       <c r="C231" s="20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E231" s="19" t="inlineStr">
         <is>
@@ -26437,7 +26437,7 @@
         </is>
       </c>
       <c r="F231" s="20" t="n">
-        <v>15322</v>
+        <v>15371</v>
       </c>
       <c r="J231" s="5" t="n"/>
       <c r="L231" s="19" t="inlineStr">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="M231" s="20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O231" s="19" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         </is>
       </c>
       <c r="P231" s="20" t="n">
-        <v>15273</v>
+        <v>15322</v>
       </c>
       <c r="T231" s="5" t="n"/>
     </row>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="C233" s="20" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J233" s="5" t="n"/>
       <c r="L233" s="19" t="inlineStr">
@@ -26478,7 +26478,7 @@
         </is>
       </c>
       <c r="M233" s="20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T233" s="5" t="n"/>
     </row>
@@ -29545,20 +29545,20 @@
       <c r="J313" s="5" t="n"/>
       <c r="L313" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M313" s="7" t="inlineStr">
         <is>
-          <t>Anders Daviknes-Andreassen</t>
+          <t>Eric Haugen Grønvold</t>
         </is>
       </c>
       <c r="N313" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="O313" s="17" t="inlineStr">
         <is>
-          <t>9,36,64</t>
+          <t>4,24,72</t>
         </is>
       </c>
       <c r="P313" s="7" t="n">
@@ -29570,7 +29570,7 @@
         </is>
       </c>
       <c r="R313" s="16" t="n">
-        <v>22.06</v>
+        <v>2.08</v>
       </c>
       <c r="T313" s="5" t="n"/>
     </row>
@@ -29605,32 +29605,32 @@
       <c r="J314" s="5" t="n"/>
       <c r="L314" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M314" s="7" t="inlineStr">
         <is>
-          <t>Martin Tjelle</t>
+          <t>Anders Daviknes-Andreassen</t>
         </is>
       </c>
       <c r="N314" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="O314" s="17" t="inlineStr">
         <is>
-          <t>4,26,97</t>
+          <t>9,36,64</t>
         </is>
       </c>
       <c r="P314" s="7" t="n">
-        <v>545</v>
+        <v>561</v>
       </c>
       <c r="Q314" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R314" s="16" t="n">
-        <v>23.06</v>
+        <v>22.06</v>
       </c>
       <c r="T314" s="5" t="n"/>
     </row>
@@ -29665,12 +29665,12 @@
       <c r="J315" s="5" t="n"/>
       <c r="L315" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M315" s="7" t="inlineStr">
         <is>
-          <t>Eik Viljar Nertun Jøsendal</t>
+          <t>Martin Tjelle</t>
         </is>
       </c>
       <c r="N315" s="7" t="n">
@@ -29678,19 +29678,19 @@
       </c>
       <c r="O315" s="17" t="inlineStr">
         <is>
-          <t>10,07,63</t>
+          <t>4,26,97</t>
         </is>
       </c>
       <c r="P315" s="7" t="n">
-        <v>468</v>
+        <v>545</v>
       </c>
       <c r="Q315" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R315" s="16" t="n">
-        <v>22.05</v>
+        <v>23.06</v>
       </c>
       <c r="T315" s="5" t="n"/>
     </row>
@@ -29725,32 +29725,32 @@
       <c r="J316" s="5" t="n"/>
       <c r="L316" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M316" s="7" t="inlineStr">
         <is>
-          <t>Ask Fjøsne-Hexeberg</t>
+          <t>Eik Viljar Nertun Jøsendal</t>
         </is>
       </c>
       <c r="N316" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="O316" s="17" t="inlineStr">
         <is>
-          <t>4,40,39</t>
+          <t>10,07,63</t>
         </is>
       </c>
       <c r="P316" s="7" t="n">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="Q316" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R316" s="16" t="n">
-        <v>18.06</v>
+        <v>22.05</v>
       </c>
       <c r="T316" s="5" t="n"/>
     </row>
@@ -29790,7 +29790,7 @@
       </c>
       <c r="M317" s="7" t="inlineStr">
         <is>
-          <t>Eric Haugen Grønvold</t>
+          <t>Ask Fjøsne-Hexeberg</t>
         </is>
       </c>
       <c r="N317" s="7" t="n">
@@ -29798,19 +29798,19 @@
       </c>
       <c r="O317" s="17" t="inlineStr">
         <is>
-          <t>4,41,55</t>
+          <t>4,40,39</t>
         </is>
       </c>
       <c r="P317" s="7" t="n">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="Q317" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R317" s="16" t="n">
-        <v>22.05</v>
+        <v>18.06</v>
       </c>
       <c r="T317" s="5" t="n"/>
     </row>
@@ -29936,7 +29936,7 @@
         </is>
       </c>
       <c r="P323" s="20" t="n">
-        <v>4514</v>
+        <v>4622</v>
       </c>
       <c r="T323" s="5" t="n"/>
     </row>
@@ -29976,7 +29976,7 @@
         </is>
       </c>
       <c r="P325" s="20" t="n">
-        <v>8323</v>
+        <v>8431</v>
       </c>
       <c r="T325" s="5" t="n"/>
     </row>
@@ -30116,7 +30116,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>26426</v>
+        <v>26431</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -30368,7 +30368,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>20964</v>
+        <v>20974</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -30906,18 +30906,18 @@
         <v>2002</v>
       </c>
       <c r="E12" s="15" t="n">
-        <v>52.95</v>
+        <v>52.81</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="G12" s="7" t="inlineStr">
         <is>
-          <t>Espoo/FIN</t>
+          <t>Malmø/SWE</t>
         </is>
       </c>
       <c r="H12" s="16" t="n">
-        <v>14.07</v>
+        <v>5.08</v>
       </c>
       <c r="J12" s="5" t="n"/>
       <c r="L12" s="14" t="inlineStr">
@@ -31636,7 +31636,7 @@
         </is>
       </c>
       <c r="F25" s="20" t="n">
-        <v>13679</v>
+        <v>13684</v>
       </c>
       <c r="J25" s="5" t="n"/>
       <c r="L25" s="19" t="inlineStr">
@@ -32714,7 +32714,7 @@
         </is>
       </c>
       <c r="F48" s="20" t="n">
-        <v>26426</v>
+        <v>26431</v>
       </c>
       <c r="J48" s="5" t="n"/>
       <c r="L48" s="19" t="inlineStr">
@@ -41543,17 +41543,17 @@
       </c>
       <c r="M252" s="7" t="inlineStr">
         <is>
-          <t>Frida Aase Thulin</t>
+          <t>Kristin Urnes</t>
         </is>
       </c>
       <c r="N252" s="7" t="n">
-        <v>2010</v>
+        <v>1975</v>
       </c>
       <c r="O252" s="15" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P252" s="7" t="n">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="Q252" s="7" t="inlineStr">
         <is>
@@ -41561,7 +41561,7 @@
         </is>
       </c>
       <c r="R252" s="16" t="n">
-        <v>12.03</v>
+        <v>4.07</v>
       </c>
       <c r="T252" s="5" t="n"/>
     </row>
@@ -41615,7 +41615,7 @@
         </is>
       </c>
       <c r="P254" s="20" t="n">
-        <v>9481</v>
+        <v>9491</v>
       </c>
       <c r="T254" s="5" t="n"/>
     </row>
@@ -41655,7 +41655,7 @@
         </is>
       </c>
       <c r="P256" s="20" t="n">
-        <v>20964</v>
+        <v>20974</v>
       </c>
       <c r="T256" s="5" t="n"/>
     </row>
@@ -46017,11 +46017,11 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>(25/11)</t>
+          <t>(25/12)</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>18075</v>
+        <v>18143</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -46753,18 +46753,18 @@
         <v>2003</v>
       </c>
       <c r="E11" s="15" t="n">
-        <v>24.85</v>
+        <v>24.76</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>820</v>
+        <v>827</v>
       </c>
       <c r="G11" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Chengdu/CHN</t>
         </is>
       </c>
       <c r="H11" s="16" t="n">
-        <v>4.06</v>
+        <v>3.08</v>
       </c>
       <c r="J11" s="5" t="n"/>
       <c r="L11" s="14" t="inlineStr">
@@ -46983,30 +46983,32 @@
     <row r="15" ht="13" customHeight="1">
       <c r="B15" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr">
         <is>
-          <t>Kajsa Rooth</t>
+          <t>Aurora Kanutte Brandt Sande</t>
         </is>
       </c>
       <c r="D15" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E15" s="15" t="n">
-        <v>8.970000000000001</v>
+        <v>2008</v>
+      </c>
+      <c r="E15" s="17" t="inlineStr">
+        <is>
+          <t>10,23,85</t>
+        </is>
       </c>
       <c r="F15" s="7" t="n">
-        <v>785</v>
+        <v>678</v>
       </c>
       <c r="G15" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H15" s="16" t="n">
-        <v>19.02</v>
+        <v>2.08</v>
       </c>
       <c r="J15" s="5" t="n"/>
       <c r="L15" s="14" t="inlineStr">
@@ -47041,7 +47043,7 @@
     <row r="16" ht="13" customHeight="1">
       <c r="B16" s="14" t="inlineStr">
         <is>
-          <t>100m hekk</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="C16" s="7" t="inlineStr">
@@ -47053,18 +47055,18 @@
         <v>2003</v>
       </c>
       <c r="E16" s="15" t="n">
-        <v>14.52</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="F16" s="7" t="n">
-        <v>814</v>
+        <v>785</v>
       </c>
       <c r="G16" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H16" s="16" t="n">
-        <v>8.07</v>
+        <v>19.02</v>
       </c>
       <c r="J16" s="5" t="n"/>
       <c r="L16" s="14" t="inlineStr">
@@ -47099,30 +47101,30 @@
     <row r="17" ht="13" customHeight="1">
       <c r="B17" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr">
         <is>
-          <t>Liv Kulle Andreassen</t>
+          <t>Kajsa Rooth</t>
         </is>
       </c>
       <c r="D17" s="7" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="E17" s="15" t="n">
-        <v>1.55</v>
+        <v>14.52</v>
       </c>
       <c r="F17" s="7" t="n">
-        <v>651</v>
+        <v>814</v>
       </c>
       <c r="G17" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H17" s="16" t="n">
-        <v>3.06</v>
+        <v>8.07</v>
       </c>
       <c r="J17" s="5" t="n"/>
       <c r="L17" s="14" t="inlineStr">
@@ -47157,30 +47159,30 @@
     <row r="18" ht="13" customHeight="1">
       <c r="B18" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C18" s="7" t="inlineStr">
         <is>
-          <t>Kajsa Rooth</t>
+          <t>Liv Kulle Andreassen</t>
         </is>
       </c>
       <c r="D18" s="7" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E18" s="15" t="n">
-        <v>5.24</v>
+        <v>1.55</v>
       </c>
       <c r="F18" s="7" t="n">
-        <v>670</v>
+        <v>651</v>
       </c>
       <c r="G18" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H18" s="16" t="n">
-        <v>17.06</v>
+        <v>3.06</v>
       </c>
       <c r="J18" s="5" t="n"/>
       <c r="L18" s="14" t="inlineStr">
@@ -47215,30 +47217,30 @@
     <row r="19" ht="13" customHeight="1">
       <c r="B19" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C19" s="7" t="inlineStr">
         <is>
-          <t>Oda Lier</t>
+          <t>Kajsa Rooth</t>
         </is>
       </c>
       <c r="D19" s="7" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="E19" s="15" t="n">
-        <v>10.68</v>
+        <v>5.24</v>
       </c>
       <c r="F19" s="7" t="n">
-        <v>628</v>
+        <v>670</v>
       </c>
       <c r="G19" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H19" s="16" t="n">
-        <v>3.03</v>
+        <v>17.06</v>
       </c>
       <c r="J19" s="5" t="n"/>
       <c r="L19" s="14" t="inlineStr">
@@ -47419,7 +47421,7 @@
         </is>
       </c>
       <c r="F23" s="20" t="n">
-        <v>9816</v>
+        <v>9873</v>
       </c>
       <c r="J23" s="5" t="n"/>
       <c r="L23" s="19" t="inlineStr">
@@ -48123,30 +48125,30 @@
     <row r="38" ht="13" customHeight="1">
       <c r="B38" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C38" s="7" t="inlineStr">
         <is>
-          <t>Freja Charlotte Olofsson</t>
+          <t>Oda Lier</t>
         </is>
       </c>
       <c r="D38" s="7" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="E38" s="15" t="n">
-        <v>10.38</v>
+        <v>10.68</v>
       </c>
       <c r="F38" s="7" t="n">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="G38" s="7" t="inlineStr">
         <is>
-          <t>Towson/MD/USA</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H38" s="16" t="n">
-        <v>31.03</v>
+        <v>3.03</v>
       </c>
       <c r="J38" s="5" t="n"/>
       <c r="L38" s="14" t="inlineStr">
@@ -48181,30 +48183,30 @@
     <row r="39" ht="13" customHeight="1">
       <c r="B39" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C39" s="7" t="inlineStr">
         <is>
-          <t>Kajsa Rooth</t>
+          <t>Freja Charlotte Olofsson</t>
         </is>
       </c>
       <c r="D39" s="7" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="E39" s="15" t="n">
-        <v>1.51</v>
+        <v>10.38</v>
       </c>
       <c r="F39" s="7" t="n">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="G39" s="7" t="inlineStr">
         <is>
-          <t>Asker</t>
+          <t>Towson/MD/USA</t>
         </is>
       </c>
       <c r="H39" s="16" t="n">
-        <v>10.06</v>
+        <v>31.03</v>
       </c>
       <c r="J39" s="5" t="n"/>
       <c r="L39" s="14" t="inlineStr">
@@ -48269,7 +48271,7 @@
         </is>
       </c>
       <c r="F41" s="20" t="n">
-        <v>8259</v>
+        <v>8270</v>
       </c>
       <c r="J41" s="5" t="n"/>
       <c r="L41" s="19" t="inlineStr">
@@ -48309,7 +48311,7 @@
         </is>
       </c>
       <c r="F43" s="20" t="n">
-        <v>18075</v>
+        <v>18143</v>
       </c>
       <c r="J43" s="5" t="n"/>
       <c r="L43" s="19" t="inlineStr">
@@ -48341,7 +48343,7 @@
         </is>
       </c>
       <c r="C45" s="20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J45" s="5" t="n"/>
       <c r="L45" s="19" t="inlineStr">

--- a/output/Lagserien 2023 1-2. div.xlsx
+++ b/output/Lagserien 2023 1-2. div.xlsx
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>25702</v>
+        <v>25722</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>20396</v>
+        <v>20491</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
@@ -1364,18 +1364,18 @@
         <v>2002</v>
       </c>
       <c r="O11" s="15" t="n">
-        <v>21.44</v>
+        <v>21.28</v>
       </c>
       <c r="P11" s="7" t="n">
-        <v>928</v>
+        <v>948</v>
       </c>
       <c r="Q11" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R11" s="16" t="n">
-        <v>8.07</v>
+        <v>6.08</v>
       </c>
       <c r="T11" s="5" t="n"/>
     </row>
@@ -2143,7 +2143,7 @@
         </is>
       </c>
       <c r="P25" s="20" t="n">
-        <v>12672</v>
+        <v>12692</v>
       </c>
       <c r="T25" s="5" t="n"/>
     </row>
@@ -3215,7 +3215,7 @@
         </is>
       </c>
       <c r="P48" s="20" t="n">
-        <v>25702</v>
+        <v>25722</v>
       </c>
       <c r="T48" s="5" t="n"/>
     </row>
@@ -13582,32 +13582,30 @@
     <row r="294" ht="13" customHeight="1">
       <c r="B294" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C294" s="7" t="inlineStr">
         <is>
-          <t>Erik Tangen Gundersen</t>
+          <t>Simen Tjelta Larsen</t>
         </is>
       </c>
       <c r="D294" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E294" s="17" t="inlineStr">
-        <is>
-          <t>8,26,78</t>
-        </is>
+        <v>1994</v>
+      </c>
+      <c r="E294" s="15" t="n">
+        <v>22.17</v>
       </c>
       <c r="F294" s="7" t="n">
-        <v>828</v>
+        <v>841</v>
       </c>
       <c r="G294" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H294" s="16" t="n">
-        <v>19.02</v>
+        <v>6.08</v>
       </c>
       <c r="J294" s="5" t="n"/>
       <c r="L294" s="14" t="inlineStr">
@@ -13642,30 +13640,32 @@
     <row r="295" ht="13" customHeight="1">
       <c r="B295" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C295" s="7" t="inlineStr">
         <is>
-          <t>Erik Steinsland</t>
+          <t>Erik Tangen Gundersen</t>
         </is>
       </c>
       <c r="D295" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E295" s="15" t="n">
-        <v>11.07</v>
+        <v>2001</v>
+      </c>
+      <c r="E295" s="17" t="inlineStr">
+        <is>
+          <t>8,26,78</t>
+        </is>
       </c>
       <c r="F295" s="7" t="n">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="G295" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H295" s="16" t="n">
-        <v>6.07</v>
+        <v>19.02</v>
       </c>
       <c r="J295" s="5" t="n"/>
       <c r="L295" s="14" t="inlineStr">
@@ -13700,22 +13700,22 @@
     <row r="296" ht="13" customHeight="1">
       <c r="B296" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C296" s="7" t="inlineStr">
         <is>
-          <t>Simen Tjelta Larsen</t>
+          <t>Erik Steinsland</t>
         </is>
       </c>
       <c r="D296" s="7" t="n">
-        <v>1994</v>
+        <v>2000</v>
       </c>
       <c r="E296" s="15" t="n">
-        <v>22.37</v>
+        <v>11.07</v>
       </c>
       <c r="F296" s="7" t="n">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="G296" s="7" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         </is>
       </c>
       <c r="H296" s="16" t="n">
-        <v>7.07</v>
+        <v>6.07</v>
       </c>
       <c r="J296" s="5" t="n"/>
       <c r="L296" s="14" t="inlineStr">
@@ -13816,22 +13816,22 @@
     <row r="298" ht="13" customHeight="1">
       <c r="B298" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C298" s="7" t="inlineStr">
         <is>
-          <t>Sergejs Kononovs</t>
+          <t>Erik Steinsland</t>
         </is>
       </c>
       <c r="D298" s="7" t="n">
-        <v>1989</v>
+        <v>2000</v>
       </c>
       <c r="E298" s="15" t="n">
-        <v>7.24</v>
+        <v>22.45</v>
       </c>
       <c r="F298" s="7" t="n">
-        <v>760</v>
+        <v>809</v>
       </c>
       <c r="G298" s="7" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         </is>
       </c>
       <c r="H298" s="16" t="n">
-        <v>25.02</v>
+        <v>6.08</v>
       </c>
       <c r="J298" s="5" t="n"/>
       <c r="L298" s="14" t="inlineStr">
@@ -13874,30 +13874,30 @@
     <row r="299" ht="13" customHeight="1">
       <c r="B299" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C299" s="7" t="inlineStr">
         <is>
-          <t>Theodor Volline Nessler</t>
+          <t>Sergejs Kononovs</t>
         </is>
       </c>
       <c r="D299" s="7" t="n">
-        <v>2006</v>
+        <v>1989</v>
       </c>
       <c r="E299" s="15" t="n">
-        <v>23.11</v>
+        <v>7.24</v>
       </c>
       <c r="F299" s="7" t="n">
-        <v>737</v>
+        <v>760</v>
       </c>
       <c r="G299" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H299" s="16" t="n">
-        <v>2.07</v>
+        <v>25.02</v>
       </c>
       <c r="J299" s="5" t="n"/>
       <c r="L299" s="14" t="inlineStr">
@@ -14252,7 +14252,7 @@
         </is>
       </c>
       <c r="F306" s="20" t="n">
-        <v>10256</v>
+        <v>10351</v>
       </c>
       <c r="J306" s="5" t="n"/>
       <c r="L306" s="19" t="inlineStr">
@@ -14292,7 +14292,7 @@
         </is>
       </c>
       <c r="F308" s="20" t="n">
-        <v>20396</v>
+        <v>20491</v>
       </c>
       <c r="J308" s="5" t="n"/>
       <c r="L308" s="19" t="inlineStr">
@@ -16576,25 +16576,25 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Kristiansands IF Friidrett</t>
+          <t>Stord IL</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>(25/11)</t>
+          <t>(25/12)</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>16796</v>
+        <v>16811</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>(1/3d)</t>
+          <t>(12/1d)</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -16604,25 +16604,25 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Stord IL</t>
+          <t>Kristiansands IF Friidrett</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>(25/12)</t>
+          <t>(25/11)</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>16743</v>
+        <v>16796</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>(12/1d)</t>
+          <t>(1/3d)</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Agder</t>
         </is>
       </c>
     </row>
@@ -16697,7 +16697,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>15742</v>
+        <v>15773</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
       </c>
       <c r="M2" s="7" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="P2" s="8" t="n">
@@ -17037,7 +17037,7 @@
       </c>
       <c r="M3" s="7" t="inlineStr">
         <is>
-          <t>Kristiansands IF Friidrett</t>
+          <t>Stord IL</t>
         </is>
       </c>
       <c r="T3" s="5" t="n"/>
@@ -17194,25 +17194,25 @@
       </c>
       <c r="M9" s="7" t="inlineStr">
         <is>
-          <t>Johannes Steinsland Gulbrandsen Lunde</t>
+          <t>Steffen Tjensvoll Hollund</t>
         </is>
       </c>
       <c r="N9" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="O9" s="15" t="n">
-        <v>7.18</v>
+        <v>7.61</v>
       </c>
       <c r="P9" s="7" t="n">
-        <v>785</v>
+        <v>621</v>
       </c>
       <c r="Q9" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R9" s="16" t="n">
-        <v>11.02</v>
+        <v>18.01</v>
       </c>
       <c r="T9" s="5" t="n"/>
     </row>
@@ -17252,25 +17252,25 @@
       </c>
       <c r="M10" s="7" t="inlineStr">
         <is>
-          <t>Tobias Dybos Larsson</t>
+          <t>Steffen Tjensvoll Hollund</t>
         </is>
       </c>
       <c r="N10" s="7" t="n">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="O10" s="15" t="n">
-        <v>11.11</v>
+        <v>11.61</v>
       </c>
       <c r="P10" s="7" t="n">
-        <v>814</v>
+        <v>695</v>
       </c>
       <c r="Q10" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R10" s="16" t="n">
-        <v>6.07</v>
+        <v>6.08</v>
       </c>
       <c r="T10" s="5" t="n"/>
     </row>
@@ -17310,17 +17310,17 @@
       </c>
       <c r="M11" s="7" t="inlineStr">
         <is>
-          <t>Johannes Steinsland Gulbrandsen Lunde</t>
+          <t>Steffen Tjensvoll Hollund</t>
         </is>
       </c>
       <c r="N11" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="O11" s="15" t="n">
-        <v>22.61</v>
+        <v>24.29</v>
       </c>
       <c r="P11" s="7" t="n">
-        <v>791</v>
+        <v>620</v>
       </c>
       <c r="Q11" s="7" t="inlineStr">
         <is>
@@ -17365,30 +17365,32 @@
       <c r="J12" s="5" t="n"/>
       <c r="L12" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M12" s="7" t="inlineStr">
         <is>
-          <t>Snorre Cornelius Sund</t>
+          <t>Johannes Sandvik Bø</t>
         </is>
       </c>
       <c r="N12" s="7" t="n">
         <v>2006</v>
       </c>
-      <c r="O12" s="15" t="n">
-        <v>54.03</v>
+      <c r="O12" s="17" t="inlineStr">
+        <is>
+          <t>1,55,07</t>
+        </is>
       </c>
       <c r="P12" s="7" t="n">
-        <v>602</v>
+        <v>791</v>
       </c>
       <c r="Q12" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R12" s="16" t="n">
-        <v>18.06</v>
+        <v>6.07</v>
       </c>
       <c r="T12" s="5" t="n"/>
     </row>
@@ -17425,32 +17427,32 @@
       <c r="J13" s="5" t="n"/>
       <c r="L13" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M13" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Tveit</t>
+          <t>Johannes Sandvik Bø</t>
         </is>
       </c>
       <c r="N13" s="7" t="n">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="O13" s="17" t="inlineStr">
         <is>
-          <t>1,49,94</t>
+          <t>3,58,57</t>
         </is>
       </c>
       <c r="P13" s="7" t="n">
-        <v>918</v>
+        <v>775</v>
       </c>
       <c r="Q13" s="7" t="inlineStr">
         <is>
-          <t>Chengdu/CHN</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R13" s="16" t="n">
-        <v>4.08</v>
+        <v>8.06</v>
       </c>
       <c r="T13" s="5" t="n"/>
     </row>
@@ -17487,32 +17489,32 @@
       <c r="J14" s="5" t="n"/>
       <c r="L14" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M14" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Tveit</t>
+          <t>Erlend Kringeland</t>
         </is>
       </c>
       <c r="N14" s="7" t="n">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="O14" s="17" t="inlineStr">
         <is>
-          <t>3,40,46</t>
+          <t>8,30,48</t>
         </is>
       </c>
       <c r="P14" s="7" t="n">
-        <v>980</v>
+        <v>811</v>
       </c>
       <c r="Q14" s="7" t="inlineStr">
         <is>
-          <t>Lappeenranta/FIN</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R14" s="16" t="n">
-        <v>19.07</v>
+        <v>4.05</v>
       </c>
       <c r="T14" s="5" t="n"/>
     </row>
@@ -17549,32 +17551,32 @@
       <c r="J15" s="5" t="n"/>
       <c r="L15" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M15" s="7" t="inlineStr">
         <is>
-          <t>Daniel Loka</t>
+          <t>Lars Lunde</t>
         </is>
       </c>
       <c r="N15" s="7" t="n">
-        <v>2007</v>
+        <v>1997</v>
       </c>
       <c r="O15" s="17" t="inlineStr">
         <is>
-          <t>10,08,79</t>
+          <t>14,49,71</t>
         </is>
       </c>
       <c r="P15" s="7" t="n">
-        <v>465</v>
+        <v>795</v>
       </c>
       <c r="Q15" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R15" s="16" t="n">
-        <v>3.06</v>
+        <v>6.07</v>
       </c>
       <c r="T15" s="5" t="n"/>
     </row>
@@ -17611,32 +17613,32 @@
       <c r="J16" s="5" t="n"/>
       <c r="L16" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M16" s="7" t="inlineStr">
         <is>
-          <t>Martin Ukkelberg Sløgedal</t>
+          <t>Martin Schei</t>
         </is>
       </c>
       <c r="N16" s="7" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="O16" s="17" t="inlineStr">
         <is>
-          <t>15,24,41</t>
+          <t>31,34,17</t>
         </is>
       </c>
       <c r="P16" s="7" t="n">
-        <v>719</v>
+        <v>764</v>
       </c>
       <c r="Q16" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R16" s="16" t="n">
-        <v>6.07</v>
+        <v>3.06</v>
       </c>
       <c r="T16" s="5" t="n"/>
     </row>
@@ -17673,32 +17675,32 @@
       <c r="J17" s="5" t="n"/>
       <c r="L17" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>3000m hinder</t>
         </is>
       </c>
       <c r="M17" s="7" t="inlineStr">
         <is>
-          <t>Martin Ukkelberg Sløgedal</t>
+          <t>Tom Erling Kårbø</t>
         </is>
       </c>
       <c r="N17" s="7" t="n">
-        <v>2005</v>
+        <v>1989</v>
       </c>
       <c r="O17" s="17" t="inlineStr">
         <is>
-          <t>31,52,87</t>
+          <t>8,31,51</t>
         </is>
       </c>
       <c r="P17" s="7" t="n">
-        <v>745</v>
+        <v>981</v>
       </c>
       <c r="Q17" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Liege/BEL</t>
         </is>
       </c>
       <c r="R17" s="16" t="n">
-        <v>3.06</v>
+        <v>12.07</v>
       </c>
       <c r="T17" s="5" t="n"/>
     </row>
@@ -17733,30 +17735,30 @@
       <c r="J18" s="5" t="n"/>
       <c r="L18" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M18" s="7" t="inlineStr">
         <is>
-          <t>Johannes Steinsland Gulbrandsen Lunde</t>
+          <t>Oscar Sørvik Ånderå</t>
         </is>
       </c>
       <c r="N18" s="7" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="O18" s="15" t="n">
-        <v>6.4</v>
+        <v>1.75</v>
       </c>
       <c r="P18" s="7" t="n">
-        <v>696</v>
+        <v>607</v>
       </c>
       <c r="Q18" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leirvik</t>
         </is>
       </c>
       <c r="R18" s="16" t="n">
-        <v>19.02</v>
+        <v>4.02</v>
       </c>
       <c r="T18" s="5" t="n"/>
     </row>
@@ -17791,30 +17793,30 @@
       <c r="J19" s="5" t="n"/>
       <c r="L19" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M19" s="7" t="inlineStr">
         <is>
-          <t>Johannes Steinsland Gulbrandsen Lunde</t>
+          <t>Oddvar Hårde</t>
         </is>
       </c>
       <c r="N19" s="7" t="n">
-        <v>2003</v>
+        <v>1969</v>
       </c>
       <c r="O19" s="15" t="n">
-        <v>1.4</v>
+        <v>3.35</v>
       </c>
       <c r="P19" s="7" t="n">
-        <v>561</v>
+        <v>581</v>
       </c>
       <c r="Q19" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R19" s="16" t="n">
-        <v>13.01</v>
+        <v>11.02</v>
       </c>
       <c r="T19" s="5" t="n"/>
     </row>
@@ -17849,30 +17851,30 @@
       <c r="J20" s="5" t="n"/>
       <c r="L20" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M20" s="7" t="inlineStr">
         <is>
-          <t>Daniel Thrana</t>
+          <t>Oscar Sørvik Ånderå</t>
         </is>
       </c>
       <c r="N20" s="7" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="O20" s="15" t="n">
-        <v>11.04</v>
+        <v>1.41</v>
       </c>
       <c r="P20" s="7" t="n">
-        <v>527</v>
+        <v>572</v>
       </c>
       <c r="Q20" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Bømlo</t>
         </is>
       </c>
       <c r="R20" s="16" t="n">
-        <v>28.01</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="T20" s="5" t="n"/>
     </row>
@@ -17907,30 +17909,30 @@
       <c r="J21" s="5" t="n"/>
       <c r="L21" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M21" s="7" t="inlineStr">
         <is>
-          <t>Daniel Thrana</t>
+          <t>Julian Skimmeland Aasheim</t>
         </is>
       </c>
       <c r="N21" s="7" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="O21" s="15" t="n">
-        <v>78.8</v>
+        <v>2.88</v>
       </c>
       <c r="P21" s="7" t="n">
-        <v>1023</v>
+        <v>605</v>
       </c>
       <c r="Q21" s="7" t="inlineStr">
         <is>
-          <t>Haderslev/DEN</t>
+          <t>Leirvik</t>
         </is>
       </c>
       <c r="R21" s="16" t="n">
-        <v>3.06</v>
+        <v>23.01</v>
       </c>
       <c r="T21" s="5" t="n"/>
     </row>
@@ -17984,7 +17986,7 @@
         </is>
       </c>
       <c r="P23" s="20" t="n">
-        <v>9626</v>
+        <v>9218</v>
       </c>
       <c r="T23" s="5" t="n"/>
     </row>
@@ -18117,30 +18119,32 @@
       <c r="J28" s="5" t="n"/>
       <c r="L28" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M28" s="7" t="inlineStr">
         <is>
-          <t>Johannes Steinsland Gulbrandsen Lunde</t>
+          <t>Johannes Sandvik Bø</t>
         </is>
       </c>
       <c r="N28" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O28" s="15" t="n">
-        <v>11.18</v>
+        <v>2006</v>
+      </c>
+      <c r="O28" s="17" t="inlineStr">
+        <is>
+          <t>8,42,57</t>
+        </is>
       </c>
       <c r="P28" s="7" t="n">
-        <v>796</v>
+        <v>758</v>
       </c>
       <c r="Q28" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R28" s="16" t="n">
-        <v>6.07</v>
+        <v>16.06</v>
       </c>
       <c r="T28" s="5" t="n"/>
     </row>
@@ -18177,30 +18181,32 @@
       <c r="J29" s="5" t="n"/>
       <c r="L29" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M29" s="7" t="inlineStr">
         <is>
-          <t>Tobias Dybos Larsson</t>
+          <t>Johannes Sandvik Bø</t>
         </is>
       </c>
       <c r="N29" s="7" t="n">
-        <v>2002</v>
-      </c>
-      <c r="O29" s="15" t="n">
-        <v>7.28</v>
+        <v>2006</v>
+      </c>
+      <c r="O29" s="17" t="inlineStr">
+        <is>
+          <t>15,14,7</t>
+        </is>
       </c>
       <c r="P29" s="7" t="n">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="Q29" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Austevoll</t>
         </is>
       </c>
       <c r="R29" s="16" t="n">
-        <v>18.02</v>
+        <v>7.05</v>
       </c>
       <c r="T29" s="5" t="n"/>
     </row>
@@ -18237,30 +18243,32 @@
       <c r="J30" s="5" t="n"/>
       <c r="L30" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M30" s="7" t="inlineStr">
         <is>
-          <t>Snorre Cornelius Sund</t>
+          <t>Martin Schei</t>
         </is>
       </c>
       <c r="N30" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O30" s="15" t="n">
-        <v>23.12</v>
+        <v>2000</v>
+      </c>
+      <c r="O30" s="17" t="inlineStr">
+        <is>
+          <t>15,22,36</t>
+        </is>
       </c>
       <c r="P30" s="7" t="n">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="Q30" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R30" s="16" t="n">
-        <v>16.06</v>
+        <v>6.07</v>
       </c>
       <c r="T30" s="5" t="n"/>
     </row>
@@ -18297,30 +18305,32 @@
       <c r="J31" s="5" t="n"/>
       <c r="L31" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M31" s="7" t="inlineStr">
         <is>
-          <t>Snorre Cornelius Sund</t>
+          <t>Erlend Kringeland</t>
         </is>
       </c>
       <c r="N31" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O31" s="15" t="n">
-        <v>11.44</v>
+        <v>2003</v>
+      </c>
+      <c r="O31" s="17" t="inlineStr">
+        <is>
+          <t>1,58,94</t>
+        </is>
       </c>
       <c r="P31" s="7" t="n">
-        <v>734</v>
+        <v>708</v>
       </c>
       <c r="Q31" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R31" s="16" t="n">
-        <v>28.06</v>
+        <v>17.06</v>
       </c>
       <c r="T31" s="5" t="n"/>
     </row>
@@ -18357,30 +18367,32 @@
       <c r="J32" s="5" t="n"/>
       <c r="L32" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M32" s="7" t="inlineStr">
         <is>
-          <t>Snorre Cornelius Sund</t>
+          <t>Martin Schei</t>
         </is>
       </c>
       <c r="N32" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O32" s="15" t="n">
-        <v>7.33</v>
+        <v>2000</v>
+      </c>
+      <c r="O32" s="17" t="inlineStr">
+        <is>
+          <t>8,54,83</t>
+        </is>
       </c>
       <c r="P32" s="7" t="n">
-        <v>725</v>
+        <v>708</v>
       </c>
       <c r="Q32" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R32" s="16" t="n">
-        <v>11.02</v>
+        <v>16.05</v>
       </c>
       <c r="T32" s="5" t="n"/>
     </row>
@@ -18417,30 +18429,32 @@
       <c r="J33" s="5" t="n"/>
       <c r="L33" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M33" s="7" t="inlineStr">
         <is>
-          <t>Tobias Dybos Larsson</t>
+          <t>Jacob Hystad</t>
         </is>
       </c>
       <c r="N33" s="7" t="n">
-        <v>2002</v>
-      </c>
-      <c r="O33" s="15" t="n">
-        <v>23.42</v>
+        <v>1990</v>
+      </c>
+      <c r="O33" s="17" t="inlineStr">
+        <is>
+          <t>15,45,76</t>
+        </is>
       </c>
       <c r="P33" s="7" t="n">
-        <v>705</v>
+        <v>674</v>
       </c>
       <c r="Q33" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R33" s="16" t="n">
-        <v>16.06</v>
+        <v>28.06</v>
       </c>
       <c r="T33" s="5" t="n"/>
     </row>
@@ -18477,30 +18491,32 @@
       <c r="J34" s="5" t="n"/>
       <c r="L34" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M34" s="7" t="inlineStr">
         <is>
-          <t>Olai Stav Graasvoll</t>
+          <t>Vegard Havn</t>
         </is>
       </c>
       <c r="N34" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O34" s="15" t="n">
-        <v>7.84</v>
+        <v>1997</v>
+      </c>
+      <c r="O34" s="17" t="inlineStr">
+        <is>
+          <t>9,11,06</t>
+        </is>
       </c>
       <c r="P34" s="7" t="n">
-        <v>545</v>
+        <v>647</v>
       </c>
       <c r="Q34" s="7" t="inlineStr">
         <is>
-          <t>Søgne</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="R34" s="16" t="n">
-        <v>23.05</v>
+        <v>17.06</v>
       </c>
       <c r="T34" s="5" t="n"/>
     </row>
@@ -18537,30 +18553,32 @@
       <c r="J35" s="5" t="n"/>
       <c r="L35" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M35" s="7" t="inlineStr">
         <is>
-          <t>Olai Stav Graasvoll</t>
+          <t>Martin Schei</t>
         </is>
       </c>
       <c r="N35" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O35" s="15" t="n">
-        <v>12.48</v>
+        <v>2000</v>
+      </c>
+      <c r="O35" s="17" t="inlineStr">
+        <is>
+          <t>2,07,36</t>
+        </is>
       </c>
       <c r="P35" s="7" t="n">
-        <v>515</v>
+        <v>562</v>
       </c>
       <c r="Q35" s="7" t="inlineStr">
         <is>
-          <t>Søgne</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R35" s="16" t="n">
-        <v>23.05</v>
+        <v>14.02</v>
       </c>
       <c r="T35" s="5" t="n"/>
     </row>
@@ -18600,25 +18618,25 @@
       </c>
       <c r="M36" s="7" t="inlineStr">
         <is>
-          <t>Olai Stav Graasvoll</t>
+          <t>Steffen Tjensvoll Hollund</t>
         </is>
       </c>
       <c r="N36" s="7" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="O36" s="15" t="n">
-        <v>5.5</v>
+        <v>5.68</v>
       </c>
       <c r="P36" s="7" t="n">
-        <v>491</v>
+        <v>533</v>
       </c>
       <c r="Q36" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R36" s="16" t="n">
-        <v>25.05</v>
+        <v>18.06</v>
       </c>
       <c r="T36" s="5" t="n"/>
     </row>
@@ -18653,30 +18671,30 @@
       <c r="J37" s="5" t="n"/>
       <c r="L37" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M37" s="7" t="inlineStr">
         <is>
-          <t>Hans Horn Tønnessen</t>
+          <t>Per Gregersen</t>
         </is>
       </c>
       <c r="N37" s="7" t="n">
-        <v>2008</v>
+        <v>1970</v>
       </c>
       <c r="O37" s="15" t="n">
-        <v>5.12</v>
+        <v>3.1</v>
       </c>
       <c r="P37" s="7" t="n">
-        <v>400</v>
+        <v>523</v>
       </c>
       <c r="Q37" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Reykjavik/ISL</t>
         </is>
       </c>
       <c r="R37" s="16" t="n">
-        <v>28.01</v>
+        <v>25.02</v>
       </c>
       <c r="T37" s="5" t="n"/>
     </row>
@@ -18711,30 +18729,30 @@
       <c r="J38" s="5" t="n"/>
       <c r="L38" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M38" s="7" t="inlineStr">
         <is>
-          <t>Theodor Gutvik</t>
+          <t>Steffen Tjensvoll Hollund</t>
         </is>
       </c>
       <c r="N38" s="7" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="O38" s="15" t="n">
-        <v>5.1</v>
+        <v>2.72</v>
       </c>
       <c r="P38" s="7" t="n">
-        <v>396</v>
+        <v>515</v>
       </c>
       <c r="Q38" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Bømlo</t>
         </is>
       </c>
       <c r="R38" s="16" t="n">
-        <v>7.05</v>
+        <v>9.02</v>
       </c>
       <c r="T38" s="5" t="n"/>
     </row>
@@ -18769,30 +18787,30 @@
       <c r="J39" s="5" t="n"/>
       <c r="L39" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M39" s="7" t="inlineStr">
         <is>
-          <t>Nikkolaj Gulbrandsen</t>
+          <t>Oscar Sørvik Ånderå</t>
         </is>
       </c>
       <c r="N39" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="O39" s="15" t="n">
-        <v>5.05</v>
+        <v>2.7</v>
       </c>
       <c r="P39" s="7" t="n">
-        <v>383</v>
+        <v>503</v>
       </c>
       <c r="Q39" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Bømlo</t>
         </is>
       </c>
       <c r="R39" s="16" t="n">
-        <v>7.05</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="T39" s="5" t="n"/>
     </row>
@@ -18846,7 +18864,7 @@
         </is>
       </c>
       <c r="P41" s="20" t="n">
-        <v>7170</v>
+        <v>7593</v>
       </c>
       <c r="T41" s="5" t="n"/>
     </row>
@@ -18886,7 +18904,7 @@
         </is>
       </c>
       <c r="P43" s="20" t="n">
-        <v>16796</v>
+        <v>16811</v>
       </c>
       <c r="T43" s="5" t="n"/>
     </row>
@@ -18910,7 +18928,7 @@
         </is>
       </c>
       <c r="M45" s="20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T45" s="5" t="n"/>
     </row>
@@ -18952,7 +18970,7 @@
       </c>
       <c r="C49" s="7" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Agder</t>
         </is>
       </c>
       <c r="F49" s="8" t="n">
@@ -18982,7 +19000,7 @@
       </c>
       <c r="C50" s="7" t="inlineStr">
         <is>
-          <t>Stord IL</t>
+          <t>Kristiansands IF Friidrett</t>
         </is>
       </c>
       <c r="J50" s="5" t="n"/>
@@ -19122,25 +19140,25 @@
       </c>
       <c r="C56" s="7" t="inlineStr">
         <is>
-          <t>Steffen Tjensvoll Hollund</t>
+          <t>Johannes Steinsland Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="D56" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="E56" s="15" t="n">
-        <v>7.61</v>
+        <v>7.18</v>
       </c>
       <c r="F56" s="7" t="n">
-        <v>621</v>
+        <v>785</v>
       </c>
       <c r="G56" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H56" s="16" t="n">
-        <v>18.01</v>
+        <v>11.02</v>
       </c>
       <c r="J56" s="5" t="n"/>
       <c r="L56" s="14" t="inlineStr">
@@ -19180,25 +19198,25 @@
       </c>
       <c r="C57" s="7" t="inlineStr">
         <is>
-          <t>Steffen Tjensvoll Hollund</t>
+          <t>Tobias Dybos Larsson</t>
         </is>
       </c>
       <c r="D57" s="7" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="E57" s="15" t="n">
-        <v>11.92</v>
+        <v>11.11</v>
       </c>
       <c r="F57" s="7" t="n">
-        <v>627</v>
+        <v>814</v>
       </c>
       <c r="G57" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H57" s="16" t="n">
-        <v>18.06</v>
+        <v>6.07</v>
       </c>
       <c r="J57" s="5" t="n"/>
       <c r="L57" s="14" t="inlineStr">
@@ -19238,17 +19256,17 @@
       </c>
       <c r="C58" s="7" t="inlineStr">
         <is>
-          <t>Steffen Tjensvoll Hollund</t>
+          <t>Johannes Steinsland Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="D58" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="E58" s="15" t="n">
-        <v>24.29</v>
+        <v>22.61</v>
       </c>
       <c r="F58" s="7" t="n">
-        <v>620</v>
+        <v>791</v>
       </c>
       <c r="G58" s="7" t="inlineStr">
         <is>
@@ -19291,32 +19309,30 @@
     <row r="59" ht="13" customHeight="1">
       <c r="B59" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C59" s="7" t="inlineStr">
         <is>
-          <t>Johannes Sandvik Bø</t>
+          <t>Snorre Cornelius Sund</t>
         </is>
       </c>
       <c r="D59" s="7" t="n">
         <v>2006</v>
       </c>
-      <c r="E59" s="17" t="inlineStr">
-        <is>
-          <t>1,55,07</t>
-        </is>
+      <c r="E59" s="15" t="n">
+        <v>54.03</v>
       </c>
       <c r="F59" s="7" t="n">
-        <v>791</v>
+        <v>602</v>
       </c>
       <c r="G59" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H59" s="16" t="n">
-        <v>6.07</v>
+        <v>18.06</v>
       </c>
       <c r="J59" s="5" t="n"/>
       <c r="L59" s="14" t="inlineStr">
@@ -19351,32 +19367,32 @@
     <row r="60" ht="13" customHeight="1">
       <c r="B60" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C60" s="7" t="inlineStr">
         <is>
-          <t>Johannes Sandvik Bø</t>
+          <t>Sigurd Tveit</t>
         </is>
       </c>
       <c r="D60" s="7" t="n">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="E60" s="17" t="inlineStr">
         <is>
-          <t>3,58,57</t>
+          <t>1,49,94</t>
         </is>
       </c>
       <c r="F60" s="7" t="n">
-        <v>775</v>
+        <v>918</v>
       </c>
       <c r="G60" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Chengdu/CHN</t>
         </is>
       </c>
       <c r="H60" s="16" t="n">
-        <v>8.06</v>
+        <v>4.08</v>
       </c>
       <c r="J60" s="5" t="n"/>
       <c r="L60" s="14" t="inlineStr">
@@ -19413,32 +19429,32 @@
     <row r="61" ht="13" customHeight="1">
       <c r="B61" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C61" s="7" t="inlineStr">
         <is>
-          <t>Erlend Kringeland</t>
+          <t>Sigurd Tveit</t>
         </is>
       </c>
       <c r="D61" s="7" t="n">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="E61" s="17" t="inlineStr">
         <is>
-          <t>8,30,48</t>
+          <t>3,40,46</t>
         </is>
       </c>
       <c r="F61" s="7" t="n">
-        <v>811</v>
+        <v>980</v>
       </c>
       <c r="G61" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Lappeenranta/FIN</t>
         </is>
       </c>
       <c r="H61" s="16" t="n">
-        <v>4.05</v>
+        <v>19.07</v>
       </c>
       <c r="J61" s="5" t="n"/>
       <c r="L61" s="14" t="inlineStr">
@@ -19475,32 +19491,32 @@
     <row r="62" ht="13" customHeight="1">
       <c r="B62" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C62" s="7" t="inlineStr">
         <is>
-          <t>Lars Lunde</t>
+          <t>Daniel Loka</t>
         </is>
       </c>
       <c r="D62" s="7" t="n">
-        <v>1997</v>
+        <v>2007</v>
       </c>
       <c r="E62" s="17" t="inlineStr">
         <is>
-          <t>14,49,71</t>
+          <t>10,08,79</t>
         </is>
       </c>
       <c r="F62" s="7" t="n">
-        <v>795</v>
+        <v>465</v>
       </c>
       <c r="G62" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H62" s="16" t="n">
-        <v>6.07</v>
+        <v>3.06</v>
       </c>
       <c r="J62" s="5" t="n"/>
       <c r="L62" s="14" t="inlineStr">
@@ -19535,32 +19551,32 @@
     <row r="63" ht="13" customHeight="1">
       <c r="B63" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C63" s="7" t="inlineStr">
         <is>
-          <t>Martin Schei</t>
+          <t>Martin Ukkelberg Sløgedal</t>
         </is>
       </c>
       <c r="D63" s="7" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="E63" s="17" t="inlineStr">
         <is>
-          <t>31,34,17</t>
+          <t>15,24,41</t>
         </is>
       </c>
       <c r="F63" s="7" t="n">
-        <v>764</v>
+        <v>719</v>
       </c>
       <c r="G63" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H63" s="16" t="n">
-        <v>3.06</v>
+        <v>6.07</v>
       </c>
       <c r="J63" s="5" t="n"/>
       <c r="L63" s="14" t="inlineStr">
@@ -19595,32 +19611,32 @@
     <row r="64" ht="13" customHeight="1">
       <c r="B64" s="14" t="inlineStr">
         <is>
-          <t>3000m hinder</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="C64" s="7" t="inlineStr">
         <is>
-          <t>Tom Erling Kårbø</t>
+          <t>Martin Ukkelberg Sløgedal</t>
         </is>
       </c>
       <c r="D64" s="7" t="n">
-        <v>1989</v>
+        <v>2005</v>
       </c>
       <c r="E64" s="17" t="inlineStr">
         <is>
-          <t>8,31,51</t>
+          <t>31,52,87</t>
         </is>
       </c>
       <c r="F64" s="7" t="n">
-        <v>981</v>
+        <v>745</v>
       </c>
       <c r="G64" s="7" t="inlineStr">
         <is>
-          <t>Liege/BEL</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H64" s="16" t="n">
-        <v>12.07</v>
+        <v>3.06</v>
       </c>
       <c r="J64" s="5" t="n"/>
       <c r="L64" s="14" t="inlineStr">
@@ -19655,30 +19671,30 @@
     <row r="65" ht="13" customHeight="1">
       <c r="B65" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C65" s="7" t="inlineStr">
         <is>
-          <t>Oscar Sørvik Ånderå</t>
+          <t>Johannes Steinsland Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="D65" s="7" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="E65" s="15" t="n">
-        <v>1.75</v>
+        <v>6.4</v>
       </c>
       <c r="F65" s="7" t="n">
-        <v>607</v>
+        <v>696</v>
       </c>
       <c r="G65" s="7" t="inlineStr">
         <is>
-          <t>Leirvik</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H65" s="16" t="n">
-        <v>4.02</v>
+        <v>19.02</v>
       </c>
       <c r="J65" s="5" t="n"/>
       <c r="L65" s="14" t="inlineStr">
@@ -19713,30 +19729,30 @@
     <row r="66" ht="13" customHeight="1">
       <c r="B66" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C66" s="7" t="inlineStr">
         <is>
-          <t>Oddvar Hårde</t>
+          <t>Johannes Steinsland Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="D66" s="7" t="n">
-        <v>1969</v>
+        <v>2003</v>
       </c>
       <c r="E66" s="15" t="n">
-        <v>3.35</v>
+        <v>1.4</v>
       </c>
       <c r="F66" s="7" t="n">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="G66" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H66" s="16" t="n">
-        <v>11.02</v>
+        <v>13.01</v>
       </c>
       <c r="J66" s="5" t="n"/>
       <c r="L66" s="14" t="inlineStr">
@@ -19771,30 +19787,30 @@
     <row r="67" ht="13" customHeight="1">
       <c r="B67" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C67" s="7" t="inlineStr">
         <is>
-          <t>Oscar Sørvik Ånderå</t>
+          <t>Daniel Thrana</t>
         </is>
       </c>
       <c r="D67" s="7" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="E67" s="15" t="n">
-        <v>1.41</v>
+        <v>11.04</v>
       </c>
       <c r="F67" s="7" t="n">
-        <v>572</v>
+        <v>527</v>
       </c>
       <c r="G67" s="7" t="inlineStr">
         <is>
-          <t>Bømlo</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H67" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>28.01</v>
       </c>
       <c r="J67" s="5" t="n"/>
       <c r="L67" s="14" t="inlineStr">
@@ -19829,30 +19845,30 @@
     <row r="68" ht="13" customHeight="1">
       <c r="B68" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C68" s="7" t="inlineStr">
         <is>
-          <t>Julian Skimmeland Aasheim</t>
+          <t>Daniel Thrana</t>
         </is>
       </c>
       <c r="D68" s="7" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="E68" s="15" t="n">
-        <v>2.88</v>
+        <v>78.8</v>
       </c>
       <c r="F68" s="7" t="n">
-        <v>605</v>
+        <v>1023</v>
       </c>
       <c r="G68" s="7" t="inlineStr">
         <is>
-          <t>Leirvik</t>
+          <t>Haderslev/DEN</t>
         </is>
       </c>
       <c r="H68" s="16" t="n">
-        <v>23.01</v>
+        <v>3.06</v>
       </c>
       <c r="J68" s="5" t="n"/>
       <c r="L68" s="14" t="inlineStr">
@@ -19917,7 +19933,7 @@
         </is>
       </c>
       <c r="F70" s="20" t="n">
-        <v>9150</v>
+        <v>9626</v>
       </c>
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="19" t="inlineStr">
@@ -20037,32 +20053,30 @@
     <row r="75" ht="13" customHeight="1">
       <c r="B75" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C75" s="7" t="inlineStr">
         <is>
-          <t>Johannes Sandvik Bø</t>
+          <t>Johannes Steinsland Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="D75" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E75" s="17" t="inlineStr">
-        <is>
-          <t>8,42,57</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="E75" s="15" t="n">
+        <v>11.18</v>
       </c>
       <c r="F75" s="7" t="n">
-        <v>758</v>
+        <v>796</v>
       </c>
       <c r="G75" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H75" s="16" t="n">
-        <v>16.06</v>
+        <v>6.07</v>
       </c>
       <c r="J75" s="5" t="n"/>
       <c r="L75" s="14" t="inlineStr">
@@ -20097,32 +20111,30 @@
     <row r="76" ht="13" customHeight="1">
       <c r="B76" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C76" s="7" t="inlineStr">
         <is>
-          <t>Johannes Sandvik Bø</t>
+          <t>Tobias Dybos Larsson</t>
         </is>
       </c>
       <c r="D76" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E76" s="17" t="inlineStr">
-        <is>
-          <t>15,14,7</t>
-        </is>
+        <v>2002</v>
+      </c>
+      <c r="E76" s="15" t="n">
+        <v>7.28</v>
       </c>
       <c r="F76" s="7" t="n">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="G76" s="7" t="inlineStr">
         <is>
-          <t>Austevoll</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H76" s="16" t="n">
-        <v>7.05</v>
+        <v>18.02</v>
       </c>
       <c r="J76" s="5" t="n"/>
       <c r="L76" s="14" t="inlineStr">
@@ -20157,32 +20169,30 @@
     <row r="77" ht="13" customHeight="1">
       <c r="B77" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C77" s="7" t="inlineStr">
         <is>
-          <t>Martin Schei</t>
+          <t>Snorre Cornelius Sund</t>
         </is>
       </c>
       <c r="D77" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E77" s="17" t="inlineStr">
-        <is>
-          <t>15,22,36</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="E77" s="15" t="n">
+        <v>23.12</v>
       </c>
       <c r="F77" s="7" t="n">
-        <v>723</v>
+        <v>736</v>
       </c>
       <c r="G77" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H77" s="16" t="n">
-        <v>6.07</v>
+        <v>16.06</v>
       </c>
       <c r="J77" s="5" t="n"/>
       <c r="L77" s="14" t="inlineStr">
@@ -20217,32 +20227,30 @@
     <row r="78" ht="13" customHeight="1">
       <c r="B78" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C78" s="7" t="inlineStr">
         <is>
-          <t>Erlend Kringeland</t>
+          <t>Snorre Cornelius Sund</t>
         </is>
       </c>
       <c r="D78" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E78" s="17" t="inlineStr">
-        <is>
-          <t>1,58,94</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="E78" s="15" t="n">
+        <v>11.44</v>
       </c>
       <c r="F78" s="7" t="n">
-        <v>708</v>
+        <v>734</v>
       </c>
       <c r="G78" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H78" s="16" t="n">
-        <v>17.06</v>
+        <v>28.06</v>
       </c>
       <c r="J78" s="5" t="n"/>
       <c r="L78" s="14" t="inlineStr">
@@ -20277,32 +20285,30 @@
     <row r="79" ht="13" customHeight="1">
       <c r="B79" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C79" s="7" t="inlineStr">
         <is>
-          <t>Martin Schei</t>
+          <t>Snorre Cornelius Sund</t>
         </is>
       </c>
       <c r="D79" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E79" s="17" t="inlineStr">
-        <is>
-          <t>8,54,83</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="E79" s="15" t="n">
+        <v>7.33</v>
       </c>
       <c r="F79" s="7" t="n">
-        <v>708</v>
+        <v>725</v>
       </c>
       <c r="G79" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H79" s="16" t="n">
-        <v>16.05</v>
+        <v>11.02</v>
       </c>
       <c r="J79" s="5" t="n"/>
       <c r="L79" s="14" t="inlineStr">
@@ -20337,32 +20343,30 @@
     <row r="80" ht="13" customHeight="1">
       <c r="B80" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C80" s="7" t="inlineStr">
         <is>
-          <t>Jacob Hystad</t>
+          <t>Tobias Dybos Larsson</t>
         </is>
       </c>
       <c r="D80" s="7" t="n">
-        <v>1990</v>
-      </c>
-      <c r="E80" s="17" t="inlineStr">
-        <is>
-          <t>15,45,76</t>
-        </is>
+        <v>2002</v>
+      </c>
+      <c r="E80" s="15" t="n">
+        <v>23.42</v>
       </c>
       <c r="F80" s="7" t="n">
-        <v>674</v>
+        <v>705</v>
       </c>
       <c r="G80" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H80" s="16" t="n">
-        <v>28.06</v>
+        <v>16.06</v>
       </c>
       <c r="J80" s="5" t="n"/>
       <c r="L80" s="14" t="inlineStr">
@@ -20397,32 +20401,30 @@
     <row r="81" ht="13" customHeight="1">
       <c r="B81" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C81" s="7" t="inlineStr">
         <is>
-          <t>Vegard Havn</t>
+          <t>Olai Stav Graasvoll</t>
         </is>
       </c>
       <c r="D81" s="7" t="n">
-        <v>1997</v>
-      </c>
-      <c r="E81" s="17" t="inlineStr">
-        <is>
-          <t>9,11,06</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="E81" s="15" t="n">
+        <v>7.84</v>
       </c>
       <c r="F81" s="7" t="n">
-        <v>647</v>
+        <v>545</v>
       </c>
       <c r="G81" s="7" t="inlineStr">
         <is>
-          <t>Strandebarm</t>
+          <t>Søgne</t>
         </is>
       </c>
       <c r="H81" s="16" t="n">
-        <v>17.06</v>
+        <v>23.05</v>
       </c>
       <c r="J81" s="5" t="n"/>
       <c r="L81" s="14" t="inlineStr">
@@ -20457,32 +20459,30 @@
     <row r="82" ht="13" customHeight="1">
       <c r="B82" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C82" s="7" t="inlineStr">
         <is>
-          <t>Martin Schei</t>
+          <t>Olai Stav Graasvoll</t>
         </is>
       </c>
       <c r="D82" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E82" s="17" t="inlineStr">
-        <is>
-          <t>2,07,36</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="E82" s="15" t="n">
+        <v>12.48</v>
       </c>
       <c r="F82" s="7" t="n">
-        <v>562</v>
+        <v>515</v>
       </c>
       <c r="G82" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Søgne</t>
         </is>
       </c>
       <c r="H82" s="16" t="n">
-        <v>14.02</v>
+        <v>23.05</v>
       </c>
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="14" t="inlineStr">
@@ -20522,25 +20522,25 @@
       </c>
       <c r="C83" s="7" t="inlineStr">
         <is>
-          <t>Steffen Tjensvoll Hollund</t>
+          <t>Olai Stav Graasvoll</t>
         </is>
       </c>
       <c r="D83" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="E83" s="15" t="n">
-        <v>5.68</v>
+        <v>5.5</v>
       </c>
       <c r="F83" s="7" t="n">
-        <v>533</v>
+        <v>491</v>
       </c>
       <c r="G83" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H83" s="16" t="n">
-        <v>18.06</v>
+        <v>25.05</v>
       </c>
       <c r="J83" s="5" t="n"/>
       <c r="L83" s="14" t="inlineStr">
@@ -20575,30 +20575,30 @@
     <row r="84" ht="13" customHeight="1">
       <c r="B84" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C84" s="7" t="inlineStr">
         <is>
-          <t>Per Gregersen</t>
+          <t>Hans Horn Tønnessen</t>
         </is>
       </c>
       <c r="D84" s="7" t="n">
-        <v>1970</v>
+        <v>2008</v>
       </c>
       <c r="E84" s="15" t="n">
-        <v>3.1</v>
+        <v>5.12</v>
       </c>
       <c r="F84" s="7" t="n">
-        <v>523</v>
+        <v>400</v>
       </c>
       <c r="G84" s="7" t="inlineStr">
         <is>
-          <t>Reykjavik/ISL</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H84" s="16" t="n">
-        <v>25.02</v>
+        <v>28.01</v>
       </c>
       <c r="J84" s="5" t="n"/>
       <c r="L84" s="14" t="inlineStr">
@@ -20633,30 +20633,30 @@
     <row r="85" ht="13" customHeight="1">
       <c r="B85" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C85" s="7" t="inlineStr">
         <is>
-          <t>Steffen Tjensvoll Hollund</t>
+          <t>Theodor Gutvik</t>
         </is>
       </c>
       <c r="D85" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="E85" s="15" t="n">
-        <v>2.72</v>
+        <v>5.1</v>
       </c>
       <c r="F85" s="7" t="n">
-        <v>515</v>
+        <v>396</v>
       </c>
       <c r="G85" s="7" t="inlineStr">
         <is>
-          <t>Bømlo</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H85" s="16" t="n">
-        <v>9.02</v>
+        <v>7.05</v>
       </c>
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
@@ -20691,30 +20691,30 @@
     <row r="86" ht="13" customHeight="1">
       <c r="B86" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C86" s="7" t="inlineStr">
         <is>
-          <t>Oscar Sørvik Ånderå</t>
+          <t>Nikkolaj Gulbrandsen</t>
         </is>
       </c>
       <c r="D86" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="E86" s="15" t="n">
-        <v>2.7</v>
+        <v>5.05</v>
       </c>
       <c r="F86" s="7" t="n">
-        <v>503</v>
+        <v>383</v>
       </c>
       <c r="G86" s="7" t="inlineStr">
         <is>
-          <t>Bømlo</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H86" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>7.05</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="14" t="inlineStr">
@@ -20779,7 +20779,7 @@
         </is>
       </c>
       <c r="F88" s="20" t="n">
-        <v>7593</v>
+        <v>7170</v>
       </c>
       <c r="J88" s="5" t="n"/>
       <c r="L88" s="19" t="inlineStr">
@@ -20819,7 +20819,7 @@
         </is>
       </c>
       <c r="F90" s="20" t="n">
-        <v>16743</v>
+        <v>16796</v>
       </c>
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="19" t="inlineStr">
@@ -20851,7 +20851,7 @@
         </is>
       </c>
       <c r="C92" s="20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J92" s="5" t="n"/>
       <c r="L92" s="19" t="inlineStr">
@@ -21995,32 +21995,30 @@
       <c r="J123" s="5" t="n"/>
       <c r="L123" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M123" s="7" t="inlineStr">
         <is>
-          <t>Eivind Trym Wikshåland</t>
+          <t>Sondre Faugstad Amundsen</t>
         </is>
       </c>
       <c r="N123" s="7" t="n">
-        <v>1997</v>
-      </c>
-      <c r="O123" s="17" t="inlineStr">
-        <is>
-          <t>8,10,11</t>
-        </is>
+        <v>1998</v>
+      </c>
+      <c r="O123" s="15" t="n">
+        <v>21.58</v>
       </c>
       <c r="P123" s="7" t="n">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="Q123" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R123" s="16" t="n">
-        <v>19.02</v>
+        <v>6.08</v>
       </c>
       <c r="T123" s="5" t="n"/>
     </row>
@@ -22057,22 +22055,24 @@
       <c r="J124" s="5" t="n"/>
       <c r="L124" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M124" s="7" t="inlineStr">
         <is>
-          <t>Filip Bøe</t>
+          <t>Eivind Trym Wikshåland</t>
         </is>
       </c>
       <c r="N124" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O124" s="15" t="n">
-        <v>21.71</v>
+        <v>1997</v>
+      </c>
+      <c r="O124" s="17" t="inlineStr">
+        <is>
+          <t>8,10,11</t>
+        </is>
       </c>
       <c r="P124" s="7" t="n">
-        <v>895</v>
+        <v>906</v>
       </c>
       <c r="Q124" s="7" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         </is>
       </c>
       <c r="R124" s="16" t="n">
-        <v>18.02</v>
+        <v>19.02</v>
       </c>
       <c r="T124" s="5" t="n"/>
     </row>
@@ -22115,22 +22115,22 @@
       <c r="J125" s="5" t="n"/>
       <c r="L125" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M125" s="7" t="inlineStr">
         <is>
-          <t>August Hemstad</t>
+          <t>Filip Bøe</t>
         </is>
       </c>
       <c r="N125" s="7" t="n">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="O125" s="15" t="n">
-        <v>6.94</v>
+        <v>21.71</v>
       </c>
       <c r="P125" s="7" t="n">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="Q125" s="7" t="inlineStr">
         <is>
@@ -22173,30 +22173,30 @@
       <c r="J126" s="5" t="n"/>
       <c r="L126" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M126" s="7" t="inlineStr">
         <is>
-          <t>Sondre Lindaas Gjesdal</t>
+          <t>August Hemstad</t>
         </is>
       </c>
       <c r="N126" s="7" t="n">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="O126" s="15" t="n">
-        <v>10.82</v>
+        <v>6.94</v>
       </c>
       <c r="P126" s="7" t="n">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="Q126" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R126" s="16" t="n">
-        <v>25.06</v>
+        <v>18.02</v>
       </c>
       <c r="T126" s="5" t="n"/>
     </row>
@@ -22233,22 +22233,22 @@
       <c r="J127" s="5" t="n"/>
       <c r="L127" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M127" s="7" t="inlineStr">
         <is>
-          <t>August Hemstad</t>
+          <t>Sondre Lindaas Gjesdal</t>
         </is>
       </c>
       <c r="N127" s="7" t="n">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="O127" s="15" t="n">
-        <v>21.81</v>
+        <v>10.82</v>
       </c>
       <c r="P127" s="7" t="n">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="Q127" s="7" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         </is>
       </c>
       <c r="R127" s="16" t="n">
-        <v>23.06</v>
+        <v>25.06</v>
       </c>
       <c r="T127" s="5" t="n"/>
     </row>
@@ -22351,32 +22351,30 @@
       <c r="J129" s="5" t="n"/>
       <c r="L129" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M129" s="7" t="inlineStr">
         <is>
-          <t>Marius Øyre Vedvik</t>
+          <t>August Hemstad</t>
         </is>
       </c>
       <c r="N129" s="7" t="n">
-        <v>1992</v>
-      </c>
-      <c r="O129" s="17" t="inlineStr">
-        <is>
-          <t>8,15,65</t>
-        </is>
+        <v>2002</v>
+      </c>
+      <c r="O129" s="15" t="n">
+        <v>21.81</v>
       </c>
       <c r="P129" s="7" t="n">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="Q129" s="7" t="inlineStr">
         <is>
-          <t>Førde</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R129" s="16" t="n">
-        <v>16.05</v>
+        <v>23.06</v>
       </c>
       <c r="T129" s="5" t="n"/>
     </row>
@@ -22582,7 +22580,7 @@
         </is>
       </c>
       <c r="P135" s="20" t="n">
-        <v>7152</v>
+        <v>7183</v>
       </c>
       <c r="T135" s="5" t="n"/>
     </row>
@@ -22622,7 +22620,7 @@
         </is>
       </c>
       <c r="P137" s="20" t="n">
-        <v>15742</v>
+        <v>15773</v>
       </c>
       <c r="T137" s="5" t="n"/>
     </row>
@@ -30228,7 +30226,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>22905</v>
+        <v>22922</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -30364,11 +30362,11 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>(30/13)</t>
+          <t>(30/14)</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>20974</v>
+        <v>20997</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -30452,7 +30450,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>17153</v>
+        <v>17177</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -30476,11 +30474,11 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>(29/10)</t>
+          <t>(29/11)</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>16154</v>
+        <v>16594</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -36802,22 +36800,24 @@
     <row r="144" ht="13" customHeight="1">
       <c r="B144" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C144" s="7" t="inlineStr">
         <is>
-          <t>Eline Soma</t>
+          <t>Tuva Alme</t>
         </is>
       </c>
       <c r="D144" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E144" s="15" t="n">
-        <v>1.6</v>
+        <v>2008</v>
+      </c>
+      <c r="E144" s="17" t="inlineStr">
+        <is>
+          <t>4,44,78mx</t>
+        </is>
       </c>
       <c r="F144" s="7" t="n">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="G144" s="7" t="inlineStr">
         <is>
@@ -36825,7 +36825,7 @@
         </is>
       </c>
       <c r="H144" s="16" t="n">
-        <v>15.05</v>
+        <v>6.08</v>
       </c>
       <c r="J144" s="5" t="n"/>
       <c r="L144" s="14" t="inlineStr">
@@ -36862,30 +36862,30 @@
     <row r="145" ht="13" customHeight="1">
       <c r="B145" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C145" s="7" t="inlineStr">
         <is>
-          <t>Synne Eikeland</t>
+          <t>Eline Soma</t>
         </is>
       </c>
       <c r="D145" s="7" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="E145" s="15" t="n">
-        <v>12.91</v>
+        <v>1.6</v>
       </c>
       <c r="F145" s="7" t="n">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="G145" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H145" s="16" t="n">
-        <v>25.06</v>
+        <v>15.05</v>
       </c>
       <c r="J145" s="5" t="n"/>
       <c r="L145" s="14" t="inlineStr">
@@ -36920,30 +36920,30 @@
     <row r="146" ht="13" customHeight="1">
       <c r="B146" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C146" s="7" t="inlineStr">
         <is>
-          <t>Maren Undheim</t>
+          <t>Synne Eikeland</t>
         </is>
       </c>
       <c r="D146" s="7" t="n">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="E146" s="15" t="n">
-        <v>11.37</v>
+        <v>12.91</v>
       </c>
       <c r="F146" s="7" t="n">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="G146" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H146" s="16" t="n">
-        <v>5.03</v>
+        <v>25.06</v>
       </c>
       <c r="J146" s="5" t="n"/>
       <c r="L146" s="14" t="inlineStr">
@@ -36978,30 +36978,30 @@
     <row r="147" ht="13" customHeight="1">
       <c r="B147" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C147" s="7" t="inlineStr">
         <is>
-          <t>Anna Sofie Heikkinen</t>
+          <t>Maren Undheim</t>
         </is>
       </c>
       <c r="D147" s="7" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="E147" s="15" t="n">
-        <v>26.61</v>
+        <v>11.37</v>
       </c>
       <c r="F147" s="7" t="n">
         <v>679</v>
       </c>
       <c r="G147" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H147" s="16" t="n">
-        <v>4.05</v>
+        <v>5.03</v>
       </c>
       <c r="J147" s="5" t="n"/>
       <c r="L147" s="14" t="inlineStr">
@@ -37124,7 +37124,7 @@
         </is>
       </c>
       <c r="F150" s="20" t="n">
-        <v>11016</v>
+        <v>11033</v>
       </c>
       <c r="J150" s="5" t="n"/>
       <c r="L150" s="19" t="inlineStr">
@@ -37164,7 +37164,7 @@
         </is>
       </c>
       <c r="F152" s="20" t="n">
-        <v>22905</v>
+        <v>22922</v>
       </c>
       <c r="J152" s="5" t="n"/>
       <c r="L152" s="19" t="inlineStr">
@@ -41070,22 +41070,22 @@
       <c r="J244" s="5" t="n"/>
       <c r="L244" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M244" s="7" t="inlineStr">
         <is>
-          <t>Maren Storaas Alsaker</t>
+          <t>Jorunn Elisabeth Bakkevig Bjordal</t>
         </is>
       </c>
       <c r="N244" s="7" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="O244" s="15" t="n">
-        <v>8.32</v>
+        <v>13.16</v>
       </c>
       <c r="P244" s="7" t="n">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="Q244" s="7" t="inlineStr">
         <is>
@@ -41093,7 +41093,7 @@
         </is>
       </c>
       <c r="R244" s="16" t="n">
-        <v>28.01</v>
+        <v>6.08</v>
       </c>
       <c r="T244" s="5" t="n"/>
     </row>
@@ -41128,7 +41128,7 @@
       <c r="J245" s="5" t="n"/>
       <c r="L245" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M245" s="7" t="inlineStr">
@@ -41140,10 +41140,10 @@
         <v>2005</v>
       </c>
       <c r="O245" s="15" t="n">
-        <v>27.24</v>
+        <v>8.32</v>
       </c>
       <c r="P245" s="7" t="n">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="Q245" s="7" t="inlineStr">
         <is>
@@ -41151,7 +41151,7 @@
         </is>
       </c>
       <c r="R245" s="16" t="n">
-        <v>5.02</v>
+        <v>28.01</v>
       </c>
       <c r="T245" s="5" t="n"/>
     </row>
@@ -41186,32 +41186,30 @@
       <c r="J246" s="5" t="n"/>
       <c r="L246" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M246" s="7" t="inlineStr">
         <is>
-          <t>Mari Jakobsen</t>
+          <t>Maren Storaas Alsaker</t>
         </is>
       </c>
       <c r="N246" s="7" t="n">
         <v>2005</v>
       </c>
-      <c r="O246" s="17" t="inlineStr">
-        <is>
-          <t>2,23,51</t>
-        </is>
+      <c r="O246" s="15" t="n">
+        <v>27.24</v>
       </c>
       <c r="P246" s="7" t="n">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="Q246" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R246" s="16" t="n">
-        <v>20.05</v>
+        <v>5.02</v>
       </c>
       <c r="T246" s="5" t="n"/>
     </row>
@@ -41246,12 +41244,12 @@
       <c r="J247" s="5" t="n"/>
       <c r="L247" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M247" s="7" t="inlineStr">
         <is>
-          <t>Maren Storaas Alsaker</t>
+          <t>Mari Jakobsen</t>
         </is>
       </c>
       <c r="N247" s="7" t="n">
@@ -41259,11 +41257,11 @@
       </c>
       <c r="O247" s="17" t="inlineStr">
         <is>
-          <t>1,01,78</t>
+          <t>2,23,51</t>
         </is>
       </c>
       <c r="P247" s="7" t="n">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="Q247" s="7" t="inlineStr">
         <is>
@@ -41271,7 +41269,7 @@
         </is>
       </c>
       <c r="R247" s="16" t="n">
-        <v>18.01</v>
+        <v>20.05</v>
       </c>
       <c r="T247" s="5" t="n"/>
     </row>
@@ -41306,30 +41304,32 @@
       <c r="J248" s="5" t="n"/>
       <c r="L248" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M248" s="7" t="inlineStr">
         <is>
-          <t>Emilie Høyland Schou</t>
+          <t>Maren Storaas Alsaker</t>
         </is>
       </c>
       <c r="N248" s="7" t="n">
         <v>2005</v>
       </c>
-      <c r="O248" s="15" t="n">
-        <v>13.3</v>
+      <c r="O248" s="17" t="inlineStr">
+        <is>
+          <t>1,01,78</t>
+        </is>
       </c>
       <c r="P248" s="7" t="n">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="Q248" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R248" s="16" t="n">
-        <v>4.02</v>
+        <v>18.01</v>
       </c>
       <c r="T248" s="5" t="n"/>
     </row>
@@ -41615,7 +41615,7 @@
         </is>
       </c>
       <c r="P254" s="20" t="n">
-        <v>9491</v>
+        <v>9514</v>
       </c>
       <c r="T254" s="5" t="n"/>
     </row>
@@ -41655,7 +41655,7 @@
         </is>
       </c>
       <c r="P256" s="20" t="n">
-        <v>20974</v>
+        <v>20997</v>
       </c>
       <c r="T256" s="5" t="n"/>
     </row>
@@ -41679,7 +41679,7 @@
         </is>
       </c>
       <c r="M258" s="20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T258" s="5" t="n"/>
     </row>
@@ -44095,25 +44095,25 @@
       </c>
       <c r="M322" s="7" t="inlineStr">
         <is>
-          <t>Helena Lauvdal Myhren</t>
+          <t>Ingvild Meinseth</t>
         </is>
       </c>
       <c r="N322" s="7" t="n">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="O322" s="15" t="n">
-        <v>13.11</v>
+        <v>11.82</v>
       </c>
       <c r="P322" s="7" t="n">
-        <v>652</v>
+        <v>890</v>
       </c>
       <c r="Q322" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R322" s="16" t="n">
-        <v>3.06</v>
+        <v>6.08</v>
       </c>
       <c r="T322" s="5" t="n"/>
     </row>
@@ -44432,18 +44432,18 @@
         <v>1999</v>
       </c>
       <c r="E328" s="15" t="n">
-        <v>6.23</v>
+        <v>6.34</v>
       </c>
       <c r="F328" s="7" t="n">
-        <v>894</v>
+        <v>918</v>
       </c>
       <c r="G328" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Tampere/FIN</t>
         </is>
       </c>
       <c r="H328" s="16" t="n">
-        <v>17.06</v>
+        <v>8.08</v>
       </c>
       <c r="J328" s="5" t="n"/>
       <c r="L328" s="14" t="inlineStr">
@@ -44796,7 +44796,7 @@
         </is>
       </c>
       <c r="F337" s="20" t="n">
-        <v>7557</v>
+        <v>7581</v>
       </c>
       <c r="J337" s="5" t="n"/>
       <c r="L337" s="19" t="inlineStr">
@@ -44813,7 +44813,7 @@
         </is>
       </c>
       <c r="P337" s="20" t="n">
-        <v>8722</v>
+        <v>8960</v>
       </c>
       <c r="T337" s="5" t="n"/>
     </row>
@@ -45004,30 +45004,30 @@
       <c r="J343" s="5" t="n"/>
       <c r="L343" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M343" s="7" t="inlineStr">
         <is>
-          <t>Alida Haaland</t>
+          <t>Helena Lauvdal Myhren</t>
         </is>
       </c>
       <c r="N343" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O343" s="15" t="n">
-        <v>1.45</v>
+        <v>13.11</v>
       </c>
       <c r="P343" s="7" t="n">
-        <v>565</v>
+        <v>652</v>
       </c>
       <c r="Q343" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R343" s="16" t="n">
-        <v>16.06</v>
+        <v>3.06</v>
       </c>
       <c r="T343" s="5" t="n"/>
     </row>
@@ -45062,22 +45062,22 @@
       <c r="J344" s="5" t="n"/>
       <c r="L344" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M344" s="7" t="inlineStr">
         <is>
-          <t>Beate Raknes</t>
+          <t>Alida Haaland</t>
         </is>
       </c>
       <c r="N344" s="7" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="O344" s="15" t="n">
-        <v>8.66</v>
+        <v>1.45</v>
       </c>
       <c r="P344" s="7" t="n">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="Q344" s="7" t="inlineStr">
         <is>
@@ -45085,7 +45085,7 @@
         </is>
       </c>
       <c r="R344" s="16" t="n">
-        <v>17.06</v>
+        <v>16.06</v>
       </c>
       <c r="T344" s="5" t="n"/>
     </row>
@@ -45120,30 +45120,30 @@
       <c r="J345" s="5" t="n"/>
       <c r="L345" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M345" s="7" t="inlineStr">
         <is>
-          <t>Alida Haaland</t>
+          <t>Beate Raknes</t>
         </is>
       </c>
       <c r="N345" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="O345" s="15" t="n">
-        <v>2.43</v>
+        <v>8.66</v>
       </c>
       <c r="P345" s="7" t="n">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="Q345" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R345" s="16" t="n">
-        <v>25.05</v>
+        <v>17.06</v>
       </c>
       <c r="T345" s="5" t="n"/>
     </row>
@@ -45178,30 +45178,30 @@
       <c r="J346" s="5" t="n"/>
       <c r="L346" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M346" s="7" t="inlineStr">
         <is>
-          <t>Beate Raknes</t>
+          <t>Alida Haaland</t>
         </is>
       </c>
       <c r="N346" s="7" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="O346" s="15" t="n">
-        <v>29.11</v>
+        <v>2.43</v>
       </c>
       <c r="P346" s="7" t="n">
-        <v>505</v>
+        <v>542</v>
       </c>
       <c r="Q346" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R346" s="16" t="n">
-        <v>16.06</v>
+        <v>25.05</v>
       </c>
       <c r="T346" s="5" t="n"/>
     </row>
@@ -45236,24 +45236,22 @@
       <c r="J347" s="5" t="n"/>
       <c r="L347" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M347" s="7" t="inlineStr">
         <is>
-          <t>Emmeli Vatne Danielssen</t>
+          <t>Beate Raknes</t>
         </is>
       </c>
       <c r="N347" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="O347" s="17" t="inlineStr">
-        <is>
-          <t>5,24,28</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="O347" s="15" t="n">
+        <v>29.11</v>
       </c>
       <c r="P347" s="7" t="n">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="Q347" s="7" t="inlineStr">
         <is>
@@ -45296,30 +45294,32 @@
       <c r="J348" s="5" t="n"/>
       <c r="L348" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M348" s="7" t="inlineStr">
         <is>
-          <t>Beate Raknes</t>
+          <t>Emmeli Vatne Danielssen</t>
         </is>
       </c>
       <c r="N348" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O348" s="15" t="n">
-        <v>14.12</v>
+        <v>2011</v>
+      </c>
+      <c r="O348" s="17" t="inlineStr">
+        <is>
+          <t>5,24,28</t>
+        </is>
       </c>
       <c r="P348" s="7" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Q348" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R348" s="16" t="n">
-        <v>3.06</v>
+        <v>16.06</v>
       </c>
       <c r="T348" s="5" t="n"/>
     </row>
@@ -45354,7 +45354,7 @@
       <c r="J349" s="5" t="n"/>
       <c r="L349" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M349" s="7" t="inlineStr">
@@ -45365,21 +45365,19 @@
       <c r="N349" s="7" t="n">
         <v>2009</v>
       </c>
-      <c r="O349" s="17" t="inlineStr">
-        <is>
-          <t>5,29,88</t>
-        </is>
+      <c r="O349" s="15" t="n">
+        <v>14.12</v>
       </c>
       <c r="P349" s="7" t="n">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="Q349" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R349" s="16" t="n">
-        <v>18.06</v>
+        <v>3.06</v>
       </c>
       <c r="T349" s="5" t="n"/>
     </row>
@@ -45414,30 +45412,32 @@
       <c r="J350" s="5" t="n"/>
       <c r="L350" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M350" s="7" t="inlineStr">
         <is>
-          <t>Andrea Malde</t>
+          <t>Beate Raknes</t>
         </is>
       </c>
       <c r="N350" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O350" s="15" t="n">
-        <v>14.3</v>
+        <v>2009</v>
+      </c>
+      <c r="O350" s="17" t="inlineStr">
+        <is>
+          <t>5,29,88</t>
+        </is>
       </c>
       <c r="P350" s="7" t="n">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="Q350" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R350" s="16" t="n">
-        <v>7.05</v>
+        <v>18.06</v>
       </c>
       <c r="T350" s="5" t="n"/>
     </row>
@@ -45472,22 +45472,22 @@
       <c r="J351" s="5" t="n"/>
       <c r="L351" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M351" s="7" t="inlineStr">
         <is>
-          <t>Alida Haaland</t>
+          <t>Andrea Malde</t>
         </is>
       </c>
       <c r="N351" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O351" s="15" t="n">
-        <v>4.28</v>
+        <v>14.3</v>
       </c>
       <c r="P351" s="7" t="n">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="Q351" s="7" t="inlineStr">
         <is>
@@ -45530,30 +45530,30 @@
       <c r="J352" s="5" t="n"/>
       <c r="L352" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M352" s="7" t="inlineStr">
         <is>
-          <t>Eline Edland</t>
+          <t>Alida Haaland</t>
         </is>
       </c>
       <c r="N352" s="7" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="O352" s="15" t="n">
-        <v>9.08</v>
+        <v>4.28</v>
       </c>
       <c r="P352" s="7" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q352" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R352" s="16" t="n">
-        <v>11.02</v>
+        <v>7.05</v>
       </c>
       <c r="T352" s="5" t="n"/>
     </row>
@@ -45646,32 +45646,30 @@
       <c r="J354" s="5" t="n"/>
       <c r="L354" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M354" s="7" t="inlineStr">
         <is>
-          <t>Tomine Tjomsland Johansson</t>
+          <t>Eline Edland</t>
         </is>
       </c>
       <c r="N354" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="O354" s="17" t="inlineStr">
-        <is>
-          <t>2,41,56</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="O354" s="15" t="n">
+        <v>9.08</v>
       </c>
       <c r="P354" s="7" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="Q354" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R354" s="16" t="n">
-        <v>3.06</v>
+        <v>11.02</v>
       </c>
       <c r="T354" s="5" t="n"/>
     </row>
@@ -45841,7 +45839,7 @@
         </is>
       </c>
       <c r="P358" s="20" t="n">
-        <v>7432</v>
+        <v>7634</v>
       </c>
       <c r="T358" s="5" t="n"/>
     </row>
@@ -45864,7 +45862,7 @@
         </is>
       </c>
       <c r="F360" s="20" t="n">
-        <v>17153</v>
+        <v>17177</v>
       </c>
       <c r="J360" s="5" t="n"/>
       <c r="L360" s="19" t="inlineStr">
@@ -45881,7 +45879,7 @@
         </is>
       </c>
       <c r="P360" s="20" t="n">
-        <v>16154</v>
+        <v>16594</v>
       </c>
       <c r="T360" s="5" t="n"/>
     </row>
@@ -45905,7 +45903,7 @@
         </is>
       </c>
       <c r="M362" s="20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T362" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2023 1-2. div.xlsx
+++ b/output/Lagserien 2023 1-2. div.xlsx
@@ -16475,20 +16475,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="P262:Q263"/>
+    <mergeCell ref="F210:G211"/>
     <mergeCell ref="F2:G3"/>
+    <mergeCell ref="F54:G55"/>
+    <mergeCell ref="P314:Q315"/>
+    <mergeCell ref="F314:G315"/>
+    <mergeCell ref="P54:Q55"/>
     <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="F54:G55"/>
-    <mergeCell ref="P54:Q55"/>
     <mergeCell ref="F106:G107"/>
-    <mergeCell ref="P106:Q107"/>
     <mergeCell ref="F158:G159"/>
     <mergeCell ref="P158:Q159"/>
-    <mergeCell ref="F210:G211"/>
     <mergeCell ref="P210:Q211"/>
+    <mergeCell ref="P106:Q107"/>
     <mergeCell ref="F262:G263"/>
-    <mergeCell ref="P262:Q263"/>
-    <mergeCell ref="F314:G315"/>
-    <mergeCell ref="P314:Q315"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16690,25 +16690,25 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>IL Gular</t>
+          <t>Sørild FIK</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>(18/12)</t>
+          <t>(25/13)</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>15876</v>
+        <v>16198</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>(13/1d)</t>
+          <t>(3/3d)</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Agder</t>
         </is>
       </c>
     </row>
@@ -16718,25 +16718,25 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Sørild FIK</t>
+          <t>IL Gular</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>(25/13)</t>
+          <t>(18/12)</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>15651</v>
+        <v>15876</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>(3/3d)</t>
+          <t>(13/1d)</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -20922,7 +20922,7 @@
       </c>
       <c r="M96" s="7" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Agder</t>
         </is>
       </c>
       <c r="P96" s="8" t="n">
@@ -20949,7 +20949,7 @@
       </c>
       <c r="M97" s="7" t="inlineStr">
         <is>
-          <t>IL Gular</t>
+          <t>Sørild FIK</t>
         </is>
       </c>
       <c r="T97" s="5" t="n"/>
@@ -21106,25 +21106,25 @@
       </c>
       <c r="M103" s="7" t="inlineStr">
         <is>
-          <t>Jacob Vaula</t>
+          <t>Even Meinseth</t>
         </is>
       </c>
       <c r="N103" s="7" t="n">
-        <v>2001</v>
+        <v>1996</v>
       </c>
       <c r="O103" s="15" t="n">
-        <v>6.74</v>
+        <v>6.69</v>
       </c>
       <c r="P103" s="7" t="n">
-        <v>989</v>
+        <v>1015</v>
       </c>
       <c r="Q103" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R103" s="16" t="n">
-        <v>18.02</v>
+        <v>2.02</v>
       </c>
       <c r="T103" s="5" t="n"/>
     </row>
@@ -21164,25 +21164,25 @@
       </c>
       <c r="M104" s="7" t="inlineStr">
         <is>
-          <t>Jacob Vaula</t>
+          <t>Even Meinseth</t>
         </is>
       </c>
       <c r="N104" s="7" t="n">
-        <v>2001</v>
+        <v>1996</v>
       </c>
       <c r="O104" s="15" t="n">
-        <v>10.39</v>
+        <v>10.43</v>
       </c>
       <c r="P104" s="7" t="n">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="Q104" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Chengdu/CHN</t>
         </is>
       </c>
       <c r="R104" s="16" t="n">
-        <v>6.07</v>
+        <v>2.08</v>
       </c>
       <c r="T104" s="5" t="n"/>
     </row>
@@ -21222,25 +21222,25 @@
       </c>
       <c r="M105" s="7" t="inlineStr">
         <is>
-          <t>Andreas Haara Bakketun</t>
+          <t>Even Meinseth</t>
         </is>
       </c>
       <c r="N105" s="7" t="n">
-        <v>2001</v>
+        <v>1996</v>
       </c>
       <c r="O105" s="15" t="n">
-        <v>21.48</v>
+        <v>21.19</v>
       </c>
       <c r="P105" s="7" t="n">
-        <v>923</v>
+        <v>960</v>
       </c>
       <c r="Q105" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R105" s="16" t="n">
-        <v>23.06</v>
+        <v>15.06</v>
       </c>
       <c r="T105" s="5" t="n"/>
     </row>
@@ -21280,25 +21280,25 @@
       </c>
       <c r="M106" s="7" t="inlineStr">
         <is>
-          <t>Andreas Haara Bakketun</t>
+          <t>Andreas Solheim Sollid</t>
         </is>
       </c>
       <c r="N106" s="7" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="O106" s="15" t="n">
-        <v>47.26</v>
+        <v>48.89</v>
       </c>
       <c r="P106" s="7" t="n">
-        <v>934</v>
+        <v>842</v>
       </c>
       <c r="Q106" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R106" s="16" t="n">
-        <v>15.06</v>
+        <v>18.06</v>
       </c>
       <c r="T106" s="5" t="n"/>
     </row>
@@ -21340,27 +21340,27 @@
       </c>
       <c r="M107" s="7" t="inlineStr">
         <is>
-          <t>John Petter Stevik</t>
+          <t>Stian Flo</t>
         </is>
       </c>
       <c r="N107" s="7" t="n">
-        <v>2003</v>
+        <v>1985</v>
       </c>
       <c r="O107" s="17" t="inlineStr">
         <is>
-          <t>1,49,66</t>
+          <t>1,59,87</t>
         </is>
       </c>
       <c r="P107" s="7" t="n">
-        <v>926</v>
+        <v>690</v>
       </c>
       <c r="Q107" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R107" s="16" t="n">
-        <v>11.08</v>
+        <v>14.05</v>
       </c>
       <c r="T107" s="5" t="n"/>
     </row>
@@ -21397,24 +21397,24 @@
       <c r="J108" s="5" t="n"/>
       <c r="L108" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M108" s="7" t="inlineStr">
         <is>
-          <t>Bjørnar Sandnes Lillefosse</t>
+          <t>Dennis Bergstrøm-Bendixen</t>
         </is>
       </c>
       <c r="N108" s="7" t="n">
-        <v>1992</v>
+        <v>2006</v>
       </c>
       <c r="O108" s="17" t="inlineStr">
         <is>
-          <t>8,02,08</t>
+          <t>4,16,54</t>
         </is>
       </c>
       <c r="P108" s="7" t="n">
-        <v>944</v>
+        <v>620</v>
       </c>
       <c r="Q108" s="7" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         </is>
       </c>
       <c r="R108" s="16" t="n">
-        <v>11.08</v>
+        <v>12.08</v>
       </c>
       <c r="T108" s="5" t="n"/>
     </row>
@@ -21459,32 +21459,32 @@
       <c r="J109" s="5" t="n"/>
       <c r="L109" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M109" s="7" t="inlineStr">
         <is>
-          <t>Bjørnar Sandnes Lillefosse</t>
+          <t>Tobias Fretheim</t>
         </is>
       </c>
       <c r="N109" s="7" t="n">
-        <v>1992</v>
+        <v>2005</v>
       </c>
       <c r="O109" s="17" t="inlineStr">
         <is>
-          <t>13,59,16</t>
+          <t>9,33,51</t>
         </is>
       </c>
       <c r="P109" s="7" t="n">
-        <v>923</v>
+        <v>571</v>
       </c>
       <c r="Q109" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R109" s="16" t="n">
-        <v>6.07</v>
+        <v>3.06</v>
       </c>
       <c r="T109" s="5" t="n"/>
     </row>
@@ -21521,32 +21521,32 @@
       <c r="J110" s="5" t="n"/>
       <c r="L110" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M110" s="7" t="inlineStr">
         <is>
-          <t>Bjørnar Sandnes Lillefosse</t>
+          <t>Håkon Kile</t>
         </is>
       </c>
       <c r="N110" s="7" t="n">
-        <v>1992</v>
+        <v>1985</v>
       </c>
       <c r="O110" s="17" t="inlineStr">
         <is>
-          <t>29,03,01</t>
+          <t>19,26,3</t>
         </is>
       </c>
       <c r="P110" s="7" t="n">
-        <v>935</v>
+        <v>317</v>
       </c>
       <c r="Q110" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Fevik</t>
         </is>
       </c>
       <c r="R110" s="16" t="n">
-        <v>8.07</v>
+        <v>13.08</v>
       </c>
       <c r="T110" s="5" t="n"/>
     </row>
@@ -21583,30 +21583,32 @@
       <c r="J111" s="5" t="n"/>
       <c r="L111" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M111" s="7" t="inlineStr">
         <is>
-          <t>Andreas Haara Bakketun</t>
+          <t>Andreas Fløystad</t>
         </is>
       </c>
       <c r="N111" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="O111" s="15" t="n">
-        <v>51.96</v>
+        <v>1986</v>
+      </c>
+      <c r="O111" s="17" t="inlineStr">
+        <is>
+          <t>39,31,9</t>
+        </is>
       </c>
       <c r="P111" s="7" t="n">
-        <v>902</v>
+        <v>381</v>
       </c>
       <c r="Q111" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Fevik</t>
         </is>
       </c>
       <c r="R111" s="16" t="n">
-        <v>30.06</v>
+        <v>13.08</v>
       </c>
       <c r="T111" s="5" t="n"/>
     </row>
@@ -21646,25 +21648,25 @@
       </c>
       <c r="M112" s="7" t="inlineStr">
         <is>
-          <t>Frank Atle Kvinge</t>
+          <t>Jonathan Askeland</t>
         </is>
       </c>
       <c r="N112" s="7" t="n">
-        <v>1954</v>
+        <v>2003</v>
       </c>
       <c r="O112" s="15" t="n">
-        <v>1.35</v>
+        <v>1.85</v>
       </c>
       <c r="P112" s="7" t="n">
-        <v>167</v>
+        <v>696</v>
       </c>
       <c r="Q112" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R112" s="16" t="n">
-        <v>29.01</v>
+        <v>5.02</v>
       </c>
       <c r="T112" s="5" t="n"/>
     </row>
@@ -21697,13 +21699,33 @@
         <v>13.01</v>
       </c>
       <c r="J113" s="5" t="n"/>
-      <c r="L113" s="14" t="n"/>
-      <c r="M113" s="7" t="n"/>
-      <c r="N113" s="7" t="n"/>
-      <c r="O113" s="7" t="n"/>
-      <c r="P113" s="7" t="n"/>
-      <c r="Q113" s="7" t="n"/>
-      <c r="R113" s="21" t="n"/>
+      <c r="L113" s="14" t="inlineStr">
+        <is>
+          <t>Høyde u.t</t>
+        </is>
+      </c>
+      <c r="M113" s="7" t="inlineStr">
+        <is>
+          <t>Jonathan Askeland</t>
+        </is>
+      </c>
+      <c r="N113" s="7" t="n">
+        <v>2003</v>
+      </c>
+      <c r="O113" s="15" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="P113" s="7" t="n">
+        <v>847</v>
+      </c>
+      <c r="Q113" s="7" t="inlineStr">
+        <is>
+          <t>Bærum</t>
+        </is>
+      </c>
+      <c r="R113" s="16" t="n">
+        <v>18.02</v>
+      </c>
       <c r="T113" s="5" t="n"/>
     </row>
     <row r="114" ht="13" customHeight="1">
@@ -21735,13 +21757,33 @@
         <v>28.01</v>
       </c>
       <c r="J114" s="5" t="n"/>
-      <c r="L114" s="14" t="n"/>
-      <c r="M114" s="7" t="n"/>
-      <c r="N114" s="7" t="n"/>
-      <c r="O114" s="7" t="n"/>
-      <c r="P114" s="7" t="n"/>
-      <c r="Q114" s="7" t="n"/>
-      <c r="R114" s="21" t="n"/>
+      <c r="L114" s="14" t="inlineStr">
+        <is>
+          <t>Lengde u.t</t>
+        </is>
+      </c>
+      <c r="M114" s="7" t="inlineStr">
+        <is>
+          <t>Jonathan Askeland</t>
+        </is>
+      </c>
+      <c r="N114" s="7" t="n">
+        <v>2003</v>
+      </c>
+      <c r="O114" s="15" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="P114" s="7" t="n">
+        <v>627</v>
+      </c>
+      <c r="Q114" s="7" t="inlineStr">
+        <is>
+          <t>Bærum</t>
+        </is>
+      </c>
+      <c r="R114" s="16" t="n">
+        <v>19.02</v>
+      </c>
       <c r="T114" s="5" t="n"/>
     </row>
     <row r="115" ht="13" customHeight="1">
@@ -21773,13 +21815,33 @@
         <v>3.06</v>
       </c>
       <c r="J115" s="5" t="n"/>
-      <c r="L115" s="14" t="n"/>
-      <c r="M115" s="7" t="n"/>
-      <c r="N115" s="7" t="n"/>
-      <c r="O115" s="7" t="n"/>
-      <c r="P115" s="7" t="n"/>
-      <c r="Q115" s="7" t="n"/>
-      <c r="R115" s="21" t="n"/>
+      <c r="L115" s="14" t="inlineStr">
+        <is>
+          <t>Kule</t>
+        </is>
+      </c>
+      <c r="M115" s="7" t="inlineStr">
+        <is>
+          <t>Jonathan Askeland</t>
+        </is>
+      </c>
+      <c r="N115" s="7" t="n">
+        <v>2003</v>
+      </c>
+      <c r="O115" s="15" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="P115" s="7" t="n">
+        <v>426</v>
+      </c>
+      <c r="Q115" s="7" t="inlineStr">
+        <is>
+          <t>Sandnes</t>
+        </is>
+      </c>
+      <c r="R115" s="16" t="n">
+        <v>4.02</v>
+      </c>
       <c r="T115" s="5" t="n"/>
     </row>
     <row r="116" ht="13" customHeight="1">
@@ -21824,7 +21886,7 @@
         </is>
       </c>
       <c r="M117" s="20" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O117" s="19" t="inlineStr">
         <is>
@@ -21832,7 +21894,7 @@
         </is>
       </c>
       <c r="P117" s="20" t="n">
-        <v>8652</v>
+        <v>8989</v>
       </c>
       <c r="T117" s="5" t="n"/>
     </row>
@@ -21963,30 +22025,30 @@
       <c r="J122" s="5" t="n"/>
       <c r="L122" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M122" s="7" t="inlineStr">
         <is>
-          <t>August Hemstad</t>
+          <t>Elias Solheim Sollid</t>
         </is>
       </c>
       <c r="N122" s="7" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="O122" s="15" t="n">
-        <v>10.68</v>
+        <v>21.91</v>
       </c>
       <c r="P122" s="7" t="n">
-        <v>926</v>
+        <v>871</v>
       </c>
       <c r="Q122" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R122" s="16" t="n">
-        <v>25.06</v>
+        <v>17.06</v>
       </c>
       <c r="T122" s="5" t="n"/>
     </row>
@@ -22026,25 +22088,25 @@
       </c>
       <c r="M123" s="7" t="inlineStr">
         <is>
-          <t>Sondre Faugstad Amundsen</t>
+          <t>Andreas Solheim Sollid</t>
         </is>
       </c>
       <c r="N123" s="7" t="n">
-        <v>1998</v>
+        <v>2004</v>
       </c>
       <c r="O123" s="15" t="n">
-        <v>21.58</v>
+        <v>22.07</v>
       </c>
       <c r="P123" s="7" t="n">
-        <v>911</v>
+        <v>852</v>
       </c>
       <c r="Q123" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R123" s="16" t="n">
-        <v>6.08</v>
+        <v>16.06</v>
       </c>
       <c r="T123" s="5" t="n"/>
     </row>
@@ -22079,32 +22141,30 @@
       <c r="J124" s="5" t="n"/>
       <c r="L124" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M124" s="7" t="inlineStr">
         <is>
-          <t>Eivind Trym Wikshåland</t>
+          <t>Elias Solheim Sollid</t>
         </is>
       </c>
       <c r="N124" s="7" t="n">
-        <v>1997</v>
-      </c>
-      <c r="O124" s="17" t="inlineStr">
-        <is>
-          <t>8,10,11</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O124" s="15" t="n">
+        <v>10.98</v>
       </c>
       <c r="P124" s="7" t="n">
-        <v>906</v>
+        <v>846</v>
       </c>
       <c r="Q124" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R124" s="16" t="n">
-        <v>19.02</v>
+        <v>25.06</v>
       </c>
       <c r="T124" s="5" t="n"/>
     </row>
@@ -22139,32 +22199,30 @@
       <c r="J125" s="5" t="n"/>
       <c r="L125" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M125" s="7" t="inlineStr">
         <is>
-          <t>Tore Akerlie</t>
+          <t>Andreas Solheim Sollid</t>
         </is>
       </c>
       <c r="N125" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="O125" s="17" t="inlineStr">
-        <is>
-          <t>8,10,33</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="O125" s="15" t="n">
+        <v>11.06</v>
       </c>
       <c r="P125" s="7" t="n">
-        <v>905</v>
+        <v>826</v>
       </c>
       <c r="Q125" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R125" s="16" t="n">
-        <v>11.08</v>
+        <v>3.06</v>
       </c>
       <c r="T125" s="5" t="n"/>
     </row>
@@ -22199,32 +22257,30 @@
       <c r="J126" s="5" t="n"/>
       <c r="L126" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M126" s="7" t="inlineStr">
         <is>
-          <t>Johannes Teigland</t>
+          <t>Elias Solheim Sollid</t>
         </is>
       </c>
       <c r="N126" s="7" t="n">
-        <v>1995</v>
-      </c>
-      <c r="O126" s="17" t="inlineStr">
-        <is>
-          <t>3,47,07</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O126" s="15" t="n">
+        <v>7.14</v>
       </c>
       <c r="P126" s="7" t="n">
-        <v>897</v>
+        <v>802</v>
       </c>
       <c r="Q126" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R126" s="16" t="n">
-        <v>8.07</v>
+        <v>11.02</v>
       </c>
       <c r="T126" s="5" t="n"/>
     </row>
@@ -22259,22 +22315,22 @@
       <c r="J127" s="5" t="n"/>
       <c r="L127" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M127" s="7" t="inlineStr">
         <is>
-          <t>Filip Bøe</t>
+          <t>Andreas Solheim Sollid</t>
         </is>
       </c>
       <c r="N127" s="7" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="O127" s="15" t="n">
-        <v>21.71</v>
+        <v>7.22</v>
       </c>
       <c r="P127" s="7" t="n">
-        <v>895</v>
+        <v>769</v>
       </c>
       <c r="Q127" s="7" t="inlineStr">
         <is>
@@ -22282,7 +22338,7 @@
         </is>
       </c>
       <c r="R127" s="16" t="n">
-        <v>18.02</v>
+        <v>11.02</v>
       </c>
       <c r="T127" s="5" t="n"/>
     </row>
@@ -22317,32 +22373,30 @@
       <c r="J128" s="5" t="n"/>
       <c r="L128" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M128" s="7" t="inlineStr">
         <is>
-          <t>Sondre Arne Hoff</t>
+          <t>Jonathan Askeland</t>
         </is>
       </c>
       <c r="N128" s="7" t="n">
-        <v>1993</v>
-      </c>
-      <c r="O128" s="17" t="inlineStr">
-        <is>
-          <t>8,12,76</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="O128" s="15" t="n">
+        <v>11.43</v>
       </c>
       <c r="P128" s="7" t="n">
-        <v>893</v>
+        <v>736</v>
       </c>
       <c r="Q128" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R128" s="16" t="n">
-        <v>11.08</v>
+        <v>14.05</v>
       </c>
       <c r="T128" s="5" t="n"/>
     </row>
@@ -22382,25 +22436,25 @@
       </c>
       <c r="M129" s="7" t="inlineStr">
         <is>
-          <t>August Hemstad</t>
+          <t>Marc  Christian Legayada Berntsen</t>
         </is>
       </c>
       <c r="N129" s="7" t="n">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="O129" s="15" t="n">
-        <v>6.94</v>
+        <v>7.44</v>
       </c>
       <c r="P129" s="7" t="n">
-        <v>891</v>
+        <v>682</v>
       </c>
       <c r="Q129" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R129" s="16" t="n">
-        <v>18.02</v>
+        <v>22.01</v>
       </c>
       <c r="T129" s="5" t="n"/>
     </row>
@@ -22433,13 +22487,33 @@
         <v>25.05</v>
       </c>
       <c r="J130" s="5" t="n"/>
-      <c r="L130" s="14" t="n"/>
-      <c r="M130" s="7" t="n"/>
-      <c r="N130" s="7" t="n"/>
-      <c r="O130" s="7" t="n"/>
-      <c r="P130" s="7" t="n"/>
-      <c r="Q130" s="7" t="n"/>
-      <c r="R130" s="21" t="n"/>
+      <c r="L130" s="14" t="inlineStr">
+        <is>
+          <t>Lengde</t>
+        </is>
+      </c>
+      <c r="M130" s="7" t="inlineStr">
+        <is>
+          <t>Benjamin Fosseli Bye</t>
+        </is>
+      </c>
+      <c r="N130" s="7" t="n">
+        <v>2009</v>
+      </c>
+      <c r="O130" s="15" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="P130" s="7" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q130" s="7" t="inlineStr">
+        <is>
+          <t>Grimstad</t>
+        </is>
+      </c>
+      <c r="R130" s="16" t="n">
+        <v>18.03</v>
+      </c>
       <c r="T130" s="5" t="n"/>
     </row>
     <row r="131" ht="13" customHeight="1">
@@ -22471,13 +22545,33 @@
         <v>28.01</v>
       </c>
       <c r="J131" s="5" t="n"/>
-      <c r="L131" s="14" t="n"/>
-      <c r="M131" s="7" t="n"/>
-      <c r="N131" s="7" t="n"/>
-      <c r="O131" s="7" t="n"/>
-      <c r="P131" s="7" t="n"/>
-      <c r="Q131" s="7" t="n"/>
-      <c r="R131" s="21" t="n"/>
+      <c r="L131" s="14" t="inlineStr">
+        <is>
+          <t>Høyde</t>
+        </is>
+      </c>
+      <c r="M131" s="7" t="inlineStr">
+        <is>
+          <t>Benjamin Fosseli Bye</t>
+        </is>
+      </c>
+      <c r="N131" s="7" t="n">
+        <v>2009</v>
+      </c>
+      <c r="O131" s="15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P131" s="7" t="n">
+        <v>233</v>
+      </c>
+      <c r="Q131" s="7" t="inlineStr">
+        <is>
+          <t>Grimstad</t>
+        </is>
+      </c>
+      <c r="R131" s="16" t="n">
+        <v>18.03</v>
+      </c>
       <c r="T131" s="5" t="n"/>
     </row>
     <row r="132" ht="13" customHeight="1">
@@ -22509,13 +22603,33 @@
         <v>7.05</v>
       </c>
       <c r="J132" s="5" t="n"/>
-      <c r="L132" s="14" t="n"/>
-      <c r="M132" s="7" t="n"/>
-      <c r="N132" s="7" t="n"/>
-      <c r="O132" s="7" t="n"/>
-      <c r="P132" s="7" t="n"/>
-      <c r="Q132" s="7" t="n"/>
-      <c r="R132" s="21" t="n"/>
+      <c r="L132" s="14" t="inlineStr">
+        <is>
+          <t>Høyde</t>
+        </is>
+      </c>
+      <c r="M132" s="7" t="inlineStr">
+        <is>
+          <t>Brage Henriksen</t>
+        </is>
+      </c>
+      <c r="N132" s="7" t="n">
+        <v>2011</v>
+      </c>
+      <c r="O132" s="15" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P132" s="7" t="n">
+        <v>167</v>
+      </c>
+      <c r="Q132" s="7" t="inlineStr">
+        <is>
+          <t>Grimstad</t>
+        </is>
+      </c>
+      <c r="R132" s="16" t="n">
+        <v>14.05</v>
+      </c>
       <c r="T132" s="5" t="n"/>
     </row>
     <row r="133" ht="13" customHeight="1">
@@ -22547,13 +22661,33 @@
         <v>7.05</v>
       </c>
       <c r="J133" s="5" t="n"/>
-      <c r="L133" s="14" t="n"/>
-      <c r="M133" s="7" t="n"/>
-      <c r="N133" s="7" t="n"/>
-      <c r="O133" s="7" t="n"/>
-      <c r="P133" s="7" t="n"/>
-      <c r="Q133" s="7" t="n"/>
-      <c r="R133" s="21" t="n"/>
+      <c r="L133" s="14" t="inlineStr">
+        <is>
+          <t>Høyde</t>
+        </is>
+      </c>
+      <c r="M133" s="7" t="inlineStr">
+        <is>
+          <t>Jonas Røed Haaland</t>
+        </is>
+      </c>
+      <c r="N133" s="7" t="n">
+        <v>2011</v>
+      </c>
+      <c r="O133" s="15" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P133" s="7" t="n">
+        <v>125</v>
+      </c>
+      <c r="Q133" s="7" t="inlineStr">
+        <is>
+          <t>Grimstad</t>
+        </is>
+      </c>
+      <c r="R133" s="16" t="n">
+        <v>22.01</v>
+      </c>
       <c r="T133" s="5" t="n"/>
     </row>
     <row r="134" ht="13" customHeight="1">
@@ -22598,7 +22732,7 @@
         </is>
       </c>
       <c r="M135" s="20" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O135" s="19" t="inlineStr">
         <is>
@@ -22606,7 +22740,7 @@
         </is>
       </c>
       <c r="P135" s="20" t="n">
-        <v>7224</v>
+        <v>7209</v>
       </c>
       <c r="T135" s="5" t="n"/>
     </row>
@@ -22638,7 +22772,7 @@
         </is>
       </c>
       <c r="M137" s="20" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="O137" s="19" t="inlineStr">
         <is>
@@ -22646,7 +22780,7 @@
         </is>
       </c>
       <c r="P137" s="20" t="n">
-        <v>15876</v>
+        <v>16198</v>
       </c>
       <c r="T137" s="5" t="n"/>
     </row>
@@ -22670,7 +22804,7 @@
         </is>
       </c>
       <c r="M139" s="20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T139" s="5" t="n"/>
     </row>
@@ -22712,7 +22846,7 @@
       </c>
       <c r="C143" s="7" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="F143" s="8" t="n">
@@ -22742,7 +22876,7 @@
       </c>
       <c r="C144" s="7" t="inlineStr">
         <is>
-          <t>Sørild FIK</t>
+          <t>IL Gular</t>
         </is>
       </c>
       <c r="J144" s="5" t="n"/>
@@ -22882,25 +23016,25 @@
       </c>
       <c r="C150" s="7" t="inlineStr">
         <is>
-          <t>Even Meinseth</t>
+          <t>Jacob Vaula</t>
         </is>
       </c>
       <c r="D150" s="7" t="n">
-        <v>1996</v>
+        <v>2001</v>
       </c>
       <c r="E150" s="15" t="n">
-        <v>6.69</v>
+        <v>6.74</v>
       </c>
       <c r="F150" s="7" t="n">
-        <v>1015</v>
+        <v>989</v>
       </c>
       <c r="G150" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H150" s="16" t="n">
-        <v>2.02</v>
+        <v>18.02</v>
       </c>
       <c r="J150" s="5" t="n"/>
       <c r="L150" s="14" t="inlineStr">
@@ -22940,25 +23074,25 @@
       </c>
       <c r="C151" s="7" t="inlineStr">
         <is>
-          <t>Even Meinseth</t>
+          <t>Jacob Vaula</t>
         </is>
       </c>
       <c r="D151" s="7" t="n">
-        <v>1996</v>
+        <v>2001</v>
       </c>
       <c r="E151" s="15" t="n">
-        <v>10.43</v>
+        <v>10.39</v>
       </c>
       <c r="F151" s="7" t="n">
-        <v>997</v>
+        <v>1009</v>
       </c>
       <c r="G151" s="7" t="inlineStr">
         <is>
-          <t>Chengdu/CHN</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H151" s="16" t="n">
-        <v>2.08</v>
+        <v>6.07</v>
       </c>
       <c r="J151" s="5" t="n"/>
       <c r="L151" s="14" t="inlineStr">
@@ -22998,25 +23132,25 @@
       </c>
       <c r="C152" s="7" t="inlineStr">
         <is>
-          <t>Even Meinseth</t>
+          <t>Andreas Haara Bakketun</t>
         </is>
       </c>
       <c r="D152" s="7" t="n">
-        <v>1996</v>
+        <v>2001</v>
       </c>
       <c r="E152" s="15" t="n">
-        <v>21.19</v>
+        <v>21.48</v>
       </c>
       <c r="F152" s="7" t="n">
-        <v>960</v>
+        <v>923</v>
       </c>
       <c r="G152" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H152" s="16" t="n">
-        <v>15.06</v>
+        <v>23.06</v>
       </c>
       <c r="J152" s="5" t="n"/>
       <c r="L152" s="14" t="inlineStr">
@@ -23056,25 +23190,25 @@
       </c>
       <c r="C153" s="7" t="inlineStr">
         <is>
-          <t>Andreas Solheim Sollid</t>
+          <t>Andreas Haara Bakketun</t>
         </is>
       </c>
       <c r="D153" s="7" t="n">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="E153" s="15" t="n">
-        <v>48.89</v>
+        <v>47.26</v>
       </c>
       <c r="F153" s="7" t="n">
-        <v>842</v>
+        <v>934</v>
       </c>
       <c r="G153" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H153" s="16" t="n">
-        <v>18.06</v>
+        <v>15.06</v>
       </c>
       <c r="J153" s="5" t="n"/>
       <c r="L153" s="14" t="inlineStr">
@@ -23114,27 +23248,27 @@
       </c>
       <c r="C154" s="7" t="inlineStr">
         <is>
-          <t>Stian Flo</t>
+          <t>John Petter Stevik</t>
         </is>
       </c>
       <c r="D154" s="7" t="n">
-        <v>1985</v>
+        <v>2003</v>
       </c>
       <c r="E154" s="17" t="inlineStr">
         <is>
-          <t>1,59,87</t>
+          <t>1,49,66</t>
         </is>
       </c>
       <c r="F154" s="7" t="n">
-        <v>690</v>
+        <v>926</v>
       </c>
       <c r="G154" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H154" s="16" t="n">
-        <v>14.05</v>
+        <v>11.08</v>
       </c>
       <c r="J154" s="5" t="n"/>
       <c r="L154" s="14" t="inlineStr">
@@ -23171,24 +23305,24 @@
     <row r="155" ht="13" customHeight="1">
       <c r="B155" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C155" s="7" t="inlineStr">
         <is>
-          <t>Dennis Bergstrøm-Bendixen</t>
+          <t>Bjørnar Sandnes Lillefosse</t>
         </is>
       </c>
       <c r="D155" s="7" t="n">
-        <v>2006</v>
+        <v>1992</v>
       </c>
       <c r="E155" s="17" t="inlineStr">
         <is>
-          <t>4,16,54</t>
+          <t>8,02,08</t>
         </is>
       </c>
       <c r="F155" s="7" t="n">
-        <v>620</v>
+        <v>944</v>
       </c>
       <c r="G155" s="7" t="inlineStr">
         <is>
@@ -23196,7 +23330,7 @@
         </is>
       </c>
       <c r="H155" s="16" t="n">
-        <v>12.08</v>
+        <v>11.08</v>
       </c>
       <c r="J155" s="5" t="n"/>
       <c r="L155" s="14" t="inlineStr">
@@ -23233,32 +23367,32 @@
     <row r="156" ht="13" customHeight="1">
       <c r="B156" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C156" s="7" t="inlineStr">
         <is>
-          <t>Tobias Fretheim</t>
+          <t>Bjørnar Sandnes Lillefosse</t>
         </is>
       </c>
       <c r="D156" s="7" t="n">
-        <v>2005</v>
+        <v>1992</v>
       </c>
       <c r="E156" s="17" t="inlineStr">
         <is>
-          <t>9,33,51</t>
+          <t>13,59,16</t>
         </is>
       </c>
       <c r="F156" s="7" t="n">
-        <v>571</v>
+        <v>923</v>
       </c>
       <c r="G156" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H156" s="16" t="n">
-        <v>3.06</v>
+        <v>6.07</v>
       </c>
       <c r="J156" s="5" t="n"/>
       <c r="L156" s="14" t="inlineStr">
@@ -23295,30 +23429,32 @@
     <row r="157" ht="13" customHeight="1">
       <c r="B157" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="C157" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Askeland</t>
+          <t>Bjørnar Sandnes Lillefosse</t>
         </is>
       </c>
       <c r="D157" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E157" s="15" t="n">
-        <v>1.85</v>
+        <v>1992</v>
+      </c>
+      <c r="E157" s="17" t="inlineStr">
+        <is>
+          <t>29,03,01</t>
+        </is>
       </c>
       <c r="F157" s="7" t="n">
-        <v>696</v>
+        <v>935</v>
       </c>
       <c r="G157" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H157" s="16" t="n">
-        <v>5.02</v>
+        <v>8.07</v>
       </c>
       <c r="J157" s="5" t="n"/>
       <c r="L157" s="14" t="inlineStr">
@@ -23353,30 +23489,30 @@
     <row r="158" ht="13" customHeight="1">
       <c r="B158" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="C158" s="7" t="inlineStr">
         <is>
-          <t>Benjamin Fosseli Bye</t>
+          <t>Andreas Haara Bakketun</t>
         </is>
       </c>
       <c r="D158" s="7" t="n">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="E158" s="15" t="n">
-        <v>4.71</v>
+        <v>51.96</v>
       </c>
       <c r="F158" s="7" t="n">
-        <v>300</v>
+        <v>902</v>
       </c>
       <c r="G158" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H158" s="16" t="n">
-        <v>18.03</v>
+        <v>30.06</v>
       </c>
       <c r="J158" s="5" t="n"/>
       <c r="L158" s="14" t="inlineStr">
@@ -23411,30 +23547,30 @@
     <row r="159" ht="13" customHeight="1">
       <c r="B159" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C159" s="7" t="inlineStr">
         <is>
-          <t>William Schlanbusch</t>
+          <t>Frank Atle Kvinge</t>
         </is>
       </c>
       <c r="D159" s="7" t="n">
-        <v>2009</v>
+        <v>1954</v>
       </c>
       <c r="E159" s="15" t="n">
-        <v>7.66</v>
+        <v>1.35</v>
       </c>
       <c r="F159" s="7" t="n">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="G159" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="H159" s="16" t="n">
-        <v>3.06</v>
+        <v>29.01</v>
       </c>
       <c r="J159" s="5" t="n"/>
       <c r="L159" s="14" t="inlineStr">
@@ -23467,33 +23603,13 @@
       <c r="T159" s="5" t="n"/>
     </row>
     <row r="160" ht="13" customHeight="1">
-      <c r="B160" s="14" t="inlineStr">
-        <is>
-          <t>Høyde u.t</t>
-        </is>
-      </c>
-      <c r="C160" s="7" t="inlineStr">
-        <is>
-          <t>Jonathan Askeland</t>
-        </is>
-      </c>
-      <c r="D160" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E160" s="15" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="F160" s="7" t="n">
-        <v>847</v>
-      </c>
-      <c r="G160" s="7" t="inlineStr">
-        <is>
-          <t>Bærum</t>
-        </is>
-      </c>
-      <c r="H160" s="16" t="n">
-        <v>18.02</v>
-      </c>
+      <c r="B160" s="14" t="n"/>
+      <c r="C160" s="7" t="n"/>
+      <c r="D160" s="7" t="n"/>
+      <c r="E160" s="7" t="n"/>
+      <c r="F160" s="7" t="n"/>
+      <c r="G160" s="7" t="n"/>
+      <c r="H160" s="21" t="n"/>
       <c r="J160" s="5" t="n"/>
       <c r="L160" s="14" t="inlineStr">
         <is>
@@ -23525,33 +23641,13 @@
       <c r="T160" s="5" t="n"/>
     </row>
     <row r="161" ht="13" customHeight="1">
-      <c r="B161" s="14" t="inlineStr">
-        <is>
-          <t>Lengde u.t</t>
-        </is>
-      </c>
-      <c r="C161" s="7" t="inlineStr">
-        <is>
-          <t>Jonathan Askeland</t>
-        </is>
-      </c>
-      <c r="D161" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E161" s="15" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="F161" s="7" t="n">
-        <v>627</v>
-      </c>
-      <c r="G161" s="7" t="inlineStr">
-        <is>
-          <t>Bærum</t>
-        </is>
-      </c>
-      <c r="H161" s="16" t="n">
-        <v>19.02</v>
-      </c>
+      <c r="B161" s="14" t="n"/>
+      <c r="C161" s="7" t="n"/>
+      <c r="D161" s="7" t="n"/>
+      <c r="E161" s="7" t="n"/>
+      <c r="F161" s="7" t="n"/>
+      <c r="G161" s="7" t="n"/>
+      <c r="H161" s="21" t="n"/>
       <c r="J161" s="5" t="n"/>
       <c r="L161" s="14" t="inlineStr">
         <is>
@@ -23583,33 +23679,13 @@
       <c r="T161" s="5" t="n"/>
     </row>
     <row r="162" ht="13" customHeight="1">
-      <c r="B162" s="14" t="inlineStr">
-        <is>
-          <t>Kule</t>
-        </is>
-      </c>
-      <c r="C162" s="7" t="inlineStr">
-        <is>
-          <t>Jonathan Askeland</t>
-        </is>
-      </c>
-      <c r="D162" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E162" s="15" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="F162" s="7" t="n">
-        <v>426</v>
-      </c>
-      <c r="G162" s="7" t="inlineStr">
-        <is>
-          <t>Sandnes</t>
-        </is>
-      </c>
-      <c r="H162" s="16" t="n">
-        <v>4.02</v>
-      </c>
+      <c r="B162" s="14" t="n"/>
+      <c r="C162" s="7" t="n"/>
+      <c r="D162" s="7" t="n"/>
+      <c r="E162" s="7" t="n"/>
+      <c r="F162" s="7" t="n"/>
+      <c r="G162" s="7" t="n"/>
+      <c r="H162" s="21" t="n"/>
       <c r="J162" s="5" t="n"/>
       <c r="L162" s="14" t="inlineStr">
         <is>
@@ -23665,7 +23741,7 @@
         </is>
       </c>
       <c r="C164" s="20" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E164" s="19" t="inlineStr">
         <is>
@@ -23673,7 +23749,7 @@
         </is>
       </c>
       <c r="F164" s="20" t="n">
-        <v>8631</v>
+        <v>8652</v>
       </c>
       <c r="J164" s="5" t="n"/>
       <c r="L164" s="19" t="inlineStr">
@@ -23793,30 +23869,30 @@
     <row r="169" ht="13" customHeight="1">
       <c r="B169" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C169" s="7" t="inlineStr">
         <is>
-          <t>Elias Solheim Sollid</t>
+          <t>August Hemstad</t>
         </is>
       </c>
       <c r="D169" s="7" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="E169" s="15" t="n">
-        <v>21.91</v>
+        <v>10.68</v>
       </c>
       <c r="F169" s="7" t="n">
-        <v>871</v>
+        <v>926</v>
       </c>
       <c r="G169" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H169" s="16" t="n">
-        <v>17.06</v>
+        <v>25.06</v>
       </c>
       <c r="J169" s="5" t="n"/>
       <c r="L169" s="14" t="inlineStr">
@@ -23856,25 +23932,25 @@
       </c>
       <c r="C170" s="7" t="inlineStr">
         <is>
-          <t>Andreas Solheim Sollid</t>
+          <t>Sondre Faugstad Amundsen</t>
         </is>
       </c>
       <c r="D170" s="7" t="n">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="E170" s="15" t="n">
-        <v>22.07</v>
+        <v>21.58</v>
       </c>
       <c r="F170" s="7" t="n">
-        <v>852</v>
+        <v>911</v>
       </c>
       <c r="G170" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H170" s="16" t="n">
-        <v>16.06</v>
+        <v>6.08</v>
       </c>
       <c r="J170" s="5" t="n"/>
       <c r="L170" s="14" t="inlineStr">
@@ -23909,30 +23985,32 @@
     <row r="171" ht="13" customHeight="1">
       <c r="B171" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C171" s="7" t="inlineStr">
         <is>
-          <t>Elias Solheim Sollid</t>
+          <t>Eivind Trym Wikshåland</t>
         </is>
       </c>
       <c r="D171" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E171" s="15" t="n">
-        <v>10.98</v>
+        <v>1997</v>
+      </c>
+      <c r="E171" s="17" t="inlineStr">
+        <is>
+          <t>8,10,11</t>
+        </is>
       </c>
       <c r="F171" s="7" t="n">
-        <v>846</v>
+        <v>906</v>
       </c>
       <c r="G171" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H171" s="16" t="n">
-        <v>25.06</v>
+        <v>19.02</v>
       </c>
       <c r="J171" s="5" t="n"/>
       <c r="L171" s="14" t="inlineStr">
@@ -23969,30 +24047,32 @@
     <row r="172" ht="13" customHeight="1">
       <c r="B172" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C172" s="7" t="inlineStr">
         <is>
-          <t>Andreas Solheim Sollid</t>
+          <t>Tore Akerlie</t>
         </is>
       </c>
       <c r="D172" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E172" s="15" t="n">
-        <v>11.06</v>
+        <v>1999</v>
+      </c>
+      <c r="E172" s="17" t="inlineStr">
+        <is>
+          <t>8,10,33</t>
+        </is>
       </c>
       <c r="F172" s="7" t="n">
-        <v>826</v>
+        <v>905</v>
       </c>
       <c r="G172" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H172" s="16" t="n">
-        <v>3.06</v>
+        <v>11.08</v>
       </c>
       <c r="J172" s="5" t="n"/>
       <c r="L172" s="14" t="inlineStr">
@@ -24027,30 +24107,32 @@
     <row r="173" ht="13" customHeight="1">
       <c r="B173" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C173" s="7" t="inlineStr">
         <is>
-          <t>Elias Solheim Sollid</t>
+          <t>Johannes Teigland</t>
         </is>
       </c>
       <c r="D173" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E173" s="15" t="n">
-        <v>7.14</v>
+        <v>1995</v>
+      </c>
+      <c r="E173" s="17" t="inlineStr">
+        <is>
+          <t>3,47,07</t>
+        </is>
       </c>
       <c r="F173" s="7" t="n">
-        <v>802</v>
+        <v>897</v>
       </c>
       <c r="G173" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H173" s="16" t="n">
-        <v>11.02</v>
+        <v>8.07</v>
       </c>
       <c r="J173" s="5" t="n"/>
       <c r="L173" s="14" t="inlineStr">
@@ -24085,22 +24167,22 @@
     <row r="174" ht="13" customHeight="1">
       <c r="B174" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C174" s="7" t="inlineStr">
         <is>
-          <t>Andreas Solheim Sollid</t>
+          <t>Filip Bøe</t>
         </is>
       </c>
       <c r="D174" s="7" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="E174" s="15" t="n">
-        <v>7.22</v>
+        <v>21.71</v>
       </c>
       <c r="F174" s="7" t="n">
-        <v>769</v>
+        <v>895</v>
       </c>
       <c r="G174" s="7" t="inlineStr">
         <is>
@@ -24108,7 +24190,7 @@
         </is>
       </c>
       <c r="H174" s="16" t="n">
-        <v>11.02</v>
+        <v>18.02</v>
       </c>
       <c r="J174" s="5" t="n"/>
       <c r="L174" s="14" t="inlineStr">
@@ -24143,30 +24225,32 @@
     <row r="175" ht="13" customHeight="1">
       <c r="B175" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C175" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Askeland</t>
+          <t>Sondre Arne Hoff</t>
         </is>
       </c>
       <c r="D175" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E175" s="15" t="n">
-        <v>11.43</v>
+        <v>1993</v>
+      </c>
+      <c r="E175" s="17" t="inlineStr">
+        <is>
+          <t>8,12,76</t>
+        </is>
       </c>
       <c r="F175" s="7" t="n">
-        <v>736</v>
+        <v>893</v>
       </c>
       <c r="G175" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H175" s="16" t="n">
-        <v>14.05</v>
+        <v>11.08</v>
       </c>
       <c r="J175" s="5" t="n"/>
       <c r="L175" s="14" t="inlineStr">
@@ -24206,25 +24290,25 @@
       </c>
       <c r="C176" s="7" t="inlineStr">
         <is>
-          <t>Marc  Christian Legayada Berntsen</t>
+          <t>August Hemstad</t>
         </is>
       </c>
       <c r="D176" s="7" t="n">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="E176" s="15" t="n">
-        <v>7.44</v>
+        <v>6.94</v>
       </c>
       <c r="F176" s="7" t="n">
-        <v>682</v>
+        <v>891</v>
       </c>
       <c r="G176" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H176" s="16" t="n">
-        <v>22.01</v>
+        <v>18.02</v>
       </c>
       <c r="J176" s="5" t="n"/>
       <c r="L176" s="14" t="inlineStr">
@@ -24257,33 +24341,13 @@
       <c r="T176" s="5" t="n"/>
     </row>
     <row r="177" ht="13" customHeight="1">
-      <c r="B177" s="14" t="inlineStr">
-        <is>
-          <t>Høyde</t>
-        </is>
-      </c>
-      <c r="C177" s="7" t="inlineStr">
-        <is>
-          <t>Benjamin Fosseli Bye</t>
-        </is>
-      </c>
-      <c r="D177" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E177" s="15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="F177" s="7" t="n">
-        <v>233</v>
-      </c>
-      <c r="G177" s="7" t="inlineStr">
-        <is>
-          <t>Grimstad</t>
-        </is>
-      </c>
-      <c r="H177" s="16" t="n">
-        <v>18.03</v>
-      </c>
+      <c r="B177" s="14" t="n"/>
+      <c r="C177" s="7" t="n"/>
+      <c r="D177" s="7" t="n"/>
+      <c r="E177" s="7" t="n"/>
+      <c r="F177" s="7" t="n"/>
+      <c r="G177" s="7" t="n"/>
+      <c r="H177" s="21" t="n"/>
       <c r="J177" s="5" t="n"/>
       <c r="L177" s="14" t="inlineStr">
         <is>
@@ -24315,33 +24379,13 @@
       <c r="T177" s="5" t="n"/>
     </row>
     <row r="178" ht="13" customHeight="1">
-      <c r="B178" s="14" t="inlineStr">
-        <is>
-          <t>Høyde</t>
-        </is>
-      </c>
-      <c r="C178" s="7" t="inlineStr">
-        <is>
-          <t>Brage Henriksen</t>
-        </is>
-      </c>
-      <c r="D178" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E178" s="15" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="F178" s="7" t="n">
-        <v>167</v>
-      </c>
-      <c r="G178" s="7" t="inlineStr">
-        <is>
-          <t>Grimstad</t>
-        </is>
-      </c>
-      <c r="H178" s="16" t="n">
-        <v>14.05</v>
-      </c>
+      <c r="B178" s="14" t="n"/>
+      <c r="C178" s="7" t="n"/>
+      <c r="D178" s="7" t="n"/>
+      <c r="E178" s="7" t="n"/>
+      <c r="F178" s="7" t="n"/>
+      <c r="G178" s="7" t="n"/>
+      <c r="H178" s="21" t="n"/>
       <c r="J178" s="5" t="n"/>
       <c r="L178" s="14" t="inlineStr">
         <is>
@@ -24373,33 +24417,13 @@
       <c r="T178" s="5" t="n"/>
     </row>
     <row r="179" ht="13" customHeight="1">
-      <c r="B179" s="14" t="inlineStr">
-        <is>
-          <t>Høyde</t>
-        </is>
-      </c>
-      <c r="C179" s="7" t="inlineStr">
-        <is>
-          <t>Jonas Røed Haaland</t>
-        </is>
-      </c>
-      <c r="D179" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E179" s="15" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="F179" s="7" t="n">
-        <v>125</v>
-      </c>
-      <c r="G179" s="7" t="inlineStr">
-        <is>
-          <t>Grimstad</t>
-        </is>
-      </c>
-      <c r="H179" s="16" t="n">
-        <v>22.01</v>
-      </c>
+      <c r="B179" s="14" t="n"/>
+      <c r="C179" s="7" t="n"/>
+      <c r="D179" s="7" t="n"/>
+      <c r="E179" s="7" t="n"/>
+      <c r="F179" s="7" t="n"/>
+      <c r="G179" s="7" t="n"/>
+      <c r="H179" s="21" t="n"/>
       <c r="J179" s="5" t="n"/>
       <c r="L179" s="14" t="inlineStr">
         <is>
@@ -24431,33 +24455,13 @@
       <c r="T179" s="5" t="n"/>
     </row>
     <row r="180" ht="13" customHeight="1">
-      <c r="B180" s="14" t="inlineStr">
-        <is>
-          <t>Lengde</t>
-        </is>
-      </c>
-      <c r="C180" s="7" t="inlineStr">
-        <is>
-          <t>David Askeland</t>
-        </is>
-      </c>
-      <c r="D180" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E180" s="15" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="F180" s="7" t="n">
-        <v>111</v>
-      </c>
-      <c r="G180" s="7" t="inlineStr">
-        <is>
-          <t>Grimstad</t>
-        </is>
-      </c>
-      <c r="H180" s="16" t="n">
-        <v>14.05</v>
-      </c>
+      <c r="B180" s="14" t="n"/>
+      <c r="C180" s="7" t="n"/>
+      <c r="D180" s="7" t="n"/>
+      <c r="E180" s="7" t="n"/>
+      <c r="F180" s="7" t="n"/>
+      <c r="G180" s="7" t="n"/>
+      <c r="H180" s="21" t="n"/>
       <c r="J180" s="5" t="n"/>
       <c r="L180" s="14" t="inlineStr">
         <is>
@@ -24513,7 +24517,7 @@
         </is>
       </c>
       <c r="C182" s="20" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E182" s="19" t="inlineStr">
         <is>
@@ -24521,7 +24525,7 @@
         </is>
       </c>
       <c r="F182" s="20" t="n">
-        <v>7020</v>
+        <v>7224</v>
       </c>
       <c r="J182" s="5" t="n"/>
       <c r="L182" s="19" t="inlineStr">
@@ -24553,7 +24557,7 @@
         </is>
       </c>
       <c r="C184" s="20" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E184" s="19" t="inlineStr">
         <is>
@@ -24561,7 +24565,7 @@
         </is>
       </c>
       <c r="F184" s="20" t="n">
-        <v>15651</v>
+        <v>15876</v>
       </c>
       <c r="J184" s="5" t="n"/>
       <c r="L184" s="19" t="inlineStr">
@@ -24593,7 +24597,7 @@
         </is>
       </c>
       <c r="C186" s="20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J186" s="5" t="n"/>
       <c r="L186" s="19" t="inlineStr">
@@ -30054,20 +30058,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F284:G285"/>
+    <mergeCell ref="P96:Q97"/>
+    <mergeCell ref="P143:Q144"/>
+    <mergeCell ref="P284:Q285"/>
+    <mergeCell ref="F143:G144"/>
     <mergeCell ref="F2:G3"/>
+    <mergeCell ref="P190:Q191"/>
     <mergeCell ref="P2:Q3"/>
     <mergeCell ref="F49:G50"/>
+    <mergeCell ref="F190:G191"/>
+    <mergeCell ref="F237:G238"/>
     <mergeCell ref="P49:Q50"/>
+    <mergeCell ref="P237:Q238"/>
     <mergeCell ref="F96:G97"/>
-    <mergeCell ref="P96:Q97"/>
-    <mergeCell ref="F143:G144"/>
-    <mergeCell ref="P143:Q144"/>
-    <mergeCell ref="F190:G191"/>
-    <mergeCell ref="P190:Q191"/>
-    <mergeCell ref="F237:G238"/>
-    <mergeCell ref="P237:Q238"/>
-    <mergeCell ref="F284:G285"/>
-    <mergeCell ref="P284:Q285"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30470,11 +30474,11 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>(30/10)</t>
+          <t>(30/11)</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>17382</v>
+        <v>17560</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -45080,30 +45084,32 @@
     <row r="344" ht="13" customHeight="1">
       <c r="B344" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C344" s="7" t="inlineStr">
         <is>
-          <t>Alida Haaland</t>
+          <t>Line Myrestøl Johansson</t>
         </is>
       </c>
       <c r="D344" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E344" s="15" t="n">
-        <v>1.45</v>
+        <v>1998</v>
+      </c>
+      <c r="E344" s="17" t="inlineStr">
+        <is>
+          <t>18,40,8mx</t>
+        </is>
       </c>
       <c r="F344" s="7" t="n">
-        <v>565</v>
+        <v>633</v>
       </c>
       <c r="G344" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fevik</t>
         </is>
       </c>
       <c r="H344" s="16" t="n">
-        <v>16.06</v>
+        <v>13.08</v>
       </c>
       <c r="J344" s="5" t="n"/>
       <c r="L344" s="14" t="inlineStr">
@@ -45138,22 +45144,22 @@
     <row r="345" ht="13" customHeight="1">
       <c r="B345" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C345" s="7" t="inlineStr">
         <is>
-          <t>Beate Raknes</t>
+          <t>Alida Haaland</t>
         </is>
       </c>
       <c r="D345" s="7" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="E345" s="15" t="n">
-        <v>8.66</v>
+        <v>1.45</v>
       </c>
       <c r="F345" s="7" t="n">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="G345" s="7" t="inlineStr">
         <is>
@@ -45161,7 +45167,7 @@
         </is>
       </c>
       <c r="H345" s="16" t="n">
-        <v>17.06</v>
+        <v>16.06</v>
       </c>
       <c r="J345" s="5" t="n"/>
       <c r="L345" s="14" t="inlineStr">
@@ -45196,30 +45202,30 @@
     <row r="346" ht="13" customHeight="1">
       <c r="B346" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C346" s="7" t="inlineStr">
         <is>
-          <t>Alida Haaland</t>
+          <t>Beate Raknes</t>
         </is>
       </c>
       <c r="D346" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="E346" s="15" t="n">
-        <v>2.43</v>
+        <v>8.66</v>
       </c>
       <c r="F346" s="7" t="n">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="G346" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H346" s="16" t="n">
-        <v>25.05</v>
+        <v>17.06</v>
       </c>
       <c r="J346" s="5" t="n"/>
       <c r="L346" s="14" t="inlineStr">
@@ -45254,30 +45260,30 @@
     <row r="347" ht="13" customHeight="1">
       <c r="B347" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C347" s="7" t="inlineStr">
         <is>
-          <t>Beate Raknes</t>
+          <t>Alida Haaland</t>
         </is>
       </c>
       <c r="D347" s="7" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="E347" s="15" t="n">
-        <v>29.11</v>
+        <v>2.43</v>
       </c>
       <c r="F347" s="7" t="n">
-        <v>505</v>
+        <v>542</v>
       </c>
       <c r="G347" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H347" s="16" t="n">
-        <v>16.06</v>
+        <v>25.05</v>
       </c>
       <c r="J347" s="5" t="n"/>
       <c r="L347" s="14" t="inlineStr">
@@ -45312,24 +45318,22 @@
     <row r="348" ht="13" customHeight="1">
       <c r="B348" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C348" s="7" t="inlineStr">
         <is>
-          <t>Emmeli Vatne Danielssen</t>
+          <t>Beate Raknes</t>
         </is>
       </c>
       <c r="D348" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E348" s="17" t="inlineStr">
-        <is>
-          <t>5,24,28</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="E348" s="15" t="n">
+        <v>29.11</v>
       </c>
       <c r="F348" s="7" t="n">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="G348" s="7" t="inlineStr">
         <is>
@@ -45372,30 +45376,32 @@
     <row r="349" ht="13" customHeight="1">
       <c r="B349" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C349" s="7" t="inlineStr">
         <is>
-          <t>Beate Raknes</t>
+          <t>Emmeli Vatne Danielssen</t>
         </is>
       </c>
       <c r="D349" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E349" s="15" t="n">
-        <v>14.12</v>
+        <v>2011</v>
+      </c>
+      <c r="E349" s="17" t="inlineStr">
+        <is>
+          <t>5,24,28</t>
+        </is>
       </c>
       <c r="F349" s="7" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G349" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H349" s="16" t="n">
-        <v>3.06</v>
+        <v>16.06</v>
       </c>
       <c r="J349" s="5" t="n"/>
       <c r="L349" s="14" t="inlineStr">
@@ -45430,7 +45436,7 @@
     <row r="350" ht="13" customHeight="1">
       <c r="B350" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C350" s="7" t="inlineStr">
@@ -45441,21 +45447,19 @@
       <c r="D350" s="7" t="n">
         <v>2009</v>
       </c>
-      <c r="E350" s="17" t="inlineStr">
-        <is>
-          <t>5,29,88</t>
-        </is>
+      <c r="E350" s="15" t="n">
+        <v>14.12</v>
       </c>
       <c r="F350" s="7" t="n">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="G350" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H350" s="16" t="n">
-        <v>18.06</v>
+        <v>3.06</v>
       </c>
       <c r="J350" s="5" t="n"/>
       <c r="L350" s="14" t="inlineStr">
@@ -45490,30 +45494,32 @@
     <row r="351" ht="13" customHeight="1">
       <c r="B351" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C351" s="7" t="inlineStr">
         <is>
-          <t>Andrea Malde</t>
+          <t>Beate Raknes</t>
         </is>
       </c>
       <c r="D351" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E351" s="15" t="n">
-        <v>14.3</v>
+        <v>2009</v>
+      </c>
+      <c r="E351" s="17" t="inlineStr">
+        <is>
+          <t>5,29,88</t>
+        </is>
       </c>
       <c r="F351" s="7" t="n">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G351" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H351" s="16" t="n">
-        <v>7.05</v>
+        <v>18.06</v>
       </c>
       <c r="J351" s="5" t="n"/>
       <c r="L351" s="14" t="inlineStr">
@@ -45548,30 +45554,30 @@
     <row r="352" ht="13" customHeight="1">
       <c r="B352" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C352" s="7" t="inlineStr">
         <is>
-          <t>Tiril Elise Wikstrøm Alsand</t>
+          <t>Andrea Malde</t>
         </is>
       </c>
       <c r="D352" s="7" t="n">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="E352" s="15" t="n">
-        <v>29.81</v>
+        <v>14.3</v>
       </c>
       <c r="F352" s="7" t="n">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="G352" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H352" s="16" t="n">
-        <v>12.08</v>
+        <v>7.05</v>
       </c>
       <c r="J352" s="5" t="n"/>
       <c r="L352" s="14" t="inlineStr">
@@ -45606,30 +45612,30 @@
     <row r="353" ht="13" customHeight="1">
       <c r="B353" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C353" s="7" t="inlineStr">
         <is>
-          <t>Alida Haaland</t>
+          <t>Tiril Elise Wikstrøm Alsand</t>
         </is>
       </c>
       <c r="D353" s="7" t="n">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="E353" s="15" t="n">
-        <v>4.28</v>
+        <v>29.81</v>
       </c>
       <c r="F353" s="7" t="n">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="G353" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H353" s="16" t="n">
-        <v>7.05</v>
+        <v>12.08</v>
       </c>
       <c r="J353" s="5" t="n"/>
       <c r="L353" s="14" t="inlineStr">
@@ -45664,30 +45670,30 @@
     <row r="354" ht="13" customHeight="1">
       <c r="B354" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C354" s="7" t="inlineStr">
         <is>
-          <t>Tomine Tjomsland Johansson</t>
+          <t>Alida Haaland</t>
         </is>
       </c>
       <c r="D354" s="7" t="n">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="E354" s="15" t="n">
-        <v>9.08</v>
+        <v>4.28</v>
       </c>
       <c r="F354" s="7" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G354" s="7" t="inlineStr">
         <is>
-          <t>Lyngdal</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H354" s="16" t="n">
-        <v>4.07</v>
+        <v>7.05</v>
       </c>
       <c r="J354" s="5" t="n"/>
       <c r="L354" s="14" t="inlineStr">
@@ -45868,7 +45874,7 @@
         </is>
       </c>
       <c r="F358" s="20" t="n">
-        <v>7641</v>
+        <v>7819</v>
       </c>
       <c r="J358" s="5" t="n"/>
       <c r="L358" s="19" t="inlineStr">
@@ -45908,7 +45914,7 @@
         </is>
       </c>
       <c r="F360" s="20" t="n">
-        <v>17382</v>
+        <v>17560</v>
       </c>
       <c r="J360" s="5" t="n"/>
       <c r="L360" s="19" t="inlineStr">
@@ -45940,7 +45946,7 @@
         </is>
       </c>
       <c r="C362" s="20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J362" s="5" t="n"/>
       <c r="L362" s="19" t="inlineStr">
@@ -45981,20 +45987,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="P262:Q263"/>
+    <mergeCell ref="F210:G211"/>
     <mergeCell ref="F2:G3"/>
+    <mergeCell ref="F54:G55"/>
+    <mergeCell ref="P314:Q315"/>
+    <mergeCell ref="F314:G315"/>
+    <mergeCell ref="P54:Q55"/>
     <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="F54:G55"/>
-    <mergeCell ref="P54:Q55"/>
     <mergeCell ref="F106:G107"/>
-    <mergeCell ref="P106:Q107"/>
     <mergeCell ref="F158:G159"/>
     <mergeCell ref="P158:Q159"/>
-    <mergeCell ref="F210:G211"/>
     <mergeCell ref="P210:Q211"/>
+    <mergeCell ref="P106:Q107"/>
     <mergeCell ref="F262:G263"/>
-    <mergeCell ref="P262:Q263"/>
-    <mergeCell ref="F314:G315"/>
-    <mergeCell ref="P314:Q315"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -59604,20 +59610,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F284:G285"/>
+    <mergeCell ref="P96:Q97"/>
+    <mergeCell ref="P143:Q144"/>
+    <mergeCell ref="P284:Q285"/>
+    <mergeCell ref="F143:G144"/>
     <mergeCell ref="F2:G3"/>
+    <mergeCell ref="P190:Q191"/>
     <mergeCell ref="P2:Q3"/>
     <mergeCell ref="F49:G50"/>
+    <mergeCell ref="F190:G191"/>
+    <mergeCell ref="F237:G238"/>
     <mergeCell ref="P49:Q50"/>
+    <mergeCell ref="P237:Q238"/>
     <mergeCell ref="F96:G97"/>
-    <mergeCell ref="P96:Q97"/>
-    <mergeCell ref="F143:G144"/>
-    <mergeCell ref="P143:Q144"/>
-    <mergeCell ref="F190:G191"/>
-    <mergeCell ref="P190:Q191"/>
-    <mergeCell ref="F237:G238"/>
-    <mergeCell ref="P237:Q238"/>
-    <mergeCell ref="F284:G285"/>
-    <mergeCell ref="P284:Q285"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/Lagserien 2023 1-2. div.xlsx
+++ b/output/Lagserien 2023 1-2. div.xlsx
@@ -23,8 +23,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="##,##00.00"/>
+    <numFmt numFmtId="165" formatCode="#,#0.0"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -145,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -180,6 +181,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -688,7 +690,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>24760</v>
+        <v>24749</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -4144,18 +4146,18 @@
         <v>1998</v>
       </c>
       <c r="O72" s="15" t="n">
-        <v>21.12</v>
+        <v>20.88</v>
       </c>
       <c r="P72" s="7" t="n">
-        <v>1116</v>
+        <v>1105</v>
       </c>
       <c r="Q72" s="7" t="inlineStr">
         <is>
-          <t>Banská Bystrica/SVK</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R72" s="16" t="n">
-        <v>20.07</v>
+        <v>2.02</v>
       </c>
       <c r="T72" s="5" t="n"/>
     </row>
@@ -4383,7 +4385,7 @@
         </is>
       </c>
       <c r="P77" s="20" t="n">
-        <v>13099</v>
+        <v>13088</v>
       </c>
       <c r="T77" s="5" t="n"/>
     </row>
@@ -5443,7 +5445,7 @@
         </is>
       </c>
       <c r="P100" s="20" t="n">
-        <v>24760</v>
+        <v>24749</v>
       </c>
       <c r="T100" s="5" t="n"/>
     </row>
@@ -16639,11 +16641,11 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>(25/10)</t>
+          <t>(25/9)</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>17023</v>
+        <v>16960</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -16695,11 +16697,11 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>(25/13)</t>
+          <t>(25/12)</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>16198</v>
+        <v>16398</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -16774,7 +16776,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IK Hind</t>
+          <t>IF Sturla</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -16783,16 +16785,16 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>15465</v>
+        <v>15468</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>(10)</t>
+          <t>(9)</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Buskerud</t>
         </is>
       </c>
     </row>
@@ -16802,7 +16804,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>IF Sturla</t>
+          <t>IK Hind</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -16811,16 +16813,16 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>15410</v>
+        <v>15465</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>(9)</t>
+          <t>(10)</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Troms</t>
         </is>
       </c>
     </row>
@@ -19526,7 +19528,7 @@
       </c>
       <c r="M62" s="7" t="inlineStr">
         <is>
-          <t>Marcus Valentin Giørtz</t>
+          <t>Marcus Valentin Giörtz Mondoka</t>
         </is>
       </c>
       <c r="N62" s="7" t="n">
@@ -19646,25 +19648,25 @@
       </c>
       <c r="M64" s="7" t="inlineStr">
         <is>
-          <t>Marcus Valentin Giörtz Mondoka</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="N64" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O64" s="15" t="n">
-        <v>6.02</v>
+        <v>6.28</v>
       </c>
       <c r="P64" s="7" t="n">
-        <v>611</v>
+        <v>669</v>
       </c>
       <c r="Q64" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R64" s="16" t="n">
-        <v>16.06</v>
+        <v>20.05</v>
       </c>
       <c r="T64" s="5" t="n"/>
     </row>
@@ -19878,25 +19880,25 @@
       </c>
       <c r="M68" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Tobias Kalmo Thorbjørnsen</t>
         </is>
       </c>
       <c r="N68" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O68" s="15" t="n">
-        <v>49.53</v>
+        <v>42.49</v>
       </c>
       <c r="P68" s="7" t="n">
-        <v>620</v>
+        <v>522</v>
       </c>
       <c r="Q68" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="R68" s="16" t="n">
-        <v>13.05</v>
+        <v>6.05</v>
       </c>
       <c r="T68" s="5" t="n"/>
     </row>
@@ -19950,7 +19952,7 @@
         </is>
       </c>
       <c r="P70" s="20" t="n">
-        <v>8568</v>
+        <v>8528</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
@@ -20609,7 +20611,7 @@
       <c r="J84" s="5" t="n"/>
       <c r="L84" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M84" s="7" t="inlineStr">
@@ -20621,18 +20623,18 @@
         <v>2007</v>
       </c>
       <c r="O84" s="15" t="n">
-        <v>1.78</v>
+        <v>6.02</v>
       </c>
       <c r="P84" s="7" t="n">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="Q84" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R84" s="16" t="n">
-        <v>5.03</v>
+        <v>16.06</v>
       </c>
       <c r="T84" s="5" t="n"/>
     </row>
@@ -20802,7 +20804,7 @@
         </is>
       </c>
       <c r="P88" s="20" t="n">
-        <v>8455</v>
+        <v>8432</v>
       </c>
       <c r="T88" s="5" t="n"/>
     </row>
@@ -20842,7 +20844,7 @@
         </is>
       </c>
       <c r="P90" s="20" t="n">
-        <v>17023</v>
+        <v>16960</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
@@ -20866,7 +20868,7 @@
         </is>
       </c>
       <c r="M92" s="20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T92" s="5" t="n"/>
     </row>
@@ -21829,18 +21831,18 @@
         <v>2003</v>
       </c>
       <c r="O115" s="15" t="n">
-        <v>9.69</v>
+        <v>9.85</v>
       </c>
       <c r="P115" s="7" t="n">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="Q115" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R115" s="16" t="n">
-        <v>4.02</v>
+        <v>19.07</v>
       </c>
       <c r="T115" s="5" t="n"/>
     </row>
@@ -21894,7 +21896,7 @@
         </is>
       </c>
       <c r="P117" s="20" t="n">
-        <v>8989</v>
+        <v>9001</v>
       </c>
       <c r="T117" s="5" t="n"/>
     </row>
@@ -22373,7 +22375,7 @@
       <c r="J128" s="5" t="n"/>
       <c r="L128" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M128" s="7" t="inlineStr">
@@ -22385,10 +22387,10 @@
         <v>2003</v>
       </c>
       <c r="O128" s="15" t="n">
-        <v>11.43</v>
+        <v>23.1</v>
       </c>
       <c r="P128" s="7" t="n">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="Q128" s="7" t="inlineStr">
         <is>
@@ -22396,7 +22398,7 @@
         </is>
       </c>
       <c r="R128" s="16" t="n">
-        <v>14.05</v>
+        <v>19.07</v>
       </c>
       <c r="T128" s="5" t="n"/>
     </row>
@@ -22489,22 +22491,22 @@
       <c r="J130" s="5" t="n"/>
       <c r="L130" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M130" s="7" t="inlineStr">
         <is>
-          <t>Benjamin Fosseli Bye</t>
+          <t>Marc  Christian Legayada Berntsen</t>
         </is>
       </c>
       <c r="N130" s="7" t="n">
-        <v>2009</v>
+        <v>1999</v>
       </c>
       <c r="O130" s="15" t="n">
-        <v>4.71</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="P130" s="7" t="n">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="Q130" s="7" t="inlineStr">
         <is>
@@ -22512,7 +22514,7 @@
         </is>
       </c>
       <c r="R130" s="16" t="n">
-        <v>18.03</v>
+        <v>19.07</v>
       </c>
       <c r="T130" s="5" t="n"/>
     </row>
@@ -22547,7 +22549,7 @@
       <c r="J131" s="5" t="n"/>
       <c r="L131" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M131" s="7" t="inlineStr">
@@ -22559,10 +22561,10 @@
         <v>2009</v>
       </c>
       <c r="O131" s="15" t="n">
-        <v>1.4</v>
+        <v>4.71</v>
       </c>
       <c r="P131" s="7" t="n">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="Q131" s="7" t="inlineStr">
         <is>
@@ -22610,17 +22612,17 @@
       </c>
       <c r="M132" s="7" t="inlineStr">
         <is>
-          <t>Brage Henriksen</t>
+          <t>Benjamin Fosseli Bye</t>
         </is>
       </c>
       <c r="N132" s="7" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="O132" s="15" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="P132" s="7" t="n">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="Q132" s="7" t="inlineStr">
         <is>
@@ -22628,7 +22630,7 @@
         </is>
       </c>
       <c r="R132" s="16" t="n">
-        <v>14.05</v>
+        <v>18.03</v>
       </c>
       <c r="T132" s="5" t="n"/>
     </row>
@@ -22668,17 +22670,17 @@
       </c>
       <c r="M133" s="7" t="inlineStr">
         <is>
-          <t>Jonas Røed Haaland</t>
+          <t>Brage Henriksen</t>
         </is>
       </c>
       <c r="N133" s="7" t="n">
         <v>2011</v>
       </c>
       <c r="O133" s="15" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="P133" s="7" t="n">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="Q133" s="7" t="inlineStr">
         <is>
@@ -22686,7 +22688,7 @@
         </is>
       </c>
       <c r="R133" s="16" t="n">
-        <v>22.01</v>
+        <v>14.05</v>
       </c>
       <c r="T133" s="5" t="n"/>
     </row>
@@ -22740,7 +22742,7 @@
         </is>
       </c>
       <c r="P135" s="20" t="n">
-        <v>7209</v>
+        <v>7397</v>
       </c>
       <c r="T135" s="5" t="n"/>
     </row>
@@ -22780,7 +22782,7 @@
         </is>
       </c>
       <c r="P137" s="20" t="n">
-        <v>16198</v>
+        <v>16398</v>
       </c>
       <c r="T137" s="5" t="n"/>
     </row>
@@ -22804,7 +22806,7 @@
         </is>
       </c>
       <c r="M139" s="20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T139" s="5" t="n"/>
     </row>
@@ -24648,7 +24650,7 @@
       </c>
       <c r="C190" s="7" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Buskerud</t>
         </is>
       </c>
       <c r="F190" s="8" t="n">
@@ -24662,7 +24664,7 @@
       </c>
       <c r="M190" s="7" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Troms</t>
         </is>
       </c>
       <c r="P190" s="8" t="n">
@@ -24678,7 +24680,7 @@
       </c>
       <c r="C191" s="7" t="inlineStr">
         <is>
-          <t>IK Hind</t>
+          <t>IF Sturla</t>
         </is>
       </c>
       <c r="J191" s="5" t="n"/>
@@ -24689,7 +24691,7 @@
       </c>
       <c r="M191" s="7" t="inlineStr">
         <is>
-          <t>IF Sturla</t>
+          <t>IK Hind</t>
         </is>
       </c>
       <c r="T191" s="5" t="n"/>
@@ -24818,25 +24820,25 @@
       </c>
       <c r="C197" s="7" t="inlineStr">
         <is>
-          <t>Birk Arvola</t>
+          <t>Mikael Girma Worku</t>
         </is>
       </c>
       <c r="D197" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E197" s="15" t="n">
-        <v>7.65</v>
+        <v>7.99</v>
       </c>
       <c r="F197" s="7" t="n">
-        <v>607</v>
+        <v>498</v>
       </c>
       <c r="G197" s="7" t="inlineStr">
         <is>
-          <t>Sortland</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="H197" s="16" t="n">
-        <v>18.02</v>
+        <v>11.03</v>
       </c>
       <c r="J197" s="5" t="n"/>
       <c r="L197" s="14" t="inlineStr">
@@ -24846,25 +24848,25 @@
       </c>
       <c r="M197" s="7" t="inlineStr">
         <is>
-          <t>Mikael Girma Worku</t>
+          <t>Birk Arvola</t>
         </is>
       </c>
       <c r="N197" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="O197" s="15" t="n">
-        <v>7.99</v>
+        <v>7.65</v>
       </c>
       <c r="P197" s="7" t="n">
-        <v>498</v>
+        <v>607</v>
       </c>
       <c r="Q197" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Sortland</t>
         </is>
       </c>
       <c r="R197" s="16" t="n">
-        <v>11.03</v>
+        <v>18.02</v>
       </c>
       <c r="T197" s="5" t="n"/>
     </row>
@@ -24876,25 +24878,25 @@
       </c>
       <c r="C198" s="7" t="inlineStr">
         <is>
-          <t>Birk Arvola</t>
+          <t>Nicolai Christianssønn Risø</t>
         </is>
       </c>
       <c r="D198" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E198" s="15" t="n">
-        <v>11.76</v>
+        <v>11.66</v>
       </c>
       <c r="F198" s="7" t="n">
-        <v>662</v>
+        <v>684</v>
       </c>
       <c r="G198" s="7" t="inlineStr">
         <is>
-          <t>Narvik</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H198" s="16" t="n">
-        <v>10.06</v>
+        <v>3.06</v>
       </c>
       <c r="J198" s="5" t="n"/>
       <c r="L198" s="14" t="inlineStr">
@@ -24904,25 +24906,25 @@
       </c>
       <c r="M198" s="7" t="inlineStr">
         <is>
-          <t>Nicolai Christianssønn Risø</t>
+          <t>Birk Arvola</t>
         </is>
       </c>
       <c r="N198" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="O198" s="15" t="n">
-        <v>11.66</v>
+        <v>11.76</v>
       </c>
       <c r="P198" s="7" t="n">
-        <v>684</v>
+        <v>662</v>
       </c>
       <c r="Q198" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Narvik</t>
         </is>
       </c>
       <c r="R198" s="16" t="n">
-        <v>3.06</v>
+        <v>10.06</v>
       </c>
       <c r="T198" s="5" t="n"/>
     </row>
@@ -24934,25 +24936,25 @@
       </c>
       <c r="C199" s="7" t="inlineStr">
         <is>
-          <t>Tobias Johansen</t>
+          <t>Nicolai Christianssønn Risø</t>
         </is>
       </c>
       <c r="D199" s="7" t="n">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="E199" s="15" t="n">
-        <v>22.65</v>
+        <v>23.64</v>
       </c>
       <c r="F199" s="7" t="n">
-        <v>787</v>
+        <v>683</v>
       </c>
       <c r="G199" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H199" s="16" t="n">
-        <v>12.02</v>
+        <v>23.06</v>
       </c>
       <c r="J199" s="5" t="n"/>
       <c r="L199" s="14" t="inlineStr">
@@ -24962,25 +24964,25 @@
       </c>
       <c r="M199" s="7" t="inlineStr">
         <is>
-          <t>Nicolai Christianssønn Risø</t>
+          <t>Tobias Johansen</t>
         </is>
       </c>
       <c r="N199" s="7" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="O199" s="15" t="n">
-        <v>23.64</v>
+        <v>22.65</v>
       </c>
       <c r="P199" s="7" t="n">
-        <v>683</v>
+        <v>787</v>
       </c>
       <c r="Q199" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R199" s="16" t="n">
-        <v>23.06</v>
+        <v>12.02</v>
       </c>
       <c r="T199" s="5" t="n"/>
     </row>
@@ -24992,25 +24994,25 @@
       </c>
       <c r="C200" s="7" t="inlineStr">
         <is>
-          <t>Tobias Johansen</t>
+          <t>Nicolai Christianssønn Risø</t>
         </is>
       </c>
       <c r="D200" s="7" t="n">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="E200" s="15" t="n">
-        <v>48.99</v>
+        <v>53.46</v>
       </c>
       <c r="F200" s="7" t="n">
-        <v>837</v>
+        <v>625</v>
       </c>
       <c r="G200" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H200" s="16" t="n">
-        <v>12.08</v>
+        <v>24.06</v>
       </c>
       <c r="J200" s="5" t="n"/>
       <c r="L200" s="14" t="inlineStr">
@@ -25020,25 +25022,25 @@
       </c>
       <c r="M200" s="7" t="inlineStr">
         <is>
-          <t>Nicolai Christianssønn Risø</t>
+          <t>Tobias Johansen</t>
         </is>
       </c>
       <c r="N200" s="7" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="O200" s="15" t="n">
-        <v>53.46</v>
+        <v>48.99</v>
       </c>
       <c r="P200" s="7" t="n">
-        <v>625</v>
+        <v>837</v>
       </c>
       <c r="Q200" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R200" s="16" t="n">
-        <v>24.06</v>
+        <v>12.08</v>
       </c>
       <c r="T200" s="5" t="n"/>
     </row>
@@ -25050,27 +25052,27 @@
       </c>
       <c r="C201" s="7" t="inlineStr">
         <is>
-          <t>Tobias Johansen</t>
+          <t>Haakon Heltzer Sørstad</t>
         </is>
       </c>
       <c r="D201" s="7" t="n">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="E201" s="17" t="inlineStr">
         <is>
-          <t>2,04,49</t>
+          <t>2,02,85</t>
         </is>
       </c>
       <c r="F201" s="7" t="n">
-        <v>606</v>
+        <v>634</v>
       </c>
       <c r="G201" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H201" s="16" t="n">
-        <v>19.02</v>
+        <v>25.06</v>
       </c>
       <c r="J201" s="5" t="n"/>
       <c r="L201" s="14" t="inlineStr">
@@ -25080,51 +25082,51 @@
       </c>
       <c r="M201" s="7" t="inlineStr">
         <is>
-          <t>Haakon Heltzer Sørstad</t>
+          <t>Tobias Johansen</t>
         </is>
       </c>
       <c r="N201" s="7" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="O201" s="17" t="inlineStr">
         <is>
-          <t>2,02,85</t>
+          <t>2,04,49</t>
         </is>
       </c>
       <c r="P201" s="7" t="n">
-        <v>634</v>
+        <v>606</v>
       </c>
       <c r="Q201" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R201" s="16" t="n">
-        <v>25.06</v>
+        <v>19.02</v>
       </c>
       <c r="T201" s="5" t="n"/>
     </row>
     <row r="202" ht="13" customHeight="1">
       <c r="B202" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C202" s="7" t="inlineStr">
         <is>
-          <t>Kim-Roger Trøite</t>
+          <t>Haakon Heltzer Sørstad</t>
         </is>
       </c>
       <c r="D202" s="7" t="n">
-        <v>1996</v>
+        <v>2008</v>
       </c>
       <c r="E202" s="17" t="inlineStr">
         <is>
-          <t>8,57,04</t>
+          <t>4,17,16</t>
         </is>
       </c>
       <c r="F202" s="7" t="n">
-        <v>699</v>
+        <v>615</v>
       </c>
       <c r="G202" s="7" t="inlineStr">
         <is>
@@ -25132,29 +25134,29 @@
         </is>
       </c>
       <c r="H202" s="16" t="n">
-        <v>11.08</v>
+        <v>8.06</v>
       </c>
       <c r="J202" s="5" t="n"/>
       <c r="L202" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M202" s="7" t="inlineStr">
         <is>
-          <t>Haakon Heltzer Sørstad</t>
+          <t>Kim-Roger Trøite</t>
         </is>
       </c>
       <c r="N202" s="7" t="n">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="O202" s="17" t="inlineStr">
         <is>
-          <t>4,17,16</t>
+          <t>8,57,04</t>
         </is>
       </c>
       <c r="P202" s="7" t="n">
-        <v>615</v>
+        <v>699</v>
       </c>
       <c r="Q202" s="7" t="inlineStr">
         <is>
@@ -25162,131 +25164,131 @@
         </is>
       </c>
       <c r="R202" s="16" t="n">
-        <v>8.06</v>
+        <v>11.08</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
     <row r="203" ht="13" customHeight="1">
       <c r="B203" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C203" s="7" t="inlineStr">
         <is>
-          <t>Kim-Roger Trøite</t>
+          <t>Haakon Heltzer Sørstad</t>
         </is>
       </c>
       <c r="D203" s="7" t="n">
-        <v>1996</v>
+        <v>2008</v>
       </c>
       <c r="E203" s="17" t="inlineStr">
         <is>
-          <t>15,44,30</t>
+          <t>9,12,80</t>
         </is>
       </c>
       <c r="F203" s="7" t="n">
-        <v>677</v>
+        <v>641</v>
       </c>
       <c r="G203" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H203" s="16" t="n">
-        <v>12.08</v>
+        <v>24.06</v>
       </c>
       <c r="J203" s="5" t="n"/>
       <c r="L203" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M203" s="7" t="inlineStr">
         <is>
-          <t>Haakon Heltzer Sørstad</t>
+          <t>Kim-Roger Trøite</t>
         </is>
       </c>
       <c r="N203" s="7" t="n">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="O203" s="17" t="inlineStr">
         <is>
-          <t>9,12,80</t>
+          <t>15,44,30</t>
         </is>
       </c>
       <c r="P203" s="7" t="n">
-        <v>641</v>
+        <v>677</v>
       </c>
       <c r="Q203" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R203" s="16" t="n">
-        <v>24.06</v>
+        <v>12.08</v>
       </c>
       <c r="T203" s="5" t="n"/>
     </row>
     <row r="204" ht="13" customHeight="1">
       <c r="B204" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C204" s="7" t="inlineStr">
         <is>
-          <t>Torstein Svendsen</t>
+          <t>Haakon Heltzer Sørstad</t>
         </is>
       </c>
       <c r="D204" s="7" t="n">
-        <v>1966</v>
+        <v>2008</v>
       </c>
       <c r="E204" s="17" t="inlineStr">
         <is>
-          <t>36,43,03</t>
+          <t>15,59,62</t>
         </is>
       </c>
       <c r="F204" s="7" t="n">
-        <v>496</v>
+        <v>646</v>
       </c>
       <c r="G204" s="7" t="inlineStr">
         <is>
-          <t>Geithus</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H204" s="16" t="n">
-        <v>25.06</v>
+        <v>16.07</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M204" s="7" t="inlineStr">
         <is>
-          <t>Haakon Heltzer Sørstad</t>
+          <t>Torstein Svendsen</t>
         </is>
       </c>
       <c r="N204" s="7" t="n">
-        <v>2008</v>
+        <v>1966</v>
       </c>
       <c r="O204" s="17" t="inlineStr">
         <is>
-          <t>15,59,62</t>
+          <t>36,43,03</t>
         </is>
       </c>
       <c r="P204" s="7" t="n">
-        <v>646</v>
+        <v>496</v>
       </c>
       <c r="Q204" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Geithus</t>
         </is>
       </c>
       <c r="R204" s="16" t="n">
-        <v>16.07</v>
+        <v>25.06</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -25298,25 +25300,25 @@
       </c>
       <c r="C205" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Gudheim Haraldstad</t>
+          <t>Vemund Heltzer Sørstad</t>
         </is>
       </c>
       <c r="D205" s="7" t="n">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="E205" s="15" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="F205" s="7" t="n">
-        <v>607</v>
+        <v>661</v>
       </c>
       <c r="G205" s="7" t="inlineStr">
         <is>
-          <t>Arvika/SWE</t>
+          <t>Lillestrøm</t>
         </is>
       </c>
       <c r="H205" s="16" t="n">
-        <v>23.07</v>
+        <v>13.05</v>
       </c>
       <c r="J205" s="5" t="n"/>
       <c r="L205" s="14" t="inlineStr">
@@ -25326,257 +25328,257 @@
       </c>
       <c r="M205" s="7" t="inlineStr">
         <is>
-          <t>Vemund Heltzer Sørstad</t>
+          <t>Fredrik Gudheim Haraldstad</t>
         </is>
       </c>
       <c r="N205" s="7" t="n">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="O205" s="15" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="P205" s="7" t="n">
-        <v>661</v>
+        <v>607</v>
       </c>
       <c r="Q205" s="7" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>Arvika/SWE</t>
         </is>
       </c>
       <c r="R205" s="16" t="n">
-        <v>13.05</v>
+        <v>23.07</v>
       </c>
       <c r="T205" s="5" t="n"/>
     </row>
     <row r="206" ht="13" customHeight="1">
       <c r="B206" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C206" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Gudheim Haraldstad</t>
+          <t>Sander Oppen</t>
         </is>
       </c>
       <c r="D206" s="7" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E206" s="15" t="n">
-        <v>12.14</v>
+        <v>4.8</v>
       </c>
       <c r="F206" s="7" t="n">
-        <v>575</v>
+        <v>870</v>
       </c>
       <c r="G206" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H206" s="16" t="n">
-        <v>13.08</v>
+        <v>23.07</v>
       </c>
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M206" s="7" t="inlineStr">
         <is>
-          <t>Sander Oppen</t>
+          <t>Fredrik Gudheim Haraldstad</t>
         </is>
       </c>
       <c r="N206" s="7" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="O206" s="15" t="n">
-        <v>4.8</v>
+        <v>12.14</v>
       </c>
       <c r="P206" s="7" t="n">
-        <v>870</v>
+        <v>575</v>
       </c>
       <c r="Q206" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R206" s="16" t="n">
-        <v>23.07</v>
+        <v>13.08</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
     <row r="207" ht="13" customHeight="1">
       <c r="B207" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C207" s="7" t="inlineStr">
         <is>
-          <t>Oskar Stattin</t>
+          <t>Nicolai Christianssønn Risø</t>
         </is>
       </c>
       <c r="D207" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="E207" s="15" t="n">
-        <v>2.76</v>
+        <v>1.45</v>
       </c>
       <c r="F207" s="7" t="n">
-        <v>538</v>
+        <v>616</v>
       </c>
       <c r="G207" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="H207" s="16" t="n">
-        <v>19.04</v>
+        <v>13.04</v>
       </c>
       <c r="J207" s="5" t="n"/>
       <c r="L207" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M207" s="7" t="inlineStr">
         <is>
-          <t>Nicolai Christianssønn Risø</t>
+          <t>Oskar Stattin</t>
         </is>
       </c>
       <c r="N207" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="O207" s="15" t="n">
-        <v>1.45</v>
+        <v>2.76</v>
       </c>
       <c r="P207" s="7" t="n">
-        <v>616</v>
+        <v>538</v>
       </c>
       <c r="Q207" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R207" s="16" t="n">
-        <v>13.04</v>
+        <v>19.04</v>
       </c>
       <c r="T207" s="5" t="n"/>
     </row>
     <row r="208" ht="13" customHeight="1">
       <c r="B208" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C208" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Gudheim Haraldstad</t>
+          <t>Frode Holt</t>
         </is>
       </c>
       <c r="D208" s="7" t="n">
-        <v>2000</v>
+        <v>1964</v>
       </c>
       <c r="E208" s="15" t="n">
-        <v>36.29</v>
+        <v>2.7</v>
       </c>
       <c r="F208" s="7" t="n">
-        <v>614</v>
+        <v>503</v>
       </c>
       <c r="G208" s="7" t="inlineStr">
         <is>
-          <t>Arvika/SWE</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="H208" s="16" t="n">
-        <v>22.07</v>
+        <v>13.04</v>
       </c>
       <c r="J208" s="5" t="n"/>
       <c r="L208" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M208" s="7" t="inlineStr">
         <is>
-          <t>Frode Holt</t>
+          <t>Fredrik Gudheim Haraldstad</t>
         </is>
       </c>
       <c r="N208" s="7" t="n">
-        <v>1964</v>
+        <v>2000</v>
       </c>
       <c r="O208" s="15" t="n">
-        <v>2.7</v>
+        <v>36.29</v>
       </c>
       <c r="P208" s="7" t="n">
-        <v>503</v>
+        <v>614</v>
       </c>
       <c r="Q208" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Arvika/SWE</t>
         </is>
       </c>
       <c r="R208" s="16" t="n">
-        <v>13.04</v>
+        <v>22.07</v>
       </c>
       <c r="T208" s="5" t="n"/>
     </row>
     <row r="209" ht="13" customHeight="1">
       <c r="B209" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C209" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Gudheim Haraldstad</t>
+          <t>Ola Stunes Isene</t>
         </is>
       </c>
       <c r="D209" s="7" t="n">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="E209" s="15" t="n">
-        <v>52.72</v>
+        <v>60.21</v>
       </c>
       <c r="F209" s="7" t="n">
-        <v>663</v>
+        <v>1013</v>
       </c>
       <c r="G209" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Røyken</t>
         </is>
       </c>
       <c r="H209" s="16" t="n">
-        <v>3.05</v>
+        <v>22.05</v>
       </c>
       <c r="J209" s="5" t="n"/>
       <c r="L209" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M209" s="7" t="inlineStr">
         <is>
-          <t>Ola Stunes Isene</t>
+          <t>Fredrik Gudheim Haraldstad</t>
         </is>
       </c>
       <c r="N209" s="7" t="n">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="O209" s="15" t="n">
-        <v>60.21</v>
+        <v>52.72</v>
       </c>
       <c r="P209" s="7" t="n">
-        <v>1013</v>
+        <v>663</v>
       </c>
       <c r="Q209" s="7" t="inlineStr">
         <is>
-          <t>Røyken</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R209" s="16" t="n">
-        <v>22.05</v>
+        <v>3.05</v>
       </c>
       <c r="T209" s="5" t="n"/>
     </row>
@@ -25613,7 +25615,7 @@
         </is>
       </c>
       <c r="F211" s="20" t="n">
-        <v>8368</v>
+        <v>8689</v>
       </c>
       <c r="J211" s="5" t="n"/>
       <c r="L211" s="19" t="inlineStr">
@@ -25630,7 +25632,7 @@
         </is>
       </c>
       <c r="P211" s="20" t="n">
-        <v>8689</v>
+        <v>8368</v>
       </c>
       <c r="T211" s="5" t="n"/>
     </row>
@@ -25733,234 +25735,234 @@
     <row r="216" ht="13" customHeight="1">
       <c r="B216" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C216" s="7" t="inlineStr">
         <is>
-          <t>Birk Arvola</t>
+          <t>Herman Jørgensen Huus</t>
         </is>
       </c>
       <c r="D216" s="7" t="n">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="E216" s="15" t="n">
-        <v>23.88</v>
+        <v>11.81</v>
       </c>
       <c r="F216" s="7" t="n">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="G216" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H216" s="16" t="n">
-        <v>18.06</v>
+        <v>14.05</v>
       </c>
       <c r="J216" s="5" t="n"/>
       <c r="L216" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M216" s="7" t="inlineStr">
         <is>
-          <t>Herman Jørgensen Huus</t>
+          <t>Birk Arvola</t>
         </is>
       </c>
       <c r="N216" s="7" t="n">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="O216" s="15" t="n">
-        <v>11.81</v>
+        <v>23.88</v>
       </c>
       <c r="P216" s="7" t="n">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="Q216" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R216" s="16" t="n">
-        <v>14.05</v>
+        <v>18.06</v>
       </c>
       <c r="T216" s="5" t="n"/>
     </row>
     <row r="217" ht="13" customHeight="1">
       <c r="B217" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C217" s="7" t="inlineStr">
         <is>
-          <t>Oskar Stattin</t>
+          <t>Jonathan Alsaker-Arentz</t>
         </is>
       </c>
       <c r="D217" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E217" s="15" t="n">
-        <v>23.89</v>
+        <v>2004</v>
+      </c>
+      <c r="E217" s="17" t="inlineStr">
+        <is>
+          <t>2,02,98</t>
+        </is>
       </c>
       <c r="F217" s="7" t="n">
-        <v>658</v>
+        <v>632</v>
       </c>
       <c r="G217" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Notodden</t>
         </is>
       </c>
       <c r="H217" s="16" t="n">
-        <v>12.02</v>
+        <v>16.08</v>
       </c>
       <c r="J217" s="5" t="n"/>
       <c r="L217" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M217" s="7" t="inlineStr">
         <is>
-          <t>Haakon Heltzer Sørstad</t>
+          <t>Oskar Stattin</t>
         </is>
       </c>
       <c r="N217" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="O217" s="15" t="n">
-        <v>1.76</v>
+        <v>23.89</v>
       </c>
       <c r="P217" s="7" t="n">
-        <v>616</v>
+        <v>658</v>
       </c>
       <c r="Q217" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R217" s="16" t="n">
-        <v>18.03</v>
+        <v>12.02</v>
       </c>
       <c r="T217" s="5" t="n"/>
     </row>
     <row r="218" ht="13" customHeight="1">
       <c r="B218" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C218" s="7" t="inlineStr">
         <is>
-          <t>Oskar Stattin</t>
+          <t>Haakon Heltzer Sørstad</t>
         </is>
       </c>
       <c r="D218" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="E218" s="15" t="n">
-        <v>52.77</v>
+        <v>1.76</v>
       </c>
       <c r="F218" s="7" t="n">
-        <v>654</v>
+        <v>616</v>
       </c>
       <c r="G218" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H218" s="16" t="n">
-        <v>3.03</v>
+        <v>18.03</v>
       </c>
       <c r="J218" s="5" t="n"/>
       <c r="L218" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M218" s="7" t="inlineStr">
         <is>
-          <t>Vemund Heltzer Sørstad</t>
+          <t>Oskar Stattin</t>
         </is>
       </c>
       <c r="N218" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="O218" s="15" t="n">
-        <v>12.07</v>
+        <v>52.77</v>
       </c>
       <c r="P218" s="7" t="n">
-        <v>596</v>
+        <v>654</v>
       </c>
       <c r="Q218" s="7" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R218" s="16" t="n">
-        <v>13.05</v>
+        <v>3.03</v>
       </c>
       <c r="T218" s="5" t="n"/>
     </row>
     <row r="219" ht="13" customHeight="1">
       <c r="B219" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C219" s="7" t="inlineStr">
         <is>
-          <t>Mathias Johansen</t>
+          <t>Vemund Heltzer Sørstad</t>
         </is>
       </c>
       <c r="D219" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E219" s="15" t="n">
-        <v>52.77</v>
+        <v>12.07</v>
       </c>
       <c r="F219" s="7" t="n">
-        <v>654</v>
+        <v>596</v>
       </c>
       <c r="G219" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Lillestrøm</t>
         </is>
       </c>
       <c r="H219" s="16" t="n">
-        <v>24.06</v>
+        <v>13.05</v>
       </c>
       <c r="J219" s="5" t="n"/>
       <c r="L219" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M219" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Alsaker-Arentz</t>
+          <t>Mathias Johansen</t>
         </is>
       </c>
       <c r="N219" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="O219" s="17" t="inlineStr">
-        <is>
-          <t>9,28,97</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="O219" s="15" t="n">
+        <v>52.77</v>
       </c>
       <c r="P219" s="7" t="n">
-        <v>585</v>
+        <v>654</v>
       </c>
       <c r="Q219" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R219" s="16" t="n">
-        <v>3.06</v>
+        <v>24.06</v>
       </c>
       <c r="T219" s="5" t="n"/>
     </row>
@@ -25972,467 +25974,467 @@
       </c>
       <c r="C220" s="7" t="inlineStr">
         <is>
-          <t>Per-Christian Myrnes Pedersen</t>
+          <t>Jonathan Alsaker-Arentz</t>
         </is>
       </c>
       <c r="D220" s="7" t="n">
-        <v>1986</v>
+        <v>2004</v>
       </c>
       <c r="E220" s="17" t="inlineStr">
         <is>
-          <t>9,10,36</t>
+          <t>9,28,97</t>
         </is>
       </c>
       <c r="F220" s="7" t="n">
-        <v>649</v>
+        <v>585</v>
       </c>
       <c r="G220" s="7" t="inlineStr">
         <is>
-          <t>Narvik</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H220" s="16" t="n">
-        <v>10.06</v>
+        <v>3.06</v>
       </c>
       <c r="J220" s="5" t="n"/>
       <c r="L220" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M220" s="7" t="inlineStr">
         <is>
-          <t>Jonas Hole Sletten</t>
+          <t>Per-Christian Myrnes Pedersen</t>
         </is>
       </c>
       <c r="N220" s="7" t="n">
-        <v>2007</v>
+        <v>1986</v>
       </c>
       <c r="O220" s="17" t="inlineStr">
         <is>
-          <t>2,06,31</t>
+          <t>9,10,36</t>
         </is>
       </c>
       <c r="P220" s="7" t="n">
-        <v>578</v>
+        <v>649</v>
       </c>
       <c r="Q220" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Narvik</t>
         </is>
       </c>
       <c r="R220" s="16" t="n">
-        <v>11.08</v>
+        <v>10.06</v>
       </c>
       <c r="T220" s="5" t="n"/>
     </row>
     <row r="221" ht="13" customHeight="1">
       <c r="B221" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C221" s="7" t="inlineStr">
         <is>
-          <t>Birk Arvola</t>
+          <t>Jonas Hole Sletten</t>
         </is>
       </c>
       <c r="D221" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E221" s="15" t="n">
-        <v>53.48</v>
+        <v>2007</v>
+      </c>
+      <c r="E221" s="17" t="inlineStr">
+        <is>
+          <t>2,06,31</t>
+        </is>
       </c>
       <c r="F221" s="7" t="n">
-        <v>625</v>
+        <v>578</v>
       </c>
       <c r="G221" s="7" t="inlineStr">
         <is>
-          <t>Narvik</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H221" s="16" t="n">
-        <v>10.06</v>
+        <v>11.08</v>
       </c>
       <c r="J221" s="5" t="n"/>
       <c r="L221" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M221" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Alsaker-Arentz</t>
+          <t>Birk Arvola</t>
         </is>
       </c>
       <c r="N221" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="O221" s="17" t="inlineStr">
-        <is>
-          <t>2,06,56</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="O221" s="15" t="n">
+        <v>53.48</v>
       </c>
       <c r="P221" s="7" t="n">
-        <v>574</v>
+        <v>625</v>
       </c>
       <c r="Q221" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Narvik</t>
         </is>
       </c>
       <c r="R221" s="16" t="n">
-        <v>4.06</v>
+        <v>10.06</v>
       </c>
       <c r="T221" s="5" t="n"/>
     </row>
     <row r="222" ht="13" customHeight="1">
       <c r="B222" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C222" s="7" t="inlineStr">
         <is>
-          <t>Mathias Johansen</t>
+          <t>Mikael Girma Worku</t>
         </is>
       </c>
       <c r="D222" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E222" s="15" t="n">
-        <v>24.37</v>
+        <v>12.26</v>
       </c>
       <c r="F222" s="7" t="n">
-        <v>612</v>
+        <v>558</v>
       </c>
       <c r="G222" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H222" s="16" t="n">
-        <v>4.03</v>
+        <v>25.06</v>
       </c>
       <c r="J222" s="5" t="n"/>
       <c r="L222" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M222" s="7" t="inlineStr">
         <is>
-          <t>Mikael Girma Worku</t>
+          <t>Mathias Johansen</t>
         </is>
       </c>
       <c r="N222" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="O222" s="15" t="n">
-        <v>12.26</v>
+        <v>24.37</v>
       </c>
       <c r="P222" s="7" t="n">
-        <v>558</v>
+        <v>612</v>
       </c>
       <c r="Q222" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R222" s="16" t="n">
-        <v>25.06</v>
+        <v>4.03</v>
       </c>
       <c r="T222" s="5" t="n"/>
     </row>
     <row r="223" ht="13" customHeight="1">
       <c r="B223" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C223" s="7" t="inlineStr">
         <is>
-          <t>Erik Fossen Nilsen</t>
+          <t>Benjamin Shabani</t>
         </is>
       </c>
       <c r="D223" s="7" t="n">
-        <v>1987</v>
-      </c>
-      <c r="E223" s="17" t="inlineStr">
-        <is>
-          <t>9,32,17</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="E223" s="15" t="n">
+        <v>25.14</v>
       </c>
       <c r="F223" s="7" t="n">
-        <v>575</v>
+        <v>544</v>
       </c>
       <c r="G223" s="7" t="inlineStr">
         <is>
-          <t>Narvik</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H223" s="16" t="n">
-        <v>10.06</v>
+        <v>16.06</v>
       </c>
       <c r="J223" s="5" t="n"/>
       <c r="L223" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M223" s="7" t="inlineStr">
         <is>
-          <t>Benjamin Shabani</t>
+          <t>Erik Fossen Nilsen</t>
         </is>
       </c>
       <c r="N223" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O223" s="15" t="n">
-        <v>25.14</v>
+        <v>1987</v>
+      </c>
+      <c r="O223" s="17" t="inlineStr">
+        <is>
+          <t>9,32,17</t>
+        </is>
       </c>
       <c r="P223" s="7" t="n">
-        <v>544</v>
+        <v>575</v>
       </c>
       <c r="Q223" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Narvik</t>
         </is>
       </c>
       <c r="R223" s="16" t="n">
-        <v>16.06</v>
+        <v>10.06</v>
       </c>
       <c r="T223" s="5" t="n"/>
     </row>
     <row r="224" ht="13" customHeight="1">
       <c r="B224" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C224" s="7" t="inlineStr">
         <is>
-          <t>Oskar Stattin</t>
+          <t>Nicolai Christianssønn Risø</t>
         </is>
       </c>
       <c r="D224" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="E224" s="15" t="n">
-        <v>11.78</v>
+        <v>1.68</v>
       </c>
       <c r="F224" s="7" t="n">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="G224" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="H224" s="16" t="n">
-        <v>12.02</v>
+        <v>20.05</v>
       </c>
       <c r="J224" s="5" t="n"/>
       <c r="L224" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M224" s="7" t="inlineStr">
         <is>
-          <t>Nicolai Christianssønn Risø</t>
+          <t>Oskar Stattin</t>
         </is>
       </c>
       <c r="N224" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="O224" s="15" t="n">
-        <v>1.68</v>
+        <v>11.78</v>
       </c>
       <c r="P224" s="7" t="n">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="Q224" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R224" s="16" t="n">
-        <v>20.05</v>
+        <v>12.02</v>
       </c>
       <c r="T224" s="5" t="n"/>
     </row>
     <row r="225" ht="13" customHeight="1">
       <c r="B225" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C225" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Gudheim Haraldstad</t>
+          <t>Vemund Heltzer Sørstad</t>
         </is>
       </c>
       <c r="D225" s="7" t="n">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="E225" s="15" t="n">
-        <v>5.67</v>
+        <v>25.33</v>
       </c>
       <c r="F225" s="7" t="n">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G225" s="7" t="inlineStr">
         <is>
-          <t>Arvika/SWE</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H225" s="16" t="n">
-        <v>22.07</v>
+        <v>12.02</v>
       </c>
       <c r="J225" s="5" t="n"/>
       <c r="L225" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M225" s="7" t="inlineStr">
         <is>
-          <t>Vemund Heltzer Sørstad</t>
+          <t>Fredrik Gudheim Haraldstad</t>
         </is>
       </c>
       <c r="N225" s="7" t="n">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="O225" s="15" t="n">
-        <v>25.33</v>
+        <v>5.67</v>
       </c>
       <c r="P225" s="7" t="n">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="Q225" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Arvika/SWE</t>
         </is>
       </c>
       <c r="R225" s="16" t="n">
-        <v>12.02</v>
+        <v>22.07</v>
       </c>
       <c r="T225" s="5" t="n"/>
     </row>
     <row r="226" ht="13" customHeight="1">
       <c r="B226" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C226" s="7" t="inlineStr">
         <is>
-          <t>Simon Kaarbø</t>
+          <t>Vemund Heltzer Sørstad</t>
         </is>
       </c>
       <c r="D226" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E226" s="15" t="n">
-        <v>5.45</v>
+        <v>39.84</v>
       </c>
       <c r="F226" s="7" t="n">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="G226" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="H226" s="16" t="n">
-        <v>24.06</v>
+        <v>6.05</v>
       </c>
       <c r="J226" s="5" t="n"/>
       <c r="L226" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M226" s="7" t="inlineStr">
         <is>
-          <t>Vemund Heltzer Sørstad</t>
+          <t>Simon Kaarbø</t>
         </is>
       </c>
       <c r="N226" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="O226" s="15" t="n">
-        <v>39.84</v>
+        <v>5.45</v>
       </c>
       <c r="P226" s="7" t="n">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="Q226" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="R226" s="16" t="n">
-        <v>6.05</v>
+        <v>24.06</v>
       </c>
       <c r="T226" s="5" t="n"/>
     </row>
     <row r="227" ht="13" customHeight="1">
       <c r="B227" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C227" s="7" t="inlineStr">
         <is>
-          <t>Leif-Andreas Borgersen</t>
+          <t>Frode Holt</t>
         </is>
       </c>
       <c r="D227" s="7" t="n">
-        <v>2008</v>
+        <v>1964</v>
       </c>
       <c r="E227" s="15" t="n">
-        <v>11.18</v>
+        <v>1.32</v>
       </c>
       <c r="F227" s="7" t="n">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G227" s="7" t="inlineStr">
         <is>
-          <t>Narvik</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="H227" s="16" t="n">
-        <v>9.06</v>
+        <v>28.01</v>
       </c>
       <c r="J227" s="5" t="n"/>
       <c r="L227" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M227" s="7" t="inlineStr">
         <is>
-          <t>Frode Holt</t>
+          <t>Leif-Andreas Borgersen</t>
         </is>
       </c>
       <c r="N227" s="7" t="n">
-        <v>1964</v>
+        <v>2008</v>
       </c>
       <c r="O227" s="15" t="n">
-        <v>1.32</v>
+        <v>11.18</v>
       </c>
       <c r="P227" s="7" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q227" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Narvik</t>
         </is>
       </c>
       <c r="R227" s="16" t="n">
-        <v>28.01</v>
+        <v>9.06</v>
       </c>
       <c r="T227" s="5" t="n"/>
     </row>
@@ -26469,7 +26471,7 @@
         </is>
       </c>
       <c r="F229" s="20" t="n">
-        <v>7097</v>
+        <v>6779</v>
       </c>
       <c r="J229" s="5" t="n"/>
       <c r="L229" s="19" t="inlineStr">
@@ -26486,7 +26488,7 @@
         </is>
       </c>
       <c r="P229" s="20" t="n">
-        <v>6721</v>
+        <v>7097</v>
       </c>
       <c r="T229" s="5" t="n"/>
     </row>
@@ -26509,7 +26511,7 @@
         </is>
       </c>
       <c r="F231" s="20" t="n">
-        <v>15465</v>
+        <v>15468</v>
       </c>
       <c r="J231" s="5" t="n"/>
       <c r="L231" s="19" t="inlineStr">
@@ -26526,7 +26528,7 @@
         </is>
       </c>
       <c r="P231" s="20" t="n">
-        <v>15410</v>
+        <v>15465</v>
       </c>
       <c r="T231" s="5" t="n"/>
     </row>
@@ -30334,11 +30336,11 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>(30/12)</t>
+          <t>(30/13)</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>21345</v>
+        <v>21410</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -30474,11 +30476,11 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>(30/11)</t>
+          <t>(30/13)</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>17560</v>
+        <v>17813</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -37950,32 +37952,30 @@
       <c r="J173" s="5" t="n"/>
       <c r="L173" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="M173" s="7" t="inlineStr">
         <is>
-          <t>Hannah Rebekah Murai-Ubby</t>
+          <t>Sophie Sund</t>
         </is>
       </c>
       <c r="N173" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O173" s="17" t="inlineStr">
-        <is>
-          <t>1,01,33</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="O173" s="22" t="n">
+        <v>16</v>
       </c>
       <c r="P173" s="7" t="n">
-        <v>802</v>
+        <v>656</v>
       </c>
       <c r="Q173" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R173" s="16" t="n">
-        <v>16.06</v>
+        <v>14.08</v>
       </c>
       <c r="T173" s="5" t="n"/>
     </row>
@@ -38010,30 +38010,32 @@
       <c r="J174" s="5" t="n"/>
       <c r="L174" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M174" s="7" t="inlineStr">
         <is>
-          <t>Hedvig Johanne Olsson Volden</t>
+          <t>Hannah Rebekah Murai-Ubby</t>
         </is>
       </c>
       <c r="N174" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O174" s="15" t="n">
-        <v>1.5</v>
+        <v>2007</v>
+      </c>
+      <c r="O174" s="17" t="inlineStr">
+        <is>
+          <t>1,01,33</t>
+        </is>
       </c>
       <c r="P174" s="7" t="n">
-        <v>609</v>
+        <v>802</v>
       </c>
       <c r="Q174" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R174" s="16" t="n">
-        <v>21.01</v>
+        <v>16.06</v>
       </c>
       <c r="T174" s="5" t="n"/>
     </row>
@@ -38377,7 +38379,7 @@
         </is>
       </c>
       <c r="P181" s="20" t="n">
-        <v>10981</v>
+        <v>11028</v>
       </c>
       <c r="T181" s="5" t="n"/>
     </row>
@@ -39276,30 +39278,30 @@
       <c r="J199" s="5" t="n"/>
       <c r="L199" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M199" s="7" t="inlineStr">
         <is>
-          <t>Nora Aune</t>
+          <t>Hedvig Johanne Olsson Volden</t>
         </is>
       </c>
       <c r="N199" s="7" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="O199" s="15" t="n">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="P199" s="7" t="n">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="Q199" s="7" t="inlineStr">
         <is>
-          <t>Ranheim</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R199" s="16" t="n">
-        <v>29.01</v>
+        <v>21.01</v>
       </c>
       <c r="T199" s="5" t="n"/>
     </row>
@@ -39334,30 +39336,30 @@
       <c r="J200" s="5" t="n"/>
       <c r="L200" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M200" s="7" t="inlineStr">
         <is>
-          <t>Lotta Elfenbein</t>
+          <t>Nora Aune</t>
         </is>
       </c>
       <c r="N200" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O200" s="15" t="n">
-        <v>10.32</v>
+        <v>2.45</v>
       </c>
       <c r="P200" s="7" t="n">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="Q200" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Ranheim</t>
         </is>
       </c>
       <c r="R200" s="16" t="n">
-        <v>3.03</v>
+        <v>29.01</v>
       </c>
       <c r="T200" s="5" t="n"/>
     </row>
@@ -39411,7 +39413,7 @@
         </is>
       </c>
       <c r="P202" s="20" t="n">
-        <v>10364</v>
+        <v>10382</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
@@ -39451,7 +39453,7 @@
         </is>
       </c>
       <c r="P204" s="20" t="n">
-        <v>21345</v>
+        <v>21410</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -39475,7 +39477,7 @@
         </is>
       </c>
       <c r="M206" s="20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
@@ -41229,7 +41231,7 @@
       </c>
       <c r="O246" s="17" t="inlineStr">
         <is>
-          <t>4,55,23</t>
+          <t>4,55,23mx</t>
         </is>
       </c>
       <c r="P246" s="7" t="n">
@@ -44745,17 +44747,17 @@
       </c>
       <c r="C334" s="7" t="inlineStr">
         <is>
-          <t>Alida Haaland</t>
+          <t>Charlotte Celine Thorjussen</t>
         </is>
       </c>
       <c r="D334" s="7" t="n">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="E334" s="15" t="n">
-        <v>7.19</v>
+        <v>7.96</v>
       </c>
       <c r="F334" s="7" t="n">
-        <v>359</v>
+        <v>426</v>
       </c>
       <c r="G334" s="7" t="inlineStr">
         <is>
@@ -44763,7 +44765,7 @@
         </is>
       </c>
       <c r="H334" s="16" t="n">
-        <v>14.05</v>
+        <v>19.07</v>
       </c>
       <c r="J334" s="5" t="n"/>
       <c r="L334" s="14" t="n"/>
@@ -44846,7 +44848,7 @@
         </is>
       </c>
       <c r="F337" s="20" t="n">
-        <v>9741</v>
+        <v>9808</v>
       </c>
       <c r="J337" s="5" t="n"/>
       <c r="L337" s="19" t="inlineStr">
@@ -45084,32 +45086,32 @@
     <row r="344" ht="13" customHeight="1">
       <c r="B344" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C344" s="7" t="inlineStr">
         <is>
-          <t>Line Myrestøl Johansson</t>
+          <t>Anne Hjorth Arntsen</t>
         </is>
       </c>
       <c r="D344" s="7" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="E344" s="17" t="inlineStr">
         <is>
-          <t>18,40,8mx</t>
+          <t>4,53,87</t>
         </is>
       </c>
       <c r="F344" s="7" t="n">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="G344" s="7" t="inlineStr">
         <is>
-          <t>Fevik</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H344" s="16" t="n">
-        <v>13.08</v>
+        <v>19.07</v>
       </c>
       <c r="J344" s="5" t="n"/>
       <c r="L344" s="14" t="inlineStr">
@@ -45144,30 +45146,32 @@
     <row r="345" ht="13" customHeight="1">
       <c r="B345" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C345" s="7" t="inlineStr">
         <is>
-          <t>Alida Haaland</t>
+          <t>Line Myrestøl Johansson</t>
         </is>
       </c>
       <c r="D345" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E345" s="15" t="n">
-        <v>1.45</v>
+        <v>1998</v>
+      </c>
+      <c r="E345" s="17" t="inlineStr">
+        <is>
+          <t>18,40,8mx</t>
+        </is>
       </c>
       <c r="F345" s="7" t="n">
-        <v>565</v>
+        <v>633</v>
       </c>
       <c r="G345" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fevik</t>
         </is>
       </c>
       <c r="H345" s="16" t="n">
-        <v>16.06</v>
+        <v>13.08</v>
       </c>
       <c r="J345" s="5" t="n"/>
       <c r="L345" s="14" t="inlineStr">
@@ -45202,22 +45206,22 @@
     <row r="346" ht="13" customHeight="1">
       <c r="B346" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C346" s="7" t="inlineStr">
         <is>
-          <t>Beate Raknes</t>
+          <t>Alida Haaland</t>
         </is>
       </c>
       <c r="D346" s="7" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="E346" s="15" t="n">
-        <v>8.66</v>
+        <v>1.45</v>
       </c>
       <c r="F346" s="7" t="n">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="G346" s="7" t="inlineStr">
         <is>
@@ -45225,7 +45229,7 @@
         </is>
       </c>
       <c r="H346" s="16" t="n">
-        <v>17.06</v>
+        <v>16.06</v>
       </c>
       <c r="J346" s="5" t="n"/>
       <c r="L346" s="14" t="inlineStr">
@@ -45260,30 +45264,30 @@
     <row r="347" ht="13" customHeight="1">
       <c r="B347" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C347" s="7" t="inlineStr">
         <is>
-          <t>Alida Haaland</t>
+          <t>Beate Raknes</t>
         </is>
       </c>
       <c r="D347" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="E347" s="15" t="n">
-        <v>2.43</v>
+        <v>8.66</v>
       </c>
       <c r="F347" s="7" t="n">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="G347" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H347" s="16" t="n">
-        <v>25.05</v>
+        <v>17.06</v>
       </c>
       <c r="J347" s="5" t="n"/>
       <c r="L347" s="14" t="inlineStr">
@@ -45318,30 +45322,30 @@
     <row r="348" ht="13" customHeight="1">
       <c r="B348" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C348" s="7" t="inlineStr">
         <is>
-          <t>Beate Raknes</t>
+          <t>Alida Haaland</t>
         </is>
       </c>
       <c r="D348" s="7" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="E348" s="15" t="n">
-        <v>29.11</v>
+        <v>2.43</v>
       </c>
       <c r="F348" s="7" t="n">
-        <v>505</v>
+        <v>542</v>
       </c>
       <c r="G348" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H348" s="16" t="n">
-        <v>16.06</v>
+        <v>25.05</v>
       </c>
       <c r="J348" s="5" t="n"/>
       <c r="L348" s="14" t="inlineStr">
@@ -45376,24 +45380,22 @@
     <row r="349" ht="13" customHeight="1">
       <c r="B349" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C349" s="7" t="inlineStr">
         <is>
-          <t>Emmeli Vatne Danielssen</t>
+          <t>Beate Raknes</t>
         </is>
       </c>
       <c r="D349" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E349" s="17" t="inlineStr">
-        <is>
-          <t>5,24,28</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="E349" s="15" t="n">
+        <v>29.11</v>
       </c>
       <c r="F349" s="7" t="n">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="G349" s="7" t="inlineStr">
         <is>
@@ -45436,30 +45438,32 @@
     <row r="350" ht="13" customHeight="1">
       <c r="B350" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C350" s="7" t="inlineStr">
         <is>
-          <t>Beate Raknes</t>
+          <t>Emmeli Vatne Danielssen</t>
         </is>
       </c>
       <c r="D350" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E350" s="15" t="n">
-        <v>14.12</v>
+        <v>2011</v>
+      </c>
+      <c r="E350" s="17" t="inlineStr">
+        <is>
+          <t>5,24,28</t>
+        </is>
       </c>
       <c r="F350" s="7" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G350" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H350" s="16" t="n">
-        <v>3.06</v>
+        <v>16.06</v>
       </c>
       <c r="J350" s="5" t="n"/>
       <c r="L350" s="14" t="inlineStr">
@@ -45494,7 +45498,7 @@
     <row r="351" ht="13" customHeight="1">
       <c r="B351" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C351" s="7" t="inlineStr">
@@ -45505,21 +45509,19 @@
       <c r="D351" s="7" t="n">
         <v>2009</v>
       </c>
-      <c r="E351" s="17" t="inlineStr">
-        <is>
-          <t>5,29,88</t>
-        </is>
+      <c r="E351" s="15" t="n">
+        <v>14.12</v>
       </c>
       <c r="F351" s="7" t="n">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="G351" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H351" s="16" t="n">
-        <v>18.06</v>
+        <v>3.06</v>
       </c>
       <c r="J351" s="5" t="n"/>
       <c r="L351" s="14" t="inlineStr">
@@ -45559,17 +45561,17 @@
       </c>
       <c r="C352" s="7" t="inlineStr">
         <is>
-          <t>Andrea Malde</t>
+          <t>Alida Haaland</t>
         </is>
       </c>
       <c r="D352" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E352" s="15" t="n">
-        <v>14.3</v>
+        <v>14.27</v>
       </c>
       <c r="F352" s="7" t="n">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G352" s="7" t="inlineStr">
         <is>
@@ -45612,30 +45614,32 @@
     <row r="353" ht="13" customHeight="1">
       <c r="B353" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C353" s="7" t="inlineStr">
         <is>
-          <t>Tiril Elise Wikstrøm Alsand</t>
+          <t>Beate Raknes</t>
         </is>
       </c>
       <c r="D353" s="7" t="n">
-        <v>2012</v>
-      </c>
-      <c r="E353" s="15" t="n">
-        <v>29.81</v>
+        <v>2009</v>
+      </c>
+      <c r="E353" s="17" t="inlineStr">
+        <is>
+          <t>5,29,88</t>
+        </is>
       </c>
       <c r="F353" s="7" t="n">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="G353" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H353" s="16" t="n">
-        <v>12.08</v>
+        <v>18.06</v>
       </c>
       <c r="J353" s="5" t="n"/>
       <c r="L353" s="14" t="inlineStr">
@@ -45874,7 +45878,7 @@
         </is>
       </c>
       <c r="F358" s="20" t="n">
-        <v>7819</v>
+        <v>8005</v>
       </c>
       <c r="J358" s="5" t="n"/>
       <c r="L358" s="19" t="inlineStr">
@@ -45914,7 +45918,7 @@
         </is>
       </c>
       <c r="F360" s="20" t="n">
-        <v>17560</v>
+        <v>17813</v>
       </c>
       <c r="J360" s="5" t="n"/>
       <c r="L360" s="19" t="inlineStr">
@@ -45946,7 +45950,7 @@
         </is>
       </c>
       <c r="C362" s="20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J362" s="5" t="n"/>
       <c r="L362" s="19" t="inlineStr">
@@ -46183,7 +46187,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>14974</v>
+        <v>14990</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -50971,30 +50975,30 @@
     <row r="110" ht="13" customHeight="1">
       <c r="B110" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C110" s="7" t="inlineStr">
         <is>
-          <t>Siri Torgersen Bigseth</t>
+          <t>Henriette Kjærås</t>
         </is>
       </c>
       <c r="D110" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E110" s="15" t="n">
-        <v>2</v>
+        <v>4.54</v>
       </c>
       <c r="F110" s="7" t="n">
-        <v>427</v>
+        <v>517</v>
       </c>
       <c r="G110" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H110" s="16" t="n">
-        <v>14.01</v>
+        <v>18.03</v>
       </c>
       <c r="J110" s="5" t="n"/>
       <c r="L110" s="14" t="inlineStr">
@@ -51029,30 +51033,30 @@
     <row r="111" ht="13" customHeight="1">
       <c r="B111" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C111" s="7" t="inlineStr">
         <is>
-          <t>Henriette Kjærås</t>
+          <t>Anniken Rosvoll</t>
         </is>
       </c>
       <c r="D111" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E111" s="15" t="n">
-        <v>4.54</v>
+        <v>9.74</v>
       </c>
       <c r="F111" s="7" t="n">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="G111" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H111" s="16" t="n">
-        <v>18.03</v>
+        <v>3.06</v>
       </c>
       <c r="J111" s="5" t="n"/>
       <c r="L111" s="14" t="inlineStr">
@@ -51087,30 +51091,30 @@
     <row r="112" ht="13" customHeight="1">
       <c r="B112" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C112" s="7" t="inlineStr">
         <is>
-          <t>Anniken Rosvoll</t>
+          <t>Ingrid Louise Selseth</t>
         </is>
       </c>
       <c r="D112" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E112" s="15" t="n">
-        <v>9.74</v>
+        <v>2.25</v>
       </c>
       <c r="F112" s="7" t="n">
-        <v>531</v>
+        <v>459</v>
       </c>
       <c r="G112" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Tønsberg</t>
         </is>
       </c>
       <c r="H112" s="16" t="n">
-        <v>3.06</v>
+        <v>22.03</v>
       </c>
       <c r="J112" s="5" t="n"/>
       <c r="L112" s="14" t="inlineStr">
@@ -51145,30 +51149,30 @@
     <row r="113" ht="13" customHeight="1">
       <c r="B113" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C113" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Louise Selseth</t>
+          <t>Marit Huflåtten</t>
         </is>
       </c>
       <c r="D113" s="7" t="n">
-        <v>2007</v>
+        <v>1953</v>
       </c>
       <c r="E113" s="15" t="n">
-        <v>2.25</v>
+        <v>22.06</v>
       </c>
       <c r="F113" s="7" t="n">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="G113" s="7" t="inlineStr">
         <is>
-          <t>Tønsberg</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="H113" s="16" t="n">
-        <v>22.03</v>
+        <v>18.08</v>
       </c>
       <c r="J113" s="5" t="n"/>
       <c r="L113" s="14" t="inlineStr">
@@ -51349,7 +51353,7 @@
         </is>
       </c>
       <c r="F117" s="20" t="n">
-        <v>7842</v>
+        <v>7849</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="19" t="inlineStr">
@@ -52051,30 +52055,30 @@
     <row r="132" ht="13" customHeight="1">
       <c r="B132" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C132" s="7" t="inlineStr">
         <is>
-          <t>Marit Huflåtten</t>
+          <t>Siri Torgersen Bigseth</t>
         </is>
       </c>
       <c r="D132" s="7" t="n">
-        <v>1953</v>
+        <v>2009</v>
       </c>
       <c r="E132" s="15" t="n">
-        <v>21.35</v>
+        <v>2</v>
       </c>
       <c r="F132" s="7" t="n">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="G132" s="7" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H132" s="16" t="n">
-        <v>12.05</v>
+        <v>14.01</v>
       </c>
       <c r="J132" s="5" t="n"/>
       <c r="L132" s="14" t="inlineStr">
@@ -52197,7 +52201,7 @@
         </is>
       </c>
       <c r="F135" s="20" t="n">
-        <v>7132</v>
+        <v>7141</v>
       </c>
       <c r="J135" s="5" t="n"/>
       <c r="L135" s="19" t="inlineStr">
@@ -52237,7 +52241,7 @@
         </is>
       </c>
       <c r="F137" s="20" t="n">
-        <v>14974</v>
+        <v>14990</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="19" t="inlineStr">

--- a/output/Lagserien 2023 1-2. div.xlsx
+++ b/output/Lagserien 2023 1-2. div.xlsx
@@ -653,25 +653,25 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Norna-Salhus IL</t>
+          <t>IL i BUL</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>(30/18)</t>
+          <t>(30/16)</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>24773</v>
+        <v>24909</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>(3)</t>
+          <t>(7)</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
@@ -681,25 +681,25 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>IL i BUL</t>
+          <t>Norna-Salhus IL</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>(30/17)</t>
+          <t>(30/18)</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>24767</v>
+        <v>24773</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>(7)</t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -770,11 +770,11 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>(30/19)</t>
+          <t>(30/18)</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>23404</v>
+        <v>23518</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
@@ -798,11 +798,11 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>(30/16)</t>
+          <t>(30/17)</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>23143</v>
+        <v>23261</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>21235</v>
+        <v>21286</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="C54" s="7" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="F54" s="8" t="n">
@@ -3299,7 +3299,7 @@
       </c>
       <c r="M54" s="7" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="P54" s="8" t="n">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="C55" s="7" t="inlineStr">
         <is>
-          <t>Norna-Salhus IL</t>
+          <t>IL i BUL</t>
         </is>
       </c>
       <c r="J55" s="5" t="n"/>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="M55" s="7" t="inlineStr">
         <is>
-          <t>IL i BUL</t>
+          <t>Norna-Salhus IL</t>
         </is>
       </c>
       <c r="T55" s="5" t="n"/>
@@ -3455,17 +3455,17 @@
       </c>
       <c r="C61" s="7" t="inlineStr">
         <is>
-          <t>Salum Ageze Kashafali</t>
+          <t>Per Tinius Fremstad-Waldron</t>
         </is>
       </c>
       <c r="D61" s="7" t="n">
-        <v>1993</v>
+        <v>2000</v>
       </c>
       <c r="E61" s="15" t="n">
-        <v>6.75</v>
+        <v>6.77</v>
       </c>
       <c r="F61" s="7" t="n">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="G61" s="7" t="inlineStr">
         <is>
@@ -3483,17 +3483,17 @@
       </c>
       <c r="M61" s="7" t="inlineStr">
         <is>
-          <t>Per Tinius Fremstad-Waldron</t>
+          <t>Salum Ageze Kashafali</t>
         </is>
       </c>
       <c r="N61" s="7" t="n">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="O61" s="15" t="n">
-        <v>6.77</v>
+        <v>6.75</v>
       </c>
       <c r="P61" s="7" t="n">
-        <v>974</v>
+        <v>984</v>
       </c>
       <c r="Q61" s="7" t="inlineStr">
         <is>
@@ -3513,25 +3513,25 @@
       </c>
       <c r="C62" s="7" t="inlineStr">
         <is>
-          <t>Salum Ageze Kashafali</t>
+          <t>Per Tinius Fremstad-Waldron</t>
         </is>
       </c>
       <c r="D62" s="7" t="n">
-        <v>1993</v>
+        <v>2000</v>
       </c>
       <c r="E62" s="15" t="n">
-        <v>10.37</v>
+        <v>10.38</v>
       </c>
       <c r="F62" s="7" t="n">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G62" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H62" s="16" t="n">
-        <v>15.06</v>
+        <v>6.07</v>
       </c>
       <c r="J62" s="5" t="n"/>
       <c r="L62" s="14" t="inlineStr">
@@ -3541,25 +3541,25 @@
       </c>
       <c r="M62" s="7" t="inlineStr">
         <is>
-          <t>Per Tinius Fremstad-Waldron</t>
+          <t>Salum Ageze Kashafali</t>
         </is>
       </c>
       <c r="N62" s="7" t="n">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="O62" s="15" t="n">
-        <v>10.38</v>
+        <v>10.37</v>
       </c>
       <c r="P62" s="7" t="n">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="Q62" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R62" s="16" t="n">
-        <v>6.07</v>
+        <v>15.06</v>
       </c>
       <c r="T62" s="5" t="n"/>
     </row>
@@ -3571,25 +3571,25 @@
       </c>
       <c r="C63" s="7" t="inlineStr">
         <is>
-          <t>Salum Ageze Kashafali</t>
+          <t>Per Tinius Fremstad-Waldron</t>
         </is>
       </c>
       <c r="D63" s="7" t="n">
-        <v>1993</v>
+        <v>2000</v>
       </c>
       <c r="E63" s="15" t="n">
-        <v>22.08</v>
+        <v>21.27</v>
       </c>
       <c r="F63" s="7" t="n">
-        <v>851</v>
+        <v>950</v>
       </c>
       <c r="G63" s="7" t="inlineStr">
         <is>
-          <t>Nottwil/SUI</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H63" s="16" t="n">
-        <v>25.05</v>
+        <v>20.08</v>
       </c>
       <c r="J63" s="5" t="n"/>
       <c r="L63" s="14" t="inlineStr">
@@ -3599,25 +3599,25 @@
       </c>
       <c r="M63" s="7" t="inlineStr">
         <is>
-          <t>Stephan Skogheim Kyeremeh</t>
+          <t>Salum Ageze Kashafali</t>
         </is>
       </c>
       <c r="N63" s="7" t="n">
-        <v>2001</v>
+        <v>1993</v>
       </c>
       <c r="O63" s="15" t="n">
-        <v>21.74</v>
+        <v>22.08</v>
       </c>
       <c r="P63" s="7" t="n">
-        <v>891</v>
+        <v>851</v>
       </c>
       <c r="Q63" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Nottwil/SUI</t>
         </is>
       </c>
       <c r="R63" s="16" t="n">
-        <v>4.06</v>
+        <v>25.05</v>
       </c>
       <c r="T63" s="5" t="n"/>
     </row>
@@ -3629,25 +3629,25 @@
       </c>
       <c r="C64" s="7" t="inlineStr">
         <is>
-          <t>Fredrik H. Gullachsen</t>
+          <t>Leon Samuel Douglas Mjaaland</t>
         </is>
       </c>
       <c r="D64" s="7" t="n">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="E64" s="15" t="n">
-        <v>48.42</v>
+        <v>47.76</v>
       </c>
       <c r="F64" s="7" t="n">
-        <v>868</v>
+        <v>905</v>
       </c>
       <c r="G64" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H64" s="16" t="n">
-        <v>28.06</v>
+        <v>8.07</v>
       </c>
       <c r="J64" s="5" t="n"/>
       <c r="L64" s="14" t="inlineStr">
@@ -3657,25 +3657,25 @@
       </c>
       <c r="M64" s="7" t="inlineStr">
         <is>
-          <t>Leon Samuel Douglas Mjaaland</t>
+          <t>Fredrik H. Gullachsen</t>
         </is>
       </c>
       <c r="N64" s="7" t="n">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="O64" s="15" t="n">
-        <v>47.76</v>
+        <v>48.42</v>
       </c>
       <c r="P64" s="7" t="n">
-        <v>905</v>
+        <v>868</v>
       </c>
       <c r="Q64" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R64" s="16" t="n">
-        <v>8.07</v>
+        <v>28.06</v>
       </c>
       <c r="T64" s="5" t="n"/>
     </row>
@@ -3687,27 +3687,27 @@
       </c>
       <c r="C65" s="7" t="inlineStr">
         <is>
-          <t>Eivind Langøy</t>
+          <t>Leon Samuel Douglas Mjaaland</t>
         </is>
       </c>
       <c r="D65" s="7" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="E65" s="17" t="inlineStr">
         <is>
-          <t>1,59,40</t>
+          <t>1,53,04</t>
         </is>
       </c>
       <c r="F65" s="7" t="n">
-        <v>699</v>
+        <v>839</v>
       </c>
       <c r="G65" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="H65" s="16" t="n">
-        <v>26.06</v>
+        <v>20.05</v>
       </c>
       <c r="J65" s="5" t="n"/>
       <c r="L65" s="14" t="inlineStr">
@@ -3717,27 +3717,27 @@
       </c>
       <c r="M65" s="7" t="inlineStr">
         <is>
-          <t>Leon Samuel Douglas Mjaaland</t>
+          <t>Eivind Langøy</t>
         </is>
       </c>
       <c r="N65" s="7" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="O65" s="17" t="inlineStr">
         <is>
-          <t>1,53,04</t>
+          <t>1,59,40</t>
         </is>
       </c>
       <c r="P65" s="7" t="n">
-        <v>839</v>
+        <v>699</v>
       </c>
       <c r="Q65" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R65" s="16" t="n">
-        <v>20.05</v>
+        <v>26.06</v>
       </c>
       <c r="T65" s="5" t="n"/>
     </row>
@@ -3749,27 +3749,27 @@
       </c>
       <c r="C66" s="7" t="inlineStr">
         <is>
-          <t>Christian Magnus Lothe Hitland</t>
+          <t>Simon Steinshamn</t>
         </is>
       </c>
       <c r="D66" s="7" t="n">
-        <v>2008</v>
+        <v>1999</v>
       </c>
       <c r="E66" s="17" t="inlineStr">
         <is>
-          <t>4,21,22</t>
+          <t>3,49,96</t>
         </is>
       </c>
       <c r="F66" s="7" t="n">
-        <v>585</v>
+        <v>865</v>
       </c>
       <c r="G66" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Watford/GBR</t>
         </is>
       </c>
       <c r="H66" s="16" t="n">
-        <v>5.03</v>
+        <v>1.07</v>
       </c>
       <c r="J66" s="5" t="n"/>
       <c r="L66" s="14" t="inlineStr">
@@ -3779,27 +3779,27 @@
       </c>
       <c r="M66" s="7" t="inlineStr">
         <is>
-          <t>Simon Steinshamn</t>
+          <t>Christian Magnus Lothe Hitland</t>
         </is>
       </c>
       <c r="N66" s="7" t="n">
-        <v>1999</v>
+        <v>2008</v>
       </c>
       <c r="O66" s="17" t="inlineStr">
         <is>
-          <t>3,49,96</t>
+          <t>4,21,22</t>
         </is>
       </c>
       <c r="P66" s="7" t="n">
-        <v>865</v>
+        <v>585</v>
       </c>
       <c r="Q66" s="7" t="inlineStr">
         <is>
-          <t>Watford/GBR</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R66" s="16" t="n">
-        <v>1.07</v>
+        <v>5.03</v>
       </c>
       <c r="T66" s="5" t="n"/>
     </row>
@@ -3811,27 +3811,27 @@
       </c>
       <c r="C67" s="7" t="inlineStr">
         <is>
-          <t>Per Svela</t>
+          <t>Ibrahim Buras</t>
         </is>
       </c>
       <c r="D67" s="7" t="n">
-        <v>1992</v>
+        <v>2001</v>
       </c>
       <c r="E67" s="17" t="inlineStr">
         <is>
-          <t>7,51,26</t>
+          <t>7,59,70</t>
         </is>
       </c>
       <c r="F67" s="7" t="n">
-        <v>998</v>
+        <v>956</v>
       </c>
       <c r="G67" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H67" s="16" t="n">
-        <v>3.06</v>
+        <v>11.08</v>
       </c>
       <c r="J67" s="5" t="n"/>
       <c r="L67" s="14" t="inlineStr">
@@ -3841,27 +3841,27 @@
       </c>
       <c r="M67" s="7" t="inlineStr">
         <is>
-          <t>Ibrahim Buras</t>
+          <t>Per Svela</t>
         </is>
       </c>
       <c r="N67" s="7" t="n">
-        <v>2001</v>
+        <v>1992</v>
       </c>
       <c r="O67" s="17" t="inlineStr">
         <is>
-          <t>7,59,70</t>
+          <t>7,51,26</t>
         </is>
       </c>
       <c r="P67" s="7" t="n">
-        <v>956</v>
+        <v>998</v>
       </c>
       <c r="Q67" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R67" s="16" t="n">
-        <v>11.08</v>
+        <v>3.06</v>
       </c>
       <c r="T67" s="5" t="n"/>
     </row>
@@ -3873,27 +3873,27 @@
       </c>
       <c r="C68" s="7" t="inlineStr">
         <is>
-          <t>Per Svela</t>
+          <t>Ibrahim Buras</t>
         </is>
       </c>
       <c r="D68" s="7" t="n">
-        <v>1992</v>
+        <v>2001</v>
       </c>
       <c r="E68" s="17" t="inlineStr">
         <is>
-          <t>13,22,46</t>
+          <t>14,12,30</t>
         </is>
       </c>
       <c r="F68" s="7" t="n">
-        <v>1035</v>
+        <v>887</v>
       </c>
       <c r="G68" s="7" t="inlineStr">
         <is>
-          <t>Oordegem/BEL</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H68" s="16" t="n">
-        <v>27.05</v>
+        <v>28.06</v>
       </c>
       <c r="J68" s="5" t="n"/>
       <c r="L68" s="14" t="inlineStr">
@@ -3903,225 +3903,225 @@
       </c>
       <c r="M68" s="7" t="inlineStr">
         <is>
-          <t>Ibrahim Buras</t>
+          <t>Per Svela</t>
         </is>
       </c>
       <c r="N68" s="7" t="n">
-        <v>2001</v>
+        <v>1992</v>
       </c>
       <c r="O68" s="17" t="inlineStr">
         <is>
-          <t>14,12,30</t>
+          <t>13,22,46</t>
         </is>
       </c>
       <c r="P68" s="7" t="n">
-        <v>887</v>
+        <v>1035</v>
       </c>
       <c r="Q68" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Oordegem/BEL</t>
         </is>
       </c>
       <c r="R68" s="16" t="n">
-        <v>28.06</v>
+        <v>27.05</v>
       </c>
       <c r="T68" s="5" t="n"/>
     </row>
     <row r="69" ht="13" customHeight="1">
       <c r="B69" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="C69" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Ibrahim Buras</t>
         </is>
       </c>
       <c r="D69" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E69" s="15" t="n">
-        <v>6.88</v>
+        <v>2001</v>
+      </c>
+      <c r="E69" s="17" t="inlineStr">
+        <is>
+          <t>29,10,94</t>
+        </is>
       </c>
       <c r="F69" s="7" t="n">
-        <v>801</v>
+        <v>925</v>
       </c>
       <c r="G69" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jämsä/FIN</t>
         </is>
       </c>
       <c r="H69" s="16" t="n">
-        <v>17.06</v>
+        <v>1.07</v>
       </c>
       <c r="J69" s="5" t="n"/>
       <c r="L69" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M69" s="7" t="inlineStr">
         <is>
-          <t>Ibrahim Buras</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="N69" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="O69" s="17" t="inlineStr">
-        <is>
-          <t>29,10,94</t>
-        </is>
+        <v>1999</v>
+      </c>
+      <c r="O69" s="15" t="n">
+        <v>6.88</v>
       </c>
       <c r="P69" s="7" t="n">
-        <v>925</v>
+        <v>801</v>
       </c>
       <c r="Q69" s="7" t="inlineStr">
         <is>
-          <t>Jämsä/FIN</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R69" s="16" t="n">
-        <v>1.07</v>
+        <v>17.06</v>
       </c>
       <c r="T69" s="5" t="n"/>
     </row>
     <row r="70" ht="13" customHeight="1">
       <c r="B70" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="C70" s="7" t="inlineStr">
         <is>
-          <t>Viljar Gjerde</t>
+          <t>Jonas Mæland Rosholt</t>
         </is>
       </c>
       <c r="D70" s="7" t="n">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="E70" s="15" t="n">
-        <v>15.25</v>
+        <v>57.2</v>
       </c>
       <c r="F70" s="7" t="n">
-        <v>904</v>
+        <v>700</v>
       </c>
       <c r="G70" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="H70" s="16" t="n">
-        <v>18.02</v>
+        <v>20.05</v>
       </c>
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M70" s="7" t="inlineStr">
         <is>
-          <t>Jonas Mæland Rosholt</t>
+          <t>Viljar Gjerde</t>
         </is>
       </c>
       <c r="N70" s="7" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="O70" s="15" t="n">
-        <v>57.2</v>
+        <v>15.25</v>
       </c>
       <c r="P70" s="7" t="n">
-        <v>700</v>
+        <v>904</v>
       </c>
       <c r="Q70" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R70" s="16" t="n">
-        <v>20.05</v>
+        <v>18.02</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
     <row r="71" ht="13" customHeight="1">
       <c r="B71" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C71" s="7" t="inlineStr">
         <is>
-          <t>Theodor With</t>
+          <t>Thai Drager</t>
         </is>
       </c>
       <c r="D71" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E71" s="15" t="n">
-        <v>2.79</v>
+        <v>6.21</v>
       </c>
       <c r="F71" s="7" t="n">
-        <v>555</v>
+        <v>654</v>
       </c>
       <c r="G71" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H71" s="16" t="n">
-        <v>10.02</v>
+        <v>4.06</v>
       </c>
       <c r="J71" s="5" t="n"/>
       <c r="L71" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M71" s="7" t="inlineStr">
         <is>
-          <t>Thai Drager</t>
+          <t>Theodor With</t>
         </is>
       </c>
       <c r="N71" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O71" s="15" t="n">
-        <v>6.21</v>
+        <v>2.79</v>
       </c>
       <c r="P71" s="7" t="n">
-        <v>654</v>
+        <v>555</v>
       </c>
       <c r="Q71" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R71" s="16" t="n">
-        <v>4.06</v>
+        <v>10.02</v>
       </c>
       <c r="T71" s="5" t="n"/>
     </row>
     <row r="72" ht="13" customHeight="1">
       <c r="B72" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C72" s="7" t="inlineStr">
         <is>
-          <t>Marcus Thomsen</t>
+          <t>Thomas Viksaas Biermann</t>
         </is>
       </c>
       <c r="D72" s="7" t="n">
-        <v>1998</v>
+        <v>2007</v>
       </c>
       <c r="E72" s="15" t="n">
-        <v>20.88</v>
+        <v>13.19</v>
       </c>
       <c r="F72" s="7" t="n">
-        <v>1105</v>
+        <v>690</v>
       </c>
       <c r="G72" s="7" t="inlineStr">
         <is>
@@ -4129,27 +4129,27 @@
         </is>
       </c>
       <c r="H72" s="16" t="n">
-        <v>2.02</v>
+        <v>3.03</v>
       </c>
       <c r="J72" s="5" t="n"/>
       <c r="L72" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M72" s="7" t="inlineStr">
         <is>
-          <t>Thomas Viksaas Biermann</t>
+          <t>Marcus Thomsen</t>
         </is>
       </c>
       <c r="N72" s="7" t="n">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="O72" s="15" t="n">
-        <v>13.19</v>
+        <v>20.88</v>
       </c>
       <c r="P72" s="7" t="n">
-        <v>690</v>
+        <v>1105</v>
       </c>
       <c r="Q72" s="7" t="inlineStr">
         <is>
@@ -4157,123 +4157,123 @@
         </is>
       </c>
       <c r="R72" s="16" t="n">
-        <v>3.03</v>
+        <v>2.02</v>
       </c>
       <c r="T72" s="5" t="n"/>
     </row>
     <row r="73" ht="13" customHeight="1">
       <c r="B73" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C73" s="7" t="inlineStr">
         <is>
-          <t>Sven Martin Skagestad</t>
+          <t>Thomas Viksaas Biermann</t>
         </is>
       </c>
       <c r="D73" s="7" t="n">
-        <v>1995</v>
+        <v>2007</v>
       </c>
       <c r="E73" s="15" t="n">
-        <v>61.11</v>
+        <v>2.84</v>
       </c>
       <c r="F73" s="7" t="n">
-        <v>1026</v>
+        <v>583</v>
       </c>
       <c r="G73" s="7" t="inlineStr">
         <is>
-          <t>København/DEN</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H73" s="16" t="n">
-        <v>28.05</v>
+        <v>19.02</v>
       </c>
       <c r="J73" s="5" t="n"/>
       <c r="L73" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M73" s="7" t="inlineStr">
         <is>
-          <t>Thomas Viksaas Biermann</t>
+          <t>Sven Martin Skagestad</t>
         </is>
       </c>
       <c r="N73" s="7" t="n">
-        <v>2007</v>
+        <v>1995</v>
       </c>
       <c r="O73" s="15" t="n">
-        <v>2.84</v>
+        <v>61.11</v>
       </c>
       <c r="P73" s="7" t="n">
-        <v>583</v>
+        <v>1026</v>
       </c>
       <c r="Q73" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>København/DEN</t>
         </is>
       </c>
       <c r="R73" s="16" t="n">
-        <v>19.02</v>
+        <v>28.05</v>
       </c>
       <c r="T73" s="5" t="n"/>
     </row>
     <row r="74" ht="13" customHeight="1">
       <c r="B74" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C74" s="7" t="inlineStr">
         <is>
-          <t>Jon Nerdal</t>
+          <t>Eirik Halfdansen-Aspen</t>
         </is>
       </c>
       <c r="D74" s="7" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="E74" s="15" t="n">
-        <v>63.99</v>
+        <v>45.22</v>
       </c>
       <c r="F74" s="7" t="n">
-        <v>928</v>
+        <v>777</v>
       </c>
       <c r="G74" s="7" t="inlineStr">
         <is>
-          <t>Baton Rouge/LA/USA</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H74" s="16" t="n">
-        <v>29.04</v>
+        <v>28.06</v>
       </c>
       <c r="J74" s="5" t="n"/>
       <c r="L74" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="M74" s="7" t="inlineStr">
         <is>
-          <t>Eirik Halfdansen-Aspen</t>
+          <t>Jon Nerdal</t>
         </is>
       </c>
       <c r="N74" s="7" t="n">
-        <v>2004</v>
+        <v>1996</v>
       </c>
       <c r="O74" s="15" t="n">
-        <v>45.22</v>
+        <v>63.99</v>
       </c>
       <c r="P74" s="7" t="n">
-        <v>777</v>
+        <v>928</v>
       </c>
       <c r="Q74" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Baton Rouge/LA/USA</t>
         </is>
       </c>
       <c r="R74" s="16" t="n">
-        <v>28.06</v>
+        <v>29.04</v>
       </c>
       <c r="T74" s="5" t="n"/>
     </row>
@@ -4285,25 +4285,25 @@
       </c>
       <c r="C75" s="7" t="inlineStr">
         <is>
-          <t>Sebastian Rolland</t>
+          <t>Kasper Sagen</t>
         </is>
       </c>
       <c r="D75" s="7" t="n">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="E75" s="15" t="n">
-        <v>58.14</v>
+        <v>77.54000000000001</v>
       </c>
       <c r="F75" s="7" t="n">
-        <v>734</v>
+        <v>1007</v>
       </c>
       <c r="G75" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H75" s="16" t="n">
-        <v>2.08</v>
+        <v>12.08</v>
       </c>
       <c r="J75" s="5" t="n"/>
       <c r="L75" s="14" t="inlineStr">
@@ -4313,25 +4313,25 @@
       </c>
       <c r="M75" s="7" t="inlineStr">
         <is>
-          <t>Kasper Sagen</t>
+          <t>Sebastian Rolland</t>
         </is>
       </c>
       <c r="N75" s="7" t="n">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="O75" s="15" t="n">
-        <v>77.54000000000001</v>
+        <v>58.14</v>
       </c>
       <c r="P75" s="7" t="n">
-        <v>1007</v>
+        <v>734</v>
       </c>
       <c r="Q75" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R75" s="16" t="n">
-        <v>12.08</v>
+        <v>2.08</v>
       </c>
       <c r="T75" s="5" t="n"/>
     </row>
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="F77" s="20" t="n">
-        <v>13088</v>
+        <v>12724</v>
       </c>
       <c r="J77" s="5" t="n"/>
       <c r="L77" s="19" t="inlineStr">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="P77" s="20" t="n">
-        <v>12665</v>
+        <v>13088</v>
       </c>
       <c r="T77" s="5" t="n"/>
     </row>
@@ -4488,80 +4488,80 @@
     <row r="82" ht="13" customHeight="1">
       <c r="B82" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C82" s="7" t="inlineStr">
         <is>
-          <t>Anders Vik</t>
+          <t>Edem Schaanning Agbo</t>
         </is>
       </c>
       <c r="D82" s="7" t="n">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="E82" s="15" t="n">
-        <v>53.83</v>
+        <v>10.6</v>
       </c>
       <c r="F82" s="7" t="n">
-        <v>918</v>
+        <v>948</v>
       </c>
       <c r="G82" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H82" s="16" t="n">
-        <v>2.06</v>
+        <v>6.07</v>
       </c>
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M82" s="7" t="inlineStr">
         <is>
-          <t>Edem Schaanning Agbo</t>
+          <t>Anders Vik</t>
         </is>
       </c>
       <c r="N82" s="7" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="O82" s="15" t="n">
-        <v>10.6</v>
+        <v>53.83</v>
       </c>
       <c r="P82" s="7" t="n">
-        <v>948</v>
+        <v>918</v>
       </c>
       <c r="Q82" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R82" s="16" t="n">
-        <v>6.07</v>
+        <v>2.06</v>
       </c>
       <c r="T82" s="5" t="n"/>
     </row>
     <row r="83" ht="13" customHeight="1">
       <c r="B83" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C83" s="7" t="inlineStr">
         <is>
-          <t>Sven Martin Skagestad</t>
+          <t>Edem Schaanning Agbo</t>
         </is>
       </c>
       <c r="D83" s="7" t="n">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="E83" s="15" t="n">
-        <v>16.67</v>
+        <v>6.86</v>
       </c>
       <c r="F83" s="7" t="n">
-        <v>894</v>
+        <v>929</v>
       </c>
       <c r="G83" s="7" t="inlineStr">
         <is>
@@ -4574,22 +4574,22 @@
       <c r="J83" s="5" t="n"/>
       <c r="L83" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M83" s="7" t="inlineStr">
         <is>
-          <t>Edem Schaanning Agbo</t>
+          <t>Sven Martin Skagestad</t>
         </is>
       </c>
       <c r="N83" s="7" t="n">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="O83" s="15" t="n">
-        <v>6.86</v>
+        <v>16.67</v>
       </c>
       <c r="P83" s="7" t="n">
-        <v>929</v>
+        <v>894</v>
       </c>
       <c r="Q83" s="7" t="inlineStr">
         <is>
@@ -4609,17 +4609,17 @@
       </c>
       <c r="C84" s="7" t="inlineStr">
         <is>
-          <t>Muhammed Dodou Jatta</t>
+          <t>Sander Werge Nilsen</t>
         </is>
       </c>
       <c r="D84" s="7" t="n">
-        <v>1998</v>
+        <v>2003</v>
       </c>
       <c r="E84" s="15" t="n">
-        <v>10.91</v>
+        <v>10.69</v>
       </c>
       <c r="F84" s="7" t="n">
-        <v>865</v>
+        <v>924</v>
       </c>
       <c r="G84" s="7" t="inlineStr">
         <is>
@@ -4637,17 +4637,17 @@
       </c>
       <c r="M84" s="7" t="inlineStr">
         <is>
-          <t>Sander Werge Nilsen</t>
+          <t>Muhammed Dodou Jatta</t>
         </is>
       </c>
       <c r="N84" s="7" t="n">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="O84" s="15" t="n">
-        <v>10.69</v>
+        <v>10.91</v>
       </c>
       <c r="P84" s="7" t="n">
-        <v>924</v>
+        <v>865</v>
       </c>
       <c r="Q84" s="7" t="inlineStr">
         <is>
@@ -4662,22 +4662,22 @@
     <row r="85" ht="13" customHeight="1">
       <c r="B85" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C85" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Stephan Skogheim Kyeremeh</t>
         </is>
       </c>
       <c r="D85" s="7" t="n">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="E85" s="15" t="n">
-        <v>10.98</v>
+        <v>21.57</v>
       </c>
       <c r="F85" s="7" t="n">
-        <v>846</v>
+        <v>912</v>
       </c>
       <c r="G85" s="7" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         </is>
       </c>
       <c r="H85" s="16" t="n">
-        <v>25.06</v>
+        <v>20.08</v>
       </c>
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
@@ -4695,141 +4695,141 @@
       </c>
       <c r="M85" s="7" t="inlineStr">
         <is>
-          <t>Christopher Ekene Nordlie</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="N85" s="7" t="n">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="O85" s="15" t="n">
-        <v>10.77</v>
+        <v>10.98</v>
       </c>
       <c r="P85" s="7" t="n">
-        <v>902</v>
+        <v>846</v>
       </c>
       <c r="Q85" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R85" s="16" t="n">
-        <v>3.06</v>
+        <v>25.06</v>
       </c>
       <c r="T85" s="5" t="n"/>
     </row>
     <row r="86" ht="13" customHeight="1">
       <c r="B86" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C86" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Christopher Ekene Nordlie</t>
         </is>
       </c>
       <c r="D86" s="7" t="n">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="E86" s="15" t="n">
-        <v>7.07</v>
+        <v>10.77</v>
       </c>
       <c r="F86" s="7" t="n">
-        <v>832</v>
+        <v>902</v>
       </c>
       <c r="G86" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H86" s="16" t="n">
-        <v>18.02</v>
+        <v>3.06</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M86" s="7" t="inlineStr">
         <is>
-          <t>Stephan Skogheim Kyeremeh</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="N86" s="7" t="n">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="O86" s="15" t="n">
-        <v>48.27</v>
+        <v>7.07</v>
       </c>
       <c r="P86" s="7" t="n">
-        <v>876</v>
+        <v>832</v>
       </c>
       <c r="Q86" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R86" s="16" t="n">
-        <v>6.07</v>
+        <v>18.02</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
     <row r="87" ht="13" customHeight="1">
       <c r="B87" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C87" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Stephan Skogheim Kyeremeh</t>
         </is>
       </c>
       <c r="D87" s="7" t="n">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="E87" s="15" t="n">
-        <v>22.3</v>
+        <v>48.27</v>
       </c>
       <c r="F87" s="7" t="n">
-        <v>826</v>
+        <v>876</v>
       </c>
       <c r="G87" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H87" s="16" t="n">
-        <v>7.06</v>
+        <v>6.07</v>
       </c>
       <c r="J87" s="5" t="n"/>
       <c r="L87" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M87" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Holen</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="N87" s="7" t="n">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="O87" s="15" t="n">
-        <v>6.98</v>
+        <v>22.3</v>
       </c>
       <c r="P87" s="7" t="n">
-        <v>872</v>
+        <v>826</v>
       </c>
       <c r="Q87" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="R87" s="16" t="n">
-        <v>11.02</v>
+        <v>7.06</v>
       </c>
       <c r="T87" s="5" t="n"/>
     </row>
@@ -4841,53 +4841,53 @@
       </c>
       <c r="C88" s="7" t="inlineStr">
         <is>
-          <t>Theodor With</t>
+          <t>Stephan Skogheim Kyeremeh</t>
         </is>
       </c>
       <c r="D88" s="7" t="n">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="E88" s="15" t="n">
-        <v>11.2</v>
+        <v>10.87</v>
       </c>
       <c r="F88" s="7" t="n">
-        <v>791</v>
+        <v>875</v>
       </c>
       <c r="G88" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H88" s="16" t="n">
-        <v>13.05</v>
+        <v>20.08</v>
       </c>
       <c r="J88" s="5" t="n"/>
       <c r="L88" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M88" s="7" t="inlineStr">
         <is>
-          <t>Edem Schaanning Agbo</t>
+          <t>Theodor With</t>
         </is>
       </c>
       <c r="N88" s="7" t="n">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="O88" s="15" t="n">
-        <v>21.92</v>
+        <v>11.2</v>
       </c>
       <c r="P88" s="7" t="n">
-        <v>870</v>
+        <v>791</v>
       </c>
       <c r="Q88" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R88" s="16" t="n">
-        <v>27.07</v>
+        <v>13.05</v>
       </c>
       <c r="T88" s="5" t="n"/>
     </row>
@@ -4899,103 +4899,103 @@
       </c>
       <c r="C89" s="7" t="inlineStr">
         <is>
-          <t>Theodor With</t>
+          <t>Jonathan Holen</t>
         </is>
       </c>
       <c r="D89" s="7" t="n">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="E89" s="15" t="n">
-        <v>7.17</v>
+        <v>6.98</v>
       </c>
       <c r="F89" s="7" t="n">
-        <v>789</v>
+        <v>872</v>
       </c>
       <c r="G89" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H89" s="16" t="n">
-        <v>3.06</v>
+        <v>11.02</v>
       </c>
       <c r="J89" s="5" t="n"/>
       <c r="L89" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M89" s="7" t="inlineStr">
         <is>
-          <t>Stephan Skogheim Kyeremeh</t>
+          <t>Theodor With</t>
         </is>
       </c>
       <c r="N89" s="7" t="n">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="O89" s="15" t="n">
-        <v>10.92</v>
+        <v>7.17</v>
       </c>
       <c r="P89" s="7" t="n">
-        <v>862</v>
+        <v>789</v>
       </c>
       <c r="Q89" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R89" s="16" t="n">
-        <v>13.08</v>
+        <v>3.06</v>
       </c>
       <c r="T89" s="5" t="n"/>
     </row>
     <row r="90" ht="13" customHeight="1">
       <c r="B90" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C90" s="7" t="inlineStr">
         <is>
-          <t>Viljar Gjerde</t>
+          <t>Edem Schaanning Agbo</t>
         </is>
       </c>
       <c r="D90" s="7" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E90" s="15" t="n">
-        <v>6.74</v>
+        <v>21.92</v>
       </c>
       <c r="F90" s="7" t="n">
-        <v>771</v>
+        <v>870</v>
       </c>
       <c r="G90" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H90" s="16" t="n">
-        <v>19.02</v>
+        <v>27.07</v>
       </c>
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M90" s="7" t="inlineStr">
         <is>
-          <t>Christopher Ekene Nordlie</t>
+          <t>Viljar Gjerde</t>
         </is>
       </c>
       <c r="N90" s="7" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="O90" s="15" t="n">
-        <v>22</v>
+        <v>6.74</v>
       </c>
       <c r="P90" s="7" t="n">
-        <v>860</v>
+        <v>771</v>
       </c>
       <c r="Q90" s="7" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         </is>
       </c>
       <c r="R90" s="16" t="n">
-        <v>17.06</v>
+        <v>19.02</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
@@ -5015,25 +5015,25 @@
       </c>
       <c r="C91" s="7" t="inlineStr">
         <is>
-          <t>Theodor With</t>
+          <t>Christopher Ekene Nordlie</t>
         </is>
       </c>
       <c r="D91" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E91" s="15" t="n">
-        <v>22.84</v>
+        <v>22</v>
       </c>
       <c r="F91" s="7" t="n">
-        <v>766</v>
+        <v>860</v>
       </c>
       <c r="G91" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H91" s="16" t="n">
-        <v>20.08</v>
+        <v>17.06</v>
       </c>
       <c r="J91" s="5" t="n"/>
       <c r="L91" s="14" t="inlineStr">
@@ -5043,257 +5043,257 @@
       </c>
       <c r="M91" s="7" t="inlineStr">
         <is>
-          <t>Bereket Geda Wayu</t>
+          <t>Theodor With</t>
         </is>
       </c>
       <c r="N91" s="7" t="n">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="O91" s="15" t="n">
-        <v>22.16</v>
+        <v>22.84</v>
       </c>
       <c r="P91" s="7" t="n">
-        <v>842</v>
+        <v>766</v>
       </c>
       <c r="Q91" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R91" s="16" t="n">
-        <v>7.06</v>
+        <v>20.08</v>
       </c>
       <c r="T91" s="5" t="n"/>
     </row>
     <row r="92" ht="13" customHeight="1">
       <c r="B92" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C92" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Ruben Martinsen</t>
         </is>
       </c>
       <c r="D92" s="7" t="n">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="E92" s="15" t="n">
-        <v>50.61</v>
+        <v>56.64</v>
       </c>
       <c r="F92" s="7" t="n">
-        <v>753</v>
+        <v>715</v>
       </c>
       <c r="G92" s="7" t="inlineStr">
         <is>
-          <t>Paris/FRA</t>
+          <t>Bækkelaget</t>
         </is>
       </c>
       <c r="H92" s="16" t="n">
-        <v>15.07</v>
+        <v>6.05</v>
       </c>
       <c r="J92" s="5" t="n"/>
       <c r="L92" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M92" s="7" t="inlineStr">
         <is>
-          <t>Ruben Martinsen</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="N92" s="7" t="n">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="O92" s="15" t="n">
-        <v>56.64</v>
+        <v>50.61</v>
       </c>
       <c r="P92" s="7" t="n">
-        <v>715</v>
+        <v>753</v>
       </c>
       <c r="Q92" s="7" t="inlineStr">
         <is>
-          <t>Bækkelaget</t>
+          <t>Paris/FRA</t>
         </is>
       </c>
       <c r="R92" s="16" t="n">
-        <v>6.05</v>
+        <v>15.07</v>
       </c>
       <c r="T92" s="5" t="n"/>
     </row>
     <row r="93" ht="13" customHeight="1">
       <c r="B93" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C93" s="7" t="inlineStr">
         <is>
-          <t>Tristan Emil Brekke Nøttveit</t>
+          <t>Dag Storm Wergeland</t>
         </is>
       </c>
       <c r="D93" s="7" t="n">
-        <v>2007</v>
+        <v>1989</v>
       </c>
       <c r="E93" s="15" t="n">
-        <v>11.44</v>
+        <v>55.27</v>
       </c>
       <c r="F93" s="7" t="n">
-        <v>734</v>
+        <v>696</v>
       </c>
       <c r="G93" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H93" s="16" t="n">
-        <v>13.05</v>
+        <v>17.06</v>
       </c>
       <c r="J93" s="5" t="n"/>
       <c r="L93" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M93" s="7" t="inlineStr">
         <is>
-          <t>Dag Storm Wergeland</t>
+          <t>Tristan Emil Brekke Nøttveit</t>
         </is>
       </c>
       <c r="N93" s="7" t="n">
-        <v>1989</v>
+        <v>2007</v>
       </c>
       <c r="O93" s="15" t="n">
-        <v>55.27</v>
+        <v>11.44</v>
       </c>
       <c r="P93" s="7" t="n">
-        <v>696</v>
+        <v>734</v>
       </c>
       <c r="Q93" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R93" s="16" t="n">
-        <v>17.06</v>
+        <v>13.05</v>
       </c>
       <c r="T93" s="5" t="n"/>
     </row>
     <row r="94" ht="13" customHeight="1">
       <c r="B94" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C94" s="7" t="inlineStr">
         <is>
-          <t>Jakob H. Holmelid</t>
+          <t>Thomas Viksaas Biermann</t>
         </is>
       </c>
       <c r="D94" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E94" s="15" t="n">
-        <v>11.47</v>
+        <v>6.15</v>
       </c>
       <c r="F94" s="7" t="n">
-        <v>727</v>
+        <v>640</v>
       </c>
       <c r="G94" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H94" s="16" t="n">
-        <v>13.05</v>
+        <v>3.06</v>
       </c>
       <c r="J94" s="5" t="n"/>
       <c r="L94" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M94" s="7" t="inlineStr">
         <is>
-          <t>Thomas Viksaas Biermann</t>
+          <t>Jakob H. Holmelid</t>
         </is>
       </c>
       <c r="N94" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O94" s="15" t="n">
-        <v>6.15</v>
+        <v>11.47</v>
       </c>
       <c r="P94" s="7" t="n">
-        <v>640</v>
+        <v>727</v>
       </c>
       <c r="Q94" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R94" s="16" t="n">
-        <v>3.06</v>
+        <v>13.05</v>
       </c>
       <c r="T94" s="5" t="n"/>
     </row>
     <row r="95" ht="13" customHeight="1">
       <c r="B95" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C95" s="7" t="inlineStr">
         <is>
-          <t>Halvard Melsås</t>
+          <t>Thai Drager</t>
         </is>
       </c>
       <c r="D95" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="E95" s="15" t="n">
-        <v>47.08</v>
+        <v>12.26</v>
       </c>
       <c r="F95" s="7" t="n">
-        <v>713</v>
+        <v>589</v>
       </c>
       <c r="G95" s="7" t="inlineStr">
         <is>
-          <t>Knarvik</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H95" s="16" t="n">
-        <v>20.06</v>
+        <v>3.03</v>
       </c>
       <c r="J95" s="5" t="n"/>
       <c r="L95" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="M95" s="7" t="inlineStr">
         <is>
-          <t>Thai Drager</t>
+          <t>Halvard Melsås</t>
         </is>
       </c>
       <c r="N95" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="O95" s="15" t="n">
-        <v>12.26</v>
+        <v>47.08</v>
       </c>
       <c r="P95" s="7" t="n">
-        <v>589</v>
+        <v>713</v>
       </c>
       <c r="Q95" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Knarvik</t>
         </is>
       </c>
       <c r="R95" s="16" t="n">
-        <v>3.03</v>
+        <v>20.06</v>
       </c>
       <c r="T95" s="5" t="n"/>
     </row>
@@ -5305,25 +5305,25 @@
       </c>
       <c r="C96" s="7" t="inlineStr">
         <is>
-          <t>Jone Alsaker Løken</t>
+          <t>Jonas Mæland Rosholt</t>
         </is>
       </c>
       <c r="D96" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E96" s="15" t="n">
-        <v>2.63</v>
+        <v>2.83</v>
       </c>
       <c r="F96" s="7" t="n">
-        <v>460</v>
+        <v>577</v>
       </c>
       <c r="G96" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H96" s="16" t="n">
-        <v>10.02</v>
+        <v>19.02</v>
       </c>
       <c r="J96" s="5" t="n"/>
       <c r="L96" s="14" t="inlineStr">
@@ -5333,25 +5333,25 @@
       </c>
       <c r="M96" s="7" t="inlineStr">
         <is>
-          <t>Jonas Mæland Rosholt</t>
+          <t>Jone Alsaker Løken</t>
         </is>
       </c>
       <c r="N96" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O96" s="15" t="n">
-        <v>2.83</v>
+        <v>2.63</v>
       </c>
       <c r="P96" s="7" t="n">
-        <v>577</v>
+        <v>460</v>
       </c>
       <c r="Q96" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R96" s="16" t="n">
-        <v>19.02</v>
+        <v>10.02</v>
       </c>
       <c r="T96" s="5" t="n"/>
     </row>
@@ -5388,7 +5388,7 @@
         </is>
       </c>
       <c r="F98" s="20" t="n">
-        <v>11685</v>
+        <v>12185</v>
       </c>
       <c r="J98" s="5" t="n"/>
       <c r="L98" s="19" t="inlineStr">
@@ -5405,7 +5405,7 @@
         </is>
       </c>
       <c r="P98" s="20" t="n">
-        <v>12102</v>
+        <v>11685</v>
       </c>
       <c r="T98" s="5" t="n"/>
     </row>
@@ -5428,7 +5428,7 @@
         </is>
       </c>
       <c r="F100" s="20" t="n">
-        <v>24773</v>
+        <v>24909</v>
       </c>
       <c r="J100" s="5" t="n"/>
       <c r="L100" s="19" t="inlineStr">
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="P100" s="20" t="n">
-        <v>24767</v>
+        <v>24773</v>
       </c>
       <c r="T100" s="5" t="n"/>
     </row>
@@ -5460,7 +5460,7 @@
         </is>
       </c>
       <c r="C102" s="20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J102" s="5" t="n"/>
       <c r="L102" s="19" t="inlineStr">
@@ -5469,7 +5469,7 @@
         </is>
       </c>
       <c r="M102" s="20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T102" s="5" t="n"/>
     </row>
@@ -7995,25 +7995,25 @@
       </c>
       <c r="M166" s="7" t="inlineStr">
         <is>
-          <t>Markus Le Fjeld</t>
+          <t>Tobias Windjusveen</t>
         </is>
       </c>
       <c r="N166" s="7" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="O166" s="15" t="n">
-        <v>11.09</v>
+        <v>11.03</v>
       </c>
       <c r="P166" s="7" t="n">
-        <v>819</v>
+        <v>834</v>
       </c>
       <c r="Q166" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R166" s="16" t="n">
-        <v>6.07</v>
+        <v>20.08</v>
       </c>
       <c r="T166" s="5" t="n"/>
     </row>
@@ -8173,27 +8173,27 @@
       </c>
       <c r="M169" s="7" t="inlineStr">
         <is>
-          <t>Eirik Alvik</t>
+          <t>Syver Røinaas</t>
         </is>
       </c>
       <c r="N169" s="7" t="n">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="O169" s="17" t="inlineStr">
         <is>
-          <t>1,58,82</t>
+          <t>1,57,31</t>
         </is>
       </c>
       <c r="P169" s="7" t="n">
-        <v>711</v>
+        <v>742</v>
       </c>
       <c r="Q169" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R169" s="16" t="n">
-        <v>4.03</v>
+        <v>20.08</v>
       </c>
       <c r="T169" s="5" t="n"/>
     </row>
@@ -8839,7 +8839,7 @@
         </is>
       </c>
       <c r="P181" s="20" t="n">
-        <v>11725</v>
+        <v>11771</v>
       </c>
       <c r="T181" s="5" t="n"/>
     </row>
@@ -8977,25 +8977,25 @@
       </c>
       <c r="M186" s="7" t="inlineStr">
         <is>
-          <t>Tobias Windjusveen</t>
+          <t>Markus Le Fjeld</t>
         </is>
       </c>
       <c r="N186" s="7" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="O186" s="15" t="n">
-        <v>11.12</v>
+        <v>11.09</v>
       </c>
       <c r="P186" s="7" t="n">
-        <v>811</v>
+        <v>819</v>
       </c>
       <c r="Q186" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R186" s="16" t="n">
-        <v>25.06</v>
+        <v>6.07</v>
       </c>
       <c r="T186" s="5" t="n"/>
     </row>
@@ -9037,25 +9037,25 @@
       </c>
       <c r="M187" s="7" t="inlineStr">
         <is>
-          <t>Peter Svoren</t>
+          <t>Tobias Windjusveen</t>
         </is>
       </c>
       <c r="N187" s="7" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="O187" s="15" t="n">
-        <v>22.5</v>
+        <v>22.36</v>
       </c>
       <c r="P187" s="7" t="n">
-        <v>803</v>
+        <v>819</v>
       </c>
       <c r="Q187" s="7" t="inlineStr">
         <is>
-          <t>Asker</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R187" s="16" t="n">
-        <v>10.06</v>
+        <v>20.08</v>
       </c>
       <c r="T187" s="5" t="n"/>
     </row>
@@ -9067,47 +9067,47 @@
       </c>
       <c r="C188" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Sandvik</t>
+          <t>Andreas Fjeld Halvorsen</t>
         </is>
       </c>
       <c r="D188" s="7" t="n">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="E188" s="17" t="inlineStr">
         <is>
-          <t>8,00,38</t>
+          <t>7,58,38</t>
         </is>
       </c>
       <c r="F188" s="7" t="n">
-        <v>953</v>
+        <v>963</v>
       </c>
       <c r="G188" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H188" s="16" t="n">
-        <v>21.05</v>
+        <v>20.08</v>
       </c>
       <c r="J188" s="5" t="n"/>
       <c r="L188" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M188" s="7" t="inlineStr">
         <is>
-          <t>Axel Andreas Mjør</t>
+          <t>Peter Svoren</t>
         </is>
       </c>
       <c r="N188" s="7" t="n">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="O188" s="15" t="n">
-        <v>7.16</v>
+        <v>22.5</v>
       </c>
       <c r="P188" s="7" t="n">
-        <v>793</v>
+        <v>803</v>
       </c>
       <c r="Q188" s="7" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         </is>
       </c>
       <c r="R188" s="16" t="n">
-        <v>11.06</v>
+        <v>10.06</v>
       </c>
       <c r="T188" s="5" t="n"/>
     </row>
@@ -9127,207 +9127,207 @@
       </c>
       <c r="C189" s="7" t="inlineStr">
         <is>
-          <t>Kristian Bråthen Børve</t>
+          <t>Fredrik Sandvik</t>
         </is>
       </c>
       <c r="D189" s="7" t="n">
-        <v>2006</v>
+        <v>1998</v>
       </c>
       <c r="E189" s="17" t="inlineStr">
         <is>
-          <t>8,05,72</t>
+          <t>8,00,38</t>
         </is>
       </c>
       <c r="F189" s="7" t="n">
-        <v>927</v>
+        <v>953</v>
       </c>
       <c r="G189" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="H189" s="16" t="n">
-        <v>11.08</v>
+        <v>21.05</v>
       </c>
       <c r="J189" s="5" t="n"/>
       <c r="L189" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M189" s="7" t="inlineStr">
         <is>
-          <t>Sigmund Le Fjeld</t>
+          <t>Axel Andreas Mjør</t>
         </is>
       </c>
       <c r="N189" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O189" s="15" t="n">
-        <v>6.83</v>
+        <v>7.16</v>
       </c>
       <c r="P189" s="7" t="n">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="Q189" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Asker</t>
         </is>
       </c>
       <c r="R189" s="16" t="n">
-        <v>12.08</v>
+        <v>11.06</v>
       </c>
       <c r="T189" s="5" t="n"/>
     </row>
     <row r="190" ht="13" customHeight="1">
       <c r="B190" s="14" t="inlineStr">
         <is>
-          <t>3000m hinder</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C190" s="7" t="inlineStr">
         <is>
-          <t>Jacob Boutera</t>
+          <t>Kristian Bråthen Børve</t>
         </is>
       </c>
       <c r="D190" s="7" t="n">
-        <v>1996</v>
+        <v>2006</v>
       </c>
       <c r="E190" s="17" t="inlineStr">
         <is>
-          <t>8,51,47</t>
+          <t>8,05,72</t>
         </is>
       </c>
       <c r="F190" s="7" t="n">
-        <v>898</v>
+        <v>927</v>
       </c>
       <c r="G190" s="7" t="inlineStr">
         <is>
-          <t>Turku/FIN</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H190" s="16" t="n">
-        <v>13.06</v>
+        <v>11.08</v>
       </c>
       <c r="J190" s="5" t="n"/>
       <c r="L190" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M190" s="7" t="inlineStr">
         <is>
-          <t>Franz Philip Pap Holmen</t>
+          <t>Sigmund Le Fjeld</t>
         </is>
       </c>
       <c r="N190" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="O190" s="15" t="n">
-        <v>11.24</v>
+        <v>6.83</v>
       </c>
       <c r="P190" s="7" t="n">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="Q190" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R190" s="16" t="n">
-        <v>18.06</v>
+        <v>12.08</v>
       </c>
       <c r="T190" s="5" t="n"/>
     </row>
     <row r="191" ht="13" customHeight="1">
       <c r="B191" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m hinder</t>
         </is>
       </c>
       <c r="C191" s="7" t="inlineStr">
         <is>
-          <t>Andreas Fjeld Halvorsen</t>
+          <t>Jacob Boutera</t>
         </is>
       </c>
       <c r="D191" s="7" t="n">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="E191" s="17" t="inlineStr">
         <is>
-          <t>3,47,53</t>
+          <t>8,51,47</t>
         </is>
       </c>
       <c r="F191" s="7" t="n">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="G191" s="7" t="inlineStr">
         <is>
-          <t>Hvam</t>
+          <t>Turku/FIN</t>
         </is>
       </c>
       <c r="H191" s="16" t="n">
-        <v>4.02</v>
+        <v>13.06</v>
       </c>
       <c r="J191" s="5" t="n"/>
       <c r="L191" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M191" s="7" t="inlineStr">
         <is>
-          <t>Kim Kamanzi</t>
+          <t>Franz Philip Pap Holmen</t>
         </is>
       </c>
       <c r="N191" s="7" t="n">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="O191" s="15" t="n">
-        <v>22.72</v>
+        <v>11.24</v>
       </c>
       <c r="P191" s="7" t="n">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="Q191" s="7" t="inlineStr">
         <is>
-          <t>Asker</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R191" s="16" t="n">
-        <v>10.06</v>
+        <v>18.06</v>
       </c>
       <c r="T191" s="5" t="n"/>
     </row>
     <row r="192" ht="13" customHeight="1">
       <c r="B192" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C192" s="7" t="inlineStr">
         <is>
-          <t>Markus Einan</t>
+          <t>Andreas Fjeld Halvorsen</t>
         </is>
       </c>
       <c r="D192" s="7" t="n">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="E192" s="17" t="inlineStr">
         <is>
-          <t>1,51,21</t>
+          <t>3,47,53</t>
         </is>
       </c>
       <c r="F192" s="7" t="n">
-        <v>885</v>
+        <v>892</v>
       </c>
       <c r="G192" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="H192" s="16" t="n">
-        <v>8.07</v>
+        <v>4.02</v>
       </c>
       <c r="J192" s="5" t="n"/>
       <c r="L192" s="14" t="inlineStr">
@@ -9337,49 +9337,49 @@
       </c>
       <c r="M192" s="7" t="inlineStr">
         <is>
-          <t>Kristian Drabløs</t>
+          <t>Kim Kamanzi</t>
         </is>
       </c>
       <c r="N192" s="7" t="n">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="O192" s="15" t="n">
-        <v>22.75</v>
+        <v>22.72</v>
       </c>
       <c r="P192" s="7" t="n">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="Q192" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Asker</t>
         </is>
       </c>
       <c r="R192" s="16" t="n">
-        <v>12.02</v>
+        <v>10.06</v>
       </c>
       <c r="T192" s="5" t="n"/>
     </row>
     <row r="193" ht="13" customHeight="1">
       <c r="B193" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C193" s="7" t="inlineStr">
         <is>
-          <t>Kristian Bråthen Børve</t>
+          <t>Markus Einan</t>
         </is>
       </c>
       <c r="D193" s="7" t="n">
-        <v>2006</v>
+        <v>1997</v>
       </c>
       <c r="E193" s="17" t="inlineStr">
         <is>
-          <t>3,49,76</t>
+          <t>1,51,21</t>
         </is>
       </c>
       <c r="F193" s="7" t="n">
-        <v>867</v>
+        <v>885</v>
       </c>
       <c r="G193" s="7" t="inlineStr">
         <is>
@@ -9387,59 +9387,59 @@
         </is>
       </c>
       <c r="H193" s="16" t="n">
-        <v>8.06</v>
+        <v>8.07</v>
       </c>
       <c r="J193" s="5" t="n"/>
       <c r="L193" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M193" s="7" t="inlineStr">
         <is>
-          <t>Sigmund Le Fjeld</t>
+          <t>Kristian Drabløs</t>
         </is>
       </c>
       <c r="N193" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="O193" s="15" t="n">
-        <v>11.27</v>
+        <v>22.75</v>
       </c>
       <c r="P193" s="7" t="n">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="Q193" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R193" s="16" t="n">
-        <v>3.06</v>
+        <v>12.02</v>
       </c>
       <c r="T193" s="5" t="n"/>
     </row>
     <row r="194" ht="13" customHeight="1">
       <c r="B194" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C194" s="7" t="inlineStr">
         <is>
-          <t>Trym Fjøsne-Hexeberg</t>
+          <t>Kristian Bråthen Børve</t>
         </is>
       </c>
       <c r="D194" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="E194" s="17" t="inlineStr">
         <is>
-          <t>8,21,15</t>
+          <t>3,49,76</t>
         </is>
       </c>
       <c r="F194" s="7" t="n">
-        <v>854</v>
+        <v>867</v>
       </c>
       <c r="G194" s="7" t="inlineStr">
         <is>
@@ -9447,59 +9447,59 @@
         </is>
       </c>
       <c r="H194" s="16" t="n">
-        <v>11.08</v>
+        <v>8.06</v>
       </c>
       <c r="J194" s="5" t="n"/>
       <c r="L194" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M194" s="7" t="inlineStr">
         <is>
-          <t>Markus Le Fjeld</t>
+          <t>Sigmund Le Fjeld</t>
         </is>
       </c>
       <c r="N194" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O194" s="15" t="n">
-        <v>22.78</v>
+        <v>11.27</v>
       </c>
       <c r="P194" s="7" t="n">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="Q194" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R194" s="16" t="n">
-        <v>14.01</v>
+        <v>3.06</v>
       </c>
       <c r="T194" s="5" t="n"/>
     </row>
     <row r="195" ht="13" customHeight="1">
       <c r="B195" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C195" s="7" t="inlineStr">
         <is>
-          <t>Merih Solomon Hailemicheal</t>
+          <t>Trym Fjøsne-Hexeberg</t>
         </is>
       </c>
       <c r="D195" s="7" t="n">
-        <v>1991</v>
+        <v>2003</v>
       </c>
       <c r="E195" s="17" t="inlineStr">
         <is>
-          <t>3,51,39</t>
+          <t>8,21,15</t>
         </is>
       </c>
       <c r="F195" s="7" t="n">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="G195" s="7" t="inlineStr">
         <is>
@@ -9507,35 +9507,35 @@
         </is>
       </c>
       <c r="H195" s="16" t="n">
-        <v>12.08</v>
+        <v>11.08</v>
       </c>
       <c r="J195" s="5" t="n"/>
       <c r="L195" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M195" s="7" t="inlineStr">
         <is>
-          <t>Sigmund Le Fjeld</t>
+          <t>Tobias Windjusveen</t>
         </is>
       </c>
       <c r="N195" s="7" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="O195" s="15" t="n">
-        <v>22.83</v>
+        <v>7.21</v>
       </c>
       <c r="P195" s="7" t="n">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="Q195" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R195" s="16" t="n">
-        <v>12.02</v>
+        <v>19.08</v>
       </c>
       <c r="T195" s="5" t="n"/>
     </row>
@@ -9575,17 +9575,17 @@
       </c>
       <c r="M196" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Hertwig-Ødegaard</t>
+          <t>Markus Le Fjeld</t>
         </is>
       </c>
       <c r="N196" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="O196" s="15" t="n">
-        <v>22.88</v>
+        <v>22.78</v>
       </c>
       <c r="P196" s="7" t="n">
-        <v>761</v>
+        <v>772</v>
       </c>
       <c r="Q196" s="7" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         </is>
       </c>
       <c r="R196" s="16" t="n">
-        <v>12.02</v>
+        <v>14.01</v>
       </c>
       <c r="T196" s="5" t="n"/>
     </row>
@@ -9862,7 +9862,7 @@
         </is>
       </c>
       <c r="F202" s="20" t="n">
-        <v>11861</v>
+        <v>11975</v>
       </c>
       <c r="J202" s="5" t="n"/>
       <c r="L202" s="19" t="inlineStr">
@@ -9879,7 +9879,7 @@
         </is>
       </c>
       <c r="P202" s="20" t="n">
-        <v>11418</v>
+        <v>11490</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
@@ -9902,7 +9902,7 @@
         </is>
       </c>
       <c r="F204" s="20" t="n">
-        <v>23404</v>
+        <v>23518</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="19" t="inlineStr">
@@ -9919,7 +9919,7 @@
         </is>
       </c>
       <c r="P204" s="20" t="n">
-        <v>23143</v>
+        <v>23261</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -9934,7 +9934,7 @@
         </is>
       </c>
       <c r="C206" s="20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="19" t="inlineStr">
@@ -9943,7 +9943,7 @@
         </is>
       </c>
       <c r="M206" s="20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
@@ -11254,30 +11254,30 @@
       <c r="J239" s="5" t="n"/>
       <c r="L239" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M239" s="7" t="inlineStr">
         <is>
-          <t>Oliver Charles Walvåg</t>
+          <t>Arne Røstad</t>
         </is>
       </c>
       <c r="N239" s="7" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="O239" s="15" t="n">
-        <v>11.47</v>
+        <v>23.19</v>
       </c>
       <c r="P239" s="7" t="n">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="Q239" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R239" s="16" t="n">
-        <v>25.06</v>
+        <v>19.08</v>
       </c>
       <c r="T239" s="5" t="n"/>
     </row>
@@ -11319,17 +11319,17 @@
       </c>
       <c r="M240" s="7" t="inlineStr">
         <is>
-          <t>Arne Røstad</t>
+          <t>Oliver Charles Walvåg</t>
         </is>
       </c>
       <c r="N240" s="7" t="n">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="O240" s="15" t="n">
-        <v>11.49</v>
+        <v>11.47</v>
       </c>
       <c r="P240" s="7" t="n">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="Q240" s="7" t="inlineStr">
         <is>
@@ -11379,25 +11379,25 @@
       </c>
       <c r="M241" s="7" t="inlineStr">
         <is>
-          <t>Bjørn Einar Kjønstad-Prestvik</t>
+          <t>Arne Røstad</t>
         </is>
       </c>
       <c r="N241" s="7" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="O241" s="15" t="n">
-        <v>11.54</v>
+        <v>11.49</v>
       </c>
       <c r="P241" s="7" t="n">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="Q241" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R241" s="16" t="n">
-        <v>10.06</v>
+        <v>25.06</v>
       </c>
       <c r="T241" s="5" t="n"/>
     </row>
@@ -11434,30 +11434,30 @@
       <c r="J242" s="5" t="n"/>
       <c r="L242" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M242" s="7" t="inlineStr">
         <is>
-          <t>Oliver Charles Walvåg</t>
+          <t>Bjørn Einar Kjønstad-Prestvik</t>
         </is>
       </c>
       <c r="N242" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O242" s="15" t="n">
-        <v>23.46</v>
+        <v>11.54</v>
       </c>
       <c r="P242" s="7" t="n">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="Q242" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R242" s="16" t="n">
-        <v>23.06</v>
+        <v>10.06</v>
       </c>
       <c r="T242" s="5" t="n"/>
     </row>
@@ -11494,30 +11494,30 @@
       <c r="J243" s="5" t="n"/>
       <c r="L243" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M243" s="7" t="inlineStr">
         <is>
-          <t>Arne Røstad</t>
+          <t>Emil Vestre</t>
         </is>
       </c>
       <c r="N243" s="7" t="n">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="O243" s="15" t="n">
-        <v>23.48</v>
+        <v>11.58</v>
       </c>
       <c r="P243" s="7" t="n">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="Q243" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R243" s="16" t="n">
-        <v>11.08</v>
+        <v>19.08</v>
       </c>
       <c r="T243" s="5" t="n"/>
     </row>
@@ -11554,30 +11554,30 @@
       <c r="J244" s="5" t="n"/>
       <c r="L244" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M244" s="7" t="inlineStr">
         <is>
-          <t>Sander Frøseth Fenes</t>
+          <t>Oliver Charles Walvåg</t>
         </is>
       </c>
       <c r="N244" s="7" t="n">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="O244" s="15" t="n">
-        <v>11.61</v>
+        <v>23.46</v>
       </c>
       <c r="P244" s="7" t="n">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="Q244" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R244" s="16" t="n">
-        <v>17.06</v>
+        <v>23.06</v>
       </c>
       <c r="T244" s="5" t="n"/>
     </row>
@@ -11617,17 +11617,17 @@
       </c>
       <c r="M245" s="7" t="inlineStr">
         <is>
-          <t>Emil Vestre</t>
+          <t>Sander Frøseth Fenes</t>
         </is>
       </c>
       <c r="N245" s="7" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="O245" s="15" t="n">
-        <v>11.62</v>
+        <v>11.61</v>
       </c>
       <c r="P245" s="7" t="n">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="Q245" s="7" t="inlineStr">
         <is>
@@ -11675,25 +11675,25 @@
       </c>
       <c r="M246" s="7" t="inlineStr">
         <is>
-          <t>Bjørn Einar Kjønstad-Prestvik</t>
+          <t>Emil Vestre</t>
         </is>
       </c>
       <c r="N246" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="O246" s="15" t="n">
-        <v>23.55</v>
+        <v>23.53</v>
       </c>
       <c r="P246" s="7" t="n">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="Q246" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R246" s="16" t="n">
-        <v>3.06</v>
+        <v>19.08</v>
       </c>
       <c r="T246" s="5" t="n"/>
     </row>
@@ -11730,30 +11730,30 @@
       <c r="J247" s="5" t="n"/>
       <c r="L247" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M247" s="7" t="inlineStr">
         <is>
-          <t>Sander Frøseth Fenes</t>
+          <t>Bjørn Einar Kjønstad-Prestvik</t>
         </is>
       </c>
       <c r="N247" s="7" t="n">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="O247" s="15" t="n">
-        <v>7.44</v>
+        <v>23.55</v>
       </c>
       <c r="P247" s="7" t="n">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="Q247" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R247" s="16" t="n">
-        <v>11.02</v>
+        <v>3.06</v>
       </c>
       <c r="T247" s="5" t="n"/>
     </row>
@@ -12099,7 +12099,7 @@
         </is>
       </c>
       <c r="P254" s="20" t="n">
-        <v>10091</v>
+        <v>10142</v>
       </c>
       <c r="T254" s="5" t="n"/>
     </row>
@@ -12139,7 +12139,7 @@
         </is>
       </c>
       <c r="P256" s="20" t="n">
-        <v>21235</v>
+        <v>21286</v>
       </c>
       <c r="T256" s="5" t="n"/>
     </row>
@@ -16632,25 +16632,25 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Kristiansands IF Friidrett</t>
+          <t>IL Sandvin</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>(25/11)</t>
+          <t>(25/9)</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>16964</v>
+        <v>17019</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>(1/3d)</t>
+          <t>(8)</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Buskerud</t>
         </is>
       </c>
     </row>
@@ -16660,25 +16660,25 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IL Sandvin</t>
+          <t>Kristiansands IF Friidrett</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>(25/9)</t>
+          <t>(25/11)</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>16960</v>
+        <v>16964</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>(8)</t>
+          <t>(1/3d)</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Agder</t>
         </is>
       </c>
     </row>
@@ -16809,7 +16809,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>15468</v>
+        <v>15515</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -16917,11 +16917,11 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>(16/12)</t>
+          <t>(17/11)</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>8585</v>
+        <v>8810</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
       </c>
       <c r="M49" s="7" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Buskerud</t>
         </is>
       </c>
       <c r="P49" s="8" t="n">
@@ -19009,7 +19009,7 @@
       </c>
       <c r="M50" s="7" t="inlineStr">
         <is>
-          <t>Kristiansands IF Friidrett</t>
+          <t>IL Sandvin</t>
         </is>
       </c>
       <c r="T50" s="5" t="n"/>
@@ -19166,17 +19166,17 @@
       </c>
       <c r="M56" s="7" t="inlineStr">
         <is>
-          <t>Johannes Steinsland Gulbrandsen Lunde</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="N56" s="7" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="O56" s="15" t="n">
-        <v>7.18</v>
+        <v>6.96</v>
       </c>
       <c r="P56" s="7" t="n">
-        <v>785</v>
+        <v>882</v>
       </c>
       <c r="Q56" s="7" t="inlineStr">
         <is>
@@ -19184,7 +19184,7 @@
         </is>
       </c>
       <c r="R56" s="16" t="n">
-        <v>11.02</v>
+        <v>18.02</v>
       </c>
       <c r="T56" s="5" t="n"/>
     </row>
@@ -19224,17 +19224,17 @@
       </c>
       <c r="M57" s="7" t="inlineStr">
         <is>
-          <t>Tobias Dybos Larsson</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="N57" s="7" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="O57" s="15" t="n">
-        <v>11.11</v>
+        <v>10.67</v>
       </c>
       <c r="P57" s="7" t="n">
-        <v>814</v>
+        <v>929</v>
       </c>
       <c r="Q57" s="7" t="inlineStr">
         <is>
@@ -19242,7 +19242,7 @@
         </is>
       </c>
       <c r="R57" s="16" t="n">
-        <v>6.07</v>
+        <v>13.08</v>
       </c>
       <c r="T57" s="5" t="n"/>
     </row>
@@ -19282,25 +19282,25 @@
       </c>
       <c r="M58" s="7" t="inlineStr">
         <is>
-          <t>Johannes Steinsland Gulbrandsen Lunde</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="N58" s="7" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="O58" s="15" t="n">
-        <v>22.61</v>
+        <v>22.05</v>
       </c>
       <c r="P58" s="7" t="n">
-        <v>791</v>
+        <v>855</v>
       </c>
       <c r="Q58" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R58" s="16" t="n">
-        <v>16.06</v>
+        <v>2.07</v>
       </c>
       <c r="T58" s="5" t="n"/>
     </row>
@@ -19340,25 +19340,25 @@
       </c>
       <c r="M59" s="7" t="inlineStr">
         <is>
-          <t>Snorre Cornelius Sund</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="N59" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="O59" s="15" t="n">
-        <v>54.03</v>
+        <v>51.39</v>
       </c>
       <c r="P59" s="7" t="n">
-        <v>602</v>
+        <v>716</v>
       </c>
       <c r="Q59" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R59" s="16" t="n">
-        <v>18.06</v>
+        <v>20.05</v>
       </c>
       <c r="T59" s="5" t="n"/>
     </row>
@@ -19400,27 +19400,27 @@
       </c>
       <c r="M60" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Tveit</t>
+          <t>Tobias Kalmo Thorbjørnsen</t>
         </is>
       </c>
       <c r="N60" s="7" t="n">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="O60" s="17" t="inlineStr">
         <is>
-          <t>1,49,94</t>
+          <t>2,24,89</t>
         </is>
       </c>
       <c r="P60" s="7" t="n">
-        <v>918</v>
+        <v>347</v>
       </c>
       <c r="Q60" s="7" t="inlineStr">
         <is>
-          <t>Chengdu/CHN</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R60" s="16" t="n">
-        <v>4.08</v>
+        <v>29.01</v>
       </c>
       <c r="T60" s="5" t="n"/>
     </row>
@@ -19462,27 +19462,27 @@
       </c>
       <c r="M61" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Tveit</t>
+          <t>Hans Øyvind Sundve</t>
         </is>
       </c>
       <c r="N61" s="7" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="O61" s="17" t="inlineStr">
         <is>
-          <t>3,40,46</t>
+          <t>4,50,73</t>
         </is>
       </c>
       <c r="P61" s="7" t="n">
-        <v>980</v>
+        <v>401</v>
       </c>
       <c r="Q61" s="7" t="inlineStr">
         <is>
-          <t>Lappeenranta/FIN</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="R61" s="16" t="n">
-        <v>19.07</v>
+        <v>6.05</v>
       </c>
       <c r="T61" s="5" t="n"/>
     </row>
@@ -19519,32 +19519,30 @@
       <c r="J62" s="5" t="n"/>
       <c r="L62" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M62" s="7" t="inlineStr">
         <is>
-          <t>Daniel Loka</t>
+          <t>Marcus Valentin Giörtz Mondoka</t>
         </is>
       </c>
       <c r="N62" s="7" t="n">
         <v>2007</v>
       </c>
-      <c r="O62" s="17" t="inlineStr">
-        <is>
-          <t>10,08,79</t>
-        </is>
+      <c r="O62" s="15" t="n">
+        <v>1.85</v>
       </c>
       <c r="P62" s="7" t="n">
-        <v>465</v>
+        <v>696</v>
       </c>
       <c r="Q62" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R62" s="16" t="n">
-        <v>3.06</v>
+        <v>13.08</v>
       </c>
       <c r="T62" s="5" t="n"/>
     </row>
@@ -19581,32 +19579,30 @@
       <c r="J63" s="5" t="n"/>
       <c r="L63" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M63" s="7" t="inlineStr">
         <is>
-          <t>Martin Ukkelberg Sløgedal</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="N63" s="7" t="n">
         <v>2005</v>
       </c>
-      <c r="O63" s="17" t="inlineStr">
-        <is>
-          <t>15,24,41</t>
-        </is>
+      <c r="O63" s="15" t="n">
+        <v>4.5</v>
       </c>
       <c r="P63" s="7" t="n">
-        <v>719</v>
+        <v>814</v>
       </c>
       <c r="Q63" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R63" s="16" t="n">
-        <v>6.07</v>
+        <v>21.05</v>
       </c>
       <c r="T63" s="5" t="n"/>
     </row>
@@ -19643,32 +19639,30 @@
       <c r="J64" s="5" t="n"/>
       <c r="L64" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M64" s="7" t="inlineStr">
         <is>
-          <t>Martin Ukkelberg Sløgedal</t>
+          <t>Marcus Valentin Giörtz Mondoka</t>
         </is>
       </c>
       <c r="N64" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O64" s="17" t="inlineStr">
-        <is>
-          <t>31,52,87</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O64" s="15" t="n">
+        <v>6.02</v>
       </c>
       <c r="P64" s="7" t="n">
-        <v>745</v>
+        <v>611</v>
       </c>
       <c r="Q64" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R64" s="16" t="n">
-        <v>3.06</v>
+        <v>16.06</v>
       </c>
       <c r="T64" s="5" t="n"/>
     </row>
@@ -19703,30 +19697,30 @@
       <c r="J65" s="5" t="n"/>
       <c r="L65" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M65" s="7" t="inlineStr">
         <is>
-          <t>Johannes Steinsland Gulbrandsen Lunde</t>
+          <t>Lucas Bricot</t>
         </is>
       </c>
       <c r="N65" s="7" t="n">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="O65" s="15" t="n">
-        <v>6.4</v>
+        <v>11.86</v>
       </c>
       <c r="P65" s="7" t="n">
-        <v>696</v>
+        <v>544</v>
       </c>
       <c r="Q65" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sande</t>
         </is>
       </c>
       <c r="R65" s="16" t="n">
-        <v>19.02</v>
+        <v>12.06</v>
       </c>
       <c r="T65" s="5" t="n"/>
     </row>
@@ -19766,25 +19760,25 @@
       </c>
       <c r="M66" s="7" t="inlineStr">
         <is>
-          <t>Johannes Steinsland Gulbrandsen Lunde</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="N66" s="7" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="O66" s="15" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="P66" s="7" t="n">
-        <v>561</v>
+        <v>503</v>
       </c>
       <c r="Q66" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="R66" s="16" t="n">
-        <v>13.01</v>
+        <v>13.04</v>
       </c>
       <c r="T66" s="5" t="n"/>
     </row>
@@ -19819,30 +19813,30 @@
       <c r="J67" s="5" t="n"/>
       <c r="L67" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M67" s="7" t="inlineStr">
         <is>
-          <t>Åsmund Frøyen</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="N67" s="7" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="O67" s="15" t="n">
-        <v>33.23</v>
+        <v>2.96</v>
       </c>
       <c r="P67" s="7" t="n">
-        <v>551</v>
+        <v>650</v>
       </c>
       <c r="Q67" s="7" t="inlineStr">
         <is>
-          <t>Arendal</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R67" s="16" t="n">
-        <v>19.08</v>
+        <v>19.02</v>
       </c>
       <c r="T67" s="5" t="n"/>
     </row>
@@ -19882,25 +19876,25 @@
       </c>
       <c r="M68" s="7" t="inlineStr">
         <is>
-          <t>Daniel Thrana</t>
+          <t>Tobias Kalmo Thorbjørnsen</t>
         </is>
       </c>
       <c r="N68" s="7" t="n">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="O68" s="15" t="n">
-        <v>78.8</v>
+        <v>42.49</v>
       </c>
       <c r="P68" s="7" t="n">
-        <v>1023</v>
+        <v>522</v>
       </c>
       <c r="Q68" s="7" t="inlineStr">
         <is>
-          <t>Haderslev/DEN</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="R68" s="16" t="n">
-        <v>3.06</v>
+        <v>6.05</v>
       </c>
       <c r="T68" s="5" t="n"/>
     </row>
@@ -19954,7 +19948,7 @@
         </is>
       </c>
       <c r="P70" s="20" t="n">
-        <v>9650</v>
+        <v>8470</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
@@ -20092,17 +20086,17 @@
       </c>
       <c r="M75" s="7" t="inlineStr">
         <is>
-          <t>Johannes Steinsland Gulbrandsen Lunde</t>
+          <t>Oliver Tomala</t>
         </is>
       </c>
       <c r="N75" s="7" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="O75" s="15" t="n">
-        <v>11.18</v>
+        <v>11.2</v>
       </c>
       <c r="P75" s="7" t="n">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="Q75" s="7" t="inlineStr">
         <is>
@@ -20110,7 +20104,7 @@
         </is>
       </c>
       <c r="R75" s="16" t="n">
-        <v>6.07</v>
+        <v>13.08</v>
       </c>
       <c r="T75" s="5" t="n"/>
     </row>
@@ -20145,30 +20139,30 @@
       <c r="J76" s="5" t="n"/>
       <c r="L76" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M76" s="7" t="inlineStr">
         <is>
-          <t>Tobias Dybos Larsson</t>
+          <t>Alexander Tomala</t>
         </is>
       </c>
       <c r="N76" s="7" t="n">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="O76" s="15" t="n">
-        <v>7.28</v>
+        <v>11.29</v>
       </c>
       <c r="P76" s="7" t="n">
-        <v>744</v>
+        <v>770</v>
       </c>
       <c r="Q76" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R76" s="16" t="n">
-        <v>18.02</v>
+        <v>13.08</v>
       </c>
       <c r="T76" s="5" t="n"/>
     </row>
@@ -20210,25 +20204,25 @@
       </c>
       <c r="M77" s="7" t="inlineStr">
         <is>
-          <t>Snorre Cornelius Sund</t>
+          <t>Alexander Tomala</t>
         </is>
       </c>
       <c r="N77" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="O77" s="15" t="n">
-        <v>23.12</v>
+        <v>22.84</v>
       </c>
       <c r="P77" s="7" t="n">
-        <v>736</v>
+        <v>766</v>
       </c>
       <c r="Q77" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R77" s="16" t="n">
-        <v>16.06</v>
+        <v>2.07</v>
       </c>
       <c r="T77" s="5" t="n"/>
     </row>
@@ -20263,30 +20257,30 @@
       <c r="J78" s="5" t="n"/>
       <c r="L78" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M78" s="7" t="inlineStr">
         <is>
-          <t>Snorre Cornelius Sund</t>
+          <t>Oliver Tomala</t>
         </is>
       </c>
       <c r="N78" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O78" s="15" t="n">
-        <v>11.44</v>
+        <v>22.88</v>
       </c>
       <c r="P78" s="7" t="n">
-        <v>734</v>
+        <v>761</v>
       </c>
       <c r="Q78" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R78" s="16" t="n">
-        <v>28.06</v>
+        <v>20.08</v>
       </c>
       <c r="T78" s="5" t="n"/>
     </row>
@@ -20321,22 +20315,22 @@
       <c r="J79" s="5" t="n"/>
       <c r="L79" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M79" s="7" t="inlineStr">
         <is>
-          <t>Snorre Cornelius Sund</t>
+          <t>Siver Olavsbråten Ebbestad</t>
         </is>
       </c>
       <c r="N79" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="O79" s="15" t="n">
-        <v>7.33</v>
+        <v>4.2</v>
       </c>
       <c r="P79" s="7" t="n">
-        <v>725</v>
+        <v>759</v>
       </c>
       <c r="Q79" s="7" t="inlineStr">
         <is>
@@ -20344,7 +20338,7 @@
         </is>
       </c>
       <c r="R79" s="16" t="n">
-        <v>11.02</v>
+        <v>17.06</v>
       </c>
       <c r="T79" s="5" t="n"/>
     </row>
@@ -20386,25 +20380,25 @@
       </c>
       <c r="M80" s="7" t="inlineStr">
         <is>
-          <t>Tobias Dybos Larsson</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="N80" s="7" t="n">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="O80" s="15" t="n">
-        <v>23.42</v>
+        <v>23</v>
       </c>
       <c r="P80" s="7" t="n">
-        <v>705</v>
+        <v>748</v>
       </c>
       <c r="Q80" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R80" s="16" t="n">
-        <v>16.06</v>
+        <v>20.08</v>
       </c>
       <c r="T80" s="5" t="n"/>
     </row>
@@ -20444,25 +20438,25 @@
       </c>
       <c r="M81" s="7" t="inlineStr">
         <is>
-          <t>Olai Stav Graasvoll</t>
+          <t>Alexander Tomala</t>
         </is>
       </c>
       <c r="N81" s="7" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="O81" s="15" t="n">
-        <v>7.84</v>
+        <v>7.34</v>
       </c>
       <c r="P81" s="7" t="n">
-        <v>545</v>
+        <v>721</v>
       </c>
       <c r="Q81" s="7" t="inlineStr">
         <is>
-          <t>Søgne</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R81" s="16" t="n">
-        <v>23.05</v>
+        <v>4.03</v>
       </c>
       <c r="T81" s="5" t="n"/>
     </row>
@@ -20497,30 +20491,30 @@
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M82" s="7" t="inlineStr">
         <is>
-          <t>Daniel Thrana</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="N82" s="7" t="n">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="O82" s="15" t="n">
-        <v>11.04</v>
+        <v>11.55</v>
       </c>
       <c r="P82" s="7" t="n">
-        <v>527</v>
+        <v>709</v>
       </c>
       <c r="Q82" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R82" s="16" t="n">
-        <v>28.01</v>
+        <v>13.08</v>
       </c>
       <c r="T82" s="5" t="n"/>
     </row>
@@ -20555,30 +20549,30 @@
       <c r="J83" s="5" t="n"/>
       <c r="L83" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M83" s="7" t="inlineStr">
         <is>
-          <t>Olai Stav Graasvoll</t>
+          <t>Oliver Tomala</t>
         </is>
       </c>
       <c r="N83" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="O83" s="15" t="n">
-        <v>12.48</v>
+        <v>7.42</v>
       </c>
       <c r="P83" s="7" t="n">
-        <v>515</v>
+        <v>690</v>
       </c>
       <c r="Q83" s="7" t="inlineStr">
         <is>
-          <t>Søgne</t>
+          <t>Asker</t>
         </is>
       </c>
       <c r="R83" s="16" t="n">
-        <v>23.05</v>
+        <v>11.06</v>
       </c>
       <c r="T83" s="5" t="n"/>
     </row>
@@ -20613,30 +20607,30 @@
       <c r="J84" s="5" t="n"/>
       <c r="L84" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M84" s="7" t="inlineStr">
         <is>
-          <t>Olai Stav Graasvoll</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="N84" s="7" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="O84" s="15" t="n">
-        <v>5.5</v>
+        <v>1.84</v>
       </c>
       <c r="P84" s="7" t="n">
-        <v>491</v>
+        <v>687</v>
       </c>
       <c r="Q84" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R84" s="16" t="n">
-        <v>25.05</v>
+        <v>20.05</v>
       </c>
       <c r="T84" s="5" t="n"/>
     </row>
@@ -20671,30 +20665,30 @@
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M85" s="7" t="inlineStr">
         <is>
-          <t>Hans Horn Tønnessen</t>
+          <t>Tobias Kalmo Thorbjørnsen</t>
         </is>
       </c>
       <c r="N85" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="O85" s="15" t="n">
-        <v>5.12</v>
+        <v>3.37</v>
       </c>
       <c r="P85" s="7" t="n">
-        <v>400</v>
+        <v>586</v>
       </c>
       <c r="Q85" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R85" s="16" t="n">
-        <v>28.01</v>
+        <v>11.02</v>
       </c>
       <c r="T85" s="5" t="n"/>
     </row>
@@ -20734,25 +20728,25 @@
       </c>
       <c r="M86" s="7" t="inlineStr">
         <is>
-          <t>Theodor Gutvik</t>
+          <t>Lucas Bricot</t>
         </is>
       </c>
       <c r="N86" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="O86" s="15" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="P86" s="7" t="n">
-        <v>396</v>
+        <v>561</v>
       </c>
       <c r="Q86" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R86" s="16" t="n">
-        <v>7.05</v>
+        <v>16.06</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -20806,7 +20800,7 @@
         </is>
       </c>
       <c r="P88" s="20" t="n">
-        <v>7314</v>
+        <v>8549</v>
       </c>
       <c r="T88" s="5" t="n"/>
     </row>
@@ -20846,7 +20840,7 @@
         </is>
       </c>
       <c r="P90" s="20" t="n">
-        <v>16964</v>
+        <v>17019</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
@@ -20870,7 +20864,7 @@
         </is>
       </c>
       <c r="M92" s="20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T92" s="5" t="n"/>
     </row>
@@ -20912,7 +20906,7 @@
       </c>
       <c r="C96" s="7" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Agder</t>
         </is>
       </c>
       <c r="F96" s="8" t="n">
@@ -20942,7 +20936,7 @@
       </c>
       <c r="C97" s="7" t="inlineStr">
         <is>
-          <t>IL Sandvin</t>
+          <t>Kristiansands IF Friidrett</t>
         </is>
       </c>
       <c r="J97" s="5" t="n"/>
@@ -21082,17 +21076,17 @@
       </c>
       <c r="C103" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Johannes Steinsland Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="D103" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E103" s="15" t="n">
-        <v>6.96</v>
+        <v>7.18</v>
       </c>
       <c r="F103" s="7" t="n">
-        <v>882</v>
+        <v>785</v>
       </c>
       <c r="G103" s="7" t="inlineStr">
         <is>
@@ -21100,7 +21094,7 @@
         </is>
       </c>
       <c r="H103" s="16" t="n">
-        <v>18.02</v>
+        <v>11.02</v>
       </c>
       <c r="J103" s="5" t="n"/>
       <c r="L103" s="14" t="inlineStr">
@@ -21140,17 +21134,17 @@
       </c>
       <c r="C104" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Tobias Dybos Larsson</t>
         </is>
       </c>
       <c r="D104" s="7" t="n">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="E104" s="15" t="n">
-        <v>10.67</v>
+        <v>11.11</v>
       </c>
       <c r="F104" s="7" t="n">
-        <v>929</v>
+        <v>814</v>
       </c>
       <c r="G104" s="7" t="inlineStr">
         <is>
@@ -21158,7 +21152,7 @@
         </is>
       </c>
       <c r="H104" s="16" t="n">
-        <v>13.08</v>
+        <v>6.07</v>
       </c>
       <c r="J104" s="5" t="n"/>
       <c r="L104" s="14" t="inlineStr">
@@ -21198,25 +21192,25 @@
       </c>
       <c r="C105" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Johannes Steinsland Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="D105" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E105" s="15" t="n">
-        <v>22.05</v>
+        <v>22.61</v>
       </c>
       <c r="F105" s="7" t="n">
-        <v>855</v>
+        <v>791</v>
       </c>
       <c r="G105" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H105" s="16" t="n">
-        <v>2.07</v>
+        <v>16.06</v>
       </c>
       <c r="J105" s="5" t="n"/>
       <c r="L105" s="14" t="inlineStr">
@@ -21256,25 +21250,25 @@
       </c>
       <c r="C106" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Snorre Cornelius Sund</t>
         </is>
       </c>
       <c r="D106" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E106" s="15" t="n">
-        <v>51.39</v>
+        <v>54.03</v>
       </c>
       <c r="F106" s="7" t="n">
-        <v>716</v>
+        <v>602</v>
       </c>
       <c r="G106" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H106" s="16" t="n">
-        <v>20.05</v>
+        <v>18.06</v>
       </c>
       <c r="J106" s="5" t="n"/>
       <c r="L106" s="14" t="inlineStr">
@@ -21314,27 +21308,27 @@
       </c>
       <c r="C107" s="7" t="inlineStr">
         <is>
-          <t>Tobias Kalmo Thorbjørnsen</t>
+          <t>Sigurd Tveit</t>
         </is>
       </c>
       <c r="D107" s="7" t="n">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="E107" s="17" t="inlineStr">
         <is>
-          <t>2,24,89</t>
+          <t>1,49,94</t>
         </is>
       </c>
       <c r="F107" s="7" t="n">
-        <v>347</v>
+        <v>918</v>
       </c>
       <c r="G107" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Chengdu/CHN</t>
         </is>
       </c>
       <c r="H107" s="16" t="n">
-        <v>29.01</v>
+        <v>4.08</v>
       </c>
       <c r="J107" s="5" t="n"/>
       <c r="L107" s="14" t="inlineStr">
@@ -21376,27 +21370,27 @@
       </c>
       <c r="C108" s="7" t="inlineStr">
         <is>
-          <t>Hans Øyvind Sundve</t>
+          <t>Sigurd Tveit</t>
         </is>
       </c>
       <c r="D108" s="7" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="E108" s="17" t="inlineStr">
         <is>
-          <t>4,50,73</t>
+          <t>3,40,46</t>
         </is>
       </c>
       <c r="F108" s="7" t="n">
-        <v>401</v>
+        <v>980</v>
       </c>
       <c r="G108" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Lappeenranta/FIN</t>
         </is>
       </c>
       <c r="H108" s="16" t="n">
-        <v>6.05</v>
+        <v>19.07</v>
       </c>
       <c r="J108" s="5" t="n"/>
       <c r="L108" s="14" t="inlineStr">
@@ -21433,30 +21427,32 @@
     <row r="109" ht="13" customHeight="1">
       <c r="B109" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C109" s="7" t="inlineStr">
         <is>
-          <t>Marcus Valentin Giörtz Mondoka</t>
+          <t>Daniel Loka</t>
         </is>
       </c>
       <c r="D109" s="7" t="n">
         <v>2007</v>
       </c>
-      <c r="E109" s="15" t="n">
-        <v>1.85</v>
+      <c r="E109" s="17" t="inlineStr">
+        <is>
+          <t>10,08,79</t>
+        </is>
       </c>
       <c r="F109" s="7" t="n">
-        <v>696</v>
+        <v>465</v>
       </c>
       <c r="G109" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H109" s="16" t="n">
-        <v>13.08</v>
+        <v>3.06</v>
       </c>
       <c r="J109" s="5" t="n"/>
       <c r="L109" s="14" t="inlineStr">
@@ -21493,30 +21489,32 @@
     <row r="110" ht="13" customHeight="1">
       <c r="B110" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C110" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Martin Ukkelberg Sløgedal</t>
         </is>
       </c>
       <c r="D110" s="7" t="n">
         <v>2005</v>
       </c>
-      <c r="E110" s="15" t="n">
-        <v>4.5</v>
+      <c r="E110" s="17" t="inlineStr">
+        <is>
+          <t>15,24,41</t>
+        </is>
       </c>
       <c r="F110" s="7" t="n">
-        <v>814</v>
+        <v>719</v>
       </c>
       <c r="G110" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H110" s="16" t="n">
-        <v>21.05</v>
+        <v>6.07</v>
       </c>
       <c r="J110" s="5" t="n"/>
       <c r="L110" s="14" t="inlineStr">
@@ -21553,30 +21551,32 @@
     <row r="111" ht="13" customHeight="1">
       <c r="B111" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="C111" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Martin Ukkelberg Sløgedal</t>
         </is>
       </c>
       <c r="D111" s="7" t="n">
         <v>2005</v>
       </c>
-      <c r="E111" s="15" t="n">
-        <v>6.28</v>
+      <c r="E111" s="17" t="inlineStr">
+        <is>
+          <t>31,52,87</t>
+        </is>
       </c>
       <c r="F111" s="7" t="n">
-        <v>669</v>
+        <v>745</v>
       </c>
       <c r="G111" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H111" s="16" t="n">
-        <v>20.05</v>
+        <v>3.06</v>
       </c>
       <c r="J111" s="5" t="n"/>
       <c r="L111" s="14" t="inlineStr">
@@ -21613,30 +21613,30 @@
     <row r="112" ht="13" customHeight="1">
       <c r="B112" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C112" s="7" t="inlineStr">
         <is>
-          <t>Lucas Bricot</t>
+          <t>Johannes Steinsland Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="D112" s="7" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="E112" s="15" t="n">
-        <v>11.86</v>
+        <v>6.4</v>
       </c>
       <c r="F112" s="7" t="n">
-        <v>544</v>
+        <v>696</v>
       </c>
       <c r="G112" s="7" t="inlineStr">
         <is>
-          <t>Sande</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H112" s="16" t="n">
-        <v>12.06</v>
+        <v>19.02</v>
       </c>
       <c r="J112" s="5" t="n"/>
       <c r="L112" s="14" t="inlineStr">
@@ -21676,25 +21676,25 @@
       </c>
       <c r="C113" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Johannes Steinsland Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="D113" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E113" s="15" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="F113" s="7" t="n">
-        <v>503</v>
+        <v>561</v>
       </c>
       <c r="G113" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H113" s="16" t="n">
-        <v>13.04</v>
+        <v>13.01</v>
       </c>
       <c r="J113" s="5" t="n"/>
       <c r="L113" s="14" t="inlineStr">
@@ -21729,30 +21729,30 @@
     <row r="114" ht="13" customHeight="1">
       <c r="B114" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C114" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Åsmund Frøyen</t>
         </is>
       </c>
       <c r="D114" s="7" t="n">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="E114" s="15" t="n">
-        <v>2.96</v>
+        <v>33.23</v>
       </c>
       <c r="F114" s="7" t="n">
-        <v>650</v>
+        <v>551</v>
       </c>
       <c r="G114" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Arendal</t>
         </is>
       </c>
       <c r="H114" s="16" t="n">
-        <v>19.02</v>
+        <v>19.08</v>
       </c>
       <c r="J114" s="5" t="n"/>
       <c r="L114" s="14" t="inlineStr">
@@ -21792,25 +21792,25 @@
       </c>
       <c r="C115" s="7" t="inlineStr">
         <is>
-          <t>Tobias Kalmo Thorbjørnsen</t>
+          <t>Daniel Thrana</t>
         </is>
       </c>
       <c r="D115" s="7" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="E115" s="15" t="n">
-        <v>42.49</v>
+        <v>78.8</v>
       </c>
       <c r="F115" s="7" t="n">
-        <v>522</v>
+        <v>1023</v>
       </c>
       <c r="G115" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Haderslev/DEN</t>
         </is>
       </c>
       <c r="H115" s="16" t="n">
-        <v>6.05</v>
+        <v>3.06</v>
       </c>
       <c r="J115" s="5" t="n"/>
       <c r="L115" s="14" t="inlineStr">
@@ -21875,7 +21875,7 @@
         </is>
       </c>
       <c r="F117" s="20" t="n">
-        <v>8528</v>
+        <v>9650</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="19" t="inlineStr">
@@ -22000,17 +22000,17 @@
       </c>
       <c r="C122" s="7" t="inlineStr">
         <is>
-          <t>Oliver Tomala</t>
+          <t>Johannes Steinsland Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="D122" s="7" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="E122" s="15" t="n">
-        <v>11.2</v>
+        <v>11.18</v>
       </c>
       <c r="F122" s="7" t="n">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="G122" s="7" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         </is>
       </c>
       <c r="H122" s="16" t="n">
-        <v>13.08</v>
+        <v>6.07</v>
       </c>
       <c r="J122" s="5" t="n"/>
       <c r="L122" s="14" t="inlineStr">
@@ -22053,30 +22053,30 @@
     <row r="123" ht="13" customHeight="1">
       <c r="B123" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C123" s="7" t="inlineStr">
         <is>
-          <t>Alexander Tomala</t>
+          <t>Tobias Dybos Larsson</t>
         </is>
       </c>
       <c r="D123" s="7" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="E123" s="15" t="n">
-        <v>11.29</v>
+        <v>7.28</v>
       </c>
       <c r="F123" s="7" t="n">
-        <v>770</v>
+        <v>744</v>
       </c>
       <c r="G123" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H123" s="16" t="n">
-        <v>13.08</v>
+        <v>18.02</v>
       </c>
       <c r="J123" s="5" t="n"/>
       <c r="L123" s="14" t="inlineStr">
@@ -22116,25 +22116,25 @@
       </c>
       <c r="C124" s="7" t="inlineStr">
         <is>
-          <t>Alexander Tomala</t>
+          <t>Snorre Cornelius Sund</t>
         </is>
       </c>
       <c r="D124" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E124" s="15" t="n">
-        <v>22.84</v>
+        <v>23.12</v>
       </c>
       <c r="F124" s="7" t="n">
-        <v>766</v>
+        <v>736</v>
       </c>
       <c r="G124" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H124" s="16" t="n">
-        <v>2.07</v>
+        <v>16.06</v>
       </c>
       <c r="J124" s="5" t="n"/>
       <c r="L124" s="14" t="inlineStr">
@@ -22169,30 +22169,30 @@
     <row r="125" ht="13" customHeight="1">
       <c r="B125" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C125" s="7" t="inlineStr">
         <is>
-          <t>Siver Olavsbråten Ebbestad</t>
+          <t>Snorre Cornelius Sund</t>
         </is>
       </c>
       <c r="D125" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E125" s="15" t="n">
-        <v>4.2</v>
+        <v>11.44</v>
       </c>
       <c r="F125" s="7" t="n">
-        <v>759</v>
+        <v>734</v>
       </c>
       <c r="G125" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H125" s="16" t="n">
-        <v>17.06</v>
+        <v>28.06</v>
       </c>
       <c r="J125" s="5" t="n"/>
       <c r="L125" s="14" t="inlineStr">
@@ -22227,30 +22227,30 @@
     <row r="126" ht="13" customHeight="1">
       <c r="B126" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C126" s="7" t="inlineStr">
         <is>
-          <t>Oliver Tomala</t>
+          <t>Snorre Cornelius Sund</t>
         </is>
       </c>
       <c r="D126" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E126" s="15" t="n">
-        <v>22.99</v>
+        <v>7.33</v>
       </c>
       <c r="F126" s="7" t="n">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="G126" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H126" s="16" t="n">
-        <v>23.06</v>
+        <v>11.02</v>
       </c>
       <c r="J126" s="5" t="n"/>
       <c r="L126" s="14" t="inlineStr">
@@ -22285,30 +22285,30 @@
     <row r="127" ht="13" customHeight="1">
       <c r="B127" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C127" s="7" t="inlineStr">
         <is>
-          <t>Alexander Tomala</t>
+          <t>Tobias Dybos Larsson</t>
         </is>
       </c>
       <c r="D127" s="7" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="E127" s="15" t="n">
-        <v>7.34</v>
+        <v>23.42</v>
       </c>
       <c r="F127" s="7" t="n">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="G127" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H127" s="16" t="n">
-        <v>4.03</v>
+        <v>16.06</v>
       </c>
       <c r="J127" s="5" t="n"/>
       <c r="L127" s="14" t="inlineStr">
@@ -22343,30 +22343,30 @@
     <row r="128" ht="13" customHeight="1">
       <c r="B128" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C128" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Olai Stav Graasvoll</t>
         </is>
       </c>
       <c r="D128" s="7" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E128" s="15" t="n">
-        <v>11.55</v>
+        <v>7.84</v>
       </c>
       <c r="F128" s="7" t="n">
-        <v>709</v>
+        <v>545</v>
       </c>
       <c r="G128" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Søgne</t>
         </is>
       </c>
       <c r="H128" s="16" t="n">
-        <v>13.08</v>
+        <v>23.05</v>
       </c>
       <c r="J128" s="5" t="n"/>
       <c r="L128" s="14" t="inlineStr">
@@ -22401,30 +22401,30 @@
     <row r="129" ht="13" customHeight="1">
       <c r="B129" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C129" s="7" t="inlineStr">
         <is>
-          <t>Oliver Tomala</t>
+          <t>Daniel Thrana</t>
         </is>
       </c>
       <c r="D129" s="7" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="E129" s="15" t="n">
-        <v>7.42</v>
+        <v>11.04</v>
       </c>
       <c r="F129" s="7" t="n">
-        <v>690</v>
+        <v>527</v>
       </c>
       <c r="G129" s="7" t="inlineStr">
         <is>
-          <t>Asker</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H129" s="16" t="n">
-        <v>11.06</v>
+        <v>28.01</v>
       </c>
       <c r="J129" s="5" t="n"/>
       <c r="L129" s="14" t="inlineStr">
@@ -22459,30 +22459,30 @@
     <row r="130" ht="13" customHeight="1">
       <c r="B130" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C130" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Olai Stav Graasvoll</t>
         </is>
       </c>
       <c r="D130" s="7" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E130" s="15" t="n">
-        <v>1.84</v>
+        <v>12.48</v>
       </c>
       <c r="F130" s="7" t="n">
-        <v>687</v>
+        <v>515</v>
       </c>
       <c r="G130" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Søgne</t>
         </is>
       </c>
       <c r="H130" s="16" t="n">
-        <v>20.05</v>
+        <v>23.05</v>
       </c>
       <c r="J130" s="5" t="n"/>
       <c r="L130" s="14" t="inlineStr">
@@ -22522,25 +22522,25 @@
       </c>
       <c r="C131" s="7" t="inlineStr">
         <is>
-          <t>Marcus Valentin Giörtz Mondoka</t>
+          <t>Olai Stav Graasvoll</t>
         </is>
       </c>
       <c r="D131" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E131" s="15" t="n">
-        <v>6.02</v>
+        <v>5.5</v>
       </c>
       <c r="F131" s="7" t="n">
-        <v>611</v>
+        <v>491</v>
       </c>
       <c r="G131" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H131" s="16" t="n">
-        <v>16.06</v>
+        <v>25.05</v>
       </c>
       <c r="J131" s="5" t="n"/>
       <c r="L131" s="14" t="inlineStr">
@@ -22575,30 +22575,30 @@
     <row r="132" ht="13" customHeight="1">
       <c r="B132" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C132" s="7" t="inlineStr">
         <is>
-          <t>Marcus Valentin Giörtz Mondoka</t>
+          <t>Hans Horn Tønnessen</t>
         </is>
       </c>
       <c r="D132" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E132" s="15" t="n">
-        <v>24.59</v>
+        <v>5.12</v>
       </c>
       <c r="F132" s="7" t="n">
-        <v>592</v>
+        <v>400</v>
       </c>
       <c r="G132" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H132" s="16" t="n">
-        <v>17.06</v>
+        <v>28.01</v>
       </c>
       <c r="J132" s="5" t="n"/>
       <c r="L132" s="14" t="inlineStr">
@@ -22633,30 +22633,30 @@
     <row r="133" ht="13" customHeight="1">
       <c r="B133" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C133" s="7" t="inlineStr">
         <is>
-          <t>Tobias Kalmo Thorbjørnsen</t>
+          <t>Theodor Gutvik</t>
         </is>
       </c>
       <c r="D133" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="E133" s="15" t="n">
-        <v>3.37</v>
+        <v>5.1</v>
       </c>
       <c r="F133" s="7" t="n">
-        <v>586</v>
+        <v>396</v>
       </c>
       <c r="G133" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H133" s="16" t="n">
-        <v>11.02</v>
+        <v>7.05</v>
       </c>
       <c r="J133" s="5" t="n"/>
       <c r="L133" s="14" t="inlineStr">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="F135" s="20" t="n">
-        <v>8432</v>
+        <v>7314</v>
       </c>
       <c r="J135" s="5" t="n"/>
       <c r="L135" s="19" t="inlineStr">
@@ -22761,7 +22761,7 @@
         </is>
       </c>
       <c r="F137" s="20" t="n">
-        <v>16960</v>
+        <v>16964</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="19" t="inlineStr">
@@ -22793,7 +22793,7 @@
         </is>
       </c>
       <c r="C139" s="20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J139" s="5" t="n"/>
       <c r="L139" s="19" t="inlineStr">
@@ -25898,25 +25898,25 @@
       </c>
       <c r="M219" s="7" t="inlineStr">
         <is>
-          <t>Vemund Heltzer Sørstad</t>
+          <t>Mikael Girma Worku</t>
         </is>
       </c>
       <c r="N219" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="O219" s="15" t="n">
-        <v>12.07</v>
+        <v>12.05</v>
       </c>
       <c r="P219" s="7" t="n">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="Q219" s="7" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="R219" s="16" t="n">
-        <v>13.05</v>
+        <v>24.08</v>
       </c>
       <c r="T219" s="5" t="n"/>
     </row>
@@ -25951,32 +25951,30 @@
       <c r="J220" s="5" t="n"/>
       <c r="L220" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M220" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Alsaker-Arentz</t>
+          <t>Vemund Heltzer Sørstad</t>
         </is>
       </c>
       <c r="N220" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="O220" s="17" t="inlineStr">
-        <is>
-          <t>9,28,97</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="O220" s="15" t="n">
+        <v>12.07</v>
       </c>
       <c r="P220" s="7" t="n">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="Q220" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Lillestrøm</t>
         </is>
       </c>
       <c r="R220" s="16" t="n">
-        <v>3.06</v>
+        <v>13.05</v>
       </c>
       <c r="T220" s="5" t="n"/>
     </row>
@@ -26011,32 +26009,32 @@
       <c r="J221" s="5" t="n"/>
       <c r="L221" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M221" s="7" t="inlineStr">
         <is>
-          <t>Jonas Hole Sletten</t>
+          <t>Jonathan Alsaker-Arentz</t>
         </is>
       </c>
       <c r="N221" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O221" s="17" t="inlineStr">
         <is>
-          <t>2,06,31</t>
+          <t>9,28,97</t>
         </is>
       </c>
       <c r="P221" s="7" t="n">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="Q221" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R221" s="16" t="n">
-        <v>11.08</v>
+        <v>3.06</v>
       </c>
       <c r="T221" s="5" t="n"/>
     </row>
@@ -26071,30 +26069,32 @@
       <c r="J222" s="5" t="n"/>
       <c r="L222" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M222" s="7" t="inlineStr">
         <is>
-          <t>Mikael Girma Worku</t>
+          <t>Jonas Hole Sletten</t>
         </is>
       </c>
       <c r="N222" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O222" s="15" t="n">
-        <v>12.26</v>
+        <v>2007</v>
+      </c>
+      <c r="O222" s="17" t="inlineStr">
+        <is>
+          <t>2,06,31</t>
+        </is>
       </c>
       <c r="P222" s="7" t="n">
-        <v>558</v>
+        <v>578</v>
       </c>
       <c r="Q222" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R222" s="16" t="n">
-        <v>25.06</v>
+        <v>11.08</v>
       </c>
       <c r="T222" s="5" t="n"/>
     </row>
@@ -26250,25 +26250,25 @@
       </c>
       <c r="M225" s="7" t="inlineStr">
         <is>
-          <t>Vemund Heltzer Sørstad</t>
+          <t>Mikael Girma Worku</t>
         </is>
       </c>
       <c r="N225" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="O225" s="15" t="n">
-        <v>25.33</v>
+        <v>25.27</v>
       </c>
       <c r="P225" s="7" t="n">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="Q225" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R225" s="16" t="n">
-        <v>12.02</v>
+        <v>20.08</v>
       </c>
       <c r="T225" s="5" t="n"/>
     </row>
@@ -26438,7 +26438,7 @@
         </is>
       </c>
       <c r="P229" s="20" t="n">
-        <v>6779</v>
+        <v>6826</v>
       </c>
       <c r="T229" s="5" t="n"/>
     </row>
@@ -26478,7 +26478,7 @@
         </is>
       </c>
       <c r="P231" s="20" t="n">
-        <v>15468</v>
+        <v>15515</v>
       </c>
       <c r="T231" s="5" t="n"/>
     </row>
@@ -28678,25 +28678,25 @@
       </c>
       <c r="M291" s="7" t="inlineStr">
         <is>
-          <t>Lasse Lysgård-Andersen</t>
+          <t>Jiri Hesselink Cornelissen</t>
         </is>
       </c>
       <c r="N291" s="7" t="n">
         <v>2011</v>
       </c>
       <c r="O291" s="15" t="n">
-        <v>9.289999999999999</v>
+        <v>9.07</v>
       </c>
       <c r="P291" s="7" t="n">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="Q291" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R291" s="16" t="n">
-        <v>14.05</v>
+        <v>19.08</v>
       </c>
       <c r="T291" s="5" t="n"/>
     </row>
@@ -28860,19 +28860,19 @@
       </c>
       <c r="O294" s="17" t="inlineStr">
         <is>
-          <t>2,11,77</t>
+          <t>2,06,48</t>
         </is>
       </c>
       <c r="P294" s="7" t="n">
-        <v>500</v>
+        <v>575</v>
       </c>
       <c r="Q294" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R294" s="16" t="n">
-        <v>17.06</v>
+        <v>20.08</v>
       </c>
       <c r="T294" s="5" t="n"/>
     </row>
@@ -29091,7 +29091,7 @@
       <c r="J298" s="5" t="n"/>
       <c r="L298" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M298" s="7" t="inlineStr">
@@ -29103,10 +29103,10 @@
         <v>2008</v>
       </c>
       <c r="O298" s="15" t="n">
-        <v>2.28</v>
+        <v>1.3</v>
       </c>
       <c r="P298" s="7" t="n">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="Q298" s="7" t="inlineStr">
         <is>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="R298" s="16" t="n">
-        <v>2.03</v>
+        <v>19.08</v>
       </c>
       <c r="T298" s="5" t="n"/>
     </row>
@@ -29127,13 +29127,33 @@
       <c r="G299" s="7" t="n"/>
       <c r="H299" s="21" t="n"/>
       <c r="J299" s="5" t="n"/>
-      <c r="L299" s="14" t="n"/>
-      <c r="M299" s="7" t="n"/>
-      <c r="N299" s="7" t="n"/>
-      <c r="O299" s="7" t="n"/>
-      <c r="P299" s="7" t="n"/>
-      <c r="Q299" s="7" t="n"/>
-      <c r="R299" s="21" t="n"/>
+      <c r="L299" s="14" t="inlineStr">
+        <is>
+          <t>Lengde u.t</t>
+        </is>
+      </c>
+      <c r="M299" s="7" t="inlineStr">
+        <is>
+          <t>Sigurd Mengshoel Gausemel</t>
+        </is>
+      </c>
+      <c r="N299" s="7" t="n">
+        <v>2008</v>
+      </c>
+      <c r="O299" s="15" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="P299" s="7" t="n">
+        <v>160</v>
+      </c>
+      <c r="Q299" s="7" t="inlineStr">
+        <is>
+          <t>Nittedal</t>
+        </is>
+      </c>
+      <c r="R299" s="16" t="n">
+        <v>2.03</v>
+      </c>
       <c r="T299" s="5" t="n"/>
     </row>
     <row r="300" ht="13" customHeight="1">
@@ -29250,7 +29270,7 @@
         </is>
       </c>
       <c r="M305" s="20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O305" s="19" t="inlineStr">
         <is>
@@ -29258,7 +29278,7 @@
         </is>
       </c>
       <c r="P305" s="20" t="n">
-        <v>3869</v>
+        <v>4090</v>
       </c>
       <c r="T305" s="5" t="n"/>
     </row>
@@ -29642,11 +29662,11 @@
       </c>
       <c r="O314" s="17" t="inlineStr">
         <is>
-          <t>4,24,72</t>
+          <t>4,24,07</t>
         </is>
       </c>
       <c r="P314" s="7" t="n">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="Q314" s="7" t="inlineStr">
         <is>
@@ -29654,7 +29674,7 @@
         </is>
       </c>
       <c r="R314" s="16" t="n">
-        <v>2.08</v>
+        <v>19.08</v>
       </c>
       <c r="T314" s="5" t="n"/>
     </row>
@@ -29960,7 +29980,7 @@
         </is>
       </c>
       <c r="P323" s="20" t="n">
-        <v>4716</v>
+        <v>4720</v>
       </c>
       <c r="T323" s="5" t="n"/>
     </row>
@@ -29992,7 +30012,7 @@
         </is>
       </c>
       <c r="M325" s="20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O325" s="19" t="inlineStr">
         <is>
@@ -30000,7 +30020,7 @@
         </is>
       </c>
       <c r="P325" s="20" t="n">
-        <v>8585</v>
+        <v>8810</v>
       </c>
       <c r="T325" s="5" t="n"/>
     </row>
@@ -30024,7 +30044,7 @@
         </is>
       </c>
       <c r="M327" s="20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T327" s="5" t="n"/>
     </row>
@@ -30168,7 +30188,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>24939</v>
+        <v>24997</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
@@ -30196,7 +30216,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>23310</v>
+        <v>23394</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
@@ -30280,7 +30300,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>21927</v>
+        <v>21941</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -30304,11 +30324,11 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>(30/16)</t>
+          <t>(30/15)</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>21627</v>
+        <v>21732</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
@@ -30336,7 +30356,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>21410</v>
+        <v>21458</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -30476,7 +30496,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>17813</v>
+        <v>18166</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -32286,30 +32306,30 @@
       <c r="J38" s="5" t="n"/>
       <c r="L38" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="M38" s="7" t="inlineStr">
         <is>
-          <t>Serine Brakstad</t>
+          <t>Ida Ramslien</t>
         </is>
       </c>
       <c r="N38" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O38" s="15" t="n">
-        <v>12.59</v>
+        <v>47.58</v>
       </c>
       <c r="P38" s="7" t="n">
-        <v>743</v>
+        <v>780</v>
       </c>
       <c r="Q38" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="R38" s="16" t="n">
-        <v>6.07</v>
+        <v>22.08</v>
       </c>
       <c r="T38" s="5" t="n"/>
     </row>
@@ -32344,30 +32364,30 @@
       <c r="J39" s="5" t="n"/>
       <c r="L39" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M39" s="7" t="inlineStr">
         <is>
-          <t>Ida Ramslien</t>
+          <t>Serine Brakstad</t>
         </is>
       </c>
       <c r="N39" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O39" s="15" t="n">
-        <v>40.66</v>
+        <v>12.59</v>
       </c>
       <c r="P39" s="7" t="n">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="Q39" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R39" s="16" t="n">
-        <v>2.07</v>
+        <v>6.07</v>
       </c>
       <c r="T39" s="5" t="n"/>
     </row>
@@ -32404,30 +32424,30 @@
       <c r="J40" s="5" t="n"/>
       <c r="L40" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M40" s="7" t="inlineStr">
         <is>
-          <t>Martine Vik</t>
+          <t>Ida Ramslien</t>
         </is>
       </c>
       <c r="N40" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O40" s="15" t="n">
-        <v>11.69</v>
+        <v>40.66</v>
       </c>
       <c r="P40" s="7" t="n">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="Q40" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R40" s="16" t="n">
-        <v>3.03</v>
+        <v>2.07</v>
       </c>
       <c r="T40" s="5" t="n"/>
     </row>
@@ -32462,30 +32482,30 @@
       <c r="J41" s="5" t="n"/>
       <c r="L41" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M41" s="7" t="inlineStr">
         <is>
-          <t>Andrea Thorsheim</t>
+          <t>Martine Vik</t>
         </is>
       </c>
       <c r="N41" s="7" t="n">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="O41" s="15" t="n">
-        <v>5.51</v>
+        <v>11.69</v>
       </c>
       <c r="P41" s="7" t="n">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="Q41" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R41" s="16" t="n">
-        <v>22.01</v>
+        <v>3.03</v>
       </c>
       <c r="T41" s="5" t="n"/>
     </row>
@@ -32520,21 +32540,19 @@
       <c r="J42" s="5" t="n"/>
       <c r="L42" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M42" s="7" t="inlineStr">
         <is>
-          <t>Andrea Nygård Vie</t>
+          <t>Andrea Thorsheim</t>
         </is>
       </c>
       <c r="N42" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O42" s="17" t="inlineStr">
-        <is>
-          <t>2,15,02</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="O42" s="15" t="n">
+        <v>5.51</v>
       </c>
       <c r="P42" s="7" t="n">
         <v>730</v>
@@ -32545,7 +32563,7 @@
         </is>
       </c>
       <c r="R42" s="16" t="n">
-        <v>24.02</v>
+        <v>22.01</v>
       </c>
       <c r="T42" s="5" t="n"/>
     </row>
@@ -32580,30 +32598,32 @@
       <c r="J43" s="5" t="n"/>
       <c r="L43" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M43" s="7" t="inlineStr">
         <is>
-          <t>Julie Dicko Erichsen</t>
+          <t>Andrea Nygård Vie</t>
         </is>
       </c>
       <c r="N43" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="O43" s="15" t="n">
-        <v>11.59</v>
+        <v>2006</v>
+      </c>
+      <c r="O43" s="17" t="inlineStr">
+        <is>
+          <t>2,15,02</t>
+        </is>
       </c>
       <c r="P43" s="7" t="n">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="Q43" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R43" s="16" t="n">
-        <v>19.08</v>
+        <v>24.02</v>
       </c>
       <c r="T43" s="5" t="n"/>
     </row>
@@ -32638,30 +32658,30 @@
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M44" s="7" t="inlineStr">
         <is>
-          <t>Serine Brakstad</t>
+          <t>Julie Dicko Erichsen</t>
         </is>
       </c>
       <c r="N44" s="7" t="n">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="O44" s="15" t="n">
-        <v>26.05</v>
+        <v>11.59</v>
       </c>
       <c r="P44" s="7" t="n">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="Q44" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R44" s="16" t="n">
-        <v>5.03</v>
+        <v>19.08</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -32715,7 +32735,7 @@
         </is>
       </c>
       <c r="P46" s="20" t="n">
-        <v>11566</v>
+        <v>11624</v>
       </c>
       <c r="T46" s="5" t="n"/>
     </row>
@@ -32755,7 +32775,7 @@
         </is>
       </c>
       <c r="P48" s="20" t="n">
-        <v>24939</v>
+        <v>24997</v>
       </c>
       <c r="T48" s="5" t="n"/>
     </row>
@@ -34192,7 +34212,7 @@
     <row r="85" ht="13" customHeight="1">
       <c r="B85" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C85" s="7" t="inlineStr">
@@ -34204,18 +34224,18 @@
         <v>2005</v>
       </c>
       <c r="E85" s="15" t="n">
-        <v>57.27</v>
+        <v>24.91</v>
       </c>
       <c r="F85" s="7" t="n">
-        <v>772</v>
+        <v>814</v>
       </c>
       <c r="G85" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H85" s="16" t="n">
-        <v>7.07</v>
+        <v>20.08</v>
       </c>
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
@@ -34250,7 +34270,7 @@
     <row r="86" ht="13" customHeight="1">
       <c r="B86" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C86" s="7" t="inlineStr">
@@ -34262,18 +34282,18 @@
         <v>2005</v>
       </c>
       <c r="E86" s="15" t="n">
-        <v>25.46</v>
+        <v>12.4</v>
       </c>
       <c r="F86" s="7" t="n">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="G86" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H86" s="16" t="n">
-        <v>5.03</v>
+        <v>20.08</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="14" t="inlineStr">
@@ -34313,25 +34333,25 @@
       </c>
       <c r="C87" s="7" t="inlineStr">
         <is>
-          <t>Alice Ulla Berg</t>
+          <t>Camilla Dahl Kristiansen</t>
         </is>
       </c>
       <c r="D87" s="7" t="n">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="E87" s="15" t="n">
-        <v>57.73</v>
+        <v>57.27</v>
       </c>
       <c r="F87" s="7" t="n">
-        <v>756</v>
+        <v>772</v>
       </c>
       <c r="G87" s="7" t="inlineStr">
         <is>
-          <t>Porsgrunn</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H87" s="16" t="n">
-        <v>10.06</v>
+        <v>7.07</v>
       </c>
       <c r="J87" s="5" t="n"/>
       <c r="L87" s="14" t="inlineStr">
@@ -34366,30 +34386,30 @@
     <row r="88" ht="13" customHeight="1">
       <c r="B88" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C88" s="7" t="inlineStr">
         <is>
-          <t>Anastasia Schnell</t>
+          <t>Alice Ulla Berg</t>
         </is>
       </c>
       <c r="D88" s="7" t="n">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="E88" s="15" t="n">
-        <v>1.67</v>
+        <v>57.73</v>
       </c>
       <c r="F88" s="7" t="n">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="G88" s="7" t="inlineStr">
         <is>
-          <t>Leipzig/GER</t>
+          <t>Porsgrunn</t>
         </is>
       </c>
       <c r="H88" s="16" t="n">
-        <v>4.02</v>
+        <v>10.06</v>
       </c>
       <c r="J88" s="5" t="n"/>
       <c r="L88" s="14" t="inlineStr">
@@ -34424,32 +34444,30 @@
     <row r="89" ht="13" customHeight="1">
       <c r="B89" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C89" s="7" t="inlineStr">
         <is>
-          <t>Astrid Brathaug Sørset</t>
+          <t>Anastasia Schnell</t>
         </is>
       </c>
       <c r="D89" s="7" t="n">
-        <v>1990</v>
-      </c>
-      <c r="E89" s="17" t="inlineStr">
-        <is>
-          <t>9,58,89</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="E89" s="15" t="n">
+        <v>1.67</v>
       </c>
       <c r="F89" s="7" t="n">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="G89" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leipzig/GER</t>
         </is>
       </c>
       <c r="H89" s="16" t="n">
-        <v>16.06</v>
+        <v>4.02</v>
       </c>
       <c r="J89" s="5" t="n"/>
       <c r="L89" s="14" t="inlineStr">
@@ -34484,30 +34502,32 @@
     <row r="90" ht="13" customHeight="1">
       <c r="B90" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C90" s="7" t="inlineStr">
         <is>
-          <t>Mille Baastad Berg</t>
+          <t>Astrid Brathaug Sørset</t>
         </is>
       </c>
       <c r="D90" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E90" s="15" t="n">
-        <v>25.82</v>
+        <v>1990</v>
+      </c>
+      <c r="E90" s="17" t="inlineStr">
+        <is>
+          <t>9,58,89</t>
+        </is>
       </c>
       <c r="F90" s="7" t="n">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="G90" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H90" s="16" t="n">
-        <v>2.07</v>
+        <v>16.06</v>
       </c>
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="14" t="inlineStr">
@@ -34542,30 +34562,30 @@
     <row r="91" ht="13" customHeight="1">
       <c r="B91" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C91" s="7" t="inlineStr">
         <is>
-          <t>Camilla Dahl Kristiansen</t>
+          <t>Mille Baastad Berg</t>
         </is>
       </c>
       <c r="D91" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E91" s="15" t="n">
-        <v>12.61</v>
+        <v>25.82</v>
       </c>
       <c r="F91" s="7" t="n">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G91" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H91" s="16" t="n">
-        <v>25.06</v>
+        <v>2.07</v>
       </c>
       <c r="J91" s="5" t="n"/>
       <c r="L91" s="14" t="inlineStr">
@@ -34920,7 +34940,7 @@
         </is>
       </c>
       <c r="F98" s="20" t="n">
-        <v>11345</v>
+        <v>11429</v>
       </c>
       <c r="J98" s="5" t="n"/>
       <c r="L98" s="19" t="inlineStr">
@@ -34960,7 +34980,7 @@
         </is>
       </c>
       <c r="F100" s="20" t="n">
-        <v>23310</v>
+        <v>23394</v>
       </c>
       <c r="J100" s="5" t="n"/>
       <c r="L100" s="19" t="inlineStr">
@@ -35902,18 +35922,18 @@
         <v>1996</v>
       </c>
       <c r="O124" s="15" t="n">
-        <v>11.51</v>
+        <v>11.64</v>
       </c>
       <c r="P124" s="7" t="n">
-        <v>714</v>
+        <v>728</v>
       </c>
       <c r="Q124" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R124" s="16" t="n">
-        <v>8.07</v>
+        <v>19.08</v>
       </c>
       <c r="T124" s="5" t="n"/>
     </row>
@@ -36141,7 +36161,7 @@
         </is>
       </c>
       <c r="P129" s="20" t="n">
-        <v>12157</v>
+        <v>12171</v>
       </c>
       <c r="T129" s="5" t="n"/>
     </row>
@@ -37211,7 +37231,7 @@
         </is>
       </c>
       <c r="P152" s="20" t="n">
-        <v>21927</v>
+        <v>21941</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
@@ -38312,10 +38332,10 @@
         <v>2006</v>
       </c>
       <c r="O179" s="15" t="n">
-        <v>40.08</v>
+        <v>43.8</v>
       </c>
       <c r="P179" s="7" t="n">
-        <v>685</v>
+        <v>733</v>
       </c>
       <c r="Q179" s="7" t="inlineStr">
         <is>
@@ -38323,7 +38343,7 @@
         </is>
       </c>
       <c r="R179" s="16" t="n">
-        <v>6.06</v>
+        <v>19.08</v>
       </c>
       <c r="T179" s="5" t="n"/>
     </row>
@@ -38377,7 +38397,7 @@
         </is>
       </c>
       <c r="P181" s="20" t="n">
-        <v>11028</v>
+        <v>11076</v>
       </c>
       <c r="T181" s="5" t="n"/>
     </row>
@@ -38493,19 +38513,19 @@
       </c>
       <c r="E186" s="17" t="inlineStr">
         <is>
-          <t>2,07,28</t>
+          <t>2,07,22</t>
         </is>
       </c>
       <c r="F186" s="7" t="n">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="G186" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H186" s="16" t="n">
-        <v>15.06</v>
+        <v>20.08</v>
       </c>
       <c r="J186" s="5" t="n"/>
       <c r="L186" s="14" t="inlineStr">
@@ -39012,30 +39032,30 @@
     <row r="195" ht="13" customHeight="1">
       <c r="B195" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C195" s="7" t="inlineStr">
         <is>
-          <t>Marie Øverli</t>
+          <t>Mina-Marie Sørdahl Finsveen</t>
         </is>
       </c>
       <c r="D195" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E195" s="15" t="n">
-        <v>2.75</v>
+        <v>13.29</v>
       </c>
       <c r="F195" s="7" t="n">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="G195" s="7" t="inlineStr">
         <is>
-          <t>Arvika/SWE</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H195" s="16" t="n">
-        <v>22.07</v>
+        <v>19.08</v>
       </c>
       <c r="J195" s="5" t="n"/>
       <c r="L195" s="14" t="inlineStr">
@@ -39072,32 +39092,30 @@
     <row r="196" ht="13" customHeight="1">
       <c r="B196" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C196" s="7" t="inlineStr">
         <is>
-          <t>Hermine Marie Opsahl Torgersen</t>
+          <t>Marie Øverli</t>
         </is>
       </c>
       <c r="D196" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E196" s="17" t="inlineStr">
-        <is>
-          <t>5,03,20</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="E196" s="15" t="n">
+        <v>2.75</v>
       </c>
       <c r="F196" s="7" t="n">
-        <v>595</v>
+        <v>618</v>
       </c>
       <c r="G196" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Arvika/SWE</t>
         </is>
       </c>
       <c r="H196" s="16" t="n">
-        <v>20.05</v>
+        <v>22.07</v>
       </c>
       <c r="J196" s="5" t="n"/>
       <c r="L196" s="14" t="inlineStr">
@@ -39132,30 +39150,32 @@
     <row r="197" ht="13" customHeight="1">
       <c r="B197" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C197" s="7" t="inlineStr">
         <is>
-          <t>Marie Øverli</t>
+          <t>Hermine Marie Opsahl Torgersen</t>
         </is>
       </c>
       <c r="D197" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E197" s="15" t="n">
-        <v>8.49</v>
+        <v>2010</v>
+      </c>
+      <c r="E197" s="17" t="inlineStr">
+        <is>
+          <t>5,03,20</t>
+        </is>
       </c>
       <c r="F197" s="7" t="n">
         <v>595</v>
       </c>
       <c r="G197" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H197" s="16" t="n">
-        <v>11.02</v>
+        <v>20.05</v>
       </c>
       <c r="J197" s="5" t="n"/>
       <c r="L197" s="14" t="inlineStr">
@@ -39195,17 +39215,17 @@
       </c>
       <c r="C198" s="7" t="inlineStr">
         <is>
-          <t>Astrid Stalleland Stokstad</t>
+          <t>Marie Øverli</t>
         </is>
       </c>
       <c r="D198" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E198" s="15" t="n">
-        <v>8.51</v>
+        <v>8.49</v>
       </c>
       <c r="F198" s="7" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="G198" s="7" t="inlineStr">
         <is>
@@ -39213,7 +39233,7 @@
         </is>
       </c>
       <c r="H198" s="16" t="n">
-        <v>14.01</v>
+        <v>11.02</v>
       </c>
       <c r="J198" s="5" t="n"/>
       <c r="L198" s="14" t="inlineStr">
@@ -39248,30 +39268,30 @@
     <row r="199" ht="13" customHeight="1">
       <c r="B199" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C199" s="7" t="inlineStr">
         <is>
-          <t>Marie Øverli</t>
+          <t>Astrid Stalleland Stokstad</t>
         </is>
       </c>
       <c r="D199" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E199" s="15" t="n">
-        <v>13.51</v>
+        <v>8.51</v>
       </c>
       <c r="F199" s="7" t="n">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="G199" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H199" s="16" t="n">
-        <v>25.06</v>
+        <v>14.01</v>
       </c>
       <c r="J199" s="5" t="n"/>
       <c r="L199" s="14" t="inlineStr">
@@ -39306,30 +39326,30 @@
     <row r="200" ht="13" customHeight="1">
       <c r="B200" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C200" s="7" t="inlineStr">
         <is>
-          <t>Inger Lise Sundheim</t>
+          <t>Marie Øverli</t>
         </is>
       </c>
       <c r="D200" s="7" t="n">
-        <v>1955</v>
+        <v>2008</v>
       </c>
       <c r="E200" s="15" t="n">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="F200" s="7" t="n">
-        <v>496</v>
+        <v>564</v>
       </c>
       <c r="G200" s="7" t="inlineStr">
         <is>
-          <t>Hvam</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H200" s="16" t="n">
-        <v>11.03</v>
+        <v>20.08</v>
       </c>
       <c r="J200" s="5" t="n"/>
       <c r="L200" s="14" t="inlineStr">
@@ -39394,7 +39414,7 @@
         </is>
       </c>
       <c r="F202" s="20" t="n">
-        <v>10027</v>
+        <v>10132</v>
       </c>
       <c r="J202" s="5" t="n"/>
       <c r="L202" s="19" t="inlineStr">
@@ -39434,7 +39454,7 @@
         </is>
       </c>
       <c r="F204" s="20" t="n">
-        <v>21627</v>
+        <v>21732</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="19" t="inlineStr">
@@ -39451,7 +39471,7 @@
         </is>
       </c>
       <c r="P204" s="20" t="n">
-        <v>21410</v>
+        <v>21458</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -39466,7 +39486,7 @@
         </is>
       </c>
       <c r="C206" s="20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="19" t="inlineStr">
@@ -44155,25 +44175,25 @@
       </c>
       <c r="C323" s="7" t="inlineStr">
         <is>
-          <t>Helena Lauvdal Myhren</t>
+          <t>Ingvild Meinseth</t>
         </is>
       </c>
       <c r="D323" s="7" t="n">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="E323" s="15" t="n">
-        <v>27.28</v>
+        <v>24.82</v>
       </c>
       <c r="F323" s="7" t="n">
-        <v>629</v>
+        <v>822</v>
       </c>
       <c r="G323" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H323" s="16" t="n">
-        <v>14.05</v>
+        <v>20.08</v>
       </c>
       <c r="J323" s="5" t="n"/>
       <c r="L323" s="14" t="inlineStr">
@@ -44868,7 +44888,7 @@
         </is>
       </c>
       <c r="F337" s="20" t="n">
-        <v>9808</v>
+        <v>10001</v>
       </c>
       <c r="J337" s="5" t="n"/>
       <c r="L337" s="19" t="inlineStr">
@@ -45226,30 +45246,30 @@
     <row r="346" ht="13" customHeight="1">
       <c r="B346" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C346" s="7" t="inlineStr">
         <is>
-          <t>Alida Haaland</t>
+          <t>Helena Lauvdal Myhren</t>
         </is>
       </c>
       <c r="D346" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E346" s="15" t="n">
-        <v>1.45</v>
+        <v>27.28</v>
       </c>
       <c r="F346" s="7" t="n">
-        <v>565</v>
+        <v>629</v>
       </c>
       <c r="G346" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H346" s="16" t="n">
-        <v>16.06</v>
+        <v>14.05</v>
       </c>
       <c r="J346" s="5" t="n"/>
       <c r="L346" s="14" t="inlineStr">
@@ -45284,22 +45304,22 @@
     <row r="347" ht="13" customHeight="1">
       <c r="B347" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C347" s="7" t="inlineStr">
         <is>
-          <t>Beate Raknes</t>
+          <t>Alida Haaland</t>
         </is>
       </c>
       <c r="D347" s="7" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="E347" s="15" t="n">
-        <v>8.66</v>
+        <v>1.45</v>
       </c>
       <c r="F347" s="7" t="n">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="G347" s="7" t="inlineStr">
         <is>
@@ -45307,7 +45327,7 @@
         </is>
       </c>
       <c r="H347" s="16" t="n">
-        <v>17.06</v>
+        <v>16.06</v>
       </c>
       <c r="J347" s="5" t="n"/>
       <c r="L347" s="14" t="inlineStr">
@@ -45342,30 +45362,30 @@
     <row r="348" ht="13" customHeight="1">
       <c r="B348" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C348" s="7" t="inlineStr">
         <is>
-          <t>Alida Haaland</t>
+          <t>Beate Raknes</t>
         </is>
       </c>
       <c r="D348" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="E348" s="15" t="n">
-        <v>2.43</v>
+        <v>8.66</v>
       </c>
       <c r="F348" s="7" t="n">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="G348" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H348" s="16" t="n">
-        <v>25.05</v>
+        <v>17.06</v>
       </c>
       <c r="J348" s="5" t="n"/>
       <c r="L348" s="14" t="inlineStr">
@@ -45400,30 +45420,30 @@
     <row r="349" ht="13" customHeight="1">
       <c r="B349" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C349" s="7" t="inlineStr">
         <is>
-          <t>Beate Raknes</t>
+          <t>Alida Haaland</t>
         </is>
       </c>
       <c r="D349" s="7" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="E349" s="15" t="n">
-        <v>29.11</v>
+        <v>2.43</v>
       </c>
       <c r="F349" s="7" t="n">
-        <v>505</v>
+        <v>542</v>
       </c>
       <c r="G349" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H349" s="16" t="n">
-        <v>16.06</v>
+        <v>25.05</v>
       </c>
       <c r="J349" s="5" t="n"/>
       <c r="L349" s="14" t="inlineStr">
@@ -45458,24 +45478,22 @@
     <row r="350" ht="13" customHeight="1">
       <c r="B350" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C350" s="7" t="inlineStr">
         <is>
-          <t>Emmeli Vatne Danielssen</t>
+          <t>Beate Raknes</t>
         </is>
       </c>
       <c r="D350" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E350" s="17" t="inlineStr">
-        <is>
-          <t>5,24,28</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="E350" s="15" t="n">
+        <v>29.11</v>
       </c>
       <c r="F350" s="7" t="n">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="G350" s="7" t="inlineStr">
         <is>
@@ -45518,30 +45536,32 @@
     <row r="351" ht="13" customHeight="1">
       <c r="B351" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C351" s="7" t="inlineStr">
         <is>
-          <t>Beate Raknes</t>
+          <t>Emmeli Vatne Danielssen</t>
         </is>
       </c>
       <c r="D351" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E351" s="15" t="n">
-        <v>14.12</v>
+        <v>2011</v>
+      </c>
+      <c r="E351" s="17" t="inlineStr">
+        <is>
+          <t>5,24,28</t>
+        </is>
       </c>
       <c r="F351" s="7" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G351" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H351" s="16" t="n">
-        <v>3.06</v>
+        <v>16.06</v>
       </c>
       <c r="J351" s="5" t="n"/>
       <c r="L351" s="14" t="inlineStr">
@@ -45581,17 +45601,17 @@
       </c>
       <c r="C352" s="7" t="inlineStr">
         <is>
-          <t>Alida Haaland</t>
+          <t>Beate Raknes</t>
         </is>
       </c>
       <c r="D352" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="E352" s="15" t="n">
-        <v>14.27</v>
+        <v>14.12</v>
       </c>
       <c r="F352" s="7" t="n">
-        <v>471</v>
+        <v>493</v>
       </c>
       <c r="G352" s="7" t="inlineStr">
         <is>
@@ -45599,7 +45619,7 @@
         </is>
       </c>
       <c r="H352" s="16" t="n">
-        <v>7.05</v>
+        <v>3.06</v>
       </c>
       <c r="J352" s="5" t="n"/>
       <c r="L352" s="14" t="inlineStr">
@@ -45634,32 +45654,30 @@
     <row r="353" ht="13" customHeight="1">
       <c r="B353" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C353" s="7" t="inlineStr">
         <is>
-          <t>Beate Raknes</t>
+          <t>Alida Haaland</t>
         </is>
       </c>
       <c r="D353" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E353" s="17" t="inlineStr">
-        <is>
-          <t>5,29,88</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="E353" s="15" t="n">
+        <v>14.27</v>
       </c>
       <c r="F353" s="7" t="n">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G353" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H353" s="16" t="n">
-        <v>18.06</v>
+        <v>7.05</v>
       </c>
       <c r="J353" s="5" t="n"/>
       <c r="L353" s="14" t="inlineStr">
@@ -45898,7 +45916,7 @@
         </is>
       </c>
       <c r="F358" s="20" t="n">
-        <v>8005</v>
+        <v>8165</v>
       </c>
       <c r="J358" s="5" t="n"/>
       <c r="L358" s="19" t="inlineStr">
@@ -45938,7 +45956,7 @@
         </is>
       </c>
       <c r="F360" s="20" t="n">
-        <v>17813</v>
+        <v>18166</v>
       </c>
       <c r="J360" s="5" t="n"/>
       <c r="L360" s="19" t="inlineStr">
@@ -46095,7 +46113,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>18154</v>
+        <v>18174</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -46375,7 +46393,7 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>12652</v>
+        <v>12923</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
@@ -46422,20 +46440,20 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Steinkjer Friidrettsklubb</t>
+          <t>Stjørdal Friidrettsklubb</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>(17/8)</t>
+          <t>(19/6)</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>9730</v>
+        <v>10314</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>(1/3d)</t>
+          <t>(11/1d)</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
@@ -46450,20 +46468,20 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Stjørdal Friidrettsklubb</t>
+          <t>Steinkjer Friidrettsklubb</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>(14/6)</t>
+          <t>(17/8)</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>7890</v>
+        <v>9730</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>(11/1d)</t>
+          <t>(1/3d)</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
@@ -47965,32 +47983,32 @@
     <row r="34" ht="13" customHeight="1">
       <c r="B34" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C34" s="7" t="inlineStr">
         <is>
-          <t>Kristine Berger Akervold</t>
+          <t>Aurora Kanutte Brandt Sande</t>
         </is>
       </c>
       <c r="D34" s="7" t="n">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="E34" s="17" t="inlineStr">
         <is>
-          <t>1,00,00</t>
+          <t>4,47,05</t>
         </is>
       </c>
       <c r="F34" s="7" t="n">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="G34" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H34" s="16" t="n">
-        <v>28.06</v>
+        <v>19.08</v>
       </c>
       <c r="J34" s="5" t="n"/>
       <c r="L34" s="14" t="inlineStr">
@@ -48027,22 +48045,24 @@
     <row r="35" ht="13" customHeight="1">
       <c r="B35" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C35" s="7" t="inlineStr">
         <is>
-          <t>Kajsa Rooth</t>
+          <t>Kristine Berger Akervold</t>
         </is>
       </c>
       <c r="D35" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E35" s="15" t="n">
-        <v>26.82</v>
+        <v>1998</v>
+      </c>
+      <c r="E35" s="17" t="inlineStr">
+        <is>
+          <t>1,00,00</t>
+        </is>
       </c>
       <c r="F35" s="7" t="n">
-        <v>663</v>
+        <v>679</v>
       </c>
       <c r="G35" s="7" t="inlineStr">
         <is>
@@ -48050,7 +48070,7 @@
         </is>
       </c>
       <c r="H35" s="16" t="n">
-        <v>4.06</v>
+        <v>28.06</v>
       </c>
       <c r="J35" s="5" t="n"/>
       <c r="L35" s="14" t="inlineStr">
@@ -48347,7 +48367,7 @@
         </is>
       </c>
       <c r="F41" s="20" t="n">
-        <v>8281</v>
+        <v>8301</v>
       </c>
       <c r="J41" s="5" t="n"/>
       <c r="L41" s="19" t="inlineStr">
@@ -48387,7 +48407,7 @@
         </is>
       </c>
       <c r="F43" s="20" t="n">
-        <v>18154</v>
+        <v>18174</v>
       </c>
       <c r="J43" s="5" t="n"/>
       <c r="L43" s="19" t="inlineStr">
@@ -56424,25 +56444,25 @@
       </c>
       <c r="C245" s="7" t="inlineStr">
         <is>
-          <t>Alma Owrehagen</t>
+          <t>Sofie Bjerva Johnskareng</t>
         </is>
       </c>
       <c r="D245" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E245" s="15" t="n">
-        <v>14.37</v>
+        <v>13.42</v>
       </c>
       <c r="F245" s="7" t="n">
-        <v>456</v>
+        <v>600</v>
       </c>
       <c r="G245" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H245" s="16" t="n">
-        <v>1.07</v>
+        <v>19.08</v>
       </c>
       <c r="J245" s="5" t="n"/>
       <c r="L245" s="14" t="inlineStr">
@@ -56489,18 +56509,18 @@
         <v>2009</v>
       </c>
       <c r="E246" s="15" t="n">
-        <v>28.1</v>
+        <v>27.95</v>
       </c>
       <c r="F246" s="7" t="n">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="G246" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H246" s="16" t="n">
-        <v>12.02</v>
+        <v>20.08</v>
       </c>
       <c r="J246" s="5" t="n"/>
       <c r="L246" s="14" t="inlineStr">
@@ -56672,19 +56692,19 @@
       </c>
       <c r="E249" s="17" t="inlineStr">
         <is>
-          <t>4,50,82</t>
+          <t>4,46,71</t>
         </is>
       </c>
       <c r="F249" s="7" t="n">
-        <v>661</v>
+        <v>685</v>
       </c>
       <c r="G249" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H249" s="16" t="n">
-        <v>12.08</v>
+        <v>19.08</v>
       </c>
       <c r="J249" s="5" t="n"/>
       <c r="L249" s="14" t="inlineStr">
@@ -57117,7 +57137,7 @@
         </is>
       </c>
       <c r="F258" s="20" t="n">
-        <v>7014</v>
+        <v>7192</v>
       </c>
       <c r="J258" s="5" t="n"/>
       <c r="L258" s="19" t="inlineStr">
@@ -57533,30 +57553,30 @@
     <row r="268" ht="13" customHeight="1">
       <c r="B268" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C268" s="7" t="inlineStr">
         <is>
-          <t>Helene Korsmo Walskrå</t>
+          <t>Erle Haukåen Stødle</t>
         </is>
       </c>
       <c r="D268" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="E268" s="15" t="n">
-        <v>9.01</v>
+        <v>29.51</v>
       </c>
       <c r="F268" s="7" t="n">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="G268" s="7" t="inlineStr">
         <is>
-          <t>Hvam</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H268" s="16" t="n">
-        <v>4.02</v>
+        <v>20.08</v>
       </c>
       <c r="J268" s="5" t="n"/>
       <c r="L268" s="14" t="inlineStr">
@@ -57591,30 +57611,30 @@
     <row r="269" ht="13" customHeight="1">
       <c r="B269" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C269" s="7" t="inlineStr">
         <is>
-          <t>Anna Kjønø</t>
+          <t>Alma Owrehagen</t>
         </is>
       </c>
       <c r="D269" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E269" s="15" t="n">
-        <v>1.35</v>
+        <v>14.21</v>
       </c>
       <c r="F269" s="7" t="n">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="G269" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H269" s="16" t="n">
-        <v>12.02</v>
+        <v>19.08</v>
       </c>
       <c r="J269" s="5" t="n"/>
       <c r="L269" s="14" t="inlineStr">
@@ -57656,25 +57676,25 @@
       </c>
       <c r="C270" s="7" t="inlineStr">
         <is>
-          <t>Anna Kjønø</t>
+          <t>Helene Korsmo Walskrå</t>
         </is>
       </c>
       <c r="D270" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="E270" s="15" t="n">
-        <v>9.08</v>
+        <v>9.01</v>
       </c>
       <c r="F270" s="7" t="n">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="G270" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="H270" s="16" t="n">
-        <v>11.02</v>
+        <v>4.02</v>
       </c>
       <c r="J270" s="5" t="n"/>
       <c r="L270" s="14" t="inlineStr">
@@ -57709,7 +57729,7 @@
     <row r="271" ht="13" customHeight="1">
       <c r="B271" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C271" s="7" t="inlineStr">
@@ -57721,18 +57741,18 @@
         <v>2009</v>
       </c>
       <c r="E271" s="15" t="n">
-        <v>4.27</v>
+        <v>1.35</v>
       </c>
       <c r="F271" s="7" t="n">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="G271" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H271" s="16" t="n">
-        <v>12.03</v>
+        <v>12.02</v>
       </c>
       <c r="J271" s="5" t="n"/>
       <c r="L271" s="14" t="inlineStr">
@@ -57767,22 +57787,22 @@
     <row r="272" ht="13" customHeight="1">
       <c r="B272" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C272" s="7" t="inlineStr">
         <is>
-          <t>Helene Korsmo Walskrå</t>
+          <t>Anna Kjønø</t>
         </is>
       </c>
       <c r="D272" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="E272" s="15" t="n">
-        <v>30.12</v>
+        <v>4.27</v>
       </c>
       <c r="F272" s="7" t="n">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="G272" s="7" t="inlineStr">
         <is>
@@ -57827,22 +57847,22 @@
     <row r="273" ht="13" customHeight="1">
       <c r="B273" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C273" s="7" t="inlineStr">
         <is>
-          <t>Tuva Helene Rugsveen</t>
+          <t>Sofie Bjerva Johnskareng</t>
         </is>
       </c>
       <c r="D273" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="E273" s="15" t="n">
-        <v>4.04</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="F273" s="7" t="n">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="G273" s="7" t="inlineStr">
         <is>
@@ -57850,7 +57870,7 @@
         </is>
       </c>
       <c r="H273" s="16" t="n">
-        <v>22.04</v>
+        <v>19.08</v>
       </c>
       <c r="J273" s="5" t="n"/>
       <c r="L273" s="14" t="inlineStr">
@@ -57885,30 +57905,30 @@
     <row r="274" ht="13" customHeight="1">
       <c r="B274" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C274" s="7" t="inlineStr">
         <is>
-          <t>Helene Korsmo Walskrå</t>
+          <t>Tuva Helene Rugsveen</t>
         </is>
       </c>
       <c r="D274" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="E274" s="15" t="n">
-        <v>8.369999999999999</v>
+        <v>4.04</v>
       </c>
       <c r="F274" s="7" t="n">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="G274" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H274" s="16" t="n">
-        <v>12.02</v>
+        <v>22.04</v>
       </c>
       <c r="J274" s="5" t="n"/>
       <c r="L274" s="14" t="inlineStr">
@@ -57973,7 +57993,7 @@
         </is>
       </c>
       <c r="F276" s="20" t="n">
-        <v>5638</v>
+        <v>5731</v>
       </c>
       <c r="J276" s="5" t="n"/>
       <c r="L276" s="19" t="inlineStr">
@@ -58013,7 +58033,7 @@
         </is>
       </c>
       <c r="F278" s="20" t="n">
-        <v>12652</v>
+        <v>12923</v>
       </c>
       <c r="J278" s="5" t="n"/>
       <c r="L278" s="19" t="inlineStr">
@@ -58126,7 +58146,7 @@
       </c>
       <c r="C285" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer Friidrettsklubb</t>
+          <t>Stjørdal Friidrettsklubb</t>
         </is>
       </c>
       <c r="J285" s="5" t="n"/>
@@ -58137,7 +58157,7 @@
       </c>
       <c r="M285" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal Friidrettsklubb</t>
+          <t>Steinkjer Friidrettsklubb</t>
         </is>
       </c>
       <c r="T285" s="5" t="n"/>
@@ -58266,25 +58286,25 @@
       </c>
       <c r="C291" s="7" t="inlineStr">
         <is>
-          <t>Emily Nyborg</t>
+          <t>Nora Kaspara Lindset</t>
         </is>
       </c>
       <c r="D291" s="7" t="n">
-        <v>1998</v>
+        <v>2009</v>
       </c>
       <c r="E291" s="15" t="n">
-        <v>7.89</v>
+        <v>9.42</v>
       </c>
       <c r="F291" s="7" t="n">
-        <v>769</v>
+        <v>383</v>
       </c>
       <c r="G291" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H291" s="16" t="n">
-        <v>18.02</v>
+        <v>4.06</v>
       </c>
       <c r="J291" s="5" t="n"/>
       <c r="L291" s="14" t="inlineStr">
@@ -58294,25 +58314,25 @@
       </c>
       <c r="M291" s="7" t="inlineStr">
         <is>
-          <t>Nora Kaspara Lindset</t>
+          <t>Emily Nyborg</t>
         </is>
       </c>
       <c r="N291" s="7" t="n">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="O291" s="15" t="n">
-        <v>9.42</v>
+        <v>7.89</v>
       </c>
       <c r="P291" s="7" t="n">
-        <v>383</v>
+        <v>769</v>
       </c>
       <c r="Q291" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R291" s="16" t="n">
-        <v>4.06</v>
+        <v>18.02</v>
       </c>
       <c r="T291" s="5" t="n"/>
     </row>
@@ -58324,25 +58344,25 @@
       </c>
       <c r="C292" s="7" t="inlineStr">
         <is>
-          <t>Ella Luktvasslimo</t>
+          <t>Elise Grong Ruud</t>
         </is>
       </c>
       <c r="D292" s="7" t="n">
-        <v>2004</v>
+        <v>1996</v>
       </c>
       <c r="E292" s="15" t="n">
-        <v>12.91</v>
+        <v>13.11</v>
       </c>
       <c r="F292" s="7" t="n">
-        <v>686</v>
+        <v>652</v>
       </c>
       <c r="G292" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H292" s="16" t="n">
-        <v>27.05</v>
+        <v>28.06</v>
       </c>
       <c r="J292" s="5" t="n"/>
       <c r="L292" s="14" t="inlineStr">
@@ -58352,381 +58372,383 @@
       </c>
       <c r="M292" s="7" t="inlineStr">
         <is>
-          <t>Elise Grong Ruud</t>
+          <t>Ella Luktvasslimo</t>
         </is>
       </c>
       <c r="N292" s="7" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="O292" s="15" t="n">
-        <v>13.11</v>
+        <v>12.91</v>
       </c>
       <c r="P292" s="7" t="n">
-        <v>652</v>
+        <v>686</v>
       </c>
       <c r="Q292" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R292" s="16" t="n">
-        <v>28.06</v>
+        <v>27.05</v>
       </c>
       <c r="T292" s="5" t="n"/>
     </row>
     <row r="293" ht="13" customHeight="1">
       <c r="B293" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C293" s="7" t="inlineStr">
         <is>
-          <t>Kaja Sormul Aas</t>
+          <t>Nora Kaspara Lindset</t>
         </is>
       </c>
       <c r="D293" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E293" s="15" t="n">
-        <v>29.96</v>
+        <v>2009</v>
+      </c>
+      <c r="E293" s="17" t="inlineStr">
+        <is>
+          <t>2,44,42</t>
+        </is>
       </c>
       <c r="F293" s="7" t="n">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="G293" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Ranheim</t>
         </is>
       </c>
       <c r="H293" s="16" t="n">
-        <v>22.01</v>
+        <v>29.01</v>
       </c>
       <c r="J293" s="5" t="n"/>
       <c r="L293" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M293" s="7" t="inlineStr">
         <is>
-          <t>Nora Kaspara Lindset</t>
+          <t>Kaja Sormul Aas</t>
         </is>
       </c>
       <c r="N293" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O293" s="17" t="inlineStr">
-        <is>
-          <t>2,44,42</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="O293" s="15" t="n">
+        <v>29.96</v>
       </c>
       <c r="P293" s="7" t="n">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="Q293" s="7" t="inlineStr">
         <is>
-          <t>Ranheim</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R293" s="16" t="n">
-        <v>29.01</v>
+        <v>22.01</v>
       </c>
       <c r="T293" s="5" t="n"/>
     </row>
     <row r="294" ht="13" customHeight="1">
       <c r="B294" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C294" s="7" t="inlineStr">
         <is>
-          <t>Grethe Tyldum</t>
+          <t>Ellen Kvalheim</t>
         </is>
       </c>
       <c r="D294" s="7" t="n">
-        <v>2001</v>
+        <v>1973</v>
       </c>
       <c r="E294" s="17" t="inlineStr">
         <is>
-          <t>2,08,57</t>
+          <t>5,27,7</t>
         </is>
       </c>
       <c r="F294" s="7" t="n">
-        <v>824</v>
+        <v>479</v>
       </c>
       <c r="G294" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H294" s="16" t="n">
-        <v>20.05</v>
+        <v>16.08</v>
       </c>
       <c r="J294" s="5" t="n"/>
       <c r="L294" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M294" s="7" t="inlineStr">
         <is>
-          <t>Ellen Kvalheim</t>
+          <t>Grethe Tyldum</t>
         </is>
       </c>
       <c r="N294" s="7" t="n">
-        <v>1973</v>
+        <v>2001</v>
       </c>
       <c r="O294" s="17" t="inlineStr">
         <is>
-          <t>11,31,1</t>
+          <t>2,08,57</t>
         </is>
       </c>
       <c r="P294" s="7" t="n">
-        <v>522</v>
+        <v>824</v>
       </c>
       <c r="Q294" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R294" s="16" t="n">
-        <v>7.06</v>
+        <v>20.05</v>
       </c>
       <c r="T294" s="5" t="n"/>
     </row>
     <row r="295" ht="13" customHeight="1">
       <c r="B295" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C295" s="7" t="inlineStr">
         <is>
-          <t>Grethe Tyldum</t>
+          <t>Ellen Kvalheim</t>
         </is>
       </c>
       <c r="D295" s="7" t="n">
-        <v>2001</v>
+        <v>1973</v>
       </c>
       <c r="E295" s="17" t="inlineStr">
         <is>
-          <t>4,17,74</t>
+          <t>11,31,1</t>
         </is>
       </c>
       <c r="F295" s="7" t="n">
-        <v>882</v>
+        <v>522</v>
       </c>
       <c r="G295" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H295" s="16" t="n">
-        <v>15.06</v>
+        <v>7.06</v>
       </c>
       <c r="J295" s="5" t="n"/>
       <c r="L295" s="14" t="inlineStr">
         <is>
-          <t>100m hekk</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M295" s="7" t="inlineStr">
         <is>
-          <t>Elise Grong Ruud</t>
+          <t>Grethe Tyldum</t>
         </is>
       </c>
       <c r="N295" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="O295" s="15" t="n">
-        <v>14.95</v>
+        <v>2001</v>
+      </c>
+      <c r="O295" s="17" t="inlineStr">
+        <is>
+          <t>4,17,74</t>
+        </is>
       </c>
       <c r="P295" s="7" t="n">
-        <v>771</v>
+        <v>882</v>
       </c>
       <c r="Q295" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R295" s="16" t="n">
-        <v>8.07</v>
+        <v>15.06</v>
       </c>
       <c r="T295" s="5" t="n"/>
     </row>
     <row r="296" ht="13" customHeight="1">
       <c r="B296" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="C296" s="7" t="inlineStr">
         <is>
-          <t>Ruby Berg-Vindsetmo</t>
+          <t>Elise Grong Ruud</t>
         </is>
       </c>
       <c r="D296" s="7" t="n">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="E296" s="15" t="n">
-        <v>1.3</v>
+        <v>14.95</v>
       </c>
       <c r="F296" s="7" t="n">
-        <v>418</v>
+        <v>771</v>
       </c>
       <c r="G296" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H296" s="16" t="n">
-        <v>5.03</v>
+        <v>8.07</v>
       </c>
       <c r="J296" s="5" t="n"/>
       <c r="L296" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M296" s="7" t="inlineStr">
         <is>
-          <t>Nora Kaspara Lindset</t>
+          <t>Ruby Berg-Vindsetmo</t>
         </is>
       </c>
       <c r="N296" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="O296" s="15" t="n">
-        <v>2.95</v>
+        <v>1.3</v>
       </c>
       <c r="P296" s="7" t="n">
-        <v>75</v>
+        <v>418</v>
       </c>
       <c r="Q296" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R296" s="16" t="n">
-        <v>21.01</v>
+        <v>5.03</v>
       </c>
       <c r="T296" s="5" t="n"/>
     </row>
     <row r="297" ht="13" customHeight="1">
       <c r="B297" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C297" s="7" t="inlineStr">
         <is>
-          <t>Kaja Sormul Aas</t>
+          <t>Nora Kaspara Lindset</t>
         </is>
       </c>
       <c r="D297" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E297" s="15" t="n">
-        <v>2</v>
+        <v>2.95</v>
       </c>
       <c r="F297" s="7" t="n">
-        <v>427</v>
+        <v>75</v>
       </c>
       <c r="G297" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H297" s="16" t="n">
-        <v>5.03</v>
+        <v>21.01</v>
       </c>
       <c r="J297" s="5" t="n"/>
       <c r="L297" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M297" s="7" t="inlineStr">
         <is>
-          <t>Mali Ingeborg Vollan Marstad</t>
+          <t>Kaja Sormul Aas</t>
         </is>
       </c>
       <c r="N297" s="7" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="O297" s="15" t="n">
-        <v>11.26</v>
+        <v>2</v>
       </c>
       <c r="P297" s="7" t="n">
-        <v>673</v>
+        <v>427</v>
       </c>
       <c r="Q297" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R297" s="16" t="n">
-        <v>3.06</v>
+        <v>5.03</v>
       </c>
       <c r="T297" s="5" t="n"/>
     </row>
     <row r="298" ht="13" customHeight="1">
       <c r="B298" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C298" s="7" t="inlineStr">
         <is>
-          <t>Emily Nyborg</t>
+          <t>Julie Heiervang Johnsen</t>
         </is>
       </c>
       <c r="D298" s="7" t="n">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="E298" s="15" t="n">
-        <v>2.43</v>
+        <v>10.33</v>
       </c>
       <c r="F298" s="7" t="n">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="G298" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H298" s="16" t="n">
-        <v>19.02</v>
+        <v>19.08</v>
       </c>
       <c r="J298" s="5" t="n"/>
       <c r="L298" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M298" s="7" t="inlineStr">
         <is>
-          <t>Mali Ingeborg Vollan Marstad</t>
+          <t>Emily Nyborg</t>
         </is>
       </c>
       <c r="N298" s="7" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="O298" s="15" t="n">
-        <v>27.87</v>
+        <v>2.43</v>
       </c>
       <c r="P298" s="7" t="n">
-        <v>546</v>
+        <v>586</v>
       </c>
       <c r="Q298" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R298" s="16" t="n">
-        <v>3.06</v>
+        <v>19.02</v>
       </c>
       <c r="T298" s="5" t="n"/>
     </row>
@@ -58738,17 +58760,17 @@
       </c>
       <c r="C299" s="7" t="inlineStr">
         <is>
-          <t>Emily Nyborg</t>
+          <t>Mali Ingeborg Vollan Marstad</t>
         </is>
       </c>
       <c r="D299" s="7" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="E299" s="15" t="n">
-        <v>7.39</v>
+        <v>11.26</v>
       </c>
       <c r="F299" s="7" t="n">
-        <v>376</v>
+        <v>673</v>
       </c>
       <c r="G299" s="7" t="inlineStr">
         <is>
@@ -58756,84 +58778,104 @@
         </is>
       </c>
       <c r="H299" s="16" t="n">
-        <v>2.07</v>
+        <v>3.06</v>
       </c>
       <c r="J299" s="5" t="n"/>
       <c r="L299" s="14" t="inlineStr">
         <is>
+          <t>Kule</t>
+        </is>
+      </c>
+      <c r="M299" s="7" t="inlineStr">
+        <is>
+          <t>Emily Nyborg</t>
+        </is>
+      </c>
+      <c r="N299" s="7" t="n">
+        <v>1998</v>
+      </c>
+      <c r="O299" s="15" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="P299" s="7" t="n">
+        <v>376</v>
+      </c>
+      <c r="Q299" s="7" t="inlineStr">
+        <is>
+          <t>Stjørdal</t>
+        </is>
+      </c>
+      <c r="R299" s="16" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="T299" s="5" t="n"/>
+    </row>
+    <row r="300" ht="13" customHeight="1">
+      <c r="B300" s="14" t="inlineStr">
+        <is>
+          <t>Diskos</t>
+        </is>
+      </c>
+      <c r="C300" s="7" t="inlineStr">
+        <is>
+          <t>Mali Ingeborg Vollan Marstad</t>
+        </is>
+      </c>
+      <c r="D300" s="7" t="n">
+        <v>1997</v>
+      </c>
+      <c r="E300" s="15" t="n">
+        <v>27.87</v>
+      </c>
+      <c r="F300" s="7" t="n">
+        <v>546</v>
+      </c>
+      <c r="G300" s="7" t="inlineStr">
+        <is>
+          <t>Stjørdal</t>
+        </is>
+      </c>
+      <c r="H300" s="16" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="J300" s="5" t="n"/>
+      <c r="L300" s="14" t="n"/>
+      <c r="M300" s="7" t="n"/>
+      <c r="N300" s="7" t="n"/>
+      <c r="O300" s="7" t="n"/>
+      <c r="P300" s="7" t="n"/>
+      <c r="Q300" s="7" t="n"/>
+      <c r="R300" s="21" t="n"/>
+      <c r="T300" s="5" t="n"/>
+    </row>
+    <row r="301" ht="13" customHeight="1">
+      <c r="B301" s="14" t="inlineStr">
+        <is>
           <t>Slegge</t>
         </is>
       </c>
-      <c r="M299" s="7" t="inlineStr">
+      <c r="C301" s="7" t="inlineStr">
         <is>
           <t>Mali Ingeborg Vollan Marstad</t>
         </is>
       </c>
-      <c r="N299" s="7" t="n">
+      <c r="D301" s="7" t="n">
         <v>1997</v>
       </c>
-      <c r="O299" s="15" t="n">
+      <c r="E301" s="15" t="n">
         <v>38.27</v>
       </c>
-      <c r="P299" s="7" t="n">
+      <c r="F301" s="7" t="n">
         <v>660</v>
       </c>
-      <c r="Q299" s="7" t="inlineStr">
+      <c r="G301" s="7" t="inlineStr">
         <is>
           <t>Stjørdal</t>
         </is>
       </c>
-      <c r="R299" s="16" t="n">
+      <c r="H301" s="16" t="n">
         <v>4.06</v>
       </c>
-      <c r="T299" s="5" t="n"/>
-    </row>
-    <row r="300" ht="13" customHeight="1">
-      <c r="B300" s="14" t="n"/>
-      <c r="C300" s="7" t="n"/>
-      <c r="D300" s="7" t="n"/>
-      <c r="E300" s="7" t="n"/>
-      <c r="F300" s="7" t="n"/>
-      <c r="G300" s="7" t="n"/>
-      <c r="H300" s="21" t="n"/>
-      <c r="J300" s="5" t="n"/>
-      <c r="L300" s="14" t="inlineStr">
-        <is>
-          <t>Spyd</t>
-        </is>
-      </c>
-      <c r="M300" s="7" t="inlineStr">
-        <is>
-          <t>Mali Ingeborg Vollan Marstad</t>
-        </is>
-      </c>
-      <c r="N300" s="7" t="n">
-        <v>1997</v>
-      </c>
-      <c r="O300" s="15" t="n">
-        <v>44.95</v>
-      </c>
-      <c r="P300" s="7" t="n">
-        <v>777</v>
-      </c>
-      <c r="Q300" s="7" t="inlineStr">
-        <is>
-          <t>Stjørdal</t>
-        </is>
-      </c>
-      <c r="R300" s="16" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="T300" s="5" t="n"/>
-    </row>
-    <row r="301" ht="13" customHeight="1">
-      <c r="B301" s="14" t="n"/>
-      <c r="C301" s="7" t="n"/>
-      <c r="D301" s="7" t="n"/>
-      <c r="E301" s="7" t="n"/>
-      <c r="F301" s="7" t="n"/>
-      <c r="G301" s="7" t="n"/>
-      <c r="H301" s="21" t="n"/>
       <c r="J301" s="5" t="n"/>
       <c r="L301" s="14" t="n"/>
       <c r="M301" s="7" t="n"/>
@@ -58845,13 +58887,33 @@
       <c r="T301" s="5" t="n"/>
     </row>
     <row r="302" ht="13" customHeight="1">
-      <c r="B302" s="14" t="n"/>
-      <c r="C302" s="7" t="n"/>
-      <c r="D302" s="7" t="n"/>
-      <c r="E302" s="7" t="n"/>
-      <c r="F302" s="7" t="n"/>
-      <c r="G302" s="7" t="n"/>
-      <c r="H302" s="21" t="n"/>
+      <c r="B302" s="14" t="inlineStr">
+        <is>
+          <t>Spyd</t>
+        </is>
+      </c>
+      <c r="C302" s="7" t="inlineStr">
+        <is>
+          <t>Mali Ingeborg Vollan Marstad</t>
+        </is>
+      </c>
+      <c r="D302" s="7" t="n">
+        <v>1997</v>
+      </c>
+      <c r="E302" s="15" t="n">
+        <v>44.95</v>
+      </c>
+      <c r="F302" s="7" t="n">
+        <v>777</v>
+      </c>
+      <c r="G302" s="7" t="inlineStr">
+        <is>
+          <t>Stjørdal</t>
+        </is>
+      </c>
+      <c r="H302" s="16" t="n">
+        <v>3.06</v>
+      </c>
       <c r="J302" s="5" t="n"/>
       <c r="L302" s="14" t="n"/>
       <c r="M302" s="7" t="n"/>
@@ -58905,7 +58967,7 @@
         </is>
       </c>
       <c r="C305" s="20" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E305" s="19" t="inlineStr">
         <is>
@@ -58913,7 +58975,7 @@
         </is>
       </c>
       <c r="F305" s="20" t="n">
-        <v>5421</v>
+        <v>6557</v>
       </c>
       <c r="J305" s="5" t="n"/>
       <c r="L305" s="19" t="inlineStr">
@@ -58922,7 +58984,7 @@
         </is>
       </c>
       <c r="M305" s="20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O305" s="19" t="inlineStr">
         <is>
@@ -58930,7 +58992,7 @@
         </is>
       </c>
       <c r="P305" s="20" t="n">
-        <v>5486</v>
+        <v>5421</v>
       </c>
       <c r="T305" s="5" t="n"/>
     </row>
@@ -59033,208 +59095,208 @@
     <row r="310" ht="13" customHeight="1">
       <c r="B310" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C310" s="7" t="inlineStr">
         <is>
-          <t>Ella Luktvasslimo</t>
+          <t>Julie Heiervang Johnsen</t>
         </is>
       </c>
       <c r="D310" s="7" t="n">
-        <v>2004</v>
+        <v>1996</v>
       </c>
       <c r="E310" s="15" t="n">
-        <v>8.130000000000001</v>
+        <v>44.16</v>
       </c>
       <c r="F310" s="7" t="n">
-        <v>695</v>
+        <v>765</v>
       </c>
       <c r="G310" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H310" s="16" t="n">
-        <v>21.01</v>
+        <v>7.07</v>
       </c>
       <c r="J310" s="5" t="n"/>
       <c r="L310" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M310" s="7" t="inlineStr">
         <is>
-          <t>Julie Heiervang Johnsen</t>
+          <t>Ella Luktvasslimo</t>
         </is>
       </c>
       <c r="N310" s="7" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="O310" s="15" t="n">
-        <v>44.16</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="P310" s="7" t="n">
-        <v>765</v>
+        <v>695</v>
       </c>
       <c r="Q310" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R310" s="16" t="n">
-        <v>7.07</v>
+        <v>21.01</v>
       </c>
       <c r="T310" s="5" t="n"/>
     </row>
     <row r="311" ht="13" customHeight="1">
       <c r="B311" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C311" s="7" t="inlineStr">
         <is>
-          <t>Dordi Forseth</t>
+          <t>Stine Grong Ruud</t>
         </is>
       </c>
       <c r="D311" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E311" s="17" t="inlineStr">
-        <is>
-          <t>4,51,79</t>
-        </is>
+        <v>1994</v>
+      </c>
+      <c r="E311" s="15" t="n">
+        <v>13.13</v>
       </c>
       <c r="F311" s="7" t="n">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="G311" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H311" s="16" t="n">
-        <v>5.03</v>
+        <v>18.06</v>
       </c>
       <c r="J311" s="5" t="n"/>
       <c r="L311" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M311" s="7" t="inlineStr">
         <is>
-          <t>Stine Grong Ruud</t>
+          <t>Dordi Forseth</t>
         </is>
       </c>
       <c r="N311" s="7" t="n">
-        <v>1994</v>
-      </c>
-      <c r="O311" s="15" t="n">
-        <v>13.13</v>
+        <v>2005</v>
+      </c>
+      <c r="O311" s="17" t="inlineStr">
+        <is>
+          <t>4,51,79</t>
+        </is>
       </c>
       <c r="P311" s="7" t="n">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="Q311" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R311" s="16" t="n">
-        <v>18.06</v>
+        <v>5.03</v>
       </c>
       <c r="T311" s="5" t="n"/>
     </row>
     <row r="312" ht="13" customHeight="1">
       <c r="B312" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="C312" s="7" t="inlineStr">
         <is>
-          <t>Dordi Forseth</t>
+          <t>Julie Heiervang Johnsen</t>
         </is>
       </c>
       <c r="D312" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E312" s="17" t="inlineStr">
-        <is>
-          <t>2,21,37</t>
-        </is>
+        <v>1996</v>
+      </c>
+      <c r="E312" s="15" t="n">
+        <v>36.17</v>
       </c>
       <c r="F312" s="7" t="n">
-        <v>651</v>
+        <v>631</v>
       </c>
       <c r="G312" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H312" s="16" t="n">
-        <v>4.03</v>
+        <v>19.08</v>
       </c>
       <c r="J312" s="5" t="n"/>
       <c r="L312" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M312" s="7" t="inlineStr">
         <is>
-          <t>Julie Heiervang Johnsen</t>
+          <t>Dordi Forseth</t>
         </is>
       </c>
       <c r="N312" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="O312" s="15" t="n">
-        <v>34.95</v>
+        <v>2005</v>
+      </c>
+      <c r="O312" s="17" t="inlineStr">
+        <is>
+          <t>2,21,37</t>
+        </is>
       </c>
       <c r="P312" s="7" t="n">
-        <v>613</v>
+        <v>651</v>
       </c>
       <c r="Q312" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R312" s="16" t="n">
-        <v>23.06</v>
+        <v>4.03</v>
       </c>
       <c r="T312" s="5" t="n"/>
     </row>
     <row r="313" ht="13" customHeight="1">
       <c r="B313" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C313" s="7" t="inlineStr">
         <is>
-          <t>Emily Nyborg</t>
+          <t>Julie Heiervang Johnsen</t>
         </is>
       </c>
       <c r="D313" s="7" t="n">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="E313" s="15" t="n">
-        <v>13.33</v>
+        <v>9.41</v>
       </c>
       <c r="F313" s="7" t="n">
-        <v>615</v>
+        <v>546</v>
       </c>
       <c r="G313" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H313" s="16" t="n">
-        <v>2.07</v>
+        <v>22.08</v>
       </c>
       <c r="J313" s="5" t="n"/>
       <c r="L313" s="14" t="inlineStr">
@@ -59244,178 +59306,240 @@
       </c>
       <c r="M313" s="7" t="inlineStr">
         <is>
-          <t>Nora Kaspara Lindset</t>
+          <t>Emily Nyborg</t>
         </is>
       </c>
       <c r="N313" s="7" t="n">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="O313" s="15" t="n">
-        <v>14.95</v>
+        <v>13.33</v>
       </c>
       <c r="P313" s="7" t="n">
-        <v>378</v>
+        <v>615</v>
       </c>
       <c r="Q313" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R313" s="16" t="n">
-        <v>10.06</v>
+        <v>2.07</v>
       </c>
       <c r="T313" s="5" t="n"/>
     </row>
     <row r="314" ht="13" customHeight="1">
       <c r="B314" s="14" t="inlineStr">
         <is>
+          <t>Diskos</t>
+        </is>
+      </c>
+      <c r="C314" s="7" t="inlineStr">
+        <is>
+          <t>Julie Heiervang Johnsen</t>
+        </is>
+      </c>
+      <c r="D314" s="7" t="n">
+        <v>1996</v>
+      </c>
+      <c r="E314" s="15" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F314" s="7" t="n">
+        <v>471</v>
+      </c>
+      <c r="G314" s="7" t="inlineStr">
+        <is>
+          <t>Trondheim</t>
+        </is>
+      </c>
+      <c r="H314" s="16" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="J314" s="5" t="n"/>
+      <c r="L314" s="14" t="inlineStr">
+        <is>
           <t>60m</t>
         </is>
       </c>
-      <c r="C314" s="7" t="inlineStr">
+      <c r="M314" s="7" t="inlineStr">
         <is>
           <t>Ruby Berg-Vindsetmo</t>
         </is>
       </c>
-      <c r="D314" s="7" t="n">
+      <c r="N314" s="7" t="n">
         <v>2008</v>
       </c>
-      <c r="E314" s="15" t="n">
+      <c r="O314" s="15" t="n">
         <v>9.07</v>
       </c>
-      <c r="F314" s="7" t="n">
+      <c r="P314" s="7" t="n">
         <v>457</v>
       </c>
-      <c r="G314" s="7" t="inlineStr">
+      <c r="Q314" s="7" t="inlineStr">
         <is>
           <t>Steinkjer</t>
         </is>
       </c>
-      <c r="H314" s="16" t="n">
+      <c r="R314" s="16" t="n">
         <v>21.01</v>
       </c>
-      <c r="J314" s="5" t="n"/>
-      <c r="L314" s="14" t="n"/>
-      <c r="M314" s="7" t="n"/>
-      <c r="N314" s="7" t="n"/>
-      <c r="O314" s="7" t="n"/>
-      <c r="P314" s="7" t="n"/>
-      <c r="Q314" s="7" t="n"/>
-      <c r="R314" s="21" t="n"/>
       <c r="T314" s="5" t="n"/>
     </row>
     <row r="315" ht="13" customHeight="1">
       <c r="B315" s="14" t="inlineStr">
         <is>
+          <t>100m</t>
+        </is>
+      </c>
+      <c r="C315" s="7" t="inlineStr">
+        <is>
+          <t>Nora Kaspara Lindset</t>
+        </is>
+      </c>
+      <c r="D315" s="7" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E315" s="15" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="F315" s="7" t="n">
+        <v>378</v>
+      </c>
+      <c r="G315" s="7" t="inlineStr">
+        <is>
+          <t>Trondheim</t>
+        </is>
+      </c>
+      <c r="H315" s="16" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="J315" s="5" t="n"/>
+      <c r="L315" s="14" t="inlineStr">
+        <is>
           <t>200m</t>
         </is>
       </c>
-      <c r="C315" s="7" t="inlineStr">
+      <c r="M315" s="7" t="inlineStr">
         <is>
           <t>Ruby Berg-Vindsetmo</t>
         </is>
       </c>
-      <c r="D315" s="7" t="n">
+      <c r="N315" s="7" t="n">
         <v>2008</v>
       </c>
-      <c r="E315" s="15" t="n">
+      <c r="O315" s="15" t="n">
         <v>29.98</v>
       </c>
-      <c r="F315" s="7" t="n">
+      <c r="P315" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="G315" s="7" t="inlineStr">
+      <c r="Q315" s="7" t="inlineStr">
         <is>
           <t>Steinkjer</t>
         </is>
       </c>
-      <c r="H315" s="16" t="n">
+      <c r="R315" s="16" t="n">
         <v>22.01</v>
       </c>
-      <c r="J315" s="5" t="n"/>
-      <c r="L315" s="14" t="n"/>
-      <c r="M315" s="7" t="n"/>
-      <c r="N315" s="7" t="n"/>
-      <c r="O315" s="7" t="n"/>
-      <c r="P315" s="7" t="n"/>
-      <c r="Q315" s="7" t="n"/>
-      <c r="R315" s="21" t="n"/>
       <c r="T315" s="5" t="n"/>
     </row>
     <row r="316" ht="13" customHeight="1">
       <c r="B316" s="14" t="inlineStr">
         <is>
+          <t>1500m</t>
+        </is>
+      </c>
+      <c r="C316" s="7" t="inlineStr">
+        <is>
+          <t>Nora Kaspara Lindset</t>
+        </is>
+      </c>
+      <c r="D316" s="7" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E316" s="17" t="inlineStr">
+        <is>
+          <t>6,07,3</t>
+        </is>
+      </c>
+      <c r="F316" s="7" t="n">
+        <v>318</v>
+      </c>
+      <c r="G316" s="7" t="inlineStr">
+        <is>
+          <t>Stjørdal</t>
+        </is>
+      </c>
+      <c r="H316" s="16" t="n">
+        <v>16.08</v>
+      </c>
+      <c r="J316" s="5" t="n"/>
+      <c r="L316" s="14" t="inlineStr">
+        <is>
           <t>60m</t>
         </is>
       </c>
-      <c r="C316" s="7" t="inlineStr">
+      <c r="M316" s="7" t="inlineStr">
         <is>
           <t>Karelie Myrseth Vikshåland</t>
         </is>
       </c>
-      <c r="D316" s="7" t="n">
+      <c r="N316" s="7" t="n">
         <v>2011</v>
       </c>
-      <c r="E316" s="15" t="n">
+      <c r="O316" s="15" t="n">
         <v>9.279999999999999</v>
       </c>
-      <c r="F316" s="7" t="n">
+      <c r="P316" s="7" t="n">
         <v>412</v>
       </c>
-      <c r="G316" s="7" t="inlineStr">
+      <c r="Q316" s="7" t="inlineStr">
         <is>
           <t>Steinkjer</t>
         </is>
       </c>
-      <c r="H316" s="16" t="n">
+      <c r="R316" s="16" t="n">
         <v>18.03</v>
       </c>
-      <c r="J316" s="5" t="n"/>
-      <c r="L316" s="14" t="n"/>
-      <c r="M316" s="7" t="n"/>
-      <c r="N316" s="7" t="n"/>
-      <c r="O316" s="7" t="n"/>
-      <c r="P316" s="7" t="n"/>
-      <c r="Q316" s="7" t="n"/>
-      <c r="R316" s="21" t="n"/>
       <c r="T316" s="5" t="n"/>
     </row>
     <row r="317" ht="13" customHeight="1">
-      <c r="B317" s="14" t="inlineStr">
+      <c r="B317" s="14" t="n"/>
+      <c r="C317" s="7" t="n"/>
+      <c r="D317" s="7" t="n"/>
+      <c r="E317" s="7" t="n"/>
+      <c r="F317" s="7" t="n"/>
+      <c r="G317" s="7" t="n"/>
+      <c r="H317" s="21" t="n"/>
+      <c r="J317" s="5" t="n"/>
+      <c r="L317" s="14" t="inlineStr">
         <is>
           <t>60m</t>
         </is>
       </c>
-      <c r="C317" s="7" t="inlineStr">
+      <c r="M317" s="7" t="inlineStr">
         <is>
           <t>Tonje Gynnild Nordvik</t>
         </is>
       </c>
-      <c r="D317" s="7" t="n">
+      <c r="N317" s="7" t="n">
         <v>2010</v>
       </c>
-      <c r="E317" s="15" t="n">
+      <c r="O317" s="15" t="n">
         <v>9.48</v>
       </c>
-      <c r="F317" s="7" t="n">
+      <c r="P317" s="7" t="n">
         <v>371</v>
       </c>
-      <c r="G317" s="7" t="inlineStr">
+      <c r="Q317" s="7" t="inlineStr">
         <is>
           <t>Steinkjer</t>
         </is>
       </c>
-      <c r="H317" s="16" t="n">
+      <c r="R317" s="16" t="n">
         <v>21.01</v>
       </c>
-      <c r="J317" s="5" t="n"/>
-      <c r="L317" s="14" t="n"/>
-      <c r="M317" s="7" t="n"/>
-      <c r="N317" s="7" t="n"/>
-      <c r="O317" s="7" t="n"/>
-      <c r="P317" s="7" t="n"/>
-      <c r="Q317" s="7" t="n"/>
-      <c r="R317" s="21" t="n"/>
       <c r="T317" s="5" t="n"/>
     </row>
     <row r="318" ht="13" customHeight="1">
@@ -59515,7 +59639,7 @@
         </is>
       </c>
       <c r="C323" s="20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E323" s="19" t="inlineStr">
         <is>
@@ -59523,7 +59647,7 @@
         </is>
       </c>
       <c r="F323" s="20" t="n">
-        <v>4309</v>
+        <v>3757</v>
       </c>
       <c r="J323" s="5" t="n"/>
       <c r="L323" s="19" t="inlineStr">
@@ -59532,7 +59656,7 @@
         </is>
       </c>
       <c r="M323" s="20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O323" s="19" t="inlineStr">
         <is>
@@ -59540,7 +59664,7 @@
         </is>
       </c>
       <c r="P323" s="20" t="n">
-        <v>2404</v>
+        <v>4309</v>
       </c>
       <c r="T323" s="5" t="n"/>
     </row>
@@ -59555,7 +59679,7 @@
         </is>
       </c>
       <c r="C325" s="20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E325" s="19" t="inlineStr">
         <is>
@@ -59563,7 +59687,7 @@
         </is>
       </c>
       <c r="F325" s="20" t="n">
-        <v>9730</v>
+        <v>10314</v>
       </c>
       <c r="J325" s="5" t="n"/>
       <c r="L325" s="19" t="inlineStr">
@@ -59572,7 +59696,7 @@
         </is>
       </c>
       <c r="M325" s="20" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O325" s="19" t="inlineStr">
         <is>
@@ -59580,7 +59704,7 @@
         </is>
       </c>
       <c r="P325" s="20" t="n">
-        <v>7890</v>
+        <v>9730</v>
       </c>
       <c r="T325" s="5" t="n"/>
     </row>
@@ -59595,7 +59719,7 @@
         </is>
       </c>
       <c r="C327" s="20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J327" s="5" t="n"/>
       <c r="L327" s="19" t="inlineStr">
@@ -59604,7 +59728,7 @@
         </is>
       </c>
       <c r="M327" s="20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T327" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2023 1-2. div.xlsx
+++ b/output/Lagserien 2023 1-2. div.xlsx
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>28056</v>
+        <v>28138</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>25755</v>
+        <v>25975</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
@@ -653,25 +653,25 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IL i BUL</t>
+          <t>Norna-Salhus IL</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>(30/16)</t>
+          <t>(30/18)</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>24909</v>
+        <v>24773</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>(7)</t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -681,25 +681,25 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Norna-Salhus IL</t>
+          <t>IL i BUL</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>(30/18)</t>
+          <t>(30/16)</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>24773</v>
+        <v>24769</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>(3)</t>
+          <t>(7)</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>23518</v>
+        <v>23527</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
@@ -1878,18 +1878,18 @@
         <v>2002</v>
       </c>
       <c r="E20" s="15" t="n">
-        <v>7.74</v>
+        <v>7.8</v>
       </c>
       <c r="F20" s="7" t="n">
-        <v>980</v>
+        <v>992</v>
       </c>
       <c r="G20" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Budapest/HUN</t>
         </is>
       </c>
       <c r="H20" s="16" t="n">
-        <v>15.06</v>
+        <v>25.08</v>
       </c>
       <c r="J20" s="5" t="n"/>
       <c r="L20" s="14" t="inlineStr">
@@ -2052,18 +2052,18 @@
         <v>1990</v>
       </c>
       <c r="E23" s="15" t="n">
-        <v>76.75</v>
+        <v>77.06</v>
       </c>
       <c r="F23" s="7" t="n">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="G23" s="7" t="inlineStr">
         <is>
-          <t>Chorzów/POL</t>
+          <t>Budapest/HUN</t>
         </is>
       </c>
       <c r="H23" s="16" t="n">
-        <v>16.07</v>
+        <v>20.08</v>
       </c>
       <c r="J23" s="5" t="n"/>
       <c r="L23" s="14" t="inlineStr">
@@ -2128,7 +2128,7 @@
         </is>
       </c>
       <c r="F25" s="20" t="n">
-        <v>14496</v>
+        <v>14512</v>
       </c>
       <c r="J25" s="5" t="n"/>
       <c r="L25" s="19" t="inlineStr">
@@ -2308,30 +2308,30 @@
     <row r="31" ht="13" customHeight="1">
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C31" s="7" t="inlineStr">
         <is>
-          <t>Marius Bull Hjeltnes</t>
+          <t>Markus Rooth</t>
         </is>
       </c>
       <c r="D31" s="7" t="n">
-        <v>1996</v>
+        <v>2001</v>
       </c>
       <c r="E31" s="15" t="n">
-        <v>21.42</v>
+        <v>7.62</v>
       </c>
       <c r="F31" s="7" t="n">
-        <v>931</v>
+        <v>956</v>
       </c>
       <c r="G31" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Budapest/HUN</t>
         </is>
       </c>
       <c r="H31" s="16" t="n">
-        <v>11.08</v>
+        <v>25.08</v>
       </c>
       <c r="J31" s="5" t="n"/>
       <c r="L31" s="14" t="inlineStr">
@@ -2341,62 +2341,62 @@
       </c>
       <c r="M31" s="7" t="inlineStr">
         <is>
-          <t>Henrik Børkja Ingebrigtsen</t>
+          <t>Jakob Ingebrigtsen</t>
         </is>
       </c>
       <c r="N31" s="7" t="n">
-        <v>1991</v>
+        <v>2000</v>
       </c>
       <c r="O31" s="17" t="inlineStr">
         <is>
-          <t>13,13,99</t>
+          <t>13,11,30</t>
         </is>
       </c>
       <c r="P31" s="7" t="n">
-        <v>1064</v>
+        <v>1074</v>
       </c>
       <c r="Q31" s="7" t="inlineStr">
         <is>
-          <t>Oordegem/BEL</t>
+          <t>Budapest/HUN</t>
         </is>
       </c>
       <c r="R31" s="16" t="n">
-        <v>27.05</v>
+        <v>27.08</v>
       </c>
       <c r="T31" s="5" t="n"/>
     </row>
     <row r="32" ht="13" customHeight="1">
       <c r="B32" s="14" t="inlineStr">
         <is>
-          <t>110m hekk</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C32" s="7" t="inlineStr">
         <is>
-          <t>Markus Rooth</t>
+          <t>Marius Bull Hjeltnes</t>
         </is>
       </c>
       <c r="D32" s="7" t="n">
-        <v>2001</v>
+        <v>1996</v>
       </c>
       <c r="E32" s="15" t="n">
-        <v>14.23</v>
+        <v>21.42</v>
       </c>
       <c r="F32" s="7" t="n">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G32" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H32" s="16" t="n">
-        <v>2.07</v>
+        <v>11.08</v>
       </c>
       <c r="J32" s="5" t="n"/>
       <c r="L32" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M32" s="7" t="inlineStr">
@@ -2409,26 +2409,26 @@
       </c>
       <c r="O32" s="17" t="inlineStr">
         <is>
-          <t>7,42,57</t>
+          <t>13,13,99</t>
         </is>
       </c>
       <c r="P32" s="7" t="n">
-        <v>1047</v>
+        <v>1064</v>
       </c>
       <c r="Q32" s="7" t="inlineStr">
         <is>
-          <t>Luzern/SUI</t>
+          <t>Oordegem/BEL</t>
         </is>
       </c>
       <c r="R32" s="16" t="n">
-        <v>20.07</v>
+        <v>27.05</v>
       </c>
       <c r="T32" s="5" t="n"/>
     </row>
     <row r="33" ht="13" customHeight="1">
       <c r="B33" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>110m hekk</t>
         </is>
       </c>
       <c r="C33" s="7" t="inlineStr">
@@ -2440,18 +2440,18 @@
         <v>2001</v>
       </c>
       <c r="E33" s="15" t="n">
-        <v>5.1</v>
+        <v>14.23</v>
       </c>
       <c r="F33" s="7" t="n">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="G33" s="7" t="inlineStr">
         <is>
-          <t>Espoo/FIN</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H33" s="16" t="n">
-        <v>16.07</v>
+        <v>2.07</v>
       </c>
       <c r="J33" s="5" t="n"/>
       <c r="L33" s="14" t="inlineStr">
@@ -2461,207 +2461,207 @@
       </c>
       <c r="M33" s="7" t="inlineStr">
         <is>
-          <t>Narve Gilje Nordås</t>
+          <t>Henrik Børkja Ingebrigtsen</t>
         </is>
       </c>
       <c r="N33" s="7" t="n">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="O33" s="17" t="inlineStr">
         <is>
-          <t>7,43,94</t>
+          <t>7,42,57</t>
         </is>
       </c>
       <c r="P33" s="7" t="n">
-        <v>1039</v>
+        <v>1047</v>
       </c>
       <c r="Q33" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Luzern/SUI</t>
         </is>
       </c>
       <c r="R33" s="16" t="n">
-        <v>3.06</v>
+        <v>20.07</v>
       </c>
       <c r="T33" s="5" t="n"/>
     </row>
     <row r="34" ht="13" customHeight="1">
       <c r="B34" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C34" s="7" t="inlineStr">
         <is>
-          <t>Mikkel Blikstad Thomassen</t>
+          <t>Markus Rooth</t>
         </is>
       </c>
       <c r="D34" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E34" s="17" t="inlineStr">
-        <is>
-          <t>8,08,16</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="E34" s="15" t="n">
+        <v>5.1</v>
       </c>
       <c r="F34" s="7" t="n">
-        <v>915</v>
+        <v>928</v>
       </c>
       <c r="G34" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Espoo/FIN</t>
         </is>
       </c>
       <c r="H34" s="16" t="n">
-        <v>11.08</v>
+        <v>16.07</v>
       </c>
       <c r="J34" s="5" t="n"/>
       <c r="L34" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M34" s="7" t="inlineStr">
         <is>
-          <t>Filip Ingebrigtsen</t>
+          <t>Narve Gilje Nordås</t>
         </is>
       </c>
       <c r="N34" s="7" t="n">
-        <v>1993</v>
+        <v>1998</v>
       </c>
       <c r="O34" s="17" t="inlineStr">
         <is>
-          <t>3,39,18</t>
+          <t>7,43,94</t>
         </is>
       </c>
       <c r="P34" s="7" t="n">
-        <v>997</v>
+        <v>1039</v>
       </c>
       <c r="Q34" s="7" t="inlineStr">
         <is>
-          <t>Luzern/SUI</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R34" s="16" t="n">
-        <v>20.07</v>
+        <v>3.06</v>
       </c>
       <c r="T34" s="5" t="n"/>
     </row>
     <row r="35" ht="13" customHeight="1">
       <c r="B35" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C35" s="7" t="inlineStr">
         <is>
-          <t>Abraham Sandvin Vogelsang</t>
+          <t>Mikkel Blikstad Thomassen</t>
         </is>
       </c>
       <c r="D35" s="7" t="n">
         <v>2003</v>
       </c>
-      <c r="E35" s="15" t="n">
-        <v>5</v>
+      <c r="E35" s="17" t="inlineStr">
+        <is>
+          <t>8,08,16</t>
+        </is>
       </c>
       <c r="F35" s="7" t="n">
-        <v>908</v>
+        <v>915</v>
       </c>
       <c r="G35" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H35" s="16" t="n">
-        <v>21.05</v>
+        <v>11.08</v>
       </c>
       <c r="J35" s="5" t="n"/>
       <c r="L35" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M35" s="7" t="inlineStr">
         <is>
-          <t>Alexander Skrede</t>
+          <t>Filip Ingebrigtsen</t>
         </is>
       </c>
       <c r="N35" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O35" s="15" t="n">
-        <v>10.76</v>
+        <v>1993</v>
+      </c>
+      <c r="O35" s="17" t="inlineStr">
+        <is>
+          <t>3,39,18</t>
+        </is>
       </c>
       <c r="P35" s="7" t="n">
-        <v>904</v>
+        <v>997</v>
       </c>
       <c r="Q35" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Luzern/SUI</t>
         </is>
       </c>
       <c r="R35" s="16" t="n">
-        <v>18.06</v>
+        <v>20.07</v>
       </c>
       <c r="T35" s="5" t="n"/>
     </row>
     <row r="36" ht="13" customHeight="1">
       <c r="B36" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C36" s="7" t="inlineStr">
         <is>
-          <t>Kenny Emi Tijani-Ajayi</t>
+          <t>Abraham Sandvin Vogelsang</t>
         </is>
       </c>
       <c r="D36" s="7" t="n">
         <v>2003</v>
       </c>
       <c r="E36" s="15" t="n">
-        <v>10.75</v>
+        <v>5</v>
       </c>
       <c r="F36" s="7" t="n">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="G36" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="H36" s="16" t="n">
-        <v>13.08</v>
+        <v>21.05</v>
       </c>
       <c r="J36" s="5" t="n"/>
       <c r="L36" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M36" s="7" t="inlineStr">
         <is>
-          <t>Benjamin Storm Rettore</t>
+          <t>Alexander Skrede</t>
         </is>
       </c>
       <c r="N36" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O36" s="17" t="inlineStr">
-        <is>
-          <t>8,12,76</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="O36" s="15" t="n">
+        <v>10.76</v>
       </c>
       <c r="P36" s="7" t="n">
-        <v>893</v>
+        <v>904</v>
       </c>
       <c r="Q36" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R36" s="16" t="n">
-        <v>11.08</v>
+        <v>18.06</v>
       </c>
       <c r="T36" s="5" t="n"/>
     </row>
@@ -2673,17 +2673,17 @@
       </c>
       <c r="C37" s="7" t="inlineStr">
         <is>
-          <t>Even Pettersen</t>
+          <t>Kenny Emi Tijani-Ajayi</t>
         </is>
       </c>
       <c r="D37" s="7" t="n">
-        <v>1993</v>
+        <v>2003</v>
       </c>
       <c r="E37" s="15" t="n">
-        <v>10.77</v>
+        <v>10.75</v>
       </c>
       <c r="F37" s="7" t="n">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="G37" s="7" t="inlineStr">
         <is>
@@ -2696,153 +2696,155 @@
       <c r="J37" s="5" t="n"/>
       <c r="L37" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M37" s="7" t="inlineStr">
         <is>
-          <t>Alexander Skrede</t>
+          <t>Benjamin Storm Rettore</t>
         </is>
       </c>
       <c r="N37" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O37" s="15" t="n">
-        <v>21.8</v>
+        <v>2003</v>
+      </c>
+      <c r="O37" s="17" t="inlineStr">
+        <is>
+          <t>8,12,76</t>
+        </is>
       </c>
       <c r="P37" s="7" t="n">
-        <v>884</v>
+        <v>893</v>
       </c>
       <c r="Q37" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R37" s="16" t="n">
-        <v>18.02</v>
+        <v>11.08</v>
       </c>
       <c r="T37" s="5" t="n"/>
     </row>
     <row r="38" ht="13" customHeight="1">
       <c r="B38" s="14" t="inlineStr">
         <is>
-          <t>110m hekk</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C38" s="7" t="inlineStr">
         <is>
-          <t>Abraham Sandvin Vogelsang</t>
+          <t>Even Pettersen</t>
         </is>
       </c>
       <c r="D38" s="7" t="n">
-        <v>2003</v>
+        <v>1993</v>
       </c>
       <c r="E38" s="15" t="n">
-        <v>14.4</v>
+        <v>10.77</v>
       </c>
       <c r="F38" s="7" t="n">
         <v>902</v>
       </c>
       <c r="G38" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H38" s="16" t="n">
-        <v>21.05</v>
+        <v>13.08</v>
       </c>
       <c r="J38" s="5" t="n"/>
       <c r="L38" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M38" s="7" t="inlineStr">
         <is>
-          <t>Soban Mortaza Inayat</t>
+          <t>Alexander Skrede</t>
         </is>
       </c>
       <c r="N38" s="7" t="n">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="O38" s="15" t="n">
-        <v>10.93</v>
+        <v>21.8</v>
       </c>
       <c r="P38" s="7" t="n">
-        <v>860</v>
+        <v>884</v>
       </c>
       <c r="Q38" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R38" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>18.02</v>
       </c>
       <c r="T38" s="5" t="n"/>
     </row>
     <row r="39" ht="13" customHeight="1">
       <c r="B39" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>110m hekk</t>
         </is>
       </c>
       <c r="C39" s="7" t="inlineStr">
         <is>
-          <t>Markus Rooth</t>
+          <t>Abraham Sandvin Vogelsang</t>
         </is>
       </c>
       <c r="D39" s="7" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="E39" s="15" t="n">
-        <v>10.81</v>
+        <v>14.4</v>
       </c>
       <c r="F39" s="7" t="n">
-        <v>891</v>
+        <v>902</v>
       </c>
       <c r="G39" s="7" t="inlineStr">
         <is>
-          <t>Espoo/FIN</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="H39" s="16" t="n">
-        <v>15.07</v>
+        <v>21.05</v>
       </c>
       <c r="J39" s="5" t="n"/>
       <c r="L39" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M39" s="7" t="inlineStr">
         <is>
-          <t>Jonas Berggård Skåden</t>
+          <t>Soban Mortaza Inayat</t>
         </is>
       </c>
       <c r="N39" s="7" t="n">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="O39" s="15" t="n">
-        <v>7.02</v>
+        <v>10.93</v>
       </c>
       <c r="P39" s="7" t="n">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="Q39" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R39" s="16" t="n">
-        <v>21.01</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="T39" s="5" t="n"/>
     </row>
     <row r="40" ht="13" customHeight="1">
       <c r="B40" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C40" s="7" t="inlineStr">
@@ -2854,18 +2856,18 @@
         <v>2001</v>
       </c>
       <c r="E40" s="15" t="n">
-        <v>7.3</v>
+        <v>10.81</v>
       </c>
       <c r="F40" s="7" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="G40" s="7" t="inlineStr">
         <is>
-          <t>Desenzano Del Garda/ITA</t>
+          <t>Espoo/FIN</t>
         </is>
       </c>
       <c r="H40" s="16" t="n">
-        <v>29.04</v>
+        <v>15.07</v>
       </c>
       <c r="J40" s="5" t="n"/>
       <c r="L40" s="14" t="inlineStr">
@@ -3162,7 +3164,7 @@
         </is>
       </c>
       <c r="F46" s="20" t="n">
-        <v>13560</v>
+        <v>13626</v>
       </c>
       <c r="J46" s="5" t="n"/>
       <c r="L46" s="19" t="inlineStr">
@@ -3179,7 +3181,7 @@
         </is>
       </c>
       <c r="P46" s="20" t="n">
-        <v>13063</v>
+        <v>13283</v>
       </c>
       <c r="T46" s="5" t="n"/>
     </row>
@@ -3202,7 +3204,7 @@
         </is>
       </c>
       <c r="F48" s="20" t="n">
-        <v>28056</v>
+        <v>28138</v>
       </c>
       <c r="J48" s="5" t="n"/>
       <c r="L48" s="19" t="inlineStr">
@@ -3219,7 +3221,7 @@
         </is>
       </c>
       <c r="P48" s="20" t="n">
-        <v>25755</v>
+        <v>25975</v>
       </c>
       <c r="T48" s="5" t="n"/>
     </row>
@@ -3285,7 +3287,7 @@
       </c>
       <c r="C54" s="7" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="F54" s="8" t="n">
@@ -3299,7 +3301,7 @@
       </c>
       <c r="M54" s="7" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="P54" s="8" t="n">
@@ -3315,7 +3317,7 @@
       </c>
       <c r="C55" s="7" t="inlineStr">
         <is>
-          <t>IL i BUL</t>
+          <t>Norna-Salhus IL</t>
         </is>
       </c>
       <c r="J55" s="5" t="n"/>
@@ -3326,7 +3328,7 @@
       </c>
       <c r="M55" s="7" t="inlineStr">
         <is>
-          <t>Norna-Salhus IL</t>
+          <t>IL i BUL</t>
         </is>
       </c>
       <c r="T55" s="5" t="n"/>
@@ -3455,17 +3457,17 @@
       </c>
       <c r="C61" s="7" t="inlineStr">
         <is>
-          <t>Per Tinius Fremstad-Waldron</t>
+          <t>Salum Ageze Kashafali</t>
         </is>
       </c>
       <c r="D61" s="7" t="n">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="E61" s="15" t="n">
-        <v>6.77</v>
+        <v>6.75</v>
       </c>
       <c r="F61" s="7" t="n">
-        <v>974</v>
+        <v>984</v>
       </c>
       <c r="G61" s="7" t="inlineStr">
         <is>
@@ -3483,17 +3485,17 @@
       </c>
       <c r="M61" s="7" t="inlineStr">
         <is>
-          <t>Salum Ageze Kashafali</t>
+          <t>Per Tinius Fremstad-Waldron</t>
         </is>
       </c>
       <c r="N61" s="7" t="n">
-        <v>1993</v>
+        <v>2000</v>
       </c>
       <c r="O61" s="15" t="n">
-        <v>6.75</v>
+        <v>6.77</v>
       </c>
       <c r="P61" s="7" t="n">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="Q61" s="7" t="inlineStr">
         <is>
@@ -3513,25 +3515,25 @@
       </c>
       <c r="C62" s="7" t="inlineStr">
         <is>
-          <t>Per Tinius Fremstad-Waldron</t>
+          <t>Salum Ageze Kashafali</t>
         </is>
       </c>
       <c r="D62" s="7" t="n">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="E62" s="15" t="n">
-        <v>10.38</v>
+        <v>10.37</v>
       </c>
       <c r="F62" s="7" t="n">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="G62" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H62" s="16" t="n">
-        <v>6.07</v>
+        <v>15.06</v>
       </c>
       <c r="J62" s="5" t="n"/>
       <c r="L62" s="14" t="inlineStr">
@@ -3541,25 +3543,25 @@
       </c>
       <c r="M62" s="7" t="inlineStr">
         <is>
-          <t>Salum Ageze Kashafali</t>
+          <t>Per Tinius Fremstad-Waldron</t>
         </is>
       </c>
       <c r="N62" s="7" t="n">
-        <v>1993</v>
+        <v>2000</v>
       </c>
       <c r="O62" s="15" t="n">
-        <v>10.37</v>
+        <v>10.38</v>
       </c>
       <c r="P62" s="7" t="n">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="Q62" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R62" s="16" t="n">
-        <v>15.06</v>
+        <v>6.07</v>
       </c>
       <c r="T62" s="5" t="n"/>
     </row>
@@ -3571,25 +3573,25 @@
       </c>
       <c r="C63" s="7" t="inlineStr">
         <is>
-          <t>Per Tinius Fremstad-Waldron</t>
+          <t>Salum Ageze Kashafali</t>
         </is>
       </c>
       <c r="D63" s="7" t="n">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="E63" s="15" t="n">
-        <v>21.27</v>
+        <v>22.08</v>
       </c>
       <c r="F63" s="7" t="n">
-        <v>950</v>
+        <v>851</v>
       </c>
       <c r="G63" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Nottwil/SUI</t>
         </is>
       </c>
       <c r="H63" s="16" t="n">
-        <v>20.08</v>
+        <v>25.05</v>
       </c>
       <c r="J63" s="5" t="n"/>
       <c r="L63" s="14" t="inlineStr">
@@ -3599,25 +3601,25 @@
       </c>
       <c r="M63" s="7" t="inlineStr">
         <is>
-          <t>Salum Ageze Kashafali</t>
+          <t>Per Tinius Fremstad-Waldron</t>
         </is>
       </c>
       <c r="N63" s="7" t="n">
-        <v>1993</v>
+        <v>2000</v>
       </c>
       <c r="O63" s="15" t="n">
-        <v>22.08</v>
+        <v>21.27</v>
       </c>
       <c r="P63" s="7" t="n">
-        <v>851</v>
+        <v>950</v>
       </c>
       <c r="Q63" s="7" t="inlineStr">
         <is>
-          <t>Nottwil/SUI</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R63" s="16" t="n">
-        <v>25.05</v>
+        <v>20.08</v>
       </c>
       <c r="T63" s="5" t="n"/>
     </row>
@@ -3629,25 +3631,25 @@
       </c>
       <c r="C64" s="7" t="inlineStr">
         <is>
-          <t>Leon Samuel Douglas Mjaaland</t>
+          <t>Fredrik H. Gullachsen</t>
         </is>
       </c>
       <c r="D64" s="7" t="n">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="E64" s="15" t="n">
-        <v>47.76</v>
+        <v>48.42</v>
       </c>
       <c r="F64" s="7" t="n">
-        <v>905</v>
+        <v>868</v>
       </c>
       <c r="G64" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H64" s="16" t="n">
-        <v>8.07</v>
+        <v>28.06</v>
       </c>
       <c r="J64" s="5" t="n"/>
       <c r="L64" s="14" t="inlineStr">
@@ -3657,25 +3659,25 @@
       </c>
       <c r="M64" s="7" t="inlineStr">
         <is>
-          <t>Fredrik H. Gullachsen</t>
+          <t>Leon Samuel Douglas Mjaaland</t>
         </is>
       </c>
       <c r="N64" s="7" t="n">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="O64" s="15" t="n">
-        <v>48.42</v>
+        <v>47.76</v>
       </c>
       <c r="P64" s="7" t="n">
-        <v>868</v>
+        <v>905</v>
       </c>
       <c r="Q64" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R64" s="16" t="n">
-        <v>28.06</v>
+        <v>8.07</v>
       </c>
       <c r="T64" s="5" t="n"/>
     </row>
@@ -3687,27 +3689,27 @@
       </c>
       <c r="C65" s="7" t="inlineStr">
         <is>
-          <t>Leon Samuel Douglas Mjaaland</t>
+          <t>Eivind Langøy</t>
         </is>
       </c>
       <c r="D65" s="7" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="E65" s="17" t="inlineStr">
         <is>
-          <t>1,53,04</t>
+          <t>1,59,40</t>
         </is>
       </c>
       <c r="F65" s="7" t="n">
-        <v>839</v>
+        <v>699</v>
       </c>
       <c r="G65" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H65" s="16" t="n">
-        <v>20.05</v>
+        <v>26.06</v>
       </c>
       <c r="J65" s="5" t="n"/>
       <c r="L65" s="14" t="inlineStr">
@@ -3717,27 +3719,27 @@
       </c>
       <c r="M65" s="7" t="inlineStr">
         <is>
-          <t>Eivind Langøy</t>
+          <t>Leon Samuel Douglas Mjaaland</t>
         </is>
       </c>
       <c r="N65" s="7" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="O65" s="17" t="inlineStr">
         <is>
-          <t>1,59,40</t>
+          <t>1,53,04</t>
         </is>
       </c>
       <c r="P65" s="7" t="n">
-        <v>699</v>
+        <v>839</v>
       </c>
       <c r="Q65" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="R65" s="16" t="n">
-        <v>26.06</v>
+        <v>20.05</v>
       </c>
       <c r="T65" s="5" t="n"/>
     </row>
@@ -3749,27 +3751,27 @@
       </c>
       <c r="C66" s="7" t="inlineStr">
         <is>
-          <t>Simon Steinshamn</t>
+          <t>Christian Magnus Lothe Hitland</t>
         </is>
       </c>
       <c r="D66" s="7" t="n">
-        <v>1999</v>
+        <v>2008</v>
       </c>
       <c r="E66" s="17" t="inlineStr">
         <is>
-          <t>3,49,96</t>
+          <t>4,21,22</t>
         </is>
       </c>
       <c r="F66" s="7" t="n">
-        <v>865</v>
+        <v>585</v>
       </c>
       <c r="G66" s="7" t="inlineStr">
         <is>
-          <t>Watford/GBR</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H66" s="16" t="n">
-        <v>1.07</v>
+        <v>5.03</v>
       </c>
       <c r="J66" s="5" t="n"/>
       <c r="L66" s="14" t="inlineStr">
@@ -3779,27 +3781,27 @@
       </c>
       <c r="M66" s="7" t="inlineStr">
         <is>
-          <t>Christian Magnus Lothe Hitland</t>
+          <t>Simon Steinshamn</t>
         </is>
       </c>
       <c r="N66" s="7" t="n">
-        <v>2008</v>
+        <v>1999</v>
       </c>
       <c r="O66" s="17" t="inlineStr">
         <is>
-          <t>4,21,22</t>
+          <t>3,49,96</t>
         </is>
       </c>
       <c r="P66" s="7" t="n">
-        <v>585</v>
+        <v>865</v>
       </c>
       <c r="Q66" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Watford/GBR</t>
         </is>
       </c>
       <c r="R66" s="16" t="n">
-        <v>5.03</v>
+        <v>1.07</v>
       </c>
       <c r="T66" s="5" t="n"/>
     </row>
@@ -3811,27 +3813,27 @@
       </c>
       <c r="C67" s="7" t="inlineStr">
         <is>
-          <t>Ibrahim Buras</t>
+          <t>Per Svela</t>
         </is>
       </c>
       <c r="D67" s="7" t="n">
-        <v>2001</v>
+        <v>1992</v>
       </c>
       <c r="E67" s="17" t="inlineStr">
         <is>
-          <t>7,59,70</t>
+          <t>7,51,26</t>
         </is>
       </c>
       <c r="F67" s="7" t="n">
-        <v>956</v>
+        <v>998</v>
       </c>
       <c r="G67" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H67" s="16" t="n">
-        <v>11.08</v>
+        <v>3.06</v>
       </c>
       <c r="J67" s="5" t="n"/>
       <c r="L67" s="14" t="inlineStr">
@@ -3841,27 +3843,27 @@
       </c>
       <c r="M67" s="7" t="inlineStr">
         <is>
-          <t>Per Svela</t>
+          <t>Ibrahim Buras</t>
         </is>
       </c>
       <c r="N67" s="7" t="n">
-        <v>1992</v>
+        <v>2001</v>
       </c>
       <c r="O67" s="17" t="inlineStr">
         <is>
-          <t>7,51,26</t>
+          <t>7,59,70</t>
         </is>
       </c>
       <c r="P67" s="7" t="n">
-        <v>998</v>
+        <v>956</v>
       </c>
       <c r="Q67" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R67" s="16" t="n">
-        <v>3.06</v>
+        <v>11.08</v>
       </c>
       <c r="T67" s="5" t="n"/>
     </row>
@@ -3873,27 +3875,27 @@
       </c>
       <c r="C68" s="7" t="inlineStr">
         <is>
-          <t>Ibrahim Buras</t>
+          <t>Per Svela</t>
         </is>
       </c>
       <c r="D68" s="7" t="n">
-        <v>2001</v>
+        <v>1992</v>
       </c>
       <c r="E68" s="17" t="inlineStr">
         <is>
-          <t>14,12,30</t>
+          <t>13,22,46</t>
         </is>
       </c>
       <c r="F68" s="7" t="n">
-        <v>887</v>
+        <v>1035</v>
       </c>
       <c r="G68" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Oordegem/BEL</t>
         </is>
       </c>
       <c r="H68" s="16" t="n">
-        <v>28.06</v>
+        <v>27.05</v>
       </c>
       <c r="J68" s="5" t="n"/>
       <c r="L68" s="14" t="inlineStr">
@@ -3903,225 +3905,225 @@
       </c>
       <c r="M68" s="7" t="inlineStr">
         <is>
-          <t>Per Svela</t>
+          <t>Ibrahim Buras</t>
         </is>
       </c>
       <c r="N68" s="7" t="n">
-        <v>1992</v>
+        <v>2001</v>
       </c>
       <c r="O68" s="17" t="inlineStr">
         <is>
-          <t>13,22,46</t>
+          <t>14,12,30</t>
         </is>
       </c>
       <c r="P68" s="7" t="n">
-        <v>1035</v>
+        <v>887</v>
       </c>
       <c r="Q68" s="7" t="inlineStr">
         <is>
-          <t>Oordegem/BEL</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R68" s="16" t="n">
-        <v>27.05</v>
+        <v>28.06</v>
       </c>
       <c r="T68" s="5" t="n"/>
     </row>
     <row r="69" ht="13" customHeight="1">
       <c r="B69" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C69" s="7" t="inlineStr">
         <is>
-          <t>Ibrahim Buras</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="D69" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E69" s="17" t="inlineStr">
-        <is>
-          <t>29,10,94</t>
-        </is>
+        <v>1999</v>
+      </c>
+      <c r="E69" s="15" t="n">
+        <v>6.88</v>
       </c>
       <c r="F69" s="7" t="n">
-        <v>925</v>
+        <v>801</v>
       </c>
       <c r="G69" s="7" t="inlineStr">
         <is>
-          <t>Jämsä/FIN</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H69" s="16" t="n">
-        <v>1.07</v>
+        <v>17.06</v>
       </c>
       <c r="J69" s="5" t="n"/>
       <c r="L69" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M69" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Ibrahim Buras</t>
         </is>
       </c>
       <c r="N69" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="O69" s="15" t="n">
-        <v>6.88</v>
+        <v>2001</v>
+      </c>
+      <c r="O69" s="17" t="inlineStr">
+        <is>
+          <t>29,10,94</t>
+        </is>
       </c>
       <c r="P69" s="7" t="n">
-        <v>801</v>
+        <v>925</v>
       </c>
       <c r="Q69" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jämsä/FIN</t>
         </is>
       </c>
       <c r="R69" s="16" t="n">
-        <v>17.06</v>
+        <v>1.07</v>
       </c>
       <c r="T69" s="5" t="n"/>
     </row>
     <row r="70" ht="13" customHeight="1">
       <c r="B70" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C70" s="7" t="inlineStr">
         <is>
-          <t>Jonas Mæland Rosholt</t>
+          <t>Viljar Gjerde</t>
         </is>
       </c>
       <c r="D70" s="7" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="E70" s="15" t="n">
-        <v>57.2</v>
+        <v>15.25</v>
       </c>
       <c r="F70" s="7" t="n">
-        <v>700</v>
+        <v>904</v>
       </c>
       <c r="G70" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H70" s="16" t="n">
-        <v>20.05</v>
+        <v>18.02</v>
       </c>
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M70" s="7" t="inlineStr">
         <is>
-          <t>Viljar Gjerde</t>
+          <t>Thomas Viksaas Biermann</t>
         </is>
       </c>
       <c r="N70" s="7" t="n">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="O70" s="15" t="n">
-        <v>15.25</v>
+        <v>1.7</v>
       </c>
       <c r="P70" s="7" t="n">
-        <v>904</v>
+        <v>560</v>
       </c>
       <c r="Q70" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="R70" s="16" t="n">
-        <v>18.02</v>
+        <v>8.01</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
     <row r="71" ht="13" customHeight="1">
       <c r="B71" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C71" s="7" t="inlineStr">
         <is>
-          <t>Thai Drager</t>
+          <t>Theodor With</t>
         </is>
       </c>
       <c r="D71" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E71" s="15" t="n">
-        <v>6.21</v>
+        <v>2.79</v>
       </c>
       <c r="F71" s="7" t="n">
-        <v>654</v>
+        <v>555</v>
       </c>
       <c r="G71" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H71" s="16" t="n">
-        <v>4.06</v>
+        <v>10.02</v>
       </c>
       <c r="J71" s="5" t="n"/>
       <c r="L71" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M71" s="7" t="inlineStr">
         <is>
-          <t>Theodor With</t>
+          <t>Thai Drager</t>
         </is>
       </c>
       <c r="N71" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="O71" s="15" t="n">
-        <v>2.79</v>
+        <v>6.21</v>
       </c>
       <c r="P71" s="7" t="n">
-        <v>555</v>
+        <v>654</v>
       </c>
       <c r="Q71" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R71" s="16" t="n">
-        <v>10.02</v>
+        <v>4.06</v>
       </c>
       <c r="T71" s="5" t="n"/>
     </row>
     <row r="72" ht="13" customHeight="1">
       <c r="B72" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C72" s="7" t="inlineStr">
         <is>
-          <t>Thomas Viksaas Biermann</t>
+          <t>Marcus Thomsen</t>
         </is>
       </c>
       <c r="D72" s="7" t="n">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="E72" s="15" t="n">
-        <v>13.19</v>
+        <v>20.88</v>
       </c>
       <c r="F72" s="7" t="n">
-        <v>690</v>
+        <v>1105</v>
       </c>
       <c r="G72" s="7" t="inlineStr">
         <is>
@@ -4129,27 +4131,27 @@
         </is>
       </c>
       <c r="H72" s="16" t="n">
-        <v>3.03</v>
+        <v>2.02</v>
       </c>
       <c r="J72" s="5" t="n"/>
       <c r="L72" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M72" s="7" t="inlineStr">
         <is>
-          <t>Marcus Thomsen</t>
+          <t>Thomas Viksaas Biermann</t>
         </is>
       </c>
       <c r="N72" s="7" t="n">
-        <v>1998</v>
+        <v>2007</v>
       </c>
       <c r="O72" s="15" t="n">
-        <v>20.88</v>
+        <v>13.19</v>
       </c>
       <c r="P72" s="7" t="n">
-        <v>1105</v>
+        <v>690</v>
       </c>
       <c r="Q72" s="7" t="inlineStr">
         <is>
@@ -4157,123 +4159,123 @@
         </is>
       </c>
       <c r="R72" s="16" t="n">
-        <v>2.02</v>
+        <v>3.03</v>
       </c>
       <c r="T72" s="5" t="n"/>
     </row>
     <row r="73" ht="13" customHeight="1">
       <c r="B73" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C73" s="7" t="inlineStr">
         <is>
-          <t>Thomas Viksaas Biermann</t>
+          <t>Sven Martin Skagestad</t>
         </is>
       </c>
       <c r="D73" s="7" t="n">
-        <v>2007</v>
+        <v>1995</v>
       </c>
       <c r="E73" s="15" t="n">
-        <v>2.84</v>
+        <v>61.11</v>
       </c>
       <c r="F73" s="7" t="n">
-        <v>583</v>
+        <v>1026</v>
       </c>
       <c r="G73" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>København/DEN</t>
         </is>
       </c>
       <c r="H73" s="16" t="n">
-        <v>19.02</v>
+        <v>28.05</v>
       </c>
       <c r="J73" s="5" t="n"/>
       <c r="L73" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M73" s="7" t="inlineStr">
         <is>
-          <t>Sven Martin Skagestad</t>
+          <t>Thomas Viksaas Biermann</t>
         </is>
       </c>
       <c r="N73" s="7" t="n">
-        <v>1995</v>
+        <v>2007</v>
       </c>
       <c r="O73" s="15" t="n">
-        <v>61.11</v>
+        <v>2.84</v>
       </c>
       <c r="P73" s="7" t="n">
-        <v>1026</v>
+        <v>583</v>
       </c>
       <c r="Q73" s="7" t="inlineStr">
         <is>
-          <t>København/DEN</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R73" s="16" t="n">
-        <v>28.05</v>
+        <v>19.02</v>
       </c>
       <c r="T73" s="5" t="n"/>
     </row>
     <row r="74" ht="13" customHeight="1">
       <c r="B74" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="C74" s="7" t="inlineStr">
         <is>
-          <t>Eirik Halfdansen-Aspen</t>
+          <t>Jon Nerdal</t>
         </is>
       </c>
       <c r="D74" s="7" t="n">
-        <v>2004</v>
+        <v>1996</v>
       </c>
       <c r="E74" s="15" t="n">
-        <v>45.22</v>
+        <v>63.99</v>
       </c>
       <c r="F74" s="7" t="n">
-        <v>777</v>
+        <v>928</v>
       </c>
       <c r="G74" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Baton Rouge/LA/USA</t>
         </is>
       </c>
       <c r="H74" s="16" t="n">
-        <v>28.06</v>
+        <v>29.04</v>
       </c>
       <c r="J74" s="5" t="n"/>
       <c r="L74" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M74" s="7" t="inlineStr">
         <is>
-          <t>Jon Nerdal</t>
+          <t>Eirik Halfdansen-Aspen</t>
         </is>
       </c>
       <c r="N74" s="7" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="O74" s="15" t="n">
-        <v>63.99</v>
+        <v>45.22</v>
       </c>
       <c r="P74" s="7" t="n">
-        <v>928</v>
+        <v>777</v>
       </c>
       <c r="Q74" s="7" t="inlineStr">
         <is>
-          <t>Baton Rouge/LA/USA</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R74" s="16" t="n">
-        <v>29.04</v>
+        <v>28.06</v>
       </c>
       <c r="T74" s="5" t="n"/>
     </row>
@@ -4285,25 +4287,25 @@
       </c>
       <c r="C75" s="7" t="inlineStr">
         <is>
-          <t>Kasper Sagen</t>
+          <t>Sebastian Rolland</t>
         </is>
       </c>
       <c r="D75" s="7" t="n">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="E75" s="15" t="n">
-        <v>77.54000000000001</v>
+        <v>58.14</v>
       </c>
       <c r="F75" s="7" t="n">
-        <v>1007</v>
+        <v>734</v>
       </c>
       <c r="G75" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H75" s="16" t="n">
-        <v>12.08</v>
+        <v>2.08</v>
       </c>
       <c r="J75" s="5" t="n"/>
       <c r="L75" s="14" t="inlineStr">
@@ -4313,25 +4315,25 @@
       </c>
       <c r="M75" s="7" t="inlineStr">
         <is>
-          <t>Sebastian Rolland</t>
+          <t>Kasper Sagen</t>
         </is>
       </c>
       <c r="N75" s="7" t="n">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="O75" s="15" t="n">
-        <v>58.14</v>
+        <v>77.54000000000001</v>
       </c>
       <c r="P75" s="7" t="n">
-        <v>734</v>
+        <v>1007</v>
       </c>
       <c r="Q75" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R75" s="16" t="n">
-        <v>2.08</v>
+        <v>12.08</v>
       </c>
       <c r="T75" s="5" t="n"/>
     </row>
@@ -4368,7 +4370,7 @@
         </is>
       </c>
       <c r="F77" s="20" t="n">
-        <v>12724</v>
+        <v>13088</v>
       </c>
       <c r="J77" s="5" t="n"/>
       <c r="L77" s="19" t="inlineStr">
@@ -4385,7 +4387,7 @@
         </is>
       </c>
       <c r="P77" s="20" t="n">
-        <v>13088</v>
+        <v>12584</v>
       </c>
       <c r="T77" s="5" t="n"/>
     </row>
@@ -4488,80 +4490,80 @@
     <row r="82" ht="13" customHeight="1">
       <c r="B82" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C82" s="7" t="inlineStr">
         <is>
-          <t>Edem Schaanning Agbo</t>
+          <t>Anders Vik</t>
         </is>
       </c>
       <c r="D82" s="7" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E82" s="15" t="n">
-        <v>10.6</v>
+        <v>53.83</v>
       </c>
       <c r="F82" s="7" t="n">
-        <v>948</v>
+        <v>918</v>
       </c>
       <c r="G82" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H82" s="16" t="n">
-        <v>6.07</v>
+        <v>2.06</v>
       </c>
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M82" s="7" t="inlineStr">
         <is>
-          <t>Anders Vik</t>
+          <t>Edem Schaanning Agbo</t>
         </is>
       </c>
       <c r="N82" s="7" t="n">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="O82" s="15" t="n">
-        <v>53.83</v>
+        <v>10.6</v>
       </c>
       <c r="P82" s="7" t="n">
-        <v>918</v>
+        <v>948</v>
       </c>
       <c r="Q82" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R82" s="16" t="n">
-        <v>2.06</v>
+        <v>6.07</v>
       </c>
       <c r="T82" s="5" t="n"/>
     </row>
     <row r="83" ht="13" customHeight="1">
       <c r="B83" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C83" s="7" t="inlineStr">
         <is>
-          <t>Edem Schaanning Agbo</t>
+          <t>Sven Martin Skagestad</t>
         </is>
       </c>
       <c r="D83" s="7" t="n">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="E83" s="15" t="n">
-        <v>6.86</v>
+        <v>16.67</v>
       </c>
       <c r="F83" s="7" t="n">
-        <v>929</v>
+        <v>894</v>
       </c>
       <c r="G83" s="7" t="inlineStr">
         <is>
@@ -4574,22 +4576,22 @@
       <c r="J83" s="5" t="n"/>
       <c r="L83" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M83" s="7" t="inlineStr">
         <is>
-          <t>Sven Martin Skagestad</t>
+          <t>Edem Schaanning Agbo</t>
         </is>
       </c>
       <c r="N83" s="7" t="n">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="O83" s="15" t="n">
-        <v>16.67</v>
+        <v>6.86</v>
       </c>
       <c r="P83" s="7" t="n">
-        <v>894</v>
+        <v>929</v>
       </c>
       <c r="Q83" s="7" t="inlineStr">
         <is>
@@ -4609,17 +4611,17 @@
       </c>
       <c r="C84" s="7" t="inlineStr">
         <is>
-          <t>Sander Werge Nilsen</t>
+          <t>Muhammed Dodou Jatta</t>
         </is>
       </c>
       <c r="D84" s="7" t="n">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="E84" s="15" t="n">
-        <v>10.69</v>
+        <v>10.91</v>
       </c>
       <c r="F84" s="7" t="n">
-        <v>924</v>
+        <v>865</v>
       </c>
       <c r="G84" s="7" t="inlineStr">
         <is>
@@ -4637,17 +4639,17 @@
       </c>
       <c r="M84" s="7" t="inlineStr">
         <is>
-          <t>Muhammed Dodou Jatta</t>
+          <t>Sander Werge Nilsen</t>
         </is>
       </c>
       <c r="N84" s="7" t="n">
-        <v>1998</v>
+        <v>2003</v>
       </c>
       <c r="O84" s="15" t="n">
-        <v>10.91</v>
+        <v>10.69</v>
       </c>
       <c r="P84" s="7" t="n">
-        <v>865</v>
+        <v>924</v>
       </c>
       <c r="Q84" s="7" t="inlineStr">
         <is>
@@ -4662,22 +4664,22 @@
     <row r="85" ht="13" customHeight="1">
       <c r="B85" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C85" s="7" t="inlineStr">
         <is>
-          <t>Stephan Skogheim Kyeremeh</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="D85" s="7" t="n">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="E85" s="15" t="n">
-        <v>21.57</v>
+        <v>10.98</v>
       </c>
       <c r="F85" s="7" t="n">
-        <v>912</v>
+        <v>846</v>
       </c>
       <c r="G85" s="7" t="inlineStr">
         <is>
@@ -4685,27 +4687,27 @@
         </is>
       </c>
       <c r="H85" s="16" t="n">
-        <v>20.08</v>
+        <v>25.06</v>
       </c>
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M85" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Stephan Skogheim Kyeremeh</t>
         </is>
       </c>
       <c r="N85" s="7" t="n">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="O85" s="15" t="n">
-        <v>10.98</v>
+        <v>21.57</v>
       </c>
       <c r="P85" s="7" t="n">
-        <v>846</v>
+        <v>912</v>
       </c>
       <c r="Q85" s="7" t="inlineStr">
         <is>
@@ -4713,123 +4715,123 @@
         </is>
       </c>
       <c r="R85" s="16" t="n">
-        <v>25.06</v>
+        <v>20.08</v>
       </c>
       <c r="T85" s="5" t="n"/>
     </row>
     <row r="86" ht="13" customHeight="1">
       <c r="B86" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C86" s="7" t="inlineStr">
         <is>
-          <t>Christopher Ekene Nordlie</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="D86" s="7" t="n">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="E86" s="15" t="n">
-        <v>10.77</v>
+        <v>7.07</v>
       </c>
       <c r="F86" s="7" t="n">
-        <v>902</v>
+        <v>832</v>
       </c>
       <c r="G86" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H86" s="16" t="n">
-        <v>3.06</v>
+        <v>18.02</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M86" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Christopher Ekene Nordlie</t>
         </is>
       </c>
       <c r="N86" s="7" t="n">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="O86" s="15" t="n">
-        <v>7.07</v>
+        <v>10.77</v>
       </c>
       <c r="P86" s="7" t="n">
-        <v>832</v>
+        <v>902</v>
       </c>
       <c r="Q86" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R86" s="16" t="n">
-        <v>18.02</v>
+        <v>3.06</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
     <row r="87" ht="13" customHeight="1">
       <c r="B87" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C87" s="7" t="inlineStr">
         <is>
-          <t>Stephan Skogheim Kyeremeh</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="D87" s="7" t="n">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="E87" s="15" t="n">
-        <v>48.27</v>
+        <v>22.3</v>
       </c>
       <c r="F87" s="7" t="n">
-        <v>876</v>
+        <v>826</v>
       </c>
       <c r="G87" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="H87" s="16" t="n">
-        <v>6.07</v>
+        <v>7.06</v>
       </c>
       <c r="J87" s="5" t="n"/>
       <c r="L87" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M87" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Stephan Skogheim Kyeremeh</t>
         </is>
       </c>
       <c r="N87" s="7" t="n">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="O87" s="15" t="n">
-        <v>22.3</v>
+        <v>48.27</v>
       </c>
       <c r="P87" s="7" t="n">
-        <v>826</v>
+        <v>876</v>
       </c>
       <c r="Q87" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R87" s="16" t="n">
-        <v>7.06</v>
+        <v>6.07</v>
       </c>
       <c r="T87" s="5" t="n"/>
     </row>
@@ -4841,25 +4843,25 @@
       </c>
       <c r="C88" s="7" t="inlineStr">
         <is>
-          <t>Stephan Skogheim Kyeremeh</t>
+          <t>Theodor With</t>
         </is>
       </c>
       <c r="D88" s="7" t="n">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="E88" s="15" t="n">
-        <v>10.87</v>
+        <v>11.2</v>
       </c>
       <c r="F88" s="7" t="n">
-        <v>875</v>
+        <v>791</v>
       </c>
       <c r="G88" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H88" s="16" t="n">
-        <v>20.08</v>
+        <v>13.05</v>
       </c>
       <c r="J88" s="5" t="n"/>
       <c r="L88" s="14" t="inlineStr">
@@ -4869,25 +4871,25 @@
       </c>
       <c r="M88" s="7" t="inlineStr">
         <is>
-          <t>Theodor With</t>
+          <t>Stephan Skogheim Kyeremeh</t>
         </is>
       </c>
       <c r="N88" s="7" t="n">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="O88" s="15" t="n">
-        <v>11.2</v>
+        <v>10.87</v>
       </c>
       <c r="P88" s="7" t="n">
-        <v>791</v>
+        <v>875</v>
       </c>
       <c r="Q88" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R88" s="16" t="n">
-        <v>13.05</v>
+        <v>20.08</v>
       </c>
       <c r="T88" s="5" t="n"/>
     </row>
@@ -4899,25 +4901,25 @@
       </c>
       <c r="C89" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Holen</t>
+          <t>Theodor With</t>
         </is>
       </c>
       <c r="D89" s="7" t="n">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="E89" s="15" t="n">
-        <v>6.98</v>
+        <v>7.17</v>
       </c>
       <c r="F89" s="7" t="n">
-        <v>872</v>
+        <v>789</v>
       </c>
       <c r="G89" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H89" s="16" t="n">
-        <v>11.02</v>
+        <v>3.06</v>
       </c>
       <c r="J89" s="5" t="n"/>
       <c r="L89" s="14" t="inlineStr">
@@ -4927,83 +4929,83 @@
       </c>
       <c r="M89" s="7" t="inlineStr">
         <is>
-          <t>Theodor With</t>
+          <t>Jonathan Holen</t>
         </is>
       </c>
       <c r="N89" s="7" t="n">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="O89" s="15" t="n">
-        <v>7.17</v>
+        <v>6.98</v>
       </c>
       <c r="P89" s="7" t="n">
-        <v>789</v>
+        <v>872</v>
       </c>
       <c r="Q89" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R89" s="16" t="n">
-        <v>3.06</v>
+        <v>11.02</v>
       </c>
       <c r="T89" s="5" t="n"/>
     </row>
     <row r="90" ht="13" customHeight="1">
       <c r="B90" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C90" s="7" t="inlineStr">
         <is>
-          <t>Edem Schaanning Agbo</t>
+          <t>Viljar Gjerde</t>
         </is>
       </c>
       <c r="D90" s="7" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="E90" s="15" t="n">
-        <v>21.92</v>
+        <v>6.74</v>
       </c>
       <c r="F90" s="7" t="n">
-        <v>870</v>
+        <v>771</v>
       </c>
       <c r="G90" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H90" s="16" t="n">
-        <v>27.07</v>
+        <v>19.02</v>
       </c>
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M90" s="7" t="inlineStr">
         <is>
-          <t>Viljar Gjerde</t>
+          <t>Edem Schaanning Agbo</t>
         </is>
       </c>
       <c r="N90" s="7" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="O90" s="15" t="n">
-        <v>6.74</v>
+        <v>21.92</v>
       </c>
       <c r="P90" s="7" t="n">
-        <v>771</v>
+        <v>870</v>
       </c>
       <c r="Q90" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R90" s="16" t="n">
-        <v>19.02</v>
+        <v>27.07</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
@@ -5015,25 +5017,25 @@
       </c>
       <c r="C91" s="7" t="inlineStr">
         <is>
-          <t>Christopher Ekene Nordlie</t>
+          <t>Theodor With</t>
         </is>
       </c>
       <c r="D91" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E91" s="15" t="n">
-        <v>22</v>
+        <v>22.84</v>
       </c>
       <c r="F91" s="7" t="n">
-        <v>860</v>
+        <v>766</v>
       </c>
       <c r="G91" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H91" s="16" t="n">
-        <v>17.06</v>
+        <v>20.08</v>
       </c>
       <c r="J91" s="5" t="n"/>
       <c r="L91" s="14" t="inlineStr">
@@ -5043,257 +5045,257 @@
       </c>
       <c r="M91" s="7" t="inlineStr">
         <is>
-          <t>Theodor With</t>
+          <t>Christopher Ekene Nordlie</t>
         </is>
       </c>
       <c r="N91" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O91" s="15" t="n">
-        <v>22.84</v>
+        <v>22</v>
       </c>
       <c r="P91" s="7" t="n">
-        <v>766</v>
+        <v>860</v>
       </c>
       <c r="Q91" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R91" s="16" t="n">
-        <v>20.08</v>
+        <v>17.06</v>
       </c>
       <c r="T91" s="5" t="n"/>
     </row>
     <row r="92" ht="13" customHeight="1">
       <c r="B92" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C92" s="7" t="inlineStr">
         <is>
-          <t>Ruben Martinsen</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="D92" s="7" t="n">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="E92" s="15" t="n">
-        <v>56.64</v>
+        <v>50.61</v>
       </c>
       <c r="F92" s="7" t="n">
-        <v>715</v>
+        <v>753</v>
       </c>
       <c r="G92" s="7" t="inlineStr">
         <is>
-          <t>Bækkelaget</t>
+          <t>Paris/FRA</t>
         </is>
       </c>
       <c r="H92" s="16" t="n">
-        <v>6.05</v>
+        <v>15.07</v>
       </c>
       <c r="J92" s="5" t="n"/>
       <c r="L92" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M92" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Ruben Martinsen</t>
         </is>
       </c>
       <c r="N92" s="7" t="n">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="O92" s="15" t="n">
-        <v>50.61</v>
+        <v>56.64</v>
       </c>
       <c r="P92" s="7" t="n">
-        <v>753</v>
+        <v>715</v>
       </c>
       <c r="Q92" s="7" t="inlineStr">
         <is>
-          <t>Paris/FRA</t>
+          <t>Bækkelaget</t>
         </is>
       </c>
       <c r="R92" s="16" t="n">
-        <v>15.07</v>
+        <v>6.05</v>
       </c>
       <c r="T92" s="5" t="n"/>
     </row>
     <row r="93" ht="13" customHeight="1">
       <c r="B93" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C93" s="7" t="inlineStr">
         <is>
-          <t>Dag Storm Wergeland</t>
+          <t>Tristan Emil Brekke Nøttveit</t>
         </is>
       </c>
       <c r="D93" s="7" t="n">
-        <v>1989</v>
+        <v>2007</v>
       </c>
       <c r="E93" s="15" t="n">
-        <v>55.27</v>
+        <v>11.44</v>
       </c>
       <c r="F93" s="7" t="n">
-        <v>696</v>
+        <v>734</v>
       </c>
       <c r="G93" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H93" s="16" t="n">
-        <v>17.06</v>
+        <v>13.05</v>
       </c>
       <c r="J93" s="5" t="n"/>
       <c r="L93" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M93" s="7" t="inlineStr">
         <is>
-          <t>Tristan Emil Brekke Nøttveit</t>
+          <t>Dag Storm Wergeland</t>
         </is>
       </c>
       <c r="N93" s="7" t="n">
-        <v>2007</v>
+        <v>1989</v>
       </c>
       <c r="O93" s="15" t="n">
-        <v>11.44</v>
+        <v>55.27</v>
       </c>
       <c r="P93" s="7" t="n">
-        <v>734</v>
+        <v>696</v>
       </c>
       <c r="Q93" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R93" s="16" t="n">
-        <v>13.05</v>
+        <v>17.06</v>
       </c>
       <c r="T93" s="5" t="n"/>
     </row>
     <row r="94" ht="13" customHeight="1">
       <c r="B94" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C94" s="7" t="inlineStr">
         <is>
-          <t>Thomas Viksaas Biermann</t>
+          <t>Jakob H. Holmelid</t>
         </is>
       </c>
       <c r="D94" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E94" s="15" t="n">
-        <v>6.15</v>
+        <v>11.47</v>
       </c>
       <c r="F94" s="7" t="n">
-        <v>640</v>
+        <v>727</v>
       </c>
       <c r="G94" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H94" s="16" t="n">
-        <v>3.06</v>
+        <v>13.05</v>
       </c>
       <c r="J94" s="5" t="n"/>
       <c r="L94" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M94" s="7" t="inlineStr">
         <is>
-          <t>Jakob H. Holmelid</t>
+          <t>Thomas Viksaas Biermann</t>
         </is>
       </c>
       <c r="N94" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O94" s="15" t="n">
-        <v>11.47</v>
+        <v>6.15</v>
       </c>
       <c r="P94" s="7" t="n">
-        <v>727</v>
+        <v>640</v>
       </c>
       <c r="Q94" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R94" s="16" t="n">
-        <v>13.05</v>
+        <v>3.06</v>
       </c>
       <c r="T94" s="5" t="n"/>
     </row>
     <row r="95" ht="13" customHeight="1">
       <c r="B95" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="C95" s="7" t="inlineStr">
         <is>
-          <t>Thai Drager</t>
+          <t>Halvard Melsås</t>
         </is>
       </c>
       <c r="D95" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="E95" s="15" t="n">
-        <v>12.26</v>
+        <v>47.08</v>
       </c>
       <c r="F95" s="7" t="n">
-        <v>589</v>
+        <v>713</v>
       </c>
       <c r="G95" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Knarvik</t>
         </is>
       </c>
       <c r="H95" s="16" t="n">
-        <v>3.03</v>
+        <v>20.06</v>
       </c>
       <c r="J95" s="5" t="n"/>
       <c r="L95" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M95" s="7" t="inlineStr">
         <is>
-          <t>Halvard Melsås</t>
+          <t>Thai Drager</t>
         </is>
       </c>
       <c r="N95" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="O95" s="15" t="n">
-        <v>47.08</v>
+        <v>12.26</v>
       </c>
       <c r="P95" s="7" t="n">
-        <v>713</v>
+        <v>589</v>
       </c>
       <c r="Q95" s="7" t="inlineStr">
         <is>
-          <t>Knarvik</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R95" s="16" t="n">
-        <v>20.06</v>
+        <v>3.03</v>
       </c>
       <c r="T95" s="5" t="n"/>
     </row>
@@ -5305,25 +5307,25 @@
       </c>
       <c r="C96" s="7" t="inlineStr">
         <is>
-          <t>Jonas Mæland Rosholt</t>
+          <t>Jone Alsaker Løken</t>
         </is>
       </c>
       <c r="D96" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E96" s="15" t="n">
-        <v>2.83</v>
+        <v>2.63</v>
       </c>
       <c r="F96" s="7" t="n">
-        <v>577</v>
+        <v>460</v>
       </c>
       <c r="G96" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H96" s="16" t="n">
-        <v>19.02</v>
+        <v>10.02</v>
       </c>
       <c r="J96" s="5" t="n"/>
       <c r="L96" s="14" t="inlineStr">
@@ -5333,25 +5335,25 @@
       </c>
       <c r="M96" s="7" t="inlineStr">
         <is>
-          <t>Jone Alsaker Løken</t>
+          <t>Jonas Mæland Rosholt</t>
         </is>
       </c>
       <c r="N96" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="O96" s="15" t="n">
-        <v>2.63</v>
+        <v>2.83</v>
       </c>
       <c r="P96" s="7" t="n">
-        <v>460</v>
+        <v>577</v>
       </c>
       <c r="Q96" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R96" s="16" t="n">
-        <v>10.02</v>
+        <v>19.02</v>
       </c>
       <c r="T96" s="5" t="n"/>
     </row>
@@ -5388,7 +5390,7 @@
         </is>
       </c>
       <c r="F98" s="20" t="n">
-        <v>12185</v>
+        <v>11685</v>
       </c>
       <c r="J98" s="5" t="n"/>
       <c r="L98" s="19" t="inlineStr">
@@ -5405,7 +5407,7 @@
         </is>
       </c>
       <c r="P98" s="20" t="n">
-        <v>11685</v>
+        <v>12185</v>
       </c>
       <c r="T98" s="5" t="n"/>
     </row>
@@ -5428,7 +5430,7 @@
         </is>
       </c>
       <c r="F100" s="20" t="n">
-        <v>24909</v>
+        <v>24773</v>
       </c>
       <c r="J100" s="5" t="n"/>
       <c r="L100" s="19" t="inlineStr">
@@ -5445,7 +5447,7 @@
         </is>
       </c>
       <c r="P100" s="20" t="n">
-        <v>24773</v>
+        <v>24769</v>
       </c>
       <c r="T100" s="5" t="n"/>
     </row>
@@ -5460,7 +5462,7 @@
         </is>
       </c>
       <c r="C102" s="20" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J102" s="5" t="n"/>
       <c r="L102" s="19" t="inlineStr">
@@ -5469,7 +5471,7 @@
         </is>
       </c>
       <c r="M102" s="20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T102" s="5" t="n"/>
     </row>
@@ -8091,19 +8093,19 @@
       </c>
       <c r="E168" s="17" t="inlineStr">
         <is>
-          <t>1,44,85</t>
+          <t>1,44,57</t>
         </is>
       </c>
       <c r="F168" s="7" t="n">
-        <v>1070</v>
+        <v>1079</v>
       </c>
       <c r="G168" s="7" t="inlineStr">
         <is>
-          <t>Paris/FRA</t>
+          <t>Budapest/HUN</t>
         </is>
       </c>
       <c r="H168" s="16" t="n">
-        <v>9.06</v>
+        <v>24.08</v>
       </c>
       <c r="J168" s="5" t="n"/>
       <c r="L168" s="14" t="inlineStr">
@@ -8822,7 +8824,7 @@
         </is>
       </c>
       <c r="F181" s="20" t="n">
-        <v>11543</v>
+        <v>11552</v>
       </c>
       <c r="J181" s="5" t="n"/>
       <c r="L181" s="19" t="inlineStr">
@@ -9902,7 +9904,7 @@
         </is>
       </c>
       <c r="F204" s="20" t="n">
-        <v>23518</v>
+        <v>23527</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="19" t="inlineStr">
@@ -16576,25 +16578,25 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Stord IL</t>
+          <t>Haugesund IL</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>(25/12)</t>
+          <t>(25/14)</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>17301</v>
+        <v>17460</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>(12/1d)</t>
+          <t>(6)</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Rogaland</t>
         </is>
       </c>
     </row>
@@ -16604,25 +16606,25 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Haugesund IL</t>
+          <t>Stord IL</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>(25/15)</t>
+          <t>(25/12)</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>17094</v>
+        <v>17301</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>(6)</t>
+          <t>(12/1d)</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -16865,7 +16867,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>14725</v>
+        <v>14800</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -16893,7 +16895,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>12949</v>
+        <v>12982</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -17010,7 +17012,7 @@
       </c>
       <c r="M2" s="7" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Rogaland</t>
         </is>
       </c>
       <c r="P2" s="8" t="n">
@@ -17037,7 +17039,7 @@
       </c>
       <c r="M3" s="7" t="inlineStr">
         <is>
-          <t>Stord IL</t>
+          <t>Haugesund IL</t>
         </is>
       </c>
       <c r="T3" s="5" t="n"/>
@@ -17194,25 +17196,25 @@
       </c>
       <c r="M9" s="7" t="inlineStr">
         <is>
-          <t>Steffen Tjensvoll Hollund</t>
+          <t>Neo Dobson</t>
         </is>
       </c>
       <c r="N9" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O9" s="15" t="n">
-        <v>7.61</v>
+        <v>7.02</v>
       </c>
       <c r="P9" s="7" t="n">
-        <v>621</v>
+        <v>854</v>
       </c>
       <c r="Q9" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R9" s="16" t="n">
-        <v>18.01</v>
+        <v>4.02</v>
       </c>
       <c r="T9" s="5" t="n"/>
     </row>
@@ -17252,17 +17254,17 @@
       </c>
       <c r="M10" s="7" t="inlineStr">
         <is>
-          <t>Steffen Tjensvoll Hollund</t>
+          <t>Neo Dobson</t>
         </is>
       </c>
       <c r="N10" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O10" s="15" t="n">
-        <v>11.61</v>
+        <v>10.9</v>
       </c>
       <c r="P10" s="7" t="n">
-        <v>695</v>
+        <v>867</v>
       </c>
       <c r="Q10" s="7" t="inlineStr">
         <is>
@@ -17270,7 +17272,7 @@
         </is>
       </c>
       <c r="R10" s="16" t="n">
-        <v>6.08</v>
+        <v>4.02</v>
       </c>
       <c r="T10" s="5" t="n"/>
     </row>
@@ -17310,25 +17312,25 @@
       </c>
       <c r="M11" s="7" t="inlineStr">
         <is>
-          <t>Steffen Tjensvoll Hollund</t>
+          <t>Stefan Skrede</t>
         </is>
       </c>
       <c r="N11" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="O11" s="15" t="n">
-        <v>23.73</v>
+        <v>23.09</v>
       </c>
       <c r="P11" s="7" t="n">
-        <v>674</v>
+        <v>739</v>
       </c>
       <c r="Q11" s="7" t="inlineStr">
         <is>
-          <t>Leirvik</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R11" s="16" t="n">
-        <v>13.08</v>
+        <v>16.06</v>
       </c>
       <c r="T11" s="5" t="n"/>
     </row>
@@ -17365,32 +17367,30 @@
       <c r="J12" s="5" t="n"/>
       <c r="L12" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M12" s="7" t="inlineStr">
         <is>
-          <t>Johannes Sandvik Bø</t>
+          <t>Alexander Laksfoss</t>
         </is>
       </c>
       <c r="N12" s="7" t="n">
         <v>2006</v>
       </c>
-      <c r="O12" s="17" t="inlineStr">
-        <is>
-          <t>1,55,07</t>
-        </is>
+      <c r="O12" s="15" t="n">
+        <v>53.3</v>
       </c>
       <c r="P12" s="7" t="n">
-        <v>791</v>
+        <v>632</v>
       </c>
       <c r="Q12" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R12" s="16" t="n">
-        <v>6.07</v>
+        <v>18.01</v>
       </c>
       <c r="T12" s="5" t="n"/>
     </row>
@@ -17427,32 +17427,32 @@
       <c r="J13" s="5" t="n"/>
       <c r="L13" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M13" s="7" t="inlineStr">
         <is>
-          <t>Johannes Sandvik Bø</t>
+          <t>Kristoffer Nordhus</t>
         </is>
       </c>
       <c r="N13" s="7" t="n">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="O13" s="17" t="inlineStr">
         <is>
-          <t>3,58,57</t>
+          <t>2,00,50</t>
         </is>
       </c>
       <c r="P13" s="7" t="n">
-        <v>775</v>
+        <v>678</v>
       </c>
       <c r="Q13" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Overhalla</t>
         </is>
       </c>
       <c r="R13" s="16" t="n">
-        <v>8.06</v>
+        <v>5.08</v>
       </c>
       <c r="T13" s="5" t="n"/>
     </row>
@@ -17489,32 +17489,32 @@
       <c r="J14" s="5" t="n"/>
       <c r="L14" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M14" s="7" t="inlineStr">
         <is>
-          <t>Tom Erling Kårbø</t>
+          <t>Simon Østreng Veland</t>
         </is>
       </c>
       <c r="N14" s="7" t="n">
-        <v>1989</v>
+        <v>2000</v>
       </c>
       <c r="O14" s="17" t="inlineStr">
         <is>
-          <t>8,06,38</t>
+          <t>3,49,46</t>
         </is>
       </c>
       <c r="P14" s="7" t="n">
-        <v>924</v>
+        <v>870</v>
       </c>
       <c r="Q14" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Luzern/SUI</t>
         </is>
       </c>
       <c r="R14" s="16" t="n">
-        <v>11.08</v>
+        <v>20.07</v>
       </c>
       <c r="T14" s="5" t="n"/>
     </row>
@@ -17551,24 +17551,24 @@
       <c r="J15" s="5" t="n"/>
       <c r="L15" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M15" s="7" t="inlineStr">
         <is>
-          <t>Lars Lunde</t>
+          <t>Morten Gjendem</t>
         </is>
       </c>
       <c r="N15" s="7" t="n">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="O15" s="17" t="inlineStr">
         <is>
-          <t>14,49,71</t>
+          <t>8,17,66</t>
         </is>
       </c>
       <c r="P15" s="7" t="n">
-        <v>795</v>
+        <v>870</v>
       </c>
       <c r="Q15" s="7" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         </is>
       </c>
       <c r="R15" s="16" t="n">
-        <v>6.07</v>
+        <v>11.08</v>
       </c>
       <c r="T15" s="5" t="n"/>
     </row>
@@ -17613,32 +17613,32 @@
       <c r="J16" s="5" t="n"/>
       <c r="L16" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M16" s="7" t="inlineStr">
         <is>
-          <t>Martin Schei</t>
+          <t>Morten Gjendem</t>
         </is>
       </c>
       <c r="N16" s="7" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="O16" s="17" t="inlineStr">
         <is>
-          <t>31,34,17</t>
+          <t>14,18,89</t>
         </is>
       </c>
       <c r="P16" s="7" t="n">
-        <v>764</v>
+        <v>870</v>
       </c>
       <c r="Q16" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R16" s="16" t="n">
-        <v>3.06</v>
+        <v>6.07</v>
       </c>
       <c r="T16" s="5" t="n"/>
     </row>
@@ -17675,32 +17675,32 @@
       <c r="J17" s="5" t="n"/>
       <c r="L17" s="14" t="inlineStr">
         <is>
-          <t>3000m hinder</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M17" s="7" t="inlineStr">
         <is>
-          <t>Tom Erling Kårbø</t>
+          <t>Morten Gjendem</t>
         </is>
       </c>
       <c r="N17" s="7" t="n">
-        <v>1989</v>
+        <v>1992</v>
       </c>
       <c r="O17" s="17" t="inlineStr">
         <is>
-          <t>8,31,51</t>
+          <t>30,02,68</t>
         </is>
       </c>
       <c r="P17" s="7" t="n">
-        <v>981</v>
+        <v>863</v>
       </c>
       <c r="Q17" s="7" t="inlineStr">
         <is>
-          <t>Liege/BEL</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R17" s="16" t="n">
-        <v>12.07</v>
+        <v>3.06</v>
       </c>
       <c r="T17" s="5" t="n"/>
     </row>
@@ -17740,25 +17740,25 @@
       </c>
       <c r="M18" s="7" t="inlineStr">
         <is>
-          <t>Oscar Sørvik Ånderå</t>
+          <t>Theodor Aase</t>
         </is>
       </c>
       <c r="N18" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O18" s="15" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P18" s="7" t="n">
-        <v>607</v>
+        <v>652</v>
       </c>
       <c r="Q18" s="7" t="inlineStr">
         <is>
-          <t>Leirvik</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R18" s="16" t="n">
-        <v>12.08</v>
+        <v>20.05</v>
       </c>
       <c r="T18" s="5" t="n"/>
     </row>
@@ -17793,30 +17793,30 @@
       <c r="J19" s="5" t="n"/>
       <c r="L19" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M19" s="7" t="inlineStr">
         <is>
-          <t>Oddvar Hårde</t>
+          <t>Stian André Lie Austrheim</t>
         </is>
       </c>
       <c r="N19" s="7" t="n">
-        <v>1969</v>
+        <v>2004</v>
       </c>
       <c r="O19" s="15" t="n">
-        <v>3.35</v>
+        <v>5.84</v>
       </c>
       <c r="P19" s="7" t="n">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="Q19" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R19" s="16" t="n">
-        <v>11.02</v>
+        <v>6.07</v>
       </c>
       <c r="T19" s="5" t="n"/>
     </row>
@@ -17851,30 +17851,30 @@
       <c r="J20" s="5" t="n"/>
       <c r="L20" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M20" s="7" t="inlineStr">
         <is>
-          <t>Oscar Sørvik Ånderå</t>
+          <t>Stian André Lie Austrheim</t>
         </is>
       </c>
       <c r="N20" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O20" s="15" t="n">
-        <v>1.41</v>
+        <v>12.41</v>
       </c>
       <c r="P20" s="7" t="n">
-        <v>572</v>
+        <v>605</v>
       </c>
       <c r="Q20" s="7" t="inlineStr">
         <is>
-          <t>Bømlo</t>
+          <t>Frakkagjerd</t>
         </is>
       </c>
       <c r="R20" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>23.08</v>
       </c>
       <c r="T20" s="5" t="n"/>
     </row>
@@ -17914,25 +17914,25 @@
       </c>
       <c r="M21" s="7" t="inlineStr">
         <is>
-          <t>Julian Skimmeland Aasheim</t>
+          <t>Bjørn Gunnar Husby</t>
         </is>
       </c>
       <c r="N21" s="7" t="n">
-        <v>2003</v>
+        <v>1975</v>
       </c>
       <c r="O21" s="15" t="n">
-        <v>2.88</v>
+        <v>2.61</v>
       </c>
       <c r="P21" s="7" t="n">
-        <v>605</v>
+        <v>447</v>
       </c>
       <c r="Q21" s="7" t="inlineStr">
         <is>
-          <t>Leirvik</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R21" s="16" t="n">
-        <v>23.01</v>
+        <v>10.02</v>
       </c>
       <c r="T21" s="5" t="n"/>
     </row>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="P23" s="20" t="n">
-        <v>9385</v>
+        <v>9517</v>
       </c>
       <c r="T23" s="5" t="n"/>
     </row>
@@ -18117,32 +18117,32 @@
       <c r="J28" s="5" t="n"/>
       <c r="L28" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M28" s="7" t="inlineStr">
         <is>
-          <t>Erlend Kringeland</t>
+          <t>Tedros Gebretensai Haile</t>
         </is>
       </c>
       <c r="N28" s="7" t="n">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="O28" s="17" t="inlineStr">
         <is>
-          <t>8,30,48</t>
+          <t>14,31,25</t>
         </is>
       </c>
       <c r="P28" s="7" t="n">
-        <v>811</v>
+        <v>839</v>
       </c>
       <c r="Q28" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R28" s="16" t="n">
-        <v>4.05</v>
+        <v>6.07</v>
       </c>
       <c r="T28" s="5" t="n"/>
     </row>
@@ -18179,32 +18179,30 @@
       <c r="J29" s="5" t="n"/>
       <c r="L29" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M29" s="7" t="inlineStr">
         <is>
-          <t>Johannes Sandvik Bø</t>
+          <t>Alexander Laksfoss</t>
         </is>
       </c>
       <c r="N29" s="7" t="n">
         <v>2006</v>
       </c>
-      <c r="O29" s="17" t="inlineStr">
-        <is>
-          <t>8,42,57</t>
-        </is>
+      <c r="O29" s="15" t="n">
+        <v>7.11</v>
       </c>
       <c r="P29" s="7" t="n">
-        <v>758</v>
+        <v>815</v>
       </c>
       <c r="Q29" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R29" s="16" t="n">
-        <v>16.06</v>
+        <v>28.01</v>
       </c>
       <c r="T29" s="5" t="n"/>
     </row>
@@ -18239,32 +18237,32 @@
       <c r="J30" s="5" t="n"/>
       <c r="L30" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M30" s="7" t="inlineStr">
         <is>
-          <t>Johannes Sandvik Bø</t>
+          <t>Tedros Gebretensai Haile</t>
         </is>
       </c>
       <c r="N30" s="7" t="n">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="O30" s="17" t="inlineStr">
         <is>
-          <t>15,14,7</t>
+          <t>31,01,23</t>
         </is>
       </c>
       <c r="P30" s="7" t="n">
-        <v>739</v>
+        <v>798</v>
       </c>
       <c r="Q30" s="7" t="inlineStr">
         <is>
-          <t>Austevoll</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R30" s="16" t="n">
-        <v>7.05</v>
+        <v>8.07</v>
       </c>
       <c r="T30" s="5" t="n"/>
     </row>
@@ -18301,32 +18299,30 @@
       <c r="J31" s="5" t="n"/>
       <c r="L31" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M31" s="7" t="inlineStr">
         <is>
-          <t>Martin Schei</t>
+          <t>Alexander Laksfoss</t>
         </is>
       </c>
       <c r="N31" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O31" s="17" t="inlineStr">
-        <is>
-          <t>15,22,36</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="O31" s="15" t="n">
+        <v>11.22</v>
       </c>
       <c r="P31" s="7" t="n">
-        <v>723</v>
+        <v>786</v>
       </c>
       <c r="Q31" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R31" s="16" t="n">
-        <v>6.07</v>
+        <v>28.01</v>
       </c>
       <c r="T31" s="5" t="n"/>
     </row>
@@ -18363,32 +18359,30 @@
       <c r="J32" s="5" t="n"/>
       <c r="L32" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M32" s="7" t="inlineStr">
         <is>
-          <t>Vegard Havn</t>
+          <t>Stefan Skrede</t>
         </is>
       </c>
       <c r="N32" s="7" t="n">
-        <v>1997</v>
-      </c>
-      <c r="O32" s="17" t="inlineStr">
-        <is>
-          <t>8,53,92</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="O32" s="15" t="n">
+        <v>7.27</v>
       </c>
       <c r="P32" s="7" t="n">
-        <v>712</v>
+        <v>748</v>
       </c>
       <c r="Q32" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R32" s="16" t="n">
-        <v>19.08</v>
+        <v>25.02</v>
       </c>
       <c r="T32" s="5" t="n"/>
     </row>
@@ -18425,32 +18419,32 @@
       <c r="J33" s="5" t="n"/>
       <c r="L33" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M33" s="7" t="inlineStr">
         <is>
-          <t>Erlend Kringeland</t>
+          <t>Kristoffer Nordhus</t>
         </is>
       </c>
       <c r="N33" s="7" t="n">
-        <v>2003</v>
+        <v>1995</v>
       </c>
       <c r="O33" s="17" t="inlineStr">
         <is>
-          <t>1,58,94</t>
+          <t>4,02,58</t>
         </is>
       </c>
       <c r="P33" s="7" t="n">
-        <v>708</v>
+        <v>736</v>
       </c>
       <c r="Q33" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R33" s="16" t="n">
-        <v>17.06</v>
+        <v>26.06</v>
       </c>
       <c r="T33" s="5" t="n"/>
     </row>
@@ -18487,32 +18481,30 @@
       <c r="J34" s="5" t="n"/>
       <c r="L34" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M34" s="7" t="inlineStr">
         <is>
-          <t>Martin Schei</t>
+          <t>Stefan Skrede</t>
         </is>
       </c>
       <c r="N34" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O34" s="17" t="inlineStr">
-        <is>
-          <t>8,54,83</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="O34" s="15" t="n">
+        <v>11.54</v>
       </c>
       <c r="P34" s="7" t="n">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="Q34" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R34" s="16" t="n">
-        <v>16.05</v>
+        <v>18.06</v>
       </c>
       <c r="T34" s="5" t="n"/>
     </row>
@@ -18549,32 +18541,30 @@
       <c r="J35" s="5" t="n"/>
       <c r="L35" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M35" s="7" t="inlineStr">
         <is>
-          <t>Jacob Hystad</t>
+          <t>Sverre S. Tellmann</t>
         </is>
       </c>
       <c r="N35" s="7" t="n">
-        <v>1990</v>
-      </c>
-      <c r="O35" s="17" t="inlineStr">
-        <is>
-          <t>15,45,76</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O35" s="15" t="n">
+        <v>7.4</v>
       </c>
       <c r="P35" s="7" t="n">
-        <v>674</v>
+        <v>697</v>
       </c>
       <c r="Q35" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R35" s="16" t="n">
-        <v>28.06</v>
+        <v>28.01</v>
       </c>
       <c r="T35" s="5" t="n"/>
     </row>
@@ -18611,30 +18601,30 @@
       <c r="J36" s="5" t="n"/>
       <c r="L36" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M36" s="7" t="inlineStr">
         <is>
-          <t>Steffen Tjensvoll Hollund</t>
+          <t>Stian André Lie Austrheim</t>
         </is>
       </c>
       <c r="N36" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="O36" s="15" t="n">
-        <v>5.72</v>
+        <v>1.71</v>
       </c>
       <c r="P36" s="7" t="n">
-        <v>542</v>
+        <v>569</v>
       </c>
       <c r="Q36" s="7" t="inlineStr">
         <is>
-          <t>Leirvik</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R36" s="16" t="n">
-        <v>13.08</v>
+        <v>4.07</v>
       </c>
       <c r="T36" s="5" t="n"/>
     </row>
@@ -18669,30 +18659,30 @@
       <c r="J37" s="5" t="n"/>
       <c r="L37" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M37" s="7" t="inlineStr">
         <is>
-          <t>Per Gregersen</t>
+          <t>Eirik Svelland Hustoft</t>
         </is>
       </c>
       <c r="N37" s="7" t="n">
-        <v>1970</v>
+        <v>2008</v>
       </c>
       <c r="O37" s="15" t="n">
-        <v>3.1</v>
+        <v>5.31</v>
       </c>
       <c r="P37" s="7" t="n">
-        <v>523</v>
+        <v>446</v>
       </c>
       <c r="Q37" s="7" t="inlineStr">
         <is>
-          <t>Reykjavik/ISL</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R37" s="16" t="n">
-        <v>25.02</v>
+        <v>16.06</v>
       </c>
       <c r="T37" s="5" t="n"/>
     </row>
@@ -18727,30 +18717,30 @@
       <c r="J38" s="5" t="n"/>
       <c r="L38" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M38" s="7" t="inlineStr">
         <is>
-          <t>Steffen Tjensvoll Hollund</t>
+          <t>Bjørnar Ramstad Støylen</t>
         </is>
       </c>
       <c r="N38" s="7" t="n">
-        <v>2006</v>
+        <v>1993</v>
       </c>
       <c r="O38" s="15" t="n">
-        <v>2.72</v>
+        <v>5.22</v>
       </c>
       <c r="P38" s="7" t="n">
-        <v>515</v>
+        <v>424</v>
       </c>
       <c r="Q38" s="7" t="inlineStr">
         <is>
-          <t>Bømlo</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R38" s="16" t="n">
-        <v>9.02</v>
+        <v>18.01</v>
       </c>
       <c r="T38" s="5" t="n"/>
     </row>
@@ -18785,30 +18775,30 @@
       <c r="J39" s="5" t="n"/>
       <c r="L39" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M39" s="7" t="inlineStr">
         <is>
-          <t>Oscar Sørvik Ånderå</t>
+          <t>Sander Sjøen Hjelmervik</t>
         </is>
       </c>
       <c r="N39" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="O39" s="15" t="n">
-        <v>2.7</v>
+        <v>5.01</v>
       </c>
       <c r="P39" s="7" t="n">
-        <v>503</v>
+        <v>374</v>
       </c>
       <c r="Q39" s="7" t="inlineStr">
         <is>
-          <t>Bømlo</t>
+          <t>Leirvik</t>
         </is>
       </c>
       <c r="R39" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>12.08</v>
       </c>
       <c r="T39" s="5" t="n"/>
     </row>
@@ -18862,7 +18852,7 @@
         </is>
       </c>
       <c r="P41" s="20" t="n">
-        <v>7916</v>
+        <v>7943</v>
       </c>
       <c r="T41" s="5" t="n"/>
     </row>
@@ -18902,7 +18892,7 @@
         </is>
       </c>
       <c r="P43" s="20" t="n">
-        <v>17301</v>
+        <v>17460</v>
       </c>
       <c r="T43" s="5" t="n"/>
     </row>
@@ -18926,7 +18916,7 @@
         </is>
       </c>
       <c r="M45" s="20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T45" s="5" t="n"/>
     </row>
@@ -18968,7 +18958,7 @@
       </c>
       <c r="C49" s="7" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="F49" s="8" t="n">
@@ -18998,7 +18988,7 @@
       </c>
       <c r="C50" s="7" t="inlineStr">
         <is>
-          <t>Haugesund IL</t>
+          <t>Stord IL</t>
         </is>
       </c>
       <c r="J50" s="5" t="n"/>
@@ -19138,25 +19128,25 @@
       </c>
       <c r="C56" s="7" t="inlineStr">
         <is>
-          <t>Neo Dobson</t>
+          <t>Steffen Tjensvoll Hollund</t>
         </is>
       </c>
       <c r="D56" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E56" s="15" t="n">
-        <v>7.02</v>
+        <v>7.61</v>
       </c>
       <c r="F56" s="7" t="n">
-        <v>854</v>
+        <v>621</v>
       </c>
       <c r="G56" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H56" s="16" t="n">
-        <v>4.02</v>
+        <v>18.01</v>
       </c>
       <c r="J56" s="5" t="n"/>
       <c r="L56" s="14" t="inlineStr">
@@ -19196,17 +19186,17 @@
       </c>
       <c r="C57" s="7" t="inlineStr">
         <is>
-          <t>Neo Dobson</t>
+          <t>Steffen Tjensvoll Hollund</t>
         </is>
       </c>
       <c r="D57" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E57" s="15" t="n">
-        <v>10.9</v>
+        <v>11.61</v>
       </c>
       <c r="F57" s="7" t="n">
-        <v>867</v>
+        <v>695</v>
       </c>
       <c r="G57" s="7" t="inlineStr">
         <is>
@@ -19214,7 +19204,7 @@
         </is>
       </c>
       <c r="H57" s="16" t="n">
-        <v>4.02</v>
+        <v>6.08</v>
       </c>
       <c r="J57" s="5" t="n"/>
       <c r="L57" s="14" t="inlineStr">
@@ -19254,25 +19244,25 @@
       </c>
       <c r="C58" s="7" t="inlineStr">
         <is>
-          <t>Stefan Skrede</t>
+          <t>Steffen Tjensvoll Hollund</t>
         </is>
       </c>
       <c r="D58" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E58" s="15" t="n">
-        <v>23.09</v>
+        <v>23.73</v>
       </c>
       <c r="F58" s="7" t="n">
-        <v>739</v>
+        <v>674</v>
       </c>
       <c r="G58" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leirvik</t>
         </is>
       </c>
       <c r="H58" s="16" t="n">
-        <v>16.06</v>
+        <v>13.08</v>
       </c>
       <c r="J58" s="5" t="n"/>
       <c r="L58" s="14" t="inlineStr">
@@ -19307,30 +19297,32 @@
     <row r="59" ht="13" customHeight="1">
       <c r="B59" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C59" s="7" t="inlineStr">
         <is>
-          <t>Alexander Laksfoss</t>
+          <t>Johannes Sandvik Bø</t>
         </is>
       </c>
       <c r="D59" s="7" t="n">
         <v>2006</v>
       </c>
-      <c r="E59" s="15" t="n">
-        <v>53.3</v>
+      <c r="E59" s="17" t="inlineStr">
+        <is>
+          <t>1,55,07</t>
+        </is>
       </c>
       <c r="F59" s="7" t="n">
-        <v>632</v>
+        <v>791</v>
       </c>
       <c r="G59" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H59" s="16" t="n">
-        <v>18.01</v>
+        <v>6.07</v>
       </c>
       <c r="J59" s="5" t="n"/>
       <c r="L59" s="14" t="inlineStr">
@@ -19365,32 +19357,32 @@
     <row r="60" ht="13" customHeight="1">
       <c r="B60" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C60" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Nordhus</t>
+          <t>Johannes Sandvik Bø</t>
         </is>
       </c>
       <c r="D60" s="7" t="n">
-        <v>1995</v>
+        <v>2006</v>
       </c>
       <c r="E60" s="17" t="inlineStr">
         <is>
-          <t>2,00,50</t>
+          <t>3,58,57</t>
         </is>
       </c>
       <c r="F60" s="7" t="n">
-        <v>678</v>
+        <v>775</v>
       </c>
       <c r="G60" s="7" t="inlineStr">
         <is>
-          <t>Overhalla</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H60" s="16" t="n">
-        <v>5.08</v>
+        <v>8.06</v>
       </c>
       <c r="J60" s="5" t="n"/>
       <c r="L60" s="14" t="inlineStr">
@@ -19427,32 +19419,32 @@
     <row r="61" ht="13" customHeight="1">
       <c r="B61" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C61" s="7" t="inlineStr">
         <is>
-          <t>Simon Østreng Veland</t>
+          <t>Tom Erling Kårbø</t>
         </is>
       </c>
       <c r="D61" s="7" t="n">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="E61" s="17" t="inlineStr">
         <is>
-          <t>3,49,46</t>
+          <t>8,06,38</t>
         </is>
       </c>
       <c r="F61" s="7" t="n">
-        <v>870</v>
+        <v>924</v>
       </c>
       <c r="G61" s="7" t="inlineStr">
         <is>
-          <t>Luzern/SUI</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H61" s="16" t="n">
-        <v>20.07</v>
+        <v>11.08</v>
       </c>
       <c r="J61" s="5" t="n"/>
       <c r="L61" s="14" t="inlineStr">
@@ -19489,24 +19481,24 @@
     <row r="62" ht="13" customHeight="1">
       <c r="B62" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C62" s="7" t="inlineStr">
         <is>
-          <t>Morten Gjendem</t>
+          <t>Lars Lunde</t>
         </is>
       </c>
       <c r="D62" s="7" t="n">
-        <v>1992</v>
+        <v>1997</v>
       </c>
       <c r="E62" s="17" t="inlineStr">
         <is>
-          <t>8,17,66</t>
+          <t>14,49,71</t>
         </is>
       </c>
       <c r="F62" s="7" t="n">
-        <v>870</v>
+        <v>795</v>
       </c>
       <c r="G62" s="7" t="inlineStr">
         <is>
@@ -19514,7 +19506,7 @@
         </is>
       </c>
       <c r="H62" s="16" t="n">
-        <v>11.08</v>
+        <v>6.07</v>
       </c>
       <c r="J62" s="5" t="n"/>
       <c r="L62" s="14" t="inlineStr">
@@ -19549,32 +19541,32 @@
     <row r="63" ht="13" customHeight="1">
       <c r="B63" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="C63" s="7" t="inlineStr">
         <is>
-          <t>Morten Gjendem</t>
+          <t>Martin Schei</t>
         </is>
       </c>
       <c r="D63" s="7" t="n">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="E63" s="17" t="inlineStr">
         <is>
-          <t>14,18,89</t>
+          <t>31,34,17</t>
         </is>
       </c>
       <c r="F63" s="7" t="n">
-        <v>870</v>
+        <v>764</v>
       </c>
       <c r="G63" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H63" s="16" t="n">
-        <v>6.07</v>
+        <v>3.06</v>
       </c>
       <c r="J63" s="5" t="n"/>
       <c r="L63" s="14" t="inlineStr">
@@ -19609,32 +19601,32 @@
     <row r="64" ht="13" customHeight="1">
       <c r="B64" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>3000m hinder</t>
         </is>
       </c>
       <c r="C64" s="7" t="inlineStr">
         <is>
-          <t>Morten Gjendem</t>
+          <t>Tom Erling Kårbø</t>
         </is>
       </c>
       <c r="D64" s="7" t="n">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="E64" s="17" t="inlineStr">
         <is>
-          <t>30,02,68</t>
+          <t>8,31,51</t>
         </is>
       </c>
       <c r="F64" s="7" t="n">
-        <v>863</v>
+        <v>981</v>
       </c>
       <c r="G64" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Liege/BEL</t>
         </is>
       </c>
       <c r="H64" s="16" t="n">
-        <v>3.06</v>
+        <v>12.07</v>
       </c>
       <c r="J64" s="5" t="n"/>
       <c r="L64" s="14" t="inlineStr">
@@ -19674,25 +19666,25 @@
       </c>
       <c r="C65" s="7" t="inlineStr">
         <is>
-          <t>Theodor Aase</t>
+          <t>Oscar Sørvik Ånderå</t>
         </is>
       </c>
       <c r="D65" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E65" s="15" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="F65" s="7" t="n">
-        <v>652</v>
+        <v>607</v>
       </c>
       <c r="G65" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Leirvik</t>
         </is>
       </c>
       <c r="H65" s="16" t="n">
-        <v>20.05</v>
+        <v>12.08</v>
       </c>
       <c r="J65" s="5" t="n"/>
       <c r="L65" s="14" t="inlineStr">
@@ -19732,25 +19724,25 @@
       </c>
       <c r="C66" s="7" t="inlineStr">
         <is>
-          <t>Herman Urnes Hahn</t>
+          <t>Oddvar Hårde</t>
         </is>
       </c>
       <c r="D66" s="7" t="n">
-        <v>2010</v>
+        <v>1969</v>
       </c>
       <c r="E66" s="15" t="n">
-        <v>2.12</v>
+        <v>3.35</v>
       </c>
       <c r="F66" s="7" t="n">
-        <v>239</v>
+        <v>581</v>
       </c>
       <c r="G66" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H66" s="16" t="n">
-        <v>19.08</v>
+        <v>11.02</v>
       </c>
       <c r="J66" s="5" t="n"/>
       <c r="L66" s="14" t="inlineStr">
@@ -19785,30 +19777,30 @@
     <row r="67" ht="13" customHeight="1">
       <c r="B67" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C67" s="7" t="inlineStr">
         <is>
-          <t>Stian André Lie Austrheim</t>
+          <t>Oscar Sørvik Ånderå</t>
         </is>
       </c>
       <c r="D67" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E67" s="15" t="n">
-        <v>5.84</v>
+        <v>1.41</v>
       </c>
       <c r="F67" s="7" t="n">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G67" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Bømlo</t>
         </is>
       </c>
       <c r="H67" s="16" t="n">
-        <v>6.07</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J67" s="5" t="n"/>
       <c r="L67" s="14" t="inlineStr">
@@ -19848,25 +19840,25 @@
       </c>
       <c r="C68" s="7" t="inlineStr">
         <is>
-          <t>Bjørn Gunnar Husby</t>
+          <t>Julian Skimmeland Aasheim</t>
         </is>
       </c>
       <c r="D68" s="7" t="n">
-        <v>1975</v>
+        <v>2003</v>
       </c>
       <c r="E68" s="15" t="n">
-        <v>2.61</v>
+        <v>2.88</v>
       </c>
       <c r="F68" s="7" t="n">
-        <v>447</v>
+        <v>605</v>
       </c>
       <c r="G68" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Leirvik</t>
         </is>
       </c>
       <c r="H68" s="16" t="n">
-        <v>10.02</v>
+        <v>23.01</v>
       </c>
       <c r="J68" s="5" t="n"/>
       <c r="L68" s="14" t="inlineStr">
@@ -19931,7 +19923,7 @@
         </is>
       </c>
       <c r="F70" s="20" t="n">
-        <v>9151</v>
+        <v>9385</v>
       </c>
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="19" t="inlineStr">
@@ -20051,32 +20043,32 @@
     <row r="75" ht="13" customHeight="1">
       <c r="B75" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C75" s="7" t="inlineStr">
         <is>
-          <t>Tedros Gebretensai Haile</t>
+          <t>Erlend Kringeland</t>
         </is>
       </c>
       <c r="D75" s="7" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E75" s="17" t="inlineStr">
         <is>
-          <t>14,31,25</t>
+          <t>8,30,48</t>
         </is>
       </c>
       <c r="F75" s="7" t="n">
-        <v>839</v>
+        <v>811</v>
       </c>
       <c r="G75" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H75" s="16" t="n">
-        <v>6.07</v>
+        <v>4.05</v>
       </c>
       <c r="J75" s="5" t="n"/>
       <c r="L75" s="14" t="inlineStr">
@@ -20111,30 +20103,32 @@
     <row r="76" ht="13" customHeight="1">
       <c r="B76" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C76" s="7" t="inlineStr">
         <is>
-          <t>Alexander Laksfoss</t>
+          <t>Johannes Sandvik Bø</t>
         </is>
       </c>
       <c r="D76" s="7" t="n">
         <v>2006</v>
       </c>
-      <c r="E76" s="15" t="n">
-        <v>7.11</v>
+      <c r="E76" s="17" t="inlineStr">
+        <is>
+          <t>8,42,57</t>
+        </is>
       </c>
       <c r="F76" s="7" t="n">
-        <v>815</v>
+        <v>758</v>
       </c>
       <c r="G76" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H76" s="16" t="n">
-        <v>28.01</v>
+        <v>16.06</v>
       </c>
       <c r="J76" s="5" t="n"/>
       <c r="L76" s="14" t="inlineStr">
@@ -20169,32 +20163,32 @@
     <row r="77" ht="13" customHeight="1">
       <c r="B77" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C77" s="7" t="inlineStr">
         <is>
-          <t>Tedros Gebretensai Haile</t>
+          <t>Johannes Sandvik Bø</t>
         </is>
       </c>
       <c r="D77" s="7" t="n">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="E77" s="17" t="inlineStr">
         <is>
-          <t>31,01,23</t>
+          <t>15,14,7</t>
         </is>
       </c>
       <c r="F77" s="7" t="n">
-        <v>798</v>
+        <v>739</v>
       </c>
       <c r="G77" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Austevoll</t>
         </is>
       </c>
       <c r="H77" s="16" t="n">
-        <v>8.07</v>
+        <v>7.05</v>
       </c>
       <c r="J77" s="5" t="n"/>
       <c r="L77" s="14" t="inlineStr">
@@ -20229,30 +20223,32 @@
     <row r="78" ht="13" customHeight="1">
       <c r="B78" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C78" s="7" t="inlineStr">
         <is>
-          <t>Alexander Laksfoss</t>
+          <t>Martin Schei</t>
         </is>
       </c>
       <c r="D78" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E78" s="15" t="n">
-        <v>11.22</v>
+        <v>2000</v>
+      </c>
+      <c r="E78" s="17" t="inlineStr">
+        <is>
+          <t>15,22,36</t>
+        </is>
       </c>
       <c r="F78" s="7" t="n">
-        <v>786</v>
+        <v>723</v>
       </c>
       <c r="G78" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H78" s="16" t="n">
-        <v>28.01</v>
+        <v>6.07</v>
       </c>
       <c r="J78" s="5" t="n"/>
       <c r="L78" s="14" t="inlineStr">
@@ -20287,30 +20283,32 @@
     <row r="79" ht="13" customHeight="1">
       <c r="B79" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C79" s="7" t="inlineStr">
         <is>
-          <t>Stefan Skrede</t>
+          <t>Vegard Havn</t>
         </is>
       </c>
       <c r="D79" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E79" s="15" t="n">
-        <v>7.27</v>
+        <v>1997</v>
+      </c>
+      <c r="E79" s="17" t="inlineStr">
+        <is>
+          <t>8,53,92</t>
+        </is>
       </c>
       <c r="F79" s="7" t="n">
-        <v>748</v>
+        <v>712</v>
       </c>
       <c r="G79" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H79" s="16" t="n">
-        <v>25.02</v>
+        <v>19.08</v>
       </c>
       <c r="J79" s="5" t="n"/>
       <c r="L79" s="14" t="inlineStr">
@@ -20345,32 +20343,32 @@
     <row r="80" ht="13" customHeight="1">
       <c r="B80" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C80" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Nordhus</t>
+          <t>Erlend Kringeland</t>
         </is>
       </c>
       <c r="D80" s="7" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="E80" s="17" t="inlineStr">
         <is>
-          <t>4,02,58</t>
+          <t>1,58,94</t>
         </is>
       </c>
       <c r="F80" s="7" t="n">
-        <v>736</v>
+        <v>708</v>
       </c>
       <c r="G80" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H80" s="16" t="n">
-        <v>26.06</v>
+        <v>17.06</v>
       </c>
       <c r="J80" s="5" t="n"/>
       <c r="L80" s="14" t="inlineStr">
@@ -20405,30 +20403,32 @@
     <row r="81" ht="13" customHeight="1">
       <c r="B81" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C81" s="7" t="inlineStr">
         <is>
-          <t>Stefan Skrede</t>
+          <t>Martin Schei</t>
         </is>
       </c>
       <c r="D81" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E81" s="15" t="n">
-        <v>11.54</v>
+        <v>2000</v>
+      </c>
+      <c r="E81" s="17" t="inlineStr">
+        <is>
+          <t>8,54,83</t>
+        </is>
       </c>
       <c r="F81" s="7" t="n">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="G81" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H81" s="16" t="n">
-        <v>18.06</v>
+        <v>16.05</v>
       </c>
       <c r="J81" s="5" t="n"/>
       <c r="L81" s="14" t="inlineStr">
@@ -20463,30 +20463,32 @@
     <row r="82" ht="13" customHeight="1">
       <c r="B82" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C82" s="7" t="inlineStr">
         <is>
-          <t>Sverre S. Tellmann</t>
+          <t>Jacob Hystad</t>
         </is>
       </c>
       <c r="D82" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E82" s="15" t="n">
-        <v>7.4</v>
+        <v>1990</v>
+      </c>
+      <c r="E82" s="17" t="inlineStr">
+        <is>
+          <t>15,45,76</t>
+        </is>
       </c>
       <c r="F82" s="7" t="n">
-        <v>697</v>
+        <v>674</v>
       </c>
       <c r="G82" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H82" s="16" t="n">
-        <v>28.01</v>
+        <v>28.06</v>
       </c>
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="14" t="inlineStr">
@@ -20521,30 +20523,30 @@
     <row r="83" ht="13" customHeight="1">
       <c r="B83" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C83" s="7" t="inlineStr">
         <is>
-          <t>Stian André Lie Austrheim</t>
+          <t>Steffen Tjensvoll Hollund</t>
         </is>
       </c>
       <c r="D83" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E83" s="15" t="n">
-        <v>1.71</v>
+        <v>5.72</v>
       </c>
       <c r="F83" s="7" t="n">
-        <v>569</v>
+        <v>542</v>
       </c>
       <c r="G83" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Leirvik</t>
         </is>
       </c>
       <c r="H83" s="16" t="n">
-        <v>4.07</v>
+        <v>13.08</v>
       </c>
       <c r="J83" s="5" t="n"/>
       <c r="L83" s="14" t="inlineStr">
@@ -20579,30 +20581,30 @@
     <row r="84" ht="13" customHeight="1">
       <c r="B84" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C84" s="7" t="inlineStr">
         <is>
-          <t>Eirik Svelland Hustoft</t>
+          <t>Per Gregersen</t>
         </is>
       </c>
       <c r="D84" s="7" t="n">
-        <v>2008</v>
+        <v>1970</v>
       </c>
       <c r="E84" s="15" t="n">
-        <v>5.31</v>
+        <v>3.1</v>
       </c>
       <c r="F84" s="7" t="n">
-        <v>446</v>
+        <v>523</v>
       </c>
       <c r="G84" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Reykjavik/ISL</t>
         </is>
       </c>
       <c r="H84" s="16" t="n">
-        <v>16.06</v>
+        <v>25.02</v>
       </c>
       <c r="J84" s="5" t="n"/>
       <c r="L84" s="14" t="inlineStr">
@@ -20637,30 +20639,30 @@
     <row r="85" ht="13" customHeight="1">
       <c r="B85" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C85" s="7" t="inlineStr">
         <is>
-          <t>Bjørnar Ramstad Støylen</t>
+          <t>Steffen Tjensvoll Hollund</t>
         </is>
       </c>
       <c r="D85" s="7" t="n">
-        <v>1993</v>
+        <v>2006</v>
       </c>
       <c r="E85" s="15" t="n">
-        <v>5.22</v>
+        <v>2.72</v>
       </c>
       <c r="F85" s="7" t="n">
-        <v>424</v>
+        <v>515</v>
       </c>
       <c r="G85" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Bømlo</t>
         </is>
       </c>
       <c r="H85" s="16" t="n">
-        <v>18.01</v>
+        <v>9.02</v>
       </c>
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
@@ -20695,30 +20697,30 @@
     <row r="86" ht="13" customHeight="1">
       <c r="B86" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C86" s="7" t="inlineStr">
         <is>
-          <t>Sander Sjøen Hjelmervik</t>
+          <t>Oscar Sørvik Ånderå</t>
         </is>
       </c>
       <c r="D86" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E86" s="15" t="n">
-        <v>5.01</v>
+        <v>2.7</v>
       </c>
       <c r="F86" s="7" t="n">
-        <v>374</v>
+        <v>503</v>
       </c>
       <c r="G86" s="7" t="inlineStr">
         <is>
-          <t>Leirvik</t>
+          <t>Bømlo</t>
         </is>
       </c>
       <c r="H86" s="16" t="n">
-        <v>12.08</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="14" t="inlineStr">
@@ -20783,7 +20785,7 @@
         </is>
       </c>
       <c r="F88" s="20" t="n">
-        <v>7943</v>
+        <v>7916</v>
       </c>
       <c r="J88" s="5" t="n"/>
       <c r="L88" s="19" t="inlineStr">
@@ -20823,7 +20825,7 @@
         </is>
       </c>
       <c r="F90" s="20" t="n">
-        <v>17094</v>
+        <v>17301</v>
       </c>
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="19" t="inlineStr">
@@ -20855,7 +20857,7 @@
         </is>
       </c>
       <c r="C92" s="20" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J92" s="5" t="n"/>
       <c r="L92" s="19" t="inlineStr">
@@ -28065,30 +28067,30 @@
       <c r="J270" s="5" t="n"/>
       <c r="L270" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M270" s="7" t="inlineStr">
         <is>
-          <t>Jacob Egeberg Holm</t>
+          <t>Theodor Wie Eriksen</t>
         </is>
       </c>
       <c r="N270" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O270" s="15" t="n">
-        <v>25.49</v>
+        <v>5.64</v>
       </c>
       <c r="P270" s="7" t="n">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="Q270" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Sarpsborg</t>
         </is>
       </c>
       <c r="R270" s="16" t="n">
-        <v>23.06</v>
+        <v>20.08</v>
       </c>
       <c r="T270" s="5" t="n"/>
     </row>
@@ -28123,22 +28125,22 @@
       <c r="J271" s="5" t="n"/>
       <c r="L271" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M271" s="7" t="inlineStr">
         <is>
-          <t>Theodor Wie Eriksen</t>
+          <t>Jacob Egeberg Holm</t>
         </is>
       </c>
       <c r="N271" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="O271" s="15" t="n">
-        <v>12.52</v>
+        <v>25.49</v>
       </c>
       <c r="P271" s="7" t="n">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="Q271" s="7" t="inlineStr">
         <is>
@@ -28146,7 +28148,7 @@
         </is>
       </c>
       <c r="R271" s="16" t="n">
-        <v>25.06</v>
+        <v>23.06</v>
       </c>
       <c r="T271" s="5" t="n"/>
     </row>
@@ -28181,22 +28183,22 @@
       <c r="J272" s="5" t="n"/>
       <c r="L272" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M272" s="7" t="inlineStr">
         <is>
-          <t>Jacob Egeberg Holm</t>
+          <t>Theodor Wie Eriksen</t>
         </is>
       </c>
       <c r="N272" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O272" s="15" t="n">
-        <v>5.56</v>
+        <v>12.52</v>
       </c>
       <c r="P272" s="7" t="n">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="Q272" s="7" t="inlineStr">
         <is>
@@ -28239,22 +28241,22 @@
       <c r="J273" s="5" t="n"/>
       <c r="L273" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M273" s="7" t="inlineStr">
         <is>
-          <t>Theodor Wie Eriksen</t>
+          <t>Jacob Egeberg Holm</t>
         </is>
       </c>
       <c r="N273" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="O273" s="15" t="n">
-        <v>25.79</v>
+        <v>5.56</v>
       </c>
       <c r="P273" s="7" t="n">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="Q273" s="7" t="inlineStr">
         <is>
@@ -28262,7 +28264,7 @@
         </is>
       </c>
       <c r="R273" s="16" t="n">
-        <v>23.06</v>
+        <v>25.06</v>
       </c>
       <c r="T273" s="5" t="n"/>
     </row>
@@ -28297,7 +28299,7 @@
       <c r="J274" s="5" t="n"/>
       <c r="L274" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M274" s="7" t="inlineStr">
@@ -28309,10 +28311,10 @@
         <v>2008</v>
       </c>
       <c r="O274" s="15" t="n">
-        <v>5.32</v>
+        <v>25.79</v>
       </c>
       <c r="P274" s="7" t="n">
-        <v>448</v>
+        <v>491</v>
       </c>
       <c r="Q274" s="7" t="inlineStr">
         <is>
@@ -28320,7 +28322,7 @@
         </is>
       </c>
       <c r="R274" s="16" t="n">
-        <v>25.06</v>
+        <v>23.06</v>
       </c>
       <c r="T274" s="5" t="n"/>
     </row>
@@ -28374,7 +28376,7 @@
         </is>
       </c>
       <c r="P276" s="20" t="n">
-        <v>6946</v>
+        <v>7021</v>
       </c>
       <c r="T276" s="5" t="n"/>
     </row>
@@ -28414,7 +28416,7 @@
         </is>
       </c>
       <c r="P278" s="20" t="n">
-        <v>14725</v>
+        <v>14800</v>
       </c>
       <c r="T278" s="5" t="n"/>
     </row>
@@ -28831,18 +28833,18 @@
         <v>2002</v>
       </c>
       <c r="E294" s="15" t="n">
-        <v>44.86</v>
+        <v>44.39</v>
       </c>
       <c r="F294" s="7" t="n">
-        <v>1086</v>
+        <v>1119</v>
       </c>
       <c r="G294" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Budapest/HUN</t>
         </is>
       </c>
       <c r="H294" s="16" t="n">
-        <v>15.06</v>
+        <v>20.08</v>
       </c>
       <c r="J294" s="5" t="n"/>
       <c r="L294" s="14" t="inlineStr">
@@ -29261,7 +29263,7 @@
         </is>
       </c>
       <c r="F305" s="20" t="n">
-        <v>5896</v>
+        <v>5929</v>
       </c>
       <c r="J305" s="5" t="n"/>
       <c r="L305" s="19" t="inlineStr">
@@ -30003,7 +30005,7 @@
         </is>
       </c>
       <c r="F325" s="20" t="n">
-        <v>12949</v>
+        <v>12982</v>
       </c>
       <c r="J325" s="5" t="n"/>
       <c r="L325" s="19" t="inlineStr">
@@ -30160,7 +30162,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>26431</v>
+        <v>26441</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -30188,7 +30190,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>24997</v>
+        <v>24998</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
@@ -30300,7 +30302,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>21941</v>
+        <v>21953</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -30328,7 +30330,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>21732</v>
+        <v>21734</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
@@ -30412,7 +30414,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>21010</v>
+        <v>21043</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -31011,19 +31013,19 @@
       </c>
       <c r="E13" s="17" t="inlineStr">
         <is>
-          <t>2,01,43</t>
+          <t>2,01,00</t>
         </is>
       </c>
       <c r="F13" s="7" t="n">
-        <v>955</v>
+        <v>965</v>
       </c>
       <c r="G13" s="7" t="inlineStr">
         <is>
-          <t>Banská Bystrica/SVK</t>
+          <t>Budapest/HUN</t>
         </is>
       </c>
       <c r="H13" s="16" t="n">
-        <v>20.07</v>
+        <v>23.08</v>
       </c>
       <c r="J13" s="5" t="n"/>
       <c r="L13" s="14" t="inlineStr">
@@ -31224,18 +31226,18 @@
         <v>2001</v>
       </c>
       <c r="O16" s="15" t="n">
-        <v>13.44</v>
+        <v>13.43</v>
       </c>
       <c r="P16" s="7" t="n">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="Q16" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Sarpsborg</t>
         </is>
       </c>
       <c r="R16" s="16" t="n">
-        <v>15.06</v>
+        <v>19.08</v>
       </c>
       <c r="T16" s="5" t="n"/>
     </row>
@@ -31680,7 +31682,7 @@
         </is>
       </c>
       <c r="F25" s="20" t="n">
-        <v>13684</v>
+        <v>13694</v>
       </c>
       <c r="J25" s="5" t="n"/>
       <c r="L25" s="19" t="inlineStr">
@@ -31697,7 +31699,7 @@
         </is>
       </c>
       <c r="P25" s="20" t="n">
-        <v>13373</v>
+        <v>13374</v>
       </c>
       <c r="T25" s="5" t="n"/>
     </row>
@@ -32758,7 +32760,7 @@
         </is>
       </c>
       <c r="F48" s="20" t="n">
-        <v>26431</v>
+        <v>26441</v>
       </c>
       <c r="J48" s="5" t="n"/>
       <c r="L48" s="19" t="inlineStr">
@@ -32775,7 +32777,7 @@
         </is>
       </c>
       <c r="P48" s="20" t="n">
-        <v>24997</v>
+        <v>24998</v>
       </c>
       <c r="T48" s="5" t="n"/>
     </row>
@@ -35864,18 +35866,18 @@
         <v>1996</v>
       </c>
       <c r="O123" s="15" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="P123" s="7" t="n">
-        <v>1030</v>
+        <v>1042</v>
       </c>
       <c r="Q123" s="7" t="inlineStr">
         <is>
-          <t>Luzern/SUI</t>
+          <t>Budapest/HUN</t>
         </is>
       </c>
       <c r="R123" s="16" t="n">
-        <v>20.07</v>
+        <v>21.08</v>
       </c>
       <c r="T123" s="5" t="n"/>
     </row>
@@ -36161,7 +36163,7 @@
         </is>
       </c>
       <c r="P129" s="20" t="n">
-        <v>12171</v>
+        <v>12183</v>
       </c>
       <c r="T129" s="5" t="n"/>
     </row>
@@ -37231,7 +37233,7 @@
         </is>
       </c>
       <c r="P152" s="20" t="n">
-        <v>21941</v>
+        <v>21953</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
@@ -37769,19 +37771,19 @@
       </c>
       <c r="E170" s="17" t="inlineStr">
         <is>
-          <t>4,08,29</t>
+          <t>4,08,08</t>
         </is>
       </c>
       <c r="F170" s="7" t="n">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="G170" s="7" t="inlineStr">
         <is>
-          <t>Heusden-Zolder/BEL</t>
+          <t>Budapest/HUN</t>
         </is>
       </c>
       <c r="H170" s="16" t="n">
-        <v>15.07</v>
+        <v>19.08</v>
       </c>
       <c r="J170" s="5" t="n"/>
       <c r="L170" s="14" t="inlineStr">
@@ -38380,7 +38382,7 @@
         </is>
       </c>
       <c r="F181" s="20" t="n">
-        <v>11600</v>
+        <v>11602</v>
       </c>
       <c r="J181" s="5" t="n"/>
       <c r="L181" s="19" t="inlineStr">
@@ -39454,7 +39456,7 @@
         </is>
       </c>
       <c r="F204" s="20" t="n">
-        <v>21732</v>
+        <v>21734</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="19" t="inlineStr">
@@ -41426,18 +41428,18 @@
         <v>2005</v>
       </c>
       <c r="O249" s="15" t="n">
-        <v>28.4</v>
+        <v>30.46</v>
       </c>
       <c r="P249" s="7" t="n">
-        <v>555</v>
+        <v>588</v>
       </c>
       <c r="Q249" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Frakkagjerd</t>
         </is>
       </c>
       <c r="R249" s="16" t="n">
-        <v>2.06</v>
+        <v>23.08</v>
       </c>
       <c r="T249" s="5" t="n"/>
     </row>
@@ -41665,7 +41667,7 @@
         </is>
       </c>
       <c r="P254" s="20" t="n">
-        <v>9527</v>
+        <v>9560</v>
       </c>
       <c r="T254" s="5" t="n"/>
     </row>
@@ -41705,7 +41707,7 @@
         </is>
       </c>
       <c r="P256" s="20" t="n">
-        <v>21010</v>
+        <v>21043</v>
       </c>
       <c r="T256" s="5" t="n"/>
     </row>
@@ -46160,25 +46162,25 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Kristiansands IF Friidrett</t>
+          <t>IL Tyrving 2. lag</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>(25/11)</t>
+          <t>(25/14)</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>15297</v>
+        <v>15312</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>(5)</t>
+          <t>(6)</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -46188,25 +46190,25 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>IL Tyrving 2. lag</t>
+          <t>Kristiansands IF Friidrett</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>(25/14)</t>
+          <t>(25/11)</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>15289</v>
+        <v>15297</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>(6)</t>
+          <t>(5)</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Agder</t>
         </is>
       </c>
     </row>
@@ -46277,11 +46279,11 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>(25/9)</t>
+          <t>(25/10)</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>14564</v>
+        <v>14667</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
@@ -46309,7 +46311,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>14255</v>
+        <v>14297</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -46337,7 +46339,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>14189</v>
+        <v>14194</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
@@ -46393,7 +46395,7 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>12923</v>
+        <v>12948</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
@@ -48490,7 +48492,7 @@
       </c>
       <c r="C49" s="7" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Akershus</t>
         </is>
       </c>
       <c r="F49" s="8" t="n">
@@ -48504,7 +48506,7 @@
       </c>
       <c r="M49" s="7" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Agder</t>
         </is>
       </c>
       <c r="P49" s="8" t="n">
@@ -48520,7 +48522,7 @@
       </c>
       <c r="C50" s="7" t="inlineStr">
         <is>
-          <t>Kristiansands IF Friidrett</t>
+          <t>IL Tyrving 2. lag</t>
         </is>
       </c>
       <c r="J50" s="5" t="n"/>
@@ -48531,7 +48533,7 @@
       </c>
       <c r="M50" s="7" t="inlineStr">
         <is>
-          <t>IL Tyrving 2. lag</t>
+          <t>Kristiansands IF Friidrett</t>
         </is>
       </c>
       <c r="T50" s="5" t="n"/>
@@ -48660,25 +48662,25 @@
       </c>
       <c r="C56" s="7" t="inlineStr">
         <is>
-          <t>Tora Ugland Damsgaard</t>
+          <t>Eline Folvik</t>
         </is>
       </c>
       <c r="D56" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E56" s="15" t="n">
-        <v>8.19</v>
+        <v>8.32</v>
       </c>
       <c r="F56" s="7" t="n">
-        <v>678</v>
+        <v>641</v>
       </c>
       <c r="G56" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H56" s="16" t="n">
-        <v>11.02</v>
+        <v>4.03</v>
       </c>
       <c r="J56" s="5" t="n"/>
       <c r="L56" s="14" t="inlineStr">
@@ -48688,25 +48690,25 @@
       </c>
       <c r="M56" s="7" t="inlineStr">
         <is>
-          <t>Eline Folvik</t>
+          <t>Tora Ugland Damsgaard</t>
         </is>
       </c>
       <c r="N56" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="O56" s="15" t="n">
-        <v>8.32</v>
+        <v>8.19</v>
       </c>
       <c r="P56" s="7" t="n">
-        <v>641</v>
+        <v>678</v>
       </c>
       <c r="Q56" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R56" s="16" t="n">
-        <v>4.03</v>
+        <v>11.02</v>
       </c>
       <c r="T56" s="5" t="n"/>
     </row>
@@ -48718,25 +48720,25 @@
       </c>
       <c r="C57" s="7" t="inlineStr">
         <is>
-          <t>Eline Heia</t>
+          <t>Eline Folvik</t>
         </is>
       </c>
       <c r="D57" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="E57" s="15" t="n">
-        <v>12.81</v>
+        <v>13.01</v>
       </c>
       <c r="F57" s="7" t="n">
-        <v>703</v>
+        <v>669</v>
       </c>
       <c r="G57" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H57" s="16" t="n">
-        <v>28.06</v>
+        <v>13.08</v>
       </c>
       <c r="J57" s="5" t="n"/>
       <c r="L57" s="14" t="inlineStr">
@@ -48746,25 +48748,25 @@
       </c>
       <c r="M57" s="7" t="inlineStr">
         <is>
-          <t>Eline Folvik</t>
+          <t>Eline Heia</t>
         </is>
       </c>
       <c r="N57" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="O57" s="15" t="n">
-        <v>13.01</v>
+        <v>12.81</v>
       </c>
       <c r="P57" s="7" t="n">
-        <v>669</v>
+        <v>703</v>
       </c>
       <c r="Q57" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R57" s="16" t="n">
-        <v>13.08</v>
+        <v>28.06</v>
       </c>
       <c r="T57" s="5" t="n"/>
     </row>
@@ -48776,25 +48778,25 @@
       </c>
       <c r="C58" s="7" t="inlineStr">
         <is>
-          <t>Eline Heia</t>
+          <t>Eline Folvik</t>
         </is>
       </c>
       <c r="D58" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="E58" s="15" t="n">
-        <v>26.67</v>
+        <v>26.96</v>
       </c>
       <c r="F58" s="7" t="n">
-        <v>674</v>
+        <v>653</v>
       </c>
       <c r="G58" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H58" s="16" t="n">
-        <v>16.06</v>
+        <v>2.07</v>
       </c>
       <c r="J58" s="5" t="n"/>
       <c r="L58" s="14" t="inlineStr">
@@ -48804,25 +48806,25 @@
       </c>
       <c r="M58" s="7" t="inlineStr">
         <is>
-          <t>Eline Folvik</t>
+          <t>Eline Heia</t>
         </is>
       </c>
       <c r="N58" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="O58" s="15" t="n">
-        <v>26.96</v>
+        <v>26.67</v>
       </c>
       <c r="P58" s="7" t="n">
-        <v>653</v>
+        <v>674</v>
       </c>
       <c r="Q58" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R58" s="16" t="n">
-        <v>2.07</v>
+        <v>16.06</v>
       </c>
       <c r="T58" s="5" t="n"/>
     </row>
@@ -48834,7 +48836,7 @@
       </c>
       <c r="C59" s="7" t="inlineStr">
         <is>
-          <t>Emma Frigstad-Thorkildsen</t>
+          <t>Eline Folvik</t>
         </is>
       </c>
       <c r="D59" s="7" t="n">
@@ -48842,19 +48844,19 @@
       </c>
       <c r="E59" s="17" t="inlineStr">
         <is>
-          <t>1,02,03</t>
+          <t>1,02,49</t>
         </is>
       </c>
       <c r="F59" s="7" t="n">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="G59" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H59" s="16" t="n">
-        <v>18.06</v>
+        <v>3.06</v>
       </c>
       <c r="J59" s="5" t="n"/>
       <c r="L59" s="14" t="inlineStr">
@@ -48864,7 +48866,7 @@
       </c>
       <c r="M59" s="7" t="inlineStr">
         <is>
-          <t>Eline Folvik</t>
+          <t>Emma Frigstad-Thorkildsen</t>
         </is>
       </c>
       <c r="N59" s="7" t="n">
@@ -48872,19 +48874,19 @@
       </c>
       <c r="O59" s="17" t="inlineStr">
         <is>
-          <t>1,02,49</t>
+          <t>1,02,03</t>
         </is>
       </c>
       <c r="P59" s="7" t="n">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="Q59" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R59" s="16" t="n">
-        <v>3.06</v>
+        <v>18.06</v>
       </c>
       <c r="T59" s="5" t="n"/>
     </row>
@@ -48896,27 +48898,27 @@
       </c>
       <c r="C60" s="7" t="inlineStr">
         <is>
-          <t>Linn Andrea Lindevik</t>
+          <t>Linnea Hove Låhne</t>
         </is>
       </c>
       <c r="D60" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E60" s="17" t="inlineStr">
         <is>
-          <t>2,25,74</t>
+          <t>2,16,93</t>
         </is>
       </c>
       <c r="F60" s="7" t="n">
-        <v>602</v>
+        <v>705</v>
       </c>
       <c r="G60" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H60" s="16" t="n">
-        <v>18.03</v>
+        <v>4.03</v>
       </c>
       <c r="J60" s="5" t="n"/>
       <c r="L60" s="14" t="inlineStr">
@@ -48926,27 +48928,27 @@
       </c>
       <c r="M60" s="7" t="inlineStr">
         <is>
-          <t>Linnea Hove Låhne</t>
+          <t>Linn Andrea Lindevik</t>
         </is>
       </c>
       <c r="N60" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O60" s="17" t="inlineStr">
         <is>
-          <t>2,16,93</t>
+          <t>2,25,74</t>
         </is>
       </c>
       <c r="P60" s="7" t="n">
-        <v>705</v>
+        <v>602</v>
       </c>
       <c r="Q60" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R60" s="16" t="n">
-        <v>4.03</v>
+        <v>18.03</v>
       </c>
       <c r="T60" s="5" t="n"/>
     </row>
@@ -48958,27 +48960,27 @@
       </c>
       <c r="C61" s="7" t="inlineStr">
         <is>
-          <t>Siren Amelia Seiler</t>
+          <t>Linnea Hove Låhne</t>
         </is>
       </c>
       <c r="D61" s="7" t="n">
-        <v>1998</v>
+        <v>2007</v>
       </c>
       <c r="E61" s="17" t="inlineStr">
         <is>
-          <t>4,50,27</t>
+          <t>4,43,23</t>
         </is>
       </c>
       <c r="F61" s="7" t="n">
-        <v>664</v>
+        <v>705</v>
       </c>
       <c r="G61" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="H61" s="16" t="n">
-        <v>8.06</v>
+        <v>4.02</v>
       </c>
       <c r="J61" s="5" t="n"/>
       <c r="L61" s="14" t="inlineStr">
@@ -48988,167 +48990,167 @@
       </c>
       <c r="M61" s="7" t="inlineStr">
         <is>
-          <t>Linnea Hove Låhne</t>
+          <t>Siren Amelia Seiler</t>
         </is>
       </c>
       <c r="N61" s="7" t="n">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="O61" s="17" t="inlineStr">
         <is>
-          <t>4,43,23</t>
+          <t>4,50,27</t>
         </is>
       </c>
       <c r="P61" s="7" t="n">
-        <v>705</v>
+        <v>664</v>
       </c>
       <c r="Q61" s="7" t="inlineStr">
         <is>
-          <t>Hvam</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R61" s="16" t="n">
-        <v>4.02</v>
+        <v>8.06</v>
       </c>
       <c r="T61" s="5" t="n"/>
     </row>
     <row r="62" ht="13" customHeight="1">
       <c r="B62" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="C62" s="7" t="inlineStr">
         <is>
-          <t>Tina Helen Bergem</t>
+          <t>Sophia Borgen</t>
         </is>
       </c>
       <c r="D62" s="7" t="n">
-        <v>1994</v>
-      </c>
-      <c r="E62" s="17" t="inlineStr">
-        <is>
-          <t>1,08,83</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="E62" s="15" t="n">
+        <v>9.699999999999999</v>
       </c>
       <c r="F62" s="7" t="n">
-        <v>611</v>
+        <v>651</v>
       </c>
       <c r="G62" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H62" s="16" t="n">
-        <v>16.06</v>
+        <v>3.03</v>
       </c>
       <c r="J62" s="5" t="n"/>
       <c r="L62" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M62" s="7" t="inlineStr">
         <is>
-          <t>Sophia Borgen</t>
+          <t>Tina Helen Bergem</t>
         </is>
       </c>
       <c r="N62" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="O62" s="15" t="n">
-        <v>9.699999999999999</v>
+        <v>1994</v>
+      </c>
+      <c r="O62" s="17" t="inlineStr">
+        <is>
+          <t>1,08,83</t>
+        </is>
       </c>
       <c r="P62" s="7" t="n">
-        <v>651</v>
+        <v>611</v>
       </c>
       <c r="Q62" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R62" s="16" t="n">
-        <v>3.03</v>
+        <v>16.06</v>
       </c>
       <c r="T62" s="5" t="n"/>
     </row>
     <row r="63" ht="13" customHeight="1">
       <c r="B63" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="C63" s="7" t="inlineStr">
         <is>
-          <t>Julie Lunde</t>
+          <t>Sophia Borgen</t>
         </is>
       </c>
       <c r="D63" s="7" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="E63" s="15" t="n">
-        <v>1.44</v>
+        <v>15.88</v>
       </c>
       <c r="F63" s="7" t="n">
-        <v>556</v>
+        <v>686</v>
       </c>
       <c r="G63" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H63" s="16" t="n">
-        <v>3.06</v>
+        <v>4.06</v>
       </c>
       <c r="J63" s="5" t="n"/>
       <c r="L63" s="14" t="inlineStr">
         <is>
-          <t>100m hekk</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M63" s="7" t="inlineStr">
         <is>
-          <t>Sophia Borgen</t>
+          <t>Julie Lunde</t>
         </is>
       </c>
       <c r="N63" s="7" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="O63" s="15" t="n">
-        <v>15.88</v>
+        <v>1.44</v>
       </c>
       <c r="P63" s="7" t="n">
-        <v>686</v>
+        <v>556</v>
       </c>
       <c r="Q63" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R63" s="16" t="n">
-        <v>4.06</v>
+        <v>3.06</v>
       </c>
       <c r="T63" s="5" t="n"/>
     </row>
     <row r="64" ht="13" customHeight="1">
       <c r="B64" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C64" s="7" t="inlineStr">
         <is>
-          <t>Marie Mollestad</t>
+          <t>Hanna Fiva Øiestad</t>
         </is>
       </c>
       <c r="D64" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E64" s="15" t="n">
-        <v>5.22</v>
+        <v>1.5</v>
       </c>
       <c r="F64" s="7" t="n">
-        <v>666</v>
+        <v>609</v>
       </c>
       <c r="G64" s="7" t="inlineStr">
         <is>
@@ -49156,27 +49158,27 @@
         </is>
       </c>
       <c r="H64" s="16" t="n">
-        <v>16.06</v>
+        <v>18.06</v>
       </c>
       <c r="J64" s="5" t="n"/>
       <c r="L64" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M64" s="7" t="inlineStr">
         <is>
-          <t>Hanna Fiva Øiestad</t>
+          <t>Marie Mollestad</t>
         </is>
       </c>
       <c r="N64" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="O64" s="15" t="n">
-        <v>1.5</v>
+        <v>5.22</v>
       </c>
       <c r="P64" s="7" t="n">
-        <v>609</v>
+        <v>666</v>
       </c>
       <c r="Q64" s="7" t="inlineStr">
         <is>
@@ -49184,29 +49186,29 @@
         </is>
       </c>
       <c r="R64" s="16" t="n">
-        <v>18.06</v>
+        <v>16.06</v>
       </c>
       <c r="T64" s="5" t="n"/>
     </row>
     <row r="65" ht="13" customHeight="1">
       <c r="B65" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C65" s="7" t="inlineStr">
         <is>
-          <t>Tora Ugland Damsgaard</t>
+          <t>Sophia Borgen</t>
         </is>
       </c>
       <c r="D65" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E65" s="15" t="n">
-        <v>9.9</v>
+        <v>5.26</v>
       </c>
       <c r="F65" s="7" t="n">
-        <v>548</v>
+        <v>675</v>
       </c>
       <c r="G65" s="7" t="inlineStr">
         <is>
@@ -49214,27 +49216,27 @@
         </is>
       </c>
       <c r="H65" s="16" t="n">
-        <v>12.02</v>
+        <v>17.06</v>
       </c>
       <c r="J65" s="5" t="n"/>
       <c r="L65" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M65" s="7" t="inlineStr">
         <is>
-          <t>Sophia Borgen</t>
+          <t>Tora Ugland Damsgaard</t>
         </is>
       </c>
       <c r="N65" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="O65" s="15" t="n">
-        <v>5.26</v>
+        <v>9.9</v>
       </c>
       <c r="P65" s="7" t="n">
-        <v>675</v>
+        <v>548</v>
       </c>
       <c r="Q65" s="7" t="inlineStr">
         <is>
@@ -49242,87 +49244,87 @@
         </is>
       </c>
       <c r="R65" s="16" t="n">
-        <v>17.06</v>
+        <v>12.02</v>
       </c>
       <c r="T65" s="5" t="n"/>
     </row>
     <row r="66" ht="13" customHeight="1">
       <c r="B66" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C66" s="7" t="inlineStr">
         <is>
-          <t>Marie Mollestad</t>
+          <t>Henriette Collett-Østensen</t>
         </is>
       </c>
       <c r="D66" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="E66" s="15" t="n">
-        <v>1.36</v>
+        <v>10.13</v>
       </c>
       <c r="F66" s="7" t="n">
-        <v>722</v>
+        <v>572</v>
       </c>
       <c r="G66" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H66" s="16" t="n">
-        <v>18.02</v>
+        <v>3.03</v>
       </c>
       <c r="J66" s="5" t="n"/>
       <c r="L66" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M66" s="7" t="inlineStr">
         <is>
-          <t>Henriette Collett-Østensen</t>
+          <t>Marie Mollestad</t>
         </is>
       </c>
       <c r="N66" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="O66" s="15" t="n">
-        <v>10.13</v>
+        <v>1.36</v>
       </c>
       <c r="P66" s="7" t="n">
-        <v>572</v>
+        <v>722</v>
       </c>
       <c r="Q66" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R66" s="16" t="n">
-        <v>3.03</v>
+        <v>18.02</v>
       </c>
       <c r="T66" s="5" t="n"/>
     </row>
     <row r="67" ht="13" customHeight="1">
       <c r="B67" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C67" s="7" t="inlineStr">
         <is>
-          <t>Marie Mollestad</t>
+          <t>Ida Yessica Nesse</t>
         </is>
       </c>
       <c r="D67" s="7" t="n">
-        <v>2007</v>
+        <v>1992</v>
       </c>
       <c r="E67" s="15" t="n">
-        <v>2.47</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="F67" s="7" t="n">
-        <v>612</v>
+        <v>571</v>
       </c>
       <c r="G67" s="7" t="inlineStr">
         <is>
@@ -49330,27 +49332,27 @@
         </is>
       </c>
       <c r="H67" s="16" t="n">
-        <v>19.02</v>
+        <v>16.03</v>
       </c>
       <c r="J67" s="5" t="n"/>
       <c r="L67" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M67" s="7" t="inlineStr">
         <is>
-          <t>Ida Yessica Nesse</t>
+          <t>Marie Mollestad</t>
         </is>
       </c>
       <c r="N67" s="7" t="n">
-        <v>1992</v>
+        <v>2007</v>
       </c>
       <c r="O67" s="15" t="n">
-        <v>9.720000000000001</v>
+        <v>2.47</v>
       </c>
       <c r="P67" s="7" t="n">
-        <v>571</v>
+        <v>612</v>
       </c>
       <c r="Q67" s="7" t="inlineStr">
         <is>
@@ -49358,65 +49360,65 @@
         </is>
       </c>
       <c r="R67" s="16" t="n">
-        <v>16.03</v>
+        <v>19.02</v>
       </c>
       <c r="T67" s="5" t="n"/>
     </row>
     <row r="68" ht="13" customHeight="1">
       <c r="B68" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C68" s="7" t="inlineStr">
         <is>
-          <t>Nina Blindbæk</t>
+          <t>Ida Petersen Amble</t>
         </is>
       </c>
       <c r="D68" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E68" s="15" t="n">
-        <v>5.55</v>
+        <v>28.41</v>
       </c>
       <c r="F68" s="7" t="n">
-        <v>202</v>
+        <v>555</v>
       </c>
       <c r="G68" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H68" s="16" t="n">
-        <v>28.01</v>
+        <v>18.06</v>
       </c>
       <c r="J68" s="5" t="n"/>
       <c r="L68" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M68" s="7" t="inlineStr">
         <is>
-          <t>Ida Petersen Amble</t>
+          <t>Nina Blindbæk</t>
         </is>
       </c>
       <c r="N68" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="O68" s="15" t="n">
-        <v>28.41</v>
+        <v>5.55</v>
       </c>
       <c r="P68" s="7" t="n">
-        <v>555</v>
+        <v>202</v>
       </c>
       <c r="Q68" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R68" s="16" t="n">
-        <v>18.06</v>
+        <v>28.01</v>
       </c>
       <c r="T68" s="5" t="n"/>
     </row>
@@ -49453,7 +49455,7 @@
         </is>
       </c>
       <c r="F70" s="20" t="n">
-        <v>7855</v>
+        <v>8295</v>
       </c>
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="19" t="inlineStr">
@@ -49470,7 +49472,7 @@
         </is>
       </c>
       <c r="P70" s="20" t="n">
-        <v>8295</v>
+        <v>7855</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
@@ -49573,296 +49575,296 @@
     <row r="75" ht="13" customHeight="1">
       <c r="B75" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C75" s="7" t="inlineStr">
         <is>
-          <t>Emma Frigstad-Thorkildsen</t>
+          <t>Alma Iben Graver Kolseth</t>
         </is>
       </c>
       <c r="D75" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E75" s="15" t="n">
-        <v>26.77</v>
+        <v>8.4</v>
       </c>
       <c r="F75" s="7" t="n">
-        <v>667</v>
+        <v>619</v>
       </c>
       <c r="G75" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H75" s="16" t="n">
-        <v>14.05</v>
+        <v>18.02</v>
       </c>
       <c r="J75" s="5" t="n"/>
       <c r="L75" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M75" s="7" t="inlineStr">
         <is>
-          <t>Alma Iben Graver Kolseth</t>
+          <t>Emma Frigstad-Thorkildsen</t>
         </is>
       </c>
       <c r="N75" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O75" s="15" t="n">
-        <v>8.4</v>
+        <v>26.77</v>
       </c>
       <c r="P75" s="7" t="n">
-        <v>619</v>
+        <v>667</v>
       </c>
       <c r="Q75" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R75" s="16" t="n">
-        <v>18.02</v>
+        <v>14.05</v>
       </c>
       <c r="T75" s="5" t="n"/>
     </row>
     <row r="76" ht="13" customHeight="1">
       <c r="B76" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C76" s="7" t="inlineStr">
         <is>
-          <t>Camilla Kristiane Mendes Uldal</t>
+          <t>Mia Mathilda Andersen</t>
         </is>
       </c>
       <c r="D76" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E76" s="15" t="n">
-        <v>26.86</v>
+        <v>2009</v>
+      </c>
+      <c r="E76" s="17" t="inlineStr">
+        <is>
+          <t>2,24,28</t>
+        </is>
       </c>
       <c r="F76" s="7" t="n">
-        <v>660</v>
+        <v>618</v>
       </c>
       <c r="G76" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H76" s="16" t="n">
-        <v>16.06</v>
+        <v>14.05</v>
       </c>
       <c r="J76" s="5" t="n"/>
       <c r="L76" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M76" s="7" t="inlineStr">
         <is>
-          <t>Mia Mathilda Andersen</t>
+          <t>Camilla Kristiane Mendes Uldal</t>
         </is>
       </c>
       <c r="N76" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O76" s="17" t="inlineStr">
-        <is>
-          <t>2,24,28</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="O76" s="15" t="n">
+        <v>26.86</v>
       </c>
       <c r="P76" s="7" t="n">
-        <v>618</v>
+        <v>660</v>
       </c>
       <c r="Q76" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R76" s="16" t="n">
-        <v>14.05</v>
+        <v>16.06</v>
       </c>
       <c r="T76" s="5" t="n"/>
     </row>
     <row r="77" ht="13" customHeight="1">
       <c r="B77" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C77" s="7" t="inlineStr">
         <is>
-          <t>Emma Frigstad-Thorkildsen</t>
+          <t>Sophia Borgen</t>
         </is>
       </c>
       <c r="D77" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="E77" s="15" t="n">
-        <v>13.17</v>
+        <v>8.43</v>
       </c>
       <c r="F77" s="7" t="n">
-        <v>642</v>
+        <v>611</v>
       </c>
       <c r="G77" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H77" s="16" t="n">
-        <v>14.05</v>
+        <v>11.02</v>
       </c>
       <c r="J77" s="5" t="n"/>
       <c r="L77" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M77" s="7" t="inlineStr">
         <is>
-          <t>Sophia Borgen</t>
+          <t>Emma Frigstad-Thorkildsen</t>
         </is>
       </c>
       <c r="N77" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="O77" s="15" t="n">
-        <v>8.43</v>
+        <v>13.17</v>
       </c>
       <c r="P77" s="7" t="n">
-        <v>611</v>
+        <v>642</v>
       </c>
       <c r="Q77" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R77" s="16" t="n">
-        <v>11.02</v>
+        <v>14.05</v>
       </c>
       <c r="T77" s="5" t="n"/>
     </row>
     <row r="78" ht="13" customHeight="1">
       <c r="B78" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C78" s="7" t="inlineStr">
         <is>
-          <t>Camilla Kristiane Mendes Uldal</t>
+          <t>Celine Krüger Henningsen</t>
         </is>
       </c>
       <c r="D78" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E78" s="15" t="n">
-        <v>13.2</v>
+        <v>2009</v>
+      </c>
+      <c r="E78" s="17" t="inlineStr">
+        <is>
+          <t>5,00,55</t>
+        </is>
       </c>
       <c r="F78" s="7" t="n">
-        <v>637</v>
+        <v>609</v>
       </c>
       <c r="G78" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H78" s="16" t="n">
-        <v>14.05</v>
+        <v>18.06</v>
       </c>
       <c r="J78" s="5" t="n"/>
       <c r="L78" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M78" s="7" t="inlineStr">
         <is>
-          <t>Celine Krüger Henningsen</t>
+          <t>Camilla Kristiane Mendes Uldal</t>
         </is>
       </c>
       <c r="N78" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O78" s="17" t="inlineStr">
-        <is>
-          <t>5,00,55</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="O78" s="15" t="n">
+        <v>13.2</v>
       </c>
       <c r="P78" s="7" t="n">
-        <v>609</v>
+        <v>637</v>
       </c>
       <c r="Q78" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R78" s="16" t="n">
-        <v>18.06</v>
+        <v>14.05</v>
       </c>
       <c r="T78" s="5" t="n"/>
     </row>
     <row r="79" ht="13" customHeight="1">
       <c r="B79" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C79" s="7" t="inlineStr">
         <is>
-          <t>Tora Ugland Damsgaard</t>
+          <t>Mia Mathilda Andersen</t>
         </is>
       </c>
       <c r="D79" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E79" s="15" t="n">
-        <v>5.04</v>
+        <v>2009</v>
+      </c>
+      <c r="E79" s="17" t="inlineStr">
+        <is>
+          <t>5,02,32</t>
+        </is>
       </c>
       <c r="F79" s="7" t="n">
-        <v>627</v>
+        <v>599</v>
       </c>
       <c r="G79" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H79" s="16" t="n">
-        <v>22.01</v>
+        <v>18.06</v>
       </c>
       <c r="J79" s="5" t="n"/>
       <c r="L79" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M79" s="7" t="inlineStr">
         <is>
-          <t>Mia Mathilda Andersen</t>
+          <t>Tora Ugland Damsgaard</t>
         </is>
       </c>
       <c r="N79" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O79" s="17" t="inlineStr">
-        <is>
-          <t>5,02,32</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="O79" s="15" t="n">
+        <v>5.04</v>
       </c>
       <c r="P79" s="7" t="n">
-        <v>599</v>
+        <v>627</v>
       </c>
       <c r="Q79" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R79" s="16" t="n">
-        <v>18.06</v>
+        <v>22.01</v>
       </c>
       <c r="T79" s="5" t="n"/>
     </row>
@@ -49874,17 +49876,17 @@
       </c>
       <c r="C80" s="7" t="inlineStr">
         <is>
-          <t>Marie Mollestad</t>
+          <t>Alma Iben Graver Kolseth</t>
         </is>
       </c>
       <c r="D80" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E80" s="15" t="n">
-        <v>27.36</v>
+        <v>27.87</v>
       </c>
       <c r="F80" s="7" t="n">
-        <v>624</v>
+        <v>588</v>
       </c>
       <c r="G80" s="7" t="inlineStr">
         <is>
@@ -49892,7 +49894,7 @@
         </is>
       </c>
       <c r="H80" s="16" t="n">
-        <v>17.06</v>
+        <v>12.02</v>
       </c>
       <c r="J80" s="5" t="n"/>
       <c r="L80" s="14" t="inlineStr">
@@ -49902,17 +49904,17 @@
       </c>
       <c r="M80" s="7" t="inlineStr">
         <is>
-          <t>Alma Iben Graver Kolseth</t>
+          <t>Marie Mollestad</t>
         </is>
       </c>
       <c r="N80" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="O80" s="15" t="n">
-        <v>27.87</v>
+        <v>27.36</v>
       </c>
       <c r="P80" s="7" t="n">
-        <v>588</v>
+        <v>624</v>
       </c>
       <c r="Q80" s="7" t="inlineStr">
         <is>
@@ -49920,127 +49922,127 @@
         </is>
       </c>
       <c r="R80" s="16" t="n">
-        <v>12.02</v>
+        <v>17.06</v>
       </c>
       <c r="T80" s="5" t="n"/>
     </row>
     <row r="81" ht="13" customHeight="1">
       <c r="B81" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C81" s="7" t="inlineStr">
         <is>
-          <t>Eline Heia</t>
+          <t>Maria Elisabet M. Damhaug</t>
         </is>
       </c>
       <c r="D81" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E81" s="15" t="n">
-        <v>8.42</v>
+        <v>2008</v>
+      </c>
+      <c r="E81" s="17" t="inlineStr">
+        <is>
+          <t>1,03,08</t>
+        </is>
       </c>
       <c r="F81" s="7" t="n">
-        <v>614</v>
+        <v>587</v>
       </c>
       <c r="G81" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H81" s="16" t="n">
-        <v>28.01</v>
+        <v>18.06</v>
       </c>
       <c r="J81" s="5" t="n"/>
       <c r="L81" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M81" s="7" t="inlineStr">
         <is>
-          <t>Maria Elisabet M. Damhaug</t>
+          <t>Eline Heia</t>
         </is>
       </c>
       <c r="N81" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O81" s="17" t="inlineStr">
-        <is>
-          <t>1,03,08</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="O81" s="15" t="n">
+        <v>8.42</v>
       </c>
       <c r="P81" s="7" t="n">
-        <v>587</v>
+        <v>614</v>
       </c>
       <c r="Q81" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R81" s="16" t="n">
-        <v>18.06</v>
+        <v>28.01</v>
       </c>
       <c r="T81" s="5" t="n"/>
     </row>
     <row r="82" ht="13" customHeight="1">
       <c r="B82" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C82" s="7" t="inlineStr">
         <is>
-          <t>Tora Ugland Damsgaard</t>
+          <t>Maylem Lauvstad</t>
         </is>
       </c>
       <c r="D82" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E82" s="15" t="n">
-        <v>1.25</v>
+        <v>1973</v>
+      </c>
+      <c r="E82" s="17" t="inlineStr">
+        <is>
+          <t>1,03,28</t>
+        </is>
       </c>
       <c r="F82" s="7" t="n">
-        <v>609</v>
+        <v>582</v>
       </c>
       <c r="G82" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Torun/POL</t>
         </is>
       </c>
       <c r="H82" s="16" t="n">
-        <v>18.02</v>
+        <v>28.03</v>
       </c>
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M82" s="7" t="inlineStr">
         <is>
-          <t>Maylem Lauvstad</t>
+          <t>Tora Ugland Damsgaard</t>
         </is>
       </c>
       <c r="N82" s="7" t="n">
-        <v>1973</v>
-      </c>
-      <c r="O82" s="17" t="inlineStr">
-        <is>
-          <t>1,03,28</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="O82" s="15" t="n">
+        <v>1.25</v>
       </c>
       <c r="P82" s="7" t="n">
-        <v>582</v>
+        <v>609</v>
       </c>
       <c r="Q82" s="7" t="inlineStr">
         <is>
-          <t>Torun/POL</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R82" s="16" t="n">
-        <v>28.03</v>
+        <v>18.02</v>
       </c>
       <c r="T82" s="5" t="n"/>
     </row>
@@ -50052,17 +50054,17 @@
       </c>
       <c r="C83" s="7" t="inlineStr">
         <is>
-          <t>Camilla Kristiane Mendes Uldal</t>
+          <t>Eline Folvik</t>
         </is>
       </c>
       <c r="D83" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="E83" s="15" t="n">
-        <v>4.93</v>
+        <v>4.75</v>
       </c>
       <c r="F83" s="7" t="n">
-        <v>603</v>
+        <v>564</v>
       </c>
       <c r="G83" s="7" t="inlineStr">
         <is>
@@ -50070,7 +50072,7 @@
         </is>
       </c>
       <c r="H83" s="16" t="n">
-        <v>18.06</v>
+        <v>11.02</v>
       </c>
       <c r="J83" s="5" t="n"/>
       <c r="L83" s="14" t="inlineStr">
@@ -50080,17 +50082,17 @@
       </c>
       <c r="M83" s="7" t="inlineStr">
         <is>
-          <t>Eline Folvik</t>
+          <t>Camilla Kristiane Mendes Uldal</t>
         </is>
       </c>
       <c r="N83" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="O83" s="15" t="n">
-        <v>4.75</v>
+        <v>4.93</v>
       </c>
       <c r="P83" s="7" t="n">
-        <v>564</v>
+        <v>603</v>
       </c>
       <c r="Q83" s="7" t="inlineStr">
         <is>
@@ -50098,183 +50100,183 @@
         </is>
       </c>
       <c r="R83" s="16" t="n">
-        <v>11.02</v>
+        <v>18.06</v>
       </c>
       <c r="T83" s="5" t="n"/>
     </row>
     <row r="84" ht="13" customHeight="1">
       <c r="B84" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C84" s="7" t="inlineStr">
         <is>
-          <t>Emma Frigstad-Thorkildsen</t>
+          <t>Ida Yessica Nesse</t>
         </is>
       </c>
       <c r="D84" s="7" t="n">
-        <v>2006</v>
+        <v>1992</v>
       </c>
       <c r="E84" s="15" t="n">
-        <v>8.460000000000001</v>
+        <v>28.4</v>
       </c>
       <c r="F84" s="7" t="n">
-        <v>603</v>
+        <v>555</v>
       </c>
       <c r="G84" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Spikkestad</t>
         </is>
       </c>
       <c r="H84" s="16" t="n">
-        <v>28.01</v>
+        <v>26.08</v>
       </c>
       <c r="J84" s="5" t="n"/>
       <c r="L84" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M84" s="7" t="inlineStr">
         <is>
-          <t>Lene Berger</t>
+          <t>Emma Frigstad-Thorkildsen</t>
         </is>
       </c>
       <c r="N84" s="7" t="n">
-        <v>1981</v>
+        <v>2006</v>
       </c>
       <c r="O84" s="15" t="n">
-        <v>30.01</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="P84" s="7" t="n">
-        <v>547</v>
+        <v>603</v>
       </c>
       <c r="Q84" s="7" t="inlineStr">
         <is>
-          <t>Geithus</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R84" s="16" t="n">
-        <v>24.06</v>
+        <v>28.01</v>
       </c>
       <c r="T84" s="5" t="n"/>
     </row>
     <row r="85" ht="13" customHeight="1">
       <c r="B85" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C85" s="7" t="inlineStr">
         <is>
-          <t>Amalie Heisel Westgaard</t>
+          <t>Lene Berger</t>
         </is>
       </c>
       <c r="D85" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E85" s="17" t="inlineStr">
-        <is>
-          <t>2,25,80</t>
-        </is>
+        <v>1981</v>
+      </c>
+      <c r="E85" s="15" t="n">
+        <v>30.01</v>
       </c>
       <c r="F85" s="7" t="n">
-        <v>601</v>
+        <v>547</v>
       </c>
       <c r="G85" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Geithus</t>
         </is>
       </c>
       <c r="H85" s="16" t="n">
-        <v>18.03</v>
+        <v>24.06</v>
       </c>
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M85" s="7" t="inlineStr">
         <is>
-          <t>Anna Driesprong Langerød</t>
+          <t>Amalie Heisel Westgaard</t>
         </is>
       </c>
       <c r="N85" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O85" s="15" t="n">
-        <v>9.81</v>
+        <v>2007</v>
+      </c>
+      <c r="O85" s="17" t="inlineStr">
+        <is>
+          <t>2,25,80</t>
+        </is>
       </c>
       <c r="P85" s="7" t="n">
-        <v>538</v>
+        <v>601</v>
       </c>
       <c r="Q85" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R85" s="16" t="n">
-        <v>18.06</v>
+        <v>18.03</v>
       </c>
       <c r="T85" s="5" t="n"/>
     </row>
     <row r="86" ht="13" customHeight="1">
       <c r="B86" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C86" s="7" t="inlineStr">
         <is>
-          <t>Julie Lunde</t>
+          <t>Anna Driesprong Langerød</t>
         </is>
       </c>
       <c r="D86" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E86" s="15" t="n">
-        <v>4.71</v>
+        <v>9.81</v>
       </c>
       <c r="F86" s="7" t="n">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="G86" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H86" s="16" t="n">
-        <v>4.06</v>
+        <v>18.06</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M86" s="7" t="inlineStr">
         <is>
-          <t>Sophia Borgen</t>
+          <t>Julie Lunde</t>
         </is>
       </c>
       <c r="N86" s="7" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="O86" s="15" t="n">
-        <v>2.35</v>
+        <v>4.71</v>
       </c>
       <c r="P86" s="7" t="n">
-        <v>532</v>
+        <v>555</v>
       </c>
       <c r="Q86" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R86" s="16" t="n">
-        <v>23.03</v>
+        <v>4.06</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -50311,7 +50313,7 @@
         </is>
       </c>
       <c r="F88" s="20" t="n">
-        <v>7442</v>
+        <v>7017</v>
       </c>
       <c r="J88" s="5" t="n"/>
       <c r="L88" s="19" t="inlineStr">
@@ -50328,7 +50330,7 @@
         </is>
       </c>
       <c r="P88" s="20" t="n">
-        <v>6994</v>
+        <v>7442</v>
       </c>
       <c r="T88" s="5" t="n"/>
     </row>
@@ -50351,7 +50353,7 @@
         </is>
       </c>
       <c r="F90" s="20" t="n">
-        <v>15297</v>
+        <v>15312</v>
       </c>
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="19" t="inlineStr">
@@ -50368,7 +50370,7 @@
         </is>
       </c>
       <c r="P90" s="20" t="n">
-        <v>15289</v>
+        <v>15297</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
@@ -50383,7 +50385,7 @@
         </is>
       </c>
       <c r="C92" s="20" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J92" s="5" t="n"/>
       <c r="L92" s="19" t="inlineStr">
@@ -50392,7 +50394,7 @@
         </is>
       </c>
       <c r="M92" s="20" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="T92" s="5" t="n"/>
     </row>
@@ -52652,17 +52654,17 @@
       </c>
       <c r="C152" s="7" t="inlineStr">
         <is>
-          <t>Celine Clausen Azyrov</t>
+          <t>Ingrid Mæland Andersen</t>
         </is>
       </c>
       <c r="D152" s="7" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="E152" s="15" t="n">
-        <v>29.29</v>
+        <v>28.62</v>
       </c>
       <c r="F152" s="7" t="n">
-        <v>494</v>
+        <v>537</v>
       </c>
       <c r="G152" s="7" t="inlineStr">
         <is>
@@ -52670,7 +52672,7 @@
         </is>
       </c>
       <c r="H152" s="16" t="n">
-        <v>18.06</v>
+        <v>12.02</v>
       </c>
       <c r="J152" s="5" t="n"/>
       <c r="L152" s="14" t="inlineStr">
@@ -52710,27 +52712,27 @@
       </c>
       <c r="C153" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Mæland Andersen</t>
+          <t>Vilde Fredriksen</t>
         </is>
       </c>
       <c r="D153" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E153" s="17" t="inlineStr">
         <is>
-          <t>1,09,44</t>
+          <t>1,08,48</t>
         </is>
       </c>
       <c r="F153" s="7" t="n">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="G153" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sarpsborg</t>
         </is>
       </c>
       <c r="H153" s="16" t="n">
-        <v>18.06</v>
+        <v>20.08</v>
       </c>
       <c r="J153" s="5" t="n"/>
       <c r="L153" s="14" t="inlineStr">
@@ -52931,10 +52933,10 @@
         <v>2008</v>
       </c>
       <c r="O156" s="15" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="P156" s="7" t="n">
-        <v>609</v>
+        <v>651</v>
       </c>
       <c r="Q156" s="7" t="inlineStr">
         <is>
@@ -52942,7 +52944,7 @@
         </is>
       </c>
       <c r="R156" s="16" t="n">
-        <v>25.06</v>
+        <v>23.08</v>
       </c>
       <c r="T156" s="5" t="n"/>
     </row>
@@ -53329,7 +53331,7 @@
         </is>
       </c>
       <c r="F164" s="20" t="n">
-        <v>7856</v>
+        <v>7919</v>
       </c>
       <c r="J164" s="5" t="n"/>
       <c r="L164" s="19" t="inlineStr">
@@ -53346,7 +53348,7 @@
         </is>
       </c>
       <c r="P164" s="20" t="n">
-        <v>7721</v>
+        <v>7763</v>
       </c>
       <c r="T164" s="5" t="n"/>
     </row>
@@ -53702,19 +53704,19 @@
       </c>
       <c r="E173" s="17" t="inlineStr">
         <is>
-          <t>2,31,40</t>
+          <t>2,27,44</t>
         </is>
       </c>
       <c r="F173" s="7" t="n">
-        <v>544</v>
+        <v>584</v>
       </c>
       <c r="G173" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sarpsborg</t>
         </is>
       </c>
       <c r="H173" s="16" t="n">
-        <v>14.01</v>
+        <v>19.08</v>
       </c>
       <c r="J173" s="5" t="n"/>
       <c r="L173" s="14" t="inlineStr">
@@ -54185,7 +54187,7 @@
         </is>
       </c>
       <c r="F182" s="20" t="n">
-        <v>6708</v>
+        <v>6748</v>
       </c>
       <c r="J182" s="5" t="n"/>
       <c r="L182" s="19" t="inlineStr">
@@ -54225,7 +54227,7 @@
         </is>
       </c>
       <c r="F184" s="20" t="n">
-        <v>14564</v>
+        <v>14667</v>
       </c>
       <c r="J184" s="5" t="n"/>
       <c r="L184" s="19" t="inlineStr">
@@ -54242,7 +54244,7 @@
         </is>
       </c>
       <c r="P184" s="20" t="n">
-        <v>14255</v>
+        <v>14297</v>
       </c>
       <c r="T184" s="5" t="n"/>
     </row>
@@ -54257,7 +54259,7 @@
         </is>
       </c>
       <c r="C186" s="20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J186" s="5" t="n"/>
       <c r="L186" s="19" t="inlineStr">
@@ -55191,10 +55193,10 @@
         <v>2001</v>
       </c>
       <c r="E209" s="15" t="n">
-        <v>52.55</v>
+        <v>52.96</v>
       </c>
       <c r="F209" s="7" t="n">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="G209" s="7" t="inlineStr">
         <is>
@@ -55202,7 +55204,7 @@
         </is>
       </c>
       <c r="H209" s="16" t="n">
-        <v>22.07</v>
+        <v>20.08</v>
       </c>
       <c r="J209" s="5" t="n"/>
       <c r="L209" s="14" t="n"/>
@@ -55247,7 +55249,7 @@
         </is>
       </c>
       <c r="F211" s="20" t="n">
-        <v>7773</v>
+        <v>7778</v>
       </c>
       <c r="J211" s="5" t="n"/>
       <c r="L211" s="19" t="inlineStr">
@@ -56133,7 +56135,7 @@
         </is>
       </c>
       <c r="F231" s="20" t="n">
-        <v>14189</v>
+        <v>14194</v>
       </c>
       <c r="J231" s="5" t="n"/>
       <c r="L231" s="19" t="inlineStr">
@@ -57081,18 +57083,18 @@
         <v>2003</v>
       </c>
       <c r="E256" s="15" t="n">
-        <v>50.84</v>
+        <v>52.98</v>
       </c>
       <c r="F256" s="7" t="n">
-        <v>819</v>
+        <v>844</v>
       </c>
       <c r="G256" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Brandbu</t>
         </is>
       </c>
       <c r="H256" s="16" t="n">
-        <v>1.07</v>
+        <v>28.08</v>
       </c>
       <c r="J256" s="5" t="n"/>
       <c r="L256" s="14" t="n"/>
@@ -57137,7 +57139,7 @@
         </is>
       </c>
       <c r="F258" s="20" t="n">
-        <v>7192</v>
+        <v>7217</v>
       </c>
       <c r="J258" s="5" t="n"/>
       <c r="L258" s="19" t="inlineStr">
@@ -58033,7 +58035,7 @@
         </is>
       </c>
       <c r="F278" s="20" t="n">
-        <v>12923</v>
+        <v>12948</v>
       </c>
       <c r="J278" s="5" t="n"/>
       <c r="L278" s="19" t="inlineStr">

--- a/output/Lagserien 2023 1-2. div.xlsx
+++ b/output/Lagserien 2023 1-2. div.xlsx
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>22730</v>
+        <v>22794</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
@@ -938,11 +938,11 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>(29/10)</t>
+          <t>(29/11)</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>18932</v>
+        <v>18972</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -10389,15 +10389,15 @@
       </c>
       <c r="C221" s="7" t="inlineStr">
         <is>
-          <t>Andreas Vangsnes</t>
+          <t>Sander Dybwad Mathiesen</t>
         </is>
       </c>
       <c r="D221" s="7" t="n">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="E221" s="17" t="inlineStr">
         <is>
-          <t>1,50,37</t>
+          <t>1,50,35</t>
         </is>
       </c>
       <c r="F221" s="7" t="n">
@@ -10405,11 +10405,11 @@
       </c>
       <c r="G221" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Szczecin/POL</t>
         </is>
       </c>
       <c r="H221" s="16" t="n">
-        <v>19.02</v>
+        <v>6.09</v>
       </c>
       <c r="J221" s="5" t="n"/>
       <c r="L221" s="14" t="inlineStr">
@@ -11184,18 +11184,18 @@
         <v>2001</v>
       </c>
       <c r="E238" s="15" t="n">
-        <v>5.51</v>
+        <v>5.57</v>
       </c>
       <c r="F238" s="7" t="n">
-        <v>1016</v>
+        <v>1030</v>
       </c>
       <c r="G238" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Szczecin/POL</t>
         </is>
       </c>
       <c r="H238" s="16" t="n">
-        <v>26.08</v>
+        <v>6.09</v>
       </c>
       <c r="J238" s="5" t="n"/>
       <c r="L238" s="14" t="inlineStr">
@@ -11232,7 +11232,7 @@
     <row r="239" ht="13" customHeight="1">
       <c r="B239" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C239" s="7" t="inlineStr">
@@ -11245,19 +11245,19 @@
       </c>
       <c r="E239" s="17" t="inlineStr">
         <is>
-          <t>3,46,89</t>
+          <t>1,50,37</t>
         </is>
       </c>
       <c r="F239" s="7" t="n">
-        <v>899</v>
+        <v>907</v>
       </c>
       <c r="G239" s="7" t="inlineStr">
         <is>
-          <t>Hvam</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H239" s="16" t="n">
-        <v>4.02</v>
+        <v>19.02</v>
       </c>
       <c r="J239" s="5" t="n"/>
       <c r="L239" s="14" t="inlineStr">
@@ -11292,32 +11292,32 @@
     <row r="240" ht="13" customHeight="1">
       <c r="B240" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C240" s="7" t="inlineStr">
         <is>
-          <t>Theodor Berre Jacobsen</t>
+          <t>Andreas Vangsnes</t>
         </is>
       </c>
       <c r="D240" s="7" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E240" s="17" t="inlineStr">
         <is>
-          <t>14,10,40</t>
+          <t>3,46,89</t>
         </is>
       </c>
       <c r="F240" s="7" t="n">
-        <v>892</v>
+        <v>899</v>
       </c>
       <c r="G240" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="H240" s="16" t="n">
-        <v>20.05</v>
+        <v>4.02</v>
       </c>
       <c r="J240" s="5" t="n"/>
       <c r="L240" s="14" t="inlineStr">
@@ -11354,32 +11354,32 @@
     <row r="241" ht="13" customHeight="1">
       <c r="B241" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C241" s="7" t="inlineStr">
         <is>
-          <t>Sander Dybwad Mathiesen</t>
+          <t>Theodor Berre Jacobsen</t>
         </is>
       </c>
       <c r="D241" s="7" t="n">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="E241" s="17" t="inlineStr">
         <is>
-          <t>1,52,30</t>
+          <t>14,10,40</t>
         </is>
       </c>
       <c r="F241" s="7" t="n">
-        <v>857</v>
+        <v>892</v>
       </c>
       <c r="G241" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H241" s="16" t="n">
-        <v>11.08</v>
+        <v>20.05</v>
       </c>
       <c r="J241" s="5" t="n"/>
       <c r="L241" s="14" t="inlineStr">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="F254" s="20" t="n">
-        <v>10189</v>
+        <v>10253</v>
       </c>
       <c r="J254" s="5" t="n"/>
       <c r="L254" s="19" t="inlineStr">
@@ -12136,7 +12136,7 @@
         </is>
       </c>
       <c r="F256" s="20" t="n">
-        <v>22730</v>
+        <v>22794</v>
       </c>
       <c r="J256" s="5" t="n"/>
       <c r="L256" s="19" t="inlineStr">
@@ -16040,22 +16040,24 @@
     <row r="350" ht="13" customHeight="1">
       <c r="B350" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C350" s="7" t="inlineStr">
         <is>
-          <t>Eirik Reigstad</t>
+          <t>Daniel Bruvik</t>
         </is>
       </c>
       <c r="D350" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E350" s="15" t="n">
-        <v>7.67</v>
+        <v>1996</v>
+      </c>
+      <c r="E350" s="17" t="inlineStr">
+        <is>
+          <t>9,37,78</t>
+        </is>
       </c>
       <c r="F350" s="7" t="n">
-        <v>600</v>
+        <v>557</v>
       </c>
       <c r="G350" s="7" t="inlineStr">
         <is>
@@ -16063,7 +16065,7 @@
         </is>
       </c>
       <c r="H350" s="16" t="n">
-        <v>5.07</v>
+        <v>14.08</v>
       </c>
       <c r="J350" s="5" t="n"/>
       <c r="L350" s="14" t="inlineStr">
@@ -16100,7 +16102,7 @@
     <row r="351" ht="13" customHeight="1">
       <c r="B351" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C351" s="7" t="inlineStr">
@@ -16113,11 +16115,11 @@
       </c>
       <c r="E351" s="17" t="inlineStr">
         <is>
-          <t>9,37,78</t>
+          <t>16,52,24</t>
         </is>
       </c>
       <c r="F351" s="7" t="n">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="G351" s="7" t="inlineStr">
         <is>
@@ -16125,7 +16127,7 @@
         </is>
       </c>
       <c r="H351" s="16" t="n">
-        <v>14.08</v>
+        <v>5.07</v>
       </c>
       <c r="J351" s="5" t="n"/>
       <c r="L351" s="14" t="inlineStr">
@@ -16160,32 +16162,30 @@
     <row r="352" ht="13" customHeight="1">
       <c r="B352" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C352" s="7" t="inlineStr">
         <is>
-          <t>Daniel Bruvik</t>
+          <t>Magnus Reigstad</t>
         </is>
       </c>
       <c r="D352" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="E352" s="17" t="inlineStr">
-        <is>
-          <t>16,52,24</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="E352" s="15" t="n">
+        <v>1.36</v>
       </c>
       <c r="F352" s="7" t="n">
-        <v>548</v>
+        <v>515</v>
       </c>
       <c r="G352" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="H352" s="16" t="n">
-        <v>5.07</v>
+        <v>16.01</v>
       </c>
       <c r="J352" s="5" t="n"/>
       <c r="L352" s="14" t="n"/>
@@ -16205,25 +16205,25 @@
       </c>
       <c r="C353" s="7" t="inlineStr">
         <is>
-          <t>Magnus Reigstad</t>
+          <t>Eirik Reigstad</t>
         </is>
       </c>
       <c r="D353" s="7" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E353" s="15" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="F353" s="7" t="n">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="G353" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H353" s="16" t="n">
-        <v>16.01</v>
+        <v>10.02</v>
       </c>
       <c r="J353" s="5" t="n"/>
       <c r="L353" s="14" t="n"/>
@@ -16238,22 +16238,24 @@
     <row r="354" ht="13" customHeight="1">
       <c r="B354" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C354" s="7" t="inlineStr">
         <is>
-          <t>Magnus Reigstad</t>
+          <t>Noah Raknes</t>
         </is>
       </c>
       <c r="D354" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E354" s="15" t="n">
-        <v>2.61</v>
+        <v>2005</v>
+      </c>
+      <c r="E354" s="17" t="inlineStr">
+        <is>
+          <t>2,12,72</t>
+        </is>
       </c>
       <c r="F354" s="7" t="n">
-        <v>447</v>
+        <v>488</v>
       </c>
       <c r="G354" s="7" t="inlineStr">
         <is>
@@ -16261,7 +16263,7 @@
         </is>
       </c>
       <c r="H354" s="16" t="n">
-        <v>16.01</v>
+        <v>5.08</v>
       </c>
       <c r="J354" s="5" t="n"/>
       <c r="L354" s="14" t="n"/>
@@ -16281,17 +16283,17 @@
       </c>
       <c r="C355" s="7" t="inlineStr">
         <is>
-          <t>Magnus Reigstad</t>
+          <t>Andreas Markmanrud</t>
         </is>
       </c>
       <c r="D355" s="7" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="E355" s="15" t="n">
-        <v>34.73</v>
+        <v>37.81</v>
       </c>
       <c r="F355" s="7" t="n">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="G355" s="7" t="inlineStr">
         <is>
@@ -16299,7 +16301,7 @@
         </is>
       </c>
       <c r="H355" s="16" t="n">
-        <v>28.06</v>
+        <v>4.09</v>
       </c>
       <c r="J355" s="5" t="n"/>
       <c r="L355" s="14" t="n"/>
@@ -16314,22 +16316,22 @@
     <row r="356" ht="13" customHeight="1">
       <c r="B356" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C356" s="7" t="inlineStr">
         <is>
-          <t>Sander Solberg Hopsdal</t>
+          <t>Magnus Reigstad</t>
         </is>
       </c>
       <c r="D356" s="7" t="n">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="E356" s="15" t="n">
-        <v>1.27</v>
+        <v>2.61</v>
       </c>
       <c r="F356" s="7" t="n">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="G356" s="7" t="inlineStr">
         <is>
@@ -16337,7 +16339,7 @@
         </is>
       </c>
       <c r="H356" s="16" t="n">
-        <v>6.03</v>
+        <v>16.01</v>
       </c>
       <c r="J356" s="5" t="n"/>
       <c r="L356" s="14" t="n"/>
@@ -16382,7 +16384,7 @@
         </is>
       </c>
       <c r="F358" s="20" t="n">
-        <v>8997</v>
+        <v>9037</v>
       </c>
       <c r="J358" s="5" t="n"/>
       <c r="L358" s="19" t="inlineStr">
@@ -16422,7 +16424,7 @@
         </is>
       </c>
       <c r="F360" s="20" t="n">
-        <v>18932</v>
+        <v>18972</v>
       </c>
       <c r="J360" s="5" t="n"/>
       <c r="L360" s="19" t="inlineStr">
@@ -16454,7 +16456,7 @@
         </is>
       </c>
       <c r="C362" s="20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J362" s="5" t="n"/>
       <c r="L362" s="19" t="inlineStr">
@@ -16663,7 +16665,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>17325</v>
+        <v>17341</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -16887,7 +16889,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>14800</v>
+        <v>15433</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -19293,18 +19295,18 @@
         <v>2006</v>
       </c>
       <c r="O58" s="15" t="n">
-        <v>23.73</v>
+        <v>23.57</v>
       </c>
       <c r="P58" s="7" t="n">
-        <v>674</v>
+        <v>690</v>
       </c>
       <c r="Q58" s="7" t="inlineStr">
         <is>
-          <t>Leirvik</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R58" s="16" t="n">
-        <v>13.08</v>
+        <v>2.09</v>
       </c>
       <c r="T58" s="5" t="n"/>
     </row>
@@ -19954,7 +19956,7 @@
         </is>
       </c>
       <c r="P70" s="20" t="n">
-        <v>9385</v>
+        <v>9401</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
@@ -20856,7 +20858,7 @@
         </is>
       </c>
       <c r="P90" s="20" t="n">
-        <v>17325</v>
+        <v>17341</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
@@ -27047,32 +27049,32 @@
       <c r="J249" s="5" t="n"/>
       <c r="L249" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M249" s="7" t="inlineStr">
         <is>
-          <t>Filip Nåvik</t>
+          <t>Mats Engelund Hellerud</t>
         </is>
       </c>
       <c r="N249" s="7" t="n">
-        <v>2008</v>
+        <v>1992</v>
       </c>
       <c r="O249" s="17" t="inlineStr">
         <is>
-          <t>4,57,12</t>
+          <t>9,29,54</t>
         </is>
       </c>
       <c r="P249" s="7" t="n">
-        <v>367</v>
+        <v>584</v>
       </c>
       <c r="Q249" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R249" s="16" t="n">
-        <v>23.06</v>
+        <v>19.04</v>
       </c>
       <c r="T249" s="5" t="n"/>
     </row>
@@ -27109,32 +27111,30 @@
       <c r="J250" s="5" t="n"/>
       <c r="L250" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M250" s="7" t="inlineStr">
         <is>
-          <t>Mats Engelund Hellerud</t>
+          <t>Melvin Tollefsen</t>
         </is>
       </c>
       <c r="N250" s="7" t="n">
-        <v>1992</v>
-      </c>
-      <c r="O250" s="17" t="inlineStr">
-        <is>
-          <t>9,29,54</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O250" s="15" t="n">
+        <v>1.83</v>
       </c>
       <c r="P250" s="7" t="n">
-        <v>584</v>
+        <v>678</v>
       </c>
       <c r="Q250" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Askim</t>
         </is>
       </c>
       <c r="R250" s="16" t="n">
-        <v>19.04</v>
+        <v>7.01</v>
       </c>
       <c r="T250" s="5" t="n"/>
     </row>
@@ -27171,7 +27171,7 @@
       <c r="J251" s="5" t="n"/>
       <c r="L251" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M251" s="7" t="inlineStr">
@@ -27183,18 +27183,18 @@
         <v>2007</v>
       </c>
       <c r="O251" s="15" t="n">
-        <v>1.83</v>
+        <v>4.04</v>
       </c>
       <c r="P251" s="7" t="n">
-        <v>678</v>
+        <v>728</v>
       </c>
       <c r="Q251" s="7" t="inlineStr">
         <is>
-          <t>Askim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R251" s="16" t="n">
-        <v>7.01</v>
+        <v>14.01</v>
       </c>
       <c r="T251" s="5" t="n"/>
     </row>
@@ -27229,7 +27229,7 @@
       <c r="J252" s="5" t="n"/>
       <c r="L252" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M252" s="7" t="inlineStr">
@@ -27241,18 +27241,18 @@
         <v>2007</v>
       </c>
       <c r="O252" s="15" t="n">
-        <v>4.04</v>
+        <v>6.08</v>
       </c>
       <c r="P252" s="7" t="n">
-        <v>728</v>
+        <v>624</v>
       </c>
       <c r="Q252" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R252" s="16" t="n">
-        <v>14.01</v>
+        <v>4.03</v>
       </c>
       <c r="T252" s="5" t="n"/>
     </row>
@@ -27287,22 +27287,22 @@
       <c r="J253" s="5" t="n"/>
       <c r="L253" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M253" s="7" t="inlineStr">
         <is>
-          <t>Melvin Tollefsen</t>
+          <t>Jesper Sandvik Bjerk</t>
         </is>
       </c>
       <c r="N253" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O253" s="15" t="n">
-        <v>6.08</v>
+        <v>12.68</v>
       </c>
       <c r="P253" s="7" t="n">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="Q253" s="7" t="inlineStr">
         <is>
@@ -27310,7 +27310,7 @@
         </is>
       </c>
       <c r="R253" s="16" t="n">
-        <v>4.03</v>
+        <v>3.03</v>
       </c>
       <c r="T253" s="5" t="n"/>
     </row>
@@ -27345,30 +27345,30 @@
       <c r="J254" s="5" t="n"/>
       <c r="L254" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M254" s="7" t="inlineStr">
         <is>
-          <t>Jesper Sandvik Bjerk</t>
+          <t>Atcha M. Prommetta</t>
         </is>
       </c>
       <c r="N254" s="7" t="n">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="O254" s="15" t="n">
-        <v>12.68</v>
+        <v>1.45</v>
       </c>
       <c r="P254" s="7" t="n">
-        <v>635</v>
+        <v>616</v>
       </c>
       <c r="Q254" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R254" s="16" t="n">
-        <v>3.03</v>
+        <v>3.09</v>
       </c>
       <c r="T254" s="5" t="n"/>
     </row>
@@ -27408,25 +27408,25 @@
       </c>
       <c r="M255" s="7" t="inlineStr">
         <is>
-          <t>Filip Nåvik</t>
+          <t>Atcha M. Prommetta</t>
         </is>
       </c>
       <c r="N255" s="7" t="n">
-        <v>2008</v>
+        <v>1999</v>
       </c>
       <c r="O255" s="15" t="n">
-        <v>2.41</v>
+        <v>3</v>
       </c>
       <c r="P255" s="7" t="n">
-        <v>288</v>
+        <v>672</v>
       </c>
       <c r="Q255" s="7" t="inlineStr">
         <is>
-          <t>Askim</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R255" s="16" t="n">
-        <v>7.01</v>
+        <v>3.09</v>
       </c>
       <c r="T255" s="5" t="n"/>
     </row>
@@ -27538,7 +27538,7 @@
         </is>
       </c>
       <c r="P258" s="20" t="n">
-        <v>7779</v>
+        <v>8412</v>
       </c>
       <c r="T258" s="5" t="n"/>
     </row>
@@ -28430,7 +28430,7 @@
         </is>
       </c>
       <c r="P278" s="20" t="n">
-        <v>14800</v>
+        <v>15433</v>
       </c>
       <c r="T278" s="5" t="n"/>
     </row>
@@ -30196,7 +30196,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>26484</v>
+        <v>26489</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -30476,7 +30476,7 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>21154</v>
+        <v>21168</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
@@ -30986,18 +30986,18 @@
         <v>2002</v>
       </c>
       <c r="E12" s="15" t="n">
-        <v>52.81</v>
+        <v>52.7</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>941</v>
+        <v>946</v>
       </c>
       <c r="G12" s="7" t="inlineStr">
         <is>
-          <t>Malmø/SWE</t>
+          <t>Szczecin/POL</t>
         </is>
       </c>
       <c r="H12" s="16" t="n">
-        <v>5.08</v>
+        <v>6.09</v>
       </c>
       <c r="J12" s="5" t="n"/>
       <c r="L12" s="14" t="inlineStr">
@@ -31716,7 +31716,7 @@
         </is>
       </c>
       <c r="F25" s="20" t="n">
-        <v>13694</v>
+        <v>13699</v>
       </c>
       <c r="J25" s="5" t="n"/>
       <c r="L25" s="19" t="inlineStr">
@@ -32792,7 +32792,7 @@
         </is>
       </c>
       <c r="F48" s="20" t="n">
-        <v>26484</v>
+        <v>26489</v>
       </c>
       <c r="J48" s="5" t="n"/>
       <c r="L48" s="19" t="inlineStr">
@@ -42570,18 +42570,18 @@
         <v>2005</v>
       </c>
       <c r="E279" s="15" t="n">
-        <v>5.03</v>
+        <v>5.05</v>
       </c>
       <c r="F279" s="7" t="n">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="G279" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H279" s="16" t="n">
-        <v>4.06</v>
+        <v>2.09</v>
       </c>
       <c r="J279" s="5" t="n"/>
       <c r="L279" s="14" t="inlineStr">
@@ -42858,7 +42858,7 @@
         </is>
       </c>
       <c r="F285" s="20" t="n">
-        <v>11521</v>
+        <v>11525</v>
       </c>
       <c r="J285" s="5" t="n"/>
       <c r="L285" s="19" t="inlineStr">
@@ -43233,19 +43233,19 @@
       </c>
       <c r="E294" s="17" t="inlineStr">
         <is>
-          <t>4,49,30</t>
+          <t>4,47,52</t>
         </is>
       </c>
       <c r="F294" s="7" t="n">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="G294" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H294" s="16" t="n">
-        <v>26.08</v>
+        <v>2.09</v>
       </c>
       <c r="J294" s="5" t="n"/>
       <c r="L294" s="14" t="inlineStr">
@@ -43798,7 +43798,7 @@
         </is>
       </c>
       <c r="F306" s="20" t="n">
-        <v>9633</v>
+        <v>9643</v>
       </c>
       <c r="J306" s="5" t="n"/>
       <c r="L306" s="19" t="inlineStr">
@@ -43838,7 +43838,7 @@
         </is>
       </c>
       <c r="F308" s="20" t="n">
-        <v>21154</v>
+        <v>21168</v>
       </c>
       <c r="J308" s="5" t="n"/>
       <c r="L308" s="19" t="inlineStr">

--- a/output/Lagserien 2023 1-2. div.xlsx
+++ b/output/Lagserien 2023 1-2. div.xlsx
@@ -966,11 +966,11 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>(24/13)</t>
+          <t>(26/13)</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>16251</v>
+        <v>16648</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -15222,18 +15222,18 @@
         <v>2009</v>
       </c>
       <c r="O331" s="15" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P331" s="7" t="n">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="Q331" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R331" s="16" t="n">
-        <v>19.08</v>
+        <v>3.09</v>
       </c>
       <c r="T331" s="5" t="n"/>
     </row>
@@ -15268,30 +15268,30 @@
       <c r="J332" s="5" t="n"/>
       <c r="L332" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M332" s="7" t="inlineStr">
         <is>
-          <t>Petter O. Fuglestrand</t>
+          <t>Mateo Henderson</t>
         </is>
       </c>
       <c r="N332" s="7" t="n">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="O332" s="15" t="n">
-        <v>5.74</v>
+        <v>1.92</v>
       </c>
       <c r="P332" s="7" t="n">
-        <v>547</v>
+        <v>165</v>
       </c>
       <c r="Q332" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R332" s="16" t="n">
-        <v>21.01</v>
+        <v>2.09</v>
       </c>
       <c r="T332" s="5" t="n"/>
     </row>
@@ -15326,30 +15326,30 @@
       <c r="J333" s="5" t="n"/>
       <c r="L333" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M333" s="7" t="inlineStr">
         <is>
-          <t>Kjell Ivar Jønnum</t>
+          <t>Petter O. Fuglestrand</t>
         </is>
       </c>
       <c r="N333" s="7" t="n">
-        <v>1945</v>
+        <v>2001</v>
       </c>
       <c r="O333" s="15" t="n">
-        <v>2.13</v>
+        <v>5.74</v>
       </c>
       <c r="P333" s="7" t="n">
-        <v>10</v>
+        <v>547</v>
       </c>
       <c r="Q333" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R333" s="16" t="n">
-        <v>2.05</v>
+        <v>21.01</v>
       </c>
       <c r="T333" s="5" t="n"/>
     </row>
@@ -15384,30 +15384,30 @@
       <c r="J334" s="5" t="n"/>
       <c r="L334" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M334" s="7" t="inlineStr">
         <is>
-          <t>Obaidullah Obaidi</t>
+          <t>Mateo Henderson</t>
         </is>
       </c>
       <c r="N334" s="7" t="n">
-        <v>2000</v>
+        <v>2009</v>
       </c>
       <c r="O334" s="15" t="n">
-        <v>7.97</v>
+        <v>9.08</v>
       </c>
       <c r="P334" s="7" t="n">
-        <v>290</v>
+        <v>219</v>
       </c>
       <c r="Q334" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R334" s="16" t="n">
-        <v>2.07</v>
+        <v>3.09</v>
       </c>
       <c r="T334" s="5" t="n"/>
     </row>
@@ -15420,13 +15420,33 @@
       <c r="G335" s="7" t="n"/>
       <c r="H335" s="21" t="n"/>
       <c r="J335" s="5" t="n"/>
-      <c r="L335" s="14" t="n"/>
-      <c r="M335" s="7" t="n"/>
-      <c r="N335" s="7" t="n"/>
-      <c r="O335" s="7" t="n"/>
-      <c r="P335" s="7" t="n"/>
-      <c r="Q335" s="7" t="n"/>
-      <c r="R335" s="21" t="n"/>
+      <c r="L335" s="14" t="inlineStr">
+        <is>
+          <t>Kule</t>
+        </is>
+      </c>
+      <c r="M335" s="7" t="inlineStr">
+        <is>
+          <t>Obaidullah Obaidi</t>
+        </is>
+      </c>
+      <c r="N335" s="7" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O335" s="15" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="P335" s="7" t="n">
+        <v>290</v>
+      </c>
+      <c r="Q335" s="7" t="inlineStr">
+        <is>
+          <t>Stjørdal</t>
+        </is>
+      </c>
+      <c r="R335" s="16" t="n">
+        <v>2.07</v>
+      </c>
       <c r="T335" s="5" t="n"/>
     </row>
     <row r="336" ht="13" customHeight="1">
@@ -15471,7 +15491,7 @@
         </is>
       </c>
       <c r="M337" s="20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O337" s="19" t="inlineStr">
         <is>
@@ -15479,7 +15499,7 @@
         </is>
       </c>
       <c r="P337" s="20" t="n">
-        <v>9664</v>
+        <v>10051</v>
       </c>
       <c r="T337" s="5" t="n"/>
     </row>
@@ -16210,13 +16230,33 @@
         <v>16.01</v>
       </c>
       <c r="J352" s="5" t="n"/>
-      <c r="L352" s="14" t="n"/>
-      <c r="M352" s="7" t="n"/>
-      <c r="N352" s="7" t="n"/>
-      <c r="O352" s="7" t="n"/>
-      <c r="P352" s="7" t="n"/>
-      <c r="Q352" s="7" t="n"/>
-      <c r="R352" s="21" t="n"/>
+      <c r="L352" s="14" t="inlineStr">
+        <is>
+          <t>Lengde u.t</t>
+        </is>
+      </c>
+      <c r="M352" s="7" t="inlineStr">
+        <is>
+          <t>Kjell Ivar Jønnum</t>
+        </is>
+      </c>
+      <c r="N352" s="7" t="n">
+        <v>1945</v>
+      </c>
+      <c r="O352" s="15" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="P352" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q352" s="7" t="inlineStr">
+        <is>
+          <t>Stjørdal</t>
+        </is>
+      </c>
+      <c r="R352" s="16" t="n">
+        <v>2.05</v>
+      </c>
       <c r="T352" s="5" t="n"/>
     </row>
     <row r="353" ht="13" customHeight="1">
@@ -16415,7 +16455,7 @@
         </is>
       </c>
       <c r="M358" s="20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O358" s="19" t="inlineStr">
         <is>
@@ -16423,7 +16463,7 @@
         </is>
       </c>
       <c r="P358" s="20" t="n">
-        <v>6587</v>
+        <v>6597</v>
       </c>
       <c r="T358" s="5" t="n"/>
     </row>
@@ -16455,7 +16495,7 @@
         </is>
       </c>
       <c r="M360" s="20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O360" s="19" t="inlineStr">
         <is>
@@ -16463,7 +16503,7 @@
         </is>
       </c>
       <c r="P360" s="20" t="n">
-        <v>16251</v>
+        <v>16648</v>
       </c>
       <c r="T360" s="5" t="n"/>
     </row>
@@ -30454,11 +30494,11 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>(30/13)</t>
+          <t>(30/14)</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>21809</v>
+        <v>21868</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -38873,25 +38913,25 @@
       </c>
       <c r="M190" s="7" t="inlineStr">
         <is>
-          <t>Agnes Elisabeth Morud</t>
+          <t>Sofie Felice Murai-Ubby</t>
         </is>
       </c>
       <c r="N190" s="7" t="n">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="O190" s="15" t="n">
-        <v>8.01</v>
+        <v>7.98</v>
       </c>
       <c r="P190" s="7" t="n">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="Q190" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R190" s="16" t="n">
-        <v>18.02</v>
+        <v>3.09</v>
       </c>
       <c r="T190" s="5" t="n"/>
     </row>
@@ -38926,30 +38966,30 @@
       <c r="J191" s="5" t="n"/>
       <c r="L191" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M191" s="7" t="inlineStr">
         <is>
-          <t>Ella Njaastad Skjesol</t>
+          <t>Agnes Elisabeth Morud</t>
         </is>
       </c>
       <c r="N191" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="O191" s="15" t="n">
-        <v>25.95</v>
+        <v>8.01</v>
       </c>
       <c r="P191" s="7" t="n">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="Q191" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R191" s="16" t="n">
-        <v>22.01</v>
+        <v>18.02</v>
       </c>
       <c r="T191" s="5" t="n"/>
     </row>
@@ -38984,30 +39024,30 @@
       <c r="J192" s="5" t="n"/>
       <c r="L192" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M192" s="7" t="inlineStr">
         <is>
-          <t>Agnes Elisabeth Morud</t>
+          <t>Ella Njaastad Skjesol</t>
         </is>
       </c>
       <c r="N192" s="7" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="O192" s="15" t="n">
-        <v>12.82</v>
+        <v>25.95</v>
       </c>
       <c r="P192" s="7" t="n">
-        <v>702</v>
+        <v>730</v>
       </c>
       <c r="Q192" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R192" s="16" t="n">
-        <v>10.06</v>
+        <v>22.01</v>
       </c>
       <c r="T192" s="5" t="n"/>
     </row>
@@ -39042,30 +39082,30 @@
       <c r="J193" s="5" t="n"/>
       <c r="L193" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M193" s="7" t="inlineStr">
         <is>
-          <t>Ella Njaastad Skjesol</t>
+          <t>Agnes Elisabeth Morud</t>
         </is>
       </c>
       <c r="N193" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="O193" s="15" t="n">
-        <v>8.17</v>
+        <v>12.82</v>
       </c>
       <c r="P193" s="7" t="n">
-        <v>683</v>
+        <v>702</v>
       </c>
       <c r="Q193" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R193" s="16" t="n">
-        <v>21.01</v>
+        <v>10.06</v>
       </c>
       <c r="T193" s="5" t="n"/>
     </row>
@@ -39100,30 +39140,30 @@
       <c r="J194" s="5" t="n"/>
       <c r="L194" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M194" s="7" t="inlineStr">
         <is>
-          <t>Sanna Johnsen Møkkelgård</t>
+          <t>Ane Skjetne</t>
         </is>
       </c>
       <c r="N194" s="7" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="O194" s="15" t="n">
-        <v>8.17</v>
+        <v>12.93</v>
       </c>
       <c r="P194" s="7" t="n">
         <v>683</v>
       </c>
       <c r="Q194" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R194" s="16" t="n">
-        <v>4.03</v>
+        <v>25.08</v>
       </c>
       <c r="T194" s="5" t="n"/>
     </row>
@@ -39158,30 +39198,30 @@
       <c r="J195" s="5" t="n"/>
       <c r="L195" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M195" s="7" t="inlineStr">
         <is>
-          <t>Ane Skjetne</t>
+          <t>Sanna Johnsen Møkkelgård</t>
         </is>
       </c>
       <c r="N195" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="O195" s="15" t="n">
-        <v>12.93</v>
+        <v>8.17</v>
       </c>
       <c r="P195" s="7" t="n">
         <v>683</v>
       </c>
       <c r="Q195" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R195" s="16" t="n">
-        <v>25.08</v>
+        <v>4.03</v>
       </c>
       <c r="T195" s="5" t="n"/>
     </row>
@@ -39216,30 +39256,30 @@
       <c r="J196" s="5" t="n"/>
       <c r="L196" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M196" s="7" t="inlineStr">
         <is>
-          <t>Sanna Johnsen Møkkelgård</t>
+          <t>Ella Njaastad Skjesol</t>
         </is>
       </c>
       <c r="N196" s="7" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="O196" s="15" t="n">
-        <v>26.58</v>
+        <v>8.17</v>
       </c>
       <c r="P196" s="7" t="n">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="Q196" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R196" s="16" t="n">
-        <v>18.02</v>
+        <v>21.01</v>
       </c>
       <c r="T196" s="5" t="n"/>
     </row>
@@ -39527,7 +39567,7 @@
         </is>
       </c>
       <c r="P202" s="20" t="n">
-        <v>10556</v>
+        <v>10615</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
@@ -39567,7 +39607,7 @@
         </is>
       </c>
       <c r="P204" s="20" t="n">
-        <v>21809</v>
+        <v>21868</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -39591,7 +39631,7 @@
         </is>
       </c>
       <c r="M206" s="20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
@@ -46540,20 +46580,20 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Steinkjer Friidrettsklubb</t>
+          <t>Stjørdal Friidrettsklubb</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>(18/7)</t>
+          <t>(24/8)</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>10721</v>
+        <v>12045</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>(1/3d)</t>
+          <t>(11/1d)</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
@@ -46568,20 +46608,20 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Stjørdal Friidrettsklubb</t>
+          <t>Steinkjer Friidrettsklubb</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>(19/6)</t>
+          <t>(19/8)</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>10314</v>
+        <v>10837</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>(11/1d)</t>
+          <t>(1/3d)</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
@@ -58292,7 +58332,7 @@
       </c>
       <c r="C285" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer Friidrettsklubb</t>
+          <t>Stjørdal Friidrettsklubb</t>
         </is>
       </c>
       <c r="J285" s="5" t="n"/>
@@ -58303,7 +58343,7 @@
       </c>
       <c r="M285" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal Friidrettsklubb</t>
+          <t>Steinkjer Friidrettsklubb</t>
         </is>
       </c>
       <c r="T285" s="5" t="n"/>
@@ -58432,25 +58472,25 @@
       </c>
       <c r="C291" s="7" t="inlineStr">
         <is>
-          <t>Emily Nyborg</t>
+          <t>Nora Kaspara Lindset</t>
         </is>
       </c>
       <c r="D291" s="7" t="n">
-        <v>1998</v>
+        <v>2009</v>
       </c>
       <c r="E291" s="15" t="n">
-        <v>7.89</v>
+        <v>9.42</v>
       </c>
       <c r="F291" s="7" t="n">
-        <v>769</v>
+        <v>383</v>
       </c>
       <c r="G291" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H291" s="16" t="n">
-        <v>18.02</v>
+        <v>4.06</v>
       </c>
       <c r="J291" s="5" t="n"/>
       <c r="L291" s="14" t="inlineStr">
@@ -58460,25 +58500,25 @@
       </c>
       <c r="M291" s="7" t="inlineStr">
         <is>
-          <t>Nora Kaspara Lindset</t>
+          <t>Emily Nyborg</t>
         </is>
       </c>
       <c r="N291" s="7" t="n">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="O291" s="15" t="n">
-        <v>9.42</v>
+        <v>7.89</v>
       </c>
       <c r="P291" s="7" t="n">
-        <v>383</v>
+        <v>769</v>
       </c>
       <c r="Q291" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R291" s="16" t="n">
-        <v>4.06</v>
+        <v>18.02</v>
       </c>
       <c r="T291" s="5" t="n"/>
     </row>
@@ -58490,25 +58530,25 @@
       </c>
       <c r="C292" s="7" t="inlineStr">
         <is>
-          <t>Ella Luktvasslimo</t>
+          <t>Elise Grong Ruud</t>
         </is>
       </c>
       <c r="D292" s="7" t="n">
-        <v>2004</v>
+        <v>1996</v>
       </c>
       <c r="E292" s="15" t="n">
-        <v>12.91</v>
+        <v>13.11</v>
       </c>
       <c r="F292" s="7" t="n">
-        <v>686</v>
+        <v>652</v>
       </c>
       <c r="G292" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H292" s="16" t="n">
-        <v>27.05</v>
+        <v>28.06</v>
       </c>
       <c r="J292" s="5" t="n"/>
       <c r="L292" s="14" t="inlineStr">
@@ -58518,85 +58558,85 @@
       </c>
       <c r="M292" s="7" t="inlineStr">
         <is>
-          <t>Elise Grong Ruud</t>
+          <t>Ella Luktvasslimo</t>
         </is>
       </c>
       <c r="N292" s="7" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="O292" s="15" t="n">
-        <v>13.11</v>
+        <v>12.91</v>
       </c>
       <c r="P292" s="7" t="n">
-        <v>652</v>
+        <v>686</v>
       </c>
       <c r="Q292" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R292" s="16" t="n">
-        <v>28.06</v>
+        <v>27.05</v>
       </c>
       <c r="T292" s="5" t="n"/>
     </row>
     <row r="293" ht="13" customHeight="1">
       <c r="B293" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C293" s="7" t="inlineStr">
         <is>
-          <t>Kaja Sormul Aas</t>
+          <t>Ingeborg Lillemo Kippe</t>
         </is>
       </c>
       <c r="D293" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E293" s="15" t="n">
-        <v>29.96</v>
+        <v>2009</v>
+      </c>
+      <c r="E293" s="17" t="inlineStr">
+        <is>
+          <t>1,13,76</t>
+        </is>
       </c>
       <c r="F293" s="7" t="n">
-        <v>453</v>
+        <v>354</v>
       </c>
       <c r="G293" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H293" s="16" t="n">
-        <v>22.01</v>
+        <v>30.08</v>
       </c>
       <c r="J293" s="5" t="n"/>
       <c r="L293" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M293" s="7" t="inlineStr">
         <is>
-          <t>Nora Kaspara Lindset</t>
+          <t>Kaja Sormul Aas</t>
         </is>
       </c>
       <c r="N293" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O293" s="17" t="inlineStr">
-        <is>
-          <t>2,44,42</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="O293" s="15" t="n">
+        <v>29.96</v>
       </c>
       <c r="P293" s="7" t="n">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="Q293" s="7" t="inlineStr">
         <is>
-          <t>Ranheim</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R293" s="16" t="n">
-        <v>29.01</v>
+        <v>22.01</v>
       </c>
       <c r="T293" s="5" t="n"/>
     </row>
@@ -58608,57 +58648,57 @@
       </c>
       <c r="C294" s="7" t="inlineStr">
         <is>
-          <t>Grethe Tyldum</t>
+          <t>Nora Kaspara Lindset</t>
         </is>
       </c>
       <c r="D294" s="7" t="n">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="E294" s="17" t="inlineStr">
         <is>
-          <t>2,08,57</t>
+          <t>2,44,42</t>
         </is>
       </c>
       <c r="F294" s="7" t="n">
-        <v>824</v>
+        <v>427</v>
       </c>
       <c r="G294" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Ranheim</t>
         </is>
       </c>
       <c r="H294" s="16" t="n">
-        <v>20.05</v>
+        <v>29.01</v>
       </c>
       <c r="J294" s="5" t="n"/>
       <c r="L294" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M294" s="7" t="inlineStr">
         <is>
-          <t>Ellen Kvalheim</t>
+          <t>Grethe Tyldum</t>
         </is>
       </c>
       <c r="N294" s="7" t="n">
-        <v>1973</v>
+        <v>2001</v>
       </c>
       <c r="O294" s="17" t="inlineStr">
         <is>
-          <t>5,27,7</t>
+          <t>2,08,57</t>
         </is>
       </c>
       <c r="P294" s="7" t="n">
-        <v>479</v>
+        <v>824</v>
       </c>
       <c r="Q294" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R294" s="16" t="n">
-        <v>16.08</v>
+        <v>20.05</v>
       </c>
       <c r="T294" s="5" t="n"/>
     </row>
@@ -58670,57 +58710,57 @@
       </c>
       <c r="C295" s="7" t="inlineStr">
         <is>
-          <t>Grethe Tyldum</t>
+          <t>Ellen Kvalheim</t>
         </is>
       </c>
       <c r="D295" s="7" t="n">
-        <v>2001</v>
+        <v>1973</v>
       </c>
       <c r="E295" s="17" t="inlineStr">
         <is>
-          <t>4,17,74</t>
+          <t>5,27,7</t>
         </is>
       </c>
       <c r="F295" s="7" t="n">
-        <v>882</v>
+        <v>479</v>
       </c>
       <c r="G295" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H295" s="16" t="n">
-        <v>15.06</v>
+        <v>16.08</v>
       </c>
       <c r="J295" s="5" t="n"/>
       <c r="L295" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M295" s="7" t="inlineStr">
         <is>
-          <t>Ellen Kvalheim</t>
+          <t>Grethe Tyldum</t>
         </is>
       </c>
       <c r="N295" s="7" t="n">
-        <v>1973</v>
+        <v>2001</v>
       </c>
       <c r="O295" s="17" t="inlineStr">
         <is>
-          <t>11,31,1</t>
+          <t>4,17,74</t>
         </is>
       </c>
       <c r="P295" s="7" t="n">
-        <v>522</v>
+        <v>882</v>
       </c>
       <c r="Q295" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R295" s="16" t="n">
-        <v>7.06</v>
+        <v>15.06</v>
       </c>
       <c r="T295" s="5" t="n"/>
     </row>
@@ -58732,171 +58772,173 @@
       </c>
       <c r="C296" s="7" t="inlineStr">
         <is>
-          <t>Grethe Tyldum</t>
+          <t>Ellen Kvalheim</t>
         </is>
       </c>
       <c r="D296" s="7" t="n">
-        <v>2001</v>
+        <v>1973</v>
       </c>
       <c r="E296" s="17" t="inlineStr">
         <is>
-          <t>9,53,56</t>
+          <t>11,31,1</t>
         </is>
       </c>
       <c r="F296" s="7" t="n">
-        <v>760</v>
+        <v>522</v>
       </c>
       <c r="G296" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H296" s="16" t="n">
-        <v>27.08</v>
+        <v>7.06</v>
       </c>
       <c r="J296" s="5" t="n"/>
       <c r="L296" s="14" t="inlineStr">
         <is>
-          <t>100m hekk</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M296" s="7" t="inlineStr">
         <is>
-          <t>Elise Grong Ruud</t>
+          <t>Grethe Tyldum</t>
         </is>
       </c>
       <c r="N296" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="O296" s="15" t="n">
-        <v>14.95</v>
+        <v>2001</v>
+      </c>
+      <c r="O296" s="17" t="inlineStr">
+        <is>
+          <t>9,53,56</t>
+        </is>
       </c>
       <c r="P296" s="7" t="n">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="Q296" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R296" s="16" t="n">
-        <v>8.07</v>
+        <v>27.08</v>
       </c>
       <c r="T296" s="5" t="n"/>
     </row>
     <row r="297" ht="13" customHeight="1">
       <c r="B297" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="C297" s="7" t="inlineStr">
         <is>
-          <t>Ruby Berg-Vindsetmo</t>
+          <t>Elise Grong Ruud</t>
         </is>
       </c>
       <c r="D297" s="7" t="n">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="E297" s="15" t="n">
-        <v>1.3</v>
+        <v>14.95</v>
       </c>
       <c r="F297" s="7" t="n">
-        <v>418</v>
+        <v>771</v>
       </c>
       <c r="G297" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H297" s="16" t="n">
-        <v>5.03</v>
+        <v>8.07</v>
       </c>
       <c r="J297" s="5" t="n"/>
       <c r="L297" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M297" s="7" t="inlineStr">
         <is>
-          <t>Nora Kaspara Lindset</t>
+          <t>Ruby Berg-Vindsetmo</t>
         </is>
       </c>
       <c r="N297" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="O297" s="15" t="n">
-        <v>2.95</v>
+        <v>1.3</v>
       </c>
       <c r="P297" s="7" t="n">
-        <v>75</v>
+        <v>418</v>
       </c>
       <c r="Q297" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R297" s="16" t="n">
-        <v>21.01</v>
+        <v>5.03</v>
       </c>
       <c r="T297" s="5" t="n"/>
     </row>
     <row r="298" ht="13" customHeight="1">
       <c r="B298" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C298" s="7" t="inlineStr">
         <is>
-          <t>Kaja Sormul Aas</t>
+          <t>Julie Heiervang Johnsen</t>
         </is>
       </c>
       <c r="D298" s="7" t="n">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="E298" s="15" t="n">
-        <v>2</v>
+        <v>10.33</v>
       </c>
       <c r="F298" s="7" t="n">
-        <v>427</v>
+        <v>592</v>
       </c>
       <c r="G298" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H298" s="16" t="n">
-        <v>5.03</v>
+        <v>19.08</v>
       </c>
       <c r="J298" s="5" t="n"/>
       <c r="L298" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M298" s="7" t="inlineStr">
         <is>
-          <t>Julie Heiervang Johnsen</t>
+          <t>Kaja Sormul Aas</t>
         </is>
       </c>
       <c r="N298" s="7" t="n">
-        <v>1996</v>
+        <v>2008</v>
       </c>
       <c r="O298" s="15" t="n">
-        <v>10.33</v>
+        <v>2</v>
       </c>
       <c r="P298" s="7" t="n">
-        <v>592</v>
+        <v>427</v>
       </c>
       <c r="Q298" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R298" s="16" t="n">
-        <v>19.08</v>
+        <v>5.03</v>
       </c>
       <c r="T298" s="5" t="n"/>
     </row>
@@ -58908,53 +58950,53 @@
       </c>
       <c r="C299" s="7" t="inlineStr">
         <is>
-          <t>Emily Nyborg</t>
+          <t>Julie Heiervang Johnsen</t>
         </is>
       </c>
       <c r="D299" s="7" t="n">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="E299" s="15" t="n">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="F299" s="7" t="n">
-        <v>586</v>
+        <v>518</v>
       </c>
       <c r="G299" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H299" s="16" t="n">
-        <v>19.02</v>
+        <v>30.08</v>
       </c>
       <c r="J299" s="5" t="n"/>
       <c r="L299" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M299" s="7" t="inlineStr">
         <is>
-          <t>Mali Ingeborg Vollan Marstad</t>
+          <t>Emily Nyborg</t>
         </is>
       </c>
       <c r="N299" s="7" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="O299" s="15" t="n">
-        <v>11.26</v>
+        <v>2.43</v>
       </c>
       <c r="P299" s="7" t="n">
-        <v>673</v>
+        <v>586</v>
       </c>
       <c r="Q299" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R299" s="16" t="n">
-        <v>3.06</v>
+        <v>19.02</v>
       </c>
       <c r="T299" s="5" t="n"/>
     </row>
@@ -58966,17 +59008,17 @@
       </c>
       <c r="C300" s="7" t="inlineStr">
         <is>
-          <t>Emily Nyborg</t>
+          <t>Mali Ingeborg Vollan Marstad</t>
         </is>
       </c>
       <c r="D300" s="7" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="E300" s="15" t="n">
-        <v>7.39</v>
+        <v>11.26</v>
       </c>
       <c r="F300" s="7" t="n">
-        <v>376</v>
+        <v>673</v>
       </c>
       <c r="G300" s="7" t="inlineStr">
         <is>
@@ -58984,122 +59026,142 @@
         </is>
       </c>
       <c r="H300" s="16" t="n">
-        <v>2.07</v>
+        <v>3.06</v>
       </c>
       <c r="J300" s="5" t="n"/>
       <c r="L300" s="14" t="inlineStr">
         <is>
+          <t>Kule</t>
+        </is>
+      </c>
+      <c r="M300" s="7" t="inlineStr">
+        <is>
+          <t>Emily Nyborg</t>
+        </is>
+      </c>
+      <c r="N300" s="7" t="n">
+        <v>1998</v>
+      </c>
+      <c r="O300" s="15" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="P300" s="7" t="n">
+        <v>376</v>
+      </c>
+      <c r="Q300" s="7" t="inlineStr">
+        <is>
+          <t>Stjørdal</t>
+        </is>
+      </c>
+      <c r="R300" s="16" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="T300" s="5" t="n"/>
+    </row>
+    <row r="301" ht="13" customHeight="1">
+      <c r="B301" s="14" t="inlineStr">
+        <is>
           <t>Diskos</t>
         </is>
       </c>
-      <c r="M300" s="7" t="inlineStr">
+      <c r="C301" s="7" t="inlineStr">
         <is>
           <t>Mali Ingeborg Vollan Marstad</t>
         </is>
       </c>
-      <c r="N300" s="7" t="n">
+      <c r="D301" s="7" t="n">
         <v>1997</v>
       </c>
-      <c r="O300" s="15" t="n">
+      <c r="E301" s="15" t="n">
         <v>27.87</v>
       </c>
-      <c r="P300" s="7" t="n">
+      <c r="F301" s="7" t="n">
         <v>546</v>
       </c>
-      <c r="Q300" s="7" t="inlineStr">
+      <c r="G301" s="7" t="inlineStr">
         <is>
           <t>Stjørdal</t>
         </is>
       </c>
-      <c r="R300" s="16" t="n">
+      <c r="H301" s="16" t="n">
         <v>3.06</v>
       </c>
-      <c r="T300" s="5" t="n"/>
-    </row>
-    <row r="301" ht="13" customHeight="1">
-      <c r="B301" s="14" t="n"/>
-      <c r="C301" s="7" t="n"/>
-      <c r="D301" s="7" t="n"/>
-      <c r="E301" s="7" t="n"/>
-      <c r="F301" s="7" t="n"/>
-      <c r="G301" s="7" t="n"/>
-      <c r="H301" s="21" t="n"/>
       <c r="J301" s="5" t="n"/>
-      <c r="L301" s="14" t="inlineStr">
+      <c r="L301" s="14" t="n"/>
+      <c r="M301" s="7" t="n"/>
+      <c r="N301" s="7" t="n"/>
+      <c r="O301" s="7" t="n"/>
+      <c r="P301" s="7" t="n"/>
+      <c r="Q301" s="7" t="n"/>
+      <c r="R301" s="21" t="n"/>
+      <c r="T301" s="5" t="n"/>
+    </row>
+    <row r="302" ht="13" customHeight="1">
+      <c r="B302" s="14" t="inlineStr">
         <is>
           <t>Slegge</t>
         </is>
       </c>
-      <c r="M301" s="7" t="inlineStr">
+      <c r="C302" s="7" t="inlineStr">
         <is>
           <t>Mali Ingeborg Vollan Marstad</t>
         </is>
       </c>
-      <c r="N301" s="7" t="n">
+      <c r="D302" s="7" t="n">
         <v>1997</v>
       </c>
-      <c r="O301" s="15" t="n">
+      <c r="E302" s="15" t="n">
         <v>38.27</v>
       </c>
-      <c r="P301" s="7" t="n">
+      <c r="F302" s="7" t="n">
         <v>660</v>
       </c>
-      <c r="Q301" s="7" t="inlineStr">
+      <c r="G302" s="7" t="inlineStr">
         <is>
           <t>Stjørdal</t>
         </is>
       </c>
-      <c r="R301" s="16" t="n">
+      <c r="H302" s="16" t="n">
         <v>4.06</v>
       </c>
-      <c r="T301" s="5" t="n"/>
-    </row>
-    <row r="302" ht="13" customHeight="1">
-      <c r="B302" s="14" t="n"/>
-      <c r="C302" s="7" t="n"/>
-      <c r="D302" s="7" t="n"/>
-      <c r="E302" s="7" t="n"/>
-      <c r="F302" s="7" t="n"/>
-      <c r="G302" s="7" t="n"/>
-      <c r="H302" s="21" t="n"/>
       <c r="J302" s="5" t="n"/>
-      <c r="L302" s="14" t="inlineStr">
+      <c r="L302" s="14" t="n"/>
+      <c r="M302" s="7" t="n"/>
+      <c r="N302" s="7" t="n"/>
+      <c r="O302" s="7" t="n"/>
+      <c r="P302" s="7" t="n"/>
+      <c r="Q302" s="7" t="n"/>
+      <c r="R302" s="21" t="n"/>
+      <c r="T302" s="5" t="n"/>
+    </row>
+    <row r="303" ht="13" customHeight="1">
+      <c r="B303" s="14" t="inlineStr">
         <is>
           <t>Spyd</t>
         </is>
       </c>
-      <c r="M302" s="7" t="inlineStr">
+      <c r="C303" s="7" t="inlineStr">
         <is>
           <t>Mali Ingeborg Vollan Marstad</t>
         </is>
       </c>
-      <c r="N302" s="7" t="n">
+      <c r="D303" s="7" t="n">
         <v>1997</v>
       </c>
-      <c r="O302" s="15" t="n">
+      <c r="E303" s="15" t="n">
         <v>44.95</v>
       </c>
-      <c r="P302" s="7" t="n">
+      <c r="F303" s="7" t="n">
         <v>777</v>
       </c>
-      <c r="Q302" s="7" t="inlineStr">
+      <c r="G303" s="7" t="inlineStr">
         <is>
           <t>Stjørdal</t>
         </is>
       </c>
-      <c r="R302" s="16" t="n">
+      <c r="H303" s="16" t="n">
         <v>3.06</v>
       </c>
-      <c r="T302" s="5" t="n"/>
-    </row>
-    <row r="303" ht="13" customHeight="1">
-      <c r="B303" s="14" t="n"/>
-      <c r="C303" s="7" t="n"/>
-      <c r="D303" s="7" t="n"/>
-      <c r="E303" s="7" t="n"/>
-      <c r="F303" s="7" t="n"/>
-      <c r="G303" s="7" t="n"/>
-      <c r="H303" s="21" t="n"/>
       <c r="J303" s="5" t="n"/>
       <c r="L303" s="14" t="n"/>
       <c r="M303" s="7" t="n"/>
@@ -59135,7 +59197,7 @@
         </is>
       </c>
       <c r="C305" s="20" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E305" s="19" t="inlineStr">
         <is>
@@ -59143,7 +59205,7 @@
         </is>
       </c>
       <c r="F305" s="20" t="n">
-        <v>6181</v>
+        <v>7354</v>
       </c>
       <c r="J305" s="5" t="n"/>
       <c r="L305" s="19" t="inlineStr">
@@ -59152,7 +59214,7 @@
         </is>
       </c>
       <c r="M305" s="20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O305" s="19" t="inlineStr">
         <is>
@@ -59160,7 +59222,7 @@
         </is>
       </c>
       <c r="P305" s="20" t="n">
-        <v>6557</v>
+        <v>6181</v>
       </c>
       <c r="T305" s="5" t="n"/>
     </row>
@@ -59263,481 +59325,563 @@
     <row r="310" ht="13" customHeight="1">
       <c r="B310" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C310" s="7" t="inlineStr">
         <is>
-          <t>Ella Luktvasslimo</t>
+          <t>Julie Heiervang Johnsen</t>
         </is>
       </c>
       <c r="D310" s="7" t="n">
-        <v>2004</v>
+        <v>1996</v>
       </c>
       <c r="E310" s="15" t="n">
-        <v>8.130000000000001</v>
+        <v>44.16</v>
       </c>
       <c r="F310" s="7" t="n">
-        <v>695</v>
+        <v>765</v>
       </c>
       <c r="G310" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H310" s="16" t="n">
-        <v>21.01</v>
+        <v>7.07</v>
       </c>
       <c r="J310" s="5" t="n"/>
       <c r="L310" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M310" s="7" t="inlineStr">
         <is>
-          <t>Julie Heiervang Johnsen</t>
+          <t>Ella Luktvasslimo</t>
         </is>
       </c>
       <c r="N310" s="7" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="O310" s="15" t="n">
-        <v>44.16</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="P310" s="7" t="n">
-        <v>765</v>
+        <v>695</v>
       </c>
       <c r="Q310" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R310" s="16" t="n">
-        <v>7.07</v>
+        <v>21.01</v>
       </c>
       <c r="T310" s="5" t="n"/>
     </row>
     <row r="311" ht="13" customHeight="1">
       <c r="B311" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C311" s="7" t="inlineStr">
         <is>
-          <t>Dordi Forseth</t>
+          <t>Stine Grong Ruud</t>
         </is>
       </c>
       <c r="D311" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E311" s="17" t="inlineStr">
-        <is>
-          <t>4,51,79</t>
-        </is>
+        <v>1994</v>
+      </c>
+      <c r="E311" s="15" t="n">
+        <v>13.13</v>
       </c>
       <c r="F311" s="7" t="n">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="G311" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H311" s="16" t="n">
-        <v>5.03</v>
+        <v>18.06</v>
       </c>
       <c r="J311" s="5" t="n"/>
       <c r="L311" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M311" s="7" t="inlineStr">
         <is>
-          <t>Stine Grong Ruud</t>
+          <t>Dordi Forseth</t>
         </is>
       </c>
       <c r="N311" s="7" t="n">
-        <v>1994</v>
-      </c>
-      <c r="O311" s="15" t="n">
-        <v>13.13</v>
+        <v>2005</v>
+      </c>
+      <c r="O311" s="17" t="inlineStr">
+        <is>
+          <t>4,51,79</t>
+        </is>
       </c>
       <c r="P311" s="7" t="n">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="Q311" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R311" s="16" t="n">
-        <v>18.06</v>
+        <v>5.03</v>
       </c>
       <c r="T311" s="5" t="n"/>
     </row>
     <row r="312" ht="13" customHeight="1">
       <c r="B312" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="C312" s="7" t="inlineStr">
         <is>
-          <t>Dordi Forseth</t>
+          <t>Julie Heiervang Johnsen</t>
         </is>
       </c>
       <c r="D312" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E312" s="17" t="inlineStr">
-        <is>
-          <t>2,21,37</t>
-        </is>
+        <v>1996</v>
+      </c>
+      <c r="E312" s="15" t="n">
+        <v>36.17</v>
       </c>
       <c r="F312" s="7" t="n">
-        <v>651</v>
+        <v>631</v>
       </c>
       <c r="G312" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H312" s="16" t="n">
-        <v>4.03</v>
+        <v>19.08</v>
       </c>
       <c r="J312" s="5" t="n"/>
       <c r="L312" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M312" s="7" t="inlineStr">
         <is>
-          <t>Julie Heiervang Johnsen</t>
+          <t>Dordi Forseth</t>
         </is>
       </c>
       <c r="N312" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="O312" s="15" t="n">
-        <v>36.17</v>
+        <v>2005</v>
+      </c>
+      <c r="O312" s="17" t="inlineStr">
+        <is>
+          <t>2,21,37</t>
+        </is>
       </c>
       <c r="P312" s="7" t="n">
-        <v>631</v>
+        <v>651</v>
       </c>
       <c r="Q312" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R312" s="16" t="n">
-        <v>19.08</v>
+        <v>4.03</v>
       </c>
       <c r="T312" s="5" t="n"/>
     </row>
     <row r="313" ht="13" customHeight="1">
       <c r="B313" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C313" s="7" t="inlineStr">
         <is>
-          <t>Emily Nyborg</t>
+          <t>Julie Heiervang Johnsen</t>
         </is>
       </c>
       <c r="D313" s="7" t="n">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="E313" s="15" t="n">
-        <v>13.33</v>
+        <v>9.41</v>
       </c>
       <c r="F313" s="7" t="n">
-        <v>615</v>
+        <v>546</v>
       </c>
       <c r="G313" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H313" s="16" t="n">
-        <v>2.07</v>
+        <v>22.08</v>
       </c>
       <c r="J313" s="5" t="n"/>
       <c r="L313" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M313" s="7" t="inlineStr">
         <is>
-          <t>Julie Heiervang Johnsen</t>
+          <t>Emily Nyborg</t>
         </is>
       </c>
       <c r="N313" s="7" t="n">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="O313" s="15" t="n">
-        <v>9.41</v>
+        <v>13.33</v>
       </c>
       <c r="P313" s="7" t="n">
-        <v>546</v>
+        <v>615</v>
       </c>
       <c r="Q313" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R313" s="16" t="n">
-        <v>22.08</v>
+        <v>2.07</v>
       </c>
       <c r="T313" s="5" t="n"/>
     </row>
     <row r="314" ht="13" customHeight="1">
       <c r="B314" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C314" s="7" t="inlineStr">
         <is>
-          <t>Dordi Forseth</t>
+          <t>Ingeborg Lillemo Kippe</t>
         </is>
       </c>
       <c r="D314" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E314" s="17" t="inlineStr">
-        <is>
-          <t>10,54,80</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="E314" s="15" t="n">
+        <v>9.44</v>
       </c>
       <c r="F314" s="7" t="n">
-        <v>602</v>
+        <v>379</v>
       </c>
       <c r="G314" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H314" s="16" t="n">
-        <v>27.08</v>
+        <v>30.08</v>
       </c>
       <c r="J314" s="5" t="n"/>
       <c r="L314" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M314" s="7" t="inlineStr">
         <is>
-          <t>Julie Heiervang Johnsen</t>
+          <t>Dordi Forseth</t>
         </is>
       </c>
       <c r="N314" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="O314" s="15" t="n">
-        <v>23.8</v>
+        <v>2005</v>
+      </c>
+      <c r="O314" s="17" t="inlineStr">
+        <is>
+          <t>10,54,80</t>
+        </is>
       </c>
       <c r="P314" s="7" t="n">
-        <v>471</v>
+        <v>602</v>
       </c>
       <c r="Q314" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R314" s="16" t="n">
-        <v>22.08</v>
+        <v>27.08</v>
       </c>
       <c r="T314" s="5" t="n"/>
     </row>
     <row r="315" ht="13" customHeight="1">
       <c r="B315" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C315" s="7" t="inlineStr">
         <is>
-          <t>Ruby Berg-Vindsetmo</t>
+          <t>Nora Kaspara Lindset</t>
         </is>
       </c>
       <c r="D315" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E315" s="15" t="n">
-        <v>9.07</v>
+        <v>14.95</v>
       </c>
       <c r="F315" s="7" t="n">
-        <v>457</v>
+        <v>378</v>
       </c>
       <c r="G315" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H315" s="16" t="n">
-        <v>21.01</v>
+        <v>10.06</v>
       </c>
       <c r="J315" s="5" t="n"/>
       <c r="L315" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M315" s="7" t="inlineStr">
         <is>
-          <t>Nora Kaspara Lindset</t>
+          <t>Ruby Berg-Vindsetmo</t>
         </is>
       </c>
       <c r="N315" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="O315" s="15" t="n">
-        <v>14.95</v>
+        <v>9.07</v>
       </c>
       <c r="P315" s="7" t="n">
-        <v>378</v>
+        <v>457</v>
       </c>
       <c r="Q315" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R315" s="16" t="n">
-        <v>10.06</v>
+        <v>21.01</v>
       </c>
       <c r="T315" s="5" t="n"/>
     </row>
     <row r="316" ht="13" customHeight="1">
       <c r="B316" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C316" s="7" t="inlineStr">
         <is>
-          <t>Ruby Berg-Vindsetmo</t>
+          <t>Nora Kaspara Lindset</t>
         </is>
       </c>
       <c r="D316" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E316" s="15" t="n">
-        <v>29.98</v>
+        <v>2009</v>
+      </c>
+      <c r="E316" s="17" t="inlineStr">
+        <is>
+          <t>1,14,02</t>
+        </is>
       </c>
       <c r="F316" s="7" t="n">
-        <v>452</v>
+        <v>349</v>
       </c>
       <c r="G316" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H316" s="16" t="n">
-        <v>22.01</v>
+        <v>30.08</v>
       </c>
       <c r="J316" s="5" t="n"/>
       <c r="L316" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M316" s="7" t="inlineStr">
         <is>
-          <t>Nora Kaspara Lindset</t>
+          <t>Ruby Berg-Vindsetmo</t>
         </is>
       </c>
       <c r="N316" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O316" s="17" t="inlineStr">
-        <is>
-          <t>6,07,3</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="O316" s="15" t="n">
+        <v>29.98</v>
       </c>
       <c r="P316" s="7" t="n">
-        <v>318</v>
+        <v>452</v>
       </c>
       <c r="Q316" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R316" s="16" t="n">
-        <v>16.08</v>
+        <v>22.01</v>
       </c>
       <c r="T316" s="5" t="n"/>
     </row>
     <row r="317" ht="13" customHeight="1">
       <c r="B317" s="14" t="inlineStr">
         <is>
+          <t>Lengde u.t</t>
+        </is>
+      </c>
+      <c r="C317" s="7" t="inlineStr">
+        <is>
+          <t>Ingeborg Lillemo Kippe</t>
+        </is>
+      </c>
+      <c r="D317" s="7" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E317" s="15" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="F317" s="7" t="n">
+        <v>319</v>
+      </c>
+      <c r="G317" s="7" t="inlineStr">
+        <is>
+          <t>Stjørdal</t>
+        </is>
+      </c>
+      <c r="H317" s="16" t="n">
+        <v>30.08</v>
+      </c>
+      <c r="J317" s="5" t="n"/>
+      <c r="L317" s="14" t="inlineStr">
+        <is>
           <t>60m</t>
         </is>
       </c>
-      <c r="C317" s="7" t="inlineStr">
+      <c r="M317" s="7" t="inlineStr">
         <is>
           <t>Karelie Myrseth Vikshåland</t>
         </is>
       </c>
-      <c r="D317" s="7" t="n">
+      <c r="N317" s="7" t="n">
         <v>2011</v>
       </c>
-      <c r="E317" s="15" t="n">
+      <c r="O317" s="15" t="n">
         <v>9.279999999999999</v>
       </c>
-      <c r="F317" s="7" t="n">
+      <c r="P317" s="7" t="n">
         <v>412</v>
       </c>
-      <c r="G317" s="7" t="inlineStr">
+      <c r="Q317" s="7" t="inlineStr">
         <is>
           <t>Steinkjer</t>
         </is>
       </c>
-      <c r="H317" s="16" t="n">
+      <c r="R317" s="16" t="n">
         <v>18.03</v>
       </c>
-      <c r="J317" s="5" t="n"/>
-      <c r="L317" s="14" t="n"/>
-      <c r="M317" s="7" t="n"/>
-      <c r="N317" s="7" t="n"/>
-      <c r="O317" s="7" t="n"/>
-      <c r="P317" s="7" t="n"/>
-      <c r="Q317" s="7" t="n"/>
-      <c r="R317" s="21" t="n"/>
       <c r="T317" s="5" t="n"/>
     </row>
     <row r="318" ht="13" customHeight="1">
-      <c r="B318" s="14" t="n"/>
-      <c r="C318" s="7" t="n"/>
-      <c r="D318" s="7" t="n"/>
-      <c r="E318" s="7" t="n"/>
-      <c r="F318" s="7" t="n"/>
-      <c r="G318" s="7" t="n"/>
-      <c r="H318" s="21" t="n"/>
+      <c r="B318" s="14" t="inlineStr">
+        <is>
+          <t>1500m</t>
+        </is>
+      </c>
+      <c r="C318" s="7" t="inlineStr">
+        <is>
+          <t>Nora Kaspara Lindset</t>
+        </is>
+      </c>
+      <c r="D318" s="7" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E318" s="17" t="inlineStr">
+        <is>
+          <t>6,07,3</t>
+        </is>
+      </c>
+      <c r="F318" s="7" t="n">
+        <v>318</v>
+      </c>
+      <c r="G318" s="7" t="inlineStr">
+        <is>
+          <t>Stjørdal</t>
+        </is>
+      </c>
+      <c r="H318" s="16" t="n">
+        <v>16.08</v>
+      </c>
       <c r="J318" s="5" t="n"/>
-      <c r="L318" s="14" t="n"/>
-      <c r="M318" s="7" t="n"/>
-      <c r="N318" s="7" t="n"/>
-      <c r="O318" s="7" t="n"/>
-      <c r="P318" s="7" t="n"/>
-      <c r="Q318" s="7" t="n"/>
-      <c r="R318" s="21" t="n"/>
+      <c r="L318" s="14" t="inlineStr">
+        <is>
+          <t>Høyde</t>
+        </is>
+      </c>
+      <c r="M318" s="7" t="inlineStr">
+        <is>
+          <t>Anna Skjellegrind</t>
+        </is>
+      </c>
+      <c r="N318" s="7" t="n">
+        <v>2010</v>
+      </c>
+      <c r="O318" s="15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P318" s="7" t="n">
+        <v>116</v>
+      </c>
+      <c r="Q318" s="7" t="inlineStr">
+        <is>
+          <t>Trondheim</t>
+        </is>
+      </c>
+      <c r="R318" s="16" t="n">
+        <v>3.09</v>
+      </c>
       <c r="T318" s="5" t="n"/>
     </row>
     <row r="319" ht="13" customHeight="1">
-      <c r="B319" s="14" t="n"/>
-      <c r="C319" s="7" t="n"/>
-      <c r="D319" s="7" t="n"/>
-      <c r="E319" s="7" t="n"/>
-      <c r="F319" s="7" t="n"/>
-      <c r="G319" s="7" t="n"/>
-      <c r="H319" s="21" t="n"/>
+      <c r="B319" s="14" t="inlineStr">
+        <is>
+          <t>60m</t>
+        </is>
+      </c>
+      <c r="C319" s="7" t="inlineStr">
+        <is>
+          <t>Hanna Lillemo Kippe</t>
+        </is>
+      </c>
+      <c r="D319" s="7" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E319" s="15" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="F319" s="7" t="n">
+        <v>236</v>
+      </c>
+      <c r="G319" s="7" t="inlineStr">
+        <is>
+          <t>Stjørdal</t>
+        </is>
+      </c>
+      <c r="H319" s="16" t="n">
+        <v>30.08</v>
+      </c>
       <c r="J319" s="5" t="n"/>
       <c r="L319" s="14" t="n"/>
       <c r="M319" s="7" t="n"/>
@@ -59749,13 +59893,33 @@
       <c r="T319" s="5" t="n"/>
     </row>
     <row r="320" ht="13" customHeight="1">
-      <c r="B320" s="14" t="n"/>
-      <c r="C320" s="7" t="n"/>
-      <c r="D320" s="7" t="n"/>
-      <c r="E320" s="7" t="n"/>
-      <c r="F320" s="7" t="n"/>
-      <c r="G320" s="7" t="n"/>
-      <c r="H320" s="21" t="n"/>
+      <c r="B320" s="14" t="inlineStr">
+        <is>
+          <t>Lengde u.t</t>
+        </is>
+      </c>
+      <c r="C320" s="7" t="inlineStr">
+        <is>
+          <t>Hanna Lillemo Kippe</t>
+        </is>
+      </c>
+      <c r="D320" s="7" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E320" s="15" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F320" s="7" t="n">
+        <v>122</v>
+      </c>
+      <c r="G320" s="7" t="inlineStr">
+        <is>
+          <t>Stjørdal</t>
+        </is>
+      </c>
+      <c r="H320" s="16" t="n">
+        <v>30.08</v>
+      </c>
       <c r="J320" s="5" t="n"/>
       <c r="L320" s="14" t="n"/>
       <c r="M320" s="7" t="n"/>
@@ -59809,7 +59973,7 @@
         </is>
       </c>
       <c r="C323" s="20" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E323" s="19" t="inlineStr">
         <is>
@@ -59817,7 +59981,7 @@
         </is>
       </c>
       <c r="F323" s="20" t="n">
-        <v>4540</v>
+        <v>4691</v>
       </c>
       <c r="J323" s="5" t="n"/>
       <c r="L323" s="19" t="inlineStr">
@@ -59826,7 +59990,7 @@
         </is>
       </c>
       <c r="M323" s="20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O323" s="19" t="inlineStr">
         <is>
@@ -59834,7 +59998,7 @@
         </is>
       </c>
       <c r="P323" s="20" t="n">
-        <v>3757</v>
+        <v>4656</v>
       </c>
       <c r="T323" s="5" t="n"/>
     </row>
@@ -59849,7 +60013,7 @@
         </is>
       </c>
       <c r="C325" s="20" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E325" s="19" t="inlineStr">
         <is>
@@ -59857,7 +60021,7 @@
         </is>
       </c>
       <c r="F325" s="20" t="n">
-        <v>10721</v>
+        <v>12045</v>
       </c>
       <c r="J325" s="5" t="n"/>
       <c r="L325" s="19" t="inlineStr">
@@ -59874,7 +60038,7 @@
         </is>
       </c>
       <c r="P325" s="20" t="n">
-        <v>10314</v>
+        <v>10837</v>
       </c>
       <c r="T325" s="5" t="n"/>
     </row>
@@ -59889,7 +60053,7 @@
         </is>
       </c>
       <c r="C327" s="20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J327" s="5" t="n"/>
       <c r="L327" s="19" t="inlineStr">
@@ -59898,7 +60062,7 @@
         </is>
       </c>
       <c r="M327" s="20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T327" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2023 1-2. div.xlsx
+++ b/output/Lagserien 2023 1-2. div.xlsx
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>26031</v>
+        <v>26491</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
@@ -658,11 +658,11 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>(30/15)</t>
+          <t>(30/16)</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>25101</v>
+        <v>25148</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>24179</v>
+        <v>24195</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -938,11 +938,11 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>(30/10)</t>
+          <t>(30/11)</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>19892</v>
+        <v>20063</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -966,11 +966,11 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>(30/14)</t>
+          <t>(30/13)</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>19178</v>
+        <v>19364</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -1957,17 +1957,17 @@
       </c>
       <c r="M21" s="7" t="inlineStr">
         <is>
-          <t>Imran Mahmood</t>
+          <t>Sindre Fidje Andersen</t>
         </is>
       </c>
       <c r="N21" s="7" t="n">
-        <v>1992</v>
+        <v>2003</v>
       </c>
       <c r="O21" s="15" t="n">
-        <v>9.83</v>
+        <v>13.51</v>
       </c>
       <c r="P21" s="7" t="n">
-        <v>310</v>
+        <v>724</v>
       </c>
       <c r="Q21" s="7" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="R21" s="16" t="n">
-        <v>15.05</v>
+        <v>17.09</v>
       </c>
       <c r="T21" s="5" t="n"/>
     </row>
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="P25" s="20" t="n">
-        <v>12695</v>
+        <v>13109</v>
       </c>
       <c r="T25" s="5" t="n"/>
     </row>
@@ -2990,30 +2990,30 @@
       <c r="J42" s="5" t="n"/>
       <c r="L42" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M42" s="7" t="inlineStr">
         <is>
-          <t>Håvard Haugen</t>
+          <t>Jonas Berggård Skåden</t>
         </is>
       </c>
       <c r="N42" s="7" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="O42" s="15" t="n">
-        <v>3.73</v>
+        <v>13.18</v>
       </c>
       <c r="P42" s="7" t="n">
-        <v>664</v>
+        <v>689</v>
       </c>
       <c r="Q42" s="7" t="inlineStr">
         <is>
-          <t>Borås/SWE</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R42" s="16" t="n">
-        <v>11.06</v>
+        <v>17.09</v>
       </c>
       <c r="T42" s="5" t="n"/>
     </row>
@@ -3048,30 +3048,30 @@
       <c r="J43" s="5" t="n"/>
       <c r="L43" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M43" s="7" t="inlineStr">
         <is>
-          <t>Gaute Aasmo</t>
+          <t>Håvard Haugen</t>
         </is>
       </c>
       <c r="N43" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="O43" s="15" t="n">
-        <v>1.8</v>
+        <v>3.73</v>
       </c>
       <c r="P43" s="7" t="n">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="Q43" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Borås/SWE</t>
         </is>
       </c>
       <c r="R43" s="16" t="n">
-        <v>5.02</v>
+        <v>11.06</v>
       </c>
       <c r="T43" s="5" t="n"/>
     </row>
@@ -3106,22 +3106,22 @@
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M44" s="7" t="inlineStr">
         <is>
-          <t>Sondre Aasmo</t>
+          <t>Gaute Aasmo</t>
         </is>
       </c>
       <c r="N44" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="O44" s="15" t="n">
-        <v>3.63</v>
+        <v>1.8</v>
       </c>
       <c r="P44" s="7" t="n">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="Q44" s="7" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         </is>
       </c>
       <c r="R44" s="16" t="n">
-        <v>17.01</v>
+        <v>5.02</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -3183,7 +3183,7 @@
         </is>
       </c>
       <c r="P46" s="20" t="n">
-        <v>13336</v>
+        <v>13382</v>
       </c>
       <c r="T46" s="5" t="n"/>
     </row>
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="P48" s="20" t="n">
-        <v>26031</v>
+        <v>26491</v>
       </c>
       <c r="T48" s="5" t="n"/>
     </row>
@@ -5304,30 +5304,30 @@
     <row r="96" ht="13" customHeight="1">
       <c r="B96" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C96" s="7" t="inlineStr">
         <is>
-          <t>Thai Drager</t>
+          <t>Theodore Einar Fremstad-Waldron</t>
         </is>
       </c>
       <c r="D96" s="7" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="E96" s="15" t="n">
-        <v>12.26</v>
+        <v>6.13</v>
       </c>
       <c r="F96" s="7" t="n">
-        <v>589</v>
+        <v>636</v>
       </c>
       <c r="G96" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H96" s="16" t="n">
-        <v>3.03</v>
+        <v>17.09</v>
       </c>
       <c r="J96" s="5" t="n"/>
       <c r="L96" s="14" t="inlineStr">
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F98" s="20" t="n">
-        <v>12369</v>
+        <v>12416</v>
       </c>
       <c r="J98" s="5" t="n"/>
       <c r="L98" s="19" t="inlineStr">
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="F100" s="20" t="n">
-        <v>25101</v>
+        <v>25148</v>
       </c>
       <c r="J100" s="5" t="n"/>
       <c r="L100" s="19" t="inlineStr">
@@ -5464,7 +5464,7 @@
         </is>
       </c>
       <c r="C102" s="20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J102" s="5" t="n"/>
       <c r="L102" s="19" t="inlineStr">
@@ -6342,18 +6342,18 @@
         <v>2000</v>
       </c>
       <c r="E124" s="15" t="n">
-        <v>4.03</v>
+        <v>4.11</v>
       </c>
       <c r="F124" s="7" t="n">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="G124" s="7" t="inlineStr">
         <is>
-          <t>Borås/SWE</t>
+          <t>Bergen/Hø</t>
         </is>
       </c>
       <c r="H124" s="16" t="n">
-        <v>11.06</v>
+        <v>15.09</v>
       </c>
       <c r="J124" s="5" t="n"/>
       <c r="L124" s="14" t="inlineStr">
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="F129" s="20" t="n">
-        <v>12660</v>
+        <v>12676</v>
       </c>
       <c r="J129" s="5" t="n"/>
       <c r="L129" s="19" t="inlineStr">
@@ -7658,7 +7658,7 @@
         </is>
       </c>
       <c r="F152" s="20" t="n">
-        <v>24179</v>
+        <v>24195</v>
       </c>
       <c r="J152" s="5" t="n"/>
       <c r="L152" s="19" t="inlineStr">
@@ -14705,25 +14705,25 @@
       </c>
       <c r="C323" s="7" t="inlineStr">
         <is>
-          <t>Eirik Reigstad</t>
+          <t>Magnus Reigstad</t>
         </is>
       </c>
       <c r="D323" s="7" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="E323" s="15" t="n">
-        <v>24.01</v>
+        <v>22.82</v>
       </c>
       <c r="F323" s="7" t="n">
-        <v>646</v>
+        <v>768</v>
       </c>
       <c r="G323" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H323" s="16" t="n">
-        <v>26.08</v>
+        <v>17.09</v>
       </c>
       <c r="J323" s="5" t="n"/>
       <c r="L323" s="14" t="inlineStr">
@@ -15502,7 +15502,7 @@
         </is>
       </c>
       <c r="F337" s="20" t="n">
-        <v>10722</v>
+        <v>10844</v>
       </c>
       <c r="J337" s="5" t="n"/>
       <c r="L337" s="19" t="inlineStr">
@@ -15890,37 +15890,39 @@
       <c r="J346" s="5" t="n"/>
       <c r="L346" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M346" s="7" t="inlineStr">
         <is>
-          <t>Sivert Wist Moen</t>
+          <t>Christian Bredesen</t>
         </is>
       </c>
       <c r="N346" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="O346" s="15" t="n">
-        <v>6.04</v>
+        <v>2005</v>
+      </c>
+      <c r="O346" s="17" t="inlineStr">
+        <is>
+          <t>8,57,21</t>
+        </is>
       </c>
       <c r="P346" s="7" t="n">
-        <v>615</v>
+        <v>699</v>
       </c>
       <c r="Q346" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R346" s="16" t="n">
-        <v>17.09</v>
+        <v>19.09</v>
       </c>
       <c r="T346" s="5" t="n"/>
     </row>
     <row r="347" ht="13" customHeight="1">
       <c r="B347" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C347" s="7" t="inlineStr">
@@ -15932,40 +15934,38 @@
         <v>2007</v>
       </c>
       <c r="E347" s="15" t="n">
-        <v>11.95</v>
+        <v>24.01</v>
       </c>
       <c r="F347" s="7" t="n">
-        <v>621</v>
+        <v>646</v>
       </c>
       <c r="G347" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H347" s="16" t="n">
-        <v>5.07</v>
+        <v>26.08</v>
       </c>
       <c r="J347" s="5" t="n"/>
       <c r="L347" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M347" s="7" t="inlineStr">
         <is>
-          <t>Alexander Kirkeberg</t>
+          <t>Sivert Wist Moen</t>
         </is>
       </c>
       <c r="N347" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="O347" s="17" t="inlineStr">
-        <is>
-          <t>16,45,26</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="O347" s="15" t="n">
+        <v>6.04</v>
       </c>
       <c r="P347" s="7" t="n">
-        <v>560</v>
+        <v>615</v>
       </c>
       <c r="Q347" s="7" t="inlineStr">
         <is>
@@ -15973,37 +15973,37 @@
         </is>
       </c>
       <c r="R347" s="16" t="n">
-        <v>28.05</v>
+        <v>17.09</v>
       </c>
       <c r="T347" s="5" t="n"/>
     </row>
     <row r="348" ht="13" customHeight="1">
       <c r="B348" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C348" s="7" t="inlineStr">
         <is>
-          <t>William-André Alver Sylta</t>
+          <t>Eirik Reigstad</t>
         </is>
       </c>
       <c r="D348" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E348" s="15" t="n">
-        <v>24.29</v>
+        <v>11.95</v>
       </c>
       <c r="F348" s="7" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G348" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H348" s="16" t="n">
-        <v>10.05</v>
+        <v>5.07</v>
       </c>
       <c r="J348" s="5" t="n"/>
       <c r="L348" s="14" t="inlineStr">
@@ -16013,19 +16013,19 @@
       </c>
       <c r="M348" s="7" t="inlineStr">
         <is>
-          <t>Andrii Tishchenko</t>
+          <t>Alexander Kirkeberg</t>
         </is>
       </c>
       <c r="N348" s="7" t="n">
-        <v>1988</v>
+        <v>1996</v>
       </c>
       <c r="O348" s="17" t="inlineStr">
         <is>
-          <t>16,45,77</t>
+          <t>16,45,26</t>
         </is>
       </c>
       <c r="P348" s="7" t="n">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="Q348" s="7" t="inlineStr">
         <is>
@@ -16040,22 +16040,22 @@
     <row r="349" ht="13" customHeight="1">
       <c r="B349" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C349" s="7" t="inlineStr">
         <is>
-          <t>Joe Aphisit Tepnuan</t>
+          <t>William-André Alver Sylta</t>
         </is>
       </c>
       <c r="D349" s="7" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="E349" s="15" t="n">
-        <v>12.01</v>
+        <v>24.29</v>
       </c>
       <c r="F349" s="7" t="n">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="G349" s="7" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         </is>
       </c>
       <c r="H349" s="16" t="n">
-        <v>5.08</v>
+        <v>10.05</v>
       </c>
       <c r="J349" s="5" t="n"/>
       <c r="L349" s="14" t="inlineStr">
@@ -16073,7 +16073,7 @@
       </c>
       <c r="M349" s="7" t="inlineStr">
         <is>
-          <t>Jon Drogset Østeng</t>
+          <t>Andrii Tishchenko</t>
         </is>
       </c>
       <c r="N349" s="7" t="n">
@@ -16081,11 +16081,11 @@
       </c>
       <c r="O349" s="17" t="inlineStr">
         <is>
-          <t>16,49,69</t>
+          <t>16,45,77</t>
         </is>
       </c>
       <c r="P349" s="7" t="n">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="Q349" s="7" t="inlineStr">
         <is>
@@ -16100,22 +16100,22 @@
     <row r="350" ht="13" customHeight="1">
       <c r="B350" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C350" s="7" t="inlineStr">
         <is>
-          <t>William-André Alver Sylta</t>
+          <t>Joe Aphisit Tepnuan</t>
         </is>
       </c>
       <c r="D350" s="7" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="E350" s="15" t="n">
-        <v>7.67</v>
+        <v>12.01</v>
       </c>
       <c r="F350" s="7" t="n">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="G350" s="7" t="inlineStr">
         <is>
@@ -16123,27 +16123,29 @@
         </is>
       </c>
       <c r="H350" s="16" t="n">
-        <v>10.05</v>
+        <v>5.08</v>
       </c>
       <c r="J350" s="5" t="n"/>
       <c r="L350" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M350" s="7" t="inlineStr">
         <is>
-          <t>Petter O. Fuglestrand</t>
+          <t>Jon Drogset Østeng</t>
         </is>
       </c>
       <c r="N350" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="O350" s="15" t="n">
-        <v>5.74</v>
+        <v>1988</v>
+      </c>
+      <c r="O350" s="17" t="inlineStr">
+        <is>
+          <t>16,49,69</t>
+        </is>
       </c>
       <c r="P350" s="7" t="n">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="Q350" s="7" t="inlineStr">
         <is>
@@ -16151,76 +16153,72 @@
         </is>
       </c>
       <c r="R350" s="16" t="n">
-        <v>21.01</v>
+        <v>28.05</v>
       </c>
       <c r="T350" s="5" t="n"/>
     </row>
     <row r="351" ht="13" customHeight="1">
       <c r="B351" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C351" s="7" t="inlineStr">
         <is>
-          <t>Daniel Bruvik</t>
+          <t>William-André Alver Sylta</t>
         </is>
       </c>
       <c r="D351" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="E351" s="17" t="inlineStr">
-        <is>
-          <t>9,37,78</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="E351" s="15" t="n">
+        <v>7.67</v>
       </c>
       <c r="F351" s="7" t="n">
-        <v>557</v>
+        <v>600</v>
       </c>
       <c r="G351" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="H351" s="16" t="n">
-        <v>14.08</v>
+        <v>10.05</v>
       </c>
       <c r="J351" s="5" t="n"/>
       <c r="L351" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M351" s="7" t="inlineStr">
         <is>
-          <t>Christian Bredesen</t>
+          <t>Petter O. Fuglestrand</t>
         </is>
       </c>
       <c r="N351" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O351" s="17" t="inlineStr">
-        <is>
-          <t>4,30,61</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="O351" s="15" t="n">
+        <v>5.74</v>
       </c>
       <c r="P351" s="7" t="n">
-        <v>521</v>
+        <v>547</v>
       </c>
       <c r="Q351" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R351" s="16" t="n">
-        <v>5.03</v>
+        <v>21.01</v>
       </c>
       <c r="T351" s="5" t="n"/>
     </row>
     <row r="352" ht="13" customHeight="1">
       <c r="B352" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C352" s="7" t="inlineStr">
@@ -16233,11 +16231,11 @@
       </c>
       <c r="E352" s="17" t="inlineStr">
         <is>
-          <t>16,52,24</t>
+          <t>9,37,78</t>
         </is>
       </c>
       <c r="F352" s="7" t="n">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="G352" s="7" t="inlineStr">
         <is>
@@ -16245,35 +16243,37 @@
         </is>
       </c>
       <c r="H352" s="16" t="n">
-        <v>5.07</v>
+        <v>14.08</v>
       </c>
       <c r="J352" s="5" t="n"/>
       <c r="L352" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M352" s="7" t="inlineStr">
         <is>
-          <t>Obaidullah Obaidi</t>
+          <t>Christian Bredesen</t>
         </is>
       </c>
       <c r="N352" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O352" s="15" t="n">
-        <v>12.48</v>
+        <v>2005</v>
+      </c>
+      <c r="O352" s="17" t="inlineStr">
+        <is>
+          <t>4,30,61</t>
+        </is>
       </c>
       <c r="P352" s="7" t="n">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="Q352" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R352" s="16" t="n">
-        <v>2.07</v>
+        <v>5.03</v>
       </c>
       <c r="T352" s="5" t="n"/>
     </row>
@@ -16308,30 +16308,30 @@
       <c r="J353" s="5" t="n"/>
       <c r="L353" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M353" s="7" t="inlineStr">
         <is>
-          <t>Sivert Wist Moen</t>
+          <t>Obaidullah Obaidi</t>
         </is>
       </c>
       <c r="N353" s="7" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="O353" s="15" t="n">
-        <v>11.58</v>
+        <v>12.48</v>
       </c>
       <c r="P353" s="7" t="n">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="Q353" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R353" s="16" t="n">
-        <v>17.09</v>
+        <v>2.07</v>
       </c>
       <c r="T353" s="5" t="n"/>
     </row>
@@ -16366,30 +16366,30 @@
       <c r="J354" s="5" t="n"/>
       <c r="L354" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M354" s="7" t="inlineStr">
         <is>
-          <t>Sivert Lyngstad</t>
+          <t>Sivert Wist Moen</t>
         </is>
       </c>
       <c r="N354" s="7" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="O354" s="15" t="n">
-        <v>25.51</v>
+        <v>11.58</v>
       </c>
       <c r="P354" s="7" t="n">
         <v>513</v>
       </c>
       <c r="Q354" s="7" t="inlineStr">
         <is>
-          <t>Esbjerg/DEN</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R354" s="16" t="n">
-        <v>17.06</v>
+        <v>17.09</v>
       </c>
       <c r="T354" s="5" t="n"/>
     </row>
@@ -16454,22 +16454,22 @@
     <row r="356" ht="13" customHeight="1">
       <c r="B356" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C356" s="7" t="inlineStr">
         <is>
-          <t>Magnus Reigstad</t>
+          <t>Sander Solberg Hopsdal</t>
         </is>
       </c>
       <c r="D356" s="7" t="n">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="E356" s="15" t="n">
-        <v>2.61</v>
+        <v>1.27</v>
       </c>
       <c r="F356" s="7" t="n">
-        <v>447</v>
+        <v>398</v>
       </c>
       <c r="G356" s="7" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         </is>
       </c>
       <c r="H356" s="16" t="n">
-        <v>16.01</v>
+        <v>6.03</v>
       </c>
       <c r="J356" s="5" t="n"/>
       <c r="L356" s="14" t="inlineStr">
@@ -16542,7 +16542,7 @@
         </is>
       </c>
       <c r="F358" s="20" t="n">
-        <v>9170</v>
+        <v>9219</v>
       </c>
       <c r="J358" s="5" t="n"/>
       <c r="L358" s="19" t="inlineStr">
@@ -16559,7 +16559,7 @@
         </is>
       </c>
       <c r="P358" s="20" t="n">
-        <v>8442</v>
+        <v>8628</v>
       </c>
       <c r="T358" s="5" t="n"/>
     </row>
@@ -16582,7 +16582,7 @@
         </is>
       </c>
       <c r="F360" s="20" t="n">
-        <v>19892</v>
+        <v>20063</v>
       </c>
       <c r="J360" s="5" t="n"/>
       <c r="L360" s="19" t="inlineStr">
@@ -16599,7 +16599,7 @@
         </is>
       </c>
       <c r="P360" s="20" t="n">
-        <v>19178</v>
+        <v>19364</v>
       </c>
       <c r="T360" s="5" t="n"/>
     </row>
@@ -16614,7 +16614,7 @@
         </is>
       </c>
       <c r="C362" s="20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J362" s="5" t="n"/>
       <c r="L362" s="19" t="inlineStr">
@@ -16623,7 +16623,7 @@
         </is>
       </c>
       <c r="M362" s="20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T362" s="5" t="n"/>
     </row>
@@ -16814,25 +16814,25 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Stord IL</t>
+          <t>Kristiansands IF Friidrett</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>(25/12)</t>
+          <t>(25/10)</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>17386</v>
+        <v>17536</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>(12/1d)</t>
+          <t>(1/3d)</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Agder</t>
         </is>
       </c>
     </row>
@@ -16842,25 +16842,25 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Kristiansands IF Friidrett</t>
+          <t>Stord IL</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>(25/10)</t>
+          <t>(25/12)</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>17381</v>
+        <v>17386</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>(1/3d)</t>
+          <t>(12/1d)</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -16879,7 +16879,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>16898</v>
+        <v>17097</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>16214</v>
+        <v>16257</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
@@ -16926,20 +16926,20 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>IL Gular</t>
+          <t>Fyllingen IL</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>(18/11)</t>
+          <t>(23/9)</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>15910</v>
+        <v>16009</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>(13/1d)</t>
+          <t>(4/3d)</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
@@ -16954,25 +16954,25 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IF Sturla</t>
+          <t>IL Gular</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>(25/10)</t>
+          <t>(18/11)</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>15897</v>
+        <v>15910</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>(9)</t>
+          <t>(13/1d)</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -16982,25 +16982,25 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>IK Hind</t>
+          <t>IF Sturla</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>(25/11)</t>
+          <t>(25/10)</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>15823</v>
+        <v>15897</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>(10)</t>
+          <t>(9)</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Buskerud</t>
         </is>
       </c>
     </row>
@@ -17010,25 +17010,25 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Fyllingen IL</t>
+          <t>IK Hind</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>(23/10)</t>
+          <t>(25/11)</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>15822</v>
+        <v>15823</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>(4/3d)</t>
+          <t>(10)</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Troms</t>
         </is>
       </c>
     </row>
@@ -17103,7 +17103,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>9386</v>
+        <v>9397</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
       </c>
       <c r="M49" s="7" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Agder</t>
         </is>
       </c>
       <c r="P49" s="8" t="n">
@@ -19161,7 +19161,7 @@
       </c>
       <c r="M50" s="7" t="inlineStr">
         <is>
-          <t>Stord IL</t>
+          <t>Kristiansands IF Friidrett</t>
         </is>
       </c>
       <c r="T50" s="5" t="n"/>
@@ -19318,25 +19318,25 @@
       </c>
       <c r="M56" s="7" t="inlineStr">
         <is>
-          <t>Steffen Tjensvoll Hollund</t>
+          <t>Johannes Steinsland Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="N56" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="O56" s="15" t="n">
-        <v>7.61</v>
+        <v>7.18</v>
       </c>
       <c r="P56" s="7" t="n">
-        <v>621</v>
+        <v>785</v>
       </c>
       <c r="Q56" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R56" s="16" t="n">
-        <v>18.01</v>
+        <v>11.02</v>
       </c>
       <c r="T56" s="5" t="n"/>
     </row>
@@ -19376,25 +19376,25 @@
       </c>
       <c r="M57" s="7" t="inlineStr">
         <is>
-          <t>Steffen Tjensvoll Hollund</t>
+          <t>Tobias Dybos Larsson</t>
         </is>
       </c>
       <c r="N57" s="7" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="O57" s="15" t="n">
-        <v>11.61</v>
+        <v>11.11</v>
       </c>
       <c r="P57" s="7" t="n">
-        <v>695</v>
+        <v>814</v>
       </c>
       <c r="Q57" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R57" s="16" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="T57" s="5" t="n"/>
     </row>
@@ -19434,25 +19434,25 @@
       </c>
       <c r="M58" s="7" t="inlineStr">
         <is>
-          <t>Steffen Tjensvoll Hollund</t>
+          <t>Johannes Steinsland Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="N58" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="O58" s="15" t="n">
-        <v>23.57</v>
+        <v>22.61</v>
       </c>
       <c r="P58" s="7" t="n">
-        <v>690</v>
+        <v>791</v>
       </c>
       <c r="Q58" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R58" s="16" t="n">
-        <v>2.09</v>
+        <v>16.06</v>
       </c>
       <c r="T58" s="5" t="n"/>
     </row>
@@ -19487,32 +19487,30 @@
       <c r="J59" s="5" t="n"/>
       <c r="L59" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M59" s="7" t="inlineStr">
         <is>
-          <t>Johannes Sandvik Bø</t>
+          <t>Snorre Cornelius Sund</t>
         </is>
       </c>
       <c r="N59" s="7" t="n">
         <v>2006</v>
       </c>
-      <c r="O59" s="17" t="inlineStr">
-        <is>
-          <t>1,55,07</t>
-        </is>
+      <c r="O59" s="15" t="n">
+        <v>54.03</v>
       </c>
       <c r="P59" s="7" t="n">
-        <v>791</v>
+        <v>602</v>
       </c>
       <c r="Q59" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R59" s="16" t="n">
-        <v>6.07</v>
+        <v>18.06</v>
       </c>
       <c r="T59" s="5" t="n"/>
     </row>
@@ -19549,32 +19547,32 @@
       <c r="J60" s="5" t="n"/>
       <c r="L60" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M60" s="7" t="inlineStr">
         <is>
-          <t>Johannes Sandvik Bø</t>
+          <t>Sigurd Tveit</t>
         </is>
       </c>
       <c r="N60" s="7" t="n">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="O60" s="17" t="inlineStr">
         <is>
-          <t>3,58,57</t>
+          <t>1,49,94</t>
         </is>
       </c>
       <c r="P60" s="7" t="n">
-        <v>775</v>
+        <v>918</v>
       </c>
       <c r="Q60" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Chengdu/CHN</t>
         </is>
       </c>
       <c r="R60" s="16" t="n">
-        <v>8.06</v>
+        <v>4.08</v>
       </c>
       <c r="T60" s="5" t="n"/>
     </row>
@@ -19611,32 +19609,32 @@
       <c r="J61" s="5" t="n"/>
       <c r="L61" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M61" s="7" t="inlineStr">
         <is>
-          <t>Tom Erling Kårbø</t>
+          <t>Sigurd Tveit</t>
         </is>
       </c>
       <c r="N61" s="7" t="n">
-        <v>1989</v>
+        <v>2000</v>
       </c>
       <c r="O61" s="17" t="inlineStr">
         <is>
-          <t>8,06,38</t>
+          <t>3,38,29</t>
         </is>
       </c>
       <c r="P61" s="7" t="n">
-        <v>924</v>
+        <v>1009</v>
       </c>
       <c r="Q61" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Berlin/GER</t>
         </is>
       </c>
       <c r="R61" s="16" t="n">
-        <v>11.08</v>
+        <v>3.09</v>
       </c>
       <c r="T61" s="5" t="n"/>
     </row>
@@ -19673,32 +19671,32 @@
       <c r="J62" s="5" t="n"/>
       <c r="L62" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M62" s="7" t="inlineStr">
         <is>
-          <t>Lars Lunde</t>
+          <t>Martin Ukkelberg Sløgedal</t>
         </is>
       </c>
       <c r="N62" s="7" t="n">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="O62" s="17" t="inlineStr">
         <is>
-          <t>14,49,71</t>
+          <t>8,52,86</t>
         </is>
       </c>
       <c r="P62" s="7" t="n">
-        <v>795</v>
+        <v>716</v>
       </c>
       <c r="Q62" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R62" s="16" t="n">
-        <v>6.07</v>
+        <v>8.09</v>
       </c>
       <c r="T62" s="5" t="n"/>
     </row>
@@ -19735,32 +19733,32 @@
       <c r="J63" s="5" t="n"/>
       <c r="L63" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M63" s="7" t="inlineStr">
         <is>
-          <t>Martin Schei</t>
+          <t>Martin Ukkelberg Sløgedal</t>
         </is>
       </c>
       <c r="N63" s="7" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="O63" s="17" t="inlineStr">
         <is>
-          <t>31,34,17</t>
+          <t>15,24,41</t>
         </is>
       </c>
       <c r="P63" s="7" t="n">
-        <v>764</v>
+        <v>719</v>
       </c>
       <c r="Q63" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R63" s="16" t="n">
-        <v>3.06</v>
+        <v>6.07</v>
       </c>
       <c r="T63" s="5" t="n"/>
     </row>
@@ -19797,32 +19795,32 @@
       <c r="J64" s="5" t="n"/>
       <c r="L64" s="14" t="inlineStr">
         <is>
-          <t>3000m hinder</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M64" s="7" t="inlineStr">
         <is>
-          <t>Tom Erling Kårbø</t>
+          <t>Martin Ukkelberg Sløgedal</t>
         </is>
       </c>
       <c r="N64" s="7" t="n">
-        <v>1989</v>
+        <v>2005</v>
       </c>
       <c r="O64" s="17" t="inlineStr">
         <is>
-          <t>8,31,51</t>
+          <t>31,52,87</t>
         </is>
       </c>
       <c r="P64" s="7" t="n">
-        <v>981</v>
+        <v>745</v>
       </c>
       <c r="Q64" s="7" t="inlineStr">
         <is>
-          <t>Liege/BEL</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R64" s="16" t="n">
-        <v>12.07</v>
+        <v>3.06</v>
       </c>
       <c r="T64" s="5" t="n"/>
     </row>
@@ -19857,30 +19855,30 @@
       <c r="J65" s="5" t="n"/>
       <c r="L65" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M65" s="7" t="inlineStr">
         <is>
-          <t>Oscar Sørvik Ånderå</t>
+          <t>Johannes Steinsland Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="N65" s="7" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="O65" s="15" t="n">
-        <v>1.8</v>
+        <v>6.4</v>
       </c>
       <c r="P65" s="7" t="n">
-        <v>652</v>
+        <v>696</v>
       </c>
       <c r="Q65" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R65" s="16" t="n">
-        <v>8.09</v>
+        <v>19.02</v>
       </c>
       <c r="T65" s="5" t="n"/>
     </row>
@@ -19915,30 +19913,30 @@
       <c r="J66" s="5" t="n"/>
       <c r="L66" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M66" s="7" t="inlineStr">
         <is>
-          <t>Oddvar Hårde</t>
+          <t>Johannes Steinsland Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="N66" s="7" t="n">
-        <v>1969</v>
+        <v>2003</v>
       </c>
       <c r="O66" s="15" t="n">
-        <v>3.35</v>
+        <v>1.4</v>
       </c>
       <c r="P66" s="7" t="n">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="Q66" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R66" s="16" t="n">
-        <v>11.02</v>
+        <v>13.01</v>
       </c>
       <c r="T66" s="5" t="n"/>
     </row>
@@ -19973,30 +19971,30 @@
       <c r="J67" s="5" t="n"/>
       <c r="L67" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M67" s="7" t="inlineStr">
         <is>
-          <t>Oscar Sørvik Ånderå</t>
+          <t>Åsmund Frøyen</t>
         </is>
       </c>
       <c r="N67" s="7" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="O67" s="15" t="n">
-        <v>1.41</v>
+        <v>33.23</v>
       </c>
       <c r="P67" s="7" t="n">
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="Q67" s="7" t="inlineStr">
         <is>
-          <t>Bømlo</t>
+          <t>Arendal</t>
         </is>
       </c>
       <c r="R67" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>19.08</v>
       </c>
       <c r="T67" s="5" t="n"/>
     </row>
@@ -20031,30 +20029,30 @@
       <c r="J68" s="5" t="n"/>
       <c r="L68" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M68" s="7" t="inlineStr">
         <is>
-          <t>Julian Skimmeland Aasheim</t>
+          <t>Daniel Thrana</t>
         </is>
       </c>
       <c r="N68" s="7" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="O68" s="15" t="n">
-        <v>2.88</v>
+        <v>78.8</v>
       </c>
       <c r="P68" s="7" t="n">
-        <v>605</v>
+        <v>1023</v>
       </c>
       <c r="Q68" s="7" t="inlineStr">
         <is>
-          <t>Leirvik</t>
+          <t>Haderslev/DEN</t>
         </is>
       </c>
       <c r="R68" s="16" t="n">
-        <v>23.01</v>
+        <v>3.06</v>
       </c>
       <c r="T68" s="5" t="n"/>
     </row>
@@ -20108,7 +20106,7 @@
         </is>
       </c>
       <c r="P70" s="20" t="n">
-        <v>9446</v>
+        <v>9930</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
@@ -20241,32 +20239,30 @@
       <c r="J75" s="5" t="n"/>
       <c r="L75" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M75" s="7" t="inlineStr">
         <is>
-          <t>Erlend Kringeland</t>
+          <t>Johannes Steinsland Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="N75" s="7" t="n">
         <v>2003</v>
       </c>
-      <c r="O75" s="17" t="inlineStr">
-        <is>
-          <t>8,30,48</t>
-        </is>
+      <c r="O75" s="15" t="n">
+        <v>11.18</v>
       </c>
       <c r="P75" s="7" t="n">
-        <v>811</v>
+        <v>796</v>
       </c>
       <c r="Q75" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R75" s="16" t="n">
-        <v>4.05</v>
+        <v>6.07</v>
       </c>
       <c r="T75" s="5" t="n"/>
     </row>
@@ -20301,32 +20297,30 @@
       <c r="J76" s="5" t="n"/>
       <c r="L76" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M76" s="7" t="inlineStr">
         <is>
-          <t>Johannes Sandvik Bø</t>
+          <t>Snorre Cornelius Sund</t>
         </is>
       </c>
       <c r="N76" s="7" t="n">
         <v>2006</v>
       </c>
-      <c r="O76" s="17" t="inlineStr">
-        <is>
-          <t>8,42,57</t>
-        </is>
+      <c r="O76" s="15" t="n">
+        <v>22.76</v>
       </c>
       <c r="P76" s="7" t="n">
-        <v>758</v>
+        <v>775</v>
       </c>
       <c r="Q76" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R76" s="16" t="n">
-        <v>16.06</v>
+        <v>26.08</v>
       </c>
       <c r="T76" s="5" t="n"/>
     </row>
@@ -20363,32 +20357,30 @@
       <c r="J77" s="5" t="n"/>
       <c r="L77" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M77" s="7" t="inlineStr">
         <is>
-          <t>Martin Schei</t>
+          <t>Snorre Cornelius Sund</t>
         </is>
       </c>
       <c r="N77" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O77" s="17" t="inlineStr">
-        <is>
-          <t>15,11,34</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="O77" s="15" t="n">
+        <v>11.31</v>
       </c>
       <c r="P77" s="7" t="n">
-        <v>747</v>
+        <v>765</v>
       </c>
       <c r="Q77" s="7" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R77" s="16" t="n">
-        <v>17.08</v>
+        <v>9.09</v>
       </c>
       <c r="T77" s="5" t="n"/>
     </row>
@@ -20423,32 +20415,30 @@
       <c r="J78" s="5" t="n"/>
       <c r="L78" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M78" s="7" t="inlineStr">
         <is>
-          <t>Johannes Sandvik Bø</t>
+          <t>Tobias Dybos Larsson</t>
         </is>
       </c>
       <c r="N78" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O78" s="17" t="inlineStr">
-        <is>
-          <t>15,14,7</t>
-        </is>
+        <v>2002</v>
+      </c>
+      <c r="O78" s="15" t="n">
+        <v>7.28</v>
       </c>
       <c r="P78" s="7" t="n">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="Q78" s="7" t="inlineStr">
         <is>
-          <t>Austevoll</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R78" s="16" t="n">
-        <v>7.05</v>
+        <v>18.02</v>
       </c>
       <c r="T78" s="5" t="n"/>
     </row>
@@ -20483,32 +20473,30 @@
       <c r="J79" s="5" t="n"/>
       <c r="L79" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M79" s="7" t="inlineStr">
         <is>
-          <t>Vegard Havn</t>
+          <t>Snorre Cornelius Sund</t>
         </is>
       </c>
       <c r="N79" s="7" t="n">
-        <v>1997</v>
-      </c>
-      <c r="O79" s="17" t="inlineStr">
-        <is>
-          <t>8,53,92</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="O79" s="15" t="n">
+        <v>7.33</v>
       </c>
       <c r="P79" s="7" t="n">
-        <v>712</v>
+        <v>725</v>
       </c>
       <c r="Q79" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R79" s="16" t="n">
-        <v>19.08</v>
+        <v>11.02</v>
       </c>
       <c r="T79" s="5" t="n"/>
     </row>
@@ -20545,24 +20533,22 @@
       <c r="J80" s="5" t="n"/>
       <c r="L80" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M80" s="7" t="inlineStr">
         <is>
-          <t>Erlend Kringeland</t>
+          <t>Tobias Dybos Larsson</t>
         </is>
       </c>
       <c r="N80" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O80" s="17" t="inlineStr">
-        <is>
-          <t>1,58,94</t>
-        </is>
+        <v>2002</v>
+      </c>
+      <c r="O80" s="15" t="n">
+        <v>23.42</v>
       </c>
       <c r="P80" s="7" t="n">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="Q80" s="7" t="inlineStr">
         <is>
@@ -20570,7 +20556,7 @@
         </is>
       </c>
       <c r="R80" s="16" t="n">
-        <v>17.06</v>
+        <v>16.06</v>
       </c>
       <c r="T80" s="5" t="n"/>
     </row>
@@ -20605,32 +20591,30 @@
       <c r="J81" s="5" t="n"/>
       <c r="L81" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M81" s="7" t="inlineStr">
         <is>
-          <t>Martin Schei</t>
+          <t>Olai Stav Graasvoll</t>
         </is>
       </c>
       <c r="N81" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O81" s="17" t="inlineStr">
-        <is>
-          <t>8,54,83</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="O81" s="15" t="n">
+        <v>5.79</v>
       </c>
       <c r="P81" s="7" t="n">
-        <v>708</v>
+        <v>558</v>
       </c>
       <c r="Q81" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Rjukan</t>
         </is>
       </c>
       <c r="R81" s="16" t="n">
-        <v>16.05</v>
+        <v>2.09</v>
       </c>
       <c r="T81" s="5" t="n"/>
     </row>
@@ -20665,32 +20649,30 @@
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M82" s="7" t="inlineStr">
         <is>
-          <t>Jacob Hystad</t>
+          <t>Olai Stav Graasvoll</t>
         </is>
       </c>
       <c r="N82" s="7" t="n">
-        <v>1990</v>
-      </c>
-      <c r="O82" s="17" t="inlineStr">
-        <is>
-          <t>15,45,76</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="O82" s="15" t="n">
+        <v>7.84</v>
       </c>
       <c r="P82" s="7" t="n">
-        <v>674</v>
+        <v>545</v>
       </c>
       <c r="Q82" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Søgne</t>
         </is>
       </c>
       <c r="R82" s="16" t="n">
-        <v>28.06</v>
+        <v>23.05</v>
       </c>
       <c r="T82" s="5" t="n"/>
     </row>
@@ -20725,30 +20707,30 @@
       <c r="J83" s="5" t="n"/>
       <c r="L83" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M83" s="7" t="inlineStr">
         <is>
-          <t>Steffen Tjensvoll Hollund</t>
+          <t>Hans Horn Tønnesen</t>
         </is>
       </c>
       <c r="N83" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="O83" s="15" t="n">
-        <v>5.72</v>
+        <v>12.39</v>
       </c>
       <c r="P83" s="7" t="n">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="Q83" s="7" t="inlineStr">
         <is>
-          <t>Leirvik</t>
+          <t>Søgne</t>
         </is>
       </c>
       <c r="R83" s="16" t="n">
-        <v>13.08</v>
+        <v>16.09</v>
       </c>
       <c r="T83" s="5" t="n"/>
     </row>
@@ -20783,30 +20765,30 @@
       <c r="J84" s="5" t="n"/>
       <c r="L84" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M84" s="7" t="inlineStr">
         <is>
-          <t>Per Gregersen</t>
+          <t>Daniel Thrana</t>
         </is>
       </c>
       <c r="N84" s="7" t="n">
-        <v>1970</v>
+        <v>2002</v>
       </c>
       <c r="O84" s="15" t="n">
-        <v>3.1</v>
+        <v>11.04</v>
       </c>
       <c r="P84" s="7" t="n">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="Q84" s="7" t="inlineStr">
         <is>
-          <t>Reykjavik/ISL</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R84" s="16" t="n">
-        <v>25.02</v>
+        <v>28.01</v>
       </c>
       <c r="T84" s="5" t="n"/>
     </row>
@@ -20841,30 +20823,30 @@
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M85" s="7" t="inlineStr">
         <is>
-          <t>Steffen Tjensvoll Hollund</t>
+          <t>Sindre Netland</t>
         </is>
       </c>
       <c r="N85" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="O85" s="15" t="n">
-        <v>2.72</v>
+        <v>39.49</v>
       </c>
       <c r="P85" s="7" t="n">
-        <v>515</v>
+        <v>479</v>
       </c>
       <c r="Q85" s="7" t="inlineStr">
         <is>
-          <t>Bømlo</t>
+          <t>Søgne</t>
         </is>
       </c>
       <c r="R85" s="16" t="n">
-        <v>9.02</v>
+        <v>16.09</v>
       </c>
       <c r="T85" s="5" t="n"/>
     </row>
@@ -20899,30 +20881,30 @@
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M86" s="7" t="inlineStr">
         <is>
-          <t>Oscar Sørvik Ånderå</t>
+          <t>Snorre Cornelius Sund</t>
         </is>
       </c>
       <c r="N86" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O86" s="15" t="n">
-        <v>2.7</v>
+        <v>5.35</v>
       </c>
       <c r="P86" s="7" t="n">
-        <v>503</v>
+        <v>455</v>
       </c>
       <c r="Q86" s="7" t="inlineStr">
         <is>
-          <t>Bømlo</t>
+          <t>Søgne</t>
         </is>
       </c>
       <c r="R86" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>16.09</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -20976,7 +20958,7 @@
         </is>
       </c>
       <c r="P88" s="20" t="n">
-        <v>7940</v>
+        <v>7606</v>
       </c>
       <c r="T88" s="5" t="n"/>
     </row>
@@ -21016,7 +20998,7 @@
         </is>
       </c>
       <c r="P90" s="20" t="n">
-        <v>17386</v>
+        <v>17536</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
@@ -21040,7 +21022,7 @@
         </is>
       </c>
       <c r="M92" s="20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T92" s="5" t="n"/>
     </row>
@@ -21082,7 +21064,7 @@
       </c>
       <c r="C96" s="7" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="F96" s="8" t="n">
@@ -21112,7 +21094,7 @@
       </c>
       <c r="C97" s="7" t="inlineStr">
         <is>
-          <t>Kristiansands IF Friidrett</t>
+          <t>Stord IL</t>
         </is>
       </c>
       <c r="J97" s="5" t="n"/>
@@ -21252,25 +21234,25 @@
       </c>
       <c r="C103" s="7" t="inlineStr">
         <is>
-          <t>Johannes Steinsland Gulbrandsen Lunde</t>
+          <t>Steffen Tjensvoll Hollund</t>
         </is>
       </c>
       <c r="D103" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="E103" s="15" t="n">
-        <v>7.18</v>
+        <v>7.61</v>
       </c>
       <c r="F103" s="7" t="n">
-        <v>785</v>
+        <v>621</v>
       </c>
       <c r="G103" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H103" s="16" t="n">
-        <v>11.02</v>
+        <v>18.01</v>
       </c>
       <c r="J103" s="5" t="n"/>
       <c r="L103" s="14" t="inlineStr">
@@ -21310,25 +21292,25 @@
       </c>
       <c r="C104" s="7" t="inlineStr">
         <is>
-          <t>Tobias Dybos Larsson</t>
+          <t>Steffen Tjensvoll Hollund</t>
         </is>
       </c>
       <c r="D104" s="7" t="n">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="E104" s="15" t="n">
-        <v>11.11</v>
+        <v>11.61</v>
       </c>
       <c r="F104" s="7" t="n">
-        <v>814</v>
+        <v>695</v>
       </c>
       <c r="G104" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H104" s="16" t="n">
-        <v>6.07</v>
+        <v>6.08</v>
       </c>
       <c r="J104" s="5" t="n"/>
       <c r="L104" s="14" t="inlineStr">
@@ -21368,25 +21350,25 @@
       </c>
       <c r="C105" s="7" t="inlineStr">
         <is>
-          <t>Johannes Steinsland Gulbrandsen Lunde</t>
+          <t>Steffen Tjensvoll Hollund</t>
         </is>
       </c>
       <c r="D105" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="E105" s="15" t="n">
-        <v>22.61</v>
+        <v>23.57</v>
       </c>
       <c r="F105" s="7" t="n">
-        <v>791</v>
+        <v>690</v>
       </c>
       <c r="G105" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H105" s="16" t="n">
-        <v>16.06</v>
+        <v>2.09</v>
       </c>
       <c r="J105" s="5" t="n"/>
       <c r="L105" s="14" t="inlineStr">
@@ -21421,30 +21403,32 @@
     <row r="106" ht="13" customHeight="1">
       <c r="B106" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C106" s="7" t="inlineStr">
         <is>
-          <t>Snorre Cornelius Sund</t>
+          <t>Johannes Sandvik Bø</t>
         </is>
       </c>
       <c r="D106" s="7" t="n">
         <v>2006</v>
       </c>
-      <c r="E106" s="15" t="n">
-        <v>54.03</v>
+      <c r="E106" s="17" t="inlineStr">
+        <is>
+          <t>1,55,07</t>
+        </is>
       </c>
       <c r="F106" s="7" t="n">
-        <v>602</v>
+        <v>791</v>
       </c>
       <c r="G106" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H106" s="16" t="n">
-        <v>18.06</v>
+        <v>6.07</v>
       </c>
       <c r="J106" s="5" t="n"/>
       <c r="L106" s="14" t="inlineStr">
@@ -21479,32 +21463,32 @@
     <row r="107" ht="13" customHeight="1">
       <c r="B107" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C107" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Tveit</t>
+          <t>Johannes Sandvik Bø</t>
         </is>
       </c>
       <c r="D107" s="7" t="n">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="E107" s="17" t="inlineStr">
         <is>
-          <t>1,49,94</t>
+          <t>3,58,57</t>
         </is>
       </c>
       <c r="F107" s="7" t="n">
-        <v>918</v>
+        <v>775</v>
       </c>
       <c r="G107" s="7" t="inlineStr">
         <is>
-          <t>Chengdu/CHN</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H107" s="16" t="n">
-        <v>4.08</v>
+        <v>8.06</v>
       </c>
       <c r="J107" s="5" t="n"/>
       <c r="L107" s="14" t="inlineStr">
@@ -21541,32 +21525,32 @@
     <row r="108" ht="13" customHeight="1">
       <c r="B108" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C108" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Tveit</t>
+          <t>Tom Erling Kårbø</t>
         </is>
       </c>
       <c r="D108" s="7" t="n">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="E108" s="17" t="inlineStr">
         <is>
-          <t>3,38,29</t>
+          <t>8,06,38</t>
         </is>
       </c>
       <c r="F108" s="7" t="n">
-        <v>1009</v>
+        <v>924</v>
       </c>
       <c r="G108" s="7" t="inlineStr">
         <is>
-          <t>Berlin/GER</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H108" s="16" t="n">
-        <v>3.09</v>
+        <v>11.08</v>
       </c>
       <c r="J108" s="5" t="n"/>
       <c r="L108" s="14" t="inlineStr">
@@ -21576,59 +21560,59 @@
       </c>
       <c r="M108" s="7" t="inlineStr">
         <is>
-          <t>Dennis Bergstrøm-Bendixen</t>
+          <t>Stian Flo</t>
         </is>
       </c>
       <c r="N108" s="7" t="n">
-        <v>2006</v>
+        <v>1985</v>
       </c>
       <c r="O108" s="17" t="inlineStr">
         <is>
-          <t>4,16,54</t>
+          <t>4,09,7</t>
         </is>
       </c>
       <c r="P108" s="7" t="n">
-        <v>620</v>
+        <v>674</v>
       </c>
       <c r="Q108" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R108" s="16" t="n">
-        <v>12.08</v>
+        <v>19.09</v>
       </c>
       <c r="T108" s="5" t="n"/>
     </row>
     <row r="109" ht="13" customHeight="1">
       <c r="B109" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C109" s="7" t="inlineStr">
         <is>
-          <t>Martin Ukkelberg Sløgedal</t>
+          <t>Lars Lunde</t>
         </is>
       </c>
       <c r="D109" s="7" t="n">
-        <v>2005</v>
+        <v>1997</v>
       </c>
       <c r="E109" s="17" t="inlineStr">
         <is>
-          <t>8,52,86</t>
+          <t>14,49,71</t>
         </is>
       </c>
       <c r="F109" s="7" t="n">
-        <v>716</v>
+        <v>795</v>
       </c>
       <c r="G109" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H109" s="16" t="n">
-        <v>8.09</v>
+        <v>6.07</v>
       </c>
       <c r="J109" s="5" t="n"/>
       <c r="L109" s="14" t="inlineStr">
@@ -21665,32 +21649,32 @@
     <row r="110" ht="13" customHeight="1">
       <c r="B110" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="C110" s="7" t="inlineStr">
         <is>
-          <t>Martin Ukkelberg Sløgedal</t>
+          <t>Martin Schei</t>
         </is>
       </c>
       <c r="D110" s="7" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="E110" s="17" t="inlineStr">
         <is>
-          <t>15,24,41</t>
+          <t>31,34,17</t>
         </is>
       </c>
       <c r="F110" s="7" t="n">
-        <v>719</v>
+        <v>764</v>
       </c>
       <c r="G110" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H110" s="16" t="n">
-        <v>6.07</v>
+        <v>3.06</v>
       </c>
       <c r="J110" s="5" t="n"/>
       <c r="L110" s="14" t="inlineStr">
@@ -21727,32 +21711,32 @@
     <row r="111" ht="13" customHeight="1">
       <c r="B111" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>3000m hinder</t>
         </is>
       </c>
       <c r="C111" s="7" t="inlineStr">
         <is>
-          <t>Martin Ukkelberg Sløgedal</t>
+          <t>Tom Erling Kårbø</t>
         </is>
       </c>
       <c r="D111" s="7" t="n">
-        <v>2005</v>
+        <v>1989</v>
       </c>
       <c r="E111" s="17" t="inlineStr">
         <is>
-          <t>31,52,87</t>
+          <t>8,31,51</t>
         </is>
       </c>
       <c r="F111" s="7" t="n">
-        <v>745</v>
+        <v>981</v>
       </c>
       <c r="G111" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Liege/BEL</t>
         </is>
       </c>
       <c r="H111" s="16" t="n">
-        <v>3.06</v>
+        <v>12.07</v>
       </c>
       <c r="J111" s="5" t="n"/>
       <c r="L111" s="14" t="inlineStr">
@@ -21789,30 +21773,30 @@
     <row r="112" ht="13" customHeight="1">
       <c r="B112" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C112" s="7" t="inlineStr">
         <is>
-          <t>Johannes Steinsland Gulbrandsen Lunde</t>
+          <t>Oscar Sørvik Ånderå</t>
         </is>
       </c>
       <c r="D112" s="7" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E112" s="15" t="n">
-        <v>6.4</v>
+        <v>1.8</v>
       </c>
       <c r="F112" s="7" t="n">
-        <v>696</v>
+        <v>652</v>
       </c>
       <c r="G112" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H112" s="16" t="n">
-        <v>19.02</v>
+        <v>8.09</v>
       </c>
       <c r="J112" s="5" t="n"/>
       <c r="L112" s="14" t="inlineStr">
@@ -21847,30 +21831,30 @@
     <row r="113" ht="13" customHeight="1">
       <c r="B113" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C113" s="7" t="inlineStr">
         <is>
-          <t>Johannes Steinsland Gulbrandsen Lunde</t>
+          <t>Oddvar Hårde</t>
         </is>
       </c>
       <c r="D113" s="7" t="n">
-        <v>2003</v>
+        <v>1969</v>
       </c>
       <c r="E113" s="15" t="n">
-        <v>1.4</v>
+        <v>3.35</v>
       </c>
       <c r="F113" s="7" t="n">
-        <v>561</v>
+        <v>581</v>
       </c>
       <c r="G113" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H113" s="16" t="n">
-        <v>13.01</v>
+        <v>11.02</v>
       </c>
       <c r="J113" s="5" t="n"/>
       <c r="L113" s="14" t="inlineStr">
@@ -21905,30 +21889,30 @@
     <row r="114" ht="13" customHeight="1">
       <c r="B114" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C114" s="7" t="inlineStr">
         <is>
-          <t>Åsmund Frøyen</t>
+          <t>Oscar Sørvik Ånderå</t>
         </is>
       </c>
       <c r="D114" s="7" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="E114" s="15" t="n">
-        <v>33.23</v>
+        <v>1.41</v>
       </c>
       <c r="F114" s="7" t="n">
-        <v>551</v>
+        <v>572</v>
       </c>
       <c r="G114" s="7" t="inlineStr">
         <is>
-          <t>Arendal</t>
+          <t>Bømlo</t>
         </is>
       </c>
       <c r="H114" s="16" t="n">
-        <v>19.08</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J114" s="5" t="n"/>
       <c r="L114" s="14" t="inlineStr">
@@ -21963,30 +21947,30 @@
     <row r="115" ht="13" customHeight="1">
       <c r="B115" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C115" s="7" t="inlineStr">
         <is>
-          <t>Daniel Thrana</t>
+          <t>Julian Skimmeland Aasheim</t>
         </is>
       </c>
       <c r="D115" s="7" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E115" s="15" t="n">
-        <v>78.8</v>
+        <v>2.88</v>
       </c>
       <c r="F115" s="7" t="n">
-        <v>1023</v>
+        <v>605</v>
       </c>
       <c r="G115" s="7" t="inlineStr">
         <is>
-          <t>Haderslev/DEN</t>
+          <t>Leirvik</t>
         </is>
       </c>
       <c r="H115" s="16" t="n">
-        <v>3.06</v>
+        <v>23.01</v>
       </c>
       <c r="J115" s="5" t="n"/>
       <c r="L115" s="14" t="inlineStr">
@@ -22051,7 +22035,7 @@
         </is>
       </c>
       <c r="F117" s="20" t="n">
-        <v>9930</v>
+        <v>9446</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="19" t="inlineStr">
@@ -22068,7 +22052,7 @@
         </is>
       </c>
       <c r="P117" s="20" t="n">
-        <v>9097</v>
+        <v>9151</v>
       </c>
       <c r="T117" s="5" t="n"/>
     </row>
@@ -22171,30 +22155,32 @@
     <row r="122" ht="13" customHeight="1">
       <c r="B122" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C122" s="7" t="inlineStr">
         <is>
-          <t>Johannes Steinsland Gulbrandsen Lunde</t>
+          <t>Erlend Kringeland</t>
         </is>
       </c>
       <c r="D122" s="7" t="n">
         <v>2003</v>
       </c>
-      <c r="E122" s="15" t="n">
-        <v>11.18</v>
+      <c r="E122" s="17" t="inlineStr">
+        <is>
+          <t>8,30,48</t>
+        </is>
       </c>
       <c r="F122" s="7" t="n">
-        <v>796</v>
+        <v>811</v>
       </c>
       <c r="G122" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H122" s="16" t="n">
-        <v>6.07</v>
+        <v>4.05</v>
       </c>
       <c r="J122" s="5" t="n"/>
       <c r="L122" s="14" t="inlineStr">
@@ -22229,30 +22215,32 @@
     <row r="123" ht="13" customHeight="1">
       <c r="B123" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C123" s="7" t="inlineStr">
         <is>
-          <t>Snorre Cornelius Sund</t>
+          <t>Johannes Sandvik Bø</t>
         </is>
       </c>
       <c r="D123" s="7" t="n">
         <v>2006</v>
       </c>
-      <c r="E123" s="15" t="n">
-        <v>22.76</v>
+      <c r="E123" s="17" t="inlineStr">
+        <is>
+          <t>8,42,57</t>
+        </is>
       </c>
       <c r="F123" s="7" t="n">
-        <v>775</v>
+        <v>758</v>
       </c>
       <c r="G123" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H123" s="16" t="n">
-        <v>26.08</v>
+        <v>16.06</v>
       </c>
       <c r="J123" s="5" t="n"/>
       <c r="L123" s="14" t="inlineStr">
@@ -22287,30 +22275,32 @@
     <row r="124" ht="13" customHeight="1">
       <c r="B124" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C124" s="7" t="inlineStr">
         <is>
-          <t>Snorre Cornelius Sund</t>
+          <t>Martin Schei</t>
         </is>
       </c>
       <c r="D124" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E124" s="15" t="n">
-        <v>11.31</v>
+        <v>2000</v>
+      </c>
+      <c r="E124" s="17" t="inlineStr">
+        <is>
+          <t>15,11,34</t>
+        </is>
       </c>
       <c r="F124" s="7" t="n">
-        <v>765</v>
+        <v>747</v>
       </c>
       <c r="G124" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="H124" s="16" t="n">
-        <v>9.09</v>
+        <v>17.08</v>
       </c>
       <c r="J124" s="5" t="n"/>
       <c r="L124" s="14" t="inlineStr">
@@ -22345,30 +22335,32 @@
     <row r="125" ht="13" customHeight="1">
       <c r="B125" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C125" s="7" t="inlineStr">
         <is>
-          <t>Tobias Dybos Larsson</t>
+          <t>Johannes Sandvik Bø</t>
         </is>
       </c>
       <c r="D125" s="7" t="n">
-        <v>2002</v>
-      </c>
-      <c r="E125" s="15" t="n">
-        <v>7.28</v>
+        <v>2006</v>
+      </c>
+      <c r="E125" s="17" t="inlineStr">
+        <is>
+          <t>15,14,7</t>
+        </is>
       </c>
       <c r="F125" s="7" t="n">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="G125" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Austevoll</t>
         </is>
       </c>
       <c r="H125" s="16" t="n">
-        <v>18.02</v>
+        <v>7.05</v>
       </c>
       <c r="J125" s="5" t="n"/>
       <c r="L125" s="14" t="inlineStr">
@@ -22403,30 +22395,32 @@
     <row r="126" ht="13" customHeight="1">
       <c r="B126" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C126" s="7" t="inlineStr">
         <is>
-          <t>Snorre Cornelius Sund</t>
+          <t>Vegard Havn</t>
         </is>
       </c>
       <c r="D126" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E126" s="15" t="n">
-        <v>7.33</v>
+        <v>1997</v>
+      </c>
+      <c r="E126" s="17" t="inlineStr">
+        <is>
+          <t>8,53,92</t>
+        </is>
       </c>
       <c r="F126" s="7" t="n">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="G126" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H126" s="16" t="n">
-        <v>11.02</v>
+        <v>19.08</v>
       </c>
       <c r="J126" s="5" t="n"/>
       <c r="L126" s="14" t="inlineStr">
@@ -22461,22 +22455,24 @@
     <row r="127" ht="13" customHeight="1">
       <c r="B127" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C127" s="7" t="inlineStr">
         <is>
-          <t>Tobias Dybos Larsson</t>
+          <t>Erlend Kringeland</t>
         </is>
       </c>
       <c r="D127" s="7" t="n">
-        <v>2002</v>
-      </c>
-      <c r="E127" s="15" t="n">
-        <v>23.42</v>
+        <v>2003</v>
+      </c>
+      <c r="E127" s="17" t="inlineStr">
+        <is>
+          <t>1,58,94</t>
+        </is>
       </c>
       <c r="F127" s="7" t="n">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="G127" s="7" t="inlineStr">
         <is>
@@ -22484,7 +22480,7 @@
         </is>
       </c>
       <c r="H127" s="16" t="n">
-        <v>16.06</v>
+        <v>17.06</v>
       </c>
       <c r="J127" s="5" t="n"/>
       <c r="L127" s="14" t="inlineStr">
@@ -22519,30 +22515,32 @@
     <row r="128" ht="13" customHeight="1">
       <c r="B128" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C128" s="7" t="inlineStr">
         <is>
-          <t>Olai Stav Graasvoll</t>
+          <t>Martin Schei</t>
         </is>
       </c>
       <c r="D128" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E128" s="15" t="n">
-        <v>5.79</v>
+        <v>2000</v>
+      </c>
+      <c r="E128" s="17" t="inlineStr">
+        <is>
+          <t>8,54,83</t>
+        </is>
       </c>
       <c r="F128" s="7" t="n">
-        <v>558</v>
+        <v>708</v>
       </c>
       <c r="G128" s="7" t="inlineStr">
         <is>
-          <t>Rjukan</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H128" s="16" t="n">
-        <v>2.09</v>
+        <v>16.05</v>
       </c>
       <c r="J128" s="5" t="n"/>
       <c r="L128" s="14" t="inlineStr">
@@ -22577,30 +22575,32 @@
     <row r="129" ht="13" customHeight="1">
       <c r="B129" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C129" s="7" t="inlineStr">
         <is>
-          <t>Olai Stav Graasvoll</t>
+          <t>Jacob Hystad</t>
         </is>
       </c>
       <c r="D129" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E129" s="15" t="n">
-        <v>7.84</v>
+        <v>1990</v>
+      </c>
+      <c r="E129" s="17" t="inlineStr">
+        <is>
+          <t>15,45,76</t>
+        </is>
       </c>
       <c r="F129" s="7" t="n">
-        <v>545</v>
+        <v>674</v>
       </c>
       <c r="G129" s="7" t="inlineStr">
         <is>
-          <t>Søgne</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H129" s="16" t="n">
-        <v>23.05</v>
+        <v>28.06</v>
       </c>
       <c r="J129" s="5" t="n"/>
       <c r="L129" s="14" t="inlineStr">
@@ -22635,30 +22635,30 @@
     <row r="130" ht="13" customHeight="1">
       <c r="B130" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C130" s="7" t="inlineStr">
         <is>
-          <t>Daniel Thrana</t>
+          <t>Steffen Tjensvoll Hollund</t>
         </is>
       </c>
       <c r="D130" s="7" t="n">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="E130" s="15" t="n">
-        <v>11.04</v>
+        <v>5.72</v>
       </c>
       <c r="F130" s="7" t="n">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="G130" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Leirvik</t>
         </is>
       </c>
       <c r="H130" s="16" t="n">
-        <v>28.01</v>
+        <v>13.08</v>
       </c>
       <c r="J130" s="5" t="n"/>
       <c r="L130" s="14" t="inlineStr">
@@ -22693,35 +22693,35 @@
     <row r="131" ht="13" customHeight="1">
       <c r="B131" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C131" s="7" t="inlineStr">
         <is>
-          <t>Olai Stav Graasvoll</t>
+          <t>Per Gregersen</t>
         </is>
       </c>
       <c r="D131" s="7" t="n">
-        <v>2009</v>
+        <v>1970</v>
       </c>
       <c r="E131" s="15" t="n">
-        <v>12.48</v>
+        <v>3.1</v>
       </c>
       <c r="F131" s="7" t="n">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="G131" s="7" t="inlineStr">
         <is>
-          <t>Søgne</t>
+          <t>Reykjavik/ISL</t>
         </is>
       </c>
       <c r="H131" s="16" t="n">
-        <v>23.05</v>
+        <v>25.02</v>
       </c>
       <c r="J131" s="5" t="n"/>
       <c r="L131" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M131" s="7" t="inlineStr">
@@ -22733,10 +22733,10 @@
         <v>1999</v>
       </c>
       <c r="O131" s="15" t="n">
-        <v>8.220000000000001</v>
+        <v>32.91</v>
       </c>
       <c r="P131" s="7" t="n">
-        <v>311</v>
+        <v>378</v>
       </c>
       <c r="Q131" s="7" t="inlineStr">
         <is>
@@ -22744,57 +22744,57 @@
         </is>
       </c>
       <c r="R131" s="16" t="n">
-        <v>19.07</v>
+        <v>19.09</v>
       </c>
       <c r="T131" s="5" t="n"/>
     </row>
     <row r="132" ht="13" customHeight="1">
       <c r="B132" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C132" s="7" t="inlineStr">
         <is>
-          <t>Hans Horn Tønnessen</t>
+          <t>Steffen Tjensvoll Hollund</t>
         </is>
       </c>
       <c r="D132" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E132" s="15" t="n">
-        <v>5.12</v>
+        <v>2.72</v>
       </c>
       <c r="F132" s="7" t="n">
-        <v>400</v>
+        <v>515</v>
       </c>
       <c r="G132" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Bømlo</t>
         </is>
       </c>
       <c r="H132" s="16" t="n">
-        <v>28.01</v>
+        <v>9.02</v>
       </c>
       <c r="J132" s="5" t="n"/>
       <c r="L132" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M132" s="7" t="inlineStr">
         <is>
-          <t>Benjamin Fosseli Bye</t>
+          <t>Marc  Christian Legayada Berntsen</t>
         </is>
       </c>
       <c r="N132" s="7" t="n">
-        <v>2009</v>
+        <v>1999</v>
       </c>
       <c r="O132" s="15" t="n">
-        <v>4.71</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="P132" s="7" t="n">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="Q132" s="7" t="inlineStr">
         <is>
@@ -22802,42 +22802,42 @@
         </is>
       </c>
       <c r="R132" s="16" t="n">
-        <v>18.03</v>
+        <v>19.07</v>
       </c>
       <c r="T132" s="5" t="n"/>
     </row>
     <row r="133" ht="13" customHeight="1">
       <c r="B133" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C133" s="7" t="inlineStr">
         <is>
-          <t>Theodor Gutvik</t>
+          <t>Oscar Sørvik Ånderå</t>
         </is>
       </c>
       <c r="D133" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E133" s="15" t="n">
-        <v>5.1</v>
+        <v>2.7</v>
       </c>
       <c r="F133" s="7" t="n">
-        <v>396</v>
+        <v>503</v>
       </c>
       <c r="G133" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Bømlo</t>
         </is>
       </c>
       <c r="H133" s="16" t="n">
-        <v>7.05</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J133" s="5" t="n"/>
       <c r="L133" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M133" s="7" t="inlineStr">
@@ -22849,10 +22849,10 @@
         <v>2009</v>
       </c>
       <c r="O133" s="15" t="n">
-        <v>1.4</v>
+        <v>4.71</v>
       </c>
       <c r="P133" s="7" t="n">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="Q133" s="7" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         </is>
       </c>
       <c r="F135" s="20" t="n">
-        <v>7451</v>
+        <v>7940</v>
       </c>
       <c r="J135" s="5" t="n"/>
       <c r="L135" s="19" t="inlineStr">
@@ -22914,7 +22914,7 @@
         </is>
       </c>
       <c r="P135" s="20" t="n">
-        <v>7801</v>
+        <v>7946</v>
       </c>
       <c r="T135" s="5" t="n"/>
     </row>
@@ -22937,7 +22937,7 @@
         </is>
       </c>
       <c r="F137" s="20" t="n">
-        <v>17381</v>
+        <v>17386</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="19" t="inlineStr">
@@ -22954,7 +22954,7 @@
         </is>
       </c>
       <c r="P137" s="20" t="n">
-        <v>16898</v>
+        <v>17097</v>
       </c>
       <c r="T137" s="5" t="n"/>
     </row>
@@ -22969,7 +22969,7 @@
         </is>
       </c>
       <c r="C139" s="20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J139" s="5" t="n"/>
       <c r="L139" s="19" t="inlineStr">
@@ -23061,7 +23061,7 @@
       </c>
       <c r="M144" s="7" t="inlineStr">
         <is>
-          <t>IL Gular</t>
+          <t>Fyllingen IL</t>
         </is>
       </c>
       <c r="T144" s="5" t="n"/>
@@ -23218,17 +23218,17 @@
       </c>
       <c r="M150" s="7" t="inlineStr">
         <is>
-          <t>Jacob Vaula</t>
+          <t>Emil Gundersen</t>
         </is>
       </c>
       <c r="N150" s="7" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="O150" s="15" t="n">
-        <v>6.74</v>
+        <v>7.04</v>
       </c>
       <c r="P150" s="7" t="n">
-        <v>989</v>
+        <v>845</v>
       </c>
       <c r="Q150" s="7" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         </is>
       </c>
       <c r="R150" s="16" t="n">
-        <v>18.02</v>
+        <v>11.02</v>
       </c>
       <c r="T150" s="5" t="n"/>
     </row>
@@ -23276,25 +23276,25 @@
       </c>
       <c r="M151" s="7" t="inlineStr">
         <is>
-          <t>Jacob Vaula</t>
+          <t>Emil Gundersen</t>
         </is>
       </c>
       <c r="N151" s="7" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="O151" s="15" t="n">
-        <v>10.39</v>
+        <v>10.84</v>
       </c>
       <c r="P151" s="7" t="n">
-        <v>1009</v>
+        <v>883</v>
       </c>
       <c r="Q151" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R151" s="16" t="n">
-        <v>6.07</v>
+        <v>25.06</v>
       </c>
       <c r="T151" s="5" t="n"/>
     </row>
@@ -23334,25 +23334,25 @@
       </c>
       <c r="M152" s="7" t="inlineStr">
         <is>
-          <t>Andreas Haara Bakketun</t>
+          <t>Emil Gundersen</t>
         </is>
       </c>
       <c r="N152" s="7" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="O152" s="15" t="n">
-        <v>21.48</v>
+        <v>21.96</v>
       </c>
       <c r="P152" s="7" t="n">
-        <v>923</v>
+        <v>865</v>
       </c>
       <c r="Q152" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R152" s="16" t="n">
-        <v>23.06</v>
+        <v>2.07</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
@@ -23392,25 +23392,25 @@
       </c>
       <c r="M153" s="7" t="inlineStr">
         <is>
-          <t>Andreas Haara Bakketun</t>
+          <t>Remark Rrozhani</t>
         </is>
       </c>
       <c r="N153" s="7" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="O153" s="15" t="n">
-        <v>47.26</v>
+        <v>52.36</v>
       </c>
       <c r="P153" s="7" t="n">
-        <v>934</v>
+        <v>672</v>
       </c>
       <c r="Q153" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R153" s="16" t="n">
-        <v>15.06</v>
+        <v>19.08</v>
       </c>
       <c r="T153" s="5" t="n"/>
     </row>
@@ -23452,27 +23452,27 @@
       </c>
       <c r="M154" s="7" t="inlineStr">
         <is>
-          <t>John Petter Stevik</t>
+          <t>Øyvind Magnus Morstøl</t>
         </is>
       </c>
       <c r="N154" s="7" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="O154" s="17" t="inlineStr">
         <is>
-          <t>1,49,66</t>
+          <t>1,59,58</t>
         </is>
       </c>
       <c r="P154" s="7" t="n">
-        <v>926</v>
+        <v>695</v>
       </c>
       <c r="Q154" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R154" s="16" t="n">
-        <v>11.08</v>
+        <v>16.09</v>
       </c>
       <c r="T154" s="5" t="n"/>
     </row>
@@ -23509,32 +23509,32 @@
       <c r="J155" s="5" t="n"/>
       <c r="L155" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M155" s="7" t="inlineStr">
         <is>
-          <t>Bjørnar Sandnes Lillefosse</t>
+          <t>Endre Hartvedt Haugen</t>
         </is>
       </c>
       <c r="N155" s="7" t="n">
-        <v>1992</v>
+        <v>2008</v>
       </c>
       <c r="O155" s="17" t="inlineStr">
         <is>
-          <t>8,02,08</t>
+          <t>4,08,40</t>
         </is>
       </c>
       <c r="P155" s="7" t="n">
-        <v>944</v>
+        <v>685</v>
       </c>
       <c r="Q155" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="R155" s="16" t="n">
-        <v>11.08</v>
+        <v>30.08</v>
       </c>
       <c r="T155" s="5" t="n"/>
     </row>
@@ -23571,32 +23571,32 @@
       <c r="J156" s="5" t="n"/>
       <c r="L156" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M156" s="7" t="inlineStr">
         <is>
-          <t>Bjørnar Sandnes Lillefosse</t>
+          <t>Endre Hartvedt Haugen</t>
         </is>
       </c>
       <c r="N156" s="7" t="n">
-        <v>1992</v>
+        <v>2008</v>
       </c>
       <c r="O156" s="17" t="inlineStr">
         <is>
-          <t>13,59,16</t>
+          <t>8,56,24</t>
         </is>
       </c>
       <c r="P156" s="7" t="n">
-        <v>923</v>
+        <v>703</v>
       </c>
       <c r="Q156" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R156" s="16" t="n">
-        <v>6.07</v>
+        <v>19.08</v>
       </c>
       <c r="T156" s="5" t="n"/>
     </row>
@@ -23631,32 +23631,30 @@
       <c r="J157" s="5" t="n"/>
       <c r="L157" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M157" s="7" t="inlineStr">
         <is>
-          <t>Bjørnar Sandnes Lillefosse</t>
+          <t>Oliver Taule Lindgren</t>
         </is>
       </c>
       <c r="N157" s="7" t="n">
-        <v>1992</v>
-      </c>
-      <c r="O157" s="17" t="inlineStr">
-        <is>
-          <t>29,03,01</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="O157" s="15" t="n">
+        <v>1.51</v>
       </c>
       <c r="P157" s="7" t="n">
-        <v>935</v>
+        <v>364</v>
       </c>
       <c r="Q157" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R157" s="16" t="n">
-        <v>8.07</v>
+        <v>17.09</v>
       </c>
       <c r="T157" s="5" t="n"/>
     </row>
@@ -23691,22 +23689,22 @@
       <c r="J158" s="5" t="n"/>
       <c r="L158" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M158" s="7" t="inlineStr">
         <is>
-          <t>Andreas Haara Bakketun</t>
+          <t>Linus August Rygh</t>
         </is>
       </c>
       <c r="N158" s="7" t="n">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="O158" s="15" t="n">
-        <v>51.96</v>
+        <v>6.59</v>
       </c>
       <c r="P158" s="7" t="n">
-        <v>902</v>
+        <v>738</v>
       </c>
       <c r="Q158" s="7" t="inlineStr">
         <is>
@@ -23714,7 +23712,7 @@
         </is>
       </c>
       <c r="R158" s="16" t="n">
-        <v>30.06</v>
+        <v>1.07</v>
       </c>
       <c r="T158" s="5" t="n"/>
     </row>
@@ -23749,30 +23747,30 @@
       <c r="J159" s="5" t="n"/>
       <c r="L159" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M159" s="7" t="inlineStr">
         <is>
-          <t>Frank Atle Kvinge</t>
+          <t>Linus August Rygh</t>
         </is>
       </c>
       <c r="N159" s="7" t="n">
-        <v>1954</v>
+        <v>2005</v>
       </c>
       <c r="O159" s="15" t="n">
-        <v>1.35</v>
+        <v>13.48</v>
       </c>
       <c r="P159" s="7" t="n">
-        <v>167</v>
+        <v>721</v>
       </c>
       <c r="Q159" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R159" s="16" t="n">
-        <v>29.01</v>
+        <v>21.01</v>
       </c>
       <c r="T159" s="5" t="n"/>
     </row>
@@ -23805,13 +23803,33 @@
         <v>27.08</v>
       </c>
       <c r="J160" s="5" t="n"/>
-      <c r="L160" s="14" t="n"/>
-      <c r="M160" s="7" t="n"/>
-      <c r="N160" s="7" t="n"/>
-      <c r="O160" s="7" t="n"/>
-      <c r="P160" s="7" t="n"/>
-      <c r="Q160" s="7" t="n"/>
-      <c r="R160" s="21" t="n"/>
+      <c r="L160" s="14" t="inlineStr">
+        <is>
+          <t>Lengde u.t</t>
+        </is>
+      </c>
+      <c r="M160" s="7" t="inlineStr">
+        <is>
+          <t>Emil Gundersen</t>
+        </is>
+      </c>
+      <c r="N160" s="7" t="n">
+        <v>2004</v>
+      </c>
+      <c r="O160" s="15" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="P160" s="7" t="n">
+        <v>655</v>
+      </c>
+      <c r="Q160" s="7" t="inlineStr">
+        <is>
+          <t>Bærum</t>
+        </is>
+      </c>
+      <c r="R160" s="16" t="n">
+        <v>19.02</v>
+      </c>
       <c r="T160" s="5" t="n"/>
     </row>
     <row r="161" ht="13" customHeight="1">
@@ -23932,7 +23950,7 @@
         </is>
       </c>
       <c r="M164" s="20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O164" s="19" t="inlineStr">
         <is>
@@ -23940,7 +23958,7 @@
         </is>
       </c>
       <c r="P164" s="20" t="n">
-        <v>8652</v>
+        <v>7826</v>
       </c>
       <c r="T164" s="5" t="n"/>
     </row>
@@ -24071,30 +24089,30 @@
       <c r="J169" s="5" t="n"/>
       <c r="L169" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M169" s="7" t="inlineStr">
         <is>
-          <t>August Hemstad</t>
+          <t>Remark Rrozhani</t>
         </is>
       </c>
       <c r="N169" s="7" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="O169" s="15" t="n">
-        <v>10.68</v>
+        <v>22.39</v>
       </c>
       <c r="P169" s="7" t="n">
-        <v>926</v>
+        <v>816</v>
       </c>
       <c r="Q169" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R169" s="16" t="n">
-        <v>25.06</v>
+        <v>12.02</v>
       </c>
       <c r="T169" s="5" t="n"/>
     </row>
@@ -24136,17 +24154,17 @@
       </c>
       <c r="M170" s="7" t="inlineStr">
         <is>
-          <t>Sondre Faugstad Amundsen</t>
+          <t>Remark Rrozhani</t>
         </is>
       </c>
       <c r="N170" s="7" t="n">
-        <v>1998</v>
+        <v>2004</v>
       </c>
       <c r="O170" s="15" t="n">
-        <v>10.71</v>
+        <v>11.18</v>
       </c>
       <c r="P170" s="7" t="n">
-        <v>918</v>
+        <v>796</v>
       </c>
       <c r="Q170" s="7" t="inlineStr">
         <is>
@@ -24154,7 +24172,7 @@
         </is>
       </c>
       <c r="R170" s="16" t="n">
-        <v>19.08</v>
+        <v>4.06</v>
       </c>
       <c r="T170" s="5" t="n"/>
     </row>
@@ -24189,30 +24207,30 @@
       <c r="J171" s="5" t="n"/>
       <c r="L171" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M171" s="7" t="inlineStr">
         <is>
-          <t>Sondre Faugstad Amundsen</t>
+          <t>Remark Rrozhani</t>
         </is>
       </c>
       <c r="N171" s="7" t="n">
-        <v>1998</v>
+        <v>2004</v>
       </c>
       <c r="O171" s="15" t="n">
-        <v>21.58</v>
+        <v>7.19</v>
       </c>
       <c r="P171" s="7" t="n">
-        <v>911</v>
+        <v>781</v>
       </c>
       <c r="Q171" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R171" s="16" t="n">
-        <v>6.08</v>
+        <v>11.02</v>
       </c>
       <c r="T171" s="5" t="n"/>
     </row>
@@ -24247,32 +24265,30 @@
       <c r="J172" s="5" t="n"/>
       <c r="L172" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M172" s="7" t="inlineStr">
         <is>
-          <t>Eivind Trym Wikshåland</t>
+          <t>Linus August Rygh</t>
         </is>
       </c>
       <c r="N172" s="7" t="n">
-        <v>1997</v>
-      </c>
-      <c r="O172" s="17" t="inlineStr">
-        <is>
-          <t>8,10,11</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="O172" s="15" t="n">
+        <v>11.29</v>
       </c>
       <c r="P172" s="7" t="n">
-        <v>906</v>
+        <v>770</v>
       </c>
       <c r="Q172" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R172" s="16" t="n">
-        <v>19.02</v>
+        <v>19.08</v>
       </c>
       <c r="T172" s="5" t="n"/>
     </row>
@@ -24307,32 +24323,30 @@
       <c r="J173" s="5" t="n"/>
       <c r="L173" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M173" s="7" t="inlineStr">
         <is>
-          <t>Tore Akerlie</t>
+          <t>Linus August Rygh</t>
         </is>
       </c>
       <c r="N173" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="O173" s="17" t="inlineStr">
-        <is>
-          <t>8,10,33</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="O173" s="15" t="n">
+        <v>22.9</v>
       </c>
       <c r="P173" s="7" t="n">
-        <v>905</v>
+        <v>759</v>
       </c>
       <c r="Q173" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R173" s="16" t="n">
-        <v>11.08</v>
+        <v>10.09</v>
       </c>
       <c r="T173" s="5" t="n"/>
     </row>
@@ -24372,17 +24386,17 @@
       </c>
       <c r="M174" s="7" t="inlineStr">
         <is>
-          <t>August Hemstad</t>
+          <t>Lars Magnus Birketveit</t>
         </is>
       </c>
       <c r="N174" s="7" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="O174" s="15" t="n">
-        <v>21.67</v>
+        <v>23.13</v>
       </c>
       <c r="P174" s="7" t="n">
-        <v>900</v>
+        <v>735</v>
       </c>
       <c r="Q174" s="7" t="inlineStr">
         <is>
@@ -24390,7 +24404,7 @@
         </is>
       </c>
       <c r="R174" s="16" t="n">
-        <v>27.08</v>
+        <v>26.08</v>
       </c>
       <c r="T174" s="5" t="n"/>
     </row>
@@ -24425,32 +24439,30 @@
       <c r="J175" s="5" t="n"/>
       <c r="L175" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M175" s="7" t="inlineStr">
         <is>
-          <t>Johannes Teigland</t>
+          <t>Lars Magnus Birketveit</t>
         </is>
       </c>
       <c r="N175" s="7" t="n">
-        <v>1995</v>
-      </c>
-      <c r="O175" s="17" t="inlineStr">
-        <is>
-          <t>3,47,07</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="O175" s="15" t="n">
+        <v>11.51</v>
       </c>
       <c r="P175" s="7" t="n">
-        <v>897</v>
+        <v>718</v>
       </c>
       <c r="Q175" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R175" s="16" t="n">
-        <v>8.07</v>
+        <v>19.08</v>
       </c>
       <c r="T175" s="5" t="n"/>
     </row>
@@ -24485,22 +24497,22 @@
       <c r="J176" s="5" t="n"/>
       <c r="L176" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M176" s="7" t="inlineStr">
         <is>
-          <t>Filip Bøe</t>
+          <t>Linus August Rygh</t>
         </is>
       </c>
       <c r="N176" s="7" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="O176" s="15" t="n">
-        <v>21.71</v>
+        <v>7.38</v>
       </c>
       <c r="P176" s="7" t="n">
-        <v>895</v>
+        <v>705</v>
       </c>
       <c r="Q176" s="7" t="inlineStr">
         <is>
@@ -24508,7 +24520,7 @@
         </is>
       </c>
       <c r="R176" s="16" t="n">
-        <v>18.02</v>
+        <v>11.02</v>
       </c>
       <c r="T176" s="5" t="n"/>
     </row>
@@ -24541,13 +24553,33 @@
         <v>13.02</v>
       </c>
       <c r="J177" s="5" t="n"/>
-      <c r="L177" s="14" t="n"/>
-      <c r="M177" s="7" t="n"/>
-      <c r="N177" s="7" t="n"/>
-      <c r="O177" s="7" t="n"/>
-      <c r="P177" s="7" t="n"/>
-      <c r="Q177" s="7" t="n"/>
-      <c r="R177" s="21" t="n"/>
+      <c r="L177" s="14" t="inlineStr">
+        <is>
+          <t>Lengde</t>
+        </is>
+      </c>
+      <c r="M177" s="7" t="inlineStr">
+        <is>
+          <t>Emil Gundersen</t>
+        </is>
+      </c>
+      <c r="N177" s="7" t="n">
+        <v>2004</v>
+      </c>
+      <c r="O177" s="15" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="P177" s="7" t="n">
+        <v>645</v>
+      </c>
+      <c r="Q177" s="7" t="inlineStr">
+        <is>
+          <t>Leikvang</t>
+        </is>
+      </c>
+      <c r="R177" s="16" t="n">
+        <v>23.02</v>
+      </c>
       <c r="T177" s="5" t="n"/>
     </row>
     <row r="178" ht="13" customHeight="1">
@@ -24579,13 +24611,33 @@
         <v>31.07</v>
       </c>
       <c r="J178" s="5" t="n"/>
-      <c r="L178" s="14" t="n"/>
-      <c r="M178" s="7" t="n"/>
-      <c r="N178" s="7" t="n"/>
-      <c r="O178" s="7" t="n"/>
-      <c r="P178" s="7" t="n"/>
-      <c r="Q178" s="7" t="n"/>
-      <c r="R178" s="21" t="n"/>
+      <c r="L178" s="14" t="inlineStr">
+        <is>
+          <t>Lengde</t>
+        </is>
+      </c>
+      <c r="M178" s="7" t="inlineStr">
+        <is>
+          <t>Oliver Taule Lindgren</t>
+        </is>
+      </c>
+      <c r="N178" s="7" t="n">
+        <v>2008</v>
+      </c>
+      <c r="O178" s="15" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="P178" s="7" t="n">
+        <v>530</v>
+      </c>
+      <c r="Q178" s="7" t="inlineStr">
+        <is>
+          <t>Ulsteinvik</t>
+        </is>
+      </c>
+      <c r="R178" s="16" t="n">
+        <v>4.03</v>
+      </c>
       <c r="T178" s="5" t="n"/>
     </row>
     <row r="179" ht="13" customHeight="1">
@@ -24617,51 +24669,91 @@
         <v>13.02</v>
       </c>
       <c r="J179" s="5" t="n"/>
-      <c r="L179" s="14" t="n"/>
-      <c r="M179" s="7" t="n"/>
-      <c r="N179" s="7" t="n"/>
-      <c r="O179" s="7" t="n"/>
-      <c r="P179" s="7" t="n"/>
-      <c r="Q179" s="7" t="n"/>
-      <c r="R179" s="21" t="n"/>
+      <c r="L179" s="14" t="inlineStr">
+        <is>
+          <t>Tresteg</t>
+        </is>
+      </c>
+      <c r="M179" s="7" t="inlineStr">
+        <is>
+          <t>Kristoffer Boge Stenerud</t>
+        </is>
+      </c>
+      <c r="N179" s="7" t="n">
+        <v>2008</v>
+      </c>
+      <c r="O179" s="15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="P179" s="7" t="n">
+        <v>504</v>
+      </c>
+      <c r="Q179" s="7" t="inlineStr">
+        <is>
+          <t>Bærum</t>
+        </is>
+      </c>
+      <c r="R179" s="16" t="n">
+        <v>17.06</v>
+      </c>
       <c r="T179" s="5" t="n"/>
     </row>
     <row r="180" ht="13" customHeight="1">
       <c r="B180" s="14" t="inlineStr">
         <is>
+          <t>Høyde</t>
+        </is>
+      </c>
+      <c r="C180" s="7" t="inlineStr">
+        <is>
+          <t>Jesper Jensen</t>
+        </is>
+      </c>
+      <c r="D180" s="7" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E180" s="15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F180" s="7" t="n">
+        <v>353</v>
+      </c>
+      <c r="G180" s="7" t="inlineStr">
+        <is>
+          <t>Ravnanger</t>
+        </is>
+      </c>
+      <c r="H180" s="16" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="J180" s="5" t="n"/>
+      <c r="L180" s="14" t="inlineStr">
+        <is>
           <t>Lengde</t>
         </is>
       </c>
-      <c r="C180" s="7" t="inlineStr">
-        <is>
-          <t>Henrik Villanger</t>
-        </is>
-      </c>
-      <c r="D180" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E180" s="15" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F180" s="7" t="n">
-        <v>310</v>
-      </c>
-      <c r="G180" s="7" t="inlineStr">
-        <is>
-          <t>Rosendal</t>
-        </is>
-      </c>
-      <c r="H180" s="16" t="n">
-        <v>28.05</v>
-      </c>
-      <c r="J180" s="5" t="n"/>
-      <c r="L180" s="14" t="n"/>
-      <c r="M180" s="7" t="n"/>
-      <c r="N180" s="7" t="n"/>
-      <c r="O180" s="7" t="n"/>
-      <c r="P180" s="7" t="n"/>
-      <c r="Q180" s="7" t="n"/>
-      <c r="R180" s="21" t="n"/>
+      <c r="M180" s="7" t="inlineStr">
+        <is>
+          <t>Jonas Langeland Andersen</t>
+        </is>
+      </c>
+      <c r="N180" s="7" t="n">
+        <v>2008</v>
+      </c>
+      <c r="O180" s="15" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="P180" s="7" t="n">
+        <v>424</v>
+      </c>
+      <c r="Q180" s="7" t="inlineStr">
+        <is>
+          <t>Leikvang</t>
+        </is>
+      </c>
+      <c r="R180" s="16" t="n">
+        <v>23.02</v>
+      </c>
       <c r="T180" s="5" t="n"/>
     </row>
     <row r="181" ht="13" customHeight="1">
@@ -24697,7 +24789,7 @@
         </is>
       </c>
       <c r="F182" s="20" t="n">
-        <v>6988</v>
+        <v>7031</v>
       </c>
       <c r="J182" s="5" t="n"/>
       <c r="L182" s="19" t="inlineStr">
@@ -24706,7 +24798,7 @@
         </is>
       </c>
       <c r="M182" s="20" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O182" s="19" t="inlineStr">
         <is>
@@ -24714,7 +24806,7 @@
         </is>
       </c>
       <c r="P182" s="20" t="n">
-        <v>7258</v>
+        <v>8183</v>
       </c>
       <c r="T182" s="5" t="n"/>
     </row>
@@ -24737,7 +24829,7 @@
         </is>
       </c>
       <c r="F184" s="20" t="n">
-        <v>16214</v>
+        <v>16257</v>
       </c>
       <c r="J184" s="5" t="n"/>
       <c r="L184" s="19" t="inlineStr">
@@ -24746,7 +24838,7 @@
         </is>
       </c>
       <c r="M184" s="20" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O184" s="19" t="inlineStr">
         <is>
@@ -24754,7 +24846,7 @@
         </is>
       </c>
       <c r="P184" s="20" t="n">
-        <v>15910</v>
+        <v>16009</v>
       </c>
       <c r="T184" s="5" t="n"/>
     </row>
@@ -24778,7 +24870,7 @@
         </is>
       </c>
       <c r="M186" s="20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T186" s="5" t="n"/>
     </row>
@@ -24820,7 +24912,7 @@
       </c>
       <c r="C190" s="7" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="F190" s="8" t="n">
@@ -24834,7 +24926,7 @@
       </c>
       <c r="M190" s="7" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Buskerud</t>
         </is>
       </c>
       <c r="P190" s="8" t="n">
@@ -24850,7 +24942,7 @@
       </c>
       <c r="C191" s="7" t="inlineStr">
         <is>
-          <t>IF Sturla</t>
+          <t>IL Gular</t>
         </is>
       </c>
       <c r="J191" s="5" t="n"/>
@@ -24861,7 +24953,7 @@
       </c>
       <c r="M191" s="7" t="inlineStr">
         <is>
-          <t>IK Hind</t>
+          <t>IF Sturla</t>
         </is>
       </c>
       <c r="T191" s="5" t="n"/>
@@ -24990,25 +25082,25 @@
       </c>
       <c r="C197" s="7" t="inlineStr">
         <is>
-          <t>Mikael Girma Worku</t>
+          <t>Jacob Vaula</t>
         </is>
       </c>
       <c r="D197" s="7" t="n">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="E197" s="15" t="n">
-        <v>7.99</v>
+        <v>6.74</v>
       </c>
       <c r="F197" s="7" t="n">
-        <v>498</v>
+        <v>989</v>
       </c>
       <c r="G197" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H197" s="16" t="n">
-        <v>11.03</v>
+        <v>18.02</v>
       </c>
       <c r="J197" s="5" t="n"/>
       <c r="L197" s="14" t="inlineStr">
@@ -25018,25 +25110,25 @@
       </c>
       <c r="M197" s="7" t="inlineStr">
         <is>
-          <t>Birk Arvola</t>
+          <t>Mikael Girma Worku</t>
         </is>
       </c>
       <c r="N197" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="O197" s="15" t="n">
-        <v>7.65</v>
+        <v>7.99</v>
       </c>
       <c r="P197" s="7" t="n">
-        <v>607</v>
+        <v>498</v>
       </c>
       <c r="Q197" s="7" t="inlineStr">
         <is>
-          <t>Sortland</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="R197" s="16" t="n">
-        <v>18.02</v>
+        <v>11.03</v>
       </c>
       <c r="T197" s="5" t="n"/>
     </row>
@@ -25048,25 +25140,25 @@
       </c>
       <c r="C198" s="7" t="inlineStr">
         <is>
-          <t>Nicolai Christianssønn Risø</t>
+          <t>Jacob Vaula</t>
         </is>
       </c>
       <c r="D198" s="7" t="n">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="E198" s="15" t="n">
-        <v>11.66</v>
+        <v>10.39</v>
       </c>
       <c r="F198" s="7" t="n">
-        <v>684</v>
+        <v>1009</v>
       </c>
       <c r="G198" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H198" s="16" t="n">
-        <v>3.06</v>
+        <v>6.07</v>
       </c>
       <c r="J198" s="5" t="n"/>
       <c r="L198" s="14" t="inlineStr">
@@ -25076,25 +25168,25 @@
       </c>
       <c r="M198" s="7" t="inlineStr">
         <is>
-          <t>Birk Arvola</t>
+          <t>Nicolai Christianssønn Risø</t>
         </is>
       </c>
       <c r="N198" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="O198" s="15" t="n">
-        <v>11.68</v>
+        <v>11.66</v>
       </c>
       <c r="P198" s="7" t="n">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="Q198" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R198" s="16" t="n">
-        <v>25.08</v>
+        <v>3.06</v>
       </c>
       <c r="T198" s="5" t="n"/>
     </row>
@@ -25106,17 +25198,17 @@
       </c>
       <c r="C199" s="7" t="inlineStr">
         <is>
-          <t>Nicolai Christianssønn Risø</t>
+          <t>Andreas Haara Bakketun</t>
         </is>
       </c>
       <c r="D199" s="7" t="n">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="E199" s="15" t="n">
-        <v>23.64</v>
+        <v>21.48</v>
       </c>
       <c r="F199" s="7" t="n">
-        <v>683</v>
+        <v>923</v>
       </c>
       <c r="G199" s="7" t="inlineStr">
         <is>
@@ -25134,25 +25226,25 @@
       </c>
       <c r="M199" s="7" t="inlineStr">
         <is>
-          <t>Tobias Johansen</t>
+          <t>Nicolai Christianssønn Risø</t>
         </is>
       </c>
       <c r="N199" s="7" t="n">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="O199" s="15" t="n">
-        <v>22.42</v>
+        <v>23.64</v>
       </c>
       <c r="P199" s="7" t="n">
-        <v>812</v>
+        <v>683</v>
       </c>
       <c r="Q199" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R199" s="16" t="n">
-        <v>29.08</v>
+        <v>23.06</v>
       </c>
       <c r="T199" s="5" t="n"/>
     </row>
@@ -25164,25 +25256,25 @@
       </c>
       <c r="C200" s="7" t="inlineStr">
         <is>
-          <t>Nicolai Christianssønn Risø</t>
+          <t>Andreas Haara Bakketun</t>
         </is>
       </c>
       <c r="D200" s="7" t="n">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="E200" s="15" t="n">
-        <v>53.46</v>
+        <v>47.26</v>
       </c>
       <c r="F200" s="7" t="n">
-        <v>625</v>
+        <v>934</v>
       </c>
       <c r="G200" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H200" s="16" t="n">
-        <v>24.06</v>
+        <v>15.06</v>
       </c>
       <c r="J200" s="5" t="n"/>
       <c r="L200" s="14" t="inlineStr">
@@ -25192,25 +25284,25 @@
       </c>
       <c r="M200" s="7" t="inlineStr">
         <is>
-          <t>Tobias Johansen</t>
+          <t>Nicolai Christianssønn Risø</t>
         </is>
       </c>
       <c r="N200" s="7" t="n">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="O200" s="15" t="n">
-        <v>48.08</v>
+        <v>53.46</v>
       </c>
       <c r="P200" s="7" t="n">
-        <v>887</v>
+        <v>625</v>
       </c>
       <c r="Q200" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R200" s="16" t="n">
-        <v>26.08</v>
+        <v>24.06</v>
       </c>
       <c r="T200" s="5" t="n"/>
     </row>
@@ -25222,27 +25314,27 @@
       </c>
       <c r="C201" s="7" t="inlineStr">
         <is>
-          <t>Haakon Heltzer Sørstad</t>
+          <t>John Petter Stevik</t>
         </is>
       </c>
       <c r="D201" s="7" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="E201" s="17" t="inlineStr">
         <is>
-          <t>2,01,27</t>
+          <t>1,49,66</t>
         </is>
       </c>
       <c r="F201" s="7" t="n">
-        <v>663</v>
+        <v>926</v>
       </c>
       <c r="G201" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H201" s="16" t="n">
-        <v>26.08</v>
+        <v>11.08</v>
       </c>
       <c r="J201" s="5" t="n"/>
       <c r="L201" s="14" t="inlineStr">
@@ -25252,243 +25344,243 @@
       </c>
       <c r="M201" s="7" t="inlineStr">
         <is>
-          <t>Stian Markussen Eilertsen</t>
+          <t>Haakon Heltzer Sørstad</t>
         </is>
       </c>
       <c r="N201" s="7" t="n">
-        <v>1986</v>
+        <v>2008</v>
       </c>
       <c r="O201" s="17" t="inlineStr">
         <is>
-          <t>2,03,48</t>
+          <t>2,01,27</t>
         </is>
       </c>
       <c r="P201" s="7" t="n">
-        <v>624</v>
+        <v>663</v>
       </c>
       <c r="Q201" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R201" s="16" t="n">
-        <v>29.08</v>
+        <v>26.08</v>
       </c>
       <c r="T201" s="5" t="n"/>
     </row>
     <row r="202" ht="13" customHeight="1">
       <c r="B202" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C202" s="7" t="inlineStr">
         <is>
-          <t>Haakon Heltzer Sørstad</t>
+          <t>Bjørnar Sandnes Lillefosse</t>
         </is>
       </c>
       <c r="D202" s="7" t="n">
-        <v>2008</v>
+        <v>1992</v>
       </c>
       <c r="E202" s="17" t="inlineStr">
         <is>
-          <t>4,12,23</t>
+          <t>8,02,08</t>
         </is>
       </c>
       <c r="F202" s="7" t="n">
-        <v>653</v>
+        <v>944</v>
       </c>
       <c r="G202" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H202" s="16" t="n">
-        <v>25.08</v>
+        <v>11.08</v>
       </c>
       <c r="J202" s="5" t="n"/>
       <c r="L202" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M202" s="7" t="inlineStr">
         <is>
-          <t>Kim-Roger Trøite</t>
+          <t>Haakon Heltzer Sørstad</t>
         </is>
       </c>
       <c r="N202" s="7" t="n">
-        <v>1996</v>
+        <v>2008</v>
       </c>
       <c r="O202" s="17" t="inlineStr">
         <is>
-          <t>8,57,04</t>
+          <t>4,12,23</t>
         </is>
       </c>
       <c r="P202" s="7" t="n">
-        <v>699</v>
+        <v>653</v>
       </c>
       <c r="Q202" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R202" s="16" t="n">
-        <v>11.08</v>
+        <v>25.08</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
     <row r="203" ht="13" customHeight="1">
       <c r="B203" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C203" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Alsaker-Arentz</t>
+          <t>Bjørnar Sandnes Lillefosse</t>
         </is>
       </c>
       <c r="D203" s="7" t="n">
-        <v>2004</v>
+        <v>1992</v>
       </c>
       <c r="E203" s="17" t="inlineStr">
         <is>
-          <t>8,58,40</t>
+          <t>13,59,16</t>
         </is>
       </c>
       <c r="F203" s="7" t="n">
-        <v>694</v>
+        <v>923</v>
       </c>
       <c r="G203" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H203" s="16" t="n">
-        <v>8.09</v>
+        <v>6.07</v>
       </c>
       <c r="J203" s="5" t="n"/>
       <c r="L203" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M203" s="7" t="inlineStr">
         <is>
-          <t>Kim-Roger Trøite</t>
+          <t>Jonathan Alsaker-Arentz</t>
         </is>
       </c>
       <c r="N203" s="7" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="O203" s="17" t="inlineStr">
         <is>
-          <t>15,44,30</t>
+          <t>8,58,40</t>
         </is>
       </c>
       <c r="P203" s="7" t="n">
-        <v>677</v>
+        <v>694</v>
       </c>
       <c r="Q203" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R203" s="16" t="n">
-        <v>12.08</v>
+        <v>8.09</v>
       </c>
       <c r="T203" s="5" t="n"/>
     </row>
     <row r="204" ht="13" customHeight="1">
       <c r="B204" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="C204" s="7" t="inlineStr">
         <is>
-          <t>Haakon Heltzer Sørstad</t>
+          <t>Bjørnar Sandnes Lillefosse</t>
         </is>
       </c>
       <c r="D204" s="7" t="n">
-        <v>2008</v>
+        <v>1992</v>
       </c>
       <c r="E204" s="17" t="inlineStr">
         <is>
-          <t>15,59,62</t>
+          <t>29,03,01</t>
         </is>
       </c>
       <c r="F204" s="7" t="n">
-        <v>646</v>
+        <v>935</v>
       </c>
       <c r="G204" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H204" s="16" t="n">
-        <v>16.07</v>
+        <v>8.07</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M204" s="7" t="inlineStr">
         <is>
-          <t>Torstein Svendsen</t>
+          <t>Haakon Heltzer Sørstad</t>
         </is>
       </c>
       <c r="N204" s="7" t="n">
-        <v>1966</v>
+        <v>2008</v>
       </c>
       <c r="O204" s="17" t="inlineStr">
         <is>
-          <t>36,43,03</t>
+          <t>15,59,62</t>
         </is>
       </c>
       <c r="P204" s="7" t="n">
-        <v>496</v>
+        <v>646</v>
       </c>
       <c r="Q204" s="7" t="inlineStr">
         <is>
-          <t>Geithus</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R204" s="16" t="n">
-        <v>25.06</v>
+        <v>16.07</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
     <row r="205" ht="13" customHeight="1">
       <c r="B205" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="C205" s="7" t="inlineStr">
         <is>
-          <t>Vemund Heltzer Sørstad</t>
+          <t>Andreas Haara Bakketun</t>
         </is>
       </c>
       <c r="D205" s="7" t="n">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="E205" s="15" t="n">
-        <v>1.81</v>
+        <v>51.96</v>
       </c>
       <c r="F205" s="7" t="n">
-        <v>661</v>
+        <v>902</v>
       </c>
       <c r="G205" s="7" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H205" s="16" t="n">
-        <v>13.05</v>
+        <v>30.06</v>
       </c>
       <c r="J205" s="5" t="n"/>
       <c r="L205" s="14" t="inlineStr">
@@ -25498,257 +25590,197 @@
       </c>
       <c r="M205" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Gudheim Haraldstad</t>
+          <t>Vemund Heltzer Sørstad</t>
         </is>
       </c>
       <c r="N205" s="7" t="n">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="O205" s="15" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="P205" s="7" t="n">
-        <v>607</v>
+        <v>661</v>
       </c>
       <c r="Q205" s="7" t="inlineStr">
         <is>
-          <t>Arvika/SWE</t>
+          <t>Lillestrøm</t>
         </is>
       </c>
       <c r="R205" s="16" t="n">
-        <v>23.07</v>
+        <v>13.05</v>
       </c>
       <c r="T205" s="5" t="n"/>
     </row>
     <row r="206" ht="13" customHeight="1">
       <c r="B206" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C206" s="7" t="inlineStr">
         <is>
-          <t>Sander Oppen</t>
+          <t>Frank Atle Kvinge</t>
         </is>
       </c>
       <c r="D206" s="7" t="n">
-        <v>2004</v>
+        <v>1954</v>
       </c>
       <c r="E206" s="15" t="n">
-        <v>4.8</v>
+        <v>1.35</v>
       </c>
       <c r="F206" s="7" t="n">
-        <v>870</v>
+        <v>167</v>
       </c>
       <c r="G206" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="H206" s="16" t="n">
-        <v>23.07</v>
+        <v>29.01</v>
       </c>
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M206" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Gudheim Haraldstad</t>
+          <t>Sander Oppen</t>
         </is>
       </c>
       <c r="N206" s="7" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="O206" s="15" t="n">
-        <v>5.71</v>
+        <v>4.8</v>
       </c>
       <c r="P206" s="7" t="n">
-        <v>540</v>
+        <v>870</v>
       </c>
       <c r="Q206" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R206" s="16" t="n">
-        <v>29.08</v>
+        <v>23.07</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
     <row r="207" ht="13" customHeight="1">
-      <c r="B207" s="14" t="inlineStr">
-        <is>
-          <t>Høyde u.t</t>
-        </is>
-      </c>
-      <c r="C207" s="7" t="inlineStr">
-        <is>
-          <t>Nicolai Christianssønn Risø</t>
-        </is>
-      </c>
-      <c r="D207" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E207" s="15" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="F207" s="7" t="n">
-        <v>616</v>
-      </c>
-      <c r="G207" s="7" t="inlineStr">
-        <is>
-          <t>Drammen</t>
-        </is>
-      </c>
-      <c r="H207" s="16" t="n">
-        <v>13.04</v>
-      </c>
+      <c r="B207" s="14" t="n"/>
+      <c r="C207" s="7" t="n"/>
+      <c r="D207" s="7" t="n"/>
+      <c r="E207" s="7" t="n"/>
+      <c r="F207" s="7" t="n"/>
+      <c r="G207" s="7" t="n"/>
+      <c r="H207" s="21" t="n"/>
       <c r="J207" s="5" t="n"/>
       <c r="L207" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M207" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Gudheim Haraldstad</t>
+          <t>Nicolai Christianssønn Risø</t>
         </is>
       </c>
       <c r="N207" s="7" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="O207" s="15" t="n">
-        <v>12.14</v>
+        <v>1.45</v>
       </c>
       <c r="P207" s="7" t="n">
-        <v>575</v>
+        <v>616</v>
       </c>
       <c r="Q207" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="R207" s="16" t="n">
-        <v>13.08</v>
+        <v>13.04</v>
       </c>
       <c r="T207" s="5" t="n"/>
     </row>
     <row r="208" ht="13" customHeight="1">
-      <c r="B208" s="14" t="inlineStr">
-        <is>
-          <t>Lengde u.t</t>
-        </is>
-      </c>
-      <c r="C208" s="7" t="inlineStr">
-        <is>
-          <t>Frode Holt</t>
-        </is>
-      </c>
-      <c r="D208" s="7" t="n">
-        <v>1964</v>
-      </c>
-      <c r="E208" s="15" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="F208" s="7" t="n">
-        <v>503</v>
-      </c>
-      <c r="G208" s="7" t="inlineStr">
-        <is>
-          <t>Drammen</t>
-        </is>
-      </c>
-      <c r="H208" s="16" t="n">
-        <v>13.04</v>
-      </c>
+      <c r="B208" s="14" t="n"/>
+      <c r="C208" s="7" t="n"/>
+      <c r="D208" s="7" t="n"/>
+      <c r="E208" s="7" t="n"/>
+      <c r="F208" s="7" t="n"/>
+      <c r="G208" s="7" t="n"/>
+      <c r="H208" s="21" t="n"/>
       <c r="J208" s="5" t="n"/>
       <c r="L208" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M208" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Gudheim Haraldstad</t>
+          <t>Frode Holt</t>
         </is>
       </c>
       <c r="N208" s="7" t="n">
-        <v>2000</v>
+        <v>1964</v>
       </c>
       <c r="O208" s="15" t="n">
-        <v>36.29</v>
+        <v>2.7</v>
       </c>
       <c r="P208" s="7" t="n">
-        <v>614</v>
+        <v>503</v>
       </c>
       <c r="Q208" s="7" t="inlineStr">
         <is>
-          <t>Arvika/SWE</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="R208" s="16" t="n">
-        <v>22.07</v>
+        <v>13.04</v>
       </c>
       <c r="T208" s="5" t="n"/>
     </row>
     <row r="209" ht="13" customHeight="1">
-      <c r="B209" s="14" t="inlineStr">
-        <is>
-          <t>Diskos</t>
-        </is>
-      </c>
-      <c r="C209" s="7" t="inlineStr">
-        <is>
-          <t>Ola Stunes Isene</t>
-        </is>
-      </c>
-      <c r="D209" s="7" t="n">
-        <v>1995</v>
-      </c>
-      <c r="E209" s="15" t="n">
-        <v>61.55</v>
-      </c>
-      <c r="F209" s="7" t="n">
-        <v>1032</v>
-      </c>
-      <c r="G209" s="7" t="inlineStr">
-        <is>
-          <t>Spikkestad</t>
-        </is>
-      </c>
-      <c r="H209" s="16" t="n">
-        <v>2.09</v>
-      </c>
+      <c r="B209" s="14" t="n"/>
+      <c r="C209" s="7" t="n"/>
+      <c r="D209" s="7" t="n"/>
+      <c r="E209" s="7" t="n"/>
+      <c r="F209" s="7" t="n"/>
+      <c r="G209" s="7" t="n"/>
+      <c r="H209" s="21" t="n"/>
       <c r="J209" s="5" t="n"/>
       <c r="L209" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M209" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Gudheim Haraldstad</t>
+          <t>Ola Stunes Isene</t>
         </is>
       </c>
       <c r="N209" s="7" t="n">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="O209" s="15" t="n">
-        <v>55.21</v>
+        <v>61.55</v>
       </c>
       <c r="P209" s="7" t="n">
-        <v>696</v>
+        <v>1032</v>
       </c>
       <c r="Q209" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Spikkestad</t>
         </is>
       </c>
       <c r="R209" s="16" t="n">
-        <v>29.08</v>
+        <v>2.09</v>
       </c>
       <c r="T209" s="5" t="n"/>
     </row>
@@ -25777,7 +25809,7 @@
         </is>
       </c>
       <c r="C211" s="20" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E211" s="19" t="inlineStr">
         <is>
@@ -25785,7 +25817,7 @@
         </is>
       </c>
       <c r="F211" s="20" t="n">
-        <v>8828</v>
+        <v>8652</v>
       </c>
       <c r="J211" s="5" t="n"/>
       <c r="L211" s="19" t="inlineStr">
@@ -25802,7 +25834,7 @@
         </is>
       </c>
       <c r="P211" s="20" t="n">
-        <v>8513</v>
+        <v>8828</v>
       </c>
       <c r="T211" s="5" t="n"/>
     </row>
@@ -25905,60 +25937,60 @@
     <row r="216" ht="13" customHeight="1">
       <c r="B216" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C216" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Alsaker-Arentz</t>
+          <t>August Hemstad</t>
         </is>
       </c>
       <c r="D216" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E216" s="17" t="inlineStr">
-        <is>
-          <t>2,01,66</t>
-        </is>
+        <v>2002</v>
+      </c>
+      <c r="E216" s="15" t="n">
+        <v>10.68</v>
       </c>
       <c r="F216" s="7" t="n">
-        <v>655</v>
+        <v>926</v>
       </c>
       <c r="G216" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H216" s="16" t="n">
-        <v>10.09</v>
+        <v>25.06</v>
       </c>
       <c r="J216" s="5" t="n"/>
       <c r="L216" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M216" s="7" t="inlineStr">
         <is>
-          <t>Birk Arvola</t>
+          <t>Jonathan Alsaker-Arentz</t>
         </is>
       </c>
       <c r="N216" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O216" s="15" t="n">
-        <v>23.3</v>
+        <v>2004</v>
+      </c>
+      <c r="O216" s="17" t="inlineStr">
+        <is>
+          <t>2,01,66</t>
+        </is>
       </c>
       <c r="P216" s="7" t="n">
-        <v>717</v>
+        <v>655</v>
       </c>
       <c r="Q216" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R216" s="16" t="n">
-        <v>26.08</v>
+        <v>10.09</v>
       </c>
       <c r="T216" s="5" t="n"/>
     </row>
@@ -25970,105 +26002,105 @@
       </c>
       <c r="C217" s="7" t="inlineStr">
         <is>
-          <t>Herman Jørgensen Huus</t>
+          <t>Sondre Faugstad Amundsen</t>
         </is>
       </c>
       <c r="D217" s="7" t="n">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="E217" s="15" t="n">
-        <v>11.81</v>
+        <v>10.71</v>
       </c>
       <c r="F217" s="7" t="n">
-        <v>651</v>
+        <v>918</v>
       </c>
       <c r="G217" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H217" s="16" t="n">
-        <v>14.05</v>
+        <v>19.08</v>
       </c>
       <c r="J217" s="5" t="n"/>
       <c r="L217" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M217" s="7" t="inlineStr">
         <is>
-          <t>Oskar Stattin</t>
+          <t>Herman Jørgensen Huus</t>
         </is>
       </c>
       <c r="N217" s="7" t="n">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="O217" s="15" t="n">
-        <v>51.88</v>
+        <v>11.81</v>
       </c>
       <c r="P217" s="7" t="n">
-        <v>693</v>
+        <v>651</v>
       </c>
       <c r="Q217" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R217" s="16" t="n">
-        <v>8.09</v>
+        <v>14.05</v>
       </c>
       <c r="T217" s="5" t="n"/>
     </row>
     <row r="218" ht="13" customHeight="1">
       <c r="B218" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C218" s="7" t="inlineStr">
         <is>
-          <t>Jonas Hole Sletten</t>
+          <t>Sondre Faugstad Amundsen</t>
         </is>
       </c>
       <c r="D218" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E218" s="17" t="inlineStr">
-        <is>
-          <t>2,02,31</t>
-        </is>
+        <v>1998</v>
+      </c>
+      <c r="E218" s="15" t="n">
+        <v>21.58</v>
       </c>
       <c r="F218" s="7" t="n">
-        <v>644</v>
+        <v>911</v>
       </c>
       <c r="G218" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H218" s="16" t="n">
-        <v>9.09</v>
+        <v>6.08</v>
       </c>
       <c r="J218" s="5" t="n"/>
       <c r="L218" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M218" s="7" t="inlineStr">
         <is>
-          <t>Oskar Stattin</t>
+          <t>Jonas Hole Sletten</t>
         </is>
       </c>
       <c r="N218" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O218" s="15" t="n">
-        <v>23.63</v>
+        <v>2007</v>
+      </c>
+      <c r="O218" s="17" t="inlineStr">
+        <is>
+          <t>2,02,31</t>
+        </is>
       </c>
       <c r="P218" s="7" t="n">
-        <v>684</v>
+        <v>644</v>
       </c>
       <c r="Q218" s="7" t="inlineStr">
         <is>
@@ -26088,47 +26120,49 @@
       </c>
       <c r="C219" s="7" t="inlineStr">
         <is>
-          <t>Haakon Heltzer Sørstad</t>
+          <t>Eivind Trym Wikshåland</t>
         </is>
       </c>
       <c r="D219" s="7" t="n">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="E219" s="17" t="inlineStr">
         <is>
-          <t>9,12,80</t>
+          <t>8,10,11</t>
         </is>
       </c>
       <c r="F219" s="7" t="n">
-        <v>641</v>
+        <v>906</v>
       </c>
       <c r="G219" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H219" s="16" t="n">
-        <v>24.06</v>
+        <v>19.02</v>
       </c>
       <c r="J219" s="5" t="n"/>
       <c r="L219" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M219" s="7" t="inlineStr">
         <is>
-          <t>Mathias Johansen</t>
+          <t>Haakon Heltzer Sørstad</t>
         </is>
       </c>
       <c r="N219" s="7" t="n">
         <v>2008</v>
       </c>
-      <c r="O219" s="15" t="n">
-        <v>52.77</v>
+      <c r="O219" s="17" t="inlineStr">
+        <is>
+          <t>9,12,80</t>
+        </is>
       </c>
       <c r="P219" s="7" t="n">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="Q219" s="7" t="inlineStr">
         <is>
@@ -26143,408 +26177,348 @@
     <row r="220" ht="13" customHeight="1">
       <c r="B220" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C220" s="7" t="inlineStr">
         <is>
-          <t>Haakon Heltzer Sørstad</t>
+          <t>Tore Akerlie</t>
         </is>
       </c>
       <c r="D220" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E220" s="15" t="n">
-        <v>1.76</v>
+        <v>1999</v>
+      </c>
+      <c r="E220" s="17" t="inlineStr">
+        <is>
+          <t>8,10,33</t>
+        </is>
       </c>
       <c r="F220" s="7" t="n">
-        <v>616</v>
+        <v>905</v>
       </c>
       <c r="G220" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H220" s="16" t="n">
-        <v>18.03</v>
+        <v>11.08</v>
       </c>
       <c r="J220" s="5" t="n"/>
       <c r="L220" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M220" s="7" t="inlineStr">
         <is>
-          <t>Per-Christian Myrnes Pedersen</t>
+          <t>Haakon Heltzer Sørstad</t>
         </is>
       </c>
       <c r="N220" s="7" t="n">
-        <v>1986</v>
-      </c>
-      <c r="O220" s="17" t="inlineStr">
-        <is>
-          <t>9,10,36</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="O220" s="15" t="n">
+        <v>1.76</v>
       </c>
       <c r="P220" s="7" t="n">
-        <v>649</v>
+        <v>616</v>
       </c>
       <c r="Q220" s="7" t="inlineStr">
         <is>
-          <t>Narvik</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R220" s="16" t="n">
-        <v>10.06</v>
+        <v>18.03</v>
       </c>
       <c r="T220" s="5" t="n"/>
     </row>
     <row r="221" ht="13" customHeight="1">
       <c r="B221" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C221" s="7" t="inlineStr">
         <is>
-          <t>Mikael Girma Worku</t>
+          <t>August Hemstad</t>
         </is>
       </c>
       <c r="D221" s="7" t="n">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="E221" s="15" t="n">
-        <v>12.05</v>
+        <v>21.67</v>
       </c>
       <c r="F221" s="7" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="G221" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H221" s="16" t="n">
-        <v>24.08</v>
+        <v>27.08</v>
       </c>
       <c r="J221" s="5" t="n"/>
       <c r="L221" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M221" s="7" t="inlineStr">
         <is>
-          <t>Birk Arvola</t>
+          <t>Mikael Girma Worku</t>
         </is>
       </c>
       <c r="N221" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="O221" s="15" t="n">
-        <v>53.03</v>
+        <v>12.05</v>
       </c>
       <c r="P221" s="7" t="n">
-        <v>643</v>
+        <v>600</v>
       </c>
       <c r="Q221" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="R221" s="16" t="n">
-        <v>29.08</v>
+        <v>24.08</v>
       </c>
       <c r="T221" s="5" t="n"/>
     </row>
     <row r="222" ht="13" customHeight="1">
       <c r="B222" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C222" s="7" t="inlineStr">
         <is>
-          <t>Vemund Heltzer Sørstad</t>
+          <t>Johannes Teigland</t>
         </is>
       </c>
       <c r="D222" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E222" s="15" t="n">
-        <v>12.07</v>
+        <v>1995</v>
+      </c>
+      <c r="E222" s="17" t="inlineStr">
+        <is>
+          <t>3,47,07</t>
+        </is>
       </c>
       <c r="F222" s="7" t="n">
-        <v>596</v>
+        <v>897</v>
       </c>
       <c r="G222" s="7" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H222" s="16" t="n">
-        <v>13.05</v>
+        <v>8.07</v>
       </c>
       <c r="J222" s="5" t="n"/>
       <c r="L222" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M222" s="7" t="inlineStr">
         <is>
-          <t>Mathias Johansen</t>
+          <t>Vemund Heltzer Sørstad</t>
         </is>
       </c>
       <c r="N222" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="O222" s="15" t="n">
-        <v>24.37</v>
+        <v>12.07</v>
       </c>
       <c r="P222" s="7" t="n">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="Q222" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Lillestrøm</t>
         </is>
       </c>
       <c r="R222" s="16" t="n">
-        <v>4.03</v>
+        <v>13.05</v>
       </c>
       <c r="T222" s="5" t="n"/>
     </row>
     <row r="223" ht="13" customHeight="1">
       <c r="B223" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C223" s="7" t="inlineStr">
         <is>
-          <t>Nicolai Christianssønn Risø</t>
+          <t>Filip Bøe</t>
         </is>
       </c>
       <c r="D223" s="7" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="E223" s="15" t="n">
-        <v>1.71</v>
+        <v>21.71</v>
       </c>
       <c r="F223" s="7" t="n">
-        <v>569</v>
+        <v>895</v>
       </c>
       <c r="G223" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H223" s="16" t="n">
-        <v>9.09</v>
+        <v>18.02</v>
       </c>
       <c r="J223" s="5" t="n"/>
       <c r="L223" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M223" s="7" t="inlineStr">
         <is>
-          <t>Tobias Johansen</t>
+          <t>Nicolai Christianssønn Risø</t>
         </is>
       </c>
       <c r="N223" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O223" s="17" t="inlineStr">
-        <is>
-          <t>2,04,49</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="O223" s="15" t="n">
+        <v>1.71</v>
       </c>
       <c r="P223" s="7" t="n">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="Q223" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R223" s="16" t="n">
-        <v>19.02</v>
+        <v>9.09</v>
       </c>
       <c r="T223" s="5" t="n"/>
     </row>
     <row r="224" ht="13" customHeight="1">
-      <c r="B224" s="14" t="inlineStr">
-        <is>
-          <t>200m</t>
-        </is>
-      </c>
-      <c r="C224" s="7" t="inlineStr">
-        <is>
-          <t>Mikael Girma Worku</t>
-        </is>
-      </c>
-      <c r="D224" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E224" s="15" t="n">
-        <v>24.93</v>
-      </c>
-      <c r="F224" s="7" t="n">
-        <v>562</v>
-      </c>
-      <c r="G224" s="7" t="inlineStr">
-        <is>
-          <t>Drammen</t>
-        </is>
-      </c>
-      <c r="H224" s="16" t="n">
-        <v>27.08</v>
-      </c>
+      <c r="B224" s="14" t="n"/>
+      <c r="C224" s="7" t="n"/>
+      <c r="D224" s="7" t="n"/>
+      <c r="E224" s="7" t="n"/>
+      <c r="F224" s="7" t="n"/>
+      <c r="G224" s="7" t="n"/>
+      <c r="H224" s="21" t="n"/>
       <c r="J224" s="5" t="n"/>
       <c r="L224" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M224" s="7" t="inlineStr">
         <is>
-          <t>Oskar Stattin</t>
+          <t>Mikael Girma Worku</t>
         </is>
       </c>
       <c r="N224" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="O224" s="15" t="n">
-        <v>2.76</v>
+        <v>24.93</v>
       </c>
       <c r="P224" s="7" t="n">
-        <v>538</v>
+        <v>562</v>
       </c>
       <c r="Q224" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="R224" s="16" t="n">
-        <v>19.04</v>
+        <v>27.08</v>
       </c>
       <c r="T224" s="5" t="n"/>
     </row>
     <row r="225" ht="13" customHeight="1">
-      <c r="B225" s="14" t="inlineStr">
-        <is>
-          <t>1500m</t>
-        </is>
-      </c>
-      <c r="C225" s="7" t="inlineStr">
-        <is>
-          <t>Jonas Hole Sletten</t>
-        </is>
-      </c>
-      <c r="D225" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E225" s="17" t="inlineStr">
-        <is>
-          <t>4,26,59</t>
-        </is>
-      </c>
-      <c r="F225" s="7" t="n">
-        <v>548</v>
-      </c>
-      <c r="G225" s="7" t="inlineStr">
-        <is>
-          <t>Sande</t>
-        </is>
-      </c>
-      <c r="H225" s="16" t="n">
-        <v>16.09</v>
-      </c>
+      <c r="B225" s="14" t="n"/>
+      <c r="C225" s="7" t="n"/>
+      <c r="D225" s="7" t="n"/>
+      <c r="E225" s="7" t="n"/>
+      <c r="F225" s="7" t="n"/>
+      <c r="G225" s="7" t="n"/>
+      <c r="H225" s="21" t="n"/>
       <c r="J225" s="5" t="n"/>
       <c r="L225" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M225" s="7" t="inlineStr">
         <is>
-          <t>Oskar Stattin</t>
+          <t>Jonas Hole Sletten</t>
         </is>
       </c>
       <c r="N225" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O225" s="15" t="n">
-        <v>11.78</v>
+        <v>2007</v>
+      </c>
+      <c r="O225" s="17" t="inlineStr">
+        <is>
+          <t>4,26,59</t>
+        </is>
       </c>
       <c r="P225" s="7" t="n">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="Q225" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sande</t>
         </is>
       </c>
       <c r="R225" s="16" t="n">
-        <v>12.02</v>
+        <v>16.09</v>
       </c>
       <c r="T225" s="5" t="n"/>
     </row>
     <row r="226" ht="13" customHeight="1">
-      <c r="B226" s="14" t="inlineStr">
-        <is>
-          <t>Spyd</t>
-        </is>
-      </c>
-      <c r="C226" s="7" t="inlineStr">
-        <is>
-          <t>Sander Oppen</t>
-        </is>
-      </c>
-      <c r="D226" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E226" s="15" t="n">
-        <v>41.16</v>
-      </c>
-      <c r="F226" s="7" t="n">
-        <v>503</v>
-      </c>
-      <c r="G226" s="7" t="inlineStr">
-        <is>
-          <t>Sande</t>
-        </is>
-      </c>
-      <c r="H226" s="16" t="n">
-        <v>17.09</v>
-      </c>
+      <c r="B226" s="14" t="n"/>
+      <c r="C226" s="7" t="n"/>
+      <c r="D226" s="7" t="n"/>
+      <c r="E226" s="7" t="n"/>
+      <c r="F226" s="7" t="n"/>
+      <c r="G226" s="7" t="n"/>
+      <c r="H226" s="21" t="n"/>
       <c r="J226" s="5" t="n"/>
       <c r="L226" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M226" s="7" t="inlineStr">
         <is>
-          <t>Simon Kaarbø</t>
+          <t>Sander Oppen</t>
         </is>
       </c>
       <c r="N226" s="7" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="O226" s="15" t="n">
-        <v>5.5</v>
+        <v>41.16</v>
       </c>
       <c r="P226" s="7" t="n">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="Q226" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Sande</t>
         </is>
       </c>
       <c r="R226" s="16" t="n">
@@ -26553,60 +26527,40 @@
       <c r="T226" s="5" t="n"/>
     </row>
     <row r="227" ht="13" customHeight="1">
-      <c r="B227" s="14" t="inlineStr">
-        <is>
-          <t>Spyd</t>
-        </is>
-      </c>
-      <c r="C227" s="7" t="inlineStr">
-        <is>
-          <t>Vemund Heltzer Sørstad</t>
-        </is>
-      </c>
-      <c r="D227" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E227" s="15" t="n">
-        <v>39.84</v>
-      </c>
-      <c r="F227" s="7" t="n">
-        <v>484</v>
-      </c>
-      <c r="G227" s="7" t="inlineStr">
-        <is>
-          <t>Drammen</t>
-        </is>
-      </c>
-      <c r="H227" s="16" t="n">
-        <v>6.05</v>
-      </c>
+      <c r="B227" s="14" t="n"/>
+      <c r="C227" s="7" t="n"/>
+      <c r="D227" s="7" t="n"/>
+      <c r="E227" s="7" t="n"/>
+      <c r="F227" s="7" t="n"/>
+      <c r="G227" s="7" t="n"/>
+      <c r="H227" s="21" t="n"/>
       <c r="J227" s="5" t="n"/>
       <c r="L227" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M227" s="7" t="inlineStr">
         <is>
-          <t>Leif-Andreas Borgersen</t>
+          <t>Vemund Heltzer Sørstad</t>
         </is>
       </c>
       <c r="N227" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="O227" s="15" t="n">
-        <v>5.49</v>
+        <v>39.84</v>
       </c>
       <c r="P227" s="7" t="n">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q227" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="R227" s="16" t="n">
-        <v>17.09</v>
+        <v>6.05</v>
       </c>
       <c r="T227" s="5" t="n"/>
     </row>
@@ -26635,7 +26589,7 @@
         </is>
       </c>
       <c r="C229" s="20" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E229" s="19" t="inlineStr">
         <is>
@@ -26643,7 +26597,7 @@
         </is>
       </c>
       <c r="F229" s="20" t="n">
-        <v>7069</v>
+        <v>7258</v>
       </c>
       <c r="J229" s="5" t="n"/>
       <c r="L229" s="19" t="inlineStr">
@@ -26660,7 +26614,7 @@
         </is>
       </c>
       <c r="P229" s="20" t="n">
-        <v>7310</v>
+        <v>7069</v>
       </c>
       <c r="T229" s="5" t="n"/>
     </row>
@@ -26675,7 +26629,7 @@
         </is>
       </c>
       <c r="C231" s="20" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E231" s="19" t="inlineStr">
         <is>
@@ -26683,7 +26637,7 @@
         </is>
       </c>
       <c r="F231" s="20" t="n">
-        <v>15897</v>
+        <v>15910</v>
       </c>
       <c r="J231" s="5" t="n"/>
       <c r="L231" s="19" t="inlineStr">
@@ -26700,7 +26654,7 @@
         </is>
       </c>
       <c r="P231" s="20" t="n">
-        <v>15823</v>
+        <v>15897</v>
       </c>
       <c r="T231" s="5" t="n"/>
     </row>
@@ -26715,7 +26669,7 @@
         </is>
       </c>
       <c r="C233" s="20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J233" s="5" t="n"/>
       <c r="L233" s="19" t="inlineStr">
@@ -26724,7 +26678,7 @@
         </is>
       </c>
       <c r="M233" s="20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T233" s="5" t="n"/>
     </row>
@@ -26766,7 +26720,7 @@
       </c>
       <c r="C237" s="7" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Troms</t>
         </is>
       </c>
       <c r="F237" s="8" t="n">
@@ -26796,7 +26750,7 @@
       </c>
       <c r="C238" s="7" t="inlineStr">
         <is>
-          <t>Fyllingen IL</t>
+          <t>IK Hind</t>
         </is>
       </c>
       <c r="J238" s="5" t="n"/>
@@ -26936,25 +26890,25 @@
       </c>
       <c r="C244" s="7" t="inlineStr">
         <is>
-          <t>Emil Gundersen</t>
+          <t>Birk Arvola</t>
         </is>
       </c>
       <c r="D244" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E244" s="15" t="n">
-        <v>7.04</v>
+        <v>7.65</v>
       </c>
       <c r="F244" s="7" t="n">
-        <v>845</v>
+        <v>607</v>
       </c>
       <c r="G244" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sortland</t>
         </is>
       </c>
       <c r="H244" s="16" t="n">
-        <v>11.02</v>
+        <v>18.02</v>
       </c>
       <c r="J244" s="5" t="n"/>
       <c r="L244" s="14" t="inlineStr">
@@ -26994,25 +26948,25 @@
       </c>
       <c r="C245" s="7" t="inlineStr">
         <is>
-          <t>Emil Gundersen</t>
+          <t>Birk Arvola</t>
         </is>
       </c>
       <c r="D245" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E245" s="15" t="n">
-        <v>10.84</v>
+        <v>11.68</v>
       </c>
       <c r="F245" s="7" t="n">
-        <v>883</v>
+        <v>679</v>
       </c>
       <c r="G245" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H245" s="16" t="n">
-        <v>25.06</v>
+        <v>25.08</v>
       </c>
       <c r="J245" s="5" t="n"/>
       <c r="L245" s="14" t="inlineStr">
@@ -27052,25 +27006,25 @@
       </c>
       <c r="C246" s="7" t="inlineStr">
         <is>
-          <t>Emil Gundersen</t>
+          <t>Tobias Johansen</t>
         </is>
       </c>
       <c r="D246" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E246" s="15" t="n">
-        <v>21.96</v>
+        <v>22.42</v>
       </c>
       <c r="F246" s="7" t="n">
-        <v>865</v>
+        <v>812</v>
       </c>
       <c r="G246" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="H246" s="16" t="n">
-        <v>2.07</v>
+        <v>29.08</v>
       </c>
       <c r="J246" s="5" t="n"/>
       <c r="L246" s="14" t="inlineStr">
@@ -27110,25 +27064,25 @@
       </c>
       <c r="C247" s="7" t="inlineStr">
         <is>
-          <t>Remark Rrozhani</t>
+          <t>Tobias Johansen</t>
         </is>
       </c>
       <c r="D247" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E247" s="15" t="n">
-        <v>52.36</v>
+        <v>48.08</v>
       </c>
       <c r="F247" s="7" t="n">
-        <v>672</v>
+        <v>887</v>
       </c>
       <c r="G247" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H247" s="16" t="n">
-        <v>19.08</v>
+        <v>26.08</v>
       </c>
       <c r="J247" s="5" t="n"/>
       <c r="L247" s="14" t="inlineStr">
@@ -27168,27 +27122,27 @@
       </c>
       <c r="C248" s="7" t="inlineStr">
         <is>
-          <t>Øyvind Magnus Morstøl</t>
+          <t>Stian Markussen Eilertsen</t>
         </is>
       </c>
       <c r="D248" s="7" t="n">
-        <v>2007</v>
+        <v>1986</v>
       </c>
       <c r="E248" s="17" t="inlineStr">
         <is>
-          <t>1,59,80</t>
+          <t>2,03,48</t>
         </is>
       </c>
       <c r="F248" s="7" t="n">
-        <v>691</v>
+        <v>624</v>
       </c>
       <c r="G248" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="H248" s="16" t="n">
-        <v>9.09</v>
+        <v>29.08</v>
       </c>
       <c r="J248" s="5" t="n"/>
       <c r="L248" s="14" t="inlineStr">
@@ -27225,32 +27179,32 @@
     <row r="249" ht="13" customHeight="1">
       <c r="B249" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C249" s="7" t="inlineStr">
         <is>
-          <t>Endre Hartvedt Haugen</t>
+          <t>Kim-Roger Trøite</t>
         </is>
       </c>
       <c r="D249" s="7" t="n">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="E249" s="17" t="inlineStr">
         <is>
-          <t>4,08,40</t>
+          <t>8,57,04</t>
         </is>
       </c>
       <c r="F249" s="7" t="n">
-        <v>685</v>
+        <v>699</v>
       </c>
       <c r="G249" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H249" s="16" t="n">
-        <v>30.08</v>
+        <v>11.08</v>
       </c>
       <c r="J249" s="5" t="n"/>
       <c r="L249" s="14" t="inlineStr">
@@ -27287,32 +27241,32 @@
     <row r="250" ht="13" customHeight="1">
       <c r="B250" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C250" s="7" t="inlineStr">
         <is>
-          <t>Endre Hartvedt Haugen</t>
+          <t>Kim-Roger Trøite</t>
         </is>
       </c>
       <c r="D250" s="7" t="n">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="E250" s="17" t="inlineStr">
         <is>
-          <t>8,56,24</t>
+          <t>15,44,30</t>
         </is>
       </c>
       <c r="F250" s="7" t="n">
-        <v>703</v>
+        <v>677</v>
       </c>
       <c r="G250" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H250" s="16" t="n">
-        <v>19.08</v>
+        <v>12.08</v>
       </c>
       <c r="J250" s="5" t="n"/>
       <c r="L250" s="14" t="inlineStr">
@@ -27347,30 +27301,32 @@
     <row r="251" ht="13" customHeight="1">
       <c r="B251" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="C251" s="7" t="inlineStr">
         <is>
-          <t>David-George Stan</t>
+          <t>Torstein Svendsen</t>
         </is>
       </c>
       <c r="D251" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E251" s="15" t="n">
-        <v>1.36</v>
+        <v>1966</v>
+      </c>
+      <c r="E251" s="17" t="inlineStr">
+        <is>
+          <t>36,43,03</t>
+        </is>
       </c>
       <c r="F251" s="7" t="n">
-        <v>181</v>
+        <v>496</v>
       </c>
       <c r="G251" s="7" t="inlineStr">
         <is>
-          <t>Byrkjelo</t>
+          <t>Geithus</t>
         </is>
       </c>
       <c r="H251" s="16" t="n">
-        <v>3.09</v>
+        <v>25.06</v>
       </c>
       <c r="J251" s="5" t="n"/>
       <c r="L251" s="14" t="inlineStr">
@@ -27405,30 +27361,30 @@
     <row r="252" ht="13" customHeight="1">
       <c r="B252" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C252" s="7" t="inlineStr">
         <is>
-          <t>Linus August Rygh</t>
+          <t>Fredrik Gudheim Haraldstad</t>
         </is>
       </c>
       <c r="D252" s="7" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="E252" s="15" t="n">
-        <v>6.59</v>
+        <v>1.75</v>
       </c>
       <c r="F252" s="7" t="n">
-        <v>738</v>
+        <v>607</v>
       </c>
       <c r="G252" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Arvika/SWE</t>
         </is>
       </c>
       <c r="H252" s="16" t="n">
-        <v>1.07</v>
+        <v>23.07</v>
       </c>
       <c r="J252" s="5" t="n"/>
       <c r="L252" s="14" t="inlineStr">
@@ -27463,30 +27419,30 @@
     <row r="253" ht="13" customHeight="1">
       <c r="B253" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C253" s="7" t="inlineStr">
         <is>
-          <t>Linus August Rygh</t>
+          <t>Fredrik Gudheim Haraldstad</t>
         </is>
       </c>
       <c r="D253" s="7" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="E253" s="15" t="n">
-        <v>13.48</v>
+        <v>5.71</v>
       </c>
       <c r="F253" s="7" t="n">
-        <v>721</v>
+        <v>540</v>
       </c>
       <c r="G253" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="H253" s="16" t="n">
-        <v>21.01</v>
+        <v>29.08</v>
       </c>
       <c r="J253" s="5" t="n"/>
       <c r="L253" s="14" t="inlineStr">
@@ -27521,30 +27477,30 @@
     <row r="254" ht="13" customHeight="1">
       <c r="B254" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C254" s="7" t="inlineStr">
         <is>
-          <t>Emil Gundersen</t>
+          <t>Fredrik Gudheim Haraldstad</t>
         </is>
       </c>
       <c r="D254" s="7" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="E254" s="15" t="n">
-        <v>2.97</v>
+        <v>12.14</v>
       </c>
       <c r="F254" s="7" t="n">
-        <v>655</v>
+        <v>575</v>
       </c>
       <c r="G254" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H254" s="16" t="n">
-        <v>19.02</v>
+        <v>13.08</v>
       </c>
       <c r="J254" s="5" t="n"/>
       <c r="L254" s="14" t="inlineStr">
@@ -27577,13 +27533,33 @@
       <c r="T254" s="5" t="n"/>
     </row>
     <row r="255" ht="13" customHeight="1">
-      <c r="B255" s="14" t="n"/>
-      <c r="C255" s="7" t="n"/>
-      <c r="D255" s="7" t="n"/>
-      <c r="E255" s="7" t="n"/>
-      <c r="F255" s="7" t="n"/>
-      <c r="G255" s="7" t="n"/>
-      <c r="H255" s="21" t="n"/>
+      <c r="B255" s="14" t="inlineStr">
+        <is>
+          <t>Diskos</t>
+        </is>
+      </c>
+      <c r="C255" s="7" t="inlineStr">
+        <is>
+          <t>Fredrik Gudheim Haraldstad</t>
+        </is>
+      </c>
+      <c r="D255" s="7" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E255" s="15" t="n">
+        <v>36.29</v>
+      </c>
+      <c r="F255" s="7" t="n">
+        <v>614</v>
+      </c>
+      <c r="G255" s="7" t="inlineStr">
+        <is>
+          <t>Arvika/SWE</t>
+        </is>
+      </c>
+      <c r="H255" s="16" t="n">
+        <v>22.07</v>
+      </c>
       <c r="J255" s="5" t="n"/>
       <c r="L255" s="14" t="inlineStr">
         <is>
@@ -27615,13 +27591,33 @@
       <c r="T255" s="5" t="n"/>
     </row>
     <row r="256" ht="13" customHeight="1">
-      <c r="B256" s="14" t="n"/>
-      <c r="C256" s="7" t="n"/>
-      <c r="D256" s="7" t="n"/>
-      <c r="E256" s="7" t="n"/>
-      <c r="F256" s="7" t="n"/>
-      <c r="G256" s="7" t="n"/>
-      <c r="H256" s="21" t="n"/>
+      <c r="B256" s="14" t="inlineStr">
+        <is>
+          <t>Spyd</t>
+        </is>
+      </c>
+      <c r="C256" s="7" t="inlineStr">
+        <is>
+          <t>Fredrik Gudheim Haraldstad</t>
+        </is>
+      </c>
+      <c r="D256" s="7" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E256" s="15" t="n">
+        <v>55.21</v>
+      </c>
+      <c r="F256" s="7" t="n">
+        <v>696</v>
+      </c>
+      <c r="G256" s="7" t="inlineStr">
+        <is>
+          <t>Harstad</t>
+        </is>
+      </c>
+      <c r="H256" s="16" t="n">
+        <v>29.08</v>
+      </c>
       <c r="J256" s="5" t="n"/>
       <c r="L256" s="14" t="inlineStr">
         <is>
@@ -27677,7 +27673,7 @@
         </is>
       </c>
       <c r="C258" s="20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E258" s="19" t="inlineStr">
         <is>
@@ -27685,7 +27681,7 @@
         </is>
       </c>
       <c r="F258" s="20" t="n">
-        <v>7639</v>
+        <v>8513</v>
       </c>
       <c r="J258" s="5" t="n"/>
       <c r="L258" s="19" t="inlineStr">
@@ -27810,25 +27806,25 @@
       </c>
       <c r="C263" s="7" t="inlineStr">
         <is>
-          <t>Remark Rrozhani</t>
+          <t>Birk Arvola</t>
         </is>
       </c>
       <c r="D263" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E263" s="15" t="n">
-        <v>22.39</v>
+        <v>23.3</v>
       </c>
       <c r="F263" s="7" t="n">
-        <v>816</v>
+        <v>717</v>
       </c>
       <c r="G263" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H263" s="16" t="n">
-        <v>12.02</v>
+        <v>26.08</v>
       </c>
       <c r="J263" s="5" t="n"/>
       <c r="L263" s="14" t="inlineStr">
@@ -27863,22 +27859,22 @@
     <row r="264" ht="13" customHeight="1">
       <c r="B264" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C264" s="7" t="inlineStr">
         <is>
-          <t>Remark Rrozhani</t>
+          <t>Oskar Stattin</t>
         </is>
       </c>
       <c r="D264" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E264" s="15" t="n">
-        <v>11.18</v>
+        <v>51.88</v>
       </c>
       <c r="F264" s="7" t="n">
-        <v>796</v>
+        <v>693</v>
       </c>
       <c r="G264" s="7" t="inlineStr">
         <is>
@@ -27886,7 +27882,7 @@
         </is>
       </c>
       <c r="H264" s="16" t="n">
-        <v>4.06</v>
+        <v>8.09</v>
       </c>
       <c r="J264" s="5" t="n"/>
       <c r="L264" s="14" t="inlineStr">
@@ -27921,30 +27917,30 @@
     <row r="265" ht="13" customHeight="1">
       <c r="B265" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C265" s="7" t="inlineStr">
         <is>
-          <t>Remark Rrozhani</t>
+          <t>Oskar Stattin</t>
         </is>
       </c>
       <c r="D265" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E265" s="15" t="n">
-        <v>7.19</v>
+        <v>23.63</v>
       </c>
       <c r="F265" s="7" t="n">
-        <v>781</v>
+        <v>684</v>
       </c>
       <c r="G265" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H265" s="16" t="n">
-        <v>11.02</v>
+        <v>9.09</v>
       </c>
       <c r="J265" s="5" t="n"/>
       <c r="L265" s="14" t="inlineStr">
@@ -27979,30 +27975,30 @@
     <row r="266" ht="13" customHeight="1">
       <c r="B266" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C266" s="7" t="inlineStr">
         <is>
-          <t>Linus August Rygh</t>
+          <t>Mathias Johansen</t>
         </is>
       </c>
       <c r="D266" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E266" s="15" t="n">
-        <v>11.29</v>
+        <v>52.77</v>
       </c>
       <c r="F266" s="7" t="n">
-        <v>770</v>
+        <v>654</v>
       </c>
       <c r="G266" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H266" s="16" t="n">
-        <v>19.08</v>
+        <v>24.06</v>
       </c>
       <c r="J266" s="5" t="n"/>
       <c r="L266" s="14" t="inlineStr">
@@ -28037,30 +28033,32 @@
     <row r="267" ht="13" customHeight="1">
       <c r="B267" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C267" s="7" t="inlineStr">
         <is>
-          <t>Linus August Rygh</t>
+          <t>Per-Christian Myrnes Pedersen</t>
         </is>
       </c>
       <c r="D267" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E267" s="15" t="n">
-        <v>22.9</v>
+        <v>1986</v>
+      </c>
+      <c r="E267" s="17" t="inlineStr">
+        <is>
+          <t>9,10,36</t>
+        </is>
       </c>
       <c r="F267" s="7" t="n">
-        <v>759</v>
+        <v>649</v>
       </c>
       <c r="G267" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Narvik</t>
         </is>
       </c>
       <c r="H267" s="16" t="n">
-        <v>10.09</v>
+        <v>10.06</v>
       </c>
       <c r="J267" s="5" t="n"/>
       <c r="L267" s="14" t="inlineStr">
@@ -28095,30 +28093,30 @@
     <row r="268" ht="13" customHeight="1">
       <c r="B268" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C268" s="7" t="inlineStr">
         <is>
-          <t>Lars Magnus Birketveit</t>
+          <t>Birk Arvola</t>
         </is>
       </c>
       <c r="D268" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E268" s="15" t="n">
-        <v>23.13</v>
+        <v>53.03</v>
       </c>
       <c r="F268" s="7" t="n">
-        <v>735</v>
+        <v>643</v>
       </c>
       <c r="G268" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="H268" s="16" t="n">
-        <v>26.08</v>
+        <v>29.08</v>
       </c>
       <c r="J268" s="5" t="n"/>
       <c r="L268" s="14" t="inlineStr">
@@ -28153,30 +28151,30 @@
     <row r="269" ht="13" customHeight="1">
       <c r="B269" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C269" s="7" t="inlineStr">
         <is>
-          <t>Lars Magnus Birketveit</t>
+          <t>Mathias Johansen</t>
         </is>
       </c>
       <c r="D269" s="7" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E269" s="15" t="n">
-        <v>11.51</v>
+        <v>24.37</v>
       </c>
       <c r="F269" s="7" t="n">
-        <v>718</v>
+        <v>612</v>
       </c>
       <c r="G269" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H269" s="16" t="n">
-        <v>19.08</v>
+        <v>4.03</v>
       </c>
       <c r="J269" s="5" t="n"/>
       <c r="L269" s="14" t="inlineStr">
@@ -28211,22 +28209,24 @@
     <row r="270" ht="13" customHeight="1">
       <c r="B270" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C270" s="7" t="inlineStr">
         <is>
-          <t>Linus August Rygh</t>
+          <t>Tobias Johansen</t>
         </is>
       </c>
       <c r="D270" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E270" s="15" t="n">
-        <v>7.38</v>
+        <v>2003</v>
+      </c>
+      <c r="E270" s="17" t="inlineStr">
+        <is>
+          <t>2,04,49</t>
+        </is>
       </c>
       <c r="F270" s="7" t="n">
-        <v>705</v>
+        <v>606</v>
       </c>
       <c r="G270" s="7" t="inlineStr">
         <is>
@@ -28234,7 +28234,7 @@
         </is>
       </c>
       <c r="H270" s="16" t="n">
-        <v>11.02</v>
+        <v>19.02</v>
       </c>
       <c r="J270" s="5" t="n"/>
       <c r="L270" s="14" t="inlineStr">
@@ -28269,30 +28269,30 @@
     <row r="271" ht="13" customHeight="1">
       <c r="B271" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C271" s="7" t="inlineStr">
         <is>
-          <t>Emil Gundersen</t>
+          <t>Oskar Stattin</t>
         </is>
       </c>
       <c r="D271" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E271" s="15" t="n">
-        <v>6.17</v>
+        <v>2.76</v>
       </c>
       <c r="F271" s="7" t="n">
-        <v>645</v>
+        <v>538</v>
       </c>
       <c r="G271" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="H271" s="16" t="n">
-        <v>23.02</v>
+        <v>19.04</v>
       </c>
       <c r="J271" s="5" t="n"/>
       <c r="L271" s="14" t="inlineStr">
@@ -28327,30 +28327,30 @@
     <row r="272" ht="13" customHeight="1">
       <c r="B272" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C272" s="7" t="inlineStr">
         <is>
-          <t>Oliver Taule Lindgren</t>
+          <t>Oskar Stattin</t>
         </is>
       </c>
       <c r="D272" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E272" s="15" t="n">
-        <v>5.67</v>
+        <v>11.78</v>
       </c>
       <c r="F272" s="7" t="n">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="G272" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H272" s="16" t="n">
-        <v>4.03</v>
+        <v>12.02</v>
       </c>
       <c r="J272" s="5" t="n"/>
       <c r="L272" s="14" t="inlineStr">
@@ -28385,30 +28385,30 @@
     <row r="273" ht="13" customHeight="1">
       <c r="B273" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C273" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Boge Stenerud</t>
+          <t>Simon Kaarbø</t>
         </is>
       </c>
       <c r="D273" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E273" s="15" t="n">
-        <v>11.5</v>
+        <v>5.5</v>
       </c>
       <c r="F273" s="7" t="n">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="G273" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="H273" s="16" t="n">
-        <v>17.06</v>
+        <v>17.09</v>
       </c>
       <c r="J273" s="5" t="n"/>
       <c r="L273" s="14" t="inlineStr">
@@ -28448,25 +28448,25 @@
       </c>
       <c r="C274" s="7" t="inlineStr">
         <is>
-          <t>Jonas Langeland Andersen</t>
+          <t>Leif-Andreas Borgersen</t>
         </is>
       </c>
       <c r="D274" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E274" s="15" t="n">
-        <v>5.22</v>
+        <v>5.49</v>
       </c>
       <c r="F274" s="7" t="n">
-        <v>424</v>
+        <v>488</v>
       </c>
       <c r="G274" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="H274" s="16" t="n">
-        <v>23.02</v>
+        <v>17.09</v>
       </c>
       <c r="J274" s="5" t="n"/>
       <c r="L274" s="14" t="inlineStr">
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="F276" s="20" t="n">
-        <v>8183</v>
+        <v>7310</v>
       </c>
       <c r="J276" s="5" t="n"/>
       <c r="L276" s="19" t="inlineStr">
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="C278" s="20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E278" s="19" t="inlineStr">
         <is>
@@ -28571,7 +28571,7 @@
         </is>
       </c>
       <c r="F278" s="20" t="n">
-        <v>15822</v>
+        <v>15823</v>
       </c>
       <c r="J278" s="5" t="n"/>
       <c r="L278" s="19" t="inlineStr">
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="C280" s="20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J280" s="5" t="n"/>
       <c r="L280" s="19" t="inlineStr">
@@ -28975,18 +28975,18 @@
         <v>2011</v>
       </c>
       <c r="O293" s="15" t="n">
-        <v>28.24</v>
+        <v>28.06</v>
       </c>
       <c r="P293" s="7" t="n">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="Q293" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R293" s="16" t="n">
-        <v>12.08</v>
+        <v>16.09</v>
       </c>
       <c r="T293" s="5" t="n"/>
     </row>
@@ -29536,7 +29536,7 @@
         </is>
       </c>
       <c r="P305" s="20" t="n">
-        <v>4570</v>
+        <v>4581</v>
       </c>
       <c r="T305" s="5" t="n"/>
     </row>
@@ -30298,7 +30298,7 @@
         </is>
       </c>
       <c r="P325" s="20" t="n">
-        <v>9386</v>
+        <v>9397</v>
       </c>
       <c r="T325" s="5" t="n"/>
     </row>
@@ -30438,7 +30438,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>26489</v>
+        <v>26506</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -30494,7 +30494,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>23482</v>
+        <v>23516</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
@@ -30522,7 +30522,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>23327</v>
+        <v>23385</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -30578,7 +30578,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>22732</v>
+        <v>22808</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -30686,11 +30686,11 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>(30/14)</t>
+          <t>(30/15)</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>21330</v>
+        <v>21398</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -30770,11 +30770,11 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>(30/13)</t>
+          <t>(30/12)</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>18575</v>
+        <v>18731</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -30802,7 +30802,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>17907</v>
+        <v>17918</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -32323,27 +32323,27 @@
       </c>
       <c r="C34" s="7" t="inlineStr">
         <is>
-          <t>Selma Løchen Engdahl</t>
+          <t>Ingeborg Østgård</t>
         </is>
       </c>
       <c r="D34" s="7" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="E34" s="17" t="inlineStr">
         <is>
-          <t>9,15,80</t>
+          <t>9,15,65</t>
         </is>
       </c>
       <c r="F34" s="7" t="n">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="G34" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H34" s="16" t="n">
-        <v>20.05</v>
+        <v>19.09</v>
       </c>
       <c r="J34" s="5" t="n"/>
       <c r="L34" s="14" t="inlineStr">
@@ -32378,30 +32378,32 @@
     <row r="35" ht="13" customHeight="1">
       <c r="B35" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C35" s="7" t="inlineStr">
         <is>
-          <t>Astri Ayo Lakeri Ertzgaard</t>
+          <t>Selma Løchen Engdahl</t>
         </is>
       </c>
       <c r="D35" s="7" t="n">
-        <v>2002</v>
-      </c>
-      <c r="E35" s="15" t="n">
-        <v>11.88</v>
+        <v>2001</v>
+      </c>
+      <c r="E35" s="17" t="inlineStr">
+        <is>
+          <t>9,15,80</t>
+        </is>
       </c>
       <c r="F35" s="7" t="n">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="G35" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H35" s="16" t="n">
-        <v>25.08</v>
+        <v>20.05</v>
       </c>
       <c r="J35" s="5" t="n"/>
       <c r="L35" s="14" t="inlineStr">
@@ -32438,32 +32440,30 @@
     <row r="36" ht="13" customHeight="1">
       <c r="B36" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C36" s="7" t="inlineStr">
         <is>
-          <t>Sigrid Jervell Våg</t>
+          <t>Astri Ayo Lakeri Ertzgaard</t>
         </is>
       </c>
       <c r="D36" s="7" t="n">
-        <v>1992</v>
-      </c>
-      <c r="E36" s="17" t="inlineStr">
-        <is>
-          <t>16,09,61</t>
-        </is>
+        <v>2002</v>
+      </c>
+      <c r="E36" s="15" t="n">
+        <v>11.88</v>
       </c>
       <c r="F36" s="7" t="n">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="G36" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H36" s="16" t="n">
-        <v>28.06</v>
+        <v>25.08</v>
       </c>
       <c r="J36" s="5" t="n"/>
       <c r="L36" s="14" t="inlineStr">
@@ -32498,30 +32498,32 @@
     <row r="37" ht="13" customHeight="1">
       <c r="B37" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C37" s="7" t="inlineStr">
         <is>
-          <t>Kaitesi Ertzgaard</t>
+          <t>Sigrid Jervell Våg</t>
         </is>
       </c>
       <c r="D37" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E37" s="15" t="n">
-        <v>54.58</v>
+        <v>1992</v>
+      </c>
+      <c r="E37" s="17" t="inlineStr">
+        <is>
+          <t>16,09,61</t>
+        </is>
       </c>
       <c r="F37" s="7" t="n">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="G37" s="7" t="inlineStr">
         <is>
-          <t>Jyväskylä/FIN</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H37" s="16" t="n">
-        <v>7.06</v>
+        <v>28.06</v>
       </c>
       <c r="J37" s="5" t="n"/>
       <c r="L37" s="14" t="inlineStr">
@@ -32556,30 +32558,30 @@
     <row r="38" ht="13" customHeight="1">
       <c r="B38" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C38" s="7" t="inlineStr">
         <is>
-          <t>Astri Ayo Lakeri Ertzgaard</t>
+          <t>Kaitesi Ertzgaard</t>
         </is>
       </c>
       <c r="D38" s="7" t="n">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="E38" s="15" t="n">
-        <v>24.27</v>
+        <v>54.58</v>
       </c>
       <c r="F38" s="7" t="n">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="G38" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jyväskylä/FIN</t>
         </is>
       </c>
       <c r="H38" s="16" t="n">
-        <v>15.06</v>
+        <v>7.06</v>
       </c>
       <c r="J38" s="5" t="n"/>
       <c r="L38" s="14" t="inlineStr">
@@ -32619,17 +32621,17 @@
       </c>
       <c r="C39" s="7" t="inlineStr">
         <is>
-          <t>Vilde Humstad Aasmo</t>
+          <t>Astri Ayo Lakeri Ertzgaard</t>
         </is>
       </c>
       <c r="D39" s="7" t="n">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="E39" s="15" t="n">
-        <v>24.33</v>
+        <v>24.27</v>
       </c>
       <c r="F39" s="7" t="n">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="G39" s="7" t="inlineStr">
         <is>
@@ -32637,7 +32639,7 @@
         </is>
       </c>
       <c r="H39" s="16" t="n">
-        <v>28.06</v>
+        <v>15.06</v>
       </c>
       <c r="J39" s="5" t="n"/>
       <c r="L39" s="14" t="inlineStr">
@@ -32994,7 +32996,7 @@
         </is>
       </c>
       <c r="F46" s="20" t="n">
-        <v>12790</v>
+        <v>12807</v>
       </c>
       <c r="J46" s="5" t="n"/>
       <c r="L46" s="19" t="inlineStr">
@@ -33034,7 +33036,7 @@
         </is>
       </c>
       <c r="F48" s="20" t="n">
-        <v>26489</v>
+        <v>26506</v>
       </c>
       <c r="J48" s="5" t="n"/>
       <c r="L48" s="19" t="inlineStr">
@@ -33322,10 +33324,10 @@
         <v>2006</v>
       </c>
       <c r="O61" s="15" t="n">
-        <v>7.97</v>
+        <v>7.79</v>
       </c>
       <c r="P61" s="7" t="n">
-        <v>743</v>
+        <v>801</v>
       </c>
       <c r="Q61" s="7" t="inlineStr">
         <is>
@@ -33333,7 +33335,7 @@
         </is>
       </c>
       <c r="R61" s="16" t="n">
-        <v>4.02</v>
+        <v>17.09</v>
       </c>
       <c r="T61" s="5" t="n"/>
     </row>
@@ -34110,22 +34112,22 @@
     <row r="75" ht="13" customHeight="1">
       <c r="B75" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C75" s="7" t="inlineStr">
         <is>
-          <t>Ida Yessica Nesse</t>
+          <t>Charlotte Lund Antonijevic</t>
         </is>
       </c>
       <c r="D75" s="7" t="n">
-        <v>1992</v>
+        <v>1987</v>
       </c>
       <c r="E75" s="15" t="n">
-        <v>32.15</v>
+        <v>10.83</v>
       </c>
       <c r="F75" s="7" t="n">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="G75" s="7" t="inlineStr">
         <is>
@@ -34133,7 +34135,7 @@
         </is>
       </c>
       <c r="H75" s="16" t="n">
-        <v>9.09</v>
+        <v>19.09</v>
       </c>
       <c r="J75" s="5" t="n"/>
       <c r="L75" s="14" t="inlineStr">
@@ -34198,7 +34200,7 @@
         </is>
       </c>
       <c r="F77" s="20" t="n">
-        <v>11971</v>
+        <v>12005</v>
       </c>
       <c r="J77" s="5" t="n"/>
       <c r="L77" s="19" t="inlineStr">
@@ -34215,7 +34217,7 @@
         </is>
       </c>
       <c r="P77" s="20" t="n">
-        <v>12119</v>
+        <v>12177</v>
       </c>
       <c r="T77" s="5" t="n"/>
     </row>
@@ -35266,7 +35268,7 @@
         </is>
       </c>
       <c r="F100" s="20" t="n">
-        <v>23482</v>
+        <v>23516</v>
       </c>
       <c r="J100" s="5" t="n"/>
       <c r="L100" s="19" t="inlineStr">
@@ -35283,7 +35285,7 @@
         </is>
       </c>
       <c r="P100" s="20" t="n">
-        <v>23327</v>
+        <v>23385</v>
       </c>
       <c r="T100" s="5" t="n"/>
     </row>
@@ -37050,18 +37052,18 @@
         <v>2006</v>
       </c>
       <c r="O142" s="15" t="n">
-        <v>12.8</v>
+        <v>12.74</v>
       </c>
       <c r="P142" s="7" t="n">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="Q142" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R142" s="16" t="n">
-        <v>25.08</v>
+        <v>16.09</v>
       </c>
       <c r="T142" s="5" t="n"/>
     </row>
@@ -37388,30 +37390,30 @@
       <c r="J148" s="5" t="n"/>
       <c r="L148" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M148" s="7" t="inlineStr">
         <is>
-          <t>Lilje Lopes Patey</t>
+          <t>Dorothy Mcmanus Ampong</t>
         </is>
       </c>
       <c r="N148" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O148" s="15" t="n">
-        <v>4.07</v>
+        <v>1.35</v>
       </c>
       <c r="P148" s="7" t="n">
-        <v>405</v>
+        <v>470</v>
       </c>
       <c r="Q148" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R148" s="16" t="n">
-        <v>14.01</v>
+        <v>17.09</v>
       </c>
       <c r="T148" s="5" t="n"/>
     </row>
@@ -37465,7 +37467,7 @@
         </is>
       </c>
       <c r="P150" s="20" t="n">
-        <v>10272</v>
+        <v>10348</v>
       </c>
       <c r="T150" s="5" t="n"/>
     </row>
@@ -37505,7 +37507,7 @@
         </is>
       </c>
       <c r="P152" s="20" t="n">
-        <v>22732</v>
+        <v>22808</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
@@ -40828,30 +40830,30 @@
       <c r="J231" s="5" t="n"/>
       <c r="L231" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="M231" s="7" t="inlineStr">
         <is>
-          <t>Lucille Chevalier</t>
+          <t>Live Hjelle</t>
         </is>
       </c>
       <c r="N231" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O231" s="15" t="n">
-        <v>19.37</v>
+        <v>23.95</v>
       </c>
       <c r="P231" s="7" t="n">
-        <v>368</v>
+        <v>436</v>
       </c>
       <c r="Q231" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="R231" s="16" t="n">
-        <v>29.05</v>
+        <v>13.09</v>
       </c>
       <c r="T231" s="5" t="n"/>
     </row>
@@ -40905,7 +40907,7 @@
         </is>
       </c>
       <c r="P233" s="20" t="n">
-        <v>10869</v>
+        <v>10937</v>
       </c>
       <c r="T233" s="5" t="n"/>
     </row>
@@ -41971,7 +41973,7 @@
         </is>
       </c>
       <c r="P256" s="20" t="n">
-        <v>21330</v>
+        <v>21398</v>
       </c>
       <c r="T256" s="5" t="n"/>
     </row>
@@ -41995,7 +41997,7 @@
         </is>
       </c>
       <c r="M258" s="20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T258" s="5" t="n"/>
     </row>
@@ -44335,25 +44337,25 @@
       </c>
       <c r="C321" s="7" t="inlineStr">
         <is>
-          <t>Helena Lauvdal Myhren</t>
+          <t>Beate Raknes</t>
         </is>
       </c>
       <c r="D321" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E321" s="15" t="n">
-        <v>8.550000000000001</v>
+        <v>8.66</v>
       </c>
       <c r="F321" s="7" t="n">
-        <v>580</v>
+        <v>553</v>
       </c>
       <c r="G321" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H321" s="16" t="n">
-        <v>18.03</v>
+        <v>17.06</v>
       </c>
       <c r="J321" s="5" t="n"/>
       <c r="L321" s="14" t="inlineStr">
@@ -45025,25 +45027,25 @@
       </c>
       <c r="C333" s="7" t="inlineStr">
         <is>
-          <t>Beate Raknes</t>
+          <t>Helena Lauvdal Myhren</t>
         </is>
       </c>
       <c r="D333" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E333" s="15" t="n">
-        <v>9.08</v>
+        <v>9.77</v>
       </c>
       <c r="F333" s="7" t="n">
-        <v>459</v>
+        <v>534</v>
       </c>
       <c r="G333" s="7" t="inlineStr">
         <is>
-          <t>Rjukan</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H333" s="16" t="n">
-        <v>3.09</v>
+        <v>19.09</v>
       </c>
       <c r="J333" s="5" t="n"/>
       <c r="L333" s="14" t="n"/>
@@ -45164,7 +45166,7 @@
         </is>
       </c>
       <c r="F337" s="20" t="n">
-        <v>10008</v>
+        <v>10056</v>
       </c>
       <c r="J337" s="5" t="n"/>
       <c r="L337" s="19" t="inlineStr">
@@ -45742,18 +45744,18 @@
         <v>2009</v>
       </c>
       <c r="O349" s="15" t="n">
-        <v>27.29</v>
+        <v>27.13</v>
       </c>
       <c r="P349" s="7" t="n">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="Q349" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R349" s="16" t="n">
-        <v>2.06</v>
+        <v>17.09</v>
       </c>
       <c r="T349" s="5" t="n"/>
     </row>
@@ -45818,30 +45820,30 @@
     <row r="351" ht="13" customHeight="1">
       <c r="B351" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C351" s="7" t="inlineStr">
         <is>
-          <t>Beate Raknes</t>
+          <t>Alida Haaland</t>
         </is>
       </c>
       <c r="D351" s="7" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="E351" s="15" t="n">
-        <v>8.66</v>
+        <v>2.43</v>
       </c>
       <c r="F351" s="7" t="n">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="G351" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H351" s="16" t="n">
-        <v>17.06</v>
+        <v>25.05</v>
       </c>
       <c r="J351" s="5" t="n"/>
       <c r="L351" s="14" t="inlineStr">
@@ -45876,7 +45878,7 @@
     <row r="352" ht="13" customHeight="1">
       <c r="B352" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C352" s="7" t="inlineStr">
@@ -45888,18 +45890,18 @@
         <v>2006</v>
       </c>
       <c r="E352" s="15" t="n">
-        <v>2.43</v>
+        <v>9.6</v>
       </c>
       <c r="F352" s="7" t="n">
-        <v>542</v>
+        <v>516</v>
       </c>
       <c r="G352" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H352" s="16" t="n">
-        <v>25.05</v>
+        <v>19.09</v>
       </c>
       <c r="J352" s="5" t="n"/>
       <c r="L352" s="14" t="inlineStr">
@@ -45992,30 +45994,30 @@
     <row r="354" ht="13" customHeight="1">
       <c r="B354" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C354" s="7" t="inlineStr">
         <is>
-          <t>Alida Haaland</t>
+          <t>Beate Raknes</t>
         </is>
       </c>
       <c r="D354" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="E354" s="15" t="n">
-        <v>4.28</v>
+        <v>14.05</v>
       </c>
       <c r="F354" s="7" t="n">
-        <v>456</v>
+        <v>503</v>
       </c>
       <c r="G354" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Tvedestrand</t>
         </is>
       </c>
       <c r="H354" s="16" t="n">
-        <v>7.05</v>
+        <v>26.08</v>
       </c>
       <c r="J354" s="5" t="n"/>
       <c r="L354" s="14" t="inlineStr">
@@ -46050,30 +46052,30 @@
     <row r="355" ht="13" customHeight="1">
       <c r="B355" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C355" s="7" t="inlineStr">
         <is>
-          <t>Tomine Tjomsland Johansson</t>
+          <t>Eline Edland</t>
         </is>
       </c>
       <c r="D355" s="7" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E355" s="15" t="n">
-        <v>1.3</v>
+        <v>4.36</v>
       </c>
       <c r="F355" s="7" t="n">
-        <v>418</v>
+        <v>475</v>
       </c>
       <c r="G355" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Søgne</t>
         </is>
       </c>
       <c r="H355" s="16" t="n">
-        <v>18.06</v>
+        <v>16.09</v>
       </c>
       <c r="J355" s="5" t="n"/>
       <c r="L355" s="14" t="inlineStr">
@@ -46108,30 +46110,30 @@
     <row r="356" ht="13" customHeight="1">
       <c r="B356" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C356" s="7" t="inlineStr">
         <is>
-          <t>Tiril Elise Wikstrøm Alsand</t>
+          <t>Beate Raknes</t>
         </is>
       </c>
       <c r="D356" s="7" t="n">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="E356" s="15" t="n">
-        <v>1.3</v>
+        <v>9.08</v>
       </c>
       <c r="F356" s="7" t="n">
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="G356" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Rjukan</t>
         </is>
       </c>
       <c r="H356" s="16" t="n">
-        <v>17.06</v>
+        <v>3.09</v>
       </c>
       <c r="J356" s="5" t="n"/>
       <c r="L356" s="14" t="inlineStr">
@@ -46196,7 +46198,7 @@
         </is>
       </c>
       <c r="F358" s="20" t="n">
-        <v>8567</v>
+        <v>8675</v>
       </c>
       <c r="J358" s="5" t="n"/>
       <c r="L358" s="19" t="inlineStr">
@@ -46213,7 +46215,7 @@
         </is>
       </c>
       <c r="P358" s="20" t="n">
-        <v>9596</v>
+        <v>9607</v>
       </c>
       <c r="T358" s="5" t="n"/>
     </row>
@@ -46236,7 +46238,7 @@
         </is>
       </c>
       <c r="F360" s="20" t="n">
-        <v>18575</v>
+        <v>18731</v>
       </c>
       <c r="J360" s="5" t="n"/>
       <c r="L360" s="19" t="inlineStr">
@@ -46253,7 +46255,7 @@
         </is>
       </c>
       <c r="P360" s="20" t="n">
-        <v>17907</v>
+        <v>17918</v>
       </c>
       <c r="T360" s="5" t="n"/>
     </row>
@@ -46268,7 +46270,7 @@
         </is>
       </c>
       <c r="C362" s="20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J362" s="5" t="n"/>
       <c r="L362" s="19" t="inlineStr">
@@ -46421,7 +46423,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>16945</v>
+        <v>17230</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
@@ -46445,11 +46447,11 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>(25/13)</t>
+          <t>(25/12)</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>15621</v>
+        <v>15749</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
@@ -46473,11 +46475,11 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>(25/11)</t>
+          <t>(25/10)</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>15510</v>
+        <v>15659</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -46617,7 +46619,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>14164</v>
+        <v>14175</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
@@ -46641,11 +46643,11 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>(24/10)</t>
+          <t>(25/10)</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>13795</v>
+        <v>13900</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -46673,7 +46675,7 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>13671</v>
+        <v>13783</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
@@ -46757,7 +46759,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>12045</v>
+        <v>12071</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -47025,30 +47027,30 @@
       <c r="J9" s="5" t="n"/>
       <c r="L9" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M9" s="7" t="inlineStr">
         <is>
-          <t>Noélie Bjerke Laborie</t>
+          <t>Kitty Augusta Friele Faye</t>
         </is>
       </c>
       <c r="N9" s="7" t="n">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="O9" s="15" t="n">
-        <v>8.789999999999999</v>
+        <v>12.81</v>
       </c>
       <c r="P9" s="7" t="n">
-        <v>521</v>
+        <v>703</v>
       </c>
       <c r="Q9" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R9" s="16" t="n">
-        <v>3.06</v>
+        <v>16.09</v>
       </c>
       <c r="T9" s="5" t="n"/>
     </row>
@@ -47810,7 +47812,7 @@
         </is>
       </c>
       <c r="P23" s="20" t="n">
-        <v>9324</v>
+        <v>9506</v>
       </c>
       <c r="T23" s="5" t="n"/>
     </row>
@@ -48177,30 +48179,30 @@
       <c r="J32" s="5" t="n"/>
       <c r="L32" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M32" s="7" t="inlineStr">
         <is>
-          <t>Embla Adele Østreim Øina</t>
+          <t>Anna Qvale Sundstrøm</t>
         </is>
       </c>
       <c r="N32" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="O32" s="15" t="n">
-        <v>4.89</v>
+        <v>2.97</v>
       </c>
       <c r="P32" s="7" t="n">
-        <v>594</v>
+        <v>667</v>
       </c>
       <c r="Q32" s="7" t="inlineStr">
         <is>
-          <t>Strandebarm</t>
+          <t>Bergen/Hø</t>
         </is>
       </c>
       <c r="R32" s="16" t="n">
-        <v>17.06</v>
+        <v>15.09</v>
       </c>
       <c r="T32" s="5" t="n"/>
     </row>
@@ -48235,7 +48237,7 @@
       <c r="J33" s="5" t="n"/>
       <c r="L33" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M33" s="7" t="inlineStr">
@@ -48247,18 +48249,18 @@
         <v>2009</v>
       </c>
       <c r="O33" s="15" t="n">
-        <v>2.62</v>
+        <v>4.89</v>
       </c>
       <c r="P33" s="7" t="n">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="Q33" s="7" t="inlineStr">
         <is>
-          <t>Byrkjelo</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="R33" s="16" t="n">
-        <v>2.09</v>
+        <v>17.06</v>
       </c>
       <c r="T33" s="5" t="n"/>
     </row>
@@ -48293,7 +48295,7 @@
       <c r="J34" s="5" t="n"/>
       <c r="L34" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M34" s="7" t="inlineStr">
@@ -48305,7 +48307,7 @@
         <v>2009</v>
       </c>
       <c r="O34" s="15" t="n">
-        <v>10.29</v>
+        <v>2.62</v>
       </c>
       <c r="P34" s="7" t="n">
         <v>588</v>
@@ -48316,7 +48318,7 @@
         </is>
       </c>
       <c r="R34" s="16" t="n">
-        <v>3.09</v>
+        <v>2.09</v>
       </c>
       <c r="T34" s="5" t="n"/>
     </row>
@@ -48358,11 +48360,11 @@
       </c>
       <c r="M35" s="7" t="inlineStr">
         <is>
-          <t>Anna Qvale Sundstrøm</t>
+          <t>Embla Adele Østreim Øina</t>
         </is>
       </c>
       <c r="N35" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="O35" s="15" t="n">
         <v>10.29</v>
@@ -48372,11 +48374,11 @@
       </c>
       <c r="Q35" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Byrkjelo</t>
         </is>
       </c>
       <c r="R35" s="16" t="n">
-        <v>8.09</v>
+        <v>3.09</v>
       </c>
       <c r="T35" s="5" t="n"/>
     </row>
@@ -48411,24 +48413,22 @@
       <c r="J36" s="5" t="n"/>
       <c r="L36" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M36" s="7" t="inlineStr">
         <is>
-          <t>Mathea Galleberg</t>
+          <t>Anna Qvale Sundstrøm</t>
         </is>
       </c>
       <c r="N36" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O36" s="17" t="inlineStr">
-        <is>
-          <t>11,05,27</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="O36" s="15" t="n">
+        <v>10.29</v>
       </c>
       <c r="P36" s="7" t="n">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="Q36" s="7" t="inlineStr">
         <is>
@@ -48436,7 +48436,7 @@
         </is>
       </c>
       <c r="R36" s="16" t="n">
-        <v>14.05</v>
+        <v>8.09</v>
       </c>
       <c r="T36" s="5" t="n"/>
     </row>
@@ -48471,22 +48471,24 @@
       <c r="J37" s="5" t="n"/>
       <c r="L37" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M37" s="7" t="inlineStr">
         <is>
-          <t>Thea Emilie Turøy</t>
+          <t>Mathea Galleberg</t>
         </is>
       </c>
       <c r="N37" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="O37" s="15" t="n">
-        <v>1.45</v>
+        <v>2007</v>
+      </c>
+      <c r="O37" s="17" t="inlineStr">
+        <is>
+          <t>11,05,27</t>
+        </is>
       </c>
       <c r="P37" s="7" t="n">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="Q37" s="7" t="inlineStr">
         <is>
@@ -48494,7 +48496,7 @@
         </is>
       </c>
       <c r="R37" s="16" t="n">
-        <v>13.05</v>
+        <v>14.05</v>
       </c>
       <c r="T37" s="5" t="n"/>
     </row>
@@ -48587,22 +48589,22 @@
       <c r="J39" s="5" t="n"/>
       <c r="L39" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M39" s="7" t="inlineStr">
         <is>
-          <t>Anna Qvale Sundstrøm</t>
+          <t>Thea Emilie Turøy</t>
         </is>
       </c>
       <c r="N39" s="7" t="n">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="O39" s="15" t="n">
-        <v>2.52</v>
+        <v>1.45</v>
       </c>
       <c r="P39" s="7" t="n">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="Q39" s="7" t="inlineStr">
         <is>
@@ -48610,7 +48612,7 @@
         </is>
       </c>
       <c r="R39" s="16" t="n">
-        <v>19.08</v>
+        <v>13.05</v>
       </c>
       <c r="T39" s="5" t="n"/>
     </row>
@@ -48664,7 +48666,7 @@
         </is>
       </c>
       <c r="P41" s="20" t="n">
-        <v>7621</v>
+        <v>7724</v>
       </c>
       <c r="T41" s="5" t="n"/>
     </row>
@@ -48704,7 +48706,7 @@
         </is>
       </c>
       <c r="P43" s="20" t="n">
-        <v>16945</v>
+        <v>17230</v>
       </c>
       <c r="T43" s="5" t="n"/>
     </row>
@@ -49652,17 +49654,17 @@
       </c>
       <c r="C68" s="7" t="inlineStr">
         <is>
-          <t>Ida Petersen Amble</t>
+          <t>Ida Yessica Nesse</t>
         </is>
       </c>
       <c r="D68" s="7" t="n">
-        <v>2006</v>
+        <v>1992</v>
       </c>
       <c r="E68" s="15" t="n">
-        <v>28.41</v>
+        <v>32.15</v>
       </c>
       <c r="F68" s="7" t="n">
-        <v>555</v>
+        <v>614</v>
       </c>
       <c r="G68" s="7" t="inlineStr">
         <is>
@@ -49670,7 +49672,7 @@
         </is>
       </c>
       <c r="H68" s="16" t="n">
-        <v>18.06</v>
+        <v>9.09</v>
       </c>
       <c r="J68" s="5" t="n"/>
       <c r="L68" s="14" t="inlineStr">
@@ -49680,25 +49682,25 @@
       </c>
       <c r="M68" s="7" t="inlineStr">
         <is>
-          <t>Nina Blindbæk</t>
+          <t>Eline Heia</t>
         </is>
       </c>
       <c r="N68" s="7" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="O68" s="15" t="n">
-        <v>5.55</v>
+        <v>7.1</v>
       </c>
       <c r="P68" s="7" t="n">
-        <v>202</v>
+        <v>351</v>
       </c>
       <c r="Q68" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Søgne</t>
         </is>
       </c>
       <c r="R68" s="16" t="n">
-        <v>28.01</v>
+        <v>16.09</v>
       </c>
       <c r="T68" s="5" t="n"/>
     </row>
@@ -49735,7 +49737,7 @@
         </is>
       </c>
       <c r="F70" s="20" t="n">
-        <v>8561</v>
+        <v>8620</v>
       </c>
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="19" t="inlineStr">
@@ -49752,7 +49754,7 @@
         </is>
       </c>
       <c r="P70" s="20" t="n">
-        <v>8029</v>
+        <v>8178</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
@@ -50329,30 +50331,30 @@
     <row r="83" ht="13" customHeight="1">
       <c r="B83" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C83" s="7" t="inlineStr">
         <is>
-          <t>Henriette Collett-Østensen</t>
+          <t>Ida Yessica Nesse</t>
         </is>
       </c>
       <c r="D83" s="7" t="n">
-        <v>2004</v>
+        <v>1992</v>
       </c>
       <c r="E83" s="15" t="n">
-        <v>10.13</v>
+        <v>31.81</v>
       </c>
       <c r="F83" s="7" t="n">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G83" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H83" s="16" t="n">
-        <v>3.03</v>
+        <v>17.09</v>
       </c>
       <c r="J83" s="5" t="n"/>
       <c r="L83" s="14" t="inlineStr">
@@ -50387,30 +50389,30 @@
     <row r="84" ht="13" customHeight="1">
       <c r="B84" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C84" s="7" t="inlineStr">
         <is>
-          <t>Eline Folvik</t>
+          <t>Henriette Collett-Østensen</t>
         </is>
       </c>
       <c r="D84" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="E84" s="15" t="n">
-        <v>4.75</v>
+        <v>10.13</v>
       </c>
       <c r="F84" s="7" t="n">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="G84" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H84" s="16" t="n">
-        <v>11.02</v>
+        <v>3.03</v>
       </c>
       <c r="J84" s="5" t="n"/>
       <c r="L84" s="14" t="inlineStr">
@@ -50445,30 +50447,30 @@
     <row r="85" ht="13" customHeight="1">
       <c r="B85" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C85" s="7" t="inlineStr">
         <is>
-          <t>Lene Berger</t>
+          <t>Ida Petersen Amble</t>
         </is>
       </c>
       <c r="D85" s="7" t="n">
-        <v>1981</v>
+        <v>2006</v>
       </c>
       <c r="E85" s="15" t="n">
-        <v>30.01</v>
+        <v>29.44</v>
       </c>
       <c r="F85" s="7" t="n">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="G85" s="7" t="inlineStr">
         <is>
-          <t>Geithus</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H85" s="16" t="n">
-        <v>24.06</v>
+        <v>17.09</v>
       </c>
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
@@ -50505,22 +50507,22 @@
     <row r="86" ht="13" customHeight="1">
       <c r="B86" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C86" s="7" t="inlineStr">
         <is>
-          <t>Anna Driesprong Langerød</t>
+          <t>Ida Yessica Nesse</t>
         </is>
       </c>
       <c r="D86" s="7" t="n">
-        <v>2009</v>
+        <v>1992</v>
       </c>
       <c r="E86" s="15" t="n">
-        <v>9.81</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="F86" s="7" t="n">
-        <v>538</v>
+        <v>571</v>
       </c>
       <c r="G86" s="7" t="inlineStr">
         <is>
@@ -50528,7 +50530,7 @@
         </is>
       </c>
       <c r="H86" s="16" t="n">
-        <v>18.06</v>
+        <v>16.03</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="14" t="inlineStr">
@@ -50593,7 +50595,7 @@
         </is>
       </c>
       <c r="F88" s="20" t="n">
-        <v>7060</v>
+        <v>7129</v>
       </c>
       <c r="J88" s="5" t="n"/>
       <c r="L88" s="19" t="inlineStr">
@@ -50633,7 +50635,7 @@
         </is>
       </c>
       <c r="F90" s="20" t="n">
-        <v>15621</v>
+        <v>15749</v>
       </c>
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="19" t="inlineStr">
@@ -50650,7 +50652,7 @@
         </is>
       </c>
       <c r="P90" s="20" t="n">
-        <v>15510</v>
+        <v>15659</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
@@ -50665,7 +50667,7 @@
         </is>
       </c>
       <c r="C92" s="20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J92" s="5" t="n"/>
       <c r="L92" s="19" t="inlineStr">
@@ -50674,7 +50676,7 @@
         </is>
       </c>
       <c r="M92" s="20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T92" s="5" t="n"/>
     </row>
@@ -54831,18 +54833,18 @@
         <v>2005</v>
       </c>
       <c r="E198" s="15" t="n">
-        <v>14.18</v>
+        <v>14.1</v>
       </c>
       <c r="F198" s="7" t="n">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="G198" s="7" t="inlineStr">
         <is>
-          <t>Leirvik</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H198" s="16" t="n">
-        <v>12.08</v>
+        <v>16.09</v>
       </c>
       <c r="J198" s="5" t="n"/>
       <c r="L198" s="14" t="inlineStr">
@@ -55098,19 +55100,19 @@
       </c>
       <c r="O202" s="17" t="inlineStr">
         <is>
-          <t>4,45,89</t>
+          <t>4,40,10</t>
         </is>
       </c>
       <c r="P202" s="7" t="n">
-        <v>689</v>
+        <v>724</v>
       </c>
       <c r="Q202" s="7" t="inlineStr">
         <is>
-          <t>Björlanda/SWE</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R202" s="16" t="n">
-        <v>22.07</v>
+        <v>17.09</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
@@ -55493,13 +55495,33 @@
         <v>29.08</v>
       </c>
       <c r="J209" s="5" t="n"/>
-      <c r="L209" s="14" t="n"/>
-      <c r="M209" s="7" t="n"/>
-      <c r="N209" s="7" t="n"/>
-      <c r="O209" s="7" t="n"/>
-      <c r="P209" s="7" t="n"/>
-      <c r="Q209" s="7" t="n"/>
-      <c r="R209" s="21" t="n"/>
+      <c r="L209" s="14" t="inlineStr">
+        <is>
+          <t>Diskos</t>
+        </is>
+      </c>
+      <c r="M209" s="7" t="inlineStr">
+        <is>
+          <t>Sofie Hustad</t>
+        </is>
+      </c>
+      <c r="N209" s="7" t="n">
+        <v>2006</v>
+      </c>
+      <c r="O209" s="15" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="P209" s="7" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q209" s="7" t="inlineStr">
+        <is>
+          <t>Ravnanger</t>
+        </is>
+      </c>
+      <c r="R209" s="16" t="n">
+        <v>20.09</v>
+      </c>
       <c r="T209" s="5" t="n"/>
     </row>
     <row r="210" ht="13" customHeight="1">
@@ -55535,7 +55557,7 @@
         </is>
       </c>
       <c r="F211" s="20" t="n">
-        <v>7842</v>
+        <v>7853</v>
       </c>
       <c r="J211" s="5" t="n"/>
       <c r="L211" s="19" t="inlineStr">
@@ -55544,7 +55566,7 @@
         </is>
       </c>
       <c r="M211" s="20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O211" s="19" t="inlineStr">
         <is>
@@ -55552,7 +55574,7 @@
         </is>
       </c>
       <c r="P211" s="20" t="n">
-        <v>7052</v>
+        <v>7157</v>
       </c>
       <c r="T211" s="5" t="n"/>
     </row>
@@ -56421,7 +56443,7 @@
         </is>
       </c>
       <c r="F231" s="20" t="n">
-        <v>14164</v>
+        <v>14175</v>
       </c>
       <c r="J231" s="5" t="n"/>
       <c r="L231" s="19" t="inlineStr">
@@ -56430,7 +56452,7 @@
         </is>
       </c>
       <c r="M231" s="20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O231" s="19" t="inlineStr">
         <is>
@@ -56438,7 +56460,7 @@
         </is>
       </c>
       <c r="P231" s="20" t="n">
-        <v>13795</v>
+        <v>13900</v>
       </c>
       <c r="T231" s="5" t="n"/>
     </row>
@@ -56681,18 +56703,18 @@
         <v>2009</v>
       </c>
       <c r="E244" s="15" t="n">
-        <v>8.470000000000001</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="F244" s="7" t="n">
-        <v>601</v>
+        <v>652</v>
       </c>
       <c r="G244" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H244" s="16" t="n">
-        <v>13.08</v>
+        <v>16.09</v>
       </c>
       <c r="J244" s="5" t="n"/>
       <c r="L244" s="14" t="inlineStr">
@@ -57465,7 +57487,7 @@
         </is>
       </c>
       <c r="F258" s="20" t="n">
-        <v>7874</v>
+        <v>7925</v>
       </c>
       <c r="J258" s="5" t="n"/>
       <c r="L258" s="19" t="inlineStr">
@@ -57707,32 +57729,30 @@
     <row r="265" ht="13" customHeight="1">
       <c r="B265" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C265" s="7" t="inlineStr">
         <is>
-          <t>Vilde Martinsen</t>
+          <t>Alma Owrehagen</t>
         </is>
       </c>
       <c r="D265" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E265" s="17" t="inlineStr">
-        <is>
-          <t>5,18,33</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E265" s="15" t="n">
+        <v>28.84</v>
       </c>
       <c r="F265" s="7" t="n">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="G265" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H265" s="16" t="n">
-        <v>22.05</v>
+        <v>17.09</v>
       </c>
       <c r="J265" s="5" t="n"/>
       <c r="L265" s="14" t="inlineStr">
@@ -57769,30 +57789,32 @@
     <row r="266" ht="13" customHeight="1">
       <c r="B266" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C266" s="7" t="inlineStr">
         <is>
-          <t>Alma Owrehagen</t>
+          <t>Vilde Martinsen</t>
         </is>
       </c>
       <c r="D266" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E266" s="15" t="n">
-        <v>29.15</v>
+        <v>2003</v>
+      </c>
+      <c r="E266" s="17" t="inlineStr">
+        <is>
+          <t>5,18,33</t>
+        </is>
       </c>
       <c r="F266" s="7" t="n">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="G266" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H266" s="16" t="n">
-        <v>17.06</v>
+        <v>22.05</v>
       </c>
       <c r="J266" s="5" t="n"/>
       <c r="L266" s="14" t="inlineStr">
@@ -57832,25 +57854,25 @@
       </c>
       <c r="C267" s="7" t="inlineStr">
         <is>
-          <t>Alma Owrehagen</t>
+          <t>Helene Korsmo Walskrå</t>
         </is>
       </c>
       <c r="D267" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E267" s="15" t="n">
-        <v>8.94</v>
+        <v>8.83</v>
       </c>
       <c r="F267" s="7" t="n">
-        <v>486</v>
+        <v>512</v>
       </c>
       <c r="G267" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H267" s="16" t="n">
-        <v>11.03</v>
+        <v>16.09</v>
       </c>
       <c r="J267" s="5" t="n"/>
       <c r="L267" s="14" t="inlineStr">
@@ -57887,30 +57909,30 @@
     <row r="268" ht="13" customHeight="1">
       <c r="B268" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C268" s="7" t="inlineStr">
         <is>
-          <t>Erle Haukåen Stødle</t>
+          <t>Alma Owrehagen</t>
         </is>
       </c>
       <c r="D268" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E268" s="15" t="n">
-        <v>29.51</v>
+        <v>8.94</v>
       </c>
       <c r="F268" s="7" t="n">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="G268" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="H268" s="16" t="n">
-        <v>20.08</v>
+        <v>11.03</v>
       </c>
       <c r="J268" s="5" t="n"/>
       <c r="L268" s="14" t="inlineStr">
@@ -57945,22 +57967,22 @@
     <row r="269" ht="13" customHeight="1">
       <c r="B269" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C269" s="7" t="inlineStr">
         <is>
-          <t>Alma Owrehagen</t>
+          <t>Erle Haukåen Stødle</t>
         </is>
       </c>
       <c r="D269" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E269" s="15" t="n">
-        <v>14.21</v>
+        <v>29.51</v>
       </c>
       <c r="F269" s="7" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G269" s="7" t="inlineStr">
         <is>
@@ -57968,7 +57990,7 @@
         </is>
       </c>
       <c r="H269" s="16" t="n">
-        <v>19.08</v>
+        <v>20.08</v>
       </c>
       <c r="J269" s="5" t="n"/>
       <c r="L269" s="14" t="inlineStr">
@@ -58003,30 +58025,30 @@
     <row r="270" ht="13" customHeight="1">
       <c r="B270" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C270" s="7" t="inlineStr">
         <is>
-          <t>Helene Korsmo Walskrå</t>
+          <t>Alma Owrehagen</t>
         </is>
       </c>
       <c r="D270" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E270" s="15" t="n">
-        <v>9.01</v>
+        <v>14.21</v>
       </c>
       <c r="F270" s="7" t="n">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="G270" s="7" t="inlineStr">
         <is>
-          <t>Hvam</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H270" s="16" t="n">
-        <v>4.02</v>
+        <v>19.08</v>
       </c>
       <c r="J270" s="5" t="n"/>
       <c r="L270" s="14" t="inlineStr">
@@ -58303,7 +58325,7 @@
         </is>
       </c>
       <c r="F276" s="20" t="n">
-        <v>5797</v>
+        <v>5858</v>
       </c>
       <c r="J276" s="5" t="n"/>
       <c r="L276" s="19" t="inlineStr">
@@ -58343,7 +58365,7 @@
         </is>
       </c>
       <c r="F278" s="20" t="n">
-        <v>13671</v>
+        <v>13783</v>
       </c>
       <c r="J278" s="5" t="n"/>
       <c r="L278" s="19" t="inlineStr">
@@ -59593,30 +59615,30 @@
       <c r="J311" s="5" t="n"/>
       <c r="L311" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="M311" s="7" t="inlineStr">
         <is>
-          <t>Stine Grong Ruud</t>
+          <t>Julie Heiervang Johnsen</t>
         </is>
       </c>
       <c r="N311" s="7" t="n">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="O311" s="15" t="n">
-        <v>13.13</v>
+        <v>37.49</v>
       </c>
       <c r="P311" s="7" t="n">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="Q311" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R311" s="16" t="n">
-        <v>18.06</v>
+        <v>12.09</v>
       </c>
       <c r="T311" s="5" t="n"/>
     </row>
@@ -59651,30 +59673,30 @@
       <c r="J312" s="5" t="n"/>
       <c r="L312" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M312" s="7" t="inlineStr">
         <is>
-          <t>Julie Heiervang Johnsen</t>
+          <t>Stine Grong Ruud</t>
         </is>
       </c>
       <c r="N312" s="7" t="n">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="O312" s="15" t="n">
-        <v>36.17</v>
+        <v>13.13</v>
       </c>
       <c r="P312" s="7" t="n">
-        <v>631</v>
+        <v>648</v>
       </c>
       <c r="Q312" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R312" s="16" t="n">
-        <v>19.08</v>
+        <v>18.06</v>
       </c>
       <c r="T312" s="5" t="n"/>
     </row>
@@ -59945,22 +59967,22 @@
       <c r="J317" s="5" t="n"/>
       <c r="L317" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M317" s="7" t="inlineStr">
         <is>
-          <t>Ingeborg Lillemo Kippe</t>
+          <t>Nora Kaspara Lindset</t>
         </is>
       </c>
       <c r="N317" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="O317" s="15" t="n">
-        <v>2.08</v>
+        <v>32.32</v>
       </c>
       <c r="P317" s="7" t="n">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q317" s="7" t="inlineStr">
         <is>
@@ -59968,7 +59990,7 @@
         </is>
       </c>
       <c r="R317" s="16" t="n">
-        <v>30.08</v>
+        <v>12.09</v>
       </c>
       <c r="T317" s="5" t="n"/>
     </row>
@@ -60003,30 +60025,30 @@
       <c r="J318" s="5" t="n"/>
       <c r="L318" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M318" s="7" t="inlineStr">
         <is>
-          <t>Nora Kaspara Lindset</t>
+          <t>Ingeborg Lillemo Kippe</t>
         </is>
       </c>
       <c r="N318" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="O318" s="15" t="n">
-        <v>32.46</v>
+        <v>2.08</v>
       </c>
       <c r="P318" s="7" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q318" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R318" s="16" t="n">
-        <v>9.09</v>
+        <v>30.08</v>
       </c>
       <c r="T318" s="5" t="n"/>
     </row>
@@ -60236,7 +60258,7 @@
         </is>
       </c>
       <c r="P323" s="20" t="n">
-        <v>4691</v>
+        <v>4717</v>
       </c>
       <c r="T323" s="5" t="n"/>
     </row>
@@ -60276,7 +60298,7 @@
         </is>
       </c>
       <c r="P325" s="20" t="n">
-        <v>12045</v>
+        <v>12071</v>
       </c>
       <c r="T325" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2023 1-2. div.xlsx
+++ b/output/Lagserien 2023 1-2. div.xlsx
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>24800</v>
+        <v>24805</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>23812</v>
+        <v>23837</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
@@ -798,11 +798,11 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>(30/17)</t>
+          <t>(30/18)</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>23342</v>
+        <v>23343</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>19364</v>
+        <v>19546</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -4532,18 +4532,18 @@
         <v>2003</v>
       </c>
       <c r="O82" s="15" t="n">
-        <v>53.83</v>
+        <v>54.14</v>
       </c>
       <c r="P82" s="7" t="n">
-        <v>918</v>
+        <v>923</v>
       </c>
       <c r="Q82" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Knarvik</t>
         </is>
       </c>
       <c r="R82" s="16" t="n">
-        <v>2.06</v>
+        <v>23.09</v>
       </c>
       <c r="T82" s="5" t="n"/>
     </row>
@@ -5409,7 +5409,7 @@
         </is>
       </c>
       <c r="P98" s="20" t="n">
-        <v>11685</v>
+        <v>11690</v>
       </c>
       <c r="T98" s="5" t="n"/>
     </row>
@@ -5449,7 +5449,7 @@
         </is>
       </c>
       <c r="P100" s="20" t="n">
-        <v>24800</v>
+        <v>24805</v>
       </c>
       <c r="T100" s="5" t="n"/>
     </row>
@@ -8356,30 +8356,32 @@
       <c r="J172" s="5" t="n"/>
       <c r="L172" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M172" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Hertwig-Ødegaard</t>
+          <t>Magnus Lindhjem-Godal</t>
         </is>
       </c>
       <c r="N172" s="7" t="n">
         <v>2005</v>
       </c>
-      <c r="O172" s="15" t="n">
-        <v>8.42</v>
+      <c r="O172" s="17" t="inlineStr">
+        <is>
+          <t>15,46,27</t>
+        </is>
       </c>
       <c r="P172" s="7" t="n">
-        <v>837</v>
+        <v>673</v>
       </c>
       <c r="Q172" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R172" s="16" t="n">
-        <v>19.02</v>
+        <v>23.09</v>
       </c>
       <c r="T172" s="5" t="n"/>
     </row>
@@ -8416,30 +8418,30 @@
       <c r="J173" s="5" t="n"/>
       <c r="L173" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="M173" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Clementsen</t>
+          <t>Jonathan Hertwig-Ødegaard</t>
         </is>
       </c>
       <c r="N173" s="7" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="O173" s="15" t="n">
-        <v>56.01</v>
+        <v>8.42</v>
       </c>
       <c r="P173" s="7" t="n">
-        <v>740</v>
+        <v>837</v>
       </c>
       <c r="Q173" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R173" s="16" t="n">
-        <v>6.07</v>
+        <v>19.02</v>
       </c>
       <c r="T173" s="5" t="n"/>
     </row>
@@ -8474,30 +8476,30 @@
       <c r="J174" s="5" t="n"/>
       <c r="L174" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M174" s="7" t="inlineStr">
         <is>
-          <t>Torgrim Frøystein</t>
+          <t>Sigurd Clementsen</t>
         </is>
       </c>
       <c r="N174" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="O174" s="15" t="n">
-        <v>1.85</v>
+        <v>56.01</v>
       </c>
       <c r="P174" s="7" t="n">
-        <v>696</v>
+        <v>740</v>
       </c>
       <c r="Q174" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R174" s="16" t="n">
-        <v>11.02</v>
+        <v>6.07</v>
       </c>
       <c r="T174" s="5" t="n"/>
     </row>
@@ -8532,30 +8534,30 @@
       <c r="J175" s="5" t="n"/>
       <c r="L175" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M175" s="7" t="inlineStr">
         <is>
-          <t>Simen Gimnes</t>
+          <t>Torgrim Frøystein</t>
         </is>
       </c>
       <c r="N175" s="7" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="O175" s="15" t="n">
-        <v>6.98</v>
+        <v>1.85</v>
       </c>
       <c r="P175" s="7" t="n">
-        <v>823</v>
+        <v>696</v>
       </c>
       <c r="Q175" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R175" s="16" t="n">
-        <v>6.07</v>
+        <v>11.02</v>
       </c>
       <c r="T175" s="5" t="n"/>
     </row>
@@ -8590,7 +8592,7 @@
       <c r="J176" s="5" t="n"/>
       <c r="L176" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M176" s="7" t="inlineStr">
@@ -8602,18 +8604,18 @@
         <v>2003</v>
       </c>
       <c r="O176" s="15" t="n">
-        <v>14.7</v>
+        <v>6.98</v>
       </c>
       <c r="P176" s="7" t="n">
-        <v>848</v>
+        <v>823</v>
       </c>
       <c r="Q176" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R176" s="16" t="n">
-        <v>7.01</v>
+        <v>6.07</v>
       </c>
       <c r="T176" s="5" t="n"/>
     </row>
@@ -8648,30 +8650,30 @@
       <c r="J177" s="5" t="n"/>
       <c r="L177" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M177" s="7" t="inlineStr">
         <is>
-          <t>Sondre Alexander Høyland</t>
+          <t>Simen Gimnes</t>
         </is>
       </c>
       <c r="N177" s="7" t="n">
-        <v>1998</v>
+        <v>2003</v>
       </c>
       <c r="O177" s="15" t="n">
-        <v>1.55</v>
+        <v>14.7</v>
       </c>
       <c r="P177" s="7" t="n">
-        <v>727</v>
+        <v>848</v>
       </c>
       <c r="Q177" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R177" s="16" t="n">
-        <v>18.02</v>
+        <v>7.01</v>
       </c>
       <c r="T177" s="5" t="n"/>
     </row>
@@ -8706,22 +8708,22 @@
       <c r="J178" s="5" t="n"/>
       <c r="L178" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M178" s="7" t="inlineStr">
         <is>
-          <t>Sigmund Le Fjeld</t>
+          <t>Sondre Alexander Høyland</t>
         </is>
       </c>
       <c r="N178" s="7" t="n">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="O178" s="15" t="n">
-        <v>3.03</v>
+        <v>1.55</v>
       </c>
       <c r="P178" s="7" t="n">
-        <v>688</v>
+        <v>727</v>
       </c>
       <c r="Q178" s="7" t="inlineStr">
         <is>
@@ -8729,7 +8731,7 @@
         </is>
       </c>
       <c r="R178" s="16" t="n">
-        <v>23.03</v>
+        <v>18.02</v>
       </c>
       <c r="T178" s="5" t="n"/>
     </row>
@@ -8841,7 +8843,7 @@
         </is>
       </c>
       <c r="P181" s="20" t="n">
-        <v>11771</v>
+        <v>11756</v>
       </c>
       <c r="T181" s="5" t="n"/>
     </row>
@@ -9137,19 +9139,19 @@
       </c>
       <c r="E189" s="17" t="inlineStr">
         <is>
-          <t>3,42,25</t>
+          <t>3,40,33</t>
         </is>
       </c>
       <c r="F189" s="7" t="n">
-        <v>956</v>
+        <v>981</v>
       </c>
       <c r="G189" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Brandbu</t>
         </is>
       </c>
       <c r="H189" s="16" t="n">
-        <v>29.08</v>
+        <v>23.09</v>
       </c>
       <c r="J189" s="5" t="n"/>
       <c r="L189" s="14" t="inlineStr">
@@ -9809,17 +9811,17 @@
       </c>
       <c r="M200" s="7" t="inlineStr">
         <is>
-          <t>Axel Andreas Mjør</t>
+          <t>Sigmund Le Fjeld</t>
         </is>
       </c>
       <c r="N200" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="O200" s="15" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="P200" s="7" t="n">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="Q200" s="7" t="inlineStr">
         <is>
@@ -9864,7 +9866,7 @@
         </is>
       </c>
       <c r="F202" s="20" t="n">
-        <v>12303</v>
+        <v>12328</v>
       </c>
       <c r="J202" s="5" t="n"/>
       <c r="L202" s="19" t="inlineStr">
@@ -9881,7 +9883,7 @@
         </is>
       </c>
       <c r="P202" s="20" t="n">
-        <v>11571</v>
+        <v>11587</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
@@ -9904,7 +9906,7 @@
         </is>
       </c>
       <c r="F204" s="20" t="n">
-        <v>23812</v>
+        <v>23837</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="19" t="inlineStr">
@@ -9921,7 +9923,7 @@
         </is>
       </c>
       <c r="P204" s="20" t="n">
-        <v>23342</v>
+        <v>23343</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -9945,7 +9947,7 @@
         </is>
       </c>
       <c r="M206" s="20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
@@ -15950,30 +15952,30 @@
       <c r="J347" s="5" t="n"/>
       <c r="L347" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M347" s="7" t="inlineStr">
         <is>
-          <t>Sivert Wist Moen</t>
+          <t>Petter Davidsen</t>
         </is>
       </c>
       <c r="N347" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="O347" s="15" t="n">
-        <v>6.04</v>
+        <v>7.4</v>
       </c>
       <c r="P347" s="7" t="n">
-        <v>615</v>
+        <v>697</v>
       </c>
       <c r="Q347" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="R347" s="16" t="n">
-        <v>17.09</v>
+        <v>23.09</v>
       </c>
       <c r="T347" s="5" t="n"/>
     </row>
@@ -16008,24 +16010,22 @@
       <c r="J348" s="5" t="n"/>
       <c r="L348" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M348" s="7" t="inlineStr">
         <is>
-          <t>Alexander Kirkeberg</t>
+          <t>Sivert Wist Moen</t>
         </is>
       </c>
       <c r="N348" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="O348" s="17" t="inlineStr">
-        <is>
-          <t>16,45,26</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="O348" s="15" t="n">
+        <v>6.04</v>
       </c>
       <c r="P348" s="7" t="n">
-        <v>560</v>
+        <v>615</v>
       </c>
       <c r="Q348" s="7" t="inlineStr">
         <is>
@@ -16033,7 +16033,7 @@
         </is>
       </c>
       <c r="R348" s="16" t="n">
-        <v>28.05</v>
+        <v>17.09</v>
       </c>
       <c r="T348" s="5" t="n"/>
     </row>
@@ -16073,19 +16073,19 @@
       </c>
       <c r="M349" s="7" t="inlineStr">
         <is>
-          <t>Andrii Tishchenko</t>
+          <t>Alexander Kirkeberg</t>
         </is>
       </c>
       <c r="N349" s="7" t="n">
-        <v>1988</v>
+        <v>1996</v>
       </c>
       <c r="O349" s="17" t="inlineStr">
         <is>
-          <t>16,45,77</t>
+          <t>16,45,26</t>
         </is>
       </c>
       <c r="P349" s="7" t="n">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="Q349" s="7" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
       </c>
       <c r="M350" s="7" t="inlineStr">
         <is>
-          <t>Jon Drogset Østeng</t>
+          <t>Andrii Tishchenko</t>
         </is>
       </c>
       <c r="N350" s="7" t="n">
@@ -16141,11 +16141,11 @@
       </c>
       <c r="O350" s="17" t="inlineStr">
         <is>
-          <t>16,49,69</t>
+          <t>16,45,77</t>
         </is>
       </c>
       <c r="P350" s="7" t="n">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="Q350" s="7" t="inlineStr">
         <is>
@@ -16188,22 +16188,24 @@
       <c r="J351" s="5" t="n"/>
       <c r="L351" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M351" s="7" t="inlineStr">
         <is>
-          <t>Petter O. Fuglestrand</t>
+          <t>Jon Drogset Østeng</t>
         </is>
       </c>
       <c r="N351" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="O351" s="15" t="n">
-        <v>5.74</v>
+        <v>1988</v>
+      </c>
+      <c r="O351" s="17" t="inlineStr">
+        <is>
+          <t>16,49,69</t>
+        </is>
       </c>
       <c r="P351" s="7" t="n">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="Q351" s="7" t="inlineStr">
         <is>
@@ -16211,7 +16213,7 @@
         </is>
       </c>
       <c r="R351" s="16" t="n">
-        <v>21.01</v>
+        <v>28.05</v>
       </c>
       <c r="T351" s="5" t="n"/>
     </row>
@@ -16248,32 +16250,30 @@
       <c r="J352" s="5" t="n"/>
       <c r="L352" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M352" s="7" t="inlineStr">
         <is>
-          <t>Christian Bredesen</t>
+          <t>Petter O. Fuglestrand</t>
         </is>
       </c>
       <c r="N352" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O352" s="17" t="inlineStr">
-        <is>
-          <t>4,30,61</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="O352" s="15" t="n">
+        <v>5.74</v>
       </c>
       <c r="P352" s="7" t="n">
-        <v>521</v>
+        <v>547</v>
       </c>
       <c r="Q352" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R352" s="16" t="n">
-        <v>5.03</v>
+        <v>21.01</v>
       </c>
       <c r="T352" s="5" t="n"/>
     </row>
@@ -16308,30 +16308,32 @@
       <c r="J353" s="5" t="n"/>
       <c r="L353" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M353" s="7" t="inlineStr">
         <is>
-          <t>Obaidullah Obaidi</t>
+          <t>Christian Bredesen</t>
         </is>
       </c>
       <c r="N353" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O353" s="15" t="n">
-        <v>12.48</v>
+        <v>2005</v>
+      </c>
+      <c r="O353" s="17" t="inlineStr">
+        <is>
+          <t>4,30,61</t>
+        </is>
       </c>
       <c r="P353" s="7" t="n">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="Q353" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R353" s="16" t="n">
-        <v>2.07</v>
+        <v>5.03</v>
       </c>
       <c r="T353" s="5" t="n"/>
     </row>
@@ -16559,7 +16561,7 @@
         </is>
       </c>
       <c r="P358" s="20" t="n">
-        <v>8628</v>
+        <v>8810</v>
       </c>
       <c r="T358" s="5" t="n"/>
     </row>
@@ -16599,7 +16601,7 @@
         </is>
       </c>
       <c r="P360" s="20" t="n">
-        <v>19364</v>
+        <v>19546</v>
       </c>
       <c r="T360" s="5" t="n"/>
     </row>
@@ -20712,7 +20714,7 @@
       </c>
       <c r="M83" s="7" t="inlineStr">
         <is>
-          <t>Hans Horn Tønnesen</t>
+          <t>Hans Horn Tønnessen</t>
         </is>
       </c>
       <c r="N83" s="7" t="n">
@@ -30438,7 +30440,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>26506</v>
+        <v>26568</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -30494,7 +30496,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>23516</v>
+        <v>23520</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
@@ -30578,7 +30580,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>22808</v>
+        <v>22830</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -30606,7 +30608,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>21900</v>
+        <v>21916</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
@@ -32138,32 +32140,32 @@
     <row r="31" ht="13" customHeight="1">
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C31" s="7" t="inlineStr">
         <is>
-          <t>Malin Edland</t>
+          <t>Sigrid Jervell Våg</t>
         </is>
       </c>
       <c r="D31" s="7" t="n">
-        <v>1999</v>
+        <v>1992</v>
       </c>
       <c r="E31" s="17" t="inlineStr">
         <is>
-          <t>4,15,82</t>
+          <t>15,39,27mx</t>
         </is>
       </c>
       <c r="F31" s="7" t="n">
-        <v>897</v>
+        <v>935</v>
       </c>
       <c r="G31" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H31" s="16" t="n">
-        <v>8.06</v>
+        <v>23.09</v>
       </c>
       <c r="J31" s="5" t="n"/>
       <c r="L31" s="14" t="inlineStr">
@@ -32203,19 +32205,19 @@
       </c>
       <c r="C32" s="7" t="inlineStr">
         <is>
-          <t>Selma Løchen Engdahl</t>
+          <t>Malin Edland</t>
         </is>
       </c>
       <c r="D32" s="7" t="n">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="E32" s="17" t="inlineStr">
         <is>
-          <t>4,15,98</t>
+          <t>4,15,82</t>
         </is>
       </c>
       <c r="F32" s="7" t="n">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="G32" s="7" t="inlineStr">
         <is>
@@ -32223,7 +32225,7 @@
         </is>
       </c>
       <c r="H32" s="16" t="n">
-        <v>8.07</v>
+        <v>8.06</v>
       </c>
       <c r="J32" s="5" t="n"/>
       <c r="L32" s="14" t="inlineStr">
@@ -32258,32 +32260,32 @@
     <row r="33" ht="13" customHeight="1">
       <c r="B33" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C33" s="7" t="inlineStr">
         <is>
-          <t>Malin Nyfors</t>
+          <t>Selma Løchen Engdahl</t>
         </is>
       </c>
       <c r="D33" s="7" t="n">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="E33" s="17" t="inlineStr">
         <is>
-          <t>2,04,73</t>
+          <t>4,15,98</t>
         </is>
       </c>
       <c r="F33" s="7" t="n">
-        <v>889</v>
+        <v>896</v>
       </c>
       <c r="G33" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H33" s="16" t="n">
-        <v>20.05</v>
+        <v>8.07</v>
       </c>
       <c r="J33" s="5" t="n"/>
       <c r="L33" s="14" t="inlineStr">
@@ -32318,32 +32320,32 @@
     <row r="34" ht="13" customHeight="1">
       <c r="B34" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C34" s="7" t="inlineStr">
         <is>
-          <t>Ingeborg Østgård</t>
+          <t>Malin Nyfors</t>
         </is>
       </c>
       <c r="D34" s="7" t="n">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="E34" s="17" t="inlineStr">
         <is>
-          <t>9,15,65</t>
+          <t>2,04,73</t>
         </is>
       </c>
       <c r="F34" s="7" t="n">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="G34" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H34" s="16" t="n">
-        <v>19.09</v>
+        <v>20.05</v>
       </c>
       <c r="J34" s="5" t="n"/>
       <c r="L34" s="14" t="inlineStr">
@@ -32383,27 +32385,27 @@
       </c>
       <c r="C35" s="7" t="inlineStr">
         <is>
-          <t>Selma Løchen Engdahl</t>
+          <t>Ingeborg Østgård</t>
         </is>
       </c>
       <c r="D35" s="7" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="E35" s="17" t="inlineStr">
         <is>
-          <t>9,15,80</t>
+          <t>9,15,65</t>
         </is>
       </c>
       <c r="F35" s="7" t="n">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="G35" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H35" s="16" t="n">
-        <v>20.05</v>
+        <v>19.09</v>
       </c>
       <c r="J35" s="5" t="n"/>
       <c r="L35" s="14" t="inlineStr">
@@ -32440,30 +32442,32 @@
     <row r="36" ht="13" customHeight="1">
       <c r="B36" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C36" s="7" t="inlineStr">
         <is>
-          <t>Astri Ayo Lakeri Ertzgaard</t>
+          <t>Selma Løchen Engdahl</t>
         </is>
       </c>
       <c r="D36" s="7" t="n">
-        <v>2002</v>
-      </c>
-      <c r="E36" s="15" t="n">
-        <v>11.88</v>
+        <v>2001</v>
+      </c>
+      <c r="E36" s="17" t="inlineStr">
+        <is>
+          <t>9,15,80</t>
+        </is>
       </c>
       <c r="F36" s="7" t="n">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="G36" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H36" s="16" t="n">
-        <v>25.08</v>
+        <v>20.05</v>
       </c>
       <c r="J36" s="5" t="n"/>
       <c r="L36" s="14" t="inlineStr">
@@ -32498,32 +32502,30 @@
     <row r="37" ht="13" customHeight="1">
       <c r="B37" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C37" s="7" t="inlineStr">
         <is>
-          <t>Sigrid Jervell Våg</t>
+          <t>Astri Ayo Lakeri Ertzgaard</t>
         </is>
       </c>
       <c r="D37" s="7" t="n">
-        <v>1992</v>
-      </c>
-      <c r="E37" s="17" t="inlineStr">
-        <is>
-          <t>16,09,61</t>
-        </is>
+        <v>2002</v>
+      </c>
+      <c r="E37" s="15" t="n">
+        <v>11.88</v>
       </c>
       <c r="F37" s="7" t="n">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="G37" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H37" s="16" t="n">
-        <v>28.06</v>
+        <v>25.08</v>
       </c>
       <c r="J37" s="5" t="n"/>
       <c r="L37" s="14" t="inlineStr">
@@ -32996,7 +32998,7 @@
         </is>
       </c>
       <c r="F46" s="20" t="n">
-        <v>12807</v>
+        <v>12869</v>
       </c>
       <c r="J46" s="5" t="n"/>
       <c r="L46" s="19" t="inlineStr">
@@ -33036,7 +33038,7 @@
         </is>
       </c>
       <c r="F48" s="20" t="n">
-        <v>26506</v>
+        <v>26568</v>
       </c>
       <c r="J48" s="5" t="n"/>
       <c r="L48" s="19" t="inlineStr">
@@ -34054,22 +34056,22 @@
     <row r="74" ht="13" customHeight="1">
       <c r="B74" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C74" s="7" t="inlineStr">
         <is>
-          <t>Elise Sandvik Tornberg</t>
+          <t>Charlotte Lund Antonijevic</t>
         </is>
       </c>
       <c r="D74" s="7" t="n">
-        <v>2009</v>
+        <v>1987</v>
       </c>
       <c r="E74" s="15" t="n">
-        <v>2.5</v>
+        <v>10.83</v>
       </c>
       <c r="F74" s="7" t="n">
-        <v>631</v>
+        <v>648</v>
       </c>
       <c r="G74" s="7" t="inlineStr">
         <is>
@@ -34077,7 +34079,7 @@
         </is>
       </c>
       <c r="H74" s="16" t="n">
-        <v>23.03</v>
+        <v>19.09</v>
       </c>
       <c r="J74" s="5" t="n"/>
       <c r="L74" s="14" t="inlineStr">
@@ -34112,22 +34114,22 @@
     <row r="75" ht="13" customHeight="1">
       <c r="B75" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C75" s="7" t="inlineStr">
         <is>
-          <t>Charlotte Lund Antonijevic</t>
+          <t>Vilde Marsteinstredet</t>
         </is>
       </c>
       <c r="D75" s="7" t="n">
-        <v>1987</v>
+        <v>2001</v>
       </c>
       <c r="E75" s="15" t="n">
-        <v>10.83</v>
+        <v>35.68</v>
       </c>
       <c r="F75" s="7" t="n">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="G75" s="7" t="inlineStr">
         <is>
@@ -34135,7 +34137,7 @@
         </is>
       </c>
       <c r="H75" s="16" t="n">
-        <v>19.09</v>
+        <v>24.09</v>
       </c>
       <c r="J75" s="5" t="n"/>
       <c r="L75" s="14" t="inlineStr">
@@ -34200,7 +34202,7 @@
         </is>
       </c>
       <c r="F77" s="20" t="n">
-        <v>12005</v>
+        <v>12009</v>
       </c>
       <c r="J77" s="5" t="n"/>
       <c r="L77" s="19" t="inlineStr">
@@ -35268,7 +35270,7 @@
         </is>
       </c>
       <c r="F100" s="20" t="n">
-        <v>23516</v>
+        <v>23520</v>
       </c>
       <c r="J100" s="5" t="n"/>
       <c r="L100" s="19" t="inlineStr">
@@ -35913,19 +35915,19 @@
       </c>
       <c r="O119" s="17" t="inlineStr">
         <is>
-          <t>9,41,19</t>
+          <t>9,34,33</t>
         </is>
       </c>
       <c r="P119" s="7" t="n">
-        <v>797</v>
+        <v>819</v>
       </c>
       <c r="Q119" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R119" s="16" t="n">
-        <v>27.08</v>
+        <v>23.09</v>
       </c>
       <c r="T119" s="5" t="n"/>
     </row>
@@ -36445,7 +36447,7 @@
         </is>
       </c>
       <c r="P129" s="20" t="n">
-        <v>12460</v>
+        <v>12482</v>
       </c>
       <c r="T129" s="5" t="n"/>
     </row>
@@ -37507,7 +37509,7 @@
         </is>
       </c>
       <c r="P152" s="20" t="n">
-        <v>22808</v>
+        <v>22830</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
@@ -38107,19 +38109,19 @@
       </c>
       <c r="E171" s="17" t="inlineStr">
         <is>
-          <t>9,11,91</t>
+          <t>9,07,67</t>
         </is>
       </c>
       <c r="F171" s="7" t="n">
-        <v>895</v>
+        <v>911</v>
       </c>
       <c r="G171" s="7" t="inlineStr">
         <is>
-          <t>Manchester/GBR</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H171" s="16" t="n">
-        <v>28.01</v>
+        <v>23.09</v>
       </c>
       <c r="J171" s="5" t="n"/>
       <c r="L171" s="14" t="inlineStr">
@@ -38656,7 +38658,7 @@
         </is>
       </c>
       <c r="F181" s="20" t="n">
-        <v>11628</v>
+        <v>11644</v>
       </c>
       <c r="J181" s="5" t="n"/>
       <c r="L181" s="19" t="inlineStr">
@@ -39728,7 +39730,7 @@
         </is>
       </c>
       <c r="F204" s="20" t="n">
-        <v>21900</v>
+        <v>21916</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="19" t="inlineStr">
@@ -46447,11 +46449,11 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>(25/12)</t>
+          <t>(25/10)</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>15749</v>
+        <v>15932</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
@@ -46498,25 +46500,25 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Tønsberg Friidrettsklubb</t>
+          <t>Sarpsborg IL</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>(25/11)</t>
+          <t>(25/9)</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>15011</v>
+        <v>15161</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>(12/1d)</t>
+          <t>(4/3d)</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>Vestfold</t>
+          <t>Østfold</t>
         </is>
       </c>
     </row>
@@ -46526,25 +46528,25 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>IF Sturla</t>
+          <t>Tønsberg Friidrettsklubb</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>(25/14)</t>
+          <t>(25/11)</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>14876</v>
+        <v>15011</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>(9)</t>
+          <t>(12/1d)</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Vestfold</t>
         </is>
       </c>
     </row>
@@ -46554,25 +46556,25 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Sarpsborg IL</t>
+          <t>IF Sturla</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>(25/9)</t>
+          <t>(25/14)</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>14872</v>
+        <v>14876</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>(4/3d)</t>
+          <t>(9)</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>Østfold</t>
+          <t>Buskerud</t>
         </is>
       </c>
     </row>
@@ -46722,25 +46724,25 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Moss IL</t>
+          <t>Stjørdal Friidrettsklubb</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>(25/12)</t>
+          <t>(25/8)</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>12606</v>
+        <v>12652</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>(7)</t>
+          <t>(11/1d)</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>Østfold</t>
+          <t>Nord-Trøndelag</t>
         </is>
       </c>
     </row>
@@ -46750,25 +46752,25 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Stjørdal Friidrettsklubb</t>
+          <t>Moss IL</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>(24/8)</t>
+          <t>(25/12)</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>12071</v>
+        <v>12606</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>(11/1d)</t>
+          <t>(7)</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>Nord-Trøndelag</t>
+          <t>Østfold</t>
         </is>
       </c>
     </row>
@@ -49649,22 +49651,22 @@
     <row r="68" ht="13" customHeight="1">
       <c r="B68" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C68" s="7" t="inlineStr">
         <is>
-          <t>Ida Yessica Nesse</t>
+          <t>Elise Sandvik Tornberg</t>
         </is>
       </c>
       <c r="D68" s="7" t="n">
-        <v>1992</v>
+        <v>2009</v>
       </c>
       <c r="E68" s="15" t="n">
-        <v>32.15</v>
+        <v>2.5</v>
       </c>
       <c r="F68" s="7" t="n">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="G68" s="7" t="inlineStr">
         <is>
@@ -49672,7 +49674,7 @@
         </is>
       </c>
       <c r="H68" s="16" t="n">
-        <v>9.09</v>
+        <v>23.03</v>
       </c>
       <c r="J68" s="5" t="n"/>
       <c r="L68" s="14" t="inlineStr">
@@ -49737,7 +49739,7 @@
         </is>
       </c>
       <c r="F70" s="20" t="n">
-        <v>8620</v>
+        <v>8637</v>
       </c>
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="19" t="inlineStr">
@@ -49857,30 +49859,30 @@
     <row r="75" ht="13" customHeight="1">
       <c r="B75" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C75" s="7" t="inlineStr">
         <is>
-          <t>Alma Iben Graver Kolseth</t>
+          <t>Elise Sandvik Tornberg</t>
         </is>
       </c>
       <c r="D75" s="7" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E75" s="15" t="n">
-        <v>8.4</v>
+        <v>27.03</v>
       </c>
       <c r="F75" s="7" t="n">
-        <v>619</v>
+        <v>647</v>
       </c>
       <c r="G75" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Asker</t>
         </is>
       </c>
       <c r="H75" s="16" t="n">
-        <v>18.02</v>
+        <v>10.06</v>
       </c>
       <c r="J75" s="5" t="n"/>
       <c r="L75" s="14" t="inlineStr">
@@ -49915,32 +49917,30 @@
     <row r="76" ht="13" customHeight="1">
       <c r="B76" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C76" s="7" t="inlineStr">
         <is>
-          <t>Mia Mathilda Andersen</t>
+          <t>Alma Iben Graver Kolseth</t>
         </is>
       </c>
       <c r="D76" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E76" s="17" t="inlineStr">
-        <is>
-          <t>2,24,28</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E76" s="15" t="n">
+        <v>8.4</v>
       </c>
       <c r="F76" s="7" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G76" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H76" s="16" t="n">
-        <v>14.05</v>
+        <v>18.02</v>
       </c>
       <c r="J76" s="5" t="n"/>
       <c r="L76" s="14" t="inlineStr">
@@ -49975,12 +49975,12 @@
     <row r="77" ht="13" customHeight="1">
       <c r="B77" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C77" s="7" t="inlineStr">
         <is>
-          <t>Celine Krüger Henningsen</t>
+          <t>Mia Mathilda Andersen</t>
         </is>
       </c>
       <c r="D77" s="7" t="n">
@@ -49988,7 +49988,7 @@
       </c>
       <c r="E77" s="17" t="inlineStr">
         <is>
-          <t>4,58,85</t>
+          <t>2,24,28</t>
         </is>
       </c>
       <c r="F77" s="7" t="n">
@@ -49996,11 +49996,11 @@
       </c>
       <c r="G77" s="7" t="inlineStr">
         <is>
-          <t>Rjukan</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H77" s="16" t="n">
-        <v>3.09</v>
+        <v>14.05</v>
       </c>
       <c r="J77" s="5" t="n"/>
       <c r="L77" s="14" t="inlineStr">
@@ -50040,7 +50040,7 @@
       </c>
       <c r="C78" s="7" t="inlineStr">
         <is>
-          <t>Mia Mathilda Andersen</t>
+          <t>Celine Krüger Henningsen</t>
         </is>
       </c>
       <c r="D78" s="7" t="n">
@@ -50048,11 +50048,11 @@
       </c>
       <c r="E78" s="17" t="inlineStr">
         <is>
-          <t>4,59,09</t>
+          <t>4,58,85</t>
         </is>
       </c>
       <c r="F78" s="7" t="n">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G78" s="7" t="inlineStr">
         <is>
@@ -50095,30 +50095,32 @@
     <row r="79" ht="13" customHeight="1">
       <c r="B79" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C79" s="7" t="inlineStr">
         <is>
-          <t>Sophia Borgen</t>
+          <t>Mia Mathilda Andersen</t>
         </is>
       </c>
       <c r="D79" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E79" s="15" t="n">
-        <v>8.43</v>
+        <v>2009</v>
+      </c>
+      <c r="E79" s="17" t="inlineStr">
+        <is>
+          <t>4,59,09</t>
+        </is>
       </c>
       <c r="F79" s="7" t="n">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="G79" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Rjukan</t>
         </is>
       </c>
       <c r="H79" s="16" t="n">
-        <v>11.02</v>
+        <v>3.09</v>
       </c>
       <c r="J79" s="5" t="n"/>
       <c r="L79" s="14" t="inlineStr">
@@ -50153,22 +50155,22 @@
     <row r="80" ht="13" customHeight="1">
       <c r="B80" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C80" s="7" t="inlineStr">
         <is>
-          <t>Alma Iben Graver Kolseth</t>
+          <t>Ida Yessica Nesse</t>
         </is>
       </c>
       <c r="D80" s="7" t="n">
-        <v>2005</v>
+        <v>1992</v>
       </c>
       <c r="E80" s="15" t="n">
-        <v>27.87</v>
+        <v>32.15</v>
       </c>
       <c r="F80" s="7" t="n">
-        <v>588</v>
+        <v>614</v>
       </c>
       <c r="G80" s="7" t="inlineStr">
         <is>
@@ -50176,7 +50178,7 @@
         </is>
       </c>
       <c r="H80" s="16" t="n">
-        <v>12.02</v>
+        <v>9.09</v>
       </c>
       <c r="J80" s="5" t="n"/>
       <c r="L80" s="14" t="inlineStr">
@@ -50211,24 +50213,22 @@
     <row r="81" ht="13" customHeight="1">
       <c r="B81" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C81" s="7" t="inlineStr">
         <is>
-          <t>Maria Elisabet M. Damhaug</t>
+          <t>Elise Sandvik Tornberg</t>
         </is>
       </c>
       <c r="D81" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E81" s="17" t="inlineStr">
-        <is>
-          <t>1,03,08</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="E81" s="15" t="n">
+        <v>8.42</v>
       </c>
       <c r="F81" s="7" t="n">
-        <v>587</v>
+        <v>614</v>
       </c>
       <c r="G81" s="7" t="inlineStr">
         <is>
@@ -50236,7 +50236,7 @@
         </is>
       </c>
       <c r="H81" s="16" t="n">
-        <v>18.06</v>
+        <v>11.02</v>
       </c>
       <c r="J81" s="5" t="n"/>
       <c r="L81" s="14" t="inlineStr">
@@ -50271,32 +50271,30 @@
     <row r="82" ht="13" customHeight="1">
       <c r="B82" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C82" s="7" t="inlineStr">
         <is>
-          <t>Maylem Lauvstad</t>
+          <t>Sophia Borgen</t>
         </is>
       </c>
       <c r="D82" s="7" t="n">
-        <v>1973</v>
-      </c>
-      <c r="E82" s="17" t="inlineStr">
-        <is>
-          <t>1,03,28</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="E82" s="15" t="n">
+        <v>8.43</v>
       </c>
       <c r="F82" s="7" t="n">
-        <v>582</v>
+        <v>611</v>
       </c>
       <c r="G82" s="7" t="inlineStr">
         <is>
-          <t>Torun/POL</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H82" s="16" t="n">
-        <v>28.03</v>
+        <v>11.02</v>
       </c>
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="14" t="inlineStr">
@@ -50331,30 +50329,30 @@
     <row r="83" ht="13" customHeight="1">
       <c r="B83" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C83" s="7" t="inlineStr">
         <is>
-          <t>Ida Yessica Nesse</t>
+          <t>Elise Sandvik Tornberg</t>
         </is>
       </c>
       <c r="D83" s="7" t="n">
-        <v>1992</v>
+        <v>2009</v>
       </c>
       <c r="E83" s="15" t="n">
-        <v>31.81</v>
+        <v>13.44</v>
       </c>
       <c r="F83" s="7" t="n">
-        <v>575</v>
+        <v>597</v>
       </c>
       <c r="G83" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H83" s="16" t="n">
-        <v>17.09</v>
+        <v>12.09</v>
       </c>
       <c r="J83" s="5" t="n"/>
       <c r="L83" s="14" t="inlineStr">
@@ -50389,30 +50387,30 @@
     <row r="84" ht="13" customHeight="1">
       <c r="B84" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C84" s="7" t="inlineStr">
         <is>
-          <t>Henriette Collett-Østensen</t>
+          <t>Elise Sandvik Tornberg</t>
         </is>
       </c>
       <c r="D84" s="7" t="n">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="E84" s="15" t="n">
-        <v>10.13</v>
+        <v>4.89</v>
       </c>
       <c r="F84" s="7" t="n">
-        <v>572</v>
+        <v>594</v>
       </c>
       <c r="G84" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Bækkelaget</t>
         </is>
       </c>
       <c r="H84" s="16" t="n">
-        <v>3.03</v>
+        <v>6.05</v>
       </c>
       <c r="J84" s="5" t="n"/>
       <c r="L84" s="14" t="inlineStr">
@@ -50447,22 +50445,22 @@
     <row r="85" ht="13" customHeight="1">
       <c r="B85" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C85" s="7" t="inlineStr">
         <is>
-          <t>Ida Petersen Amble</t>
+          <t>Ida Yessica Nesse</t>
         </is>
       </c>
       <c r="D85" s="7" t="n">
-        <v>2006</v>
+        <v>1992</v>
       </c>
       <c r="E85" s="15" t="n">
-        <v>29.44</v>
+        <v>31.81</v>
       </c>
       <c r="F85" s="7" t="n">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G85" s="7" t="inlineStr">
         <is>
@@ -50507,30 +50505,30 @@
     <row r="86" ht="13" customHeight="1">
       <c r="B86" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C86" s="7" t="inlineStr">
         <is>
-          <t>Ida Yessica Nesse</t>
+          <t>Henriette Collett-Østensen</t>
         </is>
       </c>
       <c r="D86" s="7" t="n">
-        <v>1992</v>
+        <v>2004</v>
       </c>
       <c r="E86" s="15" t="n">
-        <v>9.720000000000001</v>
+        <v>10.13</v>
       </c>
       <c r="F86" s="7" t="n">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G86" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H86" s="16" t="n">
-        <v>16.03</v>
+        <v>3.03</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="14" t="inlineStr">
@@ -50595,7 +50593,7 @@
         </is>
       </c>
       <c r="F88" s="20" t="n">
-        <v>7129</v>
+        <v>7295</v>
       </c>
       <c r="J88" s="5" t="n"/>
       <c r="L88" s="19" t="inlineStr">
@@ -50635,7 +50633,7 @@
         </is>
       </c>
       <c r="F90" s="20" t="n">
-        <v>15749</v>
+        <v>15932</v>
       </c>
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="19" t="inlineStr">
@@ -50667,7 +50665,7 @@
         </is>
       </c>
       <c r="C92" s="20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J92" s="5" t="n"/>
       <c r="L92" s="19" t="inlineStr">
@@ -50718,7 +50716,7 @@
       </c>
       <c r="C96" s="7" t="inlineStr">
         <is>
-          <t>Vestfold</t>
+          <t>Østfold</t>
         </is>
       </c>
       <c r="F96" s="8" t="n">
@@ -50732,7 +50730,7 @@
       </c>
       <c r="M96" s="7" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Vestfold</t>
         </is>
       </c>
       <c r="P96" s="8" t="n">
@@ -50748,7 +50746,7 @@
       </c>
       <c r="C97" s="7" t="inlineStr">
         <is>
-          <t>Tønsberg Friidrettsklubb</t>
+          <t>Sarpsborg IL</t>
         </is>
       </c>
       <c r="J97" s="5" t="n"/>
@@ -50759,7 +50757,7 @@
       </c>
       <c r="M97" s="7" t="inlineStr">
         <is>
-          <t>IF Sturla</t>
+          <t>Tønsberg Friidrettsklubb</t>
         </is>
       </c>
       <c r="T97" s="5" t="n"/>
@@ -50888,25 +50886,25 @@
       </c>
       <c r="C103" s="7" t="inlineStr">
         <is>
-          <t>Kerine Sherice Stephenson</t>
+          <t>Ingrid Mæland Andersen</t>
         </is>
       </c>
       <c r="D103" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E103" s="15" t="n">
-        <v>7.76</v>
+        <v>8.48</v>
       </c>
       <c r="F103" s="7" t="n">
-        <v>811</v>
+        <v>598</v>
       </c>
       <c r="G103" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H103" s="16" t="n">
-        <v>18.03</v>
+        <v>11.02</v>
       </c>
       <c r="J103" s="5" t="n"/>
       <c r="L103" s="14" t="inlineStr">
@@ -50916,17 +50914,17 @@
       </c>
       <c r="M103" s="7" t="inlineStr">
         <is>
-          <t>Ida Kristine Sola Steen</t>
+          <t>Kerine Sherice Stephenson</t>
         </is>
       </c>
       <c r="N103" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O103" s="15" t="n">
-        <v>8.289999999999999</v>
+        <v>7.76</v>
       </c>
       <c r="P103" s="7" t="n">
-        <v>649</v>
+        <v>811</v>
       </c>
       <c r="Q103" s="7" t="inlineStr">
         <is>
@@ -50946,25 +50944,25 @@
       </c>
       <c r="C104" s="7" t="inlineStr">
         <is>
-          <t>Kerine Sherice Stephenson</t>
+          <t>Ingrid Mæland Andersen</t>
         </is>
       </c>
       <c r="D104" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E104" s="15" t="n">
-        <v>12.38</v>
+        <v>13.58</v>
       </c>
       <c r="F104" s="7" t="n">
-        <v>781</v>
+        <v>575</v>
       </c>
       <c r="G104" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H104" s="16" t="n">
-        <v>13.05</v>
+        <v>14.05</v>
       </c>
       <c r="J104" s="5" t="n"/>
       <c r="L104" s="14" t="inlineStr">
@@ -50974,25 +50972,25 @@
       </c>
       <c r="M104" s="7" t="inlineStr">
         <is>
-          <t>Ida Kristine Sola Steen</t>
+          <t>Kerine Sherice Stephenson</t>
         </is>
       </c>
       <c r="N104" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O104" s="15" t="n">
-        <v>13.19</v>
+        <v>12.38</v>
       </c>
       <c r="P104" s="7" t="n">
-        <v>638</v>
+        <v>781</v>
       </c>
       <c r="Q104" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R104" s="16" t="n">
-        <v>6.05</v>
+        <v>13.05</v>
       </c>
       <c r="T104" s="5" t="n"/>
     </row>
@@ -51004,17 +51002,17 @@
       </c>
       <c r="C105" s="7" t="inlineStr">
         <is>
-          <t>Claudia Maria Hastie Foss</t>
+          <t>Ingrid Mæland Andersen</t>
         </is>
       </c>
       <c r="D105" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E105" s="15" t="n">
-        <v>26.06</v>
+        <v>28.62</v>
       </c>
       <c r="F105" s="7" t="n">
-        <v>721</v>
+        <v>537</v>
       </c>
       <c r="G105" s="7" t="inlineStr">
         <is>
@@ -51032,17 +51030,17 @@
       </c>
       <c r="M105" s="7" t="inlineStr">
         <is>
-          <t>Ida Kristine Sola Steen</t>
+          <t>Claudia Maria Hastie Foss</t>
         </is>
       </c>
       <c r="N105" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O105" s="15" t="n">
-        <v>26.79</v>
+        <v>26.06</v>
       </c>
       <c r="P105" s="7" t="n">
-        <v>665</v>
+        <v>721</v>
       </c>
       <c r="Q105" s="7" t="inlineStr">
         <is>
@@ -51050,7 +51048,7 @@
         </is>
       </c>
       <c r="R105" s="16" t="n">
-        <v>17.06</v>
+        <v>12.02</v>
       </c>
       <c r="T105" s="5" t="n"/>
     </row>
@@ -51062,57 +51060,57 @@
       </c>
       <c r="C106" s="7" t="inlineStr">
         <is>
-          <t>Mathea Wego Karlsen</t>
+          <t>Vilde Fredriksen</t>
         </is>
       </c>
       <c r="D106" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E106" s="17" t="inlineStr">
         <is>
-          <t>1,01,50</t>
+          <t>1,08,48</t>
         </is>
       </c>
       <c r="F106" s="7" t="n">
-        <v>632</v>
+        <v>458</v>
       </c>
       <c r="G106" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sarpsborg</t>
         </is>
       </c>
       <c r="H106" s="16" t="n">
-        <v>18.06</v>
+        <v>20.08</v>
       </c>
       <c r="J106" s="5" t="n"/>
       <c r="L106" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M106" s="7" t="inlineStr">
         <is>
-          <t>Vienna Skinnes</t>
+          <t>Mathea Wego Karlsen</t>
         </is>
       </c>
       <c r="N106" s="7" t="n">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="O106" s="17" t="inlineStr">
         <is>
-          <t>4,55,49</t>
+          <t>1,01,50</t>
         </is>
       </c>
       <c r="P106" s="7" t="n">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="Q106" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R106" s="16" t="n">
-        <v>1.07</v>
+        <v>18.06</v>
       </c>
       <c r="T106" s="5" t="n"/>
     </row>
@@ -51124,57 +51122,57 @@
       </c>
       <c r="C107" s="7" t="inlineStr">
         <is>
-          <t>Malin Gallis</t>
+          <t>Astrid Bakkevik Finnestad</t>
         </is>
       </c>
       <c r="D107" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E107" s="17" t="inlineStr">
         <is>
-          <t>2,31,51</t>
+          <t>2,23,02</t>
         </is>
       </c>
       <c r="F107" s="7" t="n">
-        <v>543</v>
+        <v>632</v>
       </c>
       <c r="G107" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H107" s="16" t="n">
-        <v>30.06</v>
+        <v>11.02</v>
       </c>
       <c r="J107" s="5" t="n"/>
       <c r="L107" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M107" s="7" t="inlineStr">
         <is>
-          <t>Tuva Kylland</t>
+          <t>Malin Gallis</t>
         </is>
       </c>
       <c r="N107" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O107" s="17" t="inlineStr">
         <is>
-          <t>10,48,40</t>
+          <t>2,31,51</t>
         </is>
       </c>
       <c r="P107" s="7" t="n">
-        <v>618</v>
+        <v>543</v>
       </c>
       <c r="Q107" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R107" s="16" t="n">
-        <v>16.06</v>
+        <v>30.06</v>
       </c>
       <c r="T107" s="5" t="n"/>
     </row>
@@ -51186,87 +51184,89 @@
       </c>
       <c r="C108" s="7" t="inlineStr">
         <is>
-          <t>Malin Gallis</t>
+          <t>Maiken Homlung Prøitz</t>
         </is>
       </c>
       <c r="D108" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="E108" s="17" t="inlineStr">
         <is>
-          <t>5,34,20</t>
+          <t>4,28,24</t>
         </is>
       </c>
       <c r="F108" s="7" t="n">
-        <v>450</v>
+        <v>802</v>
       </c>
       <c r="G108" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H108" s="16" t="n">
-        <v>1.07</v>
+        <v>8.06</v>
       </c>
       <c r="J108" s="5" t="n"/>
       <c r="L108" s="14" t="inlineStr">
         <is>
-          <t>3000m kapp.</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M108" s="7" t="inlineStr">
         <is>
-          <t>Maren Karlsen Bekkestad</t>
+          <t>Malin Gallis</t>
         </is>
       </c>
       <c r="N108" s="7" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="O108" s="17" t="inlineStr">
         <is>
-          <t>14,18,96</t>
+          <t>5,34,20</t>
         </is>
       </c>
       <c r="P108" s="7" t="n">
-        <v>711</v>
+        <v>450</v>
       </c>
       <c r="Q108" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R108" s="16" t="n">
-        <v>18.02</v>
+        <v>1.07</v>
       </c>
       <c r="T108" s="5" t="n"/>
     </row>
     <row r="109" ht="13" customHeight="1">
       <c r="B109" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C109" s="7" t="inlineStr">
         <is>
-          <t>Henriette Kjærås</t>
+          <t>Maiken Homlung Prøitz</t>
         </is>
       </c>
       <c r="D109" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E109" s="15" t="n">
-        <v>1.31</v>
+        <v>2004</v>
+      </c>
+      <c r="E109" s="17" t="inlineStr">
+        <is>
+          <t>9,45,45</t>
+        </is>
       </c>
       <c r="F109" s="7" t="n">
-        <v>428</v>
+        <v>784</v>
       </c>
       <c r="G109" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H109" s="16" t="n">
-        <v>18.03</v>
+        <v>30.06</v>
       </c>
       <c r="J109" s="5" t="n"/>
       <c r="L109" s="14" t="inlineStr">
@@ -51276,113 +51276,117 @@
       </c>
       <c r="M109" s="7" t="inlineStr">
         <is>
-          <t>Elena Garcia Reppesgård</t>
+          <t>Henriette Kjærås</t>
         </is>
       </c>
       <c r="N109" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O109" s="15" t="n">
-        <v>1.47</v>
+        <v>1.31</v>
       </c>
       <c r="P109" s="7" t="n">
-        <v>583</v>
+        <v>428</v>
       </c>
       <c r="Q109" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R109" s="16" t="n">
-        <v>29.01</v>
+        <v>18.03</v>
       </c>
       <c r="T109" s="5" t="n"/>
     </row>
     <row r="110" ht="13" customHeight="1">
       <c r="B110" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C110" s="7" t="inlineStr">
         <is>
-          <t>Henriette Kjærås</t>
+          <t>Maiken Homlung Prøitz</t>
         </is>
       </c>
       <c r="D110" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E110" s="15" t="n">
-        <v>4.54</v>
+        <v>2004</v>
+      </c>
+      <c r="E110" s="17" t="inlineStr">
+        <is>
+          <t>17,37,59mx</t>
+        </is>
       </c>
       <c r="F110" s="7" t="n">
-        <v>517</v>
+        <v>723</v>
       </c>
       <c r="G110" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H110" s="16" t="n">
-        <v>18.03</v>
+        <v>23.09</v>
       </c>
       <c r="J110" s="5" t="n"/>
       <c r="L110" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M110" s="7" t="inlineStr">
         <is>
-          <t>Wilma Christine Thorrud</t>
+          <t>Henriette Kjærås</t>
         </is>
       </c>
       <c r="N110" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="O110" s="15" t="n">
-        <v>2.7</v>
+        <v>4.54</v>
       </c>
       <c r="P110" s="7" t="n">
-        <v>606</v>
+        <v>517</v>
       </c>
       <c r="Q110" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R110" s="16" t="n">
-        <v>4.06</v>
+        <v>18.03</v>
       </c>
       <c r="T110" s="5" t="n"/>
     </row>
     <row r="111" ht="13" customHeight="1">
       <c r="B111" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>3000m hinder</t>
         </is>
       </c>
       <c r="C111" s="7" t="inlineStr">
         <is>
-          <t>Anniken Rosvoll</t>
+          <t>Maiken Homlung Prøitz</t>
         </is>
       </c>
       <c r="D111" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E111" s="15" t="n">
-        <v>9.74</v>
+        <v>2004</v>
+      </c>
+      <c r="E111" s="17" t="inlineStr">
+        <is>
+          <t>10,26,97</t>
+        </is>
       </c>
       <c r="F111" s="7" t="n">
-        <v>531</v>
+        <v>832</v>
       </c>
       <c r="G111" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Tårnby/DEN</t>
         </is>
       </c>
       <c r="H111" s="16" t="n">
-        <v>3.06</v>
+        <v>7.05</v>
       </c>
       <c r="J111" s="5" t="n"/>
       <c r="L111" s="14" t="inlineStr">
@@ -51392,55 +51396,55 @@
       </c>
       <c r="M111" s="7" t="inlineStr">
         <is>
-          <t>Sofie Engeset</t>
+          <t>Anniken Rosvoll</t>
         </is>
       </c>
       <c r="N111" s="7" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="O111" s="15" t="n">
-        <v>9.890000000000001</v>
+        <v>9.74</v>
       </c>
       <c r="P111" s="7" t="n">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="Q111" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R111" s="16" t="n">
-        <v>6.05</v>
+        <v>3.06</v>
       </c>
       <c r="T111" s="5" t="n"/>
     </row>
     <row r="112" ht="13" customHeight="1">
       <c r="B112" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C112" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Louise Selseth</t>
+          <t>Emma Sofie Klausen</t>
         </is>
       </c>
       <c r="D112" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E112" s="15" t="n">
-        <v>2.25</v>
+        <v>1.51</v>
       </c>
       <c r="F112" s="7" t="n">
-        <v>459</v>
+        <v>617</v>
       </c>
       <c r="G112" s="7" t="inlineStr">
         <is>
-          <t>Tønsberg</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="H112" s="16" t="n">
-        <v>22.03</v>
+        <v>20.05</v>
       </c>
       <c r="J112" s="5" t="n"/>
       <c r="L112" s="14" t="inlineStr">
@@ -51450,141 +51454,141 @@
       </c>
       <c r="M112" s="7" t="inlineStr">
         <is>
-          <t>Ester Holt</t>
+          <t>Ingrid Louise Selseth</t>
         </is>
       </c>
       <c r="N112" s="7" t="n">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="O112" s="15" t="n">
-        <v>2.49</v>
+        <v>2.25</v>
       </c>
       <c r="P112" s="7" t="n">
-        <v>625</v>
+        <v>459</v>
       </c>
       <c r="Q112" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Tønsberg</t>
         </is>
       </c>
       <c r="R112" s="16" t="n">
-        <v>19.02</v>
+        <v>22.03</v>
       </c>
       <c r="T112" s="5" t="n"/>
     </row>
     <row r="113" ht="13" customHeight="1">
       <c r="B113" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C113" s="7" t="inlineStr">
         <is>
-          <t>Marit Huflåtten</t>
+          <t>Ingrid Mæland Andersen</t>
         </is>
       </c>
       <c r="D113" s="7" t="n">
-        <v>1953</v>
+        <v>2007</v>
       </c>
       <c r="E113" s="15" t="n">
-        <v>22.06</v>
+        <v>4.46</v>
       </c>
       <c r="F113" s="7" t="n">
-        <v>434</v>
+        <v>499</v>
       </c>
       <c r="G113" s="7" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H113" s="16" t="n">
-        <v>18.08</v>
+        <v>14.01</v>
       </c>
       <c r="J113" s="5" t="n"/>
       <c r="L113" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M113" s="7" t="inlineStr">
         <is>
-          <t>Vilde Marie Nebell</t>
+          <t>Marit Huflåtten</t>
         </is>
       </c>
       <c r="N113" s="7" t="n">
-        <v>2007</v>
+        <v>1953</v>
       </c>
       <c r="O113" s="15" t="n">
-        <v>10.04</v>
+        <v>22.06</v>
       </c>
       <c r="P113" s="7" t="n">
-        <v>596</v>
+        <v>434</v>
       </c>
       <c r="Q113" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="R113" s="16" t="n">
-        <v>13.08</v>
+        <v>18.08</v>
       </c>
       <c r="T113" s="5" t="n"/>
     </row>
     <row r="114" ht="13" customHeight="1">
       <c r="B114" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C114" s="7" t="inlineStr">
         <is>
-          <t>Mari Hytten Skyvang</t>
+          <t>Ana Blagojevic</t>
         </is>
       </c>
       <c r="D114" s="7" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E114" s="15" t="n">
-        <v>47.27</v>
+        <v>9.42</v>
       </c>
       <c r="F114" s="7" t="n">
-        <v>776</v>
+        <v>497</v>
       </c>
       <c r="G114" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H114" s="16" t="n">
-        <v>12.05</v>
+        <v>17.06</v>
       </c>
       <c r="J114" s="5" t="n"/>
       <c r="L114" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="M114" s="7" t="inlineStr">
         <is>
-          <t>Berit Stunes Isene</t>
+          <t>Mari Hytten Skyvang</t>
         </is>
       </c>
       <c r="N114" s="7" t="n">
-        <v>1998</v>
+        <v>2003</v>
       </c>
       <c r="O114" s="15" t="n">
-        <v>41.79</v>
+        <v>47.27</v>
       </c>
       <c r="P114" s="7" t="n">
-        <v>749</v>
+        <v>776</v>
       </c>
       <c r="Q114" s="7" t="inlineStr">
         <is>
-          <t>Røyken</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R114" s="16" t="n">
-        <v>22.05</v>
+        <v>12.05</v>
       </c>
       <c r="T114" s="5" t="n"/>
     </row>
@@ -51596,53 +51600,53 @@
       </c>
       <c r="C115" s="7" t="inlineStr">
         <is>
-          <t>Linnea Greiff</t>
+          <t>Emma Sofie Klausen</t>
         </is>
       </c>
       <c r="D115" s="7" t="n">
-        <v>1998</v>
+        <v>2007</v>
       </c>
       <c r="E115" s="15" t="n">
-        <v>44.2</v>
+        <v>37.4</v>
       </c>
       <c r="F115" s="7" t="n">
-        <v>766</v>
+        <v>661</v>
       </c>
       <c r="G115" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H115" s="16" t="n">
-        <v>13.05</v>
+        <v>3.06</v>
       </c>
       <c r="J115" s="5" t="n"/>
       <c r="L115" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M115" s="7" t="inlineStr">
         <is>
-          <t>Vilde Marie Nebell</t>
+          <t>Linnea Greiff</t>
         </is>
       </c>
       <c r="N115" s="7" t="n">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="O115" s="15" t="n">
-        <v>39.37</v>
+        <v>44.2</v>
       </c>
       <c r="P115" s="7" t="n">
-        <v>675</v>
+        <v>766</v>
       </c>
       <c r="Q115" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R115" s="16" t="n">
-        <v>13.08</v>
+        <v>13.05</v>
       </c>
       <c r="T115" s="5" t="n"/>
     </row>
@@ -51679,7 +51683,7 @@
         </is>
       </c>
       <c r="F117" s="20" t="n">
-        <v>7849</v>
+        <v>8215</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="19" t="inlineStr">
@@ -51696,7 +51700,7 @@
         </is>
       </c>
       <c r="P117" s="20" t="n">
-        <v>8298</v>
+        <v>7849</v>
       </c>
       <c r="T117" s="5" t="n"/>
     </row>
@@ -51799,146 +51803,152 @@
     <row r="122" ht="13" customHeight="1">
       <c r="B122" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C122" s="7" t="inlineStr">
         <is>
-          <t>Claudia Maria Hastie Foss</t>
+          <t>Malin Søtorp Solberg</t>
         </is>
       </c>
       <c r="D122" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E122" s="15" t="n">
-        <v>7.82</v>
+        <v>2006</v>
+      </c>
+      <c r="E122" s="17" t="inlineStr">
+        <is>
+          <t>4,41,64</t>
+        </is>
       </c>
       <c r="F122" s="7" t="n">
-        <v>791</v>
+        <v>715</v>
       </c>
       <c r="G122" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="H122" s="16" t="n">
-        <v>11.02</v>
+        <v>4.02</v>
       </c>
       <c r="J122" s="5" t="n"/>
       <c r="L122" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M122" s="7" t="inlineStr">
         <is>
-          <t>Vilde Marie Nebell</t>
+          <t>Claudia Maria Hastie Foss</t>
         </is>
       </c>
       <c r="N122" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O122" s="15" t="n">
-        <v>36.68</v>
+        <v>7.82</v>
       </c>
       <c r="P122" s="7" t="n">
-        <v>679</v>
+        <v>791</v>
       </c>
       <c r="Q122" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R122" s="16" t="n">
-        <v>27.08</v>
+        <v>11.02</v>
       </c>
       <c r="T122" s="5" t="n"/>
     </row>
     <row r="123" ht="13" customHeight="1">
       <c r="B123" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C123" s="7" t="inlineStr">
         <is>
-          <t>Claudia Maria Hastie Foss</t>
+          <t>Malin Søtorp Solberg</t>
         </is>
       </c>
       <c r="D123" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E123" s="15" t="n">
-        <v>12.69</v>
+        <v>2006</v>
+      </c>
+      <c r="E123" s="17" t="inlineStr">
+        <is>
+          <t>10,18,49</t>
+        </is>
       </c>
       <c r="F123" s="7" t="n">
-        <v>725</v>
+        <v>692</v>
       </c>
       <c r="G123" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H123" s="16" t="n">
-        <v>13.05</v>
+        <v>27.08</v>
       </c>
       <c r="J123" s="5" t="n"/>
       <c r="L123" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M123" s="7" t="inlineStr">
         <is>
-          <t>Oline Rostrup Thagaard</t>
+          <t>Claudia Maria Hastie Foss</t>
         </is>
       </c>
       <c r="N123" s="7" t="n">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="O123" s="15" t="n">
-        <v>8.5</v>
+        <v>12.69</v>
       </c>
       <c r="P123" s="7" t="n">
-        <v>593</v>
+        <v>725</v>
       </c>
       <c r="Q123" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R123" s="16" t="n">
-        <v>17.06</v>
+        <v>13.05</v>
       </c>
       <c r="T123" s="5" t="n"/>
     </row>
     <row r="124" ht="13" customHeight="1">
       <c r="B124" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C124" s="7" t="inlineStr">
         <is>
-          <t>Kerine Sherice Stephenson</t>
+          <t>Astrid Bakkevik Finnestad</t>
         </is>
       </c>
       <c r="D124" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E124" s="15" t="n">
-        <v>26.2</v>
+        <v>2006</v>
+      </c>
+      <c r="E124" s="17" t="inlineStr">
+        <is>
+          <t>4,47,80</t>
+        </is>
       </c>
       <c r="F124" s="7" t="n">
-        <v>710</v>
+        <v>678</v>
       </c>
       <c r="G124" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H124" s="16" t="n">
-        <v>10.09</v>
+        <v>1.07</v>
       </c>
       <c r="J124" s="5" t="n"/>
       <c r="L124" s="14" t="inlineStr">
@@ -51948,171 +51958,177 @@
       </c>
       <c r="M124" s="7" t="inlineStr">
         <is>
-          <t>Elena Garcia Reppesgård</t>
+          <t>Kerine Sherice Stephenson</t>
         </is>
       </c>
       <c r="N124" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O124" s="15" t="n">
-        <v>27.99</v>
+        <v>26.2</v>
       </c>
       <c r="P124" s="7" t="n">
-        <v>580</v>
+        <v>710</v>
       </c>
       <c r="Q124" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R124" s="16" t="n">
-        <v>17.06</v>
+        <v>10.09</v>
       </c>
       <c r="T124" s="5" t="n"/>
     </row>
     <row r="125" ht="13" customHeight="1">
       <c r="B125" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C125" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Louise Selseth</t>
+          <t>Klara Helen Homlung Prøitz</t>
         </is>
       </c>
       <c r="D125" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E125" s="15" t="n">
-        <v>13.09</v>
+        <v>2010</v>
+      </c>
+      <c r="E125" s="17" t="inlineStr">
+        <is>
+          <t>4,49,26</t>
+        </is>
       </c>
       <c r="F125" s="7" t="n">
-        <v>655</v>
+        <v>670</v>
       </c>
       <c r="G125" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H125" s="16" t="n">
-        <v>9.09</v>
+        <v>1.07</v>
       </c>
       <c r="J125" s="5" t="n"/>
       <c r="L125" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M125" s="7" t="inlineStr">
         <is>
-          <t>Oline Rostrup Thagaard</t>
+          <t>Ingrid Louise Selseth</t>
         </is>
       </c>
       <c r="N125" s="7" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="O125" s="15" t="n">
-        <v>28.13</v>
+        <v>13.09</v>
       </c>
       <c r="P125" s="7" t="n">
-        <v>570</v>
+        <v>655</v>
       </c>
       <c r="Q125" s="7" t="inlineStr">
         <is>
-          <t>Sande</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R125" s="16" t="n">
-        <v>16.09</v>
+        <v>9.09</v>
       </c>
       <c r="T125" s="5" t="n"/>
     </row>
     <row r="126" ht="13" customHeight="1">
       <c r="B126" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C126" s="7" t="inlineStr">
         <is>
-          <t>Mathea Wego Karlsen</t>
+          <t>Astrid Bakkevik Finnestad</t>
         </is>
       </c>
       <c r="D126" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E126" s="15" t="n">
-        <v>13.25</v>
+        <v>2006</v>
+      </c>
+      <c r="E126" s="17" t="inlineStr">
+        <is>
+          <t>10,33,99</t>
+        </is>
       </c>
       <c r="F126" s="7" t="n">
-        <v>629</v>
+        <v>652</v>
       </c>
       <c r="G126" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H126" s="16" t="n">
-        <v>13.05</v>
+        <v>8.09</v>
       </c>
       <c r="J126" s="5" t="n"/>
       <c r="L126" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M126" s="7" t="inlineStr">
         <is>
-          <t>Anna Isaksen</t>
+          <t>Mathea Wego Karlsen</t>
         </is>
       </c>
       <c r="N126" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="O126" s="15" t="n">
-        <v>8.699999999999999</v>
+        <v>13.25</v>
       </c>
       <c r="P126" s="7" t="n">
-        <v>543</v>
+        <v>629</v>
       </c>
       <c r="Q126" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R126" s="16" t="n">
-        <v>18.03</v>
+        <v>13.05</v>
       </c>
       <c r="T126" s="5" t="n"/>
     </row>
     <row r="127" ht="13" customHeight="1">
       <c r="B127" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C127" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Louise Selseth</t>
+          <t>Klara Helen Homlung Prøitz</t>
         </is>
       </c>
       <c r="D127" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E127" s="15" t="n">
-        <v>27.35</v>
+        <v>2010</v>
+      </c>
+      <c r="E127" s="17" t="inlineStr">
+        <is>
+          <t>2,27,44</t>
+        </is>
       </c>
       <c r="F127" s="7" t="n">
-        <v>624</v>
+        <v>584</v>
       </c>
       <c r="G127" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sarpsborg</t>
         </is>
       </c>
       <c r="H127" s="16" t="n">
-        <v>17.06</v>
+        <v>19.08</v>
       </c>
       <c r="J127" s="5" t="n"/>
       <c r="L127" s="14" t="inlineStr">
@@ -52122,47 +52138,47 @@
       </c>
       <c r="M127" s="7" t="inlineStr">
         <is>
-          <t>Charlotte Lindland Turner</t>
+          <t>Ingrid Louise Selseth</t>
         </is>
       </c>
       <c r="N127" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O127" s="15" t="n">
-        <v>28.64</v>
+        <v>27.35</v>
       </c>
       <c r="P127" s="7" t="n">
-        <v>536</v>
+        <v>624</v>
       </c>
       <c r="Q127" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R127" s="16" t="n">
-        <v>27.08</v>
+        <v>17.06</v>
       </c>
       <c r="T127" s="5" t="n"/>
     </row>
     <row r="128" ht="13" customHeight="1">
       <c r="B128" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C128" s="7" t="inlineStr">
         <is>
-          <t>Henriette Kjærås</t>
+          <t>Lena Alexandra Wang</t>
         </is>
       </c>
       <c r="D128" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E128" s="15" t="n">
-        <v>27.4</v>
+        <v>8.73</v>
       </c>
       <c r="F128" s="7" t="n">
-        <v>621</v>
+        <v>536</v>
       </c>
       <c r="G128" s="7" t="inlineStr">
         <is>
@@ -52170,35 +52186,35 @@
         </is>
       </c>
       <c r="H128" s="16" t="n">
-        <v>17.06</v>
+        <v>11.02</v>
       </c>
       <c r="J128" s="5" t="n"/>
       <c r="L128" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M128" s="7" t="inlineStr">
         <is>
-          <t>Charlotte Lindland Turner</t>
+          <t>Henriette Kjærås</t>
         </is>
       </c>
       <c r="N128" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O128" s="15" t="n">
-        <v>1.41</v>
+        <v>27.4</v>
       </c>
       <c r="P128" s="7" t="n">
-        <v>528</v>
+        <v>621</v>
       </c>
       <c r="Q128" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R128" s="16" t="n">
-        <v>18.03</v>
+        <v>17.06</v>
       </c>
       <c r="T128" s="5" t="n"/>
     </row>
@@ -52210,17 +52226,17 @@
       </c>
       <c r="C129" s="7" t="inlineStr">
         <is>
-          <t>Mathea Wego Karlsen</t>
+          <t>Emma Sofie Klausen</t>
         </is>
       </c>
       <c r="D129" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E129" s="15" t="n">
-        <v>8.41</v>
+        <v>8.75</v>
       </c>
       <c r="F129" s="7" t="n">
-        <v>617</v>
+        <v>531</v>
       </c>
       <c r="G129" s="7" t="inlineStr">
         <is>
@@ -52233,88 +52249,88 @@
       <c r="J129" s="5" t="n"/>
       <c r="L129" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M129" s="7" t="inlineStr">
         <is>
-          <t>Oline Rostrup Thagaard</t>
+          <t>Mathea Wego Karlsen</t>
         </is>
       </c>
       <c r="N129" s="7" t="n">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="O129" s="15" t="n">
-        <v>1.4</v>
+        <v>8.41</v>
       </c>
       <c r="P129" s="7" t="n">
-        <v>518</v>
+        <v>617</v>
       </c>
       <c r="Q129" s="7" t="inlineStr">
         <is>
-          <t>Sande</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R129" s="16" t="n">
-        <v>16.09</v>
+        <v>11.02</v>
       </c>
       <c r="T129" s="5" t="n"/>
     </row>
     <row r="130" ht="13" customHeight="1">
       <c r="B130" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C130" s="7" t="inlineStr">
         <is>
-          <t>Henriette Kjærås</t>
+          <t>Ingrid Mæland Andersen</t>
         </is>
       </c>
       <c r="D130" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E130" s="15" t="n">
-        <v>9.380000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F130" s="7" t="n">
-        <v>492</v>
+        <v>518</v>
       </c>
       <c r="G130" s="7" t="inlineStr">
         <is>
-          <t>Porsgrunn</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H130" s="16" t="n">
-        <v>10.06</v>
+        <v>14.01</v>
       </c>
       <c r="J130" s="5" t="n"/>
       <c r="L130" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M130" s="7" t="inlineStr">
         <is>
-          <t>Sofie Engeseth</t>
+          <t>Henriette Kjærås</t>
         </is>
       </c>
       <c r="N130" s="7" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="O130" s="15" t="n">
-        <v>28.95</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="P130" s="7" t="n">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="Q130" s="7" t="inlineStr">
         <is>
-          <t>Sande</t>
+          <t>Porsgrunn</t>
         </is>
       </c>
       <c r="R130" s="16" t="n">
-        <v>16.09</v>
+        <v>10.06</v>
       </c>
       <c r="T130" s="5" t="n"/>
     </row>
@@ -52326,7 +52342,7 @@
       </c>
       <c r="C131" s="7" t="inlineStr">
         <is>
-          <t>Anniken Rosvoll</t>
+          <t>Emma Sofie Klausen</t>
         </is>
       </c>
       <c r="D131" s="7" t="n">
@@ -52340,157 +52356,155 @@
       </c>
       <c r="G131" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H131" s="16" t="n">
-        <v>13.05</v>
+        <v>11.02</v>
       </c>
       <c r="J131" s="5" t="n"/>
       <c r="L131" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M131" s="7" t="inlineStr">
         <is>
-          <t>Charlotte Lindland Turner</t>
+          <t>Anniken Rosvoll</t>
         </is>
       </c>
       <c r="N131" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O131" s="15" t="n">
-        <v>13.98</v>
+        <v>4.36</v>
       </c>
       <c r="P131" s="7" t="n">
-        <v>513</v>
+        <v>475</v>
       </c>
       <c r="Q131" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R131" s="16" t="n">
-        <v>6.05</v>
+        <v>13.05</v>
       </c>
       <c r="T131" s="5" t="n"/>
     </row>
     <row r="132" ht="13" customHeight="1">
       <c r="B132" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C132" s="7" t="inlineStr">
         <is>
-          <t>Siri Torgersen Bigseth</t>
+          <t>Ana Blagojevic</t>
         </is>
       </c>
       <c r="D132" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E132" s="15" t="n">
-        <v>2</v>
+        <v>4.26</v>
       </c>
       <c r="F132" s="7" t="n">
-        <v>427</v>
+        <v>452</v>
       </c>
       <c r="G132" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="H132" s="16" t="n">
-        <v>14.01</v>
+        <v>11.03</v>
       </c>
       <c r="J132" s="5" t="n"/>
       <c r="L132" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M132" s="7" t="inlineStr">
         <is>
-          <t>Tuva Kylland</t>
+          <t>Siri Torgersen Bigseth</t>
         </is>
       </c>
       <c r="N132" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O132" s="17" t="inlineStr">
-        <is>
-          <t>5,20,69</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="O132" s="15" t="n">
+        <v>2</v>
       </c>
       <c r="P132" s="7" t="n">
-        <v>510</v>
+        <v>427</v>
       </c>
       <c r="Q132" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R132" s="16" t="n">
-        <v>8.06</v>
+        <v>14.01</v>
       </c>
       <c r="T132" s="5" t="n"/>
     </row>
     <row r="133" ht="13" customHeight="1">
       <c r="B133" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C133" s="7" t="inlineStr">
         <is>
-          <t>Siri Torgersen Bigseth</t>
+          <t>Lena Alexandra Wang</t>
         </is>
       </c>
       <c r="D133" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="E133" s="15" t="n">
-        <v>1.28</v>
+        <v>8.94</v>
       </c>
       <c r="F133" s="7" t="n">
-        <v>396</v>
+        <v>443</v>
       </c>
       <c r="G133" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H133" s="16" t="n">
-        <v>1.06</v>
+        <v>12.02</v>
       </c>
       <c r="J133" s="5" t="n"/>
       <c r="L133" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M133" s="7" t="inlineStr">
         <is>
-          <t>Elena Garcia Reppesgård</t>
+          <t>Siri Torgersen Bigseth</t>
         </is>
       </c>
       <c r="N133" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="O133" s="15" t="n">
-        <v>4.43</v>
+        <v>1.28</v>
       </c>
       <c r="P133" s="7" t="n">
-        <v>492</v>
+        <v>396</v>
       </c>
       <c r="Q133" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R133" s="16" t="n">
-        <v>29.01</v>
+        <v>1.06</v>
       </c>
       <c r="T133" s="5" t="n"/>
     </row>
@@ -52527,7 +52541,7 @@
         </is>
       </c>
       <c r="F135" s="20" t="n">
-        <v>7162</v>
+        <v>6946</v>
       </c>
       <c r="J135" s="5" t="n"/>
       <c r="L135" s="19" t="inlineStr">
@@ -52544,7 +52558,7 @@
         </is>
       </c>
       <c r="P135" s="20" t="n">
-        <v>6578</v>
+        <v>7162</v>
       </c>
       <c r="T135" s="5" t="n"/>
     </row>
@@ -52567,7 +52581,7 @@
         </is>
       </c>
       <c r="F137" s="20" t="n">
-        <v>15011</v>
+        <v>15161</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="19" t="inlineStr">
@@ -52584,7 +52598,7 @@
         </is>
       </c>
       <c r="P137" s="20" t="n">
-        <v>14876</v>
+        <v>15011</v>
       </c>
       <c r="T137" s="5" t="n"/>
     </row>
@@ -52599,7 +52613,7 @@
         </is>
       </c>
       <c r="C139" s="20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J139" s="5" t="n"/>
       <c r="L139" s="19" t="inlineStr">
@@ -52608,7 +52622,7 @@
         </is>
       </c>
       <c r="M139" s="20" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="T139" s="5" t="n"/>
     </row>
@@ -52650,7 +52664,7 @@
       </c>
       <c r="C143" s="7" t="inlineStr">
         <is>
-          <t>Østfold</t>
+          <t>Buskerud</t>
         </is>
       </c>
       <c r="F143" s="8" t="n">
@@ -52680,7 +52694,7 @@
       </c>
       <c r="C144" s="7" t="inlineStr">
         <is>
-          <t>Sarpsborg IL</t>
+          <t>IF Sturla</t>
         </is>
       </c>
       <c r="J144" s="5" t="n"/>
@@ -52820,25 +52834,25 @@
       </c>
       <c r="C150" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Mæland Andersen</t>
+          <t>Ida Kristine Sola Steen</t>
         </is>
       </c>
       <c r="D150" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E150" s="15" t="n">
-        <v>8.48</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="F150" s="7" t="n">
-        <v>598</v>
+        <v>649</v>
       </c>
       <c r="G150" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H150" s="16" t="n">
-        <v>11.02</v>
+        <v>18.03</v>
       </c>
       <c r="J150" s="5" t="n"/>
       <c r="L150" s="14" t="inlineStr">
@@ -52878,25 +52892,25 @@
       </c>
       <c r="C151" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Mæland Andersen</t>
+          <t>Ida Kristine Sola Steen</t>
         </is>
       </c>
       <c r="D151" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E151" s="15" t="n">
-        <v>13.58</v>
+        <v>13.19</v>
       </c>
       <c r="F151" s="7" t="n">
-        <v>575</v>
+        <v>638</v>
       </c>
       <c r="G151" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="H151" s="16" t="n">
-        <v>14.05</v>
+        <v>6.05</v>
       </c>
       <c r="J151" s="5" t="n"/>
       <c r="L151" s="14" t="inlineStr">
@@ -52936,17 +52950,17 @@
       </c>
       <c r="C152" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Mæland Andersen</t>
+          <t>Ida Kristine Sola Steen</t>
         </is>
       </c>
       <c r="D152" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E152" s="15" t="n">
-        <v>28.62</v>
+        <v>26.79</v>
       </c>
       <c r="F152" s="7" t="n">
-        <v>537</v>
+        <v>665</v>
       </c>
       <c r="G152" s="7" t="inlineStr">
         <is>
@@ -52954,7 +52968,7 @@
         </is>
       </c>
       <c r="H152" s="16" t="n">
-        <v>12.02</v>
+        <v>17.06</v>
       </c>
       <c r="J152" s="5" t="n"/>
       <c r="L152" s="14" t="inlineStr">
@@ -52989,32 +53003,32 @@
     <row r="153" ht="13" customHeight="1">
       <c r="B153" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C153" s="7" t="inlineStr">
         <is>
-          <t>Vilde Fredriksen</t>
+          <t>Vienna Skinnes</t>
         </is>
       </c>
       <c r="D153" s="7" t="n">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="E153" s="17" t="inlineStr">
         <is>
-          <t>1,08,48</t>
+          <t>4,55,49</t>
         </is>
       </c>
       <c r="F153" s="7" t="n">
-        <v>458</v>
+        <v>636</v>
       </c>
       <c r="G153" s="7" t="inlineStr">
         <is>
-          <t>Sarpsborg</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H153" s="16" t="n">
-        <v>20.08</v>
+        <v>1.07</v>
       </c>
       <c r="J153" s="5" t="n"/>
       <c r="L153" s="14" t="inlineStr">
@@ -53051,12 +53065,12 @@
     <row r="154" ht="13" customHeight="1">
       <c r="B154" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C154" s="7" t="inlineStr">
         <is>
-          <t>Astrid Bakkevik Finnestad</t>
+          <t>Tuva Kylland</t>
         </is>
       </c>
       <c r="D154" s="7" t="n">
@@ -53064,11 +53078,11 @@
       </c>
       <c r="E154" s="17" t="inlineStr">
         <is>
-          <t>2,23,02</t>
+          <t>10,48,40</t>
         </is>
       </c>
       <c r="F154" s="7" t="n">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="G154" s="7" t="inlineStr">
         <is>
@@ -53076,7 +53090,7 @@
         </is>
       </c>
       <c r="H154" s="16" t="n">
-        <v>11.02</v>
+        <v>16.06</v>
       </c>
       <c r="J154" s="5" t="n"/>
       <c r="L154" s="14" t="inlineStr">
@@ -53113,32 +53127,32 @@
     <row r="155" ht="13" customHeight="1">
       <c r="B155" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m kapp.</t>
         </is>
       </c>
       <c r="C155" s="7" t="inlineStr">
         <is>
-          <t>Maiken Homlung Prøitz</t>
+          <t>Maren Karlsen Bekkestad</t>
         </is>
       </c>
       <c r="D155" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E155" s="17" t="inlineStr">
         <is>
-          <t>4,28,24</t>
+          <t>14,18,96</t>
         </is>
       </c>
       <c r="F155" s="7" t="n">
-        <v>802</v>
+        <v>711</v>
       </c>
       <c r="G155" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H155" s="16" t="n">
-        <v>8.06</v>
+        <v>18.02</v>
       </c>
       <c r="J155" s="5" t="n"/>
       <c r="L155" s="14" t="inlineStr">
@@ -53175,32 +53189,30 @@
     <row r="156" ht="13" customHeight="1">
       <c r="B156" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C156" s="7" t="inlineStr">
         <is>
-          <t>Maiken Homlung Prøitz</t>
+          <t>Elena Garcia Reppesgård</t>
         </is>
       </c>
       <c r="D156" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E156" s="17" t="inlineStr">
-        <is>
-          <t>9,45,45</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E156" s="15" t="n">
+        <v>1.47</v>
       </c>
       <c r="F156" s="7" t="n">
-        <v>784</v>
+        <v>583</v>
       </c>
       <c r="G156" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H156" s="16" t="n">
-        <v>30.06</v>
+        <v>29.01</v>
       </c>
       <c r="J156" s="5" t="n"/>
       <c r="L156" s="14" t="inlineStr">
@@ -53235,32 +53247,30 @@
     <row r="157" ht="13" customHeight="1">
       <c r="B157" s="14" t="inlineStr">
         <is>
-          <t>3000m hinder</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C157" s="7" t="inlineStr">
         <is>
-          <t>Maiken Homlung Prøitz</t>
+          <t>Wilma Christine Thorrud</t>
         </is>
       </c>
       <c r="D157" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E157" s="17" t="inlineStr">
-        <is>
-          <t>10,26,97</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="E157" s="15" t="n">
+        <v>2.7</v>
       </c>
       <c r="F157" s="7" t="n">
-        <v>832</v>
+        <v>606</v>
       </c>
       <c r="G157" s="7" t="inlineStr">
         <is>
-          <t>Tårnby/DEN</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H157" s="16" t="n">
-        <v>7.05</v>
+        <v>4.06</v>
       </c>
       <c r="J157" s="5" t="n"/>
       <c r="L157" s="14" t="inlineStr">
@@ -53297,30 +53307,30 @@
     <row r="158" ht="13" customHeight="1">
       <c r="B158" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C158" s="7" t="inlineStr">
         <is>
-          <t>Emma Sofie Klausen</t>
+          <t>Sofie Engeset</t>
         </is>
       </c>
       <c r="D158" s="7" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="E158" s="15" t="n">
-        <v>1.51</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="F158" s="7" t="n">
-        <v>617</v>
+        <v>547</v>
       </c>
       <c r="G158" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="H158" s="16" t="n">
-        <v>20.05</v>
+        <v>6.05</v>
       </c>
       <c r="J158" s="5" t="n"/>
       <c r="L158" s="14" t="inlineStr">
@@ -53355,22 +53365,22 @@
     <row r="159" ht="13" customHeight="1">
       <c r="B159" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C159" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Mæland Andersen</t>
+          <t>Ester Holt</t>
         </is>
       </c>
       <c r="D159" s="7" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="E159" s="15" t="n">
-        <v>4.46</v>
+        <v>2.49</v>
       </c>
       <c r="F159" s="7" t="n">
-        <v>499</v>
+        <v>625</v>
       </c>
       <c r="G159" s="7" t="inlineStr">
         <is>
@@ -53378,7 +53388,7 @@
         </is>
       </c>
       <c r="H159" s="16" t="n">
-        <v>14.01</v>
+        <v>19.02</v>
       </c>
       <c r="J159" s="5" t="n"/>
       <c r="L159" s="14" t="inlineStr">
@@ -53413,30 +53423,30 @@
     <row r="160" ht="13" customHeight="1">
       <c r="B160" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C160" s="7" t="inlineStr">
         <is>
-          <t>Ana Blagojevic</t>
+          <t>Vilde Marie Nebell</t>
         </is>
       </c>
       <c r="D160" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E160" s="15" t="n">
-        <v>9.42</v>
+        <v>10.04</v>
       </c>
       <c r="F160" s="7" t="n">
-        <v>497</v>
+        <v>596</v>
       </c>
       <c r="G160" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H160" s="16" t="n">
-        <v>17.06</v>
+        <v>13.08</v>
       </c>
       <c r="J160" s="5" t="n"/>
       <c r="L160" s="14" t="inlineStr">
@@ -53476,25 +53486,25 @@
       </c>
       <c r="C161" s="7" t="inlineStr">
         <is>
-          <t>Emma Sofie Klausen</t>
+          <t>Berit Stunes Isene</t>
         </is>
       </c>
       <c r="D161" s="7" t="n">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="E161" s="15" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="F161" s="7" t="n">
+        <v>749</v>
+      </c>
+      <c r="G161" s="7" t="inlineStr">
+        <is>
+          <t>Røyken</t>
+        </is>
+      </c>
+      <c r="H161" s="16" t="n">
         <v>22.05</v>
-      </c>
-      <c r="F161" s="7" t="n">
-        <v>434</v>
-      </c>
-      <c r="G161" s="7" t="inlineStr">
-        <is>
-          <t>Sarpsborg</t>
-        </is>
-      </c>
-      <c r="H161" s="16" t="n">
-        <v>17.09</v>
       </c>
       <c r="J161" s="5" t="n"/>
       <c r="L161" s="14" t="inlineStr">
@@ -53529,30 +53539,30 @@
     <row r="162" ht="13" customHeight="1">
       <c r="B162" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="C162" s="7" t="inlineStr">
         <is>
-          <t>Emma Sofie Klausen</t>
+          <t>Vilde Marie Nebell</t>
         </is>
       </c>
       <c r="D162" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E162" s="15" t="n">
-        <v>37.4</v>
+        <v>39.37</v>
       </c>
       <c r="F162" s="7" t="n">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="G162" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H162" s="16" t="n">
-        <v>3.06</v>
+        <v>13.08</v>
       </c>
       <c r="J162" s="5" t="n"/>
       <c r="L162" s="14" t="inlineStr">
@@ -53617,7 +53627,7 @@
         </is>
       </c>
       <c r="F164" s="20" t="n">
-        <v>7926</v>
+        <v>8298</v>
       </c>
       <c r="J164" s="5" t="n"/>
       <c r="L164" s="19" t="inlineStr">
@@ -53737,32 +53747,30 @@
     <row r="169" ht="13" customHeight="1">
       <c r="B169" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C169" s="7" t="inlineStr">
         <is>
-          <t>Malin Søtorp Solberg</t>
+          <t>Vilde Marie Nebell</t>
         </is>
       </c>
       <c r="D169" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E169" s="17" t="inlineStr">
-        <is>
-          <t>4,41,64</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E169" s="15" t="n">
+        <v>36.68</v>
       </c>
       <c r="F169" s="7" t="n">
-        <v>715</v>
+        <v>679</v>
       </c>
       <c r="G169" s="7" t="inlineStr">
         <is>
-          <t>Hvam</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H169" s="16" t="n">
-        <v>4.02</v>
+        <v>27.08</v>
       </c>
       <c r="J169" s="5" t="n"/>
       <c r="L169" s="14" t="inlineStr">
@@ -53797,32 +53805,30 @@
     <row r="170" ht="13" customHeight="1">
       <c r="B170" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C170" s="7" t="inlineStr">
         <is>
-          <t>Malin Søtorp Solberg</t>
+          <t>Oline Rostrup Thagaard</t>
         </is>
       </c>
       <c r="D170" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E170" s="17" t="inlineStr">
-        <is>
-          <t>10,18,49</t>
-        </is>
+        <v>2010</v>
+      </c>
+      <c r="E170" s="15" t="n">
+        <v>8.5</v>
       </c>
       <c r="F170" s="7" t="n">
-        <v>692</v>
+        <v>593</v>
       </c>
       <c r="G170" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H170" s="16" t="n">
-        <v>27.08</v>
+        <v>17.06</v>
       </c>
       <c r="J170" s="5" t="n"/>
       <c r="L170" s="14" t="inlineStr">
@@ -53857,32 +53863,30 @@
     <row r="171" ht="13" customHeight="1">
       <c r="B171" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C171" s="7" t="inlineStr">
         <is>
-          <t>Astrid Bakkevik Finnestad</t>
+          <t>Elena Garcia Reppesgård</t>
         </is>
       </c>
       <c r="D171" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E171" s="17" t="inlineStr">
-        <is>
-          <t>4,47,80</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E171" s="15" t="n">
+        <v>27.99</v>
       </c>
       <c r="F171" s="7" t="n">
-        <v>678</v>
+        <v>580</v>
       </c>
       <c r="G171" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H171" s="16" t="n">
-        <v>1.07</v>
+        <v>17.06</v>
       </c>
       <c r="J171" s="5" t="n"/>
       <c r="L171" s="14" t="inlineStr">
@@ -53917,32 +53921,30 @@
     <row r="172" ht="13" customHeight="1">
       <c r="B172" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C172" s="7" t="inlineStr">
         <is>
-          <t>Klara Helen Homlung Prøitz</t>
+          <t>Oline Rostrup Thagaard</t>
         </is>
       </c>
       <c r="D172" s="7" t="n">
         <v>2010</v>
       </c>
-      <c r="E172" s="17" t="inlineStr">
-        <is>
-          <t>4,49,26</t>
-        </is>
+      <c r="E172" s="15" t="n">
+        <v>28.13</v>
       </c>
       <c r="F172" s="7" t="n">
-        <v>670</v>
+        <v>570</v>
       </c>
       <c r="G172" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Sande</t>
         </is>
       </c>
       <c r="H172" s="16" t="n">
-        <v>1.07</v>
+        <v>16.09</v>
       </c>
       <c r="J172" s="5" t="n"/>
       <c r="L172" s="14" t="inlineStr">
@@ -53977,32 +53979,30 @@
     <row r="173" ht="13" customHeight="1">
       <c r="B173" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C173" s="7" t="inlineStr">
         <is>
-          <t>Astrid Bakkevik Finnestad</t>
+          <t>Anna Isaksen</t>
         </is>
       </c>
       <c r="D173" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E173" s="17" t="inlineStr">
-        <is>
-          <t>10,33,99</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="E173" s="15" t="n">
+        <v>8.699999999999999</v>
       </c>
       <c r="F173" s="7" t="n">
-        <v>652</v>
+        <v>543</v>
       </c>
       <c r="G173" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H173" s="16" t="n">
-        <v>8.09</v>
+        <v>18.03</v>
       </c>
       <c r="J173" s="5" t="n"/>
       <c r="L173" s="14" t="inlineStr">
@@ -54037,32 +54037,30 @@
     <row r="174" ht="13" customHeight="1">
       <c r="B174" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C174" s="7" t="inlineStr">
         <is>
-          <t>Klara Helen Homlung Prøitz</t>
+          <t>Charlotte Lindland Turner</t>
         </is>
       </c>
       <c r="D174" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E174" s="17" t="inlineStr">
-        <is>
-          <t>2,27,44</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E174" s="15" t="n">
+        <v>28.64</v>
       </c>
       <c r="F174" s="7" t="n">
-        <v>584</v>
+        <v>536</v>
       </c>
       <c r="G174" s="7" t="inlineStr">
         <is>
-          <t>Sarpsborg</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="H174" s="16" t="n">
-        <v>19.08</v>
+        <v>27.08</v>
       </c>
       <c r="J174" s="5" t="n"/>
       <c r="L174" s="14" t="inlineStr">
@@ -54097,30 +54095,30 @@
     <row r="175" ht="13" customHeight="1">
       <c r="B175" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C175" s="7" t="inlineStr">
         <is>
-          <t>Lena Alexandra Wang</t>
+          <t>Charlotte Lindland Turner</t>
         </is>
       </c>
       <c r="D175" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E175" s="15" t="n">
-        <v>8.73</v>
+        <v>1.41</v>
       </c>
       <c r="F175" s="7" t="n">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G175" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H175" s="16" t="n">
-        <v>11.02</v>
+        <v>18.03</v>
       </c>
       <c r="J175" s="5" t="n"/>
       <c r="L175" s="14" t="inlineStr">
@@ -54155,30 +54153,30 @@
     <row r="176" ht="13" customHeight="1">
       <c r="B176" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C176" s="7" t="inlineStr">
         <is>
-          <t>Emma Sofie Klausen</t>
+          <t>Oline Rostrup Thagaard</t>
         </is>
       </c>
       <c r="D176" s="7" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="E176" s="15" t="n">
-        <v>8.75</v>
+        <v>1.4</v>
       </c>
       <c r="F176" s="7" t="n">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="G176" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sande</t>
         </is>
       </c>
       <c r="H176" s="16" t="n">
-        <v>11.02</v>
+        <v>16.09</v>
       </c>
       <c r="J176" s="5" t="n"/>
       <c r="L176" s="14" t="inlineStr">
@@ -54213,30 +54211,30 @@
     <row r="177" ht="13" customHeight="1">
       <c r="B177" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C177" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Mæland Andersen</t>
+          <t>Sofie Engeseth</t>
         </is>
       </c>
       <c r="D177" s="7" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="E177" s="15" t="n">
-        <v>1.4</v>
+        <v>28.95</v>
       </c>
       <c r="F177" s="7" t="n">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G177" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sande</t>
         </is>
       </c>
       <c r="H177" s="16" t="n">
-        <v>14.01</v>
+        <v>16.09</v>
       </c>
       <c r="J177" s="5" t="n"/>
       <c r="L177" s="14" t="inlineStr">
@@ -54271,30 +54269,30 @@
     <row r="178" ht="13" customHeight="1">
       <c r="B178" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C178" s="7" t="inlineStr">
         <is>
-          <t>Emma Sofie Klausen</t>
+          <t>Charlotte Lindland Turner</t>
         </is>
       </c>
       <c r="D178" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E178" s="15" t="n">
-        <v>4.36</v>
+        <v>13.98</v>
       </c>
       <c r="F178" s="7" t="n">
-        <v>475</v>
+        <v>513</v>
       </c>
       <c r="G178" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="H178" s="16" t="n">
-        <v>11.02</v>
+        <v>6.05</v>
       </c>
       <c r="J178" s="5" t="n"/>
       <c r="L178" s="14" t="inlineStr">
@@ -54329,30 +54327,32 @@
     <row r="179" ht="13" customHeight="1">
       <c r="B179" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C179" s="7" t="inlineStr">
         <is>
-          <t>Ana Blagojevic</t>
+          <t>Tuva Kylland</t>
         </is>
       </c>
       <c r="D179" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E179" s="15" t="n">
-        <v>4.26</v>
+        <v>2006</v>
+      </c>
+      <c r="E179" s="17" t="inlineStr">
+        <is>
+          <t>5,20,69</t>
+        </is>
       </c>
       <c r="F179" s="7" t="n">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="G179" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H179" s="16" t="n">
-        <v>11.03</v>
+        <v>8.06</v>
       </c>
       <c r="J179" s="5" t="n"/>
       <c r="L179" s="14" t="inlineStr">
@@ -54387,30 +54387,30 @@
     <row r="180" ht="13" customHeight="1">
       <c r="B180" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C180" s="7" t="inlineStr">
         <is>
-          <t>Lena Alexandra Wang</t>
+          <t>Elena Garcia Reppesgård</t>
         </is>
       </c>
       <c r="D180" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E180" s="15" t="n">
-        <v>8.94</v>
+        <v>4.43</v>
       </c>
       <c r="F180" s="7" t="n">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="G180" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H180" s="16" t="n">
-        <v>12.02</v>
+        <v>29.01</v>
       </c>
       <c r="J180" s="5" t="n"/>
       <c r="L180" s="14" t="inlineStr">
@@ -54475,7 +54475,7 @@
         </is>
       </c>
       <c r="F182" s="20" t="n">
-        <v>6946</v>
+        <v>6578</v>
       </c>
       <c r="J182" s="5" t="n"/>
       <c r="L182" s="19" t="inlineStr">
@@ -54515,7 +54515,7 @@
         </is>
       </c>
       <c r="F184" s="20" t="n">
-        <v>14872</v>
+        <v>14876</v>
       </c>
       <c r="J184" s="5" t="n"/>
       <c r="L184" s="19" t="inlineStr">
@@ -54547,7 +54547,7 @@
         </is>
       </c>
       <c r="C186" s="20" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J186" s="5" t="n"/>
       <c r="L186" s="19" t="inlineStr">
@@ -58448,7 +58448,7 @@
       </c>
       <c r="C284" s="7" t="inlineStr">
         <is>
-          <t>Østfold</t>
+          <t>Nord-Trøndelag</t>
         </is>
       </c>
       <c r="F284" s="8" t="n">
@@ -58462,7 +58462,7 @@
       </c>
       <c r="M284" s="7" t="inlineStr">
         <is>
-          <t>Nord-Trøndelag</t>
+          <t>Østfold</t>
         </is>
       </c>
       <c r="P284" s="8" t="n">
@@ -58478,7 +58478,7 @@
       </c>
       <c r="C285" s="7" t="inlineStr">
         <is>
-          <t>Moss IL</t>
+          <t>Stjørdal Friidrettsklubb</t>
         </is>
       </c>
       <c r="J285" s="5" t="n"/>
@@ -58489,7 +58489,7 @@
       </c>
       <c r="M285" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal Friidrettsklubb</t>
+          <t>Moss IL</t>
         </is>
       </c>
       <c r="T285" s="5" t="n"/>
@@ -58618,25 +58618,25 @@
       </c>
       <c r="C291" s="7" t="inlineStr">
         <is>
-          <t>Iyna Tunkara</t>
+          <t>Nora Kaspara Lindset</t>
         </is>
       </c>
       <c r="D291" s="7" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E291" s="15" t="n">
-        <v>8.210000000000001</v>
+        <v>9.42</v>
       </c>
       <c r="F291" s="7" t="n">
-        <v>672</v>
+        <v>383</v>
       </c>
       <c r="G291" s="7" t="inlineStr">
         <is>
-          <t>Askim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H291" s="16" t="n">
-        <v>7.01</v>
+        <v>4.06</v>
       </c>
       <c r="J291" s="5" t="n"/>
       <c r="L291" s="14" t="inlineStr">
@@ -58646,25 +58646,25 @@
       </c>
       <c r="M291" s="7" t="inlineStr">
         <is>
-          <t>Nora Kaspara Lindset</t>
+          <t>Iyna Tunkara</t>
         </is>
       </c>
       <c r="N291" s="7" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="O291" s="15" t="n">
-        <v>9.42</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="P291" s="7" t="n">
-        <v>383</v>
+        <v>672</v>
       </c>
       <c r="Q291" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Askim</t>
         </is>
       </c>
       <c r="R291" s="16" t="n">
-        <v>4.06</v>
+        <v>7.01</v>
       </c>
       <c r="T291" s="5" t="n"/>
     </row>
@@ -58676,25 +58676,25 @@
       </c>
       <c r="C292" s="7" t="inlineStr">
         <is>
-          <t>Iyna Tunkara</t>
+          <t>Elise Grong Ruud</t>
         </is>
       </c>
       <c r="D292" s="7" t="n">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="E292" s="15" t="n">
-        <v>13.2</v>
+        <v>13.11</v>
       </c>
       <c r="F292" s="7" t="n">
-        <v>637</v>
+        <v>652</v>
       </c>
       <c r="G292" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H292" s="16" t="n">
-        <v>3.05</v>
+        <v>28.06</v>
       </c>
       <c r="J292" s="5" t="n"/>
       <c r="L292" s="14" t="inlineStr">
@@ -58704,117 +58704,117 @@
       </c>
       <c r="M292" s="7" t="inlineStr">
         <is>
-          <t>Elise Grong Ruud</t>
+          <t>Iyna Tunkara</t>
         </is>
       </c>
       <c r="N292" s="7" t="n">
-        <v>1996</v>
+        <v>2005</v>
       </c>
       <c r="O292" s="15" t="n">
-        <v>13.11</v>
+        <v>13.2</v>
       </c>
       <c r="P292" s="7" t="n">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="Q292" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R292" s="16" t="n">
-        <v>28.06</v>
+        <v>3.05</v>
       </c>
       <c r="T292" s="5" t="n"/>
     </row>
     <row r="293" ht="13" customHeight="1">
       <c r="B293" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C293" s="7" t="inlineStr">
         <is>
-          <t>Thea Emilie Karlsen</t>
+          <t>Nora Kaspara Lindset</t>
         </is>
       </c>
       <c r="D293" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E293" s="15" t="n">
-        <v>28.92</v>
+        <v>2009</v>
+      </c>
+      <c r="E293" s="17" t="inlineStr">
+        <is>
+          <t>2,44,42</t>
+        </is>
       </c>
       <c r="F293" s="7" t="n">
-        <v>518</v>
+        <v>427</v>
       </c>
       <c r="G293" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Ranheim</t>
         </is>
       </c>
       <c r="H293" s="16" t="n">
-        <v>21.01</v>
+        <v>29.01</v>
       </c>
       <c r="J293" s="5" t="n"/>
       <c r="L293" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M293" s="7" t="inlineStr">
         <is>
-          <t>Ingeborg Lillemo Kippe</t>
+          <t>Thea Emilie Karlsen</t>
         </is>
       </c>
       <c r="N293" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O293" s="17" t="inlineStr">
-        <is>
-          <t>1,13,76</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="O293" s="15" t="n">
+        <v>28.92</v>
       </c>
       <c r="P293" s="7" t="n">
-        <v>354</v>
+        <v>518</v>
       </c>
       <c r="Q293" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R293" s="16" t="n">
-        <v>30.08</v>
+        <v>21.01</v>
       </c>
       <c r="T293" s="5" t="n"/>
     </row>
     <row r="294" ht="13" customHeight="1">
       <c r="B294" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C294" s="7" t="inlineStr">
         <is>
-          <t>Margrethe Skei Tveten</t>
+          <t>Ellen Kvalheim</t>
         </is>
       </c>
       <c r="D294" s="7" t="n">
-        <v>2010</v>
+        <v>1973</v>
       </c>
       <c r="E294" s="17" t="inlineStr">
         <is>
-          <t>2,51,66</t>
+          <t>5,27,7</t>
         </is>
       </c>
       <c r="F294" s="7" t="n">
-        <v>368</v>
+        <v>479</v>
       </c>
       <c r="G294" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H294" s="16" t="n">
-        <v>3.05</v>
+        <v>16.08</v>
       </c>
       <c r="J294" s="5" t="n"/>
       <c r="L294" s="14" t="inlineStr">
@@ -58824,27 +58824,27 @@
       </c>
       <c r="M294" s="7" t="inlineStr">
         <is>
-          <t>Nora Kaspara Lindset</t>
+          <t>Margrethe Skei Tveten</t>
         </is>
       </c>
       <c r="N294" s="7" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="O294" s="17" t="inlineStr">
         <is>
-          <t>2,44,42</t>
+          <t>2,51,66</t>
         </is>
       </c>
       <c r="P294" s="7" t="n">
-        <v>427</v>
+        <v>368</v>
       </c>
       <c r="Q294" s="7" t="inlineStr">
         <is>
-          <t>Ranheim</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R294" s="16" t="n">
-        <v>29.01</v>
+        <v>3.05</v>
       </c>
       <c r="T294" s="5" t="n"/>
     </row>
@@ -58856,523 +58856,523 @@
       </c>
       <c r="C295" s="7" t="inlineStr">
         <is>
-          <t>Camilla Solberg Vethe</t>
+          <t>Ellen Kvalheim</t>
         </is>
       </c>
       <c r="D295" s="7" t="n">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="E295" s="17" t="inlineStr">
         <is>
-          <t>11,17,96</t>
+          <t>11,31,1</t>
         </is>
       </c>
       <c r="F295" s="7" t="n">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="G295" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H295" s="16" t="n">
-        <v>19.04</v>
+        <v>7.06</v>
       </c>
       <c r="J295" s="5" t="n"/>
       <c r="L295" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M295" s="7" t="inlineStr">
         <is>
-          <t>Ellen Kvalheim</t>
+          <t>Camilla Solberg Vethe</t>
         </is>
       </c>
       <c r="N295" s="7" t="n">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="O295" s="17" t="inlineStr">
         <is>
-          <t>5,27,7</t>
+          <t>11,17,96</t>
         </is>
       </c>
       <c r="P295" s="7" t="n">
-        <v>479</v>
+        <v>550</v>
       </c>
       <c r="Q295" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R295" s="16" t="n">
-        <v>16.08</v>
+        <v>19.04</v>
       </c>
       <c r="T295" s="5" t="n"/>
     </row>
     <row r="296" ht="13" customHeight="1">
       <c r="B296" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C296" s="7" t="inlineStr">
         <is>
-          <t>Julie Sofie Enga</t>
+          <t>Ellen Kvalheim</t>
         </is>
       </c>
       <c r="D296" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E296" s="15" t="n">
-        <v>1.43</v>
+        <v>1973</v>
+      </c>
+      <c r="E296" s="17" t="inlineStr">
+        <is>
+          <t>19,20,0</t>
+        </is>
       </c>
       <c r="F296" s="7" t="n">
-        <v>547</v>
+        <v>581</v>
       </c>
       <c r="G296" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H296" s="16" t="n">
-        <v>25.06</v>
+        <v>21.09</v>
       </c>
       <c r="J296" s="5" t="n"/>
       <c r="L296" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M296" s="7" t="inlineStr">
         <is>
-          <t>Ellen Kvalheim</t>
+          <t>Julie Sofie Enga</t>
         </is>
       </c>
       <c r="N296" s="7" t="n">
-        <v>1973</v>
-      </c>
-      <c r="O296" s="17" t="inlineStr">
-        <is>
-          <t>11,31,1</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="O296" s="15" t="n">
+        <v>1.43</v>
       </c>
       <c r="P296" s="7" t="n">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="Q296" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R296" s="16" t="n">
-        <v>7.06</v>
+        <v>25.06</v>
       </c>
       <c r="T296" s="5" t="n"/>
     </row>
     <row r="297" ht="13" customHeight="1">
       <c r="B297" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="C297" s="7" t="inlineStr">
         <is>
-          <t>Julie Sofie Enga</t>
+          <t>Elise Grong Ruud</t>
         </is>
       </c>
       <c r="D297" s="7" t="n">
-        <v>2009</v>
+        <v>1996</v>
       </c>
       <c r="E297" s="15" t="n">
-        <v>1.72</v>
+        <v>14.95</v>
       </c>
       <c r="F297" s="7" t="n">
-        <v>339</v>
+        <v>771</v>
       </c>
       <c r="G297" s="7" t="inlineStr">
         <is>
-          <t>Rjukan</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H297" s="16" t="n">
-        <v>2.09</v>
+        <v>8.07</v>
       </c>
       <c r="J297" s="5" t="n"/>
       <c r="L297" s="14" t="inlineStr">
         <is>
-          <t>100m hekk</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M297" s="7" t="inlineStr">
         <is>
-          <t>Elise Grong Ruud</t>
+          <t>Julie Sofie Enga</t>
         </is>
       </c>
       <c r="N297" s="7" t="n">
-        <v>1996</v>
+        <v>2009</v>
       </c>
       <c r="O297" s="15" t="n">
-        <v>14.95</v>
+        <v>1.72</v>
       </c>
       <c r="P297" s="7" t="n">
-        <v>771</v>
+        <v>339</v>
       </c>
       <c r="Q297" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Rjukan</t>
         </is>
       </c>
       <c r="R297" s="16" t="n">
-        <v>8.07</v>
+        <v>2.09</v>
       </c>
       <c r="T297" s="5" t="n"/>
     </row>
     <row r="298" ht="13" customHeight="1">
       <c r="B298" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C298" s="7" t="inlineStr">
         <is>
-          <t>Thea Emilie Karlsen</t>
+          <t>Julie Heiervang Johnsen</t>
         </is>
       </c>
       <c r="D298" s="7" t="n">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="E298" s="15" t="n">
-        <v>4.71</v>
+        <v>10.33</v>
       </c>
       <c r="F298" s="7" t="n">
-        <v>555</v>
+        <v>592</v>
       </c>
       <c r="G298" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H298" s="16" t="n">
-        <v>11.02</v>
+        <v>19.08</v>
       </c>
       <c r="J298" s="5" t="n"/>
       <c r="L298" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M298" s="7" t="inlineStr">
         <is>
-          <t>Julie Heiervang Johnsen</t>
+          <t>Thea Emilie Karlsen</t>
         </is>
       </c>
       <c r="N298" s="7" t="n">
-        <v>1996</v>
+        <v>2008</v>
       </c>
       <c r="O298" s="15" t="n">
-        <v>10.33</v>
+        <v>4.71</v>
       </c>
       <c r="P298" s="7" t="n">
-        <v>592</v>
+        <v>555</v>
       </c>
       <c r="Q298" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R298" s="16" t="n">
-        <v>19.08</v>
+        <v>11.02</v>
       </c>
       <c r="T298" s="5" t="n"/>
     </row>
     <row r="299" ht="13" customHeight="1">
       <c r="B299" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C299" s="7" t="inlineStr">
         <is>
-          <t>Julie Sofie Enga</t>
+          <t>Julie Heiervang Johnsen</t>
         </is>
       </c>
       <c r="D299" s="7" t="n">
-        <v>2009</v>
+        <v>1996</v>
       </c>
       <c r="E299" s="15" t="n">
-        <v>8.49</v>
+        <v>2.33</v>
       </c>
       <c r="F299" s="7" t="n">
-        <v>390</v>
+        <v>518</v>
       </c>
       <c r="G299" s="7" t="inlineStr">
         <is>
-          <t>Rjukan</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H299" s="16" t="n">
-        <v>3.09</v>
+        <v>30.08</v>
       </c>
       <c r="J299" s="5" t="n"/>
       <c r="L299" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M299" s="7" t="inlineStr">
         <is>
-          <t>Julie Heiervang Johnsen</t>
+          <t>Julie Sofie Enga</t>
         </is>
       </c>
       <c r="N299" s="7" t="n">
-        <v>1996</v>
+        <v>2009</v>
       </c>
       <c r="O299" s="15" t="n">
-        <v>2.33</v>
+        <v>8.49</v>
       </c>
       <c r="P299" s="7" t="n">
-        <v>518</v>
+        <v>390</v>
       </c>
       <c r="Q299" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Rjukan</t>
         </is>
       </c>
       <c r="R299" s="16" t="n">
-        <v>30.08</v>
+        <v>3.09</v>
       </c>
       <c r="T299" s="5" t="n"/>
     </row>
     <row r="300" ht="13" customHeight="1">
       <c r="B300" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C300" s="7" t="inlineStr">
         <is>
-          <t>Gabi Matilde Bertheussen</t>
+          <t>Mali Ingeborg Vollan Marstad</t>
         </is>
       </c>
       <c r="D300" s="7" t="n">
-        <v>2010</v>
+        <v>1997</v>
       </c>
       <c r="E300" s="15" t="n">
-        <v>1.1</v>
+        <v>11.26</v>
       </c>
       <c r="F300" s="7" t="n">
-        <v>427</v>
+        <v>673</v>
       </c>
       <c r="G300" s="7" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H300" s="16" t="n">
-        <v>31.01</v>
+        <v>3.06</v>
       </c>
       <c r="J300" s="5" t="n"/>
       <c r="L300" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M300" s="7" t="inlineStr">
         <is>
-          <t>Mali Ingeborg Vollan Marstad</t>
+          <t>Gabi Matilde Bertheussen</t>
         </is>
       </c>
       <c r="N300" s="7" t="n">
-        <v>1997</v>
+        <v>2010</v>
       </c>
       <c r="O300" s="15" t="n">
-        <v>11.26</v>
+        <v>1.1</v>
       </c>
       <c r="P300" s="7" t="n">
-        <v>673</v>
+        <v>427</v>
       </c>
       <c r="Q300" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="R300" s="16" t="n">
-        <v>3.06</v>
+        <v>31.01</v>
       </c>
       <c r="T300" s="5" t="n"/>
     </row>
     <row r="301" ht="13" customHeight="1">
       <c r="B301" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C301" s="7" t="inlineStr">
         <is>
-          <t>Gabi Matilde Bertheussen</t>
+          <t>Mali Ingeborg Vollan Marstad</t>
         </is>
       </c>
       <c r="D301" s="7" t="n">
-        <v>2010</v>
+        <v>1997</v>
       </c>
       <c r="E301" s="15" t="n">
-        <v>2.13</v>
+        <v>27.87</v>
       </c>
       <c r="F301" s="7" t="n">
-        <v>362</v>
+        <v>546</v>
       </c>
       <c r="G301" s="7" t="inlineStr">
         <is>
-          <t>Askim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H301" s="16" t="n">
-        <v>7.01</v>
+        <v>3.06</v>
       </c>
       <c r="J301" s="5" t="n"/>
       <c r="L301" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M301" s="7" t="inlineStr">
         <is>
-          <t>Mali Ingeborg Vollan Marstad</t>
+          <t>Gabi Matilde Bertheussen</t>
         </is>
       </c>
       <c r="N301" s="7" t="n">
-        <v>1997</v>
+        <v>2010</v>
       </c>
       <c r="O301" s="15" t="n">
-        <v>27.87</v>
+        <v>2.13</v>
       </c>
       <c r="P301" s="7" t="n">
-        <v>546</v>
+        <v>362</v>
       </c>
       <c r="Q301" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Askim</t>
         </is>
       </c>
       <c r="R301" s="16" t="n">
-        <v>3.06</v>
+        <v>7.01</v>
       </c>
       <c r="T301" s="5" t="n"/>
     </row>
     <row r="302" ht="13" customHeight="1">
       <c r="B302" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="C302" s="7" t="inlineStr">
         <is>
-          <t>Hannah Johannessen</t>
+          <t>Mali Ingeborg Vollan Marstad</t>
         </is>
       </c>
       <c r="D302" s="7" t="n">
-        <v>2006</v>
+        <v>1997</v>
       </c>
       <c r="E302" s="15" t="n">
-        <v>9.43</v>
+        <v>38.27</v>
       </c>
       <c r="F302" s="7" t="n">
-        <v>548</v>
+        <v>660</v>
       </c>
       <c r="G302" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H302" s="16" t="n">
-        <v>3.07</v>
+        <v>4.06</v>
       </c>
       <c r="J302" s="5" t="n"/>
       <c r="L302" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M302" s="7" t="inlineStr">
         <is>
-          <t>Mali Ingeborg Vollan Marstad</t>
+          <t>Hannah Johannessen</t>
         </is>
       </c>
       <c r="N302" s="7" t="n">
-        <v>1997</v>
+        <v>2006</v>
       </c>
       <c r="O302" s="15" t="n">
-        <v>38.27</v>
+        <v>9.43</v>
       </c>
       <c r="P302" s="7" t="n">
-        <v>660</v>
+        <v>548</v>
       </c>
       <c r="Q302" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R302" s="16" t="n">
-        <v>4.06</v>
+        <v>3.07</v>
       </c>
       <c r="T302" s="5" t="n"/>
     </row>
     <row r="303" ht="13" customHeight="1">
       <c r="B303" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C303" s="7" t="inlineStr">
         <is>
-          <t>Hannah Johannessen</t>
+          <t>Mali Ingeborg Vollan Marstad</t>
         </is>
       </c>
       <c r="D303" s="7" t="n">
-        <v>2006</v>
+        <v>1997</v>
       </c>
       <c r="E303" s="15" t="n">
-        <v>27.17</v>
+        <v>44.95</v>
       </c>
       <c r="F303" s="7" t="n">
-        <v>534</v>
+        <v>777</v>
       </c>
       <c r="G303" s="7" t="inlineStr">
         <is>
-          <t>Sarpsborg</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H303" s="16" t="n">
-        <v>17.09</v>
+        <v>3.06</v>
       </c>
       <c r="J303" s="5" t="n"/>
       <c r="L303" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M303" s="7" t="inlineStr">
         <is>
-          <t>Mali Ingeborg Vollan Marstad</t>
+          <t>Hannah Johannessen</t>
         </is>
       </c>
       <c r="N303" s="7" t="n">
-        <v>1997</v>
+        <v>2006</v>
       </c>
       <c r="O303" s="15" t="n">
-        <v>44.95</v>
+        <v>27.17</v>
       </c>
       <c r="P303" s="7" t="n">
-        <v>777</v>
+        <v>534</v>
       </c>
       <c r="Q303" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Sarpsborg</t>
         </is>
       </c>
       <c r="R303" s="16" t="n">
-        <v>3.06</v>
+        <v>17.09</v>
       </c>
       <c r="T303" s="5" t="n"/>
     </row>
@@ -59409,7 +59409,7 @@
         </is>
       </c>
       <c r="F305" s="20" t="n">
-        <v>6447</v>
+        <v>7581</v>
       </c>
       <c r="J305" s="5" t="n"/>
       <c r="L305" s="19" t="inlineStr">
@@ -59426,7 +59426,7 @@
         </is>
       </c>
       <c r="P305" s="20" t="n">
-        <v>7354</v>
+        <v>6447</v>
       </c>
       <c r="T305" s="5" t="n"/>
     </row>
@@ -59529,116 +59529,116 @@
     <row r="310" ht="13" customHeight="1">
       <c r="B310" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C310" s="7" t="inlineStr">
         <is>
-          <t>Thea Emilie Karlsen</t>
+          <t>Julie Heiervang Johnsen</t>
         </is>
       </c>
       <c r="D310" s="7" t="n">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="E310" s="15" t="n">
-        <v>8.300000000000001</v>
+        <v>44.16</v>
       </c>
       <c r="F310" s="7" t="n">
-        <v>646</v>
+        <v>765</v>
       </c>
       <c r="G310" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H310" s="16" t="n">
-        <v>11.02</v>
+        <v>7.07</v>
       </c>
       <c r="J310" s="5" t="n"/>
       <c r="L310" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M310" s="7" t="inlineStr">
         <is>
-          <t>Julie Heiervang Johnsen</t>
+          <t>Thea Emilie Karlsen</t>
         </is>
       </c>
       <c r="N310" s="7" t="n">
-        <v>1996</v>
+        <v>2008</v>
       </c>
       <c r="O310" s="15" t="n">
-        <v>44.16</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="P310" s="7" t="n">
-        <v>765</v>
+        <v>646</v>
       </c>
       <c r="Q310" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R310" s="16" t="n">
-        <v>7.07</v>
+        <v>11.02</v>
       </c>
       <c r="T310" s="5" t="n"/>
     </row>
     <row r="311" ht="13" customHeight="1">
       <c r="B311" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="C311" s="7" t="inlineStr">
         <is>
-          <t>Olivia Skovli Hermansen</t>
+          <t>Julie Heiervang Johnsen</t>
         </is>
       </c>
       <c r="D311" s="7" t="n">
-        <v>2009</v>
+        <v>1996</v>
       </c>
       <c r="E311" s="15" t="n">
-        <v>8.619999999999999</v>
+        <v>37.49</v>
       </c>
       <c r="F311" s="7" t="n">
-        <v>563</v>
+        <v>650</v>
       </c>
       <c r="G311" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H311" s="16" t="n">
-        <v>24.06</v>
+        <v>12.09</v>
       </c>
       <c r="J311" s="5" t="n"/>
       <c r="L311" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M311" s="7" t="inlineStr">
         <is>
-          <t>Julie Heiervang Johnsen</t>
+          <t>Olivia Skovli Hermansen</t>
         </is>
       </c>
       <c r="N311" s="7" t="n">
-        <v>1996</v>
+        <v>2009</v>
       </c>
       <c r="O311" s="15" t="n">
-        <v>37.49</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="P311" s="7" t="n">
-        <v>650</v>
+        <v>563</v>
       </c>
       <c r="Q311" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R311" s="16" t="n">
-        <v>12.09</v>
+        <v>24.06</v>
       </c>
       <c r="T311" s="5" t="n"/>
     </row>
@@ -59650,25 +59650,25 @@
       </c>
       <c r="C312" s="7" t="inlineStr">
         <is>
-          <t>Olivia Skovli Hermansen</t>
+          <t>Stine Grong Ruud</t>
         </is>
       </c>
       <c r="D312" s="7" t="n">
-        <v>2009</v>
+        <v>1994</v>
       </c>
       <c r="E312" s="15" t="n">
-        <v>13.75</v>
+        <v>13.13</v>
       </c>
       <c r="F312" s="7" t="n">
-        <v>548</v>
+        <v>648</v>
       </c>
       <c r="G312" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H312" s="16" t="n">
-        <v>3.05</v>
+        <v>18.06</v>
       </c>
       <c r="J312" s="5" t="n"/>
       <c r="L312" s="14" t="inlineStr">
@@ -59678,407 +59678,409 @@
       </c>
       <c r="M312" s="7" t="inlineStr">
         <is>
-          <t>Stine Grong Ruud</t>
+          <t>Olivia Skovli Hermansen</t>
         </is>
       </c>
       <c r="N312" s="7" t="n">
-        <v>1994</v>
+        <v>2009</v>
       </c>
       <c r="O312" s="15" t="n">
-        <v>13.13</v>
+        <v>13.75</v>
       </c>
       <c r="P312" s="7" t="n">
-        <v>648</v>
+        <v>548</v>
       </c>
       <c r="Q312" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R312" s="16" t="n">
-        <v>18.06</v>
+        <v>3.05</v>
       </c>
       <c r="T312" s="5" t="n"/>
     </row>
     <row r="313" ht="13" customHeight="1">
       <c r="B313" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C313" s="7" t="inlineStr">
         <is>
-          <t>Aili Trømborg Nordrum</t>
+          <t>Julie Heiervang Johnsen</t>
         </is>
       </c>
       <c r="D313" s="7" t="n">
-        <v>2010</v>
+        <v>1996</v>
       </c>
       <c r="E313" s="15" t="n">
-        <v>1.4</v>
+        <v>9.41</v>
       </c>
       <c r="F313" s="7" t="n">
-        <v>518</v>
+        <v>546</v>
       </c>
       <c r="G313" s="7" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H313" s="16" t="n">
-        <v>5.02</v>
+        <v>22.08</v>
       </c>
       <c r="J313" s="5" t="n"/>
       <c r="L313" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M313" s="7" t="inlineStr">
         <is>
-          <t>Julie Heiervang Johnsen</t>
+          <t>Aili Trømborg Nordrum</t>
         </is>
       </c>
       <c r="N313" s="7" t="n">
-        <v>1996</v>
+        <v>2010</v>
       </c>
       <c r="O313" s="15" t="n">
-        <v>9.41</v>
+        <v>1.4</v>
       </c>
       <c r="P313" s="7" t="n">
-        <v>546</v>
+        <v>518</v>
       </c>
       <c r="Q313" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="R313" s="16" t="n">
-        <v>22.08</v>
+        <v>5.02</v>
       </c>
       <c r="T313" s="5" t="n"/>
     </row>
     <row r="314" ht="13" customHeight="1">
       <c r="B314" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C314" s="7" t="inlineStr">
         <is>
-          <t>Olivia Skovli Hermansen</t>
+          <t>Ingeborg Lillemo Kippe</t>
         </is>
       </c>
       <c r="D314" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="E314" s="15" t="n">
-        <v>28.98</v>
+        <v>9.44</v>
       </c>
       <c r="F314" s="7" t="n">
-        <v>514</v>
+        <v>379</v>
       </c>
       <c r="G314" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H314" s="16" t="n">
-        <v>27.07</v>
+        <v>30.08</v>
       </c>
       <c r="J314" s="5" t="n"/>
       <c r="L314" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M314" s="7" t="inlineStr">
         <is>
-          <t>Ingeborg Lillemo Kippe</t>
+          <t>Olivia Skovli Hermansen</t>
         </is>
       </c>
       <c r="N314" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="O314" s="15" t="n">
-        <v>9.44</v>
+        <v>28.98</v>
       </c>
       <c r="P314" s="7" t="n">
-        <v>379</v>
+        <v>514</v>
       </c>
       <c r="Q314" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R314" s="16" t="n">
-        <v>30.08</v>
+        <v>27.07</v>
       </c>
       <c r="T314" s="5" t="n"/>
     </row>
     <row r="315" ht="13" customHeight="1">
       <c r="B315" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C315" s="7" t="inlineStr">
         <is>
-          <t>Gabi Matilde Bertheussen</t>
+          <t>Nora Kaspara Lindset</t>
         </is>
       </c>
       <c r="D315" s="7" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E315" s="15" t="n">
-        <v>8.85</v>
+        <v>14.95</v>
       </c>
       <c r="F315" s="7" t="n">
-        <v>507</v>
+        <v>378</v>
       </c>
       <c r="G315" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H315" s="16" t="n">
-        <v>14.01</v>
+        <v>10.06</v>
       </c>
       <c r="J315" s="5" t="n"/>
       <c r="L315" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M315" s="7" t="inlineStr">
         <is>
-          <t>Nora Kaspara Lindset</t>
+          <t>Gabi Matilde Bertheussen</t>
         </is>
       </c>
       <c r="N315" s="7" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="O315" s="15" t="n">
-        <v>14.95</v>
+        <v>8.85</v>
       </c>
       <c r="P315" s="7" t="n">
-        <v>378</v>
+        <v>507</v>
       </c>
       <c r="Q315" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R315" s="16" t="n">
-        <v>10.06</v>
+        <v>14.01</v>
       </c>
       <c r="T315" s="5" t="n"/>
     </row>
     <row r="316" ht="13" customHeight="1">
       <c r="B316" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C316" s="7" t="inlineStr">
         <is>
-          <t>Camilla Thustrup Holm</t>
+          <t>Ingeborg Lillemo Kippe</t>
         </is>
       </c>
       <c r="D316" s="7" t="n">
-        <v>1981</v>
+        <v>2009</v>
       </c>
       <c r="E316" s="17" t="inlineStr">
         <is>
-          <t>11,38,27</t>
+          <t>1,13,76</t>
         </is>
       </c>
       <c r="F316" s="7" t="n">
-        <v>507</v>
+        <v>354</v>
       </c>
       <c r="G316" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H316" s="16" t="n">
-        <v>19.04</v>
+        <v>30.08</v>
       </c>
       <c r="J316" s="5" t="n"/>
       <c r="L316" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M316" s="7" t="inlineStr">
         <is>
-          <t>Nora Kaspara Lindset</t>
+          <t>Camilla Thustrup Holm</t>
         </is>
       </c>
       <c r="N316" s="7" t="n">
-        <v>2009</v>
+        <v>1981</v>
       </c>
       <c r="O316" s="17" t="inlineStr">
         <is>
-          <t>1,14,02</t>
+          <t>11,38,27</t>
         </is>
       </c>
       <c r="P316" s="7" t="n">
-        <v>349</v>
+        <v>507</v>
       </c>
       <c r="Q316" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R316" s="16" t="n">
-        <v>30.08</v>
+        <v>19.04</v>
       </c>
       <c r="T316" s="5" t="n"/>
     </row>
     <row r="317" ht="13" customHeight="1">
       <c r="B317" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C317" s="7" t="inlineStr">
         <is>
-          <t>Olivia Skovli Hermansen</t>
+          <t>Nora Kaspara Lindset</t>
         </is>
       </c>
       <c r="D317" s="7" t="n">
         <v>2009</v>
       </c>
-      <c r="E317" s="15" t="n">
-        <v>1.37</v>
+      <c r="E317" s="17" t="inlineStr">
+        <is>
+          <t>1,14,02</t>
+        </is>
       </c>
       <c r="F317" s="7" t="n">
-        <v>490</v>
+        <v>349</v>
       </c>
       <c r="G317" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H317" s="16" t="n">
-        <v>21.05</v>
+        <v>30.08</v>
       </c>
       <c r="J317" s="5" t="n"/>
       <c r="L317" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M317" s="7" t="inlineStr">
         <is>
-          <t>Nora Kaspara Lindset</t>
+          <t>Olivia Skovli Hermansen</t>
         </is>
       </c>
       <c r="N317" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="O317" s="15" t="n">
-        <v>32.32</v>
+        <v>1.37</v>
       </c>
       <c r="P317" s="7" t="n">
-        <v>325</v>
+        <v>490</v>
       </c>
       <c r="Q317" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R317" s="16" t="n">
-        <v>12.09</v>
+        <v>21.05</v>
       </c>
       <c r="T317" s="5" t="n"/>
     </row>
     <row r="318" ht="13" customHeight="1">
       <c r="B318" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C318" s="7" t="inlineStr">
         <is>
-          <t>Olivia Skovli Hermansen</t>
+          <t>Nora Kaspara Lindset</t>
         </is>
       </c>
       <c r="D318" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="E318" s="15" t="n">
-        <v>4.38</v>
+        <v>32.32</v>
       </c>
       <c r="F318" s="7" t="n">
-        <v>480</v>
+        <v>325</v>
       </c>
       <c r="G318" s="7" t="inlineStr">
         <is>
-          <t>Sarpsborg</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H318" s="16" t="n">
-        <v>16.09</v>
+        <v>12.09</v>
       </c>
       <c r="J318" s="5" t="n"/>
       <c r="L318" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M318" s="7" t="inlineStr">
         <is>
-          <t>Ingeborg Lillemo Kippe</t>
+          <t>Olivia Skovli Hermansen</t>
         </is>
       </c>
       <c r="N318" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="O318" s="15" t="n">
-        <v>2.08</v>
+        <v>4.38</v>
       </c>
       <c r="P318" s="7" t="n">
-        <v>319</v>
+        <v>480</v>
       </c>
       <c r="Q318" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Sarpsborg</t>
         </is>
       </c>
       <c r="R318" s="16" t="n">
-        <v>30.08</v>
+        <v>16.09</v>
       </c>
       <c r="T318" s="5" t="n"/>
     </row>
     <row r="319" ht="13" customHeight="1">
       <c r="B319" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C319" s="7" t="inlineStr">
         <is>
-          <t>Dagny Marie Grytdal Matheson</t>
+          <t>Ingeborg Lillemo Kippe</t>
         </is>
       </c>
       <c r="D319" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="E319" s="15" t="n">
-        <v>9.039999999999999</v>
+        <v>2.08</v>
       </c>
       <c r="F319" s="7" t="n">
-        <v>464</v>
+        <v>319</v>
       </c>
       <c r="G319" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H319" s="16" t="n">
-        <v>20.05</v>
+        <v>30.08</v>
       </c>
       <c r="J319" s="5" t="n"/>
       <c r="L319" s="14" t="inlineStr">
@@ -60088,124 +60090,144 @@
       </c>
       <c r="M319" s="7" t="inlineStr">
         <is>
-          <t>Hanna Lillemo Kippe</t>
+          <t>Dagny Marie Grytdal Matheson</t>
         </is>
       </c>
       <c r="N319" s="7" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="O319" s="15" t="n">
-        <v>10.19</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="P319" s="7" t="n">
-        <v>236</v>
+        <v>464</v>
       </c>
       <c r="Q319" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R319" s="16" t="n">
-        <v>30.08</v>
+        <v>20.05</v>
       </c>
       <c r="T319" s="5" t="n"/>
     </row>
     <row r="320" ht="13" customHeight="1">
       <c r="B320" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C320" s="7" t="inlineStr">
         <is>
-          <t>Veronica Willassen Schmelck</t>
+          <t>Hanna Lillemo Kippe</t>
         </is>
       </c>
       <c r="D320" s="7" t="n">
-        <v>1986</v>
-      </c>
-      <c r="E320" s="17" t="inlineStr">
-        <is>
-          <t>12,00,90</t>
-        </is>
+        <v>2011</v>
+      </c>
+      <c r="E320" s="15" t="n">
+        <v>10.19</v>
       </c>
       <c r="F320" s="7" t="n">
-        <v>462</v>
+        <v>236</v>
       </c>
       <c r="G320" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H320" s="16" t="n">
-        <v>19.04</v>
+        <v>30.08</v>
       </c>
       <c r="J320" s="5" t="n"/>
       <c r="L320" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M320" s="7" t="inlineStr">
         <is>
-          <t>Hanna Lillemo Kippe</t>
+          <t>Veronica Willassen Schmelck</t>
         </is>
       </c>
       <c r="N320" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="O320" s="15" t="n">
-        <v>1.88</v>
+        <v>1986</v>
+      </c>
+      <c r="O320" s="17" t="inlineStr">
+        <is>
+          <t>12,00,90</t>
+        </is>
       </c>
       <c r="P320" s="7" t="n">
-        <v>122</v>
+        <v>462</v>
       </c>
       <c r="Q320" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R320" s="16" t="n">
-        <v>30.08</v>
+        <v>19.04</v>
       </c>
       <c r="T320" s="5" t="n"/>
     </row>
     <row r="321" ht="13" customHeight="1">
       <c r="B321" s="14" t="inlineStr">
         <is>
+          <t>Lengde u.t</t>
+        </is>
+      </c>
+      <c r="C321" s="7" t="inlineStr">
+        <is>
+          <t>Hanna Lillemo Kippe</t>
+        </is>
+      </c>
+      <c r="D321" s="7" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E321" s="15" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F321" s="7" t="n">
+        <v>122</v>
+      </c>
+      <c r="G321" s="7" t="inlineStr">
+        <is>
+          <t>Stjørdal</t>
+        </is>
+      </c>
+      <c r="H321" s="16" t="n">
+        <v>30.08</v>
+      </c>
+      <c r="J321" s="5" t="n"/>
+      <c r="L321" s="14" t="inlineStr">
+        <is>
           <t>Høyde</t>
         </is>
       </c>
-      <c r="C321" s="7" t="inlineStr">
+      <c r="M321" s="7" t="inlineStr">
         <is>
           <t>Dagny Marie Grytdal Matheson</t>
         </is>
       </c>
-      <c r="D321" s="7" t="n">
+      <c r="N321" s="7" t="n">
         <v>2009</v>
       </c>
-      <c r="E321" s="15" t="n">
+      <c r="O321" s="15" t="n">
         <v>1.34</v>
       </c>
-      <c r="F321" s="7" t="n">
+      <c r="P321" s="7" t="n">
         <v>460</v>
       </c>
-      <c r="G321" s="7" t="inlineStr">
+      <c r="Q321" s="7" t="inlineStr">
         <is>
           <t>Moss</t>
         </is>
       </c>
-      <c r="H321" s="16" t="n">
+      <c r="R321" s="16" t="n">
         <v>21.05</v>
       </c>
-      <c r="J321" s="5" t="n"/>
-      <c r="L321" s="14" t="n"/>
-      <c r="M321" s="7" t="n"/>
-      <c r="N321" s="7" t="n"/>
-      <c r="O321" s="7" t="n"/>
-      <c r="P321" s="7" t="n"/>
-      <c r="Q321" s="7" t="n"/>
-      <c r="R321" s="21" t="n"/>
       <c r="T321" s="5" t="n"/>
     </row>
     <row r="322" ht="13" customHeight="1">
@@ -60241,7 +60263,7 @@
         </is>
       </c>
       <c r="F323" s="20" t="n">
-        <v>6159</v>
+        <v>5071</v>
       </c>
       <c r="J323" s="5" t="n"/>
       <c r="L323" s="19" t="inlineStr">
@@ -60250,7 +60272,7 @@
         </is>
       </c>
       <c r="M323" s="20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O323" s="19" t="inlineStr">
         <is>
@@ -60258,7 +60280,7 @@
         </is>
       </c>
       <c r="P323" s="20" t="n">
-        <v>4717</v>
+        <v>6159</v>
       </c>
       <c r="T323" s="5" t="n"/>
     </row>
@@ -60281,7 +60303,7 @@
         </is>
       </c>
       <c r="F325" s="20" t="n">
-        <v>12606</v>
+        <v>12652</v>
       </c>
       <c r="J325" s="5" t="n"/>
       <c r="L325" s="19" t="inlineStr">
@@ -60290,7 +60312,7 @@
         </is>
       </c>
       <c r="M325" s="20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O325" s="19" t="inlineStr">
         <is>
@@ -60298,7 +60320,7 @@
         </is>
       </c>
       <c r="P325" s="20" t="n">
-        <v>12071</v>
+        <v>12606</v>
       </c>
       <c r="T325" s="5" t="n"/>
     </row>
@@ -60313,7 +60335,7 @@
         </is>
       </c>
       <c r="C327" s="20" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J327" s="5" t="n"/>
       <c r="L327" s="19" t="inlineStr">
@@ -60322,7 +60344,7 @@
         </is>
       </c>
       <c r="M327" s="20" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="T327" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2023 1-2. div.xlsx
+++ b/output/Lagserien 2023 1-2. div.xlsx
@@ -16937,7 +16937,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>16009</v>
+        <v>16036</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -17073,11 +17073,11 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>(19/7)</t>
+          <t>(19/8)</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>14769</v>
+        <v>14787</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -23524,19 +23524,19 @@
       </c>
       <c r="O155" s="17" t="inlineStr">
         <is>
-          <t>4,08,40</t>
+          <t>4,05,24</t>
         </is>
       </c>
       <c r="P155" s="7" t="n">
-        <v>685</v>
+        <v>712</v>
       </c>
       <c r="Q155" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Os</t>
         </is>
       </c>
       <c r="R155" s="16" t="n">
-        <v>30.08</v>
+        <v>24.09</v>
       </c>
       <c r="T155" s="5" t="n"/>
     </row>
@@ -23960,7 +23960,7 @@
         </is>
       </c>
       <c r="P164" s="20" t="n">
-        <v>7826</v>
+        <v>7853</v>
       </c>
       <c r="T164" s="5" t="n"/>
     </row>
@@ -24848,7 +24848,7 @@
         </is>
       </c>
       <c r="P184" s="20" t="n">
-        <v>16009</v>
+        <v>16036</v>
       </c>
       <c r="T184" s="5" t="n"/>
     </row>
@@ -29184,27 +29184,27 @@
       </c>
       <c r="C297" s="7" t="inlineStr">
         <is>
-          <t>Skjalg Kongssund</t>
+          <t>Erlend Brandsnes</t>
         </is>
       </c>
       <c r="D297" s="7" t="n">
-        <v>2006</v>
+        <v>1979</v>
       </c>
       <c r="E297" s="17" t="inlineStr">
         <is>
-          <t>10,20,25</t>
+          <t>10,13,73</t>
         </is>
       </c>
       <c r="F297" s="7" t="n">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="G297" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="H297" s="16" t="n">
-        <v>8.09</v>
+        <v>12.09</v>
       </c>
       <c r="J297" s="5" t="n"/>
       <c r="L297" s="14" t="inlineStr">
@@ -29521,7 +29521,7 @@
         </is>
       </c>
       <c r="F305" s="20" t="n">
-        <v>7716</v>
+        <v>7734</v>
       </c>
       <c r="J305" s="5" t="n"/>
       <c r="L305" s="19" t="inlineStr">
@@ -30283,7 +30283,7 @@
         </is>
       </c>
       <c r="F325" s="20" t="n">
-        <v>14769</v>
+        <v>14787</v>
       </c>
       <c r="J325" s="5" t="n"/>
       <c r="L325" s="19" t="inlineStr">
@@ -30315,7 +30315,7 @@
         </is>
       </c>
       <c r="C327" s="20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J327" s="5" t="n"/>
       <c r="L327" s="19" t="inlineStr">
@@ -46621,7 +46621,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>14175</v>
+        <v>14256</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
@@ -55793,7 +55793,7 @@
     <row r="218" ht="13" customHeight="1">
       <c r="B218" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C218" s="7" t="inlineStr">
@@ -55805,18 +55805,18 @@
         <v>2009</v>
       </c>
       <c r="E218" s="15" t="n">
-        <v>10.18</v>
+        <v>4.94</v>
       </c>
       <c r="F218" s="7" t="n">
-        <v>577</v>
+        <v>605</v>
       </c>
       <c r="G218" s="7" t="inlineStr">
         <is>
-          <t>Byrkjelo</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="H218" s="16" t="n">
-        <v>3.09</v>
+        <v>26.09</v>
       </c>
       <c r="J218" s="5" t="n"/>
       <c r="L218" s="14" t="inlineStr">
@@ -55851,30 +55851,30 @@
     <row r="219" ht="13" customHeight="1">
       <c r="B219" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C219" s="7" t="inlineStr">
         <is>
-          <t>Embla Njerve</t>
+          <t>Helle Møller-Sivertsen</t>
         </is>
       </c>
       <c r="D219" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E219" s="15" t="n">
-        <v>4.8</v>
+        <v>10.18</v>
       </c>
       <c r="F219" s="7" t="n">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="G219" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Byrkjelo</t>
         </is>
       </c>
       <c r="H219" s="16" t="n">
-        <v>22.01</v>
+        <v>3.09</v>
       </c>
       <c r="J219" s="5" t="n"/>
       <c r="L219" s="14" t="inlineStr">
@@ -55909,7 +55909,7 @@
     <row r="220" ht="13" customHeight="1">
       <c r="B220" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C220" s="7" t="inlineStr">
@@ -55921,10 +55921,10 @@
         <v>2007</v>
       </c>
       <c r="E220" s="15" t="n">
-        <v>8.69</v>
+        <v>4.8</v>
       </c>
       <c r="F220" s="7" t="n">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="G220" s="7" t="inlineStr">
         <is>
@@ -55967,30 +55967,30 @@
     <row r="221" ht="13" customHeight="1">
       <c r="B221" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C221" s="7" t="inlineStr">
         <is>
-          <t>Helle Møller-Sivertsen</t>
+          <t>Embla Njerve</t>
         </is>
       </c>
       <c r="D221" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E221" s="15" t="n">
-        <v>4.57</v>
+        <v>8.69</v>
       </c>
       <c r="F221" s="7" t="n">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="G221" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H221" s="16" t="n">
-        <v>4.02</v>
+        <v>22.01</v>
       </c>
       <c r="J221" s="5" t="n"/>
       <c r="L221" s="14" t="inlineStr">
@@ -56403,7 +56403,7 @@
         </is>
       </c>
       <c r="F229" s="20" t="n">
-        <v>6322</v>
+        <v>6403</v>
       </c>
       <c r="J229" s="5" t="n"/>
       <c r="L229" s="19" t="inlineStr">
@@ -56443,7 +56443,7 @@
         </is>
       </c>
       <c r="F231" s="20" t="n">
-        <v>14175</v>
+        <v>14256</v>
       </c>
       <c r="J231" s="5" t="n"/>
       <c r="L231" s="19" t="inlineStr">

--- a/output/Lagserien 2023 1-2. div.xlsx
+++ b/output/Lagserien 2023 1-2. div.xlsx
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>24141</v>
+        <v>24166</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>22356</v>
+        <v>22417</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -6544,18 +6544,18 @@
         <v>2004</v>
       </c>
       <c r="O127" s="15" t="n">
-        <v>51.3</v>
+        <v>53.25</v>
       </c>
       <c r="P127" s="7" t="n">
-        <v>769</v>
+        <v>794</v>
       </c>
       <c r="Q127" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Gloppen</t>
         </is>
       </c>
       <c r="R127" s="16" t="n">
-        <v>7.07</v>
+        <v>1.1</v>
       </c>
       <c r="T127" s="5" t="n"/>
     </row>
@@ -6609,7 +6609,7 @@
         </is>
       </c>
       <c r="P129" s="20" t="n">
-        <v>12026</v>
+        <v>12051</v>
       </c>
       <c r="T129" s="5" t="n"/>
     </row>
@@ -7675,7 +7675,7 @@
         </is>
       </c>
       <c r="P152" s="20" t="n">
-        <v>24141</v>
+        <v>24166</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
@@ -10736,18 +10736,18 @@
         <v>2005</v>
       </c>
       <c r="O226" s="15" t="n">
-        <v>5.85</v>
+        <v>6.12</v>
       </c>
       <c r="P226" s="7" t="n">
-        <v>572</v>
+        <v>633</v>
       </c>
       <c r="Q226" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Egersund</t>
         </is>
       </c>
       <c r="R226" s="16" t="n">
-        <v>17.01</v>
+        <v>30.09</v>
       </c>
       <c r="T226" s="5" t="n"/>
     </row>
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="P233" s="20" t="n">
-        <v>11736</v>
+        <v>11797</v>
       </c>
       <c r="T233" s="5" t="n"/>
     </row>
@@ -12155,7 +12155,7 @@
         </is>
       </c>
       <c r="P256" s="20" t="n">
-        <v>22356</v>
+        <v>22417</v>
       </c>
       <c r="T256" s="5" t="n"/>
     </row>
@@ -16760,25 +16760,25 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>IL Sandvin</t>
+          <t>Kristiansands IF Friidrett</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>(25/9)</t>
+          <t>(25/10)</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>17558</v>
+        <v>17577</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>(8)</t>
+          <t>(1/3d)</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Agder</t>
         </is>
       </c>
     </row>
@@ -16788,12 +16788,12 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Haugesund IL</t>
+          <t>IL Sandvin</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>(25/14)</t>
+          <t>(25/9)</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
@@ -16801,12 +16801,12 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>(6)</t>
+          <t>(8)</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Buskerud</t>
         </is>
       </c>
     </row>
@@ -16816,25 +16816,25 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Kristiansands IF Friidrett</t>
+          <t>Haugesund IL</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>(25/10)</t>
+          <t>(25/14)</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>17536</v>
+        <v>17558</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>(1/3d)</t>
+          <t>(6)</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Rogaland</t>
         </is>
       </c>
     </row>
@@ -17194,7 +17194,7 @@
       </c>
       <c r="M2" s="7" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Agder</t>
         </is>
       </c>
       <c r="P2" s="8" t="n">
@@ -17221,7 +17221,7 @@
       </c>
       <c r="M3" s="7" t="inlineStr">
         <is>
-          <t>IL Sandvin</t>
+          <t>Kristiansands IF Friidrett</t>
         </is>
       </c>
       <c r="T3" s="5" t="n"/>
@@ -17378,17 +17378,17 @@
       </c>
       <c r="M9" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Johannes Steinsland Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="N9" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="O9" s="15" t="n">
-        <v>6.96</v>
+        <v>7.18</v>
       </c>
       <c r="P9" s="7" t="n">
-        <v>882</v>
+        <v>785</v>
       </c>
       <c r="Q9" s="7" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="R9" s="16" t="n">
-        <v>18.02</v>
+        <v>11.02</v>
       </c>
       <c r="T9" s="5" t="n"/>
     </row>
@@ -17436,17 +17436,17 @@
       </c>
       <c r="M10" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Tobias Dybos Larsson</t>
         </is>
       </c>
       <c r="N10" s="7" t="n">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="O10" s="15" t="n">
-        <v>10.67</v>
+        <v>11.11</v>
       </c>
       <c r="P10" s="7" t="n">
-        <v>929</v>
+        <v>814</v>
       </c>
       <c r="Q10" s="7" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         </is>
       </c>
       <c r="R10" s="16" t="n">
-        <v>13.08</v>
+        <v>6.07</v>
       </c>
       <c r="T10" s="5" t="n"/>
     </row>
@@ -17494,25 +17494,25 @@
       </c>
       <c r="M11" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Johannes Steinsland Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="N11" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="O11" s="15" t="n">
-        <v>21.71</v>
+        <v>22.61</v>
       </c>
       <c r="P11" s="7" t="n">
-        <v>895</v>
+        <v>791</v>
       </c>
       <c r="Q11" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R11" s="16" t="n">
-        <v>10.09</v>
+        <v>16.06</v>
       </c>
       <c r="T11" s="5" t="n"/>
     </row>
@@ -17552,25 +17552,25 @@
       </c>
       <c r="M12" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Snorre Cornelius Sund</t>
         </is>
       </c>
       <c r="N12" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O12" s="15" t="n">
-        <v>51.39</v>
+        <v>54.03</v>
       </c>
       <c r="P12" s="7" t="n">
-        <v>716</v>
+        <v>602</v>
       </c>
       <c r="Q12" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R12" s="16" t="n">
-        <v>20.05</v>
+        <v>18.06</v>
       </c>
       <c r="T12" s="5" t="n"/>
     </row>
@@ -17612,27 +17612,27 @@
       </c>
       <c r="M13" s="7" t="inlineStr">
         <is>
-          <t>Hans Øyvind Sundve</t>
+          <t>Sigurd Tveit</t>
         </is>
       </c>
       <c r="N13" s="7" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="O13" s="17" t="inlineStr">
         <is>
-          <t>2,10,52</t>
+          <t>1,49,94</t>
         </is>
       </c>
       <c r="P13" s="7" t="n">
-        <v>517</v>
+        <v>918</v>
       </c>
       <c r="Q13" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Chengdu/CHN</t>
         </is>
       </c>
       <c r="R13" s="16" t="n">
-        <v>9.09</v>
+        <v>4.08</v>
       </c>
       <c r="T13" s="5" t="n"/>
     </row>
@@ -17674,27 +17674,27 @@
       </c>
       <c r="M14" s="7" t="inlineStr">
         <is>
-          <t>Hans Øyvind Sundve</t>
+          <t>Sigurd Tveit</t>
         </is>
       </c>
       <c r="N14" s="7" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="O14" s="17" t="inlineStr">
         <is>
-          <t>4,36,74</t>
+          <t>3,38,29</t>
         </is>
       </c>
       <c r="P14" s="7" t="n">
-        <v>483</v>
+        <v>1009</v>
       </c>
       <c r="Q14" s="7" t="inlineStr">
         <is>
-          <t>Sande</t>
+          <t>Berlin/GER</t>
         </is>
       </c>
       <c r="R14" s="16" t="n">
-        <v>16.09</v>
+        <v>3.09</v>
       </c>
       <c r="T14" s="5" t="n"/>
     </row>
@@ -17731,22 +17731,24 @@
       <c r="J15" s="5" t="n"/>
       <c r="L15" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M15" s="7" t="inlineStr">
         <is>
-          <t>Marcus Valentin Giörtz Mondoka</t>
+          <t>Martin Ukkelberg Sløgedal</t>
         </is>
       </c>
       <c r="N15" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O15" s="15" t="n">
-        <v>1.9</v>
+        <v>2005</v>
+      </c>
+      <c r="O15" s="17" t="inlineStr">
+        <is>
+          <t>8,52,86</t>
+        </is>
       </c>
       <c r="P15" s="7" t="n">
-        <v>738</v>
+        <v>716</v>
       </c>
       <c r="Q15" s="7" t="inlineStr">
         <is>
@@ -17791,30 +17793,32 @@
       <c r="J16" s="5" t="n"/>
       <c r="L16" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M16" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Martin Ukkelberg Sløgedal</t>
         </is>
       </c>
       <c r="N16" s="7" t="n">
         <v>2005</v>
       </c>
-      <c r="O16" s="15" t="n">
-        <v>4.51</v>
+      <c r="O16" s="17" t="inlineStr">
+        <is>
+          <t>15,24,41</t>
+        </is>
       </c>
       <c r="P16" s="7" t="n">
-        <v>816</v>
+        <v>719</v>
       </c>
       <c r="Q16" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R16" s="16" t="n">
-        <v>26.08</v>
+        <v>6.07</v>
       </c>
       <c r="T16" s="5" t="n"/>
     </row>
@@ -17851,30 +17855,32 @@
       <c r="J17" s="5" t="n"/>
       <c r="L17" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M17" s="7" t="inlineStr">
         <is>
-          <t>Marcus Valentin Giörtz Mondoka</t>
+          <t>Martin Ukkelberg Sløgedal</t>
         </is>
       </c>
       <c r="N17" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O17" s="15" t="n">
-        <v>6.02</v>
+        <v>2005</v>
+      </c>
+      <c r="O17" s="17" t="inlineStr">
+        <is>
+          <t>31,52,87</t>
+        </is>
       </c>
       <c r="P17" s="7" t="n">
-        <v>611</v>
+        <v>745</v>
       </c>
       <c r="Q17" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R17" s="16" t="n">
-        <v>16.06</v>
+        <v>3.06</v>
       </c>
       <c r="T17" s="5" t="n"/>
     </row>
@@ -17909,30 +17915,30 @@
       <c r="J18" s="5" t="n"/>
       <c r="L18" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M18" s="7" t="inlineStr">
         <is>
-          <t>Kim Naasen</t>
+          <t>Johannes Steinsland Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="N18" s="7" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="O18" s="15" t="n">
-        <v>12.06</v>
+        <v>6.4</v>
       </c>
       <c r="P18" s="7" t="n">
-        <v>566</v>
+        <v>696</v>
       </c>
       <c r="Q18" s="7" t="inlineStr">
         <is>
-          <t>Mesa/AZ/USA</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R18" s="16" t="n">
-        <v>14.04</v>
+        <v>19.02</v>
       </c>
       <c r="T18" s="5" t="n"/>
     </row>
@@ -17972,25 +17978,25 @@
       </c>
       <c r="M19" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Johannes Steinsland Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="N19" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="O19" s="15" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="P19" s="7" t="n">
-        <v>503</v>
+        <v>561</v>
       </c>
       <c r="Q19" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R19" s="16" t="n">
-        <v>13.04</v>
+        <v>13.01</v>
       </c>
       <c r="T19" s="5" t="n"/>
     </row>
@@ -18025,30 +18031,30 @@
       <c r="J20" s="5" t="n"/>
       <c r="L20" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M20" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Åsmund Frøyen</t>
         </is>
       </c>
       <c r="N20" s="7" t="n">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="O20" s="15" t="n">
-        <v>2.96</v>
+        <v>33.23</v>
       </c>
       <c r="P20" s="7" t="n">
-        <v>650</v>
+        <v>551</v>
       </c>
       <c r="Q20" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Arendal</t>
         </is>
       </c>
       <c r="R20" s="16" t="n">
-        <v>19.02</v>
+        <v>19.08</v>
       </c>
       <c r="T20" s="5" t="n"/>
     </row>
@@ -18088,25 +18094,25 @@
       </c>
       <c r="M21" s="7" t="inlineStr">
         <is>
-          <t>Tobias Kalmo Thorbjørnsen</t>
+          <t>Daniel Thrana</t>
         </is>
       </c>
       <c r="N21" s="7" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="O21" s="15" t="n">
-        <v>42.49</v>
+        <v>78.8</v>
       </c>
       <c r="P21" s="7" t="n">
-        <v>522</v>
+        <v>1023</v>
       </c>
       <c r="Q21" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Haderslev/DEN</t>
         </is>
       </c>
       <c r="R21" s="16" t="n">
-        <v>6.05</v>
+        <v>3.06</v>
       </c>
       <c r="T21" s="5" t="n"/>
     </row>
@@ -18160,7 +18166,7 @@
         </is>
       </c>
       <c r="P23" s="20" t="n">
-        <v>8828</v>
+        <v>9930</v>
       </c>
       <c r="T23" s="5" t="n"/>
     </row>
@@ -18291,30 +18297,30 @@
       <c r="J28" s="5" t="n"/>
       <c r="L28" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M28" s="7" t="inlineStr">
         <is>
-          <t>Oliver Tomala</t>
+          <t>Johannes Steinsland Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="N28" s="7" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="O28" s="15" t="n">
-        <v>22.41</v>
+        <v>11.18</v>
       </c>
       <c r="P28" s="7" t="n">
-        <v>813</v>
+        <v>796</v>
       </c>
       <c r="Q28" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R28" s="16" t="n">
-        <v>10.09</v>
+        <v>6.07</v>
       </c>
       <c r="T28" s="5" t="n"/>
     </row>
@@ -18349,30 +18355,30 @@
       <c r="J29" s="5" t="n"/>
       <c r="L29" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M29" s="7" t="inlineStr">
         <is>
-          <t>Oliver Tomala</t>
+          <t>Snorre Cornelius Sund</t>
         </is>
       </c>
       <c r="N29" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O29" s="15" t="n">
-        <v>11.2</v>
+        <v>22.76</v>
       </c>
       <c r="P29" s="7" t="n">
-        <v>791</v>
+        <v>775</v>
       </c>
       <c r="Q29" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R29" s="16" t="n">
-        <v>13.08</v>
+        <v>26.08</v>
       </c>
       <c r="T29" s="5" t="n"/>
     </row>
@@ -18414,17 +18420,17 @@
       </c>
       <c r="M30" s="7" t="inlineStr">
         <is>
-          <t>Alexander Tomala</t>
+          <t>Snorre Cornelius Sund</t>
         </is>
       </c>
       <c r="N30" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O30" s="15" t="n">
-        <v>11.25</v>
+        <v>11.31</v>
       </c>
       <c r="P30" s="7" t="n">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="Q30" s="7" t="inlineStr">
         <is>
@@ -18467,30 +18473,30 @@
       <c r="J31" s="5" t="n"/>
       <c r="L31" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M31" s="7" t="inlineStr">
         <is>
-          <t>Alexander Tomala</t>
+          <t>Tobias Dybos Larsson</t>
         </is>
       </c>
       <c r="N31" s="7" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="O31" s="15" t="n">
-        <v>22.77</v>
+        <v>7.28</v>
       </c>
       <c r="P31" s="7" t="n">
-        <v>773</v>
+        <v>744</v>
       </c>
       <c r="Q31" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R31" s="16" t="n">
-        <v>10.09</v>
+        <v>18.02</v>
       </c>
       <c r="T31" s="5" t="n"/>
     </row>
@@ -18525,30 +18531,30 @@
       <c r="J32" s="5" t="n"/>
       <c r="L32" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M32" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Snorre Cornelius Sund</t>
         </is>
       </c>
       <c r="N32" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O32" s="15" t="n">
-        <v>11.3</v>
+        <v>7.33</v>
       </c>
       <c r="P32" s="7" t="n">
-        <v>767</v>
+        <v>725</v>
       </c>
       <c r="Q32" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R32" s="16" t="n">
-        <v>25.08</v>
+        <v>11.02</v>
       </c>
       <c r="T32" s="5" t="n"/>
     </row>
@@ -18585,30 +18591,30 @@
       <c r="J33" s="5" t="n"/>
       <c r="L33" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M33" s="7" t="inlineStr">
         <is>
-          <t>Siver Olavsbråten Ebbestad</t>
+          <t>Tobias Dybos Larsson</t>
         </is>
       </c>
       <c r="N33" s="7" t="n">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="O33" s="15" t="n">
-        <v>4.21</v>
+        <v>23.42</v>
       </c>
       <c r="P33" s="7" t="n">
-        <v>761</v>
+        <v>705</v>
       </c>
       <c r="Q33" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R33" s="16" t="n">
-        <v>26.08</v>
+        <v>16.06</v>
       </c>
       <c r="T33" s="5" t="n"/>
     </row>
@@ -18645,30 +18651,30 @@
       <c r="J34" s="5" t="n"/>
       <c r="L34" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M34" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Olai Stav Graasvoll</t>
         </is>
       </c>
       <c r="N34" s="7" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="O34" s="15" t="n">
-        <v>23</v>
+        <v>5.79</v>
       </c>
       <c r="P34" s="7" t="n">
-        <v>748</v>
+        <v>558</v>
       </c>
       <c r="Q34" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Rjukan</t>
         </is>
       </c>
       <c r="R34" s="16" t="n">
-        <v>20.08</v>
+        <v>2.09</v>
       </c>
       <c r="T34" s="5" t="n"/>
     </row>
@@ -18710,25 +18716,25 @@
       </c>
       <c r="M35" s="7" t="inlineStr">
         <is>
-          <t>Alexander Tomala</t>
+          <t>Olai Stav Graasvoll</t>
         </is>
       </c>
       <c r="N35" s="7" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="O35" s="15" t="n">
-        <v>7.34</v>
+        <v>7.84</v>
       </c>
       <c r="P35" s="7" t="n">
-        <v>721</v>
+        <v>545</v>
       </c>
       <c r="Q35" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Søgne</t>
         </is>
       </c>
       <c r="R35" s="16" t="n">
-        <v>4.03</v>
+        <v>23.05</v>
       </c>
       <c r="T35" s="5" t="n"/>
     </row>
@@ -18765,30 +18771,30 @@
       <c r="J36" s="5" t="n"/>
       <c r="L36" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M36" s="7" t="inlineStr">
         <is>
-          <t>Oliver Tomala</t>
+          <t>Hans Horn Tønnessen</t>
         </is>
       </c>
       <c r="N36" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O36" s="15" t="n">
-        <v>7.42</v>
+        <v>12.39</v>
       </c>
       <c r="P36" s="7" t="n">
-        <v>690</v>
+        <v>532</v>
       </c>
       <c r="Q36" s="7" t="inlineStr">
         <is>
-          <t>Asker</t>
+          <t>Søgne</t>
         </is>
       </c>
       <c r="R36" s="16" t="n">
-        <v>11.06</v>
+        <v>16.09</v>
       </c>
       <c r="T36" s="5" t="n"/>
     </row>
@@ -18823,30 +18829,30 @@
       <c r="J37" s="5" t="n"/>
       <c r="L37" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M37" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Daniel Thrana</t>
         </is>
       </c>
       <c r="N37" s="7" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="O37" s="15" t="n">
-        <v>1.84</v>
+        <v>11.04</v>
       </c>
       <c r="P37" s="7" t="n">
-        <v>687</v>
+        <v>527</v>
       </c>
       <c r="Q37" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R37" s="16" t="n">
-        <v>20.05</v>
+        <v>28.01</v>
       </c>
       <c r="T37" s="5" t="n"/>
     </row>
@@ -18881,30 +18887,30 @@
       <c r="J38" s="5" t="n"/>
       <c r="L38" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M38" s="7" t="inlineStr">
         <is>
-          <t>Kim Naasen</t>
+          <t>Åsmund Frøyen</t>
         </is>
       </c>
       <c r="N38" s="7" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="O38" s="15" t="n">
-        <v>1.75</v>
+        <v>10.62</v>
       </c>
       <c r="P38" s="7" t="n">
-        <v>607</v>
+        <v>496</v>
       </c>
       <c r="Q38" s="7" t="inlineStr">
         <is>
-          <t>Avondale/AZ/USA</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R38" s="16" t="n">
-        <v>13.04</v>
+        <v>27.09</v>
       </c>
       <c r="T38" s="5" t="n"/>
     </row>
@@ -18939,30 +18945,30 @@
       <c r="J39" s="5" t="n"/>
       <c r="L39" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M39" s="7" t="inlineStr">
         <is>
-          <t>Tobias Kalmo Thorbjørnsen</t>
+          <t>Sindre Netland</t>
         </is>
       </c>
       <c r="N39" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="O39" s="15" t="n">
-        <v>3.4</v>
+        <v>39.49</v>
       </c>
       <c r="P39" s="7" t="n">
-        <v>593</v>
+        <v>479</v>
       </c>
       <c r="Q39" s="7" t="inlineStr">
         <is>
-          <t>Geithus</t>
+          <t>Søgne</t>
         </is>
       </c>
       <c r="R39" s="16" t="n">
-        <v>31.08</v>
+        <v>16.09</v>
       </c>
       <c r="T39" s="5" t="n"/>
     </row>
@@ -19016,7 +19022,7 @@
         </is>
       </c>
       <c r="P41" s="20" t="n">
-        <v>8730</v>
+        <v>7647</v>
       </c>
       <c r="T41" s="5" t="n"/>
     </row>
@@ -19056,7 +19062,7 @@
         </is>
       </c>
       <c r="P43" s="20" t="n">
-        <v>17558</v>
+        <v>17577</v>
       </c>
       <c r="T43" s="5" t="n"/>
     </row>
@@ -19080,7 +19086,7 @@
         </is>
       </c>
       <c r="M45" s="20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T45" s="5" t="n"/>
     </row>
@@ -19122,7 +19128,7 @@
       </c>
       <c r="C49" s="7" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Buskerud</t>
         </is>
       </c>
       <c r="F49" s="8" t="n">
@@ -19136,7 +19142,7 @@
       </c>
       <c r="M49" s="7" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Rogaland</t>
         </is>
       </c>
       <c r="P49" s="8" t="n">
@@ -19152,7 +19158,7 @@
       </c>
       <c r="C50" s="7" t="inlineStr">
         <is>
-          <t>Haugesund IL</t>
+          <t>IL Sandvin</t>
         </is>
       </c>
       <c r="J50" s="5" t="n"/>
@@ -19163,7 +19169,7 @@
       </c>
       <c r="M50" s="7" t="inlineStr">
         <is>
-          <t>Kristiansands IF Friidrett</t>
+          <t>Haugesund IL</t>
         </is>
       </c>
       <c r="T50" s="5" t="n"/>
@@ -19292,25 +19298,25 @@
       </c>
       <c r="C56" s="7" t="inlineStr">
         <is>
-          <t>Neo Dobson</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="D56" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="E56" s="15" t="n">
-        <v>7.02</v>
+        <v>6.96</v>
       </c>
       <c r="F56" s="7" t="n">
-        <v>854</v>
+        <v>882</v>
       </c>
       <c r="G56" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H56" s="16" t="n">
-        <v>4.02</v>
+        <v>18.02</v>
       </c>
       <c r="J56" s="5" t="n"/>
       <c r="L56" s="14" t="inlineStr">
@@ -19320,25 +19326,25 @@
       </c>
       <c r="M56" s="7" t="inlineStr">
         <is>
-          <t>Johannes Steinsland Gulbrandsen Lunde</t>
+          <t>Neo Dobson</t>
         </is>
       </c>
       <c r="N56" s="7" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="O56" s="15" t="n">
-        <v>7.18</v>
+        <v>7.02</v>
       </c>
       <c r="P56" s="7" t="n">
-        <v>785</v>
+        <v>854</v>
       </c>
       <c r="Q56" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R56" s="16" t="n">
-        <v>11.02</v>
+        <v>4.02</v>
       </c>
       <c r="T56" s="5" t="n"/>
     </row>
@@ -19350,25 +19356,25 @@
       </c>
       <c r="C57" s="7" t="inlineStr">
         <is>
-          <t>Neo Dobson</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="D57" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="E57" s="15" t="n">
-        <v>10.9</v>
+        <v>10.67</v>
       </c>
       <c r="F57" s="7" t="n">
-        <v>867</v>
+        <v>929</v>
       </c>
       <c r="G57" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H57" s="16" t="n">
-        <v>4.02</v>
+        <v>13.08</v>
       </c>
       <c r="J57" s="5" t="n"/>
       <c r="L57" s="14" t="inlineStr">
@@ -19378,25 +19384,25 @@
       </c>
       <c r="M57" s="7" t="inlineStr">
         <is>
-          <t>Tobias Dybos Larsson</t>
+          <t>Neo Dobson</t>
         </is>
       </c>
       <c r="N57" s="7" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="O57" s="15" t="n">
-        <v>11.11</v>
+        <v>10.9</v>
       </c>
       <c r="P57" s="7" t="n">
-        <v>814</v>
+        <v>867</v>
       </c>
       <c r="Q57" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R57" s="16" t="n">
-        <v>6.07</v>
+        <v>4.02</v>
       </c>
       <c r="T57" s="5" t="n"/>
     </row>
@@ -19408,25 +19414,25 @@
       </c>
       <c r="C58" s="7" t="inlineStr">
         <is>
-          <t>Stefan Skrede</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="D58" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="E58" s="15" t="n">
-        <v>23.09</v>
+        <v>21.71</v>
       </c>
       <c r="F58" s="7" t="n">
-        <v>739</v>
+        <v>895</v>
       </c>
       <c r="G58" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H58" s="16" t="n">
-        <v>16.06</v>
+        <v>10.09</v>
       </c>
       <c r="J58" s="5" t="n"/>
       <c r="L58" s="14" t="inlineStr">
@@ -19436,17 +19442,17 @@
       </c>
       <c r="M58" s="7" t="inlineStr">
         <is>
-          <t>Johannes Steinsland Gulbrandsen Lunde</t>
+          <t>Stefan Skrede</t>
         </is>
       </c>
       <c r="N58" s="7" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="O58" s="15" t="n">
-        <v>22.61</v>
+        <v>23.09</v>
       </c>
       <c r="P58" s="7" t="n">
-        <v>791</v>
+        <v>739</v>
       </c>
       <c r="Q58" s="7" t="inlineStr">
         <is>
@@ -19466,25 +19472,25 @@
       </c>
       <c r="C59" s="7" t="inlineStr">
         <is>
-          <t>Alexander Laksfoss</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="D59" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E59" s="15" t="n">
-        <v>53.3</v>
+        <v>51.39</v>
       </c>
       <c r="F59" s="7" t="n">
-        <v>632</v>
+        <v>716</v>
       </c>
       <c r="G59" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="H59" s="16" t="n">
-        <v>18.01</v>
+        <v>20.05</v>
       </c>
       <c r="J59" s="5" t="n"/>
       <c r="L59" s="14" t="inlineStr">
@@ -19494,25 +19500,25 @@
       </c>
       <c r="M59" s="7" t="inlineStr">
         <is>
-          <t>Snorre Cornelius Sund</t>
+          <t>Alexander Laksfoss</t>
         </is>
       </c>
       <c r="N59" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="O59" s="15" t="n">
-        <v>54.03</v>
+        <v>53.3</v>
       </c>
       <c r="P59" s="7" t="n">
-        <v>602</v>
+        <v>632</v>
       </c>
       <c r="Q59" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R59" s="16" t="n">
-        <v>18.06</v>
+        <v>18.01</v>
       </c>
       <c r="T59" s="5" t="n"/>
     </row>
@@ -19524,27 +19530,27 @@
       </c>
       <c r="C60" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Nordhus</t>
+          <t>Hans Øyvind Sundve</t>
         </is>
       </c>
       <c r="D60" s="7" t="n">
-        <v>1995</v>
+        <v>2008</v>
       </c>
       <c r="E60" s="17" t="inlineStr">
         <is>
-          <t>2,00,50</t>
+          <t>2,10,52</t>
         </is>
       </c>
       <c r="F60" s="7" t="n">
-        <v>678</v>
+        <v>517</v>
       </c>
       <c r="G60" s="7" t="inlineStr">
         <is>
-          <t>Overhalla</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H60" s="16" t="n">
-        <v>5.08</v>
+        <v>9.09</v>
       </c>
       <c r="J60" s="5" t="n"/>
       <c r="L60" s="14" t="inlineStr">
@@ -19554,27 +19560,27 @@
       </c>
       <c r="M60" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Tveit</t>
+          <t>Kristoffer Nordhus</t>
         </is>
       </c>
       <c r="N60" s="7" t="n">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="O60" s="17" t="inlineStr">
         <is>
-          <t>1,49,94</t>
+          <t>2,00,50</t>
         </is>
       </c>
       <c r="P60" s="7" t="n">
-        <v>918</v>
+        <v>678</v>
       </c>
       <c r="Q60" s="7" t="inlineStr">
         <is>
-          <t>Chengdu/CHN</t>
+          <t>Overhalla</t>
         </is>
       </c>
       <c r="R60" s="16" t="n">
-        <v>4.08</v>
+        <v>5.08</v>
       </c>
       <c r="T60" s="5" t="n"/>
     </row>
@@ -19586,27 +19592,27 @@
       </c>
       <c r="C61" s="7" t="inlineStr">
         <is>
-          <t>Simon Østreng Veland</t>
+          <t>Hans Øyvind Sundve</t>
         </is>
       </c>
       <c r="D61" s="7" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="E61" s="17" t="inlineStr">
         <is>
-          <t>3,49,46</t>
+          <t>4,36,74</t>
         </is>
       </c>
       <c r="F61" s="7" t="n">
-        <v>870</v>
+        <v>483</v>
       </c>
       <c r="G61" s="7" t="inlineStr">
         <is>
-          <t>Luzern/SUI</t>
+          <t>Sande</t>
         </is>
       </c>
       <c r="H61" s="16" t="n">
-        <v>20.07</v>
+        <v>16.09</v>
       </c>
       <c r="J61" s="5" t="n"/>
       <c r="L61" s="14" t="inlineStr">
@@ -19616,7 +19622,7 @@
       </c>
       <c r="M61" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Tveit</t>
+          <t>Simon Østreng Veland</t>
         </is>
       </c>
       <c r="N61" s="7" t="n">
@@ -19624,51 +19630,49 @@
       </c>
       <c r="O61" s="17" t="inlineStr">
         <is>
-          <t>3,38,29</t>
+          <t>3,49,46</t>
         </is>
       </c>
       <c r="P61" s="7" t="n">
-        <v>1009</v>
+        <v>870</v>
       </c>
       <c r="Q61" s="7" t="inlineStr">
         <is>
-          <t>Berlin/GER</t>
+          <t>Luzern/SUI</t>
         </is>
       </c>
       <c r="R61" s="16" t="n">
-        <v>3.09</v>
+        <v>20.07</v>
       </c>
       <c r="T61" s="5" t="n"/>
     </row>
     <row r="62" ht="13" customHeight="1">
       <c r="B62" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C62" s="7" t="inlineStr">
         <is>
-          <t>Morten Gjendem</t>
+          <t>Marcus Valentin Giörtz Mondoka</t>
         </is>
       </c>
       <c r="D62" s="7" t="n">
-        <v>1992</v>
-      </c>
-      <c r="E62" s="17" t="inlineStr">
-        <is>
-          <t>8,17,66</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E62" s="15" t="n">
+        <v>1.9</v>
       </c>
       <c r="F62" s="7" t="n">
-        <v>870</v>
+        <v>738</v>
       </c>
       <c r="G62" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H62" s="16" t="n">
-        <v>11.08</v>
+        <v>8.09</v>
       </c>
       <c r="J62" s="5" t="n"/>
       <c r="L62" s="14" t="inlineStr">
@@ -19678,59 +19682,57 @@
       </c>
       <c r="M62" s="7" t="inlineStr">
         <is>
-          <t>Martin Ukkelberg Sløgedal</t>
+          <t>Morten Gjendem</t>
         </is>
       </c>
       <c r="N62" s="7" t="n">
-        <v>2005</v>
+        <v>1992</v>
       </c>
       <c r="O62" s="17" t="inlineStr">
         <is>
-          <t>8,52,86</t>
+          <t>8,17,66</t>
         </is>
       </c>
       <c r="P62" s="7" t="n">
-        <v>716</v>
+        <v>870</v>
       </c>
       <c r="Q62" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R62" s="16" t="n">
-        <v>8.09</v>
+        <v>11.08</v>
       </c>
       <c r="T62" s="5" t="n"/>
     </row>
     <row r="63" ht="13" customHeight="1">
       <c r="B63" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C63" s="7" t="inlineStr">
         <is>
-          <t>Morten Gjendem</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="D63" s="7" t="n">
-        <v>1992</v>
-      </c>
-      <c r="E63" s="17" t="inlineStr">
-        <is>
-          <t>14,18,89</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E63" s="15" t="n">
+        <v>4.51</v>
       </c>
       <c r="F63" s="7" t="n">
-        <v>870</v>
+        <v>816</v>
       </c>
       <c r="G63" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H63" s="16" t="n">
-        <v>6.07</v>
+        <v>26.08</v>
       </c>
       <c r="J63" s="5" t="n"/>
       <c r="L63" s="14" t="inlineStr">
@@ -19740,19 +19742,19 @@
       </c>
       <c r="M63" s="7" t="inlineStr">
         <is>
-          <t>Martin Ukkelberg Sløgedal</t>
+          <t>Morten Gjendem</t>
         </is>
       </c>
       <c r="N63" s="7" t="n">
-        <v>2005</v>
+        <v>1992</v>
       </c>
       <c r="O63" s="17" t="inlineStr">
         <is>
-          <t>15,24,41</t>
+          <t>14,18,89</t>
         </is>
       </c>
       <c r="P63" s="7" t="n">
-        <v>719</v>
+        <v>870</v>
       </c>
       <c r="Q63" s="7" t="inlineStr">
         <is>
@@ -19767,32 +19769,30 @@
     <row r="64" ht="13" customHeight="1">
       <c r="B64" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C64" s="7" t="inlineStr">
         <is>
-          <t>Morten Gjendem</t>
+          <t>Marcus Valentin Giörtz Mondoka</t>
         </is>
       </c>
       <c r="D64" s="7" t="n">
-        <v>1992</v>
-      </c>
-      <c r="E64" s="17" t="inlineStr">
-        <is>
-          <t>30,02,68</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E64" s="15" t="n">
+        <v>6.02</v>
       </c>
       <c r="F64" s="7" t="n">
-        <v>863</v>
+        <v>611</v>
       </c>
       <c r="G64" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H64" s="16" t="n">
-        <v>3.06</v>
+        <v>16.06</v>
       </c>
       <c r="J64" s="5" t="n"/>
       <c r="L64" s="14" t="inlineStr">
@@ -19802,19 +19802,19 @@
       </c>
       <c r="M64" s="7" t="inlineStr">
         <is>
-          <t>Martin Ukkelberg Sløgedal</t>
+          <t>Morten Gjendem</t>
         </is>
       </c>
       <c r="N64" s="7" t="n">
-        <v>2005</v>
+        <v>1992</v>
       </c>
       <c r="O64" s="17" t="inlineStr">
         <is>
-          <t>31,52,87</t>
+          <t>30,02,68</t>
         </is>
       </c>
       <c r="P64" s="7" t="n">
-        <v>745</v>
+        <v>863</v>
       </c>
       <c r="Q64" s="7" t="inlineStr">
         <is>
@@ -19829,232 +19829,232 @@
     <row r="65" ht="13" customHeight="1">
       <c r="B65" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C65" s="7" t="inlineStr">
         <is>
-          <t>Theodor Aase</t>
+          <t>Kim Naasen</t>
         </is>
       </c>
       <c r="D65" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E65" s="15" t="n">
-        <v>1.8</v>
+        <v>12.06</v>
       </c>
       <c r="F65" s="7" t="n">
-        <v>652</v>
+        <v>566</v>
       </c>
       <c r="G65" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Mesa/AZ/USA</t>
         </is>
       </c>
       <c r="H65" s="16" t="n">
-        <v>20.05</v>
+        <v>14.04</v>
       </c>
       <c r="J65" s="5" t="n"/>
       <c r="L65" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M65" s="7" t="inlineStr">
         <is>
-          <t>Johannes Steinsland Gulbrandsen Lunde</t>
+          <t>Theodor Aase</t>
         </is>
       </c>
       <c r="N65" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="O65" s="15" t="n">
-        <v>6.4</v>
+        <v>1.8</v>
       </c>
       <c r="P65" s="7" t="n">
-        <v>696</v>
+        <v>652</v>
       </c>
       <c r="Q65" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R65" s="16" t="n">
-        <v>19.02</v>
+        <v>20.05</v>
       </c>
       <c r="T65" s="5" t="n"/>
     </row>
     <row r="66" ht="13" customHeight="1">
       <c r="B66" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C66" s="7" t="inlineStr">
         <is>
-          <t>Stian André Lie Austrheim</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="D66" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="E66" s="15" t="n">
-        <v>6</v>
+        <v>1.35</v>
       </c>
       <c r="F66" s="7" t="n">
-        <v>606</v>
+        <v>503</v>
       </c>
       <c r="G66" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="H66" s="16" t="n">
-        <v>13.09</v>
+        <v>13.04</v>
       </c>
       <c r="J66" s="5" t="n"/>
       <c r="L66" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M66" s="7" t="inlineStr">
         <is>
-          <t>Johannes Steinsland Gulbrandsen Lunde</t>
+          <t>Stian André Lie Austrheim</t>
         </is>
       </c>
       <c r="N66" s="7" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="O66" s="15" t="n">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="P66" s="7" t="n">
-        <v>561</v>
+        <v>606</v>
       </c>
       <c r="Q66" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R66" s="16" t="n">
-        <v>13.01</v>
+        <v>13.09</v>
       </c>
       <c r="T66" s="5" t="n"/>
     </row>
     <row r="67" ht="13" customHeight="1">
       <c r="B67" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C67" s="7" t="inlineStr">
         <is>
-          <t>Stian André Lie Austrheim</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="D67" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="E67" s="15" t="n">
-        <v>12.98</v>
+        <v>2.96</v>
       </c>
       <c r="F67" s="7" t="n">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="G67" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H67" s="16" t="n">
-        <v>9.09</v>
+        <v>19.02</v>
       </c>
       <c r="J67" s="5" t="n"/>
       <c r="L67" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M67" s="7" t="inlineStr">
         <is>
-          <t>Åsmund Frøyen</t>
+          <t>Stian André Lie Austrheim</t>
         </is>
       </c>
       <c r="N67" s="7" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="O67" s="15" t="n">
-        <v>33.23</v>
+        <v>12.98</v>
       </c>
       <c r="P67" s="7" t="n">
-        <v>551</v>
+        <v>667</v>
       </c>
       <c r="Q67" s="7" t="inlineStr">
         <is>
-          <t>Arendal</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R67" s="16" t="n">
-        <v>19.08</v>
+        <v>9.09</v>
       </c>
       <c r="T67" s="5" t="n"/>
     </row>
     <row r="68" ht="13" customHeight="1">
       <c r="B68" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C68" s="7" t="inlineStr">
         <is>
-          <t>Bjørn Gunnar Husby</t>
+          <t>Tobias Kalmo Thorbjørnsen</t>
         </is>
       </c>
       <c r="D68" s="7" t="n">
-        <v>1975</v>
+        <v>2006</v>
       </c>
       <c r="E68" s="15" t="n">
-        <v>2.61</v>
+        <v>42.49</v>
       </c>
       <c r="F68" s="7" t="n">
-        <v>447</v>
+        <v>522</v>
       </c>
       <c r="G68" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="H68" s="16" t="n">
-        <v>10.02</v>
+        <v>6.05</v>
       </c>
       <c r="J68" s="5" t="n"/>
       <c r="L68" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M68" s="7" t="inlineStr">
         <is>
-          <t>Daniel Thrana</t>
+          <t>Bjørn Gunnar Husby</t>
         </is>
       </c>
       <c r="N68" s="7" t="n">
-        <v>2002</v>
+        <v>1975</v>
       </c>
       <c r="O68" s="15" t="n">
-        <v>78.8</v>
+        <v>2.61</v>
       </c>
       <c r="P68" s="7" t="n">
-        <v>1023</v>
+        <v>447</v>
       </c>
       <c r="Q68" s="7" t="inlineStr">
         <is>
-          <t>Haderslev/DEN</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R68" s="16" t="n">
-        <v>3.06</v>
+        <v>10.02</v>
       </c>
       <c r="T68" s="5" t="n"/>
     </row>
@@ -20091,7 +20091,7 @@
         </is>
       </c>
       <c r="F70" s="20" t="n">
-        <v>9615</v>
+        <v>8828</v>
       </c>
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="19" t="inlineStr">
@@ -20108,7 +20108,7 @@
         </is>
       </c>
       <c r="P70" s="20" t="n">
-        <v>9930</v>
+        <v>9615</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
@@ -20211,52 +20211,52 @@
     <row r="75" ht="13" customHeight="1">
       <c r="B75" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C75" s="7" t="inlineStr">
         <is>
-          <t>Tedros Gebretensai Haile</t>
+          <t>Oliver Tomala</t>
         </is>
       </c>
       <c r="D75" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E75" s="17" t="inlineStr">
-        <is>
-          <t>14,31,25</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E75" s="15" t="n">
+        <v>22.41</v>
       </c>
       <c r="F75" s="7" t="n">
-        <v>839</v>
+        <v>813</v>
       </c>
       <c r="G75" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H75" s="16" t="n">
-        <v>6.07</v>
+        <v>10.09</v>
       </c>
       <c r="J75" s="5" t="n"/>
       <c r="L75" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M75" s="7" t="inlineStr">
         <is>
-          <t>Johannes Steinsland Gulbrandsen Lunde</t>
+          <t>Tedros Gebretensai Haile</t>
         </is>
       </c>
       <c r="N75" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O75" s="15" t="n">
-        <v>11.18</v>
+        <v>1999</v>
+      </c>
+      <c r="O75" s="17" t="inlineStr">
+        <is>
+          <t>14,31,25</t>
+        </is>
       </c>
       <c r="P75" s="7" t="n">
-        <v>796</v>
+        <v>839</v>
       </c>
       <c r="Q75" s="7" t="inlineStr">
         <is>
@@ -20271,50 +20271,50 @@
     <row r="76" ht="13" customHeight="1">
       <c r="B76" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C76" s="7" t="inlineStr">
         <is>
-          <t>Alexander Laksfoss</t>
+          <t>Oliver Tomala</t>
         </is>
       </c>
       <c r="D76" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E76" s="15" t="n">
-        <v>7.11</v>
+        <v>11.2</v>
       </c>
       <c r="F76" s="7" t="n">
-        <v>815</v>
+        <v>791</v>
       </c>
       <c r="G76" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H76" s="16" t="n">
-        <v>28.01</v>
+        <v>13.08</v>
       </c>
       <c r="J76" s="5" t="n"/>
       <c r="L76" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M76" s="7" t="inlineStr">
         <is>
-          <t>Snorre Cornelius Sund</t>
+          <t>Alexander Laksfoss</t>
         </is>
       </c>
       <c r="N76" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="O76" s="15" t="n">
-        <v>22.76</v>
+        <v>7.11</v>
       </c>
       <c r="P76" s="7" t="n">
-        <v>775</v>
+        <v>815</v>
       </c>
       <c r="Q76" s="7" t="inlineStr">
         <is>
@@ -20322,147 +20322,147 @@
         </is>
       </c>
       <c r="R76" s="16" t="n">
-        <v>26.08</v>
+        <v>28.01</v>
       </c>
       <c r="T76" s="5" t="n"/>
     </row>
     <row r="77" ht="13" customHeight="1">
       <c r="B77" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C77" s="7" t="inlineStr">
         <is>
-          <t>Tedros Gebretensai Haile</t>
+          <t>Alexander Tomala</t>
         </is>
       </c>
       <c r="D77" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E77" s="17" t="inlineStr">
-        <is>
-          <t>31,01,23</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E77" s="15" t="n">
+        <v>11.25</v>
       </c>
       <c r="F77" s="7" t="n">
-        <v>798</v>
+        <v>779</v>
       </c>
       <c r="G77" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H77" s="16" t="n">
-        <v>8.07</v>
+        <v>9.09</v>
       </c>
       <c r="J77" s="5" t="n"/>
       <c r="L77" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M77" s="7" t="inlineStr">
         <is>
-          <t>Snorre Cornelius Sund</t>
+          <t>Tedros Gebretensai Haile</t>
         </is>
       </c>
       <c r="N77" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O77" s="15" t="n">
-        <v>11.31</v>
+        <v>1999</v>
+      </c>
+      <c r="O77" s="17" t="inlineStr">
+        <is>
+          <t>31,01,23</t>
+        </is>
       </c>
       <c r="P77" s="7" t="n">
-        <v>765</v>
+        <v>798</v>
       </c>
       <c r="Q77" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R77" s="16" t="n">
-        <v>9.09</v>
+        <v>8.07</v>
       </c>
       <c r="T77" s="5" t="n"/>
     </row>
     <row r="78" ht="13" customHeight="1">
       <c r="B78" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C78" s="7" t="inlineStr">
         <is>
-          <t>Alexander Laksfoss</t>
+          <t>Alexander Tomala</t>
         </is>
       </c>
       <c r="D78" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E78" s="15" t="n">
-        <v>11.22</v>
+        <v>22.77</v>
       </c>
       <c r="F78" s="7" t="n">
-        <v>786</v>
+        <v>773</v>
       </c>
       <c r="G78" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H78" s="16" t="n">
-        <v>28.01</v>
+        <v>10.09</v>
       </c>
       <c r="J78" s="5" t="n"/>
       <c r="L78" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M78" s="7" t="inlineStr">
         <is>
-          <t>Tobias Dybos Larsson</t>
+          <t>Alexander Laksfoss</t>
         </is>
       </c>
       <c r="N78" s="7" t="n">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="O78" s="15" t="n">
-        <v>7.28</v>
+        <v>11.22</v>
       </c>
       <c r="P78" s="7" t="n">
-        <v>744</v>
+        <v>786</v>
       </c>
       <c r="Q78" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R78" s="16" t="n">
-        <v>18.02</v>
+        <v>28.01</v>
       </c>
       <c r="T78" s="5" t="n"/>
     </row>
     <row r="79" ht="13" customHeight="1">
       <c r="B79" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C79" s="7" t="inlineStr">
         <is>
-          <t>Stefan Skrede</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="D79" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E79" s="15" t="n">
-        <v>7.27</v>
+        <v>11.3</v>
       </c>
       <c r="F79" s="7" t="n">
-        <v>748</v>
+        <v>767</v>
       </c>
       <c r="G79" s="7" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         </is>
       </c>
       <c r="H79" s="16" t="n">
-        <v>25.02</v>
+        <v>25.08</v>
       </c>
       <c r="J79" s="5" t="n"/>
       <c r="L79" s="14" t="inlineStr">
@@ -20480,49 +20480,47 @@
       </c>
       <c r="M79" s="7" t="inlineStr">
         <is>
-          <t>Snorre Cornelius Sund</t>
+          <t>Stefan Skrede</t>
         </is>
       </c>
       <c r="N79" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="O79" s="15" t="n">
-        <v>7.33</v>
+        <v>7.27</v>
       </c>
       <c r="P79" s="7" t="n">
-        <v>725</v>
+        <v>748</v>
       </c>
       <c r="Q79" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R79" s="16" t="n">
-        <v>11.02</v>
+        <v>25.02</v>
       </c>
       <c r="T79" s="5" t="n"/>
     </row>
     <row r="80" ht="13" customHeight="1">
       <c r="B80" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C80" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Nordhus</t>
+          <t>Siver Olavsbråten Ebbestad</t>
         </is>
       </c>
       <c r="D80" s="7" t="n">
-        <v>1995</v>
-      </c>
-      <c r="E80" s="17" t="inlineStr">
-        <is>
-          <t>4,02,58</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="E80" s="15" t="n">
+        <v>4.21</v>
       </c>
       <c r="F80" s="7" t="n">
-        <v>736</v>
+        <v>761</v>
       </c>
       <c r="G80" s="7" t="inlineStr">
         <is>
@@ -20530,93 +20528,95 @@
         </is>
       </c>
       <c r="H80" s="16" t="n">
-        <v>26.06</v>
+        <v>26.08</v>
       </c>
       <c r="J80" s="5" t="n"/>
       <c r="L80" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M80" s="7" t="inlineStr">
         <is>
-          <t>Tobias Dybos Larsson</t>
+          <t>Kristoffer Nordhus</t>
         </is>
       </c>
       <c r="N80" s="7" t="n">
-        <v>2002</v>
-      </c>
-      <c r="O80" s="15" t="n">
-        <v>23.42</v>
+        <v>1995</v>
+      </c>
+      <c r="O80" s="17" t="inlineStr">
+        <is>
+          <t>4,02,58</t>
+        </is>
       </c>
       <c r="P80" s="7" t="n">
-        <v>705</v>
+        <v>736</v>
       </c>
       <c r="Q80" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R80" s="16" t="n">
-        <v>16.06</v>
+        <v>26.06</v>
       </c>
       <c r="T80" s="5" t="n"/>
     </row>
     <row r="81" ht="13" customHeight="1">
       <c r="B81" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C81" s="7" t="inlineStr">
         <is>
-          <t>Stefan Skrede</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="D81" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E81" s="15" t="n">
-        <v>11.54</v>
+        <v>23</v>
       </c>
       <c r="F81" s="7" t="n">
-        <v>711</v>
+        <v>748</v>
       </c>
       <c r="G81" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H81" s="16" t="n">
-        <v>18.06</v>
+        <v>20.08</v>
       </c>
       <c r="J81" s="5" t="n"/>
       <c r="L81" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M81" s="7" t="inlineStr">
         <is>
-          <t>Olai Stav Graasvoll</t>
+          <t>Stefan Skrede</t>
         </is>
       </c>
       <c r="N81" s="7" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="O81" s="15" t="n">
-        <v>5.79</v>
+        <v>11.54</v>
       </c>
       <c r="P81" s="7" t="n">
-        <v>558</v>
+        <v>711</v>
       </c>
       <c r="Q81" s="7" t="inlineStr">
         <is>
-          <t>Rjukan</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R81" s="16" t="n">
-        <v>2.09</v>
+        <v>18.06</v>
       </c>
       <c r="T81" s="5" t="n"/>
     </row>
@@ -20628,25 +20628,25 @@
       </c>
       <c r="C82" s="7" t="inlineStr">
         <is>
-          <t>Sverre S. Tellmann</t>
+          <t>Alexander Tomala</t>
         </is>
       </c>
       <c r="D82" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E82" s="15" t="n">
-        <v>7.4</v>
+        <v>7.34</v>
       </c>
       <c r="F82" s="7" t="n">
-        <v>697</v>
+        <v>721</v>
       </c>
       <c r="G82" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H82" s="16" t="n">
-        <v>28.01</v>
+        <v>4.03</v>
       </c>
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="14" t="inlineStr">
@@ -20656,229 +20656,229 @@
       </c>
       <c r="M82" s="7" t="inlineStr">
         <is>
-          <t>Olai Stav Graasvoll</t>
+          <t>Sverre S. Tellmann</t>
         </is>
       </c>
       <c r="N82" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="O82" s="15" t="n">
-        <v>7.84</v>
+        <v>7.4</v>
       </c>
       <c r="P82" s="7" t="n">
-        <v>545</v>
+        <v>697</v>
       </c>
       <c r="Q82" s="7" t="inlineStr">
         <is>
-          <t>Søgne</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R82" s="16" t="n">
-        <v>23.05</v>
+        <v>28.01</v>
       </c>
       <c r="T82" s="5" t="n"/>
     </row>
     <row r="83" ht="13" customHeight="1">
       <c r="B83" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C83" s="7" t="inlineStr">
         <is>
-          <t>Stian André Lie Austrheim</t>
+          <t>Oliver Tomala</t>
         </is>
       </c>
       <c r="D83" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E83" s="15" t="n">
-        <v>1.71</v>
+        <v>7.42</v>
       </c>
       <c r="F83" s="7" t="n">
-        <v>569</v>
+        <v>690</v>
       </c>
       <c r="G83" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Asker</t>
         </is>
       </c>
       <c r="H83" s="16" t="n">
-        <v>4.07</v>
+        <v>11.06</v>
       </c>
       <c r="J83" s="5" t="n"/>
       <c r="L83" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M83" s="7" t="inlineStr">
         <is>
-          <t>Hans Horn Tønnessen</t>
+          <t>Stian André Lie Austrheim</t>
         </is>
       </c>
       <c r="N83" s="7" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="O83" s="15" t="n">
-        <v>12.39</v>
+        <v>1.71</v>
       </c>
       <c r="P83" s="7" t="n">
-        <v>532</v>
+        <v>569</v>
       </c>
       <c r="Q83" s="7" t="inlineStr">
         <is>
-          <t>Søgne</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R83" s="16" t="n">
-        <v>16.09</v>
+        <v>4.07</v>
       </c>
       <c r="T83" s="5" t="n"/>
     </row>
     <row r="84" ht="13" customHeight="1">
       <c r="B84" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C84" s="7" t="inlineStr">
         <is>
-          <t>Eirik Svelland Hustoft</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="D84" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="E84" s="15" t="n">
-        <v>5.31</v>
+        <v>1.84</v>
       </c>
       <c r="F84" s="7" t="n">
-        <v>446</v>
+        <v>687</v>
       </c>
       <c r="G84" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="H84" s="16" t="n">
-        <v>16.06</v>
+        <v>20.05</v>
       </c>
       <c r="J84" s="5" t="n"/>
       <c r="L84" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M84" s="7" t="inlineStr">
         <is>
-          <t>Daniel Thrana</t>
+          <t>Eirik Svelland Hustoft</t>
         </is>
       </c>
       <c r="N84" s="7" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="O84" s="15" t="n">
-        <v>11.04</v>
+        <v>5.31</v>
       </c>
       <c r="P84" s="7" t="n">
-        <v>527</v>
+        <v>446</v>
       </c>
       <c r="Q84" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R84" s="16" t="n">
-        <v>28.01</v>
+        <v>16.06</v>
       </c>
       <c r="T84" s="5" t="n"/>
     </row>
     <row r="85" ht="13" customHeight="1">
       <c r="B85" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C85" s="7" t="inlineStr">
         <is>
-          <t>Bjørnar Ramstad Støylen</t>
+          <t>Kim Naasen</t>
         </is>
       </c>
       <c r="D85" s="7" t="n">
-        <v>1993</v>
+        <v>2005</v>
       </c>
       <c r="E85" s="15" t="n">
-        <v>5.22</v>
+        <v>1.75</v>
       </c>
       <c r="F85" s="7" t="n">
-        <v>424</v>
+        <v>607</v>
       </c>
       <c r="G85" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Avondale/AZ/USA</t>
         </is>
       </c>
       <c r="H85" s="16" t="n">
-        <v>18.01</v>
+        <v>13.04</v>
       </c>
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M85" s="7" t="inlineStr">
         <is>
-          <t>Sindre Netland</t>
+          <t>Bjørnar Ramstad Støylen</t>
         </is>
       </c>
       <c r="N85" s="7" t="n">
-        <v>2006</v>
+        <v>1993</v>
       </c>
       <c r="O85" s="15" t="n">
-        <v>39.49</v>
+        <v>5.22</v>
       </c>
       <c r="P85" s="7" t="n">
-        <v>479</v>
+        <v>424</v>
       </c>
       <c r="Q85" s="7" t="inlineStr">
         <is>
-          <t>Søgne</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R85" s="16" t="n">
-        <v>16.09</v>
+        <v>18.01</v>
       </c>
       <c r="T85" s="5" t="n"/>
     </row>
     <row r="86" ht="13" customHeight="1">
       <c r="B86" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C86" s="7" t="inlineStr">
         <is>
-          <t>Sander Sjøen Hjelmervik</t>
+          <t>Tobias Kalmo Thorbjørnsen</t>
         </is>
       </c>
       <c r="D86" s="7" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="E86" s="15" t="n">
-        <v>5.01</v>
+        <v>3.4</v>
       </c>
       <c r="F86" s="7" t="n">
-        <v>374</v>
+        <v>593</v>
       </c>
       <c r="G86" s="7" t="inlineStr">
         <is>
-          <t>Leirvik</t>
+          <t>Geithus</t>
         </is>
       </c>
       <c r="H86" s="16" t="n">
-        <v>12.08</v>
+        <v>31.08</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="14" t="inlineStr">
@@ -20888,25 +20888,25 @@
       </c>
       <c r="M86" s="7" t="inlineStr">
         <is>
-          <t>Snorre Cornelius Sund</t>
+          <t>Sander Sjøen Hjelmervik</t>
         </is>
       </c>
       <c r="N86" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="O86" s="15" t="n">
-        <v>5.35</v>
+        <v>5.01</v>
       </c>
       <c r="P86" s="7" t="n">
-        <v>455</v>
+        <v>374</v>
       </c>
       <c r="Q86" s="7" t="inlineStr">
         <is>
-          <t>Søgne</t>
+          <t>Leirvik</t>
         </is>
       </c>
       <c r="R86" s="16" t="n">
-        <v>16.09</v>
+        <v>12.08</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -20943,7 +20943,7 @@
         </is>
       </c>
       <c r="F88" s="20" t="n">
-        <v>7943</v>
+        <v>8730</v>
       </c>
       <c r="J88" s="5" t="n"/>
       <c r="L88" s="19" t="inlineStr">
@@ -20960,7 +20960,7 @@
         </is>
       </c>
       <c r="P88" s="20" t="n">
-        <v>7606</v>
+        <v>7943</v>
       </c>
       <c r="T88" s="5" t="n"/>
     </row>
@@ -21000,7 +21000,7 @@
         </is>
       </c>
       <c r="P90" s="20" t="n">
-        <v>17536</v>
+        <v>17558</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
@@ -21015,7 +21015,7 @@
         </is>
       </c>
       <c r="C92" s="20" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J92" s="5" t="n"/>
       <c r="L92" s="19" t="inlineStr">
@@ -21024,7 +21024,7 @@
         </is>
       </c>
       <c r="M92" s="20" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T92" s="5" t="n"/>
     </row>
@@ -30716,11 +30716,11 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>(30/14)</t>
+          <t>(30/13)</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>21266</v>
+        <v>21355</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
@@ -42746,30 +42746,30 @@
     <row r="278" ht="13" customHeight="1">
       <c r="B278" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C278" s="7" t="inlineStr">
         <is>
-          <t>Naomi Osmanovic</t>
+          <t>Emilie Høyland Schou</t>
         </is>
       </c>
       <c r="D278" s="7" t="n">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="E278" s="15" t="n">
-        <v>1.4</v>
+        <v>5.05</v>
       </c>
       <c r="F278" s="7" t="n">
-        <v>518</v>
+        <v>629</v>
       </c>
       <c r="G278" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H278" s="16" t="n">
-        <v>25.02</v>
+        <v>2.09</v>
       </c>
       <c r="J278" s="5" t="n"/>
       <c r="L278" s="14" t="inlineStr">
@@ -42804,30 +42804,30 @@
     <row r="279" ht="13" customHeight="1">
       <c r="B279" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C279" s="7" t="inlineStr">
         <is>
-          <t>Emilie Høyland Schou</t>
+          <t>Kaja Kleppe Salemonsen</t>
         </is>
       </c>
       <c r="D279" s="7" t="n">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="E279" s="15" t="n">
-        <v>5.05</v>
+        <v>12.09</v>
       </c>
       <c r="F279" s="7" t="n">
-        <v>629</v>
+        <v>776</v>
       </c>
       <c r="G279" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Mankato/MN/USA</t>
         </is>
       </c>
       <c r="H279" s="16" t="n">
-        <v>2.09</v>
+        <v>3.05</v>
       </c>
       <c r="J279" s="5" t="n"/>
       <c r="L279" s="14" t="inlineStr">
@@ -42862,30 +42862,30 @@
     <row r="280" ht="13" customHeight="1">
       <c r="B280" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C280" s="7" t="inlineStr">
         <is>
-          <t>Kaja Kleppe Salemonsen</t>
+          <t>Maria Døske</t>
         </is>
       </c>
       <c r="D280" s="7" t="n">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="E280" s="15" t="n">
-        <v>12.09</v>
+        <v>12.15</v>
       </c>
       <c r="F280" s="7" t="n">
-        <v>776</v>
+        <v>720</v>
       </c>
       <c r="G280" s="7" t="inlineStr">
         <is>
-          <t>Mankato/MN/USA</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H280" s="16" t="n">
-        <v>3.05</v>
+        <v>25.08</v>
       </c>
       <c r="J280" s="5" t="n"/>
       <c r="L280" s="14" t="inlineStr">
@@ -42920,22 +42920,22 @@
     <row r="281" ht="13" customHeight="1">
       <c r="B281" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C281" s="7" t="inlineStr">
         <is>
-          <t>Maria Døske</t>
+          <t>Hanna Haugsvær</t>
         </is>
       </c>
       <c r="D281" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="E281" s="15" t="n">
-        <v>12.15</v>
+        <v>42.42</v>
       </c>
       <c r="F281" s="7" t="n">
-        <v>720</v>
+        <v>758</v>
       </c>
       <c r="G281" s="7" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         </is>
       </c>
       <c r="H281" s="16" t="n">
-        <v>25.08</v>
+        <v>29.05</v>
       </c>
       <c r="J281" s="5" t="n"/>
       <c r="L281" s="14" t="inlineStr">
@@ -42978,22 +42978,22 @@
     <row r="282" ht="13" customHeight="1">
       <c r="B282" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="C282" s="7" t="inlineStr">
         <is>
-          <t>Hanna Haugsvær</t>
+          <t>Thea Dahl</t>
         </is>
       </c>
       <c r="D282" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E282" s="15" t="n">
-        <v>42.42</v>
+        <v>47.64</v>
       </c>
       <c r="F282" s="7" t="n">
-        <v>758</v>
+        <v>781</v>
       </c>
       <c r="G282" s="7" t="inlineStr">
         <is>
@@ -43001,7 +43001,7 @@
         </is>
       </c>
       <c r="H282" s="16" t="n">
-        <v>29.05</v>
+        <v>25.08</v>
       </c>
       <c r="J282" s="5" t="n"/>
       <c r="L282" s="14" t="inlineStr">
@@ -43036,22 +43036,22 @@
     <row r="283" ht="13" customHeight="1">
       <c r="B283" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C283" s="7" t="inlineStr">
         <is>
-          <t>Thea Dahl</t>
+          <t>Maria Døske</t>
         </is>
       </c>
       <c r="D283" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E283" s="15" t="n">
-        <v>47.64</v>
+        <v>31.43</v>
       </c>
       <c r="F283" s="7" t="n">
-        <v>781</v>
+        <v>569</v>
       </c>
       <c r="G283" s="7" t="inlineStr">
         <is>
@@ -43059,7 +43059,7 @@
         </is>
       </c>
       <c r="H283" s="16" t="n">
-        <v>25.08</v>
+        <v>23.09</v>
       </c>
       <c r="J283" s="5" t="n"/>
       <c r="L283" s="14" t="n"/>
@@ -43104,7 +43104,7 @@
         </is>
       </c>
       <c r="F285" s="20" t="n">
-        <v>11525</v>
+        <v>11576</v>
       </c>
       <c r="J285" s="5" t="n"/>
       <c r="L285" s="19" t="inlineStr">
@@ -43940,30 +43940,30 @@
     <row r="303" ht="13" customHeight="1">
       <c r="B303" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C303" s="7" t="inlineStr">
         <is>
-          <t>Maria Døske</t>
+          <t>Naomi Osmanovic</t>
         </is>
       </c>
       <c r="D303" s="7" t="n">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="E303" s="15" t="n">
-        <v>26.53</v>
+        <v>1.4</v>
       </c>
       <c r="F303" s="7" t="n">
-        <v>481</v>
+        <v>518</v>
       </c>
       <c r="G303" s="7" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H303" s="16" t="n">
-        <v>29.07</v>
+        <v>25.02</v>
       </c>
       <c r="J303" s="5" t="n"/>
       <c r="L303" s="14" t="n"/>
@@ -43978,30 +43978,30 @@
     <row r="304" ht="13" customHeight="1">
       <c r="B304" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="C304" s="7" t="inlineStr">
         <is>
-          <t>Kristin Urnes</t>
+          <t>Maria Døske</t>
         </is>
       </c>
       <c r="D304" s="7" t="n">
-        <v>1975</v>
+        <v>2005</v>
       </c>
       <c r="E304" s="15" t="n">
-        <v>1.36</v>
+        <v>26.53</v>
       </c>
       <c r="F304" s="7" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G304" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="H304" s="16" t="n">
-        <v>4.07</v>
+        <v>29.07</v>
       </c>
       <c r="J304" s="5" t="n"/>
       <c r="L304" s="14" t="n"/>
@@ -44046,7 +44046,7 @@
         </is>
       </c>
       <c r="F306" s="20" t="n">
-        <v>9741</v>
+        <v>9779</v>
       </c>
       <c r="J306" s="5" t="n"/>
       <c r="L306" s="19" t="inlineStr">
@@ -44086,7 +44086,7 @@
         </is>
       </c>
       <c r="F308" s="20" t="n">
-        <v>21266</v>
+        <v>21355</v>
       </c>
       <c r="J308" s="5" t="n"/>
       <c r="L308" s="19" t="inlineStr">
@@ -44118,7 +44118,7 @@
         </is>
       </c>
       <c r="C310" s="20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J310" s="5" t="n"/>
       <c r="L310" s="19" t="inlineStr">
@@ -46481,7 +46481,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>15659</v>
+        <v>15830</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -46640,25 +46640,25 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Ask Friidrett</t>
+          <t>Nittedal IL</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>(25/10)</t>
+          <t>(25/12)</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>13900</v>
+        <v>14010</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>(3/3d)</t>
+          <t>(13/1d)</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -46668,25 +46668,25 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Nittedal IL</t>
+          <t>Ask Friidrett</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>(25/12)</t>
+          <t>(25/10)</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>13783</v>
+        <v>13900</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>(13/1d)</t>
+          <t>(3/3d)</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -49447,30 +49447,30 @@
       <c r="J64" s="5" t="n"/>
       <c r="L64" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M64" s="7" t="inlineStr">
         <is>
-          <t>Marie Mollestad</t>
+          <t>Julie Lunde</t>
         </is>
       </c>
       <c r="N64" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O64" s="15" t="n">
-        <v>5.22</v>
+        <v>2.35</v>
       </c>
       <c r="P64" s="7" t="n">
-        <v>666</v>
+        <v>522</v>
       </c>
       <c r="Q64" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R64" s="16" t="n">
-        <v>16.06</v>
+        <v>27.09</v>
       </c>
       <c r="T64" s="5" t="n"/>
     </row>
@@ -49505,7 +49505,7 @@
       <c r="J65" s="5" t="n"/>
       <c r="L65" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M65" s="7" t="inlineStr">
@@ -49517,18 +49517,18 @@
         <v>2007</v>
       </c>
       <c r="O65" s="15" t="n">
-        <v>10.4</v>
+        <v>5.22</v>
       </c>
       <c r="P65" s="7" t="n">
-        <v>600</v>
+        <v>666</v>
       </c>
       <c r="Q65" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R65" s="16" t="n">
-        <v>9.09</v>
+        <v>16.06</v>
       </c>
       <c r="T65" s="5" t="n"/>
     </row>
@@ -49563,7 +49563,7 @@
       <c r="J66" s="5" t="n"/>
       <c r="L66" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M66" s="7" t="inlineStr">
@@ -49575,18 +49575,18 @@
         <v>2007</v>
       </c>
       <c r="O66" s="15" t="n">
-        <v>1.36</v>
+        <v>10.4</v>
       </c>
       <c r="P66" s="7" t="n">
-        <v>722</v>
+        <v>600</v>
       </c>
       <c r="Q66" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R66" s="16" t="n">
-        <v>18.02</v>
+        <v>9.09</v>
       </c>
       <c r="T66" s="5" t="n"/>
     </row>
@@ -49621,7 +49621,7 @@
       <c r="J67" s="5" t="n"/>
       <c r="L67" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M67" s="7" t="inlineStr">
@@ -49633,10 +49633,10 @@
         <v>2007</v>
       </c>
       <c r="O67" s="15" t="n">
-        <v>2.47</v>
+        <v>1.36</v>
       </c>
       <c r="P67" s="7" t="n">
-        <v>612</v>
+        <v>722</v>
       </c>
       <c r="Q67" s="7" t="inlineStr">
         <is>
@@ -49644,7 +49644,7 @@
         </is>
       </c>
       <c r="R67" s="16" t="n">
-        <v>19.02</v>
+        <v>18.02</v>
       </c>
       <c r="T67" s="5" t="n"/>
     </row>
@@ -49679,30 +49679,30 @@
       <c r="J68" s="5" t="n"/>
       <c r="L68" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M68" s="7" t="inlineStr">
         <is>
-          <t>Eline Heia</t>
+          <t>Marie Mollestad</t>
         </is>
       </c>
       <c r="N68" s="7" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="O68" s="15" t="n">
-        <v>7.1</v>
+        <v>2.47</v>
       </c>
       <c r="P68" s="7" t="n">
-        <v>351</v>
+        <v>612</v>
       </c>
       <c r="Q68" s="7" t="inlineStr">
         <is>
-          <t>Søgne</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R68" s="16" t="n">
-        <v>16.09</v>
+        <v>19.02</v>
       </c>
       <c r="T68" s="5" t="n"/>
     </row>
@@ -49756,7 +49756,7 @@
         </is>
       </c>
       <c r="P70" s="20" t="n">
-        <v>8178</v>
+        <v>8349</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
@@ -50650,7 +50650,7 @@
         </is>
       </c>
       <c r="P90" s="20" t="n">
-        <v>15659</v>
+        <v>15830</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
@@ -54612,7 +54612,7 @@
       </c>
       <c r="M190" s="7" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Akershus</t>
         </is>
       </c>
       <c r="P190" s="8" t="n">
@@ -54639,7 +54639,7 @@
       </c>
       <c r="M191" s="7" t="inlineStr">
         <is>
-          <t>Ask Friidrett</t>
+          <t>Nittedal IL</t>
         </is>
       </c>
       <c r="T191" s="5" t="n"/>
@@ -54796,25 +54796,25 @@
       </c>
       <c r="M197" s="7" t="inlineStr">
         <is>
-          <t>Anna Kolstad Silseth</t>
+          <t>Sofie Bjerva Johnskareng</t>
         </is>
       </c>
       <c r="N197" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="O197" s="15" t="n">
-        <v>8.01</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="P197" s="7" t="n">
-        <v>731</v>
+        <v>652</v>
       </c>
       <c r="Q197" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R197" s="16" t="n">
-        <v>4.03</v>
+        <v>16.09</v>
       </c>
       <c r="T197" s="5" t="n"/>
     </row>
@@ -54854,25 +54854,25 @@
       </c>
       <c r="M198" s="7" t="inlineStr">
         <is>
-          <t>Anna Kolstad Silseth</t>
+          <t>Sofie Bjerva Johnskareng</t>
         </is>
       </c>
       <c r="N198" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="O198" s="15" t="n">
-        <v>12.53</v>
+        <v>13.42</v>
       </c>
       <c r="P198" s="7" t="n">
-        <v>754</v>
+        <v>600</v>
       </c>
       <c r="Q198" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R198" s="16" t="n">
-        <v>18.06</v>
+        <v>19.08</v>
       </c>
       <c r="T198" s="5" t="n"/>
     </row>
@@ -54912,25 +54912,25 @@
       </c>
       <c r="M199" s="7" t="inlineStr">
         <is>
-          <t>Anna Kolstad Silseth</t>
+          <t>Sofie Bjerva Johnskareng</t>
         </is>
       </c>
       <c r="N199" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="O199" s="15" t="n">
-        <v>26.13</v>
+        <v>27.95</v>
       </c>
       <c r="P199" s="7" t="n">
-        <v>716</v>
+        <v>582</v>
       </c>
       <c r="Q199" s="7" t="inlineStr">
         <is>
-          <t>Rosendal</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R199" s="16" t="n">
-        <v>28.05</v>
+        <v>20.08</v>
       </c>
       <c r="T199" s="5" t="n"/>
     </row>
@@ -54972,27 +54972,27 @@
       </c>
       <c r="M200" s="7" t="inlineStr">
         <is>
-          <t>Sigri Hundven Eliassen</t>
+          <t>Eline Skaar</t>
         </is>
       </c>
       <c r="N200" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O200" s="17" t="inlineStr">
         <is>
-          <t>1,01,41</t>
+          <t>1,01,31</t>
         </is>
       </c>
       <c r="P200" s="7" t="n">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="Q200" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R200" s="16" t="n">
-        <v>25.08</v>
+        <v>28.09</v>
       </c>
       <c r="T200" s="5" t="n"/>
     </row>
@@ -55032,27 +55032,27 @@
       </c>
       <c r="M201" s="7" t="inlineStr">
         <is>
-          <t>Ronja Malene Indrearne Furevik</t>
+          <t>Eline Skaar</t>
         </is>
       </c>
       <c r="N201" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="O201" s="17" t="inlineStr">
         <is>
-          <t>2,18,26</t>
+          <t>2,17,99</t>
         </is>
       </c>
       <c r="P201" s="7" t="n">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="Q201" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R201" s="16" t="n">
-        <v>30.06</v>
+        <v>9.09</v>
       </c>
       <c r="T201" s="5" t="n"/>
     </row>
@@ -55092,27 +55092,27 @@
       </c>
       <c r="M202" s="7" t="inlineStr">
         <is>
-          <t>Ronja Malene Indrearne Furevik</t>
+          <t>Eline Skaar</t>
         </is>
       </c>
       <c r="N202" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="O202" s="17" t="inlineStr">
         <is>
-          <t>4,40,10</t>
+          <t>4,39,84</t>
         </is>
       </c>
       <c r="P202" s="7" t="n">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="Q202" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R202" s="16" t="n">
-        <v>17.09</v>
+        <v>26.08</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
@@ -55152,27 +55152,27 @@
       </c>
       <c r="M203" s="7" t="inlineStr">
         <is>
-          <t>Bodil Hansen</t>
+          <t>Eline Skaar</t>
         </is>
       </c>
       <c r="N203" s="7" t="n">
-        <v>1971</v>
+        <v>2007</v>
       </c>
       <c r="O203" s="17" t="inlineStr">
         <is>
-          <t>11,46,57</t>
+          <t>10,15,37</t>
         </is>
       </c>
       <c r="P203" s="7" t="n">
-        <v>490</v>
+        <v>700</v>
       </c>
       <c r="Q203" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R203" s="16" t="n">
-        <v>29.01</v>
+        <v>10.09</v>
       </c>
       <c r="T203" s="5" t="n"/>
     </row>
@@ -55212,25 +55212,25 @@
       </c>
       <c r="M204" s="7" t="inlineStr">
         <is>
-          <t>Natalie Eliassen</t>
+          <t>Dahlia Miriam Øksne</t>
         </is>
       </c>
       <c r="N204" s="7" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="O204" s="15" t="n">
-        <v>1.07</v>
+        <v>1.43</v>
       </c>
       <c r="P204" s="7" t="n">
-        <v>130</v>
+        <v>547</v>
       </c>
       <c r="Q204" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R204" s="16" t="n">
-        <v>13.05</v>
+        <v>3.06</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -55270,25 +55270,25 @@
       </c>
       <c r="M205" s="7" t="inlineStr">
         <is>
-          <t>Pernille Hvamsal Sagevik</t>
+          <t>Helene Korsmo Walskrå</t>
         </is>
       </c>
       <c r="N205" s="7" t="n">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="O205" s="15" t="n">
-        <v>5.08</v>
+        <v>4.35</v>
       </c>
       <c r="P205" s="7" t="n">
-        <v>636</v>
+        <v>473</v>
       </c>
       <c r="Q205" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R205" s="16" t="n">
-        <v>11.02</v>
+        <v>9.09</v>
       </c>
       <c r="T205" s="5" t="n"/>
     </row>
@@ -55323,30 +55323,30 @@
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M206" s="7" t="inlineStr">
         <is>
-          <t>Pernille Hvamsal Sagevik</t>
+          <t>Tiril Lappegård</t>
         </is>
       </c>
       <c r="N206" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="O206" s="15" t="n">
-        <v>10.53</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="P206" s="7" t="n">
-        <v>613</v>
+        <v>517</v>
       </c>
       <c r="Q206" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="R206" s="16" t="n">
-        <v>12.02</v>
+        <v>16.09</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
@@ -55381,30 +55381,30 @@
       <c r="J207" s="5" t="n"/>
       <c r="L207" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M207" s="7" t="inlineStr">
         <is>
-          <t>Anna Kolstad Silseth</t>
+          <t>Meike Hesselink</t>
         </is>
       </c>
       <c r="N207" s="7" t="n">
-        <v>2006</v>
+        <v>1977</v>
       </c>
       <c r="O207" s="15" t="n">
-        <v>1.05</v>
+        <v>24.08</v>
       </c>
       <c r="P207" s="7" t="n">
-        <v>357</v>
+        <v>476</v>
       </c>
       <c r="Q207" s="7" t="inlineStr">
         <is>
-          <t>Askøy</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R207" s="16" t="n">
-        <v>16.03</v>
+        <v>2.05</v>
       </c>
       <c r="T207" s="5" t="n"/>
     </row>
@@ -55439,30 +55439,30 @@
       <c r="J208" s="5" t="n"/>
       <c r="L208" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="M208" s="7" t="inlineStr">
         <is>
-          <t>Anna Kolstad Silseth</t>
+          <t>Tiril Lappegård</t>
         </is>
       </c>
       <c r="N208" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="O208" s="15" t="n">
-        <v>2.47</v>
+        <v>52.98</v>
       </c>
       <c r="P208" s="7" t="n">
-        <v>612</v>
+        <v>844</v>
       </c>
       <c r="Q208" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Brandbu</t>
         </is>
       </c>
       <c r="R208" s="16" t="n">
-        <v>10.02</v>
+        <v>28.08</v>
       </c>
       <c r="T208" s="5" t="n"/>
     </row>
@@ -55497,30 +55497,30 @@
       <c r="J209" s="5" t="n"/>
       <c r="L209" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M209" s="7" t="inlineStr">
         <is>
-          <t>Sofie Hustad</t>
+          <t>Sonia Elisabeth Fearnley</t>
         </is>
       </c>
       <c r="N209" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="O209" s="15" t="n">
-        <v>12.49</v>
+        <v>38.69</v>
       </c>
       <c r="P209" s="7" t="n">
-        <v>70</v>
+        <v>681</v>
       </c>
       <c r="Q209" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R209" s="16" t="n">
-        <v>20.09</v>
+        <v>9.09</v>
       </c>
       <c r="T209" s="5" t="n"/>
     </row>
@@ -55574,7 +55574,7 @@
         </is>
       </c>
       <c r="P211" s="20" t="n">
-        <v>7157</v>
+        <v>8128</v>
       </c>
       <c r="T211" s="5" t="n"/>
     </row>
@@ -55705,30 +55705,32 @@
       <c r="J216" s="5" t="n"/>
       <c r="L216" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M216" s="7" t="inlineStr">
         <is>
-          <t>Mina Sofie Hostad</t>
+          <t>Erle Haukåen Stødle</t>
         </is>
       </c>
       <c r="N216" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O216" s="15" t="n">
-        <v>8.130000000000001</v>
+        <v>2009</v>
+      </c>
+      <c r="O216" s="17" t="inlineStr">
+        <is>
+          <t>5,14,94</t>
+        </is>
       </c>
       <c r="P216" s="7" t="n">
-        <v>695</v>
+        <v>537</v>
       </c>
       <c r="Q216" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R216" s="16" t="n">
-        <v>11.02</v>
+        <v>18.06</v>
       </c>
       <c r="T216" s="5" t="n"/>
     </row>
@@ -55763,30 +55765,32 @@
       <c r="J217" s="5" t="n"/>
       <c r="L217" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M217" s="7" t="inlineStr">
         <is>
-          <t>Sigri Hundven Eliassen</t>
+          <t>Erle Haukåen Stødle</t>
         </is>
       </c>
       <c r="N217" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O217" s="15" t="n">
-        <v>27.04</v>
+        <v>2009</v>
+      </c>
+      <c r="O217" s="17" t="inlineStr">
+        <is>
+          <t>2,33,45</t>
+        </is>
       </c>
       <c r="P217" s="7" t="n">
-        <v>647</v>
+        <v>524</v>
       </c>
       <c r="Q217" s="7" t="inlineStr">
         <is>
-          <t>Rosendal</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R217" s="16" t="n">
-        <v>28.05</v>
+        <v>22.06</v>
       </c>
       <c r="T217" s="5" t="n"/>
     </row>
@@ -55821,30 +55825,30 @@
       <c r="J218" s="5" t="n"/>
       <c r="L218" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M218" s="7" t="inlineStr">
         <is>
-          <t>Sigri Hundven Eliassen</t>
+          <t>Alma Owrehagen</t>
         </is>
       </c>
       <c r="N218" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O218" s="15" t="n">
-        <v>13.26</v>
+        <v>28.84</v>
       </c>
       <c r="P218" s="7" t="n">
-        <v>627</v>
+        <v>523</v>
       </c>
       <c r="Q218" s="7" t="inlineStr">
         <is>
-          <t>Rosendal</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R218" s="16" t="n">
-        <v>27.05</v>
+        <v>17.09</v>
       </c>
       <c r="T218" s="5" t="n"/>
     </row>
@@ -55879,30 +55883,32 @@
       <c r="J219" s="5" t="n"/>
       <c r="L219" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M219" s="7" t="inlineStr">
         <is>
-          <t>Pernille Hvamsal Sagevik</t>
+          <t>Vilde Martinsen</t>
         </is>
       </c>
       <c r="N219" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="O219" s="15" t="n">
-        <v>27.42</v>
+        <v>2003</v>
+      </c>
+      <c r="O219" s="17" t="inlineStr">
+        <is>
+          <t>5,18,33</t>
+        </is>
       </c>
       <c r="P219" s="7" t="n">
-        <v>619</v>
+        <v>521</v>
       </c>
       <c r="Q219" s="7" t="inlineStr">
         <is>
-          <t>Rosendal</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R219" s="16" t="n">
-        <v>28.05</v>
+        <v>22.05</v>
       </c>
       <c r="T219" s="5" t="n"/>
     </row>
@@ -55942,25 +55948,25 @@
       </c>
       <c r="M220" s="7" t="inlineStr">
         <is>
-          <t>Pernille Hvamsal Sagevik</t>
+          <t>Helene Korsmo Walskrå</t>
         </is>
       </c>
       <c r="N220" s="7" t="n">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="O220" s="15" t="n">
-        <v>8.550000000000001</v>
+        <v>8.83</v>
       </c>
       <c r="P220" s="7" t="n">
-        <v>580</v>
+        <v>512</v>
       </c>
       <c r="Q220" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R220" s="16" t="n">
-        <v>22.01</v>
+        <v>16.09</v>
       </c>
       <c r="T220" s="5" t="n"/>
     </row>
@@ -56000,25 +56006,25 @@
       </c>
       <c r="M221" s="7" t="inlineStr">
         <is>
-          <t>Sigri Hundven Eliassen</t>
+          <t>Alma Owrehagen</t>
         </is>
       </c>
       <c r="N221" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O221" s="15" t="n">
-        <v>8.57</v>
+        <v>8.94</v>
       </c>
       <c r="P221" s="7" t="n">
-        <v>575</v>
+        <v>486</v>
       </c>
       <c r="Q221" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="R221" s="16" t="n">
-        <v>22.01</v>
+        <v>11.03</v>
       </c>
       <c r="T221" s="5" t="n"/>
     </row>
@@ -56053,30 +56059,30 @@
       <c r="J222" s="5" t="n"/>
       <c r="L222" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M222" s="7" t="inlineStr">
         <is>
-          <t>Sofie Hustad</t>
+          <t>Erle Haukåen Stødle</t>
         </is>
       </c>
       <c r="N222" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="O222" s="15" t="n">
-        <v>8.59</v>
+        <v>29.51</v>
       </c>
       <c r="P222" s="7" t="n">
-        <v>570</v>
+        <v>481</v>
       </c>
       <c r="Q222" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R222" s="16" t="n">
-        <v>4.03</v>
+        <v>20.08</v>
       </c>
       <c r="T222" s="5" t="n"/>
     </row>
@@ -56111,30 +56117,30 @@
       <c r="J223" s="5" t="n"/>
       <c r="L223" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M223" s="7" t="inlineStr">
         <is>
-          <t>Sofie Hustad</t>
+          <t>Alma Owrehagen</t>
         </is>
       </c>
       <c r="N223" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O223" s="15" t="n">
-        <v>28.17</v>
+        <v>14.21</v>
       </c>
       <c r="P223" s="7" t="n">
-        <v>567</v>
+        <v>480</v>
       </c>
       <c r="Q223" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R223" s="16" t="n">
-        <v>7.06</v>
+        <v>19.08</v>
       </c>
       <c r="T223" s="5" t="n"/>
     </row>
@@ -56169,30 +56175,30 @@
       <c r="J224" s="5" t="n"/>
       <c r="L224" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M224" s="7" t="inlineStr">
         <is>
-          <t>Sofie Hustad</t>
+          <t>Anna Kjønø</t>
         </is>
       </c>
       <c r="N224" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="O224" s="15" t="n">
-        <v>2.35</v>
+        <v>1.35</v>
       </c>
       <c r="P224" s="7" t="n">
-        <v>532</v>
+        <v>470</v>
       </c>
       <c r="Q224" s="7" t="inlineStr">
         <is>
-          <t>Askøy</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R224" s="16" t="n">
-        <v>13.02</v>
+        <v>12.02</v>
       </c>
       <c r="T224" s="5" t="n"/>
     </row>
@@ -56227,30 +56233,30 @@
       <c r="J225" s="5" t="n"/>
       <c r="L225" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M225" s="7" t="inlineStr">
         <is>
-          <t>Elin Hundven Eliassen</t>
+          <t>Sofie Bjerva Johnskareng</t>
         </is>
       </c>
       <c r="N225" s="7" t="n">
-        <v>1973</v>
+        <v>2009</v>
       </c>
       <c r="O225" s="15" t="n">
-        <v>2.3</v>
+        <v>4.29</v>
       </c>
       <c r="P225" s="7" t="n">
-        <v>496</v>
+        <v>459</v>
       </c>
       <c r="Q225" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R225" s="16" t="n">
-        <v>10.02</v>
+        <v>9.09</v>
       </c>
       <c r="T225" s="5" t="n"/>
     </row>
@@ -56285,30 +56291,30 @@
       <c r="J226" s="5" t="n"/>
       <c r="L226" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M226" s="7" t="inlineStr">
         <is>
-          <t>Pernille Hvamsal Sagevik</t>
+          <t>Anna Kjønø</t>
         </is>
       </c>
       <c r="N226" s="7" t="n">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="O226" s="15" t="n">
-        <v>2.23</v>
+        <v>4.27</v>
       </c>
       <c r="P226" s="7" t="n">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="Q226" s="7" t="inlineStr">
         <is>
-          <t>Askøy</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="R226" s="16" t="n">
-        <v>13.02</v>
+        <v>12.03</v>
       </c>
       <c r="T226" s="5" t="n"/>
     </row>
@@ -56343,26 +56349,26 @@
       <c r="J227" s="5" t="n"/>
       <c r="L227" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M227" s="7" t="inlineStr">
         <is>
-          <t>Venja Lillebø</t>
+          <t>Tuva Helene Rugsveen</t>
         </is>
       </c>
       <c r="N227" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="O227" s="15" t="n">
-        <v>4.02</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="P227" s="7" t="n">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="Q227" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R227" s="16" t="n">
@@ -56420,7 +56426,7 @@
         </is>
       </c>
       <c r="P229" s="20" t="n">
-        <v>6743</v>
+        <v>5882</v>
       </c>
       <c r="T229" s="5" t="n"/>
     </row>
@@ -56460,7 +56466,7 @@
         </is>
       </c>
       <c r="P231" s="20" t="n">
-        <v>13900</v>
+        <v>14010</v>
       </c>
       <c r="T231" s="5" t="n"/>
     </row>
@@ -56484,7 +56490,7 @@
         </is>
       </c>
       <c r="M233" s="20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T233" s="5" t="n"/>
     </row>
@@ -56526,7 +56532,7 @@
       </c>
       <c r="C237" s="7" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="F237" s="8" t="n">
@@ -56556,7 +56562,7 @@
       </c>
       <c r="C238" s="7" t="inlineStr">
         <is>
-          <t>Nittedal IL</t>
+          <t>Ask Friidrett</t>
         </is>
       </c>
       <c r="J238" s="5" t="n"/>
@@ -56696,25 +56702,25 @@
       </c>
       <c r="C244" s="7" t="inlineStr">
         <is>
-          <t>Sofie Bjerva Johnskareng</t>
+          <t>Anna Kolstad Silseth</t>
         </is>
       </c>
       <c r="D244" s="7" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="E244" s="15" t="n">
-        <v>8.279999999999999</v>
+        <v>8.01</v>
       </c>
       <c r="F244" s="7" t="n">
-        <v>652</v>
+        <v>731</v>
       </c>
       <c r="G244" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H244" s="16" t="n">
-        <v>16.09</v>
+        <v>4.03</v>
       </c>
       <c r="J244" s="5" t="n"/>
       <c r="L244" s="14" t="inlineStr">
@@ -56754,25 +56760,25 @@
       </c>
       <c r="C245" s="7" t="inlineStr">
         <is>
-          <t>Sofie Bjerva Johnskareng</t>
+          <t>Anna Kolstad Silseth</t>
         </is>
       </c>
       <c r="D245" s="7" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="E245" s="15" t="n">
-        <v>13.42</v>
+        <v>12.53</v>
       </c>
       <c r="F245" s="7" t="n">
-        <v>600</v>
+        <v>754</v>
       </c>
       <c r="G245" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H245" s="16" t="n">
-        <v>19.08</v>
+        <v>18.06</v>
       </c>
       <c r="J245" s="5" t="n"/>
       <c r="L245" s="14" t="inlineStr">
@@ -56812,25 +56818,25 @@
       </c>
       <c r="C246" s="7" t="inlineStr">
         <is>
-          <t>Sofie Bjerva Johnskareng</t>
+          <t>Anna Kolstad Silseth</t>
         </is>
       </c>
       <c r="D246" s="7" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="E246" s="15" t="n">
-        <v>27.95</v>
+        <v>26.13</v>
       </c>
       <c r="F246" s="7" t="n">
-        <v>582</v>
+        <v>716</v>
       </c>
       <c r="G246" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Rosendal</t>
         </is>
       </c>
       <c r="H246" s="16" t="n">
-        <v>20.08</v>
+        <v>28.05</v>
       </c>
       <c r="J246" s="5" t="n"/>
       <c r="L246" s="14" t="inlineStr">
@@ -56865,32 +56871,32 @@
     <row r="247" ht="13" customHeight="1">
       <c r="B247" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C247" s="7" t="inlineStr">
         <is>
-          <t>Eline Skaar</t>
+          <t>Sigri Hundven Eliassen</t>
         </is>
       </c>
       <c r="D247" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E247" s="17" t="inlineStr">
         <is>
-          <t>2,17,99</t>
+          <t>1,01,41</t>
         </is>
       </c>
       <c r="F247" s="7" t="n">
-        <v>692</v>
+        <v>635</v>
       </c>
       <c r="G247" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H247" s="16" t="n">
-        <v>9.09</v>
+        <v>25.08</v>
       </c>
       <c r="J247" s="5" t="n"/>
       <c r="L247" s="14" t="inlineStr">
@@ -56927,32 +56933,32 @@
     <row r="248" ht="13" customHeight="1">
       <c r="B248" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C248" s="7" t="inlineStr">
         <is>
-          <t>Eline Skaar</t>
+          <t>Ronja Malene Indrearne Furevik</t>
         </is>
       </c>
       <c r="D248" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E248" s="17" t="inlineStr">
         <is>
-          <t>4,39,84</t>
+          <t>2,18,26</t>
         </is>
       </c>
       <c r="F248" s="7" t="n">
-        <v>726</v>
+        <v>689</v>
       </c>
       <c r="G248" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H248" s="16" t="n">
-        <v>26.08</v>
+        <v>30.06</v>
       </c>
       <c r="J248" s="5" t="n"/>
       <c r="L248" s="14" t="inlineStr">
@@ -56989,32 +56995,32 @@
     <row r="249" ht="13" customHeight="1">
       <c r="B249" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C249" s="7" t="inlineStr">
         <is>
-          <t>Eline Skaar</t>
+          <t>Ronja Malene Indrearne Furevik</t>
         </is>
       </c>
       <c r="D249" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E249" s="17" t="inlineStr">
         <is>
-          <t>10,15,37</t>
+          <t>4,40,10</t>
         </is>
       </c>
       <c r="F249" s="7" t="n">
-        <v>700</v>
+        <v>724</v>
       </c>
       <c r="G249" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H249" s="16" t="n">
-        <v>10.09</v>
+        <v>17.09</v>
       </c>
       <c r="J249" s="5" t="n"/>
       <c r="L249" s="14" t="inlineStr">
@@ -57051,30 +57057,32 @@
     <row r="250" ht="13" customHeight="1">
       <c r="B250" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C250" s="7" t="inlineStr">
         <is>
-          <t>Dahlia Miriam Øksne</t>
+          <t>Bodil Hansen</t>
         </is>
       </c>
       <c r="D250" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E250" s="15" t="n">
-        <v>1.43</v>
+        <v>1971</v>
+      </c>
+      <c r="E250" s="17" t="inlineStr">
+        <is>
+          <t>11,46,57</t>
+        </is>
       </c>
       <c r="F250" s="7" t="n">
-        <v>547</v>
+        <v>490</v>
       </c>
       <c r="G250" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="H250" s="16" t="n">
-        <v>3.06</v>
+        <v>29.01</v>
       </c>
       <c r="J250" s="5" t="n"/>
       <c r="L250" s="14" t="inlineStr">
@@ -57109,30 +57117,30 @@
     <row r="251" ht="13" customHeight="1">
       <c r="B251" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C251" s="7" t="inlineStr">
         <is>
-          <t>Helene Korsmo Walskrå</t>
+          <t>Natalie Eliassen</t>
         </is>
       </c>
       <c r="D251" s="7" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="E251" s="15" t="n">
-        <v>4.35</v>
+        <v>1.07</v>
       </c>
       <c r="F251" s="7" t="n">
-        <v>473</v>
+        <v>130</v>
       </c>
       <c r="G251" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H251" s="16" t="n">
-        <v>9.09</v>
+        <v>13.05</v>
       </c>
       <c r="J251" s="5" t="n"/>
       <c r="L251" s="14" t="inlineStr">
@@ -57167,30 +57175,30 @@
     <row r="252" ht="13" customHeight="1">
       <c r="B252" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C252" s="7" t="inlineStr">
         <is>
-          <t>Tuva Helene Rugsveen</t>
+          <t>Pernille Hvamsal Sagevik</t>
         </is>
       </c>
       <c r="D252" s="7" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="E252" s="15" t="n">
-        <v>8.869999999999999</v>
+        <v>5.08</v>
       </c>
       <c r="F252" s="7" t="n">
-        <v>435</v>
+        <v>636</v>
       </c>
       <c r="G252" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H252" s="16" t="n">
-        <v>12.02</v>
+        <v>11.02</v>
       </c>
       <c r="J252" s="5" t="n"/>
       <c r="L252" s="14" t="inlineStr">
@@ -57225,30 +57233,30 @@
     <row r="253" ht="13" customHeight="1">
       <c r="B253" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C253" s="7" t="inlineStr">
         <is>
-          <t>Tiril Lappegård</t>
+          <t>Pernille Hvamsal Sagevik</t>
         </is>
       </c>
       <c r="D253" s="7" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E253" s="15" t="n">
-        <v>9.039999999999999</v>
+        <v>10.53</v>
       </c>
       <c r="F253" s="7" t="n">
-        <v>517</v>
+        <v>613</v>
       </c>
       <c r="G253" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H253" s="16" t="n">
-        <v>16.09</v>
+        <v>12.02</v>
       </c>
       <c r="J253" s="5" t="n"/>
       <c r="L253" s="14" t="inlineStr">
@@ -57283,30 +57291,30 @@
     <row r="254" ht="13" customHeight="1">
       <c r="B254" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C254" s="7" t="inlineStr">
         <is>
-          <t>Meike Hesselink</t>
+          <t>Anna Kolstad Silseth</t>
         </is>
       </c>
       <c r="D254" s="7" t="n">
-        <v>1977</v>
+        <v>2006</v>
       </c>
       <c r="E254" s="15" t="n">
-        <v>24.08</v>
+        <v>1.05</v>
       </c>
       <c r="F254" s="7" t="n">
-        <v>476</v>
+        <v>357</v>
       </c>
       <c r="G254" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Askøy</t>
         </is>
       </c>
       <c r="H254" s="16" t="n">
-        <v>2.05</v>
+        <v>16.03</v>
       </c>
       <c r="J254" s="5" t="n"/>
       <c r="L254" s="14" t="inlineStr">
@@ -57341,30 +57349,30 @@
     <row r="255" ht="13" customHeight="1">
       <c r="B255" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C255" s="7" t="inlineStr">
         <is>
-          <t>Tiril Lappegård</t>
+          <t>Anna Kolstad Silseth</t>
         </is>
       </c>
       <c r="D255" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="E255" s="15" t="n">
-        <v>52.98</v>
+        <v>2.47</v>
       </c>
       <c r="F255" s="7" t="n">
-        <v>844</v>
+        <v>612</v>
       </c>
       <c r="G255" s="7" t="inlineStr">
         <is>
-          <t>Brandbu</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H255" s="16" t="n">
-        <v>28.08</v>
+        <v>10.02</v>
       </c>
       <c r="J255" s="5" t="n"/>
       <c r="L255" s="14" t="inlineStr">
@@ -57399,30 +57407,30 @@
     <row r="256" ht="13" customHeight="1">
       <c r="B256" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C256" s="7" t="inlineStr">
         <is>
-          <t>Sonia Elisabeth Fearnley</t>
+          <t>Sofie Hustad</t>
         </is>
       </c>
       <c r="D256" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="E256" s="15" t="n">
-        <v>38.69</v>
+        <v>12.49</v>
       </c>
       <c r="F256" s="7" t="n">
-        <v>681</v>
+        <v>70</v>
       </c>
       <c r="G256" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="H256" s="16" t="n">
-        <v>9.09</v>
+        <v>20.09</v>
       </c>
       <c r="J256" s="5" t="n"/>
       <c r="L256" s="14" t="inlineStr">
@@ -57487,7 +57495,7 @@
         </is>
       </c>
       <c r="F258" s="20" t="n">
-        <v>7925</v>
+        <v>7157</v>
       </c>
       <c r="J258" s="5" t="n"/>
       <c r="L258" s="19" t="inlineStr">
@@ -57607,32 +57615,30 @@
     <row r="263" ht="13" customHeight="1">
       <c r="B263" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C263" s="7" t="inlineStr">
         <is>
-          <t>Erle Haukåen Stødle</t>
+          <t>Mina Sofie Hostad</t>
         </is>
       </c>
       <c r="D263" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E263" s="17" t="inlineStr">
-        <is>
-          <t>5,14,94</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="E263" s="15" t="n">
+        <v>8.130000000000001</v>
       </c>
       <c r="F263" s="7" t="n">
-        <v>537</v>
+        <v>695</v>
       </c>
       <c r="G263" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H263" s="16" t="n">
-        <v>18.06</v>
+        <v>11.02</v>
       </c>
       <c r="J263" s="5" t="n"/>
       <c r="L263" s="14" t="inlineStr">
@@ -57667,32 +57673,30 @@
     <row r="264" ht="13" customHeight="1">
       <c r="B264" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C264" s="7" t="inlineStr">
         <is>
-          <t>Erle Haukåen Stødle</t>
+          <t>Sigri Hundven Eliassen</t>
         </is>
       </c>
       <c r="D264" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E264" s="17" t="inlineStr">
-        <is>
-          <t>2,33,45</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="E264" s="15" t="n">
+        <v>27.04</v>
       </c>
       <c r="F264" s="7" t="n">
-        <v>524</v>
+        <v>647</v>
       </c>
       <c r="G264" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Rosendal</t>
         </is>
       </c>
       <c r="H264" s="16" t="n">
-        <v>22.06</v>
+        <v>28.05</v>
       </c>
       <c r="J264" s="5" t="n"/>
       <c r="L264" s="14" t="inlineStr">
@@ -57729,30 +57733,30 @@
     <row r="265" ht="13" customHeight="1">
       <c r="B265" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C265" s="7" t="inlineStr">
         <is>
-          <t>Alma Owrehagen</t>
+          <t>Sigri Hundven Eliassen</t>
         </is>
       </c>
       <c r="D265" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E265" s="15" t="n">
-        <v>28.84</v>
+        <v>13.26</v>
       </c>
       <c r="F265" s="7" t="n">
-        <v>523</v>
+        <v>627</v>
       </c>
       <c r="G265" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Rosendal</t>
         </is>
       </c>
       <c r="H265" s="16" t="n">
-        <v>17.09</v>
+        <v>27.05</v>
       </c>
       <c r="J265" s="5" t="n"/>
       <c r="L265" s="14" t="inlineStr">
@@ -57789,32 +57793,30 @@
     <row r="266" ht="13" customHeight="1">
       <c r="B266" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C266" s="7" t="inlineStr">
         <is>
-          <t>Vilde Martinsen</t>
+          <t>Pernille Hvamsal Sagevik</t>
         </is>
       </c>
       <c r="D266" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E266" s="17" t="inlineStr">
-        <is>
-          <t>5,18,33</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="E266" s="15" t="n">
+        <v>27.42</v>
       </c>
       <c r="F266" s="7" t="n">
-        <v>521</v>
+        <v>619</v>
       </c>
       <c r="G266" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Rosendal</t>
         </is>
       </c>
       <c r="H266" s="16" t="n">
-        <v>22.05</v>
+        <v>28.05</v>
       </c>
       <c r="J266" s="5" t="n"/>
       <c r="L266" s="14" t="inlineStr">
@@ -57854,25 +57856,25 @@
       </c>
       <c r="C267" s="7" t="inlineStr">
         <is>
-          <t>Helene Korsmo Walskrå</t>
+          <t>Pernille Hvamsal Sagevik</t>
         </is>
       </c>
       <c r="D267" s="7" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="E267" s="15" t="n">
-        <v>8.83</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="F267" s="7" t="n">
-        <v>512</v>
+        <v>580</v>
       </c>
       <c r="G267" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H267" s="16" t="n">
-        <v>16.09</v>
+        <v>22.01</v>
       </c>
       <c r="J267" s="5" t="n"/>
       <c r="L267" s="14" t="inlineStr">
@@ -57914,25 +57916,25 @@
       </c>
       <c r="C268" s="7" t="inlineStr">
         <is>
-          <t>Alma Owrehagen</t>
+          <t>Sigri Hundven Eliassen</t>
         </is>
       </c>
       <c r="D268" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E268" s="15" t="n">
-        <v>8.94</v>
+        <v>8.57</v>
       </c>
       <c r="F268" s="7" t="n">
-        <v>486</v>
+        <v>575</v>
       </c>
       <c r="G268" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H268" s="16" t="n">
-        <v>11.03</v>
+        <v>22.01</v>
       </c>
       <c r="J268" s="5" t="n"/>
       <c r="L268" s="14" t="inlineStr">
@@ -57967,30 +57969,30 @@
     <row r="269" ht="13" customHeight="1">
       <c r="B269" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C269" s="7" t="inlineStr">
         <is>
-          <t>Erle Haukåen Stødle</t>
+          <t>Sofie Hustad</t>
         </is>
       </c>
       <c r="D269" s="7" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="E269" s="15" t="n">
-        <v>29.51</v>
+        <v>8.59</v>
       </c>
       <c r="F269" s="7" t="n">
-        <v>481</v>
+        <v>570</v>
       </c>
       <c r="G269" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H269" s="16" t="n">
-        <v>20.08</v>
+        <v>4.03</v>
       </c>
       <c r="J269" s="5" t="n"/>
       <c r="L269" s="14" t="inlineStr">
@@ -58025,30 +58027,30 @@
     <row r="270" ht="13" customHeight="1">
       <c r="B270" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C270" s="7" t="inlineStr">
         <is>
-          <t>Alma Owrehagen</t>
+          <t>Sofie Hustad</t>
         </is>
       </c>
       <c r="D270" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E270" s="15" t="n">
-        <v>14.21</v>
+        <v>28.17</v>
       </c>
       <c r="F270" s="7" t="n">
-        <v>480</v>
+        <v>567</v>
       </c>
       <c r="G270" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="H270" s="16" t="n">
-        <v>19.08</v>
+        <v>7.06</v>
       </c>
       <c r="J270" s="5" t="n"/>
       <c r="L270" s="14" t="inlineStr">
@@ -58083,30 +58085,30 @@
     <row r="271" ht="13" customHeight="1">
       <c r="B271" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C271" s="7" t="inlineStr">
         <is>
-          <t>Anna Kjønø</t>
+          <t>Sofie Hustad</t>
         </is>
       </c>
       <c r="D271" s="7" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="E271" s="15" t="n">
-        <v>1.35</v>
+        <v>2.35</v>
       </c>
       <c r="F271" s="7" t="n">
-        <v>470</v>
+        <v>532</v>
       </c>
       <c r="G271" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Askøy</t>
         </is>
       </c>
       <c r="H271" s="16" t="n">
-        <v>12.02</v>
+        <v>13.02</v>
       </c>
       <c r="J271" s="5" t="n"/>
       <c r="L271" s="14" t="inlineStr">
@@ -58141,30 +58143,30 @@
     <row r="272" ht="13" customHeight="1">
       <c r="B272" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C272" s="7" t="inlineStr">
         <is>
-          <t>Sofie Bjerva Johnskareng</t>
+          <t>Elin Hundven Eliassen</t>
         </is>
       </c>
       <c r="D272" s="7" t="n">
-        <v>2009</v>
+        <v>1973</v>
       </c>
       <c r="E272" s="15" t="n">
-        <v>4.29</v>
+        <v>2.3</v>
       </c>
       <c r="F272" s="7" t="n">
-        <v>459</v>
+        <v>496</v>
       </c>
       <c r="G272" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H272" s="16" t="n">
-        <v>9.09</v>
+        <v>10.02</v>
       </c>
       <c r="J272" s="5" t="n"/>
       <c r="L272" s="14" t="inlineStr">
@@ -58199,30 +58201,30 @@
     <row r="273" ht="13" customHeight="1">
       <c r="B273" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C273" s="7" t="inlineStr">
         <is>
-          <t>Anna Kjønø</t>
+          <t>Pernille Hvamsal Sagevik</t>
         </is>
       </c>
       <c r="D273" s="7" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="E273" s="15" t="n">
-        <v>4.27</v>
+        <v>2.23</v>
       </c>
       <c r="F273" s="7" t="n">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="G273" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Askøy</t>
         </is>
       </c>
       <c r="H273" s="16" t="n">
-        <v>12.03</v>
+        <v>13.02</v>
       </c>
       <c r="J273" s="5" t="n"/>
       <c r="L273" s="14" t="inlineStr">
@@ -58257,30 +58259,30 @@
     <row r="274" ht="13" customHeight="1">
       <c r="B274" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C274" s="7" t="inlineStr">
         <is>
-          <t>Tuva Helene Rugsveen</t>
+          <t>Venja Lillebø</t>
         </is>
       </c>
       <c r="D274" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="E274" s="15" t="n">
-        <v>2.19</v>
+        <v>4.02</v>
       </c>
       <c r="F274" s="7" t="n">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="G274" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H274" s="16" t="n">
-        <v>2.03</v>
+        <v>12.02</v>
       </c>
       <c r="J274" s="5" t="n"/>
       <c r="L274" s="14" t="n"/>
@@ -58325,7 +58327,7 @@
         </is>
       </c>
       <c r="F276" s="20" t="n">
-        <v>5858</v>
+        <v>6743</v>
       </c>
       <c r="J276" s="5" t="n"/>
       <c r="L276" s="19" t="inlineStr">
@@ -58365,7 +58367,7 @@
         </is>
       </c>
       <c r="F278" s="20" t="n">
-        <v>13783</v>
+        <v>13900</v>
       </c>
       <c r="J278" s="5" t="n"/>
       <c r="L278" s="19" t="inlineStr">
@@ -58397,7 +58399,7 @@
         </is>
       </c>
       <c r="C280" s="20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J280" s="5" t="n"/>
       <c r="L280" s="19" t="inlineStr">

--- a/output/Lagserien 2023 1-2. div.xlsx
+++ b/output/Lagserien 2023 1-2. div.xlsx
@@ -27,7 +27,7 @@
     <numFmt numFmtId="164" formatCode="##,##00.00"/>
     <numFmt numFmtId="165" formatCode="#,#0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -64,6 +64,12 @@
       <b val="1"/>
       <color rgb="00974706"/>
       <sz val="18"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00FF0000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="5">
@@ -146,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -181,6 +187,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -658,11 +668,11 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>(30/16)</t>
+          <t>(30/15)</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>25148</v>
+        <v>25389</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
@@ -686,11 +696,11 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>(30/18)</t>
+          <t>(30/17)</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>24805</v>
+        <v>25041</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -742,11 +752,11 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>(30/17)</t>
+          <t>(30/18)</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>24166</v>
+        <v>24167</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -886,7 +896,7 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>21761</v>
+        <v>22103</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
@@ -938,11 +948,11 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>(30/11)</t>
+          <t>(30/10)</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>20063</v>
+        <v>20224</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -3964,80 +3974,80 @@
       <c r="J69" s="5" t="n"/>
       <c r="L69" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M69" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Viljar Gjerde</t>
         </is>
       </c>
       <c r="N69" s="7" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="O69" s="15" t="n">
-        <v>6.88</v>
+        <v>1.85</v>
       </c>
       <c r="P69" s="7" t="n">
-        <v>801</v>
+        <v>696</v>
       </c>
       <c r="Q69" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R69" s="16" t="n">
-        <v>17.06</v>
+        <v>28.09</v>
       </c>
       <c r="T69" s="5" t="n"/>
     </row>
     <row r="70" ht="13" customHeight="1">
       <c r="B70" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C70" s="7" t="inlineStr">
         <is>
-          <t>Thomas Viksaas Biermann</t>
+          <t>Bereket Geda Wayu</t>
         </is>
       </c>
       <c r="D70" s="7" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="E70" s="15" t="n">
-        <v>1.7</v>
+        <v>6.45</v>
       </c>
       <c r="F70" s="7" t="n">
-        <v>560</v>
+        <v>707</v>
       </c>
       <c r="G70" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H70" s="16" t="n">
-        <v>8.01</v>
+        <v>29.08</v>
       </c>
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M70" s="7" t="inlineStr">
         <is>
-          <t>Viljar Gjerde</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="N70" s="7" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="O70" s="15" t="n">
-        <v>15.25</v>
+        <v>6.88</v>
       </c>
       <c r="P70" s="7" t="n">
-        <v>904</v>
+        <v>801</v>
       </c>
       <c r="Q70" s="7" t="inlineStr">
         <is>
@@ -4045,95 +4055,95 @@
         </is>
       </c>
       <c r="R70" s="16" t="n">
-        <v>18.02</v>
+        <v>17.06</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
     <row r="71" ht="13" customHeight="1">
       <c r="B71" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C71" s="7" t="inlineStr">
         <is>
-          <t>Bereket Geda Wayu</t>
+          <t>Thomas Viksaas Biermann</t>
         </is>
       </c>
       <c r="D71" s="7" t="n">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="E71" s="15" t="n">
-        <v>6.45</v>
+        <v>13.4</v>
       </c>
       <c r="F71" s="7" t="n">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="G71" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H71" s="16" t="n">
-        <v>29.08</v>
+        <v>9.09</v>
       </c>
       <c r="J71" s="5" t="n"/>
       <c r="L71" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M71" s="7" t="inlineStr">
         <is>
-          <t>Theodor With</t>
+          <t>Viljar Gjerde</t>
         </is>
       </c>
       <c r="N71" s="7" t="n">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="O71" s="15" t="n">
-        <v>2.79</v>
+        <v>15.25</v>
       </c>
       <c r="P71" s="7" t="n">
-        <v>555</v>
+        <v>904</v>
       </c>
       <c r="Q71" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R71" s="16" t="n">
-        <v>10.02</v>
+        <v>18.02</v>
       </c>
       <c r="T71" s="5" t="n"/>
     </row>
     <row r="72" ht="13" customHeight="1">
       <c r="B72" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C72" s="7" t="inlineStr">
         <is>
-          <t>Thomas Viksaas Biermann</t>
+          <t>Christopher Ekene Nordlie</t>
         </is>
       </c>
       <c r="D72" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E72" s="15" t="n">
-        <v>13.4</v>
+        <v>1.46</v>
       </c>
       <c r="F72" s="7" t="n">
-        <v>712</v>
+        <v>627</v>
       </c>
       <c r="G72" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H72" s="16" t="n">
-        <v>9.09</v>
+        <v>11.1</v>
       </c>
       <c r="J72" s="5" t="n"/>
       <c r="L72" s="14" t="inlineStr">
@@ -4173,17 +4183,17 @@
       </c>
       <c r="C73" s="7" t="inlineStr">
         <is>
-          <t>Thomas Viksaas Biermann</t>
+          <t>Edem Schaanning Agbo</t>
         </is>
       </c>
       <c r="D73" s="7" t="n">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="E73" s="15" t="n">
-        <v>2.84</v>
+        <v>3.12</v>
       </c>
       <c r="F73" s="7" t="n">
-        <v>583</v>
+        <v>738</v>
       </c>
       <c r="G73" s="7" t="inlineStr">
         <is>
@@ -4191,7 +4201,7 @@
         </is>
       </c>
       <c r="H73" s="16" t="n">
-        <v>19.02</v>
+        <v>11.1</v>
       </c>
       <c r="J73" s="5" t="n"/>
       <c r="L73" s="14" t="inlineStr">
@@ -4372,7 +4382,7 @@
         </is>
       </c>
       <c r="F77" s="20" t="n">
-        <v>12732</v>
+        <v>12954</v>
       </c>
       <c r="J77" s="5" t="n"/>
       <c r="L77" s="19" t="inlineStr">
@@ -4389,7 +4399,7 @@
         </is>
       </c>
       <c r="P77" s="20" t="n">
-        <v>13115</v>
+        <v>13256</v>
       </c>
       <c r="T77" s="5" t="n"/>
     </row>
@@ -5246,30 +5256,30 @@
     <row r="95" ht="13" customHeight="1">
       <c r="B95" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C95" s="7" t="inlineStr">
         <is>
-          <t>Thai Drager</t>
+          <t>Kasper Sagen</t>
         </is>
       </c>
       <c r="D95" s="7" t="n">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="E95" s="15" t="n">
-        <v>6.21</v>
+        <v>2.97</v>
       </c>
       <c r="F95" s="7" t="n">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="G95" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H95" s="16" t="n">
-        <v>4.06</v>
+        <v>11.1</v>
       </c>
       <c r="J95" s="5" t="n"/>
       <c r="L95" s="14" t="inlineStr">
@@ -5309,25 +5319,25 @@
       </c>
       <c r="C96" s="7" t="inlineStr">
         <is>
-          <t>Theodore Einar Fremstad-Waldron</t>
+          <t>Thai Drager</t>
         </is>
       </c>
       <c r="D96" s="7" t="n">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="E96" s="15" t="n">
-        <v>6.13</v>
+        <v>6.21</v>
       </c>
       <c r="F96" s="7" t="n">
-        <v>636</v>
+        <v>654</v>
       </c>
       <c r="G96" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H96" s="16" t="n">
-        <v>17.09</v>
+        <v>4.06</v>
       </c>
       <c r="J96" s="5" t="n"/>
       <c r="L96" s="14" t="inlineStr">
@@ -5337,17 +5347,17 @@
       </c>
       <c r="M96" s="7" t="inlineStr">
         <is>
-          <t>Jone Alsaker Løken</t>
+          <t>Theodor With</t>
         </is>
       </c>
       <c r="N96" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="O96" s="15" t="n">
-        <v>2.63</v>
+        <v>2.79</v>
       </c>
       <c r="P96" s="7" t="n">
-        <v>460</v>
+        <v>555</v>
       </c>
       <c r="Q96" s="7" t="inlineStr">
         <is>
@@ -5392,7 +5402,7 @@
         </is>
       </c>
       <c r="F98" s="20" t="n">
-        <v>12416</v>
+        <v>12435</v>
       </c>
       <c r="J98" s="5" t="n"/>
       <c r="L98" s="19" t="inlineStr">
@@ -5409,7 +5419,7 @@
         </is>
       </c>
       <c r="P98" s="20" t="n">
-        <v>11690</v>
+        <v>11785</v>
       </c>
       <c r="T98" s="5" t="n"/>
     </row>
@@ -5432,7 +5442,7 @@
         </is>
       </c>
       <c r="F100" s="20" t="n">
-        <v>25148</v>
+        <v>25389</v>
       </c>
       <c r="J100" s="5" t="n"/>
       <c r="L100" s="19" t="inlineStr">
@@ -5449,7 +5459,7 @@
         </is>
       </c>
       <c r="P100" s="20" t="n">
-        <v>24805</v>
+        <v>25041</v>
       </c>
       <c r="T100" s="5" t="n"/>
     </row>
@@ -5464,7 +5474,7 @@
         </is>
       </c>
       <c r="C102" s="20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J102" s="5" t="n"/>
       <c r="L102" s="19" t="inlineStr">
@@ -5473,7 +5483,7 @@
         </is>
       </c>
       <c r="M102" s="20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T102" s="5" t="n"/>
     </row>
@@ -5942,7 +5952,7 @@
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M117" s="7" t="inlineStr">
@@ -5955,19 +5965,19 @@
       </c>
       <c r="O117" s="17" t="inlineStr">
         <is>
-          <t>2,04,19</t>
+          <t>9,12,31</t>
         </is>
       </c>
       <c r="P117" s="7" t="n">
-        <v>611</v>
+        <v>643</v>
       </c>
       <c r="Q117" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R117" s="16" t="n">
-        <v>17.06</v>
+        <v>2.07</v>
       </c>
       <c r="T117" s="5" t="n"/>
     </row>
@@ -6004,32 +6014,30 @@
       <c r="J118" s="5" t="n"/>
       <c r="L118" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="M118" s="7" t="inlineStr">
         <is>
-          <t>Nils August Flornes Rustad</t>
+          <t>Julian René Bastesen</t>
         </is>
       </c>
       <c r="N118" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O118" s="17" t="inlineStr">
-        <is>
-          <t>9,12,31</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="O118" s="15" t="n">
+        <v>8.630000000000001</v>
       </c>
       <c r="P118" s="7" t="n">
-        <v>643</v>
+        <v>789</v>
       </c>
       <c r="Q118" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Valencia/ESP</t>
         </is>
       </c>
       <c r="R118" s="16" t="n">
-        <v>2.07</v>
+        <v>14.01</v>
       </c>
       <c r="T118" s="5" t="n"/>
     </row>
@@ -6066,30 +6074,30 @@
       <c r="J119" s="5" t="n"/>
       <c r="L119" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>110m hekk</t>
         </is>
       </c>
       <c r="M119" s="7" t="inlineStr">
         <is>
-          <t>Julian René Bastesen</t>
+          <t>Andreas Dixon</t>
         </is>
       </c>
       <c r="N119" s="7" t="n">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="O119" s="15" t="n">
-        <v>8.630000000000001</v>
+        <v>15.49</v>
       </c>
       <c r="P119" s="7" t="n">
-        <v>789</v>
+        <v>757</v>
       </c>
       <c r="Q119" s="7" t="inlineStr">
         <is>
-          <t>Valencia/ESP</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R119" s="16" t="n">
-        <v>14.01</v>
+        <v>2.06</v>
       </c>
       <c r="T119" s="5" t="n"/>
     </row>
@@ -6126,7 +6134,7 @@
       <c r="J120" s="5" t="n"/>
       <c r="L120" s="14" t="inlineStr">
         <is>
-          <t>110m hekk</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M120" s="7" t="inlineStr">
@@ -6138,10 +6146,10 @@
         <v>2001</v>
       </c>
       <c r="O120" s="15" t="n">
-        <v>15.49</v>
+        <v>53.35</v>
       </c>
       <c r="P120" s="7" t="n">
-        <v>757</v>
+        <v>841</v>
       </c>
       <c r="Q120" s="7" t="inlineStr">
         <is>
@@ -6149,7 +6157,7 @@
         </is>
       </c>
       <c r="R120" s="16" t="n">
-        <v>2.06</v>
+        <v>14.05</v>
       </c>
       <c r="T120" s="5" t="n"/>
     </row>
@@ -6184,30 +6192,30 @@
       <c r="J121" s="5" t="n"/>
       <c r="L121" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M121" s="7" t="inlineStr">
         <is>
-          <t>Andreas Dixon</t>
+          <t>Erlend Bolstad Raa</t>
         </is>
       </c>
       <c r="N121" s="7" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="O121" s="15" t="n">
-        <v>53.35</v>
+        <v>2.05</v>
       </c>
       <c r="P121" s="7" t="n">
-        <v>841</v>
+        <v>862</v>
       </c>
       <c r="Q121" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Norman/OK/USA</t>
         </is>
       </c>
       <c r="R121" s="16" t="n">
-        <v>14.05</v>
+        <v>21.01</v>
       </c>
       <c r="T121" s="5" t="n"/>
     </row>
@@ -6242,30 +6250,30 @@
       <c r="J122" s="5" t="n"/>
       <c r="L122" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M122" s="7" t="inlineStr">
         <is>
-          <t>Erlend Bolstad Raa</t>
+          <t>Pål Haugen Lillefosse</t>
         </is>
       </c>
       <c r="N122" s="7" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="O122" s="15" t="n">
-        <v>2.05</v>
+        <v>5.82</v>
       </c>
       <c r="P122" s="7" t="n">
-        <v>862</v>
+        <v>1094</v>
       </c>
       <c r="Q122" s="7" t="inlineStr">
         <is>
-          <t>Norman/OK/USA</t>
+          <t>Uppsala/SWE</t>
         </is>
       </c>
       <c r="R122" s="16" t="n">
-        <v>21.01</v>
+        <v>2.02</v>
       </c>
       <c r="T122" s="5" t="n"/>
     </row>
@@ -6300,30 +6308,30 @@
       <c r="J123" s="5" t="n"/>
       <c r="L123" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M123" s="7" t="inlineStr">
         <is>
-          <t>Pål Haugen Lillefosse</t>
+          <t>Carl Erik Landsvik</t>
         </is>
       </c>
       <c r="N123" s="7" t="n">
         <v>2001</v>
       </c>
       <c r="O123" s="15" t="n">
-        <v>5.82</v>
+        <v>6.96</v>
       </c>
       <c r="P123" s="7" t="n">
-        <v>1094</v>
+        <v>818</v>
       </c>
       <c r="Q123" s="7" t="inlineStr">
         <is>
-          <t>Uppsala/SWE</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R123" s="16" t="n">
-        <v>2.02</v>
+        <v>23.02</v>
       </c>
       <c r="T123" s="5" t="n"/>
     </row>
@@ -6358,30 +6366,30 @@
       <c r="J124" s="5" t="n"/>
       <c r="L124" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M124" s="7" t="inlineStr">
         <is>
-          <t>Carl Erik Landsvik</t>
+          <t>Sondre Vie Ytrearne</t>
         </is>
       </c>
       <c r="N124" s="7" t="n">
         <v>2001</v>
       </c>
       <c r="O124" s="15" t="n">
-        <v>6.96</v>
+        <v>15.18</v>
       </c>
       <c r="P124" s="7" t="n">
-        <v>818</v>
+        <v>897</v>
       </c>
       <c r="Q124" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R124" s="16" t="n">
-        <v>23.02</v>
+        <v>18.02</v>
       </c>
       <c r="T124" s="5" t="n"/>
     </row>
@@ -6416,22 +6424,22 @@
       <c r="J125" s="5" t="n"/>
       <c r="L125" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M125" s="7" t="inlineStr">
         <is>
-          <t>Sondre Vie Ytrearne</t>
+          <t>Teodor Heldal</t>
         </is>
       </c>
       <c r="N125" s="7" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="O125" s="15" t="n">
-        <v>15.18</v>
+        <v>1.61</v>
       </c>
       <c r="P125" s="7" t="n">
-        <v>897</v>
+        <v>793</v>
       </c>
       <c r="Q125" s="7" t="inlineStr">
         <is>
@@ -6474,30 +6482,30 @@
       <c r="J126" s="5" t="n"/>
       <c r="L126" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M126" s="7" t="inlineStr">
         <is>
-          <t>Teodor Heldal</t>
+          <t>Kjetil Særsland Midthun</t>
         </is>
       </c>
       <c r="N126" s="7" t="n">
-        <v>2004</v>
+        <v>1981</v>
       </c>
       <c r="O126" s="15" t="n">
-        <v>1.61</v>
+        <v>36.21</v>
       </c>
       <c r="P126" s="7" t="n">
-        <v>793</v>
+        <v>612</v>
       </c>
       <c r="Q126" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R126" s="16" t="n">
-        <v>18.02</v>
+        <v>30.09</v>
       </c>
       <c r="T126" s="5" t="n"/>
     </row>
@@ -6609,7 +6617,7 @@
         </is>
       </c>
       <c r="P129" s="20" t="n">
-        <v>12051</v>
+        <v>12052</v>
       </c>
       <c r="T129" s="5" t="n"/>
     </row>
@@ -7675,7 +7683,7 @@
         </is>
       </c>
       <c r="P152" s="20" t="n">
-        <v>24166</v>
+        <v>24167</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
@@ -7699,7 +7707,7 @@
         </is>
       </c>
       <c r="M154" s="20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T154" s="5" t="n"/>
     </row>
@@ -12742,32 +12750,30 @@
     <row r="275" ht="13" customHeight="1">
       <c r="B275" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C275" s="7" t="inlineStr">
         <is>
-          <t>Jacob Bergmann Abusdal</t>
+          <t>August Høgvold</t>
         </is>
       </c>
       <c r="D275" s="7" t="n">
         <v>2007</v>
       </c>
-      <c r="E275" s="17" t="inlineStr">
-        <is>
-          <t>10,54,93</t>
-        </is>
+      <c r="E275" s="15" t="n">
+        <v>1.84</v>
       </c>
       <c r="F275" s="7" t="n">
-        <v>345</v>
+        <v>687</v>
       </c>
       <c r="G275" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H275" s="16" t="n">
-        <v>3.06</v>
+        <v>5.03</v>
       </c>
       <c r="J275" s="5" t="n"/>
       <c r="L275" s="14" t="inlineStr">
@@ -12804,30 +12810,30 @@
     <row r="276" ht="13" customHeight="1">
       <c r="B276" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C276" s="7" t="inlineStr">
         <is>
-          <t>August Høgvold</t>
+          <t>Morten Husebø Hestnes</t>
         </is>
       </c>
       <c r="D276" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E276" s="15" t="n">
-        <v>1.84</v>
+        <v>3.74</v>
       </c>
       <c r="F276" s="7" t="n">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="G276" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H276" s="16" t="n">
-        <v>5.03</v>
+        <v>30.06</v>
       </c>
       <c r="J276" s="5" t="n"/>
       <c r="L276" s="14" t="inlineStr">
@@ -12862,30 +12868,30 @@
     <row r="277" ht="13" customHeight="1">
       <c r="B277" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C277" s="7" t="inlineStr">
         <is>
-          <t>Morten Husebø Hestnes</t>
+          <t>Henrik Flåtnes</t>
         </is>
       </c>
       <c r="D277" s="7" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="E277" s="15" t="n">
-        <v>3.74</v>
+        <v>7.96</v>
       </c>
       <c r="F277" s="7" t="n">
-        <v>666</v>
+        <v>1022</v>
       </c>
       <c r="G277" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Espoo/FIN</t>
         </is>
       </c>
       <c r="H277" s="16" t="n">
-        <v>30.06</v>
+        <v>14.07</v>
       </c>
       <c r="J277" s="5" t="n"/>
       <c r="L277" s="14" t="inlineStr">
@@ -12920,7 +12926,7 @@
     <row r="278" ht="13" customHeight="1">
       <c r="B278" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C278" s="7" t="inlineStr">
@@ -12932,18 +12938,18 @@
         <v>2001</v>
       </c>
       <c r="E278" s="15" t="n">
-        <v>7.96</v>
+        <v>16.07</v>
       </c>
       <c r="F278" s="7" t="n">
-        <v>1022</v>
+        <v>984</v>
       </c>
       <c r="G278" s="7" t="inlineStr">
         <is>
-          <t>Espoo/FIN</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H278" s="16" t="n">
-        <v>14.07</v>
+        <v>18.02</v>
       </c>
       <c r="J278" s="5" t="n"/>
       <c r="L278" s="14" t="inlineStr">
@@ -12978,30 +12984,30 @@
     <row r="279" ht="13" customHeight="1">
       <c r="B279" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C279" s="7" t="inlineStr">
         <is>
-          <t>Henrik Flåtnes</t>
+          <t>Henrik Duncan</t>
         </is>
       </c>
       <c r="D279" s="7" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="E279" s="15" t="n">
-        <v>16.07</v>
+        <v>3.01</v>
       </c>
       <c r="F279" s="7" t="n">
-        <v>984</v>
+        <v>677</v>
       </c>
       <c r="G279" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H279" s="16" t="n">
-        <v>18.02</v>
+        <v>7.1</v>
       </c>
       <c r="J279" s="5" t="n"/>
       <c r="L279" s="14" t="inlineStr">
@@ -13036,22 +13042,22 @@
     <row r="280" ht="13" customHeight="1">
       <c r="B280" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C280" s="7" t="inlineStr">
         <is>
-          <t>Henrik Duncan</t>
+          <t>Øystein Solheim Hytten</t>
         </is>
       </c>
       <c r="D280" s="7" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E280" s="15" t="n">
-        <v>3.01</v>
+        <v>12.99</v>
       </c>
       <c r="F280" s="7" t="n">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="G280" s="7" t="inlineStr">
         <is>
@@ -13094,30 +13100,30 @@
     <row r="281" ht="13" customHeight="1">
       <c r="B281" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C281" s="7" t="inlineStr">
         <is>
-          <t>Øystein Solheim Hytten</t>
+          <t>Iver Hytten</t>
         </is>
       </c>
       <c r="D281" s="7" t="n">
-        <v>2004</v>
+        <v>1966</v>
       </c>
       <c r="E281" s="15" t="n">
-        <v>12.99</v>
+        <v>40.15</v>
       </c>
       <c r="F281" s="7" t="n">
-        <v>666</v>
+        <v>687</v>
       </c>
       <c r="G281" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Spikkestad</t>
         </is>
       </c>
       <c r="H281" s="16" t="n">
-        <v>7.1</v>
+        <v>16.1</v>
       </c>
       <c r="J281" s="5" t="n"/>
       <c r="L281" s="14" t="inlineStr">
@@ -13298,7 +13304,7 @@
         </is>
       </c>
       <c r="F285" s="20" t="n">
-        <v>10634</v>
+        <v>10976</v>
       </c>
       <c r="J285" s="5" t="n"/>
       <c r="L285" s="19" t="inlineStr">
@@ -14358,7 +14364,7 @@
         </is>
       </c>
       <c r="F308" s="20" t="n">
-        <v>21761</v>
+        <v>22103</v>
       </c>
       <c r="J308" s="5" t="n"/>
       <c r="L308" s="19" t="inlineStr">
@@ -15448,18 +15454,18 @@
         <v>1991</v>
       </c>
       <c r="E335" s="15" t="n">
-        <v>47.59</v>
+        <v>48.05</v>
       </c>
       <c r="F335" s="7" t="n">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="G335" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H335" s="16" t="n">
-        <v>28.06</v>
+        <v>1.1</v>
       </c>
       <c r="J335" s="5" t="n"/>
       <c r="L335" s="14" t="inlineStr">
@@ -15524,7 +15530,7 @@
         </is>
       </c>
       <c r="F337" s="20" t="n">
-        <v>10844</v>
+        <v>10850</v>
       </c>
       <c r="J337" s="5" t="n"/>
       <c r="L337" s="19" t="inlineStr">
@@ -15884,30 +15890,30 @@
     <row r="346" ht="13" customHeight="1">
       <c r="B346" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C346" s="7" t="inlineStr">
         <is>
-          <t>Eirik Reigstad</t>
+          <t>Vegard Trefall</t>
         </is>
       </c>
       <c r="D346" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E346" s="15" t="n">
-        <v>6.2</v>
+        <v>23.35</v>
       </c>
       <c r="F346" s="7" t="n">
-        <v>652</v>
+        <v>712</v>
       </c>
       <c r="G346" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H346" s="16" t="n">
-        <v>13.08</v>
+        <v>30.09</v>
       </c>
       <c r="J346" s="5" t="n"/>
       <c r="L346" s="14" t="inlineStr">
@@ -15944,7 +15950,7 @@
     <row r="347" ht="13" customHeight="1">
       <c r="B347" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C347" s="7" t="inlineStr">
@@ -15956,18 +15962,18 @@
         <v>2007</v>
       </c>
       <c r="E347" s="15" t="n">
-        <v>24.01</v>
+        <v>6.2</v>
       </c>
       <c r="F347" s="7" t="n">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="G347" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H347" s="16" t="n">
-        <v>26.08</v>
+        <v>13.08</v>
       </c>
       <c r="J347" s="5" t="n"/>
       <c r="L347" s="14" t="inlineStr">
@@ -16002,7 +16008,7 @@
     <row r="348" ht="13" customHeight="1">
       <c r="B348" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C348" s="7" t="inlineStr">
@@ -16014,18 +16020,18 @@
         <v>2007</v>
       </c>
       <c r="E348" s="15" t="n">
-        <v>11.95</v>
+        <v>24.01</v>
       </c>
       <c r="F348" s="7" t="n">
-        <v>621</v>
+        <v>646</v>
       </c>
       <c r="G348" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H348" s="16" t="n">
-        <v>5.07</v>
+        <v>26.08</v>
       </c>
       <c r="J348" s="5" t="n"/>
       <c r="L348" s="14" t="inlineStr">
@@ -16060,30 +16066,30 @@
     <row r="349" ht="13" customHeight="1">
       <c r="B349" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C349" s="7" t="inlineStr">
         <is>
-          <t>William-André Alver Sylta</t>
+          <t>Eirik Reigstad</t>
         </is>
       </c>
       <c r="D349" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E349" s="15" t="n">
-        <v>24.29</v>
+        <v>11.95</v>
       </c>
       <c r="F349" s="7" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G349" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H349" s="16" t="n">
-        <v>10.05</v>
+        <v>5.07</v>
       </c>
       <c r="J349" s="5" t="n"/>
       <c r="L349" s="14" t="inlineStr">
@@ -16120,22 +16126,22 @@
     <row r="350" ht="13" customHeight="1">
       <c r="B350" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C350" s="7" t="inlineStr">
         <is>
-          <t>Joe Aphisit Tepnuan</t>
+          <t>William-André Alver Sylta</t>
         </is>
       </c>
       <c r="D350" s="7" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="E350" s="15" t="n">
-        <v>12.01</v>
+        <v>24.29</v>
       </c>
       <c r="F350" s="7" t="n">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="G350" s="7" t="inlineStr">
         <is>
@@ -16143,7 +16149,7 @@
         </is>
       </c>
       <c r="H350" s="16" t="n">
-        <v>5.08</v>
+        <v>10.05</v>
       </c>
       <c r="J350" s="5" t="n"/>
       <c r="L350" s="14" t="inlineStr">
@@ -16180,22 +16186,22 @@
     <row r="351" ht="13" customHeight="1">
       <c r="B351" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C351" s="7" t="inlineStr">
         <is>
-          <t>William-André Alver Sylta</t>
+          <t>Joe Aphisit Tepnuan</t>
         </is>
       </c>
       <c r="D351" s="7" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="E351" s="15" t="n">
-        <v>7.67</v>
+        <v>12.01</v>
       </c>
       <c r="F351" s="7" t="n">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="G351" s="7" t="inlineStr">
         <is>
@@ -16203,7 +16209,7 @@
         </is>
       </c>
       <c r="H351" s="16" t="n">
-        <v>10.05</v>
+        <v>5.08</v>
       </c>
       <c r="J351" s="5" t="n"/>
       <c r="L351" s="14" t="inlineStr">
@@ -16240,32 +16246,30 @@
     <row r="352" ht="13" customHeight="1">
       <c r="B352" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C352" s="7" t="inlineStr">
         <is>
-          <t>Daniel Bruvik</t>
+          <t>William-André Alver Sylta</t>
         </is>
       </c>
       <c r="D352" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="E352" s="17" t="inlineStr">
-        <is>
-          <t>9,37,78</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="E352" s="15" t="n">
+        <v>7.67</v>
       </c>
       <c r="F352" s="7" t="n">
-        <v>557</v>
+        <v>600</v>
       </c>
       <c r="G352" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="H352" s="16" t="n">
-        <v>14.08</v>
+        <v>10.05</v>
       </c>
       <c r="J352" s="5" t="n"/>
       <c r="L352" s="14" t="inlineStr">
@@ -16564,7 +16568,7 @@
         </is>
       </c>
       <c r="F358" s="20" t="n">
-        <v>9219</v>
+        <v>9374</v>
       </c>
       <c r="J358" s="5" t="n"/>
       <c r="L358" s="19" t="inlineStr">
@@ -16604,7 +16608,7 @@
         </is>
       </c>
       <c r="F360" s="20" t="n">
-        <v>20063</v>
+        <v>20224</v>
       </c>
       <c r="J360" s="5" t="n"/>
       <c r="L360" s="19" t="inlineStr">
@@ -16636,7 +16640,7 @@
         </is>
       </c>
       <c r="C362" s="20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J362" s="5" t="n"/>
       <c r="L362" s="19" t="inlineStr">
@@ -16677,20 +16681,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="P262:Q263"/>
-    <mergeCell ref="F210:G211"/>
     <mergeCell ref="F2:G3"/>
+    <mergeCell ref="P2:Q3"/>
     <mergeCell ref="F54:G55"/>
-    <mergeCell ref="P314:Q315"/>
-    <mergeCell ref="F314:G315"/>
     <mergeCell ref="P54:Q55"/>
-    <mergeCell ref="P2:Q3"/>
     <mergeCell ref="F106:G107"/>
+    <mergeCell ref="P106:Q107"/>
     <mergeCell ref="F158:G159"/>
     <mergeCell ref="P158:Q159"/>
+    <mergeCell ref="F210:G211"/>
     <mergeCell ref="P210:Q211"/>
-    <mergeCell ref="P106:Q107"/>
     <mergeCell ref="F262:G263"/>
+    <mergeCell ref="P262:Q263"/>
+    <mergeCell ref="F314:G315"/>
+    <mergeCell ref="P314:Q315"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16803,28 +16807,28 @@
       </c>
     </row>
     <row r="5" ht="13" customHeight="1">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="22" t="inlineStr">
         <is>
           <t>Moelven IL</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>(25/11)</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>17897</v>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="C5" s="22" t="inlineStr">
+        <is>
+          <t>(25/10)</t>
+        </is>
+      </c>
+      <c r="D5" s="22" t="n">
+        <v>17924</v>
+      </c>
+      <c r="E5" s="23" t="inlineStr">
         <is>
           <t>(2/3d)</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="22" t="inlineStr">
         <is>
           <t>Innlandet</t>
         </is>
@@ -16953,11 +16957,11 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>(25/12)</t>
+          <t>(25/11)</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>16257</v>
+        <v>16730</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -16976,25 +16980,25 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IK Hind</t>
+          <t>Fyllingen IL</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>(25/10)</t>
+          <t>(24/10)</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>16038</v>
+        <v>16629</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>(10)</t>
+          <t>(4/3d)</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -17004,25 +17008,25 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Fyllingen IL</t>
+          <t>IK Hind</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>(23/9)</t>
+          <t>(25/10)</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>16036</v>
+        <v>16038</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>(4/3d)</t>
+          <t>(10)</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Troms</t>
         </is>
       </c>
     </row>
@@ -17097,7 +17101,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>15897</v>
+        <v>15898</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -19723,22 +19727,24 @@
     <row r="63" ht="13" customHeight="1">
       <c r="B63" s="14" t="inlineStr">
         <is>
-          <t>110m hekk</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="C63" s="7" t="inlineStr">
         <is>
-          <t>Andreas Grimerud</t>
+          <t>Tesfay Brhane</t>
         </is>
       </c>
       <c r="D63" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E63" s="15" t="n">
-        <v>17.09</v>
+        <v>1995</v>
+      </c>
+      <c r="E63" s="17" t="inlineStr">
+        <is>
+          <t>37,05,73</t>
+        </is>
       </c>
       <c r="F63" s="7" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="G63" s="7" t="inlineStr">
         <is>
@@ -19746,7 +19752,7 @@
         </is>
       </c>
       <c r="H63" s="16" t="n">
-        <v>23.09</v>
+        <v>1.1</v>
       </c>
       <c r="J63" s="5" t="n"/>
       <c r="L63" s="14" t="inlineStr">
@@ -19959,30 +19965,30 @@
     <row r="67" ht="13" customHeight="1">
       <c r="B67" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C67" s="7" t="inlineStr">
         <is>
-          <t>Dag Eivind Kåshagen</t>
+          <t>Mauritz Kåshagen</t>
         </is>
       </c>
       <c r="D67" s="7" t="n">
-        <v>1960</v>
+        <v>1989</v>
       </c>
       <c r="E67" s="15" t="n">
-        <v>2.48</v>
+        <v>25.81</v>
       </c>
       <c r="F67" s="7" t="n">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="G67" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="H67" s="16" t="n">
-        <v>28.01</v>
+        <v>23.09</v>
       </c>
       <c r="J67" s="5" t="n"/>
       <c r="L67" s="14" t="inlineStr">
@@ -20017,22 +20023,22 @@
     <row r="68" ht="13" customHeight="1">
       <c r="B68" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C68" s="7" t="inlineStr">
         <is>
-          <t>Mauritz Kåshagen</t>
+          <t>Andreas Grimerud</t>
         </is>
       </c>
       <c r="D68" s="7" t="n">
-        <v>1989</v>
+        <v>2003</v>
       </c>
       <c r="E68" s="15" t="n">
-        <v>25.81</v>
+        <v>40.78</v>
       </c>
       <c r="F68" s="7" t="n">
-        <v>374</v>
+        <v>498</v>
       </c>
       <c r="G68" s="7" t="inlineStr">
         <is>
@@ -20105,7 +20111,7 @@
         </is>
       </c>
       <c r="F70" s="20" t="n">
-        <v>9068</v>
+        <v>9095</v>
       </c>
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="19" t="inlineStr">
@@ -20991,7 +20997,7 @@
         </is>
       </c>
       <c r="F90" s="20" t="n">
-        <v>17897</v>
+        <v>17924</v>
       </c>
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="19" t="inlineStr">
@@ -21023,7 +21029,7 @@
         </is>
       </c>
       <c r="C92" s="20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J92" s="5" t="n"/>
       <c r="L92" s="19" t="inlineStr">
@@ -23649,30 +23655,32 @@
       <c r="J157" s="5" t="n"/>
       <c r="L157" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M157" s="7" t="inlineStr">
         <is>
-          <t>Jonatan Thorbjørnsen Horvik</t>
+          <t>Marius Garmann Sørli</t>
         </is>
       </c>
       <c r="N157" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O157" s="15" t="n">
-        <v>5.19</v>
+        <v>1997</v>
+      </c>
+      <c r="O157" s="17" t="inlineStr">
+        <is>
+          <t>14,36,78</t>
+        </is>
       </c>
       <c r="P157" s="7" t="n">
-        <v>417</v>
+        <v>826</v>
       </c>
       <c r="Q157" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R157" s="16" t="n">
-        <v>30.08</v>
+        <v>1.1</v>
       </c>
       <c r="T157" s="5" t="n"/>
     </row>
@@ -23709,22 +23717,22 @@
       <c r="J158" s="5" t="n"/>
       <c r="L158" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M158" s="7" t="inlineStr">
         <is>
-          <t>Sander Feness Armond</t>
+          <t>Jonatan Thorbjørnsen Horvik</t>
         </is>
       </c>
       <c r="N158" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="O158" s="15" t="n">
-        <v>10.62</v>
+        <v>5.19</v>
       </c>
       <c r="P158" s="7" t="n">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="Q158" s="7" t="inlineStr">
         <is>
@@ -23732,7 +23740,7 @@
         </is>
       </c>
       <c r="R158" s="16" t="n">
-        <v>7.06</v>
+        <v>30.08</v>
       </c>
       <c r="T158" s="5" t="n"/>
     </row>
@@ -24018,7 +24026,7 @@
         </is>
       </c>
       <c r="P164" s="20" t="n">
-        <v>9226</v>
+        <v>9649</v>
       </c>
       <c r="T164" s="5" t="n"/>
     </row>
@@ -24731,30 +24739,30 @@
       <c r="J179" s="5" t="n"/>
       <c r="L179" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M179" s="7" t="inlineStr">
         <is>
-          <t>Bjørn Fluge</t>
+          <t>Sander Feness Armond</t>
         </is>
       </c>
       <c r="N179" s="7" t="n">
-        <v>1960</v>
+        <v>2005</v>
       </c>
       <c r="O179" s="15" t="n">
-        <v>2.49</v>
+        <v>10.62</v>
       </c>
       <c r="P179" s="7" t="n">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="Q179" s="7" t="inlineStr">
         <is>
-          <t>Askøy</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="R179" s="16" t="n">
-        <v>13.02</v>
+        <v>7.06</v>
       </c>
       <c r="T179" s="5" t="n"/>
     </row>
@@ -24789,30 +24797,30 @@
       <c r="J180" s="5" t="n"/>
       <c r="L180" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M180" s="7" t="inlineStr">
         <is>
-          <t>Jesper Jensen</t>
+          <t>Bjørn Fluge</t>
         </is>
       </c>
       <c r="N180" s="7" t="n">
-        <v>2001</v>
+        <v>1960</v>
       </c>
       <c r="O180" s="15" t="n">
-        <v>1.5</v>
+        <v>2.49</v>
       </c>
       <c r="P180" s="7" t="n">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="Q180" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Askøy</t>
         </is>
       </c>
       <c r="R180" s="16" t="n">
-        <v>20.09</v>
+        <v>13.02</v>
       </c>
       <c r="T180" s="5" t="n"/>
     </row>
@@ -24866,7 +24874,7 @@
         </is>
       </c>
       <c r="P182" s="20" t="n">
-        <v>7031</v>
+        <v>7081</v>
       </c>
       <c r="T182" s="5" t="n"/>
     </row>
@@ -24906,7 +24914,7 @@
         </is>
       </c>
       <c r="P184" s="20" t="n">
-        <v>16257</v>
+        <v>16730</v>
       </c>
       <c r="T184" s="5" t="n"/>
     </row>
@@ -24930,7 +24938,7 @@
         </is>
       </c>
       <c r="M186" s="20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T186" s="5" t="n"/>
     </row>
@@ -24972,7 +24980,7 @@
       </c>
       <c r="C190" s="7" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="F190" s="8" t="n">
@@ -24986,7 +24994,7 @@
       </c>
       <c r="M190" s="7" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Troms</t>
         </is>
       </c>
       <c r="P190" s="8" t="n">
@@ -25002,7 +25010,7 @@
       </c>
       <c r="C191" s="7" t="inlineStr">
         <is>
-          <t>IK Hind</t>
+          <t>Fyllingen IL</t>
         </is>
       </c>
       <c r="J191" s="5" t="n"/>
@@ -25013,7 +25021,7 @@
       </c>
       <c r="M191" s="7" t="inlineStr">
         <is>
-          <t>Fyllingen IL</t>
+          <t>IK Hind</t>
         </is>
       </c>
       <c r="T191" s="5" t="n"/>
@@ -25142,25 +25150,25 @@
       </c>
       <c r="C197" s="7" t="inlineStr">
         <is>
-          <t>Birk Arvola</t>
+          <t>Emil Gundersen</t>
         </is>
       </c>
       <c r="D197" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E197" s="15" t="n">
-        <v>7.65</v>
+        <v>7.04</v>
       </c>
       <c r="F197" s="7" t="n">
-        <v>607</v>
+        <v>845</v>
       </c>
       <c r="G197" s="7" t="inlineStr">
         <is>
-          <t>Sortland</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H197" s="16" t="n">
-        <v>18.02</v>
+        <v>11.02</v>
       </c>
       <c r="J197" s="5" t="n"/>
       <c r="L197" s="14" t="inlineStr">
@@ -25170,25 +25178,25 @@
       </c>
       <c r="M197" s="7" t="inlineStr">
         <is>
-          <t>Emil Gundersen</t>
+          <t>Birk Arvola</t>
         </is>
       </c>
       <c r="N197" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="O197" s="15" t="n">
-        <v>7.04</v>
+        <v>7.65</v>
       </c>
       <c r="P197" s="7" t="n">
-        <v>845</v>
+        <v>607</v>
       </c>
       <c r="Q197" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sortland</t>
         </is>
       </c>
       <c r="R197" s="16" t="n">
-        <v>11.02</v>
+        <v>18.02</v>
       </c>
       <c r="T197" s="5" t="n"/>
     </row>
@@ -25200,25 +25208,25 @@
       </c>
       <c r="C198" s="7" t="inlineStr">
         <is>
-          <t>Birk Arvola</t>
+          <t>Emil Gundersen</t>
         </is>
       </c>
       <c r="D198" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E198" s="15" t="n">
-        <v>11.68</v>
+        <v>10.84</v>
       </c>
       <c r="F198" s="7" t="n">
-        <v>679</v>
+        <v>883</v>
       </c>
       <c r="G198" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H198" s="16" t="n">
-        <v>25.08</v>
+        <v>25.06</v>
       </c>
       <c r="J198" s="5" t="n"/>
       <c r="L198" s="14" t="inlineStr">
@@ -25228,25 +25236,25 @@
       </c>
       <c r="M198" s="7" t="inlineStr">
         <is>
-          <t>Emil Gundersen</t>
+          <t>Birk Arvola</t>
         </is>
       </c>
       <c r="N198" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="O198" s="15" t="n">
-        <v>10.84</v>
+        <v>11.68</v>
       </c>
       <c r="P198" s="7" t="n">
-        <v>883</v>
+        <v>679</v>
       </c>
       <c r="Q198" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R198" s="16" t="n">
-        <v>25.06</v>
+        <v>25.08</v>
       </c>
       <c r="T198" s="5" t="n"/>
     </row>
@@ -25258,25 +25266,25 @@
       </c>
       <c r="C199" s="7" t="inlineStr">
         <is>
-          <t>Tobias Johansen</t>
+          <t>Emil Gundersen</t>
         </is>
       </c>
       <c r="D199" s="7" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E199" s="15" t="n">
-        <v>22.42</v>
+        <v>21.96</v>
       </c>
       <c r="F199" s="7" t="n">
-        <v>812</v>
+        <v>865</v>
       </c>
       <c r="G199" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H199" s="16" t="n">
-        <v>29.08</v>
+        <v>2.07</v>
       </c>
       <c r="J199" s="5" t="n"/>
       <c r="L199" s="14" t="inlineStr">
@@ -25286,25 +25294,25 @@
       </c>
       <c r="M199" s="7" t="inlineStr">
         <is>
-          <t>Emil Gundersen</t>
+          <t>Tobias Johansen</t>
         </is>
       </c>
       <c r="N199" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="O199" s="15" t="n">
-        <v>21.96</v>
+        <v>22.42</v>
       </c>
       <c r="P199" s="7" t="n">
-        <v>865</v>
+        <v>812</v>
       </c>
       <c r="Q199" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R199" s="16" t="n">
-        <v>2.07</v>
+        <v>29.08</v>
       </c>
       <c r="T199" s="5" t="n"/>
     </row>
@@ -25316,25 +25324,25 @@
       </c>
       <c r="C200" s="7" t="inlineStr">
         <is>
-          <t>Tobias Johansen</t>
+          <t>Remark Rrozhani</t>
         </is>
       </c>
       <c r="D200" s="7" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E200" s="15" t="n">
-        <v>48.08</v>
+        <v>52.36</v>
       </c>
       <c r="F200" s="7" t="n">
-        <v>887</v>
+        <v>672</v>
       </c>
       <c r="G200" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H200" s="16" t="n">
-        <v>26.08</v>
+        <v>19.08</v>
       </c>
       <c r="J200" s="5" t="n"/>
       <c r="L200" s="14" t="inlineStr">
@@ -25344,25 +25352,25 @@
       </c>
       <c r="M200" s="7" t="inlineStr">
         <is>
-          <t>Remark Rrozhani</t>
+          <t>Tobias Johansen</t>
         </is>
       </c>
       <c r="N200" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="O200" s="15" t="n">
-        <v>52.36</v>
+        <v>48.08</v>
       </c>
       <c r="P200" s="7" t="n">
-        <v>672</v>
+        <v>887</v>
       </c>
       <c r="Q200" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R200" s="16" t="n">
-        <v>19.08</v>
+        <v>26.08</v>
       </c>
       <c r="T200" s="5" t="n"/>
     </row>
@@ -25374,27 +25382,27 @@
       </c>
       <c r="C201" s="7" t="inlineStr">
         <is>
-          <t>Stian Markussen Eilertsen</t>
+          <t>Øyvind Magnus Morstøl</t>
         </is>
       </c>
       <c r="D201" s="7" t="n">
-        <v>1986</v>
+        <v>2007</v>
       </c>
       <c r="E201" s="17" t="inlineStr">
         <is>
-          <t>2,03,48</t>
+          <t>1,59,58</t>
         </is>
       </c>
       <c r="F201" s="7" t="n">
-        <v>624</v>
+        <v>695</v>
       </c>
       <c r="G201" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H201" s="16" t="n">
-        <v>29.08</v>
+        <v>16.09</v>
       </c>
       <c r="J201" s="5" t="n"/>
       <c r="L201" s="14" t="inlineStr">
@@ -25404,211 +25412,213 @@
       </c>
       <c r="M201" s="7" t="inlineStr">
         <is>
-          <t>Øyvind Magnus Morstøl</t>
+          <t>Stian Markussen Eilertsen</t>
         </is>
       </c>
       <c r="N201" s="7" t="n">
-        <v>2007</v>
+        <v>1986</v>
       </c>
       <c r="O201" s="17" t="inlineStr">
         <is>
-          <t>1,59,58</t>
+          <t>2,03,48</t>
         </is>
       </c>
       <c r="P201" s="7" t="n">
-        <v>695</v>
+        <v>624</v>
       </c>
       <c r="Q201" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R201" s="16" t="n">
-        <v>16.09</v>
+        <v>29.08</v>
       </c>
       <c r="T201" s="5" t="n"/>
     </row>
     <row r="202" ht="13" customHeight="1">
       <c r="B202" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C202" s="7" t="inlineStr">
         <is>
-          <t>Kim-Roger Trøite</t>
+          <t>Endre Hartvedt Haugen</t>
         </is>
       </c>
       <c r="D202" s="7" t="n">
-        <v>1996</v>
+        <v>2008</v>
       </c>
       <c r="E202" s="17" t="inlineStr">
         <is>
-          <t>8,57,04</t>
+          <t>4,05,24</t>
         </is>
       </c>
       <c r="F202" s="7" t="n">
-        <v>699</v>
+        <v>712</v>
       </c>
       <c r="G202" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Os</t>
         </is>
       </c>
       <c r="H202" s="16" t="n">
-        <v>11.08</v>
+        <v>24.09</v>
       </c>
       <c r="J202" s="5" t="n"/>
       <c r="L202" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M202" s="7" t="inlineStr">
         <is>
-          <t>Endre Hartvedt Haugen</t>
+          <t>Kim-Roger Trøite</t>
         </is>
       </c>
       <c r="N202" s="7" t="n">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="O202" s="17" t="inlineStr">
         <is>
-          <t>4,05,24</t>
+          <t>8,57,04</t>
         </is>
       </c>
       <c r="P202" s="7" t="n">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="Q202" s="7" t="inlineStr">
         <is>
-          <t>Os</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R202" s="16" t="n">
-        <v>24.09</v>
+        <v>11.08</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
     <row r="203" ht="13" customHeight="1">
       <c r="B203" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C203" s="7" t="inlineStr">
         <is>
-          <t>Kim-Roger Trøite</t>
+          <t>Endre Hartvedt Haugen</t>
         </is>
       </c>
       <c r="D203" s="7" t="n">
-        <v>1996</v>
+        <v>2008</v>
       </c>
       <c r="E203" s="17" t="inlineStr">
         <is>
-          <t>15,44,30</t>
+          <t>8,56,24</t>
         </is>
       </c>
       <c r="F203" s="7" t="n">
-        <v>677</v>
+        <v>703</v>
       </c>
       <c r="G203" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H203" s="16" t="n">
-        <v>12.08</v>
+        <v>19.08</v>
       </c>
       <c r="J203" s="5" t="n"/>
       <c r="L203" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M203" s="7" t="inlineStr">
         <is>
-          <t>Endre Hartvedt Haugen</t>
+          <t>Kim-Roger Trøite</t>
         </is>
       </c>
       <c r="N203" s="7" t="n">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="O203" s="17" t="inlineStr">
         <is>
-          <t>8,56,24</t>
+          <t>15,44,30</t>
         </is>
       </c>
       <c r="P203" s="7" t="n">
-        <v>703</v>
+        <v>677</v>
       </c>
       <c r="Q203" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R203" s="16" t="n">
-        <v>19.08</v>
+        <v>12.08</v>
       </c>
       <c r="T203" s="5" t="n"/>
     </row>
     <row r="204" ht="13" customHeight="1">
       <c r="B204" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C204" s="7" t="inlineStr">
         <is>
-          <t>Stian Markussen Eilertsen</t>
+          <t>Sebastian Skoge-Nilsen</t>
         </is>
       </c>
       <c r="D204" s="7" t="n">
-        <v>1986</v>
+        <v>2006</v>
       </c>
       <c r="E204" s="17" t="inlineStr">
         <is>
-          <t>32,39,14</t>
+          <t>16,27,50</t>
         </is>
       </c>
       <c r="F204" s="7" t="n">
-        <v>700</v>
+        <v>593</v>
       </c>
       <c r="G204" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H204" s="16" t="n">
-        <v>30.09</v>
+        <v>1.1</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M204" s="7" t="inlineStr">
         <is>
-          <t>Oliver Taule Lindgren</t>
+          <t>Stian Markussen Eilertsen</t>
         </is>
       </c>
       <c r="N204" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O204" s="15" t="n">
-        <v>1.51</v>
+        <v>1986</v>
+      </c>
+      <c r="O204" s="17" t="inlineStr">
+        <is>
+          <t>32,39,14</t>
+        </is>
       </c>
       <c r="P204" s="7" t="n">
-        <v>364</v>
+        <v>700</v>
       </c>
       <c r="Q204" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R204" s="16" t="n">
-        <v>17.09</v>
+        <v>30.09</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -25620,53 +25630,53 @@
       </c>
       <c r="C205" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Gudheim Haraldstad</t>
+          <t>Oliver Taule Lindgren</t>
         </is>
       </c>
       <c r="D205" s="7" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="E205" s="15" t="n">
-        <v>1.75</v>
+        <v>1.51</v>
       </c>
       <c r="F205" s="7" t="n">
-        <v>607</v>
+        <v>364</v>
       </c>
       <c r="G205" s="7" t="inlineStr">
         <is>
-          <t>Arvika/SWE</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H205" s="16" t="n">
-        <v>23.07</v>
+        <v>17.09</v>
       </c>
       <c r="J205" s="5" t="n"/>
       <c r="L205" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M205" s="7" t="inlineStr">
         <is>
-          <t>Linus August Rygh</t>
+          <t>Fredrik Gudheim Haraldstad</t>
         </is>
       </c>
       <c r="N205" s="7" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="O205" s="15" t="n">
-        <v>6.59</v>
+        <v>1.75</v>
       </c>
       <c r="P205" s="7" t="n">
-        <v>738</v>
+        <v>607</v>
       </c>
       <c r="Q205" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Arvika/SWE</t>
         </is>
       </c>
       <c r="R205" s="16" t="n">
-        <v>1.07</v>
+        <v>23.07</v>
       </c>
       <c r="T205" s="5" t="n"/>
     </row>
@@ -25678,53 +25688,53 @@
       </c>
       <c r="C206" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Gudheim Haraldstad</t>
+          <t>Linus August Rygh</t>
         </is>
       </c>
       <c r="D206" s="7" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="E206" s="15" t="n">
-        <v>5.71</v>
+        <v>6.59</v>
       </c>
       <c r="F206" s="7" t="n">
-        <v>540</v>
+        <v>738</v>
       </c>
       <c r="G206" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H206" s="16" t="n">
-        <v>29.08</v>
+        <v>1.07</v>
       </c>
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M206" s="7" t="inlineStr">
         <is>
-          <t>Linus August Rygh</t>
+          <t>Fredrik Gudheim Haraldstad</t>
         </is>
       </c>
       <c r="N206" s="7" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="O206" s="15" t="n">
-        <v>13.48</v>
+        <v>5.71</v>
       </c>
       <c r="P206" s="7" t="n">
-        <v>721</v>
+        <v>540</v>
       </c>
       <c r="Q206" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R206" s="16" t="n">
-        <v>21.01</v>
+        <v>29.08</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
@@ -25736,130 +25746,150 @@
       </c>
       <c r="C207" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Gudheim Haraldstad</t>
+          <t>Linus August Rygh</t>
         </is>
       </c>
       <c r="D207" s="7" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="E207" s="15" t="n">
-        <v>12.24</v>
+        <v>13.48</v>
       </c>
       <c r="F207" s="7" t="n">
-        <v>586</v>
+        <v>721</v>
       </c>
       <c r="G207" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H207" s="16" t="n">
-        <v>30.09</v>
+        <v>21.01</v>
       </c>
       <c r="J207" s="5" t="n"/>
       <c r="L207" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M207" s="7" t="inlineStr">
         <is>
-          <t>Emil Gundersen</t>
+          <t>Fredrik Gudheim Haraldstad</t>
         </is>
       </c>
       <c r="N207" s="7" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="O207" s="15" t="n">
-        <v>2.97</v>
+        <v>12.24</v>
       </c>
       <c r="P207" s="7" t="n">
-        <v>655</v>
+        <v>586</v>
       </c>
       <c r="Q207" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R207" s="16" t="n">
-        <v>19.02</v>
+        <v>30.09</v>
       </c>
       <c r="T207" s="5" t="n"/>
     </row>
     <row r="208" ht="13" customHeight="1">
       <c r="B208" s="14" t="inlineStr">
         <is>
+          <t>Lengde u.t</t>
+        </is>
+      </c>
+      <c r="C208" s="7" t="inlineStr">
+        <is>
+          <t>Emil Gundersen</t>
+        </is>
+      </c>
+      <c r="D208" s="7" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E208" s="15" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="F208" s="7" t="n">
+        <v>655</v>
+      </c>
+      <c r="G208" s="7" t="inlineStr">
+        <is>
+          <t>Bærum</t>
+        </is>
+      </c>
+      <c r="H208" s="16" t="n">
+        <v>19.02</v>
+      </c>
+      <c r="J208" s="5" t="n"/>
+      <c r="L208" s="14" t="inlineStr">
+        <is>
           <t>Diskos</t>
         </is>
       </c>
-      <c r="C208" s="7" t="inlineStr">
+      <c r="M208" s="7" t="inlineStr">
         <is>
           <t>Fredrik Gudheim Haraldstad</t>
         </is>
       </c>
-      <c r="D208" s="7" t="n">
+      <c r="N208" s="7" t="n">
         <v>2000</v>
       </c>
-      <c r="E208" s="15" t="n">
+      <c r="O208" s="15" t="n">
         <v>36.29</v>
       </c>
-      <c r="F208" s="7" t="n">
+      <c r="P208" s="7" t="n">
         <v>614</v>
       </c>
-      <c r="G208" s="7" t="inlineStr">
+      <c r="Q208" s="7" t="inlineStr">
         <is>
           <t>Arvika/SWE</t>
         </is>
       </c>
-      <c r="H208" s="16" t="n">
+      <c r="R208" s="16" t="n">
         <v>22.07</v>
       </c>
-      <c r="J208" s="5" t="n"/>
-      <c r="L208" s="14" t="n"/>
-      <c r="M208" s="7" t="n"/>
-      <c r="N208" s="7" t="n"/>
-      <c r="O208" s="7" t="n"/>
-      <c r="P208" s="7" t="n"/>
-      <c r="Q208" s="7" t="n"/>
-      <c r="R208" s="21" t="n"/>
       <c r="T208" s="5" t="n"/>
     </row>
     <row r="209" ht="13" customHeight="1">
-      <c r="B209" s="14" t="inlineStr">
+      <c r="B209" s="14" t="n"/>
+      <c r="C209" s="7" t="n"/>
+      <c r="D209" s="7" t="n"/>
+      <c r="E209" s="7" t="n"/>
+      <c r="F209" s="7" t="n"/>
+      <c r="G209" s="7" t="n"/>
+      <c r="H209" s="21" t="n"/>
+      <c r="J209" s="5" t="n"/>
+      <c r="L209" s="14" t="inlineStr">
         <is>
           <t>Spyd</t>
         </is>
       </c>
-      <c r="C209" s="7" t="inlineStr">
+      <c r="M209" s="7" t="inlineStr">
         <is>
           <t>Fredrik Gudheim Haraldstad</t>
         </is>
       </c>
-      <c r="D209" s="7" t="n">
+      <c r="N209" s="7" t="n">
         <v>2000</v>
       </c>
-      <c r="E209" s="15" t="n">
+      <c r="O209" s="15" t="n">
         <v>55.21</v>
       </c>
-      <c r="F209" s="7" t="n">
+      <c r="P209" s="7" t="n">
         <v>696</v>
       </c>
-      <c r="G209" s="7" t="inlineStr">
+      <c r="Q209" s="7" t="inlineStr">
         <is>
           <t>Harstad</t>
         </is>
       </c>
-      <c r="H209" s="16" t="n">
+      <c r="R209" s="16" t="n">
         <v>29.08</v>
       </c>
-      <c r="J209" s="5" t="n"/>
-      <c r="L209" s="14" t="n"/>
-      <c r="M209" s="7" t="n"/>
-      <c r="N209" s="7" t="n"/>
-      <c r="O209" s="7" t="n"/>
-      <c r="P209" s="7" t="n"/>
-      <c r="Q209" s="7" t="n"/>
-      <c r="R209" s="21" t="n"/>
       <c r="T209" s="5" t="n"/>
     </row>
     <row r="210" ht="13" customHeight="1">
@@ -25887,7 +25917,7 @@
         </is>
       </c>
       <c r="C211" s="20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E211" s="19" t="inlineStr">
         <is>
@@ -25895,7 +25925,7 @@
         </is>
       </c>
       <c r="F211" s="20" t="n">
-        <v>8728</v>
+        <v>8446</v>
       </c>
       <c r="J211" s="5" t="n"/>
       <c r="L211" s="19" t="inlineStr">
@@ -25904,7 +25934,7 @@
         </is>
       </c>
       <c r="M211" s="20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O211" s="19" t="inlineStr">
         <is>
@@ -25912,7 +25942,7 @@
         </is>
       </c>
       <c r="P211" s="20" t="n">
-        <v>7853</v>
+        <v>8728</v>
       </c>
       <c r="T211" s="5" t="n"/>
     </row>
@@ -26020,25 +26050,25 @@
       </c>
       <c r="C216" s="7" t="inlineStr">
         <is>
-          <t>Birk Arvola</t>
+          <t>Remark Rrozhani</t>
         </is>
       </c>
       <c r="D216" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E216" s="15" t="n">
-        <v>23.3</v>
+        <v>22.39</v>
       </c>
       <c r="F216" s="7" t="n">
-        <v>717</v>
+        <v>816</v>
       </c>
       <c r="G216" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H216" s="16" t="n">
-        <v>26.08</v>
+        <v>12.02</v>
       </c>
       <c r="J216" s="5" t="n"/>
       <c r="L216" s="14" t="inlineStr">
@@ -26048,47 +26078,47 @@
       </c>
       <c r="M216" s="7" t="inlineStr">
         <is>
-          <t>Remark Rrozhani</t>
+          <t>Birk Arvola</t>
         </is>
       </c>
       <c r="N216" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="O216" s="15" t="n">
-        <v>22.39</v>
+        <v>23.3</v>
       </c>
       <c r="P216" s="7" t="n">
-        <v>816</v>
+        <v>717</v>
       </c>
       <c r="Q216" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R216" s="16" t="n">
-        <v>12.02</v>
+        <v>26.08</v>
       </c>
       <c r="T216" s="5" t="n"/>
     </row>
     <row r="217" ht="13" customHeight="1">
       <c r="B217" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C217" s="7" t="inlineStr">
         <is>
-          <t>Oskar Stattin</t>
+          <t>Remark Rrozhani</t>
         </is>
       </c>
       <c r="D217" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="E217" s="15" t="n">
-        <v>51.88</v>
+        <v>11.18</v>
       </c>
       <c r="F217" s="7" t="n">
-        <v>693</v>
+        <v>796</v>
       </c>
       <c r="G217" s="7" t="inlineStr">
         <is>
@@ -26096,27 +26126,27 @@
         </is>
       </c>
       <c r="H217" s="16" t="n">
-        <v>8.09</v>
+        <v>4.06</v>
       </c>
       <c r="J217" s="5" t="n"/>
       <c r="L217" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M217" s="7" t="inlineStr">
         <is>
-          <t>Remark Rrozhani</t>
+          <t>Oskar Stattin</t>
         </is>
       </c>
       <c r="N217" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="O217" s="15" t="n">
-        <v>11.18</v>
+        <v>51.88</v>
       </c>
       <c r="P217" s="7" t="n">
-        <v>796</v>
+        <v>693</v>
       </c>
       <c r="Q217" s="7" t="inlineStr">
         <is>
@@ -26124,323 +26154,321 @@
         </is>
       </c>
       <c r="R217" s="16" t="n">
-        <v>4.06</v>
+        <v>8.09</v>
       </c>
       <c r="T217" s="5" t="n"/>
     </row>
     <row r="218" ht="13" customHeight="1">
       <c r="B218" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C218" s="7" t="inlineStr">
         <is>
-          <t>Oskar Stattin</t>
+          <t>Remark Rrozhani</t>
         </is>
       </c>
       <c r="D218" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="E218" s="15" t="n">
-        <v>23.63</v>
+        <v>7.19</v>
       </c>
       <c r="F218" s="7" t="n">
-        <v>684</v>
+        <v>781</v>
       </c>
       <c r="G218" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H218" s="16" t="n">
-        <v>9.09</v>
+        <v>11.02</v>
       </c>
       <c r="J218" s="5" t="n"/>
       <c r="L218" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M218" s="7" t="inlineStr">
         <is>
-          <t>Remark Rrozhani</t>
+          <t>Oskar Stattin</t>
         </is>
       </c>
       <c r="N218" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="O218" s="15" t="n">
-        <v>7.19</v>
+        <v>23.63</v>
       </c>
       <c r="P218" s="7" t="n">
-        <v>781</v>
+        <v>684</v>
       </c>
       <c r="Q218" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R218" s="16" t="n">
-        <v>11.02</v>
+        <v>9.09</v>
       </c>
       <c r="T218" s="5" t="n"/>
     </row>
     <row r="219" ht="13" customHeight="1">
       <c r="B219" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C219" s="7" t="inlineStr">
         <is>
-          <t>Mathias Johansen</t>
+          <t>Linus August Rygh</t>
         </is>
       </c>
       <c r="D219" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="E219" s="15" t="n">
-        <v>52.77</v>
+        <v>11.29</v>
       </c>
       <c r="F219" s="7" t="n">
-        <v>654</v>
+        <v>770</v>
       </c>
       <c r="G219" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H219" s="16" t="n">
-        <v>24.06</v>
+        <v>19.08</v>
       </c>
       <c r="J219" s="5" t="n"/>
       <c r="L219" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M219" s="7" t="inlineStr">
         <is>
-          <t>Linus August Rygh</t>
+          <t>Mathias Johansen</t>
         </is>
       </c>
       <c r="N219" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="O219" s="15" t="n">
-        <v>11.29</v>
+        <v>52.77</v>
       </c>
       <c r="P219" s="7" t="n">
-        <v>770</v>
+        <v>654</v>
       </c>
       <c r="Q219" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R219" s="16" t="n">
-        <v>19.08</v>
+        <v>24.06</v>
       </c>
       <c r="T219" s="5" t="n"/>
     </row>
     <row r="220" ht="13" customHeight="1">
       <c r="B220" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C220" s="7" t="inlineStr">
         <is>
-          <t>Per-Christian Myrnes Pedersen</t>
+          <t>Linus August Rygh</t>
         </is>
       </c>
       <c r="D220" s="7" t="n">
-        <v>1986</v>
-      </c>
-      <c r="E220" s="17" t="inlineStr">
-        <is>
-          <t>9,10,36</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E220" s="15" t="n">
+        <v>22.9</v>
       </c>
       <c r="F220" s="7" t="n">
-        <v>649</v>
+        <v>759</v>
       </c>
       <c r="G220" s="7" t="inlineStr">
         <is>
-          <t>Narvik</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H220" s="16" t="n">
-        <v>10.06</v>
+        <v>10.09</v>
       </c>
       <c r="J220" s="5" t="n"/>
       <c r="L220" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M220" s="7" t="inlineStr">
         <is>
-          <t>Linus August Rygh</t>
+          <t>Per-Christian Myrnes Pedersen</t>
         </is>
       </c>
       <c r="N220" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O220" s="15" t="n">
-        <v>22.9</v>
+        <v>1986</v>
+      </c>
+      <c r="O220" s="17" t="inlineStr">
+        <is>
+          <t>9,10,36</t>
+        </is>
       </c>
       <c r="P220" s="7" t="n">
-        <v>759</v>
+        <v>649</v>
       </c>
       <c r="Q220" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Narvik</t>
         </is>
       </c>
       <c r="R220" s="16" t="n">
-        <v>10.09</v>
+        <v>10.06</v>
       </c>
       <c r="T220" s="5" t="n"/>
     </row>
     <row r="221" ht="13" customHeight="1">
       <c r="B221" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C221" s="7" t="inlineStr">
         <is>
-          <t>Birk Arvola</t>
+          <t>Lars Magnus Birketveit</t>
         </is>
       </c>
       <c r="D221" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E221" s="15" t="n">
-        <v>53.03</v>
+        <v>23.13</v>
       </c>
       <c r="F221" s="7" t="n">
-        <v>643</v>
+        <v>735</v>
       </c>
       <c r="G221" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H221" s="16" t="n">
-        <v>29.08</v>
+        <v>26.08</v>
       </c>
       <c r="J221" s="5" t="n"/>
       <c r="L221" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M221" s="7" t="inlineStr">
         <is>
-          <t>Lars Magnus Birketveit</t>
+          <t>Birk Arvola</t>
         </is>
       </c>
       <c r="N221" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="O221" s="15" t="n">
-        <v>23.13</v>
+        <v>53.03</v>
       </c>
       <c r="P221" s="7" t="n">
-        <v>735</v>
+        <v>643</v>
       </c>
       <c r="Q221" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R221" s="16" t="n">
-        <v>26.08</v>
+        <v>29.08</v>
       </c>
       <c r="T221" s="5" t="n"/>
     </row>
     <row r="222" ht="13" customHeight="1">
       <c r="B222" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C222" s="7" t="inlineStr">
         <is>
-          <t>Mathias Johansen</t>
+          <t>Lars Magnus Birketveit</t>
         </is>
       </c>
       <c r="D222" s="7" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="E222" s="15" t="n">
-        <v>24.37</v>
+        <v>11.51</v>
       </c>
       <c r="F222" s="7" t="n">
-        <v>612</v>
+        <v>718</v>
       </c>
       <c r="G222" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H222" s="16" t="n">
-        <v>4.03</v>
+        <v>19.08</v>
       </c>
       <c r="J222" s="5" t="n"/>
       <c r="L222" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M222" s="7" t="inlineStr">
         <is>
-          <t>Lars Magnus Birketveit</t>
+          <t>Mathias Johansen</t>
         </is>
       </c>
       <c r="N222" s="7" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="O222" s="15" t="n">
-        <v>11.51</v>
+        <v>24.37</v>
       </c>
       <c r="P222" s="7" t="n">
-        <v>718</v>
+        <v>612</v>
       </c>
       <c r="Q222" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R222" s="16" t="n">
-        <v>19.08</v>
+        <v>4.03</v>
       </c>
       <c r="T222" s="5" t="n"/>
     </row>
     <row r="223" ht="13" customHeight="1">
       <c r="B223" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C223" s="7" t="inlineStr">
         <is>
-          <t>Tobias Johansen</t>
+          <t>Linus August Rygh</t>
         </is>
       </c>
       <c r="D223" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E223" s="17" t="inlineStr">
-        <is>
-          <t>2,04,49</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E223" s="15" t="n">
+        <v>7.38</v>
       </c>
       <c r="F223" s="7" t="n">
-        <v>606</v>
+        <v>705</v>
       </c>
       <c r="G223" s="7" t="inlineStr">
         <is>
@